--- a/docs/APIDocs/API명세서.xlsx
+++ b/docs/APIDocs/API명세서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\GameProject\docs\APIDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30179260-02EF-43F8-86B4-A8969F3AA859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9409FB28-F95E-42C4-AE19-19978542E141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-4800" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4E8C34D6-CE1A-427D-9403-2013A6AFC92D}"/>
   </bookViews>
@@ -2630,7 +2630,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2694,27 +2694,21 @@
     <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2723,6 +2717,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -3537,39 +3546,39 @@
         <v>107</v>
       </c>
     </row>
-    <row r="78" spans="3:5" s="23" customFormat="1">
-      <c r="D78" s="23" t="s">
+    <row r="78" spans="3:5" s="21" customFormat="1">
+      <c r="D78" s="21" t="s">
         <v>363</v>
       </c>
-      <c r="E78" s="23" t="s">
+      <c r="E78" s="21" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="79" spans="3:5" s="23" customFormat="1">
-      <c r="D79" s="23" t="s">
+    <row r="79" spans="3:5" s="21" customFormat="1">
+      <c r="D79" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="E79" s="23" t="s">
+      <c r="E79" s="21" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="80" spans="3:5" s="23" customFormat="1">
-      <c r="D80" s="23" t="s">
+    <row r="80" spans="3:5" s="21" customFormat="1">
+      <c r="D80" s="21" t="s">
         <v>367</v>
       </c>
-      <c r="E80" s="23" t="s">
+      <c r="E80" s="21" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="81" spans="3:5" s="23" customFormat="1">
-      <c r="D81" s="23" t="s">
+    <row r="81" spans="3:5" s="21" customFormat="1">
+      <c r="D81" s="21" t="s">
         <v>369</v>
       </c>
-      <c r="E81" s="23" t="s">
+      <c r="E81" s="21" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="82" spans="3:5" s="23" customFormat="1"/>
+    <row r="82" spans="3:5" s="21" customFormat="1"/>
     <row r="83" spans="3:5">
       <c r="C83">
         <v>11</v>
@@ -3982,7 +3991,7 @@
   <dimension ref="B2:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3995,7 +4004,7 @@
     <col min="7" max="7" width="30.125" style="15" customWidth="1"/>
     <col min="8" max="8" width="30.125" customWidth="1"/>
     <col min="9" max="9" width="23.625" customWidth="1"/>
-    <col min="10" max="10" width="57.625" style="23" customWidth="1"/>
+    <col min="10" max="10" width="57.625" style="21" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="27.75" customHeight="1">
@@ -4031,7 +4040,7 @@
       <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="26" t="s">
         <v>173</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -4052,15 +4061,15 @@
       <c r="I3" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="22" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="132">
+    <row r="4" spans="2:10" ht="115.5">
       <c r="B4" s="16">
         <v>2</v>
       </c>
-      <c r="C4" s="29"/>
+      <c r="C4" s="27"/>
       <c r="D4" s="16" t="s">
         <v>4</v>
       </c>
@@ -4079,7 +4088,7 @@
       <c r="I4" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J4" s="24" t="s">
+      <c r="J4" s="22" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4087,7 +4096,7 @@
       <c r="B5" s="16">
         <v>3</v>
       </c>
-      <c r="C5" s="29"/>
+      <c r="C5" s="27"/>
       <c r="D5" s="16" t="s">
         <v>4</v>
       </c>
@@ -4106,7 +4115,7 @@
       <c r="I5" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J5" s="24" t="s">
+      <c r="J5" s="22" t="s">
         <v>244</v>
       </c>
     </row>
@@ -4114,7 +4123,7 @@
       <c r="B6" s="16">
         <v>4</v>
       </c>
-      <c r="C6" s="29"/>
+      <c r="C6" s="27"/>
       <c r="D6" s="16" t="s">
         <v>4</v>
       </c>
@@ -4133,7 +4142,7 @@
       <c r="I6" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J6" s="24" t="s">
+      <c r="J6" s="22" t="s">
         <v>248</v>
       </c>
     </row>
@@ -4141,7 +4150,7 @@
       <c r="B7" s="16">
         <v>5</v>
       </c>
-      <c r="C7" s="30"/>
+      <c r="C7" s="28"/>
       <c r="D7" s="10" t="s">
         <v>4</v>
       </c>
@@ -4160,7 +4169,7 @@
       <c r="I7" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J7" s="24" t="s">
+      <c r="J7" s="22" t="s">
         <v>249</v>
       </c>
     </row>
@@ -4168,7 +4177,7 @@
       <c r="B8" s="16">
         <v>6</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="26" t="s">
         <v>175</v>
       </c>
       <c r="D8" s="16" t="s">
@@ -4189,7 +4198,7 @@
       <c r="I8" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J8" s="24" t="s">
+      <c r="J8" s="22" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4197,7 +4206,7 @@
       <c r="B9" s="16">
         <v>7</v>
       </c>
-      <c r="C9" s="29"/>
+      <c r="C9" s="27"/>
       <c r="D9" s="10" t="s">
         <v>4</v>
       </c>
@@ -4216,7 +4225,7 @@
       <c r="I9" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J9" s="24" t="s">
+      <c r="J9" s="22" t="s">
         <v>217</v>
       </c>
     </row>
@@ -4224,7 +4233,7 @@
       <c r="B10" s="16">
         <v>8</v>
       </c>
-      <c r="C10" s="29"/>
+      <c r="C10" s="27"/>
       <c r="D10" s="10" t="s">
         <v>4</v>
       </c>
@@ -4243,7 +4252,7 @@
       <c r="I10" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J10" s="24" t="s">
+      <c r="J10" s="22" t="s">
         <v>219</v>
       </c>
     </row>
@@ -4251,7 +4260,7 @@
       <c r="B11" s="16">
         <v>9</v>
       </c>
-      <c r="C11" s="29"/>
+      <c r="C11" s="27"/>
       <c r="D11" s="16" t="s">
         <v>4</v>
       </c>
@@ -4270,7 +4279,7 @@
       <c r="I11" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J11" s="24" t="s">
+      <c r="J11" s="22" t="s">
         <v>238</v>
       </c>
     </row>
@@ -4278,7 +4287,7 @@
       <c r="B12" s="16">
         <v>10</v>
       </c>
-      <c r="C12" s="29"/>
+      <c r="C12" s="27"/>
       <c r="D12" s="16" t="s">
         <v>4</v>
       </c>
@@ -4297,7 +4306,7 @@
       <c r="I12" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J12" s="24" t="s">
+      <c r="J12" s="22" t="s">
         <v>237</v>
       </c>
     </row>
@@ -4305,7 +4314,7 @@
       <c r="B13" s="16">
         <v>11</v>
       </c>
-      <c r="C13" s="29"/>
+      <c r="C13" s="27"/>
       <c r="D13" s="10" t="s">
         <v>4</v>
       </c>
@@ -4324,7 +4333,7 @@
       <c r="I13" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J13" s="24" t="s">
+      <c r="J13" s="22" t="s">
         <v>9</v>
       </c>
     </row>
@@ -4332,7 +4341,7 @@
       <c r="B14" s="16">
         <v>12</v>
       </c>
-      <c r="C14" s="29"/>
+      <c r="C14" s="27"/>
       <c r="D14" s="10" t="s">
         <v>4</v>
       </c>
@@ -4351,7 +4360,7 @@
       <c r="I14" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J14" s="24" t="s">
+      <c r="J14" s="22" t="s">
         <v>178</v>
       </c>
     </row>
@@ -4359,7 +4368,7 @@
       <c r="B15" s="16">
         <v>13</v>
       </c>
-      <c r="C15" s="29"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="10" t="s">
         <v>4</v>
       </c>
@@ -4378,7 +4387,7 @@
       <c r="I15" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J15" s="24" t="s">
+      <c r="J15" s="22" t="s">
         <v>12</v>
       </c>
     </row>
@@ -4386,7 +4395,7 @@
       <c r="B16" s="16">
         <v>14</v>
       </c>
-      <c r="C16" s="29"/>
+      <c r="C16" s="27"/>
       <c r="D16" s="10" t="s">
         <v>4</v>
       </c>
@@ -4405,7 +4414,7 @@
       <c r="I16" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J16" s="24" t="s">
+      <c r="J16" s="22" t="s">
         <v>220</v>
       </c>
     </row>
@@ -4413,7 +4422,7 @@
       <c r="B17" s="16">
         <v>15</v>
       </c>
-      <c r="C17" s="29"/>
+      <c r="C17" s="27"/>
       <c r="D17" s="10" t="s">
         <v>4</v>
       </c>
@@ -4432,7 +4441,7 @@
       <c r="I17" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J17" s="24" t="s">
+      <c r="J17" s="22" t="s">
         <v>215</v>
       </c>
     </row>
@@ -4440,7 +4449,7 @@
       <c r="B18" s="16">
         <v>16</v>
       </c>
-      <c r="C18" s="29"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="10" t="s">
         <v>4</v>
       </c>
@@ -4459,7 +4468,7 @@
       <c r="I18" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J18" s="24" t="s">
+      <c r="J18" s="22" t="s">
         <v>216</v>
       </c>
     </row>
@@ -4467,7 +4476,7 @@
       <c r="B19" s="16">
         <v>17</v>
       </c>
-      <c r="C19" s="29"/>
+      <c r="C19" s="27"/>
       <c r="D19" s="10" t="s">
         <v>4</v>
       </c>
@@ -4486,7 +4495,7 @@
       <c r="I19" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J19" s="24" t="s">
+      <c r="J19" s="22" t="s">
         <v>18</v>
       </c>
     </row>
@@ -4494,7 +4503,7 @@
       <c r="B20" s="16">
         <v>18</v>
       </c>
-      <c r="C20" s="29"/>
+      <c r="C20" s="27"/>
       <c r="D20" s="10" t="s">
         <v>4</v>
       </c>
@@ -4513,7 +4522,7 @@
       <c r="I20" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J20" s="24" t="s">
+      <c r="J20" s="22" t="s">
         <v>17</v>
       </c>
     </row>
@@ -4521,7 +4530,7 @@
       <c r="B21" s="16">
         <v>19</v>
       </c>
-      <c r="C21" s="29"/>
+      <c r="C21" s="27"/>
       <c r="D21" s="10" t="s">
         <v>4</v>
       </c>
@@ -4540,7 +4549,7 @@
       <c r="I21" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J21" s="24" t="s">
+      <c r="J21" s="22" t="s">
         <v>221</v>
       </c>
     </row>
@@ -4548,7 +4557,7 @@
       <c r="B22" s="16">
         <v>20</v>
       </c>
-      <c r="C22" s="29"/>
+      <c r="C22" s="27"/>
       <c r="D22" s="10" t="s">
         <v>4</v>
       </c>
@@ -4567,7 +4576,7 @@
       <c r="I22" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J22" s="24" t="s">
+      <c r="J22" s="22" t="s">
         <v>222</v>
       </c>
     </row>
@@ -4575,7 +4584,7 @@
       <c r="B23" s="16">
         <v>21</v>
       </c>
-      <c r="C23" s="29"/>
+      <c r="C23" s="27"/>
       <c r="D23" s="10" t="s">
         <v>4</v>
       </c>
@@ -4594,7 +4603,7 @@
       <c r="I23" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J23" s="24" t="s">
+      <c r="J23" s="22" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4602,7 +4611,7 @@
       <c r="B24" s="16">
         <v>22</v>
       </c>
-      <c r="C24" s="29"/>
+      <c r="C24" s="27"/>
       <c r="D24" s="10" t="s">
         <v>4</v>
       </c>
@@ -4621,7 +4630,7 @@
       <c r="I24" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J24" s="24" t="s">
+      <c r="J24" s="22" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4629,7 +4638,7 @@
       <c r="B25" s="16">
         <v>23</v>
       </c>
-      <c r="C25" s="29"/>
+      <c r="C25" s="27"/>
       <c r="D25" s="10" t="s">
         <v>4</v>
       </c>
@@ -4648,7 +4657,7 @@
       <c r="I25" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J25" s="24" t="s">
+      <c r="J25" s="22" t="s">
         <v>16</v>
       </c>
     </row>
@@ -4656,7 +4665,7 @@
       <c r="B26" s="16">
         <v>24</v>
       </c>
-      <c r="C26" s="29"/>
+      <c r="C26" s="27"/>
       <c r="D26" s="10" t="s">
         <v>4</v>
       </c>
@@ -4675,7 +4684,7 @@
       <c r="I26" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J26" s="24" t="s">
+      <c r="J26" s="22" t="s">
         <v>223</v>
       </c>
     </row>
@@ -4683,7 +4692,7 @@
       <c r="B27" s="16">
         <v>25</v>
       </c>
-      <c r="C27" s="29"/>
+      <c r="C27" s="27"/>
       <c r="D27" s="10" t="s">
         <v>4</v>
       </c>
@@ -4702,7 +4711,7 @@
       <c r="I27" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J27" s="24" t="s">
+      <c r="J27" s="22" t="s">
         <v>224</v>
       </c>
     </row>
@@ -4710,7 +4719,7 @@
       <c r="B28" s="16">
         <v>26</v>
       </c>
-      <c r="C28" s="30"/>
+      <c r="C28" s="28"/>
       <c r="D28" s="10" t="s">
         <v>4</v>
       </c>
@@ -4729,7 +4738,7 @@
       <c r="I28" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J28" s="24" t="s">
+      <c r="J28" s="22" t="s">
         <v>21</v>
       </c>
     </row>
@@ -4737,7 +4746,7 @@
       <c r="B29" s="16">
         <v>27</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="26" t="s">
         <v>179</v>
       </c>
       <c r="D29" s="10" t="s">
@@ -4756,7 +4765,7 @@
       <c r="I29" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J29" s="24" t="s">
+      <c r="J29" s="22" t="s">
         <v>225</v>
       </c>
     </row>
@@ -4764,7 +4773,7 @@
       <c r="B30" s="16">
         <v>28</v>
       </c>
-      <c r="C30" s="29"/>
+      <c r="C30" s="27"/>
       <c r="D30" s="10" t="s">
         <v>4</v>
       </c>
@@ -4783,7 +4792,7 @@
       <c r="I30" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J30" s="24" t="s">
+      <c r="J30" s="22" t="s">
         <v>226</v>
       </c>
     </row>
@@ -4791,7 +4800,7 @@
       <c r="B31" s="16">
         <v>29</v>
       </c>
-      <c r="C31" s="29"/>
+      <c r="C31" s="27"/>
       <c r="D31" s="10" t="s">
         <v>4</v>
       </c>
@@ -4818,7 +4827,7 @@
       <c r="B32" s="16">
         <v>30</v>
       </c>
-      <c r="C32" s="30"/>
+      <c r="C32" s="28"/>
       <c r="D32" s="10" t="s">
         <v>4</v>
       </c>
@@ -4845,7 +4854,7 @@
       <c r="B33" s="16">
         <v>31</v>
       </c>
-      <c r="C33" s="27" t="s">
+      <c r="C33" s="25" t="s">
         <v>187</v>
       </c>
       <c r="D33" s="10" t="s">
@@ -4874,7 +4883,7 @@
       <c r="B34" s="16">
         <v>32</v>
       </c>
-      <c r="C34" s="27"/>
+      <c r="C34" s="25"/>
       <c r="D34" s="10" t="s">
         <v>4</v>
       </c>
@@ -4901,7 +4910,7 @@
       <c r="B35" s="16">
         <v>33</v>
       </c>
-      <c r="C35" s="27"/>
+      <c r="C35" s="25"/>
       <c r="D35" s="10" t="s">
         <v>4</v>
       </c>
@@ -4928,7 +4937,7 @@
       <c r="B36" s="16">
         <v>34</v>
       </c>
-      <c r="C36" s="27" t="s">
+      <c r="C36" s="25" t="s">
         <v>191</v>
       </c>
       <c r="D36" s="10" t="s">
@@ -4957,7 +4966,7 @@
       <c r="B37" s="16">
         <v>35</v>
       </c>
-      <c r="C37" s="27"/>
+      <c r="C37" s="25"/>
       <c r="D37" s="10" t="s">
         <v>4</v>
       </c>
@@ -4984,7 +4993,7 @@
       <c r="B38" s="16">
         <v>36</v>
       </c>
-      <c r="C38" s="27"/>
+      <c r="C38" s="25"/>
       <c r="D38" s="16" t="s">
         <v>4</v>
       </c>
@@ -5011,7 +5020,7 @@
       <c r="B39" s="16">
         <v>37</v>
       </c>
-      <c r="C39" s="27"/>
+      <c r="C39" s="25"/>
       <c r="D39" s="10" t="s">
         <v>4</v>
       </c>
@@ -5038,7 +5047,7 @@
       <c r="B40" s="16">
         <v>38</v>
       </c>
-      <c r="C40" s="27" t="s">
+      <c r="C40" s="25" t="s">
         <v>197</v>
       </c>
       <c r="D40" s="10" t="s">
@@ -5067,7 +5076,7 @@
       <c r="B41" s="16">
         <v>39</v>
       </c>
-      <c r="C41" s="27"/>
+      <c r="C41" s="25"/>
       <c r="D41" s="10" t="s">
         <v>4</v>
       </c>
@@ -5094,7 +5103,7 @@
       <c r="B42" s="16">
         <v>40</v>
       </c>
-      <c r="C42" s="27"/>
+      <c r="C42" s="25"/>
       <c r="D42" s="10" t="s">
         <v>4</v>
       </c>
@@ -5121,7 +5130,7 @@
       <c r="B43" s="16">
         <v>41</v>
       </c>
-      <c r="C43" s="27"/>
+      <c r="C43" s="25"/>
       <c r="D43" s="10" t="s">
         <v>4</v>
       </c>
@@ -5148,7 +5157,7 @@
       <c r="B44" s="16">
         <v>42</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="26" t="s">
         <v>203</v>
       </c>
       <c r="D44" s="16" t="s">
@@ -5169,7 +5178,7 @@
       <c r="I44" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J44" s="24" t="s">
+      <c r="J44" s="22" t="s">
         <v>241</v>
       </c>
     </row>
@@ -5177,7 +5186,7 @@
       <c r="B45" s="16">
         <v>43</v>
       </c>
-      <c r="C45" s="30"/>
+      <c r="C45" s="28"/>
       <c r="D45" s="10" t="s">
         <v>4</v>
       </c>
@@ -5204,7 +5213,7 @@
       <c r="B46" s="16">
         <v>44</v>
       </c>
-      <c r="C46" s="27" t="s">
+      <c r="C46" s="25" t="s">
         <v>206</v>
       </c>
       <c r="D46" s="10" t="s">
@@ -5225,7 +5234,7 @@
       <c r="I46" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J46" s="24" t="s">
+      <c r="J46" s="22" t="s">
         <v>258</v>
       </c>
     </row>
@@ -5233,7 +5242,7 @@
       <c r="B47" s="16">
         <v>45</v>
       </c>
-      <c r="C47" s="27"/>
+      <c r="C47" s="25"/>
       <c r="D47" s="16" t="s">
         <v>4</v>
       </c>
@@ -5252,7 +5261,7 @@
       <c r="I47" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J47" s="24" t="s">
+      <c r="J47" s="22" t="s">
         <v>260</v>
       </c>
     </row>
@@ -5260,7 +5269,7 @@
       <c r="B48" s="16">
         <v>46</v>
       </c>
-      <c r="C48" s="27"/>
+      <c r="C48" s="25"/>
       <c r="D48" s="10" t="s">
         <v>4</v>
       </c>
@@ -5279,7 +5288,7 @@
       <c r="I48" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J48" s="24" t="s">
+      <c r="J48" s="22" t="s">
         <v>20</v>
       </c>
     </row>
@@ -5287,7 +5296,7 @@
       <c r="B49" s="16">
         <v>47</v>
       </c>
-      <c r="C49" s="27" t="s">
+      <c r="C49" s="25" t="s">
         <v>209</v>
       </c>
       <c r="D49" s="10" t="s">
@@ -5314,7 +5323,7 @@
       <c r="B50" s="16">
         <v>48</v>
       </c>
-      <c r="C50" s="27"/>
+      <c r="C50" s="25"/>
       <c r="D50" s="10" t="s">
         <v>4</v>
       </c>
@@ -5341,7 +5350,7 @@
       <c r="B51" s="16">
         <v>49</v>
       </c>
-      <c r="C51" s="27"/>
+      <c r="C51" s="25"/>
       <c r="D51" s="16" t="s">
         <v>4</v>
       </c>
@@ -5368,7 +5377,7 @@
       <c r="B52" s="16">
         <v>50</v>
       </c>
-      <c r="C52" s="27"/>
+      <c r="C52" s="25"/>
       <c r="D52" s="10" t="s">
         <v>4</v>
       </c>
@@ -5395,7 +5404,7 @@
       <c r="C53" s="12"/>
       <c r="D53" s="13"/>
       <c r="E53" s="11"/>
-      <c r="J53" s="26"/>
+      <c r="J53" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5420,46 +5429,46 @@
   <dimension ref="B2:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="14" style="23" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="42.25" customWidth="1"/>
-    <col min="6" max="6" width="4.5" customWidth="1"/>
-    <col min="7" max="7" width="3.375" customWidth="1"/>
-    <col min="8" max="8" width="10.125" customWidth="1"/>
-    <col min="9" max="9" width="18" style="23" customWidth="1"/>
-    <col min="10" max="10" width="26.625" style="25" customWidth="1"/>
-    <col min="11" max="11" width="51.5" style="25" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14" style="6" customWidth="1"/>
+    <col min="4" max="4" width="25" style="6" customWidth="1"/>
+    <col min="5" max="5" width="42.25" style="6" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="6" customWidth="1"/>
+    <col min="7" max="7" width="3.375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="6" customWidth="1"/>
+    <col min="9" max="9" width="18" style="6" customWidth="1"/>
+    <col min="10" max="10" width="26.625" style="33" customWidth="1"/>
+    <col min="11" max="11" width="51.5" style="33" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="29" t="s">
         <v>275</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="29" t="s">
         <v>280</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="29" t="s">
         <v>281</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="29" t="s">
         <v>310</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="32" t="s">
         <v>280</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="32" t="s">
         <v>2</v>
       </c>
     </row>
@@ -5482,10 +5491,10 @@
       <c r="I3" s="24" t="s">
         <v>290</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="30" t="s">
         <v>316</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="30" t="s">
         <v>291</v>
       </c>
     </row>
@@ -5508,10 +5517,10 @@
       <c r="I4" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="30" t="s">
         <v>314</v>
       </c>
-      <c r="K4" s="14" t="s">
+      <c r="K4" s="30" t="s">
         <v>293</v>
       </c>
     </row>
@@ -5523,7 +5532,7 @@
         <v>286</v>
       </c>
       <c r="D5" s="24"/>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="30" t="s">
         <v>287</v>
       </c>
       <c r="H5" s="24">
@@ -5532,24 +5541,24 @@
       <c r="I5" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="30" t="s">
         <v>315</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="30" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="49.5">
-      <c r="B6" s="9">
+      <c r="B6" s="31">
         <v>204</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="31" t="s">
         <v>288</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="31" t="s">
         <v>313</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="31" t="s">
         <v>289</v>
       </c>
       <c r="H6" s="24">
@@ -5558,10 +5567,10 @@
       <c r="I6" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="30" t="s">
         <v>317</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="30" t="s">
         <v>297</v>
       </c>
     </row>
@@ -5572,7 +5581,7 @@
       <c r="C7" s="24" t="s">
         <v>343</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="30" t="s">
         <v>344</v>
       </c>
       <c r="E7" s="24"/>
@@ -5582,10 +5591,10 @@
       <c r="I7" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="30" t="s">
         <v>318</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="30" t="s">
         <v>299</v>
       </c>
     </row>
@@ -5596,10 +5605,10 @@
       <c r="I8" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="30" t="s">
         <v>319</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="30" t="s">
         <v>301</v>
       </c>
     </row>
@@ -5610,10 +5619,10 @@
       <c r="I9" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="30" t="s">
         <v>320</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="30" t="s">
         <v>303</v>
       </c>
     </row>
@@ -5624,10 +5633,10 @@
       <c r="I10" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="30" t="s">
         <v>321</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="K10" s="30" t="s">
         <v>305</v>
       </c>
     </row>
@@ -5638,10 +5647,10 @@
       <c r="I11" s="24" t="s">
         <v>306</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="30" t="s">
         <v>322</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="K11" s="30" t="s">
         <v>307</v>
       </c>
     </row>
@@ -5652,10 +5661,10 @@
       <c r="I12" s="24" t="s">
         <v>308</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="30" t="s">
         <v>309</v>
       </c>
     </row>
@@ -5666,10 +5675,10 @@
       <c r="I13" s="24" t="s">
         <v>324</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="30" t="s">
         <v>325</v>
       </c>
-      <c r="K13" s="14" t="s">
+      <c r="K13" s="30" t="s">
         <v>332</v>
       </c>
     </row>
@@ -5680,10 +5689,10 @@
       <c r="I14" s="24" t="s">
         <v>326</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="K14" s="14" t="s">
+      <c r="K14" s="30" t="s">
         <v>332</v>
       </c>
     </row>
@@ -5694,10 +5703,10 @@
       <c r="I15" s="24" t="s">
         <v>328</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="30" t="s">
         <v>331</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="K15" s="30" t="s">
         <v>333</v>
       </c>
     </row>
@@ -5708,10 +5717,10 @@
       <c r="I16" s="24" t="s">
         <v>329</v>
       </c>
-      <c r="J16" s="14" t="s">
+      <c r="J16" s="30" t="s">
         <v>330</v>
       </c>
-      <c r="K16" s="14" t="s">
+      <c r="K16" s="30" t="s">
         <v>334</v>
       </c>
     </row>
@@ -5722,10 +5731,10 @@
       <c r="I17" s="24" t="s">
         <v>335</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="30" t="s">
         <v>336</v>
       </c>
-      <c r="K17" s="14" t="s">
+      <c r="K17" s="30" t="s">
         <v>337</v>
       </c>
     </row>
@@ -5736,10 +5745,10 @@
       <c r="I18" s="24" t="s">
         <v>338</v>
       </c>
-      <c r="J18" s="14" t="s">
+      <c r="J18" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="K18" s="14" t="s">
+      <c r="K18" s="30" t="s">
         <v>337</v>
       </c>
     </row>
@@ -5750,10 +5759,10 @@
       <c r="I19" s="24" t="s">
         <v>340</v>
       </c>
-      <c r="J19" s="14" t="s">
+      <c r="J19" s="30" t="s">
         <v>341</v>
       </c>
-      <c r="K19" s="14" t="s">
+      <c r="K19" s="30" t="s">
         <v>342</v>
       </c>
     </row>

--- a/docs/APIDocs/API명세서.xlsx
+++ b/docs/APIDocs/API명세서.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\GameProject\docs\APIDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9409FB28-F95E-42C4-AE19-19978542E141}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{459D40D4-0250-46E2-96E3-ECA5A3919115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4800" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4E8C34D6-CE1A-427D-9403-2013A6AFC92D}"/>
+    <workbookView xWindow="-76910" yWindow="-10870" windowWidth="38620" windowHeight="21220" activeTab="2" xr2:uid="{4E8C34D6-CE1A-427D-9403-2013A6AFC92D}"/>
   </bookViews>
   <sheets>
     <sheet name="시나리오" sheetId="4" r:id="rId1"/>
     <sheet name="API생성규칙" sheetId="2" r:id="rId2"/>
-    <sheet name="API정의" sheetId="1" r:id="rId3"/>
-    <sheet name="상태와 오류코드" sheetId="5" r:id="rId4"/>
+    <sheet name="API 목록 정의" sheetId="1" r:id="rId3"/>
+    <sheet name="API 명세서" sheetId="6" r:id="rId4"/>
+    <sheet name="상태와 오류코드" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="491">
   <si>
     <t>URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1197,13 +1198,6 @@
   </si>
   <si>
     <t>{
-      "account_code": (int),
-      "account_id": (int)
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
       "account_code": (int)
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1913,12 +1907,385 @@
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>완료되었습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Headers</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>Content -Type</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>Request Body</t>
+  </si>
+  <si>
+    <t>Required</t>
+  </si>
+  <si>
+    <t>Explain</t>
+  </si>
+  <si>
+    <t>Response</t>
+  </si>
+  <si>
+    <t>MsgCode</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>언어 정보</t>
+  </si>
+  <si>
+    <t>로그인 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /auth/signup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>application/json;charset=utf-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account_pw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account_type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>country_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>language_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디(이메일)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원가입 타입 (이메일 : 0, gmail: 1, hive: 2, guest: 3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국가 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언어 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요청에 대한 응답코드(성공)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응답코드 메시지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>result</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>object</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /auth/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /auth/info/change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 정보 수정 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 시퀀스 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /auth/find-id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 이메일(id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /auth/find-pw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+      "account_id": (int)
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /user/generate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 캐릭터 생성 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 pw 찾기 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 id 찾기 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>authentication</t>
+  </si>
+  <si>
+    <t>jwt Token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bearer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /user/infos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /user/info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 캐릭터 목록 조회 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 캐릭터 상세 조회 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+      "account_code": (int),
+       "user_code": (int)
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저(캐릭터) 시퀀스 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /user/info/change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_nicknm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_experience</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money_gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>money_pearl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fatigue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저(캐릭터) 닉네임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경험치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>골드 재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진주재화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피로도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+      "user_code": (int),
+      "user_nicknm": (string)
+      "user_experience": (int)
+      "money_gold": (int)
+      "money_pearl": (int)
+      "fatigue": (int)
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 캐릭터 수정 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /user/level-up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 캐릭터 레벨업 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>level_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레벨 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+      "user_code": (int),
+      "level_code": (int)
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /user/my-weather</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weather_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /user/my-weather/change</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원별 날씨 조회 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원별 날씨 수정 기능 (온도, 풍량 수정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>날씨코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /user/my-ship</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /user/fish-dictionary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>map_fish_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /user/inventory-items</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST /user/inventory-item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inventory_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역별 물고기 코드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="28">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2141,8 +2508,72 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2328,8 +2759,26 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -2496,6 +2945,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2630,7 +3161,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2688,12 +3219,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2706,6 +3231,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2718,20 +3258,102 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="14" xfId="43" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -3097,9 +3719,9 @@
       <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:5">
@@ -3546,39 +4168,39 @@
         <v>107</v>
       </c>
     </row>
-    <row r="78" spans="3:5" s="21" customFormat="1">
-      <c r="D78" s="21" t="s">
+    <row r="78" spans="3:5" s="19" customFormat="1">
+      <c r="D78" s="19" t="s">
+        <v>362</v>
+      </c>
+      <c r="E78" s="19" t="s">
         <v>363</v>
       </c>
-      <c r="E78" s="21" t="s">
+    </row>
+    <row r="79" spans="3:5" s="19" customFormat="1">
+      <c r="D79" s="19" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="79" spans="3:5" s="21" customFormat="1">
-      <c r="D79" s="21" t="s">
+      <c r="E79" s="19" t="s">
         <v>365</v>
       </c>
-      <c r="E79" s="21" t="s">
+    </row>
+    <row r="80" spans="3:5" s="19" customFormat="1">
+      <c r="D80" s="19" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="80" spans="3:5" s="21" customFormat="1">
-      <c r="D80" s="21" t="s">
+      <c r="E80" s="19" t="s">
         <v>367</v>
       </c>
-      <c r="E80" s="21" t="s">
+    </row>
+    <row r="81" spans="3:5" s="19" customFormat="1">
+      <c r="D81" s="19" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="81" spans="3:5" s="21" customFormat="1">
-      <c r="D81" s="21" t="s">
+      <c r="E81" s="19" t="s">
         <v>369</v>
       </c>
-      <c r="E81" s="21" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="82" spans="3:5" s="21" customFormat="1"/>
+    </row>
+    <row r="82" spans="3:5" s="19" customFormat="1"/>
     <row r="83" spans="3:5">
       <c r="C83">
         <v>11</v>
@@ -3698,7 +4320,7 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="2" max="2" width="15.5" style="4" customWidth="1"/>
   </cols>
@@ -3991,56 +4613,56 @@
   <dimension ref="B2:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="7.375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="6" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="6" customWidth="1"/>
-    <col min="5" max="5" width="27.75" customWidth="1"/>
+    <col min="2" max="2" width="9.796875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="19.296875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="13.5" style="6" customWidth="1"/>
+    <col min="5" max="5" width="27.69921875" customWidth="1"/>
     <col min="6" max="6" width="35.5" style="15" customWidth="1"/>
-    <col min="7" max="7" width="30.125" style="15" customWidth="1"/>
-    <col min="8" max="8" width="30.125" customWidth="1"/>
-    <col min="9" max="9" width="23.625" customWidth="1"/>
-    <col min="10" max="10" width="57.625" style="21" customWidth="1"/>
+    <col min="7" max="7" width="30.09765625" style="15" customWidth="1"/>
+    <col min="8" max="8" width="30.09765625" customWidth="1"/>
+    <col min="9" max="9" width="29.3984375" customWidth="1"/>
+    <col min="10" max="10" width="76.796875" style="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="27.75" customHeight="1">
-      <c r="B2" s="19" t="s">
+    <row r="2" spans="2:10" s="34" customFormat="1" ht="42.6" customHeight="1">
+      <c r="B2" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="32" t="s">
         <v>174</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="G2" s="20" t="s">
+      <c r="F2" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="G2" s="33" t="s">
+        <v>275</v>
+      </c>
+      <c r="H2" s="32" t="s">
         <v>276</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="I2" s="32" t="s">
         <v>277</v>
       </c>
-      <c r="I2" s="19" t="s">
-        <v>278</v>
-      </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="32" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="115.5">
+    <row r="3" spans="2:10" ht="121.8">
       <c r="B3" s="10">
         <v>1</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="29" t="s">
         <v>173</v>
       </c>
       <c r="D3" s="8" t="s">
@@ -4050,7 +4672,7 @@
         <v>177</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G3" s="14" t="s">
         <v>267</v>
@@ -4061,15 +4683,15 @@
       <c r="I3" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="20" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="115.5">
+    <row r="4" spans="2:10" ht="121.8">
       <c r="B4" s="16">
         <v>2</v>
       </c>
-      <c r="C4" s="27"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="16" t="s">
         <v>4</v>
       </c>
@@ -4083,20 +4705,20 @@
         <v>270</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I4" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J4" s="22" t="s">
+      <c r="J4" s="20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="49.5">
+    <row r="5" spans="2:10" ht="52.2">
       <c r="B5" s="16">
         <v>3</v>
       </c>
-      <c r="C5" s="27"/>
+      <c r="C5" s="30"/>
       <c r="D5" s="16" t="s">
         <v>4</v>
       </c>
@@ -4115,15 +4737,15 @@
       <c r="I5" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J5" s="22" t="s">
+      <c r="J5" s="20" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="49.5">
+    <row r="6" spans="2:10" ht="52.2">
       <c r="B6" s="16">
         <v>4</v>
       </c>
-      <c r="C6" s="27"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="16" t="s">
         <v>4</v>
       </c>
@@ -4142,15 +4764,15 @@
       <c r="I6" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="20" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="66">
+    <row r="7" spans="2:10" ht="52.2">
       <c r="B7" s="16">
         <v>5</v>
       </c>
-      <c r="C7" s="28"/>
+      <c r="C7" s="31"/>
       <c r="D7" s="10" t="s">
         <v>4</v>
       </c>
@@ -4161,7 +4783,7 @@
         <v>266</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>273</v>
+        <v>444</v>
       </c>
       <c r="H7" s="17" t="s">
         <v>266</v>
@@ -4169,15 +4791,15 @@
       <c r="I7" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J7" s="22" t="s">
+      <c r="J7" s="20" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="82.5">
+    <row r="8" spans="2:10" ht="87">
       <c r="B8" s="16">
         <v>6</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="29" t="s">
         <v>175</v>
       </c>
       <c r="D8" s="16" t="s">
@@ -4187,10 +4809,10 @@
         <v>233</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H8" s="14" t="s">
         <v>268</v>
@@ -4198,15 +4820,15 @@
       <c r="I8" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J8" s="22" t="s">
+      <c r="J8" s="20" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="115.5">
+    <row r="9" spans="2:10" ht="121.8">
       <c r="B9" s="16">
         <v>7</v>
       </c>
-      <c r="C9" s="27"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="10" t="s">
         <v>4</v>
       </c>
@@ -4217,23 +4839,23 @@
         <v>266</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H9" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I9" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J9" s="22" t="s">
+      <c r="J9" s="20" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="115.5">
+    <row r="10" spans="2:10" ht="121.8">
       <c r="B10" s="16">
         <v>8</v>
       </c>
-      <c r="C10" s="27"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="10" t="s">
         <v>4</v>
       </c>
@@ -4244,23 +4866,23 @@
         <v>266</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>345</v>
+        <v>456</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I10" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J10" s="22" t="s">
+      <c r="J10" s="20" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="82.5">
+    <row r="11" spans="2:10" ht="139.19999999999999">
       <c r="B11" s="16">
         <v>9</v>
       </c>
-      <c r="C11" s="27"/>
+      <c r="C11" s="30"/>
       <c r="D11" s="16" t="s">
         <v>4</v>
       </c>
@@ -4271,7 +4893,7 @@
         <v>266</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>345</v>
+        <v>471</v>
       </c>
       <c r="H11" s="14" t="s">
         <v>268</v>
@@ -4279,15 +4901,15 @@
       <c r="I11" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J11" s="22" t="s">
+      <c r="J11" s="20" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="49.5">
+    <row r="12" spans="2:10" ht="69.599999999999994">
       <c r="B12" s="16">
         <v>10</v>
       </c>
-      <c r="C12" s="27"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="16" t="s">
         <v>4</v>
       </c>
@@ -4298,7 +4920,7 @@
         <v>266</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>345</v>
+        <v>477</v>
       </c>
       <c r="H12" s="18" t="s">
         <v>266</v>
@@ -4306,15 +4928,15 @@
       <c r="I12" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J12" s="22" t="s">
+      <c r="J12" s="20" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="115.5">
+    <row r="13" spans="2:10" ht="121.8">
       <c r="B13" s="16">
         <v>11</v>
       </c>
-      <c r="C13" s="27"/>
+      <c r="C13" s="30"/>
       <c r="D13" s="10" t="s">
         <v>4</v>
       </c>
@@ -4325,23 +4947,23 @@
         <v>266</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I13" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J13" s="22" t="s">
+      <c r="J13" s="20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="82.5">
+    <row r="14" spans="2:10" ht="87">
       <c r="B14" s="16">
         <v>12</v>
       </c>
-      <c r="C14" s="27"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="10" t="s">
         <v>4</v>
       </c>
@@ -4352,7 +4974,7 @@
         <v>266</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="H14" s="14" t="s">
         <v>268</v>
@@ -4360,15 +4982,15 @@
       <c r="I14" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J14" s="22" t="s">
+      <c r="J14" s="20" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="115.5">
+    <row r="15" spans="2:10" ht="121.8">
       <c r="B15" s="16">
         <v>13</v>
       </c>
-      <c r="C15" s="27"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="10" t="s">
         <v>4</v>
       </c>
@@ -4379,23 +5001,23 @@
         <v>266</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H15" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I15" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J15" s="22" t="s">
+      <c r="J15" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="115.5">
+    <row r="16" spans="2:10" ht="121.8">
       <c r="B16" s="16">
         <v>14</v>
       </c>
-      <c r="C16" s="27"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="10" t="s">
         <v>4</v>
       </c>
@@ -4406,23 +5028,23 @@
         <v>266</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I16" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J16" s="22" t="s">
+      <c r="J16" s="20" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="115.5">
+    <row r="17" spans="2:10" ht="121.8">
       <c r="B17" s="16">
         <v>15</v>
       </c>
-      <c r="C17" s="27"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="10" t="s">
         <v>4</v>
       </c>
@@ -4433,23 +5055,23 @@
         <v>266</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H17" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I17" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J17" s="22" t="s">
+      <c r="J17" s="20" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="18" spans="2:10" ht="115.5">
+    <row r="18" spans="2:10" ht="121.8">
       <c r="B18" s="16">
         <v>16</v>
       </c>
-      <c r="C18" s="27"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="10" t="s">
         <v>4</v>
       </c>
@@ -4460,23 +5082,23 @@
         <v>266</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I18" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J18" s="22" t="s">
+      <c r="J18" s="20" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="82.5">
+    <row r="19" spans="2:10" ht="87">
       <c r="B19" s="16">
         <v>17</v>
       </c>
-      <c r="C19" s="27"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="10" t="s">
         <v>4</v>
       </c>
@@ -4487,7 +5109,7 @@
         <v>266</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>268</v>
@@ -4495,15 +5117,15 @@
       <c r="I19" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J19" s="22" t="s">
+      <c r="J19" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="66">
+    <row r="20" spans="2:10" ht="69.599999999999994">
       <c r="B20" s="16">
         <v>18</v>
       </c>
-      <c r="C20" s="27"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="10" t="s">
         <v>4</v>
       </c>
@@ -4514,7 +5136,7 @@
         <v>266</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H20" s="17" t="s">
         <v>266</v>
@@ -4522,15 +5144,15 @@
       <c r="I20" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J20" s="22" t="s">
+      <c r="J20" s="20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="115.5">
+    <row r="21" spans="2:10" ht="121.8">
       <c r="B21" s="16">
         <v>19</v>
       </c>
-      <c r="C21" s="27"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="10" t="s">
         <v>4</v>
       </c>
@@ -4541,23 +5163,23 @@
         <v>266</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H21" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I21" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J21" s="22" t="s">
+      <c r="J21" s="20" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="115.5">
+    <row r="22" spans="2:10" ht="121.8">
       <c r="B22" s="16">
         <v>20</v>
       </c>
-      <c r="C22" s="27"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="10" t="s">
         <v>4</v>
       </c>
@@ -4568,23 +5190,23 @@
         <v>266</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I22" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J22" s="22" t="s">
+      <c r="J22" s="20" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="23" spans="2:10" ht="82.5">
+    <row r="23" spans="2:10" ht="87">
       <c r="B23" s="16">
         <v>21</v>
       </c>
-      <c r="C23" s="27"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="10" t="s">
         <v>4</v>
       </c>
@@ -4595,7 +5217,7 @@
         <v>266</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H23" s="14" t="s">
         <v>268</v>
@@ -4603,15 +5225,15 @@
       <c r="I23" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J23" s="22" t="s">
+      <c r="J23" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="66">
+    <row r="24" spans="2:10" ht="69.599999999999994">
       <c r="B24" s="16">
         <v>22</v>
       </c>
-      <c r="C24" s="27"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="10" t="s">
         <v>4</v>
       </c>
@@ -4622,7 +5244,7 @@
         <v>266</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H24" s="17" t="s">
         <v>266</v>
@@ -4630,15 +5252,15 @@
       <c r="I24" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J24" s="22" t="s">
+      <c r="J24" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="66">
+    <row r="25" spans="2:10" ht="69.599999999999994">
       <c r="B25" s="16">
         <v>23</v>
       </c>
-      <c r="C25" s="27"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="10" t="s">
         <v>4</v>
       </c>
@@ -4649,7 +5271,7 @@
         <v>266</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H25" s="17" t="s">
         <v>266</v>
@@ -4657,15 +5279,15 @@
       <c r="I25" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J25" s="22" t="s">
+      <c r="J25" s="20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="2:10" ht="115.5">
+    <row r="26" spans="2:10" ht="121.8">
       <c r="B26" s="16">
         <v>24</v>
       </c>
-      <c r="C26" s="27"/>
+      <c r="C26" s="30"/>
       <c r="D26" s="10" t="s">
         <v>4</v>
       </c>
@@ -4676,23 +5298,23 @@
         <v>266</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H26" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I26" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J26" s="22" t="s">
+      <c r="J26" s="20" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="115.5">
+    <row r="27" spans="2:10" ht="121.8">
       <c r="B27" s="16">
         <v>25</v>
       </c>
-      <c r="C27" s="27"/>
+      <c r="C27" s="30"/>
       <c r="D27" s="10" t="s">
         <v>4</v>
       </c>
@@ -4703,23 +5325,23 @@
         <v>266</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H27" s="14" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I27" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J27" s="22" t="s">
+      <c r="J27" s="20" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="82.5">
+    <row r="28" spans="2:10" ht="87">
       <c r="B28" s="16">
         <v>26</v>
       </c>
-      <c r="C28" s="28"/>
+      <c r="C28" s="31"/>
       <c r="D28" s="10" t="s">
         <v>4</v>
       </c>
@@ -4730,7 +5352,7 @@
         <v>266</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H28" s="14" t="s">
         <v>268</v>
@@ -4738,15 +5360,15 @@
       <c r="I28" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J28" s="22" t="s">
+      <c r="J28" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="115.5">
+    <row r="29" spans="2:10" ht="121.8">
       <c r="B29" s="16">
         <v>27</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="29" t="s">
         <v>179</v>
       </c>
       <c r="D29" s="10" t="s">
@@ -4756,24 +5378,24 @@
         <v>185</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G29" s="14"/>
       <c r="H29" s="14" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I29" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J29" s="22" t="s">
+      <c r="J29" s="20" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="30" spans="2:10" ht="115.5">
+    <row r="30" spans="2:10" ht="121.8">
       <c r="B30" s="16">
         <v>28</v>
       </c>
-      <c r="C30" s="27"/>
+      <c r="C30" s="30"/>
       <c r="D30" s="10" t="s">
         <v>4</v>
       </c>
@@ -4781,26 +5403,26 @@
         <v>22</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H30" s="14" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I30" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J30" s="22" t="s">
+      <c r="J30" s="20" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="31" spans="2:10" ht="115.5">
+    <row r="31" spans="2:10" ht="121.8">
       <c r="B31" s="16">
         <v>29</v>
       </c>
-      <c r="C31" s="27"/>
+      <c r="C31" s="30"/>
       <c r="D31" s="10" t="s">
         <v>4</v>
       </c>
@@ -4811,10 +5433,10 @@
         <v>266</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H31" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I31" s="17" t="s">
         <v>266</v>
@@ -4823,11 +5445,11 @@
         <v>180</v>
       </c>
     </row>
-    <row r="32" spans="2:10" ht="82.5">
+    <row r="32" spans="2:10" ht="87">
       <c r="B32" s="16">
         <v>30</v>
       </c>
-      <c r="C32" s="28"/>
+      <c r="C32" s="31"/>
       <c r="D32" s="10" t="s">
         <v>4</v>
       </c>
@@ -4838,7 +5460,7 @@
         <v>266</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H32" s="14" t="s">
         <v>268</v>
@@ -4850,11 +5472,11 @@
         <v>181</v>
       </c>
     </row>
-    <row r="33" spans="2:10" ht="49.5">
+    <row r="33" spans="2:10" ht="52.2">
       <c r="B33" s="16">
         <v>31</v>
       </c>
-      <c r="C33" s="25" t="s">
+      <c r="C33" s="28" t="s">
         <v>187</v>
       </c>
       <c r="D33" s="10" t="s">
@@ -4867,7 +5489,7 @@
         <v>266</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H33" s="17" t="s">
         <v>266</v>
@@ -4879,11 +5501,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="34" spans="2:10" ht="115.5">
+    <row r="34" spans="2:10" ht="121.8">
       <c r="B34" s="16">
         <v>32</v>
       </c>
-      <c r="C34" s="25"/>
+      <c r="C34" s="28"/>
       <c r="D34" s="10" t="s">
         <v>4</v>
       </c>
@@ -4894,10 +5516,10 @@
         <v>266</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I34" s="17" t="s">
         <v>266</v>
@@ -4906,11 +5528,11 @@
         <v>227</v>
       </c>
     </row>
-    <row r="35" spans="2:10" ht="115.5">
+    <row r="35" spans="2:10" ht="121.8">
       <c r="B35" s="16">
         <v>33</v>
       </c>
-      <c r="C35" s="25"/>
+      <c r="C35" s="28"/>
       <c r="D35" s="10" t="s">
         <v>4</v>
       </c>
@@ -4921,10 +5543,10 @@
         <v>266</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I35" s="17" t="s">
         <v>266</v>
@@ -4933,11 +5555,11 @@
         <v>228</v>
       </c>
     </row>
-    <row r="36" spans="2:10" ht="115.5">
+    <row r="36" spans="2:10" ht="121.8">
       <c r="B36" s="16">
         <v>34</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" s="28" t="s">
         <v>191</v>
       </c>
       <c r="D36" s="10" t="s">
@@ -4950,10 +5572,10 @@
         <v>266</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I36" s="17" t="s">
         <v>266</v>
@@ -4962,11 +5584,11 @@
         <v>214</v>
       </c>
     </row>
-    <row r="37" spans="2:10" ht="115.5">
+    <row r="37" spans="2:10" ht="121.8">
       <c r="B37" s="16">
         <v>35</v>
       </c>
-      <c r="C37" s="25"/>
+      <c r="C37" s="28"/>
       <c r="D37" s="10" t="s">
         <v>4</v>
       </c>
@@ -4977,10 +5599,10 @@
         <v>266</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H37" s="14" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I37" s="17" t="s">
         <v>266</v>
@@ -4989,11 +5611,11 @@
         <v>230</v>
       </c>
     </row>
-    <row r="38" spans="2:10" ht="82.5">
+    <row r="38" spans="2:10" ht="87">
       <c r="B38" s="16">
         <v>36</v>
       </c>
-      <c r="C38" s="25"/>
+      <c r="C38" s="28"/>
       <c r="D38" s="16" t="s">
         <v>4</v>
       </c>
@@ -5004,7 +5626,7 @@
         <v>266</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H38" s="14" t="s">
         <v>268</v>
@@ -5016,11 +5638,11 @@
         <v>262</v>
       </c>
     </row>
-    <row r="39" spans="2:10" ht="115.5">
+    <row r="39" spans="2:10" ht="121.8">
       <c r="B39" s="16">
         <v>37</v>
       </c>
-      <c r="C39" s="25"/>
+      <c r="C39" s="28"/>
       <c r="D39" s="10" t="s">
         <v>4</v>
       </c>
@@ -5031,10 +5653,10 @@
         <v>266</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I39" s="17" t="s">
         <v>266</v>
@@ -5043,11 +5665,11 @@
         <v>196</v>
       </c>
     </row>
-    <row r="40" spans="2:10" ht="115.5">
+    <row r="40" spans="2:10" ht="121.8">
       <c r="B40" s="16">
         <v>38</v>
       </c>
-      <c r="C40" s="25" t="s">
+      <c r="C40" s="28" t="s">
         <v>197</v>
       </c>
       <c r="D40" s="10" t="s">
@@ -5060,10 +5682,10 @@
         <v>266</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I40" s="17" t="s">
         <v>266</v>
@@ -5072,11 +5694,11 @@
         <v>256</v>
       </c>
     </row>
-    <row r="41" spans="2:10" ht="82.5">
+    <row r="41" spans="2:10" ht="87">
       <c r="B41" s="16">
         <v>39</v>
       </c>
-      <c r="C41" s="25"/>
+      <c r="C41" s="28"/>
       <c r="D41" s="10" t="s">
         <v>4</v>
       </c>
@@ -5087,7 +5709,7 @@
         <v>266</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H41" s="14" t="s">
         <v>268</v>
@@ -5099,11 +5721,11 @@
         <v>199</v>
       </c>
     </row>
-    <row r="42" spans="2:10" ht="115.5">
+    <row r="42" spans="2:10" ht="121.8">
       <c r="B42" s="16">
         <v>40</v>
       </c>
-      <c r="C42" s="25"/>
+      <c r="C42" s="28"/>
       <c r="D42" s="10" t="s">
         <v>4</v>
       </c>
@@ -5114,10 +5736,10 @@
         <v>266</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I42" s="17" t="s">
         <v>266</v>
@@ -5126,11 +5748,11 @@
         <v>231</v>
       </c>
     </row>
-    <row r="43" spans="2:10" ht="82.5">
+    <row r="43" spans="2:10" ht="87">
       <c r="B43" s="16">
         <v>41</v>
       </c>
-      <c r="C43" s="25"/>
+      <c r="C43" s="28"/>
       <c r="D43" s="10" t="s">
         <v>4</v>
       </c>
@@ -5141,7 +5763,7 @@
         <v>266</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H43" s="14" t="s">
         <v>268</v>
@@ -5153,11 +5775,11 @@
         <v>201</v>
       </c>
     </row>
-    <row r="44" spans="2:10" ht="49.5">
+    <row r="44" spans="2:10" ht="52.2">
       <c r="B44" s="16">
         <v>42</v>
       </c>
-      <c r="C44" s="26" t="s">
+      <c r="C44" s="29" t="s">
         <v>203</v>
       </c>
       <c r="D44" s="16" t="s">
@@ -5170,7 +5792,7 @@
         <v>266</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H44" s="17" t="s">
         <v>266</v>
@@ -5178,15 +5800,15 @@
       <c r="I44" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J44" s="22" t="s">
+      <c r="J44" s="20" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="45" spans="2:10" ht="66">
+    <row r="45" spans="2:10" ht="69.599999999999994">
       <c r="B45" s="16">
         <v>43</v>
       </c>
-      <c r="C45" s="28"/>
+      <c r="C45" s="31"/>
       <c r="D45" s="10" t="s">
         <v>4</v>
       </c>
@@ -5197,7 +5819,7 @@
         <v>266</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H45" s="17" t="s">
         <v>266</v>
@@ -5209,11 +5831,11 @@
         <v>205</v>
       </c>
     </row>
-    <row r="46" spans="2:10" ht="115.5">
+    <row r="46" spans="2:10" ht="121.8">
       <c r="B46" s="16">
         <v>44</v>
       </c>
-      <c r="C46" s="25" t="s">
+      <c r="C46" s="28" t="s">
         <v>206</v>
       </c>
       <c r="D46" s="10" t="s">
@@ -5226,23 +5848,23 @@
         <v>266</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I46" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J46" s="22" t="s">
+      <c r="J46" s="20" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="47" spans="2:10" ht="115.5">
+    <row r="47" spans="2:10" ht="121.8">
       <c r="B47" s="16">
         <v>45</v>
       </c>
-      <c r="C47" s="25"/>
+      <c r="C47" s="28"/>
       <c r="D47" s="16" t="s">
         <v>4</v>
       </c>
@@ -5253,23 +5875,23 @@
         <v>266</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H47" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I47" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J47" s="22" t="s">
+      <c r="J47" s="20" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="48" spans="2:10" ht="115.5">
+    <row r="48" spans="2:10" ht="121.8">
       <c r="B48" s="16">
         <v>46</v>
       </c>
-      <c r="C48" s="25"/>
+      <c r="C48" s="28"/>
       <c r="D48" s="10" t="s">
         <v>4</v>
       </c>
@@ -5280,23 +5902,23 @@
         <v>266</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H48" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I48" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="J48" s="22" t="s">
+      <c r="J48" s="20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="2:10" ht="115.5">
+    <row r="49" spans="2:10" ht="121.8">
       <c r="B49" s="16">
         <v>47</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="28" t="s">
         <v>209</v>
       </c>
       <c r="D49" s="10" t="s">
@@ -5306,11 +5928,11 @@
         <v>210</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G49" s="14"/>
       <c r="H49" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="I49" s="17" t="s">
         <v>266</v>
@@ -5319,11 +5941,11 @@
         <v>212</v>
       </c>
     </row>
-    <row r="50" spans="2:10" ht="115.5">
+    <row r="50" spans="2:10" ht="121.8">
       <c r="B50" s="16">
         <v>48</v>
       </c>
-      <c r="C50" s="25"/>
+      <c r="C50" s="28"/>
       <c r="D50" s="10" t="s">
         <v>4</v>
       </c>
@@ -5334,10 +5956,10 @@
         <v>266</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="I50" s="17" t="s">
         <v>266</v>
@@ -5346,11 +5968,11 @@
         <v>213</v>
       </c>
     </row>
-    <row r="51" spans="2:10" ht="82.5">
+    <row r="51" spans="2:10" ht="87">
       <c r="B51" s="16">
         <v>49</v>
       </c>
-      <c r="C51" s="25"/>
+      <c r="C51" s="28"/>
       <c r="D51" s="16" t="s">
         <v>4</v>
       </c>
@@ -5358,10 +5980,10 @@
         <v>261</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H51" s="14" t="s">
         <v>268</v>
@@ -5373,11 +5995,11 @@
         <v>232</v>
       </c>
     </row>
-    <row r="52" spans="2:10" ht="66">
+    <row r="52" spans="2:10" ht="69.599999999999994">
       <c r="B52" s="16">
         <v>50</v>
       </c>
-      <c r="C52" s="25"/>
+      <c r="C52" s="28"/>
       <c r="D52" s="10" t="s">
         <v>4</v>
       </c>
@@ -5388,7 +6010,7 @@
         <v>266</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H52" s="17" t="s">
         <v>266</v>
@@ -5404,7 +6026,7 @@
       <c r="C53" s="12"/>
       <c r="D53" s="13"/>
       <c r="E53" s="11"/>
-      <c r="J53" s="23"/>
+      <c r="J53" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -5425,349 +6047,3547 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A2BC9A-23DC-43EC-B9F1-7CE9F1F5C331}">
+  <dimension ref="A1:F304"/>
+  <sheetViews>
+    <sheetView topLeftCell="A143" workbookViewId="0">
+      <selection activeCell="D303" sqref="D303"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
+  <cols>
+    <col min="1" max="1" width="5.796875" style="35" customWidth="1"/>
+    <col min="2" max="2" width="16.3984375" style="35" customWidth="1"/>
+    <col min="3" max="3" width="21.69921875" style="35" customWidth="1"/>
+    <col min="4" max="4" width="26.59765625" style="35" customWidth="1"/>
+    <col min="5" max="5" width="52.3984375" style="35" customWidth="1"/>
+    <col min="6" max="6" width="57.796875" style="35" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="19" customFormat="1" ht="18" thickBot="1">
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+    </row>
+    <row r="2" spans="1:6" ht="40.799999999999997" customHeight="1" thickBot="1">
+      <c r="A2" s="36">
+        <v>1</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>413</v>
+      </c>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="39"/>
+    </row>
+    <row r="3" spans="1:6" ht="32.4" customHeight="1" thickBot="1">
+      <c r="C3" s="40" t="s">
+        <v>414</v>
+      </c>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="42"/>
+    </row>
+    <row r="4" spans="1:6" ht="25.2" customHeight="1" thickBot="1">
+      <c r="C4" s="43" t="s">
+        <v>399</v>
+      </c>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="45"/>
+    </row>
+    <row r="5" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C5" s="46" t="s">
+        <v>400</v>
+      </c>
+      <c r="D5" s="47" t="s">
+        <v>401</v>
+      </c>
+      <c r="E5" s="47" t="s">
+        <v>402</v>
+      </c>
+      <c r="F5" s="48"/>
+    </row>
+    <row r="6" spans="1:6" ht="18" thickBot="1">
+      <c r="C6" s="49" t="s">
+        <v>403</v>
+      </c>
+      <c r="D6" s="48" t="s">
+        <v>404</v>
+      </c>
+      <c r="E6" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="F6" s="48"/>
+    </row>
+    <row r="7" spans="1:6" ht="28.2" thickBot="1">
+      <c r="C7" s="50" t="s">
+        <v>405</v>
+      </c>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="52"/>
+    </row>
+    <row r="8" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C8" s="53" t="s">
+        <v>400</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>401</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>406</v>
+      </c>
+      <c r="F8" s="53" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="19" customFormat="1" ht="18" thickBot="1">
+      <c r="A9" s="35"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="54" t="s">
+        <v>416</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>421</v>
+      </c>
+      <c r="E9" s="54" t="s">
+        <v>423</v>
+      </c>
+      <c r="F9" s="54" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="19" customFormat="1" ht="18" thickBot="1">
+      <c r="A10" s="35"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="54" t="s">
+        <v>417</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>421</v>
+      </c>
+      <c r="E10" s="54" t="s">
+        <v>423</v>
+      </c>
+      <c r="F10" s="54" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="19" customFormat="1" ht="18" thickBot="1">
+      <c r="A11" s="35"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="54" t="s">
+        <v>418</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>422</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>423</v>
+      </c>
+      <c r="F11" s="54" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="19" customFormat="1" ht="18" thickBot="1">
+      <c r="A12" s="35"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="54" t="s">
+        <v>419</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>422</v>
+      </c>
+      <c r="E12" s="54" t="s">
+        <v>423</v>
+      </c>
+      <c r="F12" s="54" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18" thickBot="1">
+      <c r="C13" s="54" t="s">
+        <v>420</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>422</v>
+      </c>
+      <c r="E13" s="54" t="s">
+        <v>423</v>
+      </c>
+      <c r="F13" s="54" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.2" thickBot="1">
+      <c r="C14" s="55" t="s">
+        <v>408</v>
+      </c>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+    </row>
+    <row r="15" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C15" s="53" t="s">
+        <v>409</v>
+      </c>
+      <c r="D15" s="53" t="s">
+        <v>408</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>401</v>
+      </c>
+      <c r="F15" s="53" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18" thickBot="1">
+      <c r="C16" s="56">
+        <v>200</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>429</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>410</v>
+      </c>
+      <c r="F16" s="57" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18" thickBot="1">
+      <c r="C17" s="56"/>
+      <c r="D17" s="57" t="s">
+        <v>431</v>
+      </c>
+      <c r="E17" s="57" t="s">
+        <v>404</v>
+      </c>
+      <c r="F17" s="57" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18" thickBot="1">
+      <c r="C18" s="56"/>
+      <c r="D18" s="57" t="s">
+        <v>433</v>
+      </c>
+      <c r="E18" s="57" t="s">
+        <v>434</v>
+      </c>
+      <c r="F18" s="57" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18" thickBot="1">
+      <c r="C19" s="56"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+    </row>
+    <row r="20" spans="1:6" ht="18" thickBot="1">
+      <c r="C20" s="58">
+        <v>400</v>
+      </c>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+    </row>
+    <row r="22" spans="1:6" ht="18" thickBot="1"/>
+    <row r="23" spans="1:6" ht="36.6" thickBot="1">
+      <c r="A23" s="36">
+        <v>2</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="C23" s="37" t="s">
+        <v>435</v>
+      </c>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="39"/>
+    </row>
+    <row r="24" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C24" s="40" t="s">
+        <v>412</v>
+      </c>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="42"/>
+    </row>
+    <row r="25" spans="1:6" ht="28.2" thickBot="1">
+      <c r="C25" s="43" t="s">
+        <v>399</v>
+      </c>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="45"/>
+    </row>
+    <row r="26" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C26" s="46" t="s">
+        <v>400</v>
+      </c>
+      <c r="D26" s="47" t="s">
+        <v>401</v>
+      </c>
+      <c r="E26" s="47" t="s">
+        <v>402</v>
+      </c>
+      <c r="F26" s="48"/>
+    </row>
+    <row r="27" spans="1:6" ht="18" thickBot="1">
+      <c r="C27" s="49" t="s">
+        <v>403</v>
+      </c>
+      <c r="D27" s="48" t="s">
+        <v>404</v>
+      </c>
+      <c r="E27" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="F27" s="48"/>
+    </row>
+    <row r="28" spans="1:6" ht="28.2" thickBot="1">
+      <c r="C28" s="50" t="s">
+        <v>405</v>
+      </c>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="52"/>
+    </row>
+    <row r="29" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C29" s="53" t="s">
+        <v>400</v>
+      </c>
+      <c r="D29" s="53" t="s">
+        <v>401</v>
+      </c>
+      <c r="E29" s="53" t="s">
+        <v>406</v>
+      </c>
+      <c r="F29" s="53" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18" thickBot="1">
+      <c r="C30" s="54" t="s">
+        <v>416</v>
+      </c>
+      <c r="D30" s="54" t="s">
+        <v>421</v>
+      </c>
+      <c r="E30" s="54" t="s">
+        <v>423</v>
+      </c>
+      <c r="F30" s="54" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18" thickBot="1">
+      <c r="C31" s="54" t="s">
+        <v>417</v>
+      </c>
+      <c r="D31" s="54" t="s">
+        <v>421</v>
+      </c>
+      <c r="E31" s="54" t="s">
+        <v>423</v>
+      </c>
+      <c r="F31" s="54" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="28.2" thickBot="1">
+      <c r="C32" s="55" t="s">
+        <v>408</v>
+      </c>
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+    </row>
+    <row r="33" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C33" s="53" t="s">
+        <v>409</v>
+      </c>
+      <c r="D33" s="53" t="s">
+        <v>408</v>
+      </c>
+      <c r="E33" s="53" t="s">
+        <v>401</v>
+      </c>
+      <c r="F33" s="53" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18" thickBot="1">
+      <c r="C34" s="56">
+        <v>200</v>
+      </c>
+      <c r="D34" s="57" t="s">
+        <v>429</v>
+      </c>
+      <c r="E34" s="57" t="s">
+        <v>410</v>
+      </c>
+      <c r="F34" s="57" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18" thickBot="1">
+      <c r="C35" s="56"/>
+      <c r="D35" s="57" t="s">
+        <v>431</v>
+      </c>
+      <c r="E35" s="57" t="s">
+        <v>404</v>
+      </c>
+      <c r="F35" s="57" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18" thickBot="1">
+      <c r="C36" s="56"/>
+      <c r="D36" s="57" t="s">
+        <v>433</v>
+      </c>
+      <c r="E36" s="57" t="s">
+        <v>434</v>
+      </c>
+      <c r="F36" s="57" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18" thickBot="1">
+      <c r="C37" s="56"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+    </row>
+    <row r="38" spans="1:6" ht="18" thickBot="1">
+      <c r="C38" s="58">
+        <v>400</v>
+      </c>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+    </row>
+    <row r="40" spans="1:6" ht="18" thickBot="1"/>
+    <row r="41" spans="1:6" ht="36.6" thickBot="1">
+      <c r="A41" s="36">
+        <v>3</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>436</v>
+      </c>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
+      <c r="F41" s="39"/>
+    </row>
+    <row r="42" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C42" s="40" t="s">
+        <v>437</v>
+      </c>
+      <c r="D42" s="41"/>
+      <c r="E42" s="41"/>
+      <c r="F42" s="42"/>
+    </row>
+    <row r="43" spans="1:6" ht="28.2" thickBot="1">
+      <c r="C43" s="43" t="s">
+        <v>399</v>
+      </c>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="45"/>
+    </row>
+    <row r="44" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C44" s="46" t="s">
+        <v>400</v>
+      </c>
+      <c r="D44" s="47" t="s">
+        <v>401</v>
+      </c>
+      <c r="E44" s="47" t="s">
+        <v>402</v>
+      </c>
+      <c r="F44" s="48"/>
+    </row>
+    <row r="45" spans="1:6" ht="18" thickBot="1">
+      <c r="C45" s="49" t="s">
+        <v>403</v>
+      </c>
+      <c r="D45" s="48" t="s">
+        <v>404</v>
+      </c>
+      <c r="E45" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="F45" s="48"/>
+    </row>
+    <row r="46" spans="1:6" ht="28.2" thickBot="1">
+      <c r="C46" s="50" t="s">
+        <v>405</v>
+      </c>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="52"/>
+    </row>
+    <row r="47" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C47" s="53" t="s">
+        <v>400</v>
+      </c>
+      <c r="D47" s="53" t="s">
+        <v>401</v>
+      </c>
+      <c r="E47" s="53" t="s">
+        <v>406</v>
+      </c>
+      <c r="F47" s="53" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="18" thickBot="1">
+      <c r="C48" s="54" t="s">
+        <v>438</v>
+      </c>
+      <c r="D48" s="54" t="s">
+        <v>422</v>
+      </c>
+      <c r="E48" s="54" t="s">
+        <v>423</v>
+      </c>
+      <c r="F48" s="54" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="28.2" thickBot="1">
+      <c r="C49" s="55" t="s">
+        <v>408</v>
+      </c>
+      <c r="D49" s="55"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+    </row>
+    <row r="50" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C50" s="53" t="s">
+        <v>409</v>
+      </c>
+      <c r="D50" s="53" t="s">
+        <v>408</v>
+      </c>
+      <c r="E50" s="53" t="s">
+        <v>401</v>
+      </c>
+      <c r="F50" s="53" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="18" thickBot="1">
+      <c r="C51" s="56">
+        <v>200</v>
+      </c>
+      <c r="D51" s="57" t="s">
+        <v>429</v>
+      </c>
+      <c r="E51" s="57" t="s">
+        <v>410</v>
+      </c>
+      <c r="F51" s="57" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="18" thickBot="1">
+      <c r="C52" s="56"/>
+      <c r="D52" s="57" t="s">
+        <v>431</v>
+      </c>
+      <c r="E52" s="57" t="s">
+        <v>404</v>
+      </c>
+      <c r="F52" s="57" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="18" thickBot="1">
+      <c r="C53" s="56"/>
+      <c r="D53" s="57" t="s">
+        <v>433</v>
+      </c>
+      <c r="E53" s="57" t="s">
+        <v>434</v>
+      </c>
+      <c r="F53" s="57" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="18" thickBot="1">
+      <c r="C54" s="56"/>
+      <c r="D54" s="57"/>
+      <c r="E54" s="57"/>
+      <c r="F54" s="57"/>
+    </row>
+    <row r="55" spans="1:6" ht="18" thickBot="1">
+      <c r="C55" s="58">
+        <v>400</v>
+      </c>
+      <c r="D55" s="57"/>
+      <c r="E55" s="57"/>
+      <c r="F55" s="57"/>
+    </row>
+    <row r="57" spans="1:6" ht="18" thickBot="1"/>
+    <row r="58" spans="1:6" ht="36.6" customHeight="1" thickBot="1">
+      <c r="A58" s="36">
+        <v>4</v>
+      </c>
+      <c r="B58" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="C58" s="37" t="s">
+        <v>440</v>
+      </c>
+      <c r="D58" s="38"/>
+      <c r="E58" s="38"/>
+      <c r="F58" s="39"/>
+    </row>
+    <row r="59" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C59" s="40" t="s">
+        <v>448</v>
+      </c>
+      <c r="D59" s="41"/>
+      <c r="E59" s="41"/>
+      <c r="F59" s="42"/>
+    </row>
+    <row r="60" spans="1:6" ht="28.2" thickBot="1">
+      <c r="C60" s="43" t="s">
+        <v>399</v>
+      </c>
+      <c r="D60" s="44"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="45"/>
+    </row>
+    <row r="61" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C61" s="46" t="s">
+        <v>400</v>
+      </c>
+      <c r="D61" s="47" t="s">
+        <v>401</v>
+      </c>
+      <c r="E61" s="47" t="s">
+        <v>402</v>
+      </c>
+      <c r="F61" s="48"/>
+    </row>
+    <row r="62" spans="1:6" ht="18" thickBot="1">
+      <c r="C62" s="49" t="s">
+        <v>403</v>
+      </c>
+      <c r="D62" s="48" t="s">
+        <v>404</v>
+      </c>
+      <c r="E62" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="F62" s="48"/>
+    </row>
+    <row r="63" spans="1:6" ht="28.2" thickBot="1">
+      <c r="C63" s="50" t="s">
+        <v>405</v>
+      </c>
+      <c r="D63" s="51"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="52"/>
+    </row>
+    <row r="64" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C64" s="53" t="s">
+        <v>400</v>
+      </c>
+      <c r="D64" s="53" t="s">
+        <v>401</v>
+      </c>
+      <c r="E64" s="53" t="s">
+        <v>406</v>
+      </c>
+      <c r="F64" s="53" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="18" thickBot="1">
+      <c r="C65" s="54" t="s">
+        <v>441</v>
+      </c>
+      <c r="D65" s="54" t="s">
+        <v>421</v>
+      </c>
+      <c r="E65" s="54" t="s">
+        <v>423</v>
+      </c>
+      <c r="F65" s="54" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="28.2" thickBot="1">
+      <c r="C66" s="55" t="s">
+        <v>408</v>
+      </c>
+      <c r="D66" s="55"/>
+      <c r="E66" s="55"/>
+      <c r="F66" s="55"/>
+    </row>
+    <row r="67" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C67" s="53" t="s">
+        <v>409</v>
+      </c>
+      <c r="D67" s="53" t="s">
+        <v>408</v>
+      </c>
+      <c r="E67" s="53" t="s">
+        <v>401</v>
+      </c>
+      <c r="F67" s="53" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="18" thickBot="1">
+      <c r="C68" s="56">
+        <v>200</v>
+      </c>
+      <c r="D68" s="57" t="s">
+        <v>429</v>
+      </c>
+      <c r="E68" s="57" t="s">
+        <v>410</v>
+      </c>
+      <c r="F68" s="57" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="18" thickBot="1">
+      <c r="C69" s="56"/>
+      <c r="D69" s="57" t="s">
+        <v>431</v>
+      </c>
+      <c r="E69" s="57" t="s">
+        <v>404</v>
+      </c>
+      <c r="F69" s="57" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="18" thickBot="1">
+      <c r="C70" s="56"/>
+      <c r="D70" s="57" t="s">
+        <v>433</v>
+      </c>
+      <c r="E70" s="57" t="s">
+        <v>434</v>
+      </c>
+      <c r="F70" s="57" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="18" thickBot="1">
+      <c r="C71" s="56"/>
+      <c r="D71" s="57"/>
+      <c r="E71" s="57"/>
+      <c r="F71" s="57"/>
+    </row>
+    <row r="72" spans="1:6" ht="18" thickBot="1">
+      <c r="C72" s="58">
+        <v>400</v>
+      </c>
+      <c r="D72" s="57"/>
+      <c r="E72" s="57"/>
+      <c r="F72" s="57"/>
+    </row>
+    <row r="74" spans="1:6" ht="18" thickBot="1"/>
+    <row r="75" spans="1:6" ht="36.6" customHeight="1" thickBot="1">
+      <c r="A75" s="36">
+        <v>5</v>
+      </c>
+      <c r="B75" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="C75" s="37" t="s">
+        <v>443</v>
+      </c>
+      <c r="D75" s="38"/>
+      <c r="E75" s="38"/>
+      <c r="F75" s="39"/>
+    </row>
+    <row r="76" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C76" s="40" t="s">
+        <v>447</v>
+      </c>
+      <c r="D76" s="41"/>
+      <c r="E76" s="41"/>
+      <c r="F76" s="42"/>
+    </row>
+    <row r="77" spans="1:6" ht="28.2" thickBot="1">
+      <c r="C77" s="43" t="s">
+        <v>399</v>
+      </c>
+      <c r="D77" s="44"/>
+      <c r="E77" s="44"/>
+      <c r="F77" s="45"/>
+    </row>
+    <row r="78" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C78" s="46" t="s">
+        <v>400</v>
+      </c>
+      <c r="D78" s="47" t="s">
+        <v>401</v>
+      </c>
+      <c r="E78" s="47" t="s">
+        <v>402</v>
+      </c>
+      <c r="F78" s="48"/>
+    </row>
+    <row r="79" spans="1:6" ht="18" thickBot="1">
+      <c r="C79" s="49" t="s">
+        <v>403</v>
+      </c>
+      <c r="D79" s="48" t="s">
+        <v>404</v>
+      </c>
+      <c r="E79" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="F79" s="48"/>
+    </row>
+    <row r="80" spans="1:6" ht="28.2" thickBot="1">
+      <c r="C80" s="50" t="s">
+        <v>405</v>
+      </c>
+      <c r="D80" s="51"/>
+      <c r="E80" s="51"/>
+      <c r="F80" s="52"/>
+    </row>
+    <row r="81" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C81" s="53" t="s">
+        <v>400</v>
+      </c>
+      <c r="D81" s="53" t="s">
+        <v>401</v>
+      </c>
+      <c r="E81" s="53" t="s">
+        <v>406</v>
+      </c>
+      <c r="F81" s="53" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="18" thickBot="1">
+      <c r="C82" s="54" t="s">
+        <v>416</v>
+      </c>
+      <c r="D82" s="54" t="s">
+        <v>421</v>
+      </c>
+      <c r="E82" s="54" t="s">
+        <v>423</v>
+      </c>
+      <c r="F82" s="54" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="28.2" thickBot="1">
+      <c r="C83" s="55" t="s">
+        <v>408</v>
+      </c>
+      <c r="D83" s="55"/>
+      <c r="E83" s="55"/>
+      <c r="F83" s="55"/>
+    </row>
+    <row r="84" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C84" s="53" t="s">
+        <v>409</v>
+      </c>
+      <c r="D84" s="53" t="s">
+        <v>408</v>
+      </c>
+      <c r="E84" s="53" t="s">
+        <v>401</v>
+      </c>
+      <c r="F84" s="53" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="18" thickBot="1">
+      <c r="C85" s="56">
+        <v>200</v>
+      </c>
+      <c r="D85" s="57" t="s">
+        <v>429</v>
+      </c>
+      <c r="E85" s="57" t="s">
+        <v>410</v>
+      </c>
+      <c r="F85" s="57" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="18" thickBot="1">
+      <c r="C86" s="56"/>
+      <c r="D86" s="57" t="s">
+        <v>431</v>
+      </c>
+      <c r="E86" s="57" t="s">
+        <v>404</v>
+      </c>
+      <c r="F86" s="57" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="18" thickBot="1">
+      <c r="C87" s="56"/>
+      <c r="D87" s="57" t="s">
+        <v>433</v>
+      </c>
+      <c r="E87" s="57" t="s">
+        <v>434</v>
+      </c>
+      <c r="F87" s="57" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="18" thickBot="1">
+      <c r="C88" s="56"/>
+      <c r="D88" s="57"/>
+      <c r="E88" s="57"/>
+      <c r="F88" s="57"/>
+    </row>
+    <row r="89" spans="1:6" ht="18" thickBot="1">
+      <c r="C89" s="58">
+        <v>400</v>
+      </c>
+      <c r="D89" s="57"/>
+      <c r="E89" s="57"/>
+      <c r="F89" s="57"/>
+    </row>
+    <row r="91" spans="1:6" ht="18" thickBot="1"/>
+    <row r="92" spans="1:6" ht="36.6" thickBot="1">
+      <c r="A92" s="59">
+        <v>6</v>
+      </c>
+      <c r="B92" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="C92" s="60" t="s">
+        <v>445</v>
+      </c>
+      <c r="D92" s="61"/>
+      <c r="E92" s="61"/>
+      <c r="F92" s="62"/>
+    </row>
+    <row r="93" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C93" s="40" t="s">
+        <v>446</v>
+      </c>
+      <c r="D93" s="41"/>
+      <c r="E93" s="41"/>
+      <c r="F93" s="42"/>
+    </row>
+    <row r="94" spans="1:6" ht="28.2" thickBot="1">
+      <c r="C94" s="43" t="s">
+        <v>399</v>
+      </c>
+      <c r="D94" s="44"/>
+      <c r="E94" s="44"/>
+      <c r="F94" s="45"/>
+    </row>
+    <row r="95" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C95" s="46" t="s">
+        <v>400</v>
+      </c>
+      <c r="D95" s="47" t="s">
+        <v>401</v>
+      </c>
+      <c r="E95" s="47" t="s">
+        <v>402</v>
+      </c>
+      <c r="F95" s="48"/>
+    </row>
+    <row r="96" spans="1:6" s="19" customFormat="1" ht="19.8" thickBot="1">
+      <c r="A96" s="35"/>
+      <c r="B96" s="35"/>
+      <c r="C96" s="63" t="s">
+        <v>449</v>
+      </c>
+      <c r="D96" s="64" t="s">
+        <v>421</v>
+      </c>
+      <c r="E96" s="64" t="s">
+        <v>451</v>
+      </c>
+      <c r="F96" s="48" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="18" thickBot="1">
+      <c r="C97" s="49" t="s">
+        <v>403</v>
+      </c>
+      <c r="D97" s="48" t="s">
+        <v>404</v>
+      </c>
+      <c r="E97" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="F97" s="48"/>
+    </row>
+    <row r="98" spans="1:6" ht="28.2" thickBot="1">
+      <c r="C98" s="50" t="s">
+        <v>405</v>
+      </c>
+      <c r="D98" s="51"/>
+      <c r="E98" s="51"/>
+      <c r="F98" s="52"/>
+    </row>
+    <row r="99" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C99" s="53" t="s">
+        <v>400</v>
+      </c>
+      <c r="D99" s="53" t="s">
+        <v>401</v>
+      </c>
+      <c r="E99" s="53" t="s">
+        <v>406</v>
+      </c>
+      <c r="F99" s="53" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="18" thickBot="1">
+      <c r="C100" s="54" t="s">
+        <v>438</v>
+      </c>
+      <c r="D100" s="54" t="s">
+        <v>422</v>
+      </c>
+      <c r="E100" s="54" t="s">
+        <v>423</v>
+      </c>
+      <c r="F100" s="54" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="28.2" thickBot="1">
+      <c r="C101" s="55" t="s">
+        <v>408</v>
+      </c>
+      <c r="D101" s="55"/>
+      <c r="E101" s="55"/>
+      <c r="F101" s="55"/>
+    </row>
+    <row r="102" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C102" s="53" t="s">
+        <v>409</v>
+      </c>
+      <c r="D102" s="53" t="s">
+        <v>408</v>
+      </c>
+      <c r="E102" s="53" t="s">
+        <v>401</v>
+      </c>
+      <c r="F102" s="53" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="18" thickBot="1">
+      <c r="C103" s="56">
+        <v>200</v>
+      </c>
+      <c r="D103" s="57" t="s">
+        <v>429</v>
+      </c>
+      <c r="E103" s="57" t="s">
+        <v>410</v>
+      </c>
+      <c r="F103" s="57" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="18" thickBot="1">
+      <c r="C104" s="56"/>
+      <c r="D104" s="57" t="s">
+        <v>431</v>
+      </c>
+      <c r="E104" s="57" t="s">
+        <v>404</v>
+      </c>
+      <c r="F104" s="57" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="18" thickBot="1">
+      <c r="C105" s="56"/>
+      <c r="D105" s="57" t="s">
+        <v>433</v>
+      </c>
+      <c r="E105" s="57" t="s">
+        <v>434</v>
+      </c>
+      <c r="F105" s="57" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="18" thickBot="1">
+      <c r="C106" s="56"/>
+      <c r="D106" s="57"/>
+      <c r="E106" s="57"/>
+      <c r="F106" s="57"/>
+    </row>
+    <row r="107" spans="1:6" ht="18" thickBot="1">
+      <c r="C107" s="58">
+        <v>400</v>
+      </c>
+      <c r="D107" s="57"/>
+      <c r="E107" s="57"/>
+      <c r="F107" s="57"/>
+    </row>
+    <row r="109" spans="1:6" ht="18" thickBot="1"/>
+    <row r="110" spans="1:6" ht="36.6" thickBot="1">
+      <c r="A110" s="59">
+        <v>7</v>
+      </c>
+      <c r="B110" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="C110" s="60" t="s">
+        <v>452</v>
+      </c>
+      <c r="D110" s="61"/>
+      <c r="E110" s="61"/>
+      <c r="F110" s="62"/>
+    </row>
+    <row r="111" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C111" s="40" t="s">
+        <v>454</v>
+      </c>
+      <c r="D111" s="41"/>
+      <c r="E111" s="41"/>
+      <c r="F111" s="42"/>
+    </row>
+    <row r="112" spans="1:6" ht="28.2" thickBot="1">
+      <c r="C112" s="43" t="s">
+        <v>399</v>
+      </c>
+      <c r="D112" s="44"/>
+      <c r="E112" s="44"/>
+      <c r="F112" s="45"/>
+    </row>
+    <row r="113" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C113" s="46" t="s">
+        <v>400</v>
+      </c>
+      <c r="D113" s="47" t="s">
+        <v>401</v>
+      </c>
+      <c r="E113" s="47" t="s">
+        <v>402</v>
+      </c>
+      <c r="F113" s="48"/>
+    </row>
+    <row r="114" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C114" s="63" t="s">
+        <v>449</v>
+      </c>
+      <c r="D114" s="64" t="s">
+        <v>421</v>
+      </c>
+      <c r="E114" s="64" t="s">
+        <v>451</v>
+      </c>
+      <c r="F114" s="48" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="18" thickBot="1">
+      <c r="C115" s="49" t="s">
+        <v>403</v>
+      </c>
+      <c r="D115" s="48" t="s">
+        <v>404</v>
+      </c>
+      <c r="E115" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="F115" s="48"/>
+    </row>
+    <row r="116" spans="1:6" ht="28.2" thickBot="1">
+      <c r="C116" s="50" t="s">
+        <v>405</v>
+      </c>
+      <c r="D116" s="51"/>
+      <c r="E116" s="51"/>
+      <c r="F116" s="52"/>
+    </row>
+    <row r="117" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C117" s="53" t="s">
+        <v>400</v>
+      </c>
+      <c r="D117" s="53" t="s">
+        <v>401</v>
+      </c>
+      <c r="E117" s="53" t="s">
+        <v>406</v>
+      </c>
+      <c r="F117" s="53" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="18" thickBot="1">
+      <c r="C118" s="54" t="s">
+        <v>438</v>
+      </c>
+      <c r="D118" s="54" t="s">
+        <v>422</v>
+      </c>
+      <c r="E118" s="54" t="s">
+        <v>423</v>
+      </c>
+      <c r="F118" s="54" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="28.2" thickBot="1">
+      <c r="C119" s="55" t="s">
+        <v>408</v>
+      </c>
+      <c r="D119" s="55"/>
+      <c r="E119" s="55"/>
+      <c r="F119" s="55"/>
+    </row>
+    <row r="120" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C120" s="53" t="s">
+        <v>409</v>
+      </c>
+      <c r="D120" s="53" t="s">
+        <v>408</v>
+      </c>
+      <c r="E120" s="53" t="s">
+        <v>401</v>
+      </c>
+      <c r="F120" s="53" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="18" thickBot="1">
+      <c r="C121" s="56">
+        <v>200</v>
+      </c>
+      <c r="D121" s="57" t="s">
+        <v>429</v>
+      </c>
+      <c r="E121" s="57" t="s">
+        <v>410</v>
+      </c>
+      <c r="F121" s="57" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="18" thickBot="1">
+      <c r="C122" s="56"/>
+      <c r="D122" s="57" t="s">
+        <v>431</v>
+      </c>
+      <c r="E122" s="57" t="s">
+        <v>404</v>
+      </c>
+      <c r="F122" s="57" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="18" thickBot="1">
+      <c r="C123" s="56"/>
+      <c r="D123" s="57" t="s">
+        <v>433</v>
+      </c>
+      <c r="E123" s="57" t="s">
+        <v>434</v>
+      </c>
+      <c r="F123" s="57" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="18" thickBot="1">
+      <c r="C124" s="56"/>
+      <c r="D124" s="57"/>
+      <c r="E124" s="57"/>
+      <c r="F124" s="57"/>
+    </row>
+    <row r="125" spans="1:6" ht="18" thickBot="1">
+      <c r="C125" s="58">
+        <v>400</v>
+      </c>
+      <c r="D125" s="57"/>
+      <c r="E125" s="57"/>
+      <c r="F125" s="57"/>
+    </row>
+    <row r="127" spans="1:6" ht="18" thickBot="1"/>
+    <row r="128" spans="1:6" ht="36.6" thickBot="1">
+      <c r="A128" s="59">
+        <v>8</v>
+      </c>
+      <c r="B128" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="C128" s="60" t="s">
+        <v>453</v>
+      </c>
+      <c r="D128" s="61"/>
+      <c r="E128" s="61"/>
+      <c r="F128" s="62"/>
+    </row>
+    <row r="129" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C129" s="40" t="s">
+        <v>455</v>
+      </c>
+      <c r="D129" s="41"/>
+      <c r="E129" s="41"/>
+      <c r="F129" s="42"/>
+    </row>
+    <row r="130" spans="1:6" ht="28.2" thickBot="1">
+      <c r="C130" s="43" t="s">
+        <v>399</v>
+      </c>
+      <c r="D130" s="44"/>
+      <c r="E130" s="44"/>
+      <c r="F130" s="45"/>
+    </row>
+    <row r="131" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C131" s="46" t="s">
+        <v>400</v>
+      </c>
+      <c r="D131" s="47" t="s">
+        <v>401</v>
+      </c>
+      <c r="E131" s="47" t="s">
+        <v>402</v>
+      </c>
+      <c r="F131" s="48"/>
+    </row>
+    <row r="132" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C132" s="63" t="s">
+        <v>449</v>
+      </c>
+      <c r="D132" s="64" t="s">
+        <v>421</v>
+      </c>
+      <c r="E132" s="64" t="s">
+        <v>451</v>
+      </c>
+      <c r="F132" s="48" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="18" thickBot="1">
+      <c r="C133" s="49" t="s">
+        <v>403</v>
+      </c>
+      <c r="D133" s="48" t="s">
+        <v>404</v>
+      </c>
+      <c r="E133" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="F133" s="48"/>
+    </row>
+    <row r="134" spans="1:6" ht="28.2" thickBot="1">
+      <c r="C134" s="50" t="s">
+        <v>405</v>
+      </c>
+      <c r="D134" s="51"/>
+      <c r="E134" s="51"/>
+      <c r="F134" s="52"/>
+    </row>
+    <row r="135" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C135" s="53" t="s">
+        <v>400</v>
+      </c>
+      <c r="D135" s="53" t="s">
+        <v>401</v>
+      </c>
+      <c r="E135" s="53" t="s">
+        <v>406</v>
+      </c>
+      <c r="F135" s="53" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" s="19" customFormat="1" ht="18" thickBot="1">
+      <c r="A136" s="35"/>
+      <c r="B136" s="35"/>
+      <c r="C136" s="54" t="s">
+        <v>438</v>
+      </c>
+      <c r="D136" s="54" t="s">
+        <v>422</v>
+      </c>
+      <c r="E136" s="54" t="s">
+        <v>423</v>
+      </c>
+      <c r="F136" s="54" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="18" thickBot="1">
+      <c r="C137" s="54" t="s">
+        <v>457</v>
+      </c>
+      <c r="D137" s="54" t="s">
+        <v>422</v>
+      </c>
+      <c r="E137" s="54" t="s">
+        <v>423</v>
+      </c>
+      <c r="F137" s="54" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="28.2" thickBot="1">
+      <c r="C138" s="55" t="s">
+        <v>408</v>
+      </c>
+      <c r="D138" s="55"/>
+      <c r="E138" s="55"/>
+      <c r="F138" s="55"/>
+    </row>
+    <row r="139" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C139" s="53" t="s">
+        <v>409</v>
+      </c>
+      <c r="D139" s="53" t="s">
+        <v>408</v>
+      </c>
+      <c r="E139" s="53" t="s">
+        <v>401</v>
+      </c>
+      <c r="F139" s="53" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="18" thickBot="1">
+      <c r="C140" s="56">
+        <v>200</v>
+      </c>
+      <c r="D140" s="57" t="s">
+        <v>429</v>
+      </c>
+      <c r="E140" s="57" t="s">
+        <v>410</v>
+      </c>
+      <c r="F140" s="57" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="18" thickBot="1">
+      <c r="C141" s="56"/>
+      <c r="D141" s="57" t="s">
+        <v>431</v>
+      </c>
+      <c r="E141" s="57" t="s">
+        <v>404</v>
+      </c>
+      <c r="F141" s="57" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="18" thickBot="1">
+      <c r="C142" s="56"/>
+      <c r="D142" s="57" t="s">
+        <v>433</v>
+      </c>
+      <c r="E142" s="57" t="s">
+        <v>434</v>
+      </c>
+      <c r="F142" s="57" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="18" thickBot="1">
+      <c r="C143" s="56"/>
+      <c r="D143" s="57"/>
+      <c r="E143" s="57"/>
+      <c r="F143" s="57"/>
+    </row>
+    <row r="144" spans="1:6" ht="18" thickBot="1">
+      <c r="C144" s="58">
+        <v>400</v>
+      </c>
+      <c r="D144" s="57"/>
+      <c r="E144" s="57"/>
+      <c r="F144" s="57"/>
+    </row>
+    <row r="146" spans="1:6" ht="18" thickBot="1"/>
+    <row r="147" spans="1:6" ht="36.6" thickBot="1">
+      <c r="A147" s="59">
+        <v>9</v>
+      </c>
+      <c r="B147" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="C147" s="60" t="s">
+        <v>459</v>
+      </c>
+      <c r="D147" s="61"/>
+      <c r="E147" s="61"/>
+      <c r="F147" s="62"/>
+    </row>
+    <row r="148" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C148" s="40" t="s">
+        <v>472</v>
+      </c>
+      <c r="D148" s="41"/>
+      <c r="E148" s="41"/>
+      <c r="F148" s="42"/>
+    </row>
+    <row r="149" spans="1:6" ht="28.2" thickBot="1">
+      <c r="C149" s="43" t="s">
+        <v>399</v>
+      </c>
+      <c r="D149" s="44"/>
+      <c r="E149" s="44"/>
+      <c r="F149" s="45"/>
+    </row>
+    <row r="150" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C150" s="46" t="s">
+        <v>400</v>
+      </c>
+      <c r="D150" s="47" t="s">
+        <v>401</v>
+      </c>
+      <c r="E150" s="47" t="s">
+        <v>402</v>
+      </c>
+      <c r="F150" s="48"/>
+    </row>
+    <row r="151" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C151" s="63" t="s">
+        <v>449</v>
+      </c>
+      <c r="D151" s="64" t="s">
+        <v>421</v>
+      </c>
+      <c r="E151" s="64" t="s">
+        <v>451</v>
+      </c>
+      <c r="F151" s="48" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="18" thickBot="1">
+      <c r="C152" s="49" t="s">
+        <v>403</v>
+      </c>
+      <c r="D152" s="48" t="s">
+        <v>404</v>
+      </c>
+      <c r="E152" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="F152" s="48"/>
+    </row>
+    <row r="153" spans="1:6" ht="28.2" thickBot="1">
+      <c r="C153" s="50" t="s">
+        <v>405</v>
+      </c>
+      <c r="D153" s="51"/>
+      <c r="E153" s="51"/>
+      <c r="F153" s="52"/>
+    </row>
+    <row r="154" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C154" s="53" t="s">
+        <v>400</v>
+      </c>
+      <c r="D154" s="53" t="s">
+        <v>401</v>
+      </c>
+      <c r="E154" s="53" t="s">
+        <v>406</v>
+      </c>
+      <c r="F154" s="53" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="18" thickBot="1">
+      <c r="C155" s="54" t="s">
+        <v>457</v>
+      </c>
+      <c r="D155" s="54" t="s">
+        <v>422</v>
+      </c>
+      <c r="E155" s="54" t="s">
+        <v>423</v>
+      </c>
+      <c r="F155" s="54" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" s="19" customFormat="1" ht="18" thickBot="1">
+      <c r="A156" s="35"/>
+      <c r="B156" s="35"/>
+      <c r="C156" s="54" t="s">
+        <v>460</v>
+      </c>
+      <c r="D156" s="54" t="s">
+        <v>421</v>
+      </c>
+      <c r="E156" s="54" t="s">
+        <v>465</v>
+      </c>
+      <c r="F156" s="54" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" s="19" customFormat="1" ht="18" thickBot="1">
+      <c r="A157" s="35"/>
+      <c r="B157" s="35"/>
+      <c r="C157" s="54" t="s">
+        <v>461</v>
+      </c>
+      <c r="D157" s="54" t="s">
+        <v>422</v>
+      </c>
+      <c r="E157" s="54" t="s">
+        <v>465</v>
+      </c>
+      <c r="F157" s="54" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" s="19" customFormat="1" ht="18" thickBot="1">
+      <c r="A158" s="35"/>
+      <c r="B158" s="35"/>
+      <c r="C158" s="54" t="s">
+        <v>462</v>
+      </c>
+      <c r="D158" s="54" t="s">
+        <v>422</v>
+      </c>
+      <c r="E158" s="54" t="s">
+        <v>465</v>
+      </c>
+      <c r="F158" s="54" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" s="19" customFormat="1" ht="18" thickBot="1">
+      <c r="A159" s="35"/>
+      <c r="B159" s="35"/>
+      <c r="C159" s="54" t="s">
+        <v>463</v>
+      </c>
+      <c r="D159" s="54" t="s">
+        <v>422</v>
+      </c>
+      <c r="E159" s="54" t="s">
+        <v>465</v>
+      </c>
+      <c r="F159" s="54" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" s="19" customFormat="1" ht="18" thickBot="1">
+      <c r="A160" s="35"/>
+      <c r="B160" s="35"/>
+      <c r="C160" s="54" t="s">
+        <v>464</v>
+      </c>
+      <c r="D160" s="54" t="s">
+        <v>422</v>
+      </c>
+      <c r="E160" s="54" t="s">
+        <v>465</v>
+      </c>
+      <c r="F160" s="54" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="18" thickBot="1">
+      <c r="C161" s="54"/>
+      <c r="D161" s="54"/>
+      <c r="E161" s="54"/>
+      <c r="F161" s="54"/>
+    </row>
+    <row r="162" spans="1:6" ht="28.2" thickBot="1">
+      <c r="C162" s="55" t="s">
+        <v>408</v>
+      </c>
+      <c r="D162" s="55"/>
+      <c r="E162" s="55"/>
+      <c r="F162" s="55"/>
+    </row>
+    <row r="163" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C163" s="53" t="s">
+        <v>409</v>
+      </c>
+      <c r="D163" s="53" t="s">
+        <v>408</v>
+      </c>
+      <c r="E163" s="53" t="s">
+        <v>401</v>
+      </c>
+      <c r="F163" s="53" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="18" thickBot="1">
+      <c r="C164" s="56">
+        <v>200</v>
+      </c>
+      <c r="D164" s="57" t="s">
+        <v>429</v>
+      </c>
+      <c r="E164" s="57" t="s">
+        <v>410</v>
+      </c>
+      <c r="F164" s="57" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="18" thickBot="1">
+      <c r="C165" s="56"/>
+      <c r="D165" s="57" t="s">
+        <v>431</v>
+      </c>
+      <c r="E165" s="57" t="s">
+        <v>404</v>
+      </c>
+      <c r="F165" s="57" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="18" thickBot="1">
+      <c r="C166" s="56"/>
+      <c r="D166" s="57" t="s">
+        <v>433</v>
+      </c>
+      <c r="E166" s="57" t="s">
+        <v>434</v>
+      </c>
+      <c r="F166" s="57" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="18" thickBot="1">
+      <c r="C167" s="56"/>
+      <c r="D167" s="57"/>
+      <c r="E167" s="57"/>
+      <c r="F167" s="57"/>
+    </row>
+    <row r="168" spans="1:6" ht="18" thickBot="1">
+      <c r="C168" s="58">
+        <v>400</v>
+      </c>
+      <c r="D168" s="57"/>
+      <c r="E168" s="57"/>
+      <c r="F168" s="57"/>
+    </row>
+    <row r="170" spans="1:6" ht="18" thickBot="1"/>
+    <row r="171" spans="1:6" ht="36.6" thickBot="1">
+      <c r="A171" s="59">
+        <v>10</v>
+      </c>
+      <c r="B171" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="C171" s="60" t="s">
+        <v>473</v>
+      </c>
+      <c r="D171" s="61"/>
+      <c r="E171" s="61"/>
+      <c r="F171" s="62"/>
+    </row>
+    <row r="172" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C172" s="40" t="s">
+        <v>474</v>
+      </c>
+      <c r="D172" s="41"/>
+      <c r="E172" s="41"/>
+      <c r="F172" s="42"/>
+    </row>
+    <row r="173" spans="1:6" ht="28.2" thickBot="1">
+      <c r="C173" s="43" t="s">
+        <v>399</v>
+      </c>
+      <c r="D173" s="44"/>
+      <c r="E173" s="44"/>
+      <c r="F173" s="45"/>
+    </row>
+    <row r="174" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C174" s="46" t="s">
+        <v>400</v>
+      </c>
+      <c r="D174" s="47" t="s">
+        <v>401</v>
+      </c>
+      <c r="E174" s="47" t="s">
+        <v>402</v>
+      </c>
+      <c r="F174" s="48"/>
+    </row>
+    <row r="175" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C175" s="63" t="s">
+        <v>449</v>
+      </c>
+      <c r="D175" s="64" t="s">
+        <v>421</v>
+      </c>
+      <c r="E175" s="64" t="s">
+        <v>451</v>
+      </c>
+      <c r="F175" s="48" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="18" thickBot="1">
+      <c r="C176" s="49" t="s">
+        <v>403</v>
+      </c>
+      <c r="D176" s="48" t="s">
+        <v>404</v>
+      </c>
+      <c r="E176" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="F176" s="48"/>
+    </row>
+    <row r="177" spans="1:6" ht="28.2" thickBot="1">
+      <c r="C177" s="50" t="s">
+        <v>405</v>
+      </c>
+      <c r="D177" s="51"/>
+      <c r="E177" s="51"/>
+      <c r="F177" s="52"/>
+    </row>
+    <row r="178" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C178" s="53" t="s">
+        <v>400</v>
+      </c>
+      <c r="D178" s="53" t="s">
+        <v>401</v>
+      </c>
+      <c r="E178" s="53" t="s">
+        <v>406</v>
+      </c>
+      <c r="F178" s="53" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="18" thickBot="1">
+      <c r="C179" s="54" t="s">
+        <v>457</v>
+      </c>
+      <c r="D179" s="54" t="s">
+        <v>422</v>
+      </c>
+      <c r="E179" s="54" t="s">
+        <v>423</v>
+      </c>
+      <c r="F179" s="54" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="18" thickBot="1">
+      <c r="C180" s="54" t="s">
+        <v>475</v>
+      </c>
+      <c r="D180" s="54" t="s">
+        <v>422</v>
+      </c>
+      <c r="E180" s="54" t="s">
+        <v>423</v>
+      </c>
+      <c r="F180" s="54" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="18" thickBot="1">
+      <c r="C181" s="54"/>
+      <c r="D181" s="54"/>
+      <c r="E181" s="54"/>
+      <c r="F181" s="54"/>
+    </row>
+    <row r="182" spans="1:6" ht="28.2" thickBot="1">
+      <c r="C182" s="55" t="s">
+        <v>408</v>
+      </c>
+      <c r="D182" s="55"/>
+      <c r="E182" s="55"/>
+      <c r="F182" s="55"/>
+    </row>
+    <row r="183" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C183" s="53" t="s">
+        <v>409</v>
+      </c>
+      <c r="D183" s="53" t="s">
+        <v>408</v>
+      </c>
+      <c r="E183" s="53" t="s">
+        <v>401</v>
+      </c>
+      <c r="F183" s="53" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="18" thickBot="1">
+      <c r="C184" s="56">
+        <v>200</v>
+      </c>
+      <c r="D184" s="57" t="s">
+        <v>429</v>
+      </c>
+      <c r="E184" s="57" t="s">
+        <v>410</v>
+      </c>
+      <c r="F184" s="57" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="18" thickBot="1">
+      <c r="C185" s="56"/>
+      <c r="D185" s="57" t="s">
+        <v>431</v>
+      </c>
+      <c r="E185" s="57" t="s">
+        <v>404</v>
+      </c>
+      <c r="F185" s="57" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="18" thickBot="1">
+      <c r="C186" s="56"/>
+      <c r="D186" s="57" t="s">
+        <v>433</v>
+      </c>
+      <c r="E186" s="57" t="s">
+        <v>434</v>
+      </c>
+      <c r="F186" s="57" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="18" thickBot="1">
+      <c r="C187" s="56"/>
+      <c r="D187" s="57"/>
+      <c r="E187" s="57"/>
+      <c r="F187" s="57"/>
+    </row>
+    <row r="188" spans="1:6" ht="18" thickBot="1">
+      <c r="C188" s="58">
+        <v>400</v>
+      </c>
+      <c r="D188" s="57"/>
+      <c r="E188" s="57"/>
+      <c r="F188" s="57"/>
+    </row>
+    <row r="190" spans="1:6" ht="18" thickBot="1"/>
+    <row r="191" spans="1:6" ht="36.6" customHeight="1" thickBot="1">
+      <c r="A191" s="59">
+        <v>11</v>
+      </c>
+      <c r="B191" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="C191" s="60" t="s">
+        <v>478</v>
+      </c>
+      <c r="D191" s="61"/>
+      <c r="E191" s="61"/>
+      <c r="F191" s="62"/>
+    </row>
+    <row r="192" spans="1:6" ht="19.8" customHeight="1" thickBot="1">
+      <c r="C192" s="40" t="s">
+        <v>481</v>
+      </c>
+      <c r="D192" s="41"/>
+      <c r="E192" s="41"/>
+      <c r="F192" s="42"/>
+    </row>
+    <row r="193" spans="3:6" ht="28.2" thickBot="1">
+      <c r="C193" s="43" t="s">
+        <v>399</v>
+      </c>
+      <c r="D193" s="44"/>
+      <c r="E193" s="44"/>
+      <c r="F193" s="45"/>
+    </row>
+    <row r="194" spans="3:6" ht="19.8" thickBot="1">
+      <c r="C194" s="46" t="s">
+        <v>400</v>
+      </c>
+      <c r="D194" s="47" t="s">
+        <v>401</v>
+      </c>
+      <c r="E194" s="47" t="s">
+        <v>402</v>
+      </c>
+      <c r="F194" s="48"/>
+    </row>
+    <row r="195" spans="3:6" ht="19.8" thickBot="1">
+      <c r="C195" s="63" t="s">
+        <v>449</v>
+      </c>
+      <c r="D195" s="64" t="s">
+        <v>421</v>
+      </c>
+      <c r="E195" s="64" t="s">
+        <v>451</v>
+      </c>
+      <c r="F195" s="48" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="196" spans="3:6" ht="18" thickBot="1">
+      <c r="C196" s="49" t="s">
+        <v>403</v>
+      </c>
+      <c r="D196" s="48" t="s">
+        <v>404</v>
+      </c>
+      <c r="E196" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="F196" s="48"/>
+    </row>
+    <row r="197" spans="3:6" ht="28.2" thickBot="1">
+      <c r="C197" s="50" t="s">
+        <v>405</v>
+      </c>
+      <c r="D197" s="51"/>
+      <c r="E197" s="51"/>
+      <c r="F197" s="52"/>
+    </row>
+    <row r="198" spans="3:6" ht="19.8" thickBot="1">
+      <c r="C198" s="53" t="s">
+        <v>400</v>
+      </c>
+      <c r="D198" s="53" t="s">
+        <v>401</v>
+      </c>
+      <c r="E198" s="53" t="s">
+        <v>406</v>
+      </c>
+      <c r="F198" s="53" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="199" spans="3:6" ht="18" thickBot="1">
+      <c r="C199" s="54" t="s">
+        <v>457</v>
+      </c>
+      <c r="D199" s="54" t="s">
+        <v>422</v>
+      </c>
+      <c r="E199" s="54" t="s">
+        <v>423</v>
+      </c>
+      <c r="F199" s="54" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="200" spans="3:6" ht="18" thickBot="1">
+      <c r="C200" s="54"/>
+      <c r="D200" s="54"/>
+      <c r="E200" s="54"/>
+      <c r="F200" s="54"/>
+    </row>
+    <row r="201" spans="3:6" ht="28.2" thickBot="1">
+      <c r="C201" s="55" t="s">
+        <v>408</v>
+      </c>
+      <c r="D201" s="55"/>
+      <c r="E201" s="55"/>
+      <c r="F201" s="55"/>
+    </row>
+    <row r="202" spans="3:6" ht="19.8" thickBot="1">
+      <c r="C202" s="53" t="s">
+        <v>409</v>
+      </c>
+      <c r="D202" s="53" t="s">
+        <v>408</v>
+      </c>
+      <c r="E202" s="53" t="s">
+        <v>401</v>
+      </c>
+      <c r="F202" s="53" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="203" spans="3:6" ht="18" thickBot="1">
+      <c r="C203" s="56">
+        <v>200</v>
+      </c>
+      <c r="D203" s="57" t="s">
+        <v>429</v>
+      </c>
+      <c r="E203" s="57" t="s">
+        <v>410</v>
+      </c>
+      <c r="F203" s="57" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="204" spans="3:6" ht="18" thickBot="1">
+      <c r="C204" s="56"/>
+      <c r="D204" s="57" t="s">
+        <v>431</v>
+      </c>
+      <c r="E204" s="57" t="s">
+        <v>404</v>
+      </c>
+      <c r="F204" s="57" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="205" spans="3:6" ht="18" thickBot="1">
+      <c r="C205" s="56"/>
+      <c r="D205" s="57" t="s">
+        <v>433</v>
+      </c>
+      <c r="E205" s="57" t="s">
+        <v>434</v>
+      </c>
+      <c r="F205" s="57" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="206" spans="3:6" ht="18" thickBot="1">
+      <c r="C206" s="56"/>
+      <c r="D206" s="57"/>
+      <c r="E206" s="57"/>
+      <c r="F206" s="57"/>
+    </row>
+    <row r="207" spans="3:6" ht="18" thickBot="1">
+      <c r="C207" s="58">
+        <v>400</v>
+      </c>
+      <c r="D207" s="57"/>
+      <c r="E207" s="57"/>
+      <c r="F207" s="57"/>
+    </row>
+    <row r="209" spans="1:6" ht="18" thickBot="1"/>
+    <row r="210" spans="1:6" ht="36.6" thickBot="1">
+      <c r="A210" s="59">
+        <v>12</v>
+      </c>
+      <c r="B210" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="C210" s="60" t="s">
+        <v>480</v>
+      </c>
+      <c r="D210" s="61"/>
+      <c r="E210" s="61"/>
+      <c r="F210" s="62"/>
+    </row>
+    <row r="211" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C211" s="40" t="s">
+        <v>482</v>
+      </c>
+      <c r="D211" s="41"/>
+      <c r="E211" s="41"/>
+      <c r="F211" s="42"/>
+    </row>
+    <row r="212" spans="1:6" ht="28.2" thickBot="1">
+      <c r="C212" s="43" t="s">
+        <v>399</v>
+      </c>
+      <c r="D212" s="44"/>
+      <c r="E212" s="44"/>
+      <c r="F212" s="45"/>
+    </row>
+    <row r="213" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C213" s="46" t="s">
+        <v>400</v>
+      </c>
+      <c r="D213" s="47" t="s">
+        <v>401</v>
+      </c>
+      <c r="E213" s="47" t="s">
+        <v>402</v>
+      </c>
+      <c r="F213" s="48"/>
+    </row>
+    <row r="214" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C214" s="63" t="s">
+        <v>449</v>
+      </c>
+      <c r="D214" s="64" t="s">
+        <v>421</v>
+      </c>
+      <c r="E214" s="64" t="s">
+        <v>451</v>
+      </c>
+      <c r="F214" s="48" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="18" thickBot="1">
+      <c r="C215" s="49" t="s">
+        <v>403</v>
+      </c>
+      <c r="D215" s="48" t="s">
+        <v>404</v>
+      </c>
+      <c r="E215" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="F215" s="48"/>
+    </row>
+    <row r="216" spans="1:6" ht="28.2" thickBot="1">
+      <c r="C216" s="50" t="s">
+        <v>405</v>
+      </c>
+      <c r="D216" s="51"/>
+      <c r="E216" s="51"/>
+      <c r="F216" s="52"/>
+    </row>
+    <row r="217" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C217" s="53" t="s">
+        <v>400</v>
+      </c>
+      <c r="D217" s="53" t="s">
+        <v>401</v>
+      </c>
+      <c r="E217" s="53" t="s">
+        <v>406</v>
+      </c>
+      <c r="F217" s="53" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="18" thickBot="1">
+      <c r="C218" s="54" t="s">
+        <v>457</v>
+      </c>
+      <c r="D218" s="54" t="s">
+        <v>422</v>
+      </c>
+      <c r="E218" s="54" t="s">
+        <v>423</v>
+      </c>
+      <c r="F218" s="54" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="18" thickBot="1">
+      <c r="C219" s="54" t="s">
+        <v>479</v>
+      </c>
+      <c r="D219" s="54" t="s">
+        <v>422</v>
+      </c>
+      <c r="E219" s="54" t="s">
+        <v>423</v>
+      </c>
+      <c r="F219" s="54" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="18" thickBot="1">
+      <c r="C220" s="54"/>
+      <c r="D220" s="54"/>
+      <c r="E220" s="54"/>
+      <c r="F220" s="54"/>
+    </row>
+    <row r="221" spans="1:6" ht="28.2" thickBot="1">
+      <c r="C221" s="55" t="s">
+        <v>408</v>
+      </c>
+      <c r="D221" s="55"/>
+      <c r="E221" s="55"/>
+      <c r="F221" s="55"/>
+    </row>
+    <row r="222" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C222" s="53" t="s">
+        <v>409</v>
+      </c>
+      <c r="D222" s="53" t="s">
+        <v>408</v>
+      </c>
+      <c r="E222" s="53" t="s">
+        <v>401</v>
+      </c>
+      <c r="F222" s="53" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="18" thickBot="1">
+      <c r="C223" s="56">
+        <v>200</v>
+      </c>
+      <c r="D223" s="57" t="s">
+        <v>429</v>
+      </c>
+      <c r="E223" s="57" t="s">
+        <v>410</v>
+      </c>
+      <c r="F223" s="57" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="18" thickBot="1">
+      <c r="C224" s="56"/>
+      <c r="D224" s="57" t="s">
+        <v>431</v>
+      </c>
+      <c r="E224" s="57" t="s">
+        <v>404</v>
+      </c>
+      <c r="F224" s="57" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="18" thickBot="1">
+      <c r="C225" s="56"/>
+      <c r="D225" s="57" t="s">
+        <v>433</v>
+      </c>
+      <c r="E225" s="57" t="s">
+        <v>434</v>
+      </c>
+      <c r="F225" s="57" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="18" thickBot="1">
+      <c r="C226" s="56"/>
+      <c r="D226" s="57"/>
+      <c r="E226" s="57"/>
+      <c r="F226" s="57"/>
+    </row>
+    <row r="227" spans="1:6" ht="18" thickBot="1">
+      <c r="C227" s="58">
+        <v>400</v>
+      </c>
+      <c r="D227" s="57"/>
+      <c r="E227" s="57"/>
+      <c r="F227" s="57"/>
+    </row>
+    <row r="229" spans="1:6" ht="18" thickBot="1"/>
+    <row r="230" spans="1:6" ht="36.6" thickBot="1">
+      <c r="A230" s="59">
+        <v>13</v>
+      </c>
+      <c r="B230" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="C230" s="60" t="s">
+        <v>484</v>
+      </c>
+      <c r="D230" s="61"/>
+      <c r="E230" s="61"/>
+      <c r="F230" s="62"/>
+    </row>
+    <row r="231" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C231" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D231" s="41"/>
+      <c r="E231" s="41"/>
+      <c r="F231" s="42"/>
+    </row>
+    <row r="232" spans="1:6" ht="28.2" thickBot="1">
+      <c r="C232" s="43" t="s">
+        <v>399</v>
+      </c>
+      <c r="D232" s="44"/>
+      <c r="E232" s="44"/>
+      <c r="F232" s="45"/>
+    </row>
+    <row r="233" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C233" s="46" t="s">
+        <v>400</v>
+      </c>
+      <c r="D233" s="47" t="s">
+        <v>401</v>
+      </c>
+      <c r="E233" s="47" t="s">
+        <v>402</v>
+      </c>
+      <c r="F233" s="48"/>
+    </row>
+    <row r="234" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C234" s="63" t="s">
+        <v>449</v>
+      </c>
+      <c r="D234" s="64" t="s">
+        <v>421</v>
+      </c>
+      <c r="E234" s="64" t="s">
+        <v>451</v>
+      </c>
+      <c r="F234" s="48" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="18" thickBot="1">
+      <c r="C235" s="49" t="s">
+        <v>403</v>
+      </c>
+      <c r="D235" s="48" t="s">
+        <v>404</v>
+      </c>
+      <c r="E235" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="F235" s="48"/>
+    </row>
+    <row r="236" spans="1:6" ht="28.2" thickBot="1">
+      <c r="C236" s="50" t="s">
+        <v>405</v>
+      </c>
+      <c r="D236" s="51"/>
+      <c r="E236" s="51"/>
+      <c r="F236" s="52"/>
+    </row>
+    <row r="237" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C237" s="53" t="s">
+        <v>400</v>
+      </c>
+      <c r="D237" s="53" t="s">
+        <v>401</v>
+      </c>
+      <c r="E237" s="53" t="s">
+        <v>406</v>
+      </c>
+      <c r="F237" s="53" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="18" thickBot="1">
+      <c r="C238" s="54" t="s">
+        <v>457</v>
+      </c>
+      <c r="D238" s="54" t="s">
+        <v>422</v>
+      </c>
+      <c r="E238" s="54" t="s">
+        <v>423</v>
+      </c>
+      <c r="F238" s="54" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="18" thickBot="1">
+      <c r="C239" s="54"/>
+      <c r="D239" s="54"/>
+      <c r="E239" s="54"/>
+      <c r="F239" s="54"/>
+    </row>
+    <row r="240" spans="1:6" ht="28.2" thickBot="1">
+      <c r="C240" s="55" t="s">
+        <v>408</v>
+      </c>
+      <c r="D240" s="55"/>
+      <c r="E240" s="55"/>
+      <c r="F240" s="55"/>
+    </row>
+    <row r="241" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C241" s="53" t="s">
+        <v>409</v>
+      </c>
+      <c r="D241" s="53" t="s">
+        <v>408</v>
+      </c>
+      <c r="E241" s="53" t="s">
+        <v>401</v>
+      </c>
+      <c r="F241" s="53" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="18" thickBot="1">
+      <c r="C242" s="56">
+        <v>200</v>
+      </c>
+      <c r="D242" s="57" t="s">
+        <v>429</v>
+      </c>
+      <c r="E242" s="57" t="s">
+        <v>410</v>
+      </c>
+      <c r="F242" s="57" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="18" thickBot="1">
+      <c r="C243" s="56"/>
+      <c r="D243" s="57" t="s">
+        <v>431</v>
+      </c>
+      <c r="E243" s="57" t="s">
+        <v>404</v>
+      </c>
+      <c r="F243" s="57" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="18" thickBot="1">
+      <c r="C244" s="56"/>
+      <c r="D244" s="57" t="s">
+        <v>433</v>
+      </c>
+      <c r="E244" s="57" t="s">
+        <v>434</v>
+      </c>
+      <c r="F244" s="57" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="18" thickBot="1">
+      <c r="C245" s="56"/>
+      <c r="D245" s="57"/>
+      <c r="E245" s="57"/>
+      <c r="F245" s="57"/>
+    </row>
+    <row r="246" spans="1:6" ht="18" thickBot="1">
+      <c r="C246" s="58">
+        <v>400</v>
+      </c>
+      <c r="D246" s="57"/>
+      <c r="E246" s="57"/>
+      <c r="F246" s="57"/>
+    </row>
+    <row r="248" spans="1:6" ht="18" thickBot="1"/>
+    <row r="249" spans="1:6" ht="36.6" customHeight="1" thickBot="1">
+      <c r="A249" s="59">
+        <v>14</v>
+      </c>
+      <c r="B249" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="C249" s="60" t="s">
+        <v>485</v>
+      </c>
+      <c r="D249" s="61"/>
+      <c r="E249" s="61"/>
+      <c r="F249" s="62"/>
+    </row>
+    <row r="250" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C250" s="40" t="s">
+        <v>220</v>
+      </c>
+      <c r="D250" s="41"/>
+      <c r="E250" s="41"/>
+      <c r="F250" s="42"/>
+    </row>
+    <row r="251" spans="1:6" ht="28.2" thickBot="1">
+      <c r="C251" s="43" t="s">
+        <v>399</v>
+      </c>
+      <c r="D251" s="44"/>
+      <c r="E251" s="44"/>
+      <c r="F251" s="45"/>
+    </row>
+    <row r="252" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C252" s="46" t="s">
+        <v>400</v>
+      </c>
+      <c r="D252" s="47" t="s">
+        <v>401</v>
+      </c>
+      <c r="E252" s="47" t="s">
+        <v>402</v>
+      </c>
+      <c r="F252" s="48"/>
+    </row>
+    <row r="253" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C253" s="63" t="s">
+        <v>449</v>
+      </c>
+      <c r="D253" s="64" t="s">
+        <v>421</v>
+      </c>
+      <c r="E253" s="64" t="s">
+        <v>451</v>
+      </c>
+      <c r="F253" s="48" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" ht="18" thickBot="1">
+      <c r="C254" s="49" t="s">
+        <v>403</v>
+      </c>
+      <c r="D254" s="48" t="s">
+        <v>404</v>
+      </c>
+      <c r="E254" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="F254" s="48"/>
+    </row>
+    <row r="255" spans="1:6" ht="28.2" thickBot="1">
+      <c r="C255" s="50" t="s">
+        <v>405</v>
+      </c>
+      <c r="D255" s="51"/>
+      <c r="E255" s="51"/>
+      <c r="F255" s="52"/>
+    </row>
+    <row r="256" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C256" s="53" t="s">
+        <v>400</v>
+      </c>
+      <c r="D256" s="53" t="s">
+        <v>401</v>
+      </c>
+      <c r="E256" s="53" t="s">
+        <v>406</v>
+      </c>
+      <c r="F256" s="53" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="18" thickBot="1">
+      <c r="C257" s="54" t="s">
+        <v>457</v>
+      </c>
+      <c r="D257" s="54" t="s">
+        <v>422</v>
+      </c>
+      <c r="E257" s="54" t="s">
+        <v>423</v>
+      </c>
+      <c r="F257" s="54" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="18" thickBot="1">
+      <c r="C258" s="54" t="s">
+        <v>486</v>
+      </c>
+      <c r="D258" s="54" t="s">
+        <v>422</v>
+      </c>
+      <c r="E258" s="54" t="s">
+        <v>423</v>
+      </c>
+      <c r="F258" s="54" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="18" thickBot="1">
+      <c r="C259" s="54"/>
+      <c r="D259" s="54"/>
+      <c r="E259" s="54"/>
+      <c r="F259" s="54"/>
+    </row>
+    <row r="260" spans="1:6" ht="28.2" thickBot="1">
+      <c r="C260" s="55" t="s">
+        <v>408</v>
+      </c>
+      <c r="D260" s="55"/>
+      <c r="E260" s="55"/>
+      <c r="F260" s="55"/>
+    </row>
+    <row r="261" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C261" s="53" t="s">
+        <v>409</v>
+      </c>
+      <c r="D261" s="53" t="s">
+        <v>408</v>
+      </c>
+      <c r="E261" s="53" t="s">
+        <v>401</v>
+      </c>
+      <c r="F261" s="53" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="18" thickBot="1">
+      <c r="C262" s="56">
+        <v>200</v>
+      </c>
+      <c r="D262" s="57" t="s">
+        <v>429</v>
+      </c>
+      <c r="E262" s="57" t="s">
+        <v>410</v>
+      </c>
+      <c r="F262" s="57" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" ht="18" thickBot="1">
+      <c r="C263" s="56"/>
+      <c r="D263" s="57" t="s">
+        <v>431</v>
+      </c>
+      <c r="E263" s="57" t="s">
+        <v>404</v>
+      </c>
+      <c r="F263" s="57" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" ht="18" thickBot="1">
+      <c r="C264" s="56"/>
+      <c r="D264" s="57" t="s">
+        <v>433</v>
+      </c>
+      <c r="E264" s="57" t="s">
+        <v>434</v>
+      </c>
+      <c r="F264" s="57" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="18" thickBot="1">
+      <c r="C265" s="56"/>
+      <c r="D265" s="57"/>
+      <c r="E265" s="57"/>
+      <c r="F265" s="57"/>
+    </row>
+    <row r="266" spans="1:6" ht="18" thickBot="1">
+      <c r="C266" s="58">
+        <v>400</v>
+      </c>
+      <c r="D266" s="57"/>
+      <c r="E266" s="57"/>
+      <c r="F266" s="57"/>
+    </row>
+    <row r="268" spans="1:6" ht="18" thickBot="1"/>
+    <row r="269" spans="1:6" ht="36.6" thickBot="1">
+      <c r="A269" s="59">
+        <v>15</v>
+      </c>
+      <c r="B269" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="C269" s="60" t="s">
+        <v>487</v>
+      </c>
+      <c r="D269" s="61"/>
+      <c r="E269" s="61"/>
+      <c r="F269" s="62"/>
+    </row>
+    <row r="270" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C270" s="40" t="s">
+        <v>215</v>
+      </c>
+      <c r="D270" s="41"/>
+      <c r="E270" s="41"/>
+      <c r="F270" s="42"/>
+    </row>
+    <row r="271" spans="1:6" ht="28.2" thickBot="1">
+      <c r="C271" s="43" t="s">
+        <v>399</v>
+      </c>
+      <c r="D271" s="44"/>
+      <c r="E271" s="44"/>
+      <c r="F271" s="45"/>
+    </row>
+    <row r="272" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C272" s="46" t="s">
+        <v>400</v>
+      </c>
+      <c r="D272" s="47" t="s">
+        <v>401</v>
+      </c>
+      <c r="E272" s="47" t="s">
+        <v>402</v>
+      </c>
+      <c r="F272" s="48"/>
+    </row>
+    <row r="273" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C273" s="63" t="s">
+        <v>449</v>
+      </c>
+      <c r="D273" s="64" t="s">
+        <v>421</v>
+      </c>
+      <c r="E273" s="64" t="s">
+        <v>451</v>
+      </c>
+      <c r="F273" s="48" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" ht="18" thickBot="1">
+      <c r="C274" s="49" t="s">
+        <v>403</v>
+      </c>
+      <c r="D274" s="48" t="s">
+        <v>404</v>
+      </c>
+      <c r="E274" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="F274" s="48"/>
+    </row>
+    <row r="275" spans="1:6" ht="28.2" thickBot="1">
+      <c r="C275" s="50" t="s">
+        <v>405</v>
+      </c>
+      <c r="D275" s="51"/>
+      <c r="E275" s="51"/>
+      <c r="F275" s="52"/>
+    </row>
+    <row r="276" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C276" s="53" t="s">
+        <v>400</v>
+      </c>
+      <c r="D276" s="53" t="s">
+        <v>401</v>
+      </c>
+      <c r="E276" s="53" t="s">
+        <v>406</v>
+      </c>
+      <c r="F276" s="53" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" ht="18" thickBot="1">
+      <c r="C277" s="54" t="s">
+        <v>457</v>
+      </c>
+      <c r="D277" s="54" t="s">
+        <v>422</v>
+      </c>
+      <c r="E277" s="54" t="s">
+        <v>423</v>
+      </c>
+      <c r="F277" s="54" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" ht="18" thickBot="1">
+      <c r="C278" s="54"/>
+      <c r="D278" s="54"/>
+      <c r="E278" s="54"/>
+      <c r="F278" s="54"/>
+    </row>
+    <row r="279" spans="1:6" ht="28.2" thickBot="1">
+      <c r="C279" s="55" t="s">
+        <v>408</v>
+      </c>
+      <c r="D279" s="55"/>
+      <c r="E279" s="55"/>
+      <c r="F279" s="55"/>
+    </row>
+    <row r="280" spans="1:6" ht="19.8" thickBot="1">
+      <c r="C280" s="53" t="s">
+        <v>409</v>
+      </c>
+      <c r="D280" s="53" t="s">
+        <v>408</v>
+      </c>
+      <c r="E280" s="53" t="s">
+        <v>401</v>
+      </c>
+      <c r="F280" s="53" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="18" thickBot="1">
+      <c r="C281" s="56">
+        <v>200</v>
+      </c>
+      <c r="D281" s="57" t="s">
+        <v>429</v>
+      </c>
+      <c r="E281" s="57" t="s">
+        <v>410</v>
+      </c>
+      <c r="F281" s="57" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" ht="18" thickBot="1">
+      <c r="C282" s="56"/>
+      <c r="D282" s="57" t="s">
+        <v>431</v>
+      </c>
+      <c r="E282" s="57" t="s">
+        <v>404</v>
+      </c>
+      <c r="F282" s="57" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" ht="18" thickBot="1">
+      <c r="C283" s="56"/>
+      <c r="D283" s="57" t="s">
+        <v>433</v>
+      </c>
+      <c r="E283" s="57" t="s">
+        <v>434</v>
+      </c>
+      <c r="F283" s="57" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="18" thickBot="1">
+      <c r="C284" s="56"/>
+      <c r="D284" s="57"/>
+      <c r="E284" s="57"/>
+      <c r="F284" s="57"/>
+    </row>
+    <row r="285" spans="1:6" ht="18" thickBot="1">
+      <c r="C285" s="58">
+        <v>400</v>
+      </c>
+      <c r="D285" s="57"/>
+      <c r="E285" s="57"/>
+      <c r="F285" s="57"/>
+    </row>
+    <row r="287" spans="1:6" ht="18" thickBot="1"/>
+    <row r="288" spans="1:6" ht="36.6" thickBot="1">
+      <c r="A288" s="59">
+        <v>16</v>
+      </c>
+      <c r="B288" s="59" t="s">
+        <v>175</v>
+      </c>
+      <c r="C288" s="60" t="s">
+        <v>488</v>
+      </c>
+      <c r="D288" s="61"/>
+      <c r="E288" s="61"/>
+      <c r="F288" s="62"/>
+    </row>
+    <row r="289" spans="3:6" ht="19.8" thickBot="1">
+      <c r="C289" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="D289" s="41"/>
+      <c r="E289" s="41"/>
+      <c r="F289" s="42"/>
+    </row>
+    <row r="290" spans="3:6" ht="28.2" thickBot="1">
+      <c r="C290" s="43" t="s">
+        <v>399</v>
+      </c>
+      <c r="D290" s="44"/>
+      <c r="E290" s="44"/>
+      <c r="F290" s="45"/>
+    </row>
+    <row r="291" spans="3:6" ht="19.8" thickBot="1">
+      <c r="C291" s="46" t="s">
+        <v>400</v>
+      </c>
+      <c r="D291" s="47" t="s">
+        <v>401</v>
+      </c>
+      <c r="E291" s="47" t="s">
+        <v>402</v>
+      </c>
+      <c r="F291" s="48"/>
+    </row>
+    <row r="292" spans="3:6" ht="19.8" thickBot="1">
+      <c r="C292" s="63" t="s">
+        <v>449</v>
+      </c>
+      <c r="D292" s="64" t="s">
+        <v>421</v>
+      </c>
+      <c r="E292" s="64" t="s">
+        <v>451</v>
+      </c>
+      <c r="F292" s="48" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="293" spans="3:6" ht="18" thickBot="1">
+      <c r="C293" s="49" t="s">
+        <v>403</v>
+      </c>
+      <c r="D293" s="48" t="s">
+        <v>404</v>
+      </c>
+      <c r="E293" s="48" t="s">
+        <v>415</v>
+      </c>
+      <c r="F293" s="48"/>
+    </row>
+    <row r="294" spans="3:6" ht="28.2" thickBot="1">
+      <c r="C294" s="50" t="s">
+        <v>405</v>
+      </c>
+      <c r="D294" s="51"/>
+      <c r="E294" s="51"/>
+      <c r="F294" s="52"/>
+    </row>
+    <row r="295" spans="3:6" ht="19.8" thickBot="1">
+      <c r="C295" s="53" t="s">
+        <v>400</v>
+      </c>
+      <c r="D295" s="53" t="s">
+        <v>401</v>
+      </c>
+      <c r="E295" s="53" t="s">
+        <v>406</v>
+      </c>
+      <c r="F295" s="53" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="296" spans="3:6" ht="18" thickBot="1">
+      <c r="C296" s="54" t="s">
+        <v>457</v>
+      </c>
+      <c r="D296" s="54" t="s">
+        <v>422</v>
+      </c>
+      <c r="E296" s="54" t="s">
+        <v>423</v>
+      </c>
+      <c r="F296" s="54" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="297" spans="3:6" ht="18" thickBot="1">
+      <c r="C297" s="54" t="s">
+        <v>489</v>
+      </c>
+      <c r="D297" s="54" t="s">
+        <v>422</v>
+      </c>
+      <c r="E297" s="54" t="s">
+        <v>423</v>
+      </c>
+      <c r="F297" s="54"/>
+    </row>
+    <row r="298" spans="3:6" ht="28.2" thickBot="1">
+      <c r="C298" s="55" t="s">
+        <v>408</v>
+      </c>
+      <c r="D298" s="55"/>
+      <c r="E298" s="55"/>
+      <c r="F298" s="55"/>
+    </row>
+    <row r="299" spans="3:6" ht="19.8" thickBot="1">
+      <c r="C299" s="53" t="s">
+        <v>409</v>
+      </c>
+      <c r="D299" s="53" t="s">
+        <v>408</v>
+      </c>
+      <c r="E299" s="53" t="s">
+        <v>401</v>
+      </c>
+      <c r="F299" s="53" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="300" spans="3:6" ht="18" thickBot="1">
+      <c r="C300" s="56">
+        <v>200</v>
+      </c>
+      <c r="D300" s="57" t="s">
+        <v>429</v>
+      </c>
+      <c r="E300" s="57" t="s">
+        <v>410</v>
+      </c>
+      <c r="F300" s="57" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="301" spans="3:6" ht="18" thickBot="1">
+      <c r="C301" s="56"/>
+      <c r="D301" s="57" t="s">
+        <v>431</v>
+      </c>
+      <c r="E301" s="57" t="s">
+        <v>404</v>
+      </c>
+      <c r="F301" s="57" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="302" spans="3:6" ht="18" thickBot="1">
+      <c r="C302" s="56"/>
+      <c r="D302" s="57" t="s">
+        <v>433</v>
+      </c>
+      <c r="E302" s="57" t="s">
+        <v>434</v>
+      </c>
+      <c r="F302" s="57" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="303" spans="3:6" ht="18" thickBot="1">
+      <c r="C303" s="56"/>
+      <c r="D303" s="57"/>
+      <c r="E303" s="57"/>
+      <c r="F303" s="57"/>
+    </row>
+    <row r="304" spans="3:6" ht="18" thickBot="1">
+      <c r="C304" s="58">
+        <v>400</v>
+      </c>
+      <c r="D304" s="57"/>
+      <c r="E304" s="57"/>
+      <c r="F304" s="57"/>
+    </row>
+  </sheetData>
+  <mergeCells count="96">
+    <mergeCell ref="C290:F290"/>
+    <mergeCell ref="C294:F294"/>
+    <mergeCell ref="C298:F298"/>
+    <mergeCell ref="C300:C303"/>
+    <mergeCell ref="C271:F271"/>
+    <mergeCell ref="C275:F275"/>
+    <mergeCell ref="C279:F279"/>
+    <mergeCell ref="C281:C284"/>
+    <mergeCell ref="C288:F288"/>
+    <mergeCell ref="C289:F289"/>
+    <mergeCell ref="C251:F251"/>
+    <mergeCell ref="C255:F255"/>
+    <mergeCell ref="C260:F260"/>
+    <mergeCell ref="C262:C265"/>
+    <mergeCell ref="C269:F269"/>
+    <mergeCell ref="C270:F270"/>
+    <mergeCell ref="C232:F232"/>
+    <mergeCell ref="C236:F236"/>
+    <mergeCell ref="C240:F240"/>
+    <mergeCell ref="C242:C245"/>
+    <mergeCell ref="C249:F249"/>
+    <mergeCell ref="C250:F250"/>
+    <mergeCell ref="C210:F210"/>
+    <mergeCell ref="C216:F216"/>
+    <mergeCell ref="C221:F221"/>
+    <mergeCell ref="C223:C226"/>
+    <mergeCell ref="C230:F230"/>
+    <mergeCell ref="C231:F231"/>
+    <mergeCell ref="C211:F211"/>
+    <mergeCell ref="C212:F212"/>
+    <mergeCell ref="C191:F191"/>
+    <mergeCell ref="C192:F192"/>
+    <mergeCell ref="C193:F193"/>
+    <mergeCell ref="C197:F197"/>
+    <mergeCell ref="C201:F201"/>
+    <mergeCell ref="C203:C206"/>
+    <mergeCell ref="C171:F171"/>
+    <mergeCell ref="C172:F172"/>
+    <mergeCell ref="C173:F173"/>
+    <mergeCell ref="C177:F177"/>
+    <mergeCell ref="C182:F182"/>
+    <mergeCell ref="C184:C187"/>
+    <mergeCell ref="C147:F147"/>
+    <mergeCell ref="C148:F148"/>
+    <mergeCell ref="C149:F149"/>
+    <mergeCell ref="C153:F153"/>
+    <mergeCell ref="C162:F162"/>
+    <mergeCell ref="C164:C167"/>
+    <mergeCell ref="C128:F128"/>
+    <mergeCell ref="C129:F129"/>
+    <mergeCell ref="C130:F130"/>
+    <mergeCell ref="C134:F134"/>
+    <mergeCell ref="C138:F138"/>
+    <mergeCell ref="C140:C143"/>
+    <mergeCell ref="C110:F110"/>
+    <mergeCell ref="C111:F111"/>
+    <mergeCell ref="C112:F112"/>
+    <mergeCell ref="C116:F116"/>
+    <mergeCell ref="C119:F119"/>
+    <mergeCell ref="C121:C124"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="C94:F94"/>
+    <mergeCell ref="C98:F98"/>
+    <mergeCell ref="C101:F101"/>
+    <mergeCell ref="C103:C106"/>
+    <mergeCell ref="C75:F75"/>
+    <mergeCell ref="C76:F76"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="C80:F80"/>
+    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="C85:C88"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C3:F3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0585415E-990D-4C98-B34F-7A71519C3DB1}">
   <dimension ref="B2:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999"/>
   <cols>
-    <col min="2" max="2" width="12.375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" style="6" customWidth="1"/>
     <col min="3" max="3" width="14" style="6" customWidth="1"/>
     <col min="4" max="4" width="25" style="6" customWidth="1"/>
-    <col min="5" max="5" width="42.25" style="6" customWidth="1"/>
+    <col min="5" max="5" width="42.19921875" style="6" customWidth="1"/>
     <col min="6" max="6" width="4.5" style="6" customWidth="1"/>
-    <col min="7" max="7" width="3.375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="10.125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="3.3984375" style="6" customWidth="1"/>
+    <col min="8" max="8" width="10.09765625" style="6" customWidth="1"/>
     <col min="9" max="9" width="18" style="6" customWidth="1"/>
-    <col min="10" max="10" width="26.625" style="33" customWidth="1"/>
-    <col min="11" max="11" width="51.5" style="33" customWidth="1"/>
+    <col min="10" max="10" width="26.59765625" style="27" customWidth="1"/>
+    <col min="11" max="11" width="51.5" style="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="29" t="s">
-        <v>275</v>
-      </c>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="23" t="s">
+        <v>274</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>279</v>
+      </c>
+      <c r="E2" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="23" t="s">
+        <v>280</v>
+      </c>
+      <c r="I2" s="23" t="s">
+        <v>309</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="34.799999999999997">
+      <c r="B3" s="22">
+        <v>200</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>281</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>310</v>
       </c>
-      <c r="D2" s="29" t="s">
-        <v>280</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>281</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>310</v>
-      </c>
-      <c r="J2" s="32" t="s">
-        <v>280</v>
-      </c>
-      <c r="K2" s="32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:11" ht="33">
-      <c r="B3" s="24">
-        <v>200</v>
-      </c>
-      <c r="C3" s="24" t="s">
+      <c r="E3" s="22" t="s">
+        <v>284</v>
+      </c>
+      <c r="H3" s="22">
+        <v>301</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>289</v>
+      </c>
+      <c r="J3" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="K3" s="24" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" ht="34.799999999999997">
+      <c r="B4" s="22">
+        <v>201</v>
+      </c>
+      <c r="C4" s="22" t="s">
         <v>282</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D4" s="22" t="s">
         <v>311</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E4" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="H4" s="22">
+        <v>400</v>
+      </c>
+      <c r="I4" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="K4" s="24" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="34.799999999999997">
+      <c r="B5" s="22">
+        <v>202</v>
+      </c>
+      <c r="C5" s="22" t="s">
         <v>285</v>
       </c>
-      <c r="H3" s="24">
+      <c r="D5" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="H5" s="22">
+        <v>401</v>
+      </c>
+      <c r="I5" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="J5" s="24" t="s">
+        <v>314</v>
+      </c>
+      <c r="K5" s="24" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" ht="52.2">
+      <c r="B6" s="25">
+        <v>204</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>288</v>
+      </c>
+      <c r="H6" s="22">
+        <v>403</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>294</v>
+      </c>
+      <c r="J6" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="K6" s="24" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="22">
+        <v>5301</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="E7" s="22"/>
+      <c r="H7" s="22">
+        <v>404</v>
+      </c>
+      <c r="I7" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="J7" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" ht="52.2">
+      <c r="H8" s="22">
+        <v>405</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>299</v>
+      </c>
+      <c r="J8" s="24" t="s">
+        <v>318</v>
+      </c>
+      <c r="K8" s="24" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="H9" s="22">
+        <v>406</v>
+      </c>
+      <c r="I9" s="22" t="s">
         <v>301</v>
       </c>
-      <c r="I3" s="24" t="s">
-        <v>290</v>
-      </c>
-      <c r="J3" s="30" t="s">
-        <v>316</v>
-      </c>
-      <c r="K3" s="30" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" ht="33">
-      <c r="B4" s="24">
-        <v>201</v>
-      </c>
-      <c r="C4" s="24" t="s">
-        <v>283</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>312</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>284</v>
-      </c>
-      <c r="H4" s="24">
-        <v>400</v>
-      </c>
-      <c r="I4" s="24" t="s">
-        <v>292</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>314</v>
-      </c>
-      <c r="K4" s="30" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="33">
-      <c r="B5" s="24">
-        <v>202</v>
-      </c>
-      <c r="C5" s="24" t="s">
-        <v>286</v>
-      </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="30" t="s">
-        <v>287</v>
-      </c>
-      <c r="H5" s="24">
-        <v>401</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>294</v>
-      </c>
-      <c r="J5" s="30" t="s">
-        <v>315</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" ht="49.5">
-      <c r="B6" s="31">
-        <v>204</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>288</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>313</v>
-      </c>
-      <c r="E6" s="31" t="s">
-        <v>289</v>
-      </c>
-      <c r="H6" s="24">
-        <v>403</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>295</v>
-      </c>
-      <c r="J6" s="30" t="s">
-        <v>317</v>
-      </c>
-      <c r="K6" s="30" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="B7" s="24">
-        <v>5301</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>343</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>344</v>
-      </c>
-      <c r="E7" s="24"/>
-      <c r="H7" s="24">
-        <v>404</v>
-      </c>
-      <c r="I7" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="J7" s="30" t="s">
-        <v>318</v>
-      </c>
-      <c r="K7" s="30" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" ht="49.5">
-      <c r="H8" s="24">
-        <v>405</v>
-      </c>
-      <c r="I8" s="24" t="s">
-        <v>300</v>
-      </c>
-      <c r="J8" s="30" t="s">
+      <c r="J9" s="24" t="s">
         <v>319</v>
       </c>
-      <c r="K8" s="30" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="H9" s="24">
-        <v>406</v>
-      </c>
-      <c r="I9" s="24" t="s">
+      <c r="K9" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="J9" s="30" t="s">
+    </row>
+    <row r="10" spans="2:11" ht="34.799999999999997">
+      <c r="H10" s="22">
+        <v>409</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>303</v>
+      </c>
+      <c r="J10" s="24" t="s">
         <v>320</v>
       </c>
-      <c r="K9" s="30" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" ht="33">
-      <c r="H10" s="24">
-        <v>409</v>
-      </c>
-      <c r="I10" s="24" t="s">
+      <c r="K10" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="J10" s="30" t="s">
+    </row>
+    <row r="11" spans="2:11" ht="34.799999999999997">
+      <c r="H11" s="22">
+        <v>500</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>305</v>
+      </c>
+      <c r="J11" s="24" t="s">
         <v>321</v>
       </c>
-      <c r="K10" s="30" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" ht="33">
-      <c r="H11" s="24">
-        <v>500</v>
-      </c>
-      <c r="I11" s="24" t="s">
+      <c r="K11" s="24" t="s">
         <v>306</v>
       </c>
-      <c r="J11" s="30" t="s">
+    </row>
+    <row r="12" spans="2:11" ht="34.799999999999997">
+      <c r="H12" s="22">
+        <v>503</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="J12" s="24" t="s">
         <v>322</v>
       </c>
-      <c r="K11" s="30" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" ht="33">
-      <c r="H12" s="24">
-        <v>503</v>
-      </c>
-      <c r="I12" s="24" t="s">
+      <c r="K12" s="24" t="s">
         <v>308</v>
       </c>
-      <c r="J12" s="30" t="s">
+    </row>
+    <row r="13" spans="2:11" ht="34.799999999999997">
+      <c r="H13" s="22">
+        <v>5101</v>
+      </c>
+      <c r="I13" s="22" t="s">
         <v>323</v>
       </c>
-      <c r="K12" s="30" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" ht="33">
-      <c r="H13" s="24">
-        <v>5101</v>
-      </c>
-      <c r="I13" s="24" t="s">
+      <c r="J13" s="24" t="s">
         <v>324</v>
       </c>
-      <c r="J13" s="30" t="s">
+      <c r="K13" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" ht="34.799999999999997">
+      <c r="H14" s="22">
+        <v>5102</v>
+      </c>
+      <c r="I14" s="22" t="s">
         <v>325</v>
       </c>
-      <c r="K13" s="30" t="s">
+      <c r="J14" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="K14" s="24" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="H15" s="22">
+        <v>5103</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="J15" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="K15" s="24" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="14" spans="2:11" ht="33">
-      <c r="H14" s="24">
-        <v>5102</v>
-      </c>
-      <c r="I14" s="24" t="s">
-        <v>326</v>
-      </c>
-      <c r="J14" s="30" t="s">
-        <v>327</v>
-      </c>
-      <c r="K14" s="30" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="H15" s="24">
-        <v>5103</v>
-      </c>
-      <c r="I15" s="24" t="s">
+    <row r="16" spans="2:11">
+      <c r="H16" s="22">
+        <v>5104</v>
+      </c>
+      <c r="I16" s="22" t="s">
         <v>328</v>
       </c>
-      <c r="J15" s="30" t="s">
-        <v>331</v>
-      </c>
-      <c r="K15" s="30" t="s">
+      <c r="J16" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="K16" s="24" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="16" spans="2:11">
-      <c r="H16" s="24">
-        <v>5104</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>329</v>
-      </c>
-      <c r="J16" s="30" t="s">
-        <v>330</v>
-      </c>
-      <c r="K16" s="30" t="s">
+    <row r="17" spans="8:11">
+      <c r="H17" s="22">
+        <v>5201</v>
+      </c>
+      <c r="I17" s="22" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="17" spans="8:11">
-      <c r="H17" s="24">
-        <v>5201</v>
-      </c>
-      <c r="I17" s="24" t="s">
+      <c r="J17" s="24" t="s">
         <v>335</v>
       </c>
-      <c r="J17" s="30" t="s">
+      <c r="K17" s="24" t="s">
         <v>336</v>
       </c>
-      <c r="K17" s="30" t="s">
+    </row>
+    <row r="18" spans="8:11">
+      <c r="H18" s="22">
+        <v>5202</v>
+      </c>
+      <c r="I18" s="22" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="18" spans="8:11">
-      <c r="H18" s="24">
-        <v>5202</v>
-      </c>
-      <c r="I18" s="24" t="s">
+      <c r="J18" s="24" t="s">
         <v>338</v>
       </c>
-      <c r="J18" s="30" t="s">
+      <c r="K18" s="24" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="19" spans="8:11">
+      <c r="H19" s="22">
+        <v>5203</v>
+      </c>
+      <c r="I19" s="22" t="s">
         <v>339</v>
       </c>
-      <c r="K18" s="30" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="19" spans="8:11">
-      <c r="H19" s="24">
-        <v>5203</v>
-      </c>
-      <c r="I19" s="24" t="s">
+      <c r="J19" s="24" t="s">
         <v>340</v>
       </c>
-      <c r="J19" s="30" t="s">
+      <c r="K19" s="24" t="s">
         <v>341</v>
-      </c>
-      <c r="K19" s="30" t="s">
-        <v>342</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/APIDocs/API명세서.xlsx
+++ b/docs/APIDocs/API명세서.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\GameProject\docs\APIDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F27A4D80-14FC-41AA-B4CD-1CD212B42FD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98910E10-5F9D-4166-B325-74C478C2A2A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{4E8C34D6-CE1A-427D-9403-2013A6AFC92D}"/>
   </bookViews>
@@ -2919,7 +2919,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3162,6 +3162,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3549,7 +3555,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="100">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3707,6 +3713,21 @@
     <xf numFmtId="0" fontId="30" fillId="43" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3722,23 +3743,14 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3761,13 +3773,58 @@
     <xf numFmtId="0" fontId="32" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="41" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3779,73 +3836,37 @@
     <xf numFmtId="0" fontId="30" fillId="41" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="44" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5114,7 +5135,7 @@
   <dimension ref="B1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -5168,65 +5189,65 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:11" s="99" customFormat="1" ht="121.8">
-      <c r="B3" s="95">
+    <row r="3" spans="2:11" s="57" customFormat="1" ht="121.8">
+      <c r="B3" s="53">
         <v>1</v>
       </c>
-      <c r="C3" s="96" t="s">
+      <c r="C3" s="54" t="s">
         <v>422</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="59" t="s">
         <v>166</v>
       </c>
-      <c r="E3" s="95" t="s">
+      <c r="E3" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="97" t="s">
+      <c r="F3" s="55" t="s">
         <v>470</v>
       </c>
-      <c r="G3" s="98" t="s">
+      <c r="G3" s="56" t="s">
         <v>585</v>
       </c>
-      <c r="H3" s="98" t="s">
+      <c r="H3" s="56" t="s">
         <v>217</v>
       </c>
-      <c r="I3" s="98" t="s">
+      <c r="I3" s="56" t="s">
         <v>218</v>
       </c>
-      <c r="J3" s="98" t="s">
+      <c r="J3" s="56" t="s">
         <v>219</v>
       </c>
-      <c r="K3" s="97" t="s">
+      <c r="K3" s="55" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:11" s="99" customFormat="1" ht="121.8">
-      <c r="B4" s="95">
+    <row r="4" spans="2:11" s="57" customFormat="1" ht="121.8">
+      <c r="B4" s="53">
         <v>2</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="54" t="s">
         <v>422</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="95" t="s">
+      <c r="D4" s="60"/>
+      <c r="E4" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="97" t="s">
+      <c r="F4" s="55" t="s">
         <v>423</v>
       </c>
-      <c r="G4" s="95" t="s">
+      <c r="G4" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="H4" s="98" t="s">
+      <c r="H4" s="56" t="s">
         <v>220</v>
       </c>
-      <c r="I4" s="98" t="s">
+      <c r="I4" s="56" t="s">
         <v>319</v>
       </c>
-      <c r="J4" s="95" t="s">
+      <c r="J4" s="53" t="s">
         <v>216</v>
       </c>
-      <c r="K4" s="97" t="s">
+      <c r="K4" s="55" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5237,7 +5258,7 @@
       <c r="C5" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="D5" s="55"/>
+      <c r="D5" s="60"/>
       <c r="E5" s="15" t="s">
         <v>4</v>
       </c>
@@ -5267,7 +5288,7 @@
       <c r="C6" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="D6" s="55"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="15" t="s">
         <v>4</v>
       </c>
@@ -5297,7 +5318,7 @@
       <c r="C7" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="D7" s="56"/>
+      <c r="D7" s="61"/>
       <c r="E7" s="9" t="s">
         <v>4</v>
       </c>
@@ -5320,35 +5341,35 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="87">
-      <c r="B8" s="15">
+    <row r="8" spans="2:11" s="104" customFormat="1" ht="139.19999999999999">
+      <c r="B8" s="100">
         <v>6</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="101" t="s">
         <v>422</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="102" t="s">
         <v>589</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="103" t="s">
         <v>586</v>
       </c>
-      <c r="H8" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="I8" s="13" t="s">
+      <c r="H8" s="103" t="s">
+        <v>408</v>
+      </c>
+      <c r="I8" s="103" t="s">
         <v>218</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="J8" s="100" t="s">
         <v>216</v>
       </c>
-      <c r="K8" s="19" t="s">
+      <c r="K8" s="102" t="s">
         <v>169</v>
       </c>
     </row>
@@ -5359,7 +5380,7 @@
       <c r="C9" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="D9" s="55"/>
+      <c r="D9" s="60"/>
       <c r="E9" s="9" t="s">
         <v>4</v>
       </c>
@@ -5389,7 +5410,7 @@
       <c r="C10" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="D10" s="55"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="9" t="s">
         <v>4</v>
       </c>
@@ -5419,7 +5440,7 @@
       <c r="C11" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="D11" s="55"/>
+      <c r="D11" s="60"/>
       <c r="E11" s="15" t="s">
         <v>4</v>
       </c>
@@ -5449,7 +5470,7 @@
       <c r="C12" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="D12" s="55"/>
+      <c r="D12" s="60"/>
       <c r="E12" s="15" t="s">
         <v>4</v>
       </c>
@@ -5479,7 +5500,7 @@
       <c r="C13" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="D13" s="55"/>
+      <c r="D13" s="60"/>
       <c r="E13" s="9" t="s">
         <v>4</v>
       </c>
@@ -5509,7 +5530,7 @@
       <c r="C14" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="D14" s="55"/>
+      <c r="D14" s="60"/>
       <c r="E14" s="9" t="s">
         <v>4</v>
       </c>
@@ -5539,7 +5560,7 @@
       <c r="C15" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="D15" s="55"/>
+      <c r="D15" s="60"/>
       <c r="E15" s="9" t="s">
         <v>4</v>
       </c>
@@ -5569,7 +5590,7 @@
       <c r="C16" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="D16" s="55"/>
+      <c r="D16" s="60"/>
       <c r="E16" s="9" t="s">
         <v>4</v>
       </c>
@@ -5599,7 +5620,7 @@
       <c r="C17" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="D17" s="55"/>
+      <c r="D17" s="60"/>
       <c r="E17" s="9" t="s">
         <v>4</v>
       </c>
@@ -5629,7 +5650,7 @@
       <c r="C18" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="D18" s="55"/>
+      <c r="D18" s="60"/>
       <c r="E18" s="9" t="s">
         <v>4</v>
       </c>
@@ -5659,7 +5680,7 @@
       <c r="C19" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="D19" s="55"/>
+      <c r="D19" s="60"/>
       <c r="E19" s="9" t="s">
         <v>4</v>
       </c>
@@ -5689,7 +5710,7 @@
       <c r="C20" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="D20" s="55"/>
+      <c r="D20" s="60"/>
       <c r="E20" s="9" t="s">
         <v>4</v>
       </c>
@@ -5719,7 +5740,7 @@
       <c r="C21" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="D21" s="55"/>
+      <c r="D21" s="60"/>
       <c r="E21" s="9" t="s">
         <v>4</v>
       </c>
@@ -5749,7 +5770,7 @@
       <c r="C22" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="D22" s="55"/>
+      <c r="D22" s="60"/>
       <c r="E22" s="9" t="s">
         <v>4</v>
       </c>
@@ -5779,7 +5800,7 @@
       <c r="C23" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="D23" s="55"/>
+      <c r="D23" s="60"/>
       <c r="E23" s="9" t="s">
         <v>4</v>
       </c>
@@ -5809,7 +5830,7 @@
       <c r="C24" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="D24" s="55"/>
+      <c r="D24" s="60"/>
       <c r="E24" s="9" t="s">
         <v>4</v>
       </c>
@@ -5839,7 +5860,7 @@
       <c r="C25" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="D25" s="55"/>
+      <c r="D25" s="60"/>
       <c r="E25" s="9" t="s">
         <v>4</v>
       </c>
@@ -5869,7 +5890,7 @@
       <c r="C26" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="D26" s="55"/>
+      <c r="D26" s="60"/>
       <c r="E26" s="9" t="s">
         <v>4</v>
       </c>
@@ -5899,7 +5920,7 @@
       <c r="C27" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="D27" s="55"/>
+      <c r="D27" s="60"/>
       <c r="E27" s="9" t="s">
         <v>4</v>
       </c>
@@ -5929,7 +5950,7 @@
       <c r="C28" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="D28" s="56"/>
+      <c r="D28" s="61"/>
       <c r="E28" s="9" t="s">
         <v>4</v>
       </c>
@@ -5959,7 +5980,7 @@
       <c r="C29" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="D29" s="54" t="s">
+      <c r="D29" s="59" t="s">
         <v>171</v>
       </c>
       <c r="E29" s="9" t="s">
@@ -5989,7 +6010,7 @@
       <c r="C30" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="D30" s="55"/>
+      <c r="D30" s="60"/>
       <c r="E30" s="9" t="s">
         <v>4</v>
       </c>
@@ -6019,7 +6040,7 @@
       <c r="C31" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="D31" s="55"/>
+      <c r="D31" s="60"/>
       <c r="E31" s="9" t="s">
         <v>4</v>
       </c>
@@ -6049,7 +6070,7 @@
       <c r="C32" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="D32" s="56"/>
+      <c r="D32" s="61"/>
       <c r="E32" s="9" t="s">
         <v>4</v>
       </c>
@@ -6079,7 +6100,7 @@
       <c r="C33" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="D33" s="53" t="s">
+      <c r="D33" s="58" t="s">
         <v>174</v>
       </c>
       <c r="E33" s="9" t="s">
@@ -6111,7 +6132,7 @@
       <c r="C34" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="D34" s="53"/>
+      <c r="D34" s="58"/>
       <c r="E34" s="9" t="s">
         <v>4</v>
       </c>
@@ -6141,7 +6162,7 @@
       <c r="C35" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="D35" s="53"/>
+      <c r="D35" s="58"/>
       <c r="E35" s="9" t="s">
         <v>4</v>
       </c>
@@ -6171,7 +6192,7 @@
       <c r="C36" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="D36" s="53" t="s">
+      <c r="D36" s="58" t="s">
         <v>176</v>
       </c>
       <c r="E36" s="9" t="s">
@@ -6203,7 +6224,7 @@
       <c r="C37" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="D37" s="53"/>
+      <c r="D37" s="58"/>
       <c r="E37" s="9" t="s">
         <v>4</v>
       </c>
@@ -6233,7 +6254,7 @@
       <c r="C38" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="D38" s="53"/>
+      <c r="D38" s="58"/>
       <c r="E38" s="15" t="s">
         <v>4</v>
       </c>
@@ -6263,7 +6284,7 @@
       <c r="C39" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="D39" s="53"/>
+      <c r="D39" s="58"/>
       <c r="E39" s="9" t="s">
         <v>4</v>
       </c>
@@ -6293,7 +6314,7 @@
       <c r="C40" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="D40" s="53" t="s">
+      <c r="D40" s="58" t="s">
         <v>178</v>
       </c>
       <c r="E40" s="9" t="s">
@@ -6325,7 +6346,7 @@
       <c r="C41" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="D41" s="53"/>
+      <c r="D41" s="58"/>
       <c r="E41" s="9" t="s">
         <v>4</v>
       </c>
@@ -6355,7 +6376,7 @@
       <c r="C42" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="D42" s="53"/>
+      <c r="D42" s="58"/>
       <c r="E42" s="9" t="s">
         <v>4</v>
       </c>
@@ -6385,7 +6406,7 @@
       <c r="C43" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="D43" s="53"/>
+      <c r="D43" s="58"/>
       <c r="E43" s="9" t="s">
         <v>4</v>
       </c>
@@ -6415,7 +6436,7 @@
       <c r="C44" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="D44" s="54" t="s">
+      <c r="D44" s="59" t="s">
         <v>182</v>
       </c>
       <c r="E44" s="15" t="s">
@@ -6447,7 +6468,7 @@
       <c r="C45" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="D45" s="56"/>
+      <c r="D45" s="61"/>
       <c r="E45" s="9" t="s">
         <v>4</v>
       </c>
@@ -6477,7 +6498,7 @@
       <c r="C46" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="D46" s="53" t="s">
+      <c r="D46" s="58" t="s">
         <v>184</v>
       </c>
       <c r="E46" s="9" t="s">
@@ -6509,7 +6530,7 @@
       <c r="C47" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="D47" s="53"/>
+      <c r="D47" s="58"/>
       <c r="E47" s="15" t="s">
         <v>4</v>
       </c>
@@ -6539,7 +6560,7 @@
       <c r="C48" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="D48" s="53"/>
+      <c r="D48" s="58"/>
       <c r="E48" s="9" t="s">
         <v>4</v>
       </c>
@@ -6569,7 +6590,7 @@
       <c r="C49" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="D49" s="53" t="s">
+      <c r="D49" s="58" t="s">
         <v>185</v>
       </c>
       <c r="E49" s="9" t="s">
@@ -6599,7 +6620,7 @@
       <c r="C50" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="D50" s="53"/>
+      <c r="D50" s="58"/>
       <c r="E50" s="9" t="s">
         <v>4</v>
       </c>
@@ -6629,7 +6650,7 @@
       <c r="C51" s="28" t="s">
         <v>422</v>
       </c>
-      <c r="D51" s="53"/>
+      <c r="D51" s="58"/>
       <c r="E51" s="15" t="s">
         <v>4</v>
       </c>
@@ -6659,7 +6680,7 @@
       <c r="C52" s="27" t="s">
         <v>422</v>
       </c>
-      <c r="D52" s="53"/>
+      <c r="D52" s="58"/>
       <c r="E52" s="9" t="s">
         <v>4</v>
       </c>
@@ -6739,28 +6760,28 @@
       <c r="B2" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="63" t="s">
         <v>471</v>
       </c>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="94"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="65"/>
     </row>
     <row r="3" spans="1:6" ht="32.4" customHeight="1" thickBot="1">
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="73" t="s">
         <v>360</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="63"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="75"/>
     </row>
     <row r="4" spans="1:6" ht="25.2" customHeight="1" thickBot="1">
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="66"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="68"/>
     </row>
     <row r="5" spans="1:6" ht="19.8" thickBot="1">
       <c r="C5" s="34" t="s">
@@ -6787,12 +6808,12 @@
       <c r="F6" s="36"/>
     </row>
     <row r="7" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="69"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="71"/>
     </row>
     <row r="8" spans="1:6" ht="19.8" thickBot="1">
       <c r="C8" s="38" t="s">
@@ -6887,12 +6908,12 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
     </row>
     <row r="15" spans="1:6" ht="19.8" thickBot="1">
       <c r="C15" s="38" t="s">
@@ -6909,7 +6930,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="18" thickBot="1">
-      <c r="C16" s="57">
+      <c r="C16" s="62">
         <v>200</v>
       </c>
       <c r="D16" s="40" t="s">
@@ -6923,7 +6944,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="18" thickBot="1">
-      <c r="C17" s="57"/>
+      <c r="C17" s="62"/>
       <c r="D17" s="40" t="s">
         <v>377</v>
       </c>
@@ -6935,7 +6956,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="18" thickBot="1">
-      <c r="C18" s="57"/>
+      <c r="C18" s="62"/>
       <c r="D18" s="40" t="s">
         <v>379</v>
       </c>
@@ -6947,7 +6968,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="18" thickBot="1">
-      <c r="C19" s="57"/>
+      <c r="C19" s="62"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
       <c r="F19" s="40"/>
@@ -6968,28 +6989,28 @@
       <c r="B23" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="C23" s="92" t="s">
+      <c r="C23" s="63" t="s">
         <v>472</v>
       </c>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="94"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="65"/>
     </row>
     <row r="24" spans="1:6" ht="19.8" thickBot="1">
-      <c r="C24" s="61" t="s">
+      <c r="C24" s="73" t="s">
         <v>359</v>
       </c>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="63"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="75"/>
     </row>
     <row r="25" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C25" s="64" t="s">
+      <c r="C25" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D25" s="65"/>
-      <c r="E25" s="65"/>
-      <c r="F25" s="66"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="68"/>
     </row>
     <row r="26" spans="1:6" ht="19.8" thickBot="1">
       <c r="C26" s="34" t="s">
@@ -7016,12 +7037,12 @@
       <c r="F27" s="36"/>
     </row>
     <row r="28" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C28" s="67" t="s">
+      <c r="C28" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="69"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="71"/>
     </row>
     <row r="29" spans="1:6" ht="19.8" thickBot="1">
       <c r="C29" s="38" t="s">
@@ -7066,12 +7087,12 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C32" s="70" t="s">
+      <c r="C32" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
     </row>
     <row r="33" spans="1:6" ht="19.8" thickBot="1">
       <c r="C33" s="38" t="s">
@@ -7088,7 +7109,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="18" thickBot="1">
-      <c r="C34" s="57">
+      <c r="C34" s="62">
         <v>200</v>
       </c>
       <c r="D34" s="40" t="s">
@@ -7102,7 +7123,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="18" thickBot="1">
-      <c r="C35" s="57"/>
+      <c r="C35" s="62"/>
       <c r="D35" s="40" t="s">
         <v>377</v>
       </c>
@@ -7114,7 +7135,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="18" thickBot="1">
-      <c r="C36" s="57"/>
+      <c r="C36" s="62"/>
       <c r="D36" s="40" t="s">
         <v>379</v>
       </c>
@@ -7126,7 +7147,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="18" thickBot="1">
-      <c r="C37" s="57"/>
+      <c r="C37" s="62"/>
       <c r="D37" s="40"/>
       <c r="E37" s="40"/>
       <c r="F37" s="40"/>
@@ -7147,28 +7168,28 @@
       <c r="B41" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="C41" s="92" t="s">
+      <c r="C41" s="63" t="s">
         <v>473</v>
       </c>
-      <c r="D41" s="93"/>
-      <c r="E41" s="93"/>
-      <c r="F41" s="94"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="65"/>
     </row>
     <row r="42" spans="1:6" ht="19.8" thickBot="1">
-      <c r="C42" s="61" t="s">
+      <c r="C42" s="73" t="s">
         <v>381</v>
       </c>
-      <c r="D42" s="62"/>
-      <c r="E42" s="62"/>
-      <c r="F42" s="63"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="75"/>
     </row>
     <row r="43" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C43" s="64" t="s">
+      <c r="C43" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D43" s="65"/>
-      <c r="E43" s="65"/>
-      <c r="F43" s="66"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="68"/>
     </row>
     <row r="44" spans="1:6" ht="19.8" thickBot="1">
       <c r="C44" s="34" t="s">
@@ -7195,12 +7216,12 @@
       <c r="F45" s="36"/>
     </row>
     <row r="46" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C46" s="67" t="s">
+      <c r="C46" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D46" s="68"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="69"/>
+      <c r="D46" s="70"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="71"/>
     </row>
     <row r="47" spans="1:6" ht="19.8" thickBot="1">
       <c r="C47" s="38" t="s">
@@ -7231,12 +7252,12 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C49" s="70" t="s">
+      <c r="C49" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D49" s="70"/>
-      <c r="E49" s="70"/>
-      <c r="F49" s="70"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="72"/>
+      <c r="F49" s="72"/>
     </row>
     <row r="50" spans="1:6" ht="19.8" thickBot="1">
       <c r="C50" s="38" t="s">
@@ -7253,7 +7274,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="18" thickBot="1">
-      <c r="C51" s="57">
+      <c r="C51" s="62">
         <v>200</v>
       </c>
       <c r="D51" s="40" t="s">
@@ -7267,7 +7288,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="18" thickBot="1">
-      <c r="C52" s="57"/>
+      <c r="C52" s="62"/>
       <c r="D52" s="40" t="s">
         <v>377</v>
       </c>
@@ -7279,7 +7300,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="18" thickBot="1">
-      <c r="C53" s="57"/>
+      <c r="C53" s="62"/>
       <c r="D53" s="40" t="s">
         <v>379</v>
       </c>
@@ -7291,7 +7312,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="18" thickBot="1">
-      <c r="C54" s="57"/>
+      <c r="C54" s="62"/>
       <c r="D54" s="40"/>
       <c r="E54" s="40"/>
       <c r="F54" s="40"/>
@@ -7312,28 +7333,28 @@
       <c r="B58" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="C58" s="92" t="s">
+      <c r="C58" s="63" t="s">
         <v>474</v>
       </c>
-      <c r="D58" s="93"/>
-      <c r="E58" s="93"/>
-      <c r="F58" s="94"/>
+      <c r="D58" s="64"/>
+      <c r="E58" s="64"/>
+      <c r="F58" s="65"/>
     </row>
     <row r="59" spans="1:6" ht="19.8" thickBot="1">
-      <c r="C59" s="61" t="s">
+      <c r="C59" s="73" t="s">
         <v>389</v>
       </c>
-      <c r="D59" s="62"/>
-      <c r="E59" s="62"/>
-      <c r="F59" s="63"/>
+      <c r="D59" s="74"/>
+      <c r="E59" s="74"/>
+      <c r="F59" s="75"/>
     </row>
     <row r="60" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C60" s="64" t="s">
+      <c r="C60" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D60" s="65"/>
-      <c r="E60" s="65"/>
-      <c r="F60" s="66"/>
+      <c r="D60" s="67"/>
+      <c r="E60" s="67"/>
+      <c r="F60" s="68"/>
     </row>
     <row r="61" spans="1:6" ht="19.8" thickBot="1">
       <c r="C61" s="34" t="s">
@@ -7360,12 +7381,12 @@
       <c r="F62" s="36"/>
     </row>
     <row r="63" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C63" s="67" t="s">
+      <c r="C63" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D63" s="68"/>
-      <c r="E63" s="68"/>
-      <c r="F63" s="69"/>
+      <c r="D63" s="70"/>
+      <c r="E63" s="70"/>
+      <c r="F63" s="71"/>
     </row>
     <row r="64" spans="1:6" ht="19.8" thickBot="1">
       <c r="C64" s="38" t="s">
@@ -7396,12 +7417,12 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C66" s="70" t="s">
+      <c r="C66" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D66" s="70"/>
-      <c r="E66" s="70"/>
-      <c r="F66" s="70"/>
+      <c r="D66" s="72"/>
+      <c r="E66" s="72"/>
+      <c r="F66" s="72"/>
     </row>
     <row r="67" spans="1:6" ht="19.8" thickBot="1">
       <c r="C67" s="38" t="s">
@@ -7418,7 +7439,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="18" thickBot="1">
-      <c r="C68" s="57">
+      <c r="C68" s="62">
         <v>200</v>
       </c>
       <c r="D68" s="40" t="s">
@@ -7432,7 +7453,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="18" thickBot="1">
-      <c r="C69" s="57"/>
+      <c r="C69" s="62"/>
       <c r="D69" s="40" t="s">
         <v>377</v>
       </c>
@@ -7444,7 +7465,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="18" thickBot="1">
-      <c r="C70" s="57"/>
+      <c r="C70" s="62"/>
       <c r="D70" s="40" t="s">
         <v>379</v>
       </c>
@@ -7456,7 +7477,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="18" thickBot="1">
-      <c r="C71" s="57"/>
+      <c r="C71" s="62"/>
       <c r="D71" s="40"/>
       <c r="E71" s="40"/>
       <c r="F71" s="40"/>
@@ -7477,28 +7498,28 @@
       <c r="B75" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="C75" s="92" t="s">
+      <c r="C75" s="63" t="s">
         <v>475</v>
       </c>
-      <c r="D75" s="93"/>
-      <c r="E75" s="93"/>
-      <c r="F75" s="94"/>
+      <c r="D75" s="64"/>
+      <c r="E75" s="64"/>
+      <c r="F75" s="65"/>
     </row>
     <row r="76" spans="1:6" ht="19.8" thickBot="1">
-      <c r="C76" s="61" t="s">
+      <c r="C76" s="73" t="s">
         <v>388</v>
       </c>
-      <c r="D76" s="62"/>
-      <c r="E76" s="62"/>
-      <c r="F76" s="63"/>
+      <c r="D76" s="74"/>
+      <c r="E76" s="74"/>
+      <c r="F76" s="75"/>
     </row>
     <row r="77" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C77" s="64" t="s">
+      <c r="C77" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D77" s="65"/>
-      <c r="E77" s="65"/>
-      <c r="F77" s="66"/>
+      <c r="D77" s="67"/>
+      <c r="E77" s="67"/>
+      <c r="F77" s="68"/>
     </row>
     <row r="78" spans="1:6" ht="19.8" thickBot="1">
       <c r="C78" s="34" t="s">
@@ -7525,12 +7546,12 @@
       <c r="F79" s="36"/>
     </row>
     <row r="80" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C80" s="67" t="s">
+      <c r="C80" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D80" s="68"/>
-      <c r="E80" s="68"/>
-      <c r="F80" s="69"/>
+      <c r="D80" s="70"/>
+      <c r="E80" s="70"/>
+      <c r="F80" s="71"/>
     </row>
     <row r="81" spans="1:6" ht="19.8" thickBot="1">
       <c r="C81" s="38" t="s">
@@ -7561,12 +7582,12 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C83" s="70" t="s">
+      <c r="C83" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D83" s="70"/>
-      <c r="E83" s="70"/>
-      <c r="F83" s="70"/>
+      <c r="D83" s="72"/>
+      <c r="E83" s="72"/>
+      <c r="F83" s="72"/>
     </row>
     <row r="84" spans="1:6" ht="19.8" thickBot="1">
       <c r="C84" s="38" t="s">
@@ -7583,7 +7604,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="18" thickBot="1">
-      <c r="C85" s="57">
+      <c r="C85" s="62">
         <v>200</v>
       </c>
       <c r="D85" s="40" t="s">
@@ -7597,7 +7618,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="18" thickBot="1">
-      <c r="C86" s="57"/>
+      <c r="C86" s="62"/>
       <c r="D86" s="40" t="s">
         <v>377</v>
       </c>
@@ -7609,7 +7630,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="18" thickBot="1">
-      <c r="C87" s="57"/>
+      <c r="C87" s="62"/>
       <c r="D87" s="40" t="s">
         <v>379</v>
       </c>
@@ -7621,7 +7642,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="18" thickBot="1">
-      <c r="C88" s="57"/>
+      <c r="C88" s="62"/>
       <c r="D88" s="40"/>
       <c r="E88" s="40"/>
       <c r="F88" s="40"/>
@@ -7642,28 +7663,28 @@
       <c r="B92" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C92" s="89" t="s">
+      <c r="C92" s="76" t="s">
         <v>476</v>
       </c>
-      <c r="D92" s="90"/>
-      <c r="E92" s="90"/>
-      <c r="F92" s="91"/>
+      <c r="D92" s="77"/>
+      <c r="E92" s="77"/>
+      <c r="F92" s="78"/>
     </row>
     <row r="93" spans="1:6" ht="19.8" thickBot="1">
-      <c r="C93" s="61" t="s">
+      <c r="C93" s="73" t="s">
         <v>387</v>
       </c>
-      <c r="D93" s="62"/>
-      <c r="E93" s="62"/>
-      <c r="F93" s="63"/>
+      <c r="D93" s="74"/>
+      <c r="E93" s="74"/>
+      <c r="F93" s="75"/>
     </row>
     <row r="94" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C94" s="64" t="s">
+      <c r="C94" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D94" s="65"/>
-      <c r="E94" s="65"/>
-      <c r="F94" s="66"/>
+      <c r="D94" s="67"/>
+      <c r="E94" s="67"/>
+      <c r="F94" s="68"/>
     </row>
     <row r="95" spans="1:6" ht="19.8" thickBot="1">
       <c r="C95" s="34" t="s">
@@ -7706,12 +7727,12 @@
       <c r="F97" s="36"/>
     </row>
     <row r="98" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C98" s="67" t="s">
+      <c r="C98" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D98" s="68"/>
-      <c r="E98" s="68"/>
-      <c r="F98" s="69"/>
+      <c r="D98" s="70"/>
+      <c r="E98" s="70"/>
+      <c r="F98" s="71"/>
     </row>
     <row r="99" spans="1:6" ht="19.8" thickBot="1">
       <c r="C99" s="38" t="s">
@@ -7742,12 +7763,12 @@
       </c>
     </row>
     <row r="101" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C101" s="70" t="s">
+      <c r="C101" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D101" s="70"/>
-      <c r="E101" s="70"/>
-      <c r="F101" s="70"/>
+      <c r="D101" s="72"/>
+      <c r="E101" s="72"/>
+      <c r="F101" s="72"/>
     </row>
     <row r="102" spans="1:6" ht="19.8" thickBot="1">
       <c r="C102" s="38" t="s">
@@ -7764,7 +7785,7 @@
       </c>
     </row>
     <row r="103" spans="1:6" ht="18" thickBot="1">
-      <c r="C103" s="57">
+      <c r="C103" s="62">
         <v>200</v>
       </c>
       <c r="D103" s="40" t="s">
@@ -7778,7 +7799,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" ht="18" thickBot="1">
-      <c r="C104" s="57"/>
+      <c r="C104" s="62"/>
       <c r="D104" s="40" t="s">
         <v>377</v>
       </c>
@@ -7790,7 +7811,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" ht="18" thickBot="1">
-      <c r="C105" s="57"/>
+      <c r="C105" s="62"/>
       <c r="D105" s="40" t="s">
         <v>379</v>
       </c>
@@ -7802,7 +7823,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" ht="18" thickBot="1">
-      <c r="C106" s="57"/>
+      <c r="C106" s="62"/>
       <c r="D106" s="40"/>
       <c r="E106" s="40"/>
       <c r="F106" s="40"/>
@@ -7823,28 +7844,28 @@
       <c r="B110" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C110" s="89" t="s">
+      <c r="C110" s="76" t="s">
         <v>477</v>
       </c>
-      <c r="D110" s="90"/>
-      <c r="E110" s="90"/>
-      <c r="F110" s="91"/>
+      <c r="D110" s="77"/>
+      <c r="E110" s="77"/>
+      <c r="F110" s="78"/>
     </row>
     <row r="111" spans="1:6" ht="19.8" thickBot="1">
-      <c r="C111" s="61" t="s">
+      <c r="C111" s="73" t="s">
         <v>392</v>
       </c>
-      <c r="D111" s="62"/>
-      <c r="E111" s="62"/>
-      <c r="F111" s="63"/>
+      <c r="D111" s="74"/>
+      <c r="E111" s="74"/>
+      <c r="F111" s="75"/>
     </row>
     <row r="112" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C112" s="64" t="s">
+      <c r="C112" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D112" s="65"/>
-      <c r="E112" s="65"/>
-      <c r="F112" s="66"/>
+      <c r="D112" s="67"/>
+      <c r="E112" s="67"/>
+      <c r="F112" s="68"/>
     </row>
     <row r="113" spans="1:6" ht="19.8" thickBot="1">
       <c r="C113" s="34" t="s">
@@ -7885,12 +7906,12 @@
       <c r="F115" s="36"/>
     </row>
     <row r="116" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C116" s="67" t="s">
+      <c r="C116" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D116" s="68"/>
-      <c r="E116" s="68"/>
-      <c r="F116" s="69"/>
+      <c r="D116" s="70"/>
+      <c r="E116" s="70"/>
+      <c r="F116" s="71"/>
     </row>
     <row r="117" spans="1:6" ht="19.8" thickBot="1">
       <c r="C117" s="38" t="s">
@@ -7921,12 +7942,12 @@
       </c>
     </row>
     <row r="119" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C119" s="70" t="s">
+      <c r="C119" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D119" s="70"/>
-      <c r="E119" s="70"/>
-      <c r="F119" s="70"/>
+      <c r="D119" s="72"/>
+      <c r="E119" s="72"/>
+      <c r="F119" s="72"/>
     </row>
     <row r="120" spans="1:6" ht="19.8" thickBot="1">
       <c r="C120" s="38" t="s">
@@ -7943,7 +7964,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" ht="18" thickBot="1">
-      <c r="C121" s="57">
+      <c r="C121" s="62">
         <v>200</v>
       </c>
       <c r="D121" s="40" t="s">
@@ -7957,7 +7978,7 @@
       </c>
     </row>
     <row r="122" spans="1:6" ht="18" thickBot="1">
-      <c r="C122" s="57"/>
+      <c r="C122" s="62"/>
       <c r="D122" s="40" t="s">
         <v>377</v>
       </c>
@@ -7969,7 +7990,7 @@
       </c>
     </row>
     <row r="123" spans="1:6" ht="18" thickBot="1">
-      <c r="C123" s="57"/>
+      <c r="C123" s="62"/>
       <c r="D123" s="40" t="s">
         <v>379</v>
       </c>
@@ -7981,7 +8002,7 @@
       </c>
     </row>
     <row r="124" spans="1:6" ht="18" thickBot="1">
-      <c r="C124" s="57"/>
+      <c r="C124" s="62"/>
       <c r="D124" s="40"/>
       <c r="E124" s="40"/>
       <c r="F124" s="40"/>
@@ -8002,28 +8023,28 @@
       <c r="B128" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C128" s="89" t="s">
+      <c r="C128" s="76" t="s">
         <v>478</v>
       </c>
-      <c r="D128" s="90"/>
-      <c r="E128" s="90"/>
-      <c r="F128" s="91"/>
+      <c r="D128" s="77"/>
+      <c r="E128" s="77"/>
+      <c r="F128" s="78"/>
     </row>
     <row r="129" spans="1:6" ht="19.8" thickBot="1">
-      <c r="C129" s="61" t="s">
+      <c r="C129" s="73" t="s">
         <v>393</v>
       </c>
-      <c r="D129" s="62"/>
-      <c r="E129" s="62"/>
-      <c r="F129" s="63"/>
+      <c r="D129" s="74"/>
+      <c r="E129" s="74"/>
+      <c r="F129" s="75"/>
     </row>
     <row r="130" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C130" s="64" t="s">
+      <c r="C130" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D130" s="65"/>
-      <c r="E130" s="65"/>
-      <c r="F130" s="66"/>
+      <c r="D130" s="67"/>
+      <c r="E130" s="67"/>
+      <c r="F130" s="68"/>
     </row>
     <row r="131" spans="1:6" ht="19.8" thickBot="1">
       <c r="C131" s="34" t="s">
@@ -8064,12 +8085,12 @@
       <c r="F133" s="36"/>
     </row>
     <row r="134" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C134" s="67" t="s">
+      <c r="C134" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D134" s="68"/>
-      <c r="E134" s="68"/>
-      <c r="F134" s="69"/>
+      <c r="D134" s="70"/>
+      <c r="E134" s="70"/>
+      <c r="F134" s="71"/>
     </row>
     <row r="135" spans="1:6" ht="19.8" thickBot="1">
       <c r="C135" s="38" t="s">
@@ -8116,12 +8137,12 @@
       </c>
     </row>
     <row r="138" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C138" s="70" t="s">
+      <c r="C138" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D138" s="70"/>
-      <c r="E138" s="70"/>
-      <c r="F138" s="70"/>
+      <c r="D138" s="72"/>
+      <c r="E138" s="72"/>
+      <c r="F138" s="72"/>
     </row>
     <row r="139" spans="1:6" ht="19.8" thickBot="1">
       <c r="C139" s="38" t="s">
@@ -8138,7 +8159,7 @@
       </c>
     </row>
     <row r="140" spans="1:6" ht="18" thickBot="1">
-      <c r="C140" s="57">
+      <c r="C140" s="62">
         <v>200</v>
       </c>
       <c r="D140" s="40" t="s">
@@ -8152,7 +8173,7 @@
       </c>
     </row>
     <row r="141" spans="1:6" ht="18" thickBot="1">
-      <c r="C141" s="57"/>
+      <c r="C141" s="62"/>
       <c r="D141" s="40" t="s">
         <v>377</v>
       </c>
@@ -8164,7 +8185,7 @@
       </c>
     </row>
     <row r="142" spans="1:6" ht="18" thickBot="1">
-      <c r="C142" s="57"/>
+      <c r="C142" s="62"/>
       <c r="D142" s="40" t="s">
         <v>379</v>
       </c>
@@ -8176,7 +8197,7 @@
       </c>
     </row>
     <row r="143" spans="1:6" ht="18" thickBot="1">
-      <c r="C143" s="57"/>
+      <c r="C143" s="62"/>
       <c r="D143" s="40"/>
       <c r="E143" s="40"/>
       <c r="F143" s="40"/>
@@ -8197,28 +8218,28 @@
       <c r="B147" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C147" s="89" t="s">
+      <c r="C147" s="76" t="s">
         <v>479</v>
       </c>
-      <c r="D147" s="90"/>
-      <c r="E147" s="90"/>
-      <c r="F147" s="91"/>
+      <c r="D147" s="77"/>
+      <c r="E147" s="77"/>
+      <c r="F147" s="78"/>
     </row>
     <row r="148" spans="1:6" ht="19.8" thickBot="1">
-      <c r="C148" s="61" t="s">
+      <c r="C148" s="73" t="s">
         <v>409</v>
       </c>
-      <c r="D148" s="62"/>
-      <c r="E148" s="62"/>
-      <c r="F148" s="63"/>
+      <c r="D148" s="74"/>
+      <c r="E148" s="74"/>
+      <c r="F148" s="75"/>
     </row>
     <row r="149" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C149" s="64" t="s">
+      <c r="C149" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D149" s="65"/>
-      <c r="E149" s="65"/>
-      <c r="F149" s="66"/>
+      <c r="D149" s="67"/>
+      <c r="E149" s="67"/>
+      <c r="F149" s="68"/>
     </row>
     <row r="150" spans="1:6" ht="19.8" thickBot="1">
       <c r="C150" s="34" t="s">
@@ -8259,12 +8280,12 @@
       <c r="F152" s="36"/>
     </row>
     <row r="153" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C153" s="67" t="s">
+      <c r="C153" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D153" s="68"/>
-      <c r="E153" s="68"/>
-      <c r="F153" s="69"/>
+      <c r="D153" s="70"/>
+      <c r="E153" s="70"/>
+      <c r="F153" s="71"/>
     </row>
     <row r="154" spans="1:6" ht="19.8" thickBot="1">
       <c r="C154" s="38" t="s">
@@ -8381,12 +8402,12 @@
       <c r="F161" s="39"/>
     </row>
     <row r="162" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C162" s="70" t="s">
+      <c r="C162" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D162" s="70"/>
-      <c r="E162" s="70"/>
-      <c r="F162" s="70"/>
+      <c r="D162" s="72"/>
+      <c r="E162" s="72"/>
+      <c r="F162" s="72"/>
     </row>
     <row r="163" spans="1:6" ht="19.8" thickBot="1">
       <c r="C163" s="38" t="s">
@@ -8403,7 +8424,7 @@
       </c>
     </row>
     <row r="164" spans="1:6" ht="18" thickBot="1">
-      <c r="C164" s="57">
+      <c r="C164" s="62">
         <v>200</v>
       </c>
       <c r="D164" s="40" t="s">
@@ -8417,7 +8438,7 @@
       </c>
     </row>
     <row r="165" spans="1:6" ht="18" thickBot="1">
-      <c r="C165" s="57"/>
+      <c r="C165" s="62"/>
       <c r="D165" s="40" t="s">
         <v>377</v>
       </c>
@@ -8429,7 +8450,7 @@
       </c>
     </row>
     <row r="166" spans="1:6" ht="18" thickBot="1">
-      <c r="C166" s="57"/>
+      <c r="C166" s="62"/>
       <c r="D166" s="40" t="s">
         <v>379</v>
       </c>
@@ -8441,7 +8462,7 @@
       </c>
     </row>
     <row r="167" spans="1:6" ht="18" thickBot="1">
-      <c r="C167" s="57"/>
+      <c r="C167" s="62"/>
       <c r="D167" s="40"/>
       <c r="E167" s="40"/>
       <c r="F167" s="40"/>
@@ -8462,28 +8483,28 @@
       <c r="B171" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C171" s="89" t="s">
+      <c r="C171" s="76" t="s">
         <v>480</v>
       </c>
-      <c r="D171" s="90"/>
-      <c r="E171" s="90"/>
-      <c r="F171" s="91"/>
+      <c r="D171" s="77"/>
+      <c r="E171" s="77"/>
+      <c r="F171" s="78"/>
     </row>
     <row r="172" spans="1:6" ht="19.8" thickBot="1">
-      <c r="C172" s="61" t="s">
+      <c r="C172" s="73" t="s">
         <v>410</v>
       </c>
-      <c r="D172" s="62"/>
-      <c r="E172" s="62"/>
-      <c r="F172" s="63"/>
+      <c r="D172" s="74"/>
+      <c r="E172" s="74"/>
+      <c r="F172" s="75"/>
     </row>
     <row r="173" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C173" s="64" t="s">
+      <c r="C173" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D173" s="65"/>
-      <c r="E173" s="65"/>
-      <c r="F173" s="66"/>
+      <c r="D173" s="67"/>
+      <c r="E173" s="67"/>
+      <c r="F173" s="68"/>
     </row>
     <row r="174" spans="1:6" ht="19.8" thickBot="1">
       <c r="C174" s="34" t="s">
@@ -8524,12 +8545,12 @@
       <c r="F176" s="36"/>
     </row>
     <row r="177" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C177" s="67" t="s">
+      <c r="C177" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D177" s="68"/>
-      <c r="E177" s="68"/>
-      <c r="F177" s="69"/>
+      <c r="D177" s="70"/>
+      <c r="E177" s="70"/>
+      <c r="F177" s="71"/>
     </row>
     <row r="178" spans="1:6" ht="19.8" thickBot="1">
       <c r="C178" s="38" t="s">
@@ -8580,12 +8601,12 @@
       <c r="F181" s="39"/>
     </row>
     <row r="182" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C182" s="70" t="s">
+      <c r="C182" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D182" s="70"/>
-      <c r="E182" s="70"/>
-      <c r="F182" s="70"/>
+      <c r="D182" s="72"/>
+      <c r="E182" s="72"/>
+      <c r="F182" s="72"/>
     </row>
     <row r="183" spans="1:6" ht="19.8" thickBot="1">
       <c r="C183" s="38" t="s">
@@ -8602,7 +8623,7 @@
       </c>
     </row>
     <row r="184" spans="1:6" ht="18" thickBot="1">
-      <c r="C184" s="57">
+      <c r="C184" s="62">
         <v>200</v>
       </c>
       <c r="D184" s="40" t="s">
@@ -8616,7 +8637,7 @@
       </c>
     </row>
     <row r="185" spans="1:6" ht="18" thickBot="1">
-      <c r="C185" s="57"/>
+      <c r="C185" s="62"/>
       <c r="D185" s="40" t="s">
         <v>377</v>
       </c>
@@ -8628,7 +8649,7 @@
       </c>
     </row>
     <row r="186" spans="1:6" ht="18" thickBot="1">
-      <c r="C186" s="57"/>
+      <c r="C186" s="62"/>
       <c r="D186" s="40" t="s">
         <v>379</v>
       </c>
@@ -8640,7 +8661,7 @@
       </c>
     </row>
     <row r="187" spans="1:6" ht="18" thickBot="1">
-      <c r="C187" s="57"/>
+      <c r="C187" s="62"/>
       <c r="D187" s="40"/>
       <c r="E187" s="40"/>
       <c r="F187" s="40"/>
@@ -8661,28 +8682,28 @@
       <c r="B191" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C191" s="89" t="s">
+      <c r="C191" s="76" t="s">
         <v>481</v>
       </c>
-      <c r="D191" s="90"/>
-      <c r="E191" s="90"/>
-      <c r="F191" s="91"/>
+      <c r="D191" s="77"/>
+      <c r="E191" s="77"/>
+      <c r="F191" s="78"/>
     </row>
     <row r="192" spans="1:6" ht="19.95" customHeight="1" thickBot="1">
-      <c r="C192" s="61" t="s">
+      <c r="C192" s="73" t="s">
         <v>415</v>
       </c>
-      <c r="D192" s="62"/>
-      <c r="E192" s="62"/>
-      <c r="F192" s="63"/>
+      <c r="D192" s="74"/>
+      <c r="E192" s="74"/>
+      <c r="F192" s="75"/>
     </row>
     <row r="193" spans="3:6" ht="28.2" thickBot="1">
-      <c r="C193" s="64" t="s">
+      <c r="C193" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D193" s="65"/>
-      <c r="E193" s="65"/>
-      <c r="F193" s="66"/>
+      <c r="D193" s="67"/>
+      <c r="E193" s="67"/>
+      <c r="F193" s="68"/>
     </row>
     <row r="194" spans="3:6" ht="19.8" thickBot="1">
       <c r="C194" s="34" t="s">
@@ -8723,12 +8744,12 @@
       <c r="F196" s="36"/>
     </row>
     <row r="197" spans="3:6" ht="28.2" thickBot="1">
-      <c r="C197" s="67" t="s">
+      <c r="C197" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D197" s="68"/>
-      <c r="E197" s="68"/>
-      <c r="F197" s="69"/>
+      <c r="D197" s="70"/>
+      <c r="E197" s="70"/>
+      <c r="F197" s="71"/>
     </row>
     <row r="198" spans="3:6" ht="19.8" thickBot="1">
       <c r="C198" s="38" t="s">
@@ -8765,12 +8786,12 @@
       <c r="F200" s="39"/>
     </row>
     <row r="201" spans="3:6" ht="28.2" thickBot="1">
-      <c r="C201" s="70" t="s">
+      <c r="C201" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D201" s="70"/>
-      <c r="E201" s="70"/>
-      <c r="F201" s="70"/>
+      <c r="D201" s="72"/>
+      <c r="E201" s="72"/>
+      <c r="F201" s="72"/>
     </row>
     <row r="202" spans="3:6" ht="19.8" thickBot="1">
       <c r="C202" s="38" t="s">
@@ -8787,7 +8808,7 @@
       </c>
     </row>
     <row r="203" spans="3:6" ht="18" thickBot="1">
-      <c r="C203" s="57">
+      <c r="C203" s="62">
         <v>200</v>
       </c>
       <c r="D203" s="40" t="s">
@@ -8801,7 +8822,7 @@
       </c>
     </row>
     <row r="204" spans="3:6" ht="18" thickBot="1">
-      <c r="C204" s="57"/>
+      <c r="C204" s="62"/>
       <c r="D204" s="40" t="s">
         <v>377</v>
       </c>
@@ -8813,7 +8834,7 @@
       </c>
     </row>
     <row r="205" spans="3:6" ht="18" thickBot="1">
-      <c r="C205" s="57"/>
+      <c r="C205" s="62"/>
       <c r="D205" s="40" t="s">
         <v>379</v>
       </c>
@@ -8825,7 +8846,7 @@
       </c>
     </row>
     <row r="206" spans="3:6" ht="18" thickBot="1">
-      <c r="C206" s="57"/>
+      <c r="C206" s="62"/>
       <c r="D206" s="40"/>
       <c r="E206" s="40"/>
       <c r="F206" s="40"/>
@@ -8846,28 +8867,28 @@
       <c r="B210" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C210" s="89" t="s">
+      <c r="C210" s="76" t="s">
         <v>482</v>
       </c>
-      <c r="D210" s="90"/>
-      <c r="E210" s="90"/>
-      <c r="F210" s="91"/>
+      <c r="D210" s="77"/>
+      <c r="E210" s="77"/>
+      <c r="F210" s="78"/>
     </row>
     <row r="211" spans="1:6" ht="19.8" thickBot="1">
-      <c r="C211" s="61" t="s">
+      <c r="C211" s="73" t="s">
         <v>416</v>
       </c>
-      <c r="D211" s="62"/>
-      <c r="E211" s="62"/>
-      <c r="F211" s="63"/>
+      <c r="D211" s="74"/>
+      <c r="E211" s="74"/>
+      <c r="F211" s="75"/>
     </row>
     <row r="212" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C212" s="64" t="s">
+      <c r="C212" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D212" s="65"/>
-      <c r="E212" s="65"/>
-      <c r="F212" s="66"/>
+      <c r="D212" s="67"/>
+      <c r="E212" s="67"/>
+      <c r="F212" s="68"/>
     </row>
     <row r="213" spans="1:6" ht="19.8" thickBot="1">
       <c r="C213" s="34" t="s">
@@ -8908,12 +8929,12 @@
       <c r="F215" s="36"/>
     </row>
     <row r="216" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C216" s="67" t="s">
+      <c r="C216" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D216" s="68"/>
-      <c r="E216" s="68"/>
-      <c r="F216" s="69"/>
+      <c r="D216" s="70"/>
+      <c r="E216" s="70"/>
+      <c r="F216" s="71"/>
     </row>
     <row r="217" spans="1:6" ht="19.8" thickBot="1">
       <c r="C217" s="38" t="s">
@@ -8964,12 +8985,12 @@
       <c r="F220" s="39"/>
     </row>
     <row r="221" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C221" s="70" t="s">
+      <c r="C221" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D221" s="70"/>
-      <c r="E221" s="70"/>
-      <c r="F221" s="70"/>
+      <c r="D221" s="72"/>
+      <c r="E221" s="72"/>
+      <c r="F221" s="72"/>
     </row>
     <row r="222" spans="1:6" ht="19.8" thickBot="1">
       <c r="C222" s="38" t="s">
@@ -8986,7 +9007,7 @@
       </c>
     </row>
     <row r="223" spans="1:6" ht="18" thickBot="1">
-      <c r="C223" s="57">
+      <c r="C223" s="62">
         <v>200</v>
       </c>
       <c r="D223" s="40" t="s">
@@ -9000,7 +9021,7 @@
       </c>
     </row>
     <row r="224" spans="1:6" ht="18" thickBot="1">
-      <c r="C224" s="57"/>
+      <c r="C224" s="62"/>
       <c r="D224" s="40" t="s">
         <v>377</v>
       </c>
@@ -9012,7 +9033,7 @@
       </c>
     </row>
     <row r="225" spans="1:6" ht="18" thickBot="1">
-      <c r="C225" s="57"/>
+      <c r="C225" s="62"/>
       <c r="D225" s="40" t="s">
         <v>379</v>
       </c>
@@ -9024,7 +9045,7 @@
       </c>
     </row>
     <row r="226" spans="1:6" ht="18" thickBot="1">
-      <c r="C226" s="57"/>
+      <c r="C226" s="62"/>
       <c r="D226" s="40"/>
       <c r="E226" s="40"/>
       <c r="F226" s="40"/>
@@ -9045,28 +9066,28 @@
       <c r="B230" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C230" s="89" t="s">
+      <c r="C230" s="76" t="s">
         <v>483</v>
       </c>
-      <c r="D230" s="90"/>
-      <c r="E230" s="90"/>
-      <c r="F230" s="91"/>
+      <c r="D230" s="77"/>
+      <c r="E230" s="77"/>
+      <c r="F230" s="78"/>
     </row>
     <row r="231" spans="1:6" ht="19.8" thickBot="1">
-      <c r="C231" s="61" t="s">
+      <c r="C231" s="73" t="s">
         <v>507</v>
       </c>
-      <c r="D231" s="62"/>
-      <c r="E231" s="62"/>
-      <c r="F231" s="63"/>
+      <c r="D231" s="74"/>
+      <c r="E231" s="74"/>
+      <c r="F231" s="75"/>
     </row>
     <row r="232" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C232" s="64" t="s">
+      <c r="C232" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D232" s="65"/>
-      <c r="E232" s="65"/>
-      <c r="F232" s="66"/>
+      <c r="D232" s="67"/>
+      <c r="E232" s="67"/>
+      <c r="F232" s="68"/>
     </row>
     <row r="233" spans="1:6" ht="19.8" thickBot="1">
       <c r="C233" s="34" t="s">
@@ -9107,12 +9128,12 @@
       <c r="F235" s="36"/>
     </row>
     <row r="236" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C236" s="67" t="s">
+      <c r="C236" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D236" s="68"/>
-      <c r="E236" s="68"/>
-      <c r="F236" s="69"/>
+      <c r="D236" s="70"/>
+      <c r="E236" s="70"/>
+      <c r="F236" s="71"/>
     </row>
     <row r="237" spans="1:6" ht="19.8" thickBot="1">
       <c r="C237" s="38" t="s">
@@ -9149,12 +9170,12 @@
       <c r="F239" s="39"/>
     </row>
     <row r="240" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C240" s="70" t="s">
+      <c r="C240" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D240" s="70"/>
-      <c r="E240" s="70"/>
-      <c r="F240" s="70"/>
+      <c r="D240" s="72"/>
+      <c r="E240" s="72"/>
+      <c r="F240" s="72"/>
     </row>
     <row r="241" spans="1:6" ht="19.8" thickBot="1">
       <c r="C241" s="38" t="s">
@@ -9171,7 +9192,7 @@
       </c>
     </row>
     <row r="242" spans="1:6" ht="18" thickBot="1">
-      <c r="C242" s="57">
+      <c r="C242" s="62">
         <v>200</v>
       </c>
       <c r="D242" s="40" t="s">
@@ -9185,7 +9206,7 @@
       </c>
     </row>
     <row r="243" spans="1:6" ht="18" thickBot="1">
-      <c r="C243" s="57"/>
+      <c r="C243" s="62"/>
       <c r="D243" s="40" t="s">
         <v>377</v>
       </c>
@@ -9197,7 +9218,7 @@
       </c>
     </row>
     <row r="244" spans="1:6" ht="18" thickBot="1">
-      <c r="C244" s="57"/>
+      <c r="C244" s="62"/>
       <c r="D244" s="40" t="s">
         <v>379</v>
       </c>
@@ -9209,7 +9230,7 @@
       </c>
     </row>
     <row r="245" spans="1:6" ht="18" thickBot="1">
-      <c r="C245" s="57"/>
+      <c r="C245" s="62"/>
       <c r="D245" s="40"/>
       <c r="E245" s="40"/>
       <c r="F245" s="40"/>
@@ -9230,28 +9251,28 @@
       <c r="B249" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C249" s="89" t="s">
+      <c r="C249" s="76" t="s">
         <v>484</v>
       </c>
-      <c r="D249" s="90"/>
-      <c r="E249" s="90"/>
-      <c r="F249" s="91"/>
+      <c r="D249" s="77"/>
+      <c r="E249" s="77"/>
+      <c r="F249" s="78"/>
     </row>
     <row r="250" spans="1:6" ht="19.8" thickBot="1">
-      <c r="C250" s="61" t="s">
+      <c r="C250" s="73" t="s">
         <v>506</v>
       </c>
-      <c r="D250" s="62"/>
-      <c r="E250" s="62"/>
-      <c r="F250" s="63"/>
+      <c r="D250" s="74"/>
+      <c r="E250" s="74"/>
+      <c r="F250" s="75"/>
     </row>
     <row r="251" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C251" s="64" t="s">
+      <c r="C251" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D251" s="65"/>
-      <c r="E251" s="65"/>
-      <c r="F251" s="66"/>
+      <c r="D251" s="67"/>
+      <c r="E251" s="67"/>
+      <c r="F251" s="68"/>
     </row>
     <row r="252" spans="1:6" ht="19.8" thickBot="1">
       <c r="C252" s="34" t="s">
@@ -9292,12 +9313,12 @@
       <c r="F254" s="36"/>
     </row>
     <row r="255" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C255" s="67" t="s">
+      <c r="C255" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D255" s="68"/>
-      <c r="E255" s="68"/>
-      <c r="F255" s="69"/>
+      <c r="D255" s="70"/>
+      <c r="E255" s="70"/>
+      <c r="F255" s="71"/>
     </row>
     <row r="256" spans="1:6" ht="19.8" thickBot="1">
       <c r="C256" s="38" t="s">
@@ -9348,12 +9369,12 @@
       <c r="F259" s="39"/>
     </row>
     <row r="260" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C260" s="70" t="s">
+      <c r="C260" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D260" s="70"/>
-      <c r="E260" s="70"/>
-      <c r="F260" s="70"/>
+      <c r="D260" s="72"/>
+      <c r="E260" s="72"/>
+      <c r="F260" s="72"/>
     </row>
     <row r="261" spans="1:6" ht="19.8" thickBot="1">
       <c r="C261" s="38" t="s">
@@ -9370,7 +9391,7 @@
       </c>
     </row>
     <row r="262" spans="1:6" ht="18" thickBot="1">
-      <c r="C262" s="57">
+      <c r="C262" s="62">
         <v>200</v>
       </c>
       <c r="D262" s="40" t="s">
@@ -9384,7 +9405,7 @@
       </c>
     </row>
     <row r="263" spans="1:6" ht="18" thickBot="1">
-      <c r="C263" s="57"/>
+      <c r="C263" s="62"/>
       <c r="D263" s="40" t="s">
         <v>377</v>
       </c>
@@ -9396,7 +9417,7 @@
       </c>
     </row>
     <row r="264" spans="1:6" ht="18" thickBot="1">
-      <c r="C264" s="57"/>
+      <c r="C264" s="62"/>
       <c r="D264" s="40" t="s">
         <v>379</v>
       </c>
@@ -9408,7 +9429,7 @@
       </c>
     </row>
     <row r="265" spans="1:6" ht="18" thickBot="1">
-      <c r="C265" s="57"/>
+      <c r="C265" s="62"/>
       <c r="D265" s="40"/>
       <c r="E265" s="40"/>
       <c r="F265" s="40"/>
@@ -9429,28 +9450,28 @@
       <c r="B269" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C269" s="89" t="s">
+      <c r="C269" s="76" t="s">
         <v>485</v>
       </c>
-      <c r="D269" s="90"/>
-      <c r="E269" s="90"/>
-      <c r="F269" s="91"/>
+      <c r="D269" s="77"/>
+      <c r="E269" s="77"/>
+      <c r="F269" s="78"/>
     </row>
     <row r="270" spans="1:6" ht="19.8" thickBot="1">
-      <c r="C270" s="61" t="s">
+      <c r="C270" s="73" t="s">
         <v>505</v>
       </c>
-      <c r="D270" s="62"/>
-      <c r="E270" s="62"/>
-      <c r="F270" s="63"/>
+      <c r="D270" s="74"/>
+      <c r="E270" s="74"/>
+      <c r="F270" s="75"/>
     </row>
     <row r="271" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C271" s="64" t="s">
+      <c r="C271" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D271" s="65"/>
-      <c r="E271" s="65"/>
-      <c r="F271" s="66"/>
+      <c r="D271" s="67"/>
+      <c r="E271" s="67"/>
+      <c r="F271" s="68"/>
     </row>
     <row r="272" spans="1:6" ht="19.8" thickBot="1">
       <c r="C272" s="34" t="s">
@@ -9491,12 +9512,12 @@
       <c r="F274" s="36"/>
     </row>
     <row r="275" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C275" s="67" t="s">
+      <c r="C275" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D275" s="68"/>
-      <c r="E275" s="68"/>
-      <c r="F275" s="69"/>
+      <c r="D275" s="70"/>
+      <c r="E275" s="70"/>
+      <c r="F275" s="71"/>
     </row>
     <row r="276" spans="1:6" ht="19.8" thickBot="1">
       <c r="C276" s="38" t="s">
@@ -9533,12 +9554,12 @@
       <c r="F278" s="39"/>
     </row>
     <row r="279" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C279" s="70" t="s">
+      <c r="C279" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D279" s="70"/>
-      <c r="E279" s="70"/>
-      <c r="F279" s="70"/>
+      <c r="D279" s="72"/>
+      <c r="E279" s="72"/>
+      <c r="F279" s="72"/>
     </row>
     <row r="280" spans="1:6" ht="19.8" thickBot="1">
       <c r="C280" s="38" t="s">
@@ -9555,7 +9576,7 @@
       </c>
     </row>
     <row r="281" spans="1:6" ht="18" thickBot="1">
-      <c r="C281" s="57">
+      <c r="C281" s="62">
         <v>200</v>
       </c>
       <c r="D281" s="40" t="s">
@@ -9569,7 +9590,7 @@
       </c>
     </row>
     <row r="282" spans="1:6" ht="18" thickBot="1">
-      <c r="C282" s="57"/>
+      <c r="C282" s="62"/>
       <c r="D282" s="40" t="s">
         <v>377</v>
       </c>
@@ -9581,7 +9602,7 @@
       </c>
     </row>
     <row r="283" spans="1:6" ht="18" thickBot="1">
-      <c r="C283" s="57"/>
+      <c r="C283" s="62"/>
       <c r="D283" s="40" t="s">
         <v>379</v>
       </c>
@@ -9593,7 +9614,7 @@
       </c>
     </row>
     <row r="284" spans="1:6" ht="18" thickBot="1">
-      <c r="C284" s="57"/>
+      <c r="C284" s="62"/>
       <c r="D284" s="40"/>
       <c r="E284" s="40"/>
       <c r="F284" s="40"/>
@@ -9614,28 +9635,28 @@
       <c r="B288" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C288" s="89" t="s">
+      <c r="C288" s="76" t="s">
         <v>486</v>
       </c>
-      <c r="D288" s="90"/>
-      <c r="E288" s="90"/>
-      <c r="F288" s="91"/>
+      <c r="D288" s="77"/>
+      <c r="E288" s="77"/>
+      <c r="F288" s="78"/>
     </row>
     <row r="289" spans="3:6" ht="19.8" thickBot="1">
-      <c r="C289" s="61" t="s">
+      <c r="C289" s="73" t="s">
         <v>504</v>
       </c>
-      <c r="D289" s="62"/>
-      <c r="E289" s="62"/>
-      <c r="F289" s="63"/>
+      <c r="D289" s="74"/>
+      <c r="E289" s="74"/>
+      <c r="F289" s="75"/>
     </row>
     <row r="290" spans="3:6" ht="28.2" thickBot="1">
-      <c r="C290" s="64" t="s">
+      <c r="C290" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D290" s="65"/>
-      <c r="E290" s="65"/>
-      <c r="F290" s="66"/>
+      <c r="D290" s="67"/>
+      <c r="E290" s="67"/>
+      <c r="F290" s="68"/>
     </row>
     <row r="291" spans="3:6" ht="19.8" thickBot="1">
       <c r="C291" s="34" t="s">
@@ -9676,12 +9697,12 @@
       <c r="F293" s="36"/>
     </row>
     <row r="294" spans="3:6" ht="28.2" thickBot="1">
-      <c r="C294" s="67" t="s">
+      <c r="C294" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D294" s="68"/>
-      <c r="E294" s="68"/>
-      <c r="F294" s="69"/>
+      <c r="D294" s="70"/>
+      <c r="E294" s="70"/>
+      <c r="F294" s="71"/>
     </row>
     <row r="295" spans="3:6" ht="19.8" thickBot="1">
       <c r="C295" s="38" t="s">
@@ -9724,12 +9745,12 @@
       <c r="F297" s="39"/>
     </row>
     <row r="298" spans="3:6" ht="28.2" thickBot="1">
-      <c r="C298" s="70" t="s">
+      <c r="C298" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D298" s="70"/>
-      <c r="E298" s="70"/>
-      <c r="F298" s="70"/>
+      <c r="D298" s="72"/>
+      <c r="E298" s="72"/>
+      <c r="F298" s="72"/>
     </row>
     <row r="299" spans="3:6" ht="19.8" thickBot="1">
       <c r="C299" s="38" t="s">
@@ -9746,7 +9767,7 @@
       </c>
     </row>
     <row r="300" spans="3:6" ht="18" thickBot="1">
-      <c r="C300" s="57">
+      <c r="C300" s="62">
         <v>200</v>
       </c>
       <c r="D300" s="40" t="s">
@@ -9760,7 +9781,7 @@
       </c>
     </row>
     <row r="301" spans="3:6" ht="18" thickBot="1">
-      <c r="C301" s="57"/>
+      <c r="C301" s="62"/>
       <c r="D301" s="40" t="s">
         <v>377</v>
       </c>
@@ -9772,7 +9793,7 @@
       </c>
     </row>
     <row r="302" spans="3:6" ht="18" thickBot="1">
-      <c r="C302" s="57"/>
+      <c r="C302" s="62"/>
       <c r="D302" s="40" t="s">
         <v>379</v>
       </c>
@@ -9784,7 +9805,7 @@
       </c>
     </row>
     <row r="303" spans="3:6" ht="18" thickBot="1">
-      <c r="C303" s="57"/>
+      <c r="C303" s="62"/>
       <c r="D303" s="40"/>
       <c r="E303" s="40"/>
       <c r="F303" s="40"/>
@@ -9805,28 +9826,28 @@
       <c r="B307" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C307" s="89" t="s">
+      <c r="C307" s="76" t="s">
         <v>487</v>
       </c>
-      <c r="D307" s="90"/>
-      <c r="E307" s="90"/>
-      <c r="F307" s="91"/>
+      <c r="D307" s="77"/>
+      <c r="E307" s="77"/>
+      <c r="F307" s="78"/>
     </row>
     <row r="308" spans="1:6" ht="19.8" thickBot="1">
-      <c r="C308" s="61" t="s">
+      <c r="C308" s="73" t="s">
         <v>503</v>
       </c>
-      <c r="D308" s="62"/>
-      <c r="E308" s="62"/>
-      <c r="F308" s="63"/>
+      <c r="D308" s="74"/>
+      <c r="E308" s="74"/>
+      <c r="F308" s="75"/>
     </row>
     <row r="309" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C309" s="64" t="s">
+      <c r="C309" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D309" s="65"/>
-      <c r="E309" s="65"/>
-      <c r="F309" s="66"/>
+      <c r="D309" s="67"/>
+      <c r="E309" s="67"/>
+      <c r="F309" s="68"/>
     </row>
     <row r="310" spans="1:6" ht="19.8" thickBot="1">
       <c r="C310" s="34" t="s">
@@ -9867,12 +9888,12 @@
       <c r="F312" s="36"/>
     </row>
     <row r="313" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C313" s="67" t="s">
+      <c r="C313" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D313" s="68"/>
-      <c r="E313" s="68"/>
-      <c r="F313" s="69"/>
+      <c r="D313" s="70"/>
+      <c r="E313" s="70"/>
+      <c r="F313" s="71"/>
     </row>
     <row r="314" spans="1:6" ht="19.8" thickBot="1">
       <c r="C314" s="38" t="s">
@@ -9915,12 +9936,12 @@
       <c r="F316" s="39"/>
     </row>
     <row r="317" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C317" s="70" t="s">
+      <c r="C317" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D317" s="70"/>
-      <c r="E317" s="70"/>
-      <c r="F317" s="70"/>
+      <c r="D317" s="72"/>
+      <c r="E317" s="72"/>
+      <c r="F317" s="72"/>
     </row>
     <row r="318" spans="1:6" ht="19.8" thickBot="1">
       <c r="C318" s="38" t="s">
@@ -9937,7 +9958,7 @@
       </c>
     </row>
     <row r="319" spans="1:6" ht="18" thickBot="1">
-      <c r="C319" s="57">
+      <c r="C319" s="62">
         <v>200</v>
       </c>
       <c r="D319" s="40" t="s">
@@ -9951,7 +9972,7 @@
       </c>
     </row>
     <row r="320" spans="1:6" ht="18" thickBot="1">
-      <c r="C320" s="57"/>
+      <c r="C320" s="62"/>
       <c r="D320" s="40" t="s">
         <v>377</v>
       </c>
@@ -9963,7 +9984,7 @@
       </c>
     </row>
     <row r="321" spans="1:6" ht="18" thickBot="1">
-      <c r="C321" s="57"/>
+      <c r="C321" s="62"/>
       <c r="D321" s="40" t="s">
         <v>379</v>
       </c>
@@ -9975,7 +9996,7 @@
       </c>
     </row>
     <row r="322" spans="1:6" ht="18" thickBot="1">
-      <c r="C322" s="57"/>
+      <c r="C322" s="62"/>
       <c r="D322" s="40"/>
       <c r="E322" s="40"/>
       <c r="F322" s="40"/>
@@ -9996,28 +10017,28 @@
       <c r="B326" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C326" s="89" t="s">
+      <c r="C326" s="76" t="s">
         <v>488</v>
       </c>
-      <c r="D326" s="90"/>
-      <c r="E326" s="90"/>
-      <c r="F326" s="91"/>
+      <c r="D326" s="77"/>
+      <c r="E326" s="77"/>
+      <c r="F326" s="78"/>
     </row>
     <row r="327" spans="1:6" ht="19.8" thickBot="1">
-      <c r="C327" s="61" t="s">
+      <c r="C327" s="73" t="s">
         <v>502</v>
       </c>
-      <c r="D327" s="62"/>
-      <c r="E327" s="62"/>
-      <c r="F327" s="63"/>
+      <c r="D327" s="74"/>
+      <c r="E327" s="74"/>
+      <c r="F327" s="75"/>
     </row>
     <row r="328" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C328" s="64" t="s">
+      <c r="C328" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D328" s="65"/>
-      <c r="E328" s="65"/>
-      <c r="F328" s="66"/>
+      <c r="D328" s="67"/>
+      <c r="E328" s="67"/>
+      <c r="F328" s="68"/>
     </row>
     <row r="329" spans="1:6" ht="19.8" thickBot="1">
       <c r="C329" s="34" t="s">
@@ -10058,12 +10079,12 @@
       <c r="F331" s="36"/>
     </row>
     <row r="332" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C332" s="67" t="s">
+      <c r="C332" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D332" s="68"/>
-      <c r="E332" s="68"/>
-      <c r="F332" s="69"/>
+      <c r="D332" s="70"/>
+      <c r="E332" s="70"/>
+      <c r="F332" s="71"/>
     </row>
     <row r="333" spans="1:6" ht="19.8" thickBot="1">
       <c r="C333" s="38" t="s">
@@ -10106,12 +10127,12 @@
       <c r="F335" s="39"/>
     </row>
     <row r="336" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C336" s="70" t="s">
+      <c r="C336" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D336" s="70"/>
-      <c r="E336" s="70"/>
-      <c r="F336" s="70"/>
+      <c r="D336" s="72"/>
+      <c r="E336" s="72"/>
+      <c r="F336" s="72"/>
     </row>
     <row r="337" spans="1:6" ht="19.8" thickBot="1">
       <c r="C337" s="38" t="s">
@@ -10128,7 +10149,7 @@
       </c>
     </row>
     <row r="338" spans="1:6" ht="18" thickBot="1">
-      <c r="C338" s="57">
+      <c r="C338" s="62">
         <v>200</v>
       </c>
       <c r="D338" s="40" t="s">
@@ -10142,7 +10163,7 @@
       </c>
     </row>
     <row r="339" spans="1:6" ht="18" thickBot="1">
-      <c r="C339" s="57"/>
+      <c r="C339" s="62"/>
       <c r="D339" s="40" t="s">
         <v>377</v>
       </c>
@@ -10154,7 +10175,7 @@
       </c>
     </row>
     <row r="340" spans="1:6" ht="18" thickBot="1">
-      <c r="C340" s="57"/>
+      <c r="C340" s="62"/>
       <c r="D340" s="40" t="s">
         <v>379</v>
       </c>
@@ -10166,7 +10187,7 @@
       </c>
     </row>
     <row r="341" spans="1:6" ht="18" thickBot="1">
-      <c r="C341" s="57"/>
+      <c r="C341" s="62"/>
       <c r="D341" s="40"/>
       <c r="E341" s="40"/>
       <c r="F341" s="40"/>
@@ -10187,28 +10208,28 @@
       <c r="B345" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C345" s="89" t="s">
+      <c r="C345" s="76" t="s">
         <v>490</v>
       </c>
-      <c r="D345" s="90"/>
-      <c r="E345" s="90"/>
-      <c r="F345" s="91"/>
+      <c r="D345" s="77"/>
+      <c r="E345" s="77"/>
+      <c r="F345" s="78"/>
     </row>
     <row r="346" spans="1:6" ht="19.8" thickBot="1">
-      <c r="C346" s="61" t="s">
+      <c r="C346" s="73" t="s">
         <v>496</v>
       </c>
-      <c r="D346" s="62"/>
-      <c r="E346" s="62"/>
-      <c r="F346" s="63"/>
+      <c r="D346" s="74"/>
+      <c r="E346" s="74"/>
+      <c r="F346" s="75"/>
     </row>
     <row r="347" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C347" s="64" t="s">
+      <c r="C347" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D347" s="65"/>
-      <c r="E347" s="65"/>
-      <c r="F347" s="66"/>
+      <c r="D347" s="67"/>
+      <c r="E347" s="67"/>
+      <c r="F347" s="68"/>
     </row>
     <row r="348" spans="1:6" ht="19.8" thickBot="1">
       <c r="C348" s="34" t="s">
@@ -10249,12 +10270,12 @@
       <c r="F350" s="36"/>
     </row>
     <row r="351" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C351" s="67" t="s">
+      <c r="C351" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D351" s="68"/>
-      <c r="E351" s="68"/>
-      <c r="F351" s="69"/>
+      <c r="D351" s="70"/>
+      <c r="E351" s="70"/>
+      <c r="F351" s="71"/>
     </row>
     <row r="352" spans="1:6" ht="19.8" thickBot="1">
       <c r="C352" s="38" t="s">
@@ -10291,12 +10312,12 @@
       <c r="F354" s="39"/>
     </row>
     <row r="355" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C355" s="70" t="s">
+      <c r="C355" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D355" s="70"/>
-      <c r="E355" s="70"/>
-      <c r="F355" s="70"/>
+      <c r="D355" s="72"/>
+      <c r="E355" s="72"/>
+      <c r="F355" s="72"/>
     </row>
     <row r="356" spans="1:6" ht="19.8" thickBot="1">
       <c r="C356" s="38" t="s">
@@ -10313,7 +10334,7 @@
       </c>
     </row>
     <row r="357" spans="1:6" ht="18" thickBot="1">
-      <c r="C357" s="57">
+      <c r="C357" s="62">
         <v>200</v>
       </c>
       <c r="D357" s="40" t="s">
@@ -10327,7 +10348,7 @@
       </c>
     </row>
     <row r="358" spans="1:6" ht="18" thickBot="1">
-      <c r="C358" s="57"/>
+      <c r="C358" s="62"/>
       <c r="D358" s="40" t="s">
         <v>377</v>
       </c>
@@ -10339,7 +10360,7 @@
       </c>
     </row>
     <row r="359" spans="1:6" ht="18" thickBot="1">
-      <c r="C359" s="57"/>
+      <c r="C359" s="62"/>
       <c r="D359" s="40" t="s">
         <v>379</v>
       </c>
@@ -10351,7 +10372,7 @@
       </c>
     </row>
     <row r="360" spans="1:6" ht="18" thickBot="1">
-      <c r="C360" s="57"/>
+      <c r="C360" s="62"/>
       <c r="D360" s="40"/>
       <c r="E360" s="40"/>
       <c r="F360" s="40"/>
@@ -10372,28 +10393,28 @@
       <c r="B364" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C364" s="89" t="s">
+      <c r="C364" s="76" t="s">
         <v>489</v>
       </c>
-      <c r="D364" s="90"/>
-      <c r="E364" s="90"/>
-      <c r="F364" s="91"/>
+      <c r="D364" s="77"/>
+      <c r="E364" s="77"/>
+      <c r="F364" s="78"/>
     </row>
     <row r="365" spans="1:6" ht="19.8" thickBot="1">
-      <c r="C365" s="61" t="s">
+      <c r="C365" s="73" t="s">
         <v>495</v>
       </c>
-      <c r="D365" s="62"/>
-      <c r="E365" s="62"/>
-      <c r="F365" s="63"/>
+      <c r="D365" s="74"/>
+      <c r="E365" s="74"/>
+      <c r="F365" s="75"/>
     </row>
     <row r="366" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C366" s="64" t="s">
+      <c r="C366" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D366" s="65"/>
-      <c r="E366" s="65"/>
-      <c r="F366" s="66"/>
+      <c r="D366" s="67"/>
+      <c r="E366" s="67"/>
+      <c r="F366" s="68"/>
     </row>
     <row r="367" spans="1:6" ht="19.8" thickBot="1">
       <c r="C367" s="34" t="s">
@@ -10434,12 +10455,12 @@
       <c r="F369" s="36"/>
     </row>
     <row r="370" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C370" s="67" t="s">
+      <c r="C370" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D370" s="68"/>
-      <c r="E370" s="68"/>
-      <c r="F370" s="69"/>
+      <c r="D370" s="70"/>
+      <c r="E370" s="70"/>
+      <c r="F370" s="71"/>
     </row>
     <row r="371" spans="1:6" ht="19.8" thickBot="1">
       <c r="C371" s="38" t="s">
@@ -10484,12 +10505,12 @@
       </c>
     </row>
     <row r="374" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C374" s="70" t="s">
+      <c r="C374" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D374" s="70"/>
-      <c r="E374" s="70"/>
-      <c r="F374" s="70"/>
+      <c r="D374" s="72"/>
+      <c r="E374" s="72"/>
+      <c r="F374" s="72"/>
     </row>
     <row r="375" spans="1:6" ht="19.8" thickBot="1">
       <c r="C375" s="38" t="s">
@@ -10506,7 +10527,7 @@
       </c>
     </row>
     <row r="376" spans="1:6" ht="18" thickBot="1">
-      <c r="C376" s="57">
+      <c r="C376" s="62">
         <v>200</v>
       </c>
       <c r="D376" s="40" t="s">
@@ -10520,7 +10541,7 @@
       </c>
     </row>
     <row r="377" spans="1:6" ht="18" thickBot="1">
-      <c r="C377" s="57"/>
+      <c r="C377" s="62"/>
       <c r="D377" s="40" t="s">
         <v>377</v>
       </c>
@@ -10532,7 +10553,7 @@
       </c>
     </row>
     <row r="378" spans="1:6" ht="18" thickBot="1">
-      <c r="C378" s="57"/>
+      <c r="C378" s="62"/>
       <c r="D378" s="40" t="s">
         <v>379</v>
       </c>
@@ -10544,7 +10565,7 @@
       </c>
     </row>
     <row r="379" spans="1:6" ht="18" thickBot="1">
-      <c r="C379" s="57"/>
+      <c r="C379" s="62"/>
       <c r="D379" s="40"/>
       <c r="E379" s="40"/>
       <c r="F379" s="40"/>
@@ -10565,28 +10586,28 @@
       <c r="B383" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C383" s="89" t="s">
+      <c r="C383" s="76" t="s">
         <v>493</v>
       </c>
-      <c r="D383" s="90"/>
-      <c r="E383" s="90"/>
-      <c r="F383" s="91"/>
+      <c r="D383" s="77"/>
+      <c r="E383" s="77"/>
+      <c r="F383" s="78"/>
     </row>
     <row r="384" spans="1:6" ht="19.8" thickBot="1">
-      <c r="C384" s="61" t="s">
+      <c r="C384" s="73" t="s">
         <v>494</v>
       </c>
-      <c r="D384" s="62"/>
-      <c r="E384" s="62"/>
-      <c r="F384" s="63"/>
+      <c r="D384" s="74"/>
+      <c r="E384" s="74"/>
+      <c r="F384" s="75"/>
     </row>
     <row r="385" spans="3:6" ht="28.2" thickBot="1">
-      <c r="C385" s="64" t="s">
+      <c r="C385" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D385" s="65"/>
-      <c r="E385" s="65"/>
-      <c r="F385" s="66"/>
+      <c r="D385" s="67"/>
+      <c r="E385" s="67"/>
+      <c r="F385" s="68"/>
     </row>
     <row r="386" spans="3:6" ht="19.8" thickBot="1">
       <c r="C386" s="34" t="s">
@@ -10627,12 +10648,12 @@
       <c r="F388" s="36"/>
     </row>
     <row r="389" spans="3:6" ht="28.2" thickBot="1">
-      <c r="C389" s="67" t="s">
+      <c r="C389" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D389" s="68"/>
-      <c r="E389" s="68"/>
-      <c r="F389" s="69"/>
+      <c r="D389" s="70"/>
+      <c r="E389" s="70"/>
+      <c r="F389" s="71"/>
     </row>
     <row r="390" spans="3:6" ht="19.8" thickBot="1">
       <c r="C390" s="38" t="s">
@@ -10677,12 +10698,12 @@
       </c>
     </row>
     <row r="393" spans="3:6" ht="28.2" thickBot="1">
-      <c r="C393" s="70" t="s">
+      <c r="C393" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D393" s="70"/>
-      <c r="E393" s="70"/>
-      <c r="F393" s="70"/>
+      <c r="D393" s="72"/>
+      <c r="E393" s="72"/>
+      <c r="F393" s="72"/>
     </row>
     <row r="394" spans="3:6" ht="19.8" thickBot="1">
       <c r="C394" s="38" t="s">
@@ -10699,7 +10720,7 @@
       </c>
     </row>
     <row r="395" spans="3:6" ht="18" thickBot="1">
-      <c r="C395" s="57">
+      <c r="C395" s="62">
         <v>200</v>
       </c>
       <c r="D395" s="40" t="s">
@@ -10713,7 +10734,7 @@
       </c>
     </row>
     <row r="396" spans="3:6" ht="18" thickBot="1">
-      <c r="C396" s="57"/>
+      <c r="C396" s="62"/>
       <c r="D396" s="40" t="s">
         <v>377</v>
       </c>
@@ -10725,7 +10746,7 @@
       </c>
     </row>
     <row r="397" spans="3:6" ht="18" thickBot="1">
-      <c r="C397" s="57"/>
+      <c r="C397" s="62"/>
       <c r="D397" s="40" t="s">
         <v>379</v>
       </c>
@@ -10737,7 +10758,7 @@
       </c>
     </row>
     <row r="398" spans="3:6" ht="18" thickBot="1">
-      <c r="C398" s="57"/>
+      <c r="C398" s="62"/>
       <c r="D398" s="40"/>
       <c r="E398" s="40"/>
       <c r="F398" s="40"/>
@@ -10758,28 +10779,28 @@
       <c r="B402" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C402" s="89" t="s">
+      <c r="C402" s="76" t="s">
         <v>498</v>
       </c>
-      <c r="D402" s="90"/>
-      <c r="E402" s="90"/>
-      <c r="F402" s="91"/>
+      <c r="D402" s="77"/>
+      <c r="E402" s="77"/>
+      <c r="F402" s="78"/>
     </row>
     <row r="403" spans="1:6" ht="19.8" thickBot="1">
-      <c r="C403" s="61" t="s">
+      <c r="C403" s="73" t="s">
         <v>499</v>
       </c>
-      <c r="D403" s="62"/>
-      <c r="E403" s="62"/>
-      <c r="F403" s="63"/>
+      <c r="D403" s="74"/>
+      <c r="E403" s="74"/>
+      <c r="F403" s="75"/>
     </row>
     <row r="404" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C404" s="64" t="s">
+      <c r="C404" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D404" s="65"/>
-      <c r="E404" s="65"/>
-      <c r="F404" s="66"/>
+      <c r="D404" s="67"/>
+      <c r="E404" s="67"/>
+      <c r="F404" s="68"/>
     </row>
     <row r="405" spans="1:6" ht="19.8" thickBot="1">
       <c r="C405" s="34" t="s">
@@ -10820,12 +10841,12 @@
       <c r="F407" s="36"/>
     </row>
     <row r="408" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C408" s="67" t="s">
+      <c r="C408" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D408" s="68"/>
-      <c r="E408" s="68"/>
-      <c r="F408" s="69"/>
+      <c r="D408" s="70"/>
+      <c r="E408" s="70"/>
+      <c r="F408" s="71"/>
     </row>
     <row r="409" spans="1:6" ht="19.8" thickBot="1">
       <c r="C409" s="38" t="s">
@@ -10870,12 +10891,12 @@
       </c>
     </row>
     <row r="412" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C412" s="70" t="s">
+      <c r="C412" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D412" s="70"/>
-      <c r="E412" s="70"/>
-      <c r="F412" s="70"/>
+      <c r="D412" s="72"/>
+      <c r="E412" s="72"/>
+      <c r="F412" s="72"/>
     </row>
     <row r="413" spans="1:6" ht="19.8" thickBot="1">
       <c r="C413" s="38" t="s">
@@ -10892,7 +10913,7 @@
       </c>
     </row>
     <row r="414" spans="1:6" ht="18" thickBot="1">
-      <c r="C414" s="57">
+      <c r="C414" s="62">
         <v>200</v>
       </c>
       <c r="D414" s="40" t="s">
@@ -10906,7 +10927,7 @@
       </c>
     </row>
     <row r="415" spans="1:6" ht="18" thickBot="1">
-      <c r="C415" s="57"/>
+      <c r="C415" s="62"/>
       <c r="D415" s="40" t="s">
         <v>377</v>
       </c>
@@ -10918,7 +10939,7 @@
       </c>
     </row>
     <row r="416" spans="1:6" ht="18" thickBot="1">
-      <c r="C416" s="57"/>
+      <c r="C416" s="62"/>
       <c r="D416" s="40" t="s">
         <v>379</v>
       </c>
@@ -10930,7 +10951,7 @@
       </c>
     </row>
     <row r="417" spans="1:6" ht="18" thickBot="1">
-      <c r="C417" s="57"/>
+      <c r="C417" s="62"/>
       <c r="D417" s="40"/>
       <c r="E417" s="40"/>
       <c r="F417" s="40"/>
@@ -10951,28 +10972,28 @@
       <c r="B421" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C421" s="89" t="s">
+      <c r="C421" s="76" t="s">
         <v>500</v>
       </c>
-      <c r="D421" s="90"/>
-      <c r="E421" s="90"/>
-      <c r="F421" s="91"/>
+      <c r="D421" s="77"/>
+      <c r="E421" s="77"/>
+      <c r="F421" s="78"/>
     </row>
     <row r="422" spans="1:6" ht="19.8" thickBot="1">
-      <c r="C422" s="61" t="s">
+      <c r="C422" s="73" t="s">
         <v>501</v>
       </c>
-      <c r="D422" s="62"/>
-      <c r="E422" s="62"/>
-      <c r="F422" s="63"/>
+      <c r="D422" s="74"/>
+      <c r="E422" s="74"/>
+      <c r="F422" s="75"/>
     </row>
     <row r="423" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C423" s="64" t="s">
+      <c r="C423" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D423" s="65"/>
-      <c r="E423" s="65"/>
-      <c r="F423" s="66"/>
+      <c r="D423" s="67"/>
+      <c r="E423" s="67"/>
+      <c r="F423" s="68"/>
     </row>
     <row r="424" spans="1:6" ht="19.8" thickBot="1">
       <c r="C424" s="34" t="s">
@@ -11013,12 +11034,12 @@
       <c r="F426" s="36"/>
     </row>
     <row r="427" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C427" s="67" t="s">
+      <c r="C427" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D427" s="68"/>
-      <c r="E427" s="68"/>
-      <c r="F427" s="69"/>
+      <c r="D427" s="70"/>
+      <c r="E427" s="70"/>
+      <c r="F427" s="71"/>
     </row>
     <row r="428" spans="1:6" ht="19.8" thickBot="1">
       <c r="C428" s="38" t="s">
@@ -11063,12 +11084,12 @@
       </c>
     </row>
     <row r="431" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C431" s="70" t="s">
+      <c r="C431" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D431" s="70"/>
-      <c r="E431" s="70"/>
-      <c r="F431" s="70"/>
+      <c r="D431" s="72"/>
+      <c r="E431" s="72"/>
+      <c r="F431" s="72"/>
     </row>
     <row r="432" spans="1:6" ht="19.8" thickBot="1">
       <c r="C432" s="38" t="s">
@@ -11085,7 +11106,7 @@
       </c>
     </row>
     <row r="433" spans="1:6" ht="18" thickBot="1">
-      <c r="C433" s="57">
+      <c r="C433" s="62">
         <v>200</v>
       </c>
       <c r="D433" s="40" t="s">
@@ -11099,7 +11120,7 @@
       </c>
     </row>
     <row r="434" spans="1:6" ht="18" thickBot="1">
-      <c r="C434" s="57"/>
+      <c r="C434" s="62"/>
       <c r="D434" s="40" t="s">
         <v>377</v>
       </c>
@@ -11111,7 +11132,7 @@
       </c>
     </row>
     <row r="435" spans="1:6" ht="18" thickBot="1">
-      <c r="C435" s="57"/>
+      <c r="C435" s="62"/>
       <c r="D435" s="40" t="s">
         <v>379</v>
       </c>
@@ -11123,7 +11144,7 @@
       </c>
     </row>
     <row r="436" spans="1:6" ht="18" thickBot="1">
-      <c r="C436" s="57"/>
+      <c r="C436" s="62"/>
       <c r="D436" s="40"/>
       <c r="E436" s="40"/>
       <c r="F436" s="40"/>
@@ -11144,28 +11165,28 @@
       <c r="B440" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C440" s="89" t="s">
+      <c r="C440" s="76" t="s">
         <v>513</v>
       </c>
-      <c r="D440" s="90"/>
-      <c r="E440" s="90"/>
-      <c r="F440" s="91"/>
+      <c r="D440" s="77"/>
+      <c r="E440" s="77"/>
+      <c r="F440" s="78"/>
     </row>
     <row r="441" spans="1:6" ht="19.8" thickBot="1">
-      <c r="C441" s="61" t="s">
+      <c r="C441" s="73" t="s">
         <v>509</v>
       </c>
-      <c r="D441" s="62"/>
-      <c r="E441" s="62"/>
-      <c r="F441" s="63"/>
+      <c r="D441" s="74"/>
+      <c r="E441" s="74"/>
+      <c r="F441" s="75"/>
     </row>
     <row r="442" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C442" s="64" t="s">
+      <c r="C442" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D442" s="65"/>
-      <c r="E442" s="65"/>
-      <c r="F442" s="66"/>
+      <c r="D442" s="67"/>
+      <c r="E442" s="67"/>
+      <c r="F442" s="68"/>
     </row>
     <row r="443" spans="1:6" ht="19.8" thickBot="1">
       <c r="C443" s="34" t="s">
@@ -11206,12 +11227,12 @@
       <c r="F445" s="36"/>
     </row>
     <row r="446" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C446" s="67" t="s">
+      <c r="C446" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D446" s="68"/>
-      <c r="E446" s="68"/>
-      <c r="F446" s="69"/>
+      <c r="D446" s="70"/>
+      <c r="E446" s="70"/>
+      <c r="F446" s="71"/>
     </row>
     <row r="447" spans="1:6" ht="19.8" thickBot="1">
       <c r="C447" s="38" t="s">
@@ -11248,12 +11269,12 @@
       <c r="F449" s="39"/>
     </row>
     <row r="450" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C450" s="70" t="s">
+      <c r="C450" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D450" s="70"/>
-      <c r="E450" s="70"/>
-      <c r="F450" s="70"/>
+      <c r="D450" s="72"/>
+      <c r="E450" s="72"/>
+      <c r="F450" s="72"/>
     </row>
     <row r="451" spans="1:6" ht="19.8" thickBot="1">
       <c r="C451" s="38" t="s">
@@ -11270,7 +11291,7 @@
       </c>
     </row>
     <row r="452" spans="1:6" ht="18" thickBot="1">
-      <c r="C452" s="57">
+      <c r="C452" s="62">
         <v>200</v>
       </c>
       <c r="D452" s="40" t="s">
@@ -11284,7 +11305,7 @@
       </c>
     </row>
     <row r="453" spans="1:6" ht="18" thickBot="1">
-      <c r="C453" s="57"/>
+      <c r="C453" s="62"/>
       <c r="D453" s="40" t="s">
         <v>377</v>
       </c>
@@ -11296,7 +11317,7 @@
       </c>
     </row>
     <row r="454" spans="1:6" ht="18" thickBot="1">
-      <c r="C454" s="57"/>
+      <c r="C454" s="62"/>
       <c r="D454" s="40" t="s">
         <v>379</v>
       </c>
@@ -11308,7 +11329,7 @@
       </c>
     </row>
     <row r="455" spans="1:6" ht="18" thickBot="1">
-      <c r="C455" s="57"/>
+      <c r="C455" s="62"/>
       <c r="D455" s="40"/>
       <c r="E455" s="40"/>
       <c r="F455" s="40"/>
@@ -11329,28 +11350,28 @@
       <c r="B459" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C459" s="89" t="s">
+      <c r="C459" s="76" t="s">
         <v>508</v>
       </c>
-      <c r="D459" s="90"/>
-      <c r="E459" s="90"/>
-      <c r="F459" s="91"/>
+      <c r="D459" s="77"/>
+      <c r="E459" s="77"/>
+      <c r="F459" s="78"/>
     </row>
     <row r="460" spans="1:6" ht="19.8" thickBot="1">
-      <c r="C460" s="61" t="s">
+      <c r="C460" s="73" t="s">
         <v>510</v>
       </c>
-      <c r="D460" s="62"/>
-      <c r="E460" s="62"/>
-      <c r="F460" s="63"/>
+      <c r="D460" s="74"/>
+      <c r="E460" s="74"/>
+      <c r="F460" s="75"/>
     </row>
     <row r="461" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C461" s="64" t="s">
+      <c r="C461" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D461" s="65"/>
-      <c r="E461" s="65"/>
-      <c r="F461" s="66"/>
+      <c r="D461" s="67"/>
+      <c r="E461" s="67"/>
+      <c r="F461" s="68"/>
     </row>
     <row r="462" spans="1:6" ht="19.8" thickBot="1">
       <c r="C462" s="34" t="s">
@@ -11391,12 +11412,12 @@
       <c r="F464" s="36"/>
     </row>
     <row r="465" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C465" s="67" t="s">
+      <c r="C465" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D465" s="68"/>
-      <c r="E465" s="68"/>
-      <c r="F465" s="69"/>
+      <c r="D465" s="70"/>
+      <c r="E465" s="70"/>
+      <c r="F465" s="71"/>
     </row>
     <row r="466" spans="1:6" ht="19.8" thickBot="1">
       <c r="C466" s="38" t="s">
@@ -11441,12 +11462,12 @@
       </c>
     </row>
     <row r="469" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C469" s="70" t="s">
+      <c r="C469" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D469" s="70"/>
-      <c r="E469" s="70"/>
-      <c r="F469" s="70"/>
+      <c r="D469" s="72"/>
+      <c r="E469" s="72"/>
+      <c r="F469" s="72"/>
     </row>
     <row r="470" spans="1:6" ht="19.8" thickBot="1">
       <c r="C470" s="38" t="s">
@@ -11463,7 +11484,7 @@
       </c>
     </row>
     <row r="471" spans="1:6" ht="18" thickBot="1">
-      <c r="C471" s="57">
+      <c r="C471" s="62">
         <v>200</v>
       </c>
       <c r="D471" s="40" t="s">
@@ -11477,7 +11498,7 @@
       </c>
     </row>
     <row r="472" spans="1:6" ht="18" thickBot="1">
-      <c r="C472" s="57"/>
+      <c r="C472" s="62"/>
       <c r="D472" s="40" t="s">
         <v>377</v>
       </c>
@@ -11489,7 +11510,7 @@
       </c>
     </row>
     <row r="473" spans="1:6" ht="18" thickBot="1">
-      <c r="C473" s="57"/>
+      <c r="C473" s="62"/>
       <c r="D473" s="40" t="s">
         <v>379</v>
       </c>
@@ -11501,7 +11522,7 @@
       </c>
     </row>
     <row r="474" spans="1:6" ht="18" thickBot="1">
-      <c r="C474" s="57"/>
+      <c r="C474" s="62"/>
       <c r="D474" s="40"/>
       <c r="E474" s="40"/>
       <c r="F474" s="40"/>
@@ -11522,28 +11543,28 @@
       <c r="B478" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C478" s="89" t="s">
+      <c r="C478" s="76" t="s">
         <v>514</v>
       </c>
-      <c r="D478" s="90"/>
-      <c r="E478" s="90"/>
-      <c r="F478" s="91"/>
+      <c r="D478" s="77"/>
+      <c r="E478" s="77"/>
+      <c r="F478" s="78"/>
     </row>
     <row r="479" spans="1:6" ht="19.8" thickBot="1">
-      <c r="C479" s="61" t="s">
+      <c r="C479" s="73" t="s">
         <v>515</v>
       </c>
-      <c r="D479" s="62"/>
-      <c r="E479" s="62"/>
-      <c r="F479" s="63"/>
+      <c r="D479" s="74"/>
+      <c r="E479" s="74"/>
+      <c r="F479" s="75"/>
     </row>
     <row r="480" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C480" s="64" t="s">
+      <c r="C480" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D480" s="65"/>
-      <c r="E480" s="65"/>
-      <c r="F480" s="66"/>
+      <c r="D480" s="67"/>
+      <c r="E480" s="67"/>
+      <c r="F480" s="68"/>
     </row>
     <row r="481" spans="1:6" ht="19.8" thickBot="1">
       <c r="C481" s="34" t="s">
@@ -11584,12 +11605,12 @@
       <c r="F483" s="36"/>
     </row>
     <row r="484" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C484" s="67" t="s">
+      <c r="C484" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D484" s="68"/>
-      <c r="E484" s="68"/>
-      <c r="F484" s="69"/>
+      <c r="D484" s="70"/>
+      <c r="E484" s="70"/>
+      <c r="F484" s="71"/>
     </row>
     <row r="485" spans="1:6" ht="19.8" thickBot="1">
       <c r="C485" s="38" t="s">
@@ -11634,12 +11655,12 @@
       </c>
     </row>
     <row r="488" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C488" s="70" t="s">
+      <c r="C488" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D488" s="70"/>
-      <c r="E488" s="70"/>
-      <c r="F488" s="70"/>
+      <c r="D488" s="72"/>
+      <c r="E488" s="72"/>
+      <c r="F488" s="72"/>
     </row>
     <row r="489" spans="1:6" ht="19.8" thickBot="1">
       <c r="C489" s="38" t="s">
@@ -11656,7 +11677,7 @@
       </c>
     </row>
     <row r="490" spans="1:6" ht="18" thickBot="1">
-      <c r="C490" s="57">
+      <c r="C490" s="62">
         <v>200</v>
       </c>
       <c r="D490" s="40" t="s">
@@ -11670,7 +11691,7 @@
       </c>
     </row>
     <row r="491" spans="1:6" ht="18" thickBot="1">
-      <c r="C491" s="57"/>
+      <c r="C491" s="62"/>
       <c r="D491" s="40" t="s">
         <v>377</v>
       </c>
@@ -11682,7 +11703,7 @@
       </c>
     </row>
     <row r="492" spans="1:6" ht="18" thickBot="1">
-      <c r="C492" s="57"/>
+      <c r="C492" s="62"/>
       <c r="D492" s="40" t="s">
         <v>379</v>
       </c>
@@ -11694,7 +11715,7 @@
       </c>
     </row>
     <row r="493" spans="1:6" ht="18" thickBot="1">
-      <c r="C493" s="57"/>
+      <c r="C493" s="62"/>
       <c r="D493" s="40"/>
       <c r="E493" s="40"/>
       <c r="F493" s="40"/>
@@ -11722,28 +11743,28 @@
       <c r="B497" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="C497" s="86" t="s">
+      <c r="C497" s="79" t="s">
         <v>516</v>
       </c>
-      <c r="D497" s="87"/>
-      <c r="E497" s="87"/>
-      <c r="F497" s="88"/>
+      <c r="D497" s="80"/>
+      <c r="E497" s="80"/>
+      <c r="F497" s="81"/>
     </row>
     <row r="498" spans="1:6" ht="19.8" thickBot="1">
-      <c r="C498" s="61" t="s">
+      <c r="C498" s="73" t="s">
         <v>517</v>
       </c>
-      <c r="D498" s="62"/>
-      <c r="E498" s="62"/>
-      <c r="F498" s="63"/>
+      <c r="D498" s="74"/>
+      <c r="E498" s="74"/>
+      <c r="F498" s="75"/>
     </row>
     <row r="499" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C499" s="64" t="s">
+      <c r="C499" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D499" s="65"/>
-      <c r="E499" s="65"/>
-      <c r="F499" s="66"/>
+      <c r="D499" s="67"/>
+      <c r="E499" s="67"/>
+      <c r="F499" s="68"/>
     </row>
     <row r="500" spans="1:6" ht="19.8" thickBot="1">
       <c r="C500" s="34" t="s">
@@ -11784,12 +11805,12 @@
       <c r="F502" s="36"/>
     </row>
     <row r="503" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C503" s="67" t="s">
+      <c r="C503" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D503" s="68"/>
-      <c r="E503" s="68"/>
-      <c r="F503" s="69"/>
+      <c r="D503" s="70"/>
+      <c r="E503" s="70"/>
+      <c r="F503" s="71"/>
     </row>
     <row r="504" spans="1:6" ht="19.8" thickBot="1">
       <c r="C504" s="38" t="s">
@@ -11812,12 +11833,12 @@
       <c r="F505" s="39"/>
     </row>
     <row r="506" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C506" s="70" t="s">
+      <c r="C506" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D506" s="70"/>
-      <c r="E506" s="70"/>
-      <c r="F506" s="70"/>
+      <c r="D506" s="72"/>
+      <c r="E506" s="72"/>
+      <c r="F506" s="72"/>
     </row>
     <row r="507" spans="1:6" ht="19.8" thickBot="1">
       <c r="C507" s="38" t="s">
@@ -11834,7 +11855,7 @@
       </c>
     </row>
     <row r="508" spans="1:6" ht="18" thickBot="1">
-      <c r="C508" s="57">
+      <c r="C508" s="62">
         <v>200</v>
       </c>
       <c r="D508" s="40" t="s">
@@ -11848,7 +11869,7 @@
       </c>
     </row>
     <row r="509" spans="1:6" ht="18" thickBot="1">
-      <c r="C509" s="57"/>
+      <c r="C509" s="62"/>
       <c r="D509" s="40" t="s">
         <v>377</v>
       </c>
@@ -11860,7 +11881,7 @@
       </c>
     </row>
     <row r="510" spans="1:6" ht="18" thickBot="1">
-      <c r="C510" s="57"/>
+      <c r="C510" s="62"/>
       <c r="D510" s="40" t="s">
         <v>379</v>
       </c>
@@ -11872,7 +11893,7 @@
       </c>
     </row>
     <row r="511" spans="1:6" ht="18" thickBot="1">
-      <c r="C511" s="57"/>
+      <c r="C511" s="62"/>
       <c r="D511" s="40"/>
       <c r="E511" s="40"/>
       <c r="F511" s="40"/>
@@ -11893,28 +11914,28 @@
       <c r="B515" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="C515" s="86" t="s">
+      <c r="C515" s="79" t="s">
         <v>518</v>
       </c>
-      <c r="D515" s="87"/>
-      <c r="E515" s="87"/>
-      <c r="F515" s="88"/>
+      <c r="D515" s="80"/>
+      <c r="E515" s="80"/>
+      <c r="F515" s="81"/>
     </row>
     <row r="516" spans="1:6" ht="19.8" thickBot="1">
-      <c r="C516" s="61" t="s">
+      <c r="C516" s="73" t="s">
         <v>519</v>
       </c>
-      <c r="D516" s="62"/>
-      <c r="E516" s="62"/>
-      <c r="F516" s="63"/>
+      <c r="D516" s="74"/>
+      <c r="E516" s="74"/>
+      <c r="F516" s="75"/>
     </row>
     <row r="517" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C517" s="64" t="s">
+      <c r="C517" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D517" s="65"/>
-      <c r="E517" s="65"/>
-      <c r="F517" s="66"/>
+      <c r="D517" s="67"/>
+      <c r="E517" s="67"/>
+      <c r="F517" s="68"/>
     </row>
     <row r="518" spans="1:6" ht="19.8" thickBot="1">
       <c r="C518" s="34" t="s">
@@ -11955,12 +11976,12 @@
       <c r="F520" s="36"/>
     </row>
     <row r="521" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C521" s="67" t="s">
+      <c r="C521" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D521" s="68"/>
-      <c r="E521" s="68"/>
-      <c r="F521" s="69"/>
+      <c r="D521" s="70"/>
+      <c r="E521" s="70"/>
+      <c r="F521" s="71"/>
     </row>
     <row r="522" spans="1:6" ht="19.8" thickBot="1">
       <c r="C522" s="38" t="s">
@@ -11991,12 +12012,12 @@
       </c>
     </row>
     <row r="524" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C524" s="70" t="s">
+      <c r="C524" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D524" s="70"/>
-      <c r="E524" s="70"/>
-      <c r="F524" s="70"/>
+      <c r="D524" s="72"/>
+      <c r="E524" s="72"/>
+      <c r="F524" s="72"/>
     </row>
     <row r="525" spans="1:6" ht="19.8" thickBot="1">
       <c r="C525" s="38" t="s">
@@ -12013,7 +12034,7 @@
       </c>
     </row>
     <row r="526" spans="1:6" ht="18" thickBot="1">
-      <c r="C526" s="57">
+      <c r="C526" s="62">
         <v>200</v>
       </c>
       <c r="D526" s="40" t="s">
@@ -12027,7 +12048,7 @@
       </c>
     </row>
     <row r="527" spans="1:6" ht="18" thickBot="1">
-      <c r="C527" s="57"/>
+      <c r="C527" s="62"/>
       <c r="D527" s="40" t="s">
         <v>377</v>
       </c>
@@ -12039,7 +12060,7 @@
       </c>
     </row>
     <row r="528" spans="1:6" ht="18" thickBot="1">
-      <c r="C528" s="57"/>
+      <c r="C528" s="62"/>
       <c r="D528" s="40" t="s">
         <v>379</v>
       </c>
@@ -12051,7 +12072,7 @@
       </c>
     </row>
     <row r="529" spans="1:6" ht="18" thickBot="1">
-      <c r="C529" s="57"/>
+      <c r="C529" s="62"/>
       <c r="D529" s="40"/>
       <c r="E529" s="40"/>
       <c r="F529" s="40"/>
@@ -12072,28 +12093,28 @@
       <c r="B533" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="C533" s="86" t="s">
+      <c r="C533" s="79" t="s">
         <v>522</v>
       </c>
-      <c r="D533" s="87"/>
-      <c r="E533" s="87"/>
-      <c r="F533" s="88"/>
+      <c r="D533" s="80"/>
+      <c r="E533" s="80"/>
+      <c r="F533" s="81"/>
     </row>
     <row r="534" spans="1:6" ht="19.8" thickBot="1">
-      <c r="C534" s="61" t="s">
+      <c r="C534" s="73" t="s">
         <v>523</v>
       </c>
-      <c r="D534" s="62"/>
-      <c r="E534" s="62"/>
-      <c r="F534" s="63"/>
+      <c r="D534" s="74"/>
+      <c r="E534" s="74"/>
+      <c r="F534" s="75"/>
     </row>
     <row r="535" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C535" s="64" t="s">
+      <c r="C535" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D535" s="65"/>
-      <c r="E535" s="65"/>
-      <c r="F535" s="66"/>
+      <c r="D535" s="67"/>
+      <c r="E535" s="67"/>
+      <c r="F535" s="68"/>
     </row>
     <row r="536" spans="1:6" ht="19.8" thickBot="1">
       <c r="C536" s="34" t="s">
@@ -12134,12 +12155,12 @@
       <c r="F538" s="36"/>
     </row>
     <row r="539" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C539" s="67" t="s">
+      <c r="C539" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D539" s="68"/>
-      <c r="E539" s="68"/>
-      <c r="F539" s="69"/>
+      <c r="D539" s="70"/>
+      <c r="E539" s="70"/>
+      <c r="F539" s="71"/>
     </row>
     <row r="540" spans="1:6" ht="19.8" thickBot="1">
       <c r="C540" s="38" t="s">
@@ -12186,12 +12207,12 @@
       </c>
     </row>
     <row r="543" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C543" s="70" t="s">
+      <c r="C543" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D543" s="70"/>
-      <c r="E543" s="70"/>
-      <c r="F543" s="70"/>
+      <c r="D543" s="72"/>
+      <c r="E543" s="72"/>
+      <c r="F543" s="72"/>
     </row>
     <row r="544" spans="1:6" ht="19.8" thickBot="1">
       <c r="C544" s="38" t="s">
@@ -12208,7 +12229,7 @@
       </c>
     </row>
     <row r="545" spans="1:6" ht="18" thickBot="1">
-      <c r="C545" s="57">
+      <c r="C545" s="62">
         <v>200</v>
       </c>
       <c r="D545" s="40" t="s">
@@ -12222,7 +12243,7 @@
       </c>
     </row>
     <row r="546" spans="1:6" ht="18" thickBot="1">
-      <c r="C546" s="57"/>
+      <c r="C546" s="62"/>
       <c r="D546" s="40" t="s">
         <v>377</v>
       </c>
@@ -12234,7 +12255,7 @@
       </c>
     </row>
     <row r="547" spans="1:6" ht="18" thickBot="1">
-      <c r="C547" s="57"/>
+      <c r="C547" s="62"/>
       <c r="D547" s="40" t="s">
         <v>379</v>
       </c>
@@ -12246,7 +12267,7 @@
       </c>
     </row>
     <row r="548" spans="1:6" ht="18" thickBot="1">
-      <c r="C548" s="57"/>
+      <c r="C548" s="62"/>
       <c r="D548" s="40"/>
       <c r="E548" s="40"/>
       <c r="F548" s="40"/>
@@ -12267,28 +12288,28 @@
       <c r="B552" s="45" t="s">
         <v>171</v>
       </c>
-      <c r="C552" s="86" t="s">
+      <c r="C552" s="79" t="s">
         <v>524</v>
       </c>
-      <c r="D552" s="87"/>
-      <c r="E552" s="87"/>
-      <c r="F552" s="88"/>
+      <c r="D552" s="80"/>
+      <c r="E552" s="80"/>
+      <c r="F552" s="81"/>
     </row>
     <row r="553" spans="1:6" ht="19.8" thickBot="1">
-      <c r="C553" s="61" t="s">
+      <c r="C553" s="73" t="s">
         <v>525</v>
       </c>
-      <c r="D553" s="62"/>
-      <c r="E553" s="62"/>
-      <c r="F553" s="63"/>
+      <c r="D553" s="74"/>
+      <c r="E553" s="74"/>
+      <c r="F553" s="75"/>
     </row>
     <row r="554" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C554" s="64" t="s">
+      <c r="C554" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D554" s="65"/>
-      <c r="E554" s="65"/>
-      <c r="F554" s="66"/>
+      <c r="D554" s="67"/>
+      <c r="E554" s="67"/>
+      <c r="F554" s="68"/>
     </row>
     <row r="555" spans="1:6" ht="19.8" thickBot="1">
       <c r="C555" s="34" t="s">
@@ -12329,12 +12350,12 @@
       <c r="F557" s="36"/>
     </row>
     <row r="558" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C558" s="67" t="s">
+      <c r="C558" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D558" s="68"/>
-      <c r="E558" s="68"/>
-      <c r="F558" s="69"/>
+      <c r="D558" s="70"/>
+      <c r="E558" s="70"/>
+      <c r="F558" s="71"/>
     </row>
     <row r="559" spans="1:6" ht="19.8" thickBot="1">
       <c r="C559" s="38" t="s">
@@ -12379,12 +12400,12 @@
       </c>
     </row>
     <row r="562" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C562" s="70" t="s">
+      <c r="C562" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D562" s="70"/>
-      <c r="E562" s="70"/>
-      <c r="F562" s="70"/>
+      <c r="D562" s="72"/>
+      <c r="E562" s="72"/>
+      <c r="F562" s="72"/>
     </row>
     <row r="563" spans="1:6" ht="19.8" thickBot="1">
       <c r="C563" s="38" t="s">
@@ -12401,7 +12422,7 @@
       </c>
     </row>
     <row r="564" spans="1:6" ht="18" thickBot="1">
-      <c r="C564" s="57">
+      <c r="C564" s="62">
         <v>200</v>
       </c>
       <c r="D564" s="40" t="s">
@@ -12415,7 +12436,7 @@
       </c>
     </row>
     <row r="565" spans="1:6" ht="18" thickBot="1">
-      <c r="C565" s="57"/>
+      <c r="C565" s="62"/>
       <c r="D565" s="40" t="s">
         <v>377</v>
       </c>
@@ -12427,7 +12448,7 @@
       </c>
     </row>
     <row r="566" spans="1:6" ht="18" thickBot="1">
-      <c r="C566" s="57"/>
+      <c r="C566" s="62"/>
       <c r="D566" s="40" t="s">
         <v>379</v>
       </c>
@@ -12439,7 +12460,7 @@
       </c>
     </row>
     <row r="567" spans="1:6" ht="18" thickBot="1">
-      <c r="C567" s="57"/>
+      <c r="C567" s="62"/>
       <c r="D567" s="40"/>
       <c r="E567" s="40"/>
       <c r="F567" s="40"/>
@@ -12460,28 +12481,28 @@
       <c r="B571" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="C571" s="83" t="s">
+      <c r="C571" s="82" t="s">
         <v>526</v>
       </c>
-      <c r="D571" s="84"/>
-      <c r="E571" s="84"/>
-      <c r="F571" s="85"/>
+      <c r="D571" s="83"/>
+      <c r="E571" s="83"/>
+      <c r="F571" s="84"/>
     </row>
     <row r="572" spans="1:6" ht="19.8" thickBot="1">
-      <c r="C572" s="61" t="s">
+      <c r="C572" s="73" t="s">
         <v>175</v>
       </c>
-      <c r="D572" s="62"/>
-      <c r="E572" s="62"/>
-      <c r="F572" s="63"/>
+      <c r="D572" s="74"/>
+      <c r="E572" s="74"/>
+      <c r="F572" s="75"/>
     </row>
     <row r="573" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C573" s="64" t="s">
+      <c r="C573" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D573" s="65"/>
-      <c r="E573" s="65"/>
-      <c r="F573" s="66"/>
+      <c r="D573" s="67"/>
+      <c r="E573" s="67"/>
+      <c r="F573" s="68"/>
     </row>
     <row r="574" spans="1:6" ht="19.8" thickBot="1">
       <c r="C574" s="34" t="s">
@@ -12522,12 +12543,12 @@
       <c r="F576" s="36"/>
     </row>
     <row r="577" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C577" s="67" t="s">
+      <c r="C577" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D577" s="68"/>
-      <c r="E577" s="68"/>
-      <c r="F577" s="69"/>
+      <c r="D577" s="70"/>
+      <c r="E577" s="70"/>
+      <c r="F577" s="71"/>
     </row>
     <row r="578" spans="1:6" ht="19.8" thickBot="1">
       <c r="C578" s="38" t="s">
@@ -12572,12 +12593,12 @@
       </c>
     </row>
     <row r="581" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C581" s="70" t="s">
+      <c r="C581" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D581" s="70"/>
-      <c r="E581" s="70"/>
-      <c r="F581" s="70"/>
+      <c r="D581" s="72"/>
+      <c r="E581" s="72"/>
+      <c r="F581" s="72"/>
     </row>
     <row r="582" spans="1:6" ht="19.8" thickBot="1">
       <c r="C582" s="38" t="s">
@@ -12594,7 +12615,7 @@
       </c>
     </row>
     <row r="583" spans="1:6" ht="18" thickBot="1">
-      <c r="C583" s="57">
+      <c r="C583" s="62">
         <v>200</v>
       </c>
       <c r="D583" s="40" t="s">
@@ -12608,7 +12629,7 @@
       </c>
     </row>
     <row r="584" spans="1:6" ht="18" thickBot="1">
-      <c r="C584" s="57"/>
+      <c r="C584" s="62"/>
       <c r="D584" s="40" t="s">
         <v>377</v>
       </c>
@@ -12620,7 +12641,7 @@
       </c>
     </row>
     <row r="585" spans="1:6" ht="18" thickBot="1">
-      <c r="C585" s="57"/>
+      <c r="C585" s="62"/>
       <c r="D585" s="40" t="s">
         <v>379</v>
       </c>
@@ -12632,7 +12653,7 @@
       </c>
     </row>
     <row r="586" spans="1:6" ht="18" thickBot="1">
-      <c r="C586" s="57"/>
+      <c r="C586" s="62"/>
       <c r="D586" s="40"/>
       <c r="E586" s="40"/>
       <c r="F586" s="40"/>
@@ -12653,28 +12674,28 @@
       <c r="B590" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="C590" s="83" t="s">
+      <c r="C590" s="82" t="s">
         <v>527</v>
       </c>
-      <c r="D590" s="84"/>
-      <c r="E590" s="84"/>
-      <c r="F590" s="85"/>
+      <c r="D590" s="83"/>
+      <c r="E590" s="83"/>
+      <c r="F590" s="84"/>
     </row>
     <row r="591" spans="1:6" ht="19.8" thickBot="1">
-      <c r="C591" s="61" t="s">
+      <c r="C591" s="73" t="s">
         <v>528</v>
       </c>
-      <c r="D591" s="62"/>
-      <c r="E591" s="62"/>
-      <c r="F591" s="63"/>
+      <c r="D591" s="74"/>
+      <c r="E591" s="74"/>
+      <c r="F591" s="75"/>
     </row>
     <row r="592" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C592" s="64" t="s">
+      <c r="C592" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D592" s="65"/>
-      <c r="E592" s="65"/>
-      <c r="F592" s="66"/>
+      <c r="D592" s="67"/>
+      <c r="E592" s="67"/>
+      <c r="F592" s="68"/>
     </row>
     <row r="593" spans="3:6" ht="19.8" thickBot="1">
       <c r="C593" s="34" t="s">
@@ -12715,12 +12736,12 @@
       <c r="F595" s="36"/>
     </row>
     <row r="596" spans="3:6" ht="28.2" thickBot="1">
-      <c r="C596" s="67" t="s">
+      <c r="C596" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D596" s="68"/>
-      <c r="E596" s="68"/>
-      <c r="F596" s="69"/>
+      <c r="D596" s="70"/>
+      <c r="E596" s="70"/>
+      <c r="F596" s="71"/>
     </row>
     <row r="597" spans="3:6" ht="19.8" thickBot="1">
       <c r="C597" s="38" t="s">
@@ -12757,12 +12778,12 @@
       <c r="F599" s="39"/>
     </row>
     <row r="600" spans="3:6" ht="28.2" thickBot="1">
-      <c r="C600" s="70" t="s">
+      <c r="C600" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D600" s="70"/>
-      <c r="E600" s="70"/>
-      <c r="F600" s="70"/>
+      <c r="D600" s="72"/>
+      <c r="E600" s="72"/>
+      <c r="F600" s="72"/>
     </row>
     <row r="601" spans="3:6" ht="19.8" thickBot="1">
       <c r="C601" s="38" t="s">
@@ -12779,7 +12800,7 @@
       </c>
     </row>
     <row r="602" spans="3:6" ht="18" thickBot="1">
-      <c r="C602" s="57">
+      <c r="C602" s="62">
         <v>200</v>
       </c>
       <c r="D602" s="40" t="s">
@@ -12793,7 +12814,7 @@
       </c>
     </row>
     <row r="603" spans="3:6" ht="18" thickBot="1">
-      <c r="C603" s="57"/>
+      <c r="C603" s="62"/>
       <c r="D603" s="40" t="s">
         <v>377</v>
       </c>
@@ -12805,7 +12826,7 @@
       </c>
     </row>
     <row r="604" spans="3:6" ht="18" thickBot="1">
-      <c r="C604" s="57"/>
+      <c r="C604" s="62"/>
       <c r="D604" s="40" t="s">
         <v>379</v>
       </c>
@@ -12817,7 +12838,7 @@
       </c>
     </row>
     <row r="605" spans="3:6" ht="18" thickBot="1">
-      <c r="C605" s="57"/>
+      <c r="C605" s="62"/>
       <c r="D605" s="40"/>
       <c r="E605" s="40"/>
       <c r="F605" s="40"/>
@@ -12838,28 +12859,28 @@
       <c r="B609" s="47" t="s">
         <v>174</v>
       </c>
-      <c r="C609" s="83" t="s">
+      <c r="C609" s="82" t="s">
         <v>529</v>
       </c>
-      <c r="D609" s="84"/>
-      <c r="E609" s="84"/>
-      <c r="F609" s="85"/>
+      <c r="D609" s="83"/>
+      <c r="E609" s="83"/>
+      <c r="F609" s="84"/>
     </row>
     <row r="610" spans="1:6" ht="19.8" thickBot="1">
-      <c r="C610" s="61" t="s">
+      <c r="C610" s="73" t="s">
         <v>530</v>
       </c>
-      <c r="D610" s="62"/>
-      <c r="E610" s="62"/>
-      <c r="F610" s="63"/>
+      <c r="D610" s="74"/>
+      <c r="E610" s="74"/>
+      <c r="F610" s="75"/>
     </row>
     <row r="611" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C611" s="64" t="s">
+      <c r="C611" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D611" s="65"/>
-      <c r="E611" s="65"/>
-      <c r="F611" s="66"/>
+      <c r="D611" s="67"/>
+      <c r="E611" s="67"/>
+      <c r="F611" s="68"/>
     </row>
     <row r="612" spans="1:6" ht="19.8" thickBot="1">
       <c r="C612" s="34" t="s">
@@ -12900,12 +12921,12 @@
       <c r="F614" s="36"/>
     </row>
     <row r="615" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C615" s="67" t="s">
+      <c r="C615" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D615" s="68"/>
-      <c r="E615" s="68"/>
-      <c r="F615" s="69"/>
+      <c r="D615" s="70"/>
+      <c r="E615" s="70"/>
+      <c r="F615" s="71"/>
     </row>
     <row r="616" spans="1:6" ht="19.8" thickBot="1">
       <c r="C616" s="38" t="s">
@@ -12950,12 +12971,12 @@
       </c>
     </row>
     <row r="619" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C619" s="70" t="s">
+      <c r="C619" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D619" s="70"/>
-      <c r="E619" s="70"/>
-      <c r="F619" s="70"/>
+      <c r="D619" s="72"/>
+      <c r="E619" s="72"/>
+      <c r="F619" s="72"/>
     </row>
     <row r="620" spans="1:6" ht="19.8" thickBot="1">
       <c r="C620" s="38" t="s">
@@ -12972,7 +12993,7 @@
       </c>
     </row>
     <row r="621" spans="1:6" ht="18" thickBot="1">
-      <c r="C621" s="57">
+      <c r="C621" s="62">
         <v>200</v>
       </c>
       <c r="D621" s="40" t="s">
@@ -12986,7 +13007,7 @@
       </c>
     </row>
     <row r="622" spans="1:6" ht="18" thickBot="1">
-      <c r="C622" s="57"/>
+      <c r="C622" s="62"/>
       <c r="D622" s="40" t="s">
         <v>377</v>
       </c>
@@ -12998,7 +13019,7 @@
       </c>
     </row>
     <row r="623" spans="1:6" ht="18" thickBot="1">
-      <c r="C623" s="57"/>
+      <c r="C623" s="62"/>
       <c r="D623" s="40" t="s">
         <v>379</v>
       </c>
@@ -13010,7 +13031,7 @@
       </c>
     </row>
     <row r="624" spans="1:6" ht="18" thickBot="1">
-      <c r="C624" s="57"/>
+      <c r="C624" s="62"/>
       <c r="D624" s="40"/>
       <c r="E624" s="40"/>
       <c r="F624" s="40"/>
@@ -13031,28 +13052,28 @@
       <c r="B628" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="C628" s="80" t="s">
+      <c r="C628" s="85" t="s">
         <v>533</v>
       </c>
-      <c r="D628" s="81"/>
-      <c r="E628" s="81"/>
-      <c r="F628" s="82"/>
+      <c r="D628" s="86"/>
+      <c r="E628" s="86"/>
+      <c r="F628" s="87"/>
     </row>
     <row r="629" spans="1:6" ht="19.8" thickBot="1">
-      <c r="C629" s="61" t="s">
+      <c r="C629" s="73" t="s">
         <v>534</v>
       </c>
-      <c r="D629" s="62"/>
-      <c r="E629" s="62"/>
-      <c r="F629" s="63"/>
+      <c r="D629" s="74"/>
+      <c r="E629" s="74"/>
+      <c r="F629" s="75"/>
     </row>
     <row r="630" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C630" s="64" t="s">
+      <c r="C630" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D630" s="65"/>
-      <c r="E630" s="65"/>
-      <c r="F630" s="66"/>
+      <c r="D630" s="67"/>
+      <c r="E630" s="67"/>
+      <c r="F630" s="68"/>
     </row>
     <row r="631" spans="1:6" ht="19.8" thickBot="1">
       <c r="C631" s="34" t="s">
@@ -13093,12 +13114,12 @@
       <c r="F633" s="36"/>
     </row>
     <row r="634" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C634" s="67" t="s">
+      <c r="C634" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D634" s="68"/>
-      <c r="E634" s="68"/>
-      <c r="F634" s="69"/>
+      <c r="D634" s="70"/>
+      <c r="E634" s="70"/>
+      <c r="F634" s="71"/>
     </row>
     <row r="635" spans="1:6" ht="19.8" thickBot="1">
       <c r="C635" s="38" t="s">
@@ -13135,12 +13156,12 @@
       <c r="F637" s="39"/>
     </row>
     <row r="638" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C638" s="70" t="s">
+      <c r="C638" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D638" s="70"/>
-      <c r="E638" s="70"/>
-      <c r="F638" s="70"/>
+      <c r="D638" s="72"/>
+      <c r="E638" s="72"/>
+      <c r="F638" s="72"/>
     </row>
     <row r="639" spans="1:6" ht="19.8" thickBot="1">
       <c r="C639" s="38" t="s">
@@ -13157,7 +13178,7 @@
       </c>
     </row>
     <row r="640" spans="1:6" ht="18" thickBot="1">
-      <c r="C640" s="57">
+      <c r="C640" s="62">
         <v>200</v>
       </c>
       <c r="D640" s="40" t="s">
@@ -13171,7 +13192,7 @@
       </c>
     </row>
     <row r="641" spans="1:6" ht="18" thickBot="1">
-      <c r="C641" s="57"/>
+      <c r="C641" s="62"/>
       <c r="D641" s="40" t="s">
         <v>377</v>
       </c>
@@ -13183,7 +13204,7 @@
       </c>
     </row>
     <row r="642" spans="1:6" ht="18" thickBot="1">
-      <c r="C642" s="57"/>
+      <c r="C642" s="62"/>
       <c r="D642" s="40" t="s">
         <v>379</v>
       </c>
@@ -13195,7 +13216,7 @@
       </c>
     </row>
     <row r="643" spans="1:6" ht="18" thickBot="1">
-      <c r="C643" s="57"/>
+      <c r="C643" s="62"/>
       <c r="D643" s="40"/>
       <c r="E643" s="40"/>
       <c r="F643" s="40"/>
@@ -13216,28 +13237,28 @@
       <c r="B647" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="C647" s="80" t="s">
+      <c r="C647" s="85" t="s">
         <v>535</v>
       </c>
-      <c r="D647" s="81"/>
-      <c r="E647" s="81"/>
-      <c r="F647" s="82"/>
+      <c r="D647" s="86"/>
+      <c r="E647" s="86"/>
+      <c r="F647" s="87"/>
     </row>
     <row r="648" spans="1:6" ht="19.8" thickBot="1">
-      <c r="C648" s="61" t="s">
+      <c r="C648" s="73" t="s">
         <v>536</v>
       </c>
-      <c r="D648" s="62"/>
-      <c r="E648" s="62"/>
-      <c r="F648" s="63"/>
+      <c r="D648" s="74"/>
+      <c r="E648" s="74"/>
+      <c r="F648" s="75"/>
     </row>
     <row r="649" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C649" s="64" t="s">
+      <c r="C649" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D649" s="65"/>
-      <c r="E649" s="65"/>
-      <c r="F649" s="66"/>
+      <c r="D649" s="67"/>
+      <c r="E649" s="67"/>
+      <c r="F649" s="68"/>
     </row>
     <row r="650" spans="1:6" ht="19.8" thickBot="1">
       <c r="C650" s="34" t="s">
@@ -13278,12 +13299,12 @@
       <c r="F652" s="36"/>
     </row>
     <row r="653" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C653" s="67" t="s">
+      <c r="C653" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D653" s="68"/>
-      <c r="E653" s="68"/>
-      <c r="F653" s="69"/>
+      <c r="D653" s="70"/>
+      <c r="E653" s="70"/>
+      <c r="F653" s="71"/>
     </row>
     <row r="654" spans="1:6" ht="19.8" thickBot="1">
       <c r="C654" s="38" t="s">
@@ -13328,12 +13349,12 @@
       </c>
     </row>
     <row r="657" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C657" s="70" t="s">
+      <c r="C657" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D657" s="70"/>
-      <c r="E657" s="70"/>
-      <c r="F657" s="70"/>
+      <c r="D657" s="72"/>
+      <c r="E657" s="72"/>
+      <c r="F657" s="72"/>
     </row>
     <row r="658" spans="1:6" ht="19.8" thickBot="1">
       <c r="C658" s="38" t="s">
@@ -13350,7 +13371,7 @@
       </c>
     </row>
     <row r="659" spans="1:6" ht="18" thickBot="1">
-      <c r="C659" s="57">
+      <c r="C659" s="62">
         <v>200</v>
       </c>
       <c r="D659" s="40" t="s">
@@ -13364,7 +13385,7 @@
       </c>
     </row>
     <row r="660" spans="1:6" ht="18" thickBot="1">
-      <c r="C660" s="57"/>
+      <c r="C660" s="62"/>
       <c r="D660" s="40" t="s">
         <v>377</v>
       </c>
@@ -13376,7 +13397,7 @@
       </c>
     </row>
     <row r="661" spans="1:6" ht="18" thickBot="1">
-      <c r="C661" s="57"/>
+      <c r="C661" s="62"/>
       <c r="D661" s="40" t="s">
         <v>379</v>
       </c>
@@ -13388,7 +13409,7 @@
       </c>
     </row>
     <row r="662" spans="1:6" ht="18" thickBot="1">
-      <c r="C662" s="57"/>
+      <c r="C662" s="62"/>
       <c r="D662" s="40"/>
       <c r="E662" s="40"/>
       <c r="F662" s="40"/>
@@ -13409,28 +13430,28 @@
       <c r="B666" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="C666" s="80" t="s">
+      <c r="C666" s="85" t="s">
         <v>539</v>
       </c>
-      <c r="D666" s="81"/>
-      <c r="E666" s="81"/>
-      <c r="F666" s="82"/>
+      <c r="D666" s="86"/>
+      <c r="E666" s="86"/>
+      <c r="F666" s="87"/>
     </row>
     <row r="667" spans="1:6" ht="19.8" thickBot="1">
-      <c r="C667" s="61" t="s">
+      <c r="C667" s="73" t="s">
         <v>540</v>
       </c>
-      <c r="D667" s="62"/>
-      <c r="E667" s="62"/>
-      <c r="F667" s="63"/>
+      <c r="D667" s="74"/>
+      <c r="E667" s="74"/>
+      <c r="F667" s="75"/>
     </row>
     <row r="668" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C668" s="64" t="s">
+      <c r="C668" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D668" s="65"/>
-      <c r="E668" s="65"/>
-      <c r="F668" s="66"/>
+      <c r="D668" s="67"/>
+      <c r="E668" s="67"/>
+      <c r="F668" s="68"/>
     </row>
     <row r="669" spans="1:6" ht="19.8" thickBot="1">
       <c r="C669" s="34" t="s">
@@ -13471,12 +13492,12 @@
       <c r="F671" s="36"/>
     </row>
     <row r="672" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C672" s="67" t="s">
+      <c r="C672" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D672" s="68"/>
-      <c r="E672" s="68"/>
-      <c r="F672" s="69"/>
+      <c r="D672" s="70"/>
+      <c r="E672" s="70"/>
+      <c r="F672" s="71"/>
     </row>
     <row r="673" spans="1:6" ht="19.8" thickBot="1">
       <c r="C673" s="38" t="s">
@@ -13537,12 +13558,12 @@
       </c>
     </row>
     <row r="677" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C677" s="70" t="s">
+      <c r="C677" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D677" s="70"/>
-      <c r="E677" s="70"/>
-      <c r="F677" s="70"/>
+      <c r="D677" s="72"/>
+      <c r="E677" s="72"/>
+      <c r="F677" s="72"/>
     </row>
     <row r="678" spans="1:6" ht="19.8" thickBot="1">
       <c r="C678" s="38" t="s">
@@ -13559,7 +13580,7 @@
       </c>
     </row>
     <row r="679" spans="1:6" ht="18" thickBot="1">
-      <c r="C679" s="57">
+      <c r="C679" s="62">
         <v>200</v>
       </c>
       <c r="D679" s="40" t="s">
@@ -13573,7 +13594,7 @@
       </c>
     </row>
     <row r="680" spans="1:6" ht="18" thickBot="1">
-      <c r="C680" s="57"/>
+      <c r="C680" s="62"/>
       <c r="D680" s="40" t="s">
         <v>377</v>
       </c>
@@ -13585,7 +13606,7 @@
       </c>
     </row>
     <row r="681" spans="1:6" ht="18" thickBot="1">
-      <c r="C681" s="57"/>
+      <c r="C681" s="62"/>
       <c r="D681" s="40" t="s">
         <v>379</v>
       </c>
@@ -13597,7 +13618,7 @@
       </c>
     </row>
     <row r="682" spans="1:6" ht="18" thickBot="1">
-      <c r="C682" s="57"/>
+      <c r="C682" s="62"/>
       <c r="D682" s="40"/>
       <c r="E682" s="40"/>
       <c r="F682" s="40"/>
@@ -13618,28 +13639,28 @@
       <c r="B686" s="48" t="s">
         <v>176</v>
       </c>
-      <c r="C686" s="80" t="s">
+      <c r="C686" s="85" t="s">
         <v>542</v>
       </c>
-      <c r="D686" s="81"/>
-      <c r="E686" s="81"/>
-      <c r="F686" s="82"/>
+      <c r="D686" s="86"/>
+      <c r="E686" s="86"/>
+      <c r="F686" s="87"/>
     </row>
     <row r="687" spans="1:6" ht="19.8" thickBot="1">
-      <c r="C687" s="61" t="s">
+      <c r="C687" s="73" t="s">
         <v>543</v>
       </c>
-      <c r="D687" s="62"/>
-      <c r="E687" s="62"/>
-      <c r="F687" s="63"/>
+      <c r="D687" s="74"/>
+      <c r="E687" s="74"/>
+      <c r="F687" s="75"/>
     </row>
     <row r="688" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C688" s="64" t="s">
+      <c r="C688" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D688" s="65"/>
-      <c r="E688" s="65"/>
-      <c r="F688" s="66"/>
+      <c r="D688" s="67"/>
+      <c r="E688" s="67"/>
+      <c r="F688" s="68"/>
     </row>
     <row r="689" spans="3:6" ht="19.8" thickBot="1">
       <c r="C689" s="34" t="s">
@@ -13680,12 +13701,12 @@
       <c r="F691" s="36"/>
     </row>
     <row r="692" spans="3:6" ht="28.2" thickBot="1">
-      <c r="C692" s="67" t="s">
+      <c r="C692" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D692" s="68"/>
-      <c r="E692" s="68"/>
-      <c r="F692" s="69"/>
+      <c r="D692" s="70"/>
+      <c r="E692" s="70"/>
+      <c r="F692" s="71"/>
     </row>
     <row r="693" spans="3:6" ht="19.8" thickBot="1">
       <c r="C693" s="38" t="s">
@@ -13736,12 +13757,12 @@
       <c r="F696" s="39"/>
     </row>
     <row r="697" spans="3:6" ht="28.2" thickBot="1">
-      <c r="C697" s="70" t="s">
+      <c r="C697" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D697" s="70"/>
-      <c r="E697" s="70"/>
-      <c r="F697" s="70"/>
+      <c r="D697" s="72"/>
+      <c r="E697" s="72"/>
+      <c r="F697" s="72"/>
     </row>
     <row r="698" spans="3:6" ht="19.8" thickBot="1">
       <c r="C698" s="38" t="s">
@@ -13758,7 +13779,7 @@
       </c>
     </row>
     <row r="699" spans="3:6" ht="18" thickBot="1">
-      <c r="C699" s="57">
+      <c r="C699" s="62">
         <v>200</v>
       </c>
       <c r="D699" s="40" t="s">
@@ -13772,7 +13793,7 @@
       </c>
     </row>
     <row r="700" spans="3:6" ht="18" thickBot="1">
-      <c r="C700" s="57"/>
+      <c r="C700" s="62"/>
       <c r="D700" s="40" t="s">
         <v>377</v>
       </c>
@@ -13784,7 +13805,7 @@
       </c>
     </row>
     <row r="701" spans="3:6" ht="18" thickBot="1">
-      <c r="C701" s="57"/>
+      <c r="C701" s="62"/>
       <c r="D701" s="40" t="s">
         <v>379</v>
       </c>
@@ -13796,7 +13817,7 @@
       </c>
     </row>
     <row r="702" spans="3:6" ht="18" thickBot="1">
-      <c r="C702" s="57"/>
+      <c r="C702" s="62"/>
       <c r="D702" s="40"/>
       <c r="E702" s="40"/>
       <c r="F702" s="40"/>
@@ -13817,28 +13838,28 @@
       <c r="B706" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="C706" s="77" t="s">
+      <c r="C706" s="88" t="s">
         <v>546</v>
       </c>
-      <c r="D706" s="78"/>
-      <c r="E706" s="78"/>
-      <c r="F706" s="79"/>
+      <c r="D706" s="89"/>
+      <c r="E706" s="89"/>
+      <c r="F706" s="90"/>
     </row>
     <row r="707" spans="1:6" ht="19.8" thickBot="1">
-      <c r="C707" s="61" t="s">
+      <c r="C707" s="73" t="s">
         <v>547</v>
       </c>
-      <c r="D707" s="62"/>
-      <c r="E707" s="62"/>
-      <c r="F707" s="63"/>
+      <c r="D707" s="74"/>
+      <c r="E707" s="74"/>
+      <c r="F707" s="75"/>
     </row>
     <row r="708" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C708" s="64" t="s">
+      <c r="C708" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D708" s="65"/>
-      <c r="E708" s="65"/>
-      <c r="F708" s="66"/>
+      <c r="D708" s="67"/>
+      <c r="E708" s="67"/>
+      <c r="F708" s="68"/>
     </row>
     <row r="709" spans="1:6" ht="19.8" thickBot="1">
       <c r="C709" s="34" t="s">
@@ -13879,12 +13900,12 @@
       <c r="F711" s="36"/>
     </row>
     <row r="712" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C712" s="67" t="s">
+      <c r="C712" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D712" s="68"/>
-      <c r="E712" s="68"/>
-      <c r="F712" s="69"/>
+      <c r="D712" s="70"/>
+      <c r="E712" s="70"/>
+      <c r="F712" s="71"/>
     </row>
     <row r="713" spans="1:6" ht="19.8" thickBot="1">
       <c r="C713" s="38" t="s">
@@ -13929,12 +13950,12 @@
       </c>
     </row>
     <row r="716" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C716" s="70" t="s">
+      <c r="C716" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D716" s="70"/>
-      <c r="E716" s="70"/>
-      <c r="F716" s="70"/>
+      <c r="D716" s="72"/>
+      <c r="E716" s="72"/>
+      <c r="F716" s="72"/>
     </row>
     <row r="717" spans="1:6" ht="19.8" thickBot="1">
       <c r="C717" s="38" t="s">
@@ -13951,7 +13972,7 @@
       </c>
     </row>
     <row r="718" spans="1:6" ht="18" thickBot="1">
-      <c r="C718" s="57">
+      <c r="C718" s="62">
         <v>200</v>
       </c>
       <c r="D718" s="40" t="s">
@@ -13965,7 +13986,7 @@
       </c>
     </row>
     <row r="719" spans="1:6" ht="18" thickBot="1">
-      <c r="C719" s="57"/>
+      <c r="C719" s="62"/>
       <c r="D719" s="40" t="s">
         <v>377</v>
       </c>
@@ -13977,7 +13998,7 @@
       </c>
     </row>
     <row r="720" spans="1:6" ht="18" thickBot="1">
-      <c r="C720" s="57"/>
+      <c r="C720" s="62"/>
       <c r="D720" s="40" t="s">
         <v>379</v>
       </c>
@@ -13989,7 +14010,7 @@
       </c>
     </row>
     <row r="721" spans="1:6" ht="18" thickBot="1">
-      <c r="C721" s="57"/>
+      <c r="C721" s="62"/>
       <c r="D721" s="40"/>
       <c r="E721" s="40"/>
       <c r="F721" s="40"/>
@@ -14010,28 +14031,28 @@
       <c r="B725" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="C725" s="77" t="s">
+      <c r="C725" s="88" t="s">
         <v>548</v>
       </c>
-      <c r="D725" s="78"/>
-      <c r="E725" s="78"/>
-      <c r="F725" s="79"/>
+      <c r="D725" s="89"/>
+      <c r="E725" s="89"/>
+      <c r="F725" s="90"/>
     </row>
     <row r="726" spans="1:6" ht="19.8" thickBot="1">
-      <c r="C726" s="61" t="s">
+      <c r="C726" s="73" t="s">
         <v>549</v>
       </c>
-      <c r="D726" s="62"/>
-      <c r="E726" s="62"/>
-      <c r="F726" s="63"/>
+      <c r="D726" s="74"/>
+      <c r="E726" s="74"/>
+      <c r="F726" s="75"/>
     </row>
     <row r="727" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C727" s="64" t="s">
+      <c r="C727" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D727" s="65"/>
-      <c r="E727" s="65"/>
-      <c r="F727" s="66"/>
+      <c r="D727" s="67"/>
+      <c r="E727" s="67"/>
+      <c r="F727" s="68"/>
     </row>
     <row r="728" spans="1:6" ht="19.8" thickBot="1">
       <c r="C728" s="34" t="s">
@@ -14072,12 +14093,12 @@
       <c r="F730" s="36"/>
     </row>
     <row r="731" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C731" s="67" t="s">
+      <c r="C731" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D731" s="68"/>
-      <c r="E731" s="68"/>
-      <c r="F731" s="69"/>
+      <c r="D731" s="70"/>
+      <c r="E731" s="70"/>
+      <c r="F731" s="71"/>
     </row>
     <row r="732" spans="1:6" ht="19.8" thickBot="1">
       <c r="C732" s="38" t="s">
@@ -14122,12 +14143,12 @@
       </c>
     </row>
     <row r="735" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C735" s="70" t="s">
+      <c r="C735" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D735" s="70"/>
-      <c r="E735" s="70"/>
-      <c r="F735" s="70"/>
+      <c r="D735" s="72"/>
+      <c r="E735" s="72"/>
+      <c r="F735" s="72"/>
     </row>
     <row r="736" spans="1:6" ht="19.8" thickBot="1">
       <c r="C736" s="38" t="s">
@@ -14144,7 +14165,7 @@
       </c>
     </row>
     <row r="737" spans="1:6" ht="18" thickBot="1">
-      <c r="C737" s="57">
+      <c r="C737" s="62">
         <v>200</v>
       </c>
       <c r="D737" s="40" t="s">
@@ -14158,7 +14179,7 @@
       </c>
     </row>
     <row r="738" spans="1:6" ht="18" thickBot="1">
-      <c r="C738" s="57"/>
+      <c r="C738" s="62"/>
       <c r="D738" s="40" t="s">
         <v>377</v>
       </c>
@@ -14170,7 +14191,7 @@
       </c>
     </row>
     <row r="739" spans="1:6" ht="18" thickBot="1">
-      <c r="C739" s="57"/>
+      <c r="C739" s="62"/>
       <c r="D739" s="40" t="s">
         <v>379</v>
       </c>
@@ -14182,7 +14203,7 @@
       </c>
     </row>
     <row r="740" spans="1:6" ht="18" thickBot="1">
-      <c r="C740" s="57"/>
+      <c r="C740" s="62"/>
       <c r="D740" s="40"/>
       <c r="E740" s="40"/>
       <c r="F740" s="40"/>
@@ -14203,28 +14224,28 @@
       <c r="B744" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="C744" s="77" t="s">
+      <c r="C744" s="88" t="s">
         <v>550</v>
       </c>
-      <c r="D744" s="78"/>
-      <c r="E744" s="78"/>
-      <c r="F744" s="79"/>
+      <c r="D744" s="89"/>
+      <c r="E744" s="89"/>
+      <c r="F744" s="90"/>
     </row>
     <row r="745" spans="1:6" ht="19.8" thickBot="1">
-      <c r="C745" s="61" t="s">
+      <c r="C745" s="73" t="s">
         <v>551</v>
       </c>
-      <c r="D745" s="62"/>
-      <c r="E745" s="62"/>
-      <c r="F745" s="63"/>
+      <c r="D745" s="74"/>
+      <c r="E745" s="74"/>
+      <c r="F745" s="75"/>
     </row>
     <row r="746" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C746" s="64" t="s">
+      <c r="C746" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D746" s="65"/>
-      <c r="E746" s="65"/>
-      <c r="F746" s="66"/>
+      <c r="D746" s="67"/>
+      <c r="E746" s="67"/>
+      <c r="F746" s="68"/>
     </row>
     <row r="747" spans="1:6" ht="19.8" thickBot="1">
       <c r="C747" s="34" t="s">
@@ -14265,12 +14286,12 @@
       <c r="F749" s="36"/>
     </row>
     <row r="750" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C750" s="67" t="s">
+      <c r="C750" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D750" s="68"/>
-      <c r="E750" s="68"/>
-      <c r="F750" s="69"/>
+      <c r="D750" s="70"/>
+      <c r="E750" s="70"/>
+      <c r="F750" s="71"/>
     </row>
     <row r="751" spans="1:6" ht="19.8" thickBot="1">
       <c r="C751" s="38" t="s">
@@ -14315,12 +14336,12 @@
       </c>
     </row>
     <row r="754" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C754" s="70" t="s">
+      <c r="C754" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D754" s="70"/>
-      <c r="E754" s="70"/>
-      <c r="F754" s="70"/>
+      <c r="D754" s="72"/>
+      <c r="E754" s="72"/>
+      <c r="F754" s="72"/>
     </row>
     <row r="755" spans="1:6" ht="19.8" thickBot="1">
       <c r="C755" s="38" t="s">
@@ -14337,7 +14358,7 @@
       </c>
     </row>
     <row r="756" spans="1:6" ht="18" thickBot="1">
-      <c r="C756" s="57">
+      <c r="C756" s="62">
         <v>200</v>
       </c>
       <c r="D756" s="40" t="s">
@@ -14351,7 +14372,7 @@
       </c>
     </row>
     <row r="757" spans="1:6" ht="18" thickBot="1">
-      <c r="C757" s="57"/>
+      <c r="C757" s="62"/>
       <c r="D757" s="40" t="s">
         <v>377</v>
       </c>
@@ -14363,7 +14384,7 @@
       </c>
     </row>
     <row r="758" spans="1:6" ht="18" thickBot="1">
-      <c r="C758" s="57"/>
+      <c r="C758" s="62"/>
       <c r="D758" s="40" t="s">
         <v>379</v>
       </c>
@@ -14375,7 +14396,7 @@
       </c>
     </row>
     <row r="759" spans="1:6" ht="18" thickBot="1">
-      <c r="C759" s="57"/>
+      <c r="C759" s="62"/>
       <c r="D759" s="40"/>
       <c r="E759" s="40"/>
       <c r="F759" s="40"/>
@@ -14396,28 +14417,28 @@
       <c r="B763" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="C763" s="77" t="s">
+      <c r="C763" s="88" t="s">
         <v>554</v>
       </c>
-      <c r="D763" s="78"/>
-      <c r="E763" s="78"/>
-      <c r="F763" s="79"/>
+      <c r="D763" s="89"/>
+      <c r="E763" s="89"/>
+      <c r="F763" s="90"/>
     </row>
     <row r="764" spans="1:6" ht="19.8" thickBot="1">
-      <c r="C764" s="61" t="s">
+      <c r="C764" s="73" t="s">
         <v>180</v>
       </c>
-      <c r="D764" s="62"/>
-      <c r="E764" s="62"/>
-      <c r="F764" s="63"/>
+      <c r="D764" s="74"/>
+      <c r="E764" s="74"/>
+      <c r="F764" s="75"/>
     </row>
     <row r="765" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C765" s="64" t="s">
+      <c r="C765" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D765" s="65"/>
-      <c r="E765" s="65"/>
-      <c r="F765" s="66"/>
+      <c r="D765" s="67"/>
+      <c r="E765" s="67"/>
+      <c r="F765" s="68"/>
     </row>
     <row r="766" spans="1:6" ht="19.8" thickBot="1">
       <c r="C766" s="34" t="s">
@@ -14458,12 +14479,12 @@
       <c r="F768" s="36"/>
     </row>
     <row r="769" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C769" s="67" t="s">
+      <c r="C769" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D769" s="68"/>
-      <c r="E769" s="68"/>
-      <c r="F769" s="69"/>
+      <c r="D769" s="70"/>
+      <c r="E769" s="70"/>
+      <c r="F769" s="71"/>
     </row>
     <row r="770" spans="1:6" ht="19.8" thickBot="1">
       <c r="C770" s="38" t="s">
@@ -14508,12 +14529,12 @@
       </c>
     </row>
     <row r="773" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C773" s="70" t="s">
+      <c r="C773" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D773" s="70"/>
-      <c r="E773" s="70"/>
-      <c r="F773" s="70"/>
+      <c r="D773" s="72"/>
+      <c r="E773" s="72"/>
+      <c r="F773" s="72"/>
     </row>
     <row r="774" spans="1:6" ht="19.8" thickBot="1">
       <c r="C774" s="38" t="s">
@@ -14530,7 +14551,7 @@
       </c>
     </row>
     <row r="775" spans="1:6" ht="18" thickBot="1">
-      <c r="C775" s="57">
+      <c r="C775" s="62">
         <v>200</v>
       </c>
       <c r="D775" s="40" t="s">
@@ -14544,7 +14565,7 @@
       </c>
     </row>
     <row r="776" spans="1:6" ht="18" thickBot="1">
-      <c r="C776" s="57"/>
+      <c r="C776" s="62"/>
       <c r="D776" s="40" t="s">
         <v>377</v>
       </c>
@@ -14556,7 +14577,7 @@
       </c>
     </row>
     <row r="777" spans="1:6" ht="18" thickBot="1">
-      <c r="C777" s="57"/>
+      <c r="C777" s="62"/>
       <c r="D777" s="40" t="s">
         <v>379</v>
       </c>
@@ -14568,7 +14589,7 @@
       </c>
     </row>
     <row r="778" spans="1:6" ht="18" thickBot="1">
-      <c r="C778" s="57"/>
+      <c r="C778" s="62"/>
       <c r="D778" s="40"/>
       <c r="E778" s="40"/>
       <c r="F778" s="40"/>
@@ -14589,28 +14610,28 @@
       <c r="B782" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="C782" s="74" t="s">
+      <c r="C782" s="91" t="s">
         <v>555</v>
       </c>
-      <c r="D782" s="75"/>
-      <c r="E782" s="75"/>
-      <c r="F782" s="76"/>
+      <c r="D782" s="92"/>
+      <c r="E782" s="92"/>
+      <c r="F782" s="93"/>
     </row>
     <row r="783" spans="1:6" ht="19.8" thickBot="1">
-      <c r="C783" s="61" t="s">
+      <c r="C783" s="73" t="s">
         <v>556</v>
       </c>
-      <c r="D783" s="62"/>
-      <c r="E783" s="62"/>
-      <c r="F783" s="63"/>
+      <c r="D783" s="74"/>
+      <c r="E783" s="74"/>
+      <c r="F783" s="75"/>
     </row>
     <row r="784" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C784" s="64" t="s">
+      <c r="C784" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D784" s="65"/>
-      <c r="E784" s="65"/>
-      <c r="F784" s="66"/>
+      <c r="D784" s="67"/>
+      <c r="E784" s="67"/>
+      <c r="F784" s="68"/>
     </row>
     <row r="785" spans="3:6" ht="19.8" thickBot="1">
       <c r="C785" s="34" t="s">
@@ -14651,12 +14672,12 @@
       <c r="F787" s="36"/>
     </row>
     <row r="788" spans="3:6" ht="28.2" thickBot="1">
-      <c r="C788" s="67" t="s">
+      <c r="C788" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D788" s="68"/>
-      <c r="E788" s="68"/>
-      <c r="F788" s="69"/>
+      <c r="D788" s="70"/>
+      <c r="E788" s="70"/>
+      <c r="F788" s="71"/>
     </row>
     <row r="789" spans="3:6" ht="19.8" thickBot="1">
       <c r="C789" s="38" t="s">
@@ -14693,12 +14714,12 @@
       <c r="F791" s="39"/>
     </row>
     <row r="792" spans="3:6" ht="28.2" thickBot="1">
-      <c r="C792" s="70" t="s">
+      <c r="C792" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D792" s="70"/>
-      <c r="E792" s="70"/>
-      <c r="F792" s="70"/>
+      <c r="D792" s="72"/>
+      <c r="E792" s="72"/>
+      <c r="F792" s="72"/>
     </row>
     <row r="793" spans="3:6" ht="19.8" thickBot="1">
       <c r="C793" s="38" t="s">
@@ -14715,7 +14736,7 @@
       </c>
     </row>
     <row r="794" spans="3:6" ht="18" thickBot="1">
-      <c r="C794" s="57">
+      <c r="C794" s="62">
         <v>200</v>
       </c>
       <c r="D794" s="40" t="s">
@@ -14729,7 +14750,7 @@
       </c>
     </row>
     <row r="795" spans="3:6" ht="18" thickBot="1">
-      <c r="C795" s="57"/>
+      <c r="C795" s="62"/>
       <c r="D795" s="40" t="s">
         <v>377</v>
       </c>
@@ -14741,7 +14762,7 @@
       </c>
     </row>
     <row r="796" spans="3:6" ht="18" thickBot="1">
-      <c r="C796" s="57"/>
+      <c r="C796" s="62"/>
       <c r="D796" s="40" t="s">
         <v>379</v>
       </c>
@@ -14753,7 +14774,7 @@
       </c>
     </row>
     <row r="797" spans="3:6" ht="18" thickBot="1">
-      <c r="C797" s="57"/>
+      <c r="C797" s="62"/>
       <c r="D797" s="40"/>
       <c r="E797" s="40"/>
       <c r="F797" s="40"/>
@@ -14774,28 +14795,28 @@
       <c r="B801" s="50" t="s">
         <v>182</v>
       </c>
-      <c r="C801" s="74" t="s">
+      <c r="C801" s="91" t="s">
         <v>557</v>
       </c>
-      <c r="D801" s="75"/>
-      <c r="E801" s="75"/>
-      <c r="F801" s="76"/>
+      <c r="D801" s="92"/>
+      <c r="E801" s="92"/>
+      <c r="F801" s="93"/>
     </row>
     <row r="802" spans="1:6" ht="19.8" thickBot="1">
-      <c r="C802" s="61" t="s">
+      <c r="C802" s="73" t="s">
         <v>558</v>
       </c>
-      <c r="D802" s="62"/>
-      <c r="E802" s="62"/>
-      <c r="F802" s="63"/>
+      <c r="D802" s="74"/>
+      <c r="E802" s="74"/>
+      <c r="F802" s="75"/>
     </row>
     <row r="803" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C803" s="64" t="s">
+      <c r="C803" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D803" s="65"/>
-      <c r="E803" s="65"/>
-      <c r="F803" s="66"/>
+      <c r="D803" s="67"/>
+      <c r="E803" s="67"/>
+      <c r="F803" s="68"/>
     </row>
     <row r="804" spans="1:6" ht="19.8" thickBot="1">
       <c r="C804" s="34" t="s">
@@ -14836,12 +14857,12 @@
       <c r="F806" s="36"/>
     </row>
     <row r="807" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C807" s="67" t="s">
+      <c r="C807" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D807" s="68"/>
-      <c r="E807" s="68"/>
-      <c r="F807" s="69"/>
+      <c r="D807" s="70"/>
+      <c r="E807" s="70"/>
+      <c r="F807" s="71"/>
     </row>
     <row r="808" spans="1:6" ht="19.8" thickBot="1">
       <c r="C808" s="38" t="s">
@@ -14886,12 +14907,12 @@
       </c>
     </row>
     <row r="811" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C811" s="70" t="s">
+      <c r="C811" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D811" s="70"/>
-      <c r="E811" s="70"/>
-      <c r="F811" s="70"/>
+      <c r="D811" s="72"/>
+      <c r="E811" s="72"/>
+      <c r="F811" s="72"/>
     </row>
     <row r="812" spans="1:6" ht="19.8" thickBot="1">
       <c r="C812" s="38" t="s">
@@ -14908,7 +14929,7 @@
       </c>
     </row>
     <row r="813" spans="1:6" ht="18" thickBot="1">
-      <c r="C813" s="57">
+      <c r="C813" s="62">
         <v>200</v>
       </c>
       <c r="D813" s="40" t="s">
@@ -14922,7 +14943,7 @@
       </c>
     </row>
     <row r="814" spans="1:6" ht="18" thickBot="1">
-      <c r="C814" s="57"/>
+      <c r="C814" s="62"/>
       <c r="D814" s="40" t="s">
         <v>377</v>
       </c>
@@ -14934,7 +14955,7 @@
       </c>
     </row>
     <row r="815" spans="1:6" ht="18" thickBot="1">
-      <c r="C815" s="57"/>
+      <c r="C815" s="62"/>
       <c r="D815" s="40" t="s">
         <v>379</v>
       </c>
@@ -14946,7 +14967,7 @@
       </c>
     </row>
     <row r="816" spans="1:6" ht="18" thickBot="1">
-      <c r="C816" s="57"/>
+      <c r="C816" s="62"/>
       <c r="D816" s="40"/>
       <c r="E816" s="40"/>
       <c r="F816" s="40"/>
@@ -14967,28 +14988,28 @@
       <c r="B820" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="C820" s="71" t="s">
+      <c r="C820" s="94" t="s">
         <v>561</v>
       </c>
-      <c r="D820" s="72"/>
-      <c r="E820" s="72"/>
-      <c r="F820" s="73"/>
+      <c r="D820" s="95"/>
+      <c r="E820" s="95"/>
+      <c r="F820" s="96"/>
     </row>
     <row r="821" spans="1:6" ht="19.8" thickBot="1">
-      <c r="C821" s="61" t="s">
+      <c r="C821" s="73" t="s">
         <v>562</v>
       </c>
-      <c r="D821" s="62"/>
-      <c r="E821" s="62"/>
-      <c r="F821" s="63"/>
+      <c r="D821" s="74"/>
+      <c r="E821" s="74"/>
+      <c r="F821" s="75"/>
     </row>
     <row r="822" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C822" s="64" t="s">
+      <c r="C822" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D822" s="65"/>
-      <c r="E822" s="65"/>
-      <c r="F822" s="66"/>
+      <c r="D822" s="67"/>
+      <c r="E822" s="67"/>
+      <c r="F822" s="68"/>
     </row>
     <row r="823" spans="1:6" ht="19.8" thickBot="1">
       <c r="C823" s="34" t="s">
@@ -15029,12 +15050,12 @@
       <c r="F825" s="36"/>
     </row>
     <row r="826" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C826" s="67" t="s">
+      <c r="C826" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D826" s="68"/>
-      <c r="E826" s="68"/>
-      <c r="F826" s="69"/>
+      <c r="D826" s="70"/>
+      <c r="E826" s="70"/>
+      <c r="F826" s="71"/>
     </row>
     <row r="827" spans="1:6" ht="19.8" thickBot="1">
       <c r="C827" s="38" t="s">
@@ -15071,12 +15092,12 @@
       <c r="F829" s="39"/>
     </row>
     <row r="830" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C830" s="70" t="s">
+      <c r="C830" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D830" s="70"/>
-      <c r="E830" s="70"/>
-      <c r="F830" s="70"/>
+      <c r="D830" s="72"/>
+      <c r="E830" s="72"/>
+      <c r="F830" s="72"/>
     </row>
     <row r="831" spans="1:6" ht="19.8" thickBot="1">
       <c r="C831" s="38" t="s">
@@ -15093,7 +15114,7 @@
       </c>
     </row>
     <row r="832" spans="1:6" ht="18" thickBot="1">
-      <c r="C832" s="57">
+      <c r="C832" s="62">
         <v>200</v>
       </c>
       <c r="D832" s="40" t="s">
@@ -15107,7 +15128,7 @@
       </c>
     </row>
     <row r="833" spans="1:6" ht="18" thickBot="1">
-      <c r="C833" s="57"/>
+      <c r="C833" s="62"/>
       <c r="D833" s="40" t="s">
         <v>377</v>
       </c>
@@ -15119,7 +15140,7 @@
       </c>
     </row>
     <row r="834" spans="1:6" ht="18" thickBot="1">
-      <c r="C834" s="57"/>
+      <c r="C834" s="62"/>
       <c r="D834" s="40" t="s">
         <v>379</v>
       </c>
@@ -15131,7 +15152,7 @@
       </c>
     </row>
     <row r="835" spans="1:6" ht="18" thickBot="1">
-      <c r="C835" s="57"/>
+      <c r="C835" s="62"/>
       <c r="D835" s="40"/>
       <c r="E835" s="40"/>
       <c r="F835" s="40"/>
@@ -15152,28 +15173,28 @@
       <c r="B839" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="C839" s="71" t="s">
+      <c r="C839" s="94" t="s">
         <v>563</v>
       </c>
-      <c r="D839" s="72"/>
-      <c r="E839" s="72"/>
-      <c r="F839" s="73"/>
+      <c r="D839" s="95"/>
+      <c r="E839" s="95"/>
+      <c r="F839" s="96"/>
     </row>
     <row r="840" spans="1:6" ht="19.8" thickBot="1">
-      <c r="C840" s="61" t="s">
+      <c r="C840" s="73" t="s">
         <v>564</v>
       </c>
-      <c r="D840" s="62"/>
-      <c r="E840" s="62"/>
-      <c r="F840" s="63"/>
+      <c r="D840" s="74"/>
+      <c r="E840" s="74"/>
+      <c r="F840" s="75"/>
     </row>
     <row r="841" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C841" s="64" t="s">
+      <c r="C841" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D841" s="65"/>
-      <c r="E841" s="65"/>
-      <c r="F841" s="66"/>
+      <c r="D841" s="67"/>
+      <c r="E841" s="67"/>
+      <c r="F841" s="68"/>
     </row>
     <row r="842" spans="1:6" ht="19.8" thickBot="1">
       <c r="C842" s="34" t="s">
@@ -15214,12 +15235,12 @@
       <c r="F844" s="36"/>
     </row>
     <row r="845" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C845" s="67" t="s">
+      <c r="C845" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D845" s="68"/>
-      <c r="E845" s="68"/>
-      <c r="F845" s="69"/>
+      <c r="D845" s="70"/>
+      <c r="E845" s="70"/>
+      <c r="F845" s="71"/>
     </row>
     <row r="846" spans="1:6" ht="19.8" thickBot="1">
       <c r="C846" s="38" t="s">
@@ -15264,12 +15285,12 @@
       </c>
     </row>
     <row r="849" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C849" s="70" t="s">
+      <c r="C849" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D849" s="70"/>
-      <c r="E849" s="70"/>
-      <c r="F849" s="70"/>
+      <c r="D849" s="72"/>
+      <c r="E849" s="72"/>
+      <c r="F849" s="72"/>
     </row>
     <row r="850" spans="1:6" ht="19.8" thickBot="1">
       <c r="C850" s="38" t="s">
@@ -15286,7 +15307,7 @@
       </c>
     </row>
     <row r="851" spans="1:6" ht="18" thickBot="1">
-      <c r="C851" s="57">
+      <c r="C851" s="62">
         <v>200</v>
       </c>
       <c r="D851" s="40" t="s">
@@ -15300,7 +15321,7 @@
       </c>
     </row>
     <row r="852" spans="1:6" ht="18" thickBot="1">
-      <c r="C852" s="57"/>
+      <c r="C852" s="62"/>
       <c r="D852" s="40" t="s">
         <v>377</v>
       </c>
@@ -15312,7 +15333,7 @@
       </c>
     </row>
     <row r="853" spans="1:6" ht="18" thickBot="1">
-      <c r="C853" s="57"/>
+      <c r="C853" s="62"/>
       <c r="D853" s="40" t="s">
         <v>379</v>
       </c>
@@ -15324,7 +15345,7 @@
       </c>
     </row>
     <row r="854" spans="1:6" ht="18" thickBot="1">
-      <c r="C854" s="57"/>
+      <c r="C854" s="62"/>
       <c r="D854" s="40"/>
       <c r="E854" s="40"/>
       <c r="F854" s="40"/>
@@ -15345,28 +15366,28 @@
       <c r="B858" s="51" t="s">
         <v>184</v>
       </c>
-      <c r="C858" s="71" t="s">
+      <c r="C858" s="94" t="s">
         <v>567</v>
       </c>
-      <c r="D858" s="72"/>
-      <c r="E858" s="72"/>
-      <c r="F858" s="73"/>
+      <c r="D858" s="95"/>
+      <c r="E858" s="95"/>
+      <c r="F858" s="96"/>
     </row>
     <row r="859" spans="1:6" ht="19.8" thickBot="1">
-      <c r="C859" s="61" t="s">
+      <c r="C859" s="73" t="s">
         <v>568</v>
       </c>
-      <c r="D859" s="62"/>
-      <c r="E859" s="62"/>
-      <c r="F859" s="63"/>
+      <c r="D859" s="74"/>
+      <c r="E859" s="74"/>
+      <c r="F859" s="75"/>
     </row>
     <row r="860" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C860" s="64" t="s">
+      <c r="C860" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D860" s="65"/>
-      <c r="E860" s="65"/>
-      <c r="F860" s="66"/>
+      <c r="D860" s="67"/>
+      <c r="E860" s="67"/>
+      <c r="F860" s="68"/>
     </row>
     <row r="861" spans="1:6" ht="19.8" thickBot="1">
       <c r="C861" s="34" t="s">
@@ -15407,12 +15428,12 @@
       <c r="F863" s="36"/>
     </row>
     <row r="864" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C864" s="67" t="s">
+      <c r="C864" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D864" s="68"/>
-      <c r="E864" s="68"/>
-      <c r="F864" s="69"/>
+      <c r="D864" s="70"/>
+      <c r="E864" s="70"/>
+      <c r="F864" s="71"/>
     </row>
     <row r="865" spans="1:6" ht="19.8" thickBot="1">
       <c r="C865" s="38" t="s">
@@ -15457,12 +15478,12 @@
       </c>
     </row>
     <row r="868" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C868" s="70" t="s">
+      <c r="C868" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D868" s="70"/>
-      <c r="E868" s="70"/>
-      <c r="F868" s="70"/>
+      <c r="D868" s="72"/>
+      <c r="E868" s="72"/>
+      <c r="F868" s="72"/>
     </row>
     <row r="869" spans="1:6" ht="19.8" thickBot="1">
       <c r="C869" s="38" t="s">
@@ -15479,7 +15500,7 @@
       </c>
     </row>
     <row r="870" spans="1:6" ht="18" thickBot="1">
-      <c r="C870" s="57">
+      <c r="C870" s="62">
         <v>200</v>
       </c>
       <c r="D870" s="40" t="s">
@@ -15493,7 +15514,7 @@
       </c>
     </row>
     <row r="871" spans="1:6" ht="18" thickBot="1">
-      <c r="C871" s="57"/>
+      <c r="C871" s="62"/>
       <c r="D871" s="40" t="s">
         <v>377</v>
       </c>
@@ -15505,7 +15526,7 @@
       </c>
     </row>
     <row r="872" spans="1:6" ht="18" thickBot="1">
-      <c r="C872" s="57"/>
+      <c r="C872" s="62"/>
       <c r="D872" s="40" t="s">
         <v>379</v>
       </c>
@@ -15517,7 +15538,7 @@
       </c>
     </row>
     <row r="873" spans="1:6" ht="18" thickBot="1">
-      <c r="C873" s="57"/>
+      <c r="C873" s="62"/>
       <c r="D873" s="40"/>
       <c r="E873" s="40"/>
       <c r="F873" s="40"/>
@@ -15538,28 +15559,28 @@
       <c r="B877" s="52" t="s">
         <v>184</v>
       </c>
-      <c r="C877" s="58" t="s">
+      <c r="C877" s="97" t="s">
         <v>569</v>
       </c>
-      <c r="D877" s="59"/>
-      <c r="E877" s="59"/>
-      <c r="F877" s="60"/>
+      <c r="D877" s="98"/>
+      <c r="E877" s="98"/>
+      <c r="F877" s="99"/>
     </row>
     <row r="878" spans="1:6" ht="19.8" thickBot="1">
-      <c r="C878" s="61" t="s">
+      <c r="C878" s="73" t="s">
         <v>570</v>
       </c>
-      <c r="D878" s="62"/>
-      <c r="E878" s="62"/>
-      <c r="F878" s="63"/>
+      <c r="D878" s="74"/>
+      <c r="E878" s="74"/>
+      <c r="F878" s="75"/>
     </row>
     <row r="879" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C879" s="64" t="s">
+      <c r="C879" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D879" s="65"/>
-      <c r="E879" s="65"/>
-      <c r="F879" s="66"/>
+      <c r="D879" s="67"/>
+      <c r="E879" s="67"/>
+      <c r="F879" s="68"/>
     </row>
     <row r="880" spans="1:6" ht="19.8" thickBot="1">
       <c r="C880" s="34" t="s">
@@ -15600,12 +15621,12 @@
       <c r="F882" s="36"/>
     </row>
     <row r="883" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C883" s="67" t="s">
+      <c r="C883" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D883" s="68"/>
-      <c r="E883" s="68"/>
-      <c r="F883" s="69"/>
+      <c r="D883" s="70"/>
+      <c r="E883" s="70"/>
+      <c r="F883" s="71"/>
     </row>
     <row r="884" spans="1:6" ht="19.8" thickBot="1">
       <c r="C884" s="38" t="s">
@@ -15628,12 +15649,12 @@
       <c r="F885" s="39"/>
     </row>
     <row r="886" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C886" s="70" t="s">
+      <c r="C886" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D886" s="70"/>
-      <c r="E886" s="70"/>
-      <c r="F886" s="70"/>
+      <c r="D886" s="72"/>
+      <c r="E886" s="72"/>
+      <c r="F886" s="72"/>
     </row>
     <row r="887" spans="1:6" ht="19.8" thickBot="1">
       <c r="C887" s="38" t="s">
@@ -15650,7 +15671,7 @@
       </c>
     </row>
     <row r="888" spans="1:6" ht="18" thickBot="1">
-      <c r="C888" s="57">
+      <c r="C888" s="62">
         <v>200</v>
       </c>
       <c r="D888" s="40" t="s">
@@ -15664,7 +15685,7 @@
       </c>
     </row>
     <row r="889" spans="1:6" ht="18" thickBot="1">
-      <c r="C889" s="57"/>
+      <c r="C889" s="62"/>
       <c r="D889" s="40" t="s">
         <v>377</v>
       </c>
@@ -15676,7 +15697,7 @@
       </c>
     </row>
     <row r="890" spans="1:6" ht="18" thickBot="1">
-      <c r="C890" s="57"/>
+      <c r="C890" s="62"/>
       <c r="D890" s="40" t="s">
         <v>379</v>
       </c>
@@ -15688,7 +15709,7 @@
       </c>
     </row>
     <row r="891" spans="1:6" ht="18" thickBot="1">
-      <c r="C891" s="57"/>
+      <c r="C891" s="62"/>
       <c r="D891" s="40"/>
       <c r="E891" s="40"/>
       <c r="F891" s="40"/>
@@ -15709,28 +15730,28 @@
       <c r="B895" s="52" t="s">
         <v>184</v>
       </c>
-      <c r="C895" s="58" t="s">
+      <c r="C895" s="97" t="s">
         <v>571</v>
       </c>
-      <c r="D895" s="59"/>
-      <c r="E895" s="59"/>
-      <c r="F895" s="60"/>
+      <c r="D895" s="98"/>
+      <c r="E895" s="98"/>
+      <c r="F895" s="99"/>
     </row>
     <row r="896" spans="1:6" ht="19.8" thickBot="1">
-      <c r="C896" s="61" t="s">
+      <c r="C896" s="73" t="s">
         <v>572</v>
       </c>
-      <c r="D896" s="62"/>
-      <c r="E896" s="62"/>
-      <c r="F896" s="63"/>
+      <c r="D896" s="74"/>
+      <c r="E896" s="74"/>
+      <c r="F896" s="75"/>
     </row>
     <row r="897" spans="3:6" ht="28.2" thickBot="1">
-      <c r="C897" s="64" t="s">
+      <c r="C897" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D897" s="65"/>
-      <c r="E897" s="65"/>
-      <c r="F897" s="66"/>
+      <c r="D897" s="67"/>
+      <c r="E897" s="67"/>
+      <c r="F897" s="68"/>
     </row>
     <row r="898" spans="3:6" ht="19.8" thickBot="1">
       <c r="C898" s="34" t="s">
@@ -15771,12 +15792,12 @@
       <c r="F900" s="36"/>
     </row>
     <row r="901" spans="3:6" ht="28.2" thickBot="1">
-      <c r="C901" s="67" t="s">
+      <c r="C901" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D901" s="68"/>
-      <c r="E901" s="68"/>
-      <c r="F901" s="69"/>
+      <c r="D901" s="70"/>
+      <c r="E901" s="70"/>
+      <c r="F901" s="71"/>
     </row>
     <row r="902" spans="3:6" ht="19.8" thickBot="1">
       <c r="C902" s="38" t="s">
@@ -15813,12 +15834,12 @@
       <c r="F904" s="39"/>
     </row>
     <row r="905" spans="3:6" ht="28.2" thickBot="1">
-      <c r="C905" s="70" t="s">
+      <c r="C905" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D905" s="70"/>
-      <c r="E905" s="70"/>
-      <c r="F905" s="70"/>
+      <c r="D905" s="72"/>
+      <c r="E905" s="72"/>
+      <c r="F905" s="72"/>
     </row>
     <row r="906" spans="3:6" ht="19.8" thickBot="1">
       <c r="C906" s="38" t="s">
@@ -15835,7 +15856,7 @@
       </c>
     </row>
     <row r="907" spans="3:6" ht="18" thickBot="1">
-      <c r="C907" s="57">
+      <c r="C907" s="62">
         <v>200</v>
       </c>
       <c r="D907" s="40" t="s">
@@ -15849,7 +15870,7 @@
       </c>
     </row>
     <row r="908" spans="3:6" ht="18" thickBot="1">
-      <c r="C908" s="57"/>
+      <c r="C908" s="62"/>
       <c r="D908" s="40" t="s">
         <v>377</v>
       </c>
@@ -15861,7 +15882,7 @@
       </c>
     </row>
     <row r="909" spans="3:6" ht="18" thickBot="1">
-      <c r="C909" s="57"/>
+      <c r="C909" s="62"/>
       <c r="D909" s="40" t="s">
         <v>379</v>
       </c>
@@ -15873,7 +15894,7 @@
       </c>
     </row>
     <row r="910" spans="3:6" ht="18" thickBot="1">
-      <c r="C910" s="57"/>
+      <c r="C910" s="62"/>
       <c r="D910" s="40"/>
       <c r="E910" s="40"/>
       <c r="F910" s="40"/>
@@ -15894,28 +15915,28 @@
       <c r="B915" s="52" t="s">
         <v>184</v>
       </c>
-      <c r="C915" s="58" t="s">
+      <c r="C915" s="97" t="s">
         <v>575</v>
       </c>
-      <c r="D915" s="59"/>
-      <c r="E915" s="59"/>
-      <c r="F915" s="60"/>
+      <c r="D915" s="98"/>
+      <c r="E915" s="98"/>
+      <c r="F915" s="99"/>
     </row>
     <row r="916" spans="1:6" ht="19.8" thickBot="1">
-      <c r="C916" s="61" t="s">
+      <c r="C916" s="73" t="s">
         <v>576</v>
       </c>
-      <c r="D916" s="62"/>
-      <c r="E916" s="62"/>
-      <c r="F916" s="63"/>
+      <c r="D916" s="74"/>
+      <c r="E916" s="74"/>
+      <c r="F916" s="75"/>
     </row>
     <row r="917" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C917" s="64" t="s">
+      <c r="C917" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D917" s="65"/>
-      <c r="E917" s="65"/>
-      <c r="F917" s="66"/>
+      <c r="D917" s="67"/>
+      <c r="E917" s="67"/>
+      <c r="F917" s="68"/>
     </row>
     <row r="918" spans="1:6" ht="19.8" thickBot="1">
       <c r="C918" s="34" t="s">
@@ -15956,12 +15977,12 @@
       <c r="F920" s="36"/>
     </row>
     <row r="921" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C921" s="67" t="s">
+      <c r="C921" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D921" s="68"/>
-      <c r="E921" s="68"/>
-      <c r="F921" s="69"/>
+      <c r="D921" s="70"/>
+      <c r="E921" s="70"/>
+      <c r="F921" s="71"/>
     </row>
     <row r="922" spans="1:6" ht="19.8" thickBot="1">
       <c r="C922" s="38" t="s">
@@ -16022,12 +16043,12 @@
       </c>
     </row>
     <row r="926" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C926" s="70" t="s">
+      <c r="C926" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D926" s="70"/>
-      <c r="E926" s="70"/>
-      <c r="F926" s="70"/>
+      <c r="D926" s="72"/>
+      <c r="E926" s="72"/>
+      <c r="F926" s="72"/>
     </row>
     <row r="927" spans="1:6" ht="19.8" thickBot="1">
       <c r="C927" s="38" t="s">
@@ -16044,7 +16065,7 @@
       </c>
     </row>
     <row r="928" spans="1:6" ht="18" thickBot="1">
-      <c r="C928" s="57">
+      <c r="C928" s="62">
         <v>200</v>
       </c>
       <c r="D928" s="40" t="s">
@@ -16058,7 +16079,7 @@
       </c>
     </row>
     <row r="929" spans="1:6" ht="18" thickBot="1">
-      <c r="C929" s="57"/>
+      <c r="C929" s="62"/>
       <c r="D929" s="40" t="s">
         <v>377</v>
       </c>
@@ -16070,7 +16091,7 @@
       </c>
     </row>
     <row r="930" spans="1:6" ht="18" thickBot="1">
-      <c r="C930" s="57"/>
+      <c r="C930" s="62"/>
       <c r="D930" s="40" t="s">
         <v>379</v>
       </c>
@@ -16082,7 +16103,7 @@
       </c>
     </row>
     <row r="931" spans="1:6" ht="18" thickBot="1">
-      <c r="C931" s="57"/>
+      <c r="C931" s="62"/>
       <c r="D931" s="40"/>
       <c r="E931" s="40"/>
       <c r="F931" s="40"/>
@@ -16103,28 +16124,28 @@
       <c r="B935" s="52" t="s">
         <v>184</v>
       </c>
-      <c r="C935" s="58" t="s">
+      <c r="C935" s="97" t="s">
         <v>580</v>
       </c>
-      <c r="D935" s="59"/>
-      <c r="E935" s="59"/>
-      <c r="F935" s="60"/>
+      <c r="D935" s="98"/>
+      <c r="E935" s="98"/>
+      <c r="F935" s="99"/>
     </row>
     <row r="936" spans="1:6" ht="19.8" thickBot="1">
-      <c r="C936" s="61" t="s">
+      <c r="C936" s="73" t="s">
         <v>581</v>
       </c>
-      <c r="D936" s="62"/>
-      <c r="E936" s="62"/>
-      <c r="F936" s="63"/>
+      <c r="D936" s="74"/>
+      <c r="E936" s="74"/>
+      <c r="F936" s="75"/>
     </row>
     <row r="937" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C937" s="64" t="s">
+      <c r="C937" s="66" t="s">
         <v>346</v>
       </c>
-      <c r="D937" s="65"/>
-      <c r="E937" s="65"/>
-      <c r="F937" s="66"/>
+      <c r="D937" s="67"/>
+      <c r="E937" s="67"/>
+      <c r="F937" s="68"/>
     </row>
     <row r="938" spans="1:6" ht="19.8" thickBot="1">
       <c r="C938" s="34" t="s">
@@ -16165,12 +16186,12 @@
       <c r="F940" s="36"/>
     </row>
     <row r="941" spans="1:6" ht="28.2" thickBot="1">
-      <c r="C941" s="67" t="s">
+      <c r="C941" s="69" t="s">
         <v>352</v>
       </c>
-      <c r="D941" s="68"/>
-      <c r="E941" s="68"/>
-      <c r="F941" s="69"/>
+      <c r="D941" s="70"/>
+      <c r="E941" s="70"/>
+      <c r="F941" s="71"/>
     </row>
     <row r="942" spans="1:6" ht="19.8" thickBot="1">
       <c r="C942" s="38" t="s">
@@ -16229,12 +16250,12 @@
       </c>
     </row>
     <row r="946" spans="3:6" ht="28.2" thickBot="1">
-      <c r="C946" s="70" t="s">
+      <c r="C946" s="72" t="s">
         <v>355</v>
       </c>
-      <c r="D946" s="70"/>
-      <c r="E946" s="70"/>
-      <c r="F946" s="70"/>
+      <c r="D946" s="72"/>
+      <c r="E946" s="72"/>
+      <c r="F946" s="72"/>
     </row>
     <row r="947" spans="3:6" ht="19.8" thickBot="1">
       <c r="C947" s="38" t="s">
@@ -16251,7 +16272,7 @@
       </c>
     </row>
     <row r="948" spans="3:6" ht="18" thickBot="1">
-      <c r="C948" s="57">
+      <c r="C948" s="62">
         <v>200</v>
       </c>
       <c r="D948" s="40" t="s">
@@ -16265,7 +16286,7 @@
       </c>
     </row>
     <row r="949" spans="3:6" ht="18" thickBot="1">
-      <c r="C949" s="57"/>
+      <c r="C949" s="62"/>
       <c r="D949" s="40" t="s">
         <v>377</v>
       </c>
@@ -16277,7 +16298,7 @@
       </c>
     </row>
     <row r="950" spans="3:6" ht="18" thickBot="1">
-      <c r="C950" s="57"/>
+      <c r="C950" s="62"/>
       <c r="D950" s="40" t="s">
         <v>379</v>
       </c>
@@ -16289,7 +16310,7 @@
       </c>
     </row>
     <row r="951" spans="3:6" ht="18" thickBot="1">
-      <c r="C951" s="57"/>
+      <c r="C951" s="62"/>
       <c r="D951" s="40"/>
       <c r="E951" s="40"/>
       <c r="F951" s="40"/>
@@ -16304,80 +16325,214 @@
     </row>
   </sheetData>
   <mergeCells count="300">
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="C59:F59"/>
-    <mergeCell ref="C60:F60"/>
-    <mergeCell ref="C63:F63"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="C103:C106"/>
-    <mergeCell ref="C75:F75"/>
-    <mergeCell ref="C76:F76"/>
-    <mergeCell ref="C77:F77"/>
-    <mergeCell ref="C80:F80"/>
-    <mergeCell ref="C83:F83"/>
-    <mergeCell ref="C85:C88"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="C93:F93"/>
-    <mergeCell ref="C94:F94"/>
-    <mergeCell ref="C98:F98"/>
-    <mergeCell ref="C101:F101"/>
-    <mergeCell ref="C140:C143"/>
-    <mergeCell ref="C110:F110"/>
-    <mergeCell ref="C111:F111"/>
-    <mergeCell ref="C112:F112"/>
-    <mergeCell ref="C116:F116"/>
-    <mergeCell ref="C119:F119"/>
-    <mergeCell ref="C121:C124"/>
-    <mergeCell ref="C128:F128"/>
-    <mergeCell ref="C129:F129"/>
-    <mergeCell ref="C130:F130"/>
-    <mergeCell ref="C134:F134"/>
-    <mergeCell ref="C138:F138"/>
-    <mergeCell ref="C184:C187"/>
-    <mergeCell ref="C147:F147"/>
-    <mergeCell ref="C148:F148"/>
-    <mergeCell ref="C149:F149"/>
-    <mergeCell ref="C153:F153"/>
-    <mergeCell ref="C162:F162"/>
-    <mergeCell ref="C164:C167"/>
-    <mergeCell ref="C171:F171"/>
-    <mergeCell ref="C172:F172"/>
-    <mergeCell ref="C173:F173"/>
-    <mergeCell ref="C177:F177"/>
-    <mergeCell ref="C182:F182"/>
-    <mergeCell ref="C231:F231"/>
-    <mergeCell ref="C211:F211"/>
-    <mergeCell ref="C212:F212"/>
-    <mergeCell ref="C191:F191"/>
-    <mergeCell ref="C192:F192"/>
-    <mergeCell ref="C193:F193"/>
-    <mergeCell ref="C197:F197"/>
-    <mergeCell ref="C201:F201"/>
-    <mergeCell ref="C203:C206"/>
-    <mergeCell ref="C210:F210"/>
-    <mergeCell ref="C216:F216"/>
-    <mergeCell ref="C221:F221"/>
-    <mergeCell ref="C223:C226"/>
-    <mergeCell ref="C230:F230"/>
+    <mergeCell ref="C948:C951"/>
+    <mergeCell ref="C935:F935"/>
+    <mergeCell ref="C936:F936"/>
+    <mergeCell ref="C937:F937"/>
+    <mergeCell ref="C941:F941"/>
+    <mergeCell ref="C946:F946"/>
+    <mergeCell ref="C916:F916"/>
+    <mergeCell ref="C917:F917"/>
+    <mergeCell ref="C921:F921"/>
+    <mergeCell ref="C926:F926"/>
+    <mergeCell ref="C928:C931"/>
+    <mergeCell ref="C897:F897"/>
+    <mergeCell ref="C901:F901"/>
+    <mergeCell ref="C905:F905"/>
+    <mergeCell ref="C907:C910"/>
+    <mergeCell ref="C915:F915"/>
+    <mergeCell ref="C883:F883"/>
+    <mergeCell ref="C886:F886"/>
+    <mergeCell ref="C888:C891"/>
+    <mergeCell ref="C895:F895"/>
+    <mergeCell ref="C896:F896"/>
+    <mergeCell ref="C868:F868"/>
+    <mergeCell ref="C870:C873"/>
+    <mergeCell ref="C877:F877"/>
+    <mergeCell ref="C878:F878"/>
+    <mergeCell ref="C879:F879"/>
+    <mergeCell ref="C851:C854"/>
+    <mergeCell ref="C858:F858"/>
+    <mergeCell ref="C859:F859"/>
+    <mergeCell ref="C860:F860"/>
+    <mergeCell ref="C864:F864"/>
+    <mergeCell ref="C839:F839"/>
+    <mergeCell ref="C840:F840"/>
+    <mergeCell ref="C841:F841"/>
+    <mergeCell ref="C845:F845"/>
+    <mergeCell ref="C849:F849"/>
+    <mergeCell ref="C821:F821"/>
+    <mergeCell ref="C822:F822"/>
+    <mergeCell ref="C826:F826"/>
+    <mergeCell ref="C830:F830"/>
+    <mergeCell ref="C832:C835"/>
+    <mergeCell ref="C803:F803"/>
+    <mergeCell ref="C807:F807"/>
+    <mergeCell ref="C811:F811"/>
+    <mergeCell ref="C813:C816"/>
+    <mergeCell ref="C820:F820"/>
+    <mergeCell ref="C788:F788"/>
+    <mergeCell ref="C792:F792"/>
+    <mergeCell ref="C794:C797"/>
+    <mergeCell ref="C801:F801"/>
+    <mergeCell ref="C802:F802"/>
+    <mergeCell ref="C773:F773"/>
+    <mergeCell ref="C775:C778"/>
+    <mergeCell ref="C782:F782"/>
+    <mergeCell ref="C783:F783"/>
+    <mergeCell ref="C784:F784"/>
+    <mergeCell ref="C756:C759"/>
+    <mergeCell ref="C763:F763"/>
+    <mergeCell ref="C764:F764"/>
+    <mergeCell ref="C765:F765"/>
+    <mergeCell ref="C769:F769"/>
+    <mergeCell ref="C744:F744"/>
+    <mergeCell ref="C745:F745"/>
+    <mergeCell ref="C746:F746"/>
+    <mergeCell ref="C750:F750"/>
+    <mergeCell ref="C754:F754"/>
+    <mergeCell ref="C726:F726"/>
+    <mergeCell ref="C727:F727"/>
+    <mergeCell ref="C731:F731"/>
+    <mergeCell ref="C735:F735"/>
+    <mergeCell ref="C737:C740"/>
+    <mergeCell ref="C708:F708"/>
+    <mergeCell ref="C712:F712"/>
+    <mergeCell ref="C716:F716"/>
+    <mergeCell ref="C718:C721"/>
+    <mergeCell ref="C725:F725"/>
+    <mergeCell ref="C692:F692"/>
+    <mergeCell ref="C697:F697"/>
+    <mergeCell ref="C699:C702"/>
+    <mergeCell ref="C706:F706"/>
+    <mergeCell ref="C707:F707"/>
+    <mergeCell ref="C677:F677"/>
+    <mergeCell ref="C679:C682"/>
+    <mergeCell ref="C686:F686"/>
+    <mergeCell ref="C687:F687"/>
+    <mergeCell ref="C688:F688"/>
+    <mergeCell ref="C659:C662"/>
+    <mergeCell ref="C666:F666"/>
+    <mergeCell ref="C667:F667"/>
+    <mergeCell ref="C668:F668"/>
+    <mergeCell ref="C672:F672"/>
+    <mergeCell ref="C647:F647"/>
+    <mergeCell ref="C648:F648"/>
+    <mergeCell ref="C649:F649"/>
+    <mergeCell ref="C653:F653"/>
+    <mergeCell ref="C657:F657"/>
+    <mergeCell ref="C629:F629"/>
+    <mergeCell ref="C630:F630"/>
+    <mergeCell ref="C634:F634"/>
+    <mergeCell ref="C638:F638"/>
+    <mergeCell ref="C640:C643"/>
+    <mergeCell ref="C611:F611"/>
+    <mergeCell ref="C615:F615"/>
+    <mergeCell ref="C619:F619"/>
+    <mergeCell ref="C621:C624"/>
+    <mergeCell ref="C628:F628"/>
+    <mergeCell ref="C596:F596"/>
+    <mergeCell ref="C600:F600"/>
+    <mergeCell ref="C602:C605"/>
+    <mergeCell ref="C609:F609"/>
+    <mergeCell ref="C610:F610"/>
+    <mergeCell ref="C581:F581"/>
+    <mergeCell ref="C583:C586"/>
+    <mergeCell ref="C590:F590"/>
+    <mergeCell ref="C591:F591"/>
+    <mergeCell ref="C592:F592"/>
+    <mergeCell ref="C564:C567"/>
+    <mergeCell ref="C571:F571"/>
+    <mergeCell ref="C572:F572"/>
+    <mergeCell ref="C573:F573"/>
+    <mergeCell ref="C577:F577"/>
+    <mergeCell ref="C552:F552"/>
+    <mergeCell ref="C553:F553"/>
+    <mergeCell ref="C554:F554"/>
+    <mergeCell ref="C558:F558"/>
+    <mergeCell ref="C562:F562"/>
+    <mergeCell ref="C534:F534"/>
+    <mergeCell ref="C535:F535"/>
+    <mergeCell ref="C539:F539"/>
+    <mergeCell ref="C543:F543"/>
+    <mergeCell ref="C545:C548"/>
+    <mergeCell ref="C517:F517"/>
+    <mergeCell ref="C521:F521"/>
+    <mergeCell ref="C524:F524"/>
+    <mergeCell ref="C526:C529"/>
+    <mergeCell ref="C533:F533"/>
+    <mergeCell ref="C503:F503"/>
+    <mergeCell ref="C506:F506"/>
+    <mergeCell ref="C508:C511"/>
+    <mergeCell ref="C515:F515"/>
+    <mergeCell ref="C516:F516"/>
+    <mergeCell ref="C488:F488"/>
+    <mergeCell ref="C490:C493"/>
+    <mergeCell ref="C497:F497"/>
+    <mergeCell ref="C498:F498"/>
+    <mergeCell ref="C499:F499"/>
+    <mergeCell ref="C471:C474"/>
+    <mergeCell ref="C478:F478"/>
+    <mergeCell ref="C479:F479"/>
+    <mergeCell ref="C480:F480"/>
+    <mergeCell ref="C484:F484"/>
+    <mergeCell ref="C459:F459"/>
+    <mergeCell ref="C460:F460"/>
+    <mergeCell ref="C461:F461"/>
+    <mergeCell ref="C465:F465"/>
+    <mergeCell ref="C469:F469"/>
+    <mergeCell ref="C441:F441"/>
+    <mergeCell ref="C442:F442"/>
+    <mergeCell ref="C446:F446"/>
+    <mergeCell ref="C450:F450"/>
+    <mergeCell ref="C452:C455"/>
+    <mergeCell ref="C423:F423"/>
+    <mergeCell ref="C427:F427"/>
+    <mergeCell ref="C431:F431"/>
+    <mergeCell ref="C433:C436"/>
+    <mergeCell ref="C440:F440"/>
+    <mergeCell ref="C408:F408"/>
+    <mergeCell ref="C412:F412"/>
+    <mergeCell ref="C414:C417"/>
+    <mergeCell ref="C421:F421"/>
+    <mergeCell ref="C422:F422"/>
+    <mergeCell ref="C393:F393"/>
+    <mergeCell ref="C395:C398"/>
+    <mergeCell ref="C402:F402"/>
+    <mergeCell ref="C403:F403"/>
+    <mergeCell ref="C404:F404"/>
+    <mergeCell ref="C376:C379"/>
+    <mergeCell ref="C383:F383"/>
+    <mergeCell ref="C384:F384"/>
+    <mergeCell ref="C385:F385"/>
+    <mergeCell ref="C389:F389"/>
+    <mergeCell ref="C364:F364"/>
+    <mergeCell ref="C365:F365"/>
+    <mergeCell ref="C366:F366"/>
+    <mergeCell ref="C370:F370"/>
+    <mergeCell ref="C374:F374"/>
+    <mergeCell ref="C345:F345"/>
+    <mergeCell ref="C351:F351"/>
+    <mergeCell ref="C355:F355"/>
+    <mergeCell ref="C357:C360"/>
+    <mergeCell ref="C336:F336"/>
+    <mergeCell ref="C338:C341"/>
+    <mergeCell ref="C346:F346"/>
+    <mergeCell ref="C347:F347"/>
+    <mergeCell ref="C319:C322"/>
+    <mergeCell ref="C326:F326"/>
+    <mergeCell ref="C327:F327"/>
+    <mergeCell ref="C328:F328"/>
+    <mergeCell ref="C332:F332"/>
+    <mergeCell ref="C307:F307"/>
+    <mergeCell ref="C308:F308"/>
+    <mergeCell ref="C309:F309"/>
+    <mergeCell ref="C313:F313"/>
+    <mergeCell ref="C317:F317"/>
+    <mergeCell ref="C290:F290"/>
+    <mergeCell ref="C294:F294"/>
+    <mergeCell ref="C298:F298"/>
+    <mergeCell ref="C300:C303"/>
     <mergeCell ref="C271:F271"/>
     <mergeCell ref="C275:F275"/>
     <mergeCell ref="C279:F279"/>
@@ -16396,214 +16551,80 @@
     <mergeCell ref="C260:F260"/>
     <mergeCell ref="C262:C265"/>
     <mergeCell ref="C269:F269"/>
-    <mergeCell ref="C307:F307"/>
-    <mergeCell ref="C308:F308"/>
-    <mergeCell ref="C309:F309"/>
-    <mergeCell ref="C313:F313"/>
-    <mergeCell ref="C317:F317"/>
-    <mergeCell ref="C290:F290"/>
-    <mergeCell ref="C294:F294"/>
-    <mergeCell ref="C298:F298"/>
-    <mergeCell ref="C300:C303"/>
-    <mergeCell ref="C336:F336"/>
-    <mergeCell ref="C338:C341"/>
-    <mergeCell ref="C346:F346"/>
-    <mergeCell ref="C347:F347"/>
-    <mergeCell ref="C319:C322"/>
-    <mergeCell ref="C326:F326"/>
-    <mergeCell ref="C327:F327"/>
-    <mergeCell ref="C328:F328"/>
-    <mergeCell ref="C332:F332"/>
-    <mergeCell ref="C364:F364"/>
-    <mergeCell ref="C365:F365"/>
-    <mergeCell ref="C366:F366"/>
-    <mergeCell ref="C370:F370"/>
-    <mergeCell ref="C374:F374"/>
-    <mergeCell ref="C345:F345"/>
-    <mergeCell ref="C351:F351"/>
-    <mergeCell ref="C355:F355"/>
-    <mergeCell ref="C357:C360"/>
-    <mergeCell ref="C393:F393"/>
-    <mergeCell ref="C395:C398"/>
-    <mergeCell ref="C402:F402"/>
-    <mergeCell ref="C403:F403"/>
-    <mergeCell ref="C404:F404"/>
-    <mergeCell ref="C376:C379"/>
-    <mergeCell ref="C383:F383"/>
-    <mergeCell ref="C384:F384"/>
-    <mergeCell ref="C385:F385"/>
-    <mergeCell ref="C389:F389"/>
-    <mergeCell ref="C423:F423"/>
-    <mergeCell ref="C427:F427"/>
-    <mergeCell ref="C431:F431"/>
-    <mergeCell ref="C433:C436"/>
-    <mergeCell ref="C440:F440"/>
-    <mergeCell ref="C408:F408"/>
-    <mergeCell ref="C412:F412"/>
-    <mergeCell ref="C414:C417"/>
-    <mergeCell ref="C421:F421"/>
-    <mergeCell ref="C422:F422"/>
-    <mergeCell ref="C459:F459"/>
-    <mergeCell ref="C460:F460"/>
-    <mergeCell ref="C461:F461"/>
-    <mergeCell ref="C465:F465"/>
-    <mergeCell ref="C469:F469"/>
-    <mergeCell ref="C441:F441"/>
-    <mergeCell ref="C442:F442"/>
-    <mergeCell ref="C446:F446"/>
-    <mergeCell ref="C450:F450"/>
-    <mergeCell ref="C452:C455"/>
-    <mergeCell ref="C488:F488"/>
-    <mergeCell ref="C490:C493"/>
-    <mergeCell ref="C497:F497"/>
-    <mergeCell ref="C498:F498"/>
-    <mergeCell ref="C499:F499"/>
-    <mergeCell ref="C471:C474"/>
-    <mergeCell ref="C478:F478"/>
-    <mergeCell ref="C479:F479"/>
-    <mergeCell ref="C480:F480"/>
-    <mergeCell ref="C484:F484"/>
-    <mergeCell ref="C517:F517"/>
-    <mergeCell ref="C521:F521"/>
-    <mergeCell ref="C524:F524"/>
-    <mergeCell ref="C526:C529"/>
-    <mergeCell ref="C533:F533"/>
-    <mergeCell ref="C503:F503"/>
-    <mergeCell ref="C506:F506"/>
-    <mergeCell ref="C508:C511"/>
-    <mergeCell ref="C515:F515"/>
-    <mergeCell ref="C516:F516"/>
-    <mergeCell ref="C552:F552"/>
-    <mergeCell ref="C553:F553"/>
-    <mergeCell ref="C554:F554"/>
-    <mergeCell ref="C558:F558"/>
-    <mergeCell ref="C562:F562"/>
-    <mergeCell ref="C534:F534"/>
-    <mergeCell ref="C535:F535"/>
-    <mergeCell ref="C539:F539"/>
-    <mergeCell ref="C543:F543"/>
-    <mergeCell ref="C545:C548"/>
-    <mergeCell ref="C581:F581"/>
-    <mergeCell ref="C583:C586"/>
-    <mergeCell ref="C590:F590"/>
-    <mergeCell ref="C591:F591"/>
-    <mergeCell ref="C592:F592"/>
-    <mergeCell ref="C564:C567"/>
-    <mergeCell ref="C571:F571"/>
-    <mergeCell ref="C572:F572"/>
-    <mergeCell ref="C573:F573"/>
-    <mergeCell ref="C577:F577"/>
-    <mergeCell ref="C611:F611"/>
-    <mergeCell ref="C615:F615"/>
-    <mergeCell ref="C619:F619"/>
-    <mergeCell ref="C621:C624"/>
-    <mergeCell ref="C628:F628"/>
-    <mergeCell ref="C596:F596"/>
-    <mergeCell ref="C600:F600"/>
-    <mergeCell ref="C602:C605"/>
-    <mergeCell ref="C609:F609"/>
-    <mergeCell ref="C610:F610"/>
-    <mergeCell ref="C647:F647"/>
-    <mergeCell ref="C648:F648"/>
-    <mergeCell ref="C649:F649"/>
-    <mergeCell ref="C653:F653"/>
-    <mergeCell ref="C657:F657"/>
-    <mergeCell ref="C629:F629"/>
-    <mergeCell ref="C630:F630"/>
-    <mergeCell ref="C634:F634"/>
-    <mergeCell ref="C638:F638"/>
-    <mergeCell ref="C640:C643"/>
-    <mergeCell ref="C677:F677"/>
-    <mergeCell ref="C679:C682"/>
-    <mergeCell ref="C686:F686"/>
-    <mergeCell ref="C687:F687"/>
-    <mergeCell ref="C688:F688"/>
-    <mergeCell ref="C659:C662"/>
-    <mergeCell ref="C666:F666"/>
-    <mergeCell ref="C667:F667"/>
-    <mergeCell ref="C668:F668"/>
-    <mergeCell ref="C672:F672"/>
-    <mergeCell ref="C708:F708"/>
-    <mergeCell ref="C712:F712"/>
-    <mergeCell ref="C716:F716"/>
-    <mergeCell ref="C718:C721"/>
-    <mergeCell ref="C725:F725"/>
-    <mergeCell ref="C692:F692"/>
-    <mergeCell ref="C697:F697"/>
-    <mergeCell ref="C699:C702"/>
-    <mergeCell ref="C706:F706"/>
-    <mergeCell ref="C707:F707"/>
-    <mergeCell ref="C744:F744"/>
-    <mergeCell ref="C745:F745"/>
-    <mergeCell ref="C746:F746"/>
-    <mergeCell ref="C750:F750"/>
-    <mergeCell ref="C754:F754"/>
-    <mergeCell ref="C726:F726"/>
-    <mergeCell ref="C727:F727"/>
-    <mergeCell ref="C731:F731"/>
-    <mergeCell ref="C735:F735"/>
-    <mergeCell ref="C737:C740"/>
-    <mergeCell ref="C773:F773"/>
-    <mergeCell ref="C775:C778"/>
-    <mergeCell ref="C782:F782"/>
-    <mergeCell ref="C783:F783"/>
-    <mergeCell ref="C784:F784"/>
-    <mergeCell ref="C756:C759"/>
-    <mergeCell ref="C763:F763"/>
-    <mergeCell ref="C764:F764"/>
-    <mergeCell ref="C765:F765"/>
-    <mergeCell ref="C769:F769"/>
-    <mergeCell ref="C803:F803"/>
-    <mergeCell ref="C807:F807"/>
-    <mergeCell ref="C811:F811"/>
-    <mergeCell ref="C813:C816"/>
-    <mergeCell ref="C820:F820"/>
-    <mergeCell ref="C788:F788"/>
-    <mergeCell ref="C792:F792"/>
-    <mergeCell ref="C794:C797"/>
-    <mergeCell ref="C801:F801"/>
-    <mergeCell ref="C802:F802"/>
-    <mergeCell ref="C839:F839"/>
-    <mergeCell ref="C840:F840"/>
-    <mergeCell ref="C841:F841"/>
-    <mergeCell ref="C845:F845"/>
-    <mergeCell ref="C849:F849"/>
-    <mergeCell ref="C821:F821"/>
-    <mergeCell ref="C822:F822"/>
-    <mergeCell ref="C826:F826"/>
-    <mergeCell ref="C830:F830"/>
-    <mergeCell ref="C832:C835"/>
-    <mergeCell ref="C868:F868"/>
-    <mergeCell ref="C870:C873"/>
-    <mergeCell ref="C877:F877"/>
-    <mergeCell ref="C878:F878"/>
-    <mergeCell ref="C879:F879"/>
-    <mergeCell ref="C851:C854"/>
-    <mergeCell ref="C858:F858"/>
-    <mergeCell ref="C859:F859"/>
-    <mergeCell ref="C860:F860"/>
-    <mergeCell ref="C864:F864"/>
-    <mergeCell ref="C897:F897"/>
-    <mergeCell ref="C901:F901"/>
-    <mergeCell ref="C905:F905"/>
-    <mergeCell ref="C907:C910"/>
-    <mergeCell ref="C915:F915"/>
-    <mergeCell ref="C883:F883"/>
-    <mergeCell ref="C886:F886"/>
-    <mergeCell ref="C888:C891"/>
-    <mergeCell ref="C895:F895"/>
-    <mergeCell ref="C896:F896"/>
-    <mergeCell ref="C948:C951"/>
-    <mergeCell ref="C935:F935"/>
-    <mergeCell ref="C936:F936"/>
-    <mergeCell ref="C937:F937"/>
-    <mergeCell ref="C941:F941"/>
-    <mergeCell ref="C946:F946"/>
-    <mergeCell ref="C916:F916"/>
-    <mergeCell ref="C917:F917"/>
-    <mergeCell ref="C921:F921"/>
-    <mergeCell ref="C926:F926"/>
-    <mergeCell ref="C928:C931"/>
+    <mergeCell ref="C231:F231"/>
+    <mergeCell ref="C211:F211"/>
+    <mergeCell ref="C212:F212"/>
+    <mergeCell ref="C191:F191"/>
+    <mergeCell ref="C192:F192"/>
+    <mergeCell ref="C193:F193"/>
+    <mergeCell ref="C197:F197"/>
+    <mergeCell ref="C201:F201"/>
+    <mergeCell ref="C203:C206"/>
+    <mergeCell ref="C210:F210"/>
+    <mergeCell ref="C216:F216"/>
+    <mergeCell ref="C221:F221"/>
+    <mergeCell ref="C223:C226"/>
+    <mergeCell ref="C230:F230"/>
+    <mergeCell ref="C184:C187"/>
+    <mergeCell ref="C147:F147"/>
+    <mergeCell ref="C148:F148"/>
+    <mergeCell ref="C149:F149"/>
+    <mergeCell ref="C153:F153"/>
+    <mergeCell ref="C162:F162"/>
+    <mergeCell ref="C164:C167"/>
+    <mergeCell ref="C171:F171"/>
+    <mergeCell ref="C172:F172"/>
+    <mergeCell ref="C173:F173"/>
+    <mergeCell ref="C177:F177"/>
+    <mergeCell ref="C182:F182"/>
+    <mergeCell ref="C140:C143"/>
+    <mergeCell ref="C110:F110"/>
+    <mergeCell ref="C111:F111"/>
+    <mergeCell ref="C112:F112"/>
+    <mergeCell ref="C116:F116"/>
+    <mergeCell ref="C119:F119"/>
+    <mergeCell ref="C121:C124"/>
+    <mergeCell ref="C128:F128"/>
+    <mergeCell ref="C129:F129"/>
+    <mergeCell ref="C130:F130"/>
+    <mergeCell ref="C134:F134"/>
+    <mergeCell ref="C138:F138"/>
+    <mergeCell ref="C103:C106"/>
+    <mergeCell ref="C75:F75"/>
+    <mergeCell ref="C76:F76"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="C80:F80"/>
+    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="C85:C88"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="C94:F94"/>
+    <mergeCell ref="C98:F98"/>
+    <mergeCell ref="C101:F101"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C32:F32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/APIDocs/API명세서.xlsx
+++ b/docs/APIDocs/API명세서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\GameProject\docs\APIDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C241ED03-BE0C-46D9-8451-1BB5C2865464}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37A2A06-3C38-4E4F-B0DE-2C785F45D594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{4E8C34D6-CE1A-427D-9403-2013A6AFC92D}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <sheet name="상태와 오류코드" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2673" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2682" uniqueCount="604">
   <si>
     <t>URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2643,17 +2644,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{
-      "userNickNm": "컴투스12",
-      "levelCode": "1",
-      "userExperience": 10,
-      "moneyGold": 200,
-      "moneyPearl": 20,
-      "fatigue": 90
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>캐릭터 생성 (인벤토리 기본 아이템, 낚시배 설정)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2666,6 +2656,51 @@
       "userCode": (int),
       "limit" : 10,
       "offset" : 0
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+      "userCode": (int),
+      "InventoryCode": (int),
+      "upgradeCode: (int),
+      "upgradeLevel: (int),
+      "itemDurability: (int),
+      "itemCount": (int)
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+      "deleteType": (int)
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보 계정 정보 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/auth/info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "userCode" : 14,
+    "userNickNm": "컴투스14",
+    "levelCode": 1,
+    "userExperience": 10,
+    "moneyGold": 200,
+    "moneyPearl": 20,
+    "fatigue": 90
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "accountPw": "12345",
+    "countryCode": 1,
+    "languageCode": 1
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3771,9 +3806,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3899,6 +3931,9 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="43" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -5163,10 +5198,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071D4A7B-DD4D-499C-AF7D-3FC54784CE79}">
-  <dimension ref="B1:K56"/>
+  <dimension ref="B1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E19" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="E21" sqref="A21:XFD21"/>
+    <sheetView tabSelected="1" topLeftCell="E28" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5227,7 +5262,7 @@
       <c r="C3" s="54" t="s">
         <v>414</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="61" t="s">
         <v>166</v>
       </c>
       <c r="E3" s="53" t="s">
@@ -5259,7 +5294,7 @@
       <c r="C4" s="54" t="s">
         <v>414</v>
       </c>
-      <c r="D4" s="63"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="53" t="s">
         <v>4</v>
       </c>
@@ -5282,371 +5317,371 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="2:11" ht="66">
-      <c r="B5" s="15">
+    <row r="5" spans="2:11" s="57" customFormat="1" ht="66">
+      <c r="B5" s="53"/>
+      <c r="C5" s="54" t="s">
+        <v>414</v>
+      </c>
+      <c r="D5" s="62"/>
+      <c r="E5" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="55" t="s">
+        <v>601</v>
+      </c>
+      <c r="G5" s="56" t="s">
+        <v>591</v>
+      </c>
+      <c r="H5" s="56"/>
+      <c r="I5" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="J5" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="K5" s="55" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" s="57" customFormat="1" ht="82.5">
+      <c r="B6" s="53">
         <v>3</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C6" s="54" t="s">
         <v>414</v>
       </c>
-      <c r="D5" s="63"/>
-      <c r="E5" s="15" t="s">
+      <c r="D6" s="62"/>
+      <c r="E6" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F6" s="55" t="s">
         <v>416</v>
       </c>
-      <c r="G5" s="60" t="s">
-        <v>591</v>
-      </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="16" t="s">
+      <c r="G6" s="102" t="s">
         <v>215</v>
       </c>
-      <c r="J5" s="16" t="s">
+      <c r="H6" s="56" t="s">
+        <v>603</v>
+      </c>
+      <c r="I6" s="53" t="s">
         <v>215</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="J6" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="K6" s="55" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="2:11" ht="49.5">
-      <c r="B6" s="15">
+    <row r="7" spans="2:11" ht="49.5">
+      <c r="B7" s="15">
         <v>4</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C7" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D6" s="63"/>
-      <c r="E6" s="15" t="s">
+      <c r="D7" s="62"/>
+      <c r="E7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F7" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G7" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H7" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="I6" s="16" t="s">
+      <c r="I7" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="J6" s="16" t="s">
+      <c r="J7" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="K6" s="19" t="s">
+      <c r="K7" s="19" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="7" spans="2:11" s="18" customFormat="1" ht="49.5">
-      <c r="B7" s="58">
+    <row r="8" spans="2:11" s="18" customFormat="1" ht="49.5">
+      <c r="B8" s="58">
         <v>5</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C8" s="59" t="s">
         <v>414</v>
       </c>
-      <c r="D7" s="63"/>
-      <c r="E7" s="58" t="s">
+      <c r="D8" s="62"/>
+      <c r="E8" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F8" s="19" t="s">
         <v>418</v>
       </c>
-      <c r="G7" s="58" t="s">
+      <c r="G8" s="58" t="s">
         <v>215</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H8" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="I7" s="58" t="s">
+      <c r="I8" s="58" t="s">
         <v>215</v>
       </c>
-      <c r="J7" s="58" t="s">
+      <c r="J8" s="58" t="s">
         <v>215</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K8" s="19" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="66">
-      <c r="B8" s="15"/>
-      <c r="C8" s="28" t="s">
-        <v>414</v>
-      </c>
-      <c r="D8" s="64"/>
-      <c r="E8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="G8" s="60" t="s">
-        <v>591</v>
-      </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="J8" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="K8" s="19" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" s="57" customFormat="1" ht="82.5">
-      <c r="B9" s="53">
-        <v>6</v>
-      </c>
+    <row r="9" spans="2:11" s="57" customFormat="1" ht="66">
+      <c r="B9" s="53"/>
       <c r="C9" s="54" t="s">
         <v>414</v>
       </c>
-      <c r="D9" s="62" t="s">
-        <v>168</v>
-      </c>
+      <c r="D9" s="63"/>
       <c r="E9" s="53" t="s">
         <v>4</v>
       </c>
       <c r="F9" s="55" t="s">
-        <v>577</v>
-      </c>
-      <c r="G9" s="53" t="s">
+        <v>585</v>
+      </c>
+      <c r="G9" s="56" t="s">
+        <v>591</v>
+      </c>
+      <c r="H9" s="56" t="s">
+        <v>599</v>
+      </c>
+      <c r="I9" s="53" t="s">
         <v>215</v>
-      </c>
-      <c r="H9" s="56" t="s">
-        <v>593</v>
-      </c>
-      <c r="I9" s="56" t="s">
-        <v>216</v>
       </c>
       <c r="J9" s="53" t="s">
         <v>215</v>
       </c>
       <c r="K9" s="55" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" s="57" customFormat="1" ht="115.5">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" s="57" customFormat="1" ht="82.5">
       <c r="B10" s="53">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="54" t="s">
         <v>414</v>
       </c>
-      <c r="D10" s="63"/>
+      <c r="D10" s="61" t="s">
+        <v>168</v>
+      </c>
       <c r="E10" s="53" t="s">
         <v>4</v>
       </c>
       <c r="F10" s="55" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G10" s="53" t="s">
         <v>215</v>
       </c>
       <c r="H10" s="56" t="s">
-        <v>581</v>
+        <v>593</v>
       </c>
       <c r="I10" s="56" t="s">
-        <v>316</v>
+        <v>216</v>
       </c>
       <c r="J10" s="53" t="s">
         <v>215</v>
       </c>
       <c r="K10" s="55" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" s="57" customFormat="1" ht="66">
-      <c r="B11" s="53"/>
+        <v>595</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" s="57" customFormat="1" ht="115.5">
+      <c r="B11" s="53">
+        <v>7</v>
+      </c>
       <c r="C11" s="54" t="s">
         <v>414</v>
       </c>
-      <c r="D11" s="63"/>
+      <c r="D11" s="62"/>
       <c r="E11" s="53" t="s">
         <v>4</v>
       </c>
       <c r="F11" s="55" t="s">
-        <v>589</v>
-      </c>
-      <c r="G11" s="56" t="s">
-        <v>592</v>
+        <v>578</v>
+      </c>
+      <c r="G11" s="53" t="s">
+        <v>215</v>
       </c>
       <c r="H11" s="56" t="s">
-        <v>594</v>
-      </c>
-      <c r="I11" s="53" t="s">
-        <v>215</v>
+        <v>581</v>
+      </c>
+      <c r="I11" s="56" t="s">
+        <v>316</v>
       </c>
       <c r="J11" s="53" t="s">
         <v>215</v>
       </c>
       <c r="K11" s="55" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" s="57" customFormat="1" ht="115.5">
-      <c r="B12" s="53">
-        <v>8</v>
-      </c>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" s="57" customFormat="1" ht="66">
+      <c r="B12" s="53"/>
       <c r="C12" s="54" t="s">
         <v>414</v>
       </c>
-      <c r="D12" s="63"/>
+      <c r="D12" s="62"/>
       <c r="E12" s="53" t="s">
         <v>4</v>
       </c>
       <c r="F12" s="55" t="s">
-        <v>419</v>
-      </c>
-      <c r="G12" s="53" t="s">
-        <v>215</v>
+        <v>589</v>
+      </c>
+      <c r="G12" s="56" t="s">
+        <v>592</v>
       </c>
       <c r="H12" s="56" t="s">
         <v>594</v>
       </c>
-      <c r="I12" s="56" t="s">
-        <v>315</v>
+      <c r="I12" s="53" t="s">
+        <v>215</v>
       </c>
       <c r="J12" s="53" t="s">
         <v>215</v>
       </c>
       <c r="K12" s="55" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" s="57" customFormat="1" ht="132">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" s="57" customFormat="1" ht="115.5">
       <c r="B13" s="53">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="54" t="s">
         <v>414</v>
       </c>
-      <c r="D13" s="63"/>
+      <c r="D13" s="62"/>
       <c r="E13" s="53" t="s">
         <v>4</v>
       </c>
       <c r="F13" s="55" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G13" s="53" t="s">
         <v>215</v>
       </c>
       <c r="H13" s="56" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I13" s="56" t="s">
-        <v>216</v>
+        <v>315</v>
       </c>
       <c r="J13" s="53" t="s">
         <v>215</v>
       </c>
       <c r="K13" s="55" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" s="57" customFormat="1" ht="148.5">
+      <c r="B14" s="53">
+        <v>9</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>414</v>
+      </c>
+      <c r="D14" s="62"/>
+      <c r="E14" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="55" t="s">
+        <v>420</v>
+      </c>
+      <c r="G14" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="H14" s="56" t="s">
+        <v>602</v>
+      </c>
+      <c r="I14" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="J14" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="K14" s="55" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="14" spans="2:11" s="18" customFormat="1" ht="49.5">
-      <c r="B14" s="58"/>
-      <c r="C14" s="59" t="s">
+    <row r="15" spans="2:11" s="57" customFormat="1" ht="49.5">
+      <c r="B15" s="53"/>
+      <c r="C15" s="54" t="s">
         <v>414</v>
       </c>
-      <c r="D14" s="63"/>
-      <c r="E14" s="58" t="s">
+      <c r="D15" s="62"/>
+      <c r="E15" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="19" t="s">
+      <c r="F15" s="55" t="s">
         <v>587</v>
       </c>
-      <c r="G14" s="58" t="s">
+      <c r="G15" s="53" t="s">
         <v>215</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H15" s="56" t="s">
         <v>289</v>
       </c>
-      <c r="I14" s="58" t="s">
+      <c r="I15" s="53" t="s">
         <v>215</v>
       </c>
-      <c r="J14" s="58" t="s">
+      <c r="J15" s="53" t="s">
         <v>215</v>
       </c>
-      <c r="K14" s="19" t="s">
+      <c r="K15" s="55" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="66">
-      <c r="B15" s="15">
+    <row r="16" spans="2:11" ht="66">
+      <c r="B16" s="15">
         <v>10</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C16" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D15" s="63"/>
-      <c r="E15" s="15" t="s">
+      <c r="D16" s="62"/>
+      <c r="E16" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F16" s="7" t="s">
         <v>421</v>
       </c>
-      <c r="G15" s="16" t="s">
+      <c r="G16" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H16" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="I15" s="17" t="s">
+      <c r="I16" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="J15" s="16" t="s">
+      <c r="J16" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="K15" s="19" t="s">
+      <c r="K16" s="19" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="16" spans="2:11" s="57" customFormat="1" ht="115.5">
-      <c r="B16" s="53">
+    <row r="17" spans="2:11" s="57" customFormat="1" ht="115.5">
+      <c r="B17" s="53">
         <v>11</v>
-      </c>
-      <c r="C16" s="54" t="s">
-        <v>414</v>
-      </c>
-      <c r="D16" s="63"/>
-      <c r="E16" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="55" t="s">
-        <v>422</v>
-      </c>
-      <c r="G16" s="53" t="s">
-        <v>215</v>
-      </c>
-      <c r="H16" s="56" t="s">
-        <v>594</v>
-      </c>
-      <c r="I16" s="56" t="s">
-        <v>317</v>
-      </c>
-      <c r="J16" s="53" t="s">
-        <v>215</v>
-      </c>
-      <c r="K16" s="55" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" s="57" customFormat="1" ht="82.5">
-      <c r="B17" s="53">
-        <v>12</v>
       </c>
       <c r="C17" s="54" t="s">
         <v>414</v>
       </c>
-      <c r="D17" s="63"/>
+      <c r="D17" s="62"/>
       <c r="E17" s="53" t="s">
         <v>4</v>
       </c>
       <c r="F17" s="55" t="s">
-        <v>597</v>
+        <v>422</v>
       </c>
       <c r="G17" s="53" t="s">
         <v>215</v>
@@ -5655,28 +5690,28 @@
         <v>594</v>
       </c>
       <c r="I17" s="56" t="s">
-        <v>216</v>
+        <v>317</v>
       </c>
       <c r="J17" s="53" t="s">
         <v>215</v>
       </c>
       <c r="K17" s="55" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" s="57" customFormat="1" ht="115.5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" s="57" customFormat="1" ht="82.5">
       <c r="B18" s="53">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="54" t="s">
         <v>414</v>
       </c>
-      <c r="D18" s="63"/>
+      <c r="D18" s="62"/>
       <c r="E18" s="53" t="s">
         <v>4</v>
       </c>
       <c r="F18" s="55" t="s">
-        <v>423</v>
+        <v>596</v>
       </c>
       <c r="G18" s="53" t="s">
         <v>215</v>
@@ -5685,298 +5720,298 @@
         <v>594</v>
       </c>
       <c r="I18" s="56" t="s">
-        <v>318</v>
+        <v>216</v>
       </c>
       <c r="J18" s="53" t="s">
         <v>215</v>
       </c>
       <c r="K18" s="55" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" s="57" customFormat="1" ht="115.5">
+      <c r="B19" s="53">
+        <v>13</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>414</v>
+      </c>
+      <c r="D19" s="62"/>
+      <c r="E19" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="55" t="s">
+        <v>423</v>
+      </c>
+      <c r="G19" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="H19" s="56" t="s">
+        <v>594</v>
+      </c>
+      <c r="I19" s="56" t="s">
+        <v>318</v>
+      </c>
+      <c r="J19" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="K19" s="55" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="2:11" ht="115.5">
-      <c r="B19" s="15">
+    <row r="20" spans="2:11" ht="115.5">
+      <c r="B20" s="15">
         <v>14</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C20" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="9" t="s">
+      <c r="D20" s="62"/>
+      <c r="E20" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F20" s="7" t="s">
         <v>424</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="G20" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H20" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="I19" s="13" t="s">
+      <c r="I20" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="J19" s="16" t="s">
+      <c r="J20" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="K19" s="19" t="s">
+      <c r="K20" s="19" t="s">
         <v>192</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" s="57" customFormat="1" ht="115.5">
-      <c r="B20" s="53">
-        <v>15</v>
-      </c>
-      <c r="C20" s="54" t="s">
-        <v>414</v>
-      </c>
-      <c r="D20" s="63"/>
-      <c r="E20" s="53" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="55" t="s">
-        <v>425</v>
-      </c>
-      <c r="G20" s="53" t="s">
-        <v>215</v>
-      </c>
-      <c r="H20" s="56" t="s">
-        <v>598</v>
-      </c>
-      <c r="I20" s="56" t="s">
-        <v>320</v>
-      </c>
-      <c r="J20" s="53" t="s">
-        <v>215</v>
-      </c>
-      <c r="K20" s="55" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="21" spans="2:11" s="57" customFormat="1" ht="115.5">
       <c r="B21" s="53">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="54" t="s">
         <v>414</v>
       </c>
-      <c r="D21" s="63"/>
+      <c r="D21" s="62"/>
       <c r="E21" s="53" t="s">
         <v>4</v>
       </c>
       <c r="F21" s="55" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G21" s="53" t="s">
         <v>215</v>
       </c>
       <c r="H21" s="56" t="s">
-        <v>291</v>
+        <v>597</v>
       </c>
       <c r="I21" s="56" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J21" s="53" t="s">
         <v>215</v>
       </c>
       <c r="K21" s="55" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" s="57" customFormat="1" ht="115.5">
+      <c r="B22" s="53">
+        <v>16</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>414</v>
+      </c>
+      <c r="D22" s="62"/>
+      <c r="E22" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" s="55" t="s">
+        <v>426</v>
+      </c>
+      <c r="G22" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="H22" s="56" t="s">
+        <v>291</v>
+      </c>
+      <c r="I22" s="56" t="s">
+        <v>321</v>
+      </c>
+      <c r="J22" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="K22" s="55" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="82.5">
-      <c r="B22" s="15">
+    <row r="23" spans="2:11" ht="132">
+      <c r="B23" s="15">
         <v>17</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>414</v>
-      </c>
-      <c r="D22" s="63"/>
-      <c r="E22" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="H22" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="J22" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="K22" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" ht="66">
-      <c r="B23" s="15">
-        <v>18</v>
       </c>
       <c r="C23" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D23" s="63"/>
+      <c r="D23" s="62"/>
       <c r="E23" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G23" s="16" t="s">
         <v>215</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>215</v>
+        <v>598</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>216</v>
       </c>
       <c r="J23" s="16" t="s">
         <v>215</v>
       </c>
       <c r="K23" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" ht="115.5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="66">
       <c r="B24" s="15">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D24" s="63"/>
+      <c r="D24" s="62"/>
       <c r="E24" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G24" s="16" t="s">
         <v>215</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>322</v>
+        <v>291</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>215</v>
       </c>
       <c r="J24" s="16" t="s">
         <v>215</v>
       </c>
       <c r="K24" s="19" t="s">
-        <v>193</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="2:11" ht="115.5">
       <c r="B25" s="15">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D25" s="63"/>
+      <c r="D25" s="62"/>
       <c r="E25" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G25" s="16" t="s">
         <v>215</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J25" s="16" t="s">
         <v>215</v>
       </c>
       <c r="K25" s="19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" ht="82.5">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="115.5">
       <c r="B26" s="15">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D26" s="63"/>
+      <c r="D26" s="62"/>
       <c r="E26" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G26" s="16" t="s">
         <v>215</v>
       </c>
       <c r="H26" s="13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>216</v>
+        <v>323</v>
       </c>
       <c r="J26" s="16" t="s">
         <v>215</v>
       </c>
       <c r="K26" s="19" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" ht="66">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="82.5">
       <c r="B27" s="15">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D27" s="63"/>
+      <c r="D27" s="62"/>
       <c r="E27" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G27" s="16" t="s">
         <v>215</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="I27" s="16" t="s">
-        <v>215</v>
+        <v>291</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>216</v>
       </c>
       <c r="J27" s="16" t="s">
         <v>215</v>
       </c>
       <c r="K27" s="19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="66">
       <c r="B28" s="15">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D28" s="63"/>
+      <c r="D28" s="62"/>
       <c r="E28" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G28" s="16" t="s">
         <v>215</v>
@@ -5991,82 +6026,82 @@
         <v>215</v>
       </c>
       <c r="K28" s="19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" ht="115.5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="66">
       <c r="B29" s="15">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D29" s="63"/>
+      <c r="D29" s="62"/>
       <c r="E29" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G29" s="16" t="s">
         <v>215</v>
       </c>
       <c r="H29" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="I29" s="13" t="s">
-        <v>324</v>
+        <v>292</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>215</v>
       </c>
       <c r="J29" s="16" t="s">
         <v>215</v>
       </c>
       <c r="K29" s="19" t="s">
-        <v>195</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="2:11" ht="115.5">
       <c r="B30" s="15">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C30" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D30" s="63"/>
+      <c r="D30" s="62"/>
       <c r="E30" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G30" s="16" t="s">
         <v>215</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J30" s="16" t="s">
         <v>215</v>
       </c>
       <c r="K30" s="19" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" ht="82.5">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="115.5">
       <c r="B31" s="15">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D31" s="64"/>
+      <c r="D31" s="62"/>
       <c r="E31" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G31" s="16" t="s">
         <v>215</v>
@@ -6075,150 +6110,148 @@
         <v>293</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>216</v>
+        <v>325</v>
       </c>
       <c r="J31" s="16" t="s">
         <v>215</v>
       </c>
       <c r="K31" s="19" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" ht="115.5">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="82.5">
       <c r="B32" s="15">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C32" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D32" s="62" t="s">
-        <v>170</v>
-      </c>
+      <c r="D32" s="63"/>
       <c r="E32" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="G32" s="13" t="s">
-        <v>573</v>
-      </c>
-      <c r="H32" s="13"/>
+        <v>436</v>
+      </c>
+      <c r="G32" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>293</v>
+      </c>
       <c r="I32" s="13" t="s">
-        <v>326</v>
+        <v>216</v>
       </c>
       <c r="J32" s="16" t="s">
         <v>215</v>
       </c>
       <c r="K32" s="19" t="s">
-        <v>197</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="2:11" ht="115.5">
       <c r="B33" s="15">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C33" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D33" s="63"/>
+      <c r="D33" s="61" t="s">
+        <v>170</v>
+      </c>
       <c r="E33" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>574</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>294</v>
-      </c>
+        <v>573</v>
+      </c>
+      <c r="H33" s="13"/>
       <c r="I33" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J33" s="16" t="s">
         <v>215</v>
       </c>
       <c r="K33" s="19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="2:11" ht="115.5">
       <c r="B34" s="15">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C34" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D34" s="63"/>
+      <c r="D34" s="62"/>
       <c r="E34" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="G34" s="16" t="s">
-        <v>215</v>
+        <v>438</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>574</v>
       </c>
       <c r="H34" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="J34" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="K34" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="35" spans="2:11" ht="82.5">
+      <c r="K34" s="19" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="35" spans="2:11" ht="115.5">
       <c r="B35" s="15">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C35" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D35" s="64"/>
+      <c r="D35" s="62"/>
       <c r="E35" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G35" s="16" t="s">
         <v>215</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>216</v>
+        <v>318</v>
       </c>
       <c r="J35" s="16" t="s">
         <v>215</v>
       </c>
       <c r="K35" s="8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" ht="66">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" ht="82.5">
       <c r="B36" s="15">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C36" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D36" s="61" t="s">
-        <v>173</v>
-      </c>
+      <c r="D36" s="63"/>
       <c r="E36" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F36" s="8" t="s">
-        <v>441</v>
+      <c r="F36" s="7" t="s">
+        <v>440</v>
       </c>
       <c r="G36" s="16" t="s">
         <v>215</v>
@@ -6226,243 +6259,245 @@
       <c r="H36" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="I36" s="16" t="s">
-        <v>215</v>
+      <c r="I36" s="13" t="s">
+        <v>216</v>
       </c>
       <c r="J36" s="16" t="s">
         <v>215</v>
       </c>
       <c r="K36" s="8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" ht="115.5">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="66">
       <c r="B37" s="15">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C37" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D37" s="61"/>
+      <c r="D37" s="60" t="s">
+        <v>173</v>
+      </c>
       <c r="E37" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F37" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G37" s="16" t="s">
         <v>215</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="I37" s="13" t="s">
-        <v>328</v>
+        <v>296</v>
+      </c>
+      <c r="I37" s="16" t="s">
+        <v>215</v>
       </c>
       <c r="J37" s="16" t="s">
         <v>215</v>
       </c>
       <c r="K37" s="8" t="s">
-        <v>199</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="2:11" ht="115.5">
       <c r="B38" s="15">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C38" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D38" s="61"/>
+      <c r="D38" s="60"/>
       <c r="E38" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F38" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G38" s="16" t="s">
         <v>215</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J38" s="16" t="s">
         <v>215</v>
       </c>
       <c r="K38" s="8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="39" spans="2:11" ht="115.5">
       <c r="B39" s="15">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C39" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D39" s="61" t="s">
-        <v>175</v>
-      </c>
+      <c r="D39" s="60"/>
       <c r="E39" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G39" s="16" t="s">
         <v>215</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J39" s="16" t="s">
         <v>215</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="2:11" ht="115.5">
       <c r="B40" s="15">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C40" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D40" s="61"/>
+      <c r="D40" s="60" t="s">
+        <v>175</v>
+      </c>
       <c r="E40" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F40" s="8" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G40" s="16" t="s">
         <v>215</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="I40" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J40" s="16" t="s">
         <v>215</v>
       </c>
       <c r="K40" s="8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="41" spans="2:11" ht="82.5">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="2:11" ht="115.5">
       <c r="B41" s="15">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C41" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D41" s="61"/>
-      <c r="E41" s="15" t="s">
+      <c r="D41" s="60"/>
+      <c r="E41" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>582</v>
+        <v>445</v>
       </c>
       <c r="G41" s="16" t="s">
         <v>215</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>216</v>
+        <v>331</v>
       </c>
       <c r="J41" s="16" t="s">
         <v>215</v>
       </c>
       <c r="K41" s="8" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="42" spans="2:11" ht="115.5">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" ht="82.5">
       <c r="B42" s="15">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C42" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D42" s="61"/>
-      <c r="E42" s="9" t="s">
+      <c r="D42" s="60"/>
+      <c r="E42" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F42" s="8" t="s">
-        <v>446</v>
+        <v>582</v>
       </c>
       <c r="G42" s="16" t="s">
         <v>215</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>316</v>
+        <v>216</v>
       </c>
       <c r="J42" s="16" t="s">
         <v>215</v>
       </c>
       <c r="K42" s="8" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
     </row>
     <row r="43" spans="2:11" ht="115.5">
       <c r="B43" s="15">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C43" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D43" s="61" t="s">
-        <v>177</v>
-      </c>
+      <c r="D43" s="60"/>
       <c r="E43" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G43" s="16" t="s">
         <v>215</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>332</v>
+        <v>316</v>
       </c>
       <c r="J43" s="16" t="s">
         <v>215</v>
       </c>
       <c r="K43" s="8" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" ht="82.5">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" ht="115.5">
       <c r="B44" s="15">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C44" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D44" s="61"/>
+      <c r="D44" s="60" t="s">
+        <v>177</v>
+      </c>
       <c r="E44" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G44" s="16" t="s">
         <v>215</v>
@@ -6471,58 +6506,58 @@
         <v>301</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>216</v>
+        <v>332</v>
       </c>
       <c r="J44" s="16" t="s">
         <v>215</v>
       </c>
       <c r="K44" s="8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="45" spans="2:11" ht="115.5">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" ht="82.5">
       <c r="B45" s="15">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C45" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D45" s="61"/>
+      <c r="D45" s="60"/>
       <c r="E45" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G45" s="16" t="s">
         <v>215</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>333</v>
+        <v>216</v>
       </c>
       <c r="J45" s="16" t="s">
         <v>215</v>
       </c>
       <c r="K45" s="8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="46" spans="2:11" ht="82.5">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" ht="115.5">
       <c r="B46" s="15">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C46" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D46" s="61"/>
+      <c r="D46" s="60"/>
       <c r="E46" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G46" s="16" t="s">
         <v>215</v>
@@ -6531,66 +6566,66 @@
         <v>302</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>216</v>
+        <v>333</v>
       </c>
       <c r="J46" s="16" t="s">
         <v>215</v>
       </c>
       <c r="K46" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" ht="49.5">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" ht="82.5">
       <c r="B47" s="15">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C47" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D47" s="62" t="s">
-        <v>181</v>
-      </c>
-      <c r="E47" s="15" t="s">
+      <c r="D47" s="60"/>
+      <c r="E47" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F47" s="7" t="s">
-        <v>451</v>
+      <c r="F47" s="8" t="s">
+        <v>450</v>
       </c>
       <c r="G47" s="16" t="s">
         <v>215</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="I47" s="16" t="s">
-        <v>215</v>
+        <v>302</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>216</v>
       </c>
       <c r="J47" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="K47" s="19" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="48" spans="2:11" ht="66">
+      <c r="K47" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" ht="49.5">
       <c r="B48" s="15">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C48" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D48" s="64"/>
-      <c r="E48" s="9" t="s">
+      <c r="D48" s="61" t="s">
+        <v>181</v>
+      </c>
+      <c r="E48" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F48" s="8" t="s">
-        <v>452</v>
+      <c r="F48" s="7" t="s">
+        <v>451</v>
       </c>
       <c r="G48" s="16" t="s">
         <v>215</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="I48" s="16" t="s">
         <v>215</v>
@@ -6598,85 +6633,85 @@
       <c r="J48" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="K48" s="8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="49" spans="2:11" ht="115.5">
+      <c r="K48" s="19" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" ht="66">
       <c r="B49" s="15">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C49" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D49" s="61" t="s">
-        <v>183</v>
-      </c>
+      <c r="D49" s="63"/>
       <c r="E49" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G49" s="16" t="s">
         <v>215</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="I49" s="13" t="s">
-        <v>334</v>
+        <v>303</v>
+      </c>
+      <c r="I49" s="16" t="s">
+        <v>215</v>
       </c>
       <c r="J49" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="K49" s="19" t="s">
-        <v>211</v>
+      <c r="K49" s="8" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="50" spans="2:11" ht="115.5">
       <c r="B50" s="15">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C50" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D50" s="61"/>
-      <c r="E50" s="15" t="s">
+      <c r="D50" s="60" t="s">
+        <v>183</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G50" s="16" t="s">
         <v>215</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="I50" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J50" s="16" t="s">
         <v>215</v>
       </c>
       <c r="K50" s="19" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="51" spans="2:11" ht="115.5">
       <c r="B51" s="15">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C51" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D51" s="61"/>
-      <c r="E51" s="9" t="s">
+      <c r="D51" s="60"/>
+      <c r="E51" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>583</v>
+        <v>454</v>
       </c>
       <c r="G51" s="16" t="s">
         <v>215</v>
@@ -6685,152 +6720,182 @@
         <v>304</v>
       </c>
       <c r="I51" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J51" s="16" t="s">
         <v>215</v>
       </c>
       <c r="K51" s="19" t="s">
-        <v>15</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" spans="2:11" ht="115.5">
       <c r="B52" s="15">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C52" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D52" s="61" t="s">
-        <v>184</v>
-      </c>
+      <c r="D52" s="60"/>
       <c r="E52" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>455</v>
-      </c>
-      <c r="G52" s="13" t="s">
-        <v>573</v>
-      </c>
-      <c r="H52" s="13"/>
+        <v>583</v>
+      </c>
+      <c r="G52" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>304</v>
+      </c>
       <c r="I52" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J52" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="K52" s="8" t="s">
-        <v>185</v>
+      <c r="K52" s="19" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="115.5">
       <c r="B53" s="15">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C53" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D53" s="61"/>
+      <c r="D53" s="60" t="s">
+        <v>184</v>
+      </c>
       <c r="E53" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>456</v>
-      </c>
-      <c r="G53" s="17" t="s">
-        <v>215</v>
-      </c>
-      <c r="H53" s="13" t="s">
-        <v>305</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>573</v>
+      </c>
+      <c r="H53" s="13"/>
       <c r="I53" s="13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J53" s="16" t="s">
         <v>215</v>
       </c>
       <c r="K53" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="54" spans="2:11" ht="82.5">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" ht="115.5">
       <c r="B54" s="15">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C54" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D54" s="61"/>
-      <c r="E54" s="15" t="s">
+      <c r="D54" s="60"/>
+      <c r="E54" s="9" t="s">
         <v>4</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="G54" s="13" t="s">
-        <v>574</v>
+        <v>456</v>
+      </c>
+      <c r="G54" s="17" t="s">
+        <v>215</v>
       </c>
       <c r="H54" s="13" t="s">
-        <v>567</v>
+        <v>305</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>216</v>
+        <v>338</v>
       </c>
       <c r="J54" s="16" t="s">
         <v>215</v>
       </c>
       <c r="K54" s="8" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
     </row>
     <row r="55" spans="2:11" ht="82.5">
       <c r="B55" s="15">
-        <v>50</v>
-      </c>
-      <c r="C55" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D55" s="61"/>
-      <c r="E55" s="9" t="s">
+      <c r="D55" s="60"/>
+      <c r="E55" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="G55" s="16" t="s">
-        <v>215</v>
+        <v>457</v>
+      </c>
+      <c r="G55" s="13" t="s">
+        <v>574</v>
       </c>
       <c r="H55" s="13" t="s">
-        <v>572</v>
-      </c>
-      <c r="I55" s="16" t="s">
-        <v>215</v>
+        <v>567</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>216</v>
       </c>
       <c r="J55" s="16" t="s">
         <v>215</v>
       </c>
       <c r="K55" s="8" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" ht="82.5">
+      <c r="B56" s="15">
+        <v>50</v>
+      </c>
+      <c r="C56" s="27" t="s">
+        <v>414</v>
+      </c>
+      <c r="D56" s="60"/>
+      <c r="E56" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="G56" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>572</v>
+      </c>
+      <c r="I56" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="J56" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="K56" s="8" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="2:11">
-      <c r="D56" s="11"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="10"/>
-      <c r="K56" s="20"/>
+    <row r="57" spans="2:11">
+      <c r="D57" s="11"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="10"/>
+      <c r="K57" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="D49:D51"/>
-    <mergeCell ref="D52:D55"/>
-    <mergeCell ref="D3:D8"/>
-    <mergeCell ref="D32:D35"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="D39:D42"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D9:D31"/>
+    <mergeCell ref="D44:D47"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="D53:D56"/>
+    <mergeCell ref="D3:D9"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="D37:D39"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="D10:D32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6871,28 +6936,28 @@
       <c r="B2" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="65" t="s">
         <v>459</v>
       </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="68"/>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66"/>
+      <c r="F2" s="67"/>
     </row>
     <row r="3" spans="1:6" ht="32.450000000000003" customHeight="1" thickBot="1">
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="75" t="s">
         <v>354</v>
       </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="78"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="77"/>
     </row>
     <row r="4" spans="1:6" ht="25.15" customHeight="1" thickBot="1">
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="71"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="70"/>
     </row>
     <row r="5" spans="1:6" ht="18" thickBot="1">
       <c r="C5" s="34" t="s">
@@ -6919,12 +6984,12 @@
       <c r="F6" s="36"/>
     </row>
     <row r="7" spans="1:6" ht="27" thickBot="1">
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="74"/>
+      <c r="D7" s="72"/>
+      <c r="E7" s="72"/>
+      <c r="F7" s="73"/>
     </row>
     <row r="8" spans="1:6" ht="18" thickBot="1">
       <c r="C8" s="38" t="s">
@@ -7019,12 +7084,12 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="27" thickBot="1">
-      <c r="C14" s="75" t="s">
+      <c r="C14" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
     </row>
     <row r="15" spans="1:6" ht="18" thickBot="1">
       <c r="C15" s="38" t="s">
@@ -7041,7 +7106,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C16" s="65">
+      <c r="C16" s="64">
         <v>200</v>
       </c>
       <c r="D16" s="40" t="s">
@@ -7055,7 +7120,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C17" s="65"/>
+      <c r="C17" s="64"/>
       <c r="D17" s="40" t="s">
         <v>371</v>
       </c>
@@ -7067,7 +7132,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C18" s="65"/>
+      <c r="C18" s="64"/>
       <c r="D18" s="40" t="s">
         <v>373</v>
       </c>
@@ -7079,7 +7144,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C19" s="65"/>
+      <c r="C19" s="64"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
       <c r="F19" s="40"/>
@@ -7100,28 +7165,28 @@
       <c r="B23" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="C23" s="66" t="s">
+      <c r="C23" s="65" t="s">
         <v>460</v>
       </c>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="68"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="67"/>
     </row>
     <row r="24" spans="1:6" ht="18" thickBot="1">
-      <c r="C24" s="76" t="s">
+      <c r="C24" s="75" t="s">
         <v>353</v>
       </c>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="78"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="77"/>
     </row>
     <row r="25" spans="1:6" ht="27" thickBot="1">
-      <c r="C25" s="69" t="s">
+      <c r="C25" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="71"/>
+      <c r="D25" s="69"/>
+      <c r="E25" s="69"/>
+      <c r="F25" s="70"/>
     </row>
     <row r="26" spans="1:6" ht="18" thickBot="1">
       <c r="C26" s="34" t="s">
@@ -7148,12 +7213,12 @@
       <c r="F27" s="36"/>
     </row>
     <row r="28" spans="1:6" ht="27" thickBot="1">
-      <c r="C28" s="72" t="s">
+      <c r="C28" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="74"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="72"/>
+      <c r="F28" s="73"/>
     </row>
     <row r="29" spans="1:6" ht="18" thickBot="1">
       <c r="C29" s="38" t="s">
@@ -7198,12 +7263,12 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="27" thickBot="1">
-      <c r="C32" s="75" t="s">
+      <c r="C32" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D32" s="75"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
+      <c r="D32" s="74"/>
+      <c r="E32" s="74"/>
+      <c r="F32" s="74"/>
     </row>
     <row r="33" spans="1:6" ht="18" thickBot="1">
       <c r="C33" s="38" t="s">
@@ -7220,7 +7285,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C34" s="65">
+      <c r="C34" s="64">
         <v>200</v>
       </c>
       <c r="D34" s="40" t="s">
@@ -7234,7 +7299,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C35" s="65"/>
+      <c r="C35" s="64"/>
       <c r="D35" s="40" t="s">
         <v>371</v>
       </c>
@@ -7246,7 +7311,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C36" s="65"/>
+      <c r="C36" s="64"/>
       <c r="D36" s="40" t="s">
         <v>373</v>
       </c>
@@ -7258,7 +7323,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C37" s="65"/>
+      <c r="C37" s="64"/>
       <c r="D37" s="40"/>
       <c r="E37" s="40"/>
       <c r="F37" s="40"/>
@@ -7279,28 +7344,28 @@
       <c r="B41" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="C41" s="66" t="s">
+      <c r="C41" s="65" t="s">
         <v>461</v>
       </c>
-      <c r="D41" s="67"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="68"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="67"/>
     </row>
     <row r="42" spans="1:6" ht="18" thickBot="1">
-      <c r="C42" s="76" t="s">
+      <c r="C42" s="75" t="s">
         <v>375</v>
       </c>
-      <c r="D42" s="77"/>
-      <c r="E42" s="77"/>
-      <c r="F42" s="78"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="77"/>
     </row>
     <row r="43" spans="1:6" ht="27" thickBot="1">
-      <c r="C43" s="69" t="s">
+      <c r="C43" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="71"/>
+      <c r="D43" s="69"/>
+      <c r="E43" s="69"/>
+      <c r="F43" s="70"/>
     </row>
     <row r="44" spans="1:6" ht="18" thickBot="1">
       <c r="C44" s="34" t="s">
@@ -7327,12 +7392,12 @@
       <c r="F45" s="36"/>
     </row>
     <row r="46" spans="1:6" ht="27" thickBot="1">
-      <c r="C46" s="72" t="s">
+      <c r="C46" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D46" s="73"/>
-      <c r="E46" s="73"/>
-      <c r="F46" s="74"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="73"/>
     </row>
     <row r="47" spans="1:6" ht="18" thickBot="1">
       <c r="C47" s="38" t="s">
@@ -7363,12 +7428,12 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="27" thickBot="1">
-      <c r="C49" s="75" t="s">
+      <c r="C49" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D49" s="75"/>
-      <c r="E49" s="75"/>
-      <c r="F49" s="75"/>
+      <c r="D49" s="74"/>
+      <c r="E49" s="74"/>
+      <c r="F49" s="74"/>
     </row>
     <row r="50" spans="1:6" ht="18" thickBot="1">
       <c r="C50" s="38" t="s">
@@ -7385,7 +7450,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C51" s="65">
+      <c r="C51" s="64">
         <v>200</v>
       </c>
       <c r="D51" s="40" t="s">
@@ -7399,7 +7464,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C52" s="65"/>
+      <c r="C52" s="64"/>
       <c r="D52" s="40" t="s">
         <v>371</v>
       </c>
@@ -7411,7 +7476,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C53" s="65"/>
+      <c r="C53" s="64"/>
       <c r="D53" s="40" t="s">
         <v>373</v>
       </c>
@@ -7423,7 +7488,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C54" s="65"/>
+      <c r="C54" s="64"/>
       <c r="D54" s="40"/>
       <c r="E54" s="40"/>
       <c r="F54" s="40"/>
@@ -7444,28 +7509,28 @@
       <c r="B58" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="C58" s="66" t="s">
+      <c r="C58" s="65" t="s">
         <v>462</v>
       </c>
-      <c r="D58" s="67"/>
-      <c r="E58" s="67"/>
-      <c r="F58" s="68"/>
+      <c r="D58" s="66"/>
+      <c r="E58" s="66"/>
+      <c r="F58" s="67"/>
     </row>
     <row r="59" spans="1:6" ht="18" thickBot="1">
-      <c r="C59" s="76" t="s">
+      <c r="C59" s="75" t="s">
         <v>383</v>
       </c>
-      <c r="D59" s="77"/>
-      <c r="E59" s="77"/>
-      <c r="F59" s="78"/>
+      <c r="D59" s="76"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="77"/>
     </row>
     <row r="60" spans="1:6" ht="27" thickBot="1">
-      <c r="C60" s="69" t="s">
+      <c r="C60" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D60" s="70"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="71"/>
+      <c r="D60" s="69"/>
+      <c r="E60" s="69"/>
+      <c r="F60" s="70"/>
     </row>
     <row r="61" spans="1:6" ht="18" thickBot="1">
       <c r="C61" s="34" t="s">
@@ -7492,12 +7557,12 @@
       <c r="F62" s="36"/>
     </row>
     <row r="63" spans="1:6" ht="27" thickBot="1">
-      <c r="C63" s="72" t="s">
+      <c r="C63" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D63" s="73"/>
-      <c r="E63" s="73"/>
-      <c r="F63" s="74"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
+      <c r="F63" s="73"/>
     </row>
     <row r="64" spans="1:6" ht="18" thickBot="1">
       <c r="C64" s="38" t="s">
@@ -7528,12 +7593,12 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="27" thickBot="1">
-      <c r="C66" s="75" t="s">
+      <c r="C66" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D66" s="75"/>
-      <c r="E66" s="75"/>
-      <c r="F66" s="75"/>
+      <c r="D66" s="74"/>
+      <c r="E66" s="74"/>
+      <c r="F66" s="74"/>
     </row>
     <row r="67" spans="1:6" ht="18" thickBot="1">
       <c r="C67" s="38" t="s">
@@ -7550,7 +7615,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C68" s="65">
+      <c r="C68" s="64">
         <v>200</v>
       </c>
       <c r="D68" s="40" t="s">
@@ -7564,7 +7629,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C69" s="65"/>
+      <c r="C69" s="64"/>
       <c r="D69" s="40" t="s">
         <v>371</v>
       </c>
@@ -7576,7 +7641,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C70" s="65"/>
+      <c r="C70" s="64"/>
       <c r="D70" s="40" t="s">
         <v>373</v>
       </c>
@@ -7588,7 +7653,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C71" s="65"/>
+      <c r="C71" s="64"/>
       <c r="D71" s="40"/>
       <c r="E71" s="40"/>
       <c r="F71" s="40"/>
@@ -7609,28 +7674,28 @@
       <c r="B75" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="C75" s="66" t="s">
+      <c r="C75" s="65" t="s">
         <v>463</v>
       </c>
-      <c r="D75" s="67"/>
-      <c r="E75" s="67"/>
-      <c r="F75" s="68"/>
+      <c r="D75" s="66"/>
+      <c r="E75" s="66"/>
+      <c r="F75" s="67"/>
     </row>
     <row r="76" spans="1:6" ht="18" thickBot="1">
-      <c r="C76" s="76" t="s">
+      <c r="C76" s="75" t="s">
         <v>382</v>
       </c>
-      <c r="D76" s="77"/>
-      <c r="E76" s="77"/>
-      <c r="F76" s="78"/>
+      <c r="D76" s="76"/>
+      <c r="E76" s="76"/>
+      <c r="F76" s="77"/>
     </row>
     <row r="77" spans="1:6" ht="27" thickBot="1">
-      <c r="C77" s="69" t="s">
+      <c r="C77" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D77" s="70"/>
-      <c r="E77" s="70"/>
-      <c r="F77" s="71"/>
+      <c r="D77" s="69"/>
+      <c r="E77" s="69"/>
+      <c r="F77" s="70"/>
     </row>
     <row r="78" spans="1:6" ht="18" thickBot="1">
       <c r="C78" s="34" t="s">
@@ -7657,12 +7722,12 @@
       <c r="F79" s="36"/>
     </row>
     <row r="80" spans="1:6" ht="27" thickBot="1">
-      <c r="C80" s="72" t="s">
+      <c r="C80" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D80" s="73"/>
-      <c r="E80" s="73"/>
-      <c r="F80" s="74"/>
+      <c r="D80" s="72"/>
+      <c r="E80" s="72"/>
+      <c r="F80" s="73"/>
     </row>
     <row r="81" spans="1:6" ht="18" thickBot="1">
       <c r="C81" s="38" t="s">
@@ -7693,12 +7758,12 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="27" thickBot="1">
-      <c r="C83" s="75" t="s">
+      <c r="C83" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D83" s="75"/>
-      <c r="E83" s="75"/>
-      <c r="F83" s="75"/>
+      <c r="D83" s="74"/>
+      <c r="E83" s="74"/>
+      <c r="F83" s="74"/>
     </row>
     <row r="84" spans="1:6" ht="18" thickBot="1">
       <c r="C84" s="38" t="s">
@@ -7715,7 +7780,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C85" s="65">
+      <c r="C85" s="64">
         <v>200</v>
       </c>
       <c r="D85" s="40" t="s">
@@ -7729,7 +7794,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C86" s="65"/>
+      <c r="C86" s="64"/>
       <c r="D86" s="40" t="s">
         <v>371</v>
       </c>
@@ -7741,7 +7806,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C87" s="65"/>
+      <c r="C87" s="64"/>
       <c r="D87" s="40" t="s">
         <v>373</v>
       </c>
@@ -7753,7 +7818,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C88" s="65"/>
+      <c r="C88" s="64"/>
       <c r="D88" s="40"/>
       <c r="E88" s="40"/>
       <c r="F88" s="40"/>
@@ -7774,28 +7839,28 @@
       <c r="B92" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C92" s="79" t="s">
+      <c r="C92" s="78" t="s">
         <v>464</v>
       </c>
-      <c r="D92" s="80"/>
-      <c r="E92" s="80"/>
-      <c r="F92" s="81"/>
+      <c r="D92" s="79"/>
+      <c r="E92" s="79"/>
+      <c r="F92" s="80"/>
     </row>
     <row r="93" spans="1:6" ht="18" thickBot="1">
-      <c r="C93" s="76" t="s">
+      <c r="C93" s="75" t="s">
         <v>381</v>
       </c>
-      <c r="D93" s="77"/>
-      <c r="E93" s="77"/>
-      <c r="F93" s="78"/>
+      <c r="D93" s="76"/>
+      <c r="E93" s="76"/>
+      <c r="F93" s="77"/>
     </row>
     <row r="94" spans="1:6" ht="27" thickBot="1">
-      <c r="C94" s="69" t="s">
+      <c r="C94" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D94" s="70"/>
-      <c r="E94" s="70"/>
-      <c r="F94" s="71"/>
+      <c r="D94" s="69"/>
+      <c r="E94" s="69"/>
+      <c r="F94" s="70"/>
     </row>
     <row r="95" spans="1:6" ht="18" thickBot="1">
       <c r="C95" s="34" t="s">
@@ -7838,12 +7903,12 @@
       <c r="F97" s="36"/>
     </row>
     <row r="98" spans="1:6" ht="27" thickBot="1">
-      <c r="C98" s="72" t="s">
+      <c r="C98" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D98" s="73"/>
-      <c r="E98" s="73"/>
-      <c r="F98" s="74"/>
+      <c r="D98" s="72"/>
+      <c r="E98" s="72"/>
+      <c r="F98" s="73"/>
     </row>
     <row r="99" spans="1:6" ht="18" thickBot="1">
       <c r="C99" s="38" t="s">
@@ -7874,12 +7939,12 @@
       </c>
     </row>
     <row r="101" spans="1:6" ht="27" thickBot="1">
-      <c r="C101" s="75" t="s">
+      <c r="C101" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D101" s="75"/>
-      <c r="E101" s="75"/>
-      <c r="F101" s="75"/>
+      <c r="D101" s="74"/>
+      <c r="E101" s="74"/>
+      <c r="F101" s="74"/>
     </row>
     <row r="102" spans="1:6" ht="18" thickBot="1">
       <c r="C102" s="38" t="s">
@@ -7896,7 +7961,7 @@
       </c>
     </row>
     <row r="103" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C103" s="65">
+      <c r="C103" s="64">
         <v>200</v>
       </c>
       <c r="D103" s="40" t="s">
@@ -7910,7 +7975,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C104" s="65"/>
+      <c r="C104" s="64"/>
       <c r="D104" s="40" t="s">
         <v>371</v>
       </c>
@@ -7922,7 +7987,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C105" s="65"/>
+      <c r="C105" s="64"/>
       <c r="D105" s="40" t="s">
         <v>373</v>
       </c>
@@ -7934,7 +7999,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C106" s="65"/>
+      <c r="C106" s="64"/>
       <c r="D106" s="40"/>
       <c r="E106" s="40"/>
       <c r="F106" s="40"/>
@@ -7955,28 +8020,28 @@
       <c r="B110" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C110" s="79" t="s">
+      <c r="C110" s="78" t="s">
         <v>465</v>
       </c>
-      <c r="D110" s="80"/>
-      <c r="E110" s="80"/>
-      <c r="F110" s="81"/>
+      <c r="D110" s="79"/>
+      <c r="E110" s="79"/>
+      <c r="F110" s="80"/>
     </row>
     <row r="111" spans="1:6" ht="18" thickBot="1">
-      <c r="C111" s="76" t="s">
+      <c r="C111" s="75" t="s">
         <v>386</v>
       </c>
-      <c r="D111" s="77"/>
-      <c r="E111" s="77"/>
-      <c r="F111" s="78"/>
+      <c r="D111" s="76"/>
+      <c r="E111" s="76"/>
+      <c r="F111" s="77"/>
     </row>
     <row r="112" spans="1:6" ht="27" thickBot="1">
-      <c r="C112" s="69" t="s">
+      <c r="C112" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D112" s="70"/>
-      <c r="E112" s="70"/>
-      <c r="F112" s="71"/>
+      <c r="D112" s="69"/>
+      <c r="E112" s="69"/>
+      <c r="F112" s="70"/>
     </row>
     <row r="113" spans="1:6" ht="18" thickBot="1">
       <c r="C113" s="34" t="s">
@@ -8017,12 +8082,12 @@
       <c r="F115" s="36"/>
     </row>
     <row r="116" spans="1:6" ht="27" thickBot="1">
-      <c r="C116" s="72" t="s">
+      <c r="C116" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D116" s="73"/>
-      <c r="E116" s="73"/>
-      <c r="F116" s="74"/>
+      <c r="D116" s="72"/>
+      <c r="E116" s="72"/>
+      <c r="F116" s="73"/>
     </row>
     <row r="117" spans="1:6" ht="18" thickBot="1">
       <c r="C117" s="38" t="s">
@@ -8053,12 +8118,12 @@
       </c>
     </row>
     <row r="119" spans="1:6" ht="27" thickBot="1">
-      <c r="C119" s="75" t="s">
+      <c r="C119" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D119" s="75"/>
-      <c r="E119" s="75"/>
-      <c r="F119" s="75"/>
+      <c r="D119" s="74"/>
+      <c r="E119" s="74"/>
+      <c r="F119" s="74"/>
     </row>
     <row r="120" spans="1:6" ht="18" thickBot="1">
       <c r="C120" s="38" t="s">
@@ -8075,7 +8140,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C121" s="65">
+      <c r="C121" s="64">
         <v>200</v>
       </c>
       <c r="D121" s="40" t="s">
@@ -8089,7 +8154,7 @@
       </c>
     </row>
     <row r="122" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C122" s="65"/>
+      <c r="C122" s="64"/>
       <c r="D122" s="40" t="s">
         <v>371</v>
       </c>
@@ -8101,7 +8166,7 @@
       </c>
     </row>
     <row r="123" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C123" s="65"/>
+      <c r="C123" s="64"/>
       <c r="D123" s="40" t="s">
         <v>373</v>
       </c>
@@ -8113,7 +8178,7 @@
       </c>
     </row>
     <row r="124" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C124" s="65"/>
+      <c r="C124" s="64"/>
       <c r="D124" s="40"/>
       <c r="E124" s="40"/>
       <c r="F124" s="40"/>
@@ -8134,28 +8199,28 @@
       <c r="B128" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C128" s="79" t="s">
+      <c r="C128" s="78" t="s">
         <v>466</v>
       </c>
-      <c r="D128" s="80"/>
-      <c r="E128" s="80"/>
-      <c r="F128" s="81"/>
+      <c r="D128" s="79"/>
+      <c r="E128" s="79"/>
+      <c r="F128" s="80"/>
     </row>
     <row r="129" spans="1:6" ht="18" thickBot="1">
-      <c r="C129" s="76" t="s">
+      <c r="C129" s="75" t="s">
         <v>387</v>
       </c>
-      <c r="D129" s="77"/>
-      <c r="E129" s="77"/>
-      <c r="F129" s="78"/>
+      <c r="D129" s="76"/>
+      <c r="E129" s="76"/>
+      <c r="F129" s="77"/>
     </row>
     <row r="130" spans="1:6" ht="27" thickBot="1">
-      <c r="C130" s="69" t="s">
+      <c r="C130" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D130" s="70"/>
-      <c r="E130" s="70"/>
-      <c r="F130" s="71"/>
+      <c r="D130" s="69"/>
+      <c r="E130" s="69"/>
+      <c r="F130" s="70"/>
     </row>
     <row r="131" spans="1:6" ht="18" thickBot="1">
       <c r="C131" s="34" t="s">
@@ -8196,12 +8261,12 @@
       <c r="F133" s="36"/>
     </row>
     <row r="134" spans="1:6" ht="27" thickBot="1">
-      <c r="C134" s="72" t="s">
+      <c r="C134" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D134" s="73"/>
-      <c r="E134" s="73"/>
-      <c r="F134" s="74"/>
+      <c r="D134" s="72"/>
+      <c r="E134" s="72"/>
+      <c r="F134" s="73"/>
     </row>
     <row r="135" spans="1:6" ht="18" thickBot="1">
       <c r="C135" s="38" t="s">
@@ -8248,12 +8313,12 @@
       </c>
     </row>
     <row r="138" spans="1:6" ht="27" thickBot="1">
-      <c r="C138" s="75" t="s">
+      <c r="C138" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D138" s="75"/>
-      <c r="E138" s="75"/>
-      <c r="F138" s="75"/>
+      <c r="D138" s="74"/>
+      <c r="E138" s="74"/>
+      <c r="F138" s="74"/>
     </row>
     <row r="139" spans="1:6" ht="18" thickBot="1">
       <c r="C139" s="38" t="s">
@@ -8270,7 +8335,7 @@
       </c>
     </row>
     <row r="140" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C140" s="65">
+      <c r="C140" s="64">
         <v>200</v>
       </c>
       <c r="D140" s="40" t="s">
@@ -8284,7 +8349,7 @@
       </c>
     </row>
     <row r="141" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C141" s="65"/>
+      <c r="C141" s="64"/>
       <c r="D141" s="40" t="s">
         <v>371</v>
       </c>
@@ -8296,7 +8361,7 @@
       </c>
     </row>
     <row r="142" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C142" s="65"/>
+      <c r="C142" s="64"/>
       <c r="D142" s="40" t="s">
         <v>373</v>
       </c>
@@ -8308,7 +8373,7 @@
       </c>
     </row>
     <row r="143" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C143" s="65"/>
+      <c r="C143" s="64"/>
       <c r="D143" s="40"/>
       <c r="E143" s="40"/>
       <c r="F143" s="40"/>
@@ -8329,28 +8394,28 @@
       <c r="B147" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C147" s="79" t="s">
+      <c r="C147" s="78" t="s">
         <v>467</v>
       </c>
-      <c r="D147" s="80"/>
-      <c r="E147" s="80"/>
-      <c r="F147" s="81"/>
+      <c r="D147" s="79"/>
+      <c r="E147" s="79"/>
+      <c r="F147" s="80"/>
     </row>
     <row r="148" spans="1:6" ht="18" thickBot="1">
-      <c r="C148" s="76" t="s">
+      <c r="C148" s="75" t="s">
         <v>401</v>
       </c>
-      <c r="D148" s="77"/>
-      <c r="E148" s="77"/>
-      <c r="F148" s="78"/>
+      <c r="D148" s="76"/>
+      <c r="E148" s="76"/>
+      <c r="F148" s="77"/>
     </row>
     <row r="149" spans="1:6" ht="27" thickBot="1">
-      <c r="C149" s="69" t="s">
+      <c r="C149" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D149" s="70"/>
-      <c r="E149" s="70"/>
-      <c r="F149" s="71"/>
+      <c r="D149" s="69"/>
+      <c r="E149" s="69"/>
+      <c r="F149" s="70"/>
     </row>
     <row r="150" spans="1:6" ht="18" thickBot="1">
       <c r="C150" s="34" t="s">
@@ -8391,12 +8456,12 @@
       <c r="F152" s="36"/>
     </row>
     <row r="153" spans="1:6" ht="27" thickBot="1">
-      <c r="C153" s="72" t="s">
+      <c r="C153" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D153" s="73"/>
-      <c r="E153" s="73"/>
-      <c r="F153" s="74"/>
+      <c r="D153" s="72"/>
+      <c r="E153" s="72"/>
+      <c r="F153" s="73"/>
     </row>
     <row r="154" spans="1:6" ht="18" thickBot="1">
       <c r="C154" s="38" t="s">
@@ -8513,12 +8578,12 @@
       <c r="F161" s="39"/>
     </row>
     <row r="162" spans="1:6" ht="27" thickBot="1">
-      <c r="C162" s="75" t="s">
+      <c r="C162" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D162" s="75"/>
-      <c r="E162" s="75"/>
-      <c r="F162" s="75"/>
+      <c r="D162" s="74"/>
+      <c r="E162" s="74"/>
+      <c r="F162" s="74"/>
     </row>
     <row r="163" spans="1:6" ht="18" thickBot="1">
       <c r="C163" s="38" t="s">
@@ -8535,7 +8600,7 @@
       </c>
     </row>
     <row r="164" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C164" s="65">
+      <c r="C164" s="64">
         <v>200</v>
       </c>
       <c r="D164" s="40" t="s">
@@ -8549,7 +8614,7 @@
       </c>
     </row>
     <row r="165" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C165" s="65"/>
+      <c r="C165" s="64"/>
       <c r="D165" s="40" t="s">
         <v>371</v>
       </c>
@@ -8561,7 +8626,7 @@
       </c>
     </row>
     <row r="166" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C166" s="65"/>
+      <c r="C166" s="64"/>
       <c r="D166" s="40" t="s">
         <v>373</v>
       </c>
@@ -8573,7 +8638,7 @@
       </c>
     </row>
     <row r="167" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C167" s="65"/>
+      <c r="C167" s="64"/>
       <c r="D167" s="40"/>
       <c r="E167" s="40"/>
       <c r="F167" s="40"/>
@@ -8594,28 +8659,28 @@
       <c r="B171" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C171" s="79" t="s">
+      <c r="C171" s="78" t="s">
         <v>468</v>
       </c>
-      <c r="D171" s="80"/>
-      <c r="E171" s="80"/>
-      <c r="F171" s="81"/>
+      <c r="D171" s="79"/>
+      <c r="E171" s="79"/>
+      <c r="F171" s="80"/>
     </row>
     <row r="172" spans="1:6" ht="18" thickBot="1">
-      <c r="C172" s="76" t="s">
+      <c r="C172" s="75" t="s">
         <v>402</v>
       </c>
-      <c r="D172" s="77"/>
-      <c r="E172" s="77"/>
-      <c r="F172" s="78"/>
+      <c r="D172" s="76"/>
+      <c r="E172" s="76"/>
+      <c r="F172" s="77"/>
     </row>
     <row r="173" spans="1:6" ht="27" thickBot="1">
-      <c r="C173" s="69" t="s">
+      <c r="C173" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D173" s="70"/>
-      <c r="E173" s="70"/>
-      <c r="F173" s="71"/>
+      <c r="D173" s="69"/>
+      <c r="E173" s="69"/>
+      <c r="F173" s="70"/>
     </row>
     <row r="174" spans="1:6" ht="18" thickBot="1">
       <c r="C174" s="34" t="s">
@@ -8656,12 +8721,12 @@
       <c r="F176" s="36"/>
     </row>
     <row r="177" spans="1:6" ht="27" thickBot="1">
-      <c r="C177" s="72" t="s">
+      <c r="C177" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D177" s="73"/>
-      <c r="E177" s="73"/>
-      <c r="F177" s="74"/>
+      <c r="D177" s="72"/>
+      <c r="E177" s="72"/>
+      <c r="F177" s="73"/>
     </row>
     <row r="178" spans="1:6" ht="18" thickBot="1">
       <c r="C178" s="38" t="s">
@@ -8712,12 +8777,12 @@
       <c r="F181" s="39"/>
     </row>
     <row r="182" spans="1:6" ht="27" thickBot="1">
-      <c r="C182" s="75" t="s">
+      <c r="C182" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D182" s="75"/>
-      <c r="E182" s="75"/>
-      <c r="F182" s="75"/>
+      <c r="D182" s="74"/>
+      <c r="E182" s="74"/>
+      <c r="F182" s="74"/>
     </row>
     <row r="183" spans="1:6" ht="18" thickBot="1">
       <c r="C183" s="38" t="s">
@@ -8734,7 +8799,7 @@
       </c>
     </row>
     <row r="184" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C184" s="65">
+      <c r="C184" s="64">
         <v>200</v>
       </c>
       <c r="D184" s="40" t="s">
@@ -8748,7 +8813,7 @@
       </c>
     </row>
     <row r="185" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C185" s="65"/>
+      <c r="C185" s="64"/>
       <c r="D185" s="40" t="s">
         <v>371</v>
       </c>
@@ -8760,7 +8825,7 @@
       </c>
     </row>
     <row r="186" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C186" s="65"/>
+      <c r="C186" s="64"/>
       <c r="D186" s="40" t="s">
         <v>373</v>
       </c>
@@ -8772,7 +8837,7 @@
       </c>
     </row>
     <row r="187" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C187" s="65"/>
+      <c r="C187" s="64"/>
       <c r="D187" s="40"/>
       <c r="E187" s="40"/>
       <c r="F187" s="40"/>
@@ -8793,28 +8858,28 @@
       <c r="B191" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C191" s="79" t="s">
+      <c r="C191" s="78" t="s">
         <v>469</v>
       </c>
-      <c r="D191" s="80"/>
-      <c r="E191" s="80"/>
-      <c r="F191" s="81"/>
+      <c r="D191" s="79"/>
+      <c r="E191" s="79"/>
+      <c r="F191" s="80"/>
     </row>
     <row r="192" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="C192" s="76" t="s">
+      <c r="C192" s="75" t="s">
         <v>407</v>
       </c>
-      <c r="D192" s="77"/>
-      <c r="E192" s="77"/>
-      <c r="F192" s="78"/>
+      <c r="D192" s="76"/>
+      <c r="E192" s="76"/>
+      <c r="F192" s="77"/>
     </row>
     <row r="193" spans="3:6" ht="27" thickBot="1">
-      <c r="C193" s="69" t="s">
+      <c r="C193" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D193" s="70"/>
-      <c r="E193" s="70"/>
-      <c r="F193" s="71"/>
+      <c r="D193" s="69"/>
+      <c r="E193" s="69"/>
+      <c r="F193" s="70"/>
     </row>
     <row r="194" spans="3:6" ht="18" thickBot="1">
       <c r="C194" s="34" t="s">
@@ -8855,12 +8920,12 @@
       <c r="F196" s="36"/>
     </row>
     <row r="197" spans="3:6" ht="27" thickBot="1">
-      <c r="C197" s="72" t="s">
+      <c r="C197" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D197" s="73"/>
-      <c r="E197" s="73"/>
-      <c r="F197" s="74"/>
+      <c r="D197" s="72"/>
+      <c r="E197" s="72"/>
+      <c r="F197" s="73"/>
     </row>
     <row r="198" spans="3:6" ht="18" thickBot="1">
       <c r="C198" s="38" t="s">
@@ -8897,12 +8962,12 @@
       <c r="F200" s="39"/>
     </row>
     <row r="201" spans="3:6" ht="27" thickBot="1">
-      <c r="C201" s="75" t="s">
+      <c r="C201" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D201" s="75"/>
-      <c r="E201" s="75"/>
-      <c r="F201" s="75"/>
+      <c r="D201" s="74"/>
+      <c r="E201" s="74"/>
+      <c r="F201" s="74"/>
     </row>
     <row r="202" spans="3:6" ht="18" thickBot="1">
       <c r="C202" s="38" t="s">
@@ -8919,7 +8984,7 @@
       </c>
     </row>
     <row r="203" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C203" s="65">
+      <c r="C203" s="64">
         <v>200</v>
       </c>
       <c r="D203" s="40" t="s">
@@ -8933,7 +8998,7 @@
       </c>
     </row>
     <row r="204" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C204" s="65"/>
+      <c r="C204" s="64"/>
       <c r="D204" s="40" t="s">
         <v>371</v>
       </c>
@@ -8945,7 +9010,7 @@
       </c>
     </row>
     <row r="205" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C205" s="65"/>
+      <c r="C205" s="64"/>
       <c r="D205" s="40" t="s">
         <v>373</v>
       </c>
@@ -8957,7 +9022,7 @@
       </c>
     </row>
     <row r="206" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C206" s="65"/>
+      <c r="C206" s="64"/>
       <c r="D206" s="40"/>
       <c r="E206" s="40"/>
       <c r="F206" s="40"/>
@@ -8978,28 +9043,28 @@
       <c r="B210" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C210" s="79" t="s">
+      <c r="C210" s="78" t="s">
         <v>470</v>
       </c>
-      <c r="D210" s="80"/>
-      <c r="E210" s="80"/>
-      <c r="F210" s="81"/>
+      <c r="D210" s="79"/>
+      <c r="E210" s="79"/>
+      <c r="F210" s="80"/>
     </row>
     <row r="211" spans="1:6" ht="18" thickBot="1">
-      <c r="C211" s="76" t="s">
+      <c r="C211" s="75" t="s">
         <v>408</v>
       </c>
-      <c r="D211" s="77"/>
-      <c r="E211" s="77"/>
-      <c r="F211" s="78"/>
+      <c r="D211" s="76"/>
+      <c r="E211" s="76"/>
+      <c r="F211" s="77"/>
     </row>
     <row r="212" spans="1:6" ht="27" thickBot="1">
-      <c r="C212" s="69" t="s">
+      <c r="C212" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D212" s="70"/>
-      <c r="E212" s="70"/>
-      <c r="F212" s="71"/>
+      <c r="D212" s="69"/>
+      <c r="E212" s="69"/>
+      <c r="F212" s="70"/>
     </row>
     <row r="213" spans="1:6" ht="18" thickBot="1">
       <c r="C213" s="34" t="s">
@@ -9040,12 +9105,12 @@
       <c r="F215" s="36"/>
     </row>
     <row r="216" spans="1:6" ht="27" thickBot="1">
-      <c r="C216" s="72" t="s">
+      <c r="C216" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D216" s="73"/>
-      <c r="E216" s="73"/>
-      <c r="F216" s="74"/>
+      <c r="D216" s="72"/>
+      <c r="E216" s="72"/>
+      <c r="F216" s="73"/>
     </row>
     <row r="217" spans="1:6" ht="18" thickBot="1">
       <c r="C217" s="38" t="s">
@@ -9096,12 +9161,12 @@
       <c r="F220" s="39"/>
     </row>
     <row r="221" spans="1:6" ht="27" thickBot="1">
-      <c r="C221" s="75" t="s">
+      <c r="C221" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D221" s="75"/>
-      <c r="E221" s="75"/>
-      <c r="F221" s="75"/>
+      <c r="D221" s="74"/>
+      <c r="E221" s="74"/>
+      <c r="F221" s="74"/>
     </row>
     <row r="222" spans="1:6" ht="18" thickBot="1">
       <c r="C222" s="38" t="s">
@@ -9118,7 +9183,7 @@
       </c>
     </row>
     <row r="223" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C223" s="65">
+      <c r="C223" s="64">
         <v>200</v>
       </c>
       <c r="D223" s="40" t="s">
@@ -9132,7 +9197,7 @@
       </c>
     </row>
     <row r="224" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C224" s="65"/>
+      <c r="C224" s="64"/>
       <c r="D224" s="40" t="s">
         <v>371</v>
       </c>
@@ -9144,7 +9209,7 @@
       </c>
     </row>
     <row r="225" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C225" s="65"/>
+      <c r="C225" s="64"/>
       <c r="D225" s="40" t="s">
         <v>373</v>
       </c>
@@ -9156,7 +9221,7 @@
       </c>
     </row>
     <row r="226" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C226" s="65"/>
+      <c r="C226" s="64"/>
       <c r="D226" s="40"/>
       <c r="E226" s="40"/>
       <c r="F226" s="40"/>
@@ -9177,28 +9242,28 @@
       <c r="B230" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C230" s="79" t="s">
+      <c r="C230" s="78" t="s">
         <v>471</v>
       </c>
-      <c r="D230" s="80"/>
-      <c r="E230" s="80"/>
-      <c r="F230" s="81"/>
+      <c r="D230" s="79"/>
+      <c r="E230" s="79"/>
+      <c r="F230" s="80"/>
     </row>
     <row r="231" spans="1:6" ht="18" thickBot="1">
-      <c r="C231" s="76" t="s">
+      <c r="C231" s="75" t="s">
         <v>495</v>
       </c>
-      <c r="D231" s="77"/>
-      <c r="E231" s="77"/>
-      <c r="F231" s="78"/>
+      <c r="D231" s="76"/>
+      <c r="E231" s="76"/>
+      <c r="F231" s="77"/>
     </row>
     <row r="232" spans="1:6" ht="27" thickBot="1">
-      <c r="C232" s="69" t="s">
+      <c r="C232" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D232" s="70"/>
-      <c r="E232" s="70"/>
-      <c r="F232" s="71"/>
+      <c r="D232" s="69"/>
+      <c r="E232" s="69"/>
+      <c r="F232" s="70"/>
     </row>
     <row r="233" spans="1:6" ht="18" thickBot="1">
       <c r="C233" s="34" t="s">
@@ -9239,12 +9304,12 @@
       <c r="F235" s="36"/>
     </row>
     <row r="236" spans="1:6" ht="27" thickBot="1">
-      <c r="C236" s="72" t="s">
+      <c r="C236" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D236" s="73"/>
-      <c r="E236" s="73"/>
-      <c r="F236" s="74"/>
+      <c r="D236" s="72"/>
+      <c r="E236" s="72"/>
+      <c r="F236" s="73"/>
     </row>
     <row r="237" spans="1:6" ht="18" thickBot="1">
       <c r="C237" s="38" t="s">
@@ -9281,12 +9346,12 @@
       <c r="F239" s="39"/>
     </row>
     <row r="240" spans="1:6" ht="27" thickBot="1">
-      <c r="C240" s="75" t="s">
+      <c r="C240" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D240" s="75"/>
-      <c r="E240" s="75"/>
-      <c r="F240" s="75"/>
+      <c r="D240" s="74"/>
+      <c r="E240" s="74"/>
+      <c r="F240" s="74"/>
     </row>
     <row r="241" spans="1:6" ht="18" thickBot="1">
       <c r="C241" s="38" t="s">
@@ -9303,7 +9368,7 @@
       </c>
     </row>
     <row r="242" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C242" s="65">
+      <c r="C242" s="64">
         <v>200</v>
       </c>
       <c r="D242" s="40" t="s">
@@ -9317,7 +9382,7 @@
       </c>
     </row>
     <row r="243" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C243" s="65"/>
+      <c r="C243" s="64"/>
       <c r="D243" s="40" t="s">
         <v>371</v>
       </c>
@@ -9329,7 +9394,7 @@
       </c>
     </row>
     <row r="244" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C244" s="65"/>
+      <c r="C244" s="64"/>
       <c r="D244" s="40" t="s">
         <v>373</v>
       </c>
@@ -9341,7 +9406,7 @@
       </c>
     </row>
     <row r="245" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C245" s="65"/>
+      <c r="C245" s="64"/>
       <c r="D245" s="40"/>
       <c r="E245" s="40"/>
       <c r="F245" s="40"/>
@@ -9362,28 +9427,28 @@
       <c r="B249" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C249" s="79" t="s">
+      <c r="C249" s="78" t="s">
         <v>472</v>
       </c>
-      <c r="D249" s="80"/>
-      <c r="E249" s="80"/>
-      <c r="F249" s="81"/>
+      <c r="D249" s="79"/>
+      <c r="E249" s="79"/>
+      <c r="F249" s="80"/>
     </row>
     <row r="250" spans="1:6" ht="18" thickBot="1">
-      <c r="C250" s="76" t="s">
+      <c r="C250" s="75" t="s">
         <v>494</v>
       </c>
-      <c r="D250" s="77"/>
-      <c r="E250" s="77"/>
-      <c r="F250" s="78"/>
+      <c r="D250" s="76"/>
+      <c r="E250" s="76"/>
+      <c r="F250" s="77"/>
     </row>
     <row r="251" spans="1:6" ht="27" thickBot="1">
-      <c r="C251" s="69" t="s">
+      <c r="C251" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D251" s="70"/>
-      <c r="E251" s="70"/>
-      <c r="F251" s="71"/>
+      <c r="D251" s="69"/>
+      <c r="E251" s="69"/>
+      <c r="F251" s="70"/>
     </row>
     <row r="252" spans="1:6" ht="18" thickBot="1">
       <c r="C252" s="34" t="s">
@@ -9424,12 +9489,12 @@
       <c r="F254" s="36"/>
     </row>
     <row r="255" spans="1:6" ht="27" thickBot="1">
-      <c r="C255" s="72" t="s">
+      <c r="C255" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D255" s="73"/>
-      <c r="E255" s="73"/>
-      <c r="F255" s="74"/>
+      <c r="D255" s="72"/>
+      <c r="E255" s="72"/>
+      <c r="F255" s="73"/>
     </row>
     <row r="256" spans="1:6" ht="18" thickBot="1">
       <c r="C256" s="38" t="s">
@@ -9480,12 +9545,12 @@
       <c r="F259" s="39"/>
     </row>
     <row r="260" spans="1:6" ht="27" thickBot="1">
-      <c r="C260" s="75" t="s">
+      <c r="C260" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D260" s="75"/>
-      <c r="E260" s="75"/>
-      <c r="F260" s="75"/>
+      <c r="D260" s="74"/>
+      <c r="E260" s="74"/>
+      <c r="F260" s="74"/>
     </row>
     <row r="261" spans="1:6" ht="18" thickBot="1">
       <c r="C261" s="38" t="s">
@@ -9502,7 +9567,7 @@
       </c>
     </row>
     <row r="262" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C262" s="65">
+      <c r="C262" s="64">
         <v>200</v>
       </c>
       <c r="D262" s="40" t="s">
@@ -9516,7 +9581,7 @@
       </c>
     </row>
     <row r="263" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C263" s="65"/>
+      <c r="C263" s="64"/>
       <c r="D263" s="40" t="s">
         <v>371</v>
       </c>
@@ -9528,7 +9593,7 @@
       </c>
     </row>
     <row r="264" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C264" s="65"/>
+      <c r="C264" s="64"/>
       <c r="D264" s="40" t="s">
         <v>373</v>
       </c>
@@ -9540,7 +9605,7 @@
       </c>
     </row>
     <row r="265" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C265" s="65"/>
+      <c r="C265" s="64"/>
       <c r="D265" s="40"/>
       <c r="E265" s="40"/>
       <c r="F265" s="40"/>
@@ -9561,28 +9626,28 @@
       <c r="B269" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C269" s="79" t="s">
+      <c r="C269" s="78" t="s">
         <v>473</v>
       </c>
-      <c r="D269" s="80"/>
-      <c r="E269" s="80"/>
-      <c r="F269" s="81"/>
+      <c r="D269" s="79"/>
+      <c r="E269" s="79"/>
+      <c r="F269" s="80"/>
     </row>
     <row r="270" spans="1:6" ht="18" thickBot="1">
-      <c r="C270" s="76" t="s">
+      <c r="C270" s="75" t="s">
         <v>493</v>
       </c>
-      <c r="D270" s="77"/>
-      <c r="E270" s="77"/>
-      <c r="F270" s="78"/>
+      <c r="D270" s="76"/>
+      <c r="E270" s="76"/>
+      <c r="F270" s="77"/>
     </row>
     <row r="271" spans="1:6" ht="27" thickBot="1">
-      <c r="C271" s="69" t="s">
+      <c r="C271" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D271" s="70"/>
-      <c r="E271" s="70"/>
-      <c r="F271" s="71"/>
+      <c r="D271" s="69"/>
+      <c r="E271" s="69"/>
+      <c r="F271" s="70"/>
     </row>
     <row r="272" spans="1:6" ht="18" thickBot="1">
       <c r="C272" s="34" t="s">
@@ -9623,12 +9688,12 @@
       <c r="F274" s="36"/>
     </row>
     <row r="275" spans="1:6" ht="27" thickBot="1">
-      <c r="C275" s="72" t="s">
+      <c r="C275" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D275" s="73"/>
-      <c r="E275" s="73"/>
-      <c r="F275" s="74"/>
+      <c r="D275" s="72"/>
+      <c r="E275" s="72"/>
+      <c r="F275" s="73"/>
     </row>
     <row r="276" spans="1:6" ht="18" thickBot="1">
       <c r="C276" s="38" t="s">
@@ -9665,12 +9730,12 @@
       <c r="F278" s="39"/>
     </row>
     <row r="279" spans="1:6" ht="27" thickBot="1">
-      <c r="C279" s="75" t="s">
+      <c r="C279" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D279" s="75"/>
-      <c r="E279" s="75"/>
-      <c r="F279" s="75"/>
+      <c r="D279" s="74"/>
+      <c r="E279" s="74"/>
+      <c r="F279" s="74"/>
     </row>
     <row r="280" spans="1:6" ht="18" thickBot="1">
       <c r="C280" s="38" t="s">
@@ -9687,7 +9752,7 @@
       </c>
     </row>
     <row r="281" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C281" s="65">
+      <c r="C281" s="64">
         <v>200</v>
       </c>
       <c r="D281" s="40" t="s">
@@ -9701,7 +9766,7 @@
       </c>
     </row>
     <row r="282" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C282" s="65"/>
+      <c r="C282" s="64"/>
       <c r="D282" s="40" t="s">
         <v>371</v>
       </c>
@@ -9713,7 +9778,7 @@
       </c>
     </row>
     <row r="283" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C283" s="65"/>
+      <c r="C283" s="64"/>
       <c r="D283" s="40" t="s">
         <v>373</v>
       </c>
@@ -9725,7 +9790,7 @@
       </c>
     </row>
     <row r="284" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C284" s="65"/>
+      <c r="C284" s="64"/>
       <c r="D284" s="40"/>
       <c r="E284" s="40"/>
       <c r="F284" s="40"/>
@@ -9746,28 +9811,28 @@
       <c r="B288" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C288" s="79" t="s">
+      <c r="C288" s="78" t="s">
         <v>474</v>
       </c>
-      <c r="D288" s="80"/>
-      <c r="E288" s="80"/>
-      <c r="F288" s="81"/>
+      <c r="D288" s="79"/>
+      <c r="E288" s="79"/>
+      <c r="F288" s="80"/>
     </row>
     <row r="289" spans="3:6" ht="18" thickBot="1">
-      <c r="C289" s="76" t="s">
+      <c r="C289" s="75" t="s">
         <v>492</v>
       </c>
-      <c r="D289" s="77"/>
-      <c r="E289" s="77"/>
-      <c r="F289" s="78"/>
+      <c r="D289" s="76"/>
+      <c r="E289" s="76"/>
+      <c r="F289" s="77"/>
     </row>
     <row r="290" spans="3:6" ht="27" thickBot="1">
-      <c r="C290" s="69" t="s">
+      <c r="C290" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D290" s="70"/>
-      <c r="E290" s="70"/>
-      <c r="F290" s="71"/>
+      <c r="D290" s="69"/>
+      <c r="E290" s="69"/>
+      <c r="F290" s="70"/>
     </row>
     <row r="291" spans="3:6" ht="18" thickBot="1">
       <c r="C291" s="34" t="s">
@@ -9808,12 +9873,12 @@
       <c r="F293" s="36"/>
     </row>
     <row r="294" spans="3:6" ht="27" thickBot="1">
-      <c r="C294" s="72" t="s">
+      <c r="C294" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D294" s="73"/>
-      <c r="E294" s="73"/>
-      <c r="F294" s="74"/>
+      <c r="D294" s="72"/>
+      <c r="E294" s="72"/>
+      <c r="F294" s="73"/>
     </row>
     <row r="295" spans="3:6" ht="18" thickBot="1">
       <c r="C295" s="38" t="s">
@@ -9856,12 +9921,12 @@
       <c r="F297" s="39"/>
     </row>
     <row r="298" spans="3:6" ht="27" thickBot="1">
-      <c r="C298" s="75" t="s">
+      <c r="C298" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D298" s="75"/>
-      <c r="E298" s="75"/>
-      <c r="F298" s="75"/>
+      <c r="D298" s="74"/>
+      <c r="E298" s="74"/>
+      <c r="F298" s="74"/>
     </row>
     <row r="299" spans="3:6" ht="18" thickBot="1">
       <c r="C299" s="38" t="s">
@@ -9878,7 +9943,7 @@
       </c>
     </row>
     <row r="300" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C300" s="65">
+      <c r="C300" s="64">
         <v>200</v>
       </c>
       <c r="D300" s="40" t="s">
@@ -9892,7 +9957,7 @@
       </c>
     </row>
     <row r="301" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C301" s="65"/>
+      <c r="C301" s="64"/>
       <c r="D301" s="40" t="s">
         <v>371</v>
       </c>
@@ -9904,7 +9969,7 @@
       </c>
     </row>
     <row r="302" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C302" s="65"/>
+      <c r="C302" s="64"/>
       <c r="D302" s="40" t="s">
         <v>373</v>
       </c>
@@ -9916,7 +9981,7 @@
       </c>
     </row>
     <row r="303" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C303" s="65"/>
+      <c r="C303" s="64"/>
       <c r="D303" s="40"/>
       <c r="E303" s="40"/>
       <c r="F303" s="40"/>
@@ -9937,28 +10002,28 @@
       <c r="B307" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C307" s="79" t="s">
+      <c r="C307" s="78" t="s">
         <v>475</v>
       </c>
-      <c r="D307" s="80"/>
-      <c r="E307" s="80"/>
-      <c r="F307" s="81"/>
+      <c r="D307" s="79"/>
+      <c r="E307" s="79"/>
+      <c r="F307" s="80"/>
     </row>
     <row r="308" spans="1:6" ht="18" thickBot="1">
-      <c r="C308" s="76" t="s">
+      <c r="C308" s="75" t="s">
         <v>491</v>
       </c>
-      <c r="D308" s="77"/>
-      <c r="E308" s="77"/>
-      <c r="F308" s="78"/>
+      <c r="D308" s="76"/>
+      <c r="E308" s="76"/>
+      <c r="F308" s="77"/>
     </row>
     <row r="309" spans="1:6" ht="27" thickBot="1">
-      <c r="C309" s="69" t="s">
+      <c r="C309" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D309" s="70"/>
-      <c r="E309" s="70"/>
-      <c r="F309" s="71"/>
+      <c r="D309" s="69"/>
+      <c r="E309" s="69"/>
+      <c r="F309" s="70"/>
     </row>
     <row r="310" spans="1:6" ht="18" thickBot="1">
       <c r="C310" s="34" t="s">
@@ -9999,12 +10064,12 @@
       <c r="F312" s="36"/>
     </row>
     <row r="313" spans="1:6" ht="27" thickBot="1">
-      <c r="C313" s="72" t="s">
+      <c r="C313" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D313" s="73"/>
-      <c r="E313" s="73"/>
-      <c r="F313" s="74"/>
+      <c r="D313" s="72"/>
+      <c r="E313" s="72"/>
+      <c r="F313" s="73"/>
     </row>
     <row r="314" spans="1:6" ht="18" thickBot="1">
       <c r="C314" s="38" t="s">
@@ -10047,12 +10112,12 @@
       <c r="F316" s="39"/>
     </row>
     <row r="317" spans="1:6" ht="27" thickBot="1">
-      <c r="C317" s="75" t="s">
+      <c r="C317" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D317" s="75"/>
-      <c r="E317" s="75"/>
-      <c r="F317" s="75"/>
+      <c r="D317" s="74"/>
+      <c r="E317" s="74"/>
+      <c r="F317" s="74"/>
     </row>
     <row r="318" spans="1:6" ht="18" thickBot="1">
       <c r="C318" s="38" t="s">
@@ -10069,7 +10134,7 @@
       </c>
     </row>
     <row r="319" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C319" s="65">
+      <c r="C319" s="64">
         <v>200</v>
       </c>
       <c r="D319" s="40" t="s">
@@ -10083,7 +10148,7 @@
       </c>
     </row>
     <row r="320" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C320" s="65"/>
+      <c r="C320" s="64"/>
       <c r="D320" s="40" t="s">
         <v>371</v>
       </c>
@@ -10095,7 +10160,7 @@
       </c>
     </row>
     <row r="321" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C321" s="65"/>
+      <c r="C321" s="64"/>
       <c r="D321" s="40" t="s">
         <v>373</v>
       </c>
@@ -10107,7 +10172,7 @@
       </c>
     </row>
     <row r="322" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C322" s="65"/>
+      <c r="C322" s="64"/>
       <c r="D322" s="40"/>
       <c r="E322" s="40"/>
       <c r="F322" s="40"/>
@@ -10128,28 +10193,28 @@
       <c r="B326" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C326" s="79" t="s">
+      <c r="C326" s="78" t="s">
         <v>476</v>
       </c>
-      <c r="D326" s="80"/>
-      <c r="E326" s="80"/>
-      <c r="F326" s="81"/>
+      <c r="D326" s="79"/>
+      <c r="E326" s="79"/>
+      <c r="F326" s="80"/>
     </row>
     <row r="327" spans="1:6" ht="18" thickBot="1">
-      <c r="C327" s="76" t="s">
+      <c r="C327" s="75" t="s">
         <v>490</v>
       </c>
-      <c r="D327" s="77"/>
-      <c r="E327" s="77"/>
-      <c r="F327" s="78"/>
+      <c r="D327" s="76"/>
+      <c r="E327" s="76"/>
+      <c r="F327" s="77"/>
     </row>
     <row r="328" spans="1:6" ht="27" thickBot="1">
-      <c r="C328" s="69" t="s">
+      <c r="C328" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D328" s="70"/>
-      <c r="E328" s="70"/>
-      <c r="F328" s="71"/>
+      <c r="D328" s="69"/>
+      <c r="E328" s="69"/>
+      <c r="F328" s="70"/>
     </row>
     <row r="329" spans="1:6" ht="18" thickBot="1">
       <c r="C329" s="34" t="s">
@@ -10190,12 +10255,12 @@
       <c r="F331" s="36"/>
     </row>
     <row r="332" spans="1:6" ht="27" thickBot="1">
-      <c r="C332" s="72" t="s">
+      <c r="C332" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D332" s="73"/>
-      <c r="E332" s="73"/>
-      <c r="F332" s="74"/>
+      <c r="D332" s="72"/>
+      <c r="E332" s="72"/>
+      <c r="F332" s="73"/>
     </row>
     <row r="333" spans="1:6" ht="18" thickBot="1">
       <c r="C333" s="38" t="s">
@@ -10238,12 +10303,12 @@
       <c r="F335" s="39"/>
     </row>
     <row r="336" spans="1:6" ht="27" thickBot="1">
-      <c r="C336" s="75" t="s">
+      <c r="C336" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D336" s="75"/>
-      <c r="E336" s="75"/>
-      <c r="F336" s="75"/>
+      <c r="D336" s="74"/>
+      <c r="E336" s="74"/>
+      <c r="F336" s="74"/>
     </row>
     <row r="337" spans="1:6" ht="18" thickBot="1">
       <c r="C337" s="38" t="s">
@@ -10260,7 +10325,7 @@
       </c>
     </row>
     <row r="338" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C338" s="65">
+      <c r="C338" s="64">
         <v>200</v>
       </c>
       <c r="D338" s="40" t="s">
@@ -10274,7 +10339,7 @@
       </c>
     </row>
     <row r="339" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C339" s="65"/>
+      <c r="C339" s="64"/>
       <c r="D339" s="40" t="s">
         <v>371</v>
       </c>
@@ -10286,7 +10351,7 @@
       </c>
     </row>
     <row r="340" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C340" s="65"/>
+      <c r="C340" s="64"/>
       <c r="D340" s="40" t="s">
         <v>373</v>
       </c>
@@ -10298,7 +10363,7 @@
       </c>
     </row>
     <row r="341" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C341" s="65"/>
+      <c r="C341" s="64"/>
       <c r="D341" s="40"/>
       <c r="E341" s="40"/>
       <c r="F341" s="40"/>
@@ -10319,28 +10384,28 @@
       <c r="B345" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C345" s="79" t="s">
+      <c r="C345" s="78" t="s">
         <v>478</v>
       </c>
-      <c r="D345" s="80"/>
-      <c r="E345" s="80"/>
-      <c r="F345" s="81"/>
+      <c r="D345" s="79"/>
+      <c r="E345" s="79"/>
+      <c r="F345" s="80"/>
     </row>
     <row r="346" spans="1:6" ht="18" thickBot="1">
-      <c r="C346" s="76" t="s">
+      <c r="C346" s="75" t="s">
         <v>484</v>
       </c>
-      <c r="D346" s="77"/>
-      <c r="E346" s="77"/>
-      <c r="F346" s="78"/>
+      <c r="D346" s="76"/>
+      <c r="E346" s="76"/>
+      <c r="F346" s="77"/>
     </row>
     <row r="347" spans="1:6" ht="27" thickBot="1">
-      <c r="C347" s="69" t="s">
+      <c r="C347" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D347" s="70"/>
-      <c r="E347" s="70"/>
-      <c r="F347" s="71"/>
+      <c r="D347" s="69"/>
+      <c r="E347" s="69"/>
+      <c r="F347" s="70"/>
     </row>
     <row r="348" spans="1:6" ht="18" thickBot="1">
       <c r="C348" s="34" t="s">
@@ -10381,12 +10446,12 @@
       <c r="F350" s="36"/>
     </row>
     <row r="351" spans="1:6" ht="27" thickBot="1">
-      <c r="C351" s="72" t="s">
+      <c r="C351" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D351" s="73"/>
-      <c r="E351" s="73"/>
-      <c r="F351" s="74"/>
+      <c r="D351" s="72"/>
+      <c r="E351" s="72"/>
+      <c r="F351" s="73"/>
     </row>
     <row r="352" spans="1:6" ht="18" thickBot="1">
       <c r="C352" s="38" t="s">
@@ -10423,12 +10488,12 @@
       <c r="F354" s="39"/>
     </row>
     <row r="355" spans="1:6" ht="27" thickBot="1">
-      <c r="C355" s="75" t="s">
+      <c r="C355" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D355" s="75"/>
-      <c r="E355" s="75"/>
-      <c r="F355" s="75"/>
+      <c r="D355" s="74"/>
+      <c r="E355" s="74"/>
+      <c r="F355" s="74"/>
     </row>
     <row r="356" spans="1:6" ht="18" thickBot="1">
       <c r="C356" s="38" t="s">
@@ -10445,7 +10510,7 @@
       </c>
     </row>
     <row r="357" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C357" s="65">
+      <c r="C357" s="64">
         <v>200</v>
       </c>
       <c r="D357" s="40" t="s">
@@ -10459,7 +10524,7 @@
       </c>
     </row>
     <row r="358" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C358" s="65"/>
+      <c r="C358" s="64"/>
       <c r="D358" s="40" t="s">
         <v>371</v>
       </c>
@@ -10471,7 +10536,7 @@
       </c>
     </row>
     <row r="359" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C359" s="65"/>
+      <c r="C359" s="64"/>
       <c r="D359" s="40" t="s">
         <v>373</v>
       </c>
@@ -10483,7 +10548,7 @@
       </c>
     </row>
     <row r="360" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C360" s="65"/>
+      <c r="C360" s="64"/>
       <c r="D360" s="40"/>
       <c r="E360" s="40"/>
       <c r="F360" s="40"/>
@@ -10504,28 +10569,28 @@
       <c r="B364" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C364" s="79" t="s">
+      <c r="C364" s="78" t="s">
         <v>477</v>
       </c>
-      <c r="D364" s="80"/>
-      <c r="E364" s="80"/>
-      <c r="F364" s="81"/>
+      <c r="D364" s="79"/>
+      <c r="E364" s="79"/>
+      <c r="F364" s="80"/>
     </row>
     <row r="365" spans="1:6" ht="18" thickBot="1">
-      <c r="C365" s="76" t="s">
+      <c r="C365" s="75" t="s">
         <v>483</v>
       </c>
-      <c r="D365" s="77"/>
-      <c r="E365" s="77"/>
-      <c r="F365" s="78"/>
+      <c r="D365" s="76"/>
+      <c r="E365" s="76"/>
+      <c r="F365" s="77"/>
     </row>
     <row r="366" spans="1:6" ht="27" thickBot="1">
-      <c r="C366" s="69" t="s">
+      <c r="C366" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D366" s="70"/>
-      <c r="E366" s="70"/>
-      <c r="F366" s="71"/>
+      <c r="D366" s="69"/>
+      <c r="E366" s="69"/>
+      <c r="F366" s="70"/>
     </row>
     <row r="367" spans="1:6" ht="18" thickBot="1">
       <c r="C367" s="34" t="s">
@@ -10566,12 +10631,12 @@
       <c r="F369" s="36"/>
     </row>
     <row r="370" spans="1:6" ht="27" thickBot="1">
-      <c r="C370" s="72" t="s">
+      <c r="C370" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D370" s="73"/>
-      <c r="E370" s="73"/>
-      <c r="F370" s="74"/>
+      <c r="D370" s="72"/>
+      <c r="E370" s="72"/>
+      <c r="F370" s="73"/>
     </row>
     <row r="371" spans="1:6" ht="18" thickBot="1">
       <c r="C371" s="38" t="s">
@@ -10616,12 +10681,12 @@
       </c>
     </row>
     <row r="374" spans="1:6" ht="27" thickBot="1">
-      <c r="C374" s="75" t="s">
+      <c r="C374" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D374" s="75"/>
-      <c r="E374" s="75"/>
-      <c r="F374" s="75"/>
+      <c r="D374" s="74"/>
+      <c r="E374" s="74"/>
+      <c r="F374" s="74"/>
     </row>
     <row r="375" spans="1:6" ht="18" thickBot="1">
       <c r="C375" s="38" t="s">
@@ -10638,7 +10703,7 @@
       </c>
     </row>
     <row r="376" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C376" s="65">
+      <c r="C376" s="64">
         <v>200</v>
       </c>
       <c r="D376" s="40" t="s">
@@ -10652,7 +10717,7 @@
       </c>
     </row>
     <row r="377" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C377" s="65"/>
+      <c r="C377" s="64"/>
       <c r="D377" s="40" t="s">
         <v>371</v>
       </c>
@@ -10664,7 +10729,7 @@
       </c>
     </row>
     <row r="378" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C378" s="65"/>
+      <c r="C378" s="64"/>
       <c r="D378" s="40" t="s">
         <v>373</v>
       </c>
@@ -10676,7 +10741,7 @@
       </c>
     </row>
     <row r="379" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C379" s="65"/>
+      <c r="C379" s="64"/>
       <c r="D379" s="40"/>
       <c r="E379" s="40"/>
       <c r="F379" s="40"/>
@@ -10697,28 +10762,28 @@
       <c r="B383" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C383" s="79" t="s">
+      <c r="C383" s="78" t="s">
         <v>481</v>
       </c>
-      <c r="D383" s="80"/>
-      <c r="E383" s="80"/>
-      <c r="F383" s="81"/>
+      <c r="D383" s="79"/>
+      <c r="E383" s="79"/>
+      <c r="F383" s="80"/>
     </row>
     <row r="384" spans="1:6" ht="18" thickBot="1">
-      <c r="C384" s="76" t="s">
+      <c r="C384" s="75" t="s">
         <v>482</v>
       </c>
-      <c r="D384" s="77"/>
-      <c r="E384" s="77"/>
-      <c r="F384" s="78"/>
+      <c r="D384" s="76"/>
+      <c r="E384" s="76"/>
+      <c r="F384" s="77"/>
     </row>
     <row r="385" spans="3:6" ht="27" thickBot="1">
-      <c r="C385" s="69" t="s">
+      <c r="C385" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D385" s="70"/>
-      <c r="E385" s="70"/>
-      <c r="F385" s="71"/>
+      <c r="D385" s="69"/>
+      <c r="E385" s="69"/>
+      <c r="F385" s="70"/>
     </row>
     <row r="386" spans="3:6" ht="18" thickBot="1">
       <c r="C386" s="34" t="s">
@@ -10759,12 +10824,12 @@
       <c r="F388" s="36"/>
     </row>
     <row r="389" spans="3:6" ht="27" thickBot="1">
-      <c r="C389" s="72" t="s">
+      <c r="C389" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D389" s="73"/>
-      <c r="E389" s="73"/>
-      <c r="F389" s="74"/>
+      <c r="D389" s="72"/>
+      <c r="E389" s="72"/>
+      <c r="F389" s="73"/>
     </row>
     <row r="390" spans="3:6" ht="18" thickBot="1">
       <c r="C390" s="38" t="s">
@@ -10809,12 +10874,12 @@
       </c>
     </row>
     <row r="393" spans="3:6" ht="27" thickBot="1">
-      <c r="C393" s="75" t="s">
+      <c r="C393" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D393" s="75"/>
-      <c r="E393" s="75"/>
-      <c r="F393" s="75"/>
+      <c r="D393" s="74"/>
+      <c r="E393" s="74"/>
+      <c r="F393" s="74"/>
     </row>
     <row r="394" spans="3:6" ht="18" thickBot="1">
       <c r="C394" s="38" t="s">
@@ -10831,7 +10896,7 @@
       </c>
     </row>
     <row r="395" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C395" s="65">
+      <c r="C395" s="64">
         <v>200</v>
       </c>
       <c r="D395" s="40" t="s">
@@ -10845,7 +10910,7 @@
       </c>
     </row>
     <row r="396" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C396" s="65"/>
+      <c r="C396" s="64"/>
       <c r="D396" s="40" t="s">
         <v>371</v>
       </c>
@@ -10857,7 +10922,7 @@
       </c>
     </row>
     <row r="397" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C397" s="65"/>
+      <c r="C397" s="64"/>
       <c r="D397" s="40" t="s">
         <v>373</v>
       </c>
@@ -10869,7 +10934,7 @@
       </c>
     </row>
     <row r="398" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C398" s="65"/>
+      <c r="C398" s="64"/>
       <c r="D398" s="40"/>
       <c r="E398" s="40"/>
       <c r="F398" s="40"/>
@@ -10890,28 +10955,28 @@
       <c r="B402" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C402" s="79" t="s">
+      <c r="C402" s="78" t="s">
         <v>486</v>
       </c>
-      <c r="D402" s="80"/>
-      <c r="E402" s="80"/>
-      <c r="F402" s="81"/>
+      <c r="D402" s="79"/>
+      <c r="E402" s="79"/>
+      <c r="F402" s="80"/>
     </row>
     <row r="403" spans="1:6" ht="18" thickBot="1">
-      <c r="C403" s="76" t="s">
+      <c r="C403" s="75" t="s">
         <v>487</v>
       </c>
-      <c r="D403" s="77"/>
-      <c r="E403" s="77"/>
-      <c r="F403" s="78"/>
+      <c r="D403" s="76"/>
+      <c r="E403" s="76"/>
+      <c r="F403" s="77"/>
     </row>
     <row r="404" spans="1:6" ht="27" thickBot="1">
-      <c r="C404" s="69" t="s">
+      <c r="C404" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D404" s="70"/>
-      <c r="E404" s="70"/>
-      <c r="F404" s="71"/>
+      <c r="D404" s="69"/>
+      <c r="E404" s="69"/>
+      <c r="F404" s="70"/>
     </row>
     <row r="405" spans="1:6" ht="18" thickBot="1">
       <c r="C405" s="34" t="s">
@@ -10952,12 +11017,12 @@
       <c r="F407" s="36"/>
     </row>
     <row r="408" spans="1:6" ht="27" thickBot="1">
-      <c r="C408" s="72" t="s">
+      <c r="C408" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D408" s="73"/>
-      <c r="E408" s="73"/>
-      <c r="F408" s="74"/>
+      <c r="D408" s="72"/>
+      <c r="E408" s="72"/>
+      <c r="F408" s="73"/>
     </row>
     <row r="409" spans="1:6" ht="18" thickBot="1">
       <c r="C409" s="38" t="s">
@@ -11002,12 +11067,12 @@
       </c>
     </row>
     <row r="412" spans="1:6" ht="27" thickBot="1">
-      <c r="C412" s="75" t="s">
+      <c r="C412" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D412" s="75"/>
-      <c r="E412" s="75"/>
-      <c r="F412" s="75"/>
+      <c r="D412" s="74"/>
+      <c r="E412" s="74"/>
+      <c r="F412" s="74"/>
     </row>
     <row r="413" spans="1:6" ht="18" thickBot="1">
       <c r="C413" s="38" t="s">
@@ -11024,7 +11089,7 @@
       </c>
     </row>
     <row r="414" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C414" s="65">
+      <c r="C414" s="64">
         <v>200</v>
       </c>
       <c r="D414" s="40" t="s">
@@ -11038,7 +11103,7 @@
       </c>
     </row>
     <row r="415" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C415" s="65"/>
+      <c r="C415" s="64"/>
       <c r="D415" s="40" t="s">
         <v>371</v>
       </c>
@@ -11050,7 +11115,7 @@
       </c>
     </row>
     <row r="416" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C416" s="65"/>
+      <c r="C416" s="64"/>
       <c r="D416" s="40" t="s">
         <v>373</v>
       </c>
@@ -11062,7 +11127,7 @@
       </c>
     </row>
     <row r="417" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C417" s="65"/>
+      <c r="C417" s="64"/>
       <c r="D417" s="40"/>
       <c r="E417" s="40"/>
       <c r="F417" s="40"/>
@@ -11083,28 +11148,28 @@
       <c r="B421" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C421" s="79" t="s">
+      <c r="C421" s="78" t="s">
         <v>488</v>
       </c>
-      <c r="D421" s="80"/>
-      <c r="E421" s="80"/>
-      <c r="F421" s="81"/>
+      <c r="D421" s="79"/>
+      <c r="E421" s="79"/>
+      <c r="F421" s="80"/>
     </row>
     <row r="422" spans="1:6" ht="18" thickBot="1">
-      <c r="C422" s="76" t="s">
+      <c r="C422" s="75" t="s">
         <v>489</v>
       </c>
-      <c r="D422" s="77"/>
-      <c r="E422" s="77"/>
-      <c r="F422" s="78"/>
+      <c r="D422" s="76"/>
+      <c r="E422" s="76"/>
+      <c r="F422" s="77"/>
     </row>
     <row r="423" spans="1:6" ht="27" thickBot="1">
-      <c r="C423" s="69" t="s">
+      <c r="C423" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D423" s="70"/>
-      <c r="E423" s="70"/>
-      <c r="F423" s="71"/>
+      <c r="D423" s="69"/>
+      <c r="E423" s="69"/>
+      <c r="F423" s="70"/>
     </row>
     <row r="424" spans="1:6" ht="18" thickBot="1">
       <c r="C424" s="34" t="s">
@@ -11145,12 +11210,12 @@
       <c r="F426" s="36"/>
     </row>
     <row r="427" spans="1:6" ht="27" thickBot="1">
-      <c r="C427" s="72" t="s">
+      <c r="C427" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D427" s="73"/>
-      <c r="E427" s="73"/>
-      <c r="F427" s="74"/>
+      <c r="D427" s="72"/>
+      <c r="E427" s="72"/>
+      <c r="F427" s="73"/>
     </row>
     <row r="428" spans="1:6" ht="18" thickBot="1">
       <c r="C428" s="38" t="s">
@@ -11195,12 +11260,12 @@
       </c>
     </row>
     <row r="431" spans="1:6" ht="27" thickBot="1">
-      <c r="C431" s="75" t="s">
+      <c r="C431" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D431" s="75"/>
-      <c r="E431" s="75"/>
-      <c r="F431" s="75"/>
+      <c r="D431" s="74"/>
+      <c r="E431" s="74"/>
+      <c r="F431" s="74"/>
     </row>
     <row r="432" spans="1:6" ht="18" thickBot="1">
       <c r="C432" s="38" t="s">
@@ -11217,7 +11282,7 @@
       </c>
     </row>
     <row r="433" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C433" s="65">
+      <c r="C433" s="64">
         <v>200</v>
       </c>
       <c r="D433" s="40" t="s">
@@ -11231,7 +11296,7 @@
       </c>
     </row>
     <row r="434" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C434" s="65"/>
+      <c r="C434" s="64"/>
       <c r="D434" s="40" t="s">
         <v>371</v>
       </c>
@@ -11243,7 +11308,7 @@
       </c>
     </row>
     <row r="435" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C435" s="65"/>
+      <c r="C435" s="64"/>
       <c r="D435" s="40" t="s">
         <v>373</v>
       </c>
@@ -11255,7 +11320,7 @@
       </c>
     </row>
     <row r="436" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C436" s="65"/>
+      <c r="C436" s="64"/>
       <c r="D436" s="40"/>
       <c r="E436" s="40"/>
       <c r="F436" s="40"/>
@@ -11276,28 +11341,28 @@
       <c r="B440" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C440" s="79" t="s">
+      <c r="C440" s="78" t="s">
         <v>501</v>
       </c>
-      <c r="D440" s="80"/>
-      <c r="E440" s="80"/>
-      <c r="F440" s="81"/>
+      <c r="D440" s="79"/>
+      <c r="E440" s="79"/>
+      <c r="F440" s="80"/>
     </row>
     <row r="441" spans="1:6" ht="18" thickBot="1">
-      <c r="C441" s="76" t="s">
+      <c r="C441" s="75" t="s">
         <v>497</v>
       </c>
-      <c r="D441" s="77"/>
-      <c r="E441" s="77"/>
-      <c r="F441" s="78"/>
+      <c r="D441" s="76"/>
+      <c r="E441" s="76"/>
+      <c r="F441" s="77"/>
     </row>
     <row r="442" spans="1:6" ht="27" thickBot="1">
-      <c r="C442" s="69" t="s">
+      <c r="C442" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D442" s="70"/>
-      <c r="E442" s="70"/>
-      <c r="F442" s="71"/>
+      <c r="D442" s="69"/>
+      <c r="E442" s="69"/>
+      <c r="F442" s="70"/>
     </row>
     <row r="443" spans="1:6" ht="18" thickBot="1">
       <c r="C443" s="34" t="s">
@@ -11338,12 +11403,12 @@
       <c r="F445" s="36"/>
     </row>
     <row r="446" spans="1:6" ht="27" thickBot="1">
-      <c r="C446" s="72" t="s">
+      <c r="C446" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D446" s="73"/>
-      <c r="E446" s="73"/>
-      <c r="F446" s="74"/>
+      <c r="D446" s="72"/>
+      <c r="E446" s="72"/>
+      <c r="F446" s="73"/>
     </row>
     <row r="447" spans="1:6" ht="18" thickBot="1">
       <c r="C447" s="38" t="s">
@@ -11380,12 +11445,12 @@
       <c r="F449" s="39"/>
     </row>
     <row r="450" spans="1:6" ht="27" thickBot="1">
-      <c r="C450" s="75" t="s">
+      <c r="C450" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D450" s="75"/>
-      <c r="E450" s="75"/>
-      <c r="F450" s="75"/>
+      <c r="D450" s="74"/>
+      <c r="E450" s="74"/>
+      <c r="F450" s="74"/>
     </row>
     <row r="451" spans="1:6" ht="18" thickBot="1">
       <c r="C451" s="38" t="s">
@@ -11402,7 +11467,7 @@
       </c>
     </row>
     <row r="452" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C452" s="65">
+      <c r="C452" s="64">
         <v>200</v>
       </c>
       <c r="D452" s="40" t="s">
@@ -11416,7 +11481,7 @@
       </c>
     </row>
     <row r="453" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C453" s="65"/>
+      <c r="C453" s="64"/>
       <c r="D453" s="40" t="s">
         <v>371</v>
       </c>
@@ -11428,7 +11493,7 @@
       </c>
     </row>
     <row r="454" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C454" s="65"/>
+      <c r="C454" s="64"/>
       <c r="D454" s="40" t="s">
         <v>373</v>
       </c>
@@ -11440,7 +11505,7 @@
       </c>
     </row>
     <row r="455" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C455" s="65"/>
+      <c r="C455" s="64"/>
       <c r="D455" s="40"/>
       <c r="E455" s="40"/>
       <c r="F455" s="40"/>
@@ -11461,28 +11526,28 @@
       <c r="B459" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C459" s="79" t="s">
+      <c r="C459" s="78" t="s">
         <v>496</v>
       </c>
-      <c r="D459" s="80"/>
-      <c r="E459" s="80"/>
-      <c r="F459" s="81"/>
+      <c r="D459" s="79"/>
+      <c r="E459" s="79"/>
+      <c r="F459" s="80"/>
     </row>
     <row r="460" spans="1:6" ht="18" thickBot="1">
-      <c r="C460" s="76" t="s">
+      <c r="C460" s="75" t="s">
         <v>498</v>
       </c>
-      <c r="D460" s="77"/>
-      <c r="E460" s="77"/>
-      <c r="F460" s="78"/>
+      <c r="D460" s="76"/>
+      <c r="E460" s="76"/>
+      <c r="F460" s="77"/>
     </row>
     <row r="461" spans="1:6" ht="27" thickBot="1">
-      <c r="C461" s="69" t="s">
+      <c r="C461" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D461" s="70"/>
-      <c r="E461" s="70"/>
-      <c r="F461" s="71"/>
+      <c r="D461" s="69"/>
+      <c r="E461" s="69"/>
+      <c r="F461" s="70"/>
     </row>
     <row r="462" spans="1:6" ht="18" thickBot="1">
       <c r="C462" s="34" t="s">
@@ -11523,12 +11588,12 @@
       <c r="F464" s="36"/>
     </row>
     <row r="465" spans="1:6" ht="27" thickBot="1">
-      <c r="C465" s="72" t="s">
+      <c r="C465" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D465" s="73"/>
-      <c r="E465" s="73"/>
-      <c r="F465" s="74"/>
+      <c r="D465" s="72"/>
+      <c r="E465" s="72"/>
+      <c r="F465" s="73"/>
     </row>
     <row r="466" spans="1:6" ht="18" thickBot="1">
       <c r="C466" s="38" t="s">
@@ -11573,12 +11638,12 @@
       </c>
     </row>
     <row r="469" spans="1:6" ht="27" thickBot="1">
-      <c r="C469" s="75" t="s">
+      <c r="C469" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D469" s="75"/>
-      <c r="E469" s="75"/>
-      <c r="F469" s="75"/>
+      <c r="D469" s="74"/>
+      <c r="E469" s="74"/>
+      <c r="F469" s="74"/>
     </row>
     <row r="470" spans="1:6" ht="18" thickBot="1">
       <c r="C470" s="38" t="s">
@@ -11595,7 +11660,7 @@
       </c>
     </row>
     <row r="471" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C471" s="65">
+      <c r="C471" s="64">
         <v>200</v>
       </c>
       <c r="D471" s="40" t="s">
@@ -11609,7 +11674,7 @@
       </c>
     </row>
     <row r="472" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C472" s="65"/>
+      <c r="C472" s="64"/>
       <c r="D472" s="40" t="s">
         <v>371</v>
       </c>
@@ -11621,7 +11686,7 @@
       </c>
     </row>
     <row r="473" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C473" s="65"/>
+      <c r="C473" s="64"/>
       <c r="D473" s="40" t="s">
         <v>373</v>
       </c>
@@ -11633,7 +11698,7 @@
       </c>
     </row>
     <row r="474" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C474" s="65"/>
+      <c r="C474" s="64"/>
       <c r="D474" s="40"/>
       <c r="E474" s="40"/>
       <c r="F474" s="40"/>
@@ -11654,28 +11719,28 @@
       <c r="B478" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C478" s="79" t="s">
+      <c r="C478" s="78" t="s">
         <v>502</v>
       </c>
-      <c r="D478" s="80"/>
-      <c r="E478" s="80"/>
-      <c r="F478" s="81"/>
+      <c r="D478" s="79"/>
+      <c r="E478" s="79"/>
+      <c r="F478" s="80"/>
     </row>
     <row r="479" spans="1:6" ht="18" thickBot="1">
-      <c r="C479" s="76" t="s">
+      <c r="C479" s="75" t="s">
         <v>503</v>
       </c>
-      <c r="D479" s="77"/>
-      <c r="E479" s="77"/>
-      <c r="F479" s="78"/>
+      <c r="D479" s="76"/>
+      <c r="E479" s="76"/>
+      <c r="F479" s="77"/>
     </row>
     <row r="480" spans="1:6" ht="27" thickBot="1">
-      <c r="C480" s="69" t="s">
+      <c r="C480" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D480" s="70"/>
-      <c r="E480" s="70"/>
-      <c r="F480" s="71"/>
+      <c r="D480" s="69"/>
+      <c r="E480" s="69"/>
+      <c r="F480" s="70"/>
     </row>
     <row r="481" spans="1:6" ht="18" thickBot="1">
       <c r="C481" s="34" t="s">
@@ -11716,12 +11781,12 @@
       <c r="F483" s="36"/>
     </row>
     <row r="484" spans="1:6" ht="27" thickBot="1">
-      <c r="C484" s="72" t="s">
+      <c r="C484" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D484" s="73"/>
-      <c r="E484" s="73"/>
-      <c r="F484" s="74"/>
+      <c r="D484" s="72"/>
+      <c r="E484" s="72"/>
+      <c r="F484" s="73"/>
     </row>
     <row r="485" spans="1:6" ht="18" thickBot="1">
       <c r="C485" s="38" t="s">
@@ -11766,12 +11831,12 @@
       </c>
     </row>
     <row r="488" spans="1:6" ht="27" thickBot="1">
-      <c r="C488" s="75" t="s">
+      <c r="C488" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D488" s="75"/>
-      <c r="E488" s="75"/>
-      <c r="F488" s="75"/>
+      <c r="D488" s="74"/>
+      <c r="E488" s="74"/>
+      <c r="F488" s="74"/>
     </row>
     <row r="489" spans="1:6" ht="18" thickBot="1">
       <c r="C489" s="38" t="s">
@@ -11788,7 +11853,7 @@
       </c>
     </row>
     <row r="490" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C490" s="65">
+      <c r="C490" s="64">
         <v>200</v>
       </c>
       <c r="D490" s="40" t="s">
@@ -11802,7 +11867,7 @@
       </c>
     </row>
     <row r="491" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C491" s="65"/>
+      <c r="C491" s="64"/>
       <c r="D491" s="40" t="s">
         <v>371</v>
       </c>
@@ -11814,7 +11879,7 @@
       </c>
     </row>
     <row r="492" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C492" s="65"/>
+      <c r="C492" s="64"/>
       <c r="D492" s="40" t="s">
         <v>373</v>
       </c>
@@ -11826,7 +11891,7 @@
       </c>
     </row>
     <row r="493" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C493" s="65"/>
+      <c r="C493" s="64"/>
       <c r="D493" s="40"/>
       <c r="E493" s="40"/>
       <c r="F493" s="40"/>
@@ -11854,28 +11919,28 @@
       <c r="B497" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="C497" s="82" t="s">
+      <c r="C497" s="81" t="s">
         <v>504</v>
       </c>
-      <c r="D497" s="83"/>
-      <c r="E497" s="83"/>
-      <c r="F497" s="84"/>
+      <c r="D497" s="82"/>
+      <c r="E497" s="82"/>
+      <c r="F497" s="83"/>
     </row>
     <row r="498" spans="1:6" ht="18" thickBot="1">
-      <c r="C498" s="76" t="s">
+      <c r="C498" s="75" t="s">
         <v>505</v>
       </c>
-      <c r="D498" s="77"/>
-      <c r="E498" s="77"/>
-      <c r="F498" s="78"/>
+      <c r="D498" s="76"/>
+      <c r="E498" s="76"/>
+      <c r="F498" s="77"/>
     </row>
     <row r="499" spans="1:6" ht="27" thickBot="1">
-      <c r="C499" s="69" t="s">
+      <c r="C499" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D499" s="70"/>
-      <c r="E499" s="70"/>
-      <c r="F499" s="71"/>
+      <c r="D499" s="69"/>
+      <c r="E499" s="69"/>
+      <c r="F499" s="70"/>
     </row>
     <row r="500" spans="1:6" ht="18" thickBot="1">
       <c r="C500" s="34" t="s">
@@ -11916,12 +11981,12 @@
       <c r="F502" s="36"/>
     </row>
     <row r="503" spans="1:6" ht="27" thickBot="1">
-      <c r="C503" s="72" t="s">
+      <c r="C503" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D503" s="73"/>
-      <c r="E503" s="73"/>
-      <c r="F503" s="74"/>
+      <c r="D503" s="72"/>
+      <c r="E503" s="72"/>
+      <c r="F503" s="73"/>
     </row>
     <row r="504" spans="1:6" ht="18" thickBot="1">
       <c r="C504" s="38" t="s">
@@ -11944,12 +12009,12 @@
       <c r="F505" s="39"/>
     </row>
     <row r="506" spans="1:6" ht="27" thickBot="1">
-      <c r="C506" s="75" t="s">
+      <c r="C506" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D506" s="75"/>
-      <c r="E506" s="75"/>
-      <c r="F506" s="75"/>
+      <c r="D506" s="74"/>
+      <c r="E506" s="74"/>
+      <c r="F506" s="74"/>
     </row>
     <row r="507" spans="1:6" ht="18" thickBot="1">
       <c r="C507" s="38" t="s">
@@ -11966,7 +12031,7 @@
       </c>
     </row>
     <row r="508" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C508" s="65">
+      <c r="C508" s="64">
         <v>200</v>
       </c>
       <c r="D508" s="40" t="s">
@@ -11980,7 +12045,7 @@
       </c>
     </row>
     <row r="509" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C509" s="65"/>
+      <c r="C509" s="64"/>
       <c r="D509" s="40" t="s">
         <v>371</v>
       </c>
@@ -11992,7 +12057,7 @@
       </c>
     </row>
     <row r="510" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C510" s="65"/>
+      <c r="C510" s="64"/>
       <c r="D510" s="40" t="s">
         <v>373</v>
       </c>
@@ -12004,7 +12069,7 @@
       </c>
     </row>
     <row r="511" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C511" s="65"/>
+      <c r="C511" s="64"/>
       <c r="D511" s="40"/>
       <c r="E511" s="40"/>
       <c r="F511" s="40"/>
@@ -12025,28 +12090,28 @@
       <c r="B515" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="C515" s="82" t="s">
+      <c r="C515" s="81" t="s">
         <v>506</v>
       </c>
-      <c r="D515" s="83"/>
-      <c r="E515" s="83"/>
-      <c r="F515" s="84"/>
+      <c r="D515" s="82"/>
+      <c r="E515" s="82"/>
+      <c r="F515" s="83"/>
     </row>
     <row r="516" spans="1:6" ht="18" thickBot="1">
-      <c r="C516" s="76" t="s">
+      <c r="C516" s="75" t="s">
         <v>507</v>
       </c>
-      <c r="D516" s="77"/>
-      <c r="E516" s="77"/>
-      <c r="F516" s="78"/>
+      <c r="D516" s="76"/>
+      <c r="E516" s="76"/>
+      <c r="F516" s="77"/>
     </row>
     <row r="517" spans="1:6" ht="27" thickBot="1">
-      <c r="C517" s="69" t="s">
+      <c r="C517" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D517" s="70"/>
-      <c r="E517" s="70"/>
-      <c r="F517" s="71"/>
+      <c r="D517" s="69"/>
+      <c r="E517" s="69"/>
+      <c r="F517" s="70"/>
     </row>
     <row r="518" spans="1:6" ht="18" thickBot="1">
       <c r="C518" s="34" t="s">
@@ -12087,12 +12152,12 @@
       <c r="F520" s="36"/>
     </row>
     <row r="521" spans="1:6" ht="27" thickBot="1">
-      <c r="C521" s="72" t="s">
+      <c r="C521" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D521" s="73"/>
-      <c r="E521" s="73"/>
-      <c r="F521" s="74"/>
+      <c r="D521" s="72"/>
+      <c r="E521" s="72"/>
+      <c r="F521" s="73"/>
     </row>
     <row r="522" spans="1:6" ht="18" thickBot="1">
       <c r="C522" s="38" t="s">
@@ -12123,12 +12188,12 @@
       </c>
     </row>
     <row r="524" spans="1:6" ht="27" thickBot="1">
-      <c r="C524" s="75" t="s">
+      <c r="C524" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D524" s="75"/>
-      <c r="E524" s="75"/>
-      <c r="F524" s="75"/>
+      <c r="D524" s="74"/>
+      <c r="E524" s="74"/>
+      <c r="F524" s="74"/>
     </row>
     <row r="525" spans="1:6" ht="18" thickBot="1">
       <c r="C525" s="38" t="s">
@@ -12145,7 +12210,7 @@
       </c>
     </row>
     <row r="526" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C526" s="65">
+      <c r="C526" s="64">
         <v>200</v>
       </c>
       <c r="D526" s="40" t="s">
@@ -12159,7 +12224,7 @@
       </c>
     </row>
     <row r="527" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C527" s="65"/>
+      <c r="C527" s="64"/>
       <c r="D527" s="40" t="s">
         <v>371</v>
       </c>
@@ -12171,7 +12236,7 @@
       </c>
     </row>
     <row r="528" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C528" s="65"/>
+      <c r="C528" s="64"/>
       <c r="D528" s="40" t="s">
         <v>373</v>
       </c>
@@ -12183,7 +12248,7 @@
       </c>
     </row>
     <row r="529" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C529" s="65"/>
+      <c r="C529" s="64"/>
       <c r="D529" s="40"/>
       <c r="E529" s="40"/>
       <c r="F529" s="40"/>
@@ -12204,28 +12269,28 @@
       <c r="B533" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="C533" s="82" t="s">
+      <c r="C533" s="81" t="s">
         <v>510</v>
       </c>
-      <c r="D533" s="83"/>
-      <c r="E533" s="83"/>
-      <c r="F533" s="84"/>
+      <c r="D533" s="82"/>
+      <c r="E533" s="82"/>
+      <c r="F533" s="83"/>
     </row>
     <row r="534" spans="1:6" ht="18" thickBot="1">
-      <c r="C534" s="76" t="s">
+      <c r="C534" s="75" t="s">
         <v>511</v>
       </c>
-      <c r="D534" s="77"/>
-      <c r="E534" s="77"/>
-      <c r="F534" s="78"/>
+      <c r="D534" s="76"/>
+      <c r="E534" s="76"/>
+      <c r="F534" s="77"/>
     </row>
     <row r="535" spans="1:6" ht="27" thickBot="1">
-      <c r="C535" s="69" t="s">
+      <c r="C535" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D535" s="70"/>
-      <c r="E535" s="70"/>
-      <c r="F535" s="71"/>
+      <c r="D535" s="69"/>
+      <c r="E535" s="69"/>
+      <c r="F535" s="70"/>
     </row>
     <row r="536" spans="1:6" ht="18" thickBot="1">
       <c r="C536" s="34" t="s">
@@ -12266,12 +12331,12 @@
       <c r="F538" s="36"/>
     </row>
     <row r="539" spans="1:6" ht="27" thickBot="1">
-      <c r="C539" s="72" t="s">
+      <c r="C539" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D539" s="73"/>
-      <c r="E539" s="73"/>
-      <c r="F539" s="74"/>
+      <c r="D539" s="72"/>
+      <c r="E539" s="72"/>
+      <c r="F539" s="73"/>
     </row>
     <row r="540" spans="1:6" ht="18" thickBot="1">
       <c r="C540" s="38" t="s">
@@ -12318,12 +12383,12 @@
       </c>
     </row>
     <row r="543" spans="1:6" ht="27" thickBot="1">
-      <c r="C543" s="75" t="s">
+      <c r="C543" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D543" s="75"/>
-      <c r="E543" s="75"/>
-      <c r="F543" s="75"/>
+      <c r="D543" s="74"/>
+      <c r="E543" s="74"/>
+      <c r="F543" s="74"/>
     </row>
     <row r="544" spans="1:6" ht="18" thickBot="1">
       <c r="C544" s="38" t="s">
@@ -12340,7 +12405,7 @@
       </c>
     </row>
     <row r="545" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C545" s="65">
+      <c r="C545" s="64">
         <v>200</v>
       </c>
       <c r="D545" s="40" t="s">
@@ -12354,7 +12419,7 @@
       </c>
     </row>
     <row r="546" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C546" s="65"/>
+      <c r="C546" s="64"/>
       <c r="D546" s="40" t="s">
         <v>371</v>
       </c>
@@ -12366,7 +12431,7 @@
       </c>
     </row>
     <row r="547" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C547" s="65"/>
+      <c r="C547" s="64"/>
       <c r="D547" s="40" t="s">
         <v>373</v>
       </c>
@@ -12378,7 +12443,7 @@
       </c>
     </row>
     <row r="548" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C548" s="65"/>
+      <c r="C548" s="64"/>
       <c r="D548" s="40"/>
       <c r="E548" s="40"/>
       <c r="F548" s="40"/>
@@ -12399,28 +12464,28 @@
       <c r="B552" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="C552" s="82" t="s">
+      <c r="C552" s="81" t="s">
         <v>512</v>
       </c>
-      <c r="D552" s="83"/>
-      <c r="E552" s="83"/>
-      <c r="F552" s="84"/>
+      <c r="D552" s="82"/>
+      <c r="E552" s="82"/>
+      <c r="F552" s="83"/>
     </row>
     <row r="553" spans="1:6" ht="18" thickBot="1">
-      <c r="C553" s="76" t="s">
+      <c r="C553" s="75" t="s">
         <v>513</v>
       </c>
-      <c r="D553" s="77"/>
-      <c r="E553" s="77"/>
-      <c r="F553" s="78"/>
+      <c r="D553" s="76"/>
+      <c r="E553" s="76"/>
+      <c r="F553" s="77"/>
     </row>
     <row r="554" spans="1:6" ht="27" thickBot="1">
-      <c r="C554" s="69" t="s">
+      <c r="C554" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D554" s="70"/>
-      <c r="E554" s="70"/>
-      <c r="F554" s="71"/>
+      <c r="D554" s="69"/>
+      <c r="E554" s="69"/>
+      <c r="F554" s="70"/>
     </row>
     <row r="555" spans="1:6" ht="18" thickBot="1">
       <c r="C555" s="34" t="s">
@@ -12461,12 +12526,12 @@
       <c r="F557" s="36"/>
     </row>
     <row r="558" spans="1:6" ht="27" thickBot="1">
-      <c r="C558" s="72" t="s">
+      <c r="C558" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D558" s="73"/>
-      <c r="E558" s="73"/>
-      <c r="F558" s="74"/>
+      <c r="D558" s="72"/>
+      <c r="E558" s="72"/>
+      <c r="F558" s="73"/>
     </row>
     <row r="559" spans="1:6" ht="18" thickBot="1">
       <c r="C559" s="38" t="s">
@@ -12511,12 +12576,12 @@
       </c>
     </row>
     <row r="562" spans="1:6" ht="27" thickBot="1">
-      <c r="C562" s="75" t="s">
+      <c r="C562" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D562" s="75"/>
-      <c r="E562" s="75"/>
-      <c r="F562" s="75"/>
+      <c r="D562" s="74"/>
+      <c r="E562" s="74"/>
+      <c r="F562" s="74"/>
     </row>
     <row r="563" spans="1:6" ht="18" thickBot="1">
       <c r="C563" s="38" t="s">
@@ -12533,7 +12598,7 @@
       </c>
     </row>
     <row r="564" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C564" s="65">
+      <c r="C564" s="64">
         <v>200</v>
       </c>
       <c r="D564" s="40" t="s">
@@ -12547,7 +12612,7 @@
       </c>
     </row>
     <row r="565" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C565" s="65"/>
+      <c r="C565" s="64"/>
       <c r="D565" s="40" t="s">
         <v>371</v>
       </c>
@@ -12559,7 +12624,7 @@
       </c>
     </row>
     <row r="566" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C566" s="65"/>
+      <c r="C566" s="64"/>
       <c r="D566" s="40" t="s">
         <v>373</v>
       </c>
@@ -12571,7 +12636,7 @@
       </c>
     </row>
     <row r="567" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C567" s="65"/>
+      <c r="C567" s="64"/>
       <c r="D567" s="40"/>
       <c r="E567" s="40"/>
       <c r="F567" s="40"/>
@@ -12592,28 +12657,28 @@
       <c r="B571" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="C571" s="85" t="s">
+      <c r="C571" s="84" t="s">
         <v>514</v>
       </c>
-      <c r="D571" s="86"/>
-      <c r="E571" s="86"/>
-      <c r="F571" s="87"/>
+      <c r="D571" s="85"/>
+      <c r="E571" s="85"/>
+      <c r="F571" s="86"/>
     </row>
     <row r="572" spans="1:6" ht="18" thickBot="1">
-      <c r="C572" s="76" t="s">
+      <c r="C572" s="75" t="s">
         <v>174</v>
       </c>
-      <c r="D572" s="77"/>
-      <c r="E572" s="77"/>
-      <c r="F572" s="78"/>
+      <c r="D572" s="76"/>
+      <c r="E572" s="76"/>
+      <c r="F572" s="77"/>
     </row>
     <row r="573" spans="1:6" ht="27" thickBot="1">
-      <c r="C573" s="69" t="s">
+      <c r="C573" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D573" s="70"/>
-      <c r="E573" s="70"/>
-      <c r="F573" s="71"/>
+      <c r="D573" s="69"/>
+      <c r="E573" s="69"/>
+      <c r="F573" s="70"/>
     </row>
     <row r="574" spans="1:6" ht="18" thickBot="1">
       <c r="C574" s="34" t="s">
@@ -12654,12 +12719,12 @@
       <c r="F576" s="36"/>
     </row>
     <row r="577" spans="1:6" ht="27" thickBot="1">
-      <c r="C577" s="72" t="s">
+      <c r="C577" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D577" s="73"/>
-      <c r="E577" s="73"/>
-      <c r="F577" s="74"/>
+      <c r="D577" s="72"/>
+      <c r="E577" s="72"/>
+      <c r="F577" s="73"/>
     </row>
     <row r="578" spans="1:6" ht="18" thickBot="1">
       <c r="C578" s="38" t="s">
@@ -12704,12 +12769,12 @@
       </c>
     </row>
     <row r="581" spans="1:6" ht="27" thickBot="1">
-      <c r="C581" s="75" t="s">
+      <c r="C581" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D581" s="75"/>
-      <c r="E581" s="75"/>
-      <c r="F581" s="75"/>
+      <c r="D581" s="74"/>
+      <c r="E581" s="74"/>
+      <c r="F581" s="74"/>
     </row>
     <row r="582" spans="1:6" ht="18" thickBot="1">
       <c r="C582" s="38" t="s">
@@ -12726,7 +12791,7 @@
       </c>
     </row>
     <row r="583" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C583" s="65">
+      <c r="C583" s="64">
         <v>200</v>
       </c>
       <c r="D583" s="40" t="s">
@@ -12740,7 +12805,7 @@
       </c>
     </row>
     <row r="584" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C584" s="65"/>
+      <c r="C584" s="64"/>
       <c r="D584" s="40" t="s">
         <v>371</v>
       </c>
@@ -12752,7 +12817,7 @@
       </c>
     </row>
     <row r="585" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C585" s="65"/>
+      <c r="C585" s="64"/>
       <c r="D585" s="40" t="s">
         <v>373</v>
       </c>
@@ -12764,7 +12829,7 @@
       </c>
     </row>
     <row r="586" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C586" s="65"/>
+      <c r="C586" s="64"/>
       <c r="D586" s="40"/>
       <c r="E586" s="40"/>
       <c r="F586" s="40"/>
@@ -12785,28 +12850,28 @@
       <c r="B590" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="C590" s="85" t="s">
+      <c r="C590" s="84" t="s">
         <v>515</v>
       </c>
-      <c r="D590" s="86"/>
-      <c r="E590" s="86"/>
-      <c r="F590" s="87"/>
+      <c r="D590" s="85"/>
+      <c r="E590" s="85"/>
+      <c r="F590" s="86"/>
     </row>
     <row r="591" spans="1:6" ht="18" thickBot="1">
-      <c r="C591" s="76" t="s">
+      <c r="C591" s="75" t="s">
         <v>516</v>
       </c>
-      <c r="D591" s="77"/>
-      <c r="E591" s="77"/>
-      <c r="F591" s="78"/>
+      <c r="D591" s="76"/>
+      <c r="E591" s="76"/>
+      <c r="F591" s="77"/>
     </row>
     <row r="592" spans="1:6" ht="27" thickBot="1">
-      <c r="C592" s="69" t="s">
+      <c r="C592" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D592" s="70"/>
-      <c r="E592" s="70"/>
-      <c r="F592" s="71"/>
+      <c r="D592" s="69"/>
+      <c r="E592" s="69"/>
+      <c r="F592" s="70"/>
     </row>
     <row r="593" spans="3:6" ht="18" thickBot="1">
       <c r="C593" s="34" t="s">
@@ -12847,12 +12912,12 @@
       <c r="F595" s="36"/>
     </row>
     <row r="596" spans="3:6" ht="27" thickBot="1">
-      <c r="C596" s="72" t="s">
+      <c r="C596" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D596" s="73"/>
-      <c r="E596" s="73"/>
-      <c r="F596" s="74"/>
+      <c r="D596" s="72"/>
+      <c r="E596" s="72"/>
+      <c r="F596" s="73"/>
     </row>
     <row r="597" spans="3:6" ht="18" thickBot="1">
       <c r="C597" s="38" t="s">
@@ -12889,12 +12954,12 @@
       <c r="F599" s="39"/>
     </row>
     <row r="600" spans="3:6" ht="27" thickBot="1">
-      <c r="C600" s="75" t="s">
+      <c r="C600" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D600" s="75"/>
-      <c r="E600" s="75"/>
-      <c r="F600" s="75"/>
+      <c r="D600" s="74"/>
+      <c r="E600" s="74"/>
+      <c r="F600" s="74"/>
     </row>
     <row r="601" spans="3:6" ht="18" thickBot="1">
       <c r="C601" s="38" t="s">
@@ -12911,7 +12976,7 @@
       </c>
     </row>
     <row r="602" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C602" s="65">
+      <c r="C602" s="64">
         <v>200</v>
       </c>
       <c r="D602" s="40" t="s">
@@ -12925,7 +12990,7 @@
       </c>
     </row>
     <row r="603" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C603" s="65"/>
+      <c r="C603" s="64"/>
       <c r="D603" s="40" t="s">
         <v>371</v>
       </c>
@@ -12937,7 +13002,7 @@
       </c>
     </row>
     <row r="604" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C604" s="65"/>
+      <c r="C604" s="64"/>
       <c r="D604" s="40" t="s">
         <v>373</v>
       </c>
@@ -12949,7 +13014,7 @@
       </c>
     </row>
     <row r="605" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C605" s="65"/>
+      <c r="C605" s="64"/>
       <c r="D605" s="40"/>
       <c r="E605" s="40"/>
       <c r="F605" s="40"/>
@@ -12970,28 +13035,28 @@
       <c r="B609" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="C609" s="85" t="s">
+      <c r="C609" s="84" t="s">
         <v>517</v>
       </c>
-      <c r="D609" s="86"/>
-      <c r="E609" s="86"/>
-      <c r="F609" s="87"/>
+      <c r="D609" s="85"/>
+      <c r="E609" s="85"/>
+      <c r="F609" s="86"/>
     </row>
     <row r="610" spans="1:6" ht="18" thickBot="1">
-      <c r="C610" s="76" t="s">
+      <c r="C610" s="75" t="s">
         <v>518</v>
       </c>
-      <c r="D610" s="77"/>
-      <c r="E610" s="77"/>
-      <c r="F610" s="78"/>
+      <c r="D610" s="76"/>
+      <c r="E610" s="76"/>
+      <c r="F610" s="77"/>
     </row>
     <row r="611" spans="1:6" ht="27" thickBot="1">
-      <c r="C611" s="69" t="s">
+      <c r="C611" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D611" s="70"/>
-      <c r="E611" s="70"/>
-      <c r="F611" s="71"/>
+      <c r="D611" s="69"/>
+      <c r="E611" s="69"/>
+      <c r="F611" s="70"/>
     </row>
     <row r="612" spans="1:6" ht="18" thickBot="1">
       <c r="C612" s="34" t="s">
@@ -13032,12 +13097,12 @@
       <c r="F614" s="36"/>
     </row>
     <row r="615" spans="1:6" ht="27" thickBot="1">
-      <c r="C615" s="72" t="s">
+      <c r="C615" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D615" s="73"/>
-      <c r="E615" s="73"/>
-      <c r="F615" s="74"/>
+      <c r="D615" s="72"/>
+      <c r="E615" s="72"/>
+      <c r="F615" s="73"/>
     </row>
     <row r="616" spans="1:6" ht="18" thickBot="1">
       <c r="C616" s="38" t="s">
@@ -13082,12 +13147,12 @@
       </c>
     </row>
     <row r="619" spans="1:6" ht="27" thickBot="1">
-      <c r="C619" s="75" t="s">
+      <c r="C619" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D619" s="75"/>
-      <c r="E619" s="75"/>
-      <c r="F619" s="75"/>
+      <c r="D619" s="74"/>
+      <c r="E619" s="74"/>
+      <c r="F619" s="74"/>
     </row>
     <row r="620" spans="1:6" ht="18" thickBot="1">
       <c r="C620" s="38" t="s">
@@ -13104,7 +13169,7 @@
       </c>
     </row>
     <row r="621" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C621" s="65">
+      <c r="C621" s="64">
         <v>200</v>
       </c>
       <c r="D621" s="40" t="s">
@@ -13118,7 +13183,7 @@
       </c>
     </row>
     <row r="622" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C622" s="65"/>
+      <c r="C622" s="64"/>
       <c r="D622" s="40" t="s">
         <v>371</v>
       </c>
@@ -13130,7 +13195,7 @@
       </c>
     </row>
     <row r="623" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C623" s="65"/>
+      <c r="C623" s="64"/>
       <c r="D623" s="40" t="s">
         <v>373</v>
       </c>
@@ -13142,7 +13207,7 @@
       </c>
     </row>
     <row r="624" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C624" s="65"/>
+      <c r="C624" s="64"/>
       <c r="D624" s="40"/>
       <c r="E624" s="40"/>
       <c r="F624" s="40"/>
@@ -13163,28 +13228,28 @@
       <c r="B628" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="C628" s="88" t="s">
+      <c r="C628" s="87" t="s">
         <v>521</v>
       </c>
-      <c r="D628" s="89"/>
-      <c r="E628" s="89"/>
-      <c r="F628" s="90"/>
+      <c r="D628" s="88"/>
+      <c r="E628" s="88"/>
+      <c r="F628" s="89"/>
     </row>
     <row r="629" spans="1:6" ht="18" thickBot="1">
-      <c r="C629" s="76" t="s">
+      <c r="C629" s="75" t="s">
         <v>522</v>
       </c>
-      <c r="D629" s="77"/>
-      <c r="E629" s="77"/>
-      <c r="F629" s="78"/>
+      <c r="D629" s="76"/>
+      <c r="E629" s="76"/>
+      <c r="F629" s="77"/>
     </row>
     <row r="630" spans="1:6" ht="27" thickBot="1">
-      <c r="C630" s="69" t="s">
+      <c r="C630" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D630" s="70"/>
-      <c r="E630" s="70"/>
-      <c r="F630" s="71"/>
+      <c r="D630" s="69"/>
+      <c r="E630" s="69"/>
+      <c r="F630" s="70"/>
     </row>
     <row r="631" spans="1:6" ht="18" thickBot="1">
       <c r="C631" s="34" t="s">
@@ -13225,12 +13290,12 @@
       <c r="F633" s="36"/>
     </row>
     <row r="634" spans="1:6" ht="27" thickBot="1">
-      <c r="C634" s="72" t="s">
+      <c r="C634" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D634" s="73"/>
-      <c r="E634" s="73"/>
-      <c r="F634" s="74"/>
+      <c r="D634" s="72"/>
+      <c r="E634" s="72"/>
+      <c r="F634" s="73"/>
     </row>
     <row r="635" spans="1:6" ht="18" thickBot="1">
       <c r="C635" s="38" t="s">
@@ -13267,12 +13332,12 @@
       <c r="F637" s="39"/>
     </row>
     <row r="638" spans="1:6" ht="27" thickBot="1">
-      <c r="C638" s="75" t="s">
+      <c r="C638" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D638" s="75"/>
-      <c r="E638" s="75"/>
-      <c r="F638" s="75"/>
+      <c r="D638" s="74"/>
+      <c r="E638" s="74"/>
+      <c r="F638" s="74"/>
     </row>
     <row r="639" spans="1:6" ht="18" thickBot="1">
       <c r="C639" s="38" t="s">
@@ -13289,7 +13354,7 @@
       </c>
     </row>
     <row r="640" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C640" s="65">
+      <c r="C640" s="64">
         <v>200</v>
       </c>
       <c r="D640" s="40" t="s">
@@ -13303,7 +13368,7 @@
       </c>
     </row>
     <row r="641" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C641" s="65"/>
+      <c r="C641" s="64"/>
       <c r="D641" s="40" t="s">
         <v>371</v>
       </c>
@@ -13315,7 +13380,7 @@
       </c>
     </row>
     <row r="642" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C642" s="65"/>
+      <c r="C642" s="64"/>
       <c r="D642" s="40" t="s">
         <v>373</v>
       </c>
@@ -13327,7 +13392,7 @@
       </c>
     </row>
     <row r="643" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C643" s="65"/>
+      <c r="C643" s="64"/>
       <c r="D643" s="40"/>
       <c r="E643" s="40"/>
       <c r="F643" s="40"/>
@@ -13348,28 +13413,28 @@
       <c r="B647" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="C647" s="88" t="s">
+      <c r="C647" s="87" t="s">
         <v>523</v>
       </c>
-      <c r="D647" s="89"/>
-      <c r="E647" s="89"/>
-      <c r="F647" s="90"/>
+      <c r="D647" s="88"/>
+      <c r="E647" s="88"/>
+      <c r="F647" s="89"/>
     </row>
     <row r="648" spans="1:6" ht="18" thickBot="1">
-      <c r="C648" s="76" t="s">
+      <c r="C648" s="75" t="s">
         <v>524</v>
       </c>
-      <c r="D648" s="77"/>
-      <c r="E648" s="77"/>
-      <c r="F648" s="78"/>
+      <c r="D648" s="76"/>
+      <c r="E648" s="76"/>
+      <c r="F648" s="77"/>
     </row>
     <row r="649" spans="1:6" ht="27" thickBot="1">
-      <c r="C649" s="69" t="s">
+      <c r="C649" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D649" s="70"/>
-      <c r="E649" s="70"/>
-      <c r="F649" s="71"/>
+      <c r="D649" s="69"/>
+      <c r="E649" s="69"/>
+      <c r="F649" s="70"/>
     </row>
     <row r="650" spans="1:6" ht="18" thickBot="1">
       <c r="C650" s="34" t="s">
@@ -13410,12 +13475,12 @@
       <c r="F652" s="36"/>
     </row>
     <row r="653" spans="1:6" ht="27" thickBot="1">
-      <c r="C653" s="72" t="s">
+      <c r="C653" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D653" s="73"/>
-      <c r="E653" s="73"/>
-      <c r="F653" s="74"/>
+      <c r="D653" s="72"/>
+      <c r="E653" s="72"/>
+      <c r="F653" s="73"/>
     </row>
     <row r="654" spans="1:6" ht="18" thickBot="1">
       <c r="C654" s="38" t="s">
@@ -13460,12 +13525,12 @@
       </c>
     </row>
     <row r="657" spans="1:6" ht="27" thickBot="1">
-      <c r="C657" s="75" t="s">
+      <c r="C657" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D657" s="75"/>
-      <c r="E657" s="75"/>
-      <c r="F657" s="75"/>
+      <c r="D657" s="74"/>
+      <c r="E657" s="74"/>
+      <c r="F657" s="74"/>
     </row>
     <row r="658" spans="1:6" ht="18" thickBot="1">
       <c r="C658" s="38" t="s">
@@ -13482,7 +13547,7 @@
       </c>
     </row>
     <row r="659" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C659" s="65">
+      <c r="C659" s="64">
         <v>200</v>
       </c>
       <c r="D659" s="40" t="s">
@@ -13496,7 +13561,7 @@
       </c>
     </row>
     <row r="660" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C660" s="65"/>
+      <c r="C660" s="64"/>
       <c r="D660" s="40" t="s">
         <v>371</v>
       </c>
@@ -13508,7 +13573,7 @@
       </c>
     </row>
     <row r="661" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C661" s="65"/>
+      <c r="C661" s="64"/>
       <c r="D661" s="40" t="s">
         <v>373</v>
       </c>
@@ -13520,7 +13585,7 @@
       </c>
     </row>
     <row r="662" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C662" s="65"/>
+      <c r="C662" s="64"/>
       <c r="D662" s="40"/>
       <c r="E662" s="40"/>
       <c r="F662" s="40"/>
@@ -13541,28 +13606,28 @@
       <c r="B666" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="C666" s="88" t="s">
+      <c r="C666" s="87" t="s">
         <v>527</v>
       </c>
-      <c r="D666" s="89"/>
-      <c r="E666" s="89"/>
-      <c r="F666" s="90"/>
+      <c r="D666" s="88"/>
+      <c r="E666" s="88"/>
+      <c r="F666" s="89"/>
     </row>
     <row r="667" spans="1:6" ht="18" thickBot="1">
-      <c r="C667" s="76" t="s">
+      <c r="C667" s="75" t="s">
         <v>528</v>
       </c>
-      <c r="D667" s="77"/>
-      <c r="E667" s="77"/>
-      <c r="F667" s="78"/>
+      <c r="D667" s="76"/>
+      <c r="E667" s="76"/>
+      <c r="F667" s="77"/>
     </row>
     <row r="668" spans="1:6" ht="27" thickBot="1">
-      <c r="C668" s="69" t="s">
+      <c r="C668" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D668" s="70"/>
-      <c r="E668" s="70"/>
-      <c r="F668" s="71"/>
+      <c r="D668" s="69"/>
+      <c r="E668" s="69"/>
+      <c r="F668" s="70"/>
     </row>
     <row r="669" spans="1:6" ht="18" thickBot="1">
       <c r="C669" s="34" t="s">
@@ -13603,12 +13668,12 @@
       <c r="F671" s="36"/>
     </row>
     <row r="672" spans="1:6" ht="27" thickBot="1">
-      <c r="C672" s="72" t="s">
+      <c r="C672" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D672" s="73"/>
-      <c r="E672" s="73"/>
-      <c r="F672" s="74"/>
+      <c r="D672" s="72"/>
+      <c r="E672" s="72"/>
+      <c r="F672" s="73"/>
     </row>
     <row r="673" spans="1:6" ht="18" thickBot="1">
       <c r="C673" s="38" t="s">
@@ -13669,12 +13734,12 @@
       </c>
     </row>
     <row r="677" spans="1:6" ht="27" thickBot="1">
-      <c r="C677" s="75" t="s">
+      <c r="C677" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D677" s="75"/>
-      <c r="E677" s="75"/>
-      <c r="F677" s="75"/>
+      <c r="D677" s="74"/>
+      <c r="E677" s="74"/>
+      <c r="F677" s="74"/>
     </row>
     <row r="678" spans="1:6" ht="18" thickBot="1">
       <c r="C678" s="38" t="s">
@@ -13691,7 +13756,7 @@
       </c>
     </row>
     <row r="679" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C679" s="65">
+      <c r="C679" s="64">
         <v>200</v>
       </c>
       <c r="D679" s="40" t="s">
@@ -13705,7 +13770,7 @@
       </c>
     </row>
     <row r="680" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C680" s="65"/>
+      <c r="C680" s="64"/>
       <c r="D680" s="40" t="s">
         <v>371</v>
       </c>
@@ -13717,7 +13782,7 @@
       </c>
     </row>
     <row r="681" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C681" s="65"/>
+      <c r="C681" s="64"/>
       <c r="D681" s="40" t="s">
         <v>373</v>
       </c>
@@ -13729,7 +13794,7 @@
       </c>
     </row>
     <row r="682" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C682" s="65"/>
+      <c r="C682" s="64"/>
       <c r="D682" s="40"/>
       <c r="E682" s="40"/>
       <c r="F682" s="40"/>
@@ -13750,28 +13815,28 @@
       <c r="B686" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="C686" s="88" t="s">
+      <c r="C686" s="87" t="s">
         <v>530</v>
       </c>
-      <c r="D686" s="89"/>
-      <c r="E686" s="89"/>
-      <c r="F686" s="90"/>
+      <c r="D686" s="88"/>
+      <c r="E686" s="88"/>
+      <c r="F686" s="89"/>
     </row>
     <row r="687" spans="1:6" ht="18" thickBot="1">
-      <c r="C687" s="76" t="s">
+      <c r="C687" s="75" t="s">
         <v>531</v>
       </c>
-      <c r="D687" s="77"/>
-      <c r="E687" s="77"/>
-      <c r="F687" s="78"/>
+      <c r="D687" s="76"/>
+      <c r="E687" s="76"/>
+      <c r="F687" s="77"/>
     </row>
     <row r="688" spans="1:6" ht="27" thickBot="1">
-      <c r="C688" s="69" t="s">
+      <c r="C688" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D688" s="70"/>
-      <c r="E688" s="70"/>
-      <c r="F688" s="71"/>
+      <c r="D688" s="69"/>
+      <c r="E688" s="69"/>
+      <c r="F688" s="70"/>
     </row>
     <row r="689" spans="3:6" ht="18" thickBot="1">
       <c r="C689" s="34" t="s">
@@ -13812,12 +13877,12 @@
       <c r="F691" s="36"/>
     </row>
     <row r="692" spans="3:6" ht="27" thickBot="1">
-      <c r="C692" s="72" t="s">
+      <c r="C692" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D692" s="73"/>
-      <c r="E692" s="73"/>
-      <c r="F692" s="74"/>
+      <c r="D692" s="72"/>
+      <c r="E692" s="72"/>
+      <c r="F692" s="73"/>
     </row>
     <row r="693" spans="3:6" ht="18" thickBot="1">
       <c r="C693" s="38" t="s">
@@ -13868,12 +13933,12 @@
       <c r="F696" s="39"/>
     </row>
     <row r="697" spans="3:6" ht="27" thickBot="1">
-      <c r="C697" s="75" t="s">
+      <c r="C697" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D697" s="75"/>
-      <c r="E697" s="75"/>
-      <c r="F697" s="75"/>
+      <c r="D697" s="74"/>
+      <c r="E697" s="74"/>
+      <c r="F697" s="74"/>
     </row>
     <row r="698" spans="3:6" ht="18" thickBot="1">
       <c r="C698" s="38" t="s">
@@ -13890,7 +13955,7 @@
       </c>
     </row>
     <row r="699" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C699" s="65">
+      <c r="C699" s="64">
         <v>200</v>
       </c>
       <c r="D699" s="40" t="s">
@@ -13904,7 +13969,7 @@
       </c>
     </row>
     <row r="700" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C700" s="65"/>
+      <c r="C700" s="64"/>
       <c r="D700" s="40" t="s">
         <v>371</v>
       </c>
@@ -13916,7 +13981,7 @@
       </c>
     </row>
     <row r="701" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C701" s="65"/>
+      <c r="C701" s="64"/>
       <c r="D701" s="40" t="s">
         <v>373</v>
       </c>
@@ -13928,7 +13993,7 @@
       </c>
     </row>
     <row r="702" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C702" s="65"/>
+      <c r="C702" s="64"/>
       <c r="D702" s="40"/>
       <c r="E702" s="40"/>
       <c r="F702" s="40"/>
@@ -13949,28 +14014,28 @@
       <c r="B706" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="C706" s="91" t="s">
+      <c r="C706" s="90" t="s">
         <v>534</v>
       </c>
-      <c r="D706" s="92"/>
-      <c r="E706" s="92"/>
-      <c r="F706" s="93"/>
+      <c r="D706" s="91"/>
+      <c r="E706" s="91"/>
+      <c r="F706" s="92"/>
     </row>
     <row r="707" spans="1:6" ht="18" thickBot="1">
-      <c r="C707" s="76" t="s">
+      <c r="C707" s="75" t="s">
         <v>535</v>
       </c>
-      <c r="D707" s="77"/>
-      <c r="E707" s="77"/>
-      <c r="F707" s="78"/>
+      <c r="D707" s="76"/>
+      <c r="E707" s="76"/>
+      <c r="F707" s="77"/>
     </row>
     <row r="708" spans="1:6" ht="27" thickBot="1">
-      <c r="C708" s="69" t="s">
+      <c r="C708" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D708" s="70"/>
-      <c r="E708" s="70"/>
-      <c r="F708" s="71"/>
+      <c r="D708" s="69"/>
+      <c r="E708" s="69"/>
+      <c r="F708" s="70"/>
     </row>
     <row r="709" spans="1:6" ht="18" thickBot="1">
       <c r="C709" s="34" t="s">
@@ -14011,12 +14076,12 @@
       <c r="F711" s="36"/>
     </row>
     <row r="712" spans="1:6" ht="27" thickBot="1">
-      <c r="C712" s="72" t="s">
+      <c r="C712" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D712" s="73"/>
-      <c r="E712" s="73"/>
-      <c r="F712" s="74"/>
+      <c r="D712" s="72"/>
+      <c r="E712" s="72"/>
+      <c r="F712" s="73"/>
     </row>
     <row r="713" spans="1:6" ht="18" thickBot="1">
       <c r="C713" s="38" t="s">
@@ -14061,12 +14126,12 @@
       </c>
     </row>
     <row r="716" spans="1:6" ht="27" thickBot="1">
-      <c r="C716" s="75" t="s">
+      <c r="C716" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D716" s="75"/>
-      <c r="E716" s="75"/>
-      <c r="F716" s="75"/>
+      <c r="D716" s="74"/>
+      <c r="E716" s="74"/>
+      <c r="F716" s="74"/>
     </row>
     <row r="717" spans="1:6" ht="18" thickBot="1">
       <c r="C717" s="38" t="s">
@@ -14083,7 +14148,7 @@
       </c>
     </row>
     <row r="718" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C718" s="65">
+      <c r="C718" s="64">
         <v>200</v>
       </c>
       <c r="D718" s="40" t="s">
@@ -14097,7 +14162,7 @@
       </c>
     </row>
     <row r="719" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C719" s="65"/>
+      <c r="C719" s="64"/>
       <c r="D719" s="40" t="s">
         <v>371</v>
       </c>
@@ -14109,7 +14174,7 @@
       </c>
     </row>
     <row r="720" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C720" s="65"/>
+      <c r="C720" s="64"/>
       <c r="D720" s="40" t="s">
         <v>373</v>
       </c>
@@ -14121,7 +14186,7 @@
       </c>
     </row>
     <row r="721" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C721" s="65"/>
+      <c r="C721" s="64"/>
       <c r="D721" s="40"/>
       <c r="E721" s="40"/>
       <c r="F721" s="40"/>
@@ -14142,28 +14207,28 @@
       <c r="B725" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="C725" s="91" t="s">
+      <c r="C725" s="90" t="s">
         <v>536</v>
       </c>
-      <c r="D725" s="92"/>
-      <c r="E725" s="92"/>
-      <c r="F725" s="93"/>
+      <c r="D725" s="91"/>
+      <c r="E725" s="91"/>
+      <c r="F725" s="92"/>
     </row>
     <row r="726" spans="1:6" ht="18" thickBot="1">
-      <c r="C726" s="76" t="s">
+      <c r="C726" s="75" t="s">
         <v>537</v>
       </c>
-      <c r="D726" s="77"/>
-      <c r="E726" s="77"/>
-      <c r="F726" s="78"/>
+      <c r="D726" s="76"/>
+      <c r="E726" s="76"/>
+      <c r="F726" s="77"/>
     </row>
     <row r="727" spans="1:6" ht="27" thickBot="1">
-      <c r="C727" s="69" t="s">
+      <c r="C727" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D727" s="70"/>
-      <c r="E727" s="70"/>
-      <c r="F727" s="71"/>
+      <c r="D727" s="69"/>
+      <c r="E727" s="69"/>
+      <c r="F727" s="70"/>
     </row>
     <row r="728" spans="1:6" ht="18" thickBot="1">
       <c r="C728" s="34" t="s">
@@ -14204,12 +14269,12 @@
       <c r="F730" s="36"/>
     </row>
     <row r="731" spans="1:6" ht="27" thickBot="1">
-      <c r="C731" s="72" t="s">
+      <c r="C731" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D731" s="73"/>
-      <c r="E731" s="73"/>
-      <c r="F731" s="74"/>
+      <c r="D731" s="72"/>
+      <c r="E731" s="72"/>
+      <c r="F731" s="73"/>
     </row>
     <row r="732" spans="1:6" ht="18" thickBot="1">
       <c r="C732" s="38" t="s">
@@ -14254,12 +14319,12 @@
       </c>
     </row>
     <row r="735" spans="1:6" ht="27" thickBot="1">
-      <c r="C735" s="75" t="s">
+      <c r="C735" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D735" s="75"/>
-      <c r="E735" s="75"/>
-      <c r="F735" s="75"/>
+      <c r="D735" s="74"/>
+      <c r="E735" s="74"/>
+      <c r="F735" s="74"/>
     </row>
     <row r="736" spans="1:6" ht="18" thickBot="1">
       <c r="C736" s="38" t="s">
@@ -14276,7 +14341,7 @@
       </c>
     </row>
     <row r="737" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C737" s="65">
+      <c r="C737" s="64">
         <v>200</v>
       </c>
       <c r="D737" s="40" t="s">
@@ -14290,7 +14355,7 @@
       </c>
     </row>
     <row r="738" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C738" s="65"/>
+      <c r="C738" s="64"/>
       <c r="D738" s="40" t="s">
         <v>371</v>
       </c>
@@ -14302,7 +14367,7 @@
       </c>
     </row>
     <row r="739" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C739" s="65"/>
+      <c r="C739" s="64"/>
       <c r="D739" s="40" t="s">
         <v>373</v>
       </c>
@@ -14314,7 +14379,7 @@
       </c>
     </row>
     <row r="740" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C740" s="65"/>
+      <c r="C740" s="64"/>
       <c r="D740" s="40"/>
       <c r="E740" s="40"/>
       <c r="F740" s="40"/>
@@ -14335,28 +14400,28 @@
       <c r="B744" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="C744" s="91" t="s">
+      <c r="C744" s="90" t="s">
         <v>538</v>
       </c>
-      <c r="D744" s="92"/>
-      <c r="E744" s="92"/>
-      <c r="F744" s="93"/>
+      <c r="D744" s="91"/>
+      <c r="E744" s="91"/>
+      <c r="F744" s="92"/>
     </row>
     <row r="745" spans="1:6" ht="18" thickBot="1">
-      <c r="C745" s="76" t="s">
+      <c r="C745" s="75" t="s">
         <v>539</v>
       </c>
-      <c r="D745" s="77"/>
-      <c r="E745" s="77"/>
-      <c r="F745" s="78"/>
+      <c r="D745" s="76"/>
+      <c r="E745" s="76"/>
+      <c r="F745" s="77"/>
     </row>
     <row r="746" spans="1:6" ht="27" thickBot="1">
-      <c r="C746" s="69" t="s">
+      <c r="C746" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D746" s="70"/>
-      <c r="E746" s="70"/>
-      <c r="F746" s="71"/>
+      <c r="D746" s="69"/>
+      <c r="E746" s="69"/>
+      <c r="F746" s="70"/>
     </row>
     <row r="747" spans="1:6" ht="18" thickBot="1">
       <c r="C747" s="34" t="s">
@@ -14397,12 +14462,12 @@
       <c r="F749" s="36"/>
     </row>
     <row r="750" spans="1:6" ht="27" thickBot="1">
-      <c r="C750" s="72" t="s">
+      <c r="C750" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D750" s="73"/>
-      <c r="E750" s="73"/>
-      <c r="F750" s="74"/>
+      <c r="D750" s="72"/>
+      <c r="E750" s="72"/>
+      <c r="F750" s="73"/>
     </row>
     <row r="751" spans="1:6" ht="18" thickBot="1">
       <c r="C751" s="38" t="s">
@@ -14447,12 +14512,12 @@
       </c>
     </row>
     <row r="754" spans="1:6" ht="27" thickBot="1">
-      <c r="C754" s="75" t="s">
+      <c r="C754" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D754" s="75"/>
-      <c r="E754" s="75"/>
-      <c r="F754" s="75"/>
+      <c r="D754" s="74"/>
+      <c r="E754" s="74"/>
+      <c r="F754" s="74"/>
     </row>
     <row r="755" spans="1:6" ht="18" thickBot="1">
       <c r="C755" s="38" t="s">
@@ -14469,7 +14534,7 @@
       </c>
     </row>
     <row r="756" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C756" s="65">
+      <c r="C756" s="64">
         <v>200</v>
       </c>
       <c r="D756" s="40" t="s">
@@ -14483,7 +14548,7 @@
       </c>
     </row>
     <row r="757" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C757" s="65"/>
+      <c r="C757" s="64"/>
       <c r="D757" s="40" t="s">
         <v>371</v>
       </c>
@@ -14495,7 +14560,7 @@
       </c>
     </row>
     <row r="758" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C758" s="65"/>
+      <c r="C758" s="64"/>
       <c r="D758" s="40" t="s">
         <v>373</v>
       </c>
@@ -14507,7 +14572,7 @@
       </c>
     </row>
     <row r="759" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C759" s="65"/>
+      <c r="C759" s="64"/>
       <c r="D759" s="40"/>
       <c r="E759" s="40"/>
       <c r="F759" s="40"/>
@@ -14528,28 +14593,28 @@
       <c r="B763" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="C763" s="91" t="s">
+      <c r="C763" s="90" t="s">
         <v>542</v>
       </c>
-      <c r="D763" s="92"/>
-      <c r="E763" s="92"/>
-      <c r="F763" s="93"/>
+      <c r="D763" s="91"/>
+      <c r="E763" s="91"/>
+      <c r="F763" s="92"/>
     </row>
     <row r="764" spans="1:6" ht="18" thickBot="1">
-      <c r="C764" s="76" t="s">
+      <c r="C764" s="75" t="s">
         <v>179</v>
       </c>
-      <c r="D764" s="77"/>
-      <c r="E764" s="77"/>
-      <c r="F764" s="78"/>
+      <c r="D764" s="76"/>
+      <c r="E764" s="76"/>
+      <c r="F764" s="77"/>
     </row>
     <row r="765" spans="1:6" ht="27" thickBot="1">
-      <c r="C765" s="69" t="s">
+      <c r="C765" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D765" s="70"/>
-      <c r="E765" s="70"/>
-      <c r="F765" s="71"/>
+      <c r="D765" s="69"/>
+      <c r="E765" s="69"/>
+      <c r="F765" s="70"/>
     </row>
     <row r="766" spans="1:6" ht="18" thickBot="1">
       <c r="C766" s="34" t="s">
@@ -14590,12 +14655,12 @@
       <c r="F768" s="36"/>
     </row>
     <row r="769" spans="1:6" ht="27" thickBot="1">
-      <c r="C769" s="72" t="s">
+      <c r="C769" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D769" s="73"/>
-      <c r="E769" s="73"/>
-      <c r="F769" s="74"/>
+      <c r="D769" s="72"/>
+      <c r="E769" s="72"/>
+      <c r="F769" s="73"/>
     </row>
     <row r="770" spans="1:6" ht="18" thickBot="1">
       <c r="C770" s="38" t="s">
@@ -14640,12 +14705,12 @@
       </c>
     </row>
     <row r="773" spans="1:6" ht="27" thickBot="1">
-      <c r="C773" s="75" t="s">
+      <c r="C773" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D773" s="75"/>
-      <c r="E773" s="75"/>
-      <c r="F773" s="75"/>
+      <c r="D773" s="74"/>
+      <c r="E773" s="74"/>
+      <c r="F773" s="74"/>
     </row>
     <row r="774" spans="1:6" ht="18" thickBot="1">
       <c r="C774" s="38" t="s">
@@ -14662,7 +14727,7 @@
       </c>
     </row>
     <row r="775" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C775" s="65">
+      <c r="C775" s="64">
         <v>200</v>
       </c>
       <c r="D775" s="40" t="s">
@@ -14676,7 +14741,7 @@
       </c>
     </row>
     <row r="776" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C776" s="65"/>
+      <c r="C776" s="64"/>
       <c r="D776" s="40" t="s">
         <v>371</v>
       </c>
@@ -14688,7 +14753,7 @@
       </c>
     </row>
     <row r="777" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C777" s="65"/>
+      <c r="C777" s="64"/>
       <c r="D777" s="40" t="s">
         <v>373</v>
       </c>
@@ -14700,7 +14765,7 @@
       </c>
     </row>
     <row r="778" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C778" s="65"/>
+      <c r="C778" s="64"/>
       <c r="D778" s="40"/>
       <c r="E778" s="40"/>
       <c r="F778" s="40"/>
@@ -14721,28 +14786,28 @@
       <c r="B782" s="50" t="s">
         <v>181</v>
       </c>
-      <c r="C782" s="94" t="s">
+      <c r="C782" s="93" t="s">
         <v>543</v>
       </c>
-      <c r="D782" s="95"/>
-      <c r="E782" s="95"/>
-      <c r="F782" s="96"/>
+      <c r="D782" s="94"/>
+      <c r="E782" s="94"/>
+      <c r="F782" s="95"/>
     </row>
     <row r="783" spans="1:6" ht="18" thickBot="1">
-      <c r="C783" s="76" t="s">
+      <c r="C783" s="75" t="s">
         <v>544</v>
       </c>
-      <c r="D783" s="77"/>
-      <c r="E783" s="77"/>
-      <c r="F783" s="78"/>
+      <c r="D783" s="76"/>
+      <c r="E783" s="76"/>
+      <c r="F783" s="77"/>
     </row>
     <row r="784" spans="1:6" ht="27" thickBot="1">
-      <c r="C784" s="69" t="s">
+      <c r="C784" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D784" s="70"/>
-      <c r="E784" s="70"/>
-      <c r="F784" s="71"/>
+      <c r="D784" s="69"/>
+      <c r="E784" s="69"/>
+      <c r="F784" s="70"/>
     </row>
     <row r="785" spans="3:6" ht="18" thickBot="1">
       <c r="C785" s="34" t="s">
@@ -14783,12 +14848,12 @@
       <c r="F787" s="36"/>
     </row>
     <row r="788" spans="3:6" ht="27" thickBot="1">
-      <c r="C788" s="72" t="s">
+      <c r="C788" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D788" s="73"/>
-      <c r="E788" s="73"/>
-      <c r="F788" s="74"/>
+      <c r="D788" s="72"/>
+      <c r="E788" s="72"/>
+      <c r="F788" s="73"/>
     </row>
     <row r="789" spans="3:6" ht="18" thickBot="1">
       <c r="C789" s="38" t="s">
@@ -14825,12 +14890,12 @@
       <c r="F791" s="39"/>
     </row>
     <row r="792" spans="3:6" ht="27" thickBot="1">
-      <c r="C792" s="75" t="s">
+      <c r="C792" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D792" s="75"/>
-      <c r="E792" s="75"/>
-      <c r="F792" s="75"/>
+      <c r="D792" s="74"/>
+      <c r="E792" s="74"/>
+      <c r="F792" s="74"/>
     </row>
     <row r="793" spans="3:6" ht="18" thickBot="1">
       <c r="C793" s="38" t="s">
@@ -14847,7 +14912,7 @@
       </c>
     </row>
     <row r="794" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C794" s="65">
+      <c r="C794" s="64">
         <v>200</v>
       </c>
       <c r="D794" s="40" t="s">
@@ -14861,7 +14926,7 @@
       </c>
     </row>
     <row r="795" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C795" s="65"/>
+      <c r="C795" s="64"/>
       <c r="D795" s="40" t="s">
         <v>371</v>
       </c>
@@ -14873,7 +14938,7 @@
       </c>
     </row>
     <row r="796" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C796" s="65"/>
+      <c r="C796" s="64"/>
       <c r="D796" s="40" t="s">
         <v>373</v>
       </c>
@@ -14885,7 +14950,7 @@
       </c>
     </row>
     <row r="797" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C797" s="65"/>
+      <c r="C797" s="64"/>
       <c r="D797" s="40"/>
       <c r="E797" s="40"/>
       <c r="F797" s="40"/>
@@ -14906,28 +14971,28 @@
       <c r="B801" s="50" t="s">
         <v>181</v>
       </c>
-      <c r="C801" s="94" t="s">
+      <c r="C801" s="93" t="s">
         <v>545</v>
       </c>
-      <c r="D801" s="95"/>
-      <c r="E801" s="95"/>
-      <c r="F801" s="96"/>
+      <c r="D801" s="94"/>
+      <c r="E801" s="94"/>
+      <c r="F801" s="95"/>
     </row>
     <row r="802" spans="1:6" ht="18" thickBot="1">
-      <c r="C802" s="76" t="s">
+      <c r="C802" s="75" t="s">
         <v>546</v>
       </c>
-      <c r="D802" s="77"/>
-      <c r="E802" s="77"/>
-      <c r="F802" s="78"/>
+      <c r="D802" s="76"/>
+      <c r="E802" s="76"/>
+      <c r="F802" s="77"/>
     </row>
     <row r="803" spans="1:6" ht="27" thickBot="1">
-      <c r="C803" s="69" t="s">
+      <c r="C803" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D803" s="70"/>
-      <c r="E803" s="70"/>
-      <c r="F803" s="71"/>
+      <c r="D803" s="69"/>
+      <c r="E803" s="69"/>
+      <c r="F803" s="70"/>
     </row>
     <row r="804" spans="1:6" ht="18" thickBot="1">
       <c r="C804" s="34" t="s">
@@ -14968,12 +15033,12 @@
       <c r="F806" s="36"/>
     </row>
     <row r="807" spans="1:6" ht="27" thickBot="1">
-      <c r="C807" s="72" t="s">
+      <c r="C807" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D807" s="73"/>
-      <c r="E807" s="73"/>
-      <c r="F807" s="74"/>
+      <c r="D807" s="72"/>
+      <c r="E807" s="72"/>
+      <c r="F807" s="73"/>
     </row>
     <row r="808" spans="1:6" ht="18" thickBot="1">
       <c r="C808" s="38" t="s">
@@ -15018,12 +15083,12 @@
       </c>
     </row>
     <row r="811" spans="1:6" ht="27" thickBot="1">
-      <c r="C811" s="75" t="s">
+      <c r="C811" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D811" s="75"/>
-      <c r="E811" s="75"/>
-      <c r="F811" s="75"/>
+      <c r="D811" s="74"/>
+      <c r="E811" s="74"/>
+      <c r="F811" s="74"/>
     </row>
     <row r="812" spans="1:6" ht="18" thickBot="1">
       <c r="C812" s="38" t="s">
@@ -15040,7 +15105,7 @@
       </c>
     </row>
     <row r="813" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C813" s="65">
+      <c r="C813" s="64">
         <v>200</v>
       </c>
       <c r="D813" s="40" t="s">
@@ -15054,7 +15119,7 @@
       </c>
     </row>
     <row r="814" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C814" s="65"/>
+      <c r="C814" s="64"/>
       <c r="D814" s="40" t="s">
         <v>371</v>
       </c>
@@ -15066,7 +15131,7 @@
       </c>
     </row>
     <row r="815" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C815" s="65"/>
+      <c r="C815" s="64"/>
       <c r="D815" s="40" t="s">
         <v>373</v>
       </c>
@@ -15078,7 +15143,7 @@
       </c>
     </row>
     <row r="816" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C816" s="65"/>
+      <c r="C816" s="64"/>
       <c r="D816" s="40"/>
       <c r="E816" s="40"/>
       <c r="F816" s="40"/>
@@ -15099,28 +15164,28 @@
       <c r="B820" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="C820" s="97" t="s">
+      <c r="C820" s="96" t="s">
         <v>549</v>
       </c>
-      <c r="D820" s="98"/>
-      <c r="E820" s="98"/>
-      <c r="F820" s="99"/>
+      <c r="D820" s="97"/>
+      <c r="E820" s="97"/>
+      <c r="F820" s="98"/>
     </row>
     <row r="821" spans="1:6" ht="18" thickBot="1">
-      <c r="C821" s="76" t="s">
+      <c r="C821" s="75" t="s">
         <v>550</v>
       </c>
-      <c r="D821" s="77"/>
-      <c r="E821" s="77"/>
-      <c r="F821" s="78"/>
+      <c r="D821" s="76"/>
+      <c r="E821" s="76"/>
+      <c r="F821" s="77"/>
     </row>
     <row r="822" spans="1:6" ht="27" thickBot="1">
-      <c r="C822" s="69" t="s">
+      <c r="C822" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D822" s="70"/>
-      <c r="E822" s="70"/>
-      <c r="F822" s="71"/>
+      <c r="D822" s="69"/>
+      <c r="E822" s="69"/>
+      <c r="F822" s="70"/>
     </row>
     <row r="823" spans="1:6" ht="18" thickBot="1">
       <c r="C823" s="34" t="s">
@@ -15161,12 +15226,12 @@
       <c r="F825" s="36"/>
     </row>
     <row r="826" spans="1:6" ht="27" thickBot="1">
-      <c r="C826" s="72" t="s">
+      <c r="C826" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D826" s="73"/>
-      <c r="E826" s="73"/>
-      <c r="F826" s="74"/>
+      <c r="D826" s="72"/>
+      <c r="E826" s="72"/>
+      <c r="F826" s="73"/>
     </row>
     <row r="827" spans="1:6" ht="18" thickBot="1">
       <c r="C827" s="38" t="s">
@@ -15203,12 +15268,12 @@
       <c r="F829" s="39"/>
     </row>
     <row r="830" spans="1:6" ht="27" thickBot="1">
-      <c r="C830" s="75" t="s">
+      <c r="C830" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D830" s="75"/>
-      <c r="E830" s="75"/>
-      <c r="F830" s="75"/>
+      <c r="D830" s="74"/>
+      <c r="E830" s="74"/>
+      <c r="F830" s="74"/>
     </row>
     <row r="831" spans="1:6" ht="18" thickBot="1">
       <c r="C831" s="38" t="s">
@@ -15225,7 +15290,7 @@
       </c>
     </row>
     <row r="832" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C832" s="65">
+      <c r="C832" s="64">
         <v>200</v>
       </c>
       <c r="D832" s="40" t="s">
@@ -15239,7 +15304,7 @@
       </c>
     </row>
     <row r="833" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C833" s="65"/>
+      <c r="C833" s="64"/>
       <c r="D833" s="40" t="s">
         <v>371</v>
       </c>
@@ -15251,7 +15316,7 @@
       </c>
     </row>
     <row r="834" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C834" s="65"/>
+      <c r="C834" s="64"/>
       <c r="D834" s="40" t="s">
         <v>373</v>
       </c>
@@ -15263,7 +15328,7 @@
       </c>
     </row>
     <row r="835" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C835" s="65"/>
+      <c r="C835" s="64"/>
       <c r="D835" s="40"/>
       <c r="E835" s="40"/>
       <c r="F835" s="40"/>
@@ -15284,28 +15349,28 @@
       <c r="B839" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="C839" s="97" t="s">
+      <c r="C839" s="96" t="s">
         <v>551</v>
       </c>
-      <c r="D839" s="98"/>
-      <c r="E839" s="98"/>
-      <c r="F839" s="99"/>
+      <c r="D839" s="97"/>
+      <c r="E839" s="97"/>
+      <c r="F839" s="98"/>
     </row>
     <row r="840" spans="1:6" ht="18" thickBot="1">
-      <c r="C840" s="76" t="s">
+      <c r="C840" s="75" t="s">
         <v>552</v>
       </c>
-      <c r="D840" s="77"/>
-      <c r="E840" s="77"/>
-      <c r="F840" s="78"/>
+      <c r="D840" s="76"/>
+      <c r="E840" s="76"/>
+      <c r="F840" s="77"/>
     </row>
     <row r="841" spans="1:6" ht="27" thickBot="1">
-      <c r="C841" s="69" t="s">
+      <c r="C841" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D841" s="70"/>
-      <c r="E841" s="70"/>
-      <c r="F841" s="71"/>
+      <c r="D841" s="69"/>
+      <c r="E841" s="69"/>
+      <c r="F841" s="70"/>
     </row>
     <row r="842" spans="1:6" ht="18" thickBot="1">
       <c r="C842" s="34" t="s">
@@ -15346,12 +15411,12 @@
       <c r="F844" s="36"/>
     </row>
     <row r="845" spans="1:6" ht="27" thickBot="1">
-      <c r="C845" s="72" t="s">
+      <c r="C845" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D845" s="73"/>
-      <c r="E845" s="73"/>
-      <c r="F845" s="74"/>
+      <c r="D845" s="72"/>
+      <c r="E845" s="72"/>
+      <c r="F845" s="73"/>
     </row>
     <row r="846" spans="1:6" ht="18" thickBot="1">
       <c r="C846" s="38" t="s">
@@ -15396,12 +15461,12 @@
       </c>
     </row>
     <row r="849" spans="1:6" ht="27" thickBot="1">
-      <c r="C849" s="75" t="s">
+      <c r="C849" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D849" s="75"/>
-      <c r="E849" s="75"/>
-      <c r="F849" s="75"/>
+      <c r="D849" s="74"/>
+      <c r="E849" s="74"/>
+      <c r="F849" s="74"/>
     </row>
     <row r="850" spans="1:6" ht="18" thickBot="1">
       <c r="C850" s="38" t="s">
@@ -15418,7 +15483,7 @@
       </c>
     </row>
     <row r="851" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C851" s="65">
+      <c r="C851" s="64">
         <v>200</v>
       </c>
       <c r="D851" s="40" t="s">
@@ -15432,7 +15497,7 @@
       </c>
     </row>
     <row r="852" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C852" s="65"/>
+      <c r="C852" s="64"/>
       <c r="D852" s="40" t="s">
         <v>371</v>
       </c>
@@ -15444,7 +15509,7 @@
       </c>
     </row>
     <row r="853" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C853" s="65"/>
+      <c r="C853" s="64"/>
       <c r="D853" s="40" t="s">
         <v>373</v>
       </c>
@@ -15456,7 +15521,7 @@
       </c>
     </row>
     <row r="854" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C854" s="65"/>
+      <c r="C854" s="64"/>
       <c r="D854" s="40"/>
       <c r="E854" s="40"/>
       <c r="F854" s="40"/>
@@ -15477,28 +15542,28 @@
       <c r="B858" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="C858" s="97" t="s">
+      <c r="C858" s="96" t="s">
         <v>555</v>
       </c>
-      <c r="D858" s="98"/>
-      <c r="E858" s="98"/>
-      <c r="F858" s="99"/>
+      <c r="D858" s="97"/>
+      <c r="E858" s="97"/>
+      <c r="F858" s="98"/>
     </row>
     <row r="859" spans="1:6" ht="18" thickBot="1">
-      <c r="C859" s="76" t="s">
+      <c r="C859" s="75" t="s">
         <v>556</v>
       </c>
-      <c r="D859" s="77"/>
-      <c r="E859" s="77"/>
-      <c r="F859" s="78"/>
+      <c r="D859" s="76"/>
+      <c r="E859" s="76"/>
+      <c r="F859" s="77"/>
     </row>
     <row r="860" spans="1:6" ht="27" thickBot="1">
-      <c r="C860" s="69" t="s">
+      <c r="C860" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D860" s="70"/>
-      <c r="E860" s="70"/>
-      <c r="F860" s="71"/>
+      <c r="D860" s="69"/>
+      <c r="E860" s="69"/>
+      <c r="F860" s="70"/>
     </row>
     <row r="861" spans="1:6" ht="18" thickBot="1">
       <c r="C861" s="34" t="s">
@@ -15539,12 +15604,12 @@
       <c r="F863" s="36"/>
     </row>
     <row r="864" spans="1:6" ht="27" thickBot="1">
-      <c r="C864" s="72" t="s">
+      <c r="C864" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D864" s="73"/>
-      <c r="E864" s="73"/>
-      <c r="F864" s="74"/>
+      <c r="D864" s="72"/>
+      <c r="E864" s="72"/>
+      <c r="F864" s="73"/>
     </row>
     <row r="865" spans="1:6" ht="18" thickBot="1">
       <c r="C865" s="38" t="s">
@@ -15589,12 +15654,12 @@
       </c>
     </row>
     <row r="868" spans="1:6" ht="27" thickBot="1">
-      <c r="C868" s="75" t="s">
+      <c r="C868" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D868" s="75"/>
-      <c r="E868" s="75"/>
-      <c r="F868" s="75"/>
+      <c r="D868" s="74"/>
+      <c r="E868" s="74"/>
+      <c r="F868" s="74"/>
     </row>
     <row r="869" spans="1:6" ht="18" thickBot="1">
       <c r="C869" s="38" t="s">
@@ -15611,7 +15676,7 @@
       </c>
     </row>
     <row r="870" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C870" s="65">
+      <c r="C870" s="64">
         <v>200</v>
       </c>
       <c r="D870" s="40" t="s">
@@ -15625,7 +15690,7 @@
       </c>
     </row>
     <row r="871" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C871" s="65"/>
+      <c r="C871" s="64"/>
       <c r="D871" s="40" t="s">
         <v>371</v>
       </c>
@@ -15637,7 +15702,7 @@
       </c>
     </row>
     <row r="872" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C872" s="65"/>
+      <c r="C872" s="64"/>
       <c r="D872" s="40" t="s">
         <v>373</v>
       </c>
@@ -15649,7 +15714,7 @@
       </c>
     </row>
     <row r="873" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C873" s="65"/>
+      <c r="C873" s="64"/>
       <c r="D873" s="40"/>
       <c r="E873" s="40"/>
       <c r="F873" s="40"/>
@@ -15670,28 +15735,28 @@
       <c r="B877" s="52" t="s">
         <v>183</v>
       </c>
-      <c r="C877" s="100" t="s">
+      <c r="C877" s="99" t="s">
         <v>557</v>
       </c>
-      <c r="D877" s="101"/>
-      <c r="E877" s="101"/>
-      <c r="F877" s="102"/>
+      <c r="D877" s="100"/>
+      <c r="E877" s="100"/>
+      <c r="F877" s="101"/>
     </row>
     <row r="878" spans="1:6" ht="18" thickBot="1">
-      <c r="C878" s="76" t="s">
+      <c r="C878" s="75" t="s">
         <v>558</v>
       </c>
-      <c r="D878" s="77"/>
-      <c r="E878" s="77"/>
-      <c r="F878" s="78"/>
+      <c r="D878" s="76"/>
+      <c r="E878" s="76"/>
+      <c r="F878" s="77"/>
     </row>
     <row r="879" spans="1:6" ht="27" thickBot="1">
-      <c r="C879" s="69" t="s">
+      <c r="C879" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D879" s="70"/>
-      <c r="E879" s="70"/>
-      <c r="F879" s="71"/>
+      <c r="D879" s="69"/>
+      <c r="E879" s="69"/>
+      <c r="F879" s="70"/>
     </row>
     <row r="880" spans="1:6" ht="18" thickBot="1">
       <c r="C880" s="34" t="s">
@@ -15732,12 +15797,12 @@
       <c r="F882" s="36"/>
     </row>
     <row r="883" spans="1:6" ht="27" thickBot="1">
-      <c r="C883" s="72" t="s">
+      <c r="C883" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D883" s="73"/>
-      <c r="E883" s="73"/>
-      <c r="F883" s="74"/>
+      <c r="D883" s="72"/>
+      <c r="E883" s="72"/>
+      <c r="F883" s="73"/>
     </row>
     <row r="884" spans="1:6" ht="18" thickBot="1">
       <c r="C884" s="38" t="s">
@@ -15760,12 +15825,12 @@
       <c r="F885" s="39"/>
     </row>
     <row r="886" spans="1:6" ht="27" thickBot="1">
-      <c r="C886" s="75" t="s">
+      <c r="C886" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D886" s="75"/>
-      <c r="E886" s="75"/>
-      <c r="F886" s="75"/>
+      <c r="D886" s="74"/>
+      <c r="E886" s="74"/>
+      <c r="F886" s="74"/>
     </row>
     <row r="887" spans="1:6" ht="18" thickBot="1">
       <c r="C887" s="38" t="s">
@@ -15782,7 +15847,7 @@
       </c>
     </row>
     <row r="888" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C888" s="65">
+      <c r="C888" s="64">
         <v>200</v>
       </c>
       <c r="D888" s="40" t="s">
@@ -15796,7 +15861,7 @@
       </c>
     </row>
     <row r="889" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C889" s="65"/>
+      <c r="C889" s="64"/>
       <c r="D889" s="40" t="s">
         <v>371</v>
       </c>
@@ -15808,7 +15873,7 @@
       </c>
     </row>
     <row r="890" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C890" s="65"/>
+      <c r="C890" s="64"/>
       <c r="D890" s="40" t="s">
         <v>373</v>
       </c>
@@ -15820,7 +15885,7 @@
       </c>
     </row>
     <row r="891" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C891" s="65"/>
+      <c r="C891" s="64"/>
       <c r="D891" s="40"/>
       <c r="E891" s="40"/>
       <c r="F891" s="40"/>
@@ -15841,28 +15906,28 @@
       <c r="B895" s="52" t="s">
         <v>183</v>
       </c>
-      <c r="C895" s="100" t="s">
+      <c r="C895" s="99" t="s">
         <v>559</v>
       </c>
-      <c r="D895" s="101"/>
-      <c r="E895" s="101"/>
-      <c r="F895" s="102"/>
+      <c r="D895" s="100"/>
+      <c r="E895" s="100"/>
+      <c r="F895" s="101"/>
     </row>
     <row r="896" spans="1:6" ht="18" thickBot="1">
-      <c r="C896" s="76" t="s">
+      <c r="C896" s="75" t="s">
         <v>560</v>
       </c>
-      <c r="D896" s="77"/>
-      <c r="E896" s="77"/>
-      <c r="F896" s="78"/>
+      <c r="D896" s="76"/>
+      <c r="E896" s="76"/>
+      <c r="F896" s="77"/>
     </row>
     <row r="897" spans="3:6" ht="27" thickBot="1">
-      <c r="C897" s="69" t="s">
+      <c r="C897" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D897" s="70"/>
-      <c r="E897" s="70"/>
-      <c r="F897" s="71"/>
+      <c r="D897" s="69"/>
+      <c r="E897" s="69"/>
+      <c r="F897" s="70"/>
     </row>
     <row r="898" spans="3:6" ht="18" thickBot="1">
       <c r="C898" s="34" t="s">
@@ -15903,12 +15968,12 @@
       <c r="F900" s="36"/>
     </row>
     <row r="901" spans="3:6" ht="27" thickBot="1">
-      <c r="C901" s="72" t="s">
+      <c r="C901" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D901" s="73"/>
-      <c r="E901" s="73"/>
-      <c r="F901" s="74"/>
+      <c r="D901" s="72"/>
+      <c r="E901" s="72"/>
+      <c r="F901" s="73"/>
     </row>
     <row r="902" spans="3:6" ht="18" thickBot="1">
       <c r="C902" s="38" t="s">
@@ -15945,12 +16010,12 @@
       <c r="F904" s="39"/>
     </row>
     <row r="905" spans="3:6" ht="27" thickBot="1">
-      <c r="C905" s="75" t="s">
+      <c r="C905" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D905" s="75"/>
-      <c r="E905" s="75"/>
-      <c r="F905" s="75"/>
+      <c r="D905" s="74"/>
+      <c r="E905" s="74"/>
+      <c r="F905" s="74"/>
     </row>
     <row r="906" spans="3:6" ht="18" thickBot="1">
       <c r="C906" s="38" t="s">
@@ -15967,7 +16032,7 @@
       </c>
     </row>
     <row r="907" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C907" s="65">
+      <c r="C907" s="64">
         <v>200</v>
       </c>
       <c r="D907" s="40" t="s">
@@ -15981,7 +16046,7 @@
       </c>
     </row>
     <row r="908" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C908" s="65"/>
+      <c r="C908" s="64"/>
       <c r="D908" s="40" t="s">
         <v>371</v>
       </c>
@@ -15993,7 +16058,7 @@
       </c>
     </row>
     <row r="909" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C909" s="65"/>
+      <c r="C909" s="64"/>
       <c r="D909" s="40" t="s">
         <v>373</v>
       </c>
@@ -16005,7 +16070,7 @@
       </c>
     </row>
     <row r="910" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C910" s="65"/>
+      <c r="C910" s="64"/>
       <c r="D910" s="40"/>
       <c r="E910" s="40"/>
       <c r="F910" s="40"/>
@@ -16026,28 +16091,28 @@
       <c r="B915" s="52" t="s">
         <v>183</v>
       </c>
-      <c r="C915" s="100" t="s">
+      <c r="C915" s="99" t="s">
         <v>563</v>
       </c>
-      <c r="D915" s="101"/>
-      <c r="E915" s="101"/>
-      <c r="F915" s="102"/>
+      <c r="D915" s="100"/>
+      <c r="E915" s="100"/>
+      <c r="F915" s="101"/>
     </row>
     <row r="916" spans="1:6" ht="18" thickBot="1">
-      <c r="C916" s="76" t="s">
+      <c r="C916" s="75" t="s">
         <v>564</v>
       </c>
-      <c r="D916" s="77"/>
-      <c r="E916" s="77"/>
-      <c r="F916" s="78"/>
+      <c r="D916" s="76"/>
+      <c r="E916" s="76"/>
+      <c r="F916" s="77"/>
     </row>
     <row r="917" spans="1:6" ht="27" thickBot="1">
-      <c r="C917" s="69" t="s">
+      <c r="C917" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D917" s="70"/>
-      <c r="E917" s="70"/>
-      <c r="F917" s="71"/>
+      <c r="D917" s="69"/>
+      <c r="E917" s="69"/>
+      <c r="F917" s="70"/>
     </row>
     <row r="918" spans="1:6" ht="18" thickBot="1">
       <c r="C918" s="34" t="s">
@@ -16088,12 +16153,12 @@
       <c r="F920" s="36"/>
     </row>
     <row r="921" spans="1:6" ht="27" thickBot="1">
-      <c r="C921" s="72" t="s">
+      <c r="C921" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D921" s="73"/>
-      <c r="E921" s="73"/>
-      <c r="F921" s="74"/>
+      <c r="D921" s="72"/>
+      <c r="E921" s="72"/>
+      <c r="F921" s="73"/>
     </row>
     <row r="922" spans="1:6" ht="18" thickBot="1">
       <c r="C922" s="38" t="s">
@@ -16154,12 +16219,12 @@
       </c>
     </row>
     <row r="926" spans="1:6" ht="27" thickBot="1">
-      <c r="C926" s="75" t="s">
+      <c r="C926" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D926" s="75"/>
-      <c r="E926" s="75"/>
-      <c r="F926" s="75"/>
+      <c r="D926" s="74"/>
+      <c r="E926" s="74"/>
+      <c r="F926" s="74"/>
     </row>
     <row r="927" spans="1:6" ht="18" thickBot="1">
       <c r="C927" s="38" t="s">
@@ -16176,7 +16241,7 @@
       </c>
     </row>
     <row r="928" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C928" s="65">
+      <c r="C928" s="64">
         <v>200</v>
       </c>
       <c r="D928" s="40" t="s">
@@ -16190,7 +16255,7 @@
       </c>
     </row>
     <row r="929" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C929" s="65"/>
+      <c r="C929" s="64"/>
       <c r="D929" s="40" t="s">
         <v>371</v>
       </c>
@@ -16202,7 +16267,7 @@
       </c>
     </row>
     <row r="930" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C930" s="65"/>
+      <c r="C930" s="64"/>
       <c r="D930" s="40" t="s">
         <v>373</v>
       </c>
@@ -16214,7 +16279,7 @@
       </c>
     </row>
     <row r="931" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C931" s="65"/>
+      <c r="C931" s="64"/>
       <c r="D931" s="40"/>
       <c r="E931" s="40"/>
       <c r="F931" s="40"/>
@@ -16235,28 +16300,28 @@
       <c r="B935" s="52" t="s">
         <v>183</v>
       </c>
-      <c r="C935" s="100" t="s">
+      <c r="C935" s="99" t="s">
         <v>568</v>
       </c>
-      <c r="D935" s="101"/>
-      <c r="E935" s="101"/>
-      <c r="F935" s="102"/>
+      <c r="D935" s="100"/>
+      <c r="E935" s="100"/>
+      <c r="F935" s="101"/>
     </row>
     <row r="936" spans="1:6" ht="18" thickBot="1">
-      <c r="C936" s="76" t="s">
+      <c r="C936" s="75" t="s">
         <v>569</v>
       </c>
-      <c r="D936" s="77"/>
-      <c r="E936" s="77"/>
-      <c r="F936" s="78"/>
+      <c r="D936" s="76"/>
+      <c r="E936" s="76"/>
+      <c r="F936" s="77"/>
     </row>
     <row r="937" spans="1:6" ht="27" thickBot="1">
-      <c r="C937" s="69" t="s">
+      <c r="C937" s="68" t="s">
         <v>340</v>
       </c>
-      <c r="D937" s="70"/>
-      <c r="E937" s="70"/>
-      <c r="F937" s="71"/>
+      <c r="D937" s="69"/>
+      <c r="E937" s="69"/>
+      <c r="F937" s="70"/>
     </row>
     <row r="938" spans="1:6" ht="18" thickBot="1">
       <c r="C938" s="34" t="s">
@@ -16297,12 +16362,12 @@
       <c r="F940" s="36"/>
     </row>
     <row r="941" spans="1:6" ht="27" thickBot="1">
-      <c r="C941" s="72" t="s">
+      <c r="C941" s="71" t="s">
         <v>346</v>
       </c>
-      <c r="D941" s="73"/>
-      <c r="E941" s="73"/>
-      <c r="F941" s="74"/>
+      <c r="D941" s="72"/>
+      <c r="E941" s="72"/>
+      <c r="F941" s="73"/>
     </row>
     <row r="942" spans="1:6" ht="18" thickBot="1">
       <c r="C942" s="38" t="s">
@@ -16361,12 +16426,12 @@
       </c>
     </row>
     <row r="946" spans="3:6" ht="27" thickBot="1">
-      <c r="C946" s="75" t="s">
+      <c r="C946" s="74" t="s">
         <v>349</v>
       </c>
-      <c r="D946" s="75"/>
-      <c r="E946" s="75"/>
-      <c r="F946" s="75"/>
+      <c r="D946" s="74"/>
+      <c r="E946" s="74"/>
+      <c r="F946" s="74"/>
     </row>
     <row r="947" spans="3:6" ht="18" thickBot="1">
       <c r="C947" s="38" t="s">
@@ -16383,7 +16448,7 @@
       </c>
     </row>
     <row r="948" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C948" s="65">
+      <c r="C948" s="64">
         <v>200</v>
       </c>
       <c r="D948" s="40" t="s">
@@ -16397,7 +16462,7 @@
       </c>
     </row>
     <row r="949" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C949" s="65"/>
+      <c r="C949" s="64"/>
       <c r="D949" s="40" t="s">
         <v>371</v>
       </c>
@@ -16409,7 +16474,7 @@
       </c>
     </row>
     <row r="950" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C950" s="65"/>
+      <c r="C950" s="64"/>
       <c r="D950" s="40" t="s">
         <v>373</v>
       </c>
@@ -16421,7 +16486,7 @@
       </c>
     </row>
     <row r="951" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C951" s="65"/>
+      <c r="C951" s="64"/>
       <c r="D951" s="40"/>
       <c r="E951" s="40"/>
       <c r="F951" s="40"/>
@@ -16747,7 +16812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0585415E-990D-4C98-B34F-7A71519C3DB1}">
   <dimension ref="B2:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>

--- a/docs/APIDocs/API명세서.xlsx
+++ b/docs/APIDocs/API명세서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\GameProject\docs\APIDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37A2A06-3C38-4E4F-B0DE-2C785F45D594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E29EC7-B64F-49C0-8E9B-F65E03BFB33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{4E8C34D6-CE1A-427D-9403-2013A6AFC92D}"/>
   </bookViews>
@@ -20,7 +20,6 @@
     <sheet name="상태와 오류코드" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2682" uniqueCount="604">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2682" uniqueCount="606">
   <si>
     <t>URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2701,6 +2700,28 @@
     "accountPw": "12345",
     "countryCode": 1,
     "languageCode": 1
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+      "userCode": (int),
+      "InventoryCode": (int)
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "userCode" : 16,
+    "fishingRodCode" : 61,
+    "fishingLineCode" : 62,
+    "fishingNeedleCode" : 63,
+    "fishingBaitCode" : 64,
+    "fishingReelCode" : 65,
+    "fishingItemCode1" : 0,
+    "fishingItemCode2" : 0,
+    "fishingItemCode3" : 0,
+    "fishingItemCode4" : 0
 }</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3806,6 +3827,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3821,14 +3845,23 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -3851,22 +3884,49 @@
     <xf numFmtId="0" fontId="32" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="41" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="41" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="41" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="37" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3878,62 +3938,23 @@
     <xf numFmtId="0" fontId="30" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="41" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="41" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="41" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="39" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -5200,8 +5221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071D4A7B-DD4D-499C-AF7D-3FC54784CE79}">
   <dimension ref="B1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E28" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="F25" zoomScale="68" zoomScaleNormal="68" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5262,7 +5283,7 @@
       <c r="C3" s="54" t="s">
         <v>414</v>
       </c>
-      <c r="D3" s="61" t="s">
+      <c r="D3" s="62" t="s">
         <v>166</v>
       </c>
       <c r="E3" s="53" t="s">
@@ -5294,7 +5315,7 @@
       <c r="C4" s="54" t="s">
         <v>414</v>
       </c>
-      <c r="D4" s="62"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="53" t="s">
         <v>4</v>
       </c>
@@ -5322,7 +5343,7 @@
       <c r="C5" s="54" t="s">
         <v>414</v>
       </c>
-      <c r="D5" s="62"/>
+      <c r="D5" s="63"/>
       <c r="E5" s="53" t="s">
         <v>4</v>
       </c>
@@ -5350,14 +5371,14 @@
       <c r="C6" s="54" t="s">
         <v>414</v>
       </c>
-      <c r="D6" s="62"/>
+      <c r="D6" s="63"/>
       <c r="E6" s="53" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="55" t="s">
         <v>416</v>
       </c>
-      <c r="G6" s="102" t="s">
+      <c r="G6" s="60" t="s">
         <v>215</v>
       </c>
       <c r="H6" s="56" t="s">
@@ -5380,7 +5401,7 @@
       <c r="C7" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D7" s="62"/>
+      <c r="D7" s="63"/>
       <c r="E7" s="15" t="s">
         <v>4</v>
       </c>
@@ -5410,7 +5431,7 @@
       <c r="C8" s="59" t="s">
         <v>414</v>
       </c>
-      <c r="D8" s="62"/>
+      <c r="D8" s="63"/>
       <c r="E8" s="58" t="s">
         <v>4</v>
       </c>
@@ -5438,7 +5459,7 @@
       <c r="C9" s="54" t="s">
         <v>414</v>
       </c>
-      <c r="D9" s="63"/>
+      <c r="D9" s="64"/>
       <c r="E9" s="53" t="s">
         <v>4</v>
       </c>
@@ -5468,7 +5489,7 @@
       <c r="C10" s="54" t="s">
         <v>414</v>
       </c>
-      <c r="D10" s="61" t="s">
+      <c r="D10" s="62" t="s">
         <v>168</v>
       </c>
       <c r="E10" s="53" t="s">
@@ -5500,7 +5521,7 @@
       <c r="C11" s="54" t="s">
         <v>414</v>
       </c>
-      <c r="D11" s="62"/>
+      <c r="D11" s="63"/>
       <c r="E11" s="53" t="s">
         <v>4</v>
       </c>
@@ -5528,7 +5549,7 @@
       <c r="C12" s="54" t="s">
         <v>414</v>
       </c>
-      <c r="D12" s="62"/>
+      <c r="D12" s="63"/>
       <c r="E12" s="53" t="s">
         <v>4</v>
       </c>
@@ -5558,7 +5579,7 @@
       <c r="C13" s="54" t="s">
         <v>414</v>
       </c>
-      <c r="D13" s="62"/>
+      <c r="D13" s="63"/>
       <c r="E13" s="53" t="s">
         <v>4</v>
       </c>
@@ -5588,7 +5609,7 @@
       <c r="C14" s="54" t="s">
         <v>414</v>
       </c>
-      <c r="D14" s="62"/>
+      <c r="D14" s="63"/>
       <c r="E14" s="53" t="s">
         <v>4</v>
       </c>
@@ -5616,7 +5637,7 @@
       <c r="C15" s="54" t="s">
         <v>414</v>
       </c>
-      <c r="D15" s="62"/>
+      <c r="D15" s="63"/>
       <c r="E15" s="53" t="s">
         <v>4</v>
       </c>
@@ -5646,7 +5667,7 @@
       <c r="C16" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D16" s="62"/>
+      <c r="D16" s="63"/>
       <c r="E16" s="15" t="s">
         <v>4</v>
       </c>
@@ -5676,7 +5697,7 @@
       <c r="C17" s="54" t="s">
         <v>414</v>
       </c>
-      <c r="D17" s="62"/>
+      <c r="D17" s="63"/>
       <c r="E17" s="53" t="s">
         <v>4</v>
       </c>
@@ -5706,7 +5727,7 @@
       <c r="C18" s="54" t="s">
         <v>414</v>
       </c>
-      <c r="D18" s="62"/>
+      <c r="D18" s="63"/>
       <c r="E18" s="53" t="s">
         <v>4</v>
       </c>
@@ -5736,7 +5757,7 @@
       <c r="C19" s="54" t="s">
         <v>414</v>
       </c>
-      <c r="D19" s="62"/>
+      <c r="D19" s="63"/>
       <c r="E19" s="53" t="s">
         <v>4</v>
       </c>
@@ -5766,7 +5787,7 @@
       <c r="C20" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D20" s="62"/>
+      <c r="D20" s="63"/>
       <c r="E20" s="9" t="s">
         <v>4</v>
       </c>
@@ -5796,7 +5817,7 @@
       <c r="C21" s="54" t="s">
         <v>414</v>
       </c>
-      <c r="D21" s="62"/>
+      <c r="D21" s="63"/>
       <c r="E21" s="53" t="s">
         <v>4</v>
       </c>
@@ -5826,7 +5847,7 @@
       <c r="C22" s="54" t="s">
         <v>414</v>
       </c>
-      <c r="D22" s="62"/>
+      <c r="D22" s="63"/>
       <c r="E22" s="53" t="s">
         <v>4</v>
       </c>
@@ -5856,7 +5877,7 @@
       <c r="C23" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D23" s="62"/>
+      <c r="D23" s="63"/>
       <c r="E23" s="9" t="s">
         <v>4</v>
       </c>
@@ -5879,33 +5900,33 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="2:11" ht="66">
-      <c r="B24" s="15">
+    <row r="24" spans="2:11" s="57" customFormat="1" ht="66">
+      <c r="B24" s="53">
         <v>18</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="54" t="s">
         <v>414</v>
       </c>
-      <c r="D24" s="62"/>
-      <c r="E24" s="9" t="s">
+      <c r="D24" s="63"/>
+      <c r="E24" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="55" t="s">
         <v>428</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="G24" s="53" t="s">
         <v>215</v>
       </c>
-      <c r="H24" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="I24" s="16" t="s">
+      <c r="H24" s="56" t="s">
+        <v>604</v>
+      </c>
+      <c r="I24" s="53" t="s">
         <v>215</v>
       </c>
-      <c r="J24" s="16" t="s">
+      <c r="J24" s="53" t="s">
         <v>215</v>
       </c>
-      <c r="K24" s="19" t="s">
+      <c r="K24" s="55" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5916,7 +5937,7 @@
       <c r="C25" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D25" s="62"/>
+      <c r="D25" s="63"/>
       <c r="E25" s="9" t="s">
         <v>4</v>
       </c>
@@ -5946,7 +5967,7 @@
       <c r="C26" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D26" s="62"/>
+      <c r="D26" s="63"/>
       <c r="E26" s="9" t="s">
         <v>4</v>
       </c>
@@ -5969,33 +5990,33 @@
         <v>194</v>
       </c>
     </row>
-    <row r="27" spans="2:11" ht="82.5">
-      <c r="B27" s="15">
+    <row r="27" spans="2:11" s="57" customFormat="1" ht="198">
+      <c r="B27" s="53">
         <v>21</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="54" t="s">
         <v>414</v>
       </c>
-      <c r="D27" s="62"/>
-      <c r="E27" s="9" t="s">
+      <c r="D27" s="63"/>
+      <c r="E27" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="55" t="s">
         <v>431</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="G27" s="53" t="s">
         <v>215</v>
       </c>
-      <c r="H27" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="I27" s="13" t="s">
+      <c r="H27" s="56" t="s">
+        <v>605</v>
+      </c>
+      <c r="I27" s="56" t="s">
         <v>216</v>
       </c>
-      <c r="J27" s="16" t="s">
+      <c r="J27" s="53" t="s">
         <v>215</v>
       </c>
-      <c r="K27" s="19" t="s">
+      <c r="K27" s="55" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6006,7 +6027,7 @@
       <c r="C28" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D28" s="62"/>
+      <c r="D28" s="63"/>
       <c r="E28" s="9" t="s">
         <v>4</v>
       </c>
@@ -6036,7 +6057,7 @@
       <c r="C29" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D29" s="62"/>
+      <c r="D29" s="63"/>
       <c r="E29" s="9" t="s">
         <v>4</v>
       </c>
@@ -6066,7 +6087,7 @@
       <c r="C30" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D30" s="62"/>
+      <c r="D30" s="63"/>
       <c r="E30" s="9" t="s">
         <v>4</v>
       </c>
@@ -6096,7 +6117,7 @@
       <c r="C31" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D31" s="62"/>
+      <c r="D31" s="63"/>
       <c r="E31" s="9" t="s">
         <v>4</v>
       </c>
@@ -6126,7 +6147,7 @@
       <c r="C32" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D32" s="63"/>
+      <c r="D32" s="64"/>
       <c r="E32" s="9" t="s">
         <v>4</v>
       </c>
@@ -6156,7 +6177,7 @@
       <c r="C33" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D33" s="61" t="s">
+      <c r="D33" s="62" t="s">
         <v>170</v>
       </c>
       <c r="E33" s="9" t="s">
@@ -6186,7 +6207,7 @@
       <c r="C34" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D34" s="62"/>
+      <c r="D34" s="63"/>
       <c r="E34" s="9" t="s">
         <v>4</v>
       </c>
@@ -6216,7 +6237,7 @@
       <c r="C35" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D35" s="62"/>
+      <c r="D35" s="63"/>
       <c r="E35" s="9" t="s">
         <v>4</v>
       </c>
@@ -6246,7 +6267,7 @@
       <c r="C36" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D36" s="63"/>
+      <c r="D36" s="64"/>
       <c r="E36" s="9" t="s">
         <v>4</v>
       </c>
@@ -6276,7 +6297,7 @@
       <c r="C37" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D37" s="60" t="s">
+      <c r="D37" s="61" t="s">
         <v>173</v>
       </c>
       <c r="E37" s="9" t="s">
@@ -6308,7 +6329,7 @@
       <c r="C38" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D38" s="60"/>
+      <c r="D38" s="61"/>
       <c r="E38" s="9" t="s">
         <v>4</v>
       </c>
@@ -6338,7 +6359,7 @@
       <c r="C39" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D39" s="60"/>
+      <c r="D39" s="61"/>
       <c r="E39" s="9" t="s">
         <v>4</v>
       </c>
@@ -6368,7 +6389,7 @@
       <c r="C40" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D40" s="60" t="s">
+      <c r="D40" s="61" t="s">
         <v>175</v>
       </c>
       <c r="E40" s="9" t="s">
@@ -6400,7 +6421,7 @@
       <c r="C41" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D41" s="60"/>
+      <c r="D41" s="61"/>
       <c r="E41" s="9" t="s">
         <v>4</v>
       </c>
@@ -6430,7 +6451,7 @@
       <c r="C42" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D42" s="60"/>
+      <c r="D42" s="61"/>
       <c r="E42" s="15" t="s">
         <v>4</v>
       </c>
@@ -6460,7 +6481,7 @@
       <c r="C43" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D43" s="60"/>
+      <c r="D43" s="61"/>
       <c r="E43" s="9" t="s">
         <v>4</v>
       </c>
@@ -6490,7 +6511,7 @@
       <c r="C44" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D44" s="60" t="s">
+      <c r="D44" s="61" t="s">
         <v>177</v>
       </c>
       <c r="E44" s="9" t="s">
@@ -6522,7 +6543,7 @@
       <c r="C45" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D45" s="60"/>
+      <c r="D45" s="61"/>
       <c r="E45" s="9" t="s">
         <v>4</v>
       </c>
@@ -6552,7 +6573,7 @@
       <c r="C46" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D46" s="60"/>
+      <c r="D46" s="61"/>
       <c r="E46" s="9" t="s">
         <v>4</v>
       </c>
@@ -6582,7 +6603,7 @@
       <c r="C47" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D47" s="60"/>
+      <c r="D47" s="61"/>
       <c r="E47" s="9" t="s">
         <v>4</v>
       </c>
@@ -6612,7 +6633,7 @@
       <c r="C48" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D48" s="61" t="s">
+      <c r="D48" s="62" t="s">
         <v>181</v>
       </c>
       <c r="E48" s="15" t="s">
@@ -6644,7 +6665,7 @@
       <c r="C49" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D49" s="63"/>
+      <c r="D49" s="64"/>
       <c r="E49" s="9" t="s">
         <v>4</v>
       </c>
@@ -6674,7 +6695,7 @@
       <c r="C50" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D50" s="60" t="s">
+      <c r="D50" s="61" t="s">
         <v>183</v>
       </c>
       <c r="E50" s="9" t="s">
@@ -6706,7 +6727,7 @@
       <c r="C51" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D51" s="60"/>
+      <c r="D51" s="61"/>
       <c r="E51" s="15" t="s">
         <v>4</v>
       </c>
@@ -6736,7 +6757,7 @@
       <c r="C52" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D52" s="60"/>
+      <c r="D52" s="61"/>
       <c r="E52" s="9" t="s">
         <v>4</v>
       </c>
@@ -6766,7 +6787,7 @@
       <c r="C53" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D53" s="60" t="s">
+      <c r="D53" s="61" t="s">
         <v>184</v>
       </c>
       <c r="E53" s="9" t="s">
@@ -6796,7 +6817,7 @@
       <c r="C54" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D54" s="60"/>
+      <c r="D54" s="61"/>
       <c r="E54" s="9" t="s">
         <v>4</v>
       </c>
@@ -6826,7 +6847,7 @@
       <c r="C55" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="D55" s="60"/>
+      <c r="D55" s="61"/>
       <c r="E55" s="15" t="s">
         <v>4</v>
       </c>
@@ -6856,7 +6877,7 @@
       <c r="C56" s="27" t="s">
         <v>414</v>
       </c>
-      <c r="D56" s="60"/>
+      <c r="D56" s="61"/>
       <c r="E56" s="9" t="s">
         <v>4</v>
       </c>
@@ -6936,28 +6957,28 @@
       <c r="B2" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="100" t="s">
         <v>459</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="67"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="102"/>
     </row>
     <row r="3" spans="1:6" ht="32.450000000000003" customHeight="1" thickBot="1">
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="69" t="s">
         <v>354</v>
       </c>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="77"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="71"/>
     </row>
     <row r="4" spans="1:6" ht="25.15" customHeight="1" thickBot="1">
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="70"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="74"/>
     </row>
     <row r="5" spans="1:6" ht="18" thickBot="1">
       <c r="C5" s="34" t="s">
@@ -6984,12 +7005,12 @@
       <c r="F6" s="36"/>
     </row>
     <row r="7" spans="1:6" ht="27" thickBot="1">
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D7" s="72"/>
-      <c r="E7" s="72"/>
-      <c r="F7" s="73"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="76"/>
+      <c r="F7" s="77"/>
     </row>
     <row r="8" spans="1:6" ht="18" thickBot="1">
       <c r="C8" s="38" t="s">
@@ -7084,12 +7105,12 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="27" thickBot="1">
-      <c r="C14" s="74" t="s">
+      <c r="C14" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
+      <c r="D14" s="78"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="78"/>
     </row>
     <row r="15" spans="1:6" ht="18" thickBot="1">
       <c r="C15" s="38" t="s">
@@ -7106,7 +7127,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C16" s="64">
+      <c r="C16" s="65">
         <v>200</v>
       </c>
       <c r="D16" s="40" t="s">
@@ -7120,7 +7141,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C17" s="64"/>
+      <c r="C17" s="65"/>
       <c r="D17" s="40" t="s">
         <v>371</v>
       </c>
@@ -7132,7 +7153,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C18" s="64"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="40" t="s">
         <v>373</v>
       </c>
@@ -7144,7 +7165,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C19" s="64"/>
+      <c r="C19" s="65"/>
       <c r="D19" s="40"/>
       <c r="E19" s="40"/>
       <c r="F19" s="40"/>
@@ -7165,28 +7186,28 @@
       <c r="B23" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="C23" s="65" t="s">
+      <c r="C23" s="100" t="s">
         <v>460</v>
       </c>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="67"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="102"/>
     </row>
     <row r="24" spans="1:6" ht="18" thickBot="1">
-      <c r="C24" s="75" t="s">
+      <c r="C24" s="69" t="s">
         <v>353</v>
       </c>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="77"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="71"/>
     </row>
     <row r="25" spans="1:6" ht="27" thickBot="1">
-      <c r="C25" s="68" t="s">
+      <c r="C25" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D25" s="69"/>
-      <c r="E25" s="69"/>
-      <c r="F25" s="70"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="74"/>
     </row>
     <row r="26" spans="1:6" ht="18" thickBot="1">
       <c r="C26" s="34" t="s">
@@ -7213,12 +7234,12 @@
       <c r="F27" s="36"/>
     </row>
     <row r="28" spans="1:6" ht="27" thickBot="1">
-      <c r="C28" s="71" t="s">
+      <c r="C28" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D28" s="72"/>
-      <c r="E28" s="72"/>
-      <c r="F28" s="73"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="77"/>
     </row>
     <row r="29" spans="1:6" ht="18" thickBot="1">
       <c r="C29" s="38" t="s">
@@ -7263,12 +7284,12 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="27" thickBot="1">
-      <c r="C32" s="74" t="s">
+      <c r="C32" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D32" s="74"/>
-      <c r="E32" s="74"/>
-      <c r="F32" s="74"/>
+      <c r="D32" s="78"/>
+      <c r="E32" s="78"/>
+      <c r="F32" s="78"/>
     </row>
     <row r="33" spans="1:6" ht="18" thickBot="1">
       <c r="C33" s="38" t="s">
@@ -7285,7 +7306,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C34" s="64">
+      <c r="C34" s="65">
         <v>200</v>
       </c>
       <c r="D34" s="40" t="s">
@@ -7299,7 +7320,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C35" s="64"/>
+      <c r="C35" s="65"/>
       <c r="D35" s="40" t="s">
         <v>371</v>
       </c>
@@ -7311,7 +7332,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C36" s="64"/>
+      <c r="C36" s="65"/>
       <c r="D36" s="40" t="s">
         <v>373</v>
       </c>
@@ -7323,7 +7344,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C37" s="64"/>
+      <c r="C37" s="65"/>
       <c r="D37" s="40"/>
       <c r="E37" s="40"/>
       <c r="F37" s="40"/>
@@ -7344,28 +7365,28 @@
       <c r="B41" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="C41" s="65" t="s">
+      <c r="C41" s="100" t="s">
         <v>461</v>
       </c>
-      <c r="D41" s="66"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="67"/>
+      <c r="D41" s="101"/>
+      <c r="E41" s="101"/>
+      <c r="F41" s="102"/>
     </row>
     <row r="42" spans="1:6" ht="18" thickBot="1">
-      <c r="C42" s="75" t="s">
+      <c r="C42" s="69" t="s">
         <v>375</v>
       </c>
-      <c r="D42" s="76"/>
-      <c r="E42" s="76"/>
-      <c r="F42" s="77"/>
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="71"/>
     </row>
     <row r="43" spans="1:6" ht="27" thickBot="1">
-      <c r="C43" s="68" t="s">
+      <c r="C43" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D43" s="69"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="70"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="74"/>
     </row>
     <row r="44" spans="1:6" ht="18" thickBot="1">
       <c r="C44" s="34" t="s">
@@ -7392,12 +7413,12 @@
       <c r="F45" s="36"/>
     </row>
     <row r="46" spans="1:6" ht="27" thickBot="1">
-      <c r="C46" s="71" t="s">
+      <c r="C46" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D46" s="72"/>
-      <c r="E46" s="72"/>
-      <c r="F46" s="73"/>
+      <c r="D46" s="76"/>
+      <c r="E46" s="76"/>
+      <c r="F46" s="77"/>
     </row>
     <row r="47" spans="1:6" ht="18" thickBot="1">
       <c r="C47" s="38" t="s">
@@ -7428,12 +7449,12 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="27" thickBot="1">
-      <c r="C49" s="74" t="s">
+      <c r="C49" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D49" s="74"/>
-      <c r="E49" s="74"/>
-      <c r="F49" s="74"/>
+      <c r="D49" s="78"/>
+      <c r="E49" s="78"/>
+      <c r="F49" s="78"/>
     </row>
     <row r="50" spans="1:6" ht="18" thickBot="1">
       <c r="C50" s="38" t="s">
@@ -7450,7 +7471,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C51" s="64">
+      <c r="C51" s="65">
         <v>200</v>
       </c>
       <c r="D51" s="40" t="s">
@@ -7464,7 +7485,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C52" s="64"/>
+      <c r="C52" s="65"/>
       <c r="D52" s="40" t="s">
         <v>371</v>
       </c>
@@ -7476,7 +7497,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C53" s="64"/>
+      <c r="C53" s="65"/>
       <c r="D53" s="40" t="s">
         <v>373</v>
       </c>
@@ -7488,7 +7509,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C54" s="64"/>
+      <c r="C54" s="65"/>
       <c r="D54" s="40"/>
       <c r="E54" s="40"/>
       <c r="F54" s="40"/>
@@ -7509,28 +7530,28 @@
       <c r="B58" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="C58" s="65" t="s">
+      <c r="C58" s="100" t="s">
         <v>462</v>
       </c>
-      <c r="D58" s="66"/>
-      <c r="E58" s="66"/>
-      <c r="F58" s="67"/>
+      <c r="D58" s="101"/>
+      <c r="E58" s="101"/>
+      <c r="F58" s="102"/>
     </row>
     <row r="59" spans="1:6" ht="18" thickBot="1">
-      <c r="C59" s="75" t="s">
+      <c r="C59" s="69" t="s">
         <v>383</v>
       </c>
-      <c r="D59" s="76"/>
-      <c r="E59" s="76"/>
-      <c r="F59" s="77"/>
+      <c r="D59" s="70"/>
+      <c r="E59" s="70"/>
+      <c r="F59" s="71"/>
     </row>
     <row r="60" spans="1:6" ht="27" thickBot="1">
-      <c r="C60" s="68" t="s">
+      <c r="C60" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D60" s="69"/>
-      <c r="E60" s="69"/>
-      <c r="F60" s="70"/>
+      <c r="D60" s="73"/>
+      <c r="E60" s="73"/>
+      <c r="F60" s="74"/>
     </row>
     <row r="61" spans="1:6" ht="18" thickBot="1">
       <c r="C61" s="34" t="s">
@@ -7557,12 +7578,12 @@
       <c r="F62" s="36"/>
     </row>
     <row r="63" spans="1:6" ht="27" thickBot="1">
-      <c r="C63" s="71" t="s">
+      <c r="C63" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D63" s="72"/>
-      <c r="E63" s="72"/>
-      <c r="F63" s="73"/>
+      <c r="D63" s="76"/>
+      <c r="E63" s="76"/>
+      <c r="F63" s="77"/>
     </row>
     <row r="64" spans="1:6" ht="18" thickBot="1">
       <c r="C64" s="38" t="s">
@@ -7593,12 +7614,12 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="27" thickBot="1">
-      <c r="C66" s="74" t="s">
+      <c r="C66" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D66" s="74"/>
-      <c r="E66" s="74"/>
-      <c r="F66" s="74"/>
+      <c r="D66" s="78"/>
+      <c r="E66" s="78"/>
+      <c r="F66" s="78"/>
     </row>
     <row r="67" spans="1:6" ht="18" thickBot="1">
       <c r="C67" s="38" t="s">
@@ -7615,7 +7636,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C68" s="64">
+      <c r="C68" s="65">
         <v>200</v>
       </c>
       <c r="D68" s="40" t="s">
@@ -7629,7 +7650,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C69" s="64"/>
+      <c r="C69" s="65"/>
       <c r="D69" s="40" t="s">
         <v>371</v>
       </c>
@@ -7641,7 +7662,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C70" s="64"/>
+      <c r="C70" s="65"/>
       <c r="D70" s="40" t="s">
         <v>373</v>
       </c>
@@ -7653,7 +7674,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C71" s="64"/>
+      <c r="C71" s="65"/>
       <c r="D71" s="40"/>
       <c r="E71" s="40"/>
       <c r="F71" s="40"/>
@@ -7674,28 +7695,28 @@
       <c r="B75" s="33" t="s">
         <v>166</v>
       </c>
-      <c r="C75" s="65" t="s">
+      <c r="C75" s="100" t="s">
         <v>463</v>
       </c>
-      <c r="D75" s="66"/>
-      <c r="E75" s="66"/>
-      <c r="F75" s="67"/>
+      <c r="D75" s="101"/>
+      <c r="E75" s="101"/>
+      <c r="F75" s="102"/>
     </row>
     <row r="76" spans="1:6" ht="18" thickBot="1">
-      <c r="C76" s="75" t="s">
+      <c r="C76" s="69" t="s">
         <v>382</v>
       </c>
-      <c r="D76" s="76"/>
-      <c r="E76" s="76"/>
-      <c r="F76" s="77"/>
+      <c r="D76" s="70"/>
+      <c r="E76" s="70"/>
+      <c r="F76" s="71"/>
     </row>
     <row r="77" spans="1:6" ht="27" thickBot="1">
-      <c r="C77" s="68" t="s">
+      <c r="C77" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D77" s="69"/>
-      <c r="E77" s="69"/>
-      <c r="F77" s="70"/>
+      <c r="D77" s="73"/>
+      <c r="E77" s="73"/>
+      <c r="F77" s="74"/>
     </row>
     <row r="78" spans="1:6" ht="18" thickBot="1">
       <c r="C78" s="34" t="s">
@@ -7722,12 +7743,12 @@
       <c r="F79" s="36"/>
     </row>
     <row r="80" spans="1:6" ht="27" thickBot="1">
-      <c r="C80" s="71" t="s">
+      <c r="C80" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D80" s="72"/>
-      <c r="E80" s="72"/>
-      <c r="F80" s="73"/>
+      <c r="D80" s="76"/>
+      <c r="E80" s="76"/>
+      <c r="F80" s="77"/>
     </row>
     <row r="81" spans="1:6" ht="18" thickBot="1">
       <c r="C81" s="38" t="s">
@@ -7758,12 +7779,12 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="27" thickBot="1">
-      <c r="C83" s="74" t="s">
+      <c r="C83" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D83" s="74"/>
-      <c r="E83" s="74"/>
-      <c r="F83" s="74"/>
+      <c r="D83" s="78"/>
+      <c r="E83" s="78"/>
+      <c r="F83" s="78"/>
     </row>
     <row r="84" spans="1:6" ht="18" thickBot="1">
       <c r="C84" s="38" t="s">
@@ -7780,7 +7801,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C85" s="64">
+      <c r="C85" s="65">
         <v>200</v>
       </c>
       <c r="D85" s="40" t="s">
@@ -7794,7 +7815,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C86" s="64"/>
+      <c r="C86" s="65"/>
       <c r="D86" s="40" t="s">
         <v>371</v>
       </c>
@@ -7806,7 +7827,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C87" s="64"/>
+      <c r="C87" s="65"/>
       <c r="D87" s="40" t="s">
         <v>373</v>
       </c>
@@ -7818,7 +7839,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C88" s="64"/>
+      <c r="C88" s="65"/>
       <c r="D88" s="40"/>
       <c r="E88" s="40"/>
       <c r="F88" s="40"/>
@@ -7839,28 +7860,28 @@
       <c r="B92" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C92" s="78" t="s">
+      <c r="C92" s="97" t="s">
         <v>464</v>
       </c>
-      <c r="D92" s="79"/>
-      <c r="E92" s="79"/>
-      <c r="F92" s="80"/>
+      <c r="D92" s="98"/>
+      <c r="E92" s="98"/>
+      <c r="F92" s="99"/>
     </row>
     <row r="93" spans="1:6" ht="18" thickBot="1">
-      <c r="C93" s="75" t="s">
+      <c r="C93" s="69" t="s">
         <v>381</v>
       </c>
-      <c r="D93" s="76"/>
-      <c r="E93" s="76"/>
-      <c r="F93" s="77"/>
+      <c r="D93" s="70"/>
+      <c r="E93" s="70"/>
+      <c r="F93" s="71"/>
     </row>
     <row r="94" spans="1:6" ht="27" thickBot="1">
-      <c r="C94" s="68" t="s">
+      <c r="C94" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D94" s="69"/>
-      <c r="E94" s="69"/>
-      <c r="F94" s="70"/>
+      <c r="D94" s="73"/>
+      <c r="E94" s="73"/>
+      <c r="F94" s="74"/>
     </row>
     <row r="95" spans="1:6" ht="18" thickBot="1">
       <c r="C95" s="34" t="s">
@@ -7903,12 +7924,12 @@
       <c r="F97" s="36"/>
     </row>
     <row r="98" spans="1:6" ht="27" thickBot="1">
-      <c r="C98" s="71" t="s">
+      <c r="C98" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D98" s="72"/>
-      <c r="E98" s="72"/>
-      <c r="F98" s="73"/>
+      <c r="D98" s="76"/>
+      <c r="E98" s="76"/>
+      <c r="F98" s="77"/>
     </row>
     <row r="99" spans="1:6" ht="18" thickBot="1">
       <c r="C99" s="38" t="s">
@@ -7939,12 +7960,12 @@
       </c>
     </row>
     <row r="101" spans="1:6" ht="27" thickBot="1">
-      <c r="C101" s="74" t="s">
+      <c r="C101" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D101" s="74"/>
-      <c r="E101" s="74"/>
-      <c r="F101" s="74"/>
+      <c r="D101" s="78"/>
+      <c r="E101" s="78"/>
+      <c r="F101" s="78"/>
     </row>
     <row r="102" spans="1:6" ht="18" thickBot="1">
       <c r="C102" s="38" t="s">
@@ -7961,7 +7982,7 @@
       </c>
     </row>
     <row r="103" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C103" s="64">
+      <c r="C103" s="65">
         <v>200</v>
       </c>
       <c r="D103" s="40" t="s">
@@ -7975,7 +7996,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C104" s="64"/>
+      <c r="C104" s="65"/>
       <c r="D104" s="40" t="s">
         <v>371</v>
       </c>
@@ -7987,7 +8008,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C105" s="64"/>
+      <c r="C105" s="65"/>
       <c r="D105" s="40" t="s">
         <v>373</v>
       </c>
@@ -7999,7 +8020,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C106" s="64"/>
+      <c r="C106" s="65"/>
       <c r="D106" s="40"/>
       <c r="E106" s="40"/>
       <c r="F106" s="40"/>
@@ -8020,28 +8041,28 @@
       <c r="B110" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C110" s="78" t="s">
+      <c r="C110" s="97" t="s">
         <v>465</v>
       </c>
-      <c r="D110" s="79"/>
-      <c r="E110" s="79"/>
-      <c r="F110" s="80"/>
+      <c r="D110" s="98"/>
+      <c r="E110" s="98"/>
+      <c r="F110" s="99"/>
     </row>
     <row r="111" spans="1:6" ht="18" thickBot="1">
-      <c r="C111" s="75" t="s">
+      <c r="C111" s="69" t="s">
         <v>386</v>
       </c>
-      <c r="D111" s="76"/>
-      <c r="E111" s="76"/>
-      <c r="F111" s="77"/>
+      <c r="D111" s="70"/>
+      <c r="E111" s="70"/>
+      <c r="F111" s="71"/>
     </row>
     <row r="112" spans="1:6" ht="27" thickBot="1">
-      <c r="C112" s="68" t="s">
+      <c r="C112" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D112" s="69"/>
-      <c r="E112" s="69"/>
-      <c r="F112" s="70"/>
+      <c r="D112" s="73"/>
+      <c r="E112" s="73"/>
+      <c r="F112" s="74"/>
     </row>
     <row r="113" spans="1:6" ht="18" thickBot="1">
       <c r="C113" s="34" t="s">
@@ -8082,12 +8103,12 @@
       <c r="F115" s="36"/>
     </row>
     <row r="116" spans="1:6" ht="27" thickBot="1">
-      <c r="C116" s="71" t="s">
+      <c r="C116" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D116" s="72"/>
-      <c r="E116" s="72"/>
-      <c r="F116" s="73"/>
+      <c r="D116" s="76"/>
+      <c r="E116" s="76"/>
+      <c r="F116" s="77"/>
     </row>
     <row r="117" spans="1:6" ht="18" thickBot="1">
       <c r="C117" s="38" t="s">
@@ -8118,12 +8139,12 @@
       </c>
     </row>
     <row r="119" spans="1:6" ht="27" thickBot="1">
-      <c r="C119" s="74" t="s">
+      <c r="C119" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D119" s="74"/>
-      <c r="E119" s="74"/>
-      <c r="F119" s="74"/>
+      <c r="D119" s="78"/>
+      <c r="E119" s="78"/>
+      <c r="F119" s="78"/>
     </row>
     <row r="120" spans="1:6" ht="18" thickBot="1">
       <c r="C120" s="38" t="s">
@@ -8140,7 +8161,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C121" s="64">
+      <c r="C121" s="65">
         <v>200</v>
       </c>
       <c r="D121" s="40" t="s">
@@ -8154,7 +8175,7 @@
       </c>
     </row>
     <row r="122" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C122" s="64"/>
+      <c r="C122" s="65"/>
       <c r="D122" s="40" t="s">
         <v>371</v>
       </c>
@@ -8166,7 +8187,7 @@
       </c>
     </row>
     <row r="123" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C123" s="64"/>
+      <c r="C123" s="65"/>
       <c r="D123" s="40" t="s">
         <v>373</v>
       </c>
@@ -8178,7 +8199,7 @@
       </c>
     </row>
     <row r="124" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C124" s="64"/>
+      <c r="C124" s="65"/>
       <c r="D124" s="40"/>
       <c r="E124" s="40"/>
       <c r="F124" s="40"/>
@@ -8199,28 +8220,28 @@
       <c r="B128" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C128" s="78" t="s">
+      <c r="C128" s="97" t="s">
         <v>466</v>
       </c>
-      <c r="D128" s="79"/>
-      <c r="E128" s="79"/>
-      <c r="F128" s="80"/>
+      <c r="D128" s="98"/>
+      <c r="E128" s="98"/>
+      <c r="F128" s="99"/>
     </row>
     <row r="129" spans="1:6" ht="18" thickBot="1">
-      <c r="C129" s="75" t="s">
+      <c r="C129" s="69" t="s">
         <v>387</v>
       </c>
-      <c r="D129" s="76"/>
-      <c r="E129" s="76"/>
-      <c r="F129" s="77"/>
+      <c r="D129" s="70"/>
+      <c r="E129" s="70"/>
+      <c r="F129" s="71"/>
     </row>
     <row r="130" spans="1:6" ht="27" thickBot="1">
-      <c r="C130" s="68" t="s">
+      <c r="C130" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D130" s="69"/>
-      <c r="E130" s="69"/>
-      <c r="F130" s="70"/>
+      <c r="D130" s="73"/>
+      <c r="E130" s="73"/>
+      <c r="F130" s="74"/>
     </row>
     <row r="131" spans="1:6" ht="18" thickBot="1">
       <c r="C131" s="34" t="s">
@@ -8261,12 +8282,12 @@
       <c r="F133" s="36"/>
     </row>
     <row r="134" spans="1:6" ht="27" thickBot="1">
-      <c r="C134" s="71" t="s">
+      <c r="C134" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D134" s="72"/>
-      <c r="E134" s="72"/>
-      <c r="F134" s="73"/>
+      <c r="D134" s="76"/>
+      <c r="E134" s="76"/>
+      <c r="F134" s="77"/>
     </row>
     <row r="135" spans="1:6" ht="18" thickBot="1">
       <c r="C135" s="38" t="s">
@@ -8313,12 +8334,12 @@
       </c>
     </row>
     <row r="138" spans="1:6" ht="27" thickBot="1">
-      <c r="C138" s="74" t="s">
+      <c r="C138" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D138" s="74"/>
-      <c r="E138" s="74"/>
-      <c r="F138" s="74"/>
+      <c r="D138" s="78"/>
+      <c r="E138" s="78"/>
+      <c r="F138" s="78"/>
     </row>
     <row r="139" spans="1:6" ht="18" thickBot="1">
       <c r="C139" s="38" t="s">
@@ -8335,7 +8356,7 @@
       </c>
     </row>
     <row r="140" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C140" s="64">
+      <c r="C140" s="65">
         <v>200</v>
       </c>
       <c r="D140" s="40" t="s">
@@ -8349,7 +8370,7 @@
       </c>
     </row>
     <row r="141" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C141" s="64"/>
+      <c r="C141" s="65"/>
       <c r="D141" s="40" t="s">
         <v>371</v>
       </c>
@@ -8361,7 +8382,7 @@
       </c>
     </row>
     <row r="142" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C142" s="64"/>
+      <c r="C142" s="65"/>
       <c r="D142" s="40" t="s">
         <v>373</v>
       </c>
@@ -8373,7 +8394,7 @@
       </c>
     </row>
     <row r="143" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C143" s="64"/>
+      <c r="C143" s="65"/>
       <c r="D143" s="40"/>
       <c r="E143" s="40"/>
       <c r="F143" s="40"/>
@@ -8394,28 +8415,28 @@
       <c r="B147" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C147" s="78" t="s">
+      <c r="C147" s="97" t="s">
         <v>467</v>
       </c>
-      <c r="D147" s="79"/>
-      <c r="E147" s="79"/>
-      <c r="F147" s="80"/>
+      <c r="D147" s="98"/>
+      <c r="E147" s="98"/>
+      <c r="F147" s="99"/>
     </row>
     <row r="148" spans="1:6" ht="18" thickBot="1">
-      <c r="C148" s="75" t="s">
+      <c r="C148" s="69" t="s">
         <v>401</v>
       </c>
-      <c r="D148" s="76"/>
-      <c r="E148" s="76"/>
-      <c r="F148" s="77"/>
+      <c r="D148" s="70"/>
+      <c r="E148" s="70"/>
+      <c r="F148" s="71"/>
     </row>
     <row r="149" spans="1:6" ht="27" thickBot="1">
-      <c r="C149" s="68" t="s">
+      <c r="C149" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D149" s="69"/>
-      <c r="E149" s="69"/>
-      <c r="F149" s="70"/>
+      <c r="D149" s="73"/>
+      <c r="E149" s="73"/>
+      <c r="F149" s="74"/>
     </row>
     <row r="150" spans="1:6" ht="18" thickBot="1">
       <c r="C150" s="34" t="s">
@@ -8456,12 +8477,12 @@
       <c r="F152" s="36"/>
     </row>
     <row r="153" spans="1:6" ht="27" thickBot="1">
-      <c r="C153" s="71" t="s">
+      <c r="C153" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D153" s="72"/>
-      <c r="E153" s="72"/>
-      <c r="F153" s="73"/>
+      <c r="D153" s="76"/>
+      <c r="E153" s="76"/>
+      <c r="F153" s="77"/>
     </row>
     <row r="154" spans="1:6" ht="18" thickBot="1">
       <c r="C154" s="38" t="s">
@@ -8578,12 +8599,12 @@
       <c r="F161" s="39"/>
     </row>
     <row r="162" spans="1:6" ht="27" thickBot="1">
-      <c r="C162" s="74" t="s">
+      <c r="C162" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D162" s="74"/>
-      <c r="E162" s="74"/>
-      <c r="F162" s="74"/>
+      <c r="D162" s="78"/>
+      <c r="E162" s="78"/>
+      <c r="F162" s="78"/>
     </row>
     <row r="163" spans="1:6" ht="18" thickBot="1">
       <c r="C163" s="38" t="s">
@@ -8600,7 +8621,7 @@
       </c>
     </row>
     <row r="164" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C164" s="64">
+      <c r="C164" s="65">
         <v>200</v>
       </c>
       <c r="D164" s="40" t="s">
@@ -8614,7 +8635,7 @@
       </c>
     </row>
     <row r="165" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C165" s="64"/>
+      <c r="C165" s="65"/>
       <c r="D165" s="40" t="s">
         <v>371</v>
       </c>
@@ -8626,7 +8647,7 @@
       </c>
     </row>
     <row r="166" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C166" s="64"/>
+      <c r="C166" s="65"/>
       <c r="D166" s="40" t="s">
         <v>373</v>
       </c>
@@ -8638,7 +8659,7 @@
       </c>
     </row>
     <row r="167" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C167" s="64"/>
+      <c r="C167" s="65"/>
       <c r="D167" s="40"/>
       <c r="E167" s="40"/>
       <c r="F167" s="40"/>
@@ -8659,28 +8680,28 @@
       <c r="B171" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C171" s="78" t="s">
+      <c r="C171" s="97" t="s">
         <v>468</v>
       </c>
-      <c r="D171" s="79"/>
-      <c r="E171" s="79"/>
-      <c r="F171" s="80"/>
+      <c r="D171" s="98"/>
+      <c r="E171" s="98"/>
+      <c r="F171" s="99"/>
     </row>
     <row r="172" spans="1:6" ht="18" thickBot="1">
-      <c r="C172" s="75" t="s">
+      <c r="C172" s="69" t="s">
         <v>402</v>
       </c>
-      <c r="D172" s="76"/>
-      <c r="E172" s="76"/>
-      <c r="F172" s="77"/>
+      <c r="D172" s="70"/>
+      <c r="E172" s="70"/>
+      <c r="F172" s="71"/>
     </row>
     <row r="173" spans="1:6" ht="27" thickBot="1">
-      <c r="C173" s="68" t="s">
+      <c r="C173" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D173" s="69"/>
-      <c r="E173" s="69"/>
-      <c r="F173" s="70"/>
+      <c r="D173" s="73"/>
+      <c r="E173" s="73"/>
+      <c r="F173" s="74"/>
     </row>
     <row r="174" spans="1:6" ht="18" thickBot="1">
       <c r="C174" s="34" t="s">
@@ -8721,12 +8742,12 @@
       <c r="F176" s="36"/>
     </row>
     <row r="177" spans="1:6" ht="27" thickBot="1">
-      <c r="C177" s="71" t="s">
+      <c r="C177" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D177" s="72"/>
-      <c r="E177" s="72"/>
-      <c r="F177" s="73"/>
+      <c r="D177" s="76"/>
+      <c r="E177" s="76"/>
+      <c r="F177" s="77"/>
     </row>
     <row r="178" spans="1:6" ht="18" thickBot="1">
       <c r="C178" s="38" t="s">
@@ -8777,12 +8798,12 @@
       <c r="F181" s="39"/>
     </row>
     <row r="182" spans="1:6" ht="27" thickBot="1">
-      <c r="C182" s="74" t="s">
+      <c r="C182" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D182" s="74"/>
-      <c r="E182" s="74"/>
-      <c r="F182" s="74"/>
+      <c r="D182" s="78"/>
+      <c r="E182" s="78"/>
+      <c r="F182" s="78"/>
     </row>
     <row r="183" spans="1:6" ht="18" thickBot="1">
       <c r="C183" s="38" t="s">
@@ -8799,7 +8820,7 @@
       </c>
     </row>
     <row r="184" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C184" s="64">
+      <c r="C184" s="65">
         <v>200</v>
       </c>
       <c r="D184" s="40" t="s">
@@ -8813,7 +8834,7 @@
       </c>
     </row>
     <row r="185" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C185" s="64"/>
+      <c r="C185" s="65"/>
       <c r="D185" s="40" t="s">
         <v>371</v>
       </c>
@@ -8825,7 +8846,7 @@
       </c>
     </row>
     <row r="186" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C186" s="64"/>
+      <c r="C186" s="65"/>
       <c r="D186" s="40" t="s">
         <v>373</v>
       </c>
@@ -8837,7 +8858,7 @@
       </c>
     </row>
     <row r="187" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C187" s="64"/>
+      <c r="C187" s="65"/>
       <c r="D187" s="40"/>
       <c r="E187" s="40"/>
       <c r="F187" s="40"/>
@@ -8858,28 +8879,28 @@
       <c r="B191" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C191" s="78" t="s">
+      <c r="C191" s="97" t="s">
         <v>469</v>
       </c>
-      <c r="D191" s="79"/>
-      <c r="E191" s="79"/>
-      <c r="F191" s="80"/>
+      <c r="D191" s="98"/>
+      <c r="E191" s="98"/>
+      <c r="F191" s="99"/>
     </row>
     <row r="192" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="C192" s="75" t="s">
+      <c r="C192" s="69" t="s">
         <v>407</v>
       </c>
-      <c r="D192" s="76"/>
-      <c r="E192" s="76"/>
-      <c r="F192" s="77"/>
+      <c r="D192" s="70"/>
+      <c r="E192" s="70"/>
+      <c r="F192" s="71"/>
     </row>
     <row r="193" spans="3:6" ht="27" thickBot="1">
-      <c r="C193" s="68" t="s">
+      <c r="C193" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D193" s="69"/>
-      <c r="E193" s="69"/>
-      <c r="F193" s="70"/>
+      <c r="D193" s="73"/>
+      <c r="E193" s="73"/>
+      <c r="F193" s="74"/>
     </row>
     <row r="194" spans="3:6" ht="18" thickBot="1">
       <c r="C194" s="34" t="s">
@@ -8920,12 +8941,12 @@
       <c r="F196" s="36"/>
     </row>
     <row r="197" spans="3:6" ht="27" thickBot="1">
-      <c r="C197" s="71" t="s">
+      <c r="C197" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D197" s="72"/>
-      <c r="E197" s="72"/>
-      <c r="F197" s="73"/>
+      <c r="D197" s="76"/>
+      <c r="E197" s="76"/>
+      <c r="F197" s="77"/>
     </row>
     <row r="198" spans="3:6" ht="18" thickBot="1">
       <c r="C198" s="38" t="s">
@@ -8962,12 +8983,12 @@
       <c r="F200" s="39"/>
     </row>
     <row r="201" spans="3:6" ht="27" thickBot="1">
-      <c r="C201" s="74" t="s">
+      <c r="C201" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D201" s="74"/>
-      <c r="E201" s="74"/>
-      <c r="F201" s="74"/>
+      <c r="D201" s="78"/>
+      <c r="E201" s="78"/>
+      <c r="F201" s="78"/>
     </row>
     <row r="202" spans="3:6" ht="18" thickBot="1">
       <c r="C202" s="38" t="s">
@@ -8984,7 +9005,7 @@
       </c>
     </row>
     <row r="203" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C203" s="64">
+      <c r="C203" s="65">
         <v>200</v>
       </c>
       <c r="D203" s="40" t="s">
@@ -8998,7 +9019,7 @@
       </c>
     </row>
     <row r="204" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C204" s="64"/>
+      <c r="C204" s="65"/>
       <c r="D204" s="40" t="s">
         <v>371</v>
       </c>
@@ -9010,7 +9031,7 @@
       </c>
     </row>
     <row r="205" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C205" s="64"/>
+      <c r="C205" s="65"/>
       <c r="D205" s="40" t="s">
         <v>373</v>
       </c>
@@ -9022,7 +9043,7 @@
       </c>
     </row>
     <row r="206" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C206" s="64"/>
+      <c r="C206" s="65"/>
       <c r="D206" s="40"/>
       <c r="E206" s="40"/>
       <c r="F206" s="40"/>
@@ -9043,28 +9064,28 @@
       <c r="B210" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C210" s="78" t="s">
+      <c r="C210" s="97" t="s">
         <v>470</v>
       </c>
-      <c r="D210" s="79"/>
-      <c r="E210" s="79"/>
-      <c r="F210" s="80"/>
+      <c r="D210" s="98"/>
+      <c r="E210" s="98"/>
+      <c r="F210" s="99"/>
     </row>
     <row r="211" spans="1:6" ht="18" thickBot="1">
-      <c r="C211" s="75" t="s">
+      <c r="C211" s="69" t="s">
         <v>408</v>
       </c>
-      <c r="D211" s="76"/>
-      <c r="E211" s="76"/>
-      <c r="F211" s="77"/>
+      <c r="D211" s="70"/>
+      <c r="E211" s="70"/>
+      <c r="F211" s="71"/>
     </row>
     <row r="212" spans="1:6" ht="27" thickBot="1">
-      <c r="C212" s="68" t="s">
+      <c r="C212" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D212" s="69"/>
-      <c r="E212" s="69"/>
-      <c r="F212" s="70"/>
+      <c r="D212" s="73"/>
+      <c r="E212" s="73"/>
+      <c r="F212" s="74"/>
     </row>
     <row r="213" spans="1:6" ht="18" thickBot="1">
       <c r="C213" s="34" t="s">
@@ -9105,12 +9126,12 @@
       <c r="F215" s="36"/>
     </row>
     <row r="216" spans="1:6" ht="27" thickBot="1">
-      <c r="C216" s="71" t="s">
+      <c r="C216" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D216" s="72"/>
-      <c r="E216" s="72"/>
-      <c r="F216" s="73"/>
+      <c r="D216" s="76"/>
+      <c r="E216" s="76"/>
+      <c r="F216" s="77"/>
     </row>
     <row r="217" spans="1:6" ht="18" thickBot="1">
       <c r="C217" s="38" t="s">
@@ -9161,12 +9182,12 @@
       <c r="F220" s="39"/>
     </row>
     <row r="221" spans="1:6" ht="27" thickBot="1">
-      <c r="C221" s="74" t="s">
+      <c r="C221" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D221" s="74"/>
-      <c r="E221" s="74"/>
-      <c r="F221" s="74"/>
+      <c r="D221" s="78"/>
+      <c r="E221" s="78"/>
+      <c r="F221" s="78"/>
     </row>
     <row r="222" spans="1:6" ht="18" thickBot="1">
       <c r="C222" s="38" t="s">
@@ -9183,7 +9204,7 @@
       </c>
     </row>
     <row r="223" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C223" s="64">
+      <c r="C223" s="65">
         <v>200</v>
       </c>
       <c r="D223" s="40" t="s">
@@ -9197,7 +9218,7 @@
       </c>
     </row>
     <row r="224" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C224" s="64"/>
+      <c r="C224" s="65"/>
       <c r="D224" s="40" t="s">
         <v>371</v>
       </c>
@@ -9209,7 +9230,7 @@
       </c>
     </row>
     <row r="225" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C225" s="64"/>
+      <c r="C225" s="65"/>
       <c r="D225" s="40" t="s">
         <v>373</v>
       </c>
@@ -9221,7 +9242,7 @@
       </c>
     </row>
     <row r="226" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C226" s="64"/>
+      <c r="C226" s="65"/>
       <c r="D226" s="40"/>
       <c r="E226" s="40"/>
       <c r="F226" s="40"/>
@@ -9242,28 +9263,28 @@
       <c r="B230" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C230" s="78" t="s">
+      <c r="C230" s="97" t="s">
         <v>471</v>
       </c>
-      <c r="D230" s="79"/>
-      <c r="E230" s="79"/>
-      <c r="F230" s="80"/>
+      <c r="D230" s="98"/>
+      <c r="E230" s="98"/>
+      <c r="F230" s="99"/>
     </row>
     <row r="231" spans="1:6" ht="18" thickBot="1">
-      <c r="C231" s="75" t="s">
+      <c r="C231" s="69" t="s">
         <v>495</v>
       </c>
-      <c r="D231" s="76"/>
-      <c r="E231" s="76"/>
-      <c r="F231" s="77"/>
+      <c r="D231" s="70"/>
+      <c r="E231" s="70"/>
+      <c r="F231" s="71"/>
     </row>
     <row r="232" spans="1:6" ht="27" thickBot="1">
-      <c r="C232" s="68" t="s">
+      <c r="C232" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D232" s="69"/>
-      <c r="E232" s="69"/>
-      <c r="F232" s="70"/>
+      <c r="D232" s="73"/>
+      <c r="E232" s="73"/>
+      <c r="F232" s="74"/>
     </row>
     <row r="233" spans="1:6" ht="18" thickBot="1">
       <c r="C233" s="34" t="s">
@@ -9304,12 +9325,12 @@
       <c r="F235" s="36"/>
     </row>
     <row r="236" spans="1:6" ht="27" thickBot="1">
-      <c r="C236" s="71" t="s">
+      <c r="C236" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D236" s="72"/>
-      <c r="E236" s="72"/>
-      <c r="F236" s="73"/>
+      <c r="D236" s="76"/>
+      <c r="E236" s="76"/>
+      <c r="F236" s="77"/>
     </row>
     <row r="237" spans="1:6" ht="18" thickBot="1">
       <c r="C237" s="38" t="s">
@@ -9346,12 +9367,12 @@
       <c r="F239" s="39"/>
     </row>
     <row r="240" spans="1:6" ht="27" thickBot="1">
-      <c r="C240" s="74" t="s">
+      <c r="C240" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D240" s="74"/>
-      <c r="E240" s="74"/>
-      <c r="F240" s="74"/>
+      <c r="D240" s="78"/>
+      <c r="E240" s="78"/>
+      <c r="F240" s="78"/>
     </row>
     <row r="241" spans="1:6" ht="18" thickBot="1">
       <c r="C241" s="38" t="s">
@@ -9368,7 +9389,7 @@
       </c>
     </row>
     <row r="242" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C242" s="64">
+      <c r="C242" s="65">
         <v>200</v>
       </c>
       <c r="D242" s="40" t="s">
@@ -9382,7 +9403,7 @@
       </c>
     </row>
     <row r="243" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C243" s="64"/>
+      <c r="C243" s="65"/>
       <c r="D243" s="40" t="s">
         <v>371</v>
       </c>
@@ -9394,7 +9415,7 @@
       </c>
     </row>
     <row r="244" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C244" s="64"/>
+      <c r="C244" s="65"/>
       <c r="D244" s="40" t="s">
         <v>373</v>
       </c>
@@ -9406,7 +9427,7 @@
       </c>
     </row>
     <row r="245" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C245" s="64"/>
+      <c r="C245" s="65"/>
       <c r="D245" s="40"/>
       <c r="E245" s="40"/>
       <c r="F245" s="40"/>
@@ -9427,28 +9448,28 @@
       <c r="B249" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C249" s="78" t="s">
+      <c r="C249" s="97" t="s">
         <v>472</v>
       </c>
-      <c r="D249" s="79"/>
-      <c r="E249" s="79"/>
-      <c r="F249" s="80"/>
+      <c r="D249" s="98"/>
+      <c r="E249" s="98"/>
+      <c r="F249" s="99"/>
     </row>
     <row r="250" spans="1:6" ht="18" thickBot="1">
-      <c r="C250" s="75" t="s">
+      <c r="C250" s="69" t="s">
         <v>494</v>
       </c>
-      <c r="D250" s="76"/>
-      <c r="E250" s="76"/>
-      <c r="F250" s="77"/>
+      <c r="D250" s="70"/>
+      <c r="E250" s="70"/>
+      <c r="F250" s="71"/>
     </row>
     <row r="251" spans="1:6" ht="27" thickBot="1">
-      <c r="C251" s="68" t="s">
+      <c r="C251" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D251" s="69"/>
-      <c r="E251" s="69"/>
-      <c r="F251" s="70"/>
+      <c r="D251" s="73"/>
+      <c r="E251" s="73"/>
+      <c r="F251" s="74"/>
     </row>
     <row r="252" spans="1:6" ht="18" thickBot="1">
       <c r="C252" s="34" t="s">
@@ -9489,12 +9510,12 @@
       <c r="F254" s="36"/>
     </row>
     <row r="255" spans="1:6" ht="27" thickBot="1">
-      <c r="C255" s="71" t="s">
+      <c r="C255" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D255" s="72"/>
-      <c r="E255" s="72"/>
-      <c r="F255" s="73"/>
+      <c r="D255" s="76"/>
+      <c r="E255" s="76"/>
+      <c r="F255" s="77"/>
     </row>
     <row r="256" spans="1:6" ht="18" thickBot="1">
       <c r="C256" s="38" t="s">
@@ -9545,12 +9566,12 @@
       <c r="F259" s="39"/>
     </row>
     <row r="260" spans="1:6" ht="27" thickBot="1">
-      <c r="C260" s="74" t="s">
+      <c r="C260" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D260" s="74"/>
-      <c r="E260" s="74"/>
-      <c r="F260" s="74"/>
+      <c r="D260" s="78"/>
+      <c r="E260" s="78"/>
+      <c r="F260" s="78"/>
     </row>
     <row r="261" spans="1:6" ht="18" thickBot="1">
       <c r="C261" s="38" t="s">
@@ -9567,7 +9588,7 @@
       </c>
     </row>
     <row r="262" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C262" s="64">
+      <c r="C262" s="65">
         <v>200</v>
       </c>
       <c r="D262" s="40" t="s">
@@ -9581,7 +9602,7 @@
       </c>
     </row>
     <row r="263" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C263" s="64"/>
+      <c r="C263" s="65"/>
       <c r="D263" s="40" t="s">
         <v>371</v>
       </c>
@@ -9593,7 +9614,7 @@
       </c>
     </row>
     <row r="264" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C264" s="64"/>
+      <c r="C264" s="65"/>
       <c r="D264" s="40" t="s">
         <v>373</v>
       </c>
@@ -9605,7 +9626,7 @@
       </c>
     </row>
     <row r="265" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C265" s="64"/>
+      <c r="C265" s="65"/>
       <c r="D265" s="40"/>
       <c r="E265" s="40"/>
       <c r="F265" s="40"/>
@@ -9626,28 +9647,28 @@
       <c r="B269" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C269" s="78" t="s">
+      <c r="C269" s="97" t="s">
         <v>473</v>
       </c>
-      <c r="D269" s="79"/>
-      <c r="E269" s="79"/>
-      <c r="F269" s="80"/>
+      <c r="D269" s="98"/>
+      <c r="E269" s="98"/>
+      <c r="F269" s="99"/>
     </row>
     <row r="270" spans="1:6" ht="18" thickBot="1">
-      <c r="C270" s="75" t="s">
+      <c r="C270" s="69" t="s">
         <v>493</v>
       </c>
-      <c r="D270" s="76"/>
-      <c r="E270" s="76"/>
-      <c r="F270" s="77"/>
+      <c r="D270" s="70"/>
+      <c r="E270" s="70"/>
+      <c r="F270" s="71"/>
     </row>
     <row r="271" spans="1:6" ht="27" thickBot="1">
-      <c r="C271" s="68" t="s">
+      <c r="C271" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D271" s="69"/>
-      <c r="E271" s="69"/>
-      <c r="F271" s="70"/>
+      <c r="D271" s="73"/>
+      <c r="E271" s="73"/>
+      <c r="F271" s="74"/>
     </row>
     <row r="272" spans="1:6" ht="18" thickBot="1">
       <c r="C272" s="34" t="s">
@@ -9688,12 +9709,12 @@
       <c r="F274" s="36"/>
     </row>
     <row r="275" spans="1:6" ht="27" thickBot="1">
-      <c r="C275" s="71" t="s">
+      <c r="C275" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D275" s="72"/>
-      <c r="E275" s="72"/>
-      <c r="F275" s="73"/>
+      <c r="D275" s="76"/>
+      <c r="E275" s="76"/>
+      <c r="F275" s="77"/>
     </row>
     <row r="276" spans="1:6" ht="18" thickBot="1">
       <c r="C276" s="38" t="s">
@@ -9730,12 +9751,12 @@
       <c r="F278" s="39"/>
     </row>
     <row r="279" spans="1:6" ht="27" thickBot="1">
-      <c r="C279" s="74" t="s">
+      <c r="C279" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D279" s="74"/>
-      <c r="E279" s="74"/>
-      <c r="F279" s="74"/>
+      <c r="D279" s="78"/>
+      <c r="E279" s="78"/>
+      <c r="F279" s="78"/>
     </row>
     <row r="280" spans="1:6" ht="18" thickBot="1">
       <c r="C280" s="38" t="s">
@@ -9752,7 +9773,7 @@
       </c>
     </row>
     <row r="281" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C281" s="64">
+      <c r="C281" s="65">
         <v>200</v>
       </c>
       <c r="D281" s="40" t="s">
@@ -9766,7 +9787,7 @@
       </c>
     </row>
     <row r="282" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C282" s="64"/>
+      <c r="C282" s="65"/>
       <c r="D282" s="40" t="s">
         <v>371</v>
       </c>
@@ -9778,7 +9799,7 @@
       </c>
     </row>
     <row r="283" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C283" s="64"/>
+      <c r="C283" s="65"/>
       <c r="D283" s="40" t="s">
         <v>373</v>
       </c>
@@ -9790,7 +9811,7 @@
       </c>
     </row>
     <row r="284" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C284" s="64"/>
+      <c r="C284" s="65"/>
       <c r="D284" s="40"/>
       <c r="E284" s="40"/>
       <c r="F284" s="40"/>
@@ -9811,28 +9832,28 @@
       <c r="B288" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C288" s="78" t="s">
+      <c r="C288" s="97" t="s">
         <v>474</v>
       </c>
-      <c r="D288" s="79"/>
-      <c r="E288" s="79"/>
-      <c r="F288" s="80"/>
+      <c r="D288" s="98"/>
+      <c r="E288" s="98"/>
+      <c r="F288" s="99"/>
     </row>
     <row r="289" spans="3:6" ht="18" thickBot="1">
-      <c r="C289" s="75" t="s">
+      <c r="C289" s="69" t="s">
         <v>492</v>
       </c>
-      <c r="D289" s="76"/>
-      <c r="E289" s="76"/>
-      <c r="F289" s="77"/>
+      <c r="D289" s="70"/>
+      <c r="E289" s="70"/>
+      <c r="F289" s="71"/>
     </row>
     <row r="290" spans="3:6" ht="27" thickBot="1">
-      <c r="C290" s="68" t="s">
+      <c r="C290" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D290" s="69"/>
-      <c r="E290" s="69"/>
-      <c r="F290" s="70"/>
+      <c r="D290" s="73"/>
+      <c r="E290" s="73"/>
+      <c r="F290" s="74"/>
     </row>
     <row r="291" spans="3:6" ht="18" thickBot="1">
       <c r="C291" s="34" t="s">
@@ -9873,12 +9894,12 @@
       <c r="F293" s="36"/>
     </row>
     <row r="294" spans="3:6" ht="27" thickBot="1">
-      <c r="C294" s="71" t="s">
+      <c r="C294" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D294" s="72"/>
-      <c r="E294" s="72"/>
-      <c r="F294" s="73"/>
+      <c r="D294" s="76"/>
+      <c r="E294" s="76"/>
+      <c r="F294" s="77"/>
     </row>
     <row r="295" spans="3:6" ht="18" thickBot="1">
       <c r="C295" s="38" t="s">
@@ -9921,12 +9942,12 @@
       <c r="F297" s="39"/>
     </row>
     <row r="298" spans="3:6" ht="27" thickBot="1">
-      <c r="C298" s="74" t="s">
+      <c r="C298" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D298" s="74"/>
-      <c r="E298" s="74"/>
-      <c r="F298" s="74"/>
+      <c r="D298" s="78"/>
+      <c r="E298" s="78"/>
+      <c r="F298" s="78"/>
     </row>
     <row r="299" spans="3:6" ht="18" thickBot="1">
       <c r="C299" s="38" t="s">
@@ -9943,7 +9964,7 @@
       </c>
     </row>
     <row r="300" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C300" s="64">
+      <c r="C300" s="65">
         <v>200</v>
       </c>
       <c r="D300" s="40" t="s">
@@ -9957,7 +9978,7 @@
       </c>
     </row>
     <row r="301" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C301" s="64"/>
+      <c r="C301" s="65"/>
       <c r="D301" s="40" t="s">
         <v>371</v>
       </c>
@@ -9969,7 +9990,7 @@
       </c>
     </row>
     <row r="302" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C302" s="64"/>
+      <c r="C302" s="65"/>
       <c r="D302" s="40" t="s">
         <v>373</v>
       </c>
@@ -9981,7 +10002,7 @@
       </c>
     </row>
     <row r="303" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C303" s="64"/>
+      <c r="C303" s="65"/>
       <c r="D303" s="40"/>
       <c r="E303" s="40"/>
       <c r="F303" s="40"/>
@@ -10002,28 +10023,28 @@
       <c r="B307" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C307" s="78" t="s">
+      <c r="C307" s="97" t="s">
         <v>475</v>
       </c>
-      <c r="D307" s="79"/>
-      <c r="E307" s="79"/>
-      <c r="F307" s="80"/>
+      <c r="D307" s="98"/>
+      <c r="E307" s="98"/>
+      <c r="F307" s="99"/>
     </row>
     <row r="308" spans="1:6" ht="18" thickBot="1">
-      <c r="C308" s="75" t="s">
+      <c r="C308" s="69" t="s">
         <v>491</v>
       </c>
-      <c r="D308" s="76"/>
-      <c r="E308" s="76"/>
-      <c r="F308" s="77"/>
+      <c r="D308" s="70"/>
+      <c r="E308" s="70"/>
+      <c r="F308" s="71"/>
     </row>
     <row r="309" spans="1:6" ht="27" thickBot="1">
-      <c r="C309" s="68" t="s">
+      <c r="C309" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D309" s="69"/>
-      <c r="E309" s="69"/>
-      <c r="F309" s="70"/>
+      <c r="D309" s="73"/>
+      <c r="E309" s="73"/>
+      <c r="F309" s="74"/>
     </row>
     <row r="310" spans="1:6" ht="18" thickBot="1">
       <c r="C310" s="34" t="s">
@@ -10064,12 +10085,12 @@
       <c r="F312" s="36"/>
     </row>
     <row r="313" spans="1:6" ht="27" thickBot="1">
-      <c r="C313" s="71" t="s">
+      <c r="C313" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D313" s="72"/>
-      <c r="E313" s="72"/>
-      <c r="F313" s="73"/>
+      <c r="D313" s="76"/>
+      <c r="E313" s="76"/>
+      <c r="F313" s="77"/>
     </row>
     <row r="314" spans="1:6" ht="18" thickBot="1">
       <c r="C314" s="38" t="s">
@@ -10112,12 +10133,12 @@
       <c r="F316" s="39"/>
     </row>
     <row r="317" spans="1:6" ht="27" thickBot="1">
-      <c r="C317" s="74" t="s">
+      <c r="C317" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D317" s="74"/>
-      <c r="E317" s="74"/>
-      <c r="F317" s="74"/>
+      <c r="D317" s="78"/>
+      <c r="E317" s="78"/>
+      <c r="F317" s="78"/>
     </row>
     <row r="318" spans="1:6" ht="18" thickBot="1">
       <c r="C318" s="38" t="s">
@@ -10134,7 +10155,7 @@
       </c>
     </row>
     <row r="319" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C319" s="64">
+      <c r="C319" s="65">
         <v>200</v>
       </c>
       <c r="D319" s="40" t="s">
@@ -10148,7 +10169,7 @@
       </c>
     </row>
     <row r="320" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C320" s="64"/>
+      <c r="C320" s="65"/>
       <c r="D320" s="40" t="s">
         <v>371</v>
       </c>
@@ -10160,7 +10181,7 @@
       </c>
     </row>
     <row r="321" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C321" s="64"/>
+      <c r="C321" s="65"/>
       <c r="D321" s="40" t="s">
         <v>373</v>
       </c>
@@ -10172,7 +10193,7 @@
       </c>
     </row>
     <row r="322" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C322" s="64"/>
+      <c r="C322" s="65"/>
       <c r="D322" s="40"/>
       <c r="E322" s="40"/>
       <c r="F322" s="40"/>
@@ -10193,28 +10214,28 @@
       <c r="B326" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C326" s="78" t="s">
+      <c r="C326" s="97" t="s">
         <v>476</v>
       </c>
-      <c r="D326" s="79"/>
-      <c r="E326" s="79"/>
-      <c r="F326" s="80"/>
+      <c r="D326" s="98"/>
+      <c r="E326" s="98"/>
+      <c r="F326" s="99"/>
     </row>
     <row r="327" spans="1:6" ht="18" thickBot="1">
-      <c r="C327" s="75" t="s">
+      <c r="C327" s="69" t="s">
         <v>490</v>
       </c>
-      <c r="D327" s="76"/>
-      <c r="E327" s="76"/>
-      <c r="F327" s="77"/>
+      <c r="D327" s="70"/>
+      <c r="E327" s="70"/>
+      <c r="F327" s="71"/>
     </row>
     <row r="328" spans="1:6" ht="27" thickBot="1">
-      <c r="C328" s="68" t="s">
+      <c r="C328" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D328" s="69"/>
-      <c r="E328" s="69"/>
-      <c r="F328" s="70"/>
+      <c r="D328" s="73"/>
+      <c r="E328" s="73"/>
+      <c r="F328" s="74"/>
     </row>
     <row r="329" spans="1:6" ht="18" thickBot="1">
       <c r="C329" s="34" t="s">
@@ -10255,12 +10276,12 @@
       <c r="F331" s="36"/>
     </row>
     <row r="332" spans="1:6" ht="27" thickBot="1">
-      <c r="C332" s="71" t="s">
+      <c r="C332" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D332" s="72"/>
-      <c r="E332" s="72"/>
-      <c r="F332" s="73"/>
+      <c r="D332" s="76"/>
+      <c r="E332" s="76"/>
+      <c r="F332" s="77"/>
     </row>
     <row r="333" spans="1:6" ht="18" thickBot="1">
       <c r="C333" s="38" t="s">
@@ -10303,12 +10324,12 @@
       <c r="F335" s="39"/>
     </row>
     <row r="336" spans="1:6" ht="27" thickBot="1">
-      <c r="C336" s="74" t="s">
+      <c r="C336" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D336" s="74"/>
-      <c r="E336" s="74"/>
-      <c r="F336" s="74"/>
+      <c r="D336" s="78"/>
+      <c r="E336" s="78"/>
+      <c r="F336" s="78"/>
     </row>
     <row r="337" spans="1:6" ht="18" thickBot="1">
       <c r="C337" s="38" t="s">
@@ -10325,7 +10346,7 @@
       </c>
     </row>
     <row r="338" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C338" s="64">
+      <c r="C338" s="65">
         <v>200</v>
       </c>
       <c r="D338" s="40" t="s">
@@ -10339,7 +10360,7 @@
       </c>
     </row>
     <row r="339" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C339" s="64"/>
+      <c r="C339" s="65"/>
       <c r="D339" s="40" t="s">
         <v>371</v>
       </c>
@@ -10351,7 +10372,7 @@
       </c>
     </row>
     <row r="340" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C340" s="64"/>
+      <c r="C340" s="65"/>
       <c r="D340" s="40" t="s">
         <v>373</v>
       </c>
@@ -10363,7 +10384,7 @@
       </c>
     </row>
     <row r="341" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C341" s="64"/>
+      <c r="C341" s="65"/>
       <c r="D341" s="40"/>
       <c r="E341" s="40"/>
       <c r="F341" s="40"/>
@@ -10384,28 +10405,28 @@
       <c r="B345" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C345" s="78" t="s">
+      <c r="C345" s="97" t="s">
         <v>478</v>
       </c>
-      <c r="D345" s="79"/>
-      <c r="E345" s="79"/>
-      <c r="F345" s="80"/>
+      <c r="D345" s="98"/>
+      <c r="E345" s="98"/>
+      <c r="F345" s="99"/>
     </row>
     <row r="346" spans="1:6" ht="18" thickBot="1">
-      <c r="C346" s="75" t="s">
+      <c r="C346" s="69" t="s">
         <v>484</v>
       </c>
-      <c r="D346" s="76"/>
-      <c r="E346" s="76"/>
-      <c r="F346" s="77"/>
+      <c r="D346" s="70"/>
+      <c r="E346" s="70"/>
+      <c r="F346" s="71"/>
     </row>
     <row r="347" spans="1:6" ht="27" thickBot="1">
-      <c r="C347" s="68" t="s">
+      <c r="C347" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D347" s="69"/>
-      <c r="E347" s="69"/>
-      <c r="F347" s="70"/>
+      <c r="D347" s="73"/>
+      <c r="E347" s="73"/>
+      <c r="F347" s="74"/>
     </row>
     <row r="348" spans="1:6" ht="18" thickBot="1">
       <c r="C348" s="34" t="s">
@@ -10446,12 +10467,12 @@
       <c r="F350" s="36"/>
     </row>
     <row r="351" spans="1:6" ht="27" thickBot="1">
-      <c r="C351" s="71" t="s">
+      <c r="C351" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D351" s="72"/>
-      <c r="E351" s="72"/>
-      <c r="F351" s="73"/>
+      <c r="D351" s="76"/>
+      <c r="E351" s="76"/>
+      <c r="F351" s="77"/>
     </row>
     <row r="352" spans="1:6" ht="18" thickBot="1">
       <c r="C352" s="38" t="s">
@@ -10488,12 +10509,12 @@
       <c r="F354" s="39"/>
     </row>
     <row r="355" spans="1:6" ht="27" thickBot="1">
-      <c r="C355" s="74" t="s">
+      <c r="C355" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D355" s="74"/>
-      <c r="E355" s="74"/>
-      <c r="F355" s="74"/>
+      <c r="D355" s="78"/>
+      <c r="E355" s="78"/>
+      <c r="F355" s="78"/>
     </row>
     <row r="356" spans="1:6" ht="18" thickBot="1">
       <c r="C356" s="38" t="s">
@@ -10510,7 +10531,7 @@
       </c>
     </row>
     <row r="357" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C357" s="64">
+      <c r="C357" s="65">
         <v>200</v>
       </c>
       <c r="D357" s="40" t="s">
@@ -10524,7 +10545,7 @@
       </c>
     </row>
     <row r="358" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C358" s="64"/>
+      <c r="C358" s="65"/>
       <c r="D358" s="40" t="s">
         <v>371</v>
       </c>
@@ -10536,7 +10557,7 @@
       </c>
     </row>
     <row r="359" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C359" s="64"/>
+      <c r="C359" s="65"/>
       <c r="D359" s="40" t="s">
         <v>373</v>
       </c>
@@ -10548,7 +10569,7 @@
       </c>
     </row>
     <row r="360" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C360" s="64"/>
+      <c r="C360" s="65"/>
       <c r="D360" s="40"/>
       <c r="E360" s="40"/>
       <c r="F360" s="40"/>
@@ -10569,28 +10590,28 @@
       <c r="B364" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C364" s="78" t="s">
+      <c r="C364" s="97" t="s">
         <v>477</v>
       </c>
-      <c r="D364" s="79"/>
-      <c r="E364" s="79"/>
-      <c r="F364" s="80"/>
+      <c r="D364" s="98"/>
+      <c r="E364" s="98"/>
+      <c r="F364" s="99"/>
     </row>
     <row r="365" spans="1:6" ht="18" thickBot="1">
-      <c r="C365" s="75" t="s">
+      <c r="C365" s="69" t="s">
         <v>483</v>
       </c>
-      <c r="D365" s="76"/>
-      <c r="E365" s="76"/>
-      <c r="F365" s="77"/>
+      <c r="D365" s="70"/>
+      <c r="E365" s="70"/>
+      <c r="F365" s="71"/>
     </row>
     <row r="366" spans="1:6" ht="27" thickBot="1">
-      <c r="C366" s="68" t="s">
+      <c r="C366" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D366" s="69"/>
-      <c r="E366" s="69"/>
-      <c r="F366" s="70"/>
+      <c r="D366" s="73"/>
+      <c r="E366" s="73"/>
+      <c r="F366" s="74"/>
     </row>
     <row r="367" spans="1:6" ht="18" thickBot="1">
       <c r="C367" s="34" t="s">
@@ -10631,12 +10652,12 @@
       <c r="F369" s="36"/>
     </row>
     <row r="370" spans="1:6" ht="27" thickBot="1">
-      <c r="C370" s="71" t="s">
+      <c r="C370" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D370" s="72"/>
-      <c r="E370" s="72"/>
-      <c r="F370" s="73"/>
+      <c r="D370" s="76"/>
+      <c r="E370" s="76"/>
+      <c r="F370" s="77"/>
     </row>
     <row r="371" spans="1:6" ht="18" thickBot="1">
       <c r="C371" s="38" t="s">
@@ -10681,12 +10702,12 @@
       </c>
     </row>
     <row r="374" spans="1:6" ht="27" thickBot="1">
-      <c r="C374" s="74" t="s">
+      <c r="C374" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D374" s="74"/>
-      <c r="E374" s="74"/>
-      <c r="F374" s="74"/>
+      <c r="D374" s="78"/>
+      <c r="E374" s="78"/>
+      <c r="F374" s="78"/>
     </row>
     <row r="375" spans="1:6" ht="18" thickBot="1">
       <c r="C375" s="38" t="s">
@@ -10703,7 +10724,7 @@
       </c>
     </row>
     <row r="376" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C376" s="64">
+      <c r="C376" s="65">
         <v>200</v>
       </c>
       <c r="D376" s="40" t="s">
@@ -10717,7 +10738,7 @@
       </c>
     </row>
     <row r="377" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C377" s="64"/>
+      <c r="C377" s="65"/>
       <c r="D377" s="40" t="s">
         <v>371</v>
       </c>
@@ -10729,7 +10750,7 @@
       </c>
     </row>
     <row r="378" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C378" s="64"/>
+      <c r="C378" s="65"/>
       <c r="D378" s="40" t="s">
         <v>373</v>
       </c>
@@ -10741,7 +10762,7 @@
       </c>
     </row>
     <row r="379" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C379" s="64"/>
+      <c r="C379" s="65"/>
       <c r="D379" s="40"/>
       <c r="E379" s="40"/>
       <c r="F379" s="40"/>
@@ -10762,28 +10783,28 @@
       <c r="B383" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C383" s="78" t="s">
+      <c r="C383" s="97" t="s">
         <v>481</v>
       </c>
-      <c r="D383" s="79"/>
-      <c r="E383" s="79"/>
-      <c r="F383" s="80"/>
+      <c r="D383" s="98"/>
+      <c r="E383" s="98"/>
+      <c r="F383" s="99"/>
     </row>
     <row r="384" spans="1:6" ht="18" thickBot="1">
-      <c r="C384" s="75" t="s">
+      <c r="C384" s="69" t="s">
         <v>482</v>
       </c>
-      <c r="D384" s="76"/>
-      <c r="E384" s="76"/>
-      <c r="F384" s="77"/>
+      <c r="D384" s="70"/>
+      <c r="E384" s="70"/>
+      <c r="F384" s="71"/>
     </row>
     <row r="385" spans="3:6" ht="27" thickBot="1">
-      <c r="C385" s="68" t="s">
+      <c r="C385" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D385" s="69"/>
-      <c r="E385" s="69"/>
-      <c r="F385" s="70"/>
+      <c r="D385" s="73"/>
+      <c r="E385" s="73"/>
+      <c r="F385" s="74"/>
     </row>
     <row r="386" spans="3:6" ht="18" thickBot="1">
       <c r="C386" s="34" t="s">
@@ -10824,12 +10845,12 @@
       <c r="F388" s="36"/>
     </row>
     <row r="389" spans="3:6" ht="27" thickBot="1">
-      <c r="C389" s="71" t="s">
+      <c r="C389" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D389" s="72"/>
-      <c r="E389" s="72"/>
-      <c r="F389" s="73"/>
+      <c r="D389" s="76"/>
+      <c r="E389" s="76"/>
+      <c r="F389" s="77"/>
     </row>
     <row r="390" spans="3:6" ht="18" thickBot="1">
       <c r="C390" s="38" t="s">
@@ -10874,12 +10895,12 @@
       </c>
     </row>
     <row r="393" spans="3:6" ht="27" thickBot="1">
-      <c r="C393" s="74" t="s">
+      <c r="C393" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D393" s="74"/>
-      <c r="E393" s="74"/>
-      <c r="F393" s="74"/>
+      <c r="D393" s="78"/>
+      <c r="E393" s="78"/>
+      <c r="F393" s="78"/>
     </row>
     <row r="394" spans="3:6" ht="18" thickBot="1">
       <c r="C394" s="38" t="s">
@@ -10896,7 +10917,7 @@
       </c>
     </row>
     <row r="395" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C395" s="64">
+      <c r="C395" s="65">
         <v>200</v>
       </c>
       <c r="D395" s="40" t="s">
@@ -10910,7 +10931,7 @@
       </c>
     </row>
     <row r="396" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C396" s="64"/>
+      <c r="C396" s="65"/>
       <c r="D396" s="40" t="s">
         <v>371</v>
       </c>
@@ -10922,7 +10943,7 @@
       </c>
     </row>
     <row r="397" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C397" s="64"/>
+      <c r="C397" s="65"/>
       <c r="D397" s="40" t="s">
         <v>373</v>
       </c>
@@ -10934,7 +10955,7 @@
       </c>
     </row>
     <row r="398" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C398" s="64"/>
+      <c r="C398" s="65"/>
       <c r="D398" s="40"/>
       <c r="E398" s="40"/>
       <c r="F398" s="40"/>
@@ -10955,28 +10976,28 @@
       <c r="B402" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C402" s="78" t="s">
+      <c r="C402" s="97" t="s">
         <v>486</v>
       </c>
-      <c r="D402" s="79"/>
-      <c r="E402" s="79"/>
-      <c r="F402" s="80"/>
+      <c r="D402" s="98"/>
+      <c r="E402" s="98"/>
+      <c r="F402" s="99"/>
     </row>
     <row r="403" spans="1:6" ht="18" thickBot="1">
-      <c r="C403" s="75" t="s">
+      <c r="C403" s="69" t="s">
         <v>487</v>
       </c>
-      <c r="D403" s="76"/>
-      <c r="E403" s="76"/>
-      <c r="F403" s="77"/>
+      <c r="D403" s="70"/>
+      <c r="E403" s="70"/>
+      <c r="F403" s="71"/>
     </row>
     <row r="404" spans="1:6" ht="27" thickBot="1">
-      <c r="C404" s="68" t="s">
+      <c r="C404" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D404" s="69"/>
-      <c r="E404" s="69"/>
-      <c r="F404" s="70"/>
+      <c r="D404" s="73"/>
+      <c r="E404" s="73"/>
+      <c r="F404" s="74"/>
     </row>
     <row r="405" spans="1:6" ht="18" thickBot="1">
       <c r="C405" s="34" t="s">
@@ -11017,12 +11038,12 @@
       <c r="F407" s="36"/>
     </row>
     <row r="408" spans="1:6" ht="27" thickBot="1">
-      <c r="C408" s="71" t="s">
+      <c r="C408" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D408" s="72"/>
-      <c r="E408" s="72"/>
-      <c r="F408" s="73"/>
+      <c r="D408" s="76"/>
+      <c r="E408" s="76"/>
+      <c r="F408" s="77"/>
     </row>
     <row r="409" spans="1:6" ht="18" thickBot="1">
       <c r="C409" s="38" t="s">
@@ -11067,12 +11088,12 @@
       </c>
     </row>
     <row r="412" spans="1:6" ht="27" thickBot="1">
-      <c r="C412" s="74" t="s">
+      <c r="C412" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D412" s="74"/>
-      <c r="E412" s="74"/>
-      <c r="F412" s="74"/>
+      <c r="D412" s="78"/>
+      <c r="E412" s="78"/>
+      <c r="F412" s="78"/>
     </row>
     <row r="413" spans="1:6" ht="18" thickBot="1">
       <c r="C413" s="38" t="s">
@@ -11089,7 +11110,7 @@
       </c>
     </row>
     <row r="414" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C414" s="64">
+      <c r="C414" s="65">
         <v>200</v>
       </c>
       <c r="D414" s="40" t="s">
@@ -11103,7 +11124,7 @@
       </c>
     </row>
     <row r="415" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C415" s="64"/>
+      <c r="C415" s="65"/>
       <c r="D415" s="40" t="s">
         <v>371</v>
       </c>
@@ -11115,7 +11136,7 @@
       </c>
     </row>
     <row r="416" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C416" s="64"/>
+      <c r="C416" s="65"/>
       <c r="D416" s="40" t="s">
         <v>373</v>
       </c>
@@ -11127,7 +11148,7 @@
       </c>
     </row>
     <row r="417" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C417" s="64"/>
+      <c r="C417" s="65"/>
       <c r="D417" s="40"/>
       <c r="E417" s="40"/>
       <c r="F417" s="40"/>
@@ -11148,28 +11169,28 @@
       <c r="B421" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C421" s="78" t="s">
+      <c r="C421" s="97" t="s">
         <v>488</v>
       </c>
-      <c r="D421" s="79"/>
-      <c r="E421" s="79"/>
-      <c r="F421" s="80"/>
+      <c r="D421" s="98"/>
+      <c r="E421" s="98"/>
+      <c r="F421" s="99"/>
     </row>
     <row r="422" spans="1:6" ht="18" thickBot="1">
-      <c r="C422" s="75" t="s">
+      <c r="C422" s="69" t="s">
         <v>489</v>
       </c>
-      <c r="D422" s="76"/>
-      <c r="E422" s="76"/>
-      <c r="F422" s="77"/>
+      <c r="D422" s="70"/>
+      <c r="E422" s="70"/>
+      <c r="F422" s="71"/>
     </row>
     <row r="423" spans="1:6" ht="27" thickBot="1">
-      <c r="C423" s="68" t="s">
+      <c r="C423" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D423" s="69"/>
-      <c r="E423" s="69"/>
-      <c r="F423" s="70"/>
+      <c r="D423" s="73"/>
+      <c r="E423" s="73"/>
+      <c r="F423" s="74"/>
     </row>
     <row r="424" spans="1:6" ht="18" thickBot="1">
       <c r="C424" s="34" t="s">
@@ -11210,12 +11231,12 @@
       <c r="F426" s="36"/>
     </row>
     <row r="427" spans="1:6" ht="27" thickBot="1">
-      <c r="C427" s="71" t="s">
+      <c r="C427" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D427" s="72"/>
-      <c r="E427" s="72"/>
-      <c r="F427" s="73"/>
+      <c r="D427" s="76"/>
+      <c r="E427" s="76"/>
+      <c r="F427" s="77"/>
     </row>
     <row r="428" spans="1:6" ht="18" thickBot="1">
       <c r="C428" s="38" t="s">
@@ -11260,12 +11281,12 @@
       </c>
     </row>
     <row r="431" spans="1:6" ht="27" thickBot="1">
-      <c r="C431" s="74" t="s">
+      <c r="C431" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D431" s="74"/>
-      <c r="E431" s="74"/>
-      <c r="F431" s="74"/>
+      <c r="D431" s="78"/>
+      <c r="E431" s="78"/>
+      <c r="F431" s="78"/>
     </row>
     <row r="432" spans="1:6" ht="18" thickBot="1">
       <c r="C432" s="38" t="s">
@@ -11282,7 +11303,7 @@
       </c>
     </row>
     <row r="433" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C433" s="64">
+      <c r="C433" s="65">
         <v>200</v>
       </c>
       <c r="D433" s="40" t="s">
@@ -11296,7 +11317,7 @@
       </c>
     </row>
     <row r="434" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C434" s="64"/>
+      <c r="C434" s="65"/>
       <c r="D434" s="40" t="s">
         <v>371</v>
       </c>
@@ -11308,7 +11329,7 @@
       </c>
     </row>
     <row r="435" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C435" s="64"/>
+      <c r="C435" s="65"/>
       <c r="D435" s="40" t="s">
         <v>373</v>
       </c>
@@ -11320,7 +11341,7 @@
       </c>
     </row>
     <row r="436" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C436" s="64"/>
+      <c r="C436" s="65"/>
       <c r="D436" s="40"/>
       <c r="E436" s="40"/>
       <c r="F436" s="40"/>
@@ -11341,28 +11362,28 @@
       <c r="B440" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C440" s="78" t="s">
+      <c r="C440" s="97" t="s">
         <v>501</v>
       </c>
-      <c r="D440" s="79"/>
-      <c r="E440" s="79"/>
-      <c r="F440" s="80"/>
+      <c r="D440" s="98"/>
+      <c r="E440" s="98"/>
+      <c r="F440" s="99"/>
     </row>
     <row r="441" spans="1:6" ht="18" thickBot="1">
-      <c r="C441" s="75" t="s">
+      <c r="C441" s="69" t="s">
         <v>497</v>
       </c>
-      <c r="D441" s="76"/>
-      <c r="E441" s="76"/>
-      <c r="F441" s="77"/>
+      <c r="D441" s="70"/>
+      <c r="E441" s="70"/>
+      <c r="F441" s="71"/>
     </row>
     <row r="442" spans="1:6" ht="27" thickBot="1">
-      <c r="C442" s="68" t="s">
+      <c r="C442" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D442" s="69"/>
-      <c r="E442" s="69"/>
-      <c r="F442" s="70"/>
+      <c r="D442" s="73"/>
+      <c r="E442" s="73"/>
+      <c r="F442" s="74"/>
     </row>
     <row r="443" spans="1:6" ht="18" thickBot="1">
       <c r="C443" s="34" t="s">
@@ -11403,12 +11424,12 @@
       <c r="F445" s="36"/>
     </row>
     <row r="446" spans="1:6" ht="27" thickBot="1">
-      <c r="C446" s="71" t="s">
+      <c r="C446" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D446" s="72"/>
-      <c r="E446" s="72"/>
-      <c r="F446" s="73"/>
+      <c r="D446" s="76"/>
+      <c r="E446" s="76"/>
+      <c r="F446" s="77"/>
     </row>
     <row r="447" spans="1:6" ht="18" thickBot="1">
       <c r="C447" s="38" t="s">
@@ -11445,12 +11466,12 @@
       <c r="F449" s="39"/>
     </row>
     <row r="450" spans="1:6" ht="27" thickBot="1">
-      <c r="C450" s="74" t="s">
+      <c r="C450" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D450" s="74"/>
-      <c r="E450" s="74"/>
-      <c r="F450" s="74"/>
+      <c r="D450" s="78"/>
+      <c r="E450" s="78"/>
+      <c r="F450" s="78"/>
     </row>
     <row r="451" spans="1:6" ht="18" thickBot="1">
       <c r="C451" s="38" t="s">
@@ -11467,7 +11488,7 @@
       </c>
     </row>
     <row r="452" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C452" s="64">
+      <c r="C452" s="65">
         <v>200</v>
       </c>
       <c r="D452" s="40" t="s">
@@ -11481,7 +11502,7 @@
       </c>
     </row>
     <row r="453" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C453" s="64"/>
+      <c r="C453" s="65"/>
       <c r="D453" s="40" t="s">
         <v>371</v>
       </c>
@@ -11493,7 +11514,7 @@
       </c>
     </row>
     <row r="454" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C454" s="64"/>
+      <c r="C454" s="65"/>
       <c r="D454" s="40" t="s">
         <v>373</v>
       </c>
@@ -11505,7 +11526,7 @@
       </c>
     </row>
     <row r="455" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C455" s="64"/>
+      <c r="C455" s="65"/>
       <c r="D455" s="40"/>
       <c r="E455" s="40"/>
       <c r="F455" s="40"/>
@@ -11526,28 +11547,28 @@
       <c r="B459" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C459" s="78" t="s">
+      <c r="C459" s="97" t="s">
         <v>496</v>
       </c>
-      <c r="D459" s="79"/>
-      <c r="E459" s="79"/>
-      <c r="F459" s="80"/>
+      <c r="D459" s="98"/>
+      <c r="E459" s="98"/>
+      <c r="F459" s="99"/>
     </row>
     <row r="460" spans="1:6" ht="18" thickBot="1">
-      <c r="C460" s="75" t="s">
+      <c r="C460" s="69" t="s">
         <v>498</v>
       </c>
-      <c r="D460" s="76"/>
-      <c r="E460" s="76"/>
-      <c r="F460" s="77"/>
+      <c r="D460" s="70"/>
+      <c r="E460" s="70"/>
+      <c r="F460" s="71"/>
     </row>
     <row r="461" spans="1:6" ht="27" thickBot="1">
-      <c r="C461" s="68" t="s">
+      <c r="C461" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D461" s="69"/>
-      <c r="E461" s="69"/>
-      <c r="F461" s="70"/>
+      <c r="D461" s="73"/>
+      <c r="E461" s="73"/>
+      <c r="F461" s="74"/>
     </row>
     <row r="462" spans="1:6" ht="18" thickBot="1">
       <c r="C462" s="34" t="s">
@@ -11588,12 +11609,12 @@
       <c r="F464" s="36"/>
     </row>
     <row r="465" spans="1:6" ht="27" thickBot="1">
-      <c r="C465" s="71" t="s">
+      <c r="C465" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D465" s="72"/>
-      <c r="E465" s="72"/>
-      <c r="F465" s="73"/>
+      <c r="D465" s="76"/>
+      <c r="E465" s="76"/>
+      <c r="F465" s="77"/>
     </row>
     <row r="466" spans="1:6" ht="18" thickBot="1">
       <c r="C466" s="38" t="s">
@@ -11638,12 +11659,12 @@
       </c>
     </row>
     <row r="469" spans="1:6" ht="27" thickBot="1">
-      <c r="C469" s="74" t="s">
+      <c r="C469" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D469" s="74"/>
-      <c r="E469" s="74"/>
-      <c r="F469" s="74"/>
+      <c r="D469" s="78"/>
+      <c r="E469" s="78"/>
+      <c r="F469" s="78"/>
     </row>
     <row r="470" spans="1:6" ht="18" thickBot="1">
       <c r="C470" s="38" t="s">
@@ -11660,7 +11681,7 @@
       </c>
     </row>
     <row r="471" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C471" s="64">
+      <c r="C471" s="65">
         <v>200</v>
       </c>
       <c r="D471" s="40" t="s">
@@ -11674,7 +11695,7 @@
       </c>
     </row>
     <row r="472" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C472" s="64"/>
+      <c r="C472" s="65"/>
       <c r="D472" s="40" t="s">
         <v>371</v>
       </c>
@@ -11686,7 +11707,7 @@
       </c>
     </row>
     <row r="473" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C473" s="64"/>
+      <c r="C473" s="65"/>
       <c r="D473" s="40" t="s">
         <v>373</v>
       </c>
@@ -11698,7 +11719,7 @@
       </c>
     </row>
     <row r="474" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C474" s="64"/>
+      <c r="C474" s="65"/>
       <c r="D474" s="40"/>
       <c r="E474" s="40"/>
       <c r="F474" s="40"/>
@@ -11719,28 +11740,28 @@
       <c r="B478" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C478" s="78" t="s">
+      <c r="C478" s="97" t="s">
         <v>502</v>
       </c>
-      <c r="D478" s="79"/>
-      <c r="E478" s="79"/>
-      <c r="F478" s="80"/>
+      <c r="D478" s="98"/>
+      <c r="E478" s="98"/>
+      <c r="F478" s="99"/>
     </row>
     <row r="479" spans="1:6" ht="18" thickBot="1">
-      <c r="C479" s="75" t="s">
+      <c r="C479" s="69" t="s">
         <v>503</v>
       </c>
-      <c r="D479" s="76"/>
-      <c r="E479" s="76"/>
-      <c r="F479" s="77"/>
+      <c r="D479" s="70"/>
+      <c r="E479" s="70"/>
+      <c r="F479" s="71"/>
     </row>
     <row r="480" spans="1:6" ht="27" thickBot="1">
-      <c r="C480" s="68" t="s">
+      <c r="C480" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D480" s="69"/>
-      <c r="E480" s="69"/>
-      <c r="F480" s="70"/>
+      <c r="D480" s="73"/>
+      <c r="E480" s="73"/>
+      <c r="F480" s="74"/>
     </row>
     <row r="481" spans="1:6" ht="18" thickBot="1">
       <c r="C481" s="34" t="s">
@@ -11781,12 +11802,12 @@
       <c r="F483" s="36"/>
     </row>
     <row r="484" spans="1:6" ht="27" thickBot="1">
-      <c r="C484" s="71" t="s">
+      <c r="C484" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D484" s="72"/>
-      <c r="E484" s="72"/>
-      <c r="F484" s="73"/>
+      <c r="D484" s="76"/>
+      <c r="E484" s="76"/>
+      <c r="F484" s="77"/>
     </row>
     <row r="485" spans="1:6" ht="18" thickBot="1">
       <c r="C485" s="38" t="s">
@@ -11831,12 +11852,12 @@
       </c>
     </row>
     <row r="488" spans="1:6" ht="27" thickBot="1">
-      <c r="C488" s="74" t="s">
+      <c r="C488" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D488" s="74"/>
-      <c r="E488" s="74"/>
-      <c r="F488" s="74"/>
+      <c r="D488" s="78"/>
+      <c r="E488" s="78"/>
+      <c r="F488" s="78"/>
     </row>
     <row r="489" spans="1:6" ht="18" thickBot="1">
       <c r="C489" s="38" t="s">
@@ -11853,7 +11874,7 @@
       </c>
     </row>
     <row r="490" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C490" s="64">
+      <c r="C490" s="65">
         <v>200</v>
       </c>
       <c r="D490" s="40" t="s">
@@ -11867,7 +11888,7 @@
       </c>
     </row>
     <row r="491" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C491" s="64"/>
+      <c r="C491" s="65"/>
       <c r="D491" s="40" t="s">
         <v>371</v>
       </c>
@@ -11879,7 +11900,7 @@
       </c>
     </row>
     <row r="492" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C492" s="64"/>
+      <c r="C492" s="65"/>
       <c r="D492" s="40" t="s">
         <v>373</v>
       </c>
@@ -11891,7 +11912,7 @@
       </c>
     </row>
     <row r="493" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C493" s="64"/>
+      <c r="C493" s="65"/>
       <c r="D493" s="40"/>
       <c r="E493" s="40"/>
       <c r="F493" s="40"/>
@@ -11919,28 +11940,28 @@
       <c r="B497" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="C497" s="81" t="s">
+      <c r="C497" s="94" t="s">
         <v>504</v>
       </c>
-      <c r="D497" s="82"/>
-      <c r="E497" s="82"/>
-      <c r="F497" s="83"/>
+      <c r="D497" s="95"/>
+      <c r="E497" s="95"/>
+      <c r="F497" s="96"/>
     </row>
     <row r="498" spans="1:6" ht="18" thickBot="1">
-      <c r="C498" s="75" t="s">
+      <c r="C498" s="69" t="s">
         <v>505</v>
       </c>
-      <c r="D498" s="76"/>
-      <c r="E498" s="76"/>
-      <c r="F498" s="77"/>
+      <c r="D498" s="70"/>
+      <c r="E498" s="70"/>
+      <c r="F498" s="71"/>
     </row>
     <row r="499" spans="1:6" ht="27" thickBot="1">
-      <c r="C499" s="68" t="s">
+      <c r="C499" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D499" s="69"/>
-      <c r="E499" s="69"/>
-      <c r="F499" s="70"/>
+      <c r="D499" s="73"/>
+      <c r="E499" s="73"/>
+      <c r="F499" s="74"/>
     </row>
     <row r="500" spans="1:6" ht="18" thickBot="1">
       <c r="C500" s="34" t="s">
@@ -11981,12 +12002,12 @@
       <c r="F502" s="36"/>
     </row>
     <row r="503" spans="1:6" ht="27" thickBot="1">
-      <c r="C503" s="71" t="s">
+      <c r="C503" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D503" s="72"/>
-      <c r="E503" s="72"/>
-      <c r="F503" s="73"/>
+      <c r="D503" s="76"/>
+      <c r="E503" s="76"/>
+      <c r="F503" s="77"/>
     </row>
     <row r="504" spans="1:6" ht="18" thickBot="1">
       <c r="C504" s="38" t="s">
@@ -12009,12 +12030,12 @@
       <c r="F505" s="39"/>
     </row>
     <row r="506" spans="1:6" ht="27" thickBot="1">
-      <c r="C506" s="74" t="s">
+      <c r="C506" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D506" s="74"/>
-      <c r="E506" s="74"/>
-      <c r="F506" s="74"/>
+      <c r="D506" s="78"/>
+      <c r="E506" s="78"/>
+      <c r="F506" s="78"/>
     </row>
     <row r="507" spans="1:6" ht="18" thickBot="1">
       <c r="C507" s="38" t="s">
@@ -12031,7 +12052,7 @@
       </c>
     </row>
     <row r="508" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C508" s="64">
+      <c r="C508" s="65">
         <v>200</v>
       </c>
       <c r="D508" s="40" t="s">
@@ -12045,7 +12066,7 @@
       </c>
     </row>
     <row r="509" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C509" s="64"/>
+      <c r="C509" s="65"/>
       <c r="D509" s="40" t="s">
         <v>371</v>
       </c>
@@ -12057,7 +12078,7 @@
       </c>
     </row>
     <row r="510" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C510" s="64"/>
+      <c r="C510" s="65"/>
       <c r="D510" s="40" t="s">
         <v>373</v>
       </c>
@@ -12069,7 +12090,7 @@
       </c>
     </row>
     <row r="511" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C511" s="64"/>
+      <c r="C511" s="65"/>
       <c r="D511" s="40"/>
       <c r="E511" s="40"/>
       <c r="F511" s="40"/>
@@ -12090,28 +12111,28 @@
       <c r="B515" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="C515" s="81" t="s">
+      <c r="C515" s="94" t="s">
         <v>506</v>
       </c>
-      <c r="D515" s="82"/>
-      <c r="E515" s="82"/>
-      <c r="F515" s="83"/>
+      <c r="D515" s="95"/>
+      <c r="E515" s="95"/>
+      <c r="F515" s="96"/>
     </row>
     <row r="516" spans="1:6" ht="18" thickBot="1">
-      <c r="C516" s="75" t="s">
+      <c r="C516" s="69" t="s">
         <v>507</v>
       </c>
-      <c r="D516" s="76"/>
-      <c r="E516" s="76"/>
-      <c r="F516" s="77"/>
+      <c r="D516" s="70"/>
+      <c r="E516" s="70"/>
+      <c r="F516" s="71"/>
     </row>
     <row r="517" spans="1:6" ht="27" thickBot="1">
-      <c r="C517" s="68" t="s">
+      <c r="C517" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D517" s="69"/>
-      <c r="E517" s="69"/>
-      <c r="F517" s="70"/>
+      <c r="D517" s="73"/>
+      <c r="E517" s="73"/>
+      <c r="F517" s="74"/>
     </row>
     <row r="518" spans="1:6" ht="18" thickBot="1">
       <c r="C518" s="34" t="s">
@@ -12152,12 +12173,12 @@
       <c r="F520" s="36"/>
     </row>
     <row r="521" spans="1:6" ht="27" thickBot="1">
-      <c r="C521" s="71" t="s">
+      <c r="C521" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D521" s="72"/>
-      <c r="E521" s="72"/>
-      <c r="F521" s="73"/>
+      <c r="D521" s="76"/>
+      <c r="E521" s="76"/>
+      <c r="F521" s="77"/>
     </row>
     <row r="522" spans="1:6" ht="18" thickBot="1">
       <c r="C522" s="38" t="s">
@@ -12188,12 +12209,12 @@
       </c>
     </row>
     <row r="524" spans="1:6" ht="27" thickBot="1">
-      <c r="C524" s="74" t="s">
+      <c r="C524" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D524" s="74"/>
-      <c r="E524" s="74"/>
-      <c r="F524" s="74"/>
+      <c r="D524" s="78"/>
+      <c r="E524" s="78"/>
+      <c r="F524" s="78"/>
     </row>
     <row r="525" spans="1:6" ht="18" thickBot="1">
       <c r="C525" s="38" t="s">
@@ -12210,7 +12231,7 @@
       </c>
     </row>
     <row r="526" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C526" s="64">
+      <c r="C526" s="65">
         <v>200</v>
       </c>
       <c r="D526" s="40" t="s">
@@ -12224,7 +12245,7 @@
       </c>
     </row>
     <row r="527" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C527" s="64"/>
+      <c r="C527" s="65"/>
       <c r="D527" s="40" t="s">
         <v>371</v>
       </c>
@@ -12236,7 +12257,7 @@
       </c>
     </row>
     <row r="528" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C528" s="64"/>
+      <c r="C528" s="65"/>
       <c r="D528" s="40" t="s">
         <v>373</v>
       </c>
@@ -12248,7 +12269,7 @@
       </c>
     </row>
     <row r="529" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C529" s="64"/>
+      <c r="C529" s="65"/>
       <c r="D529" s="40"/>
       <c r="E529" s="40"/>
       <c r="F529" s="40"/>
@@ -12269,28 +12290,28 @@
       <c r="B533" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="C533" s="81" t="s">
+      <c r="C533" s="94" t="s">
         <v>510</v>
       </c>
-      <c r="D533" s="82"/>
-      <c r="E533" s="82"/>
-      <c r="F533" s="83"/>
+      <c r="D533" s="95"/>
+      <c r="E533" s="95"/>
+      <c r="F533" s="96"/>
     </row>
     <row r="534" spans="1:6" ht="18" thickBot="1">
-      <c r="C534" s="75" t="s">
+      <c r="C534" s="69" t="s">
         <v>511</v>
       </c>
-      <c r="D534" s="76"/>
-      <c r="E534" s="76"/>
-      <c r="F534" s="77"/>
+      <c r="D534" s="70"/>
+      <c r="E534" s="70"/>
+      <c r="F534" s="71"/>
     </row>
     <row r="535" spans="1:6" ht="27" thickBot="1">
-      <c r="C535" s="68" t="s">
+      <c r="C535" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D535" s="69"/>
-      <c r="E535" s="69"/>
-      <c r="F535" s="70"/>
+      <c r="D535" s="73"/>
+      <c r="E535" s="73"/>
+      <c r="F535" s="74"/>
     </row>
     <row r="536" spans="1:6" ht="18" thickBot="1">
       <c r="C536" s="34" t="s">
@@ -12331,12 +12352,12 @@
       <c r="F538" s="36"/>
     </row>
     <row r="539" spans="1:6" ht="27" thickBot="1">
-      <c r="C539" s="71" t="s">
+      <c r="C539" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D539" s="72"/>
-      <c r="E539" s="72"/>
-      <c r="F539" s="73"/>
+      <c r="D539" s="76"/>
+      <c r="E539" s="76"/>
+      <c r="F539" s="77"/>
     </row>
     <row r="540" spans="1:6" ht="18" thickBot="1">
       <c r="C540" s="38" t="s">
@@ -12383,12 +12404,12 @@
       </c>
     </row>
     <row r="543" spans="1:6" ht="27" thickBot="1">
-      <c r="C543" s="74" t="s">
+      <c r="C543" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D543" s="74"/>
-      <c r="E543" s="74"/>
-      <c r="F543" s="74"/>
+      <c r="D543" s="78"/>
+      <c r="E543" s="78"/>
+      <c r="F543" s="78"/>
     </row>
     <row r="544" spans="1:6" ht="18" thickBot="1">
       <c r="C544" s="38" t="s">
@@ -12405,7 +12426,7 @@
       </c>
     </row>
     <row r="545" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C545" s="64">
+      <c r="C545" s="65">
         <v>200</v>
       </c>
       <c r="D545" s="40" t="s">
@@ -12419,7 +12440,7 @@
       </c>
     </row>
     <row r="546" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C546" s="64"/>
+      <c r="C546" s="65"/>
       <c r="D546" s="40" t="s">
         <v>371</v>
       </c>
@@ -12431,7 +12452,7 @@
       </c>
     </row>
     <row r="547" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C547" s="64"/>
+      <c r="C547" s="65"/>
       <c r="D547" s="40" t="s">
         <v>373</v>
       </c>
@@ -12443,7 +12464,7 @@
       </c>
     </row>
     <row r="548" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C548" s="64"/>
+      <c r="C548" s="65"/>
       <c r="D548" s="40"/>
       <c r="E548" s="40"/>
       <c r="F548" s="40"/>
@@ -12464,28 +12485,28 @@
       <c r="B552" s="45" t="s">
         <v>170</v>
       </c>
-      <c r="C552" s="81" t="s">
+      <c r="C552" s="94" t="s">
         <v>512</v>
       </c>
-      <c r="D552" s="82"/>
-      <c r="E552" s="82"/>
-      <c r="F552" s="83"/>
+      <c r="D552" s="95"/>
+      <c r="E552" s="95"/>
+      <c r="F552" s="96"/>
     </row>
     <row r="553" spans="1:6" ht="18" thickBot="1">
-      <c r="C553" s="75" t="s">
+      <c r="C553" s="69" t="s">
         <v>513</v>
       </c>
-      <c r="D553" s="76"/>
-      <c r="E553" s="76"/>
-      <c r="F553" s="77"/>
+      <c r="D553" s="70"/>
+      <c r="E553" s="70"/>
+      <c r="F553" s="71"/>
     </row>
     <row r="554" spans="1:6" ht="27" thickBot="1">
-      <c r="C554" s="68" t="s">
+      <c r="C554" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D554" s="69"/>
-      <c r="E554" s="69"/>
-      <c r="F554" s="70"/>
+      <c r="D554" s="73"/>
+      <c r="E554" s="73"/>
+      <c r="F554" s="74"/>
     </row>
     <row r="555" spans="1:6" ht="18" thickBot="1">
       <c r="C555" s="34" t="s">
@@ -12526,12 +12547,12 @@
       <c r="F557" s="36"/>
     </row>
     <row r="558" spans="1:6" ht="27" thickBot="1">
-      <c r="C558" s="71" t="s">
+      <c r="C558" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D558" s="72"/>
-      <c r="E558" s="72"/>
-      <c r="F558" s="73"/>
+      <c r="D558" s="76"/>
+      <c r="E558" s="76"/>
+      <c r="F558" s="77"/>
     </row>
     <row r="559" spans="1:6" ht="18" thickBot="1">
       <c r="C559" s="38" t="s">
@@ -12576,12 +12597,12 @@
       </c>
     </row>
     <row r="562" spans="1:6" ht="27" thickBot="1">
-      <c r="C562" s="74" t="s">
+      <c r="C562" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D562" s="74"/>
-      <c r="E562" s="74"/>
-      <c r="F562" s="74"/>
+      <c r="D562" s="78"/>
+      <c r="E562" s="78"/>
+      <c r="F562" s="78"/>
     </row>
     <row r="563" spans="1:6" ht="18" thickBot="1">
       <c r="C563" s="38" t="s">
@@ -12598,7 +12619,7 @@
       </c>
     </row>
     <row r="564" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C564" s="64">
+      <c r="C564" s="65">
         <v>200</v>
       </c>
       <c r="D564" s="40" t="s">
@@ -12612,7 +12633,7 @@
       </c>
     </row>
     <row r="565" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C565" s="64"/>
+      <c r="C565" s="65"/>
       <c r="D565" s="40" t="s">
         <v>371</v>
       </c>
@@ -12624,7 +12645,7 @@
       </c>
     </row>
     <row r="566" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C566" s="64"/>
+      <c r="C566" s="65"/>
       <c r="D566" s="40" t="s">
         <v>373</v>
       </c>
@@ -12636,7 +12657,7 @@
       </c>
     </row>
     <row r="567" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C567" s="64"/>
+      <c r="C567" s="65"/>
       <c r="D567" s="40"/>
       <c r="E567" s="40"/>
       <c r="F567" s="40"/>
@@ -12657,28 +12678,28 @@
       <c r="B571" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="C571" s="84" t="s">
+      <c r="C571" s="91" t="s">
         <v>514</v>
       </c>
-      <c r="D571" s="85"/>
-      <c r="E571" s="85"/>
-      <c r="F571" s="86"/>
+      <c r="D571" s="92"/>
+      <c r="E571" s="92"/>
+      <c r="F571" s="93"/>
     </row>
     <row r="572" spans="1:6" ht="18" thickBot="1">
-      <c r="C572" s="75" t="s">
+      <c r="C572" s="69" t="s">
         <v>174</v>
       </c>
-      <c r="D572" s="76"/>
-      <c r="E572" s="76"/>
-      <c r="F572" s="77"/>
+      <c r="D572" s="70"/>
+      <c r="E572" s="70"/>
+      <c r="F572" s="71"/>
     </row>
     <row r="573" spans="1:6" ht="27" thickBot="1">
-      <c r="C573" s="68" t="s">
+      <c r="C573" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D573" s="69"/>
-      <c r="E573" s="69"/>
-      <c r="F573" s="70"/>
+      <c r="D573" s="73"/>
+      <c r="E573" s="73"/>
+      <c r="F573" s="74"/>
     </row>
     <row r="574" spans="1:6" ht="18" thickBot="1">
       <c r="C574" s="34" t="s">
@@ -12719,12 +12740,12 @@
       <c r="F576" s="36"/>
     </row>
     <row r="577" spans="1:6" ht="27" thickBot="1">
-      <c r="C577" s="71" t="s">
+      <c r="C577" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D577" s="72"/>
-      <c r="E577" s="72"/>
-      <c r="F577" s="73"/>
+      <c r="D577" s="76"/>
+      <c r="E577" s="76"/>
+      <c r="F577" s="77"/>
     </row>
     <row r="578" spans="1:6" ht="18" thickBot="1">
       <c r="C578" s="38" t="s">
@@ -12769,12 +12790,12 @@
       </c>
     </row>
     <row r="581" spans="1:6" ht="27" thickBot="1">
-      <c r="C581" s="74" t="s">
+      <c r="C581" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D581" s="74"/>
-      <c r="E581" s="74"/>
-      <c r="F581" s="74"/>
+      <c r="D581" s="78"/>
+      <c r="E581" s="78"/>
+      <c r="F581" s="78"/>
     </row>
     <row r="582" spans="1:6" ht="18" thickBot="1">
       <c r="C582" s="38" t="s">
@@ -12791,7 +12812,7 @@
       </c>
     </row>
     <row r="583" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C583" s="64">
+      <c r="C583" s="65">
         <v>200</v>
       </c>
       <c r="D583" s="40" t="s">
@@ -12805,7 +12826,7 @@
       </c>
     </row>
     <row r="584" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C584" s="64"/>
+      <c r="C584" s="65"/>
       <c r="D584" s="40" t="s">
         <v>371</v>
       </c>
@@ -12817,7 +12838,7 @@
       </c>
     </row>
     <row r="585" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C585" s="64"/>
+      <c r="C585" s="65"/>
       <c r="D585" s="40" t="s">
         <v>373</v>
       </c>
@@ -12829,7 +12850,7 @@
       </c>
     </row>
     <row r="586" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C586" s="64"/>
+      <c r="C586" s="65"/>
       <c r="D586" s="40"/>
       <c r="E586" s="40"/>
       <c r="F586" s="40"/>
@@ -12850,28 +12871,28 @@
       <c r="B590" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="C590" s="84" t="s">
+      <c r="C590" s="91" t="s">
         <v>515</v>
       </c>
-      <c r="D590" s="85"/>
-      <c r="E590" s="85"/>
-      <c r="F590" s="86"/>
+      <c r="D590" s="92"/>
+      <c r="E590" s="92"/>
+      <c r="F590" s="93"/>
     </row>
     <row r="591" spans="1:6" ht="18" thickBot="1">
-      <c r="C591" s="75" t="s">
+      <c r="C591" s="69" t="s">
         <v>516</v>
       </c>
-      <c r="D591" s="76"/>
-      <c r="E591" s="76"/>
-      <c r="F591" s="77"/>
+      <c r="D591" s="70"/>
+      <c r="E591" s="70"/>
+      <c r="F591" s="71"/>
     </row>
     <row r="592" spans="1:6" ht="27" thickBot="1">
-      <c r="C592" s="68" t="s">
+      <c r="C592" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D592" s="69"/>
-      <c r="E592" s="69"/>
-      <c r="F592" s="70"/>
+      <c r="D592" s="73"/>
+      <c r="E592" s="73"/>
+      <c r="F592" s="74"/>
     </row>
     <row r="593" spans="3:6" ht="18" thickBot="1">
       <c r="C593" s="34" t="s">
@@ -12912,12 +12933,12 @@
       <c r="F595" s="36"/>
     </row>
     <row r="596" spans="3:6" ht="27" thickBot="1">
-      <c r="C596" s="71" t="s">
+      <c r="C596" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D596" s="72"/>
-      <c r="E596" s="72"/>
-      <c r="F596" s="73"/>
+      <c r="D596" s="76"/>
+      <c r="E596" s="76"/>
+      <c r="F596" s="77"/>
     </row>
     <row r="597" spans="3:6" ht="18" thickBot="1">
       <c r="C597" s="38" t="s">
@@ -12954,12 +12975,12 @@
       <c r="F599" s="39"/>
     </row>
     <row r="600" spans="3:6" ht="27" thickBot="1">
-      <c r="C600" s="74" t="s">
+      <c r="C600" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D600" s="74"/>
-      <c r="E600" s="74"/>
-      <c r="F600" s="74"/>
+      <c r="D600" s="78"/>
+      <c r="E600" s="78"/>
+      <c r="F600" s="78"/>
     </row>
     <row r="601" spans="3:6" ht="18" thickBot="1">
       <c r="C601" s="38" t="s">
@@ -12976,7 +12997,7 @@
       </c>
     </row>
     <row r="602" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C602" s="64">
+      <c r="C602" s="65">
         <v>200</v>
       </c>
       <c r="D602" s="40" t="s">
@@ -12990,7 +13011,7 @@
       </c>
     </row>
     <row r="603" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C603" s="64"/>
+      <c r="C603" s="65"/>
       <c r="D603" s="40" t="s">
         <v>371</v>
       </c>
@@ -13002,7 +13023,7 @@
       </c>
     </row>
     <row r="604" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C604" s="64"/>
+      <c r="C604" s="65"/>
       <c r="D604" s="40" t="s">
         <v>373</v>
       </c>
@@ -13014,7 +13035,7 @@
       </c>
     </row>
     <row r="605" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C605" s="64"/>
+      <c r="C605" s="65"/>
       <c r="D605" s="40"/>
       <c r="E605" s="40"/>
       <c r="F605" s="40"/>
@@ -13035,28 +13056,28 @@
       <c r="B609" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="C609" s="84" t="s">
+      <c r="C609" s="91" t="s">
         <v>517</v>
       </c>
-      <c r="D609" s="85"/>
-      <c r="E609" s="85"/>
-      <c r="F609" s="86"/>
+      <c r="D609" s="92"/>
+      <c r="E609" s="92"/>
+      <c r="F609" s="93"/>
     </row>
     <row r="610" spans="1:6" ht="18" thickBot="1">
-      <c r="C610" s="75" t="s">
+      <c r="C610" s="69" t="s">
         <v>518</v>
       </c>
-      <c r="D610" s="76"/>
-      <c r="E610" s="76"/>
-      <c r="F610" s="77"/>
+      <c r="D610" s="70"/>
+      <c r="E610" s="70"/>
+      <c r="F610" s="71"/>
     </row>
     <row r="611" spans="1:6" ht="27" thickBot="1">
-      <c r="C611" s="68" t="s">
+      <c r="C611" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D611" s="69"/>
-      <c r="E611" s="69"/>
-      <c r="F611" s="70"/>
+      <c r="D611" s="73"/>
+      <c r="E611" s="73"/>
+      <c r="F611" s="74"/>
     </row>
     <row r="612" spans="1:6" ht="18" thickBot="1">
       <c r="C612" s="34" t="s">
@@ -13097,12 +13118,12 @@
       <c r="F614" s="36"/>
     </row>
     <row r="615" spans="1:6" ht="27" thickBot="1">
-      <c r="C615" s="71" t="s">
+      <c r="C615" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D615" s="72"/>
-      <c r="E615" s="72"/>
-      <c r="F615" s="73"/>
+      <c r="D615" s="76"/>
+      <c r="E615" s="76"/>
+      <c r="F615" s="77"/>
     </row>
     <row r="616" spans="1:6" ht="18" thickBot="1">
       <c r="C616" s="38" t="s">
@@ -13147,12 +13168,12 @@
       </c>
     </row>
     <row r="619" spans="1:6" ht="27" thickBot="1">
-      <c r="C619" s="74" t="s">
+      <c r="C619" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D619" s="74"/>
-      <c r="E619" s="74"/>
-      <c r="F619" s="74"/>
+      <c r="D619" s="78"/>
+      <c r="E619" s="78"/>
+      <c r="F619" s="78"/>
     </row>
     <row r="620" spans="1:6" ht="18" thickBot="1">
       <c r="C620" s="38" t="s">
@@ -13169,7 +13190,7 @@
       </c>
     </row>
     <row r="621" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C621" s="64">
+      <c r="C621" s="65">
         <v>200</v>
       </c>
       <c r="D621" s="40" t="s">
@@ -13183,7 +13204,7 @@
       </c>
     </row>
     <row r="622" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C622" s="64"/>
+      <c r="C622" s="65"/>
       <c r="D622" s="40" t="s">
         <v>371</v>
       </c>
@@ -13195,7 +13216,7 @@
       </c>
     </row>
     <row r="623" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C623" s="64"/>
+      <c r="C623" s="65"/>
       <c r="D623" s="40" t="s">
         <v>373</v>
       </c>
@@ -13207,7 +13228,7 @@
       </c>
     </row>
     <row r="624" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C624" s="64"/>
+      <c r="C624" s="65"/>
       <c r="D624" s="40"/>
       <c r="E624" s="40"/>
       <c r="F624" s="40"/>
@@ -13228,28 +13249,28 @@
       <c r="B628" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="C628" s="87" t="s">
+      <c r="C628" s="88" t="s">
         <v>521</v>
       </c>
-      <c r="D628" s="88"/>
-      <c r="E628" s="88"/>
-      <c r="F628" s="89"/>
+      <c r="D628" s="89"/>
+      <c r="E628" s="89"/>
+      <c r="F628" s="90"/>
     </row>
     <row r="629" spans="1:6" ht="18" thickBot="1">
-      <c r="C629" s="75" t="s">
+      <c r="C629" s="69" t="s">
         <v>522</v>
       </c>
-      <c r="D629" s="76"/>
-      <c r="E629" s="76"/>
-      <c r="F629" s="77"/>
+      <c r="D629" s="70"/>
+      <c r="E629" s="70"/>
+      <c r="F629" s="71"/>
     </row>
     <row r="630" spans="1:6" ht="27" thickBot="1">
-      <c r="C630" s="68" t="s">
+      <c r="C630" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D630" s="69"/>
-      <c r="E630" s="69"/>
-      <c r="F630" s="70"/>
+      <c r="D630" s="73"/>
+      <c r="E630" s="73"/>
+      <c r="F630" s="74"/>
     </row>
     <row r="631" spans="1:6" ht="18" thickBot="1">
       <c r="C631" s="34" t="s">
@@ -13290,12 +13311,12 @@
       <c r="F633" s="36"/>
     </row>
     <row r="634" spans="1:6" ht="27" thickBot="1">
-      <c r="C634" s="71" t="s">
+      <c r="C634" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D634" s="72"/>
-      <c r="E634" s="72"/>
-      <c r="F634" s="73"/>
+      <c r="D634" s="76"/>
+      <c r="E634" s="76"/>
+      <c r="F634" s="77"/>
     </row>
     <row r="635" spans="1:6" ht="18" thickBot="1">
       <c r="C635" s="38" t="s">
@@ -13332,12 +13353,12 @@
       <c r="F637" s="39"/>
     </row>
     <row r="638" spans="1:6" ht="27" thickBot="1">
-      <c r="C638" s="74" t="s">
+      <c r="C638" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D638" s="74"/>
-      <c r="E638" s="74"/>
-      <c r="F638" s="74"/>
+      <c r="D638" s="78"/>
+      <c r="E638" s="78"/>
+      <c r="F638" s="78"/>
     </row>
     <row r="639" spans="1:6" ht="18" thickBot="1">
       <c r="C639" s="38" t="s">
@@ -13354,7 +13375,7 @@
       </c>
     </row>
     <row r="640" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C640" s="64">
+      <c r="C640" s="65">
         <v>200</v>
       </c>
       <c r="D640" s="40" t="s">
@@ -13368,7 +13389,7 @@
       </c>
     </row>
     <row r="641" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C641" s="64"/>
+      <c r="C641" s="65"/>
       <c r="D641" s="40" t="s">
         <v>371</v>
       </c>
@@ -13380,7 +13401,7 @@
       </c>
     </row>
     <row r="642" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C642" s="64"/>
+      <c r="C642" s="65"/>
       <c r="D642" s="40" t="s">
         <v>373</v>
       </c>
@@ -13392,7 +13413,7 @@
       </c>
     </row>
     <row r="643" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C643" s="64"/>
+      <c r="C643" s="65"/>
       <c r="D643" s="40"/>
       <c r="E643" s="40"/>
       <c r="F643" s="40"/>
@@ -13413,28 +13434,28 @@
       <c r="B647" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="C647" s="87" t="s">
+      <c r="C647" s="88" t="s">
         <v>523</v>
       </c>
-      <c r="D647" s="88"/>
-      <c r="E647" s="88"/>
-      <c r="F647" s="89"/>
+      <c r="D647" s="89"/>
+      <c r="E647" s="89"/>
+      <c r="F647" s="90"/>
     </row>
     <row r="648" spans="1:6" ht="18" thickBot="1">
-      <c r="C648" s="75" t="s">
+      <c r="C648" s="69" t="s">
         <v>524</v>
       </c>
-      <c r="D648" s="76"/>
-      <c r="E648" s="76"/>
-      <c r="F648" s="77"/>
+      <c r="D648" s="70"/>
+      <c r="E648" s="70"/>
+      <c r="F648" s="71"/>
     </row>
     <row r="649" spans="1:6" ht="27" thickBot="1">
-      <c r="C649" s="68" t="s">
+      <c r="C649" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D649" s="69"/>
-      <c r="E649" s="69"/>
-      <c r="F649" s="70"/>
+      <c r="D649" s="73"/>
+      <c r="E649" s="73"/>
+      <c r="F649" s="74"/>
     </row>
     <row r="650" spans="1:6" ht="18" thickBot="1">
       <c r="C650" s="34" t="s">
@@ -13475,12 +13496,12 @@
       <c r="F652" s="36"/>
     </row>
     <row r="653" spans="1:6" ht="27" thickBot="1">
-      <c r="C653" s="71" t="s">
+      <c r="C653" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D653" s="72"/>
-      <c r="E653" s="72"/>
-      <c r="F653" s="73"/>
+      <c r="D653" s="76"/>
+      <c r="E653" s="76"/>
+      <c r="F653" s="77"/>
     </row>
     <row r="654" spans="1:6" ht="18" thickBot="1">
       <c r="C654" s="38" t="s">
@@ -13525,12 +13546,12 @@
       </c>
     </row>
     <row r="657" spans="1:6" ht="27" thickBot="1">
-      <c r="C657" s="74" t="s">
+      <c r="C657" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D657" s="74"/>
-      <c r="E657" s="74"/>
-      <c r="F657" s="74"/>
+      <c r="D657" s="78"/>
+      <c r="E657" s="78"/>
+      <c r="F657" s="78"/>
     </row>
     <row r="658" spans="1:6" ht="18" thickBot="1">
       <c r="C658" s="38" t="s">
@@ -13547,7 +13568,7 @@
       </c>
     </row>
     <row r="659" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C659" s="64">
+      <c r="C659" s="65">
         <v>200</v>
       </c>
       <c r="D659" s="40" t="s">
@@ -13561,7 +13582,7 @@
       </c>
     </row>
     <row r="660" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C660" s="64"/>
+      <c r="C660" s="65"/>
       <c r="D660" s="40" t="s">
         <v>371</v>
       </c>
@@ -13573,7 +13594,7 @@
       </c>
     </row>
     <row r="661" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C661" s="64"/>
+      <c r="C661" s="65"/>
       <c r="D661" s="40" t="s">
         <v>373</v>
       </c>
@@ -13585,7 +13606,7 @@
       </c>
     </row>
     <row r="662" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C662" s="64"/>
+      <c r="C662" s="65"/>
       <c r="D662" s="40"/>
       <c r="E662" s="40"/>
       <c r="F662" s="40"/>
@@ -13606,28 +13627,28 @@
       <c r="B666" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="C666" s="87" t="s">
+      <c r="C666" s="88" t="s">
         <v>527</v>
       </c>
-      <c r="D666" s="88"/>
-      <c r="E666" s="88"/>
-      <c r="F666" s="89"/>
+      <c r="D666" s="89"/>
+      <c r="E666" s="89"/>
+      <c r="F666" s="90"/>
     </row>
     <row r="667" spans="1:6" ht="18" thickBot="1">
-      <c r="C667" s="75" t="s">
+      <c r="C667" s="69" t="s">
         <v>528</v>
       </c>
-      <c r="D667" s="76"/>
-      <c r="E667" s="76"/>
-      <c r="F667" s="77"/>
+      <c r="D667" s="70"/>
+      <c r="E667" s="70"/>
+      <c r="F667" s="71"/>
     </row>
     <row r="668" spans="1:6" ht="27" thickBot="1">
-      <c r="C668" s="68" t="s">
+      <c r="C668" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D668" s="69"/>
-      <c r="E668" s="69"/>
-      <c r="F668" s="70"/>
+      <c r="D668" s="73"/>
+      <c r="E668" s="73"/>
+      <c r="F668" s="74"/>
     </row>
     <row r="669" spans="1:6" ht="18" thickBot="1">
       <c r="C669" s="34" t="s">
@@ -13668,12 +13689,12 @@
       <c r="F671" s="36"/>
     </row>
     <row r="672" spans="1:6" ht="27" thickBot="1">
-      <c r="C672" s="71" t="s">
+      <c r="C672" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D672" s="72"/>
-      <c r="E672" s="72"/>
-      <c r="F672" s="73"/>
+      <c r="D672" s="76"/>
+      <c r="E672" s="76"/>
+      <c r="F672" s="77"/>
     </row>
     <row r="673" spans="1:6" ht="18" thickBot="1">
       <c r="C673" s="38" t="s">
@@ -13734,12 +13755,12 @@
       </c>
     </row>
     <row r="677" spans="1:6" ht="27" thickBot="1">
-      <c r="C677" s="74" t="s">
+      <c r="C677" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D677" s="74"/>
-      <c r="E677" s="74"/>
-      <c r="F677" s="74"/>
+      <c r="D677" s="78"/>
+      <c r="E677" s="78"/>
+      <c r="F677" s="78"/>
     </row>
     <row r="678" spans="1:6" ht="18" thickBot="1">
       <c r="C678" s="38" t="s">
@@ -13756,7 +13777,7 @@
       </c>
     </row>
     <row r="679" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C679" s="64">
+      <c r="C679" s="65">
         <v>200</v>
       </c>
       <c r="D679" s="40" t="s">
@@ -13770,7 +13791,7 @@
       </c>
     </row>
     <row r="680" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C680" s="64"/>
+      <c r="C680" s="65"/>
       <c r="D680" s="40" t="s">
         <v>371</v>
       </c>
@@ -13782,7 +13803,7 @@
       </c>
     </row>
     <row r="681" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C681" s="64"/>
+      <c r="C681" s="65"/>
       <c r="D681" s="40" t="s">
         <v>373</v>
       </c>
@@ -13794,7 +13815,7 @@
       </c>
     </row>
     <row r="682" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C682" s="64"/>
+      <c r="C682" s="65"/>
       <c r="D682" s="40"/>
       <c r="E682" s="40"/>
       <c r="F682" s="40"/>
@@ -13815,28 +13836,28 @@
       <c r="B686" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="C686" s="87" t="s">
+      <c r="C686" s="88" t="s">
         <v>530</v>
       </c>
-      <c r="D686" s="88"/>
-      <c r="E686" s="88"/>
-      <c r="F686" s="89"/>
+      <c r="D686" s="89"/>
+      <c r="E686" s="89"/>
+      <c r="F686" s="90"/>
     </row>
     <row r="687" spans="1:6" ht="18" thickBot="1">
-      <c r="C687" s="75" t="s">
+      <c r="C687" s="69" t="s">
         <v>531</v>
       </c>
-      <c r="D687" s="76"/>
-      <c r="E687" s="76"/>
-      <c r="F687" s="77"/>
+      <c r="D687" s="70"/>
+      <c r="E687" s="70"/>
+      <c r="F687" s="71"/>
     </row>
     <row r="688" spans="1:6" ht="27" thickBot="1">
-      <c r="C688" s="68" t="s">
+      <c r="C688" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D688" s="69"/>
-      <c r="E688" s="69"/>
-      <c r="F688" s="70"/>
+      <c r="D688" s="73"/>
+      <c r="E688" s="73"/>
+      <c r="F688" s="74"/>
     </row>
     <row r="689" spans="3:6" ht="18" thickBot="1">
       <c r="C689" s="34" t="s">
@@ -13877,12 +13898,12 @@
       <c r="F691" s="36"/>
     </row>
     <row r="692" spans="3:6" ht="27" thickBot="1">
-      <c r="C692" s="71" t="s">
+      <c r="C692" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D692" s="72"/>
-      <c r="E692" s="72"/>
-      <c r="F692" s="73"/>
+      <c r="D692" s="76"/>
+      <c r="E692" s="76"/>
+      <c r="F692" s="77"/>
     </row>
     <row r="693" spans="3:6" ht="18" thickBot="1">
       <c r="C693" s="38" t="s">
@@ -13933,12 +13954,12 @@
       <c r="F696" s="39"/>
     </row>
     <row r="697" spans="3:6" ht="27" thickBot="1">
-      <c r="C697" s="74" t="s">
+      <c r="C697" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D697" s="74"/>
-      <c r="E697" s="74"/>
-      <c r="F697" s="74"/>
+      <c r="D697" s="78"/>
+      <c r="E697" s="78"/>
+      <c r="F697" s="78"/>
     </row>
     <row r="698" spans="3:6" ht="18" thickBot="1">
       <c r="C698" s="38" t="s">
@@ -13955,7 +13976,7 @@
       </c>
     </row>
     <row r="699" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C699" s="64">
+      <c r="C699" s="65">
         <v>200</v>
       </c>
       <c r="D699" s="40" t="s">
@@ -13969,7 +13990,7 @@
       </c>
     </row>
     <row r="700" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C700" s="64"/>
+      <c r="C700" s="65"/>
       <c r="D700" s="40" t="s">
         <v>371</v>
       </c>
@@ -13981,7 +14002,7 @@
       </c>
     </row>
     <row r="701" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C701" s="64"/>
+      <c r="C701" s="65"/>
       <c r="D701" s="40" t="s">
         <v>373</v>
       </c>
@@ -13993,7 +14014,7 @@
       </c>
     </row>
     <row r="702" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C702" s="64"/>
+      <c r="C702" s="65"/>
       <c r="D702" s="40"/>
       <c r="E702" s="40"/>
       <c r="F702" s="40"/>
@@ -14014,28 +14035,28 @@
       <c r="B706" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="C706" s="90" t="s">
+      <c r="C706" s="85" t="s">
         <v>534</v>
       </c>
-      <c r="D706" s="91"/>
-      <c r="E706" s="91"/>
-      <c r="F706" s="92"/>
+      <c r="D706" s="86"/>
+      <c r="E706" s="86"/>
+      <c r="F706" s="87"/>
     </row>
     <row r="707" spans="1:6" ht="18" thickBot="1">
-      <c r="C707" s="75" t="s">
+      <c r="C707" s="69" t="s">
         <v>535</v>
       </c>
-      <c r="D707" s="76"/>
-      <c r="E707" s="76"/>
-      <c r="F707" s="77"/>
+      <c r="D707" s="70"/>
+      <c r="E707" s="70"/>
+      <c r="F707" s="71"/>
     </row>
     <row r="708" spans="1:6" ht="27" thickBot="1">
-      <c r="C708" s="68" t="s">
+      <c r="C708" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D708" s="69"/>
-      <c r="E708" s="69"/>
-      <c r="F708" s="70"/>
+      <c r="D708" s="73"/>
+      <c r="E708" s="73"/>
+      <c r="F708" s="74"/>
     </row>
     <row r="709" spans="1:6" ht="18" thickBot="1">
       <c r="C709" s="34" t="s">
@@ -14076,12 +14097,12 @@
       <c r="F711" s="36"/>
     </row>
     <row r="712" spans="1:6" ht="27" thickBot="1">
-      <c r="C712" s="71" t="s">
+      <c r="C712" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D712" s="72"/>
-      <c r="E712" s="72"/>
-      <c r="F712" s="73"/>
+      <c r="D712" s="76"/>
+      <c r="E712" s="76"/>
+      <c r="F712" s="77"/>
     </row>
     <row r="713" spans="1:6" ht="18" thickBot="1">
       <c r="C713" s="38" t="s">
@@ -14126,12 +14147,12 @@
       </c>
     </row>
     <row r="716" spans="1:6" ht="27" thickBot="1">
-      <c r="C716" s="74" t="s">
+      <c r="C716" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D716" s="74"/>
-      <c r="E716" s="74"/>
-      <c r="F716" s="74"/>
+      <c r="D716" s="78"/>
+      <c r="E716" s="78"/>
+      <c r="F716" s="78"/>
     </row>
     <row r="717" spans="1:6" ht="18" thickBot="1">
       <c r="C717" s="38" t="s">
@@ -14148,7 +14169,7 @@
       </c>
     </row>
     <row r="718" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C718" s="64">
+      <c r="C718" s="65">
         <v>200</v>
       </c>
       <c r="D718" s="40" t="s">
@@ -14162,7 +14183,7 @@
       </c>
     </row>
     <row r="719" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C719" s="64"/>
+      <c r="C719" s="65"/>
       <c r="D719" s="40" t="s">
         <v>371</v>
       </c>
@@ -14174,7 +14195,7 @@
       </c>
     </row>
     <row r="720" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C720" s="64"/>
+      <c r="C720" s="65"/>
       <c r="D720" s="40" t="s">
         <v>373</v>
       </c>
@@ -14186,7 +14207,7 @@
       </c>
     </row>
     <row r="721" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C721" s="64"/>
+      <c r="C721" s="65"/>
       <c r="D721" s="40"/>
       <c r="E721" s="40"/>
       <c r="F721" s="40"/>
@@ -14207,28 +14228,28 @@
       <c r="B725" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="C725" s="90" t="s">
+      <c r="C725" s="85" t="s">
         <v>536</v>
       </c>
-      <c r="D725" s="91"/>
-      <c r="E725" s="91"/>
-      <c r="F725" s="92"/>
+      <c r="D725" s="86"/>
+      <c r="E725" s="86"/>
+      <c r="F725" s="87"/>
     </row>
     <row r="726" spans="1:6" ht="18" thickBot="1">
-      <c r="C726" s="75" t="s">
+      <c r="C726" s="69" t="s">
         <v>537</v>
       </c>
-      <c r="D726" s="76"/>
-      <c r="E726" s="76"/>
-      <c r="F726" s="77"/>
+      <c r="D726" s="70"/>
+      <c r="E726" s="70"/>
+      <c r="F726" s="71"/>
     </row>
     <row r="727" spans="1:6" ht="27" thickBot="1">
-      <c r="C727" s="68" t="s">
+      <c r="C727" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D727" s="69"/>
-      <c r="E727" s="69"/>
-      <c r="F727" s="70"/>
+      <c r="D727" s="73"/>
+      <c r="E727" s="73"/>
+      <c r="F727" s="74"/>
     </row>
     <row r="728" spans="1:6" ht="18" thickBot="1">
       <c r="C728" s="34" t="s">
@@ -14269,12 +14290,12 @@
       <c r="F730" s="36"/>
     </row>
     <row r="731" spans="1:6" ht="27" thickBot="1">
-      <c r="C731" s="71" t="s">
+      <c r="C731" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D731" s="72"/>
-      <c r="E731" s="72"/>
-      <c r="F731" s="73"/>
+      <c r="D731" s="76"/>
+      <c r="E731" s="76"/>
+      <c r="F731" s="77"/>
     </row>
     <row r="732" spans="1:6" ht="18" thickBot="1">
       <c r="C732" s="38" t="s">
@@ -14319,12 +14340,12 @@
       </c>
     </row>
     <row r="735" spans="1:6" ht="27" thickBot="1">
-      <c r="C735" s="74" t="s">
+      <c r="C735" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D735" s="74"/>
-      <c r="E735" s="74"/>
-      <c r="F735" s="74"/>
+      <c r="D735" s="78"/>
+      <c r="E735" s="78"/>
+      <c r="F735" s="78"/>
     </row>
     <row r="736" spans="1:6" ht="18" thickBot="1">
       <c r="C736" s="38" t="s">
@@ -14341,7 +14362,7 @@
       </c>
     </row>
     <row r="737" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C737" s="64">
+      <c r="C737" s="65">
         <v>200</v>
       </c>
       <c r="D737" s="40" t="s">
@@ -14355,7 +14376,7 @@
       </c>
     </row>
     <row r="738" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C738" s="64"/>
+      <c r="C738" s="65"/>
       <c r="D738" s="40" t="s">
         <v>371</v>
       </c>
@@ -14367,7 +14388,7 @@
       </c>
     </row>
     <row r="739" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C739" s="64"/>
+      <c r="C739" s="65"/>
       <c r="D739" s="40" t="s">
         <v>373</v>
       </c>
@@ -14379,7 +14400,7 @@
       </c>
     </row>
     <row r="740" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C740" s="64"/>
+      <c r="C740" s="65"/>
       <c r="D740" s="40"/>
       <c r="E740" s="40"/>
       <c r="F740" s="40"/>
@@ -14400,28 +14421,28 @@
       <c r="B744" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="C744" s="90" t="s">
+      <c r="C744" s="85" t="s">
         <v>538</v>
       </c>
-      <c r="D744" s="91"/>
-      <c r="E744" s="91"/>
-      <c r="F744" s="92"/>
+      <c r="D744" s="86"/>
+      <c r="E744" s="86"/>
+      <c r="F744" s="87"/>
     </row>
     <row r="745" spans="1:6" ht="18" thickBot="1">
-      <c r="C745" s="75" t="s">
+      <c r="C745" s="69" t="s">
         <v>539</v>
       </c>
-      <c r="D745" s="76"/>
-      <c r="E745" s="76"/>
-      <c r="F745" s="77"/>
+      <c r="D745" s="70"/>
+      <c r="E745" s="70"/>
+      <c r="F745" s="71"/>
     </row>
     <row r="746" spans="1:6" ht="27" thickBot="1">
-      <c r="C746" s="68" t="s">
+      <c r="C746" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D746" s="69"/>
-      <c r="E746" s="69"/>
-      <c r="F746" s="70"/>
+      <c r="D746" s="73"/>
+      <c r="E746" s="73"/>
+      <c r="F746" s="74"/>
     </row>
     <row r="747" spans="1:6" ht="18" thickBot="1">
       <c r="C747" s="34" t="s">
@@ -14462,12 +14483,12 @@
       <c r="F749" s="36"/>
     </row>
     <row r="750" spans="1:6" ht="27" thickBot="1">
-      <c r="C750" s="71" t="s">
+      <c r="C750" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D750" s="72"/>
-      <c r="E750" s="72"/>
-      <c r="F750" s="73"/>
+      <c r="D750" s="76"/>
+      <c r="E750" s="76"/>
+      <c r="F750" s="77"/>
     </row>
     <row r="751" spans="1:6" ht="18" thickBot="1">
       <c r="C751" s="38" t="s">
@@ -14512,12 +14533,12 @@
       </c>
     </row>
     <row r="754" spans="1:6" ht="27" thickBot="1">
-      <c r="C754" s="74" t="s">
+      <c r="C754" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D754" s="74"/>
-      <c r="E754" s="74"/>
-      <c r="F754" s="74"/>
+      <c r="D754" s="78"/>
+      <c r="E754" s="78"/>
+      <c r="F754" s="78"/>
     </row>
     <row r="755" spans="1:6" ht="18" thickBot="1">
       <c r="C755" s="38" t="s">
@@ -14534,7 +14555,7 @@
       </c>
     </row>
     <row r="756" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C756" s="64">
+      <c r="C756" s="65">
         <v>200</v>
       </c>
       <c r="D756" s="40" t="s">
@@ -14548,7 +14569,7 @@
       </c>
     </row>
     <row r="757" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C757" s="64"/>
+      <c r="C757" s="65"/>
       <c r="D757" s="40" t="s">
         <v>371</v>
       </c>
@@ -14560,7 +14581,7 @@
       </c>
     </row>
     <row r="758" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C758" s="64"/>
+      <c r="C758" s="65"/>
       <c r="D758" s="40" t="s">
         <v>373</v>
       </c>
@@ -14572,7 +14593,7 @@
       </c>
     </row>
     <row r="759" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C759" s="64"/>
+      <c r="C759" s="65"/>
       <c r="D759" s="40"/>
       <c r="E759" s="40"/>
       <c r="F759" s="40"/>
@@ -14593,28 +14614,28 @@
       <c r="B763" s="49" t="s">
         <v>177</v>
       </c>
-      <c r="C763" s="90" t="s">
+      <c r="C763" s="85" t="s">
         <v>542</v>
       </c>
-      <c r="D763" s="91"/>
-      <c r="E763" s="91"/>
-      <c r="F763" s="92"/>
+      <c r="D763" s="86"/>
+      <c r="E763" s="86"/>
+      <c r="F763" s="87"/>
     </row>
     <row r="764" spans="1:6" ht="18" thickBot="1">
-      <c r="C764" s="75" t="s">
+      <c r="C764" s="69" t="s">
         <v>179</v>
       </c>
-      <c r="D764" s="76"/>
-      <c r="E764" s="76"/>
-      <c r="F764" s="77"/>
+      <c r="D764" s="70"/>
+      <c r="E764" s="70"/>
+      <c r="F764" s="71"/>
     </row>
     <row r="765" spans="1:6" ht="27" thickBot="1">
-      <c r="C765" s="68" t="s">
+      <c r="C765" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D765" s="69"/>
-      <c r="E765" s="69"/>
-      <c r="F765" s="70"/>
+      <c r="D765" s="73"/>
+      <c r="E765" s="73"/>
+      <c r="F765" s="74"/>
     </row>
     <row r="766" spans="1:6" ht="18" thickBot="1">
       <c r="C766" s="34" t="s">
@@ -14655,12 +14676,12 @@
       <c r="F768" s="36"/>
     </row>
     <row r="769" spans="1:6" ht="27" thickBot="1">
-      <c r="C769" s="71" t="s">
+      <c r="C769" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D769" s="72"/>
-      <c r="E769" s="72"/>
-      <c r="F769" s="73"/>
+      <c r="D769" s="76"/>
+      <c r="E769" s="76"/>
+      <c r="F769" s="77"/>
     </row>
     <row r="770" spans="1:6" ht="18" thickBot="1">
       <c r="C770" s="38" t="s">
@@ -14705,12 +14726,12 @@
       </c>
     </row>
     <row r="773" spans="1:6" ht="27" thickBot="1">
-      <c r="C773" s="74" t="s">
+      <c r="C773" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D773" s="74"/>
-      <c r="E773" s="74"/>
-      <c r="F773" s="74"/>
+      <c r="D773" s="78"/>
+      <c r="E773" s="78"/>
+      <c r="F773" s="78"/>
     </row>
     <row r="774" spans="1:6" ht="18" thickBot="1">
       <c r="C774" s="38" t="s">
@@ -14727,7 +14748,7 @@
       </c>
     </row>
     <row r="775" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C775" s="64">
+      <c r="C775" s="65">
         <v>200</v>
       </c>
       <c r="D775" s="40" t="s">
@@ -14741,7 +14762,7 @@
       </c>
     </row>
     <row r="776" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C776" s="64"/>
+      <c r="C776" s="65"/>
       <c r="D776" s="40" t="s">
         <v>371</v>
       </c>
@@ -14753,7 +14774,7 @@
       </c>
     </row>
     <row r="777" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C777" s="64"/>
+      <c r="C777" s="65"/>
       <c r="D777" s="40" t="s">
         <v>373</v>
       </c>
@@ -14765,7 +14786,7 @@
       </c>
     </row>
     <row r="778" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C778" s="64"/>
+      <c r="C778" s="65"/>
       <c r="D778" s="40"/>
       <c r="E778" s="40"/>
       <c r="F778" s="40"/>
@@ -14786,28 +14807,28 @@
       <c r="B782" s="50" t="s">
         <v>181</v>
       </c>
-      <c r="C782" s="93" t="s">
+      <c r="C782" s="82" t="s">
         <v>543</v>
       </c>
-      <c r="D782" s="94"/>
-      <c r="E782" s="94"/>
-      <c r="F782" s="95"/>
+      <c r="D782" s="83"/>
+      <c r="E782" s="83"/>
+      <c r="F782" s="84"/>
     </row>
     <row r="783" spans="1:6" ht="18" thickBot="1">
-      <c r="C783" s="75" t="s">
+      <c r="C783" s="69" t="s">
         <v>544</v>
       </c>
-      <c r="D783" s="76"/>
-      <c r="E783" s="76"/>
-      <c r="F783" s="77"/>
+      <c r="D783" s="70"/>
+      <c r="E783" s="70"/>
+      <c r="F783" s="71"/>
     </row>
     <row r="784" spans="1:6" ht="27" thickBot="1">
-      <c r="C784" s="68" t="s">
+      <c r="C784" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D784" s="69"/>
-      <c r="E784" s="69"/>
-      <c r="F784" s="70"/>
+      <c r="D784" s="73"/>
+      <c r="E784" s="73"/>
+      <c r="F784" s="74"/>
     </row>
     <row r="785" spans="3:6" ht="18" thickBot="1">
       <c r="C785" s="34" t="s">
@@ -14848,12 +14869,12 @@
       <c r="F787" s="36"/>
     </row>
     <row r="788" spans="3:6" ht="27" thickBot="1">
-      <c r="C788" s="71" t="s">
+      <c r="C788" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D788" s="72"/>
-      <c r="E788" s="72"/>
-      <c r="F788" s="73"/>
+      <c r="D788" s="76"/>
+      <c r="E788" s="76"/>
+      <c r="F788" s="77"/>
     </row>
     <row r="789" spans="3:6" ht="18" thickBot="1">
       <c r="C789" s="38" t="s">
@@ -14890,12 +14911,12 @@
       <c r="F791" s="39"/>
     </row>
     <row r="792" spans="3:6" ht="27" thickBot="1">
-      <c r="C792" s="74" t="s">
+      <c r="C792" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D792" s="74"/>
-      <c r="E792" s="74"/>
-      <c r="F792" s="74"/>
+      <c r="D792" s="78"/>
+      <c r="E792" s="78"/>
+      <c r="F792" s="78"/>
     </row>
     <row r="793" spans="3:6" ht="18" thickBot="1">
       <c r="C793" s="38" t="s">
@@ -14912,7 +14933,7 @@
       </c>
     </row>
     <row r="794" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C794" s="64">
+      <c r="C794" s="65">
         <v>200</v>
       </c>
       <c r="D794" s="40" t="s">
@@ -14926,7 +14947,7 @@
       </c>
     </row>
     <row r="795" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C795" s="64"/>
+      <c r="C795" s="65"/>
       <c r="D795" s="40" t="s">
         <v>371</v>
       </c>
@@ -14938,7 +14959,7 @@
       </c>
     </row>
     <row r="796" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C796" s="64"/>
+      <c r="C796" s="65"/>
       <c r="D796" s="40" t="s">
         <v>373</v>
       </c>
@@ -14950,7 +14971,7 @@
       </c>
     </row>
     <row r="797" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C797" s="64"/>
+      <c r="C797" s="65"/>
       <c r="D797" s="40"/>
       <c r="E797" s="40"/>
       <c r="F797" s="40"/>
@@ -14971,28 +14992,28 @@
       <c r="B801" s="50" t="s">
         <v>181</v>
       </c>
-      <c r="C801" s="93" t="s">
+      <c r="C801" s="82" t="s">
         <v>545</v>
       </c>
-      <c r="D801" s="94"/>
-      <c r="E801" s="94"/>
-      <c r="F801" s="95"/>
+      <c r="D801" s="83"/>
+      <c r="E801" s="83"/>
+      <c r="F801" s="84"/>
     </row>
     <row r="802" spans="1:6" ht="18" thickBot="1">
-      <c r="C802" s="75" t="s">
+      <c r="C802" s="69" t="s">
         <v>546</v>
       </c>
-      <c r="D802" s="76"/>
-      <c r="E802" s="76"/>
-      <c r="F802" s="77"/>
+      <c r="D802" s="70"/>
+      <c r="E802" s="70"/>
+      <c r="F802" s="71"/>
     </row>
     <row r="803" spans="1:6" ht="27" thickBot="1">
-      <c r="C803" s="68" t="s">
+      <c r="C803" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D803" s="69"/>
-      <c r="E803" s="69"/>
-      <c r="F803" s="70"/>
+      <c r="D803" s="73"/>
+      <c r="E803" s="73"/>
+      <c r="F803" s="74"/>
     </row>
     <row r="804" spans="1:6" ht="18" thickBot="1">
       <c r="C804" s="34" t="s">
@@ -15033,12 +15054,12 @@
       <c r="F806" s="36"/>
     </row>
     <row r="807" spans="1:6" ht="27" thickBot="1">
-      <c r="C807" s="71" t="s">
+      <c r="C807" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D807" s="72"/>
-      <c r="E807" s="72"/>
-      <c r="F807" s="73"/>
+      <c r="D807" s="76"/>
+      <c r="E807" s="76"/>
+      <c r="F807" s="77"/>
     </row>
     <row r="808" spans="1:6" ht="18" thickBot="1">
       <c r="C808" s="38" t="s">
@@ -15083,12 +15104,12 @@
       </c>
     </row>
     <row r="811" spans="1:6" ht="27" thickBot="1">
-      <c r="C811" s="74" t="s">
+      <c r="C811" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D811" s="74"/>
-      <c r="E811" s="74"/>
-      <c r="F811" s="74"/>
+      <c r="D811" s="78"/>
+      <c r="E811" s="78"/>
+      <c r="F811" s="78"/>
     </row>
     <row r="812" spans="1:6" ht="18" thickBot="1">
       <c r="C812" s="38" t="s">
@@ -15105,7 +15126,7 @@
       </c>
     </row>
     <row r="813" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C813" s="64">
+      <c r="C813" s="65">
         <v>200</v>
       </c>
       <c r="D813" s="40" t="s">
@@ -15119,7 +15140,7 @@
       </c>
     </row>
     <row r="814" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C814" s="64"/>
+      <c r="C814" s="65"/>
       <c r="D814" s="40" t="s">
         <v>371</v>
       </c>
@@ -15131,7 +15152,7 @@
       </c>
     </row>
     <row r="815" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C815" s="64"/>
+      <c r="C815" s="65"/>
       <c r="D815" s="40" t="s">
         <v>373</v>
       </c>
@@ -15143,7 +15164,7 @@
       </c>
     </row>
     <row r="816" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C816" s="64"/>
+      <c r="C816" s="65"/>
       <c r="D816" s="40"/>
       <c r="E816" s="40"/>
       <c r="F816" s="40"/>
@@ -15164,28 +15185,28 @@
       <c r="B820" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="C820" s="96" t="s">
+      <c r="C820" s="79" t="s">
         <v>549</v>
       </c>
-      <c r="D820" s="97"/>
-      <c r="E820" s="97"/>
-      <c r="F820" s="98"/>
+      <c r="D820" s="80"/>
+      <c r="E820" s="80"/>
+      <c r="F820" s="81"/>
     </row>
     <row r="821" spans="1:6" ht="18" thickBot="1">
-      <c r="C821" s="75" t="s">
+      <c r="C821" s="69" t="s">
         <v>550</v>
       </c>
-      <c r="D821" s="76"/>
-      <c r="E821" s="76"/>
-      <c r="F821" s="77"/>
+      <c r="D821" s="70"/>
+      <c r="E821" s="70"/>
+      <c r="F821" s="71"/>
     </row>
     <row r="822" spans="1:6" ht="27" thickBot="1">
-      <c r="C822" s="68" t="s">
+      <c r="C822" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D822" s="69"/>
-      <c r="E822" s="69"/>
-      <c r="F822" s="70"/>
+      <c r="D822" s="73"/>
+      <c r="E822" s="73"/>
+      <c r="F822" s="74"/>
     </row>
     <row r="823" spans="1:6" ht="18" thickBot="1">
       <c r="C823" s="34" t="s">
@@ -15226,12 +15247,12 @@
       <c r="F825" s="36"/>
     </row>
     <row r="826" spans="1:6" ht="27" thickBot="1">
-      <c r="C826" s="71" t="s">
+      <c r="C826" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D826" s="72"/>
-      <c r="E826" s="72"/>
-      <c r="F826" s="73"/>
+      <c r="D826" s="76"/>
+      <c r="E826" s="76"/>
+      <c r="F826" s="77"/>
     </row>
     <row r="827" spans="1:6" ht="18" thickBot="1">
       <c r="C827" s="38" t="s">
@@ -15268,12 +15289,12 @@
       <c r="F829" s="39"/>
     </row>
     <row r="830" spans="1:6" ht="27" thickBot="1">
-      <c r="C830" s="74" t="s">
+      <c r="C830" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D830" s="74"/>
-      <c r="E830" s="74"/>
-      <c r="F830" s="74"/>
+      <c r="D830" s="78"/>
+      <c r="E830" s="78"/>
+      <c r="F830" s="78"/>
     </row>
     <row r="831" spans="1:6" ht="18" thickBot="1">
       <c r="C831" s="38" t="s">
@@ -15290,7 +15311,7 @@
       </c>
     </row>
     <row r="832" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C832" s="64">
+      <c r="C832" s="65">
         <v>200</v>
       </c>
       <c r="D832" s="40" t="s">
@@ -15304,7 +15325,7 @@
       </c>
     </row>
     <row r="833" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C833" s="64"/>
+      <c r="C833" s="65"/>
       <c r="D833" s="40" t="s">
         <v>371</v>
       </c>
@@ -15316,7 +15337,7 @@
       </c>
     </row>
     <row r="834" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C834" s="64"/>
+      <c r="C834" s="65"/>
       <c r="D834" s="40" t="s">
         <v>373</v>
       </c>
@@ -15328,7 +15349,7 @@
       </c>
     </row>
     <row r="835" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C835" s="64"/>
+      <c r="C835" s="65"/>
       <c r="D835" s="40"/>
       <c r="E835" s="40"/>
       <c r="F835" s="40"/>
@@ -15349,28 +15370,28 @@
       <c r="B839" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="C839" s="96" t="s">
+      <c r="C839" s="79" t="s">
         <v>551</v>
       </c>
-      <c r="D839" s="97"/>
-      <c r="E839" s="97"/>
-      <c r="F839" s="98"/>
+      <c r="D839" s="80"/>
+      <c r="E839" s="80"/>
+      <c r="F839" s="81"/>
     </row>
     <row r="840" spans="1:6" ht="18" thickBot="1">
-      <c r="C840" s="75" t="s">
+      <c r="C840" s="69" t="s">
         <v>552</v>
       </c>
-      <c r="D840" s="76"/>
-      <c r="E840" s="76"/>
-      <c r="F840" s="77"/>
+      <c r="D840" s="70"/>
+      <c r="E840" s="70"/>
+      <c r="F840" s="71"/>
     </row>
     <row r="841" spans="1:6" ht="27" thickBot="1">
-      <c r="C841" s="68" t="s">
+      <c r="C841" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D841" s="69"/>
-      <c r="E841" s="69"/>
-      <c r="F841" s="70"/>
+      <c r="D841" s="73"/>
+      <c r="E841" s="73"/>
+      <c r="F841" s="74"/>
     </row>
     <row r="842" spans="1:6" ht="18" thickBot="1">
       <c r="C842" s="34" t="s">
@@ -15411,12 +15432,12 @@
       <c r="F844" s="36"/>
     </row>
     <row r="845" spans="1:6" ht="27" thickBot="1">
-      <c r="C845" s="71" t="s">
+      <c r="C845" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D845" s="72"/>
-      <c r="E845" s="72"/>
-      <c r="F845" s="73"/>
+      <c r="D845" s="76"/>
+      <c r="E845" s="76"/>
+      <c r="F845" s="77"/>
     </row>
     <row r="846" spans="1:6" ht="18" thickBot="1">
       <c r="C846" s="38" t="s">
@@ -15461,12 +15482,12 @@
       </c>
     </row>
     <row r="849" spans="1:6" ht="27" thickBot="1">
-      <c r="C849" s="74" t="s">
+      <c r="C849" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D849" s="74"/>
-      <c r="E849" s="74"/>
-      <c r="F849" s="74"/>
+      <c r="D849" s="78"/>
+      <c r="E849" s="78"/>
+      <c r="F849" s="78"/>
     </row>
     <row r="850" spans="1:6" ht="18" thickBot="1">
       <c r="C850" s="38" t="s">
@@ -15483,7 +15504,7 @@
       </c>
     </row>
     <row r="851" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C851" s="64">
+      <c r="C851" s="65">
         <v>200</v>
       </c>
       <c r="D851" s="40" t="s">
@@ -15497,7 +15518,7 @@
       </c>
     </row>
     <row r="852" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C852" s="64"/>
+      <c r="C852" s="65"/>
       <c r="D852" s="40" t="s">
         <v>371</v>
       </c>
@@ -15509,7 +15530,7 @@
       </c>
     </row>
     <row r="853" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C853" s="64"/>
+      <c r="C853" s="65"/>
       <c r="D853" s="40" t="s">
         <v>373</v>
       </c>
@@ -15521,7 +15542,7 @@
       </c>
     </row>
     <row r="854" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C854" s="64"/>
+      <c r="C854" s="65"/>
       <c r="D854" s="40"/>
       <c r="E854" s="40"/>
       <c r="F854" s="40"/>
@@ -15542,28 +15563,28 @@
       <c r="B858" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="C858" s="96" t="s">
+      <c r="C858" s="79" t="s">
         <v>555</v>
       </c>
-      <c r="D858" s="97"/>
-      <c r="E858" s="97"/>
-      <c r="F858" s="98"/>
+      <c r="D858" s="80"/>
+      <c r="E858" s="80"/>
+      <c r="F858" s="81"/>
     </row>
     <row r="859" spans="1:6" ht="18" thickBot="1">
-      <c r="C859" s="75" t="s">
+      <c r="C859" s="69" t="s">
         <v>556</v>
       </c>
-      <c r="D859" s="76"/>
-      <c r="E859" s="76"/>
-      <c r="F859" s="77"/>
+      <c r="D859" s="70"/>
+      <c r="E859" s="70"/>
+      <c r="F859" s="71"/>
     </row>
     <row r="860" spans="1:6" ht="27" thickBot="1">
-      <c r="C860" s="68" t="s">
+      <c r="C860" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D860" s="69"/>
-      <c r="E860" s="69"/>
-      <c r="F860" s="70"/>
+      <c r="D860" s="73"/>
+      <c r="E860" s="73"/>
+      <c r="F860" s="74"/>
     </row>
     <row r="861" spans="1:6" ht="18" thickBot="1">
       <c r="C861" s="34" t="s">
@@ -15604,12 +15625,12 @@
       <c r="F863" s="36"/>
     </row>
     <row r="864" spans="1:6" ht="27" thickBot="1">
-      <c r="C864" s="71" t="s">
+      <c r="C864" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D864" s="72"/>
-      <c r="E864" s="72"/>
-      <c r="F864" s="73"/>
+      <c r="D864" s="76"/>
+      <c r="E864" s="76"/>
+      <c r="F864" s="77"/>
     </row>
     <row r="865" spans="1:6" ht="18" thickBot="1">
       <c r="C865" s="38" t="s">
@@ -15654,12 +15675,12 @@
       </c>
     </row>
     <row r="868" spans="1:6" ht="27" thickBot="1">
-      <c r="C868" s="74" t="s">
+      <c r="C868" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D868" s="74"/>
-      <c r="E868" s="74"/>
-      <c r="F868" s="74"/>
+      <c r="D868" s="78"/>
+      <c r="E868" s="78"/>
+      <c r="F868" s="78"/>
     </row>
     <row r="869" spans="1:6" ht="18" thickBot="1">
       <c r="C869" s="38" t="s">
@@ -15676,7 +15697,7 @@
       </c>
     </row>
     <row r="870" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C870" s="64">
+      <c r="C870" s="65">
         <v>200</v>
       </c>
       <c r="D870" s="40" t="s">
@@ -15690,7 +15711,7 @@
       </c>
     </row>
     <row r="871" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C871" s="64"/>
+      <c r="C871" s="65"/>
       <c r="D871" s="40" t="s">
         <v>371</v>
       </c>
@@ -15702,7 +15723,7 @@
       </c>
     </row>
     <row r="872" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C872" s="64"/>
+      <c r="C872" s="65"/>
       <c r="D872" s="40" t="s">
         <v>373</v>
       </c>
@@ -15714,7 +15735,7 @@
       </c>
     </row>
     <row r="873" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C873" s="64"/>
+      <c r="C873" s="65"/>
       <c r="D873" s="40"/>
       <c r="E873" s="40"/>
       <c r="F873" s="40"/>
@@ -15735,28 +15756,28 @@
       <c r="B877" s="52" t="s">
         <v>183</v>
       </c>
-      <c r="C877" s="99" t="s">
+      <c r="C877" s="66" t="s">
         <v>557</v>
       </c>
-      <c r="D877" s="100"/>
-      <c r="E877" s="100"/>
-      <c r="F877" s="101"/>
+      <c r="D877" s="67"/>
+      <c r="E877" s="67"/>
+      <c r="F877" s="68"/>
     </row>
     <row r="878" spans="1:6" ht="18" thickBot="1">
-      <c r="C878" s="75" t="s">
+      <c r="C878" s="69" t="s">
         <v>558</v>
       </c>
-      <c r="D878" s="76"/>
-      <c r="E878" s="76"/>
-      <c r="F878" s="77"/>
+      <c r="D878" s="70"/>
+      <c r="E878" s="70"/>
+      <c r="F878" s="71"/>
     </row>
     <row r="879" spans="1:6" ht="27" thickBot="1">
-      <c r="C879" s="68" t="s">
+      <c r="C879" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D879" s="69"/>
-      <c r="E879" s="69"/>
-      <c r="F879" s="70"/>
+      <c r="D879" s="73"/>
+      <c r="E879" s="73"/>
+      <c r="F879" s="74"/>
     </row>
     <row r="880" spans="1:6" ht="18" thickBot="1">
       <c r="C880" s="34" t="s">
@@ -15797,12 +15818,12 @@
       <c r="F882" s="36"/>
     </row>
     <row r="883" spans="1:6" ht="27" thickBot="1">
-      <c r="C883" s="71" t="s">
+      <c r="C883" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D883" s="72"/>
-      <c r="E883" s="72"/>
-      <c r="F883" s="73"/>
+      <c r="D883" s="76"/>
+      <c r="E883" s="76"/>
+      <c r="F883" s="77"/>
     </row>
     <row r="884" spans="1:6" ht="18" thickBot="1">
       <c r="C884" s="38" t="s">
@@ -15825,12 +15846,12 @@
       <c r="F885" s="39"/>
     </row>
     <row r="886" spans="1:6" ht="27" thickBot="1">
-      <c r="C886" s="74" t="s">
+      <c r="C886" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D886" s="74"/>
-      <c r="E886" s="74"/>
-      <c r="F886" s="74"/>
+      <c r="D886" s="78"/>
+      <c r="E886" s="78"/>
+      <c r="F886" s="78"/>
     </row>
     <row r="887" spans="1:6" ht="18" thickBot="1">
       <c r="C887" s="38" t="s">
@@ -15847,7 +15868,7 @@
       </c>
     </row>
     <row r="888" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C888" s="64">
+      <c r="C888" s="65">
         <v>200</v>
       </c>
       <c r="D888" s="40" t="s">
@@ -15861,7 +15882,7 @@
       </c>
     </row>
     <row r="889" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C889" s="64"/>
+      <c r="C889" s="65"/>
       <c r="D889" s="40" t="s">
         <v>371</v>
       </c>
@@ -15873,7 +15894,7 @@
       </c>
     </row>
     <row r="890" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C890" s="64"/>
+      <c r="C890" s="65"/>
       <c r="D890" s="40" t="s">
         <v>373</v>
       </c>
@@ -15885,7 +15906,7 @@
       </c>
     </row>
     <row r="891" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C891" s="64"/>
+      <c r="C891" s="65"/>
       <c r="D891" s="40"/>
       <c r="E891" s="40"/>
       <c r="F891" s="40"/>
@@ -15906,28 +15927,28 @@
       <c r="B895" s="52" t="s">
         <v>183</v>
       </c>
-      <c r="C895" s="99" t="s">
+      <c r="C895" s="66" t="s">
         <v>559</v>
       </c>
-      <c r="D895" s="100"/>
-      <c r="E895" s="100"/>
-      <c r="F895" s="101"/>
+      <c r="D895" s="67"/>
+      <c r="E895" s="67"/>
+      <c r="F895" s="68"/>
     </row>
     <row r="896" spans="1:6" ht="18" thickBot="1">
-      <c r="C896" s="75" t="s">
+      <c r="C896" s="69" t="s">
         <v>560</v>
       </c>
-      <c r="D896" s="76"/>
-      <c r="E896" s="76"/>
-      <c r="F896" s="77"/>
+      <c r="D896" s="70"/>
+      <c r="E896" s="70"/>
+      <c r="F896" s="71"/>
     </row>
     <row r="897" spans="3:6" ht="27" thickBot="1">
-      <c r="C897" s="68" t="s">
+      <c r="C897" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D897" s="69"/>
-      <c r="E897" s="69"/>
-      <c r="F897" s="70"/>
+      <c r="D897" s="73"/>
+      <c r="E897" s="73"/>
+      <c r="F897" s="74"/>
     </row>
     <row r="898" spans="3:6" ht="18" thickBot="1">
       <c r="C898" s="34" t="s">
@@ -15968,12 +15989,12 @@
       <c r="F900" s="36"/>
     </row>
     <row r="901" spans="3:6" ht="27" thickBot="1">
-      <c r="C901" s="71" t="s">
+      <c r="C901" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D901" s="72"/>
-      <c r="E901" s="72"/>
-      <c r="F901" s="73"/>
+      <c r="D901" s="76"/>
+      <c r="E901" s="76"/>
+      <c r="F901" s="77"/>
     </row>
     <row r="902" spans="3:6" ht="18" thickBot="1">
       <c r="C902" s="38" t="s">
@@ -16010,12 +16031,12 @@
       <c r="F904" s="39"/>
     </row>
     <row r="905" spans="3:6" ht="27" thickBot="1">
-      <c r="C905" s="74" t="s">
+      <c r="C905" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D905" s="74"/>
-      <c r="E905" s="74"/>
-      <c r="F905" s="74"/>
+      <c r="D905" s="78"/>
+      <c r="E905" s="78"/>
+      <c r="F905" s="78"/>
     </row>
     <row r="906" spans="3:6" ht="18" thickBot="1">
       <c r="C906" s="38" t="s">
@@ -16032,7 +16053,7 @@
       </c>
     </row>
     <row r="907" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C907" s="64">
+      <c r="C907" s="65">
         <v>200</v>
       </c>
       <c r="D907" s="40" t="s">
@@ -16046,7 +16067,7 @@
       </c>
     </row>
     <row r="908" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C908" s="64"/>
+      <c r="C908" s="65"/>
       <c r="D908" s="40" t="s">
         <v>371</v>
       </c>
@@ -16058,7 +16079,7 @@
       </c>
     </row>
     <row r="909" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C909" s="64"/>
+      <c r="C909" s="65"/>
       <c r="D909" s="40" t="s">
         <v>373</v>
       </c>
@@ -16070,7 +16091,7 @@
       </c>
     </row>
     <row r="910" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C910" s="64"/>
+      <c r="C910" s="65"/>
       <c r="D910" s="40"/>
       <c r="E910" s="40"/>
       <c r="F910" s="40"/>
@@ -16091,28 +16112,28 @@
       <c r="B915" s="52" t="s">
         <v>183</v>
       </c>
-      <c r="C915" s="99" t="s">
+      <c r="C915" s="66" t="s">
         <v>563</v>
       </c>
-      <c r="D915" s="100"/>
-      <c r="E915" s="100"/>
-      <c r="F915" s="101"/>
+      <c r="D915" s="67"/>
+      <c r="E915" s="67"/>
+      <c r="F915" s="68"/>
     </row>
     <row r="916" spans="1:6" ht="18" thickBot="1">
-      <c r="C916" s="75" t="s">
+      <c r="C916" s="69" t="s">
         <v>564</v>
       </c>
-      <c r="D916" s="76"/>
-      <c r="E916" s="76"/>
-      <c r="F916" s="77"/>
+      <c r="D916" s="70"/>
+      <c r="E916" s="70"/>
+      <c r="F916" s="71"/>
     </row>
     <row r="917" spans="1:6" ht="27" thickBot="1">
-      <c r="C917" s="68" t="s">
+      <c r="C917" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D917" s="69"/>
-      <c r="E917" s="69"/>
-      <c r="F917" s="70"/>
+      <c r="D917" s="73"/>
+      <c r="E917" s="73"/>
+      <c r="F917" s="74"/>
     </row>
     <row r="918" spans="1:6" ht="18" thickBot="1">
       <c r="C918" s="34" t="s">
@@ -16153,12 +16174,12 @@
       <c r="F920" s="36"/>
     </row>
     <row r="921" spans="1:6" ht="27" thickBot="1">
-      <c r="C921" s="71" t="s">
+      <c r="C921" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D921" s="72"/>
-      <c r="E921" s="72"/>
-      <c r="F921" s="73"/>
+      <c r="D921" s="76"/>
+      <c r="E921" s="76"/>
+      <c r="F921" s="77"/>
     </row>
     <row r="922" spans="1:6" ht="18" thickBot="1">
       <c r="C922" s="38" t="s">
@@ -16219,12 +16240,12 @@
       </c>
     </row>
     <row r="926" spans="1:6" ht="27" thickBot="1">
-      <c r="C926" s="74" t="s">
+      <c r="C926" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D926" s="74"/>
-      <c r="E926" s="74"/>
-      <c r="F926" s="74"/>
+      <c r="D926" s="78"/>
+      <c r="E926" s="78"/>
+      <c r="F926" s="78"/>
     </row>
     <row r="927" spans="1:6" ht="18" thickBot="1">
       <c r="C927" s="38" t="s">
@@ -16241,7 +16262,7 @@
       </c>
     </row>
     <row r="928" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C928" s="64">
+      <c r="C928" s="65">
         <v>200</v>
       </c>
       <c r="D928" s="40" t="s">
@@ -16255,7 +16276,7 @@
       </c>
     </row>
     <row r="929" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C929" s="64"/>
+      <c r="C929" s="65"/>
       <c r="D929" s="40" t="s">
         <v>371</v>
       </c>
@@ -16267,7 +16288,7 @@
       </c>
     </row>
     <row r="930" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C930" s="64"/>
+      <c r="C930" s="65"/>
       <c r="D930" s="40" t="s">
         <v>373</v>
       </c>
@@ -16279,7 +16300,7 @@
       </c>
     </row>
     <row r="931" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C931" s="64"/>
+      <c r="C931" s="65"/>
       <c r="D931" s="40"/>
       <c r="E931" s="40"/>
       <c r="F931" s="40"/>
@@ -16300,28 +16321,28 @@
       <c r="B935" s="52" t="s">
         <v>183</v>
       </c>
-      <c r="C935" s="99" t="s">
+      <c r="C935" s="66" t="s">
         <v>568</v>
       </c>
-      <c r="D935" s="100"/>
-      <c r="E935" s="100"/>
-      <c r="F935" s="101"/>
+      <c r="D935" s="67"/>
+      <c r="E935" s="67"/>
+      <c r="F935" s="68"/>
     </row>
     <row r="936" spans="1:6" ht="18" thickBot="1">
-      <c r="C936" s="75" t="s">
+      <c r="C936" s="69" t="s">
         <v>569</v>
       </c>
-      <c r="D936" s="76"/>
-      <c r="E936" s="76"/>
-      <c r="F936" s="77"/>
+      <c r="D936" s="70"/>
+      <c r="E936" s="70"/>
+      <c r="F936" s="71"/>
     </row>
     <row r="937" spans="1:6" ht="27" thickBot="1">
-      <c r="C937" s="68" t="s">
+      <c r="C937" s="72" t="s">
         <v>340</v>
       </c>
-      <c r="D937" s="69"/>
-      <c r="E937" s="69"/>
-      <c r="F937" s="70"/>
+      <c r="D937" s="73"/>
+      <c r="E937" s="73"/>
+      <c r="F937" s="74"/>
     </row>
     <row r="938" spans="1:6" ht="18" thickBot="1">
       <c r="C938" s="34" t="s">
@@ -16362,12 +16383,12 @@
       <c r="F940" s="36"/>
     </row>
     <row r="941" spans="1:6" ht="27" thickBot="1">
-      <c r="C941" s="71" t="s">
+      <c r="C941" s="75" t="s">
         <v>346</v>
       </c>
-      <c r="D941" s="72"/>
-      <c r="E941" s="72"/>
-      <c r="F941" s="73"/>
+      <c r="D941" s="76"/>
+      <c r="E941" s="76"/>
+      <c r="F941" s="77"/>
     </row>
     <row r="942" spans="1:6" ht="18" thickBot="1">
       <c r="C942" s="38" t="s">
@@ -16426,12 +16447,12 @@
       </c>
     </row>
     <row r="946" spans="3:6" ht="27" thickBot="1">
-      <c r="C946" s="74" t="s">
+      <c r="C946" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D946" s="74"/>
-      <c r="E946" s="74"/>
-      <c r="F946" s="74"/>
+      <c r="D946" s="78"/>
+      <c r="E946" s="78"/>
+      <c r="F946" s="78"/>
     </row>
     <row r="947" spans="3:6" ht="18" thickBot="1">
       <c r="C947" s="38" t="s">
@@ -16448,7 +16469,7 @@
       </c>
     </row>
     <row r="948" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C948" s="64">
+      <c r="C948" s="65">
         <v>200</v>
       </c>
       <c r="D948" s="40" t="s">
@@ -16462,7 +16483,7 @@
       </c>
     </row>
     <row r="949" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C949" s="64"/>
+      <c r="C949" s="65"/>
       <c r="D949" s="40" t="s">
         <v>371</v>
       </c>
@@ -16474,7 +16495,7 @@
       </c>
     </row>
     <row r="950" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C950" s="64"/>
+      <c r="C950" s="65"/>
       <c r="D950" s="40" t="s">
         <v>373</v>
       </c>
@@ -16486,7 +16507,7 @@
       </c>
     </row>
     <row r="951" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C951" s="64"/>
+      <c r="C951" s="65"/>
       <c r="D951" s="40"/>
       <c r="E951" s="40"/>
       <c r="F951" s="40"/>
@@ -16501,214 +16522,80 @@
     </row>
   </sheetData>
   <mergeCells count="300">
-    <mergeCell ref="C948:C951"/>
-    <mergeCell ref="C935:F935"/>
-    <mergeCell ref="C936:F936"/>
-    <mergeCell ref="C937:F937"/>
-    <mergeCell ref="C941:F941"/>
-    <mergeCell ref="C946:F946"/>
-    <mergeCell ref="C916:F916"/>
-    <mergeCell ref="C917:F917"/>
-    <mergeCell ref="C921:F921"/>
-    <mergeCell ref="C926:F926"/>
-    <mergeCell ref="C928:C931"/>
-    <mergeCell ref="C897:F897"/>
-    <mergeCell ref="C901:F901"/>
-    <mergeCell ref="C905:F905"/>
-    <mergeCell ref="C907:C910"/>
-    <mergeCell ref="C915:F915"/>
-    <mergeCell ref="C883:F883"/>
-    <mergeCell ref="C886:F886"/>
-    <mergeCell ref="C888:C891"/>
-    <mergeCell ref="C895:F895"/>
-    <mergeCell ref="C896:F896"/>
-    <mergeCell ref="C868:F868"/>
-    <mergeCell ref="C870:C873"/>
-    <mergeCell ref="C877:F877"/>
-    <mergeCell ref="C878:F878"/>
-    <mergeCell ref="C879:F879"/>
-    <mergeCell ref="C851:C854"/>
-    <mergeCell ref="C858:F858"/>
-    <mergeCell ref="C859:F859"/>
-    <mergeCell ref="C860:F860"/>
-    <mergeCell ref="C864:F864"/>
-    <mergeCell ref="C839:F839"/>
-    <mergeCell ref="C840:F840"/>
-    <mergeCell ref="C841:F841"/>
-    <mergeCell ref="C845:F845"/>
-    <mergeCell ref="C849:F849"/>
-    <mergeCell ref="C821:F821"/>
-    <mergeCell ref="C822:F822"/>
-    <mergeCell ref="C826:F826"/>
-    <mergeCell ref="C830:F830"/>
-    <mergeCell ref="C832:C835"/>
-    <mergeCell ref="C803:F803"/>
-    <mergeCell ref="C807:F807"/>
-    <mergeCell ref="C811:F811"/>
-    <mergeCell ref="C813:C816"/>
-    <mergeCell ref="C820:F820"/>
-    <mergeCell ref="C788:F788"/>
-    <mergeCell ref="C792:F792"/>
-    <mergeCell ref="C794:C797"/>
-    <mergeCell ref="C801:F801"/>
-    <mergeCell ref="C802:F802"/>
-    <mergeCell ref="C773:F773"/>
-    <mergeCell ref="C775:C778"/>
-    <mergeCell ref="C782:F782"/>
-    <mergeCell ref="C783:F783"/>
-    <mergeCell ref="C784:F784"/>
-    <mergeCell ref="C756:C759"/>
-    <mergeCell ref="C763:F763"/>
-    <mergeCell ref="C764:F764"/>
-    <mergeCell ref="C765:F765"/>
-    <mergeCell ref="C769:F769"/>
-    <mergeCell ref="C744:F744"/>
-    <mergeCell ref="C745:F745"/>
-    <mergeCell ref="C746:F746"/>
-    <mergeCell ref="C750:F750"/>
-    <mergeCell ref="C754:F754"/>
-    <mergeCell ref="C726:F726"/>
-    <mergeCell ref="C727:F727"/>
-    <mergeCell ref="C731:F731"/>
-    <mergeCell ref="C735:F735"/>
-    <mergeCell ref="C737:C740"/>
-    <mergeCell ref="C708:F708"/>
-    <mergeCell ref="C712:F712"/>
-    <mergeCell ref="C716:F716"/>
-    <mergeCell ref="C718:C721"/>
-    <mergeCell ref="C725:F725"/>
-    <mergeCell ref="C692:F692"/>
-    <mergeCell ref="C697:F697"/>
-    <mergeCell ref="C699:C702"/>
-    <mergeCell ref="C706:F706"/>
-    <mergeCell ref="C707:F707"/>
-    <mergeCell ref="C677:F677"/>
-    <mergeCell ref="C679:C682"/>
-    <mergeCell ref="C686:F686"/>
-    <mergeCell ref="C687:F687"/>
-    <mergeCell ref="C688:F688"/>
-    <mergeCell ref="C659:C662"/>
-    <mergeCell ref="C666:F666"/>
-    <mergeCell ref="C667:F667"/>
-    <mergeCell ref="C668:F668"/>
-    <mergeCell ref="C672:F672"/>
-    <mergeCell ref="C647:F647"/>
-    <mergeCell ref="C648:F648"/>
-    <mergeCell ref="C649:F649"/>
-    <mergeCell ref="C653:F653"/>
-    <mergeCell ref="C657:F657"/>
-    <mergeCell ref="C629:F629"/>
-    <mergeCell ref="C630:F630"/>
-    <mergeCell ref="C634:F634"/>
-    <mergeCell ref="C638:F638"/>
-    <mergeCell ref="C640:C643"/>
-    <mergeCell ref="C611:F611"/>
-    <mergeCell ref="C615:F615"/>
-    <mergeCell ref="C619:F619"/>
-    <mergeCell ref="C621:C624"/>
-    <mergeCell ref="C628:F628"/>
-    <mergeCell ref="C596:F596"/>
-    <mergeCell ref="C600:F600"/>
-    <mergeCell ref="C602:C605"/>
-    <mergeCell ref="C609:F609"/>
-    <mergeCell ref="C610:F610"/>
-    <mergeCell ref="C581:F581"/>
-    <mergeCell ref="C583:C586"/>
-    <mergeCell ref="C590:F590"/>
-    <mergeCell ref="C591:F591"/>
-    <mergeCell ref="C592:F592"/>
-    <mergeCell ref="C564:C567"/>
-    <mergeCell ref="C571:F571"/>
-    <mergeCell ref="C572:F572"/>
-    <mergeCell ref="C573:F573"/>
-    <mergeCell ref="C577:F577"/>
-    <mergeCell ref="C552:F552"/>
-    <mergeCell ref="C553:F553"/>
-    <mergeCell ref="C554:F554"/>
-    <mergeCell ref="C558:F558"/>
-    <mergeCell ref="C562:F562"/>
-    <mergeCell ref="C534:F534"/>
-    <mergeCell ref="C535:F535"/>
-    <mergeCell ref="C539:F539"/>
-    <mergeCell ref="C543:F543"/>
-    <mergeCell ref="C545:C548"/>
-    <mergeCell ref="C517:F517"/>
-    <mergeCell ref="C521:F521"/>
-    <mergeCell ref="C524:F524"/>
-    <mergeCell ref="C526:C529"/>
-    <mergeCell ref="C533:F533"/>
-    <mergeCell ref="C503:F503"/>
-    <mergeCell ref="C506:F506"/>
-    <mergeCell ref="C508:C511"/>
-    <mergeCell ref="C515:F515"/>
-    <mergeCell ref="C516:F516"/>
-    <mergeCell ref="C488:F488"/>
-    <mergeCell ref="C490:C493"/>
-    <mergeCell ref="C497:F497"/>
-    <mergeCell ref="C498:F498"/>
-    <mergeCell ref="C499:F499"/>
-    <mergeCell ref="C471:C474"/>
-    <mergeCell ref="C478:F478"/>
-    <mergeCell ref="C479:F479"/>
-    <mergeCell ref="C480:F480"/>
-    <mergeCell ref="C484:F484"/>
-    <mergeCell ref="C459:F459"/>
-    <mergeCell ref="C460:F460"/>
-    <mergeCell ref="C461:F461"/>
-    <mergeCell ref="C465:F465"/>
-    <mergeCell ref="C469:F469"/>
-    <mergeCell ref="C441:F441"/>
-    <mergeCell ref="C442:F442"/>
-    <mergeCell ref="C446:F446"/>
-    <mergeCell ref="C450:F450"/>
-    <mergeCell ref="C452:C455"/>
-    <mergeCell ref="C423:F423"/>
-    <mergeCell ref="C427:F427"/>
-    <mergeCell ref="C431:F431"/>
-    <mergeCell ref="C433:C436"/>
-    <mergeCell ref="C440:F440"/>
-    <mergeCell ref="C408:F408"/>
-    <mergeCell ref="C412:F412"/>
-    <mergeCell ref="C414:C417"/>
-    <mergeCell ref="C421:F421"/>
-    <mergeCell ref="C422:F422"/>
-    <mergeCell ref="C393:F393"/>
-    <mergeCell ref="C395:C398"/>
-    <mergeCell ref="C402:F402"/>
-    <mergeCell ref="C403:F403"/>
-    <mergeCell ref="C404:F404"/>
-    <mergeCell ref="C376:C379"/>
-    <mergeCell ref="C383:F383"/>
-    <mergeCell ref="C384:F384"/>
-    <mergeCell ref="C385:F385"/>
-    <mergeCell ref="C389:F389"/>
-    <mergeCell ref="C364:F364"/>
-    <mergeCell ref="C365:F365"/>
-    <mergeCell ref="C366:F366"/>
-    <mergeCell ref="C370:F370"/>
-    <mergeCell ref="C374:F374"/>
-    <mergeCell ref="C345:F345"/>
-    <mergeCell ref="C351:F351"/>
-    <mergeCell ref="C355:F355"/>
-    <mergeCell ref="C357:C360"/>
-    <mergeCell ref="C336:F336"/>
-    <mergeCell ref="C338:C341"/>
-    <mergeCell ref="C346:F346"/>
-    <mergeCell ref="C347:F347"/>
-    <mergeCell ref="C319:C322"/>
-    <mergeCell ref="C326:F326"/>
-    <mergeCell ref="C327:F327"/>
-    <mergeCell ref="C328:F328"/>
-    <mergeCell ref="C332:F332"/>
-    <mergeCell ref="C307:F307"/>
-    <mergeCell ref="C308:F308"/>
-    <mergeCell ref="C309:F309"/>
-    <mergeCell ref="C313:F313"/>
-    <mergeCell ref="C317:F317"/>
-    <mergeCell ref="C290:F290"/>
-    <mergeCell ref="C294:F294"/>
-    <mergeCell ref="C298:F298"/>
-    <mergeCell ref="C300:C303"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="C103:C106"/>
+    <mergeCell ref="C75:F75"/>
+    <mergeCell ref="C76:F76"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="C80:F80"/>
+    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="C85:C88"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="C94:F94"/>
+    <mergeCell ref="C98:F98"/>
+    <mergeCell ref="C101:F101"/>
+    <mergeCell ref="C140:C143"/>
+    <mergeCell ref="C110:F110"/>
+    <mergeCell ref="C111:F111"/>
+    <mergeCell ref="C112:F112"/>
+    <mergeCell ref="C116:F116"/>
+    <mergeCell ref="C119:F119"/>
+    <mergeCell ref="C121:C124"/>
+    <mergeCell ref="C128:F128"/>
+    <mergeCell ref="C129:F129"/>
+    <mergeCell ref="C130:F130"/>
+    <mergeCell ref="C134:F134"/>
+    <mergeCell ref="C138:F138"/>
+    <mergeCell ref="C184:C187"/>
+    <mergeCell ref="C147:F147"/>
+    <mergeCell ref="C148:F148"/>
+    <mergeCell ref="C149:F149"/>
+    <mergeCell ref="C153:F153"/>
+    <mergeCell ref="C162:F162"/>
+    <mergeCell ref="C164:C167"/>
+    <mergeCell ref="C171:F171"/>
+    <mergeCell ref="C172:F172"/>
+    <mergeCell ref="C173:F173"/>
+    <mergeCell ref="C177:F177"/>
+    <mergeCell ref="C182:F182"/>
+    <mergeCell ref="C231:F231"/>
+    <mergeCell ref="C211:F211"/>
+    <mergeCell ref="C212:F212"/>
+    <mergeCell ref="C191:F191"/>
+    <mergeCell ref="C192:F192"/>
+    <mergeCell ref="C193:F193"/>
+    <mergeCell ref="C197:F197"/>
+    <mergeCell ref="C201:F201"/>
+    <mergeCell ref="C203:C206"/>
+    <mergeCell ref="C210:F210"/>
+    <mergeCell ref="C216:F216"/>
+    <mergeCell ref="C221:F221"/>
+    <mergeCell ref="C223:C226"/>
+    <mergeCell ref="C230:F230"/>
     <mergeCell ref="C271:F271"/>
     <mergeCell ref="C275:F275"/>
     <mergeCell ref="C279:F279"/>
@@ -16727,80 +16614,214 @@
     <mergeCell ref="C260:F260"/>
     <mergeCell ref="C262:C265"/>
     <mergeCell ref="C269:F269"/>
-    <mergeCell ref="C231:F231"/>
-    <mergeCell ref="C211:F211"/>
-    <mergeCell ref="C212:F212"/>
-    <mergeCell ref="C191:F191"/>
-    <mergeCell ref="C192:F192"/>
-    <mergeCell ref="C193:F193"/>
-    <mergeCell ref="C197:F197"/>
-    <mergeCell ref="C201:F201"/>
-    <mergeCell ref="C203:C206"/>
-    <mergeCell ref="C210:F210"/>
-    <mergeCell ref="C216:F216"/>
-    <mergeCell ref="C221:F221"/>
-    <mergeCell ref="C223:C226"/>
-    <mergeCell ref="C230:F230"/>
-    <mergeCell ref="C184:C187"/>
-    <mergeCell ref="C147:F147"/>
-    <mergeCell ref="C148:F148"/>
-    <mergeCell ref="C149:F149"/>
-    <mergeCell ref="C153:F153"/>
-    <mergeCell ref="C162:F162"/>
-    <mergeCell ref="C164:C167"/>
-    <mergeCell ref="C171:F171"/>
-    <mergeCell ref="C172:F172"/>
-    <mergeCell ref="C173:F173"/>
-    <mergeCell ref="C177:F177"/>
-    <mergeCell ref="C182:F182"/>
-    <mergeCell ref="C140:C143"/>
-    <mergeCell ref="C110:F110"/>
-    <mergeCell ref="C111:F111"/>
-    <mergeCell ref="C112:F112"/>
-    <mergeCell ref="C116:F116"/>
-    <mergeCell ref="C119:F119"/>
-    <mergeCell ref="C121:C124"/>
-    <mergeCell ref="C128:F128"/>
-    <mergeCell ref="C129:F129"/>
-    <mergeCell ref="C130:F130"/>
-    <mergeCell ref="C134:F134"/>
-    <mergeCell ref="C138:F138"/>
-    <mergeCell ref="C103:C106"/>
-    <mergeCell ref="C75:F75"/>
-    <mergeCell ref="C76:F76"/>
-    <mergeCell ref="C77:F77"/>
-    <mergeCell ref="C80:F80"/>
-    <mergeCell ref="C83:F83"/>
-    <mergeCell ref="C85:C88"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="C93:F93"/>
-    <mergeCell ref="C94:F94"/>
-    <mergeCell ref="C98:F98"/>
-    <mergeCell ref="C101:F101"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="C59:F59"/>
-    <mergeCell ref="C60:F60"/>
-    <mergeCell ref="C63:F63"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C307:F307"/>
+    <mergeCell ref="C308:F308"/>
+    <mergeCell ref="C309:F309"/>
+    <mergeCell ref="C313:F313"/>
+    <mergeCell ref="C317:F317"/>
+    <mergeCell ref="C290:F290"/>
+    <mergeCell ref="C294:F294"/>
+    <mergeCell ref="C298:F298"/>
+    <mergeCell ref="C300:C303"/>
+    <mergeCell ref="C336:F336"/>
+    <mergeCell ref="C338:C341"/>
+    <mergeCell ref="C346:F346"/>
+    <mergeCell ref="C347:F347"/>
+    <mergeCell ref="C319:C322"/>
+    <mergeCell ref="C326:F326"/>
+    <mergeCell ref="C327:F327"/>
+    <mergeCell ref="C328:F328"/>
+    <mergeCell ref="C332:F332"/>
+    <mergeCell ref="C364:F364"/>
+    <mergeCell ref="C365:F365"/>
+    <mergeCell ref="C366:F366"/>
+    <mergeCell ref="C370:F370"/>
+    <mergeCell ref="C374:F374"/>
+    <mergeCell ref="C345:F345"/>
+    <mergeCell ref="C351:F351"/>
+    <mergeCell ref="C355:F355"/>
+    <mergeCell ref="C357:C360"/>
+    <mergeCell ref="C393:F393"/>
+    <mergeCell ref="C395:C398"/>
+    <mergeCell ref="C402:F402"/>
+    <mergeCell ref="C403:F403"/>
+    <mergeCell ref="C404:F404"/>
+    <mergeCell ref="C376:C379"/>
+    <mergeCell ref="C383:F383"/>
+    <mergeCell ref="C384:F384"/>
+    <mergeCell ref="C385:F385"/>
+    <mergeCell ref="C389:F389"/>
+    <mergeCell ref="C423:F423"/>
+    <mergeCell ref="C427:F427"/>
+    <mergeCell ref="C431:F431"/>
+    <mergeCell ref="C433:C436"/>
+    <mergeCell ref="C440:F440"/>
+    <mergeCell ref="C408:F408"/>
+    <mergeCell ref="C412:F412"/>
+    <mergeCell ref="C414:C417"/>
+    <mergeCell ref="C421:F421"/>
+    <mergeCell ref="C422:F422"/>
+    <mergeCell ref="C459:F459"/>
+    <mergeCell ref="C460:F460"/>
+    <mergeCell ref="C461:F461"/>
+    <mergeCell ref="C465:F465"/>
+    <mergeCell ref="C469:F469"/>
+    <mergeCell ref="C441:F441"/>
+    <mergeCell ref="C442:F442"/>
+    <mergeCell ref="C446:F446"/>
+    <mergeCell ref="C450:F450"/>
+    <mergeCell ref="C452:C455"/>
+    <mergeCell ref="C488:F488"/>
+    <mergeCell ref="C490:C493"/>
+    <mergeCell ref="C497:F497"/>
+    <mergeCell ref="C498:F498"/>
+    <mergeCell ref="C499:F499"/>
+    <mergeCell ref="C471:C474"/>
+    <mergeCell ref="C478:F478"/>
+    <mergeCell ref="C479:F479"/>
+    <mergeCell ref="C480:F480"/>
+    <mergeCell ref="C484:F484"/>
+    <mergeCell ref="C517:F517"/>
+    <mergeCell ref="C521:F521"/>
+    <mergeCell ref="C524:F524"/>
+    <mergeCell ref="C526:C529"/>
+    <mergeCell ref="C533:F533"/>
+    <mergeCell ref="C503:F503"/>
+    <mergeCell ref="C506:F506"/>
+    <mergeCell ref="C508:C511"/>
+    <mergeCell ref="C515:F515"/>
+    <mergeCell ref="C516:F516"/>
+    <mergeCell ref="C552:F552"/>
+    <mergeCell ref="C553:F553"/>
+    <mergeCell ref="C554:F554"/>
+    <mergeCell ref="C558:F558"/>
+    <mergeCell ref="C562:F562"/>
+    <mergeCell ref="C534:F534"/>
+    <mergeCell ref="C535:F535"/>
+    <mergeCell ref="C539:F539"/>
+    <mergeCell ref="C543:F543"/>
+    <mergeCell ref="C545:C548"/>
+    <mergeCell ref="C581:F581"/>
+    <mergeCell ref="C583:C586"/>
+    <mergeCell ref="C590:F590"/>
+    <mergeCell ref="C591:F591"/>
+    <mergeCell ref="C592:F592"/>
+    <mergeCell ref="C564:C567"/>
+    <mergeCell ref="C571:F571"/>
+    <mergeCell ref="C572:F572"/>
+    <mergeCell ref="C573:F573"/>
+    <mergeCell ref="C577:F577"/>
+    <mergeCell ref="C611:F611"/>
+    <mergeCell ref="C615:F615"/>
+    <mergeCell ref="C619:F619"/>
+    <mergeCell ref="C621:C624"/>
+    <mergeCell ref="C628:F628"/>
+    <mergeCell ref="C596:F596"/>
+    <mergeCell ref="C600:F600"/>
+    <mergeCell ref="C602:C605"/>
+    <mergeCell ref="C609:F609"/>
+    <mergeCell ref="C610:F610"/>
+    <mergeCell ref="C647:F647"/>
+    <mergeCell ref="C648:F648"/>
+    <mergeCell ref="C649:F649"/>
+    <mergeCell ref="C653:F653"/>
+    <mergeCell ref="C657:F657"/>
+    <mergeCell ref="C629:F629"/>
+    <mergeCell ref="C630:F630"/>
+    <mergeCell ref="C634:F634"/>
+    <mergeCell ref="C638:F638"/>
+    <mergeCell ref="C640:C643"/>
+    <mergeCell ref="C677:F677"/>
+    <mergeCell ref="C679:C682"/>
+    <mergeCell ref="C686:F686"/>
+    <mergeCell ref="C687:F687"/>
+    <mergeCell ref="C688:F688"/>
+    <mergeCell ref="C659:C662"/>
+    <mergeCell ref="C666:F666"/>
+    <mergeCell ref="C667:F667"/>
+    <mergeCell ref="C668:F668"/>
+    <mergeCell ref="C672:F672"/>
+    <mergeCell ref="C708:F708"/>
+    <mergeCell ref="C712:F712"/>
+    <mergeCell ref="C716:F716"/>
+    <mergeCell ref="C718:C721"/>
+    <mergeCell ref="C725:F725"/>
+    <mergeCell ref="C692:F692"/>
+    <mergeCell ref="C697:F697"/>
+    <mergeCell ref="C699:C702"/>
+    <mergeCell ref="C706:F706"/>
+    <mergeCell ref="C707:F707"/>
+    <mergeCell ref="C744:F744"/>
+    <mergeCell ref="C745:F745"/>
+    <mergeCell ref="C746:F746"/>
+    <mergeCell ref="C750:F750"/>
+    <mergeCell ref="C754:F754"/>
+    <mergeCell ref="C726:F726"/>
+    <mergeCell ref="C727:F727"/>
+    <mergeCell ref="C731:F731"/>
+    <mergeCell ref="C735:F735"/>
+    <mergeCell ref="C737:C740"/>
+    <mergeCell ref="C773:F773"/>
+    <mergeCell ref="C775:C778"/>
+    <mergeCell ref="C782:F782"/>
+    <mergeCell ref="C783:F783"/>
+    <mergeCell ref="C784:F784"/>
+    <mergeCell ref="C756:C759"/>
+    <mergeCell ref="C763:F763"/>
+    <mergeCell ref="C764:F764"/>
+    <mergeCell ref="C765:F765"/>
+    <mergeCell ref="C769:F769"/>
+    <mergeCell ref="C803:F803"/>
+    <mergeCell ref="C807:F807"/>
+    <mergeCell ref="C811:F811"/>
+    <mergeCell ref="C813:C816"/>
+    <mergeCell ref="C820:F820"/>
+    <mergeCell ref="C788:F788"/>
+    <mergeCell ref="C792:F792"/>
+    <mergeCell ref="C794:C797"/>
+    <mergeCell ref="C801:F801"/>
+    <mergeCell ref="C802:F802"/>
+    <mergeCell ref="C839:F839"/>
+    <mergeCell ref="C840:F840"/>
+    <mergeCell ref="C841:F841"/>
+    <mergeCell ref="C845:F845"/>
+    <mergeCell ref="C849:F849"/>
+    <mergeCell ref="C821:F821"/>
+    <mergeCell ref="C822:F822"/>
+    <mergeCell ref="C826:F826"/>
+    <mergeCell ref="C830:F830"/>
+    <mergeCell ref="C832:C835"/>
+    <mergeCell ref="C868:F868"/>
+    <mergeCell ref="C870:C873"/>
+    <mergeCell ref="C877:F877"/>
+    <mergeCell ref="C878:F878"/>
+    <mergeCell ref="C879:F879"/>
+    <mergeCell ref="C851:C854"/>
+    <mergeCell ref="C858:F858"/>
+    <mergeCell ref="C859:F859"/>
+    <mergeCell ref="C860:F860"/>
+    <mergeCell ref="C864:F864"/>
+    <mergeCell ref="C897:F897"/>
+    <mergeCell ref="C901:F901"/>
+    <mergeCell ref="C905:F905"/>
+    <mergeCell ref="C907:C910"/>
+    <mergeCell ref="C915:F915"/>
+    <mergeCell ref="C883:F883"/>
+    <mergeCell ref="C886:F886"/>
+    <mergeCell ref="C888:C891"/>
+    <mergeCell ref="C895:F895"/>
+    <mergeCell ref="C896:F896"/>
+    <mergeCell ref="C948:C951"/>
+    <mergeCell ref="C935:F935"/>
+    <mergeCell ref="C936:F936"/>
+    <mergeCell ref="C937:F937"/>
+    <mergeCell ref="C941:F941"/>
+    <mergeCell ref="C946:F946"/>
+    <mergeCell ref="C916:F916"/>
+    <mergeCell ref="C917:F917"/>
+    <mergeCell ref="C921:F921"/>
+    <mergeCell ref="C926:F926"/>
+    <mergeCell ref="C928:C931"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/APIDocs/API명세서.xlsx
+++ b/docs/APIDocs/API명세서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\GameProject\docs\APIDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB02E91-BACD-4AC5-9308-214BA34022FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E2DA787-278A-48CB-9DE0-A8BD51DD096D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{4E8C34D6-CE1A-427D-9403-2013A6AFC92D}"/>
   </bookViews>
@@ -2056,9 +2056,6 @@
     <t>/api/v1/shop/items</t>
   </si>
   <si>
-    <t>/api/v1/shop/item/{shop_code}</t>
-  </si>
-  <si>
     <t>/api/v1/shop/item/buy</t>
   </si>
   <si>
@@ -2732,6 +2729,10 @@
   </si>
   <si>
     <t>지역에서 1분마다 낚시배 내구도 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/v1/shop/item</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3027,7 +3028,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="45">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3276,6 +3277,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3663,7 +3670,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3994,6 +4001,21 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="43" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -5260,8 +5282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071D4A7B-DD4D-499C-AF7D-3FC54784CE79}">
   <dimension ref="B1:K58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="C54" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5280,7 +5302,7 @@
   <sheetData>
     <row r="1" spans="2:11">
       <c r="D1" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="2" spans="2:11" s="30" customFormat="1" ht="42.6" customHeight="1">
@@ -5329,13 +5351,13 @@
         <v>4</v>
       </c>
       <c r="F3" s="54" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G3" s="55" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H3" s="55" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I3" s="55" t="s">
         <v>216</v>
@@ -5365,7 +5387,7 @@
         <v>215</v>
       </c>
       <c r="H4" s="55" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I4" s="55" t="s">
         <v>312</v>
@@ -5387,10 +5409,10 @@
         <v>4</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="G5" s="55" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H5" s="55"/>
       <c r="I5" s="52" t="s">
@@ -5400,7 +5422,7 @@
         <v>215</v>
       </c>
       <c r="K5" s="54" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="6" spans="2:11" s="56" customFormat="1" ht="82.5">
@@ -5421,7 +5443,7 @@
         <v>215</v>
       </c>
       <c r="H6" s="55" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I6" s="52" t="s">
         <v>215</v>
@@ -5503,13 +5525,13 @@
         <v>4</v>
       </c>
       <c r="F9" s="54" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G9" s="55" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="H9" s="55" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I9" s="52" t="s">
         <v>215</v>
@@ -5518,7 +5540,7 @@
         <v>215</v>
       </c>
       <c r="K9" s="54" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="10" spans="2:11" s="56" customFormat="1" ht="82.5">
@@ -5535,13 +5557,13 @@
         <v>4</v>
       </c>
       <c r="F10" s="54" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="G10" s="52" t="s">
         <v>215</v>
       </c>
       <c r="H10" s="55" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I10" s="55" t="s">
         <v>216</v>
@@ -5550,7 +5572,7 @@
         <v>215</v>
       </c>
       <c r="K10" s="54" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="11" spans="2:11" s="56" customFormat="1" ht="115.5">
@@ -5565,13 +5587,13 @@
         <v>4</v>
       </c>
       <c r="F11" s="54" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="G11" s="52" t="s">
         <v>215</v>
       </c>
       <c r="H11" s="55" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I11" s="55" t="s">
         <v>314</v>
@@ -5593,13 +5615,13 @@
         <v>4</v>
       </c>
       <c r="F12" s="54" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="G12" s="55" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H12" s="55" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I12" s="52" t="s">
         <v>215</v>
@@ -5608,7 +5630,7 @@
         <v>215</v>
       </c>
       <c r="K12" s="54" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="13" spans="2:11" s="56" customFormat="1" ht="115.5">
@@ -5629,7 +5651,7 @@
         <v>215</v>
       </c>
       <c r="H13" s="55" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I13" s="55" t="s">
         <v>313</v>
@@ -5659,7 +5681,7 @@
         <v>215</v>
       </c>
       <c r="H14" s="55" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I14" s="55" t="s">
         <v>216</v>
@@ -5681,7 +5703,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="54" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G15" s="52" t="s">
         <v>215</v>
@@ -5696,7 +5718,7 @@
         <v>215</v>
       </c>
       <c r="K15" s="54" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="66">
@@ -5747,7 +5769,7 @@
         <v>215</v>
       </c>
       <c r="H17" s="55" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I17" s="55" t="s">
         <v>315</v>
@@ -5771,13 +5793,13 @@
         <v>4</v>
       </c>
       <c r="F18" s="54" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G18" s="52" t="s">
         <v>215</v>
       </c>
       <c r="H18" s="55" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I18" s="55" t="s">
         <v>216</v>
@@ -5807,7 +5829,7 @@
         <v>215</v>
       </c>
       <c r="H19" s="55" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I19" s="55" t="s">
         <v>316</v>
@@ -5867,7 +5889,7 @@
         <v>215</v>
       </c>
       <c r="H21" s="55" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I21" s="55" t="s">
         <v>318</v>
@@ -5927,7 +5949,7 @@
         <v>215</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I23" s="13" t="s">
         <v>216</v>
@@ -5957,7 +5979,7 @@
         <v>215</v>
       </c>
       <c r="H24" s="55" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I24" s="52" t="s">
         <v>215</v>
@@ -6047,7 +6069,7 @@
         <v>215</v>
       </c>
       <c r="H27" s="55" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I27" s="55" t="s">
         <v>216</v>
@@ -6226,7 +6248,7 @@
         <v>435</v>
       </c>
       <c r="G33" s="55" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H33" s="55"/>
       <c r="I33" s="55" t="s">
@@ -6251,13 +6273,13 @@
         <v>4</v>
       </c>
       <c r="F34" s="54" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="G34" s="59" t="s">
         <v>215</v>
       </c>
       <c r="H34" s="55" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I34" s="55" t="s">
         <v>325</v>
@@ -6284,10 +6306,10 @@
         <v>436</v>
       </c>
       <c r="G35" s="55" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H35" s="55" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I35" s="55" t="s">
         <v>316</v>
@@ -6315,7 +6337,7 @@
         <v>215</v>
       </c>
       <c r="H36" s="66" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I36" s="66" t="s">
         <v>216</v>
@@ -6327,34 +6349,34 @@
         <v>172</v>
       </c>
     </row>
-    <row r="37" spans="2:11" s="67" customFormat="1" ht="82.5">
-      <c r="B37" s="63">
+    <row r="37" spans="2:11" s="56" customFormat="1" ht="82.5">
+      <c r="B37" s="52">
         <v>30</v>
       </c>
-      <c r="C37" s="64" t="s">
+      <c r="C37" s="53" t="s">
         <v>412</v>
       </c>
       <c r="D37" s="72"/>
-      <c r="E37" s="63" t="s">
+      <c r="E37" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F37" s="65" t="s">
-        <v>603</v>
-      </c>
-      <c r="G37" s="63" t="s">
+      <c r="F37" s="54" t="s">
+        <v>602</v>
+      </c>
+      <c r="G37" s="52" t="s">
         <v>215</v>
       </c>
-      <c r="H37" s="66" t="s">
+      <c r="H37" s="55" t="s">
+        <v>605</v>
+      </c>
+      <c r="I37" s="55" t="s">
+        <v>216</v>
+      </c>
+      <c r="J37" s="52" t="s">
+        <v>215</v>
+      </c>
+      <c r="K37" s="54" t="s">
         <v>606</v>
-      </c>
-      <c r="I37" s="66" t="s">
-        <v>216</v>
-      </c>
-      <c r="J37" s="63" t="s">
-        <v>215</v>
-      </c>
-      <c r="K37" s="65" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="38" spans="2:11" s="67" customFormat="1" ht="66">
@@ -6389,33 +6411,33 @@
         <v>174</v>
       </c>
     </row>
-    <row r="39" spans="2:11" s="67" customFormat="1" ht="115.5">
-      <c r="B39" s="63">
+    <row r="39" spans="2:11" s="56" customFormat="1" ht="115.5">
+      <c r="B39" s="52">
         <v>32</v>
       </c>
-      <c r="C39" s="64" t="s">
+      <c r="C39" s="53" t="s">
         <v>412</v>
       </c>
       <c r="D39" s="68"/>
-      <c r="E39" s="63" t="s">
+      <c r="E39" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F39" s="65" t="s">
+      <c r="F39" s="54" t="s">
         <v>439</v>
       </c>
-      <c r="G39" s="63" t="s">
+      <c r="G39" s="52" t="s">
         <v>215</v>
       </c>
-      <c r="H39" s="66" t="s">
+      <c r="H39" s="55" t="s">
         <v>289</v>
       </c>
-      <c r="I39" s="66" t="s">
+      <c r="I39" s="55" t="s">
         <v>326</v>
       </c>
-      <c r="J39" s="63" t="s">
+      <c r="J39" s="52" t="s">
         <v>215</v>
       </c>
-      <c r="K39" s="65" t="s">
+      <c r="K39" s="54" t="s">
         <v>199</v>
       </c>
     </row>
@@ -6449,35 +6471,35 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="2:11" s="67" customFormat="1" ht="115.5">
-      <c r="B41" s="63">
+    <row r="41" spans="2:11" s="56" customFormat="1" ht="115.5">
+      <c r="B41" s="52">
         <v>34</v>
       </c>
-      <c r="C41" s="64" t="s">
+      <c r="C41" s="53" t="s">
         <v>412</v>
       </c>
       <c r="D41" s="68" t="s">
         <v>175</v>
       </c>
-      <c r="E41" s="63" t="s">
+      <c r="E41" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F41" s="65" t="s">
+      <c r="F41" s="54" t="s">
         <v>441</v>
       </c>
-      <c r="G41" s="63" t="s">
+      <c r="G41" s="52" t="s">
         <v>215</v>
       </c>
-      <c r="H41" s="66" t="s">
+      <c r="H41" s="55" t="s">
         <v>289</v>
       </c>
-      <c r="I41" s="66" t="s">
+      <c r="I41" s="55" t="s">
         <v>328</v>
       </c>
-      <c r="J41" s="63" t="s">
+      <c r="J41" s="52" t="s">
         <v>215</v>
       </c>
-      <c r="K41" s="65" t="s">
+      <c r="K41" s="54" t="s">
         <v>187</v>
       </c>
     </row>
@@ -6523,7 +6545,7 @@
         <v>4</v>
       </c>
       <c r="F43" s="65" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G43" s="63" t="s">
         <v>215</v>
@@ -6755,65 +6777,65 @@
         <v>182</v>
       </c>
     </row>
-    <row r="51" spans="2:11" s="67" customFormat="1" ht="115.5">
-      <c r="B51" s="63">
+    <row r="51" spans="2:11" s="115" customFormat="1" ht="115.5">
+      <c r="B51" s="111">
         <v>44</v>
       </c>
-      <c r="C51" s="64" t="s">
+      <c r="C51" s="112" t="s">
         <v>412</v>
       </c>
       <c r="D51" s="68" t="s">
         <v>183</v>
       </c>
-      <c r="E51" s="63" t="s">
+      <c r="E51" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="F51" s="65" t="s">
+      <c r="F51" s="113" t="s">
         <v>450</v>
       </c>
-      <c r="G51" s="63" t="s">
+      <c r="G51" s="111" t="s">
         <v>215</v>
       </c>
-      <c r="H51" s="66" t="s">
+      <c r="H51" s="114" t="s">
         <v>289</v>
       </c>
-      <c r="I51" s="66" t="s">
+      <c r="I51" s="114" t="s">
         <v>332</v>
       </c>
-      <c r="J51" s="63" t="s">
+      <c r="J51" s="111" t="s">
         <v>215</v>
       </c>
-      <c r="K51" s="65" t="s">
+      <c r="K51" s="113" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="52" spans="2:11" s="67" customFormat="1" ht="115.5">
-      <c r="B52" s="63">
+    <row r="52" spans="2:11" s="115" customFormat="1" ht="115.5">
+      <c r="B52" s="111">
         <v>45</v>
       </c>
-      <c r="C52" s="64" t="s">
+      <c r="C52" s="112" t="s">
         <v>412</v>
       </c>
       <c r="D52" s="68"/>
-      <c r="E52" s="63" t="s">
+      <c r="E52" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="F52" s="65" t="s">
+      <c r="F52" s="113" t="s">
         <v>451</v>
       </c>
-      <c r="G52" s="63" t="s">
+      <c r="G52" s="111" t="s">
         <v>215</v>
       </c>
-      <c r="H52" s="66" t="s">
+      <c r="H52" s="114" t="s">
         <v>302</v>
       </c>
-      <c r="I52" s="66" t="s">
+      <c r="I52" s="114" t="s">
         <v>333</v>
       </c>
-      <c r="J52" s="63" t="s">
+      <c r="J52" s="111" t="s">
         <v>215</v>
       </c>
-      <c r="K52" s="65" t="s">
+      <c r="K52" s="113" t="s">
         <v>212</v>
       </c>
     </row>
@@ -6829,7 +6851,7 @@
         <v>4</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G53" s="24" t="s">
         <v>215</v>
@@ -6847,63 +6869,63 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" spans="2:11" s="67" customFormat="1" ht="115.5">
-      <c r="B54" s="63">
+    <row r="54" spans="2:11" s="56" customFormat="1" ht="115.5">
+      <c r="B54" s="52">
         <v>47</v>
       </c>
-      <c r="C54" s="64" t="s">
+      <c r="C54" s="53" t="s">
         <v>412</v>
       </c>
       <c r="D54" s="68" t="s">
         <v>184</v>
       </c>
-      <c r="E54" s="63" t="s">
+      <c r="E54" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F54" s="65" t="s">
+      <c r="F54" s="54" t="s">
         <v>452</v>
       </c>
-      <c r="G54" s="66" t="s">
-        <v>570</v>
-      </c>
-      <c r="H54" s="66"/>
-      <c r="I54" s="66" t="s">
+      <c r="G54" s="55" t="s">
+        <v>569</v>
+      </c>
+      <c r="H54" s="55"/>
+      <c r="I54" s="55" t="s">
         <v>335</v>
       </c>
-      <c r="J54" s="63" t="s">
+      <c r="J54" s="52" t="s">
         <v>215</v>
       </c>
-      <c r="K54" s="65" t="s">
+      <c r="K54" s="54" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="55" spans="2:11" s="67" customFormat="1" ht="115.5">
-      <c r="B55" s="63">
+    <row r="55" spans="2:11" s="56" customFormat="1" ht="115.5">
+      <c r="B55" s="52">
         <v>48</v>
       </c>
-      <c r="C55" s="64" t="s">
+      <c r="C55" s="53" t="s">
         <v>412</v>
       </c>
       <c r="D55" s="68"/>
-      <c r="E55" s="63" t="s">
+      <c r="E55" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="F55" s="65" t="s">
-        <v>453</v>
-      </c>
-      <c r="G55" s="63" t="s">
+      <c r="F55" s="54" t="s">
+        <v>607</v>
+      </c>
+      <c r="G55" s="52" t="s">
         <v>215</v>
       </c>
-      <c r="H55" s="66" t="s">
+      <c r="H55" s="55" t="s">
         <v>303</v>
       </c>
-      <c r="I55" s="66" t="s">
+      <c r="I55" s="55" t="s">
         <v>336</v>
       </c>
-      <c r="J55" s="63" t="s">
+      <c r="J55" s="52" t="s">
         <v>215</v>
       </c>
-      <c r="K55" s="65" t="s">
+      <c r="K55" s="54" t="s">
         <v>186</v>
       </c>
     </row>
@@ -6919,13 +6941,13 @@
         <v>4</v>
       </c>
       <c r="F56" s="65" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G56" s="66" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="H56" s="66" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I56" s="66" t="s">
         <v>216</v>
@@ -6949,13 +6971,13 @@
         <v>4</v>
       </c>
       <c r="F57" s="65" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G57" s="63" t="s">
         <v>215</v>
       </c>
       <c r="H57" s="66" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I57" s="63" t="s">
         <v>215</v>
@@ -7025,7 +7047,7 @@
         <v>166</v>
       </c>
       <c r="C2" s="74" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D2" s="75"/>
       <c r="E2" s="75"/>
@@ -7254,7 +7276,7 @@
         <v>166</v>
       </c>
       <c r="C23" s="74" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D23" s="75"/>
       <c r="E23" s="75"/>
@@ -7433,7 +7455,7 @@
         <v>166</v>
       </c>
       <c r="C41" s="74" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D41" s="75"/>
       <c r="E41" s="75"/>
@@ -7598,7 +7620,7 @@
         <v>166</v>
       </c>
       <c r="C58" s="74" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D58" s="75"/>
       <c r="E58" s="75"/>
@@ -7763,7 +7785,7 @@
         <v>166</v>
       </c>
       <c r="C75" s="74" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D75" s="75"/>
       <c r="E75" s="75"/>
@@ -7928,7 +7950,7 @@
         <v>168</v>
       </c>
       <c r="C92" s="87" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D92" s="88"/>
       <c r="E92" s="88"/>
@@ -7966,7 +7988,7 @@
       <c r="A96" s="31"/>
       <c r="B96" s="31"/>
       <c r="C96" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D96" s="43" t="s">
         <v>359</v>
@@ -8109,7 +8131,7 @@
         <v>168</v>
       </c>
       <c r="C110" s="87" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D110" s="88"/>
       <c r="E110" s="88"/>
@@ -8145,7 +8167,7 @@
     </row>
     <row r="114" spans="1:6" ht="18" thickBot="1">
       <c r="C114" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D114" s="43" t="s">
         <v>359</v>
@@ -8288,7 +8310,7 @@
         <v>168</v>
       </c>
       <c r="C128" s="87" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D128" s="88"/>
       <c r="E128" s="88"/>
@@ -8324,7 +8346,7 @@
     </row>
     <row r="132" spans="1:6" ht="18" thickBot="1">
       <c r="C132" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D132" s="43" t="s">
         <v>359</v>
@@ -8483,7 +8505,7 @@
         <v>168</v>
       </c>
       <c r="C147" s="87" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D147" s="88"/>
       <c r="E147" s="88"/>
@@ -8519,7 +8541,7 @@
     </row>
     <row r="151" spans="1:6" ht="18" thickBot="1">
       <c r="C151" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D151" s="43" t="s">
         <v>359</v>
@@ -8748,7 +8770,7 @@
         <v>168</v>
       </c>
       <c r="C171" s="87" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D171" s="88"/>
       <c r="E171" s="88"/>
@@ -8784,7 +8806,7 @@
     </row>
     <row r="175" spans="1:6" ht="18" thickBot="1">
       <c r="C175" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D175" s="43" t="s">
         <v>359</v>
@@ -8947,7 +8969,7 @@
         <v>168</v>
       </c>
       <c r="C191" s="87" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D191" s="88"/>
       <c r="E191" s="88"/>
@@ -8983,7 +9005,7 @@
     </row>
     <row r="195" spans="3:6" ht="18" thickBot="1">
       <c r="C195" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D195" s="43" t="s">
         <v>359</v>
@@ -9132,7 +9154,7 @@
         <v>168</v>
       </c>
       <c r="C210" s="87" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="D210" s="88"/>
       <c r="E210" s="88"/>
@@ -9168,7 +9190,7 @@
     </row>
     <row r="214" spans="1:6" ht="18" thickBot="1">
       <c r="C214" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D214" s="43" t="s">
         <v>359</v>
@@ -9331,7 +9353,7 @@
         <v>168</v>
       </c>
       <c r="C230" s="87" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D230" s="88"/>
       <c r="E230" s="88"/>
@@ -9339,7 +9361,7 @@
     </row>
     <row r="231" spans="1:6" ht="18" thickBot="1">
       <c r="C231" s="84" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D231" s="85"/>
       <c r="E231" s="85"/>
@@ -9367,7 +9389,7 @@
     </row>
     <row r="234" spans="1:6" ht="18" thickBot="1">
       <c r="C234" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D234" s="43" t="s">
         <v>359</v>
@@ -9516,7 +9538,7 @@
         <v>168</v>
       </c>
       <c r="C249" s="87" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="D249" s="88"/>
       <c r="E249" s="88"/>
@@ -9524,7 +9546,7 @@
     </row>
     <row r="250" spans="1:6" ht="18" thickBot="1">
       <c r="C250" s="84" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D250" s="85"/>
       <c r="E250" s="85"/>
@@ -9552,7 +9574,7 @@
     </row>
     <row r="253" spans="1:6" ht="18" thickBot="1">
       <c r="C253" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D253" s="43" t="s">
         <v>359</v>
@@ -9715,7 +9737,7 @@
         <v>168</v>
       </c>
       <c r="C269" s="87" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D269" s="88"/>
       <c r="E269" s="88"/>
@@ -9723,7 +9745,7 @@
     </row>
     <row r="270" spans="1:6" ht="18" thickBot="1">
       <c r="C270" s="84" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D270" s="85"/>
       <c r="E270" s="85"/>
@@ -9751,7 +9773,7 @@
     </row>
     <row r="273" spans="1:6" ht="18" thickBot="1">
       <c r="C273" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D273" s="43" t="s">
         <v>359</v>
@@ -9900,7 +9922,7 @@
         <v>168</v>
       </c>
       <c r="C288" s="87" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D288" s="88"/>
       <c r="E288" s="88"/>
@@ -9908,7 +9930,7 @@
     </row>
     <row r="289" spans="3:6" ht="18" thickBot="1">
       <c r="C289" s="84" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D289" s="85"/>
       <c r="E289" s="85"/>
@@ -9936,7 +9958,7 @@
     </row>
     <row r="292" spans="3:6" ht="18" thickBot="1">
       <c r="C292" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D292" s="43" t="s">
         <v>359</v>
@@ -10091,7 +10113,7 @@
         <v>168</v>
       </c>
       <c r="C307" s="87" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D307" s="88"/>
       <c r="E307" s="88"/>
@@ -10099,7 +10121,7 @@
     </row>
     <row r="308" spans="1:6" ht="18" thickBot="1">
       <c r="C308" s="84" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D308" s="85"/>
       <c r="E308" s="85"/>
@@ -10127,7 +10149,7 @@
     </row>
     <row r="311" spans="1:6" ht="18" thickBot="1">
       <c r="C311" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D311" s="43" t="s">
         <v>359</v>
@@ -10282,7 +10304,7 @@
         <v>168</v>
       </c>
       <c r="C326" s="87" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D326" s="88"/>
       <c r="E326" s="88"/>
@@ -10290,7 +10312,7 @@
     </row>
     <row r="327" spans="1:6" ht="18" thickBot="1">
       <c r="C327" s="84" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D327" s="85"/>
       <c r="E327" s="85"/>
@@ -10318,7 +10340,7 @@
     </row>
     <row r="330" spans="1:6" ht="18" thickBot="1">
       <c r="C330" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D330" s="43" t="s">
         <v>359</v>
@@ -10473,7 +10495,7 @@
         <v>168</v>
       </c>
       <c r="C345" s="87" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D345" s="88"/>
       <c r="E345" s="88"/>
@@ -10481,7 +10503,7 @@
     </row>
     <row r="346" spans="1:6" ht="18" thickBot="1">
       <c r="C346" s="84" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D346" s="85"/>
       <c r="E346" s="85"/>
@@ -10509,7 +10531,7 @@
     </row>
     <row r="349" spans="1:6" ht="18" thickBot="1">
       <c r="C349" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D349" s="43" t="s">
         <v>359</v>
@@ -10658,7 +10680,7 @@
         <v>168</v>
       </c>
       <c r="C364" s="87" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D364" s="88"/>
       <c r="E364" s="88"/>
@@ -10666,7 +10688,7 @@
     </row>
     <row r="365" spans="1:6" ht="18" thickBot="1">
       <c r="C365" s="84" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D365" s="85"/>
       <c r="E365" s="85"/>
@@ -10694,7 +10716,7 @@
     </row>
     <row r="368" spans="1:6" ht="18" thickBot="1">
       <c r="C368" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D368" s="43" t="s">
         <v>359</v>
@@ -10756,7 +10778,7 @@
     </row>
     <row r="373" spans="1:6" ht="17.25" thickBot="1">
       <c r="C373" s="38" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D373" s="38" t="s">
         <v>360</v>
@@ -10765,7 +10787,7 @@
         <v>361</v>
       </c>
       <c r="F373" s="38" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="374" spans="1:6" ht="27" thickBot="1">
@@ -10851,7 +10873,7 @@
         <v>168</v>
       </c>
       <c r="C383" s="87" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D383" s="88"/>
       <c r="E383" s="88"/>
@@ -10859,7 +10881,7 @@
     </row>
     <row r="384" spans="1:6" ht="18" thickBot="1">
       <c r="C384" s="84" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D384" s="85"/>
       <c r="E384" s="85"/>
@@ -10887,7 +10909,7 @@
     </row>
     <row r="387" spans="3:6" ht="18" thickBot="1">
       <c r="C387" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D387" s="43" t="s">
         <v>359</v>
@@ -10958,7 +10980,7 @@
         <v>361</v>
       </c>
       <c r="F392" s="38" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="393" spans="3:6" ht="27" thickBot="1">
@@ -11044,7 +11066,7 @@
         <v>168</v>
       </c>
       <c r="C402" s="87" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D402" s="88"/>
       <c r="E402" s="88"/>
@@ -11052,7 +11074,7 @@
     </row>
     <row r="403" spans="1:6" ht="18" thickBot="1">
       <c r="C403" s="84" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D403" s="85"/>
       <c r="E403" s="85"/>
@@ -11080,7 +11102,7 @@
     </row>
     <row r="406" spans="1:6" ht="18" thickBot="1">
       <c r="C406" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D406" s="43" t="s">
         <v>359</v>
@@ -11142,7 +11164,7 @@
     </row>
     <row r="411" spans="1:6" ht="17.25" thickBot="1">
       <c r="C411" s="38" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D411" s="38" t="s">
         <v>360</v>
@@ -11151,7 +11173,7 @@
         <v>361</v>
       </c>
       <c r="F411" s="38" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="412" spans="1:6" ht="27" thickBot="1">
@@ -11237,7 +11259,7 @@
         <v>168</v>
       </c>
       <c r="C421" s="87" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D421" s="88"/>
       <c r="E421" s="88"/>
@@ -11245,7 +11267,7 @@
     </row>
     <row r="422" spans="1:6" ht="18" thickBot="1">
       <c r="C422" s="84" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D422" s="85"/>
       <c r="E422" s="85"/>
@@ -11273,7 +11295,7 @@
     </row>
     <row r="425" spans="1:6" ht="18" thickBot="1">
       <c r="C425" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D425" s="43" t="s">
         <v>359</v>
@@ -11335,7 +11357,7 @@
     </row>
     <row r="430" spans="1:6" ht="17.25" thickBot="1">
       <c r="C430" s="38" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D430" s="38" t="s">
         <v>360</v>
@@ -11344,7 +11366,7 @@
         <v>361</v>
       </c>
       <c r="F430" s="38" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="431" spans="1:6" ht="27" thickBot="1">
@@ -11430,7 +11452,7 @@
         <v>168</v>
       </c>
       <c r="C440" s="87" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D440" s="88"/>
       <c r="E440" s="88"/>
@@ -11438,7 +11460,7 @@
     </row>
     <row r="441" spans="1:6" ht="18" thickBot="1">
       <c r="C441" s="84" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D441" s="85"/>
       <c r="E441" s="85"/>
@@ -11466,7 +11488,7 @@
     </row>
     <row r="444" spans="1:6" ht="18" thickBot="1">
       <c r="C444" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D444" s="43" t="s">
         <v>359</v>
@@ -11615,7 +11637,7 @@
         <v>168</v>
       </c>
       <c r="C459" s="87" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D459" s="88"/>
       <c r="E459" s="88"/>
@@ -11623,7 +11645,7 @@
     </row>
     <row r="460" spans="1:6" ht="18" thickBot="1">
       <c r="C460" s="84" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D460" s="85"/>
       <c r="E460" s="85"/>
@@ -11651,7 +11673,7 @@
     </row>
     <row r="463" spans="1:6" ht="18" thickBot="1">
       <c r="C463" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D463" s="43" t="s">
         <v>359</v>
@@ -11713,7 +11735,7 @@
     </row>
     <row r="468" spans="1:6" ht="17.25" thickBot="1">
       <c r="C468" s="38" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D468" s="38" t="s">
         <v>360</v>
@@ -11722,7 +11744,7 @@
         <v>361</v>
       </c>
       <c r="F468" s="38" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="469" spans="1:6" ht="27" thickBot="1">
@@ -11808,7 +11830,7 @@
         <v>168</v>
       </c>
       <c r="C478" s="87" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D478" s="88"/>
       <c r="E478" s="88"/>
@@ -11816,7 +11838,7 @@
     </row>
     <row r="479" spans="1:6" ht="18" thickBot="1">
       <c r="C479" s="84" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D479" s="85"/>
       <c r="E479" s="85"/>
@@ -11844,7 +11866,7 @@
     </row>
     <row r="482" spans="1:6" ht="18" thickBot="1">
       <c r="C482" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D482" s="43" t="s">
         <v>359</v>
@@ -11906,7 +11928,7 @@
     </row>
     <row r="487" spans="1:6" ht="17.25" thickBot="1">
       <c r="C487" s="38" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D487" s="38" t="s">
         <v>360</v>
@@ -11915,7 +11937,7 @@
         <v>361</v>
       </c>
       <c r="F487" s="38" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="488" spans="1:6" ht="27" thickBot="1">
@@ -12008,7 +12030,7 @@
         <v>170</v>
       </c>
       <c r="C497" s="90" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D497" s="91"/>
       <c r="E497" s="91"/>
@@ -12016,7 +12038,7 @@
     </row>
     <row r="498" spans="1:6" ht="18" thickBot="1">
       <c r="C498" s="84" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D498" s="85"/>
       <c r="E498" s="85"/>
@@ -12044,7 +12066,7 @@
     </row>
     <row r="501" spans="1:6" ht="18" thickBot="1">
       <c r="C501" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D501" s="43" t="s">
         <v>359</v>
@@ -12179,7 +12201,7 @@
         <v>170</v>
       </c>
       <c r="C515" s="90" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D515" s="91"/>
       <c r="E515" s="91"/>
@@ -12187,7 +12209,7 @@
     </row>
     <row r="516" spans="1:6" ht="18" thickBot="1">
       <c r="C516" s="84" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D516" s="85"/>
       <c r="E516" s="85"/>
@@ -12215,7 +12237,7 @@
     </row>
     <row r="519" spans="1:6" ht="18" thickBot="1">
       <c r="C519" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D519" s="43" t="s">
         <v>359</v>
@@ -12263,7 +12285,7 @@
     </row>
     <row r="523" spans="1:6" ht="17.25" thickBot="1">
       <c r="C523" s="38" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D523" s="38" t="s">
         <v>360</v>
@@ -12272,7 +12294,7 @@
         <v>361</v>
       </c>
       <c r="F523" s="38" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="524" spans="1:6" ht="27" thickBot="1">
@@ -12358,7 +12380,7 @@
         <v>170</v>
       </c>
       <c r="C533" s="90" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D533" s="91"/>
       <c r="E533" s="91"/>
@@ -12366,7 +12388,7 @@
     </row>
     <row r="534" spans="1:6" ht="18" thickBot="1">
       <c r="C534" s="84" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D534" s="85"/>
       <c r="E534" s="85"/>
@@ -12394,7 +12416,7 @@
     </row>
     <row r="537" spans="1:6" ht="18" thickBot="1">
       <c r="C537" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D537" s="43" t="s">
         <v>359</v>
@@ -12458,7 +12480,7 @@
     </row>
     <row r="542" spans="1:6" ht="17.25" thickBot="1">
       <c r="C542" s="38" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D542" s="38" t="s">
         <v>360</v>
@@ -12467,7 +12489,7 @@
         <v>361</v>
       </c>
       <c r="F542" s="38" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="543" spans="1:6" ht="27" thickBot="1">
@@ -12553,7 +12575,7 @@
         <v>170</v>
       </c>
       <c r="C552" s="90" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D552" s="91"/>
       <c r="E552" s="91"/>
@@ -12561,7 +12583,7 @@
     </row>
     <row r="553" spans="1:6" ht="18" thickBot="1">
       <c r="C553" s="84" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D553" s="85"/>
       <c r="E553" s="85"/>
@@ -12589,7 +12611,7 @@
     </row>
     <row r="556" spans="1:6" ht="18" thickBot="1">
       <c r="C556" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D556" s="43" t="s">
         <v>359</v>
@@ -12651,7 +12673,7 @@
     </row>
     <row r="561" spans="1:6" ht="17.25" thickBot="1">
       <c r="C561" s="38" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D561" s="38" t="s">
         <v>360</v>
@@ -12660,7 +12682,7 @@
         <v>361</v>
       </c>
       <c r="F561" s="38" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="562" spans="1:6" ht="27" thickBot="1">
@@ -12746,7 +12768,7 @@
         <v>173</v>
       </c>
       <c r="C571" s="93" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D571" s="94"/>
       <c r="E571" s="94"/>
@@ -12782,7 +12804,7 @@
     </row>
     <row r="575" spans="1:6" ht="18" thickBot="1">
       <c r="C575" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D575" s="43" t="s">
         <v>359</v>
@@ -12844,7 +12866,7 @@
     </row>
     <row r="580" spans="1:6" ht="17.25" thickBot="1">
       <c r="C580" s="38" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D580" s="38" t="s">
         <v>360</v>
@@ -12853,7 +12875,7 @@
         <v>361</v>
       </c>
       <c r="F580" s="38" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="581" spans="1:6" ht="27" thickBot="1">
@@ -12939,7 +12961,7 @@
         <v>173</v>
       </c>
       <c r="C590" s="93" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="D590" s="94"/>
       <c r="E590" s="94"/>
@@ -12947,7 +12969,7 @@
     </row>
     <row r="591" spans="1:6" ht="18" thickBot="1">
       <c r="C591" s="84" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D591" s="85"/>
       <c r="E591" s="85"/>
@@ -12975,7 +12997,7 @@
     </row>
     <row r="594" spans="3:6" ht="18" thickBot="1">
       <c r="C594" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D594" s="43" t="s">
         <v>359</v>
@@ -13124,7 +13146,7 @@
         <v>173</v>
       </c>
       <c r="C609" s="93" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="D609" s="94"/>
       <c r="E609" s="94"/>
@@ -13132,7 +13154,7 @@
     </row>
     <row r="610" spans="1:6" ht="18" thickBot="1">
       <c r="C610" s="84" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D610" s="85"/>
       <c r="E610" s="85"/>
@@ -13160,7 +13182,7 @@
     </row>
     <row r="613" spans="1:6" ht="18" thickBot="1">
       <c r="C613" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D613" s="43" t="s">
         <v>359</v>
@@ -13222,7 +13244,7 @@
     </row>
     <row r="618" spans="1:6" ht="17.25" thickBot="1">
       <c r="C618" s="38" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D618" s="38" t="s">
         <v>360</v>
@@ -13231,7 +13253,7 @@
         <v>361</v>
       </c>
       <c r="F618" s="38" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="619" spans="1:6" ht="27" thickBot="1">
@@ -13317,7 +13339,7 @@
         <v>175</v>
       </c>
       <c r="C628" s="96" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D628" s="97"/>
       <c r="E628" s="97"/>
@@ -13325,7 +13347,7 @@
     </row>
     <row r="629" spans="1:6" ht="18" thickBot="1">
       <c r="C629" s="84" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D629" s="85"/>
       <c r="E629" s="85"/>
@@ -13353,7 +13375,7 @@
     </row>
     <row r="632" spans="1:6" ht="18" thickBot="1">
       <c r="C632" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D632" s="43" t="s">
         <v>359</v>
@@ -13502,7 +13524,7 @@
         <v>175</v>
       </c>
       <c r="C647" s="96" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D647" s="97"/>
       <c r="E647" s="97"/>
@@ -13510,7 +13532,7 @@
     </row>
     <row r="648" spans="1:6" ht="18" thickBot="1">
       <c r="C648" s="84" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D648" s="85"/>
       <c r="E648" s="85"/>
@@ -13538,7 +13560,7 @@
     </row>
     <row r="651" spans="1:6" ht="18" thickBot="1">
       <c r="C651" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D651" s="43" t="s">
         <v>359</v>
@@ -13600,7 +13622,7 @@
     </row>
     <row r="656" spans="1:6" ht="17.25" thickBot="1">
       <c r="C656" s="38" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D656" s="38" t="s">
         <v>360</v>
@@ -13609,7 +13631,7 @@
         <v>361</v>
       </c>
       <c r="F656" s="38" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="657" spans="1:6" ht="27" thickBot="1">
@@ -13695,7 +13717,7 @@
         <v>175</v>
       </c>
       <c r="C666" s="96" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="D666" s="97"/>
       <c r="E666" s="97"/>
@@ -13703,7 +13725,7 @@
     </row>
     <row r="667" spans="1:6" ht="18" thickBot="1">
       <c r="C667" s="84" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D667" s="85"/>
       <c r="E667" s="85"/>
@@ -13731,7 +13753,7 @@
     </row>
     <row r="670" spans="1:6" ht="18" thickBot="1">
       <c r="C670" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D670" s="43" t="s">
         <v>359</v>
@@ -13795,7 +13817,7 @@
       <c r="A675" s="31"/>
       <c r="B675" s="31"/>
       <c r="C675" s="38" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="D675" s="38" t="s">
         <v>360</v>
@@ -13804,7 +13826,7 @@
         <v>361</v>
       </c>
       <c r="F675" s="38" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="676" spans="1:6" ht="17.25" thickBot="1">
@@ -13818,7 +13840,7 @@
         <v>361</v>
       </c>
       <c r="F676" s="38" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="677" spans="1:6" ht="27" thickBot="1">
@@ -13904,7 +13926,7 @@
         <v>175</v>
       </c>
       <c r="C686" s="96" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D686" s="97"/>
       <c r="E686" s="97"/>
@@ -13912,7 +13934,7 @@
     </row>
     <row r="687" spans="1:6" ht="18" thickBot="1">
       <c r="C687" s="84" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D687" s="85"/>
       <c r="E687" s="85"/>
@@ -13940,7 +13962,7 @@
     </row>
     <row r="690" spans="3:6" ht="18" thickBot="1">
       <c r="C690" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D690" s="43" t="s">
         <v>359</v>
@@ -14002,7 +14024,7 @@
     </row>
     <row r="695" spans="3:6" ht="17.25" thickBot="1">
       <c r="C695" s="38" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D695" s="38" t="s">
         <v>360</v>
@@ -14011,7 +14033,7 @@
         <v>361</v>
       </c>
       <c r="F695" s="38" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="696" spans="3:6" ht="17.25" thickBot="1">
@@ -14103,7 +14125,7 @@
         <v>177</v>
       </c>
       <c r="C706" s="99" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D706" s="100"/>
       <c r="E706" s="100"/>
@@ -14111,7 +14133,7 @@
     </row>
     <row r="707" spans="1:6" ht="18" thickBot="1">
       <c r="C707" s="84" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D707" s="85"/>
       <c r="E707" s="85"/>
@@ -14139,7 +14161,7 @@
     </row>
     <row r="710" spans="1:6" ht="18" thickBot="1">
       <c r="C710" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D710" s="43" t="s">
         <v>359</v>
@@ -14210,7 +14232,7 @@
         <v>361</v>
       </c>
       <c r="F715" s="38" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="716" spans="1:6" ht="27" thickBot="1">
@@ -14296,7 +14318,7 @@
         <v>177</v>
       </c>
       <c r="C725" s="99" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D725" s="100"/>
       <c r="E725" s="100"/>
@@ -14304,7 +14326,7 @@
     </row>
     <row r="726" spans="1:6" ht="18" thickBot="1">
       <c r="C726" s="84" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D726" s="85"/>
       <c r="E726" s="85"/>
@@ -14332,7 +14354,7 @@
     </row>
     <row r="729" spans="1:6" ht="18" thickBot="1">
       <c r="C729" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D729" s="43" t="s">
         <v>359</v>
@@ -14403,7 +14425,7 @@
         <v>361</v>
       </c>
       <c r="F734" s="38" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="735" spans="1:6" ht="27" thickBot="1">
@@ -14489,7 +14511,7 @@
         <v>177</v>
       </c>
       <c r="C744" s="99" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D744" s="100"/>
       <c r="E744" s="100"/>
@@ -14497,7 +14519,7 @@
     </row>
     <row r="745" spans="1:6" ht="18" thickBot="1">
       <c r="C745" s="84" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D745" s="85"/>
       <c r="E745" s="85"/>
@@ -14525,7 +14547,7 @@
     </row>
     <row r="748" spans="1:6" ht="18" thickBot="1">
       <c r="C748" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D748" s="43" t="s">
         <v>359</v>
@@ -14587,7 +14609,7 @@
     </row>
     <row r="753" spans="1:6" ht="17.25" thickBot="1">
       <c r="C753" s="38" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D753" s="38" t="s">
         <v>360</v>
@@ -14596,7 +14618,7 @@
         <v>361</v>
       </c>
       <c r="F753" s="38" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="754" spans="1:6" ht="27" thickBot="1">
@@ -14682,7 +14704,7 @@
         <v>177</v>
       </c>
       <c r="C763" s="99" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D763" s="100"/>
       <c r="E763" s="100"/>
@@ -14718,7 +14740,7 @@
     </row>
     <row r="767" spans="1:6" ht="18" thickBot="1">
       <c r="C767" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D767" s="43" t="s">
         <v>359</v>
@@ -14780,7 +14802,7 @@
     </row>
     <row r="772" spans="1:6" ht="17.25" thickBot="1">
       <c r="C772" s="38" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D772" s="38" t="s">
         <v>360</v>
@@ -14789,7 +14811,7 @@
         <v>361</v>
       </c>
       <c r="F772" s="38" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="773" spans="1:6" ht="27" thickBot="1">
@@ -14875,7 +14897,7 @@
         <v>181</v>
       </c>
       <c r="C782" s="102" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D782" s="103"/>
       <c r="E782" s="103"/>
@@ -14883,7 +14905,7 @@
     </row>
     <row r="783" spans="1:6" ht="18" thickBot="1">
       <c r="C783" s="84" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D783" s="85"/>
       <c r="E783" s="85"/>
@@ -14911,7 +14933,7 @@
     </row>
     <row r="786" spans="3:6" ht="18" thickBot="1">
       <c r="C786" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D786" s="43" t="s">
         <v>359</v>
@@ -15060,7 +15082,7 @@
         <v>181</v>
       </c>
       <c r="C801" s="102" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D801" s="103"/>
       <c r="E801" s="103"/>
@@ -15068,7 +15090,7 @@
     </row>
     <row r="802" spans="1:6" ht="18" thickBot="1">
       <c r="C802" s="84" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D802" s="85"/>
       <c r="E802" s="85"/>
@@ -15096,7 +15118,7 @@
     </row>
     <row r="805" spans="1:6" ht="18" thickBot="1">
       <c r="C805" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D805" s="43" t="s">
         <v>359</v>
@@ -15158,7 +15180,7 @@
     </row>
     <row r="810" spans="1:6" ht="17.25" thickBot="1">
       <c r="C810" s="38" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D810" s="38" t="s">
         <v>360</v>
@@ -15167,7 +15189,7 @@
         <v>361</v>
       </c>
       <c r="F810" s="38" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="811" spans="1:6" ht="27" thickBot="1">
@@ -15253,7 +15275,7 @@
         <v>183</v>
       </c>
       <c r="C820" s="105" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D820" s="106"/>
       <c r="E820" s="106"/>
@@ -15261,7 +15283,7 @@
     </row>
     <row r="821" spans="1:6" ht="18" thickBot="1">
       <c r="C821" s="84" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D821" s="85"/>
       <c r="E821" s="85"/>
@@ -15289,7 +15311,7 @@
     </row>
     <row r="824" spans="1:6" ht="18" thickBot="1">
       <c r="C824" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D824" s="43" t="s">
         <v>359</v>
@@ -15438,7 +15460,7 @@
         <v>183</v>
       </c>
       <c r="C839" s="105" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D839" s="106"/>
       <c r="E839" s="106"/>
@@ -15446,7 +15468,7 @@
     </row>
     <row r="840" spans="1:6" ht="18" thickBot="1">
       <c r="C840" s="84" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D840" s="85"/>
       <c r="E840" s="85"/>
@@ -15474,7 +15496,7 @@
     </row>
     <row r="843" spans="1:6" ht="18" thickBot="1">
       <c r="C843" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D843" s="43" t="s">
         <v>359</v>
@@ -15536,7 +15558,7 @@
     </row>
     <row r="848" spans="1:6" ht="17.25" thickBot="1">
       <c r="C848" s="38" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D848" s="38" t="s">
         <v>360</v>
@@ -15545,7 +15567,7 @@
         <v>361</v>
       </c>
       <c r="F848" s="38" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="849" spans="1:6" ht="27" thickBot="1">
@@ -15631,7 +15653,7 @@
         <v>183</v>
       </c>
       <c r="C858" s="105" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D858" s="106"/>
       <c r="E858" s="106"/>
@@ -15639,7 +15661,7 @@
     </row>
     <row r="859" spans="1:6" ht="18" thickBot="1">
       <c r="C859" s="84" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D859" s="85"/>
       <c r="E859" s="85"/>
@@ -15667,7 +15689,7 @@
     </row>
     <row r="862" spans="1:6" ht="18" thickBot="1">
       <c r="C862" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D862" s="43" t="s">
         <v>359</v>
@@ -15729,7 +15751,7 @@
     </row>
     <row r="867" spans="1:6" ht="17.25" thickBot="1">
       <c r="C867" s="38" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D867" s="38" t="s">
         <v>360</v>
@@ -15738,7 +15760,7 @@
         <v>361</v>
       </c>
       <c r="F867" s="38" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="868" spans="1:6" ht="27" thickBot="1">
@@ -15824,7 +15846,7 @@
         <v>183</v>
       </c>
       <c r="C877" s="108" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D877" s="109"/>
       <c r="E877" s="109"/>
@@ -15832,7 +15854,7 @@
     </row>
     <row r="878" spans="1:6" ht="18" thickBot="1">
       <c r="C878" s="84" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D878" s="85"/>
       <c r="E878" s="85"/>
@@ -15860,7 +15882,7 @@
     </row>
     <row r="881" spans="1:6" ht="18" thickBot="1">
       <c r="C881" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D881" s="43" t="s">
         <v>359</v>
@@ -15995,7 +16017,7 @@
         <v>183</v>
       </c>
       <c r="C895" s="108" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D895" s="109"/>
       <c r="E895" s="109"/>
@@ -16003,7 +16025,7 @@
     </row>
     <row r="896" spans="1:6" ht="18" thickBot="1">
       <c r="C896" s="84" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D896" s="85"/>
       <c r="E896" s="85"/>
@@ -16031,7 +16053,7 @@
     </row>
     <row r="899" spans="3:6" ht="18" thickBot="1">
       <c r="C899" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D899" s="43" t="s">
         <v>359</v>
@@ -16079,7 +16101,7 @@
     </row>
     <row r="903" spans="3:6" ht="17.25" thickBot="1">
       <c r="C903" s="38" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D903" s="38" t="s">
         <v>360</v>
@@ -16088,7 +16110,7 @@
         <v>361</v>
       </c>
       <c r="F903" s="38" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="904" spans="3:6" ht="17.25" thickBot="1">
@@ -16180,7 +16202,7 @@
         <v>183</v>
       </c>
       <c r="C915" s="108" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D915" s="109"/>
       <c r="E915" s="109"/>
@@ -16188,7 +16210,7 @@
     </row>
     <row r="916" spans="1:6" ht="18" thickBot="1">
       <c r="C916" s="84" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D916" s="85"/>
       <c r="E916" s="85"/>
@@ -16216,7 +16238,7 @@
     </row>
     <row r="919" spans="1:6" ht="18" thickBot="1">
       <c r="C919" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D919" s="43" t="s">
         <v>359</v>
@@ -16280,7 +16302,7 @@
       <c r="A924" s="31"/>
       <c r="B924" s="31"/>
       <c r="C924" s="38" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D924" s="38" t="s">
         <v>360</v>
@@ -16289,12 +16311,12 @@
         <v>361</v>
       </c>
       <c r="F924" s="38" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="925" spans="1:6" ht="17.25" thickBot="1">
       <c r="C925" s="38" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D925" s="38" t="s">
         <v>360</v>
@@ -16303,7 +16325,7 @@
         <v>361</v>
       </c>
       <c r="F925" s="38" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="926" spans="1:6" ht="27" thickBot="1">
@@ -16389,7 +16411,7 @@
         <v>183</v>
       </c>
       <c r="C935" s="108" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D935" s="109"/>
       <c r="E935" s="109"/>
@@ -16397,7 +16419,7 @@
     </row>
     <row r="936" spans="1:6" ht="18" thickBot="1">
       <c r="C936" s="84" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D936" s="85"/>
       <c r="E936" s="85"/>
@@ -16425,7 +16447,7 @@
     </row>
     <row r="939" spans="1:6" ht="18" thickBot="1">
       <c r="C939" s="42" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="D939" s="43" t="s">
         <v>359</v>
@@ -16496,12 +16518,12 @@
         <v>361</v>
       </c>
       <c r="F944" s="38" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="945" spans="3:6" ht="17.25" thickBot="1">
       <c r="C945" s="38" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D945" s="38" t="s">
         <v>360</v>
@@ -16510,7 +16532,7 @@
         <v>361</v>
       </c>
       <c r="F945" s="38" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="946" spans="3:6" ht="27" thickBot="1">

--- a/docs/APIDocs/API명세서.xlsx
+++ b/docs/APIDocs/API명세서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\GameProject\docs\APIDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C13E62-CEF9-458F-BC6A-FFD9C6AB2BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC3CC43-C490-4263-8F07-19EAE56799CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{4E8C34D6-CE1A-427D-9403-2013A6AFC92D}"/>
   </bookViews>
@@ -2721,12 +2721,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>낚시하기 기능(채비 내구도 5씩 감소, 카운트는 1씩 감소)
-일정확률 채비획득 미적용
-채비별 확률 미적용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>낚시배의 출항하는 액션(낚시배, 피로도 등 감소)
 풍량별로 보로롱24 내구도, 연료 감소 미적용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2855,6 +2849,11 @@
   <si>
     <t>회원의 캐릭터 피로도 충전 등등
 (피로도 1당 콜드 10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시하기 기능(채비 내구도 배 내구도 만큼 감소, 카운트는 1씩 감소)
+채비별 확률 미적용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3150,7 +3149,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="46">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3405,6 +3404,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3792,7 +3797,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4013,23 +4018,14 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4052,13 +4048,58 @@
     <xf numFmtId="0" fontId="32" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="41" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4070,59 +4111,38 @@
     <xf numFmtId="0" fontId="30" fillId="41" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -5389,8 +5409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071D4A7B-DD4D-499C-AF7D-3FC54784CE79}">
   <dimension ref="B1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D50" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+    <sheetView tabSelected="1" topLeftCell="D38" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5960,7 +5980,7 @@
         <v>4</v>
       </c>
       <c r="F20" s="54" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="G20" s="52" t="s">
         <v>210</v>
@@ -5994,7 +6014,7 @@
         <v>210</v>
       </c>
       <c r="H21" s="55" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I21" s="55" t="s">
         <v>306</v>
@@ -6003,7 +6023,7 @@
         <v>210</v>
       </c>
       <c r="K21" s="54" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="22" spans="2:11" s="56" customFormat="1" ht="115.5">
@@ -6198,7 +6218,7 @@
         <v>4</v>
       </c>
       <c r="F28" s="54" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G28" s="52" t="s">
         <v>210</v>
@@ -6234,7 +6254,7 @@
         <v>210</v>
       </c>
       <c r="H29" s="55" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I29" s="52" t="s">
         <v>210</v>
@@ -6346,13 +6366,13 @@
         <v>4</v>
       </c>
       <c r="F33" s="54" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G33" s="52" t="s">
         <v>210</v>
       </c>
       <c r="H33" s="55" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I33" s="55" t="s">
         <v>211</v>
@@ -6361,7 +6381,7 @@
         <v>210</v>
       </c>
       <c r="K33" s="54" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="34" spans="2:11" s="56" customFormat="1" ht="82.5">
@@ -6382,7 +6402,7 @@
         <v>210</v>
       </c>
       <c r="H34" s="55" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I34" s="55" t="s">
         <v>211</v>
@@ -6391,7 +6411,7 @@
         <v>210</v>
       </c>
       <c r="K34" s="55" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="35" spans="2:11" s="56" customFormat="1" ht="115.5">
@@ -6481,7 +6501,7 @@
         <v>210</v>
       </c>
       <c r="K37" s="66" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="38" spans="2:11" s="56" customFormat="1" ht="82.5">
@@ -6542,36 +6562,36 @@
         <v>592</v>
       </c>
     </row>
-    <row r="40" spans="2:11" s="67" customFormat="1" ht="99">
-      <c r="B40" s="63">
+    <row r="40" spans="2:11" s="115" customFormat="1" ht="99">
+      <c r="B40" s="111">
         <v>31</v>
       </c>
-      <c r="C40" s="64" t="s">
+      <c r="C40" s="112" t="s">
         <v>401</v>
       </c>
       <c r="D40" s="68" t="s">
         <v>171</v>
       </c>
-      <c r="E40" s="63" t="s">
+      <c r="E40" s="111" t="s">
         <v>4</v>
       </c>
-      <c r="F40" s="65" t="s">
+      <c r="F40" s="113" t="s">
         <v>426</v>
       </c>
-      <c r="G40" s="63" t="s">
+      <c r="G40" s="111" t="s">
         <v>210</v>
       </c>
-      <c r="H40" s="66" t="s">
+      <c r="H40" s="114" t="s">
         <v>596</v>
       </c>
-      <c r="I40" s="63" t="s">
+      <c r="I40" s="111" t="s">
         <v>210</v>
       </c>
-      <c r="J40" s="63" t="s">
+      <c r="J40" s="111" t="s">
         <v>210</v>
       </c>
-      <c r="K40" s="66" t="s">
-        <v>604</v>
+      <c r="K40" s="114" t="s">
+        <v>627</v>
       </c>
     </row>
     <row r="41" spans="2:11" s="56" customFormat="1" ht="115.5">
@@ -6592,7 +6612,7 @@
         <v>210</v>
       </c>
       <c r="H41" s="55" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I41" s="55" t="s">
         <v>315</v>
@@ -6834,7 +6854,7 @@
         <v>210</v>
       </c>
       <c r="H49" s="55" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I49" s="55" t="s">
         <v>211</v>
@@ -6843,7 +6863,7 @@
         <v>210</v>
       </c>
       <c r="K49" s="55" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="50" spans="2:11" ht="115.5">
@@ -6903,7 +6923,7 @@
         <v>210</v>
       </c>
       <c r="K51" s="54" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="52" spans="2:11" s="56" customFormat="1" ht="49.5">
@@ -6935,7 +6955,7 @@
         <v>210</v>
       </c>
       <c r="K52" s="55" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="53" spans="2:11" s="56" customFormat="1" ht="99">
@@ -6956,7 +6976,7 @@
         <v>210</v>
       </c>
       <c r="H53" s="55" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I53" s="52" t="s">
         <v>210</v>
@@ -6965,7 +6985,7 @@
         <v>210</v>
       </c>
       <c r="K53" s="54" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="54" spans="2:11" s="56" customFormat="1" ht="115.5">
@@ -7012,7 +7032,7 @@
       </c>
       <c r="G55" s="52"/>
       <c r="H55" s="55" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I55" s="55" t="s">
         <v>322</v>
@@ -7036,7 +7056,7 @@
         <v>4</v>
       </c>
       <c r="F56" s="54" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G56" s="52" t="s">
         <v>210</v>
@@ -7051,7 +7071,7 @@
         <v>210</v>
       </c>
       <c r="K56" s="54" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="57" spans="2:11" s="56" customFormat="1" ht="115.5">
@@ -7066,7 +7086,7 @@
         <v>4</v>
       </c>
       <c r="F57" s="54" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="G57" s="52" t="s">
         <v>210</v>
@@ -7081,7 +7101,7 @@
         <v>210</v>
       </c>
       <c r="K57" s="54" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="58" spans="2:11" s="62" customFormat="1" ht="115.5">
@@ -7192,7 +7212,7 @@
         <v>556</v>
       </c>
       <c r="H61" s="55" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I61" s="55" t="s">
         <v>211</v>
@@ -7291,28 +7311,28 @@
       <c r="B2" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="74" t="s">
         <v>442</v>
       </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="110"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" ht="32.450000000000003" customHeight="1" thickBot="1">
-      <c r="C3" s="77" t="s">
+      <c r="C3" s="84" t="s">
         <v>341</v>
       </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
     </row>
     <row r="4" spans="1:6" ht="25.15" customHeight="1" thickBot="1">
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="82"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="79"/>
     </row>
     <row r="5" spans="1:6" ht="18" thickBot="1">
       <c r="C5" s="33" t="s">
@@ -7339,12 +7359,12 @@
       <c r="F6" s="35"/>
     </row>
     <row r="7" spans="1:6" ht="27" thickBot="1">
-      <c r="C7" s="83" t="s">
+      <c r="C7" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="85"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="82"/>
     </row>
     <row r="8" spans="1:6" ht="18" thickBot="1">
       <c r="C8" s="37" t="s">
@@ -7439,12 +7459,12 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="27" thickBot="1">
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
     </row>
     <row r="15" spans="1:6" ht="18" thickBot="1">
       <c r="C15" s="37" t="s">
@@ -7520,28 +7540,28 @@
       <c r="B23" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="C23" s="108" t="s">
+      <c r="C23" s="74" t="s">
         <v>443</v>
       </c>
-      <c r="D23" s="109"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="110"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="76"/>
     </row>
     <row r="24" spans="1:6" ht="18" thickBot="1">
-      <c r="C24" s="77" t="s">
+      <c r="C24" s="84" t="s">
         <v>340</v>
       </c>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="79"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="86"/>
     </row>
     <row r="25" spans="1:6" ht="27" thickBot="1">
-      <c r="C25" s="80" t="s">
+      <c r="C25" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D25" s="81"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="82"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="79"/>
     </row>
     <row r="26" spans="1:6" ht="18" thickBot="1">
       <c r="C26" s="33" t="s">
@@ -7568,12 +7588,12 @@
       <c r="F27" s="35"/>
     </row>
     <row r="28" spans="1:6" ht="27" thickBot="1">
-      <c r="C28" s="83" t="s">
+      <c r="C28" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="85"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="82"/>
     </row>
     <row r="29" spans="1:6" ht="18" thickBot="1">
       <c r="C29" s="37" t="s">
@@ -7618,12 +7638,12 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="27" thickBot="1">
-      <c r="C32" s="86" t="s">
+      <c r="C32" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D32" s="86"/>
-      <c r="E32" s="86"/>
-      <c r="F32" s="86"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
     </row>
     <row r="33" spans="1:6" ht="18" thickBot="1">
       <c r="C33" s="37" t="s">
@@ -7699,28 +7719,28 @@
       <c r="B41" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="C41" s="108" t="s">
+      <c r="C41" s="74" t="s">
         <v>444</v>
       </c>
-      <c r="D41" s="109"/>
-      <c r="E41" s="109"/>
-      <c r="F41" s="110"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="75"/>
+      <c r="F41" s="76"/>
     </row>
     <row r="42" spans="1:6" ht="18" thickBot="1">
-      <c r="C42" s="77" t="s">
+      <c r="C42" s="84" t="s">
         <v>362</v>
       </c>
-      <c r="D42" s="78"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="79"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="86"/>
     </row>
     <row r="43" spans="1:6" ht="27" thickBot="1">
-      <c r="C43" s="80" t="s">
+      <c r="C43" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D43" s="81"/>
-      <c r="E43" s="81"/>
-      <c r="F43" s="82"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="79"/>
     </row>
     <row r="44" spans="1:6" ht="18" thickBot="1">
       <c r="C44" s="33" t="s">
@@ -7747,12 +7767,12 @@
       <c r="F45" s="35"/>
     </row>
     <row r="46" spans="1:6" ht="27" thickBot="1">
-      <c r="C46" s="83" t="s">
+      <c r="C46" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D46" s="84"/>
-      <c r="E46" s="84"/>
-      <c r="F46" s="85"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="81"/>
+      <c r="F46" s="82"/>
     </row>
     <row r="47" spans="1:6" ht="18" thickBot="1">
       <c r="C47" s="37" t="s">
@@ -7783,12 +7803,12 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="27" thickBot="1">
-      <c r="C49" s="86" t="s">
+      <c r="C49" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D49" s="86"/>
-      <c r="E49" s="86"/>
-      <c r="F49" s="86"/>
+      <c r="D49" s="83"/>
+      <c r="E49" s="83"/>
+      <c r="F49" s="83"/>
     </row>
     <row r="50" spans="1:6" ht="18" thickBot="1">
       <c r="C50" s="37" t="s">
@@ -7864,28 +7884,28 @@
       <c r="B58" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="C58" s="108" t="s">
+      <c r="C58" s="74" t="s">
         <v>445</v>
       </c>
-      <c r="D58" s="109"/>
-      <c r="E58" s="109"/>
-      <c r="F58" s="110"/>
+      <c r="D58" s="75"/>
+      <c r="E58" s="75"/>
+      <c r="F58" s="76"/>
     </row>
     <row r="59" spans="1:6" ht="18" thickBot="1">
-      <c r="C59" s="77" t="s">
+      <c r="C59" s="84" t="s">
         <v>370</v>
       </c>
-      <c r="D59" s="78"/>
-      <c r="E59" s="78"/>
-      <c r="F59" s="79"/>
+      <c r="D59" s="85"/>
+      <c r="E59" s="85"/>
+      <c r="F59" s="86"/>
     </row>
     <row r="60" spans="1:6" ht="27" thickBot="1">
-      <c r="C60" s="80" t="s">
+      <c r="C60" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D60" s="81"/>
-      <c r="E60" s="81"/>
-      <c r="F60" s="82"/>
+      <c r="D60" s="78"/>
+      <c r="E60" s="78"/>
+      <c r="F60" s="79"/>
     </row>
     <row r="61" spans="1:6" ht="18" thickBot="1">
       <c r="C61" s="33" t="s">
@@ -7912,12 +7932,12 @@
       <c r="F62" s="35"/>
     </row>
     <row r="63" spans="1:6" ht="27" thickBot="1">
-      <c r="C63" s="83" t="s">
+      <c r="C63" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D63" s="84"/>
-      <c r="E63" s="84"/>
-      <c r="F63" s="85"/>
+      <c r="D63" s="81"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="82"/>
     </row>
     <row r="64" spans="1:6" ht="18" thickBot="1">
       <c r="C64" s="37" t="s">
@@ -7948,12 +7968,12 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="27" thickBot="1">
-      <c r="C66" s="86" t="s">
+      <c r="C66" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D66" s="86"/>
-      <c r="E66" s="86"/>
-      <c r="F66" s="86"/>
+      <c r="D66" s="83"/>
+      <c r="E66" s="83"/>
+      <c r="F66" s="83"/>
     </row>
     <row r="67" spans="1:6" ht="18" thickBot="1">
       <c r="C67" s="37" t="s">
@@ -8029,28 +8049,28 @@
       <c r="B75" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="C75" s="108" t="s">
+      <c r="C75" s="74" t="s">
         <v>446</v>
       </c>
-      <c r="D75" s="109"/>
-      <c r="E75" s="109"/>
-      <c r="F75" s="110"/>
+      <c r="D75" s="75"/>
+      <c r="E75" s="75"/>
+      <c r="F75" s="76"/>
     </row>
     <row r="76" spans="1:6" ht="18" thickBot="1">
-      <c r="C76" s="77" t="s">
+      <c r="C76" s="84" t="s">
         <v>369</v>
       </c>
-      <c r="D76" s="78"/>
-      <c r="E76" s="78"/>
-      <c r="F76" s="79"/>
+      <c r="D76" s="85"/>
+      <c r="E76" s="85"/>
+      <c r="F76" s="86"/>
     </row>
     <row r="77" spans="1:6" ht="27" thickBot="1">
-      <c r="C77" s="80" t="s">
+      <c r="C77" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D77" s="81"/>
-      <c r="E77" s="81"/>
-      <c r="F77" s="82"/>
+      <c r="D77" s="78"/>
+      <c r="E77" s="78"/>
+      <c r="F77" s="79"/>
     </row>
     <row r="78" spans="1:6" ht="18" thickBot="1">
       <c r="C78" s="33" t="s">
@@ -8077,12 +8097,12 @@
       <c r="F79" s="35"/>
     </row>
     <row r="80" spans="1:6" ht="27" thickBot="1">
-      <c r="C80" s="83" t="s">
+      <c r="C80" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D80" s="84"/>
-      <c r="E80" s="84"/>
-      <c r="F80" s="85"/>
+      <c r="D80" s="81"/>
+      <c r="E80" s="81"/>
+      <c r="F80" s="82"/>
     </row>
     <row r="81" spans="1:6" ht="18" thickBot="1">
       <c r="C81" s="37" t="s">
@@ -8113,12 +8133,12 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="27" thickBot="1">
-      <c r="C83" s="86" t="s">
+      <c r="C83" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D83" s="86"/>
-      <c r="E83" s="86"/>
-      <c r="F83" s="86"/>
+      <c r="D83" s="83"/>
+      <c r="E83" s="83"/>
+      <c r="F83" s="83"/>
     </row>
     <row r="84" spans="1:6" ht="18" thickBot="1">
       <c r="C84" s="37" t="s">
@@ -8194,28 +8214,28 @@
       <c r="B92" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C92" s="105" t="s">
+      <c r="C92" s="87" t="s">
         <v>447</v>
       </c>
-      <c r="D92" s="106"/>
-      <c r="E92" s="106"/>
-      <c r="F92" s="107"/>
+      <c r="D92" s="88"/>
+      <c r="E92" s="88"/>
+      <c r="F92" s="89"/>
     </row>
     <row r="93" spans="1:6" ht="18" thickBot="1">
-      <c r="C93" s="77" t="s">
+      <c r="C93" s="84" t="s">
         <v>368</v>
       </c>
-      <c r="D93" s="78"/>
-      <c r="E93" s="78"/>
-      <c r="F93" s="79"/>
+      <c r="D93" s="85"/>
+      <c r="E93" s="85"/>
+      <c r="F93" s="86"/>
     </row>
     <row r="94" spans="1:6" ht="27" thickBot="1">
-      <c r="C94" s="80" t="s">
+      <c r="C94" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D94" s="81"/>
-      <c r="E94" s="81"/>
-      <c r="F94" s="82"/>
+      <c r="D94" s="78"/>
+      <c r="E94" s="78"/>
+      <c r="F94" s="79"/>
     </row>
     <row r="95" spans="1:6" ht="18" thickBot="1">
       <c r="C95" s="33" t="s">
@@ -8258,12 +8278,12 @@
       <c r="F97" s="35"/>
     </row>
     <row r="98" spans="1:6" ht="27" thickBot="1">
-      <c r="C98" s="83" t="s">
+      <c r="C98" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D98" s="84"/>
-      <c r="E98" s="84"/>
-      <c r="F98" s="85"/>
+      <c r="D98" s="81"/>
+      <c r="E98" s="81"/>
+      <c r="F98" s="82"/>
     </row>
     <row r="99" spans="1:6" ht="18" thickBot="1">
       <c r="C99" s="37" t="s">
@@ -8294,12 +8314,12 @@
       </c>
     </row>
     <row r="101" spans="1:6" ht="27" thickBot="1">
-      <c r="C101" s="86" t="s">
+      <c r="C101" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D101" s="86"/>
-      <c r="E101" s="86"/>
-      <c r="F101" s="86"/>
+      <c r="D101" s="83"/>
+      <c r="E101" s="83"/>
+      <c r="F101" s="83"/>
     </row>
     <row r="102" spans="1:6" ht="18" thickBot="1">
       <c r="C102" s="37" t="s">
@@ -8375,28 +8395,28 @@
       <c r="B110" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C110" s="105" t="s">
+      <c r="C110" s="87" t="s">
         <v>448</v>
       </c>
-      <c r="D110" s="106"/>
-      <c r="E110" s="106"/>
-      <c r="F110" s="107"/>
+      <c r="D110" s="88"/>
+      <c r="E110" s="88"/>
+      <c r="F110" s="89"/>
     </row>
     <row r="111" spans="1:6" ht="18" thickBot="1">
-      <c r="C111" s="77" t="s">
+      <c r="C111" s="84" t="s">
         <v>373</v>
       </c>
-      <c r="D111" s="78"/>
-      <c r="E111" s="78"/>
-      <c r="F111" s="79"/>
+      <c r="D111" s="85"/>
+      <c r="E111" s="85"/>
+      <c r="F111" s="86"/>
     </row>
     <row r="112" spans="1:6" ht="27" thickBot="1">
-      <c r="C112" s="80" t="s">
+      <c r="C112" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D112" s="81"/>
-      <c r="E112" s="81"/>
-      <c r="F112" s="82"/>
+      <c r="D112" s="78"/>
+      <c r="E112" s="78"/>
+      <c r="F112" s="79"/>
     </row>
     <row r="113" spans="1:6" ht="18" thickBot="1">
       <c r="C113" s="33" t="s">
@@ -8437,12 +8457,12 @@
       <c r="F115" s="35"/>
     </row>
     <row r="116" spans="1:6" ht="27" thickBot="1">
-      <c r="C116" s="83" t="s">
+      <c r="C116" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D116" s="84"/>
-      <c r="E116" s="84"/>
-      <c r="F116" s="85"/>
+      <c r="D116" s="81"/>
+      <c r="E116" s="81"/>
+      <c r="F116" s="82"/>
     </row>
     <row r="117" spans="1:6" ht="18" thickBot="1">
       <c r="C117" s="37" t="s">
@@ -8473,12 +8493,12 @@
       </c>
     </row>
     <row r="119" spans="1:6" ht="27" thickBot="1">
-      <c r="C119" s="86" t="s">
+      <c r="C119" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D119" s="86"/>
-      <c r="E119" s="86"/>
-      <c r="F119" s="86"/>
+      <c r="D119" s="83"/>
+      <c r="E119" s="83"/>
+      <c r="F119" s="83"/>
     </row>
     <row r="120" spans="1:6" ht="18" thickBot="1">
       <c r="C120" s="37" t="s">
@@ -8554,28 +8574,28 @@
       <c r="B128" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C128" s="105" t="s">
+      <c r="C128" s="87" t="s">
         <v>449</v>
       </c>
-      <c r="D128" s="106"/>
-      <c r="E128" s="106"/>
-      <c r="F128" s="107"/>
+      <c r="D128" s="88"/>
+      <c r="E128" s="88"/>
+      <c r="F128" s="89"/>
     </row>
     <row r="129" spans="1:6" ht="18" thickBot="1">
-      <c r="C129" s="77" t="s">
+      <c r="C129" s="84" t="s">
         <v>374</v>
       </c>
-      <c r="D129" s="78"/>
-      <c r="E129" s="78"/>
-      <c r="F129" s="79"/>
+      <c r="D129" s="85"/>
+      <c r="E129" s="85"/>
+      <c r="F129" s="86"/>
     </row>
     <row r="130" spans="1:6" ht="27" thickBot="1">
-      <c r="C130" s="80" t="s">
+      <c r="C130" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D130" s="81"/>
-      <c r="E130" s="81"/>
-      <c r="F130" s="82"/>
+      <c r="D130" s="78"/>
+      <c r="E130" s="78"/>
+      <c r="F130" s="79"/>
     </row>
     <row r="131" spans="1:6" ht="18" thickBot="1">
       <c r="C131" s="33" t="s">
@@ -8616,12 +8636,12 @@
       <c r="F133" s="35"/>
     </row>
     <row r="134" spans="1:6" ht="27" thickBot="1">
-      <c r="C134" s="83" t="s">
+      <c r="C134" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D134" s="84"/>
-      <c r="E134" s="84"/>
-      <c r="F134" s="85"/>
+      <c r="D134" s="81"/>
+      <c r="E134" s="81"/>
+      <c r="F134" s="82"/>
     </row>
     <row r="135" spans="1:6" ht="18" thickBot="1">
       <c r="C135" s="37" t="s">
@@ -8668,12 +8688,12 @@
       </c>
     </row>
     <row r="138" spans="1:6" ht="27" thickBot="1">
-      <c r="C138" s="86" t="s">
+      <c r="C138" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D138" s="86"/>
-      <c r="E138" s="86"/>
-      <c r="F138" s="86"/>
+      <c r="D138" s="83"/>
+      <c r="E138" s="83"/>
+      <c r="F138" s="83"/>
     </row>
     <row r="139" spans="1:6" ht="18" thickBot="1">
       <c r="C139" s="37" t="s">
@@ -8749,28 +8769,28 @@
       <c r="B147" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C147" s="105" t="s">
+      <c r="C147" s="87" t="s">
         <v>450</v>
       </c>
-      <c r="D147" s="106"/>
-      <c r="E147" s="106"/>
-      <c r="F147" s="107"/>
+      <c r="D147" s="88"/>
+      <c r="E147" s="88"/>
+      <c r="F147" s="89"/>
     </row>
     <row r="148" spans="1:6" ht="18" thickBot="1">
-      <c r="C148" s="77" t="s">
+      <c r="C148" s="84" t="s">
         <v>388</v>
       </c>
-      <c r="D148" s="78"/>
-      <c r="E148" s="78"/>
-      <c r="F148" s="79"/>
+      <c r="D148" s="85"/>
+      <c r="E148" s="85"/>
+      <c r="F148" s="86"/>
     </row>
     <row r="149" spans="1:6" ht="27" thickBot="1">
-      <c r="C149" s="80" t="s">
+      <c r="C149" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D149" s="81"/>
-      <c r="E149" s="81"/>
-      <c r="F149" s="82"/>
+      <c r="D149" s="78"/>
+      <c r="E149" s="78"/>
+      <c r="F149" s="79"/>
     </row>
     <row r="150" spans="1:6" ht="18" thickBot="1">
       <c r="C150" s="33" t="s">
@@ -8811,12 +8831,12 @@
       <c r="F152" s="35"/>
     </row>
     <row r="153" spans="1:6" ht="27" thickBot="1">
-      <c r="C153" s="83" t="s">
+      <c r="C153" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D153" s="84"/>
-      <c r="E153" s="84"/>
-      <c r="F153" s="85"/>
+      <c r="D153" s="81"/>
+      <c r="E153" s="81"/>
+      <c r="F153" s="82"/>
     </row>
     <row r="154" spans="1:6" ht="18" thickBot="1">
       <c r="C154" s="37" t="s">
@@ -8933,12 +8953,12 @@
       <c r="F161" s="38"/>
     </row>
     <row r="162" spans="1:6" ht="27" thickBot="1">
-      <c r="C162" s="86" t="s">
+      <c r="C162" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D162" s="86"/>
-      <c r="E162" s="86"/>
-      <c r="F162" s="86"/>
+      <c r="D162" s="83"/>
+      <c r="E162" s="83"/>
+      <c r="F162" s="83"/>
     </row>
     <row r="163" spans="1:6" ht="18" thickBot="1">
       <c r="C163" s="37" t="s">
@@ -9014,28 +9034,28 @@
       <c r="B171" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C171" s="105" t="s">
+      <c r="C171" s="87" t="s">
         <v>451</v>
       </c>
-      <c r="D171" s="106"/>
-      <c r="E171" s="106"/>
-      <c r="F171" s="107"/>
+      <c r="D171" s="88"/>
+      <c r="E171" s="88"/>
+      <c r="F171" s="89"/>
     </row>
     <row r="172" spans="1:6" ht="18" thickBot="1">
-      <c r="C172" s="77" t="s">
+      <c r="C172" s="84" t="s">
         <v>389</v>
       </c>
-      <c r="D172" s="78"/>
-      <c r="E172" s="78"/>
-      <c r="F172" s="79"/>
+      <c r="D172" s="85"/>
+      <c r="E172" s="85"/>
+      <c r="F172" s="86"/>
     </row>
     <row r="173" spans="1:6" ht="27" thickBot="1">
-      <c r="C173" s="80" t="s">
+      <c r="C173" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D173" s="81"/>
-      <c r="E173" s="81"/>
-      <c r="F173" s="82"/>
+      <c r="D173" s="78"/>
+      <c r="E173" s="78"/>
+      <c r="F173" s="79"/>
     </row>
     <row r="174" spans="1:6" ht="18" thickBot="1">
       <c r="C174" s="33" t="s">
@@ -9076,12 +9096,12 @@
       <c r="F176" s="35"/>
     </row>
     <row r="177" spans="1:6" ht="27" thickBot="1">
-      <c r="C177" s="83" t="s">
+      <c r="C177" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D177" s="84"/>
-      <c r="E177" s="84"/>
-      <c r="F177" s="85"/>
+      <c r="D177" s="81"/>
+      <c r="E177" s="81"/>
+      <c r="F177" s="82"/>
     </row>
     <row r="178" spans="1:6" ht="18" thickBot="1">
       <c r="C178" s="37" t="s">
@@ -9132,12 +9152,12 @@
       <c r="F181" s="38"/>
     </row>
     <row r="182" spans="1:6" ht="27" thickBot="1">
-      <c r="C182" s="86" t="s">
+      <c r="C182" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D182" s="86"/>
-      <c r="E182" s="86"/>
-      <c r="F182" s="86"/>
+      <c r="D182" s="83"/>
+      <c r="E182" s="83"/>
+      <c r="F182" s="83"/>
     </row>
     <row r="183" spans="1:6" ht="18" thickBot="1">
       <c r="C183" s="37" t="s">
@@ -9213,28 +9233,28 @@
       <c r="B191" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C191" s="105" t="s">
+      <c r="C191" s="87" t="s">
         <v>452</v>
       </c>
-      <c r="D191" s="106"/>
-      <c r="E191" s="106"/>
-      <c r="F191" s="107"/>
+      <c r="D191" s="88"/>
+      <c r="E191" s="88"/>
+      <c r="F191" s="89"/>
     </row>
     <row r="192" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="C192" s="77" t="s">
+      <c r="C192" s="84" t="s">
         <v>394</v>
       </c>
-      <c r="D192" s="78"/>
-      <c r="E192" s="78"/>
-      <c r="F192" s="79"/>
+      <c r="D192" s="85"/>
+      <c r="E192" s="85"/>
+      <c r="F192" s="86"/>
     </row>
     <row r="193" spans="3:6" ht="27" thickBot="1">
-      <c r="C193" s="80" t="s">
+      <c r="C193" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D193" s="81"/>
-      <c r="E193" s="81"/>
-      <c r="F193" s="82"/>
+      <c r="D193" s="78"/>
+      <c r="E193" s="78"/>
+      <c r="F193" s="79"/>
     </row>
     <row r="194" spans="3:6" ht="18" thickBot="1">
       <c r="C194" s="33" t="s">
@@ -9275,12 +9295,12 @@
       <c r="F196" s="35"/>
     </row>
     <row r="197" spans="3:6" ht="27" thickBot="1">
-      <c r="C197" s="83" t="s">
+      <c r="C197" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D197" s="84"/>
-      <c r="E197" s="84"/>
-      <c r="F197" s="85"/>
+      <c r="D197" s="81"/>
+      <c r="E197" s="81"/>
+      <c r="F197" s="82"/>
     </row>
     <row r="198" spans="3:6" ht="18" thickBot="1">
       <c r="C198" s="37" t="s">
@@ -9317,12 +9337,12 @@
       <c r="F200" s="38"/>
     </row>
     <row r="201" spans="3:6" ht="27" thickBot="1">
-      <c r="C201" s="86" t="s">
+      <c r="C201" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D201" s="86"/>
-      <c r="E201" s="86"/>
-      <c r="F201" s="86"/>
+      <c r="D201" s="83"/>
+      <c r="E201" s="83"/>
+      <c r="F201" s="83"/>
     </row>
     <row r="202" spans="3:6" ht="18" thickBot="1">
       <c r="C202" s="37" t="s">
@@ -9398,28 +9418,28 @@
       <c r="B210" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C210" s="105" t="s">
+      <c r="C210" s="87" t="s">
         <v>453</v>
       </c>
-      <c r="D210" s="106"/>
-      <c r="E210" s="106"/>
-      <c r="F210" s="107"/>
+      <c r="D210" s="88"/>
+      <c r="E210" s="88"/>
+      <c r="F210" s="89"/>
     </row>
     <row r="211" spans="1:6" ht="18" thickBot="1">
-      <c r="C211" s="77" t="s">
+      <c r="C211" s="84" t="s">
         <v>395</v>
       </c>
-      <c r="D211" s="78"/>
-      <c r="E211" s="78"/>
-      <c r="F211" s="79"/>
+      <c r="D211" s="85"/>
+      <c r="E211" s="85"/>
+      <c r="F211" s="86"/>
     </row>
     <row r="212" spans="1:6" ht="27" thickBot="1">
-      <c r="C212" s="80" t="s">
+      <c r="C212" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D212" s="81"/>
-      <c r="E212" s="81"/>
-      <c r="F212" s="82"/>
+      <c r="D212" s="78"/>
+      <c r="E212" s="78"/>
+      <c r="F212" s="79"/>
     </row>
     <row r="213" spans="1:6" ht="18" thickBot="1">
       <c r="C213" s="33" t="s">
@@ -9460,12 +9480,12 @@
       <c r="F215" s="35"/>
     </row>
     <row r="216" spans="1:6" ht="27" thickBot="1">
-      <c r="C216" s="83" t="s">
+      <c r="C216" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D216" s="84"/>
-      <c r="E216" s="84"/>
-      <c r="F216" s="85"/>
+      <c r="D216" s="81"/>
+      <c r="E216" s="81"/>
+      <c r="F216" s="82"/>
     </row>
     <row r="217" spans="1:6" ht="18" thickBot="1">
       <c r="C217" s="37" t="s">
@@ -9516,12 +9536,12 @@
       <c r="F220" s="38"/>
     </row>
     <row r="221" spans="1:6" ht="27" thickBot="1">
-      <c r="C221" s="86" t="s">
+      <c r="C221" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D221" s="86"/>
-      <c r="E221" s="86"/>
-      <c r="F221" s="86"/>
+      <c r="D221" s="83"/>
+      <c r="E221" s="83"/>
+      <c r="F221" s="83"/>
     </row>
     <row r="222" spans="1:6" ht="18" thickBot="1">
       <c r="C222" s="37" t="s">
@@ -9597,28 +9617,28 @@
       <c r="B230" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C230" s="105" t="s">
+      <c r="C230" s="87" t="s">
         <v>454</v>
       </c>
-      <c r="D230" s="106"/>
-      <c r="E230" s="106"/>
-      <c r="F230" s="107"/>
+      <c r="D230" s="88"/>
+      <c r="E230" s="88"/>
+      <c r="F230" s="89"/>
     </row>
     <row r="231" spans="1:6" ht="18" thickBot="1">
-      <c r="C231" s="77" t="s">
+      <c r="C231" s="84" t="s">
         <v>478</v>
       </c>
-      <c r="D231" s="78"/>
-      <c r="E231" s="78"/>
-      <c r="F231" s="79"/>
+      <c r="D231" s="85"/>
+      <c r="E231" s="85"/>
+      <c r="F231" s="86"/>
     </row>
     <row r="232" spans="1:6" ht="27" thickBot="1">
-      <c r="C232" s="80" t="s">
+      <c r="C232" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D232" s="81"/>
-      <c r="E232" s="81"/>
-      <c r="F232" s="82"/>
+      <c r="D232" s="78"/>
+      <c r="E232" s="78"/>
+      <c r="F232" s="79"/>
     </row>
     <row r="233" spans="1:6" ht="18" thickBot="1">
       <c r="C233" s="33" t="s">
@@ -9659,12 +9679,12 @@
       <c r="F235" s="35"/>
     </row>
     <row r="236" spans="1:6" ht="27" thickBot="1">
-      <c r="C236" s="83" t="s">
+      <c r="C236" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D236" s="84"/>
-      <c r="E236" s="84"/>
-      <c r="F236" s="85"/>
+      <c r="D236" s="81"/>
+      <c r="E236" s="81"/>
+      <c r="F236" s="82"/>
     </row>
     <row r="237" spans="1:6" ht="18" thickBot="1">
       <c r="C237" s="37" t="s">
@@ -9701,12 +9721,12 @@
       <c r="F239" s="38"/>
     </row>
     <row r="240" spans="1:6" ht="27" thickBot="1">
-      <c r="C240" s="86" t="s">
+      <c r="C240" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D240" s="86"/>
-      <c r="E240" s="86"/>
-      <c r="F240" s="86"/>
+      <c r="D240" s="83"/>
+      <c r="E240" s="83"/>
+      <c r="F240" s="83"/>
     </row>
     <row r="241" spans="1:6" ht="18" thickBot="1">
       <c r="C241" s="37" t="s">
@@ -9782,28 +9802,28 @@
       <c r="B249" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C249" s="105" t="s">
+      <c r="C249" s="87" t="s">
         <v>455</v>
       </c>
-      <c r="D249" s="106"/>
-      <c r="E249" s="106"/>
-      <c r="F249" s="107"/>
+      <c r="D249" s="88"/>
+      <c r="E249" s="88"/>
+      <c r="F249" s="89"/>
     </row>
     <row r="250" spans="1:6" ht="18" thickBot="1">
-      <c r="C250" s="77" t="s">
+      <c r="C250" s="84" t="s">
         <v>477</v>
       </c>
-      <c r="D250" s="78"/>
-      <c r="E250" s="78"/>
-      <c r="F250" s="79"/>
+      <c r="D250" s="85"/>
+      <c r="E250" s="85"/>
+      <c r="F250" s="86"/>
     </row>
     <row r="251" spans="1:6" ht="27" thickBot="1">
-      <c r="C251" s="80" t="s">
+      <c r="C251" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D251" s="81"/>
-      <c r="E251" s="81"/>
-      <c r="F251" s="82"/>
+      <c r="D251" s="78"/>
+      <c r="E251" s="78"/>
+      <c r="F251" s="79"/>
     </row>
     <row r="252" spans="1:6" ht="18" thickBot="1">
       <c r="C252" s="33" t="s">
@@ -9844,12 +9864,12 @@
       <c r="F254" s="35"/>
     </row>
     <row r="255" spans="1:6" ht="27" thickBot="1">
-      <c r="C255" s="83" t="s">
+      <c r="C255" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D255" s="84"/>
-      <c r="E255" s="84"/>
-      <c r="F255" s="85"/>
+      <c r="D255" s="81"/>
+      <c r="E255" s="81"/>
+      <c r="F255" s="82"/>
     </row>
     <row r="256" spans="1:6" ht="18" thickBot="1">
       <c r="C256" s="37" t="s">
@@ -9900,12 +9920,12 @@
       <c r="F259" s="38"/>
     </row>
     <row r="260" spans="1:6" ht="27" thickBot="1">
-      <c r="C260" s="86" t="s">
+      <c r="C260" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D260" s="86"/>
-      <c r="E260" s="86"/>
-      <c r="F260" s="86"/>
+      <c r="D260" s="83"/>
+      <c r="E260" s="83"/>
+      <c r="F260" s="83"/>
     </row>
     <row r="261" spans="1:6" ht="18" thickBot="1">
       <c r="C261" s="37" t="s">
@@ -9981,28 +10001,28 @@
       <c r="B269" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C269" s="105" t="s">
+      <c r="C269" s="87" t="s">
         <v>456</v>
       </c>
-      <c r="D269" s="106"/>
-      <c r="E269" s="106"/>
-      <c r="F269" s="107"/>
+      <c r="D269" s="88"/>
+      <c r="E269" s="88"/>
+      <c r="F269" s="89"/>
     </row>
     <row r="270" spans="1:6" ht="18" thickBot="1">
-      <c r="C270" s="77" t="s">
+      <c r="C270" s="84" t="s">
         <v>476</v>
       </c>
-      <c r="D270" s="78"/>
-      <c r="E270" s="78"/>
-      <c r="F270" s="79"/>
+      <c r="D270" s="85"/>
+      <c r="E270" s="85"/>
+      <c r="F270" s="86"/>
     </row>
     <row r="271" spans="1:6" ht="27" thickBot="1">
-      <c r="C271" s="80" t="s">
+      <c r="C271" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D271" s="81"/>
-      <c r="E271" s="81"/>
-      <c r="F271" s="82"/>
+      <c r="D271" s="78"/>
+      <c r="E271" s="78"/>
+      <c r="F271" s="79"/>
     </row>
     <row r="272" spans="1:6" ht="18" thickBot="1">
       <c r="C272" s="33" t="s">
@@ -10043,12 +10063,12 @@
       <c r="F274" s="35"/>
     </row>
     <row r="275" spans="1:6" ht="27" thickBot="1">
-      <c r="C275" s="83" t="s">
+      <c r="C275" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D275" s="84"/>
-      <c r="E275" s="84"/>
-      <c r="F275" s="85"/>
+      <c r="D275" s="81"/>
+      <c r="E275" s="81"/>
+      <c r="F275" s="82"/>
     </row>
     <row r="276" spans="1:6" ht="18" thickBot="1">
       <c r="C276" s="37" t="s">
@@ -10085,12 +10105,12 @@
       <c r="F278" s="38"/>
     </row>
     <row r="279" spans="1:6" ht="27" thickBot="1">
-      <c r="C279" s="86" t="s">
+      <c r="C279" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D279" s="86"/>
-      <c r="E279" s="86"/>
-      <c r="F279" s="86"/>
+      <c r="D279" s="83"/>
+      <c r="E279" s="83"/>
+      <c r="F279" s="83"/>
     </row>
     <row r="280" spans="1:6" ht="18" thickBot="1">
       <c r="C280" s="37" t="s">
@@ -10166,28 +10186,28 @@
       <c r="B288" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C288" s="105" t="s">
+      <c r="C288" s="87" t="s">
         <v>457</v>
       </c>
-      <c r="D288" s="106"/>
-      <c r="E288" s="106"/>
-      <c r="F288" s="107"/>
+      <c r="D288" s="88"/>
+      <c r="E288" s="88"/>
+      <c r="F288" s="89"/>
     </row>
     <row r="289" spans="3:6" ht="18" thickBot="1">
-      <c r="C289" s="77" t="s">
+      <c r="C289" s="84" t="s">
         <v>475</v>
       </c>
-      <c r="D289" s="78"/>
-      <c r="E289" s="78"/>
-      <c r="F289" s="79"/>
+      <c r="D289" s="85"/>
+      <c r="E289" s="85"/>
+      <c r="F289" s="86"/>
     </row>
     <row r="290" spans="3:6" ht="27" thickBot="1">
-      <c r="C290" s="80" t="s">
+      <c r="C290" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D290" s="81"/>
-      <c r="E290" s="81"/>
-      <c r="F290" s="82"/>
+      <c r="D290" s="78"/>
+      <c r="E290" s="78"/>
+      <c r="F290" s="79"/>
     </row>
     <row r="291" spans="3:6" ht="18" thickBot="1">
       <c r="C291" s="33" t="s">
@@ -10228,12 +10248,12 @@
       <c r="F293" s="35"/>
     </row>
     <row r="294" spans="3:6" ht="27" thickBot="1">
-      <c r="C294" s="83" t="s">
+      <c r="C294" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D294" s="84"/>
-      <c r="E294" s="84"/>
-      <c r="F294" s="85"/>
+      <c r="D294" s="81"/>
+      <c r="E294" s="81"/>
+      <c r="F294" s="82"/>
     </row>
     <row r="295" spans="3:6" ht="18" thickBot="1">
       <c r="C295" s="37" t="s">
@@ -10276,12 +10296,12 @@
       <c r="F297" s="38"/>
     </row>
     <row r="298" spans="3:6" ht="27" thickBot="1">
-      <c r="C298" s="86" t="s">
+      <c r="C298" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D298" s="86"/>
-      <c r="E298" s="86"/>
-      <c r="F298" s="86"/>
+      <c r="D298" s="83"/>
+      <c r="E298" s="83"/>
+      <c r="F298" s="83"/>
     </row>
     <row r="299" spans="3:6" ht="18" thickBot="1">
       <c r="C299" s="37" t="s">
@@ -10357,28 +10377,28 @@
       <c r="B307" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C307" s="105" t="s">
+      <c r="C307" s="87" t="s">
         <v>458</v>
       </c>
-      <c r="D307" s="106"/>
-      <c r="E307" s="106"/>
-      <c r="F307" s="107"/>
+      <c r="D307" s="88"/>
+      <c r="E307" s="88"/>
+      <c r="F307" s="89"/>
     </row>
     <row r="308" spans="1:6" ht="18" thickBot="1">
-      <c r="C308" s="77" t="s">
+      <c r="C308" s="84" t="s">
         <v>474</v>
       </c>
-      <c r="D308" s="78"/>
-      <c r="E308" s="78"/>
-      <c r="F308" s="79"/>
+      <c r="D308" s="85"/>
+      <c r="E308" s="85"/>
+      <c r="F308" s="86"/>
     </row>
     <row r="309" spans="1:6" ht="27" thickBot="1">
-      <c r="C309" s="80" t="s">
+      <c r="C309" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D309" s="81"/>
-      <c r="E309" s="81"/>
-      <c r="F309" s="82"/>
+      <c r="D309" s="78"/>
+      <c r="E309" s="78"/>
+      <c r="F309" s="79"/>
     </row>
     <row r="310" spans="1:6" ht="18" thickBot="1">
       <c r="C310" s="33" t="s">
@@ -10419,12 +10439,12 @@
       <c r="F312" s="35"/>
     </row>
     <row r="313" spans="1:6" ht="27" thickBot="1">
-      <c r="C313" s="83" t="s">
+      <c r="C313" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D313" s="84"/>
-      <c r="E313" s="84"/>
-      <c r="F313" s="85"/>
+      <c r="D313" s="81"/>
+      <c r="E313" s="81"/>
+      <c r="F313" s="82"/>
     </row>
     <row r="314" spans="1:6" ht="18" thickBot="1">
       <c r="C314" s="37" t="s">
@@ -10467,12 +10487,12 @@
       <c r="F316" s="38"/>
     </row>
     <row r="317" spans="1:6" ht="27" thickBot="1">
-      <c r="C317" s="86" t="s">
+      <c r="C317" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D317" s="86"/>
-      <c r="E317" s="86"/>
-      <c r="F317" s="86"/>
+      <c r="D317" s="83"/>
+      <c r="E317" s="83"/>
+      <c r="F317" s="83"/>
     </row>
     <row r="318" spans="1:6" ht="18" thickBot="1">
       <c r="C318" s="37" t="s">
@@ -10548,28 +10568,28 @@
       <c r="B326" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C326" s="105" t="s">
+      <c r="C326" s="87" t="s">
         <v>459</v>
       </c>
-      <c r="D326" s="106"/>
-      <c r="E326" s="106"/>
-      <c r="F326" s="107"/>
+      <c r="D326" s="88"/>
+      <c r="E326" s="88"/>
+      <c r="F326" s="89"/>
     </row>
     <row r="327" spans="1:6" ht="18" thickBot="1">
-      <c r="C327" s="77" t="s">
+      <c r="C327" s="84" t="s">
         <v>473</v>
       </c>
-      <c r="D327" s="78"/>
-      <c r="E327" s="78"/>
-      <c r="F327" s="79"/>
+      <c r="D327" s="85"/>
+      <c r="E327" s="85"/>
+      <c r="F327" s="86"/>
     </row>
     <row r="328" spans="1:6" ht="27" thickBot="1">
-      <c r="C328" s="80" t="s">
+      <c r="C328" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D328" s="81"/>
-      <c r="E328" s="81"/>
-      <c r="F328" s="82"/>
+      <c r="D328" s="78"/>
+      <c r="E328" s="78"/>
+      <c r="F328" s="79"/>
     </row>
     <row r="329" spans="1:6" ht="18" thickBot="1">
       <c r="C329" s="33" t="s">
@@ -10610,12 +10630,12 @@
       <c r="F331" s="35"/>
     </row>
     <row r="332" spans="1:6" ht="27" thickBot="1">
-      <c r="C332" s="83" t="s">
+      <c r="C332" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D332" s="84"/>
-      <c r="E332" s="84"/>
-      <c r="F332" s="85"/>
+      <c r="D332" s="81"/>
+      <c r="E332" s="81"/>
+      <c r="F332" s="82"/>
     </row>
     <row r="333" spans="1:6" ht="18" thickBot="1">
       <c r="C333" s="37" t="s">
@@ -10658,12 +10678,12 @@
       <c r="F335" s="38"/>
     </row>
     <row r="336" spans="1:6" ht="27" thickBot="1">
-      <c r="C336" s="86" t="s">
+      <c r="C336" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D336" s="86"/>
-      <c r="E336" s="86"/>
-      <c r="F336" s="86"/>
+      <c r="D336" s="83"/>
+      <c r="E336" s="83"/>
+      <c r="F336" s="83"/>
     </row>
     <row r="337" spans="1:6" ht="18" thickBot="1">
       <c r="C337" s="37" t="s">
@@ -10739,28 +10759,28 @@
       <c r="B345" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C345" s="105" t="s">
+      <c r="C345" s="87" t="s">
         <v>461</v>
       </c>
-      <c r="D345" s="106"/>
-      <c r="E345" s="106"/>
-      <c r="F345" s="107"/>
+      <c r="D345" s="88"/>
+      <c r="E345" s="88"/>
+      <c r="F345" s="89"/>
     </row>
     <row r="346" spans="1:6" ht="18" thickBot="1">
-      <c r="C346" s="77" t="s">
+      <c r="C346" s="84" t="s">
         <v>467</v>
       </c>
-      <c r="D346" s="78"/>
-      <c r="E346" s="78"/>
-      <c r="F346" s="79"/>
+      <c r="D346" s="85"/>
+      <c r="E346" s="85"/>
+      <c r="F346" s="86"/>
     </row>
     <row r="347" spans="1:6" ht="27" thickBot="1">
-      <c r="C347" s="80" t="s">
+      <c r="C347" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D347" s="81"/>
-      <c r="E347" s="81"/>
-      <c r="F347" s="82"/>
+      <c r="D347" s="78"/>
+      <c r="E347" s="78"/>
+      <c r="F347" s="79"/>
     </row>
     <row r="348" spans="1:6" ht="18" thickBot="1">
       <c r="C348" s="33" t="s">
@@ -10801,12 +10821,12 @@
       <c r="F350" s="35"/>
     </row>
     <row r="351" spans="1:6" ht="27" thickBot="1">
-      <c r="C351" s="83" t="s">
+      <c r="C351" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D351" s="84"/>
-      <c r="E351" s="84"/>
-      <c r="F351" s="85"/>
+      <c r="D351" s="81"/>
+      <c r="E351" s="81"/>
+      <c r="F351" s="82"/>
     </row>
     <row r="352" spans="1:6" ht="18" thickBot="1">
       <c r="C352" s="37" t="s">
@@ -10843,12 +10863,12 @@
       <c r="F354" s="38"/>
     </row>
     <row r="355" spans="1:6" ht="27" thickBot="1">
-      <c r="C355" s="86" t="s">
+      <c r="C355" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D355" s="86"/>
-      <c r="E355" s="86"/>
-      <c r="F355" s="86"/>
+      <c r="D355" s="83"/>
+      <c r="E355" s="83"/>
+      <c r="F355" s="83"/>
     </row>
     <row r="356" spans="1:6" ht="18" thickBot="1">
       <c r="C356" s="37" t="s">
@@ -10924,28 +10944,28 @@
       <c r="B364" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C364" s="105" t="s">
+      <c r="C364" s="87" t="s">
         <v>460</v>
       </c>
-      <c r="D364" s="106"/>
-      <c r="E364" s="106"/>
-      <c r="F364" s="107"/>
+      <c r="D364" s="88"/>
+      <c r="E364" s="88"/>
+      <c r="F364" s="89"/>
     </row>
     <row r="365" spans="1:6" ht="18" thickBot="1">
-      <c r="C365" s="77" t="s">
+      <c r="C365" s="84" t="s">
         <v>466</v>
       </c>
-      <c r="D365" s="78"/>
-      <c r="E365" s="78"/>
-      <c r="F365" s="79"/>
+      <c r="D365" s="85"/>
+      <c r="E365" s="85"/>
+      <c r="F365" s="86"/>
     </row>
     <row r="366" spans="1:6" ht="27" thickBot="1">
-      <c r="C366" s="80" t="s">
+      <c r="C366" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D366" s="81"/>
-      <c r="E366" s="81"/>
-      <c r="F366" s="82"/>
+      <c r="D366" s="78"/>
+      <c r="E366" s="78"/>
+      <c r="F366" s="79"/>
     </row>
     <row r="367" spans="1:6" ht="18" thickBot="1">
       <c r="C367" s="33" t="s">
@@ -10986,12 +11006,12 @@
       <c r="F369" s="35"/>
     </row>
     <row r="370" spans="1:6" ht="27" thickBot="1">
-      <c r="C370" s="83" t="s">
+      <c r="C370" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D370" s="84"/>
-      <c r="E370" s="84"/>
-      <c r="F370" s="85"/>
+      <c r="D370" s="81"/>
+      <c r="E370" s="81"/>
+      <c r="F370" s="82"/>
     </row>
     <row r="371" spans="1:6" ht="18" thickBot="1">
       <c r="C371" s="37" t="s">
@@ -11036,12 +11056,12 @@
       </c>
     </row>
     <row r="374" spans="1:6" ht="27" thickBot="1">
-      <c r="C374" s="86" t="s">
+      <c r="C374" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D374" s="86"/>
-      <c r="E374" s="86"/>
-      <c r="F374" s="86"/>
+      <c r="D374" s="83"/>
+      <c r="E374" s="83"/>
+      <c r="F374" s="83"/>
     </row>
     <row r="375" spans="1:6" ht="18" thickBot="1">
       <c r="C375" s="37" t="s">
@@ -11117,28 +11137,28 @@
       <c r="B383" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C383" s="105" t="s">
+      <c r="C383" s="87" t="s">
         <v>464</v>
       </c>
-      <c r="D383" s="106"/>
-      <c r="E383" s="106"/>
-      <c r="F383" s="107"/>
+      <c r="D383" s="88"/>
+      <c r="E383" s="88"/>
+      <c r="F383" s="89"/>
     </row>
     <row r="384" spans="1:6" ht="18" thickBot="1">
-      <c r="C384" s="77" t="s">
+      <c r="C384" s="84" t="s">
         <v>465</v>
       </c>
-      <c r="D384" s="78"/>
-      <c r="E384" s="78"/>
-      <c r="F384" s="79"/>
+      <c r="D384" s="85"/>
+      <c r="E384" s="85"/>
+      <c r="F384" s="86"/>
     </row>
     <row r="385" spans="3:6" ht="27" thickBot="1">
-      <c r="C385" s="80" t="s">
+      <c r="C385" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D385" s="81"/>
-      <c r="E385" s="81"/>
-      <c r="F385" s="82"/>
+      <c r="D385" s="78"/>
+      <c r="E385" s="78"/>
+      <c r="F385" s="79"/>
     </row>
     <row r="386" spans="3:6" ht="18" thickBot="1">
       <c r="C386" s="33" t="s">
@@ -11179,12 +11199,12 @@
       <c r="F388" s="35"/>
     </row>
     <row r="389" spans="3:6" ht="27" thickBot="1">
-      <c r="C389" s="83" t="s">
+      <c r="C389" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D389" s="84"/>
-      <c r="E389" s="84"/>
-      <c r="F389" s="85"/>
+      <c r="D389" s="81"/>
+      <c r="E389" s="81"/>
+      <c r="F389" s="82"/>
     </row>
     <row r="390" spans="3:6" ht="18" thickBot="1">
       <c r="C390" s="37" t="s">
@@ -11229,12 +11249,12 @@
       </c>
     </row>
     <row r="393" spans="3:6" ht="27" thickBot="1">
-      <c r="C393" s="86" t="s">
+      <c r="C393" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D393" s="86"/>
-      <c r="E393" s="86"/>
-      <c r="F393" s="86"/>
+      <c r="D393" s="83"/>
+      <c r="E393" s="83"/>
+      <c r="F393" s="83"/>
     </row>
     <row r="394" spans="3:6" ht="18" thickBot="1">
       <c r="C394" s="37" t="s">
@@ -11310,28 +11330,28 @@
       <c r="B402" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C402" s="105" t="s">
+      <c r="C402" s="87" t="s">
         <v>469</v>
       </c>
-      <c r="D402" s="106"/>
-      <c r="E402" s="106"/>
-      <c r="F402" s="107"/>
+      <c r="D402" s="88"/>
+      <c r="E402" s="88"/>
+      <c r="F402" s="89"/>
     </row>
     <row r="403" spans="1:6" ht="18" thickBot="1">
-      <c r="C403" s="77" t="s">
+      <c r="C403" s="84" t="s">
         <v>470</v>
       </c>
-      <c r="D403" s="78"/>
-      <c r="E403" s="78"/>
-      <c r="F403" s="79"/>
+      <c r="D403" s="85"/>
+      <c r="E403" s="85"/>
+      <c r="F403" s="86"/>
     </row>
     <row r="404" spans="1:6" ht="27" thickBot="1">
-      <c r="C404" s="80" t="s">
+      <c r="C404" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D404" s="81"/>
-      <c r="E404" s="81"/>
-      <c r="F404" s="82"/>
+      <c r="D404" s="78"/>
+      <c r="E404" s="78"/>
+      <c r="F404" s="79"/>
     </row>
     <row r="405" spans="1:6" ht="18" thickBot="1">
       <c r="C405" s="33" t="s">
@@ -11372,12 +11392,12 @@
       <c r="F407" s="35"/>
     </row>
     <row r="408" spans="1:6" ht="27" thickBot="1">
-      <c r="C408" s="83" t="s">
+      <c r="C408" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D408" s="84"/>
-      <c r="E408" s="84"/>
-      <c r="F408" s="85"/>
+      <c r="D408" s="81"/>
+      <c r="E408" s="81"/>
+      <c r="F408" s="82"/>
     </row>
     <row r="409" spans="1:6" ht="18" thickBot="1">
       <c r="C409" s="37" t="s">
@@ -11422,12 +11442,12 @@
       </c>
     </row>
     <row r="412" spans="1:6" ht="27" thickBot="1">
-      <c r="C412" s="86" t="s">
+      <c r="C412" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D412" s="86"/>
-      <c r="E412" s="86"/>
-      <c r="F412" s="86"/>
+      <c r="D412" s="83"/>
+      <c r="E412" s="83"/>
+      <c r="F412" s="83"/>
     </row>
     <row r="413" spans="1:6" ht="18" thickBot="1">
       <c r="C413" s="37" t="s">
@@ -11503,28 +11523,28 @@
       <c r="B421" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C421" s="105" t="s">
+      <c r="C421" s="87" t="s">
         <v>471</v>
       </c>
-      <c r="D421" s="106"/>
-      <c r="E421" s="106"/>
-      <c r="F421" s="107"/>
+      <c r="D421" s="88"/>
+      <c r="E421" s="88"/>
+      <c r="F421" s="89"/>
     </row>
     <row r="422" spans="1:6" ht="18" thickBot="1">
-      <c r="C422" s="77" t="s">
+      <c r="C422" s="84" t="s">
         <v>472</v>
       </c>
-      <c r="D422" s="78"/>
-      <c r="E422" s="78"/>
-      <c r="F422" s="79"/>
+      <c r="D422" s="85"/>
+      <c r="E422" s="85"/>
+      <c r="F422" s="86"/>
     </row>
     <row r="423" spans="1:6" ht="27" thickBot="1">
-      <c r="C423" s="80" t="s">
+      <c r="C423" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D423" s="81"/>
-      <c r="E423" s="81"/>
-      <c r="F423" s="82"/>
+      <c r="D423" s="78"/>
+      <c r="E423" s="78"/>
+      <c r="F423" s="79"/>
     </row>
     <row r="424" spans="1:6" ht="18" thickBot="1">
       <c r="C424" s="33" t="s">
@@ -11565,12 +11585,12 @@
       <c r="F426" s="35"/>
     </row>
     <row r="427" spans="1:6" ht="27" thickBot="1">
-      <c r="C427" s="83" t="s">
+      <c r="C427" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D427" s="84"/>
-      <c r="E427" s="84"/>
-      <c r="F427" s="85"/>
+      <c r="D427" s="81"/>
+      <c r="E427" s="81"/>
+      <c r="F427" s="82"/>
     </row>
     <row r="428" spans="1:6" ht="18" thickBot="1">
       <c r="C428" s="37" t="s">
@@ -11615,12 +11635,12 @@
       </c>
     </row>
     <row r="431" spans="1:6" ht="27" thickBot="1">
-      <c r="C431" s="86" t="s">
+      <c r="C431" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D431" s="86"/>
-      <c r="E431" s="86"/>
-      <c r="F431" s="86"/>
+      <c r="D431" s="83"/>
+      <c r="E431" s="83"/>
+      <c r="F431" s="83"/>
     </row>
     <row r="432" spans="1:6" ht="18" thickBot="1">
       <c r="C432" s="37" t="s">
@@ -11696,28 +11716,28 @@
       <c r="B440" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C440" s="105" t="s">
+      <c r="C440" s="87" t="s">
         <v>484</v>
       </c>
-      <c r="D440" s="106"/>
-      <c r="E440" s="106"/>
-      <c r="F440" s="107"/>
+      <c r="D440" s="88"/>
+      <c r="E440" s="88"/>
+      <c r="F440" s="89"/>
     </row>
     <row r="441" spans="1:6" ht="18" thickBot="1">
-      <c r="C441" s="77" t="s">
+      <c r="C441" s="84" t="s">
         <v>480</v>
       </c>
-      <c r="D441" s="78"/>
-      <c r="E441" s="78"/>
-      <c r="F441" s="79"/>
+      <c r="D441" s="85"/>
+      <c r="E441" s="85"/>
+      <c r="F441" s="86"/>
     </row>
     <row r="442" spans="1:6" ht="27" thickBot="1">
-      <c r="C442" s="80" t="s">
+      <c r="C442" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D442" s="81"/>
-      <c r="E442" s="81"/>
-      <c r="F442" s="82"/>
+      <c r="D442" s="78"/>
+      <c r="E442" s="78"/>
+      <c r="F442" s="79"/>
     </row>
     <row r="443" spans="1:6" ht="18" thickBot="1">
       <c r="C443" s="33" t="s">
@@ -11758,12 +11778,12 @@
       <c r="F445" s="35"/>
     </row>
     <row r="446" spans="1:6" ht="27" thickBot="1">
-      <c r="C446" s="83" t="s">
+      <c r="C446" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D446" s="84"/>
-      <c r="E446" s="84"/>
-      <c r="F446" s="85"/>
+      <c r="D446" s="81"/>
+      <c r="E446" s="81"/>
+      <c r="F446" s="82"/>
     </row>
     <row r="447" spans="1:6" ht="18" thickBot="1">
       <c r="C447" s="37" t="s">
@@ -11800,12 +11820,12 @@
       <c r="F449" s="38"/>
     </row>
     <row r="450" spans="1:6" ht="27" thickBot="1">
-      <c r="C450" s="86" t="s">
+      <c r="C450" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D450" s="86"/>
-      <c r="E450" s="86"/>
-      <c r="F450" s="86"/>
+      <c r="D450" s="83"/>
+      <c r="E450" s="83"/>
+      <c r="F450" s="83"/>
     </row>
     <row r="451" spans="1:6" ht="18" thickBot="1">
       <c r="C451" s="37" t="s">
@@ -11881,28 +11901,28 @@
       <c r="B459" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C459" s="105" t="s">
+      <c r="C459" s="87" t="s">
         <v>479</v>
       </c>
-      <c r="D459" s="106"/>
-      <c r="E459" s="106"/>
-      <c r="F459" s="107"/>
+      <c r="D459" s="88"/>
+      <c r="E459" s="88"/>
+      <c r="F459" s="89"/>
     </row>
     <row r="460" spans="1:6" ht="18" thickBot="1">
-      <c r="C460" s="77" t="s">
+      <c r="C460" s="84" t="s">
         <v>481</v>
       </c>
-      <c r="D460" s="78"/>
-      <c r="E460" s="78"/>
-      <c r="F460" s="79"/>
+      <c r="D460" s="85"/>
+      <c r="E460" s="85"/>
+      <c r="F460" s="86"/>
     </row>
     <row r="461" spans="1:6" ht="27" thickBot="1">
-      <c r="C461" s="80" t="s">
+      <c r="C461" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D461" s="81"/>
-      <c r="E461" s="81"/>
-      <c r="F461" s="82"/>
+      <c r="D461" s="78"/>
+      <c r="E461" s="78"/>
+      <c r="F461" s="79"/>
     </row>
     <row r="462" spans="1:6" ht="18" thickBot="1">
       <c r="C462" s="33" t="s">
@@ -11943,12 +11963,12 @@
       <c r="F464" s="35"/>
     </row>
     <row r="465" spans="1:6" ht="27" thickBot="1">
-      <c r="C465" s="83" t="s">
+      <c r="C465" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D465" s="84"/>
-      <c r="E465" s="84"/>
-      <c r="F465" s="85"/>
+      <c r="D465" s="81"/>
+      <c r="E465" s="81"/>
+      <c r="F465" s="82"/>
     </row>
     <row r="466" spans="1:6" ht="18" thickBot="1">
       <c r="C466" s="37" t="s">
@@ -11993,12 +12013,12 @@
       </c>
     </row>
     <row r="469" spans="1:6" ht="27" thickBot="1">
-      <c r="C469" s="86" t="s">
+      <c r="C469" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D469" s="86"/>
-      <c r="E469" s="86"/>
-      <c r="F469" s="86"/>
+      <c r="D469" s="83"/>
+      <c r="E469" s="83"/>
+      <c r="F469" s="83"/>
     </row>
     <row r="470" spans="1:6" ht="18" thickBot="1">
       <c r="C470" s="37" t="s">
@@ -12074,28 +12094,28 @@
       <c r="B478" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C478" s="105" t="s">
+      <c r="C478" s="87" t="s">
         <v>485</v>
       </c>
-      <c r="D478" s="106"/>
-      <c r="E478" s="106"/>
-      <c r="F478" s="107"/>
+      <c r="D478" s="88"/>
+      <c r="E478" s="88"/>
+      <c r="F478" s="89"/>
     </row>
     <row r="479" spans="1:6" ht="18" thickBot="1">
-      <c r="C479" s="77" t="s">
+      <c r="C479" s="84" t="s">
         <v>486</v>
       </c>
-      <c r="D479" s="78"/>
-      <c r="E479" s="78"/>
-      <c r="F479" s="79"/>
+      <c r="D479" s="85"/>
+      <c r="E479" s="85"/>
+      <c r="F479" s="86"/>
     </row>
     <row r="480" spans="1:6" ht="27" thickBot="1">
-      <c r="C480" s="80" t="s">
+      <c r="C480" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D480" s="81"/>
-      <c r="E480" s="81"/>
-      <c r="F480" s="82"/>
+      <c r="D480" s="78"/>
+      <c r="E480" s="78"/>
+      <c r="F480" s="79"/>
     </row>
     <row r="481" spans="1:6" ht="18" thickBot="1">
       <c r="C481" s="33" t="s">
@@ -12136,12 +12156,12 @@
       <c r="F483" s="35"/>
     </row>
     <row r="484" spans="1:6" ht="27" thickBot="1">
-      <c r="C484" s="83" t="s">
+      <c r="C484" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D484" s="84"/>
-      <c r="E484" s="84"/>
-      <c r="F484" s="85"/>
+      <c r="D484" s="81"/>
+      <c r="E484" s="81"/>
+      <c r="F484" s="82"/>
     </row>
     <row r="485" spans="1:6" ht="18" thickBot="1">
       <c r="C485" s="37" t="s">
@@ -12186,12 +12206,12 @@
       </c>
     </row>
     <row r="488" spans="1:6" ht="27" thickBot="1">
-      <c r="C488" s="86" t="s">
+      <c r="C488" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D488" s="86"/>
-      <c r="E488" s="86"/>
-      <c r="F488" s="86"/>
+      <c r="D488" s="83"/>
+      <c r="E488" s="83"/>
+      <c r="F488" s="83"/>
     </row>
     <row r="489" spans="1:6" ht="18" thickBot="1">
       <c r="C489" s="37" t="s">
@@ -12274,28 +12294,28 @@
       <c r="B497" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="C497" s="102" t="s">
+      <c r="C497" s="90" t="s">
         <v>487</v>
       </c>
-      <c r="D497" s="103"/>
-      <c r="E497" s="103"/>
-      <c r="F497" s="104"/>
+      <c r="D497" s="91"/>
+      <c r="E497" s="91"/>
+      <c r="F497" s="92"/>
     </row>
     <row r="498" spans="1:6" ht="18" thickBot="1">
-      <c r="C498" s="77" t="s">
+      <c r="C498" s="84" t="s">
         <v>488</v>
       </c>
-      <c r="D498" s="78"/>
-      <c r="E498" s="78"/>
-      <c r="F498" s="79"/>
+      <c r="D498" s="85"/>
+      <c r="E498" s="85"/>
+      <c r="F498" s="86"/>
     </row>
     <row r="499" spans="1:6" ht="27" thickBot="1">
-      <c r="C499" s="80" t="s">
+      <c r="C499" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D499" s="81"/>
-      <c r="E499" s="81"/>
-      <c r="F499" s="82"/>
+      <c r="D499" s="78"/>
+      <c r="E499" s="78"/>
+      <c r="F499" s="79"/>
     </row>
     <row r="500" spans="1:6" ht="18" thickBot="1">
       <c r="C500" s="33" t="s">
@@ -12336,12 +12356,12 @@
       <c r="F502" s="35"/>
     </row>
     <row r="503" spans="1:6" ht="27" thickBot="1">
-      <c r="C503" s="83" t="s">
+      <c r="C503" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D503" s="84"/>
-      <c r="E503" s="84"/>
-      <c r="F503" s="85"/>
+      <c r="D503" s="81"/>
+      <c r="E503" s="81"/>
+      <c r="F503" s="82"/>
     </row>
     <row r="504" spans="1:6" ht="18" thickBot="1">
       <c r="C504" s="37" t="s">
@@ -12364,12 +12384,12 @@
       <c r="F505" s="38"/>
     </row>
     <row r="506" spans="1:6" ht="27" thickBot="1">
-      <c r="C506" s="86" t="s">
+      <c r="C506" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D506" s="86"/>
-      <c r="E506" s="86"/>
-      <c r="F506" s="86"/>
+      <c r="D506" s="83"/>
+      <c r="E506" s="83"/>
+      <c r="F506" s="83"/>
     </row>
     <row r="507" spans="1:6" ht="18" thickBot="1">
       <c r="C507" s="37" t="s">
@@ -12445,28 +12465,28 @@
       <c r="B515" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="C515" s="102" t="s">
+      <c r="C515" s="90" t="s">
         <v>489</v>
       </c>
-      <c r="D515" s="103"/>
-      <c r="E515" s="103"/>
-      <c r="F515" s="104"/>
+      <c r="D515" s="91"/>
+      <c r="E515" s="91"/>
+      <c r="F515" s="92"/>
     </row>
     <row r="516" spans="1:6" ht="18" thickBot="1">
-      <c r="C516" s="77" t="s">
+      <c r="C516" s="84" t="s">
         <v>490</v>
       </c>
-      <c r="D516" s="78"/>
-      <c r="E516" s="78"/>
-      <c r="F516" s="79"/>
+      <c r="D516" s="85"/>
+      <c r="E516" s="85"/>
+      <c r="F516" s="86"/>
     </row>
     <row r="517" spans="1:6" ht="27" thickBot="1">
-      <c r="C517" s="80" t="s">
+      <c r="C517" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D517" s="81"/>
-      <c r="E517" s="81"/>
-      <c r="F517" s="82"/>
+      <c r="D517" s="78"/>
+      <c r="E517" s="78"/>
+      <c r="F517" s="79"/>
     </row>
     <row r="518" spans="1:6" ht="18" thickBot="1">
       <c r="C518" s="33" t="s">
@@ -12507,12 +12527,12 @@
       <c r="F520" s="35"/>
     </row>
     <row r="521" spans="1:6" ht="27" thickBot="1">
-      <c r="C521" s="83" t="s">
+      <c r="C521" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D521" s="84"/>
-      <c r="E521" s="84"/>
-      <c r="F521" s="85"/>
+      <c r="D521" s="81"/>
+      <c r="E521" s="81"/>
+      <c r="F521" s="82"/>
     </row>
     <row r="522" spans="1:6" ht="18" thickBot="1">
       <c r="C522" s="37" t="s">
@@ -12543,12 +12563,12 @@
       </c>
     </row>
     <row r="524" spans="1:6" ht="27" thickBot="1">
-      <c r="C524" s="86" t="s">
+      <c r="C524" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D524" s="86"/>
-      <c r="E524" s="86"/>
-      <c r="F524" s="86"/>
+      <c r="D524" s="83"/>
+      <c r="E524" s="83"/>
+      <c r="F524" s="83"/>
     </row>
     <row r="525" spans="1:6" ht="18" thickBot="1">
       <c r="C525" s="37" t="s">
@@ -12624,28 +12644,28 @@
       <c r="B533" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="C533" s="102" t="s">
+      <c r="C533" s="90" t="s">
         <v>493</v>
       </c>
-      <c r="D533" s="103"/>
-      <c r="E533" s="103"/>
-      <c r="F533" s="104"/>
+      <c r="D533" s="91"/>
+      <c r="E533" s="91"/>
+      <c r="F533" s="92"/>
     </row>
     <row r="534" spans="1:6" ht="18" thickBot="1">
-      <c r="C534" s="77" t="s">
+      <c r="C534" s="84" t="s">
         <v>494</v>
       </c>
-      <c r="D534" s="78"/>
-      <c r="E534" s="78"/>
-      <c r="F534" s="79"/>
+      <c r="D534" s="85"/>
+      <c r="E534" s="85"/>
+      <c r="F534" s="86"/>
     </row>
     <row r="535" spans="1:6" ht="27" thickBot="1">
-      <c r="C535" s="80" t="s">
+      <c r="C535" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D535" s="81"/>
-      <c r="E535" s="81"/>
-      <c r="F535" s="82"/>
+      <c r="D535" s="78"/>
+      <c r="E535" s="78"/>
+      <c r="F535" s="79"/>
     </row>
     <row r="536" spans="1:6" ht="18" thickBot="1">
       <c r="C536" s="33" t="s">
@@ -12686,12 +12706,12 @@
       <c r="F538" s="35"/>
     </row>
     <row r="539" spans="1:6" ht="27" thickBot="1">
-      <c r="C539" s="83" t="s">
+      <c r="C539" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D539" s="84"/>
-      <c r="E539" s="84"/>
-      <c r="F539" s="85"/>
+      <c r="D539" s="81"/>
+      <c r="E539" s="81"/>
+      <c r="F539" s="82"/>
     </row>
     <row r="540" spans="1:6" ht="18" thickBot="1">
       <c r="C540" s="37" t="s">
@@ -12738,12 +12758,12 @@
       </c>
     </row>
     <row r="543" spans="1:6" ht="27" thickBot="1">
-      <c r="C543" s="86" t="s">
+      <c r="C543" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D543" s="86"/>
-      <c r="E543" s="86"/>
-      <c r="F543" s="86"/>
+      <c r="D543" s="83"/>
+      <c r="E543" s="83"/>
+      <c r="F543" s="83"/>
     </row>
     <row r="544" spans="1:6" ht="18" thickBot="1">
       <c r="C544" s="37" t="s">
@@ -12819,28 +12839,28 @@
       <c r="B552" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="C552" s="102" t="s">
+      <c r="C552" s="90" t="s">
         <v>495</v>
       </c>
-      <c r="D552" s="103"/>
-      <c r="E552" s="103"/>
-      <c r="F552" s="104"/>
+      <c r="D552" s="91"/>
+      <c r="E552" s="91"/>
+      <c r="F552" s="92"/>
     </row>
     <row r="553" spans="1:6" ht="18" thickBot="1">
-      <c r="C553" s="77" t="s">
+      <c r="C553" s="84" t="s">
         <v>496</v>
       </c>
-      <c r="D553" s="78"/>
-      <c r="E553" s="78"/>
-      <c r="F553" s="79"/>
+      <c r="D553" s="85"/>
+      <c r="E553" s="85"/>
+      <c r="F553" s="86"/>
     </row>
     <row r="554" spans="1:6" ht="27" thickBot="1">
-      <c r="C554" s="80" t="s">
+      <c r="C554" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D554" s="81"/>
-      <c r="E554" s="81"/>
-      <c r="F554" s="82"/>
+      <c r="D554" s="78"/>
+      <c r="E554" s="78"/>
+      <c r="F554" s="79"/>
     </row>
     <row r="555" spans="1:6" ht="18" thickBot="1">
       <c r="C555" s="33" t="s">
@@ -12881,12 +12901,12 @@
       <c r="F557" s="35"/>
     </row>
     <row r="558" spans="1:6" ht="27" thickBot="1">
-      <c r="C558" s="83" t="s">
+      <c r="C558" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D558" s="84"/>
-      <c r="E558" s="84"/>
-      <c r="F558" s="85"/>
+      <c r="D558" s="81"/>
+      <c r="E558" s="81"/>
+      <c r="F558" s="82"/>
     </row>
     <row r="559" spans="1:6" ht="18" thickBot="1">
       <c r="C559" s="37" t="s">
@@ -12931,12 +12951,12 @@
       </c>
     </row>
     <row r="562" spans="1:6" ht="27" thickBot="1">
-      <c r="C562" s="86" t="s">
+      <c r="C562" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D562" s="86"/>
-      <c r="E562" s="86"/>
-      <c r="F562" s="86"/>
+      <c r="D562" s="83"/>
+      <c r="E562" s="83"/>
+      <c r="F562" s="83"/>
     </row>
     <row r="563" spans="1:6" ht="18" thickBot="1">
       <c r="C563" s="37" t="s">
@@ -13012,28 +13032,28 @@
       <c r="B571" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="C571" s="99" t="s">
+      <c r="C571" s="93" t="s">
         <v>497</v>
       </c>
-      <c r="D571" s="100"/>
-      <c r="E571" s="100"/>
-      <c r="F571" s="101"/>
+      <c r="D571" s="94"/>
+      <c r="E571" s="94"/>
+      <c r="F571" s="95"/>
     </row>
     <row r="572" spans="1:6" ht="18" thickBot="1">
-      <c r="C572" s="77" t="s">
+      <c r="C572" s="84" t="s">
         <v>172</v>
       </c>
-      <c r="D572" s="78"/>
-      <c r="E572" s="78"/>
-      <c r="F572" s="79"/>
+      <c r="D572" s="85"/>
+      <c r="E572" s="85"/>
+      <c r="F572" s="86"/>
     </row>
     <row r="573" spans="1:6" ht="27" thickBot="1">
-      <c r="C573" s="80" t="s">
+      <c r="C573" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D573" s="81"/>
-      <c r="E573" s="81"/>
-      <c r="F573" s="82"/>
+      <c r="D573" s="78"/>
+      <c r="E573" s="78"/>
+      <c r="F573" s="79"/>
     </row>
     <row r="574" spans="1:6" ht="18" thickBot="1">
       <c r="C574" s="33" t="s">
@@ -13074,12 +13094,12 @@
       <c r="F576" s="35"/>
     </row>
     <row r="577" spans="1:6" ht="27" thickBot="1">
-      <c r="C577" s="83" t="s">
+      <c r="C577" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D577" s="84"/>
-      <c r="E577" s="84"/>
-      <c r="F577" s="85"/>
+      <c r="D577" s="81"/>
+      <c r="E577" s="81"/>
+      <c r="F577" s="82"/>
     </row>
     <row r="578" spans="1:6" ht="18" thickBot="1">
       <c r="C578" s="37" t="s">
@@ -13124,12 +13144,12 @@
       </c>
     </row>
     <row r="581" spans="1:6" ht="27" thickBot="1">
-      <c r="C581" s="86" t="s">
+      <c r="C581" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D581" s="86"/>
-      <c r="E581" s="86"/>
-      <c r="F581" s="86"/>
+      <c r="D581" s="83"/>
+      <c r="E581" s="83"/>
+      <c r="F581" s="83"/>
     </row>
     <row r="582" spans="1:6" ht="18" thickBot="1">
       <c r="C582" s="37" t="s">
@@ -13205,28 +13225,28 @@
       <c r="B590" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="C590" s="99" t="s">
+      <c r="C590" s="93" t="s">
         <v>498</v>
       </c>
-      <c r="D590" s="100"/>
-      <c r="E590" s="100"/>
-      <c r="F590" s="101"/>
+      <c r="D590" s="94"/>
+      <c r="E590" s="94"/>
+      <c r="F590" s="95"/>
     </row>
     <row r="591" spans="1:6" ht="18" thickBot="1">
-      <c r="C591" s="77" t="s">
+      <c r="C591" s="84" t="s">
         <v>499</v>
       </c>
-      <c r="D591" s="78"/>
-      <c r="E591" s="78"/>
-      <c r="F591" s="79"/>
+      <c r="D591" s="85"/>
+      <c r="E591" s="85"/>
+      <c r="F591" s="86"/>
     </row>
     <row r="592" spans="1:6" ht="27" thickBot="1">
-      <c r="C592" s="80" t="s">
+      <c r="C592" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D592" s="81"/>
-      <c r="E592" s="81"/>
-      <c r="F592" s="82"/>
+      <c r="D592" s="78"/>
+      <c r="E592" s="78"/>
+      <c r="F592" s="79"/>
     </row>
     <row r="593" spans="3:6" ht="18" thickBot="1">
       <c r="C593" s="33" t="s">
@@ -13267,12 +13287,12 @@
       <c r="F595" s="35"/>
     </row>
     <row r="596" spans="3:6" ht="27" thickBot="1">
-      <c r="C596" s="83" t="s">
+      <c r="C596" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D596" s="84"/>
-      <c r="E596" s="84"/>
-      <c r="F596" s="85"/>
+      <c r="D596" s="81"/>
+      <c r="E596" s="81"/>
+      <c r="F596" s="82"/>
     </row>
     <row r="597" spans="3:6" ht="18" thickBot="1">
       <c r="C597" s="37" t="s">
@@ -13309,12 +13329,12 @@
       <c r="F599" s="38"/>
     </row>
     <row r="600" spans="3:6" ht="27" thickBot="1">
-      <c r="C600" s="86" t="s">
+      <c r="C600" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D600" s="86"/>
-      <c r="E600" s="86"/>
-      <c r="F600" s="86"/>
+      <c r="D600" s="83"/>
+      <c r="E600" s="83"/>
+      <c r="F600" s="83"/>
     </row>
     <row r="601" spans="3:6" ht="18" thickBot="1">
       <c r="C601" s="37" t="s">
@@ -13390,28 +13410,28 @@
       <c r="B609" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="C609" s="99" t="s">
+      <c r="C609" s="93" t="s">
         <v>500</v>
       </c>
-      <c r="D609" s="100"/>
-      <c r="E609" s="100"/>
-      <c r="F609" s="101"/>
+      <c r="D609" s="94"/>
+      <c r="E609" s="94"/>
+      <c r="F609" s="95"/>
     </row>
     <row r="610" spans="1:6" ht="18" thickBot="1">
-      <c r="C610" s="77" t="s">
+      <c r="C610" s="84" t="s">
         <v>501</v>
       </c>
-      <c r="D610" s="78"/>
-      <c r="E610" s="78"/>
-      <c r="F610" s="79"/>
+      <c r="D610" s="85"/>
+      <c r="E610" s="85"/>
+      <c r="F610" s="86"/>
     </row>
     <row r="611" spans="1:6" ht="27" thickBot="1">
-      <c r="C611" s="80" t="s">
+      <c r="C611" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D611" s="81"/>
-      <c r="E611" s="81"/>
-      <c r="F611" s="82"/>
+      <c r="D611" s="78"/>
+      <c r="E611" s="78"/>
+      <c r="F611" s="79"/>
     </row>
     <row r="612" spans="1:6" ht="18" thickBot="1">
       <c r="C612" s="33" t="s">
@@ -13452,12 +13472,12 @@
       <c r="F614" s="35"/>
     </row>
     <row r="615" spans="1:6" ht="27" thickBot="1">
-      <c r="C615" s="83" t="s">
+      <c r="C615" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D615" s="84"/>
-      <c r="E615" s="84"/>
-      <c r="F615" s="85"/>
+      <c r="D615" s="81"/>
+      <c r="E615" s="81"/>
+      <c r="F615" s="82"/>
     </row>
     <row r="616" spans="1:6" ht="18" thickBot="1">
       <c r="C616" s="37" t="s">
@@ -13502,12 +13522,12 @@
       </c>
     </row>
     <row r="619" spans="1:6" ht="27" thickBot="1">
-      <c r="C619" s="86" t="s">
+      <c r="C619" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D619" s="86"/>
-      <c r="E619" s="86"/>
-      <c r="F619" s="86"/>
+      <c r="D619" s="83"/>
+      <c r="E619" s="83"/>
+      <c r="F619" s="83"/>
     </row>
     <row r="620" spans="1:6" ht="18" thickBot="1">
       <c r="C620" s="37" t="s">
@@ -13591,20 +13611,20 @@
       <c r="F628" s="98"/>
     </row>
     <row r="629" spans="1:6" ht="18" thickBot="1">
-      <c r="C629" s="77" t="s">
+      <c r="C629" s="84" t="s">
         <v>505</v>
       </c>
-      <c r="D629" s="78"/>
-      <c r="E629" s="78"/>
-      <c r="F629" s="79"/>
+      <c r="D629" s="85"/>
+      <c r="E629" s="85"/>
+      <c r="F629" s="86"/>
     </row>
     <row r="630" spans="1:6" ht="27" thickBot="1">
-      <c r="C630" s="80" t="s">
+      <c r="C630" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D630" s="81"/>
-      <c r="E630" s="81"/>
-      <c r="F630" s="82"/>
+      <c r="D630" s="78"/>
+      <c r="E630" s="78"/>
+      <c r="F630" s="79"/>
     </row>
     <row r="631" spans="1:6" ht="18" thickBot="1">
       <c r="C631" s="33" t="s">
@@ -13645,12 +13665,12 @@
       <c r="F633" s="35"/>
     </row>
     <row r="634" spans="1:6" ht="27" thickBot="1">
-      <c r="C634" s="83" t="s">
+      <c r="C634" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D634" s="84"/>
-      <c r="E634" s="84"/>
-      <c r="F634" s="85"/>
+      <c r="D634" s="81"/>
+      <c r="E634" s="81"/>
+      <c r="F634" s="82"/>
     </row>
     <row r="635" spans="1:6" ht="18" thickBot="1">
       <c r="C635" s="37" t="s">
@@ -13687,12 +13707,12 @@
       <c r="F637" s="38"/>
     </row>
     <row r="638" spans="1:6" ht="27" thickBot="1">
-      <c r="C638" s="86" t="s">
+      <c r="C638" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D638" s="86"/>
-      <c r="E638" s="86"/>
-      <c r="F638" s="86"/>
+      <c r="D638" s="83"/>
+      <c r="E638" s="83"/>
+      <c r="F638" s="83"/>
     </row>
     <row r="639" spans="1:6" ht="18" thickBot="1">
       <c r="C639" s="37" t="s">
@@ -13776,20 +13796,20 @@
       <c r="F647" s="98"/>
     </row>
     <row r="648" spans="1:6" ht="18" thickBot="1">
-      <c r="C648" s="77" t="s">
+      <c r="C648" s="84" t="s">
         <v>507</v>
       </c>
-      <c r="D648" s="78"/>
-      <c r="E648" s="78"/>
-      <c r="F648" s="79"/>
+      <c r="D648" s="85"/>
+      <c r="E648" s="85"/>
+      <c r="F648" s="86"/>
     </row>
     <row r="649" spans="1:6" ht="27" thickBot="1">
-      <c r="C649" s="80" t="s">
+      <c r="C649" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D649" s="81"/>
-      <c r="E649" s="81"/>
-      <c r="F649" s="82"/>
+      <c r="D649" s="78"/>
+      <c r="E649" s="78"/>
+      <c r="F649" s="79"/>
     </row>
     <row r="650" spans="1:6" ht="18" thickBot="1">
       <c r="C650" s="33" t="s">
@@ -13830,12 +13850,12 @@
       <c r="F652" s="35"/>
     </row>
     <row r="653" spans="1:6" ht="27" thickBot="1">
-      <c r="C653" s="83" t="s">
+      <c r="C653" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D653" s="84"/>
-      <c r="E653" s="84"/>
-      <c r="F653" s="85"/>
+      <c r="D653" s="81"/>
+      <c r="E653" s="81"/>
+      <c r="F653" s="82"/>
     </row>
     <row r="654" spans="1:6" ht="18" thickBot="1">
       <c r="C654" s="37" t="s">
@@ -13880,12 +13900,12 @@
       </c>
     </row>
     <row r="657" spans="1:6" ht="27" thickBot="1">
-      <c r="C657" s="86" t="s">
+      <c r="C657" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D657" s="86"/>
-      <c r="E657" s="86"/>
-      <c r="F657" s="86"/>
+      <c r="D657" s="83"/>
+      <c r="E657" s="83"/>
+      <c r="F657" s="83"/>
     </row>
     <row r="658" spans="1:6" ht="18" thickBot="1">
       <c r="C658" s="37" t="s">
@@ -13969,20 +13989,20 @@
       <c r="F666" s="98"/>
     </row>
     <row r="667" spans="1:6" ht="18" thickBot="1">
-      <c r="C667" s="77" t="s">
+      <c r="C667" s="84" t="s">
         <v>511</v>
       </c>
-      <c r="D667" s="78"/>
-      <c r="E667" s="78"/>
-      <c r="F667" s="79"/>
+      <c r="D667" s="85"/>
+      <c r="E667" s="85"/>
+      <c r="F667" s="86"/>
     </row>
     <row r="668" spans="1:6" ht="27" thickBot="1">
-      <c r="C668" s="80" t="s">
+      <c r="C668" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D668" s="81"/>
-      <c r="E668" s="81"/>
-      <c r="F668" s="82"/>
+      <c r="D668" s="78"/>
+      <c r="E668" s="78"/>
+      <c r="F668" s="79"/>
     </row>
     <row r="669" spans="1:6" ht="18" thickBot="1">
       <c r="C669" s="33" t="s">
@@ -14023,12 +14043,12 @@
       <c r="F671" s="35"/>
     </row>
     <row r="672" spans="1:6" ht="27" thickBot="1">
-      <c r="C672" s="83" t="s">
+      <c r="C672" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D672" s="84"/>
-      <c r="E672" s="84"/>
-      <c r="F672" s="85"/>
+      <c r="D672" s="81"/>
+      <c r="E672" s="81"/>
+      <c r="F672" s="82"/>
     </row>
     <row r="673" spans="1:6" ht="18" thickBot="1">
       <c r="C673" s="37" t="s">
@@ -14089,12 +14109,12 @@
       </c>
     </row>
     <row r="677" spans="1:6" ht="27" thickBot="1">
-      <c r="C677" s="86" t="s">
+      <c r="C677" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D677" s="86"/>
-      <c r="E677" s="86"/>
-      <c r="F677" s="86"/>
+      <c r="D677" s="83"/>
+      <c r="E677" s="83"/>
+      <c r="F677" s="83"/>
     </row>
     <row r="678" spans="1:6" ht="18" thickBot="1">
       <c r="C678" s="37" t="s">
@@ -14178,20 +14198,20 @@
       <c r="F686" s="98"/>
     </row>
     <row r="687" spans="1:6" ht="18" thickBot="1">
-      <c r="C687" s="77" t="s">
+      <c r="C687" s="84" t="s">
         <v>514</v>
       </c>
-      <c r="D687" s="78"/>
-      <c r="E687" s="78"/>
-      <c r="F687" s="79"/>
+      <c r="D687" s="85"/>
+      <c r="E687" s="85"/>
+      <c r="F687" s="86"/>
     </row>
     <row r="688" spans="1:6" ht="27" thickBot="1">
-      <c r="C688" s="80" t="s">
+      <c r="C688" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D688" s="81"/>
-      <c r="E688" s="81"/>
-      <c r="F688" s="82"/>
+      <c r="D688" s="78"/>
+      <c r="E688" s="78"/>
+      <c r="F688" s="79"/>
     </row>
     <row r="689" spans="3:6" ht="18" thickBot="1">
       <c r="C689" s="33" t="s">
@@ -14232,12 +14252,12 @@
       <c r="F691" s="35"/>
     </row>
     <row r="692" spans="3:6" ht="27" thickBot="1">
-      <c r="C692" s="83" t="s">
+      <c r="C692" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D692" s="84"/>
-      <c r="E692" s="84"/>
-      <c r="F692" s="85"/>
+      <c r="D692" s="81"/>
+      <c r="E692" s="81"/>
+      <c r="F692" s="82"/>
     </row>
     <row r="693" spans="3:6" ht="18" thickBot="1">
       <c r="C693" s="37" t="s">
@@ -14288,12 +14308,12 @@
       <c r="F696" s="38"/>
     </row>
     <row r="697" spans="3:6" ht="27" thickBot="1">
-      <c r="C697" s="86" t="s">
+      <c r="C697" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D697" s="86"/>
-      <c r="E697" s="86"/>
-      <c r="F697" s="86"/>
+      <c r="D697" s="83"/>
+      <c r="E697" s="83"/>
+      <c r="F697" s="83"/>
     </row>
     <row r="698" spans="3:6" ht="18" thickBot="1">
       <c r="C698" s="37" t="s">
@@ -14369,28 +14389,28 @@
       <c r="B706" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="C706" s="93" t="s">
+      <c r="C706" s="99" t="s">
         <v>517</v>
       </c>
-      <c r="D706" s="94"/>
-      <c r="E706" s="94"/>
-      <c r="F706" s="95"/>
+      <c r="D706" s="100"/>
+      <c r="E706" s="100"/>
+      <c r="F706" s="101"/>
     </row>
     <row r="707" spans="1:6" ht="18" thickBot="1">
-      <c r="C707" s="77" t="s">
+      <c r="C707" s="84" t="s">
         <v>518</v>
       </c>
-      <c r="D707" s="78"/>
-      <c r="E707" s="78"/>
-      <c r="F707" s="79"/>
+      <c r="D707" s="85"/>
+      <c r="E707" s="85"/>
+      <c r="F707" s="86"/>
     </row>
     <row r="708" spans="1:6" ht="27" thickBot="1">
-      <c r="C708" s="80" t="s">
+      <c r="C708" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D708" s="81"/>
-      <c r="E708" s="81"/>
-      <c r="F708" s="82"/>
+      <c r="D708" s="78"/>
+      <c r="E708" s="78"/>
+      <c r="F708" s="79"/>
     </row>
     <row r="709" spans="1:6" ht="18" thickBot="1">
       <c r="C709" s="33" t="s">
@@ -14431,12 +14451,12 @@
       <c r="F711" s="35"/>
     </row>
     <row r="712" spans="1:6" ht="27" thickBot="1">
-      <c r="C712" s="83" t="s">
+      <c r="C712" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D712" s="84"/>
-      <c r="E712" s="84"/>
-      <c r="F712" s="85"/>
+      <c r="D712" s="81"/>
+      <c r="E712" s="81"/>
+      <c r="F712" s="82"/>
     </row>
     <row r="713" spans="1:6" ht="18" thickBot="1">
       <c r="C713" s="37" t="s">
@@ -14481,12 +14501,12 @@
       </c>
     </row>
     <row r="716" spans="1:6" ht="27" thickBot="1">
-      <c r="C716" s="86" t="s">
+      <c r="C716" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D716" s="86"/>
-      <c r="E716" s="86"/>
-      <c r="F716" s="86"/>
+      <c r="D716" s="83"/>
+      <c r="E716" s="83"/>
+      <c r="F716" s="83"/>
     </row>
     <row r="717" spans="1:6" ht="18" thickBot="1">
       <c r="C717" s="37" t="s">
@@ -14562,28 +14582,28 @@
       <c r="B725" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="C725" s="93" t="s">
+      <c r="C725" s="99" t="s">
         <v>519</v>
       </c>
-      <c r="D725" s="94"/>
-      <c r="E725" s="94"/>
-      <c r="F725" s="95"/>
+      <c r="D725" s="100"/>
+      <c r="E725" s="100"/>
+      <c r="F725" s="101"/>
     </row>
     <row r="726" spans="1:6" ht="18" thickBot="1">
-      <c r="C726" s="77" t="s">
+      <c r="C726" s="84" t="s">
         <v>520</v>
       </c>
-      <c r="D726" s="78"/>
-      <c r="E726" s="78"/>
-      <c r="F726" s="79"/>
+      <c r="D726" s="85"/>
+      <c r="E726" s="85"/>
+      <c r="F726" s="86"/>
     </row>
     <row r="727" spans="1:6" ht="27" thickBot="1">
-      <c r="C727" s="80" t="s">
+      <c r="C727" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D727" s="81"/>
-      <c r="E727" s="81"/>
-      <c r="F727" s="82"/>
+      <c r="D727" s="78"/>
+      <c r="E727" s="78"/>
+      <c r="F727" s="79"/>
     </row>
     <row r="728" spans="1:6" ht="18" thickBot="1">
       <c r="C728" s="33" t="s">
@@ -14624,12 +14644,12 @@
       <c r="F730" s="35"/>
     </row>
     <row r="731" spans="1:6" ht="27" thickBot="1">
-      <c r="C731" s="83" t="s">
+      <c r="C731" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D731" s="84"/>
-      <c r="E731" s="84"/>
-      <c r="F731" s="85"/>
+      <c r="D731" s="81"/>
+      <c r="E731" s="81"/>
+      <c r="F731" s="82"/>
     </row>
     <row r="732" spans="1:6" ht="18" thickBot="1">
       <c r="C732" s="37" t="s">
@@ -14674,12 +14694,12 @@
       </c>
     </row>
     <row r="735" spans="1:6" ht="27" thickBot="1">
-      <c r="C735" s="86" t="s">
+      <c r="C735" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D735" s="86"/>
-      <c r="E735" s="86"/>
-      <c r="F735" s="86"/>
+      <c r="D735" s="83"/>
+      <c r="E735" s="83"/>
+      <c r="F735" s="83"/>
     </row>
     <row r="736" spans="1:6" ht="18" thickBot="1">
       <c r="C736" s="37" t="s">
@@ -14755,28 +14775,28 @@
       <c r="B744" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="C744" s="93" t="s">
+      <c r="C744" s="99" t="s">
         <v>521</v>
       </c>
-      <c r="D744" s="94"/>
-      <c r="E744" s="94"/>
-      <c r="F744" s="95"/>
+      <c r="D744" s="100"/>
+      <c r="E744" s="100"/>
+      <c r="F744" s="101"/>
     </row>
     <row r="745" spans="1:6" ht="18" thickBot="1">
-      <c r="C745" s="77" t="s">
+      <c r="C745" s="84" t="s">
         <v>522</v>
       </c>
-      <c r="D745" s="78"/>
-      <c r="E745" s="78"/>
-      <c r="F745" s="79"/>
+      <c r="D745" s="85"/>
+      <c r="E745" s="85"/>
+      <c r="F745" s="86"/>
     </row>
     <row r="746" spans="1:6" ht="27" thickBot="1">
-      <c r="C746" s="80" t="s">
+      <c r="C746" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D746" s="81"/>
-      <c r="E746" s="81"/>
-      <c r="F746" s="82"/>
+      <c r="D746" s="78"/>
+      <c r="E746" s="78"/>
+      <c r="F746" s="79"/>
     </row>
     <row r="747" spans="1:6" ht="18" thickBot="1">
       <c r="C747" s="33" t="s">
@@ -14817,12 +14837,12 @@
       <c r="F749" s="35"/>
     </row>
     <row r="750" spans="1:6" ht="27" thickBot="1">
-      <c r="C750" s="83" t="s">
+      <c r="C750" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D750" s="84"/>
-      <c r="E750" s="84"/>
-      <c r="F750" s="85"/>
+      <c r="D750" s="81"/>
+      <c r="E750" s="81"/>
+      <c r="F750" s="82"/>
     </row>
     <row r="751" spans="1:6" ht="18" thickBot="1">
       <c r="C751" s="37" t="s">
@@ -14867,12 +14887,12 @@
       </c>
     </row>
     <row r="754" spans="1:6" ht="27" thickBot="1">
-      <c r="C754" s="86" t="s">
+      <c r="C754" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D754" s="86"/>
-      <c r="E754" s="86"/>
-      <c r="F754" s="86"/>
+      <c r="D754" s="83"/>
+      <c r="E754" s="83"/>
+      <c r="F754" s="83"/>
     </row>
     <row r="755" spans="1:6" ht="18" thickBot="1">
       <c r="C755" s="37" t="s">
@@ -14948,28 +14968,28 @@
       <c r="B763" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="C763" s="93" t="s">
+      <c r="C763" s="99" t="s">
         <v>525</v>
       </c>
-      <c r="D763" s="94"/>
-      <c r="E763" s="94"/>
-      <c r="F763" s="95"/>
+      <c r="D763" s="100"/>
+      <c r="E763" s="100"/>
+      <c r="F763" s="101"/>
     </row>
     <row r="764" spans="1:6" ht="18" thickBot="1">
-      <c r="C764" s="77" t="s">
+      <c r="C764" s="84" t="s">
         <v>176</v>
       </c>
-      <c r="D764" s="78"/>
-      <c r="E764" s="78"/>
-      <c r="F764" s="79"/>
+      <c r="D764" s="85"/>
+      <c r="E764" s="85"/>
+      <c r="F764" s="86"/>
     </row>
     <row r="765" spans="1:6" ht="27" thickBot="1">
-      <c r="C765" s="80" t="s">
+      <c r="C765" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D765" s="81"/>
-      <c r="E765" s="81"/>
-      <c r="F765" s="82"/>
+      <c r="D765" s="78"/>
+      <c r="E765" s="78"/>
+      <c r="F765" s="79"/>
     </row>
     <row r="766" spans="1:6" ht="18" thickBot="1">
       <c r="C766" s="33" t="s">
@@ -15010,12 +15030,12 @@
       <c r="F768" s="35"/>
     </row>
     <row r="769" spans="1:6" ht="27" thickBot="1">
-      <c r="C769" s="83" t="s">
+      <c r="C769" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D769" s="84"/>
-      <c r="E769" s="84"/>
-      <c r="F769" s="85"/>
+      <c r="D769" s="81"/>
+      <c r="E769" s="81"/>
+      <c r="F769" s="82"/>
     </row>
     <row r="770" spans="1:6" ht="18" thickBot="1">
       <c r="C770" s="37" t="s">
@@ -15060,12 +15080,12 @@
       </c>
     </row>
     <row r="773" spans="1:6" ht="27" thickBot="1">
-      <c r="C773" s="86" t="s">
+      <c r="C773" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D773" s="86"/>
-      <c r="E773" s="86"/>
-      <c r="F773" s="86"/>
+      <c r="D773" s="83"/>
+      <c r="E773" s="83"/>
+      <c r="F773" s="83"/>
     </row>
     <row r="774" spans="1:6" ht="18" thickBot="1">
       <c r="C774" s="37" t="s">
@@ -15141,28 +15161,28 @@
       <c r="B782" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="C782" s="90" t="s">
+      <c r="C782" s="102" t="s">
         <v>526</v>
       </c>
-      <c r="D782" s="91"/>
-      <c r="E782" s="91"/>
-      <c r="F782" s="92"/>
+      <c r="D782" s="103"/>
+      <c r="E782" s="103"/>
+      <c r="F782" s="104"/>
     </row>
     <row r="783" spans="1:6" ht="18" thickBot="1">
-      <c r="C783" s="77" t="s">
+      <c r="C783" s="84" t="s">
         <v>527</v>
       </c>
-      <c r="D783" s="78"/>
-      <c r="E783" s="78"/>
-      <c r="F783" s="79"/>
+      <c r="D783" s="85"/>
+      <c r="E783" s="85"/>
+      <c r="F783" s="86"/>
     </row>
     <row r="784" spans="1:6" ht="27" thickBot="1">
-      <c r="C784" s="80" t="s">
+      <c r="C784" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D784" s="81"/>
-      <c r="E784" s="81"/>
-      <c r="F784" s="82"/>
+      <c r="D784" s="78"/>
+      <c r="E784" s="78"/>
+      <c r="F784" s="79"/>
     </row>
     <row r="785" spans="3:6" ht="18" thickBot="1">
       <c r="C785" s="33" t="s">
@@ -15203,12 +15223,12 @@
       <c r="F787" s="35"/>
     </row>
     <row r="788" spans="3:6" ht="27" thickBot="1">
-      <c r="C788" s="83" t="s">
+      <c r="C788" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D788" s="84"/>
-      <c r="E788" s="84"/>
-      <c r="F788" s="85"/>
+      <c r="D788" s="81"/>
+      <c r="E788" s="81"/>
+      <c r="F788" s="82"/>
     </row>
     <row r="789" spans="3:6" ht="18" thickBot="1">
       <c r="C789" s="37" t="s">
@@ -15245,12 +15265,12 @@
       <c r="F791" s="38"/>
     </row>
     <row r="792" spans="3:6" ht="27" thickBot="1">
-      <c r="C792" s="86" t="s">
+      <c r="C792" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D792" s="86"/>
-      <c r="E792" s="86"/>
-      <c r="F792" s="86"/>
+      <c r="D792" s="83"/>
+      <c r="E792" s="83"/>
+      <c r="F792" s="83"/>
     </row>
     <row r="793" spans="3:6" ht="18" thickBot="1">
       <c r="C793" s="37" t="s">
@@ -15326,28 +15346,28 @@
       <c r="B801" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="C801" s="90" t="s">
+      <c r="C801" s="102" t="s">
         <v>528</v>
       </c>
-      <c r="D801" s="91"/>
-      <c r="E801" s="91"/>
-      <c r="F801" s="92"/>
+      <c r="D801" s="103"/>
+      <c r="E801" s="103"/>
+      <c r="F801" s="104"/>
     </row>
     <row r="802" spans="1:6" ht="18" thickBot="1">
-      <c r="C802" s="77" t="s">
+      <c r="C802" s="84" t="s">
         <v>529</v>
       </c>
-      <c r="D802" s="78"/>
-      <c r="E802" s="78"/>
-      <c r="F802" s="79"/>
+      <c r="D802" s="85"/>
+      <c r="E802" s="85"/>
+      <c r="F802" s="86"/>
     </row>
     <row r="803" spans="1:6" ht="27" thickBot="1">
-      <c r="C803" s="80" t="s">
+      <c r="C803" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D803" s="81"/>
-      <c r="E803" s="81"/>
-      <c r="F803" s="82"/>
+      <c r="D803" s="78"/>
+      <c r="E803" s="78"/>
+      <c r="F803" s="79"/>
     </row>
     <row r="804" spans="1:6" ht="18" thickBot="1">
       <c r="C804" s="33" t="s">
@@ -15388,12 +15408,12 @@
       <c r="F806" s="35"/>
     </row>
     <row r="807" spans="1:6" ht="27" thickBot="1">
-      <c r="C807" s="83" t="s">
+      <c r="C807" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D807" s="84"/>
-      <c r="E807" s="84"/>
-      <c r="F807" s="85"/>
+      <c r="D807" s="81"/>
+      <c r="E807" s="81"/>
+      <c r="F807" s="82"/>
     </row>
     <row r="808" spans="1:6" ht="18" thickBot="1">
       <c r="C808" s="37" t="s">
@@ -15438,12 +15458,12 @@
       </c>
     </row>
     <row r="811" spans="1:6" ht="27" thickBot="1">
-      <c r="C811" s="86" t="s">
+      <c r="C811" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D811" s="86"/>
-      <c r="E811" s="86"/>
-      <c r="F811" s="86"/>
+      <c r="D811" s="83"/>
+      <c r="E811" s="83"/>
+      <c r="F811" s="83"/>
     </row>
     <row r="812" spans="1:6" ht="18" thickBot="1">
       <c r="C812" s="37" t="s">
@@ -15519,28 +15539,28 @@
       <c r="B820" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="C820" s="87" t="s">
+      <c r="C820" s="105" t="s">
         <v>532</v>
       </c>
-      <c r="D820" s="88"/>
-      <c r="E820" s="88"/>
-      <c r="F820" s="89"/>
+      <c r="D820" s="106"/>
+      <c r="E820" s="106"/>
+      <c r="F820" s="107"/>
     </row>
     <row r="821" spans="1:6" ht="18" thickBot="1">
-      <c r="C821" s="77" t="s">
+      <c r="C821" s="84" t="s">
         <v>533</v>
       </c>
-      <c r="D821" s="78"/>
-      <c r="E821" s="78"/>
-      <c r="F821" s="79"/>
+      <c r="D821" s="85"/>
+      <c r="E821" s="85"/>
+      <c r="F821" s="86"/>
     </row>
     <row r="822" spans="1:6" ht="27" thickBot="1">
-      <c r="C822" s="80" t="s">
+      <c r="C822" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D822" s="81"/>
-      <c r="E822" s="81"/>
-      <c r="F822" s="82"/>
+      <c r="D822" s="78"/>
+      <c r="E822" s="78"/>
+      <c r="F822" s="79"/>
     </row>
     <row r="823" spans="1:6" ht="18" thickBot="1">
       <c r="C823" s="33" t="s">
@@ -15581,12 +15601,12 @@
       <c r="F825" s="35"/>
     </row>
     <row r="826" spans="1:6" ht="27" thickBot="1">
-      <c r="C826" s="83" t="s">
+      <c r="C826" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D826" s="84"/>
-      <c r="E826" s="84"/>
-      <c r="F826" s="85"/>
+      <c r="D826" s="81"/>
+      <c r="E826" s="81"/>
+      <c r="F826" s="82"/>
     </row>
     <row r="827" spans="1:6" ht="18" thickBot="1">
       <c r="C827" s="37" t="s">
@@ -15623,12 +15643,12 @@
       <c r="F829" s="38"/>
     </row>
     <row r="830" spans="1:6" ht="27" thickBot="1">
-      <c r="C830" s="86" t="s">
+      <c r="C830" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D830" s="86"/>
-      <c r="E830" s="86"/>
-      <c r="F830" s="86"/>
+      <c r="D830" s="83"/>
+      <c r="E830" s="83"/>
+      <c r="F830" s="83"/>
     </row>
     <row r="831" spans="1:6" ht="18" thickBot="1">
       <c r="C831" s="37" t="s">
@@ -15704,28 +15724,28 @@
       <c r="B839" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="C839" s="87" t="s">
+      <c r="C839" s="105" t="s">
         <v>534</v>
       </c>
-      <c r="D839" s="88"/>
-      <c r="E839" s="88"/>
-      <c r="F839" s="89"/>
+      <c r="D839" s="106"/>
+      <c r="E839" s="106"/>
+      <c r="F839" s="107"/>
     </row>
     <row r="840" spans="1:6" ht="18" thickBot="1">
-      <c r="C840" s="77" t="s">
+      <c r="C840" s="84" t="s">
         <v>535</v>
       </c>
-      <c r="D840" s="78"/>
-      <c r="E840" s="78"/>
-      <c r="F840" s="79"/>
+      <c r="D840" s="85"/>
+      <c r="E840" s="85"/>
+      <c r="F840" s="86"/>
     </row>
     <row r="841" spans="1:6" ht="27" thickBot="1">
-      <c r="C841" s="80" t="s">
+      <c r="C841" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D841" s="81"/>
-      <c r="E841" s="81"/>
-      <c r="F841" s="82"/>
+      <c r="D841" s="78"/>
+      <c r="E841" s="78"/>
+      <c r="F841" s="79"/>
     </row>
     <row r="842" spans="1:6" ht="18" thickBot="1">
       <c r="C842" s="33" t="s">
@@ -15766,12 +15786,12 @@
       <c r="F844" s="35"/>
     </row>
     <row r="845" spans="1:6" ht="27" thickBot="1">
-      <c r="C845" s="83" t="s">
+      <c r="C845" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D845" s="84"/>
-      <c r="E845" s="84"/>
-      <c r="F845" s="85"/>
+      <c r="D845" s="81"/>
+      <c r="E845" s="81"/>
+      <c r="F845" s="82"/>
     </row>
     <row r="846" spans="1:6" ht="18" thickBot="1">
       <c r="C846" s="37" t="s">
@@ -15816,12 +15836,12 @@
       </c>
     </row>
     <row r="849" spans="1:6" ht="27" thickBot="1">
-      <c r="C849" s="86" t="s">
+      <c r="C849" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D849" s="86"/>
-      <c r="E849" s="86"/>
-      <c r="F849" s="86"/>
+      <c r="D849" s="83"/>
+      <c r="E849" s="83"/>
+      <c r="F849" s="83"/>
     </row>
     <row r="850" spans="1:6" ht="18" thickBot="1">
       <c r="C850" s="37" t="s">
@@ -15897,28 +15917,28 @@
       <c r="B858" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="C858" s="87" t="s">
+      <c r="C858" s="105" t="s">
         <v>538</v>
       </c>
-      <c r="D858" s="88"/>
-      <c r="E858" s="88"/>
-      <c r="F858" s="89"/>
+      <c r="D858" s="106"/>
+      <c r="E858" s="106"/>
+      <c r="F858" s="107"/>
     </row>
     <row r="859" spans="1:6" ht="18" thickBot="1">
-      <c r="C859" s="77" t="s">
+      <c r="C859" s="84" t="s">
         <v>539</v>
       </c>
-      <c r="D859" s="78"/>
-      <c r="E859" s="78"/>
-      <c r="F859" s="79"/>
+      <c r="D859" s="85"/>
+      <c r="E859" s="85"/>
+      <c r="F859" s="86"/>
     </row>
     <row r="860" spans="1:6" ht="27" thickBot="1">
-      <c r="C860" s="80" t="s">
+      <c r="C860" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D860" s="81"/>
-      <c r="E860" s="81"/>
-      <c r="F860" s="82"/>
+      <c r="D860" s="78"/>
+      <c r="E860" s="78"/>
+      <c r="F860" s="79"/>
     </row>
     <row r="861" spans="1:6" ht="18" thickBot="1">
       <c r="C861" s="33" t="s">
@@ -15959,12 +15979,12 @@
       <c r="F863" s="35"/>
     </row>
     <row r="864" spans="1:6" ht="27" thickBot="1">
-      <c r="C864" s="83" t="s">
+      <c r="C864" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D864" s="84"/>
-      <c r="E864" s="84"/>
-      <c r="F864" s="85"/>
+      <c r="D864" s="81"/>
+      <c r="E864" s="81"/>
+      <c r="F864" s="82"/>
     </row>
     <row r="865" spans="1:6" ht="18" thickBot="1">
       <c r="C865" s="37" t="s">
@@ -16009,12 +16029,12 @@
       </c>
     </row>
     <row r="868" spans="1:6" ht="27" thickBot="1">
-      <c r="C868" s="86" t="s">
+      <c r="C868" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D868" s="86"/>
-      <c r="E868" s="86"/>
-      <c r="F868" s="86"/>
+      <c r="D868" s="83"/>
+      <c r="E868" s="83"/>
+      <c r="F868" s="83"/>
     </row>
     <row r="869" spans="1:6" ht="18" thickBot="1">
       <c r="C869" s="37" t="s">
@@ -16090,28 +16110,28 @@
       <c r="B877" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="C877" s="74" t="s">
+      <c r="C877" s="108" t="s">
         <v>540</v>
       </c>
-      <c r="D877" s="75"/>
-      <c r="E877" s="75"/>
-      <c r="F877" s="76"/>
+      <c r="D877" s="109"/>
+      <c r="E877" s="109"/>
+      <c r="F877" s="110"/>
     </row>
     <row r="878" spans="1:6" ht="18" thickBot="1">
-      <c r="C878" s="77" t="s">
+      <c r="C878" s="84" t="s">
         <v>541</v>
       </c>
-      <c r="D878" s="78"/>
-      <c r="E878" s="78"/>
-      <c r="F878" s="79"/>
+      <c r="D878" s="85"/>
+      <c r="E878" s="85"/>
+      <c r="F878" s="86"/>
     </row>
     <row r="879" spans="1:6" ht="27" thickBot="1">
-      <c r="C879" s="80" t="s">
+      <c r="C879" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D879" s="81"/>
-      <c r="E879" s="81"/>
-      <c r="F879" s="82"/>
+      <c r="D879" s="78"/>
+      <c r="E879" s="78"/>
+      <c r="F879" s="79"/>
     </row>
     <row r="880" spans="1:6" ht="18" thickBot="1">
       <c r="C880" s="33" t="s">
@@ -16152,12 +16172,12 @@
       <c r="F882" s="35"/>
     </row>
     <row r="883" spans="1:6" ht="27" thickBot="1">
-      <c r="C883" s="83" t="s">
+      <c r="C883" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D883" s="84"/>
-      <c r="E883" s="84"/>
-      <c r="F883" s="85"/>
+      <c r="D883" s="81"/>
+      <c r="E883" s="81"/>
+      <c r="F883" s="82"/>
     </row>
     <row r="884" spans="1:6" ht="18" thickBot="1">
       <c r="C884" s="37" t="s">
@@ -16180,12 +16200,12 @@
       <c r="F885" s="38"/>
     </row>
     <row r="886" spans="1:6" ht="27" thickBot="1">
-      <c r="C886" s="86" t="s">
+      <c r="C886" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D886" s="86"/>
-      <c r="E886" s="86"/>
-      <c r="F886" s="86"/>
+      <c r="D886" s="83"/>
+      <c r="E886" s="83"/>
+      <c r="F886" s="83"/>
     </row>
     <row r="887" spans="1:6" ht="18" thickBot="1">
       <c r="C887" s="37" t="s">
@@ -16261,28 +16281,28 @@
       <c r="B895" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="C895" s="74" t="s">
+      <c r="C895" s="108" t="s">
         <v>542</v>
       </c>
-      <c r="D895" s="75"/>
-      <c r="E895" s="75"/>
-      <c r="F895" s="76"/>
+      <c r="D895" s="109"/>
+      <c r="E895" s="109"/>
+      <c r="F895" s="110"/>
     </row>
     <row r="896" spans="1:6" ht="18" thickBot="1">
-      <c r="C896" s="77" t="s">
+      <c r="C896" s="84" t="s">
         <v>543</v>
       </c>
-      <c r="D896" s="78"/>
-      <c r="E896" s="78"/>
-      <c r="F896" s="79"/>
+      <c r="D896" s="85"/>
+      <c r="E896" s="85"/>
+      <c r="F896" s="86"/>
     </row>
     <row r="897" spans="3:6" ht="27" thickBot="1">
-      <c r="C897" s="80" t="s">
+      <c r="C897" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D897" s="81"/>
-      <c r="E897" s="81"/>
-      <c r="F897" s="82"/>
+      <c r="D897" s="78"/>
+      <c r="E897" s="78"/>
+      <c r="F897" s="79"/>
     </row>
     <row r="898" spans="3:6" ht="18" thickBot="1">
       <c r="C898" s="33" t="s">
@@ -16323,12 +16343,12 @@
       <c r="F900" s="35"/>
     </row>
     <row r="901" spans="3:6" ht="27" thickBot="1">
-      <c r="C901" s="83" t="s">
+      <c r="C901" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D901" s="84"/>
-      <c r="E901" s="84"/>
-      <c r="F901" s="85"/>
+      <c r="D901" s="81"/>
+      <c r="E901" s="81"/>
+      <c r="F901" s="82"/>
     </row>
     <row r="902" spans="3:6" ht="18" thickBot="1">
       <c r="C902" s="37" t="s">
@@ -16365,12 +16385,12 @@
       <c r="F904" s="38"/>
     </row>
     <row r="905" spans="3:6" ht="27" thickBot="1">
-      <c r="C905" s="86" t="s">
+      <c r="C905" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D905" s="86"/>
-      <c r="E905" s="86"/>
-      <c r="F905" s="86"/>
+      <c r="D905" s="83"/>
+      <c r="E905" s="83"/>
+      <c r="F905" s="83"/>
     </row>
     <row r="906" spans="3:6" ht="18" thickBot="1">
       <c r="C906" s="37" t="s">
@@ -16446,28 +16466,28 @@
       <c r="B915" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="C915" s="74" t="s">
+      <c r="C915" s="108" t="s">
         <v>546</v>
       </c>
-      <c r="D915" s="75"/>
-      <c r="E915" s="75"/>
-      <c r="F915" s="76"/>
+      <c r="D915" s="109"/>
+      <c r="E915" s="109"/>
+      <c r="F915" s="110"/>
     </row>
     <row r="916" spans="1:6" ht="18" thickBot="1">
-      <c r="C916" s="77" t="s">
+      <c r="C916" s="84" t="s">
         <v>547</v>
       </c>
-      <c r="D916" s="78"/>
-      <c r="E916" s="78"/>
-      <c r="F916" s="79"/>
+      <c r="D916" s="85"/>
+      <c r="E916" s="85"/>
+      <c r="F916" s="86"/>
     </row>
     <row r="917" spans="1:6" ht="27" thickBot="1">
-      <c r="C917" s="80" t="s">
+      <c r="C917" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D917" s="81"/>
-      <c r="E917" s="81"/>
-      <c r="F917" s="82"/>
+      <c r="D917" s="78"/>
+      <c r="E917" s="78"/>
+      <c r="F917" s="79"/>
     </row>
     <row r="918" spans="1:6" ht="18" thickBot="1">
       <c r="C918" s="33" t="s">
@@ -16508,12 +16528,12 @@
       <c r="F920" s="35"/>
     </row>
     <row r="921" spans="1:6" ht="27" thickBot="1">
-      <c r="C921" s="83" t="s">
+      <c r="C921" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D921" s="84"/>
-      <c r="E921" s="84"/>
-      <c r="F921" s="85"/>
+      <c r="D921" s="81"/>
+      <c r="E921" s="81"/>
+      <c r="F921" s="82"/>
     </row>
     <row r="922" spans="1:6" ht="18" thickBot="1">
       <c r="C922" s="37" t="s">
@@ -16574,12 +16594,12 @@
       </c>
     </row>
     <row r="926" spans="1:6" ht="27" thickBot="1">
-      <c r="C926" s="86" t="s">
+      <c r="C926" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D926" s="86"/>
-      <c r="E926" s="86"/>
-      <c r="F926" s="86"/>
+      <c r="D926" s="83"/>
+      <c r="E926" s="83"/>
+      <c r="F926" s="83"/>
     </row>
     <row r="927" spans="1:6" ht="18" thickBot="1">
       <c r="C927" s="37" t="s">
@@ -16655,28 +16675,28 @@
       <c r="B935" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="C935" s="74" t="s">
+      <c r="C935" s="108" t="s">
         <v>550</v>
       </c>
-      <c r="D935" s="75"/>
-      <c r="E935" s="75"/>
-      <c r="F935" s="76"/>
+      <c r="D935" s="109"/>
+      <c r="E935" s="109"/>
+      <c r="F935" s="110"/>
     </row>
     <row r="936" spans="1:6" ht="18" thickBot="1">
-      <c r="C936" s="77" t="s">
+      <c r="C936" s="84" t="s">
         <v>551</v>
       </c>
-      <c r="D936" s="78"/>
-      <c r="E936" s="78"/>
-      <c r="F936" s="79"/>
+      <c r="D936" s="85"/>
+      <c r="E936" s="85"/>
+      <c r="F936" s="86"/>
     </row>
     <row r="937" spans="1:6" ht="27" thickBot="1">
-      <c r="C937" s="80" t="s">
+      <c r="C937" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D937" s="81"/>
-      <c r="E937" s="81"/>
-      <c r="F937" s="82"/>
+      <c r="D937" s="78"/>
+      <c r="E937" s="78"/>
+      <c r="F937" s="79"/>
     </row>
     <row r="938" spans="1:6" ht="18" thickBot="1">
       <c r="C938" s="33" t="s">
@@ -16717,12 +16737,12 @@
       <c r="F940" s="35"/>
     </row>
     <row r="941" spans="1:6" ht="27" thickBot="1">
-      <c r="C941" s="83" t="s">
+      <c r="C941" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D941" s="84"/>
-      <c r="E941" s="84"/>
-      <c r="F941" s="85"/>
+      <c r="D941" s="81"/>
+      <c r="E941" s="81"/>
+      <c r="F941" s="82"/>
     </row>
     <row r="942" spans="1:6" ht="18" thickBot="1">
       <c r="C942" s="37" t="s">
@@ -16781,12 +16801,12 @@
       </c>
     </row>
     <row r="946" spans="3:6" ht="27" thickBot="1">
-      <c r="C946" s="86" t="s">
+      <c r="C946" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D946" s="86"/>
-      <c r="E946" s="86"/>
-      <c r="F946" s="86"/>
+      <c r="D946" s="83"/>
+      <c r="E946" s="83"/>
+      <c r="F946" s="83"/>
     </row>
     <row r="947" spans="3:6" ht="18" thickBot="1">
       <c r="C947" s="37" t="s">
@@ -16856,80 +16876,214 @@
     </row>
   </sheetData>
   <mergeCells count="300">
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="C59:F59"/>
-    <mergeCell ref="C60:F60"/>
-    <mergeCell ref="C63:F63"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="C103:C106"/>
-    <mergeCell ref="C75:F75"/>
-    <mergeCell ref="C76:F76"/>
-    <mergeCell ref="C77:F77"/>
-    <mergeCell ref="C80:F80"/>
-    <mergeCell ref="C83:F83"/>
-    <mergeCell ref="C85:C88"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="C93:F93"/>
-    <mergeCell ref="C94:F94"/>
-    <mergeCell ref="C98:F98"/>
-    <mergeCell ref="C101:F101"/>
-    <mergeCell ref="C140:C143"/>
-    <mergeCell ref="C110:F110"/>
-    <mergeCell ref="C111:F111"/>
-    <mergeCell ref="C112:F112"/>
-    <mergeCell ref="C116:F116"/>
-    <mergeCell ref="C119:F119"/>
-    <mergeCell ref="C121:C124"/>
-    <mergeCell ref="C128:F128"/>
-    <mergeCell ref="C129:F129"/>
-    <mergeCell ref="C130:F130"/>
-    <mergeCell ref="C134:F134"/>
-    <mergeCell ref="C138:F138"/>
-    <mergeCell ref="C184:C187"/>
-    <mergeCell ref="C147:F147"/>
-    <mergeCell ref="C148:F148"/>
-    <mergeCell ref="C149:F149"/>
-    <mergeCell ref="C153:F153"/>
-    <mergeCell ref="C162:F162"/>
-    <mergeCell ref="C164:C167"/>
-    <mergeCell ref="C171:F171"/>
-    <mergeCell ref="C172:F172"/>
-    <mergeCell ref="C173:F173"/>
-    <mergeCell ref="C177:F177"/>
-    <mergeCell ref="C182:F182"/>
-    <mergeCell ref="C231:F231"/>
-    <mergeCell ref="C211:F211"/>
-    <mergeCell ref="C212:F212"/>
-    <mergeCell ref="C191:F191"/>
-    <mergeCell ref="C192:F192"/>
-    <mergeCell ref="C193:F193"/>
-    <mergeCell ref="C197:F197"/>
-    <mergeCell ref="C201:F201"/>
-    <mergeCell ref="C203:C206"/>
-    <mergeCell ref="C210:F210"/>
-    <mergeCell ref="C216:F216"/>
-    <mergeCell ref="C221:F221"/>
-    <mergeCell ref="C223:C226"/>
-    <mergeCell ref="C230:F230"/>
+    <mergeCell ref="C948:C951"/>
+    <mergeCell ref="C935:F935"/>
+    <mergeCell ref="C936:F936"/>
+    <mergeCell ref="C937:F937"/>
+    <mergeCell ref="C941:F941"/>
+    <mergeCell ref="C946:F946"/>
+    <mergeCell ref="C916:F916"/>
+    <mergeCell ref="C917:F917"/>
+    <mergeCell ref="C921:F921"/>
+    <mergeCell ref="C926:F926"/>
+    <mergeCell ref="C928:C931"/>
+    <mergeCell ref="C897:F897"/>
+    <mergeCell ref="C901:F901"/>
+    <mergeCell ref="C905:F905"/>
+    <mergeCell ref="C907:C910"/>
+    <mergeCell ref="C915:F915"/>
+    <mergeCell ref="C883:F883"/>
+    <mergeCell ref="C886:F886"/>
+    <mergeCell ref="C888:C891"/>
+    <mergeCell ref="C895:F895"/>
+    <mergeCell ref="C896:F896"/>
+    <mergeCell ref="C868:F868"/>
+    <mergeCell ref="C870:C873"/>
+    <mergeCell ref="C877:F877"/>
+    <mergeCell ref="C878:F878"/>
+    <mergeCell ref="C879:F879"/>
+    <mergeCell ref="C851:C854"/>
+    <mergeCell ref="C858:F858"/>
+    <mergeCell ref="C859:F859"/>
+    <mergeCell ref="C860:F860"/>
+    <mergeCell ref="C864:F864"/>
+    <mergeCell ref="C839:F839"/>
+    <mergeCell ref="C840:F840"/>
+    <mergeCell ref="C841:F841"/>
+    <mergeCell ref="C845:F845"/>
+    <mergeCell ref="C849:F849"/>
+    <mergeCell ref="C821:F821"/>
+    <mergeCell ref="C822:F822"/>
+    <mergeCell ref="C826:F826"/>
+    <mergeCell ref="C830:F830"/>
+    <mergeCell ref="C832:C835"/>
+    <mergeCell ref="C803:F803"/>
+    <mergeCell ref="C807:F807"/>
+    <mergeCell ref="C811:F811"/>
+    <mergeCell ref="C813:C816"/>
+    <mergeCell ref="C820:F820"/>
+    <mergeCell ref="C788:F788"/>
+    <mergeCell ref="C792:F792"/>
+    <mergeCell ref="C794:C797"/>
+    <mergeCell ref="C801:F801"/>
+    <mergeCell ref="C802:F802"/>
+    <mergeCell ref="C773:F773"/>
+    <mergeCell ref="C775:C778"/>
+    <mergeCell ref="C782:F782"/>
+    <mergeCell ref="C783:F783"/>
+    <mergeCell ref="C784:F784"/>
+    <mergeCell ref="C756:C759"/>
+    <mergeCell ref="C763:F763"/>
+    <mergeCell ref="C764:F764"/>
+    <mergeCell ref="C765:F765"/>
+    <mergeCell ref="C769:F769"/>
+    <mergeCell ref="C744:F744"/>
+    <mergeCell ref="C745:F745"/>
+    <mergeCell ref="C746:F746"/>
+    <mergeCell ref="C750:F750"/>
+    <mergeCell ref="C754:F754"/>
+    <mergeCell ref="C726:F726"/>
+    <mergeCell ref="C727:F727"/>
+    <mergeCell ref="C731:F731"/>
+    <mergeCell ref="C735:F735"/>
+    <mergeCell ref="C737:C740"/>
+    <mergeCell ref="C708:F708"/>
+    <mergeCell ref="C712:F712"/>
+    <mergeCell ref="C716:F716"/>
+    <mergeCell ref="C718:C721"/>
+    <mergeCell ref="C725:F725"/>
+    <mergeCell ref="C692:F692"/>
+    <mergeCell ref="C697:F697"/>
+    <mergeCell ref="C699:C702"/>
+    <mergeCell ref="C706:F706"/>
+    <mergeCell ref="C707:F707"/>
+    <mergeCell ref="C677:F677"/>
+    <mergeCell ref="C679:C682"/>
+    <mergeCell ref="C686:F686"/>
+    <mergeCell ref="C687:F687"/>
+    <mergeCell ref="C688:F688"/>
+    <mergeCell ref="C659:C662"/>
+    <mergeCell ref="C666:F666"/>
+    <mergeCell ref="C667:F667"/>
+    <mergeCell ref="C668:F668"/>
+    <mergeCell ref="C672:F672"/>
+    <mergeCell ref="C647:F647"/>
+    <mergeCell ref="C648:F648"/>
+    <mergeCell ref="C649:F649"/>
+    <mergeCell ref="C653:F653"/>
+    <mergeCell ref="C657:F657"/>
+    <mergeCell ref="C629:F629"/>
+    <mergeCell ref="C630:F630"/>
+    <mergeCell ref="C634:F634"/>
+    <mergeCell ref="C638:F638"/>
+    <mergeCell ref="C640:C643"/>
+    <mergeCell ref="C611:F611"/>
+    <mergeCell ref="C615:F615"/>
+    <mergeCell ref="C619:F619"/>
+    <mergeCell ref="C621:C624"/>
+    <mergeCell ref="C628:F628"/>
+    <mergeCell ref="C596:F596"/>
+    <mergeCell ref="C600:F600"/>
+    <mergeCell ref="C602:C605"/>
+    <mergeCell ref="C609:F609"/>
+    <mergeCell ref="C610:F610"/>
+    <mergeCell ref="C581:F581"/>
+    <mergeCell ref="C583:C586"/>
+    <mergeCell ref="C590:F590"/>
+    <mergeCell ref="C591:F591"/>
+    <mergeCell ref="C592:F592"/>
+    <mergeCell ref="C564:C567"/>
+    <mergeCell ref="C571:F571"/>
+    <mergeCell ref="C572:F572"/>
+    <mergeCell ref="C573:F573"/>
+    <mergeCell ref="C577:F577"/>
+    <mergeCell ref="C552:F552"/>
+    <mergeCell ref="C553:F553"/>
+    <mergeCell ref="C554:F554"/>
+    <mergeCell ref="C558:F558"/>
+    <mergeCell ref="C562:F562"/>
+    <mergeCell ref="C534:F534"/>
+    <mergeCell ref="C535:F535"/>
+    <mergeCell ref="C539:F539"/>
+    <mergeCell ref="C543:F543"/>
+    <mergeCell ref="C545:C548"/>
+    <mergeCell ref="C517:F517"/>
+    <mergeCell ref="C521:F521"/>
+    <mergeCell ref="C524:F524"/>
+    <mergeCell ref="C526:C529"/>
+    <mergeCell ref="C533:F533"/>
+    <mergeCell ref="C503:F503"/>
+    <mergeCell ref="C506:F506"/>
+    <mergeCell ref="C508:C511"/>
+    <mergeCell ref="C515:F515"/>
+    <mergeCell ref="C516:F516"/>
+    <mergeCell ref="C488:F488"/>
+    <mergeCell ref="C490:C493"/>
+    <mergeCell ref="C497:F497"/>
+    <mergeCell ref="C498:F498"/>
+    <mergeCell ref="C499:F499"/>
+    <mergeCell ref="C471:C474"/>
+    <mergeCell ref="C478:F478"/>
+    <mergeCell ref="C479:F479"/>
+    <mergeCell ref="C480:F480"/>
+    <mergeCell ref="C484:F484"/>
+    <mergeCell ref="C459:F459"/>
+    <mergeCell ref="C460:F460"/>
+    <mergeCell ref="C461:F461"/>
+    <mergeCell ref="C465:F465"/>
+    <mergeCell ref="C469:F469"/>
+    <mergeCell ref="C441:F441"/>
+    <mergeCell ref="C442:F442"/>
+    <mergeCell ref="C446:F446"/>
+    <mergeCell ref="C450:F450"/>
+    <mergeCell ref="C452:C455"/>
+    <mergeCell ref="C423:F423"/>
+    <mergeCell ref="C427:F427"/>
+    <mergeCell ref="C431:F431"/>
+    <mergeCell ref="C433:C436"/>
+    <mergeCell ref="C440:F440"/>
+    <mergeCell ref="C408:F408"/>
+    <mergeCell ref="C412:F412"/>
+    <mergeCell ref="C414:C417"/>
+    <mergeCell ref="C421:F421"/>
+    <mergeCell ref="C422:F422"/>
+    <mergeCell ref="C393:F393"/>
+    <mergeCell ref="C395:C398"/>
+    <mergeCell ref="C402:F402"/>
+    <mergeCell ref="C403:F403"/>
+    <mergeCell ref="C404:F404"/>
+    <mergeCell ref="C376:C379"/>
+    <mergeCell ref="C383:F383"/>
+    <mergeCell ref="C384:F384"/>
+    <mergeCell ref="C385:F385"/>
+    <mergeCell ref="C389:F389"/>
+    <mergeCell ref="C364:F364"/>
+    <mergeCell ref="C365:F365"/>
+    <mergeCell ref="C366:F366"/>
+    <mergeCell ref="C370:F370"/>
+    <mergeCell ref="C374:F374"/>
+    <mergeCell ref="C345:F345"/>
+    <mergeCell ref="C351:F351"/>
+    <mergeCell ref="C355:F355"/>
+    <mergeCell ref="C357:C360"/>
+    <mergeCell ref="C336:F336"/>
+    <mergeCell ref="C338:C341"/>
+    <mergeCell ref="C346:F346"/>
+    <mergeCell ref="C347:F347"/>
+    <mergeCell ref="C319:C322"/>
+    <mergeCell ref="C326:F326"/>
+    <mergeCell ref="C327:F327"/>
+    <mergeCell ref="C328:F328"/>
+    <mergeCell ref="C332:F332"/>
+    <mergeCell ref="C307:F307"/>
+    <mergeCell ref="C308:F308"/>
+    <mergeCell ref="C309:F309"/>
+    <mergeCell ref="C313:F313"/>
+    <mergeCell ref="C317:F317"/>
+    <mergeCell ref="C290:F290"/>
+    <mergeCell ref="C294:F294"/>
+    <mergeCell ref="C298:F298"/>
+    <mergeCell ref="C300:C303"/>
     <mergeCell ref="C271:F271"/>
     <mergeCell ref="C275:F275"/>
     <mergeCell ref="C279:F279"/>
@@ -16948,214 +17102,80 @@
     <mergeCell ref="C260:F260"/>
     <mergeCell ref="C262:C265"/>
     <mergeCell ref="C269:F269"/>
-    <mergeCell ref="C307:F307"/>
-    <mergeCell ref="C308:F308"/>
-    <mergeCell ref="C309:F309"/>
-    <mergeCell ref="C313:F313"/>
-    <mergeCell ref="C317:F317"/>
-    <mergeCell ref="C290:F290"/>
-    <mergeCell ref="C294:F294"/>
-    <mergeCell ref="C298:F298"/>
-    <mergeCell ref="C300:C303"/>
-    <mergeCell ref="C336:F336"/>
-    <mergeCell ref="C338:C341"/>
-    <mergeCell ref="C346:F346"/>
-    <mergeCell ref="C347:F347"/>
-    <mergeCell ref="C319:C322"/>
-    <mergeCell ref="C326:F326"/>
-    <mergeCell ref="C327:F327"/>
-    <mergeCell ref="C328:F328"/>
-    <mergeCell ref="C332:F332"/>
-    <mergeCell ref="C364:F364"/>
-    <mergeCell ref="C365:F365"/>
-    <mergeCell ref="C366:F366"/>
-    <mergeCell ref="C370:F370"/>
-    <mergeCell ref="C374:F374"/>
-    <mergeCell ref="C345:F345"/>
-    <mergeCell ref="C351:F351"/>
-    <mergeCell ref="C355:F355"/>
-    <mergeCell ref="C357:C360"/>
-    <mergeCell ref="C393:F393"/>
-    <mergeCell ref="C395:C398"/>
-    <mergeCell ref="C402:F402"/>
-    <mergeCell ref="C403:F403"/>
-    <mergeCell ref="C404:F404"/>
-    <mergeCell ref="C376:C379"/>
-    <mergeCell ref="C383:F383"/>
-    <mergeCell ref="C384:F384"/>
-    <mergeCell ref="C385:F385"/>
-    <mergeCell ref="C389:F389"/>
-    <mergeCell ref="C423:F423"/>
-    <mergeCell ref="C427:F427"/>
-    <mergeCell ref="C431:F431"/>
-    <mergeCell ref="C433:C436"/>
-    <mergeCell ref="C440:F440"/>
-    <mergeCell ref="C408:F408"/>
-    <mergeCell ref="C412:F412"/>
-    <mergeCell ref="C414:C417"/>
-    <mergeCell ref="C421:F421"/>
-    <mergeCell ref="C422:F422"/>
-    <mergeCell ref="C459:F459"/>
-    <mergeCell ref="C460:F460"/>
-    <mergeCell ref="C461:F461"/>
-    <mergeCell ref="C465:F465"/>
-    <mergeCell ref="C469:F469"/>
-    <mergeCell ref="C441:F441"/>
-    <mergeCell ref="C442:F442"/>
-    <mergeCell ref="C446:F446"/>
-    <mergeCell ref="C450:F450"/>
-    <mergeCell ref="C452:C455"/>
-    <mergeCell ref="C488:F488"/>
-    <mergeCell ref="C490:C493"/>
-    <mergeCell ref="C497:F497"/>
-    <mergeCell ref="C498:F498"/>
-    <mergeCell ref="C499:F499"/>
-    <mergeCell ref="C471:C474"/>
-    <mergeCell ref="C478:F478"/>
-    <mergeCell ref="C479:F479"/>
-    <mergeCell ref="C480:F480"/>
-    <mergeCell ref="C484:F484"/>
-    <mergeCell ref="C517:F517"/>
-    <mergeCell ref="C521:F521"/>
-    <mergeCell ref="C524:F524"/>
-    <mergeCell ref="C526:C529"/>
-    <mergeCell ref="C533:F533"/>
-    <mergeCell ref="C503:F503"/>
-    <mergeCell ref="C506:F506"/>
-    <mergeCell ref="C508:C511"/>
-    <mergeCell ref="C515:F515"/>
-    <mergeCell ref="C516:F516"/>
-    <mergeCell ref="C552:F552"/>
-    <mergeCell ref="C553:F553"/>
-    <mergeCell ref="C554:F554"/>
-    <mergeCell ref="C558:F558"/>
-    <mergeCell ref="C562:F562"/>
-    <mergeCell ref="C534:F534"/>
-    <mergeCell ref="C535:F535"/>
-    <mergeCell ref="C539:F539"/>
-    <mergeCell ref="C543:F543"/>
-    <mergeCell ref="C545:C548"/>
-    <mergeCell ref="C581:F581"/>
-    <mergeCell ref="C583:C586"/>
-    <mergeCell ref="C590:F590"/>
-    <mergeCell ref="C591:F591"/>
-    <mergeCell ref="C592:F592"/>
-    <mergeCell ref="C564:C567"/>
-    <mergeCell ref="C571:F571"/>
-    <mergeCell ref="C572:F572"/>
-    <mergeCell ref="C573:F573"/>
-    <mergeCell ref="C577:F577"/>
-    <mergeCell ref="C611:F611"/>
-    <mergeCell ref="C615:F615"/>
-    <mergeCell ref="C619:F619"/>
-    <mergeCell ref="C621:C624"/>
-    <mergeCell ref="C628:F628"/>
-    <mergeCell ref="C596:F596"/>
-    <mergeCell ref="C600:F600"/>
-    <mergeCell ref="C602:C605"/>
-    <mergeCell ref="C609:F609"/>
-    <mergeCell ref="C610:F610"/>
-    <mergeCell ref="C647:F647"/>
-    <mergeCell ref="C648:F648"/>
-    <mergeCell ref="C649:F649"/>
-    <mergeCell ref="C653:F653"/>
-    <mergeCell ref="C657:F657"/>
-    <mergeCell ref="C629:F629"/>
-    <mergeCell ref="C630:F630"/>
-    <mergeCell ref="C634:F634"/>
-    <mergeCell ref="C638:F638"/>
-    <mergeCell ref="C640:C643"/>
-    <mergeCell ref="C677:F677"/>
-    <mergeCell ref="C679:C682"/>
-    <mergeCell ref="C686:F686"/>
-    <mergeCell ref="C687:F687"/>
-    <mergeCell ref="C688:F688"/>
-    <mergeCell ref="C659:C662"/>
-    <mergeCell ref="C666:F666"/>
-    <mergeCell ref="C667:F667"/>
-    <mergeCell ref="C668:F668"/>
-    <mergeCell ref="C672:F672"/>
-    <mergeCell ref="C708:F708"/>
-    <mergeCell ref="C712:F712"/>
-    <mergeCell ref="C716:F716"/>
-    <mergeCell ref="C718:C721"/>
-    <mergeCell ref="C725:F725"/>
-    <mergeCell ref="C692:F692"/>
-    <mergeCell ref="C697:F697"/>
-    <mergeCell ref="C699:C702"/>
-    <mergeCell ref="C706:F706"/>
-    <mergeCell ref="C707:F707"/>
-    <mergeCell ref="C744:F744"/>
-    <mergeCell ref="C745:F745"/>
-    <mergeCell ref="C746:F746"/>
-    <mergeCell ref="C750:F750"/>
-    <mergeCell ref="C754:F754"/>
-    <mergeCell ref="C726:F726"/>
-    <mergeCell ref="C727:F727"/>
-    <mergeCell ref="C731:F731"/>
-    <mergeCell ref="C735:F735"/>
-    <mergeCell ref="C737:C740"/>
-    <mergeCell ref="C773:F773"/>
-    <mergeCell ref="C775:C778"/>
-    <mergeCell ref="C782:F782"/>
-    <mergeCell ref="C783:F783"/>
-    <mergeCell ref="C784:F784"/>
-    <mergeCell ref="C756:C759"/>
-    <mergeCell ref="C763:F763"/>
-    <mergeCell ref="C764:F764"/>
-    <mergeCell ref="C765:F765"/>
-    <mergeCell ref="C769:F769"/>
-    <mergeCell ref="C803:F803"/>
-    <mergeCell ref="C807:F807"/>
-    <mergeCell ref="C811:F811"/>
-    <mergeCell ref="C813:C816"/>
-    <mergeCell ref="C820:F820"/>
-    <mergeCell ref="C788:F788"/>
-    <mergeCell ref="C792:F792"/>
-    <mergeCell ref="C794:C797"/>
-    <mergeCell ref="C801:F801"/>
-    <mergeCell ref="C802:F802"/>
-    <mergeCell ref="C839:F839"/>
-    <mergeCell ref="C840:F840"/>
-    <mergeCell ref="C841:F841"/>
-    <mergeCell ref="C845:F845"/>
-    <mergeCell ref="C849:F849"/>
-    <mergeCell ref="C821:F821"/>
-    <mergeCell ref="C822:F822"/>
-    <mergeCell ref="C826:F826"/>
-    <mergeCell ref="C830:F830"/>
-    <mergeCell ref="C832:C835"/>
-    <mergeCell ref="C868:F868"/>
-    <mergeCell ref="C870:C873"/>
-    <mergeCell ref="C877:F877"/>
-    <mergeCell ref="C878:F878"/>
-    <mergeCell ref="C879:F879"/>
-    <mergeCell ref="C851:C854"/>
-    <mergeCell ref="C858:F858"/>
-    <mergeCell ref="C859:F859"/>
-    <mergeCell ref="C860:F860"/>
-    <mergeCell ref="C864:F864"/>
-    <mergeCell ref="C897:F897"/>
-    <mergeCell ref="C901:F901"/>
-    <mergeCell ref="C905:F905"/>
-    <mergeCell ref="C907:C910"/>
-    <mergeCell ref="C915:F915"/>
-    <mergeCell ref="C883:F883"/>
-    <mergeCell ref="C886:F886"/>
-    <mergeCell ref="C888:C891"/>
-    <mergeCell ref="C895:F895"/>
-    <mergeCell ref="C896:F896"/>
-    <mergeCell ref="C948:C951"/>
-    <mergeCell ref="C935:F935"/>
-    <mergeCell ref="C936:F936"/>
-    <mergeCell ref="C937:F937"/>
-    <mergeCell ref="C941:F941"/>
-    <mergeCell ref="C946:F946"/>
-    <mergeCell ref="C916:F916"/>
-    <mergeCell ref="C917:F917"/>
-    <mergeCell ref="C921:F921"/>
-    <mergeCell ref="C926:F926"/>
-    <mergeCell ref="C928:C931"/>
+    <mergeCell ref="C231:F231"/>
+    <mergeCell ref="C211:F211"/>
+    <mergeCell ref="C212:F212"/>
+    <mergeCell ref="C191:F191"/>
+    <mergeCell ref="C192:F192"/>
+    <mergeCell ref="C193:F193"/>
+    <mergeCell ref="C197:F197"/>
+    <mergeCell ref="C201:F201"/>
+    <mergeCell ref="C203:C206"/>
+    <mergeCell ref="C210:F210"/>
+    <mergeCell ref="C216:F216"/>
+    <mergeCell ref="C221:F221"/>
+    <mergeCell ref="C223:C226"/>
+    <mergeCell ref="C230:F230"/>
+    <mergeCell ref="C184:C187"/>
+    <mergeCell ref="C147:F147"/>
+    <mergeCell ref="C148:F148"/>
+    <mergeCell ref="C149:F149"/>
+    <mergeCell ref="C153:F153"/>
+    <mergeCell ref="C162:F162"/>
+    <mergeCell ref="C164:C167"/>
+    <mergeCell ref="C171:F171"/>
+    <mergeCell ref="C172:F172"/>
+    <mergeCell ref="C173:F173"/>
+    <mergeCell ref="C177:F177"/>
+    <mergeCell ref="C182:F182"/>
+    <mergeCell ref="C140:C143"/>
+    <mergeCell ref="C110:F110"/>
+    <mergeCell ref="C111:F111"/>
+    <mergeCell ref="C112:F112"/>
+    <mergeCell ref="C116:F116"/>
+    <mergeCell ref="C119:F119"/>
+    <mergeCell ref="C121:C124"/>
+    <mergeCell ref="C128:F128"/>
+    <mergeCell ref="C129:F129"/>
+    <mergeCell ref="C130:F130"/>
+    <mergeCell ref="C134:F134"/>
+    <mergeCell ref="C138:F138"/>
+    <mergeCell ref="C103:C106"/>
+    <mergeCell ref="C75:F75"/>
+    <mergeCell ref="C76:F76"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="C80:F80"/>
+    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="C85:C88"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="C94:F94"/>
+    <mergeCell ref="C98:F98"/>
+    <mergeCell ref="C101:F101"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C32:F32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/APIDocs/API명세서.xlsx
+++ b/docs/APIDocs/API명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\GameProject\docs\APIDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC3CC43-C490-4263-8F07-19EAE56799CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A24E59C-0E30-4195-8C40-8D2AB910A5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{4E8C34D6-CE1A-427D-9403-2013A6AFC92D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{4E8C34D6-CE1A-427D-9403-2013A6AFC92D}"/>
   </bookViews>
   <sheets>
     <sheet name="시나리오" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2727" uniqueCount="628">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2738" uniqueCount="639">
   <si>
     <t>URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2856,12 +2856,45 @@
 채비별 확률 미적용</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>성공</t>
+  </si>
+  <si>
+    <t>환불 유저 재결제 대상</t>
+  </si>
+  <si>
+    <t>유효하지 않은 파라미터</t>
+  </si>
+  <si>
+    <t>request json 에러</t>
+  </si>
+  <si>
+    <t>DB 에러</t>
+  </si>
+  <si>
+    <t>분산환경(AWS)에서 유효하지 않은 토큰</t>
+  </si>
+  <si>
+    <t>유효하지 않는 appid</t>
+  </si>
+  <si>
+    <t>IDP 토큰 에러</t>
+  </si>
+  <si>
+    <t>유효하지 않은 토큰</t>
+  </si>
+  <si>
+    <t>header에 토큰값 없음</t>
+  </si>
+  <si>
+    <t>알수없는 오류</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="36">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3148,6 +3181,19 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9.9"/>
+      <color rgb="FF444444"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9.9"/>
+      <color rgb="FF000000"/>
+      <name val="Inherit"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="47">
     <fill>
@@ -3414,7 +3460,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -3663,6 +3709,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE1E1E1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE1E1E1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE1E1E1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFE1E1E1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE1E1E1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3797,7 +3867,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4000,6 +4070,21 @@
     <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4018,14 +4103,23 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4048,22 +4142,49 @@
     <xf numFmtId="0" fontId="32" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="41" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="41" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="41" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="37" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4075,74 +4196,29 @@
     <xf numFmtId="0" fontId="30" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="41" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="41" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="41" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="37" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -5409,7 +5485,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071D4A7B-DD4D-499C-AF7D-3FC54784CE79}">
   <dimension ref="B1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D38" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
       <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
@@ -5471,7 +5547,7 @@
       <c r="C3" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D3" s="69" t="s">
+      <c r="D3" s="74" t="s">
         <v>165</v>
       </c>
       <c r="E3" s="52" t="s">
@@ -5503,7 +5579,7 @@
       <c r="C4" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D4" s="70"/>
+      <c r="D4" s="75"/>
       <c r="E4" s="52" t="s">
         <v>4</v>
       </c>
@@ -5531,7 +5607,7 @@
       <c r="C5" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D5" s="70"/>
+      <c r="D5" s="75"/>
       <c r="E5" s="52" t="s">
         <v>4</v>
       </c>
@@ -5559,7 +5635,7 @@
       <c r="C6" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D6" s="70"/>
+      <c r="D6" s="75"/>
       <c r="E6" s="52" t="s">
         <v>4</v>
       </c>
@@ -5589,7 +5665,7 @@
       <c r="C7" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="D7" s="70"/>
+      <c r="D7" s="75"/>
       <c r="E7" s="15" t="s">
         <v>4</v>
       </c>
@@ -5619,7 +5695,7 @@
       <c r="C8" s="58" t="s">
         <v>401</v>
       </c>
-      <c r="D8" s="70"/>
+      <c r="D8" s="75"/>
       <c r="E8" s="57" t="s">
         <v>4</v>
       </c>
@@ -5647,7 +5723,7 @@
       <c r="C9" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D9" s="71"/>
+      <c r="D9" s="76"/>
       <c r="E9" s="52" t="s">
         <v>4</v>
       </c>
@@ -5677,7 +5753,7 @@
       <c r="C10" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="74" t="s">
         <v>167</v>
       </c>
       <c r="E10" s="52" t="s">
@@ -5709,7 +5785,7 @@
       <c r="C11" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D11" s="70"/>
+      <c r="D11" s="75"/>
       <c r="E11" s="52" t="s">
         <v>4</v>
       </c>
@@ -5737,7 +5813,7 @@
       <c r="C12" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D12" s="70"/>
+      <c r="D12" s="75"/>
       <c r="E12" s="52" t="s">
         <v>4</v>
       </c>
@@ -5767,7 +5843,7 @@
       <c r="C13" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D13" s="70"/>
+      <c r="D13" s="75"/>
       <c r="E13" s="52" t="s">
         <v>4</v>
       </c>
@@ -5797,7 +5873,7 @@
       <c r="C14" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D14" s="70"/>
+      <c r="D14" s="75"/>
       <c r="E14" s="52" t="s">
         <v>4</v>
       </c>
@@ -5825,7 +5901,7 @@
       <c r="C15" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D15" s="70"/>
+      <c r="D15" s="75"/>
       <c r="E15" s="52" t="s">
         <v>4</v>
       </c>
@@ -5855,7 +5931,7 @@
       <c r="C16" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="D16" s="70"/>
+      <c r="D16" s="75"/>
       <c r="E16" s="15" t="s">
         <v>4</v>
       </c>
@@ -5885,7 +5961,7 @@
       <c r="C17" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D17" s="70"/>
+      <c r="D17" s="75"/>
       <c r="E17" s="52" t="s">
         <v>4</v>
       </c>
@@ -5915,7 +5991,7 @@
       <c r="C18" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D18" s="70"/>
+      <c r="D18" s="75"/>
       <c r="E18" s="52" t="s">
         <v>4</v>
       </c>
@@ -5945,7 +6021,7 @@
       <c r="C19" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D19" s="70"/>
+      <c r="D19" s="75"/>
       <c r="E19" s="52" t="s">
         <v>4</v>
       </c>
@@ -5975,7 +6051,7 @@
       <c r="C20" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D20" s="70"/>
+      <c r="D20" s="75"/>
       <c r="E20" s="52" t="s">
         <v>4</v>
       </c>
@@ -6003,7 +6079,7 @@
       <c r="C21" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D21" s="70"/>
+      <c r="D21" s="75"/>
       <c r="E21" s="52" t="s">
         <v>4</v>
       </c>
@@ -6033,7 +6109,7 @@
       <c r="C22" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D22" s="70"/>
+      <c r="D22" s="75"/>
       <c r="E22" s="52" t="s">
         <v>4</v>
       </c>
@@ -6063,7 +6139,7 @@
       <c r="C23" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D23" s="70"/>
+      <c r="D23" s="75"/>
       <c r="E23" s="52" t="s">
         <v>4</v>
       </c>
@@ -6093,7 +6169,7 @@
       <c r="C24" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="D24" s="70"/>
+      <c r="D24" s="75"/>
       <c r="E24" s="9" t="s">
         <v>4</v>
       </c>
@@ -6123,7 +6199,7 @@
       <c r="C25" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D25" s="70"/>
+      <c r="D25" s="75"/>
       <c r="E25" s="52" t="s">
         <v>4</v>
       </c>
@@ -6153,7 +6229,7 @@
       <c r="C26" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D26" s="70"/>
+      <c r="D26" s="75"/>
       <c r="E26" s="52" t="s">
         <v>4</v>
       </c>
@@ -6183,7 +6259,7 @@
       <c r="C27" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D27" s="70"/>
+      <c r="D27" s="75"/>
       <c r="E27" s="52" t="s">
         <v>4</v>
       </c>
@@ -6213,7 +6289,7 @@
       <c r="C28" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D28" s="70"/>
+      <c r="D28" s="75"/>
       <c r="E28" s="52" t="s">
         <v>4</v>
       </c>
@@ -6243,7 +6319,7 @@
       <c r="C29" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D29" s="70"/>
+      <c r="D29" s="75"/>
       <c r="E29" s="52" t="s">
         <v>4</v>
       </c>
@@ -6273,7 +6349,7 @@
       <c r="C30" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D30" s="70"/>
+      <c r="D30" s="75"/>
       <c r="E30" s="52" t="s">
         <v>4</v>
       </c>
@@ -6303,7 +6379,7 @@
       <c r="C31" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D31" s="70"/>
+      <c r="D31" s="75"/>
       <c r="E31" s="52" t="s">
         <v>4</v>
       </c>
@@ -6333,7 +6409,7 @@
       <c r="C32" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D32" s="70"/>
+      <c r="D32" s="75"/>
       <c r="E32" s="52" t="s">
         <v>4</v>
       </c>
@@ -6361,7 +6437,7 @@
       <c r="C33" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D33" s="70"/>
+      <c r="D33" s="75"/>
       <c r="E33" s="52" t="s">
         <v>4</v>
       </c>
@@ -6391,7 +6467,7 @@
       <c r="C34" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D34" s="71"/>
+      <c r="D34" s="76"/>
       <c r="E34" s="52" t="s">
         <v>4</v>
       </c>
@@ -6421,7 +6497,7 @@
       <c r="C35" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D35" s="69" t="s">
+      <c r="D35" s="74" t="s">
         <v>169</v>
       </c>
       <c r="E35" s="52" t="s">
@@ -6451,7 +6527,7 @@
       <c r="C36" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D36" s="70"/>
+      <c r="D36" s="75"/>
       <c r="E36" s="52" t="s">
         <v>4</v>
       </c>
@@ -6481,7 +6557,7 @@
       <c r="C37" s="64" t="s">
         <v>401</v>
       </c>
-      <c r="D37" s="70"/>
+      <c r="D37" s="75"/>
       <c r="E37" s="63" t="s">
         <v>4</v>
       </c>
@@ -6509,7 +6585,7 @@
       <c r="C38" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D38" s="70"/>
+      <c r="D38" s="75"/>
       <c r="E38" s="52" t="s">
         <v>4</v>
       </c>
@@ -6539,7 +6615,7 @@
       <c r="C39" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D39" s="72"/>
+      <c r="D39" s="77"/>
       <c r="E39" s="52" t="s">
         <v>4</v>
       </c>
@@ -6562,35 +6638,35 @@
         <v>592</v>
       </c>
     </row>
-    <row r="40" spans="2:11" s="115" customFormat="1" ht="99">
-      <c r="B40" s="111">
+    <row r="40" spans="2:11" s="72" customFormat="1" ht="99">
+      <c r="B40" s="68">
         <v>31</v>
       </c>
-      <c r="C40" s="112" t="s">
+      <c r="C40" s="69" t="s">
         <v>401</v>
       </c>
-      <c r="D40" s="68" t="s">
+      <c r="D40" s="73" t="s">
         <v>171</v>
       </c>
-      <c r="E40" s="111" t="s">
+      <c r="E40" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="F40" s="113" t="s">
+      <c r="F40" s="70" t="s">
         <v>426</v>
       </c>
-      <c r="G40" s="111" t="s">
+      <c r="G40" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="H40" s="114" t="s">
+      <c r="H40" s="71" t="s">
         <v>596</v>
       </c>
-      <c r="I40" s="111" t="s">
+      <c r="I40" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="J40" s="111" t="s">
+      <c r="J40" s="68" t="s">
         <v>210</v>
       </c>
-      <c r="K40" s="114" t="s">
+      <c r="K40" s="71" t="s">
         <v>627</v>
       </c>
     </row>
@@ -6601,7 +6677,7 @@
       <c r="C41" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D41" s="68"/>
+      <c r="D41" s="73"/>
       <c r="E41" s="52" t="s">
         <v>4</v>
       </c>
@@ -6631,7 +6707,7 @@
       <c r="C42" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D42" s="68"/>
+      <c r="D42" s="73"/>
       <c r="E42" s="52" t="s">
         <v>4</v>
       </c>
@@ -6659,7 +6735,7 @@
       <c r="C43" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D43" s="68"/>
+      <c r="D43" s="73"/>
       <c r="E43" s="52" t="s">
         <v>4</v>
       </c>
@@ -6689,7 +6765,7 @@
       <c r="C44" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D44" s="68" t="s">
+      <c r="D44" s="73" t="s">
         <v>173</v>
       </c>
       <c r="E44" s="52" t="s">
@@ -6721,7 +6797,7 @@
       <c r="C45" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D45" s="68"/>
+      <c r="D45" s="73"/>
       <c r="E45" s="52" t="s">
         <v>4</v>
       </c>
@@ -6751,7 +6827,7 @@
       <c r="C46" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D46" s="68"/>
+      <c r="D46" s="73"/>
       <c r="E46" s="52" t="s">
         <v>4</v>
       </c>
@@ -6781,7 +6857,7 @@
       <c r="C47" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D47" s="68"/>
+      <c r="D47" s="73"/>
       <c r="E47" s="52" t="s">
         <v>4</v>
       </c>
@@ -6811,7 +6887,7 @@
       <c r="C48" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="D48" s="68" t="s">
+      <c r="D48" s="73" t="s">
         <v>175</v>
       </c>
       <c r="E48" s="9" t="s">
@@ -6843,7 +6919,7 @@
       <c r="C49" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D49" s="68"/>
+      <c r="D49" s="73"/>
       <c r="E49" s="52" t="s">
         <v>4</v>
       </c>
@@ -6873,7 +6949,7 @@
       <c r="C50" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="D50" s="68"/>
+      <c r="D50" s="73"/>
       <c r="E50" s="9" t="s">
         <v>4</v>
       </c>
@@ -6903,7 +6979,7 @@
       <c r="C51" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D51" s="68"/>
+      <c r="D51" s="73"/>
       <c r="E51" s="52" t="s">
         <v>4</v>
       </c>
@@ -6933,7 +7009,7 @@
       <c r="C52" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D52" s="69" t="s">
+      <c r="D52" s="74" t="s">
         <v>178</v>
       </c>
       <c r="E52" s="52" t="s">
@@ -6965,7 +7041,7 @@
       <c r="C53" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D53" s="71"/>
+      <c r="D53" s="76"/>
       <c r="E53" s="52" t="s">
         <v>4</v>
       </c>
@@ -6995,7 +7071,7 @@
       <c r="C54" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D54" s="69" t="s">
+      <c r="D54" s="74" t="s">
         <v>179</v>
       </c>
       <c r="E54" s="52" t="s">
@@ -7023,7 +7099,7 @@
       <c r="C55" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D55" s="70"/>
+      <c r="D55" s="75"/>
       <c r="E55" s="52" t="s">
         <v>4</v>
       </c>
@@ -7051,7 +7127,7 @@
       <c r="C56" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D56" s="70"/>
+      <c r="D56" s="75"/>
       <c r="E56" s="52" t="s">
         <v>4</v>
       </c>
@@ -7081,7 +7157,7 @@
       <c r="C57" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D57" s="70"/>
+      <c r="D57" s="75"/>
       <c r="E57" s="52" t="s">
         <v>4</v>
       </c>
@@ -7111,7 +7187,7 @@
       <c r="C58" s="60" t="s">
         <v>401</v>
       </c>
-      <c r="D58" s="71"/>
+      <c r="D58" s="76"/>
       <c r="E58" s="24" t="s">
         <v>4</v>
       </c>
@@ -7141,7 +7217,7 @@
       <c r="C59" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D59" s="68" t="s">
+      <c r="D59" s="73" t="s">
         <v>180</v>
       </c>
       <c r="E59" s="52" t="s">
@@ -7171,7 +7247,7 @@
       <c r="C60" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D60" s="68"/>
+      <c r="D60" s="73"/>
       <c r="E60" s="52" t="s">
         <v>4</v>
       </c>
@@ -7201,7 +7277,7 @@
       <c r="C61" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D61" s="68"/>
+      <c r="D61" s="73"/>
       <c r="E61" s="52" t="s">
         <v>4</v>
       </c>
@@ -7231,7 +7307,7 @@
       <c r="C62" s="52" t="s">
         <v>401</v>
       </c>
-      <c r="D62" s="68"/>
+      <c r="D62" s="73"/>
       <c r="E62" s="52" t="s">
         <v>4</v>
       </c>
@@ -7311,28 +7387,28 @@
       <c r="B2" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="113" t="s">
         <v>442</v>
       </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="76"/>
+      <c r="D2" s="114"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
     </row>
     <row r="3" spans="1:6" ht="32.450000000000003" customHeight="1" thickBot="1">
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="82" t="s">
         <v>341</v>
       </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="86"/>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83"/>
+      <c r="F3" s="84"/>
     </row>
     <row r="4" spans="1:6" ht="25.15" customHeight="1" thickBot="1">
-      <c r="C4" s="77" t="s">
+      <c r="C4" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="79"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="87"/>
     </row>
     <row r="5" spans="1:6" ht="18" thickBot="1">
       <c r="C5" s="33" t="s">
@@ -7359,12 +7435,12 @@
       <c r="F6" s="35"/>
     </row>
     <row r="7" spans="1:6" ht="27" thickBot="1">
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="82"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="90"/>
     </row>
     <row r="8" spans="1:6" ht="18" thickBot="1">
       <c r="C8" s="37" t="s">
@@ -7459,12 +7535,12 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="27" thickBot="1">
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D14" s="83"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
+      <c r="D14" s="91"/>
+      <c r="E14" s="91"/>
+      <c r="F14" s="91"/>
     </row>
     <row r="15" spans="1:6" ht="18" thickBot="1">
       <c r="C15" s="37" t="s">
@@ -7481,7 +7557,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C16" s="73">
+      <c r="C16" s="78">
         <v>200</v>
       </c>
       <c r="D16" s="39" t="s">
@@ -7495,7 +7571,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C17" s="73"/>
+      <c r="C17" s="78"/>
       <c r="D17" s="39" t="s">
         <v>358</v>
       </c>
@@ -7507,7 +7583,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C18" s="73"/>
+      <c r="C18" s="78"/>
       <c r="D18" s="39" t="s">
         <v>360</v>
       </c>
@@ -7519,7 +7595,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C19" s="73"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="39"/>
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
@@ -7540,28 +7616,28 @@
       <c r="B23" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="C23" s="74" t="s">
+      <c r="C23" s="113" t="s">
         <v>443</v>
       </c>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="76"/>
+      <c r="D23" s="114"/>
+      <c r="E23" s="114"/>
+      <c r="F23" s="115"/>
     </row>
     <row r="24" spans="1:6" ht="18" thickBot="1">
-      <c r="C24" s="84" t="s">
+      <c r="C24" s="82" t="s">
         <v>340</v>
       </c>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="86"/>
+      <c r="D24" s="83"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="84"/>
     </row>
     <row r="25" spans="1:6" ht="27" thickBot="1">
-      <c r="C25" s="77" t="s">
+      <c r="C25" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="79"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="87"/>
     </row>
     <row r="26" spans="1:6" ht="18" thickBot="1">
       <c r="C26" s="33" t="s">
@@ -7588,12 +7664,12 @@
       <c r="F27" s="35"/>
     </row>
     <row r="28" spans="1:6" ht="27" thickBot="1">
-      <c r="C28" s="80" t="s">
+      <c r="C28" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D28" s="81"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="82"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="90"/>
     </row>
     <row r="29" spans="1:6" ht="18" thickBot="1">
       <c r="C29" s="37" t="s">
@@ -7638,12 +7714,12 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="27" thickBot="1">
-      <c r="C32" s="83" t="s">
+      <c r="C32" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D32" s="83"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="91"/>
+      <c r="F32" s="91"/>
     </row>
     <row r="33" spans="1:6" ht="18" thickBot="1">
       <c r="C33" s="37" t="s">
@@ -7660,7 +7736,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C34" s="73">
+      <c r="C34" s="78">
         <v>200</v>
       </c>
       <c r="D34" s="39" t="s">
@@ -7674,7 +7750,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C35" s="73"/>
+      <c r="C35" s="78"/>
       <c r="D35" s="39" t="s">
         <v>358</v>
       </c>
@@ -7686,7 +7762,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C36" s="73"/>
+      <c r="C36" s="78"/>
       <c r="D36" s="39" t="s">
         <v>360</v>
       </c>
@@ -7698,7 +7774,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C37" s="73"/>
+      <c r="C37" s="78"/>
       <c r="D37" s="39"/>
       <c r="E37" s="39"/>
       <c r="F37" s="39"/>
@@ -7719,28 +7795,28 @@
       <c r="B41" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="C41" s="74" t="s">
+      <c r="C41" s="113" t="s">
         <v>444</v>
       </c>
-      <c r="D41" s="75"/>
-      <c r="E41" s="75"/>
-      <c r="F41" s="76"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
+      <c r="F41" s="115"/>
     </row>
     <row r="42" spans="1:6" ht="18" thickBot="1">
-      <c r="C42" s="84" t="s">
+      <c r="C42" s="82" t="s">
         <v>362</v>
       </c>
-      <c r="D42" s="85"/>
-      <c r="E42" s="85"/>
-      <c r="F42" s="86"/>
+      <c r="D42" s="83"/>
+      <c r="E42" s="83"/>
+      <c r="F42" s="84"/>
     </row>
     <row r="43" spans="1:6" ht="27" thickBot="1">
-      <c r="C43" s="77" t="s">
+      <c r="C43" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D43" s="78"/>
-      <c r="E43" s="78"/>
-      <c r="F43" s="79"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="87"/>
     </row>
     <row r="44" spans="1:6" ht="18" thickBot="1">
       <c r="C44" s="33" t="s">
@@ -7767,12 +7843,12 @@
       <c r="F45" s="35"/>
     </row>
     <row r="46" spans="1:6" ht="27" thickBot="1">
-      <c r="C46" s="80" t="s">
+      <c r="C46" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D46" s="81"/>
-      <c r="E46" s="81"/>
-      <c r="F46" s="82"/>
+      <c r="D46" s="89"/>
+      <c r="E46" s="89"/>
+      <c r="F46" s="90"/>
     </row>
     <row r="47" spans="1:6" ht="18" thickBot="1">
       <c r="C47" s="37" t="s">
@@ -7803,12 +7879,12 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="27" thickBot="1">
-      <c r="C49" s="83" t="s">
+      <c r="C49" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D49" s="83"/>
-      <c r="E49" s="83"/>
-      <c r="F49" s="83"/>
+      <c r="D49" s="91"/>
+      <c r="E49" s="91"/>
+      <c r="F49" s="91"/>
     </row>
     <row r="50" spans="1:6" ht="18" thickBot="1">
       <c r="C50" s="37" t="s">
@@ -7825,7 +7901,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C51" s="73">
+      <c r="C51" s="78">
         <v>200</v>
       </c>
       <c r="D51" s="39" t="s">
@@ -7839,7 +7915,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C52" s="73"/>
+      <c r="C52" s="78"/>
       <c r="D52" s="39" t="s">
         <v>358</v>
       </c>
@@ -7851,7 +7927,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C53" s="73"/>
+      <c r="C53" s="78"/>
       <c r="D53" s="39" t="s">
         <v>360</v>
       </c>
@@ -7863,7 +7939,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C54" s="73"/>
+      <c r="C54" s="78"/>
       <c r="D54" s="39"/>
       <c r="E54" s="39"/>
       <c r="F54" s="39"/>
@@ -7884,28 +7960,28 @@
       <c r="B58" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="C58" s="74" t="s">
+      <c r="C58" s="113" t="s">
         <v>445</v>
       </c>
-      <c r="D58" s="75"/>
-      <c r="E58" s="75"/>
-      <c r="F58" s="76"/>
+      <c r="D58" s="114"/>
+      <c r="E58" s="114"/>
+      <c r="F58" s="115"/>
     </row>
     <row r="59" spans="1:6" ht="18" thickBot="1">
-      <c r="C59" s="84" t="s">
+      <c r="C59" s="82" t="s">
         <v>370</v>
       </c>
-      <c r="D59" s="85"/>
-      <c r="E59" s="85"/>
-      <c r="F59" s="86"/>
+      <c r="D59" s="83"/>
+      <c r="E59" s="83"/>
+      <c r="F59" s="84"/>
     </row>
     <row r="60" spans="1:6" ht="27" thickBot="1">
-      <c r="C60" s="77" t="s">
+      <c r="C60" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D60" s="78"/>
-      <c r="E60" s="78"/>
-      <c r="F60" s="79"/>
+      <c r="D60" s="86"/>
+      <c r="E60" s="86"/>
+      <c r="F60" s="87"/>
     </row>
     <row r="61" spans="1:6" ht="18" thickBot="1">
       <c r="C61" s="33" t="s">
@@ -7932,12 +8008,12 @@
       <c r="F62" s="35"/>
     </row>
     <row r="63" spans="1:6" ht="27" thickBot="1">
-      <c r="C63" s="80" t="s">
+      <c r="C63" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D63" s="81"/>
-      <c r="E63" s="81"/>
-      <c r="F63" s="82"/>
+      <c r="D63" s="89"/>
+      <c r="E63" s="89"/>
+      <c r="F63" s="90"/>
     </row>
     <row r="64" spans="1:6" ht="18" thickBot="1">
       <c r="C64" s="37" t="s">
@@ -7968,12 +8044,12 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="27" thickBot="1">
-      <c r="C66" s="83" t="s">
+      <c r="C66" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D66" s="83"/>
-      <c r="E66" s="83"/>
-      <c r="F66" s="83"/>
+      <c r="D66" s="91"/>
+      <c r="E66" s="91"/>
+      <c r="F66" s="91"/>
     </row>
     <row r="67" spans="1:6" ht="18" thickBot="1">
       <c r="C67" s="37" t="s">
@@ -7990,7 +8066,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C68" s="73">
+      <c r="C68" s="78">
         <v>200</v>
       </c>
       <c r="D68" s="39" t="s">
@@ -8004,7 +8080,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C69" s="73"/>
+      <c r="C69" s="78"/>
       <c r="D69" s="39" t="s">
         <v>358</v>
       </c>
@@ -8016,7 +8092,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C70" s="73"/>
+      <c r="C70" s="78"/>
       <c r="D70" s="39" t="s">
         <v>360</v>
       </c>
@@ -8028,7 +8104,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C71" s="73"/>
+      <c r="C71" s="78"/>
       <c r="D71" s="39"/>
       <c r="E71" s="39"/>
       <c r="F71" s="39"/>
@@ -8049,28 +8125,28 @@
       <c r="B75" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="C75" s="74" t="s">
+      <c r="C75" s="113" t="s">
         <v>446</v>
       </c>
-      <c r="D75" s="75"/>
-      <c r="E75" s="75"/>
-      <c r="F75" s="76"/>
+      <c r="D75" s="114"/>
+      <c r="E75" s="114"/>
+      <c r="F75" s="115"/>
     </row>
     <row r="76" spans="1:6" ht="18" thickBot="1">
-      <c r="C76" s="84" t="s">
+      <c r="C76" s="82" t="s">
         <v>369</v>
       </c>
-      <c r="D76" s="85"/>
-      <c r="E76" s="85"/>
-      <c r="F76" s="86"/>
+      <c r="D76" s="83"/>
+      <c r="E76" s="83"/>
+      <c r="F76" s="84"/>
     </row>
     <row r="77" spans="1:6" ht="27" thickBot="1">
-      <c r="C77" s="77" t="s">
+      <c r="C77" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D77" s="78"/>
-      <c r="E77" s="78"/>
-      <c r="F77" s="79"/>
+      <c r="D77" s="86"/>
+      <c r="E77" s="86"/>
+      <c r="F77" s="87"/>
     </row>
     <row r="78" spans="1:6" ht="18" thickBot="1">
       <c r="C78" s="33" t="s">
@@ -8097,12 +8173,12 @@
       <c r="F79" s="35"/>
     </row>
     <row r="80" spans="1:6" ht="27" thickBot="1">
-      <c r="C80" s="80" t="s">
+      <c r="C80" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D80" s="81"/>
-      <c r="E80" s="81"/>
-      <c r="F80" s="82"/>
+      <c r="D80" s="89"/>
+      <c r="E80" s="89"/>
+      <c r="F80" s="90"/>
     </row>
     <row r="81" spans="1:6" ht="18" thickBot="1">
       <c r="C81" s="37" t="s">
@@ -8133,12 +8209,12 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="27" thickBot="1">
-      <c r="C83" s="83" t="s">
+      <c r="C83" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D83" s="83"/>
-      <c r="E83" s="83"/>
-      <c r="F83" s="83"/>
+      <c r="D83" s="91"/>
+      <c r="E83" s="91"/>
+      <c r="F83" s="91"/>
     </row>
     <row r="84" spans="1:6" ht="18" thickBot="1">
       <c r="C84" s="37" t="s">
@@ -8155,7 +8231,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C85" s="73">
+      <c r="C85" s="78">
         <v>200</v>
       </c>
       <c r="D85" s="39" t="s">
@@ -8169,7 +8245,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C86" s="73"/>
+      <c r="C86" s="78"/>
       <c r="D86" s="39" t="s">
         <v>358</v>
       </c>
@@ -8181,7 +8257,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C87" s="73"/>
+      <c r="C87" s="78"/>
       <c r="D87" s="39" t="s">
         <v>360</v>
       </c>
@@ -8193,7 +8269,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C88" s="73"/>
+      <c r="C88" s="78"/>
       <c r="D88" s="39"/>
       <c r="E88" s="39"/>
       <c r="F88" s="39"/>
@@ -8214,28 +8290,28 @@
       <c r="B92" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C92" s="87" t="s">
+      <c r="C92" s="110" t="s">
         <v>447</v>
       </c>
-      <c r="D92" s="88"/>
-      <c r="E92" s="88"/>
-      <c r="F92" s="89"/>
+      <c r="D92" s="111"/>
+      <c r="E92" s="111"/>
+      <c r="F92" s="112"/>
     </row>
     <row r="93" spans="1:6" ht="18" thickBot="1">
-      <c r="C93" s="84" t="s">
+      <c r="C93" s="82" t="s">
         <v>368</v>
       </c>
-      <c r="D93" s="85"/>
-      <c r="E93" s="85"/>
-      <c r="F93" s="86"/>
+      <c r="D93" s="83"/>
+      <c r="E93" s="83"/>
+      <c r="F93" s="84"/>
     </row>
     <row r="94" spans="1:6" ht="27" thickBot="1">
-      <c r="C94" s="77" t="s">
+      <c r="C94" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D94" s="78"/>
-      <c r="E94" s="78"/>
-      <c r="F94" s="79"/>
+      <c r="D94" s="86"/>
+      <c r="E94" s="86"/>
+      <c r="F94" s="87"/>
     </row>
     <row r="95" spans="1:6" ht="18" thickBot="1">
       <c r="C95" s="33" t="s">
@@ -8278,12 +8354,12 @@
       <c r="F97" s="35"/>
     </row>
     <row r="98" spans="1:6" ht="27" thickBot="1">
-      <c r="C98" s="80" t="s">
+      <c r="C98" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D98" s="81"/>
-      <c r="E98" s="81"/>
-      <c r="F98" s="82"/>
+      <c r="D98" s="89"/>
+      <c r="E98" s="89"/>
+      <c r="F98" s="90"/>
     </row>
     <row r="99" spans="1:6" ht="18" thickBot="1">
       <c r="C99" s="37" t="s">
@@ -8314,12 +8390,12 @@
       </c>
     </row>
     <row r="101" spans="1:6" ht="27" thickBot="1">
-      <c r="C101" s="83" t="s">
+      <c r="C101" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D101" s="83"/>
-      <c r="E101" s="83"/>
-      <c r="F101" s="83"/>
+      <c r="D101" s="91"/>
+      <c r="E101" s="91"/>
+      <c r="F101" s="91"/>
     </row>
     <row r="102" spans="1:6" ht="18" thickBot="1">
       <c r="C102" s="37" t="s">
@@ -8336,7 +8412,7 @@
       </c>
     </row>
     <row r="103" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C103" s="73">
+      <c r="C103" s="78">
         <v>200</v>
       </c>
       <c r="D103" s="39" t="s">
@@ -8350,7 +8426,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C104" s="73"/>
+      <c r="C104" s="78"/>
       <c r="D104" s="39" t="s">
         <v>358</v>
       </c>
@@ -8362,7 +8438,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C105" s="73"/>
+      <c r="C105" s="78"/>
       <c r="D105" s="39" t="s">
         <v>360</v>
       </c>
@@ -8374,7 +8450,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C106" s="73"/>
+      <c r="C106" s="78"/>
       <c r="D106" s="39"/>
       <c r="E106" s="39"/>
       <c r="F106" s="39"/>
@@ -8395,28 +8471,28 @@
       <c r="B110" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C110" s="87" t="s">
+      <c r="C110" s="110" t="s">
         <v>448</v>
       </c>
-      <c r="D110" s="88"/>
-      <c r="E110" s="88"/>
-      <c r="F110" s="89"/>
+      <c r="D110" s="111"/>
+      <c r="E110" s="111"/>
+      <c r="F110" s="112"/>
     </row>
     <row r="111" spans="1:6" ht="18" thickBot="1">
-      <c r="C111" s="84" t="s">
+      <c r="C111" s="82" t="s">
         <v>373</v>
       </c>
-      <c r="D111" s="85"/>
-      <c r="E111" s="85"/>
-      <c r="F111" s="86"/>
+      <c r="D111" s="83"/>
+      <c r="E111" s="83"/>
+      <c r="F111" s="84"/>
     </row>
     <row r="112" spans="1:6" ht="27" thickBot="1">
-      <c r="C112" s="77" t="s">
+      <c r="C112" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D112" s="78"/>
-      <c r="E112" s="78"/>
-      <c r="F112" s="79"/>
+      <c r="D112" s="86"/>
+      <c r="E112" s="86"/>
+      <c r="F112" s="87"/>
     </row>
     <row r="113" spans="1:6" ht="18" thickBot="1">
       <c r="C113" s="33" t="s">
@@ -8457,12 +8533,12 @@
       <c r="F115" s="35"/>
     </row>
     <row r="116" spans="1:6" ht="27" thickBot="1">
-      <c r="C116" s="80" t="s">
+      <c r="C116" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D116" s="81"/>
-      <c r="E116" s="81"/>
-      <c r="F116" s="82"/>
+      <c r="D116" s="89"/>
+      <c r="E116" s="89"/>
+      <c r="F116" s="90"/>
     </row>
     <row r="117" spans="1:6" ht="18" thickBot="1">
       <c r="C117" s="37" t="s">
@@ -8493,12 +8569,12 @@
       </c>
     </row>
     <row r="119" spans="1:6" ht="27" thickBot="1">
-      <c r="C119" s="83" t="s">
+      <c r="C119" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D119" s="83"/>
-      <c r="E119" s="83"/>
-      <c r="F119" s="83"/>
+      <c r="D119" s="91"/>
+      <c r="E119" s="91"/>
+      <c r="F119" s="91"/>
     </row>
     <row r="120" spans="1:6" ht="18" thickBot="1">
       <c r="C120" s="37" t="s">
@@ -8515,7 +8591,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C121" s="73">
+      <c r="C121" s="78">
         <v>200</v>
       </c>
       <c r="D121" s="39" t="s">
@@ -8529,7 +8605,7 @@
       </c>
     </row>
     <row r="122" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C122" s="73"/>
+      <c r="C122" s="78"/>
       <c r="D122" s="39" t="s">
         <v>358</v>
       </c>
@@ -8541,7 +8617,7 @@
       </c>
     </row>
     <row r="123" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C123" s="73"/>
+      <c r="C123" s="78"/>
       <c r="D123" s="39" t="s">
         <v>360</v>
       </c>
@@ -8553,7 +8629,7 @@
       </c>
     </row>
     <row r="124" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C124" s="73"/>
+      <c r="C124" s="78"/>
       <c r="D124" s="39"/>
       <c r="E124" s="39"/>
       <c r="F124" s="39"/>
@@ -8574,28 +8650,28 @@
       <c r="B128" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C128" s="87" t="s">
+      <c r="C128" s="110" t="s">
         <v>449</v>
       </c>
-      <c r="D128" s="88"/>
-      <c r="E128" s="88"/>
-      <c r="F128" s="89"/>
+      <c r="D128" s="111"/>
+      <c r="E128" s="111"/>
+      <c r="F128" s="112"/>
     </row>
     <row r="129" spans="1:6" ht="18" thickBot="1">
-      <c r="C129" s="84" t="s">
+      <c r="C129" s="82" t="s">
         <v>374</v>
       </c>
-      <c r="D129" s="85"/>
-      <c r="E129" s="85"/>
-      <c r="F129" s="86"/>
+      <c r="D129" s="83"/>
+      <c r="E129" s="83"/>
+      <c r="F129" s="84"/>
     </row>
     <row r="130" spans="1:6" ht="27" thickBot="1">
-      <c r="C130" s="77" t="s">
+      <c r="C130" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D130" s="78"/>
-      <c r="E130" s="78"/>
-      <c r="F130" s="79"/>
+      <c r="D130" s="86"/>
+      <c r="E130" s="86"/>
+      <c r="F130" s="87"/>
     </row>
     <row r="131" spans="1:6" ht="18" thickBot="1">
       <c r="C131" s="33" t="s">
@@ -8636,12 +8712,12 @@
       <c r="F133" s="35"/>
     </row>
     <row r="134" spans="1:6" ht="27" thickBot="1">
-      <c r="C134" s="80" t="s">
+      <c r="C134" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D134" s="81"/>
-      <c r="E134" s="81"/>
-      <c r="F134" s="82"/>
+      <c r="D134" s="89"/>
+      <c r="E134" s="89"/>
+      <c r="F134" s="90"/>
     </row>
     <row r="135" spans="1:6" ht="18" thickBot="1">
       <c r="C135" s="37" t="s">
@@ -8688,12 +8764,12 @@
       </c>
     </row>
     <row r="138" spans="1:6" ht="27" thickBot="1">
-      <c r="C138" s="83" t="s">
+      <c r="C138" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D138" s="83"/>
-      <c r="E138" s="83"/>
-      <c r="F138" s="83"/>
+      <c r="D138" s="91"/>
+      <c r="E138" s="91"/>
+      <c r="F138" s="91"/>
     </row>
     <row r="139" spans="1:6" ht="18" thickBot="1">
       <c r="C139" s="37" t="s">
@@ -8710,7 +8786,7 @@
       </c>
     </row>
     <row r="140" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C140" s="73">
+      <c r="C140" s="78">
         <v>200</v>
       </c>
       <c r="D140" s="39" t="s">
@@ -8724,7 +8800,7 @@
       </c>
     </row>
     <row r="141" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C141" s="73"/>
+      <c r="C141" s="78"/>
       <c r="D141" s="39" t="s">
         <v>358</v>
       </c>
@@ -8736,7 +8812,7 @@
       </c>
     </row>
     <row r="142" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C142" s="73"/>
+      <c r="C142" s="78"/>
       <c r="D142" s="39" t="s">
         <v>360</v>
       </c>
@@ -8748,7 +8824,7 @@
       </c>
     </row>
     <row r="143" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C143" s="73"/>
+      <c r="C143" s="78"/>
       <c r="D143" s="39"/>
       <c r="E143" s="39"/>
       <c r="F143" s="39"/>
@@ -8769,28 +8845,28 @@
       <c r="B147" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C147" s="87" t="s">
+      <c r="C147" s="110" t="s">
         <v>450</v>
       </c>
-      <c r="D147" s="88"/>
-      <c r="E147" s="88"/>
-      <c r="F147" s="89"/>
+      <c r="D147" s="111"/>
+      <c r="E147" s="111"/>
+      <c r="F147" s="112"/>
     </row>
     <row r="148" spans="1:6" ht="18" thickBot="1">
-      <c r="C148" s="84" t="s">
+      <c r="C148" s="82" t="s">
         <v>388</v>
       </c>
-      <c r="D148" s="85"/>
-      <c r="E148" s="85"/>
-      <c r="F148" s="86"/>
+      <c r="D148" s="83"/>
+      <c r="E148" s="83"/>
+      <c r="F148" s="84"/>
     </row>
     <row r="149" spans="1:6" ht="27" thickBot="1">
-      <c r="C149" s="77" t="s">
+      <c r="C149" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D149" s="78"/>
-      <c r="E149" s="78"/>
-      <c r="F149" s="79"/>
+      <c r="D149" s="86"/>
+      <c r="E149" s="86"/>
+      <c r="F149" s="87"/>
     </row>
     <row r="150" spans="1:6" ht="18" thickBot="1">
       <c r="C150" s="33" t="s">
@@ -8831,12 +8907,12 @@
       <c r="F152" s="35"/>
     </row>
     <row r="153" spans="1:6" ht="27" thickBot="1">
-      <c r="C153" s="80" t="s">
+      <c r="C153" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D153" s="81"/>
-      <c r="E153" s="81"/>
-      <c r="F153" s="82"/>
+      <c r="D153" s="89"/>
+      <c r="E153" s="89"/>
+      <c r="F153" s="90"/>
     </row>
     <row r="154" spans="1:6" ht="18" thickBot="1">
       <c r="C154" s="37" t="s">
@@ -8953,12 +9029,12 @@
       <c r="F161" s="38"/>
     </row>
     <row r="162" spans="1:6" ht="27" thickBot="1">
-      <c r="C162" s="83" t="s">
+      <c r="C162" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D162" s="83"/>
-      <c r="E162" s="83"/>
-      <c r="F162" s="83"/>
+      <c r="D162" s="91"/>
+      <c r="E162" s="91"/>
+      <c r="F162" s="91"/>
     </row>
     <row r="163" spans="1:6" ht="18" thickBot="1">
       <c r="C163" s="37" t="s">
@@ -8975,7 +9051,7 @@
       </c>
     </row>
     <row r="164" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C164" s="73">
+      <c r="C164" s="78">
         <v>200</v>
       </c>
       <c r="D164" s="39" t="s">
@@ -8989,7 +9065,7 @@
       </c>
     </row>
     <row r="165" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C165" s="73"/>
+      <c r="C165" s="78"/>
       <c r="D165" s="39" t="s">
         <v>358</v>
       </c>
@@ -9001,7 +9077,7 @@
       </c>
     </row>
     <row r="166" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C166" s="73"/>
+      <c r="C166" s="78"/>
       <c r="D166" s="39" t="s">
         <v>360</v>
       </c>
@@ -9013,7 +9089,7 @@
       </c>
     </row>
     <row r="167" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C167" s="73"/>
+      <c r="C167" s="78"/>
       <c r="D167" s="39"/>
       <c r="E167" s="39"/>
       <c r="F167" s="39"/>
@@ -9034,28 +9110,28 @@
       <c r="B171" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C171" s="87" t="s">
+      <c r="C171" s="110" t="s">
         <v>451</v>
       </c>
-      <c r="D171" s="88"/>
-      <c r="E171" s="88"/>
-      <c r="F171" s="89"/>
+      <c r="D171" s="111"/>
+      <c r="E171" s="111"/>
+      <c r="F171" s="112"/>
     </row>
     <row r="172" spans="1:6" ht="18" thickBot="1">
-      <c r="C172" s="84" t="s">
+      <c r="C172" s="82" t="s">
         <v>389</v>
       </c>
-      <c r="D172" s="85"/>
-      <c r="E172" s="85"/>
-      <c r="F172" s="86"/>
+      <c r="D172" s="83"/>
+      <c r="E172" s="83"/>
+      <c r="F172" s="84"/>
     </row>
     <row r="173" spans="1:6" ht="27" thickBot="1">
-      <c r="C173" s="77" t="s">
+      <c r="C173" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D173" s="78"/>
-      <c r="E173" s="78"/>
-      <c r="F173" s="79"/>
+      <c r="D173" s="86"/>
+      <c r="E173" s="86"/>
+      <c r="F173" s="87"/>
     </row>
     <row r="174" spans="1:6" ht="18" thickBot="1">
       <c r="C174" s="33" t="s">
@@ -9096,12 +9172,12 @@
       <c r="F176" s="35"/>
     </row>
     <row r="177" spans="1:6" ht="27" thickBot="1">
-      <c r="C177" s="80" t="s">
+      <c r="C177" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D177" s="81"/>
-      <c r="E177" s="81"/>
-      <c r="F177" s="82"/>
+      <c r="D177" s="89"/>
+      <c r="E177" s="89"/>
+      <c r="F177" s="90"/>
     </row>
     <row r="178" spans="1:6" ht="18" thickBot="1">
       <c r="C178" s="37" t="s">
@@ -9152,12 +9228,12 @@
       <c r="F181" s="38"/>
     </row>
     <row r="182" spans="1:6" ht="27" thickBot="1">
-      <c r="C182" s="83" t="s">
+      <c r="C182" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D182" s="83"/>
-      <c r="E182" s="83"/>
-      <c r="F182" s="83"/>
+      <c r="D182" s="91"/>
+      <c r="E182" s="91"/>
+      <c r="F182" s="91"/>
     </row>
     <row r="183" spans="1:6" ht="18" thickBot="1">
       <c r="C183" s="37" t="s">
@@ -9174,7 +9250,7 @@
       </c>
     </row>
     <row r="184" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C184" s="73">
+      <c r="C184" s="78">
         <v>200</v>
       </c>
       <c r="D184" s="39" t="s">
@@ -9188,7 +9264,7 @@
       </c>
     </row>
     <row r="185" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C185" s="73"/>
+      <c r="C185" s="78"/>
       <c r="D185" s="39" t="s">
         <v>358</v>
       </c>
@@ -9200,7 +9276,7 @@
       </c>
     </row>
     <row r="186" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C186" s="73"/>
+      <c r="C186" s="78"/>
       <c r="D186" s="39" t="s">
         <v>360</v>
       </c>
@@ -9212,7 +9288,7 @@
       </c>
     </row>
     <row r="187" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C187" s="73"/>
+      <c r="C187" s="78"/>
       <c r="D187" s="39"/>
       <c r="E187" s="39"/>
       <c r="F187" s="39"/>
@@ -9233,28 +9309,28 @@
       <c r="B191" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C191" s="87" t="s">
+      <c r="C191" s="110" t="s">
         <v>452</v>
       </c>
-      <c r="D191" s="88"/>
-      <c r="E191" s="88"/>
-      <c r="F191" s="89"/>
+      <c r="D191" s="111"/>
+      <c r="E191" s="111"/>
+      <c r="F191" s="112"/>
     </row>
     <row r="192" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="C192" s="84" t="s">
+      <c r="C192" s="82" t="s">
         <v>394</v>
       </c>
-      <c r="D192" s="85"/>
-      <c r="E192" s="85"/>
-      <c r="F192" s="86"/>
+      <c r="D192" s="83"/>
+      <c r="E192" s="83"/>
+      <c r="F192" s="84"/>
     </row>
     <row r="193" spans="3:6" ht="27" thickBot="1">
-      <c r="C193" s="77" t="s">
+      <c r="C193" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D193" s="78"/>
-      <c r="E193" s="78"/>
-      <c r="F193" s="79"/>
+      <c r="D193" s="86"/>
+      <c r="E193" s="86"/>
+      <c r="F193" s="87"/>
     </row>
     <row r="194" spans="3:6" ht="18" thickBot="1">
       <c r="C194" s="33" t="s">
@@ -9295,12 +9371,12 @@
       <c r="F196" s="35"/>
     </row>
     <row r="197" spans="3:6" ht="27" thickBot="1">
-      <c r="C197" s="80" t="s">
+      <c r="C197" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D197" s="81"/>
-      <c r="E197" s="81"/>
-      <c r="F197" s="82"/>
+      <c r="D197" s="89"/>
+      <c r="E197" s="89"/>
+      <c r="F197" s="90"/>
     </row>
     <row r="198" spans="3:6" ht="18" thickBot="1">
       <c r="C198" s="37" t="s">
@@ -9337,12 +9413,12 @@
       <c r="F200" s="38"/>
     </row>
     <row r="201" spans="3:6" ht="27" thickBot="1">
-      <c r="C201" s="83" t="s">
+      <c r="C201" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D201" s="83"/>
-      <c r="E201" s="83"/>
-      <c r="F201" s="83"/>
+      <c r="D201" s="91"/>
+      <c r="E201" s="91"/>
+      <c r="F201" s="91"/>
     </row>
     <row r="202" spans="3:6" ht="18" thickBot="1">
       <c r="C202" s="37" t="s">
@@ -9359,7 +9435,7 @@
       </c>
     </row>
     <row r="203" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C203" s="73">
+      <c r="C203" s="78">
         <v>200</v>
       </c>
       <c r="D203" s="39" t="s">
@@ -9373,7 +9449,7 @@
       </c>
     </row>
     <row r="204" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C204" s="73"/>
+      <c r="C204" s="78"/>
       <c r="D204" s="39" t="s">
         <v>358</v>
       </c>
@@ -9385,7 +9461,7 @@
       </c>
     </row>
     <row r="205" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C205" s="73"/>
+      <c r="C205" s="78"/>
       <c r="D205" s="39" t="s">
         <v>360</v>
       </c>
@@ -9397,7 +9473,7 @@
       </c>
     </row>
     <row r="206" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C206" s="73"/>
+      <c r="C206" s="78"/>
       <c r="D206" s="39"/>
       <c r="E206" s="39"/>
       <c r="F206" s="39"/>
@@ -9418,28 +9494,28 @@
       <c r="B210" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C210" s="87" t="s">
+      <c r="C210" s="110" t="s">
         <v>453</v>
       </c>
-      <c r="D210" s="88"/>
-      <c r="E210" s="88"/>
-      <c r="F210" s="89"/>
+      <c r="D210" s="111"/>
+      <c r="E210" s="111"/>
+      <c r="F210" s="112"/>
     </row>
     <row r="211" spans="1:6" ht="18" thickBot="1">
-      <c r="C211" s="84" t="s">
+      <c r="C211" s="82" t="s">
         <v>395</v>
       </c>
-      <c r="D211" s="85"/>
-      <c r="E211" s="85"/>
-      <c r="F211" s="86"/>
+      <c r="D211" s="83"/>
+      <c r="E211" s="83"/>
+      <c r="F211" s="84"/>
     </row>
     <row r="212" spans="1:6" ht="27" thickBot="1">
-      <c r="C212" s="77" t="s">
+      <c r="C212" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D212" s="78"/>
-      <c r="E212" s="78"/>
-      <c r="F212" s="79"/>
+      <c r="D212" s="86"/>
+      <c r="E212" s="86"/>
+      <c r="F212" s="87"/>
     </row>
     <row r="213" spans="1:6" ht="18" thickBot="1">
       <c r="C213" s="33" t="s">
@@ -9480,12 +9556,12 @@
       <c r="F215" s="35"/>
     </row>
     <row r="216" spans="1:6" ht="27" thickBot="1">
-      <c r="C216" s="80" t="s">
+      <c r="C216" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D216" s="81"/>
-      <c r="E216" s="81"/>
-      <c r="F216" s="82"/>
+      <c r="D216" s="89"/>
+      <c r="E216" s="89"/>
+      <c r="F216" s="90"/>
     </row>
     <row r="217" spans="1:6" ht="18" thickBot="1">
       <c r="C217" s="37" t="s">
@@ -9536,12 +9612,12 @@
       <c r="F220" s="38"/>
     </row>
     <row r="221" spans="1:6" ht="27" thickBot="1">
-      <c r="C221" s="83" t="s">
+      <c r="C221" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D221" s="83"/>
-      <c r="E221" s="83"/>
-      <c r="F221" s="83"/>
+      <c r="D221" s="91"/>
+      <c r="E221" s="91"/>
+      <c r="F221" s="91"/>
     </row>
     <row r="222" spans="1:6" ht="18" thickBot="1">
       <c r="C222" s="37" t="s">
@@ -9558,7 +9634,7 @@
       </c>
     </row>
     <row r="223" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C223" s="73">
+      <c r="C223" s="78">
         <v>200</v>
       </c>
       <c r="D223" s="39" t="s">
@@ -9572,7 +9648,7 @@
       </c>
     </row>
     <row r="224" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C224" s="73"/>
+      <c r="C224" s="78"/>
       <c r="D224" s="39" t="s">
         <v>358</v>
       </c>
@@ -9584,7 +9660,7 @@
       </c>
     </row>
     <row r="225" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C225" s="73"/>
+      <c r="C225" s="78"/>
       <c r="D225" s="39" t="s">
         <v>360</v>
       </c>
@@ -9596,7 +9672,7 @@
       </c>
     </row>
     <row r="226" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C226" s="73"/>
+      <c r="C226" s="78"/>
       <c r="D226" s="39"/>
       <c r="E226" s="39"/>
       <c r="F226" s="39"/>
@@ -9617,28 +9693,28 @@
       <c r="B230" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C230" s="87" t="s">
+      <c r="C230" s="110" t="s">
         <v>454</v>
       </c>
-      <c r="D230" s="88"/>
-      <c r="E230" s="88"/>
-      <c r="F230" s="89"/>
+      <c r="D230" s="111"/>
+      <c r="E230" s="111"/>
+      <c r="F230" s="112"/>
     </row>
     <row r="231" spans="1:6" ht="18" thickBot="1">
-      <c r="C231" s="84" t="s">
+      <c r="C231" s="82" t="s">
         <v>478</v>
       </c>
-      <c r="D231" s="85"/>
-      <c r="E231" s="85"/>
-      <c r="F231" s="86"/>
+      <c r="D231" s="83"/>
+      <c r="E231" s="83"/>
+      <c r="F231" s="84"/>
     </row>
     <row r="232" spans="1:6" ht="27" thickBot="1">
-      <c r="C232" s="77" t="s">
+      <c r="C232" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D232" s="78"/>
-      <c r="E232" s="78"/>
-      <c r="F232" s="79"/>
+      <c r="D232" s="86"/>
+      <c r="E232" s="86"/>
+      <c r="F232" s="87"/>
     </row>
     <row r="233" spans="1:6" ht="18" thickBot="1">
       <c r="C233" s="33" t="s">
@@ -9679,12 +9755,12 @@
       <c r="F235" s="35"/>
     </row>
     <row r="236" spans="1:6" ht="27" thickBot="1">
-      <c r="C236" s="80" t="s">
+      <c r="C236" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D236" s="81"/>
-      <c r="E236" s="81"/>
-      <c r="F236" s="82"/>
+      <c r="D236" s="89"/>
+      <c r="E236" s="89"/>
+      <c r="F236" s="90"/>
     </row>
     <row r="237" spans="1:6" ht="18" thickBot="1">
       <c r="C237" s="37" t="s">
@@ -9721,12 +9797,12 @@
       <c r="F239" s="38"/>
     </row>
     <row r="240" spans="1:6" ht="27" thickBot="1">
-      <c r="C240" s="83" t="s">
+      <c r="C240" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D240" s="83"/>
-      <c r="E240" s="83"/>
-      <c r="F240" s="83"/>
+      <c r="D240" s="91"/>
+      <c r="E240" s="91"/>
+      <c r="F240" s="91"/>
     </row>
     <row r="241" spans="1:6" ht="18" thickBot="1">
       <c r="C241" s="37" t="s">
@@ -9743,7 +9819,7 @@
       </c>
     </row>
     <row r="242" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C242" s="73">
+      <c r="C242" s="78">
         <v>200</v>
       </c>
       <c r="D242" s="39" t="s">
@@ -9757,7 +9833,7 @@
       </c>
     </row>
     <row r="243" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C243" s="73"/>
+      <c r="C243" s="78"/>
       <c r="D243" s="39" t="s">
         <v>358</v>
       </c>
@@ -9769,7 +9845,7 @@
       </c>
     </row>
     <row r="244" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C244" s="73"/>
+      <c r="C244" s="78"/>
       <c r="D244" s="39" t="s">
         <v>360</v>
       </c>
@@ -9781,7 +9857,7 @@
       </c>
     </row>
     <row r="245" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C245" s="73"/>
+      <c r="C245" s="78"/>
       <c r="D245" s="39"/>
       <c r="E245" s="39"/>
       <c r="F245" s="39"/>
@@ -9802,28 +9878,28 @@
       <c r="B249" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C249" s="87" t="s">
+      <c r="C249" s="110" t="s">
         <v>455</v>
       </c>
-      <c r="D249" s="88"/>
-      <c r="E249" s="88"/>
-      <c r="F249" s="89"/>
+      <c r="D249" s="111"/>
+      <c r="E249" s="111"/>
+      <c r="F249" s="112"/>
     </row>
     <row r="250" spans="1:6" ht="18" thickBot="1">
-      <c r="C250" s="84" t="s">
+      <c r="C250" s="82" t="s">
         <v>477</v>
       </c>
-      <c r="D250" s="85"/>
-      <c r="E250" s="85"/>
-      <c r="F250" s="86"/>
+      <c r="D250" s="83"/>
+      <c r="E250" s="83"/>
+      <c r="F250" s="84"/>
     </row>
     <row r="251" spans="1:6" ht="27" thickBot="1">
-      <c r="C251" s="77" t="s">
+      <c r="C251" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D251" s="78"/>
-      <c r="E251" s="78"/>
-      <c r="F251" s="79"/>
+      <c r="D251" s="86"/>
+      <c r="E251" s="86"/>
+      <c r="F251" s="87"/>
     </row>
     <row r="252" spans="1:6" ht="18" thickBot="1">
       <c r="C252" s="33" t="s">
@@ -9864,12 +9940,12 @@
       <c r="F254" s="35"/>
     </row>
     <row r="255" spans="1:6" ht="27" thickBot="1">
-      <c r="C255" s="80" t="s">
+      <c r="C255" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D255" s="81"/>
-      <c r="E255" s="81"/>
-      <c r="F255" s="82"/>
+      <c r="D255" s="89"/>
+      <c r="E255" s="89"/>
+      <c r="F255" s="90"/>
     </row>
     <row r="256" spans="1:6" ht="18" thickBot="1">
       <c r="C256" s="37" t="s">
@@ -9920,12 +9996,12 @@
       <c r="F259" s="38"/>
     </row>
     <row r="260" spans="1:6" ht="27" thickBot="1">
-      <c r="C260" s="83" t="s">
+      <c r="C260" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D260" s="83"/>
-      <c r="E260" s="83"/>
-      <c r="F260" s="83"/>
+      <c r="D260" s="91"/>
+      <c r="E260" s="91"/>
+      <c r="F260" s="91"/>
     </row>
     <row r="261" spans="1:6" ht="18" thickBot="1">
       <c r="C261" s="37" t="s">
@@ -9942,7 +10018,7 @@
       </c>
     </row>
     <row r="262" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C262" s="73">
+      <c r="C262" s="78">
         <v>200</v>
       </c>
       <c r="D262" s="39" t="s">
@@ -9956,7 +10032,7 @@
       </c>
     </row>
     <row r="263" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C263" s="73"/>
+      <c r="C263" s="78"/>
       <c r="D263" s="39" t="s">
         <v>358</v>
       </c>
@@ -9968,7 +10044,7 @@
       </c>
     </row>
     <row r="264" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C264" s="73"/>
+      <c r="C264" s="78"/>
       <c r="D264" s="39" t="s">
         <v>360</v>
       </c>
@@ -9980,7 +10056,7 @@
       </c>
     </row>
     <row r="265" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C265" s="73"/>
+      <c r="C265" s="78"/>
       <c r="D265" s="39"/>
       <c r="E265" s="39"/>
       <c r="F265" s="39"/>
@@ -10001,28 +10077,28 @@
       <c r="B269" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C269" s="87" t="s">
+      <c r="C269" s="110" t="s">
         <v>456</v>
       </c>
-      <c r="D269" s="88"/>
-      <c r="E269" s="88"/>
-      <c r="F269" s="89"/>
+      <c r="D269" s="111"/>
+      <c r="E269" s="111"/>
+      <c r="F269" s="112"/>
     </row>
     <row r="270" spans="1:6" ht="18" thickBot="1">
-      <c r="C270" s="84" t="s">
+      <c r="C270" s="82" t="s">
         <v>476</v>
       </c>
-      <c r="D270" s="85"/>
-      <c r="E270" s="85"/>
-      <c r="F270" s="86"/>
+      <c r="D270" s="83"/>
+      <c r="E270" s="83"/>
+      <c r="F270" s="84"/>
     </row>
     <row r="271" spans="1:6" ht="27" thickBot="1">
-      <c r="C271" s="77" t="s">
+      <c r="C271" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D271" s="78"/>
-      <c r="E271" s="78"/>
-      <c r="F271" s="79"/>
+      <c r="D271" s="86"/>
+      <c r="E271" s="86"/>
+      <c r="F271" s="87"/>
     </row>
     <row r="272" spans="1:6" ht="18" thickBot="1">
       <c r="C272" s="33" t="s">
@@ -10063,12 +10139,12 @@
       <c r="F274" s="35"/>
     </row>
     <row r="275" spans="1:6" ht="27" thickBot="1">
-      <c r="C275" s="80" t="s">
+      <c r="C275" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D275" s="81"/>
-      <c r="E275" s="81"/>
-      <c r="F275" s="82"/>
+      <c r="D275" s="89"/>
+      <c r="E275" s="89"/>
+      <c r="F275" s="90"/>
     </row>
     <row r="276" spans="1:6" ht="18" thickBot="1">
       <c r="C276" s="37" t="s">
@@ -10105,12 +10181,12 @@
       <c r="F278" s="38"/>
     </row>
     <row r="279" spans="1:6" ht="27" thickBot="1">
-      <c r="C279" s="83" t="s">
+      <c r="C279" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D279" s="83"/>
-      <c r="E279" s="83"/>
-      <c r="F279" s="83"/>
+      <c r="D279" s="91"/>
+      <c r="E279" s="91"/>
+      <c r="F279" s="91"/>
     </row>
     <row r="280" spans="1:6" ht="18" thickBot="1">
       <c r="C280" s="37" t="s">
@@ -10127,7 +10203,7 @@
       </c>
     </row>
     <row r="281" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C281" s="73">
+      <c r="C281" s="78">
         <v>200</v>
       </c>
       <c r="D281" s="39" t="s">
@@ -10141,7 +10217,7 @@
       </c>
     </row>
     <row r="282" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C282" s="73"/>
+      <c r="C282" s="78"/>
       <c r="D282" s="39" t="s">
         <v>358</v>
       </c>
@@ -10153,7 +10229,7 @@
       </c>
     </row>
     <row r="283" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C283" s="73"/>
+      <c r="C283" s="78"/>
       <c r="D283" s="39" t="s">
         <v>360</v>
       </c>
@@ -10165,7 +10241,7 @@
       </c>
     </row>
     <row r="284" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C284" s="73"/>
+      <c r="C284" s="78"/>
       <c r="D284" s="39"/>
       <c r="E284" s="39"/>
       <c r="F284" s="39"/>
@@ -10186,28 +10262,28 @@
       <c r="B288" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C288" s="87" t="s">
+      <c r="C288" s="110" t="s">
         <v>457</v>
       </c>
-      <c r="D288" s="88"/>
-      <c r="E288" s="88"/>
-      <c r="F288" s="89"/>
+      <c r="D288" s="111"/>
+      <c r="E288" s="111"/>
+      <c r="F288" s="112"/>
     </row>
     <row r="289" spans="3:6" ht="18" thickBot="1">
-      <c r="C289" s="84" t="s">
+      <c r="C289" s="82" t="s">
         <v>475</v>
       </c>
-      <c r="D289" s="85"/>
-      <c r="E289" s="85"/>
-      <c r="F289" s="86"/>
+      <c r="D289" s="83"/>
+      <c r="E289" s="83"/>
+      <c r="F289" s="84"/>
     </row>
     <row r="290" spans="3:6" ht="27" thickBot="1">
-      <c r="C290" s="77" t="s">
+      <c r="C290" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D290" s="78"/>
-      <c r="E290" s="78"/>
-      <c r="F290" s="79"/>
+      <c r="D290" s="86"/>
+      <c r="E290" s="86"/>
+      <c r="F290" s="87"/>
     </row>
     <row r="291" spans="3:6" ht="18" thickBot="1">
       <c r="C291" s="33" t="s">
@@ -10248,12 +10324,12 @@
       <c r="F293" s="35"/>
     </row>
     <row r="294" spans="3:6" ht="27" thickBot="1">
-      <c r="C294" s="80" t="s">
+      <c r="C294" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D294" s="81"/>
-      <c r="E294" s="81"/>
-      <c r="F294" s="82"/>
+      <c r="D294" s="89"/>
+      <c r="E294" s="89"/>
+      <c r="F294" s="90"/>
     </row>
     <row r="295" spans="3:6" ht="18" thickBot="1">
       <c r="C295" s="37" t="s">
@@ -10296,12 +10372,12 @@
       <c r="F297" s="38"/>
     </row>
     <row r="298" spans="3:6" ht="27" thickBot="1">
-      <c r="C298" s="83" t="s">
+      <c r="C298" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D298" s="83"/>
-      <c r="E298" s="83"/>
-      <c r="F298" s="83"/>
+      <c r="D298" s="91"/>
+      <c r="E298" s="91"/>
+      <c r="F298" s="91"/>
     </row>
     <row r="299" spans="3:6" ht="18" thickBot="1">
       <c r="C299" s="37" t="s">
@@ -10318,7 +10394,7 @@
       </c>
     </row>
     <row r="300" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C300" s="73">
+      <c r="C300" s="78">
         <v>200</v>
       </c>
       <c r="D300" s="39" t="s">
@@ -10332,7 +10408,7 @@
       </c>
     </row>
     <row r="301" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C301" s="73"/>
+      <c r="C301" s="78"/>
       <c r="D301" s="39" t="s">
         <v>358</v>
       </c>
@@ -10344,7 +10420,7 @@
       </c>
     </row>
     <row r="302" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C302" s="73"/>
+      <c r="C302" s="78"/>
       <c r="D302" s="39" t="s">
         <v>360</v>
       </c>
@@ -10356,7 +10432,7 @@
       </c>
     </row>
     <row r="303" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C303" s="73"/>
+      <c r="C303" s="78"/>
       <c r="D303" s="39"/>
       <c r="E303" s="39"/>
       <c r="F303" s="39"/>
@@ -10377,28 +10453,28 @@
       <c r="B307" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C307" s="87" t="s">
+      <c r="C307" s="110" t="s">
         <v>458</v>
       </c>
-      <c r="D307" s="88"/>
-      <c r="E307" s="88"/>
-      <c r="F307" s="89"/>
+      <c r="D307" s="111"/>
+      <c r="E307" s="111"/>
+      <c r="F307" s="112"/>
     </row>
     <row r="308" spans="1:6" ht="18" thickBot="1">
-      <c r="C308" s="84" t="s">
+      <c r="C308" s="82" t="s">
         <v>474</v>
       </c>
-      <c r="D308" s="85"/>
-      <c r="E308" s="85"/>
-      <c r="F308" s="86"/>
+      <c r="D308" s="83"/>
+      <c r="E308" s="83"/>
+      <c r="F308" s="84"/>
     </row>
     <row r="309" spans="1:6" ht="27" thickBot="1">
-      <c r="C309" s="77" t="s">
+      <c r="C309" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D309" s="78"/>
-      <c r="E309" s="78"/>
-      <c r="F309" s="79"/>
+      <c r="D309" s="86"/>
+      <c r="E309" s="86"/>
+      <c r="F309" s="87"/>
     </row>
     <row r="310" spans="1:6" ht="18" thickBot="1">
       <c r="C310" s="33" t="s">
@@ -10439,12 +10515,12 @@
       <c r="F312" s="35"/>
     </row>
     <row r="313" spans="1:6" ht="27" thickBot="1">
-      <c r="C313" s="80" t="s">
+      <c r="C313" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D313" s="81"/>
-      <c r="E313" s="81"/>
-      <c r="F313" s="82"/>
+      <c r="D313" s="89"/>
+      <c r="E313" s="89"/>
+      <c r="F313" s="90"/>
     </row>
     <row r="314" spans="1:6" ht="18" thickBot="1">
       <c r="C314" s="37" t="s">
@@ -10487,12 +10563,12 @@
       <c r="F316" s="38"/>
     </row>
     <row r="317" spans="1:6" ht="27" thickBot="1">
-      <c r="C317" s="83" t="s">
+      <c r="C317" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D317" s="83"/>
-      <c r="E317" s="83"/>
-      <c r="F317" s="83"/>
+      <c r="D317" s="91"/>
+      <c r="E317" s="91"/>
+      <c r="F317" s="91"/>
     </row>
     <row r="318" spans="1:6" ht="18" thickBot="1">
       <c r="C318" s="37" t="s">
@@ -10509,7 +10585,7 @@
       </c>
     </row>
     <row r="319" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C319" s="73">
+      <c r="C319" s="78">
         <v>200</v>
       </c>
       <c r="D319" s="39" t="s">
@@ -10523,7 +10599,7 @@
       </c>
     </row>
     <row r="320" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C320" s="73"/>
+      <c r="C320" s="78"/>
       <c r="D320" s="39" t="s">
         <v>358</v>
       </c>
@@ -10535,7 +10611,7 @@
       </c>
     </row>
     <row r="321" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C321" s="73"/>
+      <c r="C321" s="78"/>
       <c r="D321" s="39" t="s">
         <v>360</v>
       </c>
@@ -10547,7 +10623,7 @@
       </c>
     </row>
     <row r="322" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C322" s="73"/>
+      <c r="C322" s="78"/>
       <c r="D322" s="39"/>
       <c r="E322" s="39"/>
       <c r="F322" s="39"/>
@@ -10568,28 +10644,28 @@
       <c r="B326" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C326" s="87" t="s">
+      <c r="C326" s="110" t="s">
         <v>459</v>
       </c>
-      <c r="D326" s="88"/>
-      <c r="E326" s="88"/>
-      <c r="F326" s="89"/>
+      <c r="D326" s="111"/>
+      <c r="E326" s="111"/>
+      <c r="F326" s="112"/>
     </row>
     <row r="327" spans="1:6" ht="18" thickBot="1">
-      <c r="C327" s="84" t="s">
+      <c r="C327" s="82" t="s">
         <v>473</v>
       </c>
-      <c r="D327" s="85"/>
-      <c r="E327" s="85"/>
-      <c r="F327" s="86"/>
+      <c r="D327" s="83"/>
+      <c r="E327" s="83"/>
+      <c r="F327" s="84"/>
     </row>
     <row r="328" spans="1:6" ht="27" thickBot="1">
-      <c r="C328" s="77" t="s">
+      <c r="C328" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D328" s="78"/>
-      <c r="E328" s="78"/>
-      <c r="F328" s="79"/>
+      <c r="D328" s="86"/>
+      <c r="E328" s="86"/>
+      <c r="F328" s="87"/>
     </row>
     <row r="329" spans="1:6" ht="18" thickBot="1">
       <c r="C329" s="33" t="s">
@@ -10630,12 +10706,12 @@
       <c r="F331" s="35"/>
     </row>
     <row r="332" spans="1:6" ht="27" thickBot="1">
-      <c r="C332" s="80" t="s">
+      <c r="C332" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D332" s="81"/>
-      <c r="E332" s="81"/>
-      <c r="F332" s="82"/>
+      <c r="D332" s="89"/>
+      <c r="E332" s="89"/>
+      <c r="F332" s="90"/>
     </row>
     <row r="333" spans="1:6" ht="18" thickBot="1">
       <c r="C333" s="37" t="s">
@@ -10678,12 +10754,12 @@
       <c r="F335" s="38"/>
     </row>
     <row r="336" spans="1:6" ht="27" thickBot="1">
-      <c r="C336" s="83" t="s">
+      <c r="C336" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D336" s="83"/>
-      <c r="E336" s="83"/>
-      <c r="F336" s="83"/>
+      <c r="D336" s="91"/>
+      <c r="E336" s="91"/>
+      <c r="F336" s="91"/>
     </row>
     <row r="337" spans="1:6" ht="18" thickBot="1">
       <c r="C337" s="37" t="s">
@@ -10700,7 +10776,7 @@
       </c>
     </row>
     <row r="338" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C338" s="73">
+      <c r="C338" s="78">
         <v>200</v>
       </c>
       <c r="D338" s="39" t="s">
@@ -10714,7 +10790,7 @@
       </c>
     </row>
     <row r="339" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C339" s="73"/>
+      <c r="C339" s="78"/>
       <c r="D339" s="39" t="s">
         <v>358</v>
       </c>
@@ -10726,7 +10802,7 @@
       </c>
     </row>
     <row r="340" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C340" s="73"/>
+      <c r="C340" s="78"/>
       <c r="D340" s="39" t="s">
         <v>360</v>
       </c>
@@ -10738,7 +10814,7 @@
       </c>
     </row>
     <row r="341" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C341" s="73"/>
+      <c r="C341" s="78"/>
       <c r="D341" s="39"/>
       <c r="E341" s="39"/>
       <c r="F341" s="39"/>
@@ -10759,28 +10835,28 @@
       <c r="B345" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C345" s="87" t="s">
+      <c r="C345" s="110" t="s">
         <v>461</v>
       </c>
-      <c r="D345" s="88"/>
-      <c r="E345" s="88"/>
-      <c r="F345" s="89"/>
+      <c r="D345" s="111"/>
+      <c r="E345" s="111"/>
+      <c r="F345" s="112"/>
     </row>
     <row r="346" spans="1:6" ht="18" thickBot="1">
-      <c r="C346" s="84" t="s">
+      <c r="C346" s="82" t="s">
         <v>467</v>
       </c>
-      <c r="D346" s="85"/>
-      <c r="E346" s="85"/>
-      <c r="F346" s="86"/>
+      <c r="D346" s="83"/>
+      <c r="E346" s="83"/>
+      <c r="F346" s="84"/>
     </row>
     <row r="347" spans="1:6" ht="27" thickBot="1">
-      <c r="C347" s="77" t="s">
+      <c r="C347" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D347" s="78"/>
-      <c r="E347" s="78"/>
-      <c r="F347" s="79"/>
+      <c r="D347" s="86"/>
+      <c r="E347" s="86"/>
+      <c r="F347" s="87"/>
     </row>
     <row r="348" spans="1:6" ht="18" thickBot="1">
       <c r="C348" s="33" t="s">
@@ -10821,12 +10897,12 @@
       <c r="F350" s="35"/>
     </row>
     <row r="351" spans="1:6" ht="27" thickBot="1">
-      <c r="C351" s="80" t="s">
+      <c r="C351" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D351" s="81"/>
-      <c r="E351" s="81"/>
-      <c r="F351" s="82"/>
+      <c r="D351" s="89"/>
+      <c r="E351" s="89"/>
+      <c r="F351" s="90"/>
     </row>
     <row r="352" spans="1:6" ht="18" thickBot="1">
       <c r="C352" s="37" t="s">
@@ -10863,12 +10939,12 @@
       <c r="F354" s="38"/>
     </row>
     <row r="355" spans="1:6" ht="27" thickBot="1">
-      <c r="C355" s="83" t="s">
+      <c r="C355" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D355" s="83"/>
-      <c r="E355" s="83"/>
-      <c r="F355" s="83"/>
+      <c r="D355" s="91"/>
+      <c r="E355" s="91"/>
+      <c r="F355" s="91"/>
     </row>
     <row r="356" spans="1:6" ht="18" thickBot="1">
       <c r="C356" s="37" t="s">
@@ -10885,7 +10961,7 @@
       </c>
     </row>
     <row r="357" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C357" s="73">
+      <c r="C357" s="78">
         <v>200</v>
       </c>
       <c r="D357" s="39" t="s">
@@ -10899,7 +10975,7 @@
       </c>
     </row>
     <row r="358" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C358" s="73"/>
+      <c r="C358" s="78"/>
       <c r="D358" s="39" t="s">
         <v>358</v>
       </c>
@@ -10911,7 +10987,7 @@
       </c>
     </row>
     <row r="359" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C359" s="73"/>
+      <c r="C359" s="78"/>
       <c r="D359" s="39" t="s">
         <v>360</v>
       </c>
@@ -10923,7 +10999,7 @@
       </c>
     </row>
     <row r="360" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C360" s="73"/>
+      <c r="C360" s="78"/>
       <c r="D360" s="39"/>
       <c r="E360" s="39"/>
       <c r="F360" s="39"/>
@@ -10944,28 +11020,28 @@
       <c r="B364" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C364" s="87" t="s">
+      <c r="C364" s="110" t="s">
         <v>460</v>
       </c>
-      <c r="D364" s="88"/>
-      <c r="E364" s="88"/>
-      <c r="F364" s="89"/>
+      <c r="D364" s="111"/>
+      <c r="E364" s="111"/>
+      <c r="F364" s="112"/>
     </row>
     <row r="365" spans="1:6" ht="18" thickBot="1">
-      <c r="C365" s="84" t="s">
+      <c r="C365" s="82" t="s">
         <v>466</v>
       </c>
-      <c r="D365" s="85"/>
-      <c r="E365" s="85"/>
-      <c r="F365" s="86"/>
+      <c r="D365" s="83"/>
+      <c r="E365" s="83"/>
+      <c r="F365" s="84"/>
     </row>
     <row r="366" spans="1:6" ht="27" thickBot="1">
-      <c r="C366" s="77" t="s">
+      <c r="C366" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D366" s="78"/>
-      <c r="E366" s="78"/>
-      <c r="F366" s="79"/>
+      <c r="D366" s="86"/>
+      <c r="E366" s="86"/>
+      <c r="F366" s="87"/>
     </row>
     <row r="367" spans="1:6" ht="18" thickBot="1">
       <c r="C367" s="33" t="s">
@@ -11006,12 +11082,12 @@
       <c r="F369" s="35"/>
     </row>
     <row r="370" spans="1:6" ht="27" thickBot="1">
-      <c r="C370" s="80" t="s">
+      <c r="C370" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D370" s="81"/>
-      <c r="E370" s="81"/>
-      <c r="F370" s="82"/>
+      <c r="D370" s="89"/>
+      <c r="E370" s="89"/>
+      <c r="F370" s="90"/>
     </row>
     <row r="371" spans="1:6" ht="18" thickBot="1">
       <c r="C371" s="37" t="s">
@@ -11056,12 +11132,12 @@
       </c>
     </row>
     <row r="374" spans="1:6" ht="27" thickBot="1">
-      <c r="C374" s="83" t="s">
+      <c r="C374" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D374" s="83"/>
-      <c r="E374" s="83"/>
-      <c r="F374" s="83"/>
+      <c r="D374" s="91"/>
+      <c r="E374" s="91"/>
+      <c r="F374" s="91"/>
     </row>
     <row r="375" spans="1:6" ht="18" thickBot="1">
       <c r="C375" s="37" t="s">
@@ -11078,7 +11154,7 @@
       </c>
     </row>
     <row r="376" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C376" s="73">
+      <c r="C376" s="78">
         <v>200</v>
       </c>
       <c r="D376" s="39" t="s">
@@ -11092,7 +11168,7 @@
       </c>
     </row>
     <row r="377" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C377" s="73"/>
+      <c r="C377" s="78"/>
       <c r="D377" s="39" t="s">
         <v>358</v>
       </c>
@@ -11104,7 +11180,7 @@
       </c>
     </row>
     <row r="378" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C378" s="73"/>
+      <c r="C378" s="78"/>
       <c r="D378" s="39" t="s">
         <v>360</v>
       </c>
@@ -11116,7 +11192,7 @@
       </c>
     </row>
     <row r="379" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C379" s="73"/>
+      <c r="C379" s="78"/>
       <c r="D379" s="39"/>
       <c r="E379" s="39"/>
       <c r="F379" s="39"/>
@@ -11137,28 +11213,28 @@
       <c r="B383" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C383" s="87" t="s">
+      <c r="C383" s="110" t="s">
         <v>464</v>
       </c>
-      <c r="D383" s="88"/>
-      <c r="E383" s="88"/>
-      <c r="F383" s="89"/>
+      <c r="D383" s="111"/>
+      <c r="E383" s="111"/>
+      <c r="F383" s="112"/>
     </row>
     <row r="384" spans="1:6" ht="18" thickBot="1">
-      <c r="C384" s="84" t="s">
+      <c r="C384" s="82" t="s">
         <v>465</v>
       </c>
-      <c r="D384" s="85"/>
-      <c r="E384" s="85"/>
-      <c r="F384" s="86"/>
+      <c r="D384" s="83"/>
+      <c r="E384" s="83"/>
+      <c r="F384" s="84"/>
     </row>
     <row r="385" spans="3:6" ht="27" thickBot="1">
-      <c r="C385" s="77" t="s">
+      <c r="C385" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D385" s="78"/>
-      <c r="E385" s="78"/>
-      <c r="F385" s="79"/>
+      <c r="D385" s="86"/>
+      <c r="E385" s="86"/>
+      <c r="F385" s="87"/>
     </row>
     <row r="386" spans="3:6" ht="18" thickBot="1">
       <c r="C386" s="33" t="s">
@@ -11199,12 +11275,12 @@
       <c r="F388" s="35"/>
     </row>
     <row r="389" spans="3:6" ht="27" thickBot="1">
-      <c r="C389" s="80" t="s">
+      <c r="C389" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D389" s="81"/>
-      <c r="E389" s="81"/>
-      <c r="F389" s="82"/>
+      <c r="D389" s="89"/>
+      <c r="E389" s="89"/>
+      <c r="F389" s="90"/>
     </row>
     <row r="390" spans="3:6" ht="18" thickBot="1">
       <c r="C390" s="37" t="s">
@@ -11249,12 +11325,12 @@
       </c>
     </row>
     <row r="393" spans="3:6" ht="27" thickBot="1">
-      <c r="C393" s="83" t="s">
+      <c r="C393" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D393" s="83"/>
-      <c r="E393" s="83"/>
-      <c r="F393" s="83"/>
+      <c r="D393" s="91"/>
+      <c r="E393" s="91"/>
+      <c r="F393" s="91"/>
     </row>
     <row r="394" spans="3:6" ht="18" thickBot="1">
       <c r="C394" s="37" t="s">
@@ -11271,7 +11347,7 @@
       </c>
     </row>
     <row r="395" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C395" s="73">
+      <c r="C395" s="78">
         <v>200</v>
       </c>
       <c r="D395" s="39" t="s">
@@ -11285,7 +11361,7 @@
       </c>
     </row>
     <row r="396" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C396" s="73"/>
+      <c r="C396" s="78"/>
       <c r="D396" s="39" t="s">
         <v>358</v>
       </c>
@@ -11297,7 +11373,7 @@
       </c>
     </row>
     <row r="397" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C397" s="73"/>
+      <c r="C397" s="78"/>
       <c r="D397" s="39" t="s">
         <v>360</v>
       </c>
@@ -11309,7 +11385,7 @@
       </c>
     </row>
     <row r="398" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C398" s="73"/>
+      <c r="C398" s="78"/>
       <c r="D398" s="39"/>
       <c r="E398" s="39"/>
       <c r="F398" s="39"/>
@@ -11330,28 +11406,28 @@
       <c r="B402" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C402" s="87" t="s">
+      <c r="C402" s="110" t="s">
         <v>469</v>
       </c>
-      <c r="D402" s="88"/>
-      <c r="E402" s="88"/>
-      <c r="F402" s="89"/>
+      <c r="D402" s="111"/>
+      <c r="E402" s="111"/>
+      <c r="F402" s="112"/>
     </row>
     <row r="403" spans="1:6" ht="18" thickBot="1">
-      <c r="C403" s="84" t="s">
+      <c r="C403" s="82" t="s">
         <v>470</v>
       </c>
-      <c r="D403" s="85"/>
-      <c r="E403" s="85"/>
-      <c r="F403" s="86"/>
+      <c r="D403" s="83"/>
+      <c r="E403" s="83"/>
+      <c r="F403" s="84"/>
     </row>
     <row r="404" spans="1:6" ht="27" thickBot="1">
-      <c r="C404" s="77" t="s">
+      <c r="C404" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D404" s="78"/>
-      <c r="E404" s="78"/>
-      <c r="F404" s="79"/>
+      <c r="D404" s="86"/>
+      <c r="E404" s="86"/>
+      <c r="F404" s="87"/>
     </row>
     <row r="405" spans="1:6" ht="18" thickBot="1">
       <c r="C405" s="33" t="s">
@@ -11392,12 +11468,12 @@
       <c r="F407" s="35"/>
     </row>
     <row r="408" spans="1:6" ht="27" thickBot="1">
-      <c r="C408" s="80" t="s">
+      <c r="C408" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D408" s="81"/>
-      <c r="E408" s="81"/>
-      <c r="F408" s="82"/>
+      <c r="D408" s="89"/>
+      <c r="E408" s="89"/>
+      <c r="F408" s="90"/>
     </row>
     <row r="409" spans="1:6" ht="18" thickBot="1">
       <c r="C409" s="37" t="s">
@@ -11442,12 +11518,12 @@
       </c>
     </row>
     <row r="412" spans="1:6" ht="27" thickBot="1">
-      <c r="C412" s="83" t="s">
+      <c r="C412" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D412" s="83"/>
-      <c r="E412" s="83"/>
-      <c r="F412" s="83"/>
+      <c r="D412" s="91"/>
+      <c r="E412" s="91"/>
+      <c r="F412" s="91"/>
     </row>
     <row r="413" spans="1:6" ht="18" thickBot="1">
       <c r="C413" s="37" t="s">
@@ -11464,7 +11540,7 @@
       </c>
     </row>
     <row r="414" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C414" s="73">
+      <c r="C414" s="78">
         <v>200</v>
       </c>
       <c r="D414" s="39" t="s">
@@ -11478,7 +11554,7 @@
       </c>
     </row>
     <row r="415" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C415" s="73"/>
+      <c r="C415" s="78"/>
       <c r="D415" s="39" t="s">
         <v>358</v>
       </c>
@@ -11490,7 +11566,7 @@
       </c>
     </row>
     <row r="416" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C416" s="73"/>
+      <c r="C416" s="78"/>
       <c r="D416" s="39" t="s">
         <v>360</v>
       </c>
@@ -11502,7 +11578,7 @@
       </c>
     </row>
     <row r="417" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C417" s="73"/>
+      <c r="C417" s="78"/>
       <c r="D417" s="39"/>
       <c r="E417" s="39"/>
       <c r="F417" s="39"/>
@@ -11523,28 +11599,28 @@
       <c r="B421" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C421" s="87" t="s">
+      <c r="C421" s="110" t="s">
         <v>471</v>
       </c>
-      <c r="D421" s="88"/>
-      <c r="E421" s="88"/>
-      <c r="F421" s="89"/>
+      <c r="D421" s="111"/>
+      <c r="E421" s="111"/>
+      <c r="F421" s="112"/>
     </row>
     <row r="422" spans="1:6" ht="18" thickBot="1">
-      <c r="C422" s="84" t="s">
+      <c r="C422" s="82" t="s">
         <v>472</v>
       </c>
-      <c r="D422" s="85"/>
-      <c r="E422" s="85"/>
-      <c r="F422" s="86"/>
+      <c r="D422" s="83"/>
+      <c r="E422" s="83"/>
+      <c r="F422" s="84"/>
     </row>
     <row r="423" spans="1:6" ht="27" thickBot="1">
-      <c r="C423" s="77" t="s">
+      <c r="C423" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D423" s="78"/>
-      <c r="E423" s="78"/>
-      <c r="F423" s="79"/>
+      <c r="D423" s="86"/>
+      <c r="E423" s="86"/>
+      <c r="F423" s="87"/>
     </row>
     <row r="424" spans="1:6" ht="18" thickBot="1">
       <c r="C424" s="33" t="s">
@@ -11585,12 +11661,12 @@
       <c r="F426" s="35"/>
     </row>
     <row r="427" spans="1:6" ht="27" thickBot="1">
-      <c r="C427" s="80" t="s">
+      <c r="C427" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D427" s="81"/>
-      <c r="E427" s="81"/>
-      <c r="F427" s="82"/>
+      <c r="D427" s="89"/>
+      <c r="E427" s="89"/>
+      <c r="F427" s="90"/>
     </row>
     <row r="428" spans="1:6" ht="18" thickBot="1">
       <c r="C428" s="37" t="s">
@@ -11635,12 +11711,12 @@
       </c>
     </row>
     <row r="431" spans="1:6" ht="27" thickBot="1">
-      <c r="C431" s="83" t="s">
+      <c r="C431" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D431" s="83"/>
-      <c r="E431" s="83"/>
-      <c r="F431" s="83"/>
+      <c r="D431" s="91"/>
+      <c r="E431" s="91"/>
+      <c r="F431" s="91"/>
     </row>
     <row r="432" spans="1:6" ht="18" thickBot="1">
       <c r="C432" s="37" t="s">
@@ -11657,7 +11733,7 @@
       </c>
     </row>
     <row r="433" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C433" s="73">
+      <c r="C433" s="78">
         <v>200</v>
       </c>
       <c r="D433" s="39" t="s">
@@ -11671,7 +11747,7 @@
       </c>
     </row>
     <row r="434" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C434" s="73"/>
+      <c r="C434" s="78"/>
       <c r="D434" s="39" t="s">
         <v>358</v>
       </c>
@@ -11683,7 +11759,7 @@
       </c>
     </row>
     <row r="435" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C435" s="73"/>
+      <c r="C435" s="78"/>
       <c r="D435" s="39" t="s">
         <v>360</v>
       </c>
@@ -11695,7 +11771,7 @@
       </c>
     </row>
     <row r="436" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C436" s="73"/>
+      <c r="C436" s="78"/>
       <c r="D436" s="39"/>
       <c r="E436" s="39"/>
       <c r="F436" s="39"/>
@@ -11716,28 +11792,28 @@
       <c r="B440" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C440" s="87" t="s">
+      <c r="C440" s="110" t="s">
         <v>484</v>
       </c>
-      <c r="D440" s="88"/>
-      <c r="E440" s="88"/>
-      <c r="F440" s="89"/>
+      <c r="D440" s="111"/>
+      <c r="E440" s="111"/>
+      <c r="F440" s="112"/>
     </row>
     <row r="441" spans="1:6" ht="18" thickBot="1">
-      <c r="C441" s="84" t="s">
+      <c r="C441" s="82" t="s">
         <v>480</v>
       </c>
-      <c r="D441" s="85"/>
-      <c r="E441" s="85"/>
-      <c r="F441" s="86"/>
+      <c r="D441" s="83"/>
+      <c r="E441" s="83"/>
+      <c r="F441" s="84"/>
     </row>
     <row r="442" spans="1:6" ht="27" thickBot="1">
-      <c r="C442" s="77" t="s">
+      <c r="C442" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D442" s="78"/>
-      <c r="E442" s="78"/>
-      <c r="F442" s="79"/>
+      <c r="D442" s="86"/>
+      <c r="E442" s="86"/>
+      <c r="F442" s="87"/>
     </row>
     <row r="443" spans="1:6" ht="18" thickBot="1">
       <c r="C443" s="33" t="s">
@@ -11778,12 +11854,12 @@
       <c r="F445" s="35"/>
     </row>
     <row r="446" spans="1:6" ht="27" thickBot="1">
-      <c r="C446" s="80" t="s">
+      <c r="C446" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D446" s="81"/>
-      <c r="E446" s="81"/>
-      <c r="F446" s="82"/>
+      <c r="D446" s="89"/>
+      <c r="E446" s="89"/>
+      <c r="F446" s="90"/>
     </row>
     <row r="447" spans="1:6" ht="18" thickBot="1">
       <c r="C447" s="37" t="s">
@@ -11820,12 +11896,12 @@
       <c r="F449" s="38"/>
     </row>
     <row r="450" spans="1:6" ht="27" thickBot="1">
-      <c r="C450" s="83" t="s">
+      <c r="C450" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D450" s="83"/>
-      <c r="E450" s="83"/>
-      <c r="F450" s="83"/>
+      <c r="D450" s="91"/>
+      <c r="E450" s="91"/>
+      <c r="F450" s="91"/>
     </row>
     <row r="451" spans="1:6" ht="18" thickBot="1">
       <c r="C451" s="37" t="s">
@@ -11842,7 +11918,7 @@
       </c>
     </row>
     <row r="452" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C452" s="73">
+      <c r="C452" s="78">
         <v>200</v>
       </c>
       <c r="D452" s="39" t="s">
@@ -11856,7 +11932,7 @@
       </c>
     </row>
     <row r="453" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C453" s="73"/>
+      <c r="C453" s="78"/>
       <c r="D453" s="39" t="s">
         <v>358</v>
       </c>
@@ -11868,7 +11944,7 @@
       </c>
     </row>
     <row r="454" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C454" s="73"/>
+      <c r="C454" s="78"/>
       <c r="D454" s="39" t="s">
         <v>360</v>
       </c>
@@ -11880,7 +11956,7 @@
       </c>
     </row>
     <row r="455" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C455" s="73"/>
+      <c r="C455" s="78"/>
       <c r="D455" s="39"/>
       <c r="E455" s="39"/>
       <c r="F455" s="39"/>
@@ -11901,28 +11977,28 @@
       <c r="B459" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C459" s="87" t="s">
+      <c r="C459" s="110" t="s">
         <v>479</v>
       </c>
-      <c r="D459" s="88"/>
-      <c r="E459" s="88"/>
-      <c r="F459" s="89"/>
+      <c r="D459" s="111"/>
+      <c r="E459" s="111"/>
+      <c r="F459" s="112"/>
     </row>
     <row r="460" spans="1:6" ht="18" thickBot="1">
-      <c r="C460" s="84" t="s">
+      <c r="C460" s="82" t="s">
         <v>481</v>
       </c>
-      <c r="D460" s="85"/>
-      <c r="E460" s="85"/>
-      <c r="F460" s="86"/>
+      <c r="D460" s="83"/>
+      <c r="E460" s="83"/>
+      <c r="F460" s="84"/>
     </row>
     <row r="461" spans="1:6" ht="27" thickBot="1">
-      <c r="C461" s="77" t="s">
+      <c r="C461" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D461" s="78"/>
-      <c r="E461" s="78"/>
-      <c r="F461" s="79"/>
+      <c r="D461" s="86"/>
+      <c r="E461" s="86"/>
+      <c r="F461" s="87"/>
     </row>
     <row r="462" spans="1:6" ht="18" thickBot="1">
       <c r="C462" s="33" t="s">
@@ -11963,12 +12039,12 @@
       <c r="F464" s="35"/>
     </row>
     <row r="465" spans="1:6" ht="27" thickBot="1">
-      <c r="C465" s="80" t="s">
+      <c r="C465" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D465" s="81"/>
-      <c r="E465" s="81"/>
-      <c r="F465" s="82"/>
+      <c r="D465" s="89"/>
+      <c r="E465" s="89"/>
+      <c r="F465" s="90"/>
     </row>
     <row r="466" spans="1:6" ht="18" thickBot="1">
       <c r="C466" s="37" t="s">
@@ -12013,12 +12089,12 @@
       </c>
     </row>
     <row r="469" spans="1:6" ht="27" thickBot="1">
-      <c r="C469" s="83" t="s">
+      <c r="C469" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D469" s="83"/>
-      <c r="E469" s="83"/>
-      <c r="F469" s="83"/>
+      <c r="D469" s="91"/>
+      <c r="E469" s="91"/>
+      <c r="F469" s="91"/>
     </row>
     <row r="470" spans="1:6" ht="18" thickBot="1">
       <c r="C470" s="37" t="s">
@@ -12035,7 +12111,7 @@
       </c>
     </row>
     <row r="471" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C471" s="73">
+      <c r="C471" s="78">
         <v>200</v>
       </c>
       <c r="D471" s="39" t="s">
@@ -12049,7 +12125,7 @@
       </c>
     </row>
     <row r="472" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C472" s="73"/>
+      <c r="C472" s="78"/>
       <c r="D472" s="39" t="s">
         <v>358</v>
       </c>
@@ -12061,7 +12137,7 @@
       </c>
     </row>
     <row r="473" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C473" s="73"/>
+      <c r="C473" s="78"/>
       <c r="D473" s="39" t="s">
         <v>360</v>
       </c>
@@ -12073,7 +12149,7 @@
       </c>
     </row>
     <row r="474" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C474" s="73"/>
+      <c r="C474" s="78"/>
       <c r="D474" s="39"/>
       <c r="E474" s="39"/>
       <c r="F474" s="39"/>
@@ -12094,28 +12170,28 @@
       <c r="B478" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C478" s="87" t="s">
+      <c r="C478" s="110" t="s">
         <v>485</v>
       </c>
-      <c r="D478" s="88"/>
-      <c r="E478" s="88"/>
-      <c r="F478" s="89"/>
+      <c r="D478" s="111"/>
+      <c r="E478" s="111"/>
+      <c r="F478" s="112"/>
     </row>
     <row r="479" spans="1:6" ht="18" thickBot="1">
-      <c r="C479" s="84" t="s">
+      <c r="C479" s="82" t="s">
         <v>486</v>
       </c>
-      <c r="D479" s="85"/>
-      <c r="E479" s="85"/>
-      <c r="F479" s="86"/>
+      <c r="D479" s="83"/>
+      <c r="E479" s="83"/>
+      <c r="F479" s="84"/>
     </row>
     <row r="480" spans="1:6" ht="27" thickBot="1">
-      <c r="C480" s="77" t="s">
+      <c r="C480" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D480" s="78"/>
-      <c r="E480" s="78"/>
-      <c r="F480" s="79"/>
+      <c r="D480" s="86"/>
+      <c r="E480" s="86"/>
+      <c r="F480" s="87"/>
     </row>
     <row r="481" spans="1:6" ht="18" thickBot="1">
       <c r="C481" s="33" t="s">
@@ -12156,12 +12232,12 @@
       <c r="F483" s="35"/>
     </row>
     <row r="484" spans="1:6" ht="27" thickBot="1">
-      <c r="C484" s="80" t="s">
+      <c r="C484" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D484" s="81"/>
-      <c r="E484" s="81"/>
-      <c r="F484" s="82"/>
+      <c r="D484" s="89"/>
+      <c r="E484" s="89"/>
+      <c r="F484" s="90"/>
     </row>
     <row r="485" spans="1:6" ht="18" thickBot="1">
       <c r="C485" s="37" t="s">
@@ -12206,12 +12282,12 @@
       </c>
     </row>
     <row r="488" spans="1:6" ht="27" thickBot="1">
-      <c r="C488" s="83" t="s">
+      <c r="C488" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D488" s="83"/>
-      <c r="E488" s="83"/>
-      <c r="F488" s="83"/>
+      <c r="D488" s="91"/>
+      <c r="E488" s="91"/>
+      <c r="F488" s="91"/>
     </row>
     <row r="489" spans="1:6" ht="18" thickBot="1">
       <c r="C489" s="37" t="s">
@@ -12228,7 +12304,7 @@
       </c>
     </row>
     <row r="490" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C490" s="73">
+      <c r="C490" s="78">
         <v>200</v>
       </c>
       <c r="D490" s="39" t="s">
@@ -12242,7 +12318,7 @@
       </c>
     </row>
     <row r="491" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C491" s="73"/>
+      <c r="C491" s="78"/>
       <c r="D491" s="39" t="s">
         <v>358</v>
       </c>
@@ -12254,7 +12330,7 @@
       </c>
     </row>
     <row r="492" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C492" s="73"/>
+      <c r="C492" s="78"/>
       <c r="D492" s="39" t="s">
         <v>360</v>
       </c>
@@ -12266,7 +12342,7 @@
       </c>
     </row>
     <row r="493" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C493" s="73"/>
+      <c r="C493" s="78"/>
       <c r="D493" s="39"/>
       <c r="E493" s="39"/>
       <c r="F493" s="39"/>
@@ -12294,28 +12370,28 @@
       <c r="B497" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="C497" s="90" t="s">
+      <c r="C497" s="107" t="s">
         <v>487</v>
       </c>
-      <c r="D497" s="91"/>
-      <c r="E497" s="91"/>
-      <c r="F497" s="92"/>
+      <c r="D497" s="108"/>
+      <c r="E497" s="108"/>
+      <c r="F497" s="109"/>
     </row>
     <row r="498" spans="1:6" ht="18" thickBot="1">
-      <c r="C498" s="84" t="s">
+      <c r="C498" s="82" t="s">
         <v>488</v>
       </c>
-      <c r="D498" s="85"/>
-      <c r="E498" s="85"/>
-      <c r="F498" s="86"/>
+      <c r="D498" s="83"/>
+      <c r="E498" s="83"/>
+      <c r="F498" s="84"/>
     </row>
     <row r="499" spans="1:6" ht="27" thickBot="1">
-      <c r="C499" s="77" t="s">
+      <c r="C499" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D499" s="78"/>
-      <c r="E499" s="78"/>
-      <c r="F499" s="79"/>
+      <c r="D499" s="86"/>
+      <c r="E499" s="86"/>
+      <c r="F499" s="87"/>
     </row>
     <row r="500" spans="1:6" ht="18" thickBot="1">
       <c r="C500" s="33" t="s">
@@ -12356,12 +12432,12 @@
       <c r="F502" s="35"/>
     </row>
     <row r="503" spans="1:6" ht="27" thickBot="1">
-      <c r="C503" s="80" t="s">
+      <c r="C503" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D503" s="81"/>
-      <c r="E503" s="81"/>
-      <c r="F503" s="82"/>
+      <c r="D503" s="89"/>
+      <c r="E503" s="89"/>
+      <c r="F503" s="90"/>
     </row>
     <row r="504" spans="1:6" ht="18" thickBot="1">
       <c r="C504" s="37" t="s">
@@ -12384,12 +12460,12 @@
       <c r="F505" s="38"/>
     </row>
     <row r="506" spans="1:6" ht="27" thickBot="1">
-      <c r="C506" s="83" t="s">
+      <c r="C506" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D506" s="83"/>
-      <c r="E506" s="83"/>
-      <c r="F506" s="83"/>
+      <c r="D506" s="91"/>
+      <c r="E506" s="91"/>
+      <c r="F506" s="91"/>
     </row>
     <row r="507" spans="1:6" ht="18" thickBot="1">
       <c r="C507" s="37" t="s">
@@ -12406,7 +12482,7 @@
       </c>
     </row>
     <row r="508" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C508" s="73">
+      <c r="C508" s="78">
         <v>200</v>
       </c>
       <c r="D508" s="39" t="s">
@@ -12420,7 +12496,7 @@
       </c>
     </row>
     <row r="509" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C509" s="73"/>
+      <c r="C509" s="78"/>
       <c r="D509" s="39" t="s">
         <v>358</v>
       </c>
@@ -12432,7 +12508,7 @@
       </c>
     </row>
     <row r="510" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C510" s="73"/>
+      <c r="C510" s="78"/>
       <c r="D510" s="39" t="s">
         <v>360</v>
       </c>
@@ -12444,7 +12520,7 @@
       </c>
     </row>
     <row r="511" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C511" s="73"/>
+      <c r="C511" s="78"/>
       <c r="D511" s="39"/>
       <c r="E511" s="39"/>
       <c r="F511" s="39"/>
@@ -12465,28 +12541,28 @@
       <c r="B515" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="C515" s="90" t="s">
+      <c r="C515" s="107" t="s">
         <v>489</v>
       </c>
-      <c r="D515" s="91"/>
-      <c r="E515" s="91"/>
-      <c r="F515" s="92"/>
+      <c r="D515" s="108"/>
+      <c r="E515" s="108"/>
+      <c r="F515" s="109"/>
     </row>
     <row r="516" spans="1:6" ht="18" thickBot="1">
-      <c r="C516" s="84" t="s">
+      <c r="C516" s="82" t="s">
         <v>490</v>
       </c>
-      <c r="D516" s="85"/>
-      <c r="E516" s="85"/>
-      <c r="F516" s="86"/>
+      <c r="D516" s="83"/>
+      <c r="E516" s="83"/>
+      <c r="F516" s="84"/>
     </row>
     <row r="517" spans="1:6" ht="27" thickBot="1">
-      <c r="C517" s="77" t="s">
+      <c r="C517" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D517" s="78"/>
-      <c r="E517" s="78"/>
-      <c r="F517" s="79"/>
+      <c r="D517" s="86"/>
+      <c r="E517" s="86"/>
+      <c r="F517" s="87"/>
     </row>
     <row r="518" spans="1:6" ht="18" thickBot="1">
       <c r="C518" s="33" t="s">
@@ -12527,12 +12603,12 @@
       <c r="F520" s="35"/>
     </row>
     <row r="521" spans="1:6" ht="27" thickBot="1">
-      <c r="C521" s="80" t="s">
+      <c r="C521" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D521" s="81"/>
-      <c r="E521" s="81"/>
-      <c r="F521" s="82"/>
+      <c r="D521" s="89"/>
+      <c r="E521" s="89"/>
+      <c r="F521" s="90"/>
     </row>
     <row r="522" spans="1:6" ht="18" thickBot="1">
       <c r="C522" s="37" t="s">
@@ -12563,12 +12639,12 @@
       </c>
     </row>
     <row r="524" spans="1:6" ht="27" thickBot="1">
-      <c r="C524" s="83" t="s">
+      <c r="C524" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D524" s="83"/>
-      <c r="E524" s="83"/>
-      <c r="F524" s="83"/>
+      <c r="D524" s="91"/>
+      <c r="E524" s="91"/>
+      <c r="F524" s="91"/>
     </row>
     <row r="525" spans="1:6" ht="18" thickBot="1">
       <c r="C525" s="37" t="s">
@@ -12585,7 +12661,7 @@
       </c>
     </row>
     <row r="526" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C526" s="73">
+      <c r="C526" s="78">
         <v>200</v>
       </c>
       <c r="D526" s="39" t="s">
@@ -12599,7 +12675,7 @@
       </c>
     </row>
     <row r="527" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C527" s="73"/>
+      <c r="C527" s="78"/>
       <c r="D527" s="39" t="s">
         <v>358</v>
       </c>
@@ -12611,7 +12687,7 @@
       </c>
     </row>
     <row r="528" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C528" s="73"/>
+      <c r="C528" s="78"/>
       <c r="D528" s="39" t="s">
         <v>360</v>
       </c>
@@ -12623,7 +12699,7 @@
       </c>
     </row>
     <row r="529" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C529" s="73"/>
+      <c r="C529" s="78"/>
       <c r="D529" s="39"/>
       <c r="E529" s="39"/>
       <c r="F529" s="39"/>
@@ -12644,28 +12720,28 @@
       <c r="B533" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="C533" s="90" t="s">
+      <c r="C533" s="107" t="s">
         <v>493</v>
       </c>
-      <c r="D533" s="91"/>
-      <c r="E533" s="91"/>
-      <c r="F533" s="92"/>
+      <c r="D533" s="108"/>
+      <c r="E533" s="108"/>
+      <c r="F533" s="109"/>
     </row>
     <row r="534" spans="1:6" ht="18" thickBot="1">
-      <c r="C534" s="84" t="s">
+      <c r="C534" s="82" t="s">
         <v>494</v>
       </c>
-      <c r="D534" s="85"/>
-      <c r="E534" s="85"/>
-      <c r="F534" s="86"/>
+      <c r="D534" s="83"/>
+      <c r="E534" s="83"/>
+      <c r="F534" s="84"/>
     </row>
     <row r="535" spans="1:6" ht="27" thickBot="1">
-      <c r="C535" s="77" t="s">
+      <c r="C535" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D535" s="78"/>
-      <c r="E535" s="78"/>
-      <c r="F535" s="79"/>
+      <c r="D535" s="86"/>
+      <c r="E535" s="86"/>
+      <c r="F535" s="87"/>
     </row>
     <row r="536" spans="1:6" ht="18" thickBot="1">
       <c r="C536" s="33" t="s">
@@ -12706,12 +12782,12 @@
       <c r="F538" s="35"/>
     </row>
     <row r="539" spans="1:6" ht="27" thickBot="1">
-      <c r="C539" s="80" t="s">
+      <c r="C539" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D539" s="81"/>
-      <c r="E539" s="81"/>
-      <c r="F539" s="82"/>
+      <c r="D539" s="89"/>
+      <c r="E539" s="89"/>
+      <c r="F539" s="90"/>
     </row>
     <row r="540" spans="1:6" ht="18" thickBot="1">
       <c r="C540" s="37" t="s">
@@ -12758,12 +12834,12 @@
       </c>
     </row>
     <row r="543" spans="1:6" ht="27" thickBot="1">
-      <c r="C543" s="83" t="s">
+      <c r="C543" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D543" s="83"/>
-      <c r="E543" s="83"/>
-      <c r="F543" s="83"/>
+      <c r="D543" s="91"/>
+      <c r="E543" s="91"/>
+      <c r="F543" s="91"/>
     </row>
     <row r="544" spans="1:6" ht="18" thickBot="1">
       <c r="C544" s="37" t="s">
@@ -12780,7 +12856,7 @@
       </c>
     </row>
     <row r="545" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C545" s="73">
+      <c r="C545" s="78">
         <v>200</v>
       </c>
       <c r="D545" s="39" t="s">
@@ -12794,7 +12870,7 @@
       </c>
     </row>
     <row r="546" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C546" s="73"/>
+      <c r="C546" s="78"/>
       <c r="D546" s="39" t="s">
         <v>358</v>
       </c>
@@ -12806,7 +12882,7 @@
       </c>
     </row>
     <row r="547" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C547" s="73"/>
+      <c r="C547" s="78"/>
       <c r="D547" s="39" t="s">
         <v>360</v>
       </c>
@@ -12818,7 +12894,7 @@
       </c>
     </row>
     <row r="548" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C548" s="73"/>
+      <c r="C548" s="78"/>
       <c r="D548" s="39"/>
       <c r="E548" s="39"/>
       <c r="F548" s="39"/>
@@ -12839,28 +12915,28 @@
       <c r="B552" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="C552" s="90" t="s">
+      <c r="C552" s="107" t="s">
         <v>495</v>
       </c>
-      <c r="D552" s="91"/>
-      <c r="E552" s="91"/>
-      <c r="F552" s="92"/>
+      <c r="D552" s="108"/>
+      <c r="E552" s="108"/>
+      <c r="F552" s="109"/>
     </row>
     <row r="553" spans="1:6" ht="18" thickBot="1">
-      <c r="C553" s="84" t="s">
+      <c r="C553" s="82" t="s">
         <v>496</v>
       </c>
-      <c r="D553" s="85"/>
-      <c r="E553" s="85"/>
-      <c r="F553" s="86"/>
+      <c r="D553" s="83"/>
+      <c r="E553" s="83"/>
+      <c r="F553" s="84"/>
     </row>
     <row r="554" spans="1:6" ht="27" thickBot="1">
-      <c r="C554" s="77" t="s">
+      <c r="C554" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D554" s="78"/>
-      <c r="E554" s="78"/>
-      <c r="F554" s="79"/>
+      <c r="D554" s="86"/>
+      <c r="E554" s="86"/>
+      <c r="F554" s="87"/>
     </row>
     <row r="555" spans="1:6" ht="18" thickBot="1">
       <c r="C555" s="33" t="s">
@@ -12901,12 +12977,12 @@
       <c r="F557" s="35"/>
     </row>
     <row r="558" spans="1:6" ht="27" thickBot="1">
-      <c r="C558" s="80" t="s">
+      <c r="C558" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D558" s="81"/>
-      <c r="E558" s="81"/>
-      <c r="F558" s="82"/>
+      <c r="D558" s="89"/>
+      <c r="E558" s="89"/>
+      <c r="F558" s="90"/>
     </row>
     <row r="559" spans="1:6" ht="18" thickBot="1">
       <c r="C559" s="37" t="s">
@@ -12951,12 +13027,12 @@
       </c>
     </row>
     <row r="562" spans="1:6" ht="27" thickBot="1">
-      <c r="C562" s="83" t="s">
+      <c r="C562" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D562" s="83"/>
-      <c r="E562" s="83"/>
-      <c r="F562" s="83"/>
+      <c r="D562" s="91"/>
+      <c r="E562" s="91"/>
+      <c r="F562" s="91"/>
     </row>
     <row r="563" spans="1:6" ht="18" thickBot="1">
       <c r="C563" s="37" t="s">
@@ -12973,7 +13049,7 @@
       </c>
     </row>
     <row r="564" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C564" s="73">
+      <c r="C564" s="78">
         <v>200</v>
       </c>
       <c r="D564" s="39" t="s">
@@ -12987,7 +13063,7 @@
       </c>
     </row>
     <row r="565" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C565" s="73"/>
+      <c r="C565" s="78"/>
       <c r="D565" s="39" t="s">
         <v>358</v>
       </c>
@@ -12999,7 +13075,7 @@
       </c>
     </row>
     <row r="566" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C566" s="73"/>
+      <c r="C566" s="78"/>
       <c r="D566" s="39" t="s">
         <v>360</v>
       </c>
@@ -13011,7 +13087,7 @@
       </c>
     </row>
     <row r="567" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C567" s="73"/>
+      <c r="C567" s="78"/>
       <c r="D567" s="39"/>
       <c r="E567" s="39"/>
       <c r="F567" s="39"/>
@@ -13032,28 +13108,28 @@
       <c r="B571" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="C571" s="93" t="s">
+      <c r="C571" s="104" t="s">
         <v>497</v>
       </c>
-      <c r="D571" s="94"/>
-      <c r="E571" s="94"/>
-      <c r="F571" s="95"/>
+      <c r="D571" s="105"/>
+      <c r="E571" s="105"/>
+      <c r="F571" s="106"/>
     </row>
     <row r="572" spans="1:6" ht="18" thickBot="1">
-      <c r="C572" s="84" t="s">
+      <c r="C572" s="82" t="s">
         <v>172</v>
       </c>
-      <c r="D572" s="85"/>
-      <c r="E572" s="85"/>
-      <c r="F572" s="86"/>
+      <c r="D572" s="83"/>
+      <c r="E572" s="83"/>
+      <c r="F572" s="84"/>
     </row>
     <row r="573" spans="1:6" ht="27" thickBot="1">
-      <c r="C573" s="77" t="s">
+      <c r="C573" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D573" s="78"/>
-      <c r="E573" s="78"/>
-      <c r="F573" s="79"/>
+      <c r="D573" s="86"/>
+      <c r="E573" s="86"/>
+      <c r="F573" s="87"/>
     </row>
     <row r="574" spans="1:6" ht="18" thickBot="1">
       <c r="C574" s="33" t="s">
@@ -13094,12 +13170,12 @@
       <c r="F576" s="35"/>
     </row>
     <row r="577" spans="1:6" ht="27" thickBot="1">
-      <c r="C577" s="80" t="s">
+      <c r="C577" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D577" s="81"/>
-      <c r="E577" s="81"/>
-      <c r="F577" s="82"/>
+      <c r="D577" s="89"/>
+      <c r="E577" s="89"/>
+      <c r="F577" s="90"/>
     </row>
     <row r="578" spans="1:6" ht="18" thickBot="1">
       <c r="C578" s="37" t="s">
@@ -13144,12 +13220,12 @@
       </c>
     </row>
     <row r="581" spans="1:6" ht="27" thickBot="1">
-      <c r="C581" s="83" t="s">
+      <c r="C581" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D581" s="83"/>
-      <c r="E581" s="83"/>
-      <c r="F581" s="83"/>
+      <c r="D581" s="91"/>
+      <c r="E581" s="91"/>
+      <c r="F581" s="91"/>
     </row>
     <row r="582" spans="1:6" ht="18" thickBot="1">
       <c r="C582" s="37" t="s">
@@ -13166,7 +13242,7 @@
       </c>
     </row>
     <row r="583" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C583" s="73">
+      <c r="C583" s="78">
         <v>200</v>
       </c>
       <c r="D583" s="39" t="s">
@@ -13180,7 +13256,7 @@
       </c>
     </row>
     <row r="584" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C584" s="73"/>
+      <c r="C584" s="78"/>
       <c r="D584" s="39" t="s">
         <v>358</v>
       </c>
@@ -13192,7 +13268,7 @@
       </c>
     </row>
     <row r="585" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C585" s="73"/>
+      <c r="C585" s="78"/>
       <c r="D585" s="39" t="s">
         <v>360</v>
       </c>
@@ -13204,7 +13280,7 @@
       </c>
     </row>
     <row r="586" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C586" s="73"/>
+      <c r="C586" s="78"/>
       <c r="D586" s="39"/>
       <c r="E586" s="39"/>
       <c r="F586" s="39"/>
@@ -13225,28 +13301,28 @@
       <c r="B590" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="C590" s="93" t="s">
+      <c r="C590" s="104" t="s">
         <v>498</v>
       </c>
-      <c r="D590" s="94"/>
-      <c r="E590" s="94"/>
-      <c r="F590" s="95"/>
+      <c r="D590" s="105"/>
+      <c r="E590" s="105"/>
+      <c r="F590" s="106"/>
     </row>
     <row r="591" spans="1:6" ht="18" thickBot="1">
-      <c r="C591" s="84" t="s">
+      <c r="C591" s="82" t="s">
         <v>499</v>
       </c>
-      <c r="D591" s="85"/>
-      <c r="E591" s="85"/>
-      <c r="F591" s="86"/>
+      <c r="D591" s="83"/>
+      <c r="E591" s="83"/>
+      <c r="F591" s="84"/>
     </row>
     <row r="592" spans="1:6" ht="27" thickBot="1">
-      <c r="C592" s="77" t="s">
+      <c r="C592" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D592" s="78"/>
-      <c r="E592" s="78"/>
-      <c r="F592" s="79"/>
+      <c r="D592" s="86"/>
+      <c r="E592" s="86"/>
+      <c r="F592" s="87"/>
     </row>
     <row r="593" spans="3:6" ht="18" thickBot="1">
       <c r="C593" s="33" t="s">
@@ -13287,12 +13363,12 @@
       <c r="F595" s="35"/>
     </row>
     <row r="596" spans="3:6" ht="27" thickBot="1">
-      <c r="C596" s="80" t="s">
+      <c r="C596" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D596" s="81"/>
-      <c r="E596" s="81"/>
-      <c r="F596" s="82"/>
+      <c r="D596" s="89"/>
+      <c r="E596" s="89"/>
+      <c r="F596" s="90"/>
     </row>
     <row r="597" spans="3:6" ht="18" thickBot="1">
       <c r="C597" s="37" t="s">
@@ -13329,12 +13405,12 @@
       <c r="F599" s="38"/>
     </row>
     <row r="600" spans="3:6" ht="27" thickBot="1">
-      <c r="C600" s="83" t="s">
+      <c r="C600" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D600" s="83"/>
-      <c r="E600" s="83"/>
-      <c r="F600" s="83"/>
+      <c r="D600" s="91"/>
+      <c r="E600" s="91"/>
+      <c r="F600" s="91"/>
     </row>
     <row r="601" spans="3:6" ht="18" thickBot="1">
       <c r="C601" s="37" t="s">
@@ -13351,7 +13427,7 @@
       </c>
     </row>
     <row r="602" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C602" s="73">
+      <c r="C602" s="78">
         <v>200</v>
       </c>
       <c r="D602" s="39" t="s">
@@ -13365,7 +13441,7 @@
       </c>
     </row>
     <row r="603" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C603" s="73"/>
+      <c r="C603" s="78"/>
       <c r="D603" s="39" t="s">
         <v>358</v>
       </c>
@@ -13377,7 +13453,7 @@
       </c>
     </row>
     <row r="604" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C604" s="73"/>
+      <c r="C604" s="78"/>
       <c r="D604" s="39" t="s">
         <v>360</v>
       </c>
@@ -13389,7 +13465,7 @@
       </c>
     </row>
     <row r="605" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C605" s="73"/>
+      <c r="C605" s="78"/>
       <c r="D605" s="39"/>
       <c r="E605" s="39"/>
       <c r="F605" s="39"/>
@@ -13410,28 +13486,28 @@
       <c r="B609" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="C609" s="93" t="s">
+      <c r="C609" s="104" t="s">
         <v>500</v>
       </c>
-      <c r="D609" s="94"/>
-      <c r="E609" s="94"/>
-      <c r="F609" s="95"/>
+      <c r="D609" s="105"/>
+      <c r="E609" s="105"/>
+      <c r="F609" s="106"/>
     </row>
     <row r="610" spans="1:6" ht="18" thickBot="1">
-      <c r="C610" s="84" t="s">
+      <c r="C610" s="82" t="s">
         <v>501</v>
       </c>
-      <c r="D610" s="85"/>
-      <c r="E610" s="85"/>
-      <c r="F610" s="86"/>
+      <c r="D610" s="83"/>
+      <c r="E610" s="83"/>
+      <c r="F610" s="84"/>
     </row>
     <row r="611" spans="1:6" ht="27" thickBot="1">
-      <c r="C611" s="77" t="s">
+      <c r="C611" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D611" s="78"/>
-      <c r="E611" s="78"/>
-      <c r="F611" s="79"/>
+      <c r="D611" s="86"/>
+      <c r="E611" s="86"/>
+      <c r="F611" s="87"/>
     </row>
     <row r="612" spans="1:6" ht="18" thickBot="1">
       <c r="C612" s="33" t="s">
@@ -13472,12 +13548,12 @@
       <c r="F614" s="35"/>
     </row>
     <row r="615" spans="1:6" ht="27" thickBot="1">
-      <c r="C615" s="80" t="s">
+      <c r="C615" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D615" s="81"/>
-      <c r="E615" s="81"/>
-      <c r="F615" s="82"/>
+      <c r="D615" s="89"/>
+      <c r="E615" s="89"/>
+      <c r="F615" s="90"/>
     </row>
     <row r="616" spans="1:6" ht="18" thickBot="1">
       <c r="C616" s="37" t="s">
@@ -13522,12 +13598,12 @@
       </c>
     </row>
     <row r="619" spans="1:6" ht="27" thickBot="1">
-      <c r="C619" s="83" t="s">
+      <c r="C619" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D619" s="83"/>
-      <c r="E619" s="83"/>
-      <c r="F619" s="83"/>
+      <c r="D619" s="91"/>
+      <c r="E619" s="91"/>
+      <c r="F619" s="91"/>
     </row>
     <row r="620" spans="1:6" ht="18" thickBot="1">
       <c r="C620" s="37" t="s">
@@ -13544,7 +13620,7 @@
       </c>
     </row>
     <row r="621" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C621" s="73">
+      <c r="C621" s="78">
         <v>200</v>
       </c>
       <c r="D621" s="39" t="s">
@@ -13558,7 +13634,7 @@
       </c>
     </row>
     <row r="622" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C622" s="73"/>
+      <c r="C622" s="78"/>
       <c r="D622" s="39" t="s">
         <v>358</v>
       </c>
@@ -13570,7 +13646,7 @@
       </c>
     </row>
     <row r="623" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C623" s="73"/>
+      <c r="C623" s="78"/>
       <c r="D623" s="39" t="s">
         <v>360</v>
       </c>
@@ -13582,7 +13658,7 @@
       </c>
     </row>
     <row r="624" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C624" s="73"/>
+      <c r="C624" s="78"/>
       <c r="D624" s="39"/>
       <c r="E624" s="39"/>
       <c r="F624" s="39"/>
@@ -13603,28 +13679,28 @@
       <c r="B628" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="C628" s="96" t="s">
+      <c r="C628" s="101" t="s">
         <v>504</v>
       </c>
-      <c r="D628" s="97"/>
-      <c r="E628" s="97"/>
-      <c r="F628" s="98"/>
+      <c r="D628" s="102"/>
+      <c r="E628" s="102"/>
+      <c r="F628" s="103"/>
     </row>
     <row r="629" spans="1:6" ht="18" thickBot="1">
-      <c r="C629" s="84" t="s">
+      <c r="C629" s="82" t="s">
         <v>505</v>
       </c>
-      <c r="D629" s="85"/>
-      <c r="E629" s="85"/>
-      <c r="F629" s="86"/>
+      <c r="D629" s="83"/>
+      <c r="E629" s="83"/>
+      <c r="F629" s="84"/>
     </row>
     <row r="630" spans="1:6" ht="27" thickBot="1">
-      <c r="C630" s="77" t="s">
+      <c r="C630" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D630" s="78"/>
-      <c r="E630" s="78"/>
-      <c r="F630" s="79"/>
+      <c r="D630" s="86"/>
+      <c r="E630" s="86"/>
+      <c r="F630" s="87"/>
     </row>
     <row r="631" spans="1:6" ht="18" thickBot="1">
       <c r="C631" s="33" t="s">
@@ -13665,12 +13741,12 @@
       <c r="F633" s="35"/>
     </row>
     <row r="634" spans="1:6" ht="27" thickBot="1">
-      <c r="C634" s="80" t="s">
+      <c r="C634" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D634" s="81"/>
-      <c r="E634" s="81"/>
-      <c r="F634" s="82"/>
+      <c r="D634" s="89"/>
+      <c r="E634" s="89"/>
+      <c r="F634" s="90"/>
     </row>
     <row r="635" spans="1:6" ht="18" thickBot="1">
       <c r="C635" s="37" t="s">
@@ -13707,12 +13783,12 @@
       <c r="F637" s="38"/>
     </row>
     <row r="638" spans="1:6" ht="27" thickBot="1">
-      <c r="C638" s="83" t="s">
+      <c r="C638" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D638" s="83"/>
-      <c r="E638" s="83"/>
-      <c r="F638" s="83"/>
+      <c r="D638" s="91"/>
+      <c r="E638" s="91"/>
+      <c r="F638" s="91"/>
     </row>
     <row r="639" spans="1:6" ht="18" thickBot="1">
       <c r="C639" s="37" t="s">
@@ -13729,7 +13805,7 @@
       </c>
     </row>
     <row r="640" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C640" s="73">
+      <c r="C640" s="78">
         <v>200</v>
       </c>
       <c r="D640" s="39" t="s">
@@ -13743,7 +13819,7 @@
       </c>
     </row>
     <row r="641" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C641" s="73"/>
+      <c r="C641" s="78"/>
       <c r="D641" s="39" t="s">
         <v>358</v>
       </c>
@@ -13755,7 +13831,7 @@
       </c>
     </row>
     <row r="642" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C642" s="73"/>
+      <c r="C642" s="78"/>
       <c r="D642" s="39" t="s">
         <v>360</v>
       </c>
@@ -13767,7 +13843,7 @@
       </c>
     </row>
     <row r="643" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C643" s="73"/>
+      <c r="C643" s="78"/>
       <c r="D643" s="39"/>
       <c r="E643" s="39"/>
       <c r="F643" s="39"/>
@@ -13788,28 +13864,28 @@
       <c r="B647" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="C647" s="96" t="s">
+      <c r="C647" s="101" t="s">
         <v>506</v>
       </c>
-      <c r="D647" s="97"/>
-      <c r="E647" s="97"/>
-      <c r="F647" s="98"/>
+      <c r="D647" s="102"/>
+      <c r="E647" s="102"/>
+      <c r="F647" s="103"/>
     </row>
     <row r="648" spans="1:6" ht="18" thickBot="1">
-      <c r="C648" s="84" t="s">
+      <c r="C648" s="82" t="s">
         <v>507</v>
       </c>
-      <c r="D648" s="85"/>
-      <c r="E648" s="85"/>
-      <c r="F648" s="86"/>
+      <c r="D648" s="83"/>
+      <c r="E648" s="83"/>
+      <c r="F648" s="84"/>
     </row>
     <row r="649" spans="1:6" ht="27" thickBot="1">
-      <c r="C649" s="77" t="s">
+      <c r="C649" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D649" s="78"/>
-      <c r="E649" s="78"/>
-      <c r="F649" s="79"/>
+      <c r="D649" s="86"/>
+      <c r="E649" s="86"/>
+      <c r="F649" s="87"/>
     </row>
     <row r="650" spans="1:6" ht="18" thickBot="1">
       <c r="C650" s="33" t="s">
@@ -13850,12 +13926,12 @@
       <c r="F652" s="35"/>
     </row>
     <row r="653" spans="1:6" ht="27" thickBot="1">
-      <c r="C653" s="80" t="s">
+      <c r="C653" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D653" s="81"/>
-      <c r="E653" s="81"/>
-      <c r="F653" s="82"/>
+      <c r="D653" s="89"/>
+      <c r="E653" s="89"/>
+      <c r="F653" s="90"/>
     </row>
     <row r="654" spans="1:6" ht="18" thickBot="1">
       <c r="C654" s="37" t="s">
@@ -13900,12 +13976,12 @@
       </c>
     </row>
     <row r="657" spans="1:6" ht="27" thickBot="1">
-      <c r="C657" s="83" t="s">
+      <c r="C657" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D657" s="83"/>
-      <c r="E657" s="83"/>
-      <c r="F657" s="83"/>
+      <c r="D657" s="91"/>
+      <c r="E657" s="91"/>
+      <c r="F657" s="91"/>
     </row>
     <row r="658" spans="1:6" ht="18" thickBot="1">
       <c r="C658" s="37" t="s">
@@ -13922,7 +13998,7 @@
       </c>
     </row>
     <row r="659" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C659" s="73">
+      <c r="C659" s="78">
         <v>200</v>
       </c>
       <c r="D659" s="39" t="s">
@@ -13936,7 +14012,7 @@
       </c>
     </row>
     <row r="660" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C660" s="73"/>
+      <c r="C660" s="78"/>
       <c r="D660" s="39" t="s">
         <v>358</v>
       </c>
@@ -13948,7 +14024,7 @@
       </c>
     </row>
     <row r="661" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C661" s="73"/>
+      <c r="C661" s="78"/>
       <c r="D661" s="39" t="s">
         <v>360</v>
       </c>
@@ -13960,7 +14036,7 @@
       </c>
     </row>
     <row r="662" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C662" s="73"/>
+      <c r="C662" s="78"/>
       <c r="D662" s="39"/>
       <c r="E662" s="39"/>
       <c r="F662" s="39"/>
@@ -13981,28 +14057,28 @@
       <c r="B666" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="C666" s="96" t="s">
+      <c r="C666" s="101" t="s">
         <v>510</v>
       </c>
-      <c r="D666" s="97"/>
-      <c r="E666" s="97"/>
-      <c r="F666" s="98"/>
+      <c r="D666" s="102"/>
+      <c r="E666" s="102"/>
+      <c r="F666" s="103"/>
     </row>
     <row r="667" spans="1:6" ht="18" thickBot="1">
-      <c r="C667" s="84" t="s">
+      <c r="C667" s="82" t="s">
         <v>511</v>
       </c>
-      <c r="D667" s="85"/>
-      <c r="E667" s="85"/>
-      <c r="F667" s="86"/>
+      <c r="D667" s="83"/>
+      <c r="E667" s="83"/>
+      <c r="F667" s="84"/>
     </row>
     <row r="668" spans="1:6" ht="27" thickBot="1">
-      <c r="C668" s="77" t="s">
+      <c r="C668" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D668" s="78"/>
-      <c r="E668" s="78"/>
-      <c r="F668" s="79"/>
+      <c r="D668" s="86"/>
+      <c r="E668" s="86"/>
+      <c r="F668" s="87"/>
     </row>
     <row r="669" spans="1:6" ht="18" thickBot="1">
       <c r="C669" s="33" t="s">
@@ -14043,12 +14119,12 @@
       <c r="F671" s="35"/>
     </row>
     <row r="672" spans="1:6" ht="27" thickBot="1">
-      <c r="C672" s="80" t="s">
+      <c r="C672" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D672" s="81"/>
-      <c r="E672" s="81"/>
-      <c r="F672" s="82"/>
+      <c r="D672" s="89"/>
+      <c r="E672" s="89"/>
+      <c r="F672" s="90"/>
     </row>
     <row r="673" spans="1:6" ht="18" thickBot="1">
       <c r="C673" s="37" t="s">
@@ -14109,12 +14185,12 @@
       </c>
     </row>
     <row r="677" spans="1:6" ht="27" thickBot="1">
-      <c r="C677" s="83" t="s">
+      <c r="C677" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D677" s="83"/>
-      <c r="E677" s="83"/>
-      <c r="F677" s="83"/>
+      <c r="D677" s="91"/>
+      <c r="E677" s="91"/>
+      <c r="F677" s="91"/>
     </row>
     <row r="678" spans="1:6" ht="18" thickBot="1">
       <c r="C678" s="37" t="s">
@@ -14131,7 +14207,7 @@
       </c>
     </row>
     <row r="679" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C679" s="73">
+      <c r="C679" s="78">
         <v>200</v>
       </c>
       <c r="D679" s="39" t="s">
@@ -14145,7 +14221,7 @@
       </c>
     </row>
     <row r="680" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C680" s="73"/>
+      <c r="C680" s="78"/>
       <c r="D680" s="39" t="s">
         <v>358</v>
       </c>
@@ -14157,7 +14233,7 @@
       </c>
     </row>
     <row r="681" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C681" s="73"/>
+      <c r="C681" s="78"/>
       <c r="D681" s="39" t="s">
         <v>360</v>
       </c>
@@ -14169,7 +14245,7 @@
       </c>
     </row>
     <row r="682" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C682" s="73"/>
+      <c r="C682" s="78"/>
       <c r="D682" s="39"/>
       <c r="E682" s="39"/>
       <c r="F682" s="39"/>
@@ -14190,28 +14266,28 @@
       <c r="B686" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="C686" s="96" t="s">
+      <c r="C686" s="101" t="s">
         <v>513</v>
       </c>
-      <c r="D686" s="97"/>
-      <c r="E686" s="97"/>
-      <c r="F686" s="98"/>
+      <c r="D686" s="102"/>
+      <c r="E686" s="102"/>
+      <c r="F686" s="103"/>
     </row>
     <row r="687" spans="1:6" ht="18" thickBot="1">
-      <c r="C687" s="84" t="s">
+      <c r="C687" s="82" t="s">
         <v>514</v>
       </c>
-      <c r="D687" s="85"/>
-      <c r="E687" s="85"/>
-      <c r="F687" s="86"/>
+      <c r="D687" s="83"/>
+      <c r="E687" s="83"/>
+      <c r="F687" s="84"/>
     </row>
     <row r="688" spans="1:6" ht="27" thickBot="1">
-      <c r="C688" s="77" t="s">
+      <c r="C688" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D688" s="78"/>
-      <c r="E688" s="78"/>
-      <c r="F688" s="79"/>
+      <c r="D688" s="86"/>
+      <c r="E688" s="86"/>
+      <c r="F688" s="87"/>
     </row>
     <row r="689" spans="3:6" ht="18" thickBot="1">
       <c r="C689" s="33" t="s">
@@ -14252,12 +14328,12 @@
       <c r="F691" s="35"/>
     </row>
     <row r="692" spans="3:6" ht="27" thickBot="1">
-      <c r="C692" s="80" t="s">
+      <c r="C692" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D692" s="81"/>
-      <c r="E692" s="81"/>
-      <c r="F692" s="82"/>
+      <c r="D692" s="89"/>
+      <c r="E692" s="89"/>
+      <c r="F692" s="90"/>
     </row>
     <row r="693" spans="3:6" ht="18" thickBot="1">
       <c r="C693" s="37" t="s">
@@ -14308,12 +14384,12 @@
       <c r="F696" s="38"/>
     </row>
     <row r="697" spans="3:6" ht="27" thickBot="1">
-      <c r="C697" s="83" t="s">
+      <c r="C697" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D697" s="83"/>
-      <c r="E697" s="83"/>
-      <c r="F697" s="83"/>
+      <c r="D697" s="91"/>
+      <c r="E697" s="91"/>
+      <c r="F697" s="91"/>
     </row>
     <row r="698" spans="3:6" ht="18" thickBot="1">
       <c r="C698" s="37" t="s">
@@ -14330,7 +14406,7 @@
       </c>
     </row>
     <row r="699" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C699" s="73">
+      <c r="C699" s="78">
         <v>200</v>
       </c>
       <c r="D699" s="39" t="s">
@@ -14344,7 +14420,7 @@
       </c>
     </row>
     <row r="700" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C700" s="73"/>
+      <c r="C700" s="78"/>
       <c r="D700" s="39" t="s">
         <v>358</v>
       </c>
@@ -14356,7 +14432,7 @@
       </c>
     </row>
     <row r="701" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C701" s="73"/>
+      <c r="C701" s="78"/>
       <c r="D701" s="39" t="s">
         <v>360</v>
       </c>
@@ -14368,7 +14444,7 @@
       </c>
     </row>
     <row r="702" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C702" s="73"/>
+      <c r="C702" s="78"/>
       <c r="D702" s="39"/>
       <c r="E702" s="39"/>
       <c r="F702" s="39"/>
@@ -14389,28 +14465,28 @@
       <c r="B706" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="C706" s="99" t="s">
+      <c r="C706" s="98" t="s">
         <v>517</v>
       </c>
-      <c r="D706" s="100"/>
-      <c r="E706" s="100"/>
-      <c r="F706" s="101"/>
+      <c r="D706" s="99"/>
+      <c r="E706" s="99"/>
+      <c r="F706" s="100"/>
     </row>
     <row r="707" spans="1:6" ht="18" thickBot="1">
-      <c r="C707" s="84" t="s">
+      <c r="C707" s="82" t="s">
         <v>518</v>
       </c>
-      <c r="D707" s="85"/>
-      <c r="E707" s="85"/>
-      <c r="F707" s="86"/>
+      <c r="D707" s="83"/>
+      <c r="E707" s="83"/>
+      <c r="F707" s="84"/>
     </row>
     <row r="708" spans="1:6" ht="27" thickBot="1">
-      <c r="C708" s="77" t="s">
+      <c r="C708" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D708" s="78"/>
-      <c r="E708" s="78"/>
-      <c r="F708" s="79"/>
+      <c r="D708" s="86"/>
+      <c r="E708" s="86"/>
+      <c r="F708" s="87"/>
     </row>
     <row r="709" spans="1:6" ht="18" thickBot="1">
       <c r="C709" s="33" t="s">
@@ -14451,12 +14527,12 @@
       <c r="F711" s="35"/>
     </row>
     <row r="712" spans="1:6" ht="27" thickBot="1">
-      <c r="C712" s="80" t="s">
+      <c r="C712" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D712" s="81"/>
-      <c r="E712" s="81"/>
-      <c r="F712" s="82"/>
+      <c r="D712" s="89"/>
+      <c r="E712" s="89"/>
+      <c r="F712" s="90"/>
     </row>
     <row r="713" spans="1:6" ht="18" thickBot="1">
       <c r="C713" s="37" t="s">
@@ -14501,12 +14577,12 @@
       </c>
     </row>
     <row r="716" spans="1:6" ht="27" thickBot="1">
-      <c r="C716" s="83" t="s">
+      <c r="C716" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D716" s="83"/>
-      <c r="E716" s="83"/>
-      <c r="F716" s="83"/>
+      <c r="D716" s="91"/>
+      <c r="E716" s="91"/>
+      <c r="F716" s="91"/>
     </row>
     <row r="717" spans="1:6" ht="18" thickBot="1">
       <c r="C717" s="37" t="s">
@@ -14523,7 +14599,7 @@
       </c>
     </row>
     <row r="718" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C718" s="73">
+      <c r="C718" s="78">
         <v>200</v>
       </c>
       <c r="D718" s="39" t="s">
@@ -14537,7 +14613,7 @@
       </c>
     </row>
     <row r="719" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C719" s="73"/>
+      <c r="C719" s="78"/>
       <c r="D719" s="39" t="s">
         <v>358</v>
       </c>
@@ -14549,7 +14625,7 @@
       </c>
     </row>
     <row r="720" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C720" s="73"/>
+      <c r="C720" s="78"/>
       <c r="D720" s="39" t="s">
         <v>360</v>
       </c>
@@ -14561,7 +14637,7 @@
       </c>
     </row>
     <row r="721" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C721" s="73"/>
+      <c r="C721" s="78"/>
       <c r="D721" s="39"/>
       <c r="E721" s="39"/>
       <c r="F721" s="39"/>
@@ -14582,28 +14658,28 @@
       <c r="B725" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="C725" s="99" t="s">
+      <c r="C725" s="98" t="s">
         <v>519</v>
       </c>
-      <c r="D725" s="100"/>
-      <c r="E725" s="100"/>
-      <c r="F725" s="101"/>
+      <c r="D725" s="99"/>
+      <c r="E725" s="99"/>
+      <c r="F725" s="100"/>
     </row>
     <row r="726" spans="1:6" ht="18" thickBot="1">
-      <c r="C726" s="84" t="s">
+      <c r="C726" s="82" t="s">
         <v>520</v>
       </c>
-      <c r="D726" s="85"/>
-      <c r="E726" s="85"/>
-      <c r="F726" s="86"/>
+      <c r="D726" s="83"/>
+      <c r="E726" s="83"/>
+      <c r="F726" s="84"/>
     </row>
     <row r="727" spans="1:6" ht="27" thickBot="1">
-      <c r="C727" s="77" t="s">
+      <c r="C727" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D727" s="78"/>
-      <c r="E727" s="78"/>
-      <c r="F727" s="79"/>
+      <c r="D727" s="86"/>
+      <c r="E727" s="86"/>
+      <c r="F727" s="87"/>
     </row>
     <row r="728" spans="1:6" ht="18" thickBot="1">
       <c r="C728" s="33" t="s">
@@ -14644,12 +14720,12 @@
       <c r="F730" s="35"/>
     </row>
     <row r="731" spans="1:6" ht="27" thickBot="1">
-      <c r="C731" s="80" t="s">
+      <c r="C731" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D731" s="81"/>
-      <c r="E731" s="81"/>
-      <c r="F731" s="82"/>
+      <c r="D731" s="89"/>
+      <c r="E731" s="89"/>
+      <c r="F731" s="90"/>
     </row>
     <row r="732" spans="1:6" ht="18" thickBot="1">
       <c r="C732" s="37" t="s">
@@ -14694,12 +14770,12 @@
       </c>
     </row>
     <row r="735" spans="1:6" ht="27" thickBot="1">
-      <c r="C735" s="83" t="s">
+      <c r="C735" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D735" s="83"/>
-      <c r="E735" s="83"/>
-      <c r="F735" s="83"/>
+      <c r="D735" s="91"/>
+      <c r="E735" s="91"/>
+      <c r="F735" s="91"/>
     </row>
     <row r="736" spans="1:6" ht="18" thickBot="1">
       <c r="C736" s="37" t="s">
@@ -14716,7 +14792,7 @@
       </c>
     </row>
     <row r="737" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C737" s="73">
+      <c r="C737" s="78">
         <v>200</v>
       </c>
       <c r="D737" s="39" t="s">
@@ -14730,7 +14806,7 @@
       </c>
     </row>
     <row r="738" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C738" s="73"/>
+      <c r="C738" s="78"/>
       <c r="D738" s="39" t="s">
         <v>358</v>
       </c>
@@ -14742,7 +14818,7 @@
       </c>
     </row>
     <row r="739" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C739" s="73"/>
+      <c r="C739" s="78"/>
       <c r="D739" s="39" t="s">
         <v>360</v>
       </c>
@@ -14754,7 +14830,7 @@
       </c>
     </row>
     <row r="740" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C740" s="73"/>
+      <c r="C740" s="78"/>
       <c r="D740" s="39"/>
       <c r="E740" s="39"/>
       <c r="F740" s="39"/>
@@ -14775,28 +14851,28 @@
       <c r="B744" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="C744" s="99" t="s">
+      <c r="C744" s="98" t="s">
         <v>521</v>
       </c>
-      <c r="D744" s="100"/>
-      <c r="E744" s="100"/>
-      <c r="F744" s="101"/>
+      <c r="D744" s="99"/>
+      <c r="E744" s="99"/>
+      <c r="F744" s="100"/>
     </row>
     <row r="745" spans="1:6" ht="18" thickBot="1">
-      <c r="C745" s="84" t="s">
+      <c r="C745" s="82" t="s">
         <v>522</v>
       </c>
-      <c r="D745" s="85"/>
-      <c r="E745" s="85"/>
-      <c r="F745" s="86"/>
+      <c r="D745" s="83"/>
+      <c r="E745" s="83"/>
+      <c r="F745" s="84"/>
     </row>
     <row r="746" spans="1:6" ht="27" thickBot="1">
-      <c r="C746" s="77" t="s">
+      <c r="C746" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D746" s="78"/>
-      <c r="E746" s="78"/>
-      <c r="F746" s="79"/>
+      <c r="D746" s="86"/>
+      <c r="E746" s="86"/>
+      <c r="F746" s="87"/>
     </row>
     <row r="747" spans="1:6" ht="18" thickBot="1">
       <c r="C747" s="33" t="s">
@@ -14837,12 +14913,12 @@
       <c r="F749" s="35"/>
     </row>
     <row r="750" spans="1:6" ht="27" thickBot="1">
-      <c r="C750" s="80" t="s">
+      <c r="C750" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D750" s="81"/>
-      <c r="E750" s="81"/>
-      <c r="F750" s="82"/>
+      <c r="D750" s="89"/>
+      <c r="E750" s="89"/>
+      <c r="F750" s="90"/>
     </row>
     <row r="751" spans="1:6" ht="18" thickBot="1">
       <c r="C751" s="37" t="s">
@@ -14887,12 +14963,12 @@
       </c>
     </row>
     <row r="754" spans="1:6" ht="27" thickBot="1">
-      <c r="C754" s="83" t="s">
+      <c r="C754" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D754" s="83"/>
-      <c r="E754" s="83"/>
-      <c r="F754" s="83"/>
+      <c r="D754" s="91"/>
+      <c r="E754" s="91"/>
+      <c r="F754" s="91"/>
     </row>
     <row r="755" spans="1:6" ht="18" thickBot="1">
       <c r="C755" s="37" t="s">
@@ -14909,7 +14985,7 @@
       </c>
     </row>
     <row r="756" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C756" s="73">
+      <c r="C756" s="78">
         <v>200</v>
       </c>
       <c r="D756" s="39" t="s">
@@ -14923,7 +14999,7 @@
       </c>
     </row>
     <row r="757" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C757" s="73"/>
+      <c r="C757" s="78"/>
       <c r="D757" s="39" t="s">
         <v>358</v>
       </c>
@@ -14935,7 +15011,7 @@
       </c>
     </row>
     <row r="758" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C758" s="73"/>
+      <c r="C758" s="78"/>
       <c r="D758" s="39" t="s">
         <v>360</v>
       </c>
@@ -14947,7 +15023,7 @@
       </c>
     </row>
     <row r="759" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C759" s="73"/>
+      <c r="C759" s="78"/>
       <c r="D759" s="39"/>
       <c r="E759" s="39"/>
       <c r="F759" s="39"/>
@@ -14968,28 +15044,28 @@
       <c r="B763" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="C763" s="99" t="s">
+      <c r="C763" s="98" t="s">
         <v>525</v>
       </c>
-      <c r="D763" s="100"/>
-      <c r="E763" s="100"/>
-      <c r="F763" s="101"/>
+      <c r="D763" s="99"/>
+      <c r="E763" s="99"/>
+      <c r="F763" s="100"/>
     </row>
     <row r="764" spans="1:6" ht="18" thickBot="1">
-      <c r="C764" s="84" t="s">
+      <c r="C764" s="82" t="s">
         <v>176</v>
       </c>
-      <c r="D764" s="85"/>
-      <c r="E764" s="85"/>
-      <c r="F764" s="86"/>
+      <c r="D764" s="83"/>
+      <c r="E764" s="83"/>
+      <c r="F764" s="84"/>
     </row>
     <row r="765" spans="1:6" ht="27" thickBot="1">
-      <c r="C765" s="77" t="s">
+      <c r="C765" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D765" s="78"/>
-      <c r="E765" s="78"/>
-      <c r="F765" s="79"/>
+      <c r="D765" s="86"/>
+      <c r="E765" s="86"/>
+      <c r="F765" s="87"/>
     </row>
     <row r="766" spans="1:6" ht="18" thickBot="1">
       <c r="C766" s="33" t="s">
@@ -15030,12 +15106,12 @@
       <c r="F768" s="35"/>
     </row>
     <row r="769" spans="1:6" ht="27" thickBot="1">
-      <c r="C769" s="80" t="s">
+      <c r="C769" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D769" s="81"/>
-      <c r="E769" s="81"/>
-      <c r="F769" s="82"/>
+      <c r="D769" s="89"/>
+      <c r="E769" s="89"/>
+      <c r="F769" s="90"/>
     </row>
     <row r="770" spans="1:6" ht="18" thickBot="1">
       <c r="C770" s="37" t="s">
@@ -15080,12 +15156,12 @@
       </c>
     </row>
     <row r="773" spans="1:6" ht="27" thickBot="1">
-      <c r="C773" s="83" t="s">
+      <c r="C773" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D773" s="83"/>
-      <c r="E773" s="83"/>
-      <c r="F773" s="83"/>
+      <c r="D773" s="91"/>
+      <c r="E773" s="91"/>
+      <c r="F773" s="91"/>
     </row>
     <row r="774" spans="1:6" ht="18" thickBot="1">
       <c r="C774" s="37" t="s">
@@ -15102,7 +15178,7 @@
       </c>
     </row>
     <row r="775" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C775" s="73">
+      <c r="C775" s="78">
         <v>200</v>
       </c>
       <c r="D775" s="39" t="s">
@@ -15116,7 +15192,7 @@
       </c>
     </row>
     <row r="776" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C776" s="73"/>
+      <c r="C776" s="78"/>
       <c r="D776" s="39" t="s">
         <v>358</v>
       </c>
@@ -15128,7 +15204,7 @@
       </c>
     </row>
     <row r="777" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C777" s="73"/>
+      <c r="C777" s="78"/>
       <c r="D777" s="39" t="s">
         <v>360</v>
       </c>
@@ -15140,7 +15216,7 @@
       </c>
     </row>
     <row r="778" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C778" s="73"/>
+      <c r="C778" s="78"/>
       <c r="D778" s="39"/>
       <c r="E778" s="39"/>
       <c r="F778" s="39"/>
@@ -15161,28 +15237,28 @@
       <c r="B782" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="C782" s="102" t="s">
+      <c r="C782" s="95" t="s">
         <v>526</v>
       </c>
-      <c r="D782" s="103"/>
-      <c r="E782" s="103"/>
-      <c r="F782" s="104"/>
+      <c r="D782" s="96"/>
+      <c r="E782" s="96"/>
+      <c r="F782" s="97"/>
     </row>
     <row r="783" spans="1:6" ht="18" thickBot="1">
-      <c r="C783" s="84" t="s">
+      <c r="C783" s="82" t="s">
         <v>527</v>
       </c>
-      <c r="D783" s="85"/>
-      <c r="E783" s="85"/>
-      <c r="F783" s="86"/>
+      <c r="D783" s="83"/>
+      <c r="E783" s="83"/>
+      <c r="F783" s="84"/>
     </row>
     <row r="784" spans="1:6" ht="27" thickBot="1">
-      <c r="C784" s="77" t="s">
+      <c r="C784" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D784" s="78"/>
-      <c r="E784" s="78"/>
-      <c r="F784" s="79"/>
+      <c r="D784" s="86"/>
+      <c r="E784" s="86"/>
+      <c r="F784" s="87"/>
     </row>
     <row r="785" spans="3:6" ht="18" thickBot="1">
       <c r="C785" s="33" t="s">
@@ -15223,12 +15299,12 @@
       <c r="F787" s="35"/>
     </row>
     <row r="788" spans="3:6" ht="27" thickBot="1">
-      <c r="C788" s="80" t="s">
+      <c r="C788" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D788" s="81"/>
-      <c r="E788" s="81"/>
-      <c r="F788" s="82"/>
+      <c r="D788" s="89"/>
+      <c r="E788" s="89"/>
+      <c r="F788" s="90"/>
     </row>
     <row r="789" spans="3:6" ht="18" thickBot="1">
       <c r="C789" s="37" t="s">
@@ -15265,12 +15341,12 @@
       <c r="F791" s="38"/>
     </row>
     <row r="792" spans="3:6" ht="27" thickBot="1">
-      <c r="C792" s="83" t="s">
+      <c r="C792" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D792" s="83"/>
-      <c r="E792" s="83"/>
-      <c r="F792" s="83"/>
+      <c r="D792" s="91"/>
+      <c r="E792" s="91"/>
+      <c r="F792" s="91"/>
     </row>
     <row r="793" spans="3:6" ht="18" thickBot="1">
       <c r="C793" s="37" t="s">
@@ -15287,7 +15363,7 @@
       </c>
     </row>
     <row r="794" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C794" s="73">
+      <c r="C794" s="78">
         <v>200</v>
       </c>
       <c r="D794" s="39" t="s">
@@ -15301,7 +15377,7 @@
       </c>
     </row>
     <row r="795" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C795" s="73"/>
+      <c r="C795" s="78"/>
       <c r="D795" s="39" t="s">
         <v>358</v>
       </c>
@@ -15313,7 +15389,7 @@
       </c>
     </row>
     <row r="796" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C796" s="73"/>
+      <c r="C796" s="78"/>
       <c r="D796" s="39" t="s">
         <v>360</v>
       </c>
@@ -15325,7 +15401,7 @@
       </c>
     </row>
     <row r="797" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C797" s="73"/>
+      <c r="C797" s="78"/>
       <c r="D797" s="39"/>
       <c r="E797" s="39"/>
       <c r="F797" s="39"/>
@@ -15346,28 +15422,28 @@
       <c r="B801" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="C801" s="102" t="s">
+      <c r="C801" s="95" t="s">
         <v>528</v>
       </c>
-      <c r="D801" s="103"/>
-      <c r="E801" s="103"/>
-      <c r="F801" s="104"/>
+      <c r="D801" s="96"/>
+      <c r="E801" s="96"/>
+      <c r="F801" s="97"/>
     </row>
     <row r="802" spans="1:6" ht="18" thickBot="1">
-      <c r="C802" s="84" t="s">
+      <c r="C802" s="82" t="s">
         <v>529</v>
       </c>
-      <c r="D802" s="85"/>
-      <c r="E802" s="85"/>
-      <c r="F802" s="86"/>
+      <c r="D802" s="83"/>
+      <c r="E802" s="83"/>
+      <c r="F802" s="84"/>
     </row>
     <row r="803" spans="1:6" ht="27" thickBot="1">
-      <c r="C803" s="77" t="s">
+      <c r="C803" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D803" s="78"/>
-      <c r="E803" s="78"/>
-      <c r="F803" s="79"/>
+      <c r="D803" s="86"/>
+      <c r="E803" s="86"/>
+      <c r="F803" s="87"/>
     </row>
     <row r="804" spans="1:6" ht="18" thickBot="1">
       <c r="C804" s="33" t="s">
@@ -15408,12 +15484,12 @@
       <c r="F806" s="35"/>
     </row>
     <row r="807" spans="1:6" ht="27" thickBot="1">
-      <c r="C807" s="80" t="s">
+      <c r="C807" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D807" s="81"/>
-      <c r="E807" s="81"/>
-      <c r="F807" s="82"/>
+      <c r="D807" s="89"/>
+      <c r="E807" s="89"/>
+      <c r="F807" s="90"/>
     </row>
     <row r="808" spans="1:6" ht="18" thickBot="1">
       <c r="C808" s="37" t="s">
@@ -15458,12 +15534,12 @@
       </c>
     </row>
     <row r="811" spans="1:6" ht="27" thickBot="1">
-      <c r="C811" s="83" t="s">
+      <c r="C811" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D811" s="83"/>
-      <c r="E811" s="83"/>
-      <c r="F811" s="83"/>
+      <c r="D811" s="91"/>
+      <c r="E811" s="91"/>
+      <c r="F811" s="91"/>
     </row>
     <row r="812" spans="1:6" ht="18" thickBot="1">
       <c r="C812" s="37" t="s">
@@ -15480,7 +15556,7 @@
       </c>
     </row>
     <row r="813" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C813" s="73">
+      <c r="C813" s="78">
         <v>200</v>
       </c>
       <c r="D813" s="39" t="s">
@@ -15494,7 +15570,7 @@
       </c>
     </row>
     <row r="814" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C814" s="73"/>
+      <c r="C814" s="78"/>
       <c r="D814" s="39" t="s">
         <v>358</v>
       </c>
@@ -15506,7 +15582,7 @@
       </c>
     </row>
     <row r="815" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C815" s="73"/>
+      <c r="C815" s="78"/>
       <c r="D815" s="39" t="s">
         <v>360</v>
       </c>
@@ -15518,7 +15594,7 @@
       </c>
     </row>
     <row r="816" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C816" s="73"/>
+      <c r="C816" s="78"/>
       <c r="D816" s="39"/>
       <c r="E816" s="39"/>
       <c r="F816" s="39"/>
@@ -15539,28 +15615,28 @@
       <c r="B820" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="C820" s="105" t="s">
+      <c r="C820" s="92" t="s">
         <v>532</v>
       </c>
-      <c r="D820" s="106"/>
-      <c r="E820" s="106"/>
-      <c r="F820" s="107"/>
+      <c r="D820" s="93"/>
+      <c r="E820" s="93"/>
+      <c r="F820" s="94"/>
     </row>
     <row r="821" spans="1:6" ht="18" thickBot="1">
-      <c r="C821" s="84" t="s">
+      <c r="C821" s="82" t="s">
         <v>533</v>
       </c>
-      <c r="D821" s="85"/>
-      <c r="E821" s="85"/>
-      <c r="F821" s="86"/>
+      <c r="D821" s="83"/>
+      <c r="E821" s="83"/>
+      <c r="F821" s="84"/>
     </row>
     <row r="822" spans="1:6" ht="27" thickBot="1">
-      <c r="C822" s="77" t="s">
+      <c r="C822" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D822" s="78"/>
-      <c r="E822" s="78"/>
-      <c r="F822" s="79"/>
+      <c r="D822" s="86"/>
+      <c r="E822" s="86"/>
+      <c r="F822" s="87"/>
     </row>
     <row r="823" spans="1:6" ht="18" thickBot="1">
       <c r="C823" s="33" t="s">
@@ -15601,12 +15677,12 @@
       <c r="F825" s="35"/>
     </row>
     <row r="826" spans="1:6" ht="27" thickBot="1">
-      <c r="C826" s="80" t="s">
+      <c r="C826" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D826" s="81"/>
-      <c r="E826" s="81"/>
-      <c r="F826" s="82"/>
+      <c r="D826" s="89"/>
+      <c r="E826" s="89"/>
+      <c r="F826" s="90"/>
     </row>
     <row r="827" spans="1:6" ht="18" thickBot="1">
       <c r="C827" s="37" t="s">
@@ -15643,12 +15719,12 @@
       <c r="F829" s="38"/>
     </row>
     <row r="830" spans="1:6" ht="27" thickBot="1">
-      <c r="C830" s="83" t="s">
+      <c r="C830" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D830" s="83"/>
-      <c r="E830" s="83"/>
-      <c r="F830" s="83"/>
+      <c r="D830" s="91"/>
+      <c r="E830" s="91"/>
+      <c r="F830" s="91"/>
     </row>
     <row r="831" spans="1:6" ht="18" thickBot="1">
       <c r="C831" s="37" t="s">
@@ -15665,7 +15741,7 @@
       </c>
     </row>
     <row r="832" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C832" s="73">
+      <c r="C832" s="78">
         <v>200</v>
       </c>
       <c r="D832" s="39" t="s">
@@ -15679,7 +15755,7 @@
       </c>
     </row>
     <row r="833" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C833" s="73"/>
+      <c r="C833" s="78"/>
       <c r="D833" s="39" t="s">
         <v>358</v>
       </c>
@@ -15691,7 +15767,7 @@
       </c>
     </row>
     <row r="834" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C834" s="73"/>
+      <c r="C834" s="78"/>
       <c r="D834" s="39" t="s">
         <v>360</v>
       </c>
@@ -15703,7 +15779,7 @@
       </c>
     </row>
     <row r="835" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C835" s="73"/>
+      <c r="C835" s="78"/>
       <c r="D835" s="39"/>
       <c r="E835" s="39"/>
       <c r="F835" s="39"/>
@@ -15724,28 +15800,28 @@
       <c r="B839" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="C839" s="105" t="s">
+      <c r="C839" s="92" t="s">
         <v>534</v>
       </c>
-      <c r="D839" s="106"/>
-      <c r="E839" s="106"/>
-      <c r="F839" s="107"/>
+      <c r="D839" s="93"/>
+      <c r="E839" s="93"/>
+      <c r="F839" s="94"/>
     </row>
     <row r="840" spans="1:6" ht="18" thickBot="1">
-      <c r="C840" s="84" t="s">
+      <c r="C840" s="82" t="s">
         <v>535</v>
       </c>
-      <c r="D840" s="85"/>
-      <c r="E840" s="85"/>
-      <c r="F840" s="86"/>
+      <c r="D840" s="83"/>
+      <c r="E840" s="83"/>
+      <c r="F840" s="84"/>
     </row>
     <row r="841" spans="1:6" ht="27" thickBot="1">
-      <c r="C841" s="77" t="s">
+      <c r="C841" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D841" s="78"/>
-      <c r="E841" s="78"/>
-      <c r="F841" s="79"/>
+      <c r="D841" s="86"/>
+      <c r="E841" s="86"/>
+      <c r="F841" s="87"/>
     </row>
     <row r="842" spans="1:6" ht="18" thickBot="1">
       <c r="C842" s="33" t="s">
@@ -15786,12 +15862,12 @@
       <c r="F844" s="35"/>
     </row>
     <row r="845" spans="1:6" ht="27" thickBot="1">
-      <c r="C845" s="80" t="s">
+      <c r="C845" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D845" s="81"/>
-      <c r="E845" s="81"/>
-      <c r="F845" s="82"/>
+      <c r="D845" s="89"/>
+      <c r="E845" s="89"/>
+      <c r="F845" s="90"/>
     </row>
     <row r="846" spans="1:6" ht="18" thickBot="1">
       <c r="C846" s="37" t="s">
@@ -15836,12 +15912,12 @@
       </c>
     </row>
     <row r="849" spans="1:6" ht="27" thickBot="1">
-      <c r="C849" s="83" t="s">
+      <c r="C849" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D849" s="83"/>
-      <c r="E849" s="83"/>
-      <c r="F849" s="83"/>
+      <c r="D849" s="91"/>
+      <c r="E849" s="91"/>
+      <c r="F849" s="91"/>
     </row>
     <row r="850" spans="1:6" ht="18" thickBot="1">
       <c r="C850" s="37" t="s">
@@ -15858,7 +15934,7 @@
       </c>
     </row>
     <row r="851" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C851" s="73">
+      <c r="C851" s="78">
         <v>200</v>
       </c>
       <c r="D851" s="39" t="s">
@@ -15872,7 +15948,7 @@
       </c>
     </row>
     <row r="852" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C852" s="73"/>
+      <c r="C852" s="78"/>
       <c r="D852" s="39" t="s">
         <v>358</v>
       </c>
@@ -15884,7 +15960,7 @@
       </c>
     </row>
     <row r="853" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C853" s="73"/>
+      <c r="C853" s="78"/>
       <c r="D853" s="39" t="s">
         <v>360</v>
       </c>
@@ -15896,7 +15972,7 @@
       </c>
     </row>
     <row r="854" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C854" s="73"/>
+      <c r="C854" s="78"/>
       <c r="D854" s="39"/>
       <c r="E854" s="39"/>
       <c r="F854" s="39"/>
@@ -15917,28 +15993,28 @@
       <c r="B858" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="C858" s="105" t="s">
+      <c r="C858" s="92" t="s">
         <v>538</v>
       </c>
-      <c r="D858" s="106"/>
-      <c r="E858" s="106"/>
-      <c r="F858" s="107"/>
+      <c r="D858" s="93"/>
+      <c r="E858" s="93"/>
+      <c r="F858" s="94"/>
     </row>
     <row r="859" spans="1:6" ht="18" thickBot="1">
-      <c r="C859" s="84" t="s">
+      <c r="C859" s="82" t="s">
         <v>539</v>
       </c>
-      <c r="D859" s="85"/>
-      <c r="E859" s="85"/>
-      <c r="F859" s="86"/>
+      <c r="D859" s="83"/>
+      <c r="E859" s="83"/>
+      <c r="F859" s="84"/>
     </row>
     <row r="860" spans="1:6" ht="27" thickBot="1">
-      <c r="C860" s="77" t="s">
+      <c r="C860" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D860" s="78"/>
-      <c r="E860" s="78"/>
-      <c r="F860" s="79"/>
+      <c r="D860" s="86"/>
+      <c r="E860" s="86"/>
+      <c r="F860" s="87"/>
     </row>
     <row r="861" spans="1:6" ht="18" thickBot="1">
       <c r="C861" s="33" t="s">
@@ -15979,12 +16055,12 @@
       <c r="F863" s="35"/>
     </row>
     <row r="864" spans="1:6" ht="27" thickBot="1">
-      <c r="C864" s="80" t="s">
+      <c r="C864" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D864" s="81"/>
-      <c r="E864" s="81"/>
-      <c r="F864" s="82"/>
+      <c r="D864" s="89"/>
+      <c r="E864" s="89"/>
+      <c r="F864" s="90"/>
     </row>
     <row r="865" spans="1:6" ht="18" thickBot="1">
       <c r="C865" s="37" t="s">
@@ -16029,12 +16105,12 @@
       </c>
     </row>
     <row r="868" spans="1:6" ht="27" thickBot="1">
-      <c r="C868" s="83" t="s">
+      <c r="C868" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D868" s="83"/>
-      <c r="E868" s="83"/>
-      <c r="F868" s="83"/>
+      <c r="D868" s="91"/>
+      <c r="E868" s="91"/>
+      <c r="F868" s="91"/>
     </row>
     <row r="869" spans="1:6" ht="18" thickBot="1">
       <c r="C869" s="37" t="s">
@@ -16051,7 +16127,7 @@
       </c>
     </row>
     <row r="870" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C870" s="73">
+      <c r="C870" s="78">
         <v>200</v>
       </c>
       <c r="D870" s="39" t="s">
@@ -16065,7 +16141,7 @@
       </c>
     </row>
     <row r="871" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C871" s="73"/>
+      <c r="C871" s="78"/>
       <c r="D871" s="39" t="s">
         <v>358</v>
       </c>
@@ -16077,7 +16153,7 @@
       </c>
     </row>
     <row r="872" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C872" s="73"/>
+      <c r="C872" s="78"/>
       <c r="D872" s="39" t="s">
         <v>360</v>
       </c>
@@ -16089,7 +16165,7 @@
       </c>
     </row>
     <row r="873" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C873" s="73"/>
+      <c r="C873" s="78"/>
       <c r="D873" s="39"/>
       <c r="E873" s="39"/>
       <c r="F873" s="39"/>
@@ -16110,28 +16186,28 @@
       <c r="B877" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="C877" s="108" t="s">
+      <c r="C877" s="79" t="s">
         <v>540</v>
       </c>
-      <c r="D877" s="109"/>
-      <c r="E877" s="109"/>
-      <c r="F877" s="110"/>
+      <c r="D877" s="80"/>
+      <c r="E877" s="80"/>
+      <c r="F877" s="81"/>
     </row>
     <row r="878" spans="1:6" ht="18" thickBot="1">
-      <c r="C878" s="84" t="s">
+      <c r="C878" s="82" t="s">
         <v>541</v>
       </c>
-      <c r="D878" s="85"/>
-      <c r="E878" s="85"/>
-      <c r="F878" s="86"/>
+      <c r="D878" s="83"/>
+      <c r="E878" s="83"/>
+      <c r="F878" s="84"/>
     </row>
     <row r="879" spans="1:6" ht="27" thickBot="1">
-      <c r="C879" s="77" t="s">
+      <c r="C879" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D879" s="78"/>
-      <c r="E879" s="78"/>
-      <c r="F879" s="79"/>
+      <c r="D879" s="86"/>
+      <c r="E879" s="86"/>
+      <c r="F879" s="87"/>
     </row>
     <row r="880" spans="1:6" ht="18" thickBot="1">
       <c r="C880" s="33" t="s">
@@ -16172,12 +16248,12 @@
       <c r="F882" s="35"/>
     </row>
     <row r="883" spans="1:6" ht="27" thickBot="1">
-      <c r="C883" s="80" t="s">
+      <c r="C883" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D883" s="81"/>
-      <c r="E883" s="81"/>
-      <c r="F883" s="82"/>
+      <c r="D883" s="89"/>
+      <c r="E883" s="89"/>
+      <c r="F883" s="90"/>
     </row>
     <row r="884" spans="1:6" ht="18" thickBot="1">
       <c r="C884" s="37" t="s">
@@ -16200,12 +16276,12 @@
       <c r="F885" s="38"/>
     </row>
     <row r="886" spans="1:6" ht="27" thickBot="1">
-      <c r="C886" s="83" t="s">
+      <c r="C886" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D886" s="83"/>
-      <c r="E886" s="83"/>
-      <c r="F886" s="83"/>
+      <c r="D886" s="91"/>
+      <c r="E886" s="91"/>
+      <c r="F886" s="91"/>
     </row>
     <row r="887" spans="1:6" ht="18" thickBot="1">
       <c r="C887" s="37" t="s">
@@ -16222,7 +16298,7 @@
       </c>
     </row>
     <row r="888" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C888" s="73">
+      <c r="C888" s="78">
         <v>200</v>
       </c>
       <c r="D888" s="39" t="s">
@@ -16236,7 +16312,7 @@
       </c>
     </row>
     <row r="889" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C889" s="73"/>
+      <c r="C889" s="78"/>
       <c r="D889" s="39" t="s">
         <v>358</v>
       </c>
@@ -16248,7 +16324,7 @@
       </c>
     </row>
     <row r="890" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C890" s="73"/>
+      <c r="C890" s="78"/>
       <c r="D890" s="39" t="s">
         <v>360</v>
       </c>
@@ -16260,7 +16336,7 @@
       </c>
     </row>
     <row r="891" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C891" s="73"/>
+      <c r="C891" s="78"/>
       <c r="D891" s="39"/>
       <c r="E891" s="39"/>
       <c r="F891" s="39"/>
@@ -16281,28 +16357,28 @@
       <c r="B895" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="C895" s="108" t="s">
+      <c r="C895" s="79" t="s">
         <v>542</v>
       </c>
-      <c r="D895" s="109"/>
-      <c r="E895" s="109"/>
-      <c r="F895" s="110"/>
+      <c r="D895" s="80"/>
+      <c r="E895" s="80"/>
+      <c r="F895" s="81"/>
     </row>
     <row r="896" spans="1:6" ht="18" thickBot="1">
-      <c r="C896" s="84" t="s">
+      <c r="C896" s="82" t="s">
         <v>543</v>
       </c>
-      <c r="D896" s="85"/>
-      <c r="E896" s="85"/>
-      <c r="F896" s="86"/>
+      <c r="D896" s="83"/>
+      <c r="E896" s="83"/>
+      <c r="F896" s="84"/>
     </row>
     <row r="897" spans="3:6" ht="27" thickBot="1">
-      <c r="C897" s="77" t="s">
+      <c r="C897" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D897" s="78"/>
-      <c r="E897" s="78"/>
-      <c r="F897" s="79"/>
+      <c r="D897" s="86"/>
+      <c r="E897" s="86"/>
+      <c r="F897" s="87"/>
     </row>
     <row r="898" spans="3:6" ht="18" thickBot="1">
       <c r="C898" s="33" t="s">
@@ -16343,12 +16419,12 @@
       <c r="F900" s="35"/>
     </row>
     <row r="901" spans="3:6" ht="27" thickBot="1">
-      <c r="C901" s="80" t="s">
+      <c r="C901" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D901" s="81"/>
-      <c r="E901" s="81"/>
-      <c r="F901" s="82"/>
+      <c r="D901" s="89"/>
+      <c r="E901" s="89"/>
+      <c r="F901" s="90"/>
     </row>
     <row r="902" spans="3:6" ht="18" thickBot="1">
       <c r="C902" s="37" t="s">
@@ -16385,12 +16461,12 @@
       <c r="F904" s="38"/>
     </row>
     <row r="905" spans="3:6" ht="27" thickBot="1">
-      <c r="C905" s="83" t="s">
+      <c r="C905" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D905" s="83"/>
-      <c r="E905" s="83"/>
-      <c r="F905" s="83"/>
+      <c r="D905" s="91"/>
+      <c r="E905" s="91"/>
+      <c r="F905" s="91"/>
     </row>
     <row r="906" spans="3:6" ht="18" thickBot="1">
       <c r="C906" s="37" t="s">
@@ -16407,7 +16483,7 @@
       </c>
     </row>
     <row r="907" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C907" s="73">
+      <c r="C907" s="78">
         <v>200</v>
       </c>
       <c r="D907" s="39" t="s">
@@ -16421,7 +16497,7 @@
       </c>
     </row>
     <row r="908" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C908" s="73"/>
+      <c r="C908" s="78"/>
       <c r="D908" s="39" t="s">
         <v>358</v>
       </c>
@@ -16433,7 +16509,7 @@
       </c>
     </row>
     <row r="909" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C909" s="73"/>
+      <c r="C909" s="78"/>
       <c r="D909" s="39" t="s">
         <v>360</v>
       </c>
@@ -16445,7 +16521,7 @@
       </c>
     </row>
     <row r="910" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C910" s="73"/>
+      <c r="C910" s="78"/>
       <c r="D910" s="39"/>
       <c r="E910" s="39"/>
       <c r="F910" s="39"/>
@@ -16466,28 +16542,28 @@
       <c r="B915" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="C915" s="108" t="s">
+      <c r="C915" s="79" t="s">
         <v>546</v>
       </c>
-      <c r="D915" s="109"/>
-      <c r="E915" s="109"/>
-      <c r="F915" s="110"/>
+      <c r="D915" s="80"/>
+      <c r="E915" s="80"/>
+      <c r="F915" s="81"/>
     </row>
     <row r="916" spans="1:6" ht="18" thickBot="1">
-      <c r="C916" s="84" t="s">
+      <c r="C916" s="82" t="s">
         <v>547</v>
       </c>
-      <c r="D916" s="85"/>
-      <c r="E916" s="85"/>
-      <c r="F916" s="86"/>
+      <c r="D916" s="83"/>
+      <c r="E916" s="83"/>
+      <c r="F916" s="84"/>
     </row>
     <row r="917" spans="1:6" ht="27" thickBot="1">
-      <c r="C917" s="77" t="s">
+      <c r="C917" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D917" s="78"/>
-      <c r="E917" s="78"/>
-      <c r="F917" s="79"/>
+      <c r="D917" s="86"/>
+      <c r="E917" s="86"/>
+      <c r="F917" s="87"/>
     </row>
     <row r="918" spans="1:6" ht="18" thickBot="1">
       <c r="C918" s="33" t="s">
@@ -16528,12 +16604,12 @@
       <c r="F920" s="35"/>
     </row>
     <row r="921" spans="1:6" ht="27" thickBot="1">
-      <c r="C921" s="80" t="s">
+      <c r="C921" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D921" s="81"/>
-      <c r="E921" s="81"/>
-      <c r="F921" s="82"/>
+      <c r="D921" s="89"/>
+      <c r="E921" s="89"/>
+      <c r="F921" s="90"/>
     </row>
     <row r="922" spans="1:6" ht="18" thickBot="1">
       <c r="C922" s="37" t="s">
@@ -16594,12 +16670,12 @@
       </c>
     </row>
     <row r="926" spans="1:6" ht="27" thickBot="1">
-      <c r="C926" s="83" t="s">
+      <c r="C926" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D926" s="83"/>
-      <c r="E926" s="83"/>
-      <c r="F926" s="83"/>
+      <c r="D926" s="91"/>
+      <c r="E926" s="91"/>
+      <c r="F926" s="91"/>
     </row>
     <row r="927" spans="1:6" ht="18" thickBot="1">
       <c r="C927" s="37" t="s">
@@ -16616,7 +16692,7 @@
       </c>
     </row>
     <row r="928" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C928" s="73">
+      <c r="C928" s="78">
         <v>200</v>
       </c>
       <c r="D928" s="39" t="s">
@@ -16630,7 +16706,7 @@
       </c>
     </row>
     <row r="929" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C929" s="73"/>
+      <c r="C929" s="78"/>
       <c r="D929" s="39" t="s">
         <v>358</v>
       </c>
@@ -16642,7 +16718,7 @@
       </c>
     </row>
     <row r="930" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C930" s="73"/>
+      <c r="C930" s="78"/>
       <c r="D930" s="39" t="s">
         <v>360</v>
       </c>
@@ -16654,7 +16730,7 @@
       </c>
     </row>
     <row r="931" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C931" s="73"/>
+      <c r="C931" s="78"/>
       <c r="D931" s="39"/>
       <c r="E931" s="39"/>
       <c r="F931" s="39"/>
@@ -16675,28 +16751,28 @@
       <c r="B935" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="C935" s="108" t="s">
+      <c r="C935" s="79" t="s">
         <v>550</v>
       </c>
-      <c r="D935" s="109"/>
-      <c r="E935" s="109"/>
-      <c r="F935" s="110"/>
+      <c r="D935" s="80"/>
+      <c r="E935" s="80"/>
+      <c r="F935" s="81"/>
     </row>
     <row r="936" spans="1:6" ht="18" thickBot="1">
-      <c r="C936" s="84" t="s">
+      <c r="C936" s="82" t="s">
         <v>551</v>
       </c>
-      <c r="D936" s="85"/>
-      <c r="E936" s="85"/>
-      <c r="F936" s="86"/>
+      <c r="D936" s="83"/>
+      <c r="E936" s="83"/>
+      <c r="F936" s="84"/>
     </row>
     <row r="937" spans="1:6" ht="27" thickBot="1">
-      <c r="C937" s="77" t="s">
+      <c r="C937" s="85" t="s">
         <v>327</v>
       </c>
-      <c r="D937" s="78"/>
-      <c r="E937" s="78"/>
-      <c r="F937" s="79"/>
+      <c r="D937" s="86"/>
+      <c r="E937" s="86"/>
+      <c r="F937" s="87"/>
     </row>
     <row r="938" spans="1:6" ht="18" thickBot="1">
       <c r="C938" s="33" t="s">
@@ -16737,12 +16813,12 @@
       <c r="F940" s="35"/>
     </row>
     <row r="941" spans="1:6" ht="27" thickBot="1">
-      <c r="C941" s="80" t="s">
+      <c r="C941" s="88" t="s">
         <v>333</v>
       </c>
-      <c r="D941" s="81"/>
-      <c r="E941" s="81"/>
-      <c r="F941" s="82"/>
+      <c r="D941" s="89"/>
+      <c r="E941" s="89"/>
+      <c r="F941" s="90"/>
     </row>
     <row r="942" spans="1:6" ht="18" thickBot="1">
       <c r="C942" s="37" t="s">
@@ -16801,12 +16877,12 @@
       </c>
     </row>
     <row r="946" spans="3:6" ht="27" thickBot="1">
-      <c r="C946" s="83" t="s">
+      <c r="C946" s="91" t="s">
         <v>336</v>
       </c>
-      <c r="D946" s="83"/>
-      <c r="E946" s="83"/>
-      <c r="F946" s="83"/>
+      <c r="D946" s="91"/>
+      <c r="E946" s="91"/>
+      <c r="F946" s="91"/>
     </row>
     <row r="947" spans="3:6" ht="18" thickBot="1">
       <c r="C947" s="37" t="s">
@@ -16823,7 +16899,7 @@
       </c>
     </row>
     <row r="948" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C948" s="73">
+      <c r="C948" s="78">
         <v>200</v>
       </c>
       <c r="D948" s="39" t="s">
@@ -16837,7 +16913,7 @@
       </c>
     </row>
     <row r="949" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C949" s="73"/>
+      <c r="C949" s="78"/>
       <c r="D949" s="39" t="s">
         <v>358</v>
       </c>
@@ -16849,7 +16925,7 @@
       </c>
     </row>
     <row r="950" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C950" s="73"/>
+      <c r="C950" s="78"/>
       <c r="D950" s="39" t="s">
         <v>360</v>
       </c>
@@ -16861,7 +16937,7 @@
       </c>
     </row>
     <row r="951" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C951" s="73"/>
+      <c r="C951" s="78"/>
       <c r="D951" s="39"/>
       <c r="E951" s="39"/>
       <c r="F951" s="39"/>
@@ -16876,214 +16952,80 @@
     </row>
   </sheetData>
   <mergeCells count="300">
-    <mergeCell ref="C948:C951"/>
-    <mergeCell ref="C935:F935"/>
-    <mergeCell ref="C936:F936"/>
-    <mergeCell ref="C937:F937"/>
-    <mergeCell ref="C941:F941"/>
-    <mergeCell ref="C946:F946"/>
-    <mergeCell ref="C916:F916"/>
-    <mergeCell ref="C917:F917"/>
-    <mergeCell ref="C921:F921"/>
-    <mergeCell ref="C926:F926"/>
-    <mergeCell ref="C928:C931"/>
-    <mergeCell ref="C897:F897"/>
-    <mergeCell ref="C901:F901"/>
-    <mergeCell ref="C905:F905"/>
-    <mergeCell ref="C907:C910"/>
-    <mergeCell ref="C915:F915"/>
-    <mergeCell ref="C883:F883"/>
-    <mergeCell ref="C886:F886"/>
-    <mergeCell ref="C888:C891"/>
-    <mergeCell ref="C895:F895"/>
-    <mergeCell ref="C896:F896"/>
-    <mergeCell ref="C868:F868"/>
-    <mergeCell ref="C870:C873"/>
-    <mergeCell ref="C877:F877"/>
-    <mergeCell ref="C878:F878"/>
-    <mergeCell ref="C879:F879"/>
-    <mergeCell ref="C851:C854"/>
-    <mergeCell ref="C858:F858"/>
-    <mergeCell ref="C859:F859"/>
-    <mergeCell ref="C860:F860"/>
-    <mergeCell ref="C864:F864"/>
-    <mergeCell ref="C839:F839"/>
-    <mergeCell ref="C840:F840"/>
-    <mergeCell ref="C841:F841"/>
-    <mergeCell ref="C845:F845"/>
-    <mergeCell ref="C849:F849"/>
-    <mergeCell ref="C821:F821"/>
-    <mergeCell ref="C822:F822"/>
-    <mergeCell ref="C826:F826"/>
-    <mergeCell ref="C830:F830"/>
-    <mergeCell ref="C832:C835"/>
-    <mergeCell ref="C803:F803"/>
-    <mergeCell ref="C807:F807"/>
-    <mergeCell ref="C811:F811"/>
-    <mergeCell ref="C813:C816"/>
-    <mergeCell ref="C820:F820"/>
-    <mergeCell ref="C788:F788"/>
-    <mergeCell ref="C792:F792"/>
-    <mergeCell ref="C794:C797"/>
-    <mergeCell ref="C801:F801"/>
-    <mergeCell ref="C802:F802"/>
-    <mergeCell ref="C773:F773"/>
-    <mergeCell ref="C775:C778"/>
-    <mergeCell ref="C782:F782"/>
-    <mergeCell ref="C783:F783"/>
-    <mergeCell ref="C784:F784"/>
-    <mergeCell ref="C756:C759"/>
-    <mergeCell ref="C763:F763"/>
-    <mergeCell ref="C764:F764"/>
-    <mergeCell ref="C765:F765"/>
-    <mergeCell ref="C769:F769"/>
-    <mergeCell ref="C744:F744"/>
-    <mergeCell ref="C745:F745"/>
-    <mergeCell ref="C746:F746"/>
-    <mergeCell ref="C750:F750"/>
-    <mergeCell ref="C754:F754"/>
-    <mergeCell ref="C726:F726"/>
-    <mergeCell ref="C727:F727"/>
-    <mergeCell ref="C731:F731"/>
-    <mergeCell ref="C735:F735"/>
-    <mergeCell ref="C737:C740"/>
-    <mergeCell ref="C708:F708"/>
-    <mergeCell ref="C712:F712"/>
-    <mergeCell ref="C716:F716"/>
-    <mergeCell ref="C718:C721"/>
-    <mergeCell ref="C725:F725"/>
-    <mergeCell ref="C692:F692"/>
-    <mergeCell ref="C697:F697"/>
-    <mergeCell ref="C699:C702"/>
-    <mergeCell ref="C706:F706"/>
-    <mergeCell ref="C707:F707"/>
-    <mergeCell ref="C677:F677"/>
-    <mergeCell ref="C679:C682"/>
-    <mergeCell ref="C686:F686"/>
-    <mergeCell ref="C687:F687"/>
-    <mergeCell ref="C688:F688"/>
-    <mergeCell ref="C659:C662"/>
-    <mergeCell ref="C666:F666"/>
-    <mergeCell ref="C667:F667"/>
-    <mergeCell ref="C668:F668"/>
-    <mergeCell ref="C672:F672"/>
-    <mergeCell ref="C647:F647"/>
-    <mergeCell ref="C648:F648"/>
-    <mergeCell ref="C649:F649"/>
-    <mergeCell ref="C653:F653"/>
-    <mergeCell ref="C657:F657"/>
-    <mergeCell ref="C629:F629"/>
-    <mergeCell ref="C630:F630"/>
-    <mergeCell ref="C634:F634"/>
-    <mergeCell ref="C638:F638"/>
-    <mergeCell ref="C640:C643"/>
-    <mergeCell ref="C611:F611"/>
-    <mergeCell ref="C615:F615"/>
-    <mergeCell ref="C619:F619"/>
-    <mergeCell ref="C621:C624"/>
-    <mergeCell ref="C628:F628"/>
-    <mergeCell ref="C596:F596"/>
-    <mergeCell ref="C600:F600"/>
-    <mergeCell ref="C602:C605"/>
-    <mergeCell ref="C609:F609"/>
-    <mergeCell ref="C610:F610"/>
-    <mergeCell ref="C581:F581"/>
-    <mergeCell ref="C583:C586"/>
-    <mergeCell ref="C590:F590"/>
-    <mergeCell ref="C591:F591"/>
-    <mergeCell ref="C592:F592"/>
-    <mergeCell ref="C564:C567"/>
-    <mergeCell ref="C571:F571"/>
-    <mergeCell ref="C572:F572"/>
-    <mergeCell ref="C573:F573"/>
-    <mergeCell ref="C577:F577"/>
-    <mergeCell ref="C552:F552"/>
-    <mergeCell ref="C553:F553"/>
-    <mergeCell ref="C554:F554"/>
-    <mergeCell ref="C558:F558"/>
-    <mergeCell ref="C562:F562"/>
-    <mergeCell ref="C534:F534"/>
-    <mergeCell ref="C535:F535"/>
-    <mergeCell ref="C539:F539"/>
-    <mergeCell ref="C543:F543"/>
-    <mergeCell ref="C545:C548"/>
-    <mergeCell ref="C517:F517"/>
-    <mergeCell ref="C521:F521"/>
-    <mergeCell ref="C524:F524"/>
-    <mergeCell ref="C526:C529"/>
-    <mergeCell ref="C533:F533"/>
-    <mergeCell ref="C503:F503"/>
-    <mergeCell ref="C506:F506"/>
-    <mergeCell ref="C508:C511"/>
-    <mergeCell ref="C515:F515"/>
-    <mergeCell ref="C516:F516"/>
-    <mergeCell ref="C488:F488"/>
-    <mergeCell ref="C490:C493"/>
-    <mergeCell ref="C497:F497"/>
-    <mergeCell ref="C498:F498"/>
-    <mergeCell ref="C499:F499"/>
-    <mergeCell ref="C471:C474"/>
-    <mergeCell ref="C478:F478"/>
-    <mergeCell ref="C479:F479"/>
-    <mergeCell ref="C480:F480"/>
-    <mergeCell ref="C484:F484"/>
-    <mergeCell ref="C459:F459"/>
-    <mergeCell ref="C460:F460"/>
-    <mergeCell ref="C461:F461"/>
-    <mergeCell ref="C465:F465"/>
-    <mergeCell ref="C469:F469"/>
-    <mergeCell ref="C441:F441"/>
-    <mergeCell ref="C442:F442"/>
-    <mergeCell ref="C446:F446"/>
-    <mergeCell ref="C450:F450"/>
-    <mergeCell ref="C452:C455"/>
-    <mergeCell ref="C423:F423"/>
-    <mergeCell ref="C427:F427"/>
-    <mergeCell ref="C431:F431"/>
-    <mergeCell ref="C433:C436"/>
-    <mergeCell ref="C440:F440"/>
-    <mergeCell ref="C408:F408"/>
-    <mergeCell ref="C412:F412"/>
-    <mergeCell ref="C414:C417"/>
-    <mergeCell ref="C421:F421"/>
-    <mergeCell ref="C422:F422"/>
-    <mergeCell ref="C393:F393"/>
-    <mergeCell ref="C395:C398"/>
-    <mergeCell ref="C402:F402"/>
-    <mergeCell ref="C403:F403"/>
-    <mergeCell ref="C404:F404"/>
-    <mergeCell ref="C376:C379"/>
-    <mergeCell ref="C383:F383"/>
-    <mergeCell ref="C384:F384"/>
-    <mergeCell ref="C385:F385"/>
-    <mergeCell ref="C389:F389"/>
-    <mergeCell ref="C364:F364"/>
-    <mergeCell ref="C365:F365"/>
-    <mergeCell ref="C366:F366"/>
-    <mergeCell ref="C370:F370"/>
-    <mergeCell ref="C374:F374"/>
-    <mergeCell ref="C345:F345"/>
-    <mergeCell ref="C351:F351"/>
-    <mergeCell ref="C355:F355"/>
-    <mergeCell ref="C357:C360"/>
-    <mergeCell ref="C336:F336"/>
-    <mergeCell ref="C338:C341"/>
-    <mergeCell ref="C346:F346"/>
-    <mergeCell ref="C347:F347"/>
-    <mergeCell ref="C319:C322"/>
-    <mergeCell ref="C326:F326"/>
-    <mergeCell ref="C327:F327"/>
-    <mergeCell ref="C328:F328"/>
-    <mergeCell ref="C332:F332"/>
-    <mergeCell ref="C307:F307"/>
-    <mergeCell ref="C308:F308"/>
-    <mergeCell ref="C309:F309"/>
-    <mergeCell ref="C313:F313"/>
-    <mergeCell ref="C317:F317"/>
-    <mergeCell ref="C290:F290"/>
-    <mergeCell ref="C294:F294"/>
-    <mergeCell ref="C298:F298"/>
-    <mergeCell ref="C300:C303"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="C103:C106"/>
+    <mergeCell ref="C75:F75"/>
+    <mergeCell ref="C76:F76"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="C80:F80"/>
+    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="C85:C88"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="C94:F94"/>
+    <mergeCell ref="C98:F98"/>
+    <mergeCell ref="C101:F101"/>
+    <mergeCell ref="C140:C143"/>
+    <mergeCell ref="C110:F110"/>
+    <mergeCell ref="C111:F111"/>
+    <mergeCell ref="C112:F112"/>
+    <mergeCell ref="C116:F116"/>
+    <mergeCell ref="C119:F119"/>
+    <mergeCell ref="C121:C124"/>
+    <mergeCell ref="C128:F128"/>
+    <mergeCell ref="C129:F129"/>
+    <mergeCell ref="C130:F130"/>
+    <mergeCell ref="C134:F134"/>
+    <mergeCell ref="C138:F138"/>
+    <mergeCell ref="C184:C187"/>
+    <mergeCell ref="C147:F147"/>
+    <mergeCell ref="C148:F148"/>
+    <mergeCell ref="C149:F149"/>
+    <mergeCell ref="C153:F153"/>
+    <mergeCell ref="C162:F162"/>
+    <mergeCell ref="C164:C167"/>
+    <mergeCell ref="C171:F171"/>
+    <mergeCell ref="C172:F172"/>
+    <mergeCell ref="C173:F173"/>
+    <mergeCell ref="C177:F177"/>
+    <mergeCell ref="C182:F182"/>
+    <mergeCell ref="C231:F231"/>
+    <mergeCell ref="C211:F211"/>
+    <mergeCell ref="C212:F212"/>
+    <mergeCell ref="C191:F191"/>
+    <mergeCell ref="C192:F192"/>
+    <mergeCell ref="C193:F193"/>
+    <mergeCell ref="C197:F197"/>
+    <mergeCell ref="C201:F201"/>
+    <mergeCell ref="C203:C206"/>
+    <mergeCell ref="C210:F210"/>
+    <mergeCell ref="C216:F216"/>
+    <mergeCell ref="C221:F221"/>
+    <mergeCell ref="C223:C226"/>
+    <mergeCell ref="C230:F230"/>
     <mergeCell ref="C271:F271"/>
     <mergeCell ref="C275:F275"/>
     <mergeCell ref="C279:F279"/>
@@ -17102,80 +17044,214 @@
     <mergeCell ref="C260:F260"/>
     <mergeCell ref="C262:C265"/>
     <mergeCell ref="C269:F269"/>
-    <mergeCell ref="C231:F231"/>
-    <mergeCell ref="C211:F211"/>
-    <mergeCell ref="C212:F212"/>
-    <mergeCell ref="C191:F191"/>
-    <mergeCell ref="C192:F192"/>
-    <mergeCell ref="C193:F193"/>
-    <mergeCell ref="C197:F197"/>
-    <mergeCell ref="C201:F201"/>
-    <mergeCell ref="C203:C206"/>
-    <mergeCell ref="C210:F210"/>
-    <mergeCell ref="C216:F216"/>
-    <mergeCell ref="C221:F221"/>
-    <mergeCell ref="C223:C226"/>
-    <mergeCell ref="C230:F230"/>
-    <mergeCell ref="C184:C187"/>
-    <mergeCell ref="C147:F147"/>
-    <mergeCell ref="C148:F148"/>
-    <mergeCell ref="C149:F149"/>
-    <mergeCell ref="C153:F153"/>
-    <mergeCell ref="C162:F162"/>
-    <mergeCell ref="C164:C167"/>
-    <mergeCell ref="C171:F171"/>
-    <mergeCell ref="C172:F172"/>
-    <mergeCell ref="C173:F173"/>
-    <mergeCell ref="C177:F177"/>
-    <mergeCell ref="C182:F182"/>
-    <mergeCell ref="C140:C143"/>
-    <mergeCell ref="C110:F110"/>
-    <mergeCell ref="C111:F111"/>
-    <mergeCell ref="C112:F112"/>
-    <mergeCell ref="C116:F116"/>
-    <mergeCell ref="C119:F119"/>
-    <mergeCell ref="C121:C124"/>
-    <mergeCell ref="C128:F128"/>
-    <mergeCell ref="C129:F129"/>
-    <mergeCell ref="C130:F130"/>
-    <mergeCell ref="C134:F134"/>
-    <mergeCell ref="C138:F138"/>
-    <mergeCell ref="C103:C106"/>
-    <mergeCell ref="C75:F75"/>
-    <mergeCell ref="C76:F76"/>
-    <mergeCell ref="C77:F77"/>
-    <mergeCell ref="C80:F80"/>
-    <mergeCell ref="C83:F83"/>
-    <mergeCell ref="C85:C88"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="C93:F93"/>
-    <mergeCell ref="C94:F94"/>
-    <mergeCell ref="C98:F98"/>
-    <mergeCell ref="C101:F101"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="C59:F59"/>
-    <mergeCell ref="C60:F60"/>
-    <mergeCell ref="C63:F63"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C307:F307"/>
+    <mergeCell ref="C308:F308"/>
+    <mergeCell ref="C309:F309"/>
+    <mergeCell ref="C313:F313"/>
+    <mergeCell ref="C317:F317"/>
+    <mergeCell ref="C290:F290"/>
+    <mergeCell ref="C294:F294"/>
+    <mergeCell ref="C298:F298"/>
+    <mergeCell ref="C300:C303"/>
+    <mergeCell ref="C336:F336"/>
+    <mergeCell ref="C338:C341"/>
+    <mergeCell ref="C346:F346"/>
+    <mergeCell ref="C347:F347"/>
+    <mergeCell ref="C319:C322"/>
+    <mergeCell ref="C326:F326"/>
+    <mergeCell ref="C327:F327"/>
+    <mergeCell ref="C328:F328"/>
+    <mergeCell ref="C332:F332"/>
+    <mergeCell ref="C364:F364"/>
+    <mergeCell ref="C365:F365"/>
+    <mergeCell ref="C366:F366"/>
+    <mergeCell ref="C370:F370"/>
+    <mergeCell ref="C374:F374"/>
+    <mergeCell ref="C345:F345"/>
+    <mergeCell ref="C351:F351"/>
+    <mergeCell ref="C355:F355"/>
+    <mergeCell ref="C357:C360"/>
+    <mergeCell ref="C393:F393"/>
+    <mergeCell ref="C395:C398"/>
+    <mergeCell ref="C402:F402"/>
+    <mergeCell ref="C403:F403"/>
+    <mergeCell ref="C404:F404"/>
+    <mergeCell ref="C376:C379"/>
+    <mergeCell ref="C383:F383"/>
+    <mergeCell ref="C384:F384"/>
+    <mergeCell ref="C385:F385"/>
+    <mergeCell ref="C389:F389"/>
+    <mergeCell ref="C423:F423"/>
+    <mergeCell ref="C427:F427"/>
+    <mergeCell ref="C431:F431"/>
+    <mergeCell ref="C433:C436"/>
+    <mergeCell ref="C440:F440"/>
+    <mergeCell ref="C408:F408"/>
+    <mergeCell ref="C412:F412"/>
+    <mergeCell ref="C414:C417"/>
+    <mergeCell ref="C421:F421"/>
+    <mergeCell ref="C422:F422"/>
+    <mergeCell ref="C459:F459"/>
+    <mergeCell ref="C460:F460"/>
+    <mergeCell ref="C461:F461"/>
+    <mergeCell ref="C465:F465"/>
+    <mergeCell ref="C469:F469"/>
+    <mergeCell ref="C441:F441"/>
+    <mergeCell ref="C442:F442"/>
+    <mergeCell ref="C446:F446"/>
+    <mergeCell ref="C450:F450"/>
+    <mergeCell ref="C452:C455"/>
+    <mergeCell ref="C488:F488"/>
+    <mergeCell ref="C490:C493"/>
+    <mergeCell ref="C497:F497"/>
+    <mergeCell ref="C498:F498"/>
+    <mergeCell ref="C499:F499"/>
+    <mergeCell ref="C471:C474"/>
+    <mergeCell ref="C478:F478"/>
+    <mergeCell ref="C479:F479"/>
+    <mergeCell ref="C480:F480"/>
+    <mergeCell ref="C484:F484"/>
+    <mergeCell ref="C517:F517"/>
+    <mergeCell ref="C521:F521"/>
+    <mergeCell ref="C524:F524"/>
+    <mergeCell ref="C526:C529"/>
+    <mergeCell ref="C533:F533"/>
+    <mergeCell ref="C503:F503"/>
+    <mergeCell ref="C506:F506"/>
+    <mergeCell ref="C508:C511"/>
+    <mergeCell ref="C515:F515"/>
+    <mergeCell ref="C516:F516"/>
+    <mergeCell ref="C552:F552"/>
+    <mergeCell ref="C553:F553"/>
+    <mergeCell ref="C554:F554"/>
+    <mergeCell ref="C558:F558"/>
+    <mergeCell ref="C562:F562"/>
+    <mergeCell ref="C534:F534"/>
+    <mergeCell ref="C535:F535"/>
+    <mergeCell ref="C539:F539"/>
+    <mergeCell ref="C543:F543"/>
+    <mergeCell ref="C545:C548"/>
+    <mergeCell ref="C581:F581"/>
+    <mergeCell ref="C583:C586"/>
+    <mergeCell ref="C590:F590"/>
+    <mergeCell ref="C591:F591"/>
+    <mergeCell ref="C592:F592"/>
+    <mergeCell ref="C564:C567"/>
+    <mergeCell ref="C571:F571"/>
+    <mergeCell ref="C572:F572"/>
+    <mergeCell ref="C573:F573"/>
+    <mergeCell ref="C577:F577"/>
+    <mergeCell ref="C611:F611"/>
+    <mergeCell ref="C615:F615"/>
+    <mergeCell ref="C619:F619"/>
+    <mergeCell ref="C621:C624"/>
+    <mergeCell ref="C628:F628"/>
+    <mergeCell ref="C596:F596"/>
+    <mergeCell ref="C600:F600"/>
+    <mergeCell ref="C602:C605"/>
+    <mergeCell ref="C609:F609"/>
+    <mergeCell ref="C610:F610"/>
+    <mergeCell ref="C647:F647"/>
+    <mergeCell ref="C648:F648"/>
+    <mergeCell ref="C649:F649"/>
+    <mergeCell ref="C653:F653"/>
+    <mergeCell ref="C657:F657"/>
+    <mergeCell ref="C629:F629"/>
+    <mergeCell ref="C630:F630"/>
+    <mergeCell ref="C634:F634"/>
+    <mergeCell ref="C638:F638"/>
+    <mergeCell ref="C640:C643"/>
+    <mergeCell ref="C677:F677"/>
+    <mergeCell ref="C679:C682"/>
+    <mergeCell ref="C686:F686"/>
+    <mergeCell ref="C687:F687"/>
+    <mergeCell ref="C688:F688"/>
+    <mergeCell ref="C659:C662"/>
+    <mergeCell ref="C666:F666"/>
+    <mergeCell ref="C667:F667"/>
+    <mergeCell ref="C668:F668"/>
+    <mergeCell ref="C672:F672"/>
+    <mergeCell ref="C708:F708"/>
+    <mergeCell ref="C712:F712"/>
+    <mergeCell ref="C716:F716"/>
+    <mergeCell ref="C718:C721"/>
+    <mergeCell ref="C725:F725"/>
+    <mergeCell ref="C692:F692"/>
+    <mergeCell ref="C697:F697"/>
+    <mergeCell ref="C699:C702"/>
+    <mergeCell ref="C706:F706"/>
+    <mergeCell ref="C707:F707"/>
+    <mergeCell ref="C744:F744"/>
+    <mergeCell ref="C745:F745"/>
+    <mergeCell ref="C746:F746"/>
+    <mergeCell ref="C750:F750"/>
+    <mergeCell ref="C754:F754"/>
+    <mergeCell ref="C726:F726"/>
+    <mergeCell ref="C727:F727"/>
+    <mergeCell ref="C731:F731"/>
+    <mergeCell ref="C735:F735"/>
+    <mergeCell ref="C737:C740"/>
+    <mergeCell ref="C773:F773"/>
+    <mergeCell ref="C775:C778"/>
+    <mergeCell ref="C782:F782"/>
+    <mergeCell ref="C783:F783"/>
+    <mergeCell ref="C784:F784"/>
+    <mergeCell ref="C756:C759"/>
+    <mergeCell ref="C763:F763"/>
+    <mergeCell ref="C764:F764"/>
+    <mergeCell ref="C765:F765"/>
+    <mergeCell ref="C769:F769"/>
+    <mergeCell ref="C803:F803"/>
+    <mergeCell ref="C807:F807"/>
+    <mergeCell ref="C811:F811"/>
+    <mergeCell ref="C813:C816"/>
+    <mergeCell ref="C820:F820"/>
+    <mergeCell ref="C788:F788"/>
+    <mergeCell ref="C792:F792"/>
+    <mergeCell ref="C794:C797"/>
+    <mergeCell ref="C801:F801"/>
+    <mergeCell ref="C802:F802"/>
+    <mergeCell ref="C839:F839"/>
+    <mergeCell ref="C840:F840"/>
+    <mergeCell ref="C841:F841"/>
+    <mergeCell ref="C845:F845"/>
+    <mergeCell ref="C849:F849"/>
+    <mergeCell ref="C821:F821"/>
+    <mergeCell ref="C822:F822"/>
+    <mergeCell ref="C826:F826"/>
+    <mergeCell ref="C830:F830"/>
+    <mergeCell ref="C832:C835"/>
+    <mergeCell ref="C868:F868"/>
+    <mergeCell ref="C870:C873"/>
+    <mergeCell ref="C877:F877"/>
+    <mergeCell ref="C878:F878"/>
+    <mergeCell ref="C879:F879"/>
+    <mergeCell ref="C851:C854"/>
+    <mergeCell ref="C858:F858"/>
+    <mergeCell ref="C859:F859"/>
+    <mergeCell ref="C860:F860"/>
+    <mergeCell ref="C864:F864"/>
+    <mergeCell ref="C897:F897"/>
+    <mergeCell ref="C901:F901"/>
+    <mergeCell ref="C905:F905"/>
+    <mergeCell ref="C907:C910"/>
+    <mergeCell ref="C915:F915"/>
+    <mergeCell ref="C883:F883"/>
+    <mergeCell ref="C886:F886"/>
+    <mergeCell ref="C888:C891"/>
+    <mergeCell ref="C895:F895"/>
+    <mergeCell ref="C896:F896"/>
+    <mergeCell ref="C948:C951"/>
+    <mergeCell ref="C935:F935"/>
+    <mergeCell ref="C936:F936"/>
+    <mergeCell ref="C937:F937"/>
+    <mergeCell ref="C941:F941"/>
+    <mergeCell ref="C946:F946"/>
+    <mergeCell ref="C916:F916"/>
+    <mergeCell ref="C917:F917"/>
+    <mergeCell ref="C921:F921"/>
+    <mergeCell ref="C926:F926"/>
+    <mergeCell ref="C928:C931"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17185,10 +17261,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0585415E-990D-4C98-B34F-7A71519C3DB1}">
-  <dimension ref="B2:K19"/>
+  <dimension ref="B2:K32"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -17485,7 +17561,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="17" spans="8:11">
+    <row r="17" spans="2:11">
       <c r="H17" s="21">
         <v>5201</v>
       </c>
@@ -17499,7 +17575,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="18" spans="8:11">
+    <row r="18" spans="2:11">
       <c r="H18" s="21">
         <v>5202</v>
       </c>
@@ -17513,7 +17589,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="19" spans="8:11">
+    <row r="19" spans="2:11">
       <c r="H19" s="21">
         <v>5203</v>
       </c>
@@ -17525,6 +17601,94 @@
       </c>
       <c r="K19" s="23" t="s">
         <v>281</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="17.25" thickBot="1">
+      <c r="B22" s="116">
+        <v>0</v>
+      </c>
+      <c r="C22" s="117" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="26.25" thickBot="1">
+      <c r="B23" s="116">
+        <v>2300</v>
+      </c>
+      <c r="C23" s="117" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" ht="26.25" thickBot="1">
+      <c r="B24" s="116">
+        <v>4000</v>
+      </c>
+      <c r="C24" s="117" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="17.25" thickBot="1">
+      <c r="B25" s="116">
+        <v>4001</v>
+      </c>
+      <c r="C25" s="117" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="17.25" thickBot="1">
+      <c r="B26" s="116">
+        <v>5000</v>
+      </c>
+      <c r="C26" s="117" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11" ht="39" thickBot="1">
+      <c r="B27" s="116">
+        <v>5001</v>
+      </c>
+      <c r="C27" s="117" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="26.25" thickBot="1">
+      <c r="B28" s="116">
+        <v>6000</v>
+      </c>
+      <c r="C28" s="117" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11" ht="17.25" thickBot="1">
+      <c r="B29" s="116">
+        <v>6001</v>
+      </c>
+      <c r="C29" s="117" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="26.25" thickBot="1">
+      <c r="B30" s="116">
+        <v>7000</v>
+      </c>
+      <c r="C30" s="117" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11" ht="26.25" thickBot="1">
+      <c r="B31" s="116">
+        <v>7001</v>
+      </c>
+      <c r="C31" s="117" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="17.25" thickBot="1">
+      <c r="B32" s="116">
+        <v>9999</v>
+      </c>
+      <c r="C32" s="117" t="s">
+        <v>638</v>
       </c>
     </row>
   </sheetData>

--- a/docs/APIDocs/API명세서.xlsx
+++ b/docs/APIDocs/API명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\GameProject\docs\APIDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A24E59C-0E30-4195-8C40-8D2AB910A5AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7F6BF6-7EC5-4BD3-85C5-E4D7591DE374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{4E8C34D6-CE1A-427D-9403-2013A6AFC92D}"/>
+    <workbookView xWindow="20370" yWindow="-4800" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4E8C34D6-CE1A-427D-9403-2013A6AFC92D}"/>
   </bookViews>
   <sheets>
     <sheet name="시나리오" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2738" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2758" uniqueCount="659">
   <si>
     <t>URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2857,44 +2857,104 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>성공</t>
-  </si>
-  <si>
-    <t>환불 유저 재결제 대상</t>
-  </si>
-  <si>
-    <t>유효하지 않은 파라미터</t>
-  </si>
-  <si>
-    <t>request json 에러</t>
-  </si>
-  <si>
-    <t>DB 에러</t>
-  </si>
-  <si>
-    <t>분산환경(AWS)에서 유효하지 않은 토큰</t>
-  </si>
-  <si>
-    <t>유효하지 않는 appid</t>
-  </si>
-  <si>
-    <t>IDP 토큰 에러</t>
-  </si>
-  <si>
-    <t>유효하지 않은 토큰</t>
-  </si>
-  <si>
-    <t>header에 토큰값 없음</t>
-  </si>
-  <si>
-    <t>알수없는 오류</t>
+    <t>SUCCESS = 'SUCCESS';</t>
+  </si>
+  <si>
+    <t>SUCCESS_CREATED = 'SUCCESS_CREATED';</t>
+  </si>
+  <si>
+    <t>GIFT_SUCCESS = 'GIFT_SUCCESS';</t>
+  </si>
+  <si>
+    <t>LEVEL_SUCCESS = 'LEVEL_SUCCESS';</t>
+  </si>
+  <si>
+    <t>SELL_SUCCESS = 'SELL_SUCCESS';</t>
+  </si>
+  <si>
+    <t>FULL_SUCCESS = 'FULL_SUCCESS';</t>
+  </si>
+  <si>
+    <t>BUY_SUCCESS = 'BUY_SUCCESS';</t>
+  </si>
+  <si>
+    <t>UPGRADE_SUCCESS = 'UPGRADE_SUCCESS';</t>
+  </si>
+  <si>
+    <t>FAIL_FUNCTION = 'FAIL_FUNCTION';</t>
+  </si>
+  <si>
+    <t>NOT_CONTENTS = 'NOT_CONTENTS';</t>
+  </si>
+  <si>
+    <t>BAD_REQUEST = 'BAD_REQUEST';</t>
+  </si>
+  <si>
+    <t>INSUFFICIENT_PRIVILEGES = 'INSUFFICIENT_PRIVILEGES';</t>
+  </si>
+  <si>
+    <t>NOT_ALLOWED = 'NOT_ALLOWED';</t>
+  </si>
+  <si>
+    <t>NOT_IMPLEMENTED = 'NOT_IMPLEMENTED';</t>
+  </si>
+  <si>
+    <t>RESOURCE_NOT_FOUND = 'RESOURCE_NOT_FOUND';</t>
+  </si>
+  <si>
+    <t>SERVER_ERROR = 'SERVER_ERROR';</t>
+  </si>
+  <si>
+    <t>UNAUTHENTICATED = 'UNAUTHENTICATED';</t>
+  </si>
+  <si>
+    <t>VALIDATION_ERROR = 'VALIDATION_ERROR';</t>
+  </si>
+  <si>
+    <t>VERIFICATION_ERROR = 'VERIFICATION_ERROR';</t>
+  </si>
+  <si>
+    <t>REDUPLICATION_CONTENTS = 'REDUPLICATION_CONTENTS';</t>
+  </si>
+  <si>
+    <t>FULL_DATA = 'FULL_DATA';</t>
+  </si>
+  <si>
+    <t>NOT_FULL_SHIP = 'NOT_FULL_SHIP';</t>
+  </si>
+  <si>
+    <t>NOT_LEVEL = 'NOT_LEVEL';</t>
+  </si>
+  <si>
+    <t>MISS_FISH = 'MISS_FISH';</t>
+  </si>
+  <si>
+    <t>NOT_FULL_FISHING_ITEM = 'NOT_FULL_FISHING_ITEM';</t>
+  </si>
+  <si>
+    <t>SELL_FAIL = 'SELL_FAIL';</t>
+  </si>
+  <si>
+    <t>NO_MONEY = 'NO_MONEY';</t>
+  </si>
+  <si>
+    <t>ALREADY_FULL = 'ALREADY_FULL';</t>
+  </si>
+  <si>
+    <t>NO_PARAM = 'NO_PARAM';</t>
+  </si>
+  <si>
+    <t>UPGRADE_FAIL = 'UPGRADE_FAIL';</t>
+  </si>
+  <si>
+    <t>NO_UPGRADE_ITEM = 'NO_UPGRADE_ITEM';</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="38">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3181,21 +3241,8 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="9.9"/>
-      <color rgb="FF444444"/>
-      <name val="Inherit"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9.9"/>
-      <color rgb="FF000000"/>
-      <name val="Inherit"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="47">
+  <fills count="46">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3449,18 +3496,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -3709,30 +3750,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFE1E1E1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFE1E1E1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFE1E1E1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFE1E1E1"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFE1E1E1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -3867,7 +3884,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4070,21 +4087,6 @@
     <xf numFmtId="0" fontId="0" fillId="45" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4103,23 +4105,14 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4142,13 +4135,58 @@
     <xf numFmtId="0" fontId="32" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="41" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4160,66 +4198,25 @@
     <xf numFmtId="0" fontId="30" fillId="41" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="34" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="34" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="43"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - 강조색1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -5189,7 +5186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD4BF26C-B0DE-4B93-AA00-7847725AE440}">
   <dimension ref="B1:B61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -5485,8 +5482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071D4A7B-DD4D-499C-AF7D-3FC54784CE79}">
   <dimension ref="B1:K63"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="K40" sqref="K40"/>
+    <sheetView topLeftCell="A10" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5547,7 +5544,7 @@
       <c r="C3" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D3" s="74" t="s">
+      <c r="D3" s="69" t="s">
         <v>165</v>
       </c>
       <c r="E3" s="52" t="s">
@@ -5579,7 +5576,7 @@
       <c r="C4" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D4" s="75"/>
+      <c r="D4" s="70"/>
       <c r="E4" s="52" t="s">
         <v>4</v>
       </c>
@@ -5607,7 +5604,7 @@
       <c r="C5" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D5" s="75"/>
+      <c r="D5" s="70"/>
       <c r="E5" s="52" t="s">
         <v>4</v>
       </c>
@@ -5635,7 +5632,7 @@
       <c r="C6" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D6" s="75"/>
+      <c r="D6" s="70"/>
       <c r="E6" s="52" t="s">
         <v>4</v>
       </c>
@@ -5665,7 +5662,7 @@
       <c r="C7" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="D7" s="75"/>
+      <c r="D7" s="70"/>
       <c r="E7" s="15" t="s">
         <v>4</v>
       </c>
@@ -5695,7 +5692,7 @@
       <c r="C8" s="58" t="s">
         <v>401</v>
       </c>
-      <c r="D8" s="75"/>
+      <c r="D8" s="70"/>
       <c r="E8" s="57" t="s">
         <v>4</v>
       </c>
@@ -5723,7 +5720,7 @@
       <c r="C9" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D9" s="76"/>
+      <c r="D9" s="71"/>
       <c r="E9" s="52" t="s">
         <v>4</v>
       </c>
@@ -5753,7 +5750,7 @@
       <c r="C10" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D10" s="74" t="s">
+      <c r="D10" s="69" t="s">
         <v>167</v>
       </c>
       <c r="E10" s="52" t="s">
@@ -5785,7 +5782,7 @@
       <c r="C11" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D11" s="75"/>
+      <c r="D11" s="70"/>
       <c r="E11" s="52" t="s">
         <v>4</v>
       </c>
@@ -5813,7 +5810,7 @@
       <c r="C12" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D12" s="75"/>
+      <c r="D12" s="70"/>
       <c r="E12" s="52" t="s">
         <v>4</v>
       </c>
@@ -5843,7 +5840,7 @@
       <c r="C13" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D13" s="75"/>
+      <c r="D13" s="70"/>
       <c r="E13" s="52" t="s">
         <v>4</v>
       </c>
@@ -5873,7 +5870,7 @@
       <c r="C14" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D14" s="75"/>
+      <c r="D14" s="70"/>
       <c r="E14" s="52" t="s">
         <v>4</v>
       </c>
@@ -5901,7 +5898,7 @@
       <c r="C15" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D15" s="75"/>
+      <c r="D15" s="70"/>
       <c r="E15" s="52" t="s">
         <v>4</v>
       </c>
@@ -5931,7 +5928,7 @@
       <c r="C16" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="D16" s="75"/>
+      <c r="D16" s="70"/>
       <c r="E16" s="15" t="s">
         <v>4</v>
       </c>
@@ -5961,7 +5958,7 @@
       <c r="C17" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D17" s="75"/>
+      <c r="D17" s="70"/>
       <c r="E17" s="52" t="s">
         <v>4</v>
       </c>
@@ -5991,7 +5988,7 @@
       <c r="C18" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D18" s="75"/>
+      <c r="D18" s="70"/>
       <c r="E18" s="52" t="s">
         <v>4</v>
       </c>
@@ -6021,7 +6018,7 @@
       <c r="C19" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D19" s="75"/>
+      <c r="D19" s="70"/>
       <c r="E19" s="52" t="s">
         <v>4</v>
       </c>
@@ -6051,7 +6048,7 @@
       <c r="C20" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D20" s="75"/>
+      <c r="D20" s="70"/>
       <c r="E20" s="52" t="s">
         <v>4</v>
       </c>
@@ -6079,7 +6076,7 @@
       <c r="C21" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D21" s="75"/>
+      <c r="D21" s="70"/>
       <c r="E21" s="52" t="s">
         <v>4</v>
       </c>
@@ -6109,7 +6106,7 @@
       <c r="C22" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D22" s="75"/>
+      <c r="D22" s="70"/>
       <c r="E22" s="52" t="s">
         <v>4</v>
       </c>
@@ -6139,7 +6136,7 @@
       <c r="C23" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D23" s="75"/>
+      <c r="D23" s="70"/>
       <c r="E23" s="52" t="s">
         <v>4</v>
       </c>
@@ -6169,7 +6166,7 @@
       <c r="C24" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="D24" s="75"/>
+      <c r="D24" s="70"/>
       <c r="E24" s="9" t="s">
         <v>4</v>
       </c>
@@ -6199,7 +6196,7 @@
       <c r="C25" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D25" s="75"/>
+      <c r="D25" s="70"/>
       <c r="E25" s="52" t="s">
         <v>4</v>
       </c>
@@ -6229,7 +6226,7 @@
       <c r="C26" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D26" s="75"/>
+      <c r="D26" s="70"/>
       <c r="E26" s="52" t="s">
         <v>4</v>
       </c>
@@ -6259,7 +6256,7 @@
       <c r="C27" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D27" s="75"/>
+      <c r="D27" s="70"/>
       <c r="E27" s="52" t="s">
         <v>4</v>
       </c>
@@ -6289,7 +6286,7 @@
       <c r="C28" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D28" s="75"/>
+      <c r="D28" s="70"/>
       <c r="E28" s="52" t="s">
         <v>4</v>
       </c>
@@ -6319,7 +6316,7 @@
       <c r="C29" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D29" s="75"/>
+      <c r="D29" s="70"/>
       <c r="E29" s="52" t="s">
         <v>4</v>
       </c>
@@ -6349,7 +6346,7 @@
       <c r="C30" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D30" s="75"/>
+      <c r="D30" s="70"/>
       <c r="E30" s="52" t="s">
         <v>4</v>
       </c>
@@ -6379,7 +6376,7 @@
       <c r="C31" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D31" s="75"/>
+      <c r="D31" s="70"/>
       <c r="E31" s="52" t="s">
         <v>4</v>
       </c>
@@ -6409,7 +6406,7 @@
       <c r="C32" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D32" s="75"/>
+      <c r="D32" s="70"/>
       <c r="E32" s="52" t="s">
         <v>4</v>
       </c>
@@ -6437,7 +6434,7 @@
       <c r="C33" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D33" s="75"/>
+      <c r="D33" s="70"/>
       <c r="E33" s="52" t="s">
         <v>4</v>
       </c>
@@ -6467,7 +6464,7 @@
       <c r="C34" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D34" s="76"/>
+      <c r="D34" s="71"/>
       <c r="E34" s="52" t="s">
         <v>4</v>
       </c>
@@ -6497,7 +6494,7 @@
       <c r="C35" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D35" s="74" t="s">
+      <c r="D35" s="69" t="s">
         <v>169</v>
       </c>
       <c r="E35" s="52" t="s">
@@ -6527,7 +6524,7 @@
       <c r="C36" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D36" s="75"/>
+      <c r="D36" s="70"/>
       <c r="E36" s="52" t="s">
         <v>4</v>
       </c>
@@ -6557,7 +6554,7 @@
       <c r="C37" s="64" t="s">
         <v>401</v>
       </c>
-      <c r="D37" s="75"/>
+      <c r="D37" s="70"/>
       <c r="E37" s="63" t="s">
         <v>4</v>
       </c>
@@ -6585,7 +6582,7 @@
       <c r="C38" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D38" s="75"/>
+      <c r="D38" s="70"/>
       <c r="E38" s="52" t="s">
         <v>4</v>
       </c>
@@ -6615,7 +6612,7 @@
       <c r="C39" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D39" s="77"/>
+      <c r="D39" s="72"/>
       <c r="E39" s="52" t="s">
         <v>4</v>
       </c>
@@ -6638,35 +6635,35 @@
         <v>592</v>
       </c>
     </row>
-    <row r="40" spans="2:11" s="72" customFormat="1" ht="99">
-      <c r="B40" s="68">
+    <row r="40" spans="2:11" s="67" customFormat="1" ht="99">
+      <c r="B40" s="63">
         <v>31</v>
       </c>
-      <c r="C40" s="69" t="s">
+      <c r="C40" s="64" t="s">
         <v>401</v>
       </c>
-      <c r="D40" s="73" t="s">
+      <c r="D40" s="68" t="s">
         <v>171</v>
       </c>
-      <c r="E40" s="68" t="s">
+      <c r="E40" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="F40" s="70" t="s">
+      <c r="F40" s="65" t="s">
         <v>426</v>
       </c>
-      <c r="G40" s="68" t="s">
+      <c r="G40" s="63" t="s">
         <v>210</v>
       </c>
-      <c r="H40" s="71" t="s">
+      <c r="H40" s="66" t="s">
         <v>596</v>
       </c>
-      <c r="I40" s="68" t="s">
+      <c r="I40" s="63" t="s">
         <v>210</v>
       </c>
-      <c r="J40" s="68" t="s">
+      <c r="J40" s="63" t="s">
         <v>210</v>
       </c>
-      <c r="K40" s="71" t="s">
+      <c r="K40" s="66" t="s">
         <v>627</v>
       </c>
     </row>
@@ -6677,7 +6674,7 @@
       <c r="C41" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D41" s="73"/>
+      <c r="D41" s="68"/>
       <c r="E41" s="52" t="s">
         <v>4</v>
       </c>
@@ -6707,7 +6704,7 @@
       <c r="C42" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D42" s="73"/>
+      <c r="D42" s="68"/>
       <c r="E42" s="52" t="s">
         <v>4</v>
       </c>
@@ -6735,7 +6732,7 @@
       <c r="C43" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D43" s="73"/>
+      <c r="D43" s="68"/>
       <c r="E43" s="52" t="s">
         <v>4</v>
       </c>
@@ -6765,7 +6762,7 @@
       <c r="C44" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D44" s="73" t="s">
+      <c r="D44" s="68" t="s">
         <v>173</v>
       </c>
       <c r="E44" s="52" t="s">
@@ -6797,7 +6794,7 @@
       <c r="C45" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D45" s="73"/>
+      <c r="D45" s="68"/>
       <c r="E45" s="52" t="s">
         <v>4</v>
       </c>
@@ -6827,7 +6824,7 @@
       <c r="C46" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D46" s="73"/>
+      <c r="D46" s="68"/>
       <c r="E46" s="52" t="s">
         <v>4</v>
       </c>
@@ -6857,7 +6854,7 @@
       <c r="C47" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D47" s="73"/>
+      <c r="D47" s="68"/>
       <c r="E47" s="52" t="s">
         <v>4</v>
       </c>
@@ -6887,7 +6884,7 @@
       <c r="C48" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="D48" s="73" t="s">
+      <c r="D48" s="68" t="s">
         <v>175</v>
       </c>
       <c r="E48" s="9" t="s">
@@ -6919,7 +6916,7 @@
       <c r="C49" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D49" s="73"/>
+      <c r="D49" s="68"/>
       <c r="E49" s="52" t="s">
         <v>4</v>
       </c>
@@ -6949,7 +6946,7 @@
       <c r="C50" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="D50" s="73"/>
+      <c r="D50" s="68"/>
       <c r="E50" s="9" t="s">
         <v>4</v>
       </c>
@@ -6979,7 +6976,7 @@
       <c r="C51" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D51" s="73"/>
+      <c r="D51" s="68"/>
       <c r="E51" s="52" t="s">
         <v>4</v>
       </c>
@@ -7009,7 +7006,7 @@
       <c r="C52" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D52" s="74" t="s">
+      <c r="D52" s="69" t="s">
         <v>178</v>
       </c>
       <c r="E52" s="52" t="s">
@@ -7041,7 +7038,7 @@
       <c r="C53" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D53" s="76"/>
+      <c r="D53" s="71"/>
       <c r="E53" s="52" t="s">
         <v>4</v>
       </c>
@@ -7071,7 +7068,7 @@
       <c r="C54" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D54" s="74" t="s">
+      <c r="D54" s="69" t="s">
         <v>179</v>
       </c>
       <c r="E54" s="52" t="s">
@@ -7099,7 +7096,7 @@
       <c r="C55" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D55" s="75"/>
+      <c r="D55" s="70"/>
       <c r="E55" s="52" t="s">
         <v>4</v>
       </c>
@@ -7127,7 +7124,7 @@
       <c r="C56" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D56" s="75"/>
+      <c r="D56" s="70"/>
       <c r="E56" s="52" t="s">
         <v>4</v>
       </c>
@@ -7157,7 +7154,7 @@
       <c r="C57" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D57" s="75"/>
+      <c r="D57" s="70"/>
       <c r="E57" s="52" t="s">
         <v>4</v>
       </c>
@@ -7187,7 +7184,7 @@
       <c r="C58" s="60" t="s">
         <v>401</v>
       </c>
-      <c r="D58" s="76"/>
+      <c r="D58" s="71"/>
       <c r="E58" s="24" t="s">
         <v>4</v>
       </c>
@@ -7217,7 +7214,7 @@
       <c r="C59" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D59" s="73" t="s">
+      <c r="D59" s="68" t="s">
         <v>180</v>
       </c>
       <c r="E59" s="52" t="s">
@@ -7247,7 +7244,7 @@
       <c r="C60" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D60" s="73"/>
+      <c r="D60" s="68"/>
       <c r="E60" s="52" t="s">
         <v>4</v>
       </c>
@@ -7277,7 +7274,7 @@
       <c r="C61" s="53" t="s">
         <v>401</v>
       </c>
-      <c r="D61" s="73"/>
+      <c r="D61" s="68"/>
       <c r="E61" s="52" t="s">
         <v>4</v>
       </c>
@@ -7307,7 +7304,7 @@
       <c r="C62" s="52" t="s">
         <v>401</v>
       </c>
-      <c r="D62" s="73"/>
+      <c r="D62" s="68"/>
       <c r="E62" s="52" t="s">
         <v>4</v>
       </c>
@@ -7387,28 +7384,28 @@
       <c r="B2" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="C2" s="113" t="s">
+      <c r="C2" s="74" t="s">
         <v>442</v>
       </c>
-      <c r="D2" s="114"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
     </row>
     <row r="3" spans="1:6" ht="32.450000000000003" customHeight="1" thickBot="1">
-      <c r="C3" s="82" t="s">
+      <c r="C3" s="84" t="s">
         <v>341</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="84"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
     </row>
     <row r="4" spans="1:6" ht="25.15" customHeight="1" thickBot="1">
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="87"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="79"/>
     </row>
     <row r="5" spans="1:6" ht="18" thickBot="1">
       <c r="C5" s="33" t="s">
@@ -7435,12 +7432,12 @@
       <c r="F6" s="35"/>
     </row>
     <row r="7" spans="1:6" ht="27" thickBot="1">
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
-      <c r="F7" s="90"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="82"/>
     </row>
     <row r="8" spans="1:6" ht="18" thickBot="1">
       <c r="C8" s="37" t="s">
@@ -7535,12 +7532,12 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="27" thickBot="1">
-      <c r="C14" s="91" t="s">
+      <c r="C14" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
     </row>
     <row r="15" spans="1:6" ht="18" thickBot="1">
       <c r="C15" s="37" t="s">
@@ -7557,7 +7554,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C16" s="78">
+      <c r="C16" s="73">
         <v>200</v>
       </c>
       <c r="D16" s="39" t="s">
@@ -7571,7 +7568,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C17" s="78"/>
+      <c r="C17" s="73"/>
       <c r="D17" s="39" t="s">
         <v>358</v>
       </c>
@@ -7583,7 +7580,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C18" s="78"/>
+      <c r="C18" s="73"/>
       <c r="D18" s="39" t="s">
         <v>360</v>
       </c>
@@ -7595,7 +7592,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C19" s="78"/>
+      <c r="C19" s="73"/>
       <c r="D19" s="39"/>
       <c r="E19" s="39"/>
       <c r="F19" s="39"/>
@@ -7616,28 +7613,28 @@
       <c r="B23" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="C23" s="113" t="s">
+      <c r="C23" s="74" t="s">
         <v>443</v>
       </c>
-      <c r="D23" s="114"/>
-      <c r="E23" s="114"/>
-      <c r="F23" s="115"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="76"/>
     </row>
     <row r="24" spans="1:6" ht="18" thickBot="1">
-      <c r="C24" s="82" t="s">
+      <c r="C24" s="84" t="s">
         <v>340</v>
       </c>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="84"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="86"/>
     </row>
     <row r="25" spans="1:6" ht="27" thickBot="1">
-      <c r="C25" s="85" t="s">
+      <c r="C25" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D25" s="86"/>
-      <c r="E25" s="86"/>
-      <c r="F25" s="87"/>
+      <c r="D25" s="78"/>
+      <c r="E25" s="78"/>
+      <c r="F25" s="79"/>
     </row>
     <row r="26" spans="1:6" ht="18" thickBot="1">
       <c r="C26" s="33" t="s">
@@ -7664,12 +7661,12 @@
       <c r="F27" s="35"/>
     </row>
     <row r="28" spans="1:6" ht="27" thickBot="1">
-      <c r="C28" s="88" t="s">
+      <c r="C28" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="90"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="82"/>
     </row>
     <row r="29" spans="1:6" ht="18" thickBot="1">
       <c r="C29" s="37" t="s">
@@ -7714,12 +7711,12 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="27" thickBot="1">
-      <c r="C32" s="91" t="s">
+      <c r="C32" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D32" s="91"/>
-      <c r="E32" s="91"/>
-      <c r="F32" s="91"/>
+      <c r="D32" s="83"/>
+      <c r="E32" s="83"/>
+      <c r="F32" s="83"/>
     </row>
     <row r="33" spans="1:6" ht="18" thickBot="1">
       <c r="C33" s="37" t="s">
@@ -7736,7 +7733,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C34" s="78">
+      <c r="C34" s="73">
         <v>200</v>
       </c>
       <c r="D34" s="39" t="s">
@@ -7750,7 +7747,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C35" s="78"/>
+      <c r="C35" s="73"/>
       <c r="D35" s="39" t="s">
         <v>358</v>
       </c>
@@ -7762,7 +7759,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C36" s="78"/>
+      <c r="C36" s="73"/>
       <c r="D36" s="39" t="s">
         <v>360</v>
       </c>
@@ -7774,7 +7771,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C37" s="78"/>
+      <c r="C37" s="73"/>
       <c r="D37" s="39"/>
       <c r="E37" s="39"/>
       <c r="F37" s="39"/>
@@ -7795,28 +7792,28 @@
       <c r="B41" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="C41" s="113" t="s">
+      <c r="C41" s="74" t="s">
         <v>444</v>
       </c>
-      <c r="D41" s="114"/>
-      <c r="E41" s="114"/>
-      <c r="F41" s="115"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="75"/>
+      <c r="F41" s="76"/>
     </row>
     <row r="42" spans="1:6" ht="18" thickBot="1">
-      <c r="C42" s="82" t="s">
+      <c r="C42" s="84" t="s">
         <v>362</v>
       </c>
-      <c r="D42" s="83"/>
-      <c r="E42" s="83"/>
-      <c r="F42" s="84"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="86"/>
     </row>
     <row r="43" spans="1:6" ht="27" thickBot="1">
-      <c r="C43" s="85" t="s">
+      <c r="C43" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D43" s="86"/>
-      <c r="E43" s="86"/>
-      <c r="F43" s="87"/>
+      <c r="D43" s="78"/>
+      <c r="E43" s="78"/>
+      <c r="F43" s="79"/>
     </row>
     <row r="44" spans="1:6" ht="18" thickBot="1">
       <c r="C44" s="33" t="s">
@@ -7843,12 +7840,12 @@
       <c r="F45" s="35"/>
     </row>
     <row r="46" spans="1:6" ht="27" thickBot="1">
-      <c r="C46" s="88" t="s">
+      <c r="C46" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D46" s="89"/>
-      <c r="E46" s="89"/>
-      <c r="F46" s="90"/>
+      <c r="D46" s="81"/>
+      <c r="E46" s="81"/>
+      <c r="F46" s="82"/>
     </row>
     <row r="47" spans="1:6" ht="18" thickBot="1">
       <c r="C47" s="37" t="s">
@@ -7879,12 +7876,12 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="27" thickBot="1">
-      <c r="C49" s="91" t="s">
+      <c r="C49" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D49" s="91"/>
-      <c r="E49" s="91"/>
-      <c r="F49" s="91"/>
+      <c r="D49" s="83"/>
+      <c r="E49" s="83"/>
+      <c r="F49" s="83"/>
     </row>
     <row r="50" spans="1:6" ht="18" thickBot="1">
       <c r="C50" s="37" t="s">
@@ -7901,7 +7898,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C51" s="78">
+      <c r="C51" s="73">
         <v>200</v>
       </c>
       <c r="D51" s="39" t="s">
@@ -7915,7 +7912,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C52" s="78"/>
+      <c r="C52" s="73"/>
       <c r="D52" s="39" t="s">
         <v>358</v>
       </c>
@@ -7927,7 +7924,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C53" s="78"/>
+      <c r="C53" s="73"/>
       <c r="D53" s="39" t="s">
         <v>360</v>
       </c>
@@ -7939,7 +7936,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C54" s="78"/>
+      <c r="C54" s="73"/>
       <c r="D54" s="39"/>
       <c r="E54" s="39"/>
       <c r="F54" s="39"/>
@@ -7960,28 +7957,28 @@
       <c r="B58" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="C58" s="113" t="s">
+      <c r="C58" s="74" t="s">
         <v>445</v>
       </c>
-      <c r="D58" s="114"/>
-      <c r="E58" s="114"/>
-      <c r="F58" s="115"/>
+      <c r="D58" s="75"/>
+      <c r="E58" s="75"/>
+      <c r="F58" s="76"/>
     </row>
     <row r="59" spans="1:6" ht="18" thickBot="1">
-      <c r="C59" s="82" t="s">
+      <c r="C59" s="84" t="s">
         <v>370</v>
       </c>
-      <c r="D59" s="83"/>
-      <c r="E59" s="83"/>
-      <c r="F59" s="84"/>
+      <c r="D59" s="85"/>
+      <c r="E59" s="85"/>
+      <c r="F59" s="86"/>
     </row>
     <row r="60" spans="1:6" ht="27" thickBot="1">
-      <c r="C60" s="85" t="s">
+      <c r="C60" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D60" s="86"/>
-      <c r="E60" s="86"/>
-      <c r="F60" s="87"/>
+      <c r="D60" s="78"/>
+      <c r="E60" s="78"/>
+      <c r="F60" s="79"/>
     </row>
     <row r="61" spans="1:6" ht="18" thickBot="1">
       <c r="C61" s="33" t="s">
@@ -8008,12 +8005,12 @@
       <c r="F62" s="35"/>
     </row>
     <row r="63" spans="1:6" ht="27" thickBot="1">
-      <c r="C63" s="88" t="s">
+      <c r="C63" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D63" s="89"/>
-      <c r="E63" s="89"/>
-      <c r="F63" s="90"/>
+      <c r="D63" s="81"/>
+      <c r="E63" s="81"/>
+      <c r="F63" s="82"/>
     </row>
     <row r="64" spans="1:6" ht="18" thickBot="1">
       <c r="C64" s="37" t="s">
@@ -8044,12 +8041,12 @@
       </c>
     </row>
     <row r="66" spans="1:6" ht="27" thickBot="1">
-      <c r="C66" s="91" t="s">
+      <c r="C66" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D66" s="91"/>
-      <c r="E66" s="91"/>
-      <c r="F66" s="91"/>
+      <c r="D66" s="83"/>
+      <c r="E66" s="83"/>
+      <c r="F66" s="83"/>
     </row>
     <row r="67" spans="1:6" ht="18" thickBot="1">
       <c r="C67" s="37" t="s">
@@ -8066,7 +8063,7 @@
       </c>
     </row>
     <row r="68" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C68" s="78">
+      <c r="C68" s="73">
         <v>200</v>
       </c>
       <c r="D68" s="39" t="s">
@@ -8080,7 +8077,7 @@
       </c>
     </row>
     <row r="69" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C69" s="78"/>
+      <c r="C69" s="73"/>
       <c r="D69" s="39" t="s">
         <v>358</v>
       </c>
@@ -8092,7 +8089,7 @@
       </c>
     </row>
     <row r="70" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C70" s="78"/>
+      <c r="C70" s="73"/>
       <c r="D70" s="39" t="s">
         <v>360</v>
       </c>
@@ -8104,7 +8101,7 @@
       </c>
     </row>
     <row r="71" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C71" s="78"/>
+      <c r="C71" s="73"/>
       <c r="D71" s="39"/>
       <c r="E71" s="39"/>
       <c r="F71" s="39"/>
@@ -8125,28 +8122,28 @@
       <c r="B75" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="C75" s="113" t="s">
+      <c r="C75" s="74" t="s">
         <v>446</v>
       </c>
-      <c r="D75" s="114"/>
-      <c r="E75" s="114"/>
-      <c r="F75" s="115"/>
+      <c r="D75" s="75"/>
+      <c r="E75" s="75"/>
+      <c r="F75" s="76"/>
     </row>
     <row r="76" spans="1:6" ht="18" thickBot="1">
-      <c r="C76" s="82" t="s">
+      <c r="C76" s="84" t="s">
         <v>369</v>
       </c>
-      <c r="D76" s="83"/>
-      <c r="E76" s="83"/>
-      <c r="F76" s="84"/>
+      <c r="D76" s="85"/>
+      <c r="E76" s="85"/>
+      <c r="F76" s="86"/>
     </row>
     <row r="77" spans="1:6" ht="27" thickBot="1">
-      <c r="C77" s="85" t="s">
+      <c r="C77" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D77" s="86"/>
-      <c r="E77" s="86"/>
-      <c r="F77" s="87"/>
+      <c r="D77" s="78"/>
+      <c r="E77" s="78"/>
+      <c r="F77" s="79"/>
     </row>
     <row r="78" spans="1:6" ht="18" thickBot="1">
       <c r="C78" s="33" t="s">
@@ -8173,12 +8170,12 @@
       <c r="F79" s="35"/>
     </row>
     <row r="80" spans="1:6" ht="27" thickBot="1">
-      <c r="C80" s="88" t="s">
+      <c r="C80" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D80" s="89"/>
-      <c r="E80" s="89"/>
-      <c r="F80" s="90"/>
+      <c r="D80" s="81"/>
+      <c r="E80" s="81"/>
+      <c r="F80" s="82"/>
     </row>
     <row r="81" spans="1:6" ht="18" thickBot="1">
       <c r="C81" s="37" t="s">
@@ -8209,12 +8206,12 @@
       </c>
     </row>
     <row r="83" spans="1:6" ht="27" thickBot="1">
-      <c r="C83" s="91" t="s">
+      <c r="C83" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D83" s="91"/>
-      <c r="E83" s="91"/>
-      <c r="F83" s="91"/>
+      <c r="D83" s="83"/>
+      <c r="E83" s="83"/>
+      <c r="F83" s="83"/>
     </row>
     <row r="84" spans="1:6" ht="18" thickBot="1">
       <c r="C84" s="37" t="s">
@@ -8231,7 +8228,7 @@
       </c>
     </row>
     <row r="85" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C85" s="78">
+      <c r="C85" s="73">
         <v>200</v>
       </c>
       <c r="D85" s="39" t="s">
@@ -8245,7 +8242,7 @@
       </c>
     </row>
     <row r="86" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C86" s="78"/>
+      <c r="C86" s="73"/>
       <c r="D86" s="39" t="s">
         <v>358</v>
       </c>
@@ -8257,7 +8254,7 @@
       </c>
     </row>
     <row r="87" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C87" s="78"/>
+      <c r="C87" s="73"/>
       <c r="D87" s="39" t="s">
         <v>360</v>
       </c>
@@ -8269,7 +8266,7 @@
       </c>
     </row>
     <row r="88" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C88" s="78"/>
+      <c r="C88" s="73"/>
       <c r="D88" s="39"/>
       <c r="E88" s="39"/>
       <c r="F88" s="39"/>
@@ -8290,28 +8287,28 @@
       <c r="B92" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C92" s="110" t="s">
+      <c r="C92" s="87" t="s">
         <v>447</v>
       </c>
-      <c r="D92" s="111"/>
-      <c r="E92" s="111"/>
-      <c r="F92" s="112"/>
+      <c r="D92" s="88"/>
+      <c r="E92" s="88"/>
+      <c r="F92" s="89"/>
     </row>
     <row r="93" spans="1:6" ht="18" thickBot="1">
-      <c r="C93" s="82" t="s">
+      <c r="C93" s="84" t="s">
         <v>368</v>
       </c>
-      <c r="D93" s="83"/>
-      <c r="E93" s="83"/>
-      <c r="F93" s="84"/>
+      <c r="D93" s="85"/>
+      <c r="E93" s="85"/>
+      <c r="F93" s="86"/>
     </row>
     <row r="94" spans="1:6" ht="27" thickBot="1">
-      <c r="C94" s="85" t="s">
+      <c r="C94" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D94" s="86"/>
-      <c r="E94" s="86"/>
-      <c r="F94" s="87"/>
+      <c r="D94" s="78"/>
+      <c r="E94" s="78"/>
+      <c r="F94" s="79"/>
     </row>
     <row r="95" spans="1:6" ht="18" thickBot="1">
       <c r="C95" s="33" t="s">
@@ -8354,12 +8351,12 @@
       <c r="F97" s="35"/>
     </row>
     <row r="98" spans="1:6" ht="27" thickBot="1">
-      <c r="C98" s="88" t="s">
+      <c r="C98" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D98" s="89"/>
-      <c r="E98" s="89"/>
-      <c r="F98" s="90"/>
+      <c r="D98" s="81"/>
+      <c r="E98" s="81"/>
+      <c r="F98" s="82"/>
     </row>
     <row r="99" spans="1:6" ht="18" thickBot="1">
       <c r="C99" s="37" t="s">
@@ -8390,12 +8387,12 @@
       </c>
     </row>
     <row r="101" spans="1:6" ht="27" thickBot="1">
-      <c r="C101" s="91" t="s">
+      <c r="C101" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D101" s="91"/>
-      <c r="E101" s="91"/>
-      <c r="F101" s="91"/>
+      <c r="D101" s="83"/>
+      <c r="E101" s="83"/>
+      <c r="F101" s="83"/>
     </row>
     <row r="102" spans="1:6" ht="18" thickBot="1">
       <c r="C102" s="37" t="s">
@@ -8412,7 +8409,7 @@
       </c>
     </row>
     <row r="103" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C103" s="78">
+      <c r="C103" s="73">
         <v>200</v>
       </c>
       <c r="D103" s="39" t="s">
@@ -8426,7 +8423,7 @@
       </c>
     </row>
     <row r="104" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C104" s="78"/>
+      <c r="C104" s="73"/>
       <c r="D104" s="39" t="s">
         <v>358</v>
       </c>
@@ -8438,7 +8435,7 @@
       </c>
     </row>
     <row r="105" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C105" s="78"/>
+      <c r="C105" s="73"/>
       <c r="D105" s="39" t="s">
         <v>360</v>
       </c>
@@ -8450,7 +8447,7 @@
       </c>
     </row>
     <row r="106" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C106" s="78"/>
+      <c r="C106" s="73"/>
       <c r="D106" s="39"/>
       <c r="E106" s="39"/>
       <c r="F106" s="39"/>
@@ -8471,28 +8468,28 @@
       <c r="B110" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C110" s="110" t="s">
+      <c r="C110" s="87" t="s">
         <v>448</v>
       </c>
-      <c r="D110" s="111"/>
-      <c r="E110" s="111"/>
-      <c r="F110" s="112"/>
+      <c r="D110" s="88"/>
+      <c r="E110" s="88"/>
+      <c r="F110" s="89"/>
     </row>
     <row r="111" spans="1:6" ht="18" thickBot="1">
-      <c r="C111" s="82" t="s">
+      <c r="C111" s="84" t="s">
         <v>373</v>
       </c>
-      <c r="D111" s="83"/>
-      <c r="E111" s="83"/>
-      <c r="F111" s="84"/>
+      <c r="D111" s="85"/>
+      <c r="E111" s="85"/>
+      <c r="F111" s="86"/>
     </row>
     <row r="112" spans="1:6" ht="27" thickBot="1">
-      <c r="C112" s="85" t="s">
+      <c r="C112" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D112" s="86"/>
-      <c r="E112" s="86"/>
-      <c r="F112" s="87"/>
+      <c r="D112" s="78"/>
+      <c r="E112" s="78"/>
+      <c r="F112" s="79"/>
     </row>
     <row r="113" spans="1:6" ht="18" thickBot="1">
       <c r="C113" s="33" t="s">
@@ -8533,12 +8530,12 @@
       <c r="F115" s="35"/>
     </row>
     <row r="116" spans="1:6" ht="27" thickBot="1">
-      <c r="C116" s="88" t="s">
+      <c r="C116" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D116" s="89"/>
-      <c r="E116" s="89"/>
-      <c r="F116" s="90"/>
+      <c r="D116" s="81"/>
+      <c r="E116" s="81"/>
+      <c r="F116" s="82"/>
     </row>
     <row r="117" spans="1:6" ht="18" thickBot="1">
       <c r="C117" s="37" t="s">
@@ -8569,12 +8566,12 @@
       </c>
     </row>
     <row r="119" spans="1:6" ht="27" thickBot="1">
-      <c r="C119" s="91" t="s">
+      <c r="C119" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D119" s="91"/>
-      <c r="E119" s="91"/>
-      <c r="F119" s="91"/>
+      <c r="D119" s="83"/>
+      <c r="E119" s="83"/>
+      <c r="F119" s="83"/>
     </row>
     <row r="120" spans="1:6" ht="18" thickBot="1">
       <c r="C120" s="37" t="s">
@@ -8591,7 +8588,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C121" s="78">
+      <c r="C121" s="73">
         <v>200</v>
       </c>
       <c r="D121" s="39" t="s">
@@ -8605,7 +8602,7 @@
       </c>
     </row>
     <row r="122" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C122" s="78"/>
+      <c r="C122" s="73"/>
       <c r="D122" s="39" t="s">
         <v>358</v>
       </c>
@@ -8617,7 +8614,7 @@
       </c>
     </row>
     <row r="123" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C123" s="78"/>
+      <c r="C123" s="73"/>
       <c r="D123" s="39" t="s">
         <v>360</v>
       </c>
@@ -8629,7 +8626,7 @@
       </c>
     </row>
     <row r="124" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C124" s="78"/>
+      <c r="C124" s="73"/>
       <c r="D124" s="39"/>
       <c r="E124" s="39"/>
       <c r="F124" s="39"/>
@@ -8650,28 +8647,28 @@
       <c r="B128" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C128" s="110" t="s">
+      <c r="C128" s="87" t="s">
         <v>449</v>
       </c>
-      <c r="D128" s="111"/>
-      <c r="E128" s="111"/>
-      <c r="F128" s="112"/>
+      <c r="D128" s="88"/>
+      <c r="E128" s="88"/>
+      <c r="F128" s="89"/>
     </row>
     <row r="129" spans="1:6" ht="18" thickBot="1">
-      <c r="C129" s="82" t="s">
+      <c r="C129" s="84" t="s">
         <v>374</v>
       </c>
-      <c r="D129" s="83"/>
-      <c r="E129" s="83"/>
-      <c r="F129" s="84"/>
+      <c r="D129" s="85"/>
+      <c r="E129" s="85"/>
+      <c r="F129" s="86"/>
     </row>
     <row r="130" spans="1:6" ht="27" thickBot="1">
-      <c r="C130" s="85" t="s">
+      <c r="C130" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D130" s="86"/>
-      <c r="E130" s="86"/>
-      <c r="F130" s="87"/>
+      <c r="D130" s="78"/>
+      <c r="E130" s="78"/>
+      <c r="F130" s="79"/>
     </row>
     <row r="131" spans="1:6" ht="18" thickBot="1">
       <c r="C131" s="33" t="s">
@@ -8712,12 +8709,12 @@
       <c r="F133" s="35"/>
     </row>
     <row r="134" spans="1:6" ht="27" thickBot="1">
-      <c r="C134" s="88" t="s">
+      <c r="C134" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D134" s="89"/>
-      <c r="E134" s="89"/>
-      <c r="F134" s="90"/>
+      <c r="D134" s="81"/>
+      <c r="E134" s="81"/>
+      <c r="F134" s="82"/>
     </row>
     <row r="135" spans="1:6" ht="18" thickBot="1">
       <c r="C135" s="37" t="s">
@@ -8764,12 +8761,12 @@
       </c>
     </row>
     <row r="138" spans="1:6" ht="27" thickBot="1">
-      <c r="C138" s="91" t="s">
+      <c r="C138" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D138" s="91"/>
-      <c r="E138" s="91"/>
-      <c r="F138" s="91"/>
+      <c r="D138" s="83"/>
+      <c r="E138" s="83"/>
+      <c r="F138" s="83"/>
     </row>
     <row r="139" spans="1:6" ht="18" thickBot="1">
       <c r="C139" s="37" t="s">
@@ -8786,7 +8783,7 @@
       </c>
     </row>
     <row r="140" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C140" s="78">
+      <c r="C140" s="73">
         <v>200</v>
       </c>
       <c r="D140" s="39" t="s">
@@ -8800,7 +8797,7 @@
       </c>
     </row>
     <row r="141" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C141" s="78"/>
+      <c r="C141" s="73"/>
       <c r="D141" s="39" t="s">
         <v>358</v>
       </c>
@@ -8812,7 +8809,7 @@
       </c>
     </row>
     <row r="142" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C142" s="78"/>
+      <c r="C142" s="73"/>
       <c r="D142" s="39" t="s">
         <v>360</v>
       </c>
@@ -8824,7 +8821,7 @@
       </c>
     </row>
     <row r="143" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C143" s="78"/>
+      <c r="C143" s="73"/>
       <c r="D143" s="39"/>
       <c r="E143" s="39"/>
       <c r="F143" s="39"/>
@@ -8845,28 +8842,28 @@
       <c r="B147" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C147" s="110" t="s">
+      <c r="C147" s="87" t="s">
         <v>450</v>
       </c>
-      <c r="D147" s="111"/>
-      <c r="E147" s="111"/>
-      <c r="F147" s="112"/>
+      <c r="D147" s="88"/>
+      <c r="E147" s="88"/>
+      <c r="F147" s="89"/>
     </row>
     <row r="148" spans="1:6" ht="18" thickBot="1">
-      <c r="C148" s="82" t="s">
+      <c r="C148" s="84" t="s">
         <v>388</v>
       </c>
-      <c r="D148" s="83"/>
-      <c r="E148" s="83"/>
-      <c r="F148" s="84"/>
+      <c r="D148" s="85"/>
+      <c r="E148" s="85"/>
+      <c r="F148" s="86"/>
     </row>
     <row r="149" spans="1:6" ht="27" thickBot="1">
-      <c r="C149" s="85" t="s">
+      <c r="C149" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D149" s="86"/>
-      <c r="E149" s="86"/>
-      <c r="F149" s="87"/>
+      <c r="D149" s="78"/>
+      <c r="E149" s="78"/>
+      <c r="F149" s="79"/>
     </row>
     <row r="150" spans="1:6" ht="18" thickBot="1">
       <c r="C150" s="33" t="s">
@@ -8907,12 +8904,12 @@
       <c r="F152" s="35"/>
     </row>
     <row r="153" spans="1:6" ht="27" thickBot="1">
-      <c r="C153" s="88" t="s">
+      <c r="C153" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D153" s="89"/>
-      <c r="E153" s="89"/>
-      <c r="F153" s="90"/>
+      <c r="D153" s="81"/>
+      <c r="E153" s="81"/>
+      <c r="F153" s="82"/>
     </row>
     <row r="154" spans="1:6" ht="18" thickBot="1">
       <c r="C154" s="37" t="s">
@@ -9029,12 +9026,12 @@
       <c r="F161" s="38"/>
     </row>
     <row r="162" spans="1:6" ht="27" thickBot="1">
-      <c r="C162" s="91" t="s">
+      <c r="C162" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D162" s="91"/>
-      <c r="E162" s="91"/>
-      <c r="F162" s="91"/>
+      <c r="D162" s="83"/>
+      <c r="E162" s="83"/>
+      <c r="F162" s="83"/>
     </row>
     <row r="163" spans="1:6" ht="18" thickBot="1">
       <c r="C163" s="37" t="s">
@@ -9051,7 +9048,7 @@
       </c>
     </row>
     <row r="164" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C164" s="78">
+      <c r="C164" s="73">
         <v>200</v>
       </c>
       <c r="D164" s="39" t="s">
@@ -9065,7 +9062,7 @@
       </c>
     </row>
     <row r="165" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C165" s="78"/>
+      <c r="C165" s="73"/>
       <c r="D165" s="39" t="s">
         <v>358</v>
       </c>
@@ -9077,7 +9074,7 @@
       </c>
     </row>
     <row r="166" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C166" s="78"/>
+      <c r="C166" s="73"/>
       <c r="D166" s="39" t="s">
         <v>360</v>
       </c>
@@ -9089,7 +9086,7 @@
       </c>
     </row>
     <row r="167" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C167" s="78"/>
+      <c r="C167" s="73"/>
       <c r="D167" s="39"/>
       <c r="E167" s="39"/>
       <c r="F167" s="39"/>
@@ -9110,28 +9107,28 @@
       <c r="B171" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C171" s="110" t="s">
+      <c r="C171" s="87" t="s">
         <v>451</v>
       </c>
-      <c r="D171" s="111"/>
-      <c r="E171" s="111"/>
-      <c r="F171" s="112"/>
+      <c r="D171" s="88"/>
+      <c r="E171" s="88"/>
+      <c r="F171" s="89"/>
     </row>
     <row r="172" spans="1:6" ht="18" thickBot="1">
-      <c r="C172" s="82" t="s">
+      <c r="C172" s="84" t="s">
         <v>389</v>
       </c>
-      <c r="D172" s="83"/>
-      <c r="E172" s="83"/>
-      <c r="F172" s="84"/>
+      <c r="D172" s="85"/>
+      <c r="E172" s="85"/>
+      <c r="F172" s="86"/>
     </row>
     <row r="173" spans="1:6" ht="27" thickBot="1">
-      <c r="C173" s="85" t="s">
+      <c r="C173" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D173" s="86"/>
-      <c r="E173" s="86"/>
-      <c r="F173" s="87"/>
+      <c r="D173" s="78"/>
+      <c r="E173" s="78"/>
+      <c r="F173" s="79"/>
     </row>
     <row r="174" spans="1:6" ht="18" thickBot="1">
       <c r="C174" s="33" t="s">
@@ -9172,12 +9169,12 @@
       <c r="F176" s="35"/>
     </row>
     <row r="177" spans="1:6" ht="27" thickBot="1">
-      <c r="C177" s="88" t="s">
+      <c r="C177" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D177" s="89"/>
-      <c r="E177" s="89"/>
-      <c r="F177" s="90"/>
+      <c r="D177" s="81"/>
+      <c r="E177" s="81"/>
+      <c r="F177" s="82"/>
     </row>
     <row r="178" spans="1:6" ht="18" thickBot="1">
       <c r="C178" s="37" t="s">
@@ -9228,12 +9225,12 @@
       <c r="F181" s="38"/>
     </row>
     <row r="182" spans="1:6" ht="27" thickBot="1">
-      <c r="C182" s="91" t="s">
+      <c r="C182" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D182" s="91"/>
-      <c r="E182" s="91"/>
-      <c r="F182" s="91"/>
+      <c r="D182" s="83"/>
+      <c r="E182" s="83"/>
+      <c r="F182" s="83"/>
     </row>
     <row r="183" spans="1:6" ht="18" thickBot="1">
       <c r="C183" s="37" t="s">
@@ -9250,7 +9247,7 @@
       </c>
     </row>
     <row r="184" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C184" s="78">
+      <c r="C184" s="73">
         <v>200</v>
       </c>
       <c r="D184" s="39" t="s">
@@ -9264,7 +9261,7 @@
       </c>
     </row>
     <row r="185" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C185" s="78"/>
+      <c r="C185" s="73"/>
       <c r="D185" s="39" t="s">
         <v>358</v>
       </c>
@@ -9276,7 +9273,7 @@
       </c>
     </row>
     <row r="186" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C186" s="78"/>
+      <c r="C186" s="73"/>
       <c r="D186" s="39" t="s">
         <v>360</v>
       </c>
@@ -9288,7 +9285,7 @@
       </c>
     </row>
     <row r="187" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C187" s="78"/>
+      <c r="C187" s="73"/>
       <c r="D187" s="39"/>
       <c r="E187" s="39"/>
       <c r="F187" s="39"/>
@@ -9309,28 +9306,28 @@
       <c r="B191" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C191" s="110" t="s">
+      <c r="C191" s="87" t="s">
         <v>452</v>
       </c>
-      <c r="D191" s="111"/>
-      <c r="E191" s="111"/>
-      <c r="F191" s="112"/>
+      <c r="D191" s="88"/>
+      <c r="E191" s="88"/>
+      <c r="F191" s="89"/>
     </row>
     <row r="192" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="C192" s="82" t="s">
+      <c r="C192" s="84" t="s">
         <v>394</v>
       </c>
-      <c r="D192" s="83"/>
-      <c r="E192" s="83"/>
-      <c r="F192" s="84"/>
+      <c r="D192" s="85"/>
+      <c r="E192" s="85"/>
+      <c r="F192" s="86"/>
     </row>
     <row r="193" spans="3:6" ht="27" thickBot="1">
-      <c r="C193" s="85" t="s">
+      <c r="C193" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D193" s="86"/>
-      <c r="E193" s="86"/>
-      <c r="F193" s="87"/>
+      <c r="D193" s="78"/>
+      <c r="E193" s="78"/>
+      <c r="F193" s="79"/>
     </row>
     <row r="194" spans="3:6" ht="18" thickBot="1">
       <c r="C194" s="33" t="s">
@@ -9371,12 +9368,12 @@
       <c r="F196" s="35"/>
     </row>
     <row r="197" spans="3:6" ht="27" thickBot="1">
-      <c r="C197" s="88" t="s">
+      <c r="C197" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D197" s="89"/>
-      <c r="E197" s="89"/>
-      <c r="F197" s="90"/>
+      <c r="D197" s="81"/>
+      <c r="E197" s="81"/>
+      <c r="F197" s="82"/>
     </row>
     <row r="198" spans="3:6" ht="18" thickBot="1">
       <c r="C198" s="37" t="s">
@@ -9413,12 +9410,12 @@
       <c r="F200" s="38"/>
     </row>
     <row r="201" spans="3:6" ht="27" thickBot="1">
-      <c r="C201" s="91" t="s">
+      <c r="C201" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D201" s="91"/>
-      <c r="E201" s="91"/>
-      <c r="F201" s="91"/>
+      <c r="D201" s="83"/>
+      <c r="E201" s="83"/>
+      <c r="F201" s="83"/>
     </row>
     <row r="202" spans="3:6" ht="18" thickBot="1">
       <c r="C202" s="37" t="s">
@@ -9435,7 +9432,7 @@
       </c>
     </row>
     <row r="203" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C203" s="78">
+      <c r="C203" s="73">
         <v>200</v>
       </c>
       <c r="D203" s="39" t="s">
@@ -9449,7 +9446,7 @@
       </c>
     </row>
     <row r="204" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C204" s="78"/>
+      <c r="C204" s="73"/>
       <c r="D204" s="39" t="s">
         <v>358</v>
       </c>
@@ -9461,7 +9458,7 @@
       </c>
     </row>
     <row r="205" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C205" s="78"/>
+      <c r="C205" s="73"/>
       <c r="D205" s="39" t="s">
         <v>360</v>
       </c>
@@ -9473,7 +9470,7 @@
       </c>
     </row>
     <row r="206" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C206" s="78"/>
+      <c r="C206" s="73"/>
       <c r="D206" s="39"/>
       <c r="E206" s="39"/>
       <c r="F206" s="39"/>
@@ -9494,28 +9491,28 @@
       <c r="B210" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C210" s="110" t="s">
+      <c r="C210" s="87" t="s">
         <v>453</v>
       </c>
-      <c r="D210" s="111"/>
-      <c r="E210" s="111"/>
-      <c r="F210" s="112"/>
+      <c r="D210" s="88"/>
+      <c r="E210" s="88"/>
+      <c r="F210" s="89"/>
     </row>
     <row r="211" spans="1:6" ht="18" thickBot="1">
-      <c r="C211" s="82" t="s">
+      <c r="C211" s="84" t="s">
         <v>395</v>
       </c>
-      <c r="D211" s="83"/>
-      <c r="E211" s="83"/>
-      <c r="F211" s="84"/>
+      <c r="D211" s="85"/>
+      <c r="E211" s="85"/>
+      <c r="F211" s="86"/>
     </row>
     <row r="212" spans="1:6" ht="27" thickBot="1">
-      <c r="C212" s="85" t="s">
+      <c r="C212" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D212" s="86"/>
-      <c r="E212" s="86"/>
-      <c r="F212" s="87"/>
+      <c r="D212" s="78"/>
+      <c r="E212" s="78"/>
+      <c r="F212" s="79"/>
     </row>
     <row r="213" spans="1:6" ht="18" thickBot="1">
       <c r="C213" s="33" t="s">
@@ -9556,12 +9553,12 @@
       <c r="F215" s="35"/>
     </row>
     <row r="216" spans="1:6" ht="27" thickBot="1">
-      <c r="C216" s="88" t="s">
+      <c r="C216" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D216" s="89"/>
-      <c r="E216" s="89"/>
-      <c r="F216" s="90"/>
+      <c r="D216" s="81"/>
+      <c r="E216" s="81"/>
+      <c r="F216" s="82"/>
     </row>
     <row r="217" spans="1:6" ht="18" thickBot="1">
       <c r="C217" s="37" t="s">
@@ -9612,12 +9609,12 @@
       <c r="F220" s="38"/>
     </row>
     <row r="221" spans="1:6" ht="27" thickBot="1">
-      <c r="C221" s="91" t="s">
+      <c r="C221" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D221" s="91"/>
-      <c r="E221" s="91"/>
-      <c r="F221" s="91"/>
+      <c r="D221" s="83"/>
+      <c r="E221" s="83"/>
+      <c r="F221" s="83"/>
     </row>
     <row r="222" spans="1:6" ht="18" thickBot="1">
       <c r="C222" s="37" t="s">
@@ -9634,7 +9631,7 @@
       </c>
     </row>
     <row r="223" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C223" s="78">
+      <c r="C223" s="73">
         <v>200</v>
       </c>
       <c r="D223" s="39" t="s">
@@ -9648,7 +9645,7 @@
       </c>
     </row>
     <row r="224" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C224" s="78"/>
+      <c r="C224" s="73"/>
       <c r="D224" s="39" t="s">
         <v>358</v>
       </c>
@@ -9660,7 +9657,7 @@
       </c>
     </row>
     <row r="225" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C225" s="78"/>
+      <c r="C225" s="73"/>
       <c r="D225" s="39" t="s">
         <v>360</v>
       </c>
@@ -9672,7 +9669,7 @@
       </c>
     </row>
     <row r="226" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C226" s="78"/>
+      <c r="C226" s="73"/>
       <c r="D226" s="39"/>
       <c r="E226" s="39"/>
       <c r="F226" s="39"/>
@@ -9693,28 +9690,28 @@
       <c r="B230" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C230" s="110" t="s">
+      <c r="C230" s="87" t="s">
         <v>454</v>
       </c>
-      <c r="D230" s="111"/>
-      <c r="E230" s="111"/>
-      <c r="F230" s="112"/>
+      <c r="D230" s="88"/>
+      <c r="E230" s="88"/>
+      <c r="F230" s="89"/>
     </row>
     <row r="231" spans="1:6" ht="18" thickBot="1">
-      <c r="C231" s="82" t="s">
+      <c r="C231" s="84" t="s">
         <v>478</v>
       </c>
-      <c r="D231" s="83"/>
-      <c r="E231" s="83"/>
-      <c r="F231" s="84"/>
+      <c r="D231" s="85"/>
+      <c r="E231" s="85"/>
+      <c r="F231" s="86"/>
     </row>
     <row r="232" spans="1:6" ht="27" thickBot="1">
-      <c r="C232" s="85" t="s">
+      <c r="C232" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D232" s="86"/>
-      <c r="E232" s="86"/>
-      <c r="F232" s="87"/>
+      <c r="D232" s="78"/>
+      <c r="E232" s="78"/>
+      <c r="F232" s="79"/>
     </row>
     <row r="233" spans="1:6" ht="18" thickBot="1">
       <c r="C233" s="33" t="s">
@@ -9755,12 +9752,12 @@
       <c r="F235" s="35"/>
     </row>
     <row r="236" spans="1:6" ht="27" thickBot="1">
-      <c r="C236" s="88" t="s">
+      <c r="C236" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D236" s="89"/>
-      <c r="E236" s="89"/>
-      <c r="F236" s="90"/>
+      <c r="D236" s="81"/>
+      <c r="E236" s="81"/>
+      <c r="F236" s="82"/>
     </row>
     <row r="237" spans="1:6" ht="18" thickBot="1">
       <c r="C237" s="37" t="s">
@@ -9797,12 +9794,12 @@
       <c r="F239" s="38"/>
     </row>
     <row r="240" spans="1:6" ht="27" thickBot="1">
-      <c r="C240" s="91" t="s">
+      <c r="C240" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D240" s="91"/>
-      <c r="E240" s="91"/>
-      <c r="F240" s="91"/>
+      <c r="D240" s="83"/>
+      <c r="E240" s="83"/>
+      <c r="F240" s="83"/>
     </row>
     <row r="241" spans="1:6" ht="18" thickBot="1">
       <c r="C241" s="37" t="s">
@@ -9819,7 +9816,7 @@
       </c>
     </row>
     <row r="242" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C242" s="78">
+      <c r="C242" s="73">
         <v>200</v>
       </c>
       <c r="D242" s="39" t="s">
@@ -9833,7 +9830,7 @@
       </c>
     </row>
     <row r="243" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C243" s="78"/>
+      <c r="C243" s="73"/>
       <c r="D243" s="39" t="s">
         <v>358</v>
       </c>
@@ -9845,7 +9842,7 @@
       </c>
     </row>
     <row r="244" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C244" s="78"/>
+      <c r="C244" s="73"/>
       <c r="D244" s="39" t="s">
         <v>360</v>
       </c>
@@ -9857,7 +9854,7 @@
       </c>
     </row>
     <row r="245" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C245" s="78"/>
+      <c r="C245" s="73"/>
       <c r="D245" s="39"/>
       <c r="E245" s="39"/>
       <c r="F245" s="39"/>
@@ -9878,28 +9875,28 @@
       <c r="B249" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C249" s="110" t="s">
+      <c r="C249" s="87" t="s">
         <v>455</v>
       </c>
-      <c r="D249" s="111"/>
-      <c r="E249" s="111"/>
-      <c r="F249" s="112"/>
+      <c r="D249" s="88"/>
+      <c r="E249" s="88"/>
+      <c r="F249" s="89"/>
     </row>
     <row r="250" spans="1:6" ht="18" thickBot="1">
-      <c r="C250" s="82" t="s">
+      <c r="C250" s="84" t="s">
         <v>477</v>
       </c>
-      <c r="D250" s="83"/>
-      <c r="E250" s="83"/>
-      <c r="F250" s="84"/>
+      <c r="D250" s="85"/>
+      <c r="E250" s="85"/>
+      <c r="F250" s="86"/>
     </row>
     <row r="251" spans="1:6" ht="27" thickBot="1">
-      <c r="C251" s="85" t="s">
+      <c r="C251" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D251" s="86"/>
-      <c r="E251" s="86"/>
-      <c r="F251" s="87"/>
+      <c r="D251" s="78"/>
+      <c r="E251" s="78"/>
+      <c r="F251" s="79"/>
     </row>
     <row r="252" spans="1:6" ht="18" thickBot="1">
       <c r="C252" s="33" t="s">
@@ -9940,12 +9937,12 @@
       <c r="F254" s="35"/>
     </row>
     <row r="255" spans="1:6" ht="27" thickBot="1">
-      <c r="C255" s="88" t="s">
+      <c r="C255" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D255" s="89"/>
-      <c r="E255" s="89"/>
-      <c r="F255" s="90"/>
+      <c r="D255" s="81"/>
+      <c r="E255" s="81"/>
+      <c r="F255" s="82"/>
     </row>
     <row r="256" spans="1:6" ht="18" thickBot="1">
       <c r="C256" s="37" t="s">
@@ -9996,12 +9993,12 @@
       <c r="F259" s="38"/>
     </row>
     <row r="260" spans="1:6" ht="27" thickBot="1">
-      <c r="C260" s="91" t="s">
+      <c r="C260" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D260" s="91"/>
-      <c r="E260" s="91"/>
-      <c r="F260" s="91"/>
+      <c r="D260" s="83"/>
+      <c r="E260" s="83"/>
+      <c r="F260" s="83"/>
     </row>
     <row r="261" spans="1:6" ht="18" thickBot="1">
       <c r="C261" s="37" t="s">
@@ -10018,7 +10015,7 @@
       </c>
     </row>
     <row r="262" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C262" s="78">
+      <c r="C262" s="73">
         <v>200</v>
       </c>
       <c r="D262" s="39" t="s">
@@ -10032,7 +10029,7 @@
       </c>
     </row>
     <row r="263" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C263" s="78"/>
+      <c r="C263" s="73"/>
       <c r="D263" s="39" t="s">
         <v>358</v>
       </c>
@@ -10044,7 +10041,7 @@
       </c>
     </row>
     <row r="264" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C264" s="78"/>
+      <c r="C264" s="73"/>
       <c r="D264" s="39" t="s">
         <v>360</v>
       </c>
@@ -10056,7 +10053,7 @@
       </c>
     </row>
     <row r="265" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C265" s="78"/>
+      <c r="C265" s="73"/>
       <c r="D265" s="39"/>
       <c r="E265" s="39"/>
       <c r="F265" s="39"/>
@@ -10077,28 +10074,28 @@
       <c r="B269" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C269" s="110" t="s">
+      <c r="C269" s="87" t="s">
         <v>456</v>
       </c>
-      <c r="D269" s="111"/>
-      <c r="E269" s="111"/>
-      <c r="F269" s="112"/>
+      <c r="D269" s="88"/>
+      <c r="E269" s="88"/>
+      <c r="F269" s="89"/>
     </row>
     <row r="270" spans="1:6" ht="18" thickBot="1">
-      <c r="C270" s="82" t="s">
+      <c r="C270" s="84" t="s">
         <v>476</v>
       </c>
-      <c r="D270" s="83"/>
-      <c r="E270" s="83"/>
-      <c r="F270" s="84"/>
+      <c r="D270" s="85"/>
+      <c r="E270" s="85"/>
+      <c r="F270" s="86"/>
     </row>
     <row r="271" spans="1:6" ht="27" thickBot="1">
-      <c r="C271" s="85" t="s">
+      <c r="C271" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D271" s="86"/>
-      <c r="E271" s="86"/>
-      <c r="F271" s="87"/>
+      <c r="D271" s="78"/>
+      <c r="E271" s="78"/>
+      <c r="F271" s="79"/>
     </row>
     <row r="272" spans="1:6" ht="18" thickBot="1">
       <c r="C272" s="33" t="s">
@@ -10139,12 +10136,12 @@
       <c r="F274" s="35"/>
     </row>
     <row r="275" spans="1:6" ht="27" thickBot="1">
-      <c r="C275" s="88" t="s">
+      <c r="C275" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D275" s="89"/>
-      <c r="E275" s="89"/>
-      <c r="F275" s="90"/>
+      <c r="D275" s="81"/>
+      <c r="E275" s="81"/>
+      <c r="F275" s="82"/>
     </row>
     <row r="276" spans="1:6" ht="18" thickBot="1">
       <c r="C276" s="37" t="s">
@@ -10181,12 +10178,12 @@
       <c r="F278" s="38"/>
     </row>
     <row r="279" spans="1:6" ht="27" thickBot="1">
-      <c r="C279" s="91" t="s">
+      <c r="C279" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D279" s="91"/>
-      <c r="E279" s="91"/>
-      <c r="F279" s="91"/>
+      <c r="D279" s="83"/>
+      <c r="E279" s="83"/>
+      <c r="F279" s="83"/>
     </row>
     <row r="280" spans="1:6" ht="18" thickBot="1">
       <c r="C280" s="37" t="s">
@@ -10203,7 +10200,7 @@
       </c>
     </row>
     <row r="281" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C281" s="78">
+      <c r="C281" s="73">
         <v>200</v>
       </c>
       <c r="D281" s="39" t="s">
@@ -10217,7 +10214,7 @@
       </c>
     </row>
     <row r="282" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C282" s="78"/>
+      <c r="C282" s="73"/>
       <c r="D282" s="39" t="s">
         <v>358</v>
       </c>
@@ -10229,7 +10226,7 @@
       </c>
     </row>
     <row r="283" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C283" s="78"/>
+      <c r="C283" s="73"/>
       <c r="D283" s="39" t="s">
         <v>360</v>
       </c>
@@ -10241,7 +10238,7 @@
       </c>
     </row>
     <row r="284" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C284" s="78"/>
+      <c r="C284" s="73"/>
       <c r="D284" s="39"/>
       <c r="E284" s="39"/>
       <c r="F284" s="39"/>
@@ -10262,28 +10259,28 @@
       <c r="B288" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C288" s="110" t="s">
+      <c r="C288" s="87" t="s">
         <v>457</v>
       </c>
-      <c r="D288" s="111"/>
-      <c r="E288" s="111"/>
-      <c r="F288" s="112"/>
+      <c r="D288" s="88"/>
+      <c r="E288" s="88"/>
+      <c r="F288" s="89"/>
     </row>
     <row r="289" spans="3:6" ht="18" thickBot="1">
-      <c r="C289" s="82" t="s">
+      <c r="C289" s="84" t="s">
         <v>475</v>
       </c>
-      <c r="D289" s="83"/>
-      <c r="E289" s="83"/>
-      <c r="F289" s="84"/>
+      <c r="D289" s="85"/>
+      <c r="E289" s="85"/>
+      <c r="F289" s="86"/>
     </row>
     <row r="290" spans="3:6" ht="27" thickBot="1">
-      <c r="C290" s="85" t="s">
+      <c r="C290" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D290" s="86"/>
-      <c r="E290" s="86"/>
-      <c r="F290" s="87"/>
+      <c r="D290" s="78"/>
+      <c r="E290" s="78"/>
+      <c r="F290" s="79"/>
     </row>
     <row r="291" spans="3:6" ht="18" thickBot="1">
       <c r="C291" s="33" t="s">
@@ -10324,12 +10321,12 @@
       <c r="F293" s="35"/>
     </row>
     <row r="294" spans="3:6" ht="27" thickBot="1">
-      <c r="C294" s="88" t="s">
+      <c r="C294" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D294" s="89"/>
-      <c r="E294" s="89"/>
-      <c r="F294" s="90"/>
+      <c r="D294" s="81"/>
+      <c r="E294" s="81"/>
+      <c r="F294" s="82"/>
     </row>
     <row r="295" spans="3:6" ht="18" thickBot="1">
       <c r="C295" s="37" t="s">
@@ -10372,12 +10369,12 @@
       <c r="F297" s="38"/>
     </row>
     <row r="298" spans="3:6" ht="27" thickBot="1">
-      <c r="C298" s="91" t="s">
+      <c r="C298" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D298" s="91"/>
-      <c r="E298" s="91"/>
-      <c r="F298" s="91"/>
+      <c r="D298" s="83"/>
+      <c r="E298" s="83"/>
+      <c r="F298" s="83"/>
     </row>
     <row r="299" spans="3:6" ht="18" thickBot="1">
       <c r="C299" s="37" t="s">
@@ -10394,7 +10391,7 @@
       </c>
     </row>
     <row r="300" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C300" s="78">
+      <c r="C300" s="73">
         <v>200</v>
       </c>
       <c r="D300" s="39" t="s">
@@ -10408,7 +10405,7 @@
       </c>
     </row>
     <row r="301" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C301" s="78"/>
+      <c r="C301" s="73"/>
       <c r="D301" s="39" t="s">
         <v>358</v>
       </c>
@@ -10420,7 +10417,7 @@
       </c>
     </row>
     <row r="302" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C302" s="78"/>
+      <c r="C302" s="73"/>
       <c r="D302" s="39" t="s">
         <v>360</v>
       </c>
@@ -10432,7 +10429,7 @@
       </c>
     </row>
     <row r="303" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C303" s="78"/>
+      <c r="C303" s="73"/>
       <c r="D303" s="39"/>
       <c r="E303" s="39"/>
       <c r="F303" s="39"/>
@@ -10453,28 +10450,28 @@
       <c r="B307" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C307" s="110" t="s">
+      <c r="C307" s="87" t="s">
         <v>458</v>
       </c>
-      <c r="D307" s="111"/>
-      <c r="E307" s="111"/>
-      <c r="F307" s="112"/>
+      <c r="D307" s="88"/>
+      <c r="E307" s="88"/>
+      <c r="F307" s="89"/>
     </row>
     <row r="308" spans="1:6" ht="18" thickBot="1">
-      <c r="C308" s="82" t="s">
+      <c r="C308" s="84" t="s">
         <v>474</v>
       </c>
-      <c r="D308" s="83"/>
-      <c r="E308" s="83"/>
-      <c r="F308" s="84"/>
+      <c r="D308" s="85"/>
+      <c r="E308" s="85"/>
+      <c r="F308" s="86"/>
     </row>
     <row r="309" spans="1:6" ht="27" thickBot="1">
-      <c r="C309" s="85" t="s">
+      <c r="C309" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D309" s="86"/>
-      <c r="E309" s="86"/>
-      <c r="F309" s="87"/>
+      <c r="D309" s="78"/>
+      <c r="E309" s="78"/>
+      <c r="F309" s="79"/>
     </row>
     <row r="310" spans="1:6" ht="18" thickBot="1">
       <c r="C310" s="33" t="s">
@@ -10515,12 +10512,12 @@
       <c r="F312" s="35"/>
     </row>
     <row r="313" spans="1:6" ht="27" thickBot="1">
-      <c r="C313" s="88" t="s">
+      <c r="C313" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D313" s="89"/>
-      <c r="E313" s="89"/>
-      <c r="F313" s="90"/>
+      <c r="D313" s="81"/>
+      <c r="E313" s="81"/>
+      <c r="F313" s="82"/>
     </row>
     <row r="314" spans="1:6" ht="18" thickBot="1">
       <c r="C314" s="37" t="s">
@@ -10563,12 +10560,12 @@
       <c r="F316" s="38"/>
     </row>
     <row r="317" spans="1:6" ht="27" thickBot="1">
-      <c r="C317" s="91" t="s">
+      <c r="C317" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D317" s="91"/>
-      <c r="E317" s="91"/>
-      <c r="F317" s="91"/>
+      <c r="D317" s="83"/>
+      <c r="E317" s="83"/>
+      <c r="F317" s="83"/>
     </row>
     <row r="318" spans="1:6" ht="18" thickBot="1">
       <c r="C318" s="37" t="s">
@@ -10585,7 +10582,7 @@
       </c>
     </row>
     <row r="319" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C319" s="78">
+      <c r="C319" s="73">
         <v>200</v>
       </c>
       <c r="D319" s="39" t="s">
@@ -10599,7 +10596,7 @@
       </c>
     </row>
     <row r="320" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C320" s="78"/>
+      <c r="C320" s="73"/>
       <c r="D320" s="39" t="s">
         <v>358</v>
       </c>
@@ -10611,7 +10608,7 @@
       </c>
     </row>
     <row r="321" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C321" s="78"/>
+      <c r="C321" s="73"/>
       <c r="D321" s="39" t="s">
         <v>360</v>
       </c>
@@ -10623,7 +10620,7 @@
       </c>
     </row>
     <row r="322" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C322" s="78"/>
+      <c r="C322" s="73"/>
       <c r="D322" s="39"/>
       <c r="E322" s="39"/>
       <c r="F322" s="39"/>
@@ -10644,28 +10641,28 @@
       <c r="B326" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C326" s="110" t="s">
+      <c r="C326" s="87" t="s">
         <v>459</v>
       </c>
-      <c r="D326" s="111"/>
-      <c r="E326" s="111"/>
-      <c r="F326" s="112"/>
+      <c r="D326" s="88"/>
+      <c r="E326" s="88"/>
+      <c r="F326" s="89"/>
     </row>
     <row r="327" spans="1:6" ht="18" thickBot="1">
-      <c r="C327" s="82" t="s">
+      <c r="C327" s="84" t="s">
         <v>473</v>
       </c>
-      <c r="D327" s="83"/>
-      <c r="E327" s="83"/>
-      <c r="F327" s="84"/>
+      <c r="D327" s="85"/>
+      <c r="E327" s="85"/>
+      <c r="F327" s="86"/>
     </row>
     <row r="328" spans="1:6" ht="27" thickBot="1">
-      <c r="C328" s="85" t="s">
+      <c r="C328" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D328" s="86"/>
-      <c r="E328" s="86"/>
-      <c r="F328" s="87"/>
+      <c r="D328" s="78"/>
+      <c r="E328" s="78"/>
+      <c r="F328" s="79"/>
     </row>
     <row r="329" spans="1:6" ht="18" thickBot="1">
       <c r="C329" s="33" t="s">
@@ -10706,12 +10703,12 @@
       <c r="F331" s="35"/>
     </row>
     <row r="332" spans="1:6" ht="27" thickBot="1">
-      <c r="C332" s="88" t="s">
+      <c r="C332" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D332" s="89"/>
-      <c r="E332" s="89"/>
-      <c r="F332" s="90"/>
+      <c r="D332" s="81"/>
+      <c r="E332" s="81"/>
+      <c r="F332" s="82"/>
     </row>
     <row r="333" spans="1:6" ht="18" thickBot="1">
       <c r="C333" s="37" t="s">
@@ -10754,12 +10751,12 @@
       <c r="F335" s="38"/>
     </row>
     <row r="336" spans="1:6" ht="27" thickBot="1">
-      <c r="C336" s="91" t="s">
+      <c r="C336" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D336" s="91"/>
-      <c r="E336" s="91"/>
-      <c r="F336" s="91"/>
+      <c r="D336" s="83"/>
+      <c r="E336" s="83"/>
+      <c r="F336" s="83"/>
     </row>
     <row r="337" spans="1:6" ht="18" thickBot="1">
       <c r="C337" s="37" t="s">
@@ -10776,7 +10773,7 @@
       </c>
     </row>
     <row r="338" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C338" s="78">
+      <c r="C338" s="73">
         <v>200</v>
       </c>
       <c r="D338" s="39" t="s">
@@ -10790,7 +10787,7 @@
       </c>
     </row>
     <row r="339" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C339" s="78"/>
+      <c r="C339" s="73"/>
       <c r="D339" s="39" t="s">
         <v>358</v>
       </c>
@@ -10802,7 +10799,7 @@
       </c>
     </row>
     <row r="340" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C340" s="78"/>
+      <c r="C340" s="73"/>
       <c r="D340" s="39" t="s">
         <v>360</v>
       </c>
@@ -10814,7 +10811,7 @@
       </c>
     </row>
     <row r="341" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C341" s="78"/>
+      <c r="C341" s="73"/>
       <c r="D341" s="39"/>
       <c r="E341" s="39"/>
       <c r="F341" s="39"/>
@@ -10835,28 +10832,28 @@
       <c r="B345" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C345" s="110" t="s">
+      <c r="C345" s="87" t="s">
         <v>461</v>
       </c>
-      <c r="D345" s="111"/>
-      <c r="E345" s="111"/>
-      <c r="F345" s="112"/>
+      <c r="D345" s="88"/>
+      <c r="E345" s="88"/>
+      <c r="F345" s="89"/>
     </row>
     <row r="346" spans="1:6" ht="18" thickBot="1">
-      <c r="C346" s="82" t="s">
+      <c r="C346" s="84" t="s">
         <v>467</v>
       </c>
-      <c r="D346" s="83"/>
-      <c r="E346" s="83"/>
-      <c r="F346" s="84"/>
+      <c r="D346" s="85"/>
+      <c r="E346" s="85"/>
+      <c r="F346" s="86"/>
     </row>
     <row r="347" spans="1:6" ht="27" thickBot="1">
-      <c r="C347" s="85" t="s">
+      <c r="C347" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D347" s="86"/>
-      <c r="E347" s="86"/>
-      <c r="F347" s="87"/>
+      <c r="D347" s="78"/>
+      <c r="E347" s="78"/>
+      <c r="F347" s="79"/>
     </row>
     <row r="348" spans="1:6" ht="18" thickBot="1">
       <c r="C348" s="33" t="s">
@@ -10897,12 +10894,12 @@
       <c r="F350" s="35"/>
     </row>
     <row r="351" spans="1:6" ht="27" thickBot="1">
-      <c r="C351" s="88" t="s">
+      <c r="C351" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D351" s="89"/>
-      <c r="E351" s="89"/>
-      <c r="F351" s="90"/>
+      <c r="D351" s="81"/>
+      <c r="E351" s="81"/>
+      <c r="F351" s="82"/>
     </row>
     <row r="352" spans="1:6" ht="18" thickBot="1">
       <c r="C352" s="37" t="s">
@@ -10939,12 +10936,12 @@
       <c r="F354" s="38"/>
     </row>
     <row r="355" spans="1:6" ht="27" thickBot="1">
-      <c r="C355" s="91" t="s">
+      <c r="C355" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D355" s="91"/>
-      <c r="E355" s="91"/>
-      <c r="F355" s="91"/>
+      <c r="D355" s="83"/>
+      <c r="E355" s="83"/>
+      <c r="F355" s="83"/>
     </row>
     <row r="356" spans="1:6" ht="18" thickBot="1">
       <c r="C356" s="37" t="s">
@@ -10961,7 +10958,7 @@
       </c>
     </row>
     <row r="357" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C357" s="78">
+      <c r="C357" s="73">
         <v>200</v>
       </c>
       <c r="D357" s="39" t="s">
@@ -10975,7 +10972,7 @@
       </c>
     </row>
     <row r="358" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C358" s="78"/>
+      <c r="C358" s="73"/>
       <c r="D358" s="39" t="s">
         <v>358</v>
       </c>
@@ -10987,7 +10984,7 @@
       </c>
     </row>
     <row r="359" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C359" s="78"/>
+      <c r="C359" s="73"/>
       <c r="D359" s="39" t="s">
         <v>360</v>
       </c>
@@ -10999,7 +10996,7 @@
       </c>
     </row>
     <row r="360" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C360" s="78"/>
+      <c r="C360" s="73"/>
       <c r="D360" s="39"/>
       <c r="E360" s="39"/>
       <c r="F360" s="39"/>
@@ -11020,28 +11017,28 @@
       <c r="B364" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C364" s="110" t="s">
+      <c r="C364" s="87" t="s">
         <v>460</v>
       </c>
-      <c r="D364" s="111"/>
-      <c r="E364" s="111"/>
-      <c r="F364" s="112"/>
+      <c r="D364" s="88"/>
+      <c r="E364" s="88"/>
+      <c r="F364" s="89"/>
     </row>
     <row r="365" spans="1:6" ht="18" thickBot="1">
-      <c r="C365" s="82" t="s">
+      <c r="C365" s="84" t="s">
         <v>466</v>
       </c>
-      <c r="D365" s="83"/>
-      <c r="E365" s="83"/>
-      <c r="F365" s="84"/>
+      <c r="D365" s="85"/>
+      <c r="E365" s="85"/>
+      <c r="F365" s="86"/>
     </row>
     <row r="366" spans="1:6" ht="27" thickBot="1">
-      <c r="C366" s="85" t="s">
+      <c r="C366" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D366" s="86"/>
-      <c r="E366" s="86"/>
-      <c r="F366" s="87"/>
+      <c r="D366" s="78"/>
+      <c r="E366" s="78"/>
+      <c r="F366" s="79"/>
     </row>
     <row r="367" spans="1:6" ht="18" thickBot="1">
       <c r="C367" s="33" t="s">
@@ -11082,12 +11079,12 @@
       <c r="F369" s="35"/>
     </row>
     <row r="370" spans="1:6" ht="27" thickBot="1">
-      <c r="C370" s="88" t="s">
+      <c r="C370" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D370" s="89"/>
-      <c r="E370" s="89"/>
-      <c r="F370" s="90"/>
+      <c r="D370" s="81"/>
+      <c r="E370" s="81"/>
+      <c r="F370" s="82"/>
     </row>
     <row r="371" spans="1:6" ht="18" thickBot="1">
       <c r="C371" s="37" t="s">
@@ -11132,12 +11129,12 @@
       </c>
     </row>
     <row r="374" spans="1:6" ht="27" thickBot="1">
-      <c r="C374" s="91" t="s">
+      <c r="C374" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D374" s="91"/>
-      <c r="E374" s="91"/>
-      <c r="F374" s="91"/>
+      <c r="D374" s="83"/>
+      <c r="E374" s="83"/>
+      <c r="F374" s="83"/>
     </row>
     <row r="375" spans="1:6" ht="18" thickBot="1">
       <c r="C375" s="37" t="s">
@@ -11154,7 +11151,7 @@
       </c>
     </row>
     <row r="376" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C376" s="78">
+      <c r="C376" s="73">
         <v>200</v>
       </c>
       <c r="D376" s="39" t="s">
@@ -11168,7 +11165,7 @@
       </c>
     </row>
     <row r="377" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C377" s="78"/>
+      <c r="C377" s="73"/>
       <c r="D377" s="39" t="s">
         <v>358</v>
       </c>
@@ -11180,7 +11177,7 @@
       </c>
     </row>
     <row r="378" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C378" s="78"/>
+      <c r="C378" s="73"/>
       <c r="D378" s="39" t="s">
         <v>360</v>
       </c>
@@ -11192,7 +11189,7 @@
       </c>
     </row>
     <row r="379" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C379" s="78"/>
+      <c r="C379" s="73"/>
       <c r="D379" s="39"/>
       <c r="E379" s="39"/>
       <c r="F379" s="39"/>
@@ -11213,28 +11210,28 @@
       <c r="B383" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C383" s="110" t="s">
+      <c r="C383" s="87" t="s">
         <v>464</v>
       </c>
-      <c r="D383" s="111"/>
-      <c r="E383" s="111"/>
-      <c r="F383" s="112"/>
+      <c r="D383" s="88"/>
+      <c r="E383" s="88"/>
+      <c r="F383" s="89"/>
     </row>
     <row r="384" spans="1:6" ht="18" thickBot="1">
-      <c r="C384" s="82" t="s">
+      <c r="C384" s="84" t="s">
         <v>465</v>
       </c>
-      <c r="D384" s="83"/>
-      <c r="E384" s="83"/>
-      <c r="F384" s="84"/>
+      <c r="D384" s="85"/>
+      <c r="E384" s="85"/>
+      <c r="F384" s="86"/>
     </row>
     <row r="385" spans="3:6" ht="27" thickBot="1">
-      <c r="C385" s="85" t="s">
+      <c r="C385" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D385" s="86"/>
-      <c r="E385" s="86"/>
-      <c r="F385" s="87"/>
+      <c r="D385" s="78"/>
+      <c r="E385" s="78"/>
+      <c r="F385" s="79"/>
     </row>
     <row r="386" spans="3:6" ht="18" thickBot="1">
       <c r="C386" s="33" t="s">
@@ -11275,12 +11272,12 @@
       <c r="F388" s="35"/>
     </row>
     <row r="389" spans="3:6" ht="27" thickBot="1">
-      <c r="C389" s="88" t="s">
+      <c r="C389" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D389" s="89"/>
-      <c r="E389" s="89"/>
-      <c r="F389" s="90"/>
+      <c r="D389" s="81"/>
+      <c r="E389" s="81"/>
+      <c r="F389" s="82"/>
     </row>
     <row r="390" spans="3:6" ht="18" thickBot="1">
       <c r="C390" s="37" t="s">
@@ -11325,12 +11322,12 @@
       </c>
     </row>
     <row r="393" spans="3:6" ht="27" thickBot="1">
-      <c r="C393" s="91" t="s">
+      <c r="C393" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D393" s="91"/>
-      <c r="E393" s="91"/>
-      <c r="F393" s="91"/>
+      <c r="D393" s="83"/>
+      <c r="E393" s="83"/>
+      <c r="F393" s="83"/>
     </row>
     <row r="394" spans="3:6" ht="18" thickBot="1">
       <c r="C394" s="37" t="s">
@@ -11347,7 +11344,7 @@
       </c>
     </row>
     <row r="395" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C395" s="78">
+      <c r="C395" s="73">
         <v>200</v>
       </c>
       <c r="D395" s="39" t="s">
@@ -11361,7 +11358,7 @@
       </c>
     </row>
     <row r="396" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C396" s="78"/>
+      <c r="C396" s="73"/>
       <c r="D396" s="39" t="s">
         <v>358</v>
       </c>
@@ -11373,7 +11370,7 @@
       </c>
     </row>
     <row r="397" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C397" s="78"/>
+      <c r="C397" s="73"/>
       <c r="D397" s="39" t="s">
         <v>360</v>
       </c>
@@ -11385,7 +11382,7 @@
       </c>
     </row>
     <row r="398" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C398" s="78"/>
+      <c r="C398" s="73"/>
       <c r="D398" s="39"/>
       <c r="E398" s="39"/>
       <c r="F398" s="39"/>
@@ -11406,28 +11403,28 @@
       <c r="B402" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C402" s="110" t="s">
+      <c r="C402" s="87" t="s">
         <v>469</v>
       </c>
-      <c r="D402" s="111"/>
-      <c r="E402" s="111"/>
-      <c r="F402" s="112"/>
+      <c r="D402" s="88"/>
+      <c r="E402" s="88"/>
+      <c r="F402" s="89"/>
     </row>
     <row r="403" spans="1:6" ht="18" thickBot="1">
-      <c r="C403" s="82" t="s">
+      <c r="C403" s="84" t="s">
         <v>470</v>
       </c>
-      <c r="D403" s="83"/>
-      <c r="E403" s="83"/>
-      <c r="F403" s="84"/>
+      <c r="D403" s="85"/>
+      <c r="E403" s="85"/>
+      <c r="F403" s="86"/>
     </row>
     <row r="404" spans="1:6" ht="27" thickBot="1">
-      <c r="C404" s="85" t="s">
+      <c r="C404" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D404" s="86"/>
-      <c r="E404" s="86"/>
-      <c r="F404" s="87"/>
+      <c r="D404" s="78"/>
+      <c r="E404" s="78"/>
+      <c r="F404" s="79"/>
     </row>
     <row r="405" spans="1:6" ht="18" thickBot="1">
       <c r="C405" s="33" t="s">
@@ -11468,12 +11465,12 @@
       <c r="F407" s="35"/>
     </row>
     <row r="408" spans="1:6" ht="27" thickBot="1">
-      <c r="C408" s="88" t="s">
+      <c r="C408" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D408" s="89"/>
-      <c r="E408" s="89"/>
-      <c r="F408" s="90"/>
+      <c r="D408" s="81"/>
+      <c r="E408" s="81"/>
+      <c r="F408" s="82"/>
     </row>
     <row r="409" spans="1:6" ht="18" thickBot="1">
       <c r="C409" s="37" t="s">
@@ -11518,12 +11515,12 @@
       </c>
     </row>
     <row r="412" spans="1:6" ht="27" thickBot="1">
-      <c r="C412" s="91" t="s">
+      <c r="C412" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D412" s="91"/>
-      <c r="E412" s="91"/>
-      <c r="F412" s="91"/>
+      <c r="D412" s="83"/>
+      <c r="E412" s="83"/>
+      <c r="F412" s="83"/>
     </row>
     <row r="413" spans="1:6" ht="18" thickBot="1">
       <c r="C413" s="37" t="s">
@@ -11540,7 +11537,7 @@
       </c>
     </row>
     <row r="414" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C414" s="78">
+      <c r="C414" s="73">
         <v>200</v>
       </c>
       <c r="D414" s="39" t="s">
@@ -11554,7 +11551,7 @@
       </c>
     </row>
     <row r="415" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C415" s="78"/>
+      <c r="C415" s="73"/>
       <c r="D415" s="39" t="s">
         <v>358</v>
       </c>
@@ -11566,7 +11563,7 @@
       </c>
     </row>
     <row r="416" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C416" s="78"/>
+      <c r="C416" s="73"/>
       <c r="D416" s="39" t="s">
         <v>360</v>
       </c>
@@ -11578,7 +11575,7 @@
       </c>
     </row>
     <row r="417" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C417" s="78"/>
+      <c r="C417" s="73"/>
       <c r="D417" s="39"/>
       <c r="E417" s="39"/>
       <c r="F417" s="39"/>
@@ -11599,28 +11596,28 @@
       <c r="B421" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C421" s="110" t="s">
+      <c r="C421" s="87" t="s">
         <v>471</v>
       </c>
-      <c r="D421" s="111"/>
-      <c r="E421" s="111"/>
-      <c r="F421" s="112"/>
+      <c r="D421" s="88"/>
+      <c r="E421" s="88"/>
+      <c r="F421" s="89"/>
     </row>
     <row r="422" spans="1:6" ht="18" thickBot="1">
-      <c r="C422" s="82" t="s">
+      <c r="C422" s="84" t="s">
         <v>472</v>
       </c>
-      <c r="D422" s="83"/>
-      <c r="E422" s="83"/>
-      <c r="F422" s="84"/>
+      <c r="D422" s="85"/>
+      <c r="E422" s="85"/>
+      <c r="F422" s="86"/>
     </row>
     <row r="423" spans="1:6" ht="27" thickBot="1">
-      <c r="C423" s="85" t="s">
+      <c r="C423" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D423" s="86"/>
-      <c r="E423" s="86"/>
-      <c r="F423" s="87"/>
+      <c r="D423" s="78"/>
+      <c r="E423" s="78"/>
+      <c r="F423" s="79"/>
     </row>
     <row r="424" spans="1:6" ht="18" thickBot="1">
       <c r="C424" s="33" t="s">
@@ -11661,12 +11658,12 @@
       <c r="F426" s="35"/>
     </row>
     <row r="427" spans="1:6" ht="27" thickBot="1">
-      <c r="C427" s="88" t="s">
+      <c r="C427" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D427" s="89"/>
-      <c r="E427" s="89"/>
-      <c r="F427" s="90"/>
+      <c r="D427" s="81"/>
+      <c r="E427" s="81"/>
+      <c r="F427" s="82"/>
     </row>
     <row r="428" spans="1:6" ht="18" thickBot="1">
       <c r="C428" s="37" t="s">
@@ -11711,12 +11708,12 @@
       </c>
     </row>
     <row r="431" spans="1:6" ht="27" thickBot="1">
-      <c r="C431" s="91" t="s">
+      <c r="C431" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D431" s="91"/>
-      <c r="E431" s="91"/>
-      <c r="F431" s="91"/>
+      <c r="D431" s="83"/>
+      <c r="E431" s="83"/>
+      <c r="F431" s="83"/>
     </row>
     <row r="432" spans="1:6" ht="18" thickBot="1">
       <c r="C432" s="37" t="s">
@@ -11733,7 +11730,7 @@
       </c>
     </row>
     <row r="433" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C433" s="78">
+      <c r="C433" s="73">
         <v>200</v>
       </c>
       <c r="D433" s="39" t="s">
@@ -11747,7 +11744,7 @@
       </c>
     </row>
     <row r="434" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C434" s="78"/>
+      <c r="C434" s="73"/>
       <c r="D434" s="39" t="s">
         <v>358</v>
       </c>
@@ -11759,7 +11756,7 @@
       </c>
     </row>
     <row r="435" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C435" s="78"/>
+      <c r="C435" s="73"/>
       <c r="D435" s="39" t="s">
         <v>360</v>
       </c>
@@ -11771,7 +11768,7 @@
       </c>
     </row>
     <row r="436" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C436" s="78"/>
+      <c r="C436" s="73"/>
       <c r="D436" s="39"/>
       <c r="E436" s="39"/>
       <c r="F436" s="39"/>
@@ -11792,28 +11789,28 @@
       <c r="B440" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C440" s="110" t="s">
+      <c r="C440" s="87" t="s">
         <v>484</v>
       </c>
-      <c r="D440" s="111"/>
-      <c r="E440" s="111"/>
-      <c r="F440" s="112"/>
+      <c r="D440" s="88"/>
+      <c r="E440" s="88"/>
+      <c r="F440" s="89"/>
     </row>
     <row r="441" spans="1:6" ht="18" thickBot="1">
-      <c r="C441" s="82" t="s">
+      <c r="C441" s="84" t="s">
         <v>480</v>
       </c>
-      <c r="D441" s="83"/>
-      <c r="E441" s="83"/>
-      <c r="F441" s="84"/>
+      <c r="D441" s="85"/>
+      <c r="E441" s="85"/>
+      <c r="F441" s="86"/>
     </row>
     <row r="442" spans="1:6" ht="27" thickBot="1">
-      <c r="C442" s="85" t="s">
+      <c r="C442" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D442" s="86"/>
-      <c r="E442" s="86"/>
-      <c r="F442" s="87"/>
+      <c r="D442" s="78"/>
+      <c r="E442" s="78"/>
+      <c r="F442" s="79"/>
     </row>
     <row r="443" spans="1:6" ht="18" thickBot="1">
       <c r="C443" s="33" t="s">
@@ -11854,12 +11851,12 @@
       <c r="F445" s="35"/>
     </row>
     <row r="446" spans="1:6" ht="27" thickBot="1">
-      <c r="C446" s="88" t="s">
+      <c r="C446" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D446" s="89"/>
-      <c r="E446" s="89"/>
-      <c r="F446" s="90"/>
+      <c r="D446" s="81"/>
+      <c r="E446" s="81"/>
+      <c r="F446" s="82"/>
     </row>
     <row r="447" spans="1:6" ht="18" thickBot="1">
       <c r="C447" s="37" t="s">
@@ -11896,12 +11893,12 @@
       <c r="F449" s="38"/>
     </row>
     <row r="450" spans="1:6" ht="27" thickBot="1">
-      <c r="C450" s="91" t="s">
+      <c r="C450" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D450" s="91"/>
-      <c r="E450" s="91"/>
-      <c r="F450" s="91"/>
+      <c r="D450" s="83"/>
+      <c r="E450" s="83"/>
+      <c r="F450" s="83"/>
     </row>
     <row r="451" spans="1:6" ht="18" thickBot="1">
       <c r="C451" s="37" t="s">
@@ -11918,7 +11915,7 @@
       </c>
     </row>
     <row r="452" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C452" s="78">
+      <c r="C452" s="73">
         <v>200</v>
       </c>
       <c r="D452" s="39" t="s">
@@ -11932,7 +11929,7 @@
       </c>
     </row>
     <row r="453" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C453" s="78"/>
+      <c r="C453" s="73"/>
       <c r="D453" s="39" t="s">
         <v>358</v>
       </c>
@@ -11944,7 +11941,7 @@
       </c>
     </row>
     <row r="454" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C454" s="78"/>
+      <c r="C454" s="73"/>
       <c r="D454" s="39" t="s">
         <v>360</v>
       </c>
@@ -11956,7 +11953,7 @@
       </c>
     </row>
     <row r="455" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C455" s="78"/>
+      <c r="C455" s="73"/>
       <c r="D455" s="39"/>
       <c r="E455" s="39"/>
       <c r="F455" s="39"/>
@@ -11977,28 +11974,28 @@
       <c r="B459" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C459" s="110" t="s">
+      <c r="C459" s="87" t="s">
         <v>479</v>
       </c>
-      <c r="D459" s="111"/>
-      <c r="E459" s="111"/>
-      <c r="F459" s="112"/>
+      <c r="D459" s="88"/>
+      <c r="E459" s="88"/>
+      <c r="F459" s="89"/>
     </row>
     <row r="460" spans="1:6" ht="18" thickBot="1">
-      <c r="C460" s="82" t="s">
+      <c r="C460" s="84" t="s">
         <v>481</v>
       </c>
-      <c r="D460" s="83"/>
-      <c r="E460" s="83"/>
-      <c r="F460" s="84"/>
+      <c r="D460" s="85"/>
+      <c r="E460" s="85"/>
+      <c r="F460" s="86"/>
     </row>
     <row r="461" spans="1:6" ht="27" thickBot="1">
-      <c r="C461" s="85" t="s">
+      <c r="C461" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D461" s="86"/>
-      <c r="E461" s="86"/>
-      <c r="F461" s="87"/>
+      <c r="D461" s="78"/>
+      <c r="E461" s="78"/>
+      <c r="F461" s="79"/>
     </row>
     <row r="462" spans="1:6" ht="18" thickBot="1">
       <c r="C462" s="33" t="s">
@@ -12039,12 +12036,12 @@
       <c r="F464" s="35"/>
     </row>
     <row r="465" spans="1:6" ht="27" thickBot="1">
-      <c r="C465" s="88" t="s">
+      <c r="C465" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D465" s="89"/>
-      <c r="E465" s="89"/>
-      <c r="F465" s="90"/>
+      <c r="D465" s="81"/>
+      <c r="E465" s="81"/>
+      <c r="F465" s="82"/>
     </row>
     <row r="466" spans="1:6" ht="18" thickBot="1">
       <c r="C466" s="37" t="s">
@@ -12089,12 +12086,12 @@
       </c>
     </row>
     <row r="469" spans="1:6" ht="27" thickBot="1">
-      <c r="C469" s="91" t="s">
+      <c r="C469" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D469" s="91"/>
-      <c r="E469" s="91"/>
-      <c r="F469" s="91"/>
+      <c r="D469" s="83"/>
+      <c r="E469" s="83"/>
+      <c r="F469" s="83"/>
     </row>
     <row r="470" spans="1:6" ht="18" thickBot="1">
       <c r="C470" s="37" t="s">
@@ -12111,7 +12108,7 @@
       </c>
     </row>
     <row r="471" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C471" s="78">
+      <c r="C471" s="73">
         <v>200</v>
       </c>
       <c r="D471" s="39" t="s">
@@ -12125,7 +12122,7 @@
       </c>
     </row>
     <row r="472" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C472" s="78"/>
+      <c r="C472" s="73"/>
       <c r="D472" s="39" t="s">
         <v>358</v>
       </c>
@@ -12137,7 +12134,7 @@
       </c>
     </row>
     <row r="473" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C473" s="78"/>
+      <c r="C473" s="73"/>
       <c r="D473" s="39" t="s">
         <v>360</v>
       </c>
@@ -12149,7 +12146,7 @@
       </c>
     </row>
     <row r="474" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C474" s="78"/>
+      <c r="C474" s="73"/>
       <c r="D474" s="39"/>
       <c r="E474" s="39"/>
       <c r="F474" s="39"/>
@@ -12170,28 +12167,28 @@
       <c r="B478" s="41" t="s">
         <v>167</v>
       </c>
-      <c r="C478" s="110" t="s">
+      <c r="C478" s="87" t="s">
         <v>485</v>
       </c>
-      <c r="D478" s="111"/>
-      <c r="E478" s="111"/>
-      <c r="F478" s="112"/>
+      <c r="D478" s="88"/>
+      <c r="E478" s="88"/>
+      <c r="F478" s="89"/>
     </row>
     <row r="479" spans="1:6" ht="18" thickBot="1">
-      <c r="C479" s="82" t="s">
+      <c r="C479" s="84" t="s">
         <v>486</v>
       </c>
-      <c r="D479" s="83"/>
-      <c r="E479" s="83"/>
-      <c r="F479" s="84"/>
+      <c r="D479" s="85"/>
+      <c r="E479" s="85"/>
+      <c r="F479" s="86"/>
     </row>
     <row r="480" spans="1:6" ht="27" thickBot="1">
-      <c r="C480" s="85" t="s">
+      <c r="C480" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D480" s="86"/>
-      <c r="E480" s="86"/>
-      <c r="F480" s="87"/>
+      <c r="D480" s="78"/>
+      <c r="E480" s="78"/>
+      <c r="F480" s="79"/>
     </row>
     <row r="481" spans="1:6" ht="18" thickBot="1">
       <c r="C481" s="33" t="s">
@@ -12232,12 +12229,12 @@
       <c r="F483" s="35"/>
     </row>
     <row r="484" spans="1:6" ht="27" thickBot="1">
-      <c r="C484" s="88" t="s">
+      <c r="C484" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D484" s="89"/>
-      <c r="E484" s="89"/>
-      <c r="F484" s="90"/>
+      <c r="D484" s="81"/>
+      <c r="E484" s="81"/>
+      <c r="F484" s="82"/>
     </row>
     <row r="485" spans="1:6" ht="18" thickBot="1">
       <c r="C485" s="37" t="s">
@@ -12282,12 +12279,12 @@
       </c>
     </row>
     <row r="488" spans="1:6" ht="27" thickBot="1">
-      <c r="C488" s="91" t="s">
+      <c r="C488" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D488" s="91"/>
-      <c r="E488" s="91"/>
-      <c r="F488" s="91"/>
+      <c r="D488" s="83"/>
+      <c r="E488" s="83"/>
+      <c r="F488" s="83"/>
     </row>
     <row r="489" spans="1:6" ht="18" thickBot="1">
       <c r="C489" s="37" t="s">
@@ -12304,7 +12301,7 @@
       </c>
     </row>
     <row r="490" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C490" s="78">
+      <c r="C490" s="73">
         <v>200</v>
       </c>
       <c r="D490" s="39" t="s">
@@ -12318,7 +12315,7 @@
       </c>
     </row>
     <row r="491" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C491" s="78"/>
+      <c r="C491" s="73"/>
       <c r="D491" s="39" t="s">
         <v>358</v>
       </c>
@@ -12330,7 +12327,7 @@
       </c>
     </row>
     <row r="492" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C492" s="78"/>
+      <c r="C492" s="73"/>
       <c r="D492" s="39" t="s">
         <v>360</v>
       </c>
@@ -12342,7 +12339,7 @@
       </c>
     </row>
     <row r="493" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C493" s="78"/>
+      <c r="C493" s="73"/>
       <c r="D493" s="39"/>
       <c r="E493" s="39"/>
       <c r="F493" s="39"/>
@@ -12370,28 +12367,28 @@
       <c r="B497" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="C497" s="107" t="s">
+      <c r="C497" s="90" t="s">
         <v>487</v>
       </c>
-      <c r="D497" s="108"/>
-      <c r="E497" s="108"/>
-      <c r="F497" s="109"/>
+      <c r="D497" s="91"/>
+      <c r="E497" s="91"/>
+      <c r="F497" s="92"/>
     </row>
     <row r="498" spans="1:6" ht="18" thickBot="1">
-      <c r="C498" s="82" t="s">
+      <c r="C498" s="84" t="s">
         <v>488</v>
       </c>
-      <c r="D498" s="83"/>
-      <c r="E498" s="83"/>
-      <c r="F498" s="84"/>
+      <c r="D498" s="85"/>
+      <c r="E498" s="85"/>
+      <c r="F498" s="86"/>
     </row>
     <row r="499" spans="1:6" ht="27" thickBot="1">
-      <c r="C499" s="85" t="s">
+      <c r="C499" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D499" s="86"/>
-      <c r="E499" s="86"/>
-      <c r="F499" s="87"/>
+      <c r="D499" s="78"/>
+      <c r="E499" s="78"/>
+      <c r="F499" s="79"/>
     </row>
     <row r="500" spans="1:6" ht="18" thickBot="1">
       <c r="C500" s="33" t="s">
@@ -12432,12 +12429,12 @@
       <c r="F502" s="35"/>
     </row>
     <row r="503" spans="1:6" ht="27" thickBot="1">
-      <c r="C503" s="88" t="s">
+      <c r="C503" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D503" s="89"/>
-      <c r="E503" s="89"/>
-      <c r="F503" s="90"/>
+      <c r="D503" s="81"/>
+      <c r="E503" s="81"/>
+      <c r="F503" s="82"/>
     </row>
     <row r="504" spans="1:6" ht="18" thickBot="1">
       <c r="C504" s="37" t="s">
@@ -12460,12 +12457,12 @@
       <c r="F505" s="38"/>
     </row>
     <row r="506" spans="1:6" ht="27" thickBot="1">
-      <c r="C506" s="91" t="s">
+      <c r="C506" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D506" s="91"/>
-      <c r="E506" s="91"/>
-      <c r="F506" s="91"/>
+      <c r="D506" s="83"/>
+      <c r="E506" s="83"/>
+      <c r="F506" s="83"/>
     </row>
     <row r="507" spans="1:6" ht="18" thickBot="1">
       <c r="C507" s="37" t="s">
@@ -12482,7 +12479,7 @@
       </c>
     </row>
     <row r="508" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C508" s="78">
+      <c r="C508" s="73">
         <v>200</v>
       </c>
       <c r="D508" s="39" t="s">
@@ -12496,7 +12493,7 @@
       </c>
     </row>
     <row r="509" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C509" s="78"/>
+      <c r="C509" s="73"/>
       <c r="D509" s="39" t="s">
         <v>358</v>
       </c>
@@ -12508,7 +12505,7 @@
       </c>
     </row>
     <row r="510" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C510" s="78"/>
+      <c r="C510" s="73"/>
       <c r="D510" s="39" t="s">
         <v>360</v>
       </c>
@@ -12520,7 +12517,7 @@
       </c>
     </row>
     <row r="511" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C511" s="78"/>
+      <c r="C511" s="73"/>
       <c r="D511" s="39"/>
       <c r="E511" s="39"/>
       <c r="F511" s="39"/>
@@ -12541,28 +12538,28 @@
       <c r="B515" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="C515" s="107" t="s">
+      <c r="C515" s="90" t="s">
         <v>489</v>
       </c>
-      <c r="D515" s="108"/>
-      <c r="E515" s="108"/>
-      <c r="F515" s="109"/>
+      <c r="D515" s="91"/>
+      <c r="E515" s="91"/>
+      <c r="F515" s="92"/>
     </row>
     <row r="516" spans="1:6" ht="18" thickBot="1">
-      <c r="C516" s="82" t="s">
+      <c r="C516" s="84" t="s">
         <v>490</v>
       </c>
-      <c r="D516" s="83"/>
-      <c r="E516" s="83"/>
-      <c r="F516" s="84"/>
+      <c r="D516" s="85"/>
+      <c r="E516" s="85"/>
+      <c r="F516" s="86"/>
     </row>
     <row r="517" spans="1:6" ht="27" thickBot="1">
-      <c r="C517" s="85" t="s">
+      <c r="C517" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D517" s="86"/>
-      <c r="E517" s="86"/>
-      <c r="F517" s="87"/>
+      <c r="D517" s="78"/>
+      <c r="E517" s="78"/>
+      <c r="F517" s="79"/>
     </row>
     <row r="518" spans="1:6" ht="18" thickBot="1">
       <c r="C518" s="33" t="s">
@@ -12603,12 +12600,12 @@
       <c r="F520" s="35"/>
     </row>
     <row r="521" spans="1:6" ht="27" thickBot="1">
-      <c r="C521" s="88" t="s">
+      <c r="C521" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D521" s="89"/>
-      <c r="E521" s="89"/>
-      <c r="F521" s="90"/>
+      <c r="D521" s="81"/>
+      <c r="E521" s="81"/>
+      <c r="F521" s="82"/>
     </row>
     <row r="522" spans="1:6" ht="18" thickBot="1">
       <c r="C522" s="37" t="s">
@@ -12639,12 +12636,12 @@
       </c>
     </row>
     <row r="524" spans="1:6" ht="27" thickBot="1">
-      <c r="C524" s="91" t="s">
+      <c r="C524" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D524" s="91"/>
-      <c r="E524" s="91"/>
-      <c r="F524" s="91"/>
+      <c r="D524" s="83"/>
+      <c r="E524" s="83"/>
+      <c r="F524" s="83"/>
     </row>
     <row r="525" spans="1:6" ht="18" thickBot="1">
       <c r="C525" s="37" t="s">
@@ -12661,7 +12658,7 @@
       </c>
     </row>
     <row r="526" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C526" s="78">
+      <c r="C526" s="73">
         <v>200</v>
       </c>
       <c r="D526" s="39" t="s">
@@ -12675,7 +12672,7 @@
       </c>
     </row>
     <row r="527" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C527" s="78"/>
+      <c r="C527" s="73"/>
       <c r="D527" s="39" t="s">
         <v>358</v>
       </c>
@@ -12687,7 +12684,7 @@
       </c>
     </row>
     <row r="528" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C528" s="78"/>
+      <c r="C528" s="73"/>
       <c r="D528" s="39" t="s">
         <v>360</v>
       </c>
@@ -12699,7 +12696,7 @@
       </c>
     </row>
     <row r="529" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C529" s="78"/>
+      <c r="C529" s="73"/>
       <c r="D529" s="39"/>
       <c r="E529" s="39"/>
       <c r="F529" s="39"/>
@@ -12720,28 +12717,28 @@
       <c r="B533" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="C533" s="107" t="s">
+      <c r="C533" s="90" t="s">
         <v>493</v>
       </c>
-      <c r="D533" s="108"/>
-      <c r="E533" s="108"/>
-      <c r="F533" s="109"/>
+      <c r="D533" s="91"/>
+      <c r="E533" s="91"/>
+      <c r="F533" s="92"/>
     </row>
     <row r="534" spans="1:6" ht="18" thickBot="1">
-      <c r="C534" s="82" t="s">
+      <c r="C534" s="84" t="s">
         <v>494</v>
       </c>
-      <c r="D534" s="83"/>
-      <c r="E534" s="83"/>
-      <c r="F534" s="84"/>
+      <c r="D534" s="85"/>
+      <c r="E534" s="85"/>
+      <c r="F534" s="86"/>
     </row>
     <row r="535" spans="1:6" ht="27" thickBot="1">
-      <c r="C535" s="85" t="s">
+      <c r="C535" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D535" s="86"/>
-      <c r="E535" s="86"/>
-      <c r="F535" s="87"/>
+      <c r="D535" s="78"/>
+      <c r="E535" s="78"/>
+      <c r="F535" s="79"/>
     </row>
     <row r="536" spans="1:6" ht="18" thickBot="1">
       <c r="C536" s="33" t="s">
@@ -12782,12 +12779,12 @@
       <c r="F538" s="35"/>
     </row>
     <row r="539" spans="1:6" ht="27" thickBot="1">
-      <c r="C539" s="88" t="s">
+      <c r="C539" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D539" s="89"/>
-      <c r="E539" s="89"/>
-      <c r="F539" s="90"/>
+      <c r="D539" s="81"/>
+      <c r="E539" s="81"/>
+      <c r="F539" s="82"/>
     </row>
     <row r="540" spans="1:6" ht="18" thickBot="1">
       <c r="C540" s="37" t="s">
@@ -12834,12 +12831,12 @@
       </c>
     </row>
     <row r="543" spans="1:6" ht="27" thickBot="1">
-      <c r="C543" s="91" t="s">
+      <c r="C543" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D543" s="91"/>
-      <c r="E543" s="91"/>
-      <c r="F543" s="91"/>
+      <c r="D543" s="83"/>
+      <c r="E543" s="83"/>
+      <c r="F543" s="83"/>
     </row>
     <row r="544" spans="1:6" ht="18" thickBot="1">
       <c r="C544" s="37" t="s">
@@ -12856,7 +12853,7 @@
       </c>
     </row>
     <row r="545" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C545" s="78">
+      <c r="C545" s="73">
         <v>200</v>
       </c>
       <c r="D545" s="39" t="s">
@@ -12870,7 +12867,7 @@
       </c>
     </row>
     <row r="546" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C546" s="78"/>
+      <c r="C546" s="73"/>
       <c r="D546" s="39" t="s">
         <v>358</v>
       </c>
@@ -12882,7 +12879,7 @@
       </c>
     </row>
     <row r="547" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C547" s="78"/>
+      <c r="C547" s="73"/>
       <c r="D547" s="39" t="s">
         <v>360</v>
       </c>
@@ -12894,7 +12891,7 @@
       </c>
     </row>
     <row r="548" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C548" s="78"/>
+      <c r="C548" s="73"/>
       <c r="D548" s="39"/>
       <c r="E548" s="39"/>
       <c r="F548" s="39"/>
@@ -12915,28 +12912,28 @@
       <c r="B552" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="C552" s="107" t="s">
+      <c r="C552" s="90" t="s">
         <v>495</v>
       </c>
-      <c r="D552" s="108"/>
-      <c r="E552" s="108"/>
-      <c r="F552" s="109"/>
+      <c r="D552" s="91"/>
+      <c r="E552" s="91"/>
+      <c r="F552" s="92"/>
     </row>
     <row r="553" spans="1:6" ht="18" thickBot="1">
-      <c r="C553" s="82" t="s">
+      <c r="C553" s="84" t="s">
         <v>496</v>
       </c>
-      <c r="D553" s="83"/>
-      <c r="E553" s="83"/>
-      <c r="F553" s="84"/>
+      <c r="D553" s="85"/>
+      <c r="E553" s="85"/>
+      <c r="F553" s="86"/>
     </row>
     <row r="554" spans="1:6" ht="27" thickBot="1">
-      <c r="C554" s="85" t="s">
+      <c r="C554" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D554" s="86"/>
-      <c r="E554" s="86"/>
-      <c r="F554" s="87"/>
+      <c r="D554" s="78"/>
+      <c r="E554" s="78"/>
+      <c r="F554" s="79"/>
     </row>
     <row r="555" spans="1:6" ht="18" thickBot="1">
       <c r="C555" s="33" t="s">
@@ -12977,12 +12974,12 @@
       <c r="F557" s="35"/>
     </row>
     <row r="558" spans="1:6" ht="27" thickBot="1">
-      <c r="C558" s="88" t="s">
+      <c r="C558" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D558" s="89"/>
-      <c r="E558" s="89"/>
-      <c r="F558" s="90"/>
+      <c r="D558" s="81"/>
+      <c r="E558" s="81"/>
+      <c r="F558" s="82"/>
     </row>
     <row r="559" spans="1:6" ht="18" thickBot="1">
       <c r="C559" s="37" t="s">
@@ -13027,12 +13024,12 @@
       </c>
     </row>
     <row r="562" spans="1:6" ht="27" thickBot="1">
-      <c r="C562" s="91" t="s">
+      <c r="C562" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D562" s="91"/>
-      <c r="E562" s="91"/>
-      <c r="F562" s="91"/>
+      <c r="D562" s="83"/>
+      <c r="E562" s="83"/>
+      <c r="F562" s="83"/>
     </row>
     <row r="563" spans="1:6" ht="18" thickBot="1">
       <c r="C563" s="37" t="s">
@@ -13049,7 +13046,7 @@
       </c>
     </row>
     <row r="564" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C564" s="78">
+      <c r="C564" s="73">
         <v>200</v>
       </c>
       <c r="D564" s="39" t="s">
@@ -13063,7 +13060,7 @@
       </c>
     </row>
     <row r="565" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C565" s="78"/>
+      <c r="C565" s="73"/>
       <c r="D565" s="39" t="s">
         <v>358</v>
       </c>
@@ -13075,7 +13072,7 @@
       </c>
     </row>
     <row r="566" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C566" s="78"/>
+      <c r="C566" s="73"/>
       <c r="D566" s="39" t="s">
         <v>360</v>
       </c>
@@ -13087,7 +13084,7 @@
       </c>
     </row>
     <row r="567" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C567" s="78"/>
+      <c r="C567" s="73"/>
       <c r="D567" s="39"/>
       <c r="E567" s="39"/>
       <c r="F567" s="39"/>
@@ -13108,28 +13105,28 @@
       <c r="B571" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="C571" s="104" t="s">
+      <c r="C571" s="93" t="s">
         <v>497</v>
       </c>
-      <c r="D571" s="105"/>
-      <c r="E571" s="105"/>
-      <c r="F571" s="106"/>
+      <c r="D571" s="94"/>
+      <c r="E571" s="94"/>
+      <c r="F571" s="95"/>
     </row>
     <row r="572" spans="1:6" ht="18" thickBot="1">
-      <c r="C572" s="82" t="s">
+      <c r="C572" s="84" t="s">
         <v>172</v>
       </c>
-      <c r="D572" s="83"/>
-      <c r="E572" s="83"/>
-      <c r="F572" s="84"/>
+      <c r="D572" s="85"/>
+      <c r="E572" s="85"/>
+      <c r="F572" s="86"/>
     </row>
     <row r="573" spans="1:6" ht="27" thickBot="1">
-      <c r="C573" s="85" t="s">
+      <c r="C573" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D573" s="86"/>
-      <c r="E573" s="86"/>
-      <c r="F573" s="87"/>
+      <c r="D573" s="78"/>
+      <c r="E573" s="78"/>
+      <c r="F573" s="79"/>
     </row>
     <row r="574" spans="1:6" ht="18" thickBot="1">
       <c r="C574" s="33" t="s">
@@ -13170,12 +13167,12 @@
       <c r="F576" s="35"/>
     </row>
     <row r="577" spans="1:6" ht="27" thickBot="1">
-      <c r="C577" s="88" t="s">
+      <c r="C577" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D577" s="89"/>
-      <c r="E577" s="89"/>
-      <c r="F577" s="90"/>
+      <c r="D577" s="81"/>
+      <c r="E577" s="81"/>
+      <c r="F577" s="82"/>
     </row>
     <row r="578" spans="1:6" ht="18" thickBot="1">
       <c r="C578" s="37" t="s">
@@ -13220,12 +13217,12 @@
       </c>
     </row>
     <row r="581" spans="1:6" ht="27" thickBot="1">
-      <c r="C581" s="91" t="s">
+      <c r="C581" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D581" s="91"/>
-      <c r="E581" s="91"/>
-      <c r="F581" s="91"/>
+      <c r="D581" s="83"/>
+      <c r="E581" s="83"/>
+      <c r="F581" s="83"/>
     </row>
     <row r="582" spans="1:6" ht="18" thickBot="1">
       <c r="C582" s="37" t="s">
@@ -13242,7 +13239,7 @@
       </c>
     </row>
     <row r="583" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C583" s="78">
+      <c r="C583" s="73">
         <v>200</v>
       </c>
       <c r="D583" s="39" t="s">
@@ -13256,7 +13253,7 @@
       </c>
     </row>
     <row r="584" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C584" s="78"/>
+      <c r="C584" s="73"/>
       <c r="D584" s="39" t="s">
         <v>358</v>
       </c>
@@ -13268,7 +13265,7 @@
       </c>
     </row>
     <row r="585" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C585" s="78"/>
+      <c r="C585" s="73"/>
       <c r="D585" s="39" t="s">
         <v>360</v>
       </c>
@@ -13280,7 +13277,7 @@
       </c>
     </row>
     <row r="586" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C586" s="78"/>
+      <c r="C586" s="73"/>
       <c r="D586" s="39"/>
       <c r="E586" s="39"/>
       <c r="F586" s="39"/>
@@ -13301,28 +13298,28 @@
       <c r="B590" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="C590" s="104" t="s">
+      <c r="C590" s="93" t="s">
         <v>498</v>
       </c>
-      <c r="D590" s="105"/>
-      <c r="E590" s="105"/>
-      <c r="F590" s="106"/>
+      <c r="D590" s="94"/>
+      <c r="E590" s="94"/>
+      <c r="F590" s="95"/>
     </row>
     <row r="591" spans="1:6" ht="18" thickBot="1">
-      <c r="C591" s="82" t="s">
+      <c r="C591" s="84" t="s">
         <v>499</v>
       </c>
-      <c r="D591" s="83"/>
-      <c r="E591" s="83"/>
-      <c r="F591" s="84"/>
+      <c r="D591" s="85"/>
+      <c r="E591" s="85"/>
+      <c r="F591" s="86"/>
     </row>
     <row r="592" spans="1:6" ht="27" thickBot="1">
-      <c r="C592" s="85" t="s">
+      <c r="C592" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D592" s="86"/>
-      <c r="E592" s="86"/>
-      <c r="F592" s="87"/>
+      <c r="D592" s="78"/>
+      <c r="E592" s="78"/>
+      <c r="F592" s="79"/>
     </row>
     <row r="593" spans="3:6" ht="18" thickBot="1">
       <c r="C593" s="33" t="s">
@@ -13363,12 +13360,12 @@
       <c r="F595" s="35"/>
     </row>
     <row r="596" spans="3:6" ht="27" thickBot="1">
-      <c r="C596" s="88" t="s">
+      <c r="C596" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D596" s="89"/>
-      <c r="E596" s="89"/>
-      <c r="F596" s="90"/>
+      <c r="D596" s="81"/>
+      <c r="E596" s="81"/>
+      <c r="F596" s="82"/>
     </row>
     <row r="597" spans="3:6" ht="18" thickBot="1">
       <c r="C597" s="37" t="s">
@@ -13405,12 +13402,12 @@
       <c r="F599" s="38"/>
     </row>
     <row r="600" spans="3:6" ht="27" thickBot="1">
-      <c r="C600" s="91" t="s">
+      <c r="C600" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D600" s="91"/>
-      <c r="E600" s="91"/>
-      <c r="F600" s="91"/>
+      <c r="D600" s="83"/>
+      <c r="E600" s="83"/>
+      <c r="F600" s="83"/>
     </row>
     <row r="601" spans="3:6" ht="18" thickBot="1">
       <c r="C601" s="37" t="s">
@@ -13427,7 +13424,7 @@
       </c>
     </row>
     <row r="602" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C602" s="78">
+      <c r="C602" s="73">
         <v>200</v>
       </c>
       <c r="D602" s="39" t="s">
@@ -13441,7 +13438,7 @@
       </c>
     </row>
     <row r="603" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C603" s="78"/>
+      <c r="C603" s="73"/>
       <c r="D603" s="39" t="s">
         <v>358</v>
       </c>
@@ -13453,7 +13450,7 @@
       </c>
     </row>
     <row r="604" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C604" s="78"/>
+      <c r="C604" s="73"/>
       <c r="D604" s="39" t="s">
         <v>360</v>
       </c>
@@ -13465,7 +13462,7 @@
       </c>
     </row>
     <row r="605" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C605" s="78"/>
+      <c r="C605" s="73"/>
       <c r="D605" s="39"/>
       <c r="E605" s="39"/>
       <c r="F605" s="39"/>
@@ -13486,28 +13483,28 @@
       <c r="B609" s="46" t="s">
         <v>171</v>
       </c>
-      <c r="C609" s="104" t="s">
+      <c r="C609" s="93" t="s">
         <v>500</v>
       </c>
-      <c r="D609" s="105"/>
-      <c r="E609" s="105"/>
-      <c r="F609" s="106"/>
+      <c r="D609" s="94"/>
+      <c r="E609" s="94"/>
+      <c r="F609" s="95"/>
     </row>
     <row r="610" spans="1:6" ht="18" thickBot="1">
-      <c r="C610" s="82" t="s">
+      <c r="C610" s="84" t="s">
         <v>501</v>
       </c>
-      <c r="D610" s="83"/>
-      <c r="E610" s="83"/>
-      <c r="F610" s="84"/>
+      <c r="D610" s="85"/>
+      <c r="E610" s="85"/>
+      <c r="F610" s="86"/>
     </row>
     <row r="611" spans="1:6" ht="27" thickBot="1">
-      <c r="C611" s="85" t="s">
+      <c r="C611" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D611" s="86"/>
-      <c r="E611" s="86"/>
-      <c r="F611" s="87"/>
+      <c r="D611" s="78"/>
+      <c r="E611" s="78"/>
+      <c r="F611" s="79"/>
     </row>
     <row r="612" spans="1:6" ht="18" thickBot="1">
       <c r="C612" s="33" t="s">
@@ -13548,12 +13545,12 @@
       <c r="F614" s="35"/>
     </row>
     <row r="615" spans="1:6" ht="27" thickBot="1">
-      <c r="C615" s="88" t="s">
+      <c r="C615" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D615" s="89"/>
-      <c r="E615" s="89"/>
-      <c r="F615" s="90"/>
+      <c r="D615" s="81"/>
+      <c r="E615" s="81"/>
+      <c r="F615" s="82"/>
     </row>
     <row r="616" spans="1:6" ht="18" thickBot="1">
       <c r="C616" s="37" t="s">
@@ -13598,12 +13595,12 @@
       </c>
     </row>
     <row r="619" spans="1:6" ht="27" thickBot="1">
-      <c r="C619" s="91" t="s">
+      <c r="C619" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D619" s="91"/>
-      <c r="E619" s="91"/>
-      <c r="F619" s="91"/>
+      <c r="D619" s="83"/>
+      <c r="E619" s="83"/>
+      <c r="F619" s="83"/>
     </row>
     <row r="620" spans="1:6" ht="18" thickBot="1">
       <c r="C620" s="37" t="s">
@@ -13620,7 +13617,7 @@
       </c>
     </row>
     <row r="621" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C621" s="78">
+      <c r="C621" s="73">
         <v>200</v>
       </c>
       <c r="D621" s="39" t="s">
@@ -13634,7 +13631,7 @@
       </c>
     </row>
     <row r="622" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C622" s="78"/>
+      <c r="C622" s="73"/>
       <c r="D622" s="39" t="s">
         <v>358</v>
       </c>
@@ -13646,7 +13643,7 @@
       </c>
     </row>
     <row r="623" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C623" s="78"/>
+      <c r="C623" s="73"/>
       <c r="D623" s="39" t="s">
         <v>360</v>
       </c>
@@ -13658,7 +13655,7 @@
       </c>
     </row>
     <row r="624" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C624" s="78"/>
+      <c r="C624" s="73"/>
       <c r="D624" s="39"/>
       <c r="E624" s="39"/>
       <c r="F624" s="39"/>
@@ -13679,28 +13676,28 @@
       <c r="B628" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="C628" s="101" t="s">
+      <c r="C628" s="96" t="s">
         <v>504</v>
       </c>
-      <c r="D628" s="102"/>
-      <c r="E628" s="102"/>
-      <c r="F628" s="103"/>
+      <c r="D628" s="97"/>
+      <c r="E628" s="97"/>
+      <c r="F628" s="98"/>
     </row>
     <row r="629" spans="1:6" ht="18" thickBot="1">
-      <c r="C629" s="82" t="s">
+      <c r="C629" s="84" t="s">
         <v>505</v>
       </c>
-      <c r="D629" s="83"/>
-      <c r="E629" s="83"/>
-      <c r="F629" s="84"/>
+      <c r="D629" s="85"/>
+      <c r="E629" s="85"/>
+      <c r="F629" s="86"/>
     </row>
     <row r="630" spans="1:6" ht="27" thickBot="1">
-      <c r="C630" s="85" t="s">
+      <c r="C630" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D630" s="86"/>
-      <c r="E630" s="86"/>
-      <c r="F630" s="87"/>
+      <c r="D630" s="78"/>
+      <c r="E630" s="78"/>
+      <c r="F630" s="79"/>
     </row>
     <row r="631" spans="1:6" ht="18" thickBot="1">
       <c r="C631" s="33" t="s">
@@ -13741,12 +13738,12 @@
       <c r="F633" s="35"/>
     </row>
     <row r="634" spans="1:6" ht="27" thickBot="1">
-      <c r="C634" s="88" t="s">
+      <c r="C634" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D634" s="89"/>
-      <c r="E634" s="89"/>
-      <c r="F634" s="90"/>
+      <c r="D634" s="81"/>
+      <c r="E634" s="81"/>
+      <c r="F634" s="82"/>
     </row>
     <row r="635" spans="1:6" ht="18" thickBot="1">
       <c r="C635" s="37" t="s">
@@ -13783,12 +13780,12 @@
       <c r="F637" s="38"/>
     </row>
     <row r="638" spans="1:6" ht="27" thickBot="1">
-      <c r="C638" s="91" t="s">
+      <c r="C638" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D638" s="91"/>
-      <c r="E638" s="91"/>
-      <c r="F638" s="91"/>
+      <c r="D638" s="83"/>
+      <c r="E638" s="83"/>
+      <c r="F638" s="83"/>
     </row>
     <row r="639" spans="1:6" ht="18" thickBot="1">
       <c r="C639" s="37" t="s">
@@ -13805,7 +13802,7 @@
       </c>
     </row>
     <row r="640" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C640" s="78">
+      <c r="C640" s="73">
         <v>200</v>
       </c>
       <c r="D640" s="39" t="s">
@@ -13819,7 +13816,7 @@
       </c>
     </row>
     <row r="641" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C641" s="78"/>
+      <c r="C641" s="73"/>
       <c r="D641" s="39" t="s">
         <v>358</v>
       </c>
@@ -13831,7 +13828,7 @@
       </c>
     </row>
     <row r="642" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C642" s="78"/>
+      <c r="C642" s="73"/>
       <c r="D642" s="39" t="s">
         <v>360</v>
       </c>
@@ -13843,7 +13840,7 @@
       </c>
     </row>
     <row r="643" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C643" s="78"/>
+      <c r="C643" s="73"/>
       <c r="D643" s="39"/>
       <c r="E643" s="39"/>
       <c r="F643" s="39"/>
@@ -13864,28 +13861,28 @@
       <c r="B647" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="C647" s="101" t="s">
+      <c r="C647" s="96" t="s">
         <v>506</v>
       </c>
-      <c r="D647" s="102"/>
-      <c r="E647" s="102"/>
-      <c r="F647" s="103"/>
+      <c r="D647" s="97"/>
+      <c r="E647" s="97"/>
+      <c r="F647" s="98"/>
     </row>
     <row r="648" spans="1:6" ht="18" thickBot="1">
-      <c r="C648" s="82" t="s">
+      <c r="C648" s="84" t="s">
         <v>507</v>
       </c>
-      <c r="D648" s="83"/>
-      <c r="E648" s="83"/>
-      <c r="F648" s="84"/>
+      <c r="D648" s="85"/>
+      <c r="E648" s="85"/>
+      <c r="F648" s="86"/>
     </row>
     <row r="649" spans="1:6" ht="27" thickBot="1">
-      <c r="C649" s="85" t="s">
+      <c r="C649" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D649" s="86"/>
-      <c r="E649" s="86"/>
-      <c r="F649" s="87"/>
+      <c r="D649" s="78"/>
+      <c r="E649" s="78"/>
+      <c r="F649" s="79"/>
     </row>
     <row r="650" spans="1:6" ht="18" thickBot="1">
       <c r="C650" s="33" t="s">
@@ -13926,12 +13923,12 @@
       <c r="F652" s="35"/>
     </row>
     <row r="653" spans="1:6" ht="27" thickBot="1">
-      <c r="C653" s="88" t="s">
+      <c r="C653" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D653" s="89"/>
-      <c r="E653" s="89"/>
-      <c r="F653" s="90"/>
+      <c r="D653" s="81"/>
+      <c r="E653" s="81"/>
+      <c r="F653" s="82"/>
     </row>
     <row r="654" spans="1:6" ht="18" thickBot="1">
       <c r="C654" s="37" t="s">
@@ -13976,12 +13973,12 @@
       </c>
     </row>
     <row r="657" spans="1:6" ht="27" thickBot="1">
-      <c r="C657" s="91" t="s">
+      <c r="C657" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D657" s="91"/>
-      <c r="E657" s="91"/>
-      <c r="F657" s="91"/>
+      <c r="D657" s="83"/>
+      <c r="E657" s="83"/>
+      <c r="F657" s="83"/>
     </row>
     <row r="658" spans="1:6" ht="18" thickBot="1">
       <c r="C658" s="37" t="s">
@@ -13998,7 +13995,7 @@
       </c>
     </row>
     <row r="659" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C659" s="78">
+      <c r="C659" s="73">
         <v>200</v>
       </c>
       <c r="D659" s="39" t="s">
@@ -14012,7 +14009,7 @@
       </c>
     </row>
     <row r="660" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C660" s="78"/>
+      <c r="C660" s="73"/>
       <c r="D660" s="39" t="s">
         <v>358</v>
       </c>
@@ -14024,7 +14021,7 @@
       </c>
     </row>
     <row r="661" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C661" s="78"/>
+      <c r="C661" s="73"/>
       <c r="D661" s="39" t="s">
         <v>360</v>
       </c>
@@ -14036,7 +14033,7 @@
       </c>
     </row>
     <row r="662" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C662" s="78"/>
+      <c r="C662" s="73"/>
       <c r="D662" s="39"/>
       <c r="E662" s="39"/>
       <c r="F662" s="39"/>
@@ -14057,28 +14054,28 @@
       <c r="B666" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="C666" s="101" t="s">
+      <c r="C666" s="96" t="s">
         <v>510</v>
       </c>
-      <c r="D666" s="102"/>
-      <c r="E666" s="102"/>
-      <c r="F666" s="103"/>
+      <c r="D666" s="97"/>
+      <c r="E666" s="97"/>
+      <c r="F666" s="98"/>
     </row>
     <row r="667" spans="1:6" ht="18" thickBot="1">
-      <c r="C667" s="82" t="s">
+      <c r="C667" s="84" t="s">
         <v>511</v>
       </c>
-      <c r="D667" s="83"/>
-      <c r="E667" s="83"/>
-      <c r="F667" s="84"/>
+      <c r="D667" s="85"/>
+      <c r="E667" s="85"/>
+      <c r="F667" s="86"/>
     </row>
     <row r="668" spans="1:6" ht="27" thickBot="1">
-      <c r="C668" s="85" t="s">
+      <c r="C668" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D668" s="86"/>
-      <c r="E668" s="86"/>
-      <c r="F668" s="87"/>
+      <c r="D668" s="78"/>
+      <c r="E668" s="78"/>
+      <c r="F668" s="79"/>
     </row>
     <row r="669" spans="1:6" ht="18" thickBot="1">
       <c r="C669" s="33" t="s">
@@ -14119,12 +14116,12 @@
       <c r="F671" s="35"/>
     </row>
     <row r="672" spans="1:6" ht="27" thickBot="1">
-      <c r="C672" s="88" t="s">
+      <c r="C672" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D672" s="89"/>
-      <c r="E672" s="89"/>
-      <c r="F672" s="90"/>
+      <c r="D672" s="81"/>
+      <c r="E672" s="81"/>
+      <c r="F672" s="82"/>
     </row>
     <row r="673" spans="1:6" ht="18" thickBot="1">
       <c r="C673" s="37" t="s">
@@ -14185,12 +14182,12 @@
       </c>
     </row>
     <row r="677" spans="1:6" ht="27" thickBot="1">
-      <c r="C677" s="91" t="s">
+      <c r="C677" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D677" s="91"/>
-      <c r="E677" s="91"/>
-      <c r="F677" s="91"/>
+      <c r="D677" s="83"/>
+      <c r="E677" s="83"/>
+      <c r="F677" s="83"/>
     </row>
     <row r="678" spans="1:6" ht="18" thickBot="1">
       <c r="C678" s="37" t="s">
@@ -14207,7 +14204,7 @@
       </c>
     </row>
     <row r="679" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C679" s="78">
+      <c r="C679" s="73">
         <v>200</v>
       </c>
       <c r="D679" s="39" t="s">
@@ -14221,7 +14218,7 @@
       </c>
     </row>
     <row r="680" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C680" s="78"/>
+      <c r="C680" s="73"/>
       <c r="D680" s="39" t="s">
         <v>358</v>
       </c>
@@ -14233,7 +14230,7 @@
       </c>
     </row>
     <row r="681" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C681" s="78"/>
+      <c r="C681" s="73"/>
       <c r="D681" s="39" t="s">
         <v>360</v>
       </c>
@@ -14245,7 +14242,7 @@
       </c>
     </row>
     <row r="682" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C682" s="78"/>
+      <c r="C682" s="73"/>
       <c r="D682" s="39"/>
       <c r="E682" s="39"/>
       <c r="F682" s="39"/>
@@ -14266,28 +14263,28 @@
       <c r="B686" s="47" t="s">
         <v>173</v>
       </c>
-      <c r="C686" s="101" t="s">
+      <c r="C686" s="96" t="s">
         <v>513</v>
       </c>
-      <c r="D686" s="102"/>
-      <c r="E686" s="102"/>
-      <c r="F686" s="103"/>
+      <c r="D686" s="97"/>
+      <c r="E686" s="97"/>
+      <c r="F686" s="98"/>
     </row>
     <row r="687" spans="1:6" ht="18" thickBot="1">
-      <c r="C687" s="82" t="s">
+      <c r="C687" s="84" t="s">
         <v>514</v>
       </c>
-      <c r="D687" s="83"/>
-      <c r="E687" s="83"/>
-      <c r="F687" s="84"/>
+      <c r="D687" s="85"/>
+      <c r="E687" s="85"/>
+      <c r="F687" s="86"/>
     </row>
     <row r="688" spans="1:6" ht="27" thickBot="1">
-      <c r="C688" s="85" t="s">
+      <c r="C688" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D688" s="86"/>
-      <c r="E688" s="86"/>
-      <c r="F688" s="87"/>
+      <c r="D688" s="78"/>
+      <c r="E688" s="78"/>
+      <c r="F688" s="79"/>
     </row>
     <row r="689" spans="3:6" ht="18" thickBot="1">
       <c r="C689" s="33" t="s">
@@ -14328,12 +14325,12 @@
       <c r="F691" s="35"/>
     </row>
     <row r="692" spans="3:6" ht="27" thickBot="1">
-      <c r="C692" s="88" t="s">
+      <c r="C692" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D692" s="89"/>
-      <c r="E692" s="89"/>
-      <c r="F692" s="90"/>
+      <c r="D692" s="81"/>
+      <c r="E692" s="81"/>
+      <c r="F692" s="82"/>
     </row>
     <row r="693" spans="3:6" ht="18" thickBot="1">
       <c r="C693" s="37" t="s">
@@ -14384,12 +14381,12 @@
       <c r="F696" s="38"/>
     </row>
     <row r="697" spans="3:6" ht="27" thickBot="1">
-      <c r="C697" s="91" t="s">
+      <c r="C697" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D697" s="91"/>
-      <c r="E697" s="91"/>
-      <c r="F697" s="91"/>
+      <c r="D697" s="83"/>
+      <c r="E697" s="83"/>
+      <c r="F697" s="83"/>
     </row>
     <row r="698" spans="3:6" ht="18" thickBot="1">
       <c r="C698" s="37" t="s">
@@ -14406,7 +14403,7 @@
       </c>
     </row>
     <row r="699" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C699" s="78">
+      <c r="C699" s="73">
         <v>200</v>
       </c>
       <c r="D699" s="39" t="s">
@@ -14420,7 +14417,7 @@
       </c>
     </row>
     <row r="700" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C700" s="78"/>
+      <c r="C700" s="73"/>
       <c r="D700" s="39" t="s">
         <v>358</v>
       </c>
@@ -14432,7 +14429,7 @@
       </c>
     </row>
     <row r="701" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C701" s="78"/>
+      <c r="C701" s="73"/>
       <c r="D701" s="39" t="s">
         <v>360</v>
       </c>
@@ -14444,7 +14441,7 @@
       </c>
     </row>
     <row r="702" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C702" s="78"/>
+      <c r="C702" s="73"/>
       <c r="D702" s="39"/>
       <c r="E702" s="39"/>
       <c r="F702" s="39"/>
@@ -14465,28 +14462,28 @@
       <c r="B706" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="C706" s="98" t="s">
+      <c r="C706" s="99" t="s">
         <v>517</v>
       </c>
-      <c r="D706" s="99"/>
-      <c r="E706" s="99"/>
-      <c r="F706" s="100"/>
+      <c r="D706" s="100"/>
+      <c r="E706" s="100"/>
+      <c r="F706" s="101"/>
     </row>
     <row r="707" spans="1:6" ht="18" thickBot="1">
-      <c r="C707" s="82" t="s">
+      <c r="C707" s="84" t="s">
         <v>518</v>
       </c>
-      <c r="D707" s="83"/>
-      <c r="E707" s="83"/>
-      <c r="F707" s="84"/>
+      <c r="D707" s="85"/>
+      <c r="E707" s="85"/>
+      <c r="F707" s="86"/>
     </row>
     <row r="708" spans="1:6" ht="27" thickBot="1">
-      <c r="C708" s="85" t="s">
+      <c r="C708" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D708" s="86"/>
-      <c r="E708" s="86"/>
-      <c r="F708" s="87"/>
+      <c r="D708" s="78"/>
+      <c r="E708" s="78"/>
+      <c r="F708" s="79"/>
     </row>
     <row r="709" spans="1:6" ht="18" thickBot="1">
       <c r="C709" s="33" t="s">
@@ -14527,12 +14524,12 @@
       <c r="F711" s="35"/>
     </row>
     <row r="712" spans="1:6" ht="27" thickBot="1">
-      <c r="C712" s="88" t="s">
+      <c r="C712" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D712" s="89"/>
-      <c r="E712" s="89"/>
-      <c r="F712" s="90"/>
+      <c r="D712" s="81"/>
+      <c r="E712" s="81"/>
+      <c r="F712" s="82"/>
     </row>
     <row r="713" spans="1:6" ht="18" thickBot="1">
       <c r="C713" s="37" t="s">
@@ -14577,12 +14574,12 @@
       </c>
     </row>
     <row r="716" spans="1:6" ht="27" thickBot="1">
-      <c r="C716" s="91" t="s">
+      <c r="C716" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D716" s="91"/>
-      <c r="E716" s="91"/>
-      <c r="F716" s="91"/>
+      <c r="D716" s="83"/>
+      <c r="E716" s="83"/>
+      <c r="F716" s="83"/>
     </row>
     <row r="717" spans="1:6" ht="18" thickBot="1">
       <c r="C717" s="37" t="s">
@@ -14599,7 +14596,7 @@
       </c>
     </row>
     <row r="718" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C718" s="78">
+      <c r="C718" s="73">
         <v>200</v>
       </c>
       <c r="D718" s="39" t="s">
@@ -14613,7 +14610,7 @@
       </c>
     </row>
     <row r="719" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C719" s="78"/>
+      <c r="C719" s="73"/>
       <c r="D719" s="39" t="s">
         <v>358</v>
       </c>
@@ -14625,7 +14622,7 @@
       </c>
     </row>
     <row r="720" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C720" s="78"/>
+      <c r="C720" s="73"/>
       <c r="D720" s="39" t="s">
         <v>360</v>
       </c>
@@ -14637,7 +14634,7 @@
       </c>
     </row>
     <row r="721" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C721" s="78"/>
+      <c r="C721" s="73"/>
       <c r="D721" s="39"/>
       <c r="E721" s="39"/>
       <c r="F721" s="39"/>
@@ -14658,28 +14655,28 @@
       <c r="B725" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="C725" s="98" t="s">
+      <c r="C725" s="99" t="s">
         <v>519</v>
       </c>
-      <c r="D725" s="99"/>
-      <c r="E725" s="99"/>
-      <c r="F725" s="100"/>
+      <c r="D725" s="100"/>
+      <c r="E725" s="100"/>
+      <c r="F725" s="101"/>
     </row>
     <row r="726" spans="1:6" ht="18" thickBot="1">
-      <c r="C726" s="82" t="s">
+      <c r="C726" s="84" t="s">
         <v>520</v>
       </c>
-      <c r="D726" s="83"/>
-      <c r="E726" s="83"/>
-      <c r="F726" s="84"/>
+      <c r="D726" s="85"/>
+      <c r="E726" s="85"/>
+      <c r="F726" s="86"/>
     </row>
     <row r="727" spans="1:6" ht="27" thickBot="1">
-      <c r="C727" s="85" t="s">
+      <c r="C727" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D727" s="86"/>
-      <c r="E727" s="86"/>
-      <c r="F727" s="87"/>
+      <c r="D727" s="78"/>
+      <c r="E727" s="78"/>
+      <c r="F727" s="79"/>
     </row>
     <row r="728" spans="1:6" ht="18" thickBot="1">
       <c r="C728" s="33" t="s">
@@ -14720,12 +14717,12 @@
       <c r="F730" s="35"/>
     </row>
     <row r="731" spans="1:6" ht="27" thickBot="1">
-      <c r="C731" s="88" t="s">
+      <c r="C731" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D731" s="89"/>
-      <c r="E731" s="89"/>
-      <c r="F731" s="90"/>
+      <c r="D731" s="81"/>
+      <c r="E731" s="81"/>
+      <c r="F731" s="82"/>
     </row>
     <row r="732" spans="1:6" ht="18" thickBot="1">
       <c r="C732" s="37" t="s">
@@ -14770,12 +14767,12 @@
       </c>
     </row>
     <row r="735" spans="1:6" ht="27" thickBot="1">
-      <c r="C735" s="91" t="s">
+      <c r="C735" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D735" s="91"/>
-      <c r="E735" s="91"/>
-      <c r="F735" s="91"/>
+      <c r="D735" s="83"/>
+      <c r="E735" s="83"/>
+      <c r="F735" s="83"/>
     </row>
     <row r="736" spans="1:6" ht="18" thickBot="1">
       <c r="C736" s="37" t="s">
@@ -14792,7 +14789,7 @@
       </c>
     </row>
     <row r="737" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C737" s="78">
+      <c r="C737" s="73">
         <v>200</v>
       </c>
       <c r="D737" s="39" t="s">
@@ -14806,7 +14803,7 @@
       </c>
     </row>
     <row r="738" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C738" s="78"/>
+      <c r="C738" s="73"/>
       <c r="D738" s="39" t="s">
         <v>358</v>
       </c>
@@ -14818,7 +14815,7 @@
       </c>
     </row>
     <row r="739" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C739" s="78"/>
+      <c r="C739" s="73"/>
       <c r="D739" s="39" t="s">
         <v>360</v>
       </c>
@@ -14830,7 +14827,7 @@
       </c>
     </row>
     <row r="740" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C740" s="78"/>
+      <c r="C740" s="73"/>
       <c r="D740" s="39"/>
       <c r="E740" s="39"/>
       <c r="F740" s="39"/>
@@ -14851,28 +14848,28 @@
       <c r="B744" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="C744" s="98" t="s">
+      <c r="C744" s="99" t="s">
         <v>521</v>
       </c>
-      <c r="D744" s="99"/>
-      <c r="E744" s="99"/>
-      <c r="F744" s="100"/>
+      <c r="D744" s="100"/>
+      <c r="E744" s="100"/>
+      <c r="F744" s="101"/>
     </row>
     <row r="745" spans="1:6" ht="18" thickBot="1">
-      <c r="C745" s="82" t="s">
+      <c r="C745" s="84" t="s">
         <v>522</v>
       </c>
-      <c r="D745" s="83"/>
-      <c r="E745" s="83"/>
-      <c r="F745" s="84"/>
+      <c r="D745" s="85"/>
+      <c r="E745" s="85"/>
+      <c r="F745" s="86"/>
     </row>
     <row r="746" spans="1:6" ht="27" thickBot="1">
-      <c r="C746" s="85" t="s">
+      <c r="C746" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D746" s="86"/>
-      <c r="E746" s="86"/>
-      <c r="F746" s="87"/>
+      <c r="D746" s="78"/>
+      <c r="E746" s="78"/>
+      <c r="F746" s="79"/>
     </row>
     <row r="747" spans="1:6" ht="18" thickBot="1">
       <c r="C747" s="33" t="s">
@@ -14913,12 +14910,12 @@
       <c r="F749" s="35"/>
     </row>
     <row r="750" spans="1:6" ht="27" thickBot="1">
-      <c r="C750" s="88" t="s">
+      <c r="C750" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D750" s="89"/>
-      <c r="E750" s="89"/>
-      <c r="F750" s="90"/>
+      <c r="D750" s="81"/>
+      <c r="E750" s="81"/>
+      <c r="F750" s="82"/>
     </row>
     <row r="751" spans="1:6" ht="18" thickBot="1">
       <c r="C751" s="37" t="s">
@@ -14963,12 +14960,12 @@
       </c>
     </row>
     <row r="754" spans="1:6" ht="27" thickBot="1">
-      <c r="C754" s="91" t="s">
+      <c r="C754" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D754" s="91"/>
-      <c r="E754" s="91"/>
-      <c r="F754" s="91"/>
+      <c r="D754" s="83"/>
+      <c r="E754" s="83"/>
+      <c r="F754" s="83"/>
     </row>
     <row r="755" spans="1:6" ht="18" thickBot="1">
       <c r="C755" s="37" t="s">
@@ -14985,7 +14982,7 @@
       </c>
     </row>
     <row r="756" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C756" s="78">
+      <c r="C756" s="73">
         <v>200</v>
       </c>
       <c r="D756" s="39" t="s">
@@ -14999,7 +14996,7 @@
       </c>
     </row>
     <row r="757" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C757" s="78"/>
+      <c r="C757" s="73"/>
       <c r="D757" s="39" t="s">
         <v>358</v>
       </c>
@@ -15011,7 +15008,7 @@
       </c>
     </row>
     <row r="758" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C758" s="78"/>
+      <c r="C758" s="73"/>
       <c r="D758" s="39" t="s">
         <v>360</v>
       </c>
@@ -15023,7 +15020,7 @@
       </c>
     </row>
     <row r="759" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C759" s="78"/>
+      <c r="C759" s="73"/>
       <c r="D759" s="39"/>
       <c r="E759" s="39"/>
       <c r="F759" s="39"/>
@@ -15044,28 +15041,28 @@
       <c r="B763" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="C763" s="98" t="s">
+      <c r="C763" s="99" t="s">
         <v>525</v>
       </c>
-      <c r="D763" s="99"/>
-      <c r="E763" s="99"/>
-      <c r="F763" s="100"/>
+      <c r="D763" s="100"/>
+      <c r="E763" s="100"/>
+      <c r="F763" s="101"/>
     </row>
     <row r="764" spans="1:6" ht="18" thickBot="1">
-      <c r="C764" s="82" t="s">
+      <c r="C764" s="84" t="s">
         <v>176</v>
       </c>
-      <c r="D764" s="83"/>
-      <c r="E764" s="83"/>
-      <c r="F764" s="84"/>
+      <c r="D764" s="85"/>
+      <c r="E764" s="85"/>
+      <c r="F764" s="86"/>
     </row>
     <row r="765" spans="1:6" ht="27" thickBot="1">
-      <c r="C765" s="85" t="s">
+      <c r="C765" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D765" s="86"/>
-      <c r="E765" s="86"/>
-      <c r="F765" s="87"/>
+      <c r="D765" s="78"/>
+      <c r="E765" s="78"/>
+      <c r="F765" s="79"/>
     </row>
     <row r="766" spans="1:6" ht="18" thickBot="1">
       <c r="C766" s="33" t="s">
@@ -15106,12 +15103,12 @@
       <c r="F768" s="35"/>
     </row>
     <row r="769" spans="1:6" ht="27" thickBot="1">
-      <c r="C769" s="88" t="s">
+      <c r="C769" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D769" s="89"/>
-      <c r="E769" s="89"/>
-      <c r="F769" s="90"/>
+      <c r="D769" s="81"/>
+      <c r="E769" s="81"/>
+      <c r="F769" s="82"/>
     </row>
     <row r="770" spans="1:6" ht="18" thickBot="1">
       <c r="C770" s="37" t="s">
@@ -15156,12 +15153,12 @@
       </c>
     </row>
     <row r="773" spans="1:6" ht="27" thickBot="1">
-      <c r="C773" s="91" t="s">
+      <c r="C773" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D773" s="91"/>
-      <c r="E773" s="91"/>
-      <c r="F773" s="91"/>
+      <c r="D773" s="83"/>
+      <c r="E773" s="83"/>
+      <c r="F773" s="83"/>
     </row>
     <row r="774" spans="1:6" ht="18" thickBot="1">
       <c r="C774" s="37" t="s">
@@ -15178,7 +15175,7 @@
       </c>
     </row>
     <row r="775" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C775" s="78">
+      <c r="C775" s="73">
         <v>200</v>
       </c>
       <c r="D775" s="39" t="s">
@@ -15192,7 +15189,7 @@
       </c>
     </row>
     <row r="776" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C776" s="78"/>
+      <c r="C776" s="73"/>
       <c r="D776" s="39" t="s">
         <v>358</v>
       </c>
@@ -15204,7 +15201,7 @@
       </c>
     </row>
     <row r="777" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C777" s="78"/>
+      <c r="C777" s="73"/>
       <c r="D777" s="39" t="s">
         <v>360</v>
       </c>
@@ -15216,7 +15213,7 @@
       </c>
     </row>
     <row r="778" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C778" s="78"/>
+      <c r="C778" s="73"/>
       <c r="D778" s="39"/>
       <c r="E778" s="39"/>
       <c r="F778" s="39"/>
@@ -15237,28 +15234,28 @@
       <c r="B782" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="C782" s="95" t="s">
+      <c r="C782" s="102" t="s">
         <v>526</v>
       </c>
-      <c r="D782" s="96"/>
-      <c r="E782" s="96"/>
-      <c r="F782" s="97"/>
+      <c r="D782" s="103"/>
+      <c r="E782" s="103"/>
+      <c r="F782" s="104"/>
     </row>
     <row r="783" spans="1:6" ht="18" thickBot="1">
-      <c r="C783" s="82" t="s">
+      <c r="C783" s="84" t="s">
         <v>527</v>
       </c>
-      <c r="D783" s="83"/>
-      <c r="E783" s="83"/>
-      <c r="F783" s="84"/>
+      <c r="D783" s="85"/>
+      <c r="E783" s="85"/>
+      <c r="F783" s="86"/>
     </row>
     <row r="784" spans="1:6" ht="27" thickBot="1">
-      <c r="C784" s="85" t="s">
+      <c r="C784" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D784" s="86"/>
-      <c r="E784" s="86"/>
-      <c r="F784" s="87"/>
+      <c r="D784" s="78"/>
+      <c r="E784" s="78"/>
+      <c r="F784" s="79"/>
     </row>
     <row r="785" spans="3:6" ht="18" thickBot="1">
       <c r="C785" s="33" t="s">
@@ -15299,12 +15296,12 @@
       <c r="F787" s="35"/>
     </row>
     <row r="788" spans="3:6" ht="27" thickBot="1">
-      <c r="C788" s="88" t="s">
+      <c r="C788" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D788" s="89"/>
-      <c r="E788" s="89"/>
-      <c r="F788" s="90"/>
+      <c r="D788" s="81"/>
+      <c r="E788" s="81"/>
+      <c r="F788" s="82"/>
     </row>
     <row r="789" spans="3:6" ht="18" thickBot="1">
       <c r="C789" s="37" t="s">
@@ -15341,12 +15338,12 @@
       <c r="F791" s="38"/>
     </row>
     <row r="792" spans="3:6" ht="27" thickBot="1">
-      <c r="C792" s="91" t="s">
+      <c r="C792" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D792" s="91"/>
-      <c r="E792" s="91"/>
-      <c r="F792" s="91"/>
+      <c r="D792" s="83"/>
+      <c r="E792" s="83"/>
+      <c r="F792" s="83"/>
     </row>
     <row r="793" spans="3:6" ht="18" thickBot="1">
       <c r="C793" s="37" t="s">
@@ -15363,7 +15360,7 @@
       </c>
     </row>
     <row r="794" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C794" s="78">
+      <c r="C794" s="73">
         <v>200</v>
       </c>
       <c r="D794" s="39" t="s">
@@ -15377,7 +15374,7 @@
       </c>
     </row>
     <row r="795" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C795" s="78"/>
+      <c r="C795" s="73"/>
       <c r="D795" s="39" t="s">
         <v>358</v>
       </c>
@@ -15389,7 +15386,7 @@
       </c>
     </row>
     <row r="796" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C796" s="78"/>
+      <c r="C796" s="73"/>
       <c r="D796" s="39" t="s">
         <v>360</v>
       </c>
@@ -15401,7 +15398,7 @@
       </c>
     </row>
     <row r="797" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C797" s="78"/>
+      <c r="C797" s="73"/>
       <c r="D797" s="39"/>
       <c r="E797" s="39"/>
       <c r="F797" s="39"/>
@@ -15422,28 +15419,28 @@
       <c r="B801" s="49" t="s">
         <v>178</v>
       </c>
-      <c r="C801" s="95" t="s">
+      <c r="C801" s="102" t="s">
         <v>528</v>
       </c>
-      <c r="D801" s="96"/>
-      <c r="E801" s="96"/>
-      <c r="F801" s="97"/>
+      <c r="D801" s="103"/>
+      <c r="E801" s="103"/>
+      <c r="F801" s="104"/>
     </row>
     <row r="802" spans="1:6" ht="18" thickBot="1">
-      <c r="C802" s="82" t="s">
+      <c r="C802" s="84" t="s">
         <v>529</v>
       </c>
-      <c r="D802" s="83"/>
-      <c r="E802" s="83"/>
-      <c r="F802" s="84"/>
+      <c r="D802" s="85"/>
+      <c r="E802" s="85"/>
+      <c r="F802" s="86"/>
     </row>
     <row r="803" spans="1:6" ht="27" thickBot="1">
-      <c r="C803" s="85" t="s">
+      <c r="C803" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D803" s="86"/>
-      <c r="E803" s="86"/>
-      <c r="F803" s="87"/>
+      <c r="D803" s="78"/>
+      <c r="E803" s="78"/>
+      <c r="F803" s="79"/>
     </row>
     <row r="804" spans="1:6" ht="18" thickBot="1">
       <c r="C804" s="33" t="s">
@@ -15484,12 +15481,12 @@
       <c r="F806" s="35"/>
     </row>
     <row r="807" spans="1:6" ht="27" thickBot="1">
-      <c r="C807" s="88" t="s">
+      <c r="C807" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D807" s="89"/>
-      <c r="E807" s="89"/>
-      <c r="F807" s="90"/>
+      <c r="D807" s="81"/>
+      <c r="E807" s="81"/>
+      <c r="F807" s="82"/>
     </row>
     <row r="808" spans="1:6" ht="18" thickBot="1">
       <c r="C808" s="37" t="s">
@@ -15534,12 +15531,12 @@
       </c>
     </row>
     <row r="811" spans="1:6" ht="27" thickBot="1">
-      <c r="C811" s="91" t="s">
+      <c r="C811" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D811" s="91"/>
-      <c r="E811" s="91"/>
-      <c r="F811" s="91"/>
+      <c r="D811" s="83"/>
+      <c r="E811" s="83"/>
+      <c r="F811" s="83"/>
     </row>
     <row r="812" spans="1:6" ht="18" thickBot="1">
       <c r="C812" s="37" t="s">
@@ -15556,7 +15553,7 @@
       </c>
     </row>
     <row r="813" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C813" s="78">
+      <c r="C813" s="73">
         <v>200</v>
       </c>
       <c r="D813" s="39" t="s">
@@ -15570,7 +15567,7 @@
       </c>
     </row>
     <row r="814" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C814" s="78"/>
+      <c r="C814" s="73"/>
       <c r="D814" s="39" t="s">
         <v>358</v>
       </c>
@@ -15582,7 +15579,7 @@
       </c>
     </row>
     <row r="815" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C815" s="78"/>
+      <c r="C815" s="73"/>
       <c r="D815" s="39" t="s">
         <v>360</v>
       </c>
@@ -15594,7 +15591,7 @@
       </c>
     </row>
     <row r="816" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C816" s="78"/>
+      <c r="C816" s="73"/>
       <c r="D816" s="39"/>
       <c r="E816" s="39"/>
       <c r="F816" s="39"/>
@@ -15615,28 +15612,28 @@
       <c r="B820" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="C820" s="92" t="s">
+      <c r="C820" s="105" t="s">
         <v>532</v>
       </c>
-      <c r="D820" s="93"/>
-      <c r="E820" s="93"/>
-      <c r="F820" s="94"/>
+      <c r="D820" s="106"/>
+      <c r="E820" s="106"/>
+      <c r="F820" s="107"/>
     </row>
     <row r="821" spans="1:6" ht="18" thickBot="1">
-      <c r="C821" s="82" t="s">
+      <c r="C821" s="84" t="s">
         <v>533</v>
       </c>
-      <c r="D821" s="83"/>
-      <c r="E821" s="83"/>
-      <c r="F821" s="84"/>
+      <c r="D821" s="85"/>
+      <c r="E821" s="85"/>
+      <c r="F821" s="86"/>
     </row>
     <row r="822" spans="1:6" ht="27" thickBot="1">
-      <c r="C822" s="85" t="s">
+      <c r="C822" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D822" s="86"/>
-      <c r="E822" s="86"/>
-      <c r="F822" s="87"/>
+      <c r="D822" s="78"/>
+      <c r="E822" s="78"/>
+      <c r="F822" s="79"/>
     </row>
     <row r="823" spans="1:6" ht="18" thickBot="1">
       <c r="C823" s="33" t="s">
@@ -15677,12 +15674,12 @@
       <c r="F825" s="35"/>
     </row>
     <row r="826" spans="1:6" ht="27" thickBot="1">
-      <c r="C826" s="88" t="s">
+      <c r="C826" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D826" s="89"/>
-      <c r="E826" s="89"/>
-      <c r="F826" s="90"/>
+      <c r="D826" s="81"/>
+      <c r="E826" s="81"/>
+      <c r="F826" s="82"/>
     </row>
     <row r="827" spans="1:6" ht="18" thickBot="1">
       <c r="C827" s="37" t="s">
@@ -15719,12 +15716,12 @@
       <c r="F829" s="38"/>
     </row>
     <row r="830" spans="1:6" ht="27" thickBot="1">
-      <c r="C830" s="91" t="s">
+      <c r="C830" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D830" s="91"/>
-      <c r="E830" s="91"/>
-      <c r="F830" s="91"/>
+      <c r="D830" s="83"/>
+      <c r="E830" s="83"/>
+      <c r="F830" s="83"/>
     </row>
     <row r="831" spans="1:6" ht="18" thickBot="1">
       <c r="C831" s="37" t="s">
@@ -15741,7 +15738,7 @@
       </c>
     </row>
     <row r="832" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C832" s="78">
+      <c r="C832" s="73">
         <v>200</v>
       </c>
       <c r="D832" s="39" t="s">
@@ -15755,7 +15752,7 @@
       </c>
     </row>
     <row r="833" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C833" s="78"/>
+      <c r="C833" s="73"/>
       <c r="D833" s="39" t="s">
         <v>358</v>
       </c>
@@ -15767,7 +15764,7 @@
       </c>
     </row>
     <row r="834" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C834" s="78"/>
+      <c r="C834" s="73"/>
       <c r="D834" s="39" t="s">
         <v>360</v>
       </c>
@@ -15779,7 +15776,7 @@
       </c>
     </row>
     <row r="835" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C835" s="78"/>
+      <c r="C835" s="73"/>
       <c r="D835" s="39"/>
       <c r="E835" s="39"/>
       <c r="F835" s="39"/>
@@ -15800,28 +15797,28 @@
       <c r="B839" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="C839" s="92" t="s">
+      <c r="C839" s="105" t="s">
         <v>534</v>
       </c>
-      <c r="D839" s="93"/>
-      <c r="E839" s="93"/>
-      <c r="F839" s="94"/>
+      <c r="D839" s="106"/>
+      <c r="E839" s="106"/>
+      <c r="F839" s="107"/>
     </row>
     <row r="840" spans="1:6" ht="18" thickBot="1">
-      <c r="C840" s="82" t="s">
+      <c r="C840" s="84" t="s">
         <v>535</v>
       </c>
-      <c r="D840" s="83"/>
-      <c r="E840" s="83"/>
-      <c r="F840" s="84"/>
+      <c r="D840" s="85"/>
+      <c r="E840" s="85"/>
+      <c r="F840" s="86"/>
     </row>
     <row r="841" spans="1:6" ht="27" thickBot="1">
-      <c r="C841" s="85" t="s">
+      <c r="C841" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D841" s="86"/>
-      <c r="E841" s="86"/>
-      <c r="F841" s="87"/>
+      <c r="D841" s="78"/>
+      <c r="E841" s="78"/>
+      <c r="F841" s="79"/>
     </row>
     <row r="842" spans="1:6" ht="18" thickBot="1">
       <c r="C842" s="33" t="s">
@@ -15862,12 +15859,12 @@
       <c r="F844" s="35"/>
     </row>
     <row r="845" spans="1:6" ht="27" thickBot="1">
-      <c r="C845" s="88" t="s">
+      <c r="C845" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D845" s="89"/>
-      <c r="E845" s="89"/>
-      <c r="F845" s="90"/>
+      <c r="D845" s="81"/>
+      <c r="E845" s="81"/>
+      <c r="F845" s="82"/>
     </row>
     <row r="846" spans="1:6" ht="18" thickBot="1">
       <c r="C846" s="37" t="s">
@@ -15912,12 +15909,12 @@
       </c>
     </row>
     <row r="849" spans="1:6" ht="27" thickBot="1">
-      <c r="C849" s="91" t="s">
+      <c r="C849" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D849" s="91"/>
-      <c r="E849" s="91"/>
-      <c r="F849" s="91"/>
+      <c r="D849" s="83"/>
+      <c r="E849" s="83"/>
+      <c r="F849" s="83"/>
     </row>
     <row r="850" spans="1:6" ht="18" thickBot="1">
       <c r="C850" s="37" t="s">
@@ -15934,7 +15931,7 @@
       </c>
     </row>
     <row r="851" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C851" s="78">
+      <c r="C851" s="73">
         <v>200</v>
       </c>
       <c r="D851" s="39" t="s">
@@ -15948,7 +15945,7 @@
       </c>
     </row>
     <row r="852" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C852" s="78"/>
+      <c r="C852" s="73"/>
       <c r="D852" s="39" t="s">
         <v>358</v>
       </c>
@@ -15960,7 +15957,7 @@
       </c>
     </row>
     <row r="853" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C853" s="78"/>
+      <c r="C853" s="73"/>
       <c r="D853" s="39" t="s">
         <v>360</v>
       </c>
@@ -15972,7 +15969,7 @@
       </c>
     </row>
     <row r="854" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C854" s="78"/>
+      <c r="C854" s="73"/>
       <c r="D854" s="39"/>
       <c r="E854" s="39"/>
       <c r="F854" s="39"/>
@@ -15993,28 +15990,28 @@
       <c r="B858" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="C858" s="92" t="s">
+      <c r="C858" s="105" t="s">
         <v>538</v>
       </c>
-      <c r="D858" s="93"/>
-      <c r="E858" s="93"/>
-      <c r="F858" s="94"/>
+      <c r="D858" s="106"/>
+      <c r="E858" s="106"/>
+      <c r="F858" s="107"/>
     </row>
     <row r="859" spans="1:6" ht="18" thickBot="1">
-      <c r="C859" s="82" t="s">
+      <c r="C859" s="84" t="s">
         <v>539</v>
       </c>
-      <c r="D859" s="83"/>
-      <c r="E859" s="83"/>
-      <c r="F859" s="84"/>
+      <c r="D859" s="85"/>
+      <c r="E859" s="85"/>
+      <c r="F859" s="86"/>
     </row>
     <row r="860" spans="1:6" ht="27" thickBot="1">
-      <c r="C860" s="85" t="s">
+      <c r="C860" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D860" s="86"/>
-      <c r="E860" s="86"/>
-      <c r="F860" s="87"/>
+      <c r="D860" s="78"/>
+      <c r="E860" s="78"/>
+      <c r="F860" s="79"/>
     </row>
     <row r="861" spans="1:6" ht="18" thickBot="1">
       <c r="C861" s="33" t="s">
@@ -16055,12 +16052,12 @@
       <c r="F863" s="35"/>
     </row>
     <row r="864" spans="1:6" ht="27" thickBot="1">
-      <c r="C864" s="88" t="s">
+      <c r="C864" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D864" s="89"/>
-      <c r="E864" s="89"/>
-      <c r="F864" s="90"/>
+      <c r="D864" s="81"/>
+      <c r="E864" s="81"/>
+      <c r="F864" s="82"/>
     </row>
     <row r="865" spans="1:6" ht="18" thickBot="1">
       <c r="C865" s="37" t="s">
@@ -16105,12 +16102,12 @@
       </c>
     </row>
     <row r="868" spans="1:6" ht="27" thickBot="1">
-      <c r="C868" s="91" t="s">
+      <c r="C868" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D868" s="91"/>
-      <c r="E868" s="91"/>
-      <c r="F868" s="91"/>
+      <c r="D868" s="83"/>
+      <c r="E868" s="83"/>
+      <c r="F868" s="83"/>
     </row>
     <row r="869" spans="1:6" ht="18" thickBot="1">
       <c r="C869" s="37" t="s">
@@ -16127,7 +16124,7 @@
       </c>
     </row>
     <row r="870" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C870" s="78">
+      <c r="C870" s="73">
         <v>200</v>
       </c>
       <c r="D870" s="39" t="s">
@@ -16141,7 +16138,7 @@
       </c>
     </row>
     <row r="871" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C871" s="78"/>
+      <c r="C871" s="73"/>
       <c r="D871" s="39" t="s">
         <v>358</v>
       </c>
@@ -16153,7 +16150,7 @@
       </c>
     </row>
     <row r="872" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C872" s="78"/>
+      <c r="C872" s="73"/>
       <c r="D872" s="39" t="s">
         <v>360</v>
       </c>
@@ -16165,7 +16162,7 @@
       </c>
     </row>
     <row r="873" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C873" s="78"/>
+      <c r="C873" s="73"/>
       <c r="D873" s="39"/>
       <c r="E873" s="39"/>
       <c r="F873" s="39"/>
@@ -16186,28 +16183,28 @@
       <c r="B877" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="C877" s="79" t="s">
+      <c r="C877" s="108" t="s">
         <v>540</v>
       </c>
-      <c r="D877" s="80"/>
-      <c r="E877" s="80"/>
-      <c r="F877" s="81"/>
+      <c r="D877" s="109"/>
+      <c r="E877" s="109"/>
+      <c r="F877" s="110"/>
     </row>
     <row r="878" spans="1:6" ht="18" thickBot="1">
-      <c r="C878" s="82" t="s">
+      <c r="C878" s="84" t="s">
         <v>541</v>
       </c>
-      <c r="D878" s="83"/>
-      <c r="E878" s="83"/>
-      <c r="F878" s="84"/>
+      <c r="D878" s="85"/>
+      <c r="E878" s="85"/>
+      <c r="F878" s="86"/>
     </row>
     <row r="879" spans="1:6" ht="27" thickBot="1">
-      <c r="C879" s="85" t="s">
+      <c r="C879" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D879" s="86"/>
-      <c r="E879" s="86"/>
-      <c r="F879" s="87"/>
+      <c r="D879" s="78"/>
+      <c r="E879" s="78"/>
+      <c r="F879" s="79"/>
     </row>
     <row r="880" spans="1:6" ht="18" thickBot="1">
       <c r="C880" s="33" t="s">
@@ -16248,12 +16245,12 @@
       <c r="F882" s="35"/>
     </row>
     <row r="883" spans="1:6" ht="27" thickBot="1">
-      <c r="C883" s="88" t="s">
+      <c r="C883" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D883" s="89"/>
-      <c r="E883" s="89"/>
-      <c r="F883" s="90"/>
+      <c r="D883" s="81"/>
+      <c r="E883" s="81"/>
+      <c r="F883" s="82"/>
     </row>
     <row r="884" spans="1:6" ht="18" thickBot="1">
       <c r="C884" s="37" t="s">
@@ -16276,12 +16273,12 @@
       <c r="F885" s="38"/>
     </row>
     <row r="886" spans="1:6" ht="27" thickBot="1">
-      <c r="C886" s="91" t="s">
+      <c r="C886" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D886" s="91"/>
-      <c r="E886" s="91"/>
-      <c r="F886" s="91"/>
+      <c r="D886" s="83"/>
+      <c r="E886" s="83"/>
+      <c r="F886" s="83"/>
     </row>
     <row r="887" spans="1:6" ht="18" thickBot="1">
       <c r="C887" s="37" t="s">
@@ -16298,7 +16295,7 @@
       </c>
     </row>
     <row r="888" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C888" s="78">
+      <c r="C888" s="73">
         <v>200</v>
       </c>
       <c r="D888" s="39" t="s">
@@ -16312,7 +16309,7 @@
       </c>
     </row>
     <row r="889" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C889" s="78"/>
+      <c r="C889" s="73"/>
       <c r="D889" s="39" t="s">
         <v>358</v>
       </c>
@@ -16324,7 +16321,7 @@
       </c>
     </row>
     <row r="890" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C890" s="78"/>
+      <c r="C890" s="73"/>
       <c r="D890" s="39" t="s">
         <v>360</v>
       </c>
@@ -16336,7 +16333,7 @@
       </c>
     </row>
     <row r="891" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C891" s="78"/>
+      <c r="C891" s="73"/>
       <c r="D891" s="39"/>
       <c r="E891" s="39"/>
       <c r="F891" s="39"/>
@@ -16357,28 +16354,28 @@
       <c r="B895" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="C895" s="79" t="s">
+      <c r="C895" s="108" t="s">
         <v>542</v>
       </c>
-      <c r="D895" s="80"/>
-      <c r="E895" s="80"/>
-      <c r="F895" s="81"/>
+      <c r="D895" s="109"/>
+      <c r="E895" s="109"/>
+      <c r="F895" s="110"/>
     </row>
     <row r="896" spans="1:6" ht="18" thickBot="1">
-      <c r="C896" s="82" t="s">
+      <c r="C896" s="84" t="s">
         <v>543</v>
       </c>
-      <c r="D896" s="83"/>
-      <c r="E896" s="83"/>
-      <c r="F896" s="84"/>
+      <c r="D896" s="85"/>
+      <c r="E896" s="85"/>
+      <c r="F896" s="86"/>
     </row>
     <row r="897" spans="3:6" ht="27" thickBot="1">
-      <c r="C897" s="85" t="s">
+      <c r="C897" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D897" s="86"/>
-      <c r="E897" s="86"/>
-      <c r="F897" s="87"/>
+      <c r="D897" s="78"/>
+      <c r="E897" s="78"/>
+      <c r="F897" s="79"/>
     </row>
     <row r="898" spans="3:6" ht="18" thickBot="1">
       <c r="C898" s="33" t="s">
@@ -16419,12 +16416,12 @@
       <c r="F900" s="35"/>
     </row>
     <row r="901" spans="3:6" ht="27" thickBot="1">
-      <c r="C901" s="88" t="s">
+      <c r="C901" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D901" s="89"/>
-      <c r="E901" s="89"/>
-      <c r="F901" s="90"/>
+      <c r="D901" s="81"/>
+      <c r="E901" s="81"/>
+      <c r="F901" s="82"/>
     </row>
     <row r="902" spans="3:6" ht="18" thickBot="1">
       <c r="C902" s="37" t="s">
@@ -16461,12 +16458,12 @@
       <c r="F904" s="38"/>
     </row>
     <row r="905" spans="3:6" ht="27" thickBot="1">
-      <c r="C905" s="91" t="s">
+      <c r="C905" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D905" s="91"/>
-      <c r="E905" s="91"/>
-      <c r="F905" s="91"/>
+      <c r="D905" s="83"/>
+      <c r="E905" s="83"/>
+      <c r="F905" s="83"/>
     </row>
     <row r="906" spans="3:6" ht="18" thickBot="1">
       <c r="C906" s="37" t="s">
@@ -16483,7 +16480,7 @@
       </c>
     </row>
     <row r="907" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C907" s="78">
+      <c r="C907" s="73">
         <v>200</v>
       </c>
       <c r="D907" s="39" t="s">
@@ -16497,7 +16494,7 @@
       </c>
     </row>
     <row r="908" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C908" s="78"/>
+      <c r="C908" s="73"/>
       <c r="D908" s="39" t="s">
         <v>358</v>
       </c>
@@ -16509,7 +16506,7 @@
       </c>
     </row>
     <row r="909" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C909" s="78"/>
+      <c r="C909" s="73"/>
       <c r="D909" s="39" t="s">
         <v>360</v>
       </c>
@@ -16521,7 +16518,7 @@
       </c>
     </row>
     <row r="910" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C910" s="78"/>
+      <c r="C910" s="73"/>
       <c r="D910" s="39"/>
       <c r="E910" s="39"/>
       <c r="F910" s="39"/>
@@ -16542,28 +16539,28 @@
       <c r="B915" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="C915" s="79" t="s">
+      <c r="C915" s="108" t="s">
         <v>546</v>
       </c>
-      <c r="D915" s="80"/>
-      <c r="E915" s="80"/>
-      <c r="F915" s="81"/>
+      <c r="D915" s="109"/>
+      <c r="E915" s="109"/>
+      <c r="F915" s="110"/>
     </row>
     <row r="916" spans="1:6" ht="18" thickBot="1">
-      <c r="C916" s="82" t="s">
+      <c r="C916" s="84" t="s">
         <v>547</v>
       </c>
-      <c r="D916" s="83"/>
-      <c r="E916" s="83"/>
-      <c r="F916" s="84"/>
+      <c r="D916" s="85"/>
+      <c r="E916" s="85"/>
+      <c r="F916" s="86"/>
     </row>
     <row r="917" spans="1:6" ht="27" thickBot="1">
-      <c r="C917" s="85" t="s">
+      <c r="C917" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D917" s="86"/>
-      <c r="E917" s="86"/>
-      <c r="F917" s="87"/>
+      <c r="D917" s="78"/>
+      <c r="E917" s="78"/>
+      <c r="F917" s="79"/>
     </row>
     <row r="918" spans="1:6" ht="18" thickBot="1">
       <c r="C918" s="33" t="s">
@@ -16604,12 +16601,12 @@
       <c r="F920" s="35"/>
     </row>
     <row r="921" spans="1:6" ht="27" thickBot="1">
-      <c r="C921" s="88" t="s">
+      <c r="C921" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D921" s="89"/>
-      <c r="E921" s="89"/>
-      <c r="F921" s="90"/>
+      <c r="D921" s="81"/>
+      <c r="E921" s="81"/>
+      <c r="F921" s="82"/>
     </row>
     <row r="922" spans="1:6" ht="18" thickBot="1">
       <c r="C922" s="37" t="s">
@@ -16670,12 +16667,12 @@
       </c>
     </row>
     <row r="926" spans="1:6" ht="27" thickBot="1">
-      <c r="C926" s="91" t="s">
+      <c r="C926" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D926" s="91"/>
-      <c r="E926" s="91"/>
-      <c r="F926" s="91"/>
+      <c r="D926" s="83"/>
+      <c r="E926" s="83"/>
+      <c r="F926" s="83"/>
     </row>
     <row r="927" spans="1:6" ht="18" thickBot="1">
       <c r="C927" s="37" t="s">
@@ -16692,7 +16689,7 @@
       </c>
     </row>
     <row r="928" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C928" s="78">
+      <c r="C928" s="73">
         <v>200</v>
       </c>
       <c r="D928" s="39" t="s">
@@ -16706,7 +16703,7 @@
       </c>
     </row>
     <row r="929" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C929" s="78"/>
+      <c r="C929" s="73"/>
       <c r="D929" s="39" t="s">
         <v>358</v>
       </c>
@@ -16718,7 +16715,7 @@
       </c>
     </row>
     <row r="930" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C930" s="78"/>
+      <c r="C930" s="73"/>
       <c r="D930" s="39" t="s">
         <v>360</v>
       </c>
@@ -16730,7 +16727,7 @@
       </c>
     </row>
     <row r="931" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C931" s="78"/>
+      <c r="C931" s="73"/>
       <c r="D931" s="39"/>
       <c r="E931" s="39"/>
       <c r="F931" s="39"/>
@@ -16751,28 +16748,28 @@
       <c r="B935" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="C935" s="79" t="s">
+      <c r="C935" s="108" t="s">
         <v>550</v>
       </c>
-      <c r="D935" s="80"/>
-      <c r="E935" s="80"/>
-      <c r="F935" s="81"/>
+      <c r="D935" s="109"/>
+      <c r="E935" s="109"/>
+      <c r="F935" s="110"/>
     </row>
     <row r="936" spans="1:6" ht="18" thickBot="1">
-      <c r="C936" s="82" t="s">
+      <c r="C936" s="84" t="s">
         <v>551</v>
       </c>
-      <c r="D936" s="83"/>
-      <c r="E936" s="83"/>
-      <c r="F936" s="84"/>
+      <c r="D936" s="85"/>
+      <c r="E936" s="85"/>
+      <c r="F936" s="86"/>
     </row>
     <row r="937" spans="1:6" ht="27" thickBot="1">
-      <c r="C937" s="85" t="s">
+      <c r="C937" s="77" t="s">
         <v>327</v>
       </c>
-      <c r="D937" s="86"/>
-      <c r="E937" s="86"/>
-      <c r="F937" s="87"/>
+      <c r="D937" s="78"/>
+      <c r="E937" s="78"/>
+      <c r="F937" s="79"/>
     </row>
     <row r="938" spans="1:6" ht="18" thickBot="1">
       <c r="C938" s="33" t="s">
@@ -16813,12 +16810,12 @@
       <c r="F940" s="35"/>
     </row>
     <row r="941" spans="1:6" ht="27" thickBot="1">
-      <c r="C941" s="88" t="s">
+      <c r="C941" s="80" t="s">
         <v>333</v>
       </c>
-      <c r="D941" s="89"/>
-      <c r="E941" s="89"/>
-      <c r="F941" s="90"/>
+      <c r="D941" s="81"/>
+      <c r="E941" s="81"/>
+      <c r="F941" s="82"/>
     </row>
     <row r="942" spans="1:6" ht="18" thickBot="1">
       <c r="C942" s="37" t="s">
@@ -16877,12 +16874,12 @@
       </c>
     </row>
     <row r="946" spans="3:6" ht="27" thickBot="1">
-      <c r="C946" s="91" t="s">
+      <c r="C946" s="83" t="s">
         <v>336</v>
       </c>
-      <c r="D946" s="91"/>
-      <c r="E946" s="91"/>
-      <c r="F946" s="91"/>
+      <c r="D946" s="83"/>
+      <c r="E946" s="83"/>
+      <c r="F946" s="83"/>
     </row>
     <row r="947" spans="3:6" ht="18" thickBot="1">
       <c r="C947" s="37" t="s">
@@ -16899,7 +16896,7 @@
       </c>
     </row>
     <row r="948" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C948" s="78">
+      <c r="C948" s="73">
         <v>200</v>
       </c>
       <c r="D948" s="39" t="s">
@@ -16913,7 +16910,7 @@
       </c>
     </row>
     <row r="949" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C949" s="78"/>
+      <c r="C949" s="73"/>
       <c r="D949" s="39" t="s">
         <v>358</v>
       </c>
@@ -16925,7 +16922,7 @@
       </c>
     </row>
     <row r="950" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C950" s="78"/>
+      <c r="C950" s="73"/>
       <c r="D950" s="39" t="s">
         <v>360</v>
       </c>
@@ -16937,7 +16934,7 @@
       </c>
     </row>
     <row r="951" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C951" s="78"/>
+      <c r="C951" s="73"/>
       <c r="D951" s="39"/>
       <c r="E951" s="39"/>
       <c r="F951" s="39"/>
@@ -16952,80 +16949,214 @@
     </row>
   </sheetData>
   <mergeCells count="300">
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="C51:C54"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="C59:F59"/>
-    <mergeCell ref="C60:F60"/>
-    <mergeCell ref="C63:F63"/>
-    <mergeCell ref="C66:F66"/>
-    <mergeCell ref="C103:C106"/>
-    <mergeCell ref="C75:F75"/>
-    <mergeCell ref="C76:F76"/>
-    <mergeCell ref="C77:F77"/>
-    <mergeCell ref="C80:F80"/>
-    <mergeCell ref="C83:F83"/>
-    <mergeCell ref="C85:C88"/>
-    <mergeCell ref="C92:F92"/>
-    <mergeCell ref="C93:F93"/>
-    <mergeCell ref="C94:F94"/>
-    <mergeCell ref="C98:F98"/>
-    <mergeCell ref="C101:F101"/>
-    <mergeCell ref="C140:C143"/>
-    <mergeCell ref="C110:F110"/>
-    <mergeCell ref="C111:F111"/>
-    <mergeCell ref="C112:F112"/>
-    <mergeCell ref="C116:F116"/>
-    <mergeCell ref="C119:F119"/>
-    <mergeCell ref="C121:C124"/>
-    <mergeCell ref="C128:F128"/>
-    <mergeCell ref="C129:F129"/>
-    <mergeCell ref="C130:F130"/>
-    <mergeCell ref="C134:F134"/>
-    <mergeCell ref="C138:F138"/>
-    <mergeCell ref="C184:C187"/>
-    <mergeCell ref="C147:F147"/>
-    <mergeCell ref="C148:F148"/>
-    <mergeCell ref="C149:F149"/>
-    <mergeCell ref="C153:F153"/>
-    <mergeCell ref="C162:F162"/>
-    <mergeCell ref="C164:C167"/>
-    <mergeCell ref="C171:F171"/>
-    <mergeCell ref="C172:F172"/>
-    <mergeCell ref="C173:F173"/>
-    <mergeCell ref="C177:F177"/>
-    <mergeCell ref="C182:F182"/>
-    <mergeCell ref="C231:F231"/>
-    <mergeCell ref="C211:F211"/>
-    <mergeCell ref="C212:F212"/>
-    <mergeCell ref="C191:F191"/>
-    <mergeCell ref="C192:F192"/>
-    <mergeCell ref="C193:F193"/>
-    <mergeCell ref="C197:F197"/>
-    <mergeCell ref="C201:F201"/>
-    <mergeCell ref="C203:C206"/>
-    <mergeCell ref="C210:F210"/>
-    <mergeCell ref="C216:F216"/>
-    <mergeCell ref="C221:F221"/>
-    <mergeCell ref="C223:C226"/>
-    <mergeCell ref="C230:F230"/>
+    <mergeCell ref="C948:C951"/>
+    <mergeCell ref="C935:F935"/>
+    <mergeCell ref="C936:F936"/>
+    <mergeCell ref="C937:F937"/>
+    <mergeCell ref="C941:F941"/>
+    <mergeCell ref="C946:F946"/>
+    <mergeCell ref="C916:F916"/>
+    <mergeCell ref="C917:F917"/>
+    <mergeCell ref="C921:F921"/>
+    <mergeCell ref="C926:F926"/>
+    <mergeCell ref="C928:C931"/>
+    <mergeCell ref="C897:F897"/>
+    <mergeCell ref="C901:F901"/>
+    <mergeCell ref="C905:F905"/>
+    <mergeCell ref="C907:C910"/>
+    <mergeCell ref="C915:F915"/>
+    <mergeCell ref="C883:F883"/>
+    <mergeCell ref="C886:F886"/>
+    <mergeCell ref="C888:C891"/>
+    <mergeCell ref="C895:F895"/>
+    <mergeCell ref="C896:F896"/>
+    <mergeCell ref="C868:F868"/>
+    <mergeCell ref="C870:C873"/>
+    <mergeCell ref="C877:F877"/>
+    <mergeCell ref="C878:F878"/>
+    <mergeCell ref="C879:F879"/>
+    <mergeCell ref="C851:C854"/>
+    <mergeCell ref="C858:F858"/>
+    <mergeCell ref="C859:F859"/>
+    <mergeCell ref="C860:F860"/>
+    <mergeCell ref="C864:F864"/>
+    <mergeCell ref="C839:F839"/>
+    <mergeCell ref="C840:F840"/>
+    <mergeCell ref="C841:F841"/>
+    <mergeCell ref="C845:F845"/>
+    <mergeCell ref="C849:F849"/>
+    <mergeCell ref="C821:F821"/>
+    <mergeCell ref="C822:F822"/>
+    <mergeCell ref="C826:F826"/>
+    <mergeCell ref="C830:F830"/>
+    <mergeCell ref="C832:C835"/>
+    <mergeCell ref="C803:F803"/>
+    <mergeCell ref="C807:F807"/>
+    <mergeCell ref="C811:F811"/>
+    <mergeCell ref="C813:C816"/>
+    <mergeCell ref="C820:F820"/>
+    <mergeCell ref="C788:F788"/>
+    <mergeCell ref="C792:F792"/>
+    <mergeCell ref="C794:C797"/>
+    <mergeCell ref="C801:F801"/>
+    <mergeCell ref="C802:F802"/>
+    <mergeCell ref="C773:F773"/>
+    <mergeCell ref="C775:C778"/>
+    <mergeCell ref="C782:F782"/>
+    <mergeCell ref="C783:F783"/>
+    <mergeCell ref="C784:F784"/>
+    <mergeCell ref="C756:C759"/>
+    <mergeCell ref="C763:F763"/>
+    <mergeCell ref="C764:F764"/>
+    <mergeCell ref="C765:F765"/>
+    <mergeCell ref="C769:F769"/>
+    <mergeCell ref="C744:F744"/>
+    <mergeCell ref="C745:F745"/>
+    <mergeCell ref="C746:F746"/>
+    <mergeCell ref="C750:F750"/>
+    <mergeCell ref="C754:F754"/>
+    <mergeCell ref="C726:F726"/>
+    <mergeCell ref="C727:F727"/>
+    <mergeCell ref="C731:F731"/>
+    <mergeCell ref="C735:F735"/>
+    <mergeCell ref="C737:C740"/>
+    <mergeCell ref="C708:F708"/>
+    <mergeCell ref="C712:F712"/>
+    <mergeCell ref="C716:F716"/>
+    <mergeCell ref="C718:C721"/>
+    <mergeCell ref="C725:F725"/>
+    <mergeCell ref="C692:F692"/>
+    <mergeCell ref="C697:F697"/>
+    <mergeCell ref="C699:C702"/>
+    <mergeCell ref="C706:F706"/>
+    <mergeCell ref="C707:F707"/>
+    <mergeCell ref="C677:F677"/>
+    <mergeCell ref="C679:C682"/>
+    <mergeCell ref="C686:F686"/>
+    <mergeCell ref="C687:F687"/>
+    <mergeCell ref="C688:F688"/>
+    <mergeCell ref="C659:C662"/>
+    <mergeCell ref="C666:F666"/>
+    <mergeCell ref="C667:F667"/>
+    <mergeCell ref="C668:F668"/>
+    <mergeCell ref="C672:F672"/>
+    <mergeCell ref="C647:F647"/>
+    <mergeCell ref="C648:F648"/>
+    <mergeCell ref="C649:F649"/>
+    <mergeCell ref="C653:F653"/>
+    <mergeCell ref="C657:F657"/>
+    <mergeCell ref="C629:F629"/>
+    <mergeCell ref="C630:F630"/>
+    <mergeCell ref="C634:F634"/>
+    <mergeCell ref="C638:F638"/>
+    <mergeCell ref="C640:C643"/>
+    <mergeCell ref="C611:F611"/>
+    <mergeCell ref="C615:F615"/>
+    <mergeCell ref="C619:F619"/>
+    <mergeCell ref="C621:C624"/>
+    <mergeCell ref="C628:F628"/>
+    <mergeCell ref="C596:F596"/>
+    <mergeCell ref="C600:F600"/>
+    <mergeCell ref="C602:C605"/>
+    <mergeCell ref="C609:F609"/>
+    <mergeCell ref="C610:F610"/>
+    <mergeCell ref="C581:F581"/>
+    <mergeCell ref="C583:C586"/>
+    <mergeCell ref="C590:F590"/>
+    <mergeCell ref="C591:F591"/>
+    <mergeCell ref="C592:F592"/>
+    <mergeCell ref="C564:C567"/>
+    <mergeCell ref="C571:F571"/>
+    <mergeCell ref="C572:F572"/>
+    <mergeCell ref="C573:F573"/>
+    <mergeCell ref="C577:F577"/>
+    <mergeCell ref="C552:F552"/>
+    <mergeCell ref="C553:F553"/>
+    <mergeCell ref="C554:F554"/>
+    <mergeCell ref="C558:F558"/>
+    <mergeCell ref="C562:F562"/>
+    <mergeCell ref="C534:F534"/>
+    <mergeCell ref="C535:F535"/>
+    <mergeCell ref="C539:F539"/>
+    <mergeCell ref="C543:F543"/>
+    <mergeCell ref="C545:C548"/>
+    <mergeCell ref="C517:F517"/>
+    <mergeCell ref="C521:F521"/>
+    <mergeCell ref="C524:F524"/>
+    <mergeCell ref="C526:C529"/>
+    <mergeCell ref="C533:F533"/>
+    <mergeCell ref="C503:F503"/>
+    <mergeCell ref="C506:F506"/>
+    <mergeCell ref="C508:C511"/>
+    <mergeCell ref="C515:F515"/>
+    <mergeCell ref="C516:F516"/>
+    <mergeCell ref="C488:F488"/>
+    <mergeCell ref="C490:C493"/>
+    <mergeCell ref="C497:F497"/>
+    <mergeCell ref="C498:F498"/>
+    <mergeCell ref="C499:F499"/>
+    <mergeCell ref="C471:C474"/>
+    <mergeCell ref="C478:F478"/>
+    <mergeCell ref="C479:F479"/>
+    <mergeCell ref="C480:F480"/>
+    <mergeCell ref="C484:F484"/>
+    <mergeCell ref="C459:F459"/>
+    <mergeCell ref="C460:F460"/>
+    <mergeCell ref="C461:F461"/>
+    <mergeCell ref="C465:F465"/>
+    <mergeCell ref="C469:F469"/>
+    <mergeCell ref="C441:F441"/>
+    <mergeCell ref="C442:F442"/>
+    <mergeCell ref="C446:F446"/>
+    <mergeCell ref="C450:F450"/>
+    <mergeCell ref="C452:C455"/>
+    <mergeCell ref="C423:F423"/>
+    <mergeCell ref="C427:F427"/>
+    <mergeCell ref="C431:F431"/>
+    <mergeCell ref="C433:C436"/>
+    <mergeCell ref="C440:F440"/>
+    <mergeCell ref="C408:F408"/>
+    <mergeCell ref="C412:F412"/>
+    <mergeCell ref="C414:C417"/>
+    <mergeCell ref="C421:F421"/>
+    <mergeCell ref="C422:F422"/>
+    <mergeCell ref="C393:F393"/>
+    <mergeCell ref="C395:C398"/>
+    <mergeCell ref="C402:F402"/>
+    <mergeCell ref="C403:F403"/>
+    <mergeCell ref="C404:F404"/>
+    <mergeCell ref="C376:C379"/>
+    <mergeCell ref="C383:F383"/>
+    <mergeCell ref="C384:F384"/>
+    <mergeCell ref="C385:F385"/>
+    <mergeCell ref="C389:F389"/>
+    <mergeCell ref="C364:F364"/>
+    <mergeCell ref="C365:F365"/>
+    <mergeCell ref="C366:F366"/>
+    <mergeCell ref="C370:F370"/>
+    <mergeCell ref="C374:F374"/>
+    <mergeCell ref="C345:F345"/>
+    <mergeCell ref="C351:F351"/>
+    <mergeCell ref="C355:F355"/>
+    <mergeCell ref="C357:C360"/>
+    <mergeCell ref="C336:F336"/>
+    <mergeCell ref="C338:C341"/>
+    <mergeCell ref="C346:F346"/>
+    <mergeCell ref="C347:F347"/>
+    <mergeCell ref="C319:C322"/>
+    <mergeCell ref="C326:F326"/>
+    <mergeCell ref="C327:F327"/>
+    <mergeCell ref="C328:F328"/>
+    <mergeCell ref="C332:F332"/>
+    <mergeCell ref="C307:F307"/>
+    <mergeCell ref="C308:F308"/>
+    <mergeCell ref="C309:F309"/>
+    <mergeCell ref="C313:F313"/>
+    <mergeCell ref="C317:F317"/>
+    <mergeCell ref="C290:F290"/>
+    <mergeCell ref="C294:F294"/>
+    <mergeCell ref="C298:F298"/>
+    <mergeCell ref="C300:C303"/>
     <mergeCell ref="C271:F271"/>
     <mergeCell ref="C275:F275"/>
     <mergeCell ref="C279:F279"/>
@@ -17044,214 +17175,80 @@
     <mergeCell ref="C260:F260"/>
     <mergeCell ref="C262:C265"/>
     <mergeCell ref="C269:F269"/>
-    <mergeCell ref="C307:F307"/>
-    <mergeCell ref="C308:F308"/>
-    <mergeCell ref="C309:F309"/>
-    <mergeCell ref="C313:F313"/>
-    <mergeCell ref="C317:F317"/>
-    <mergeCell ref="C290:F290"/>
-    <mergeCell ref="C294:F294"/>
-    <mergeCell ref="C298:F298"/>
-    <mergeCell ref="C300:C303"/>
-    <mergeCell ref="C336:F336"/>
-    <mergeCell ref="C338:C341"/>
-    <mergeCell ref="C346:F346"/>
-    <mergeCell ref="C347:F347"/>
-    <mergeCell ref="C319:C322"/>
-    <mergeCell ref="C326:F326"/>
-    <mergeCell ref="C327:F327"/>
-    <mergeCell ref="C328:F328"/>
-    <mergeCell ref="C332:F332"/>
-    <mergeCell ref="C364:F364"/>
-    <mergeCell ref="C365:F365"/>
-    <mergeCell ref="C366:F366"/>
-    <mergeCell ref="C370:F370"/>
-    <mergeCell ref="C374:F374"/>
-    <mergeCell ref="C345:F345"/>
-    <mergeCell ref="C351:F351"/>
-    <mergeCell ref="C355:F355"/>
-    <mergeCell ref="C357:C360"/>
-    <mergeCell ref="C393:F393"/>
-    <mergeCell ref="C395:C398"/>
-    <mergeCell ref="C402:F402"/>
-    <mergeCell ref="C403:F403"/>
-    <mergeCell ref="C404:F404"/>
-    <mergeCell ref="C376:C379"/>
-    <mergeCell ref="C383:F383"/>
-    <mergeCell ref="C384:F384"/>
-    <mergeCell ref="C385:F385"/>
-    <mergeCell ref="C389:F389"/>
-    <mergeCell ref="C423:F423"/>
-    <mergeCell ref="C427:F427"/>
-    <mergeCell ref="C431:F431"/>
-    <mergeCell ref="C433:C436"/>
-    <mergeCell ref="C440:F440"/>
-    <mergeCell ref="C408:F408"/>
-    <mergeCell ref="C412:F412"/>
-    <mergeCell ref="C414:C417"/>
-    <mergeCell ref="C421:F421"/>
-    <mergeCell ref="C422:F422"/>
-    <mergeCell ref="C459:F459"/>
-    <mergeCell ref="C460:F460"/>
-    <mergeCell ref="C461:F461"/>
-    <mergeCell ref="C465:F465"/>
-    <mergeCell ref="C469:F469"/>
-    <mergeCell ref="C441:F441"/>
-    <mergeCell ref="C442:F442"/>
-    <mergeCell ref="C446:F446"/>
-    <mergeCell ref="C450:F450"/>
-    <mergeCell ref="C452:C455"/>
-    <mergeCell ref="C488:F488"/>
-    <mergeCell ref="C490:C493"/>
-    <mergeCell ref="C497:F497"/>
-    <mergeCell ref="C498:F498"/>
-    <mergeCell ref="C499:F499"/>
-    <mergeCell ref="C471:C474"/>
-    <mergeCell ref="C478:F478"/>
-    <mergeCell ref="C479:F479"/>
-    <mergeCell ref="C480:F480"/>
-    <mergeCell ref="C484:F484"/>
-    <mergeCell ref="C517:F517"/>
-    <mergeCell ref="C521:F521"/>
-    <mergeCell ref="C524:F524"/>
-    <mergeCell ref="C526:C529"/>
-    <mergeCell ref="C533:F533"/>
-    <mergeCell ref="C503:F503"/>
-    <mergeCell ref="C506:F506"/>
-    <mergeCell ref="C508:C511"/>
-    <mergeCell ref="C515:F515"/>
-    <mergeCell ref="C516:F516"/>
-    <mergeCell ref="C552:F552"/>
-    <mergeCell ref="C553:F553"/>
-    <mergeCell ref="C554:F554"/>
-    <mergeCell ref="C558:F558"/>
-    <mergeCell ref="C562:F562"/>
-    <mergeCell ref="C534:F534"/>
-    <mergeCell ref="C535:F535"/>
-    <mergeCell ref="C539:F539"/>
-    <mergeCell ref="C543:F543"/>
-    <mergeCell ref="C545:C548"/>
-    <mergeCell ref="C581:F581"/>
-    <mergeCell ref="C583:C586"/>
-    <mergeCell ref="C590:F590"/>
-    <mergeCell ref="C591:F591"/>
-    <mergeCell ref="C592:F592"/>
-    <mergeCell ref="C564:C567"/>
-    <mergeCell ref="C571:F571"/>
-    <mergeCell ref="C572:F572"/>
-    <mergeCell ref="C573:F573"/>
-    <mergeCell ref="C577:F577"/>
-    <mergeCell ref="C611:F611"/>
-    <mergeCell ref="C615:F615"/>
-    <mergeCell ref="C619:F619"/>
-    <mergeCell ref="C621:C624"/>
-    <mergeCell ref="C628:F628"/>
-    <mergeCell ref="C596:F596"/>
-    <mergeCell ref="C600:F600"/>
-    <mergeCell ref="C602:C605"/>
-    <mergeCell ref="C609:F609"/>
-    <mergeCell ref="C610:F610"/>
-    <mergeCell ref="C647:F647"/>
-    <mergeCell ref="C648:F648"/>
-    <mergeCell ref="C649:F649"/>
-    <mergeCell ref="C653:F653"/>
-    <mergeCell ref="C657:F657"/>
-    <mergeCell ref="C629:F629"/>
-    <mergeCell ref="C630:F630"/>
-    <mergeCell ref="C634:F634"/>
-    <mergeCell ref="C638:F638"/>
-    <mergeCell ref="C640:C643"/>
-    <mergeCell ref="C677:F677"/>
-    <mergeCell ref="C679:C682"/>
-    <mergeCell ref="C686:F686"/>
-    <mergeCell ref="C687:F687"/>
-    <mergeCell ref="C688:F688"/>
-    <mergeCell ref="C659:C662"/>
-    <mergeCell ref="C666:F666"/>
-    <mergeCell ref="C667:F667"/>
-    <mergeCell ref="C668:F668"/>
-    <mergeCell ref="C672:F672"/>
-    <mergeCell ref="C708:F708"/>
-    <mergeCell ref="C712:F712"/>
-    <mergeCell ref="C716:F716"/>
-    <mergeCell ref="C718:C721"/>
-    <mergeCell ref="C725:F725"/>
-    <mergeCell ref="C692:F692"/>
-    <mergeCell ref="C697:F697"/>
-    <mergeCell ref="C699:C702"/>
-    <mergeCell ref="C706:F706"/>
-    <mergeCell ref="C707:F707"/>
-    <mergeCell ref="C744:F744"/>
-    <mergeCell ref="C745:F745"/>
-    <mergeCell ref="C746:F746"/>
-    <mergeCell ref="C750:F750"/>
-    <mergeCell ref="C754:F754"/>
-    <mergeCell ref="C726:F726"/>
-    <mergeCell ref="C727:F727"/>
-    <mergeCell ref="C731:F731"/>
-    <mergeCell ref="C735:F735"/>
-    <mergeCell ref="C737:C740"/>
-    <mergeCell ref="C773:F773"/>
-    <mergeCell ref="C775:C778"/>
-    <mergeCell ref="C782:F782"/>
-    <mergeCell ref="C783:F783"/>
-    <mergeCell ref="C784:F784"/>
-    <mergeCell ref="C756:C759"/>
-    <mergeCell ref="C763:F763"/>
-    <mergeCell ref="C764:F764"/>
-    <mergeCell ref="C765:F765"/>
-    <mergeCell ref="C769:F769"/>
-    <mergeCell ref="C803:F803"/>
-    <mergeCell ref="C807:F807"/>
-    <mergeCell ref="C811:F811"/>
-    <mergeCell ref="C813:C816"/>
-    <mergeCell ref="C820:F820"/>
-    <mergeCell ref="C788:F788"/>
-    <mergeCell ref="C792:F792"/>
-    <mergeCell ref="C794:C797"/>
-    <mergeCell ref="C801:F801"/>
-    <mergeCell ref="C802:F802"/>
-    <mergeCell ref="C839:F839"/>
-    <mergeCell ref="C840:F840"/>
-    <mergeCell ref="C841:F841"/>
-    <mergeCell ref="C845:F845"/>
-    <mergeCell ref="C849:F849"/>
-    <mergeCell ref="C821:F821"/>
-    <mergeCell ref="C822:F822"/>
-    <mergeCell ref="C826:F826"/>
-    <mergeCell ref="C830:F830"/>
-    <mergeCell ref="C832:C835"/>
-    <mergeCell ref="C868:F868"/>
-    <mergeCell ref="C870:C873"/>
-    <mergeCell ref="C877:F877"/>
-    <mergeCell ref="C878:F878"/>
-    <mergeCell ref="C879:F879"/>
-    <mergeCell ref="C851:C854"/>
-    <mergeCell ref="C858:F858"/>
-    <mergeCell ref="C859:F859"/>
-    <mergeCell ref="C860:F860"/>
-    <mergeCell ref="C864:F864"/>
-    <mergeCell ref="C897:F897"/>
-    <mergeCell ref="C901:F901"/>
-    <mergeCell ref="C905:F905"/>
-    <mergeCell ref="C907:C910"/>
-    <mergeCell ref="C915:F915"/>
-    <mergeCell ref="C883:F883"/>
-    <mergeCell ref="C886:F886"/>
-    <mergeCell ref="C888:C891"/>
-    <mergeCell ref="C895:F895"/>
-    <mergeCell ref="C896:F896"/>
-    <mergeCell ref="C948:C951"/>
-    <mergeCell ref="C935:F935"/>
-    <mergeCell ref="C936:F936"/>
-    <mergeCell ref="C937:F937"/>
-    <mergeCell ref="C941:F941"/>
-    <mergeCell ref="C946:F946"/>
-    <mergeCell ref="C916:F916"/>
-    <mergeCell ref="C917:F917"/>
-    <mergeCell ref="C921:F921"/>
-    <mergeCell ref="C926:F926"/>
-    <mergeCell ref="C928:C931"/>
+    <mergeCell ref="C231:F231"/>
+    <mergeCell ref="C211:F211"/>
+    <mergeCell ref="C212:F212"/>
+    <mergeCell ref="C191:F191"/>
+    <mergeCell ref="C192:F192"/>
+    <mergeCell ref="C193:F193"/>
+    <mergeCell ref="C197:F197"/>
+    <mergeCell ref="C201:F201"/>
+    <mergeCell ref="C203:C206"/>
+    <mergeCell ref="C210:F210"/>
+    <mergeCell ref="C216:F216"/>
+    <mergeCell ref="C221:F221"/>
+    <mergeCell ref="C223:C226"/>
+    <mergeCell ref="C230:F230"/>
+    <mergeCell ref="C184:C187"/>
+    <mergeCell ref="C147:F147"/>
+    <mergeCell ref="C148:F148"/>
+    <mergeCell ref="C149:F149"/>
+    <mergeCell ref="C153:F153"/>
+    <mergeCell ref="C162:F162"/>
+    <mergeCell ref="C164:C167"/>
+    <mergeCell ref="C171:F171"/>
+    <mergeCell ref="C172:F172"/>
+    <mergeCell ref="C173:F173"/>
+    <mergeCell ref="C177:F177"/>
+    <mergeCell ref="C182:F182"/>
+    <mergeCell ref="C140:C143"/>
+    <mergeCell ref="C110:F110"/>
+    <mergeCell ref="C111:F111"/>
+    <mergeCell ref="C112:F112"/>
+    <mergeCell ref="C116:F116"/>
+    <mergeCell ref="C119:F119"/>
+    <mergeCell ref="C121:C124"/>
+    <mergeCell ref="C128:F128"/>
+    <mergeCell ref="C129:F129"/>
+    <mergeCell ref="C130:F130"/>
+    <mergeCell ref="C134:F134"/>
+    <mergeCell ref="C138:F138"/>
+    <mergeCell ref="C103:C106"/>
+    <mergeCell ref="C75:F75"/>
+    <mergeCell ref="C76:F76"/>
+    <mergeCell ref="C77:F77"/>
+    <mergeCell ref="C80:F80"/>
+    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="C85:C88"/>
+    <mergeCell ref="C92:F92"/>
+    <mergeCell ref="C93:F93"/>
+    <mergeCell ref="C94:F94"/>
+    <mergeCell ref="C98:F98"/>
+    <mergeCell ref="C101:F101"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C51:C54"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="C63:F63"/>
+    <mergeCell ref="C66:F66"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C32:F32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17261,10 +17258,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0585415E-990D-4C98-B34F-7A71519C3DB1}">
-  <dimension ref="B2:K32"/>
+  <dimension ref="B2:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -17464,6 +17461,9 @@
       </c>
     </row>
     <row r="10" spans="2:11" ht="33">
+      <c r="C10" s="111" t="s">
+        <v>628</v>
+      </c>
       <c r="H10" s="21">
         <v>409</v>
       </c>
@@ -17478,6 +17478,9 @@
       </c>
     </row>
     <row r="11" spans="2:11" ht="33">
+      <c r="C11" s="111" t="s">
+        <v>629</v>
+      </c>
       <c r="H11" s="21">
         <v>500</v>
       </c>
@@ -17492,6 +17495,9 @@
       </c>
     </row>
     <row r="12" spans="2:11" ht="33">
+      <c r="C12" s="111" t="s">
+        <v>630</v>
+      </c>
       <c r="H12" s="21">
         <v>503</v>
       </c>
@@ -17506,6 +17512,9 @@
       </c>
     </row>
     <row r="13" spans="2:11" ht="33">
+      <c r="C13" s="111" t="s">
+        <v>631</v>
+      </c>
       <c r="H13" s="21">
         <v>5101</v>
       </c>
@@ -17520,6 +17529,9 @@
       </c>
     </row>
     <row r="14" spans="2:11" ht="33">
+      <c r="C14" s="111" t="s">
+        <v>632</v>
+      </c>
       <c r="H14" s="21">
         <v>5102</v>
       </c>
@@ -17534,6 +17546,9 @@
       </c>
     </row>
     <row r="15" spans="2:11">
+      <c r="C15" s="111" t="s">
+        <v>633</v>
+      </c>
       <c r="H15" s="21">
         <v>5103</v>
       </c>
@@ -17548,6 +17563,9 @@
       </c>
     </row>
     <row r="16" spans="2:11">
+      <c r="C16" s="111" t="s">
+        <v>634</v>
+      </c>
       <c r="H16" s="21">
         <v>5104</v>
       </c>
@@ -17562,6 +17580,9 @@
       </c>
     </row>
     <row r="17" spans="2:11">
+      <c r="C17" s="111" t="s">
+        <v>635</v>
+      </c>
       <c r="H17" s="21">
         <v>5201</v>
       </c>
@@ -17576,6 +17597,7 @@
       </c>
     </row>
     <row r="18" spans="2:11">
+      <c r="C18" s="111"/>
       <c r="H18" s="21">
         <v>5202</v>
       </c>
@@ -17590,6 +17612,9 @@
       </c>
     </row>
     <row r="19" spans="2:11">
+      <c r="C19" s="111" t="s">
+        <v>636</v>
+      </c>
       <c r="H19" s="21">
         <v>5203</v>
       </c>
@@ -17603,92 +17628,144 @@
         <v>281</v>
       </c>
     </row>
-    <row r="22" spans="2:11" ht="17.25" thickBot="1">
-      <c r="B22" s="116">
-        <v>0</v>
-      </c>
-      <c r="C22" s="117" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B23" s="116">
-        <v>2300</v>
-      </c>
-      <c r="C23" s="117" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B24" s="116">
-        <v>4000</v>
-      </c>
-      <c r="C24" s="117" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" ht="17.25" thickBot="1">
-      <c r="B25" s="116">
-        <v>4001</v>
-      </c>
-      <c r="C25" s="117" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11" ht="17.25" thickBot="1">
-      <c r="B26" s="116">
-        <v>5000</v>
-      </c>
-      <c r="C26" s="117" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11" ht="39" thickBot="1">
-      <c r="B27" s="116">
-        <v>5001</v>
-      </c>
-      <c r="C27" s="117" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B28" s="116">
-        <v>6000</v>
-      </c>
-      <c r="C28" s="117" t="s">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" ht="17.25" thickBot="1">
-      <c r="B29" s="116">
-        <v>6001</v>
-      </c>
-      <c r="C29" s="117" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B30" s="116">
-        <v>7000</v>
-      </c>
-      <c r="C30" s="117" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" ht="26.25" thickBot="1">
-      <c r="B31" s="116">
-        <v>7001</v>
-      </c>
-      <c r="C31" s="117" t="s">
+    <row r="20" spans="2:11">
+      <c r="C20" s="111" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="32" spans="2:11" ht="17.25" thickBot="1">
-      <c r="B32" s="116">
-        <v>9999</v>
-      </c>
-      <c r="C32" s="117" t="s">
+    <row r="21" spans="2:11">
+      <c r="B21" s="111"/>
+      <c r="C21" s="111"/>
+      <c r="D21" s="111"/>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="B22" s="111"/>
+      <c r="C22" s="111" t="s">
         <v>638</v>
+      </c>
+      <c r="D22" s="111"/>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="B23" s="111"/>
+      <c r="C23" s="111" t="s">
+        <v>639</v>
+      </c>
+      <c r="D23" s="111"/>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="B24" s="111"/>
+      <c r="C24" s="111" t="s">
+        <v>640</v>
+      </c>
+      <c r="D24" s="111"/>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="111"/>
+      <c r="C25" s="111" t="s">
+        <v>641</v>
+      </c>
+      <c r="D25" s="111"/>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="111"/>
+      <c r="C26" s="111" t="s">
+        <v>642</v>
+      </c>
+      <c r="D26" s="111"/>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="111"/>
+      <c r="C27" s="111" t="s">
+        <v>643</v>
+      </c>
+      <c r="D27" s="111"/>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" s="111"/>
+      <c r="C28" s="111" t="s">
+        <v>644</v>
+      </c>
+      <c r="D28" s="111"/>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="B29" s="111"/>
+      <c r="C29" s="111" t="s">
+        <v>645</v>
+      </c>
+      <c r="D29" s="111"/>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" s="111"/>
+      <c r="C30" s="111" t="s">
+        <v>646</v>
+      </c>
+      <c r="D30" s="111"/>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" s="111"/>
+      <c r="C31" s="111"/>
+      <c r="D31" s="111"/>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="B32" s="111"/>
+      <c r="C32" s="111" t="s">
+        <v>647</v>
+      </c>
+      <c r="D32" s="111"/>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="111" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="111" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="111" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3">
+      <c r="C36" s="111" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3">
+      <c r="C37" s="111" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3">
+      <c r="C38" s="111" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3">
+      <c r="C39" s="111" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3">
+      <c r="C40" s="111" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3">
+      <c r="C41" s="111" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3">
+      <c r="C42" s="111" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3">
+      <c r="C43" s="111" t="s">
+        <v>658</v>
       </c>
     </row>
   </sheetData>

--- a/docs/APIDocs/API명세서.xlsx
+++ b/docs/APIDocs/API명세서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\GameProject\docs\APIDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F859C290-A7BC-4F26-8E07-3356EFDEF779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C009E7-E4DE-4D0C-A4F1-23A932C97AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-4800" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{4E8C34D6-CE1A-427D-9403-2013A6AFC92D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{4E8C34D6-CE1A-427D-9403-2013A6AFC92D}"/>
   </bookViews>
   <sheets>
     <sheet name="시나리오" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2917" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2920" uniqueCount="681">
   <si>
     <t>URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2244,11 +2244,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>낚시배의 출항하는 액션(낚시배, 피로도 등 감소)
-풍량별로 보로롱24 내구도, 연료 감소 미적용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
     "mapCode": 1,
     "limit" : 10,
@@ -2369,11 +2364,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>낚시하기 기능(채비 내구도 배 내구도 만큼 감소, 카운트는 1씩 감소)
-채비별 확률 미적용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{
     "inventoryCode": 2092,
     "inventoryCount": 1
@@ -3026,6 +3016,26 @@
   </si>
   <si>
     <t>데이터가 MAX인 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO_FISH_DEPTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용중인 채비로 해당 수심에 도달 할 수 없습니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채비 수심 체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시배의 출항하는 액션(낚시배, 피로도 등 감소)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>낚시하기 기능(채비 내구도 배 내구도 만큼 감소, 카운트는 1씩 감소)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4000,7 +4010,7 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4147,6 +4157,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4157,6 +4185,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="44" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4264,30 +4298,6 @@
     <xf numFmtId="0" fontId="30" fillId="36" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -4297,8 +4307,14 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="43" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="45">
@@ -5566,7 +5582,7 @@
   <dimension ref="B1:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5624,7 +5640,7 @@
       <c r="C3" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="56" t="s">
         <v>163</v>
       </c>
       <c r="E3" s="17" t="s">
@@ -5656,7 +5672,7 @@
       <c r="C4" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D4" s="51"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="17" t="s">
         <v>4</v>
       </c>
@@ -5686,7 +5702,7 @@
       <c r="C5" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D5" s="51"/>
+      <c r="D5" s="57"/>
       <c r="E5" s="17" t="s">
         <v>4</v>
       </c>
@@ -5714,14 +5730,14 @@
       <c r="C6" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D6" s="51"/>
+      <c r="D6" s="57"/>
       <c r="E6" s="17" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="G6" s="93" t="s">
+      <c r="G6" s="50" t="s">
         <v>203</v>
       </c>
       <c r="H6" s="45" t="s">
@@ -5744,7 +5760,7 @@
       <c r="C7" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D7" s="52"/>
+      <c r="D7" s="58"/>
       <c r="E7" s="17" t="s">
         <v>4</v>
       </c>
@@ -5774,7 +5790,7 @@
       <c r="C8" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="56" t="s">
         <v>165</v>
       </c>
       <c r="E8" s="17" t="s">
@@ -5806,7 +5822,7 @@
       <c r="C9" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D9" s="51"/>
+      <c r="D9" s="57"/>
       <c r="E9" s="17" t="s">
         <v>4</v>
       </c>
@@ -5836,7 +5852,7 @@
       <c r="C10" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D10" s="51"/>
+      <c r="D10" s="57"/>
       <c r="E10" s="17" t="s">
         <v>4</v>
       </c>
@@ -5866,7 +5882,7 @@
       <c r="C11" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D11" s="51"/>
+      <c r="D11" s="57"/>
       <c r="E11" s="17" t="s">
         <v>4</v>
       </c>
@@ -5896,7 +5912,7 @@
       <c r="C12" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D12" s="51"/>
+      <c r="D12" s="57"/>
       <c r="E12" s="17" t="s">
         <v>4</v>
       </c>
@@ -5926,7 +5942,7 @@
       <c r="C13" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D13" s="51"/>
+      <c r="D13" s="57"/>
       <c r="E13" s="17" t="s">
         <v>4</v>
       </c>
@@ -5956,7 +5972,7 @@
       <c r="C14" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D14" s="51"/>
+      <c r="D14" s="57"/>
       <c r="E14" s="17" t="s">
         <v>4</v>
       </c>
@@ -5986,7 +6002,7 @@
       <c r="C15" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D15" s="51"/>
+      <c r="D15" s="57"/>
       <c r="E15" s="17" t="s">
         <v>4</v>
       </c>
@@ -6016,7 +6032,7 @@
       <c r="C16" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D16" s="51"/>
+      <c r="D16" s="57"/>
       <c r="E16" s="17" t="s">
         <v>4</v>
       </c>
@@ -6046,12 +6062,12 @@
       <c r="C17" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D17" s="51"/>
+      <c r="D17" s="57"/>
       <c r="E17" s="17" t="s">
         <v>4</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G17" s="17" t="s">
         <v>203</v>
@@ -6076,7 +6092,7 @@
       <c r="C18" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D18" s="51"/>
+      <c r="D18" s="57"/>
       <c r="E18" s="17" t="s">
         <v>4</v>
       </c>
@@ -6087,7 +6103,7 @@
         <v>203</v>
       </c>
       <c r="H18" s="45" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I18" s="45" t="s">
         <v>262</v>
@@ -6096,7 +6112,7 @@
         <v>203</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="19" spans="2:11" s="46" customFormat="1" ht="115.5">
@@ -6106,7 +6122,7 @@
       <c r="C19" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D19" s="51"/>
+      <c r="D19" s="57"/>
       <c r="E19" s="17" t="s">
         <v>4</v>
       </c>
@@ -6136,7 +6152,7 @@
       <c r="C20" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D20" s="51"/>
+      <c r="D20" s="57"/>
       <c r="E20" s="17" t="s">
         <v>4</v>
       </c>
@@ -6166,7 +6182,7 @@
       <c r="C21" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D21" s="51"/>
+      <c r="D21" s="57"/>
       <c r="E21" s="17" t="s">
         <v>4</v>
       </c>
@@ -6196,7 +6212,7 @@
       <c r="C22" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D22" s="51"/>
+      <c r="D22" s="57"/>
       <c r="E22" s="17" t="s">
         <v>4</v>
       </c>
@@ -6226,7 +6242,7 @@
       <c r="C23" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D23" s="51"/>
+      <c r="D23" s="57"/>
       <c r="E23" s="17" t="s">
         <v>4</v>
       </c>
@@ -6237,7 +6253,7 @@
         <v>203</v>
       </c>
       <c r="H23" s="45" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I23" s="45" t="s">
         <v>266</v>
@@ -6256,12 +6272,12 @@
       <c r="C24" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D24" s="51"/>
+      <c r="D24" s="57"/>
       <c r="E24" s="17" t="s">
         <v>4</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G24" s="17" t="s">
         <v>203</v>
@@ -6286,7 +6302,7 @@
       <c r="C25" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D25" s="51"/>
+      <c r="D25" s="57"/>
       <c r="E25" s="17" t="s">
         <v>4</v>
       </c>
@@ -6297,7 +6313,7 @@
         <v>203</v>
       </c>
       <c r="H25" s="45" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I25" s="17" t="s">
         <v>203</v>
@@ -6316,7 +6332,7 @@
       <c r="C26" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D26" s="51"/>
+      <c r="D26" s="57"/>
       <c r="E26" s="17" t="s">
         <v>4</v>
       </c>
@@ -6346,7 +6362,7 @@
       <c r="C27" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D27" s="51"/>
+      <c r="D27" s="57"/>
       <c r="E27" s="17" t="s">
         <v>4</v>
       </c>
@@ -6376,7 +6392,7 @@
       <c r="C28" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D28" s="51"/>
+      <c r="D28" s="57"/>
       <c r="E28" s="17" t="s">
         <v>4</v>
       </c>
@@ -6387,7 +6403,7 @@
         <v>203</v>
       </c>
       <c r="H28" s="45" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I28" s="45" t="s">
         <v>268</v>
@@ -6406,18 +6422,18 @@
       <c r="C29" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D29" s="51"/>
+      <c r="D29" s="57"/>
       <c r="E29" s="17" t="s">
         <v>4</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G29" s="17" t="s">
         <v>203</v>
       </c>
       <c r="H29" s="45" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I29" s="45" t="s">
         <v>204</v>
@@ -6426,7 +6442,7 @@
         <v>203</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="30" spans="2:11" s="46" customFormat="1" ht="82.5">
@@ -6436,7 +6452,7 @@
       <c r="C30" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D30" s="52"/>
+      <c r="D30" s="58"/>
       <c r="E30" s="17" t="s">
         <v>4</v>
       </c>
@@ -6447,7 +6463,7 @@
         <v>203</v>
       </c>
       <c r="H30" s="45" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I30" s="45" t="s">
         <v>204</v>
@@ -6456,7 +6472,7 @@
         <v>203</v>
       </c>
       <c r="K30" s="45" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="31" spans="2:11" s="46" customFormat="1" ht="115.5">
@@ -6466,7 +6482,7 @@
       <c r="C31" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D31" s="50" t="s">
+      <c r="D31" s="56" t="s">
         <v>167</v>
       </c>
       <c r="E31" s="17" t="s">
@@ -6496,14 +6512,14 @@
       <c r="C32" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D32" s="51"/>
+      <c r="D32" s="57"/>
       <c r="E32" s="17" t="s">
         <v>4</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>482</v>
       </c>
-      <c r="G32" s="93" t="s">
+      <c r="G32" s="50" t="s">
         <v>203</v>
       </c>
       <c r="H32" s="45" t="s">
@@ -6526,7 +6542,7 @@
       <c r="C33" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D33" s="51"/>
+      <c r="D33" s="57"/>
       <c r="E33" s="17" t="s">
         <v>4</v>
       </c>
@@ -6546,7 +6562,7 @@
         <v>203</v>
       </c>
       <c r="K33" s="45" t="s">
-        <v>495</v>
+        <v>679</v>
       </c>
     </row>
     <row r="34" spans="2:11" s="46" customFormat="1" ht="82.5">
@@ -6556,7 +6572,7 @@
       <c r="C34" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D34" s="51"/>
+      <c r="D34" s="57"/>
       <c r="E34" s="17" t="s">
         <v>4</v>
       </c>
@@ -6586,7 +6602,7 @@
       <c r="C35" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D35" s="53"/>
+      <c r="D35" s="59"/>
       <c r="E35" s="17" t="s">
         <v>4</v>
       </c>
@@ -6616,7 +6632,7 @@
       <c r="C36" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D36" s="49" t="s">
+      <c r="D36" s="54" t="s">
         <v>169</v>
       </c>
       <c r="E36" s="17" t="s">
@@ -6638,7 +6654,7 @@
         <v>203</v>
       </c>
       <c r="K36" s="45" t="s">
-        <v>517</v>
+        <v>680</v>
       </c>
     </row>
     <row r="37" spans="2:11" s="46" customFormat="1" ht="115.5">
@@ -6648,7 +6664,7 @@
       <c r="C37" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D37" s="49"/>
+      <c r="D37" s="54"/>
       <c r="E37" s="17" t="s">
         <v>4</v>
       </c>
@@ -6659,7 +6675,7 @@
         <v>203</v>
       </c>
       <c r="H37" s="45" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I37" s="45" t="s">
         <v>271</v>
@@ -6678,7 +6694,7 @@
       <c r="C38" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D38" s="49"/>
+      <c r="D38" s="54"/>
       <c r="E38" s="17" t="s">
         <v>4</v>
       </c>
@@ -6708,7 +6724,7 @@
       <c r="C39" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D39" s="49"/>
+      <c r="D39" s="54"/>
       <c r="E39" s="17" t="s">
         <v>4</v>
       </c>
@@ -6738,7 +6754,7 @@
       <c r="C40" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D40" s="95" t="s">
+      <c r="D40" s="55" t="s">
         <v>171</v>
       </c>
       <c r="E40" s="17" t="s">
@@ -6770,7 +6786,7 @@
       <c r="C41" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D41" s="95"/>
+      <c r="D41" s="55"/>
       <c r="E41" s="17" t="s">
         <v>4</v>
       </c>
@@ -6800,7 +6816,7 @@
       <c r="C42" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D42" s="95"/>
+      <c r="D42" s="55"/>
       <c r="E42" s="17" t="s">
         <v>4</v>
       </c>
@@ -6830,7 +6846,7 @@
       <c r="C43" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D43" s="95"/>
+      <c r="D43" s="55"/>
       <c r="E43" s="17" t="s">
         <v>4</v>
       </c>
@@ -6860,7 +6876,7 @@
       <c r="C44" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D44" s="49"/>
+      <c r="D44" s="54"/>
       <c r="E44" s="17" t="s">
         <v>4</v>
       </c>
@@ -6871,7 +6887,7 @@
         <v>203</v>
       </c>
       <c r="H44" s="45" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I44" s="45" t="s">
         <v>204</v>
@@ -6880,7 +6896,7 @@
         <v>203</v>
       </c>
       <c r="K44" s="45" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="45" spans="2:11" s="46" customFormat="1" ht="82.5">
@@ -6890,7 +6906,7 @@
       <c r="C45" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D45" s="49"/>
+      <c r="D45" s="54"/>
       <c r="E45" s="17" t="s">
         <v>4</v>
       </c>
@@ -6901,7 +6917,7 @@
         <v>203</v>
       </c>
       <c r="H45" s="45" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="I45" s="45" t="s">
         <v>204</v>
@@ -6910,7 +6926,7 @@
         <v>203</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="46" spans="2:11" s="46" customFormat="1" ht="49.5">
@@ -6920,7 +6936,7 @@
       <c r="C46" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D46" s="92" t="s">
+      <c r="D46" s="60" t="s">
         <v>176</v>
       </c>
       <c r="E46" s="17" t="s">
@@ -6942,7 +6958,7 @@
         <v>203</v>
       </c>
       <c r="K46" s="45" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="47" spans="2:11" s="46" customFormat="1" ht="99">
@@ -6952,7 +6968,7 @@
       <c r="C47" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D47" s="94"/>
+      <c r="D47" s="61"/>
       <c r="E47" s="17" t="s">
         <v>4</v>
       </c>
@@ -6963,7 +6979,7 @@
         <v>203</v>
       </c>
       <c r="H47" s="45" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I47" s="17" t="s">
         <v>203</v>
@@ -6972,7 +6988,7 @@
         <v>203</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="48" spans="2:11" s="46" customFormat="1" ht="115.5">
@@ -6982,7 +6998,7 @@
       <c r="C48" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D48" s="50" t="s">
+      <c r="D48" s="56" t="s">
         <v>177</v>
       </c>
       <c r="E48" s="17" t="s">
@@ -7012,7 +7028,7 @@
       <c r="C49" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D49" s="51"/>
+      <c r="D49" s="57"/>
       <c r="E49" s="17" t="s">
         <v>4</v>
       </c>
@@ -7021,7 +7037,7 @@
       </c>
       <c r="G49" s="17"/>
       <c r="H49" s="45" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="I49" s="45" t="s">
         <v>276</v>
@@ -7040,18 +7056,18 @@
       <c r="C50" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D50" s="51"/>
+      <c r="D50" s="57"/>
       <c r="E50" s="17" t="s">
         <v>4</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G50" s="17" t="s">
         <v>203</v>
       </c>
       <c r="H50" s="45" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="I50" s="45" t="s">
         <v>275</v>
@@ -7060,7 +7076,7 @@
         <v>203</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="51" spans="2:11" s="46" customFormat="1" ht="115.5">
@@ -7070,18 +7086,18 @@
       <c r="C51" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D51" s="51"/>
+      <c r="D51" s="57"/>
       <c r="E51" s="17" t="s">
         <v>4</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G51" s="17" t="s">
         <v>203</v>
       </c>
       <c r="H51" s="45" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="I51" s="45" t="s">
         <v>276</v>
@@ -7090,7 +7106,7 @@
         <v>203</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="52" spans="2:11" s="46" customFormat="1" ht="115.5">
@@ -7100,7 +7116,7 @@
       <c r="C52" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D52" s="95" t="s">
+      <c r="D52" s="55" t="s">
         <v>178</v>
       </c>
       <c r="E52" s="17" t="s">
@@ -7130,7 +7146,7 @@
       <c r="C53" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D53" s="95"/>
+      <c r="D53" s="55"/>
       <c r="E53" s="17" t="s">
         <v>4</v>
       </c>
@@ -7141,7 +7157,7 @@
         <v>203</v>
       </c>
       <c r="H53" s="45" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="I53" s="45" t="s">
         <v>278</v>
@@ -7160,7 +7176,7 @@
       <c r="C54" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D54" s="95"/>
+      <c r="D54" s="55"/>
       <c r="E54" s="17" t="s">
         <v>4</v>
       </c>
@@ -7171,7 +7187,7 @@
         <v>451</v>
       </c>
       <c r="H54" s="45" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I54" s="45" t="s">
         <v>204</v>
@@ -7190,7 +7206,7 @@
       <c r="C55" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="D55" s="95"/>
+      <c r="D55" s="55"/>
       <c r="E55" s="17" t="s">
         <v>4</v>
       </c>
@@ -7201,7 +7217,7 @@
         <v>203</v>
       </c>
       <c r="H55" s="45" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="I55" s="17" t="s">
         <v>203</v>
@@ -7242,7 +7258,7 @@
   <dimension ref="A1:F1031"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:F3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -7270,28 +7286,28 @@
       <c r="B2" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="100" t="s">
         <v>364</v>
       </c>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="91"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="102"/>
     </row>
     <row r="3" spans="1:6" ht="32.450000000000003" customHeight="1" thickBot="1">
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="66" t="s">
         <v>293</v>
       </c>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="68"/>
     </row>
     <row r="4" spans="1:6" ht="25.15" customHeight="1" thickBot="1">
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="63"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="71"/>
     </row>
     <row r="5" spans="1:6" ht="18" thickBot="1">
       <c r="C5" s="25" t="s">
@@ -7318,12 +7334,12 @@
       <c r="F6" s="27"/>
     </row>
     <row r="7" spans="1:6" ht="27" thickBot="1">
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="66"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="74"/>
     </row>
     <row r="8" spans="1:6" ht="18" thickBot="1">
       <c r="C8" s="29" t="s">
@@ -7343,7 +7359,7 @@
       <c r="A9" s="23"/>
       <c r="B9" s="23"/>
       <c r="C9" s="30" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D9" s="30" t="s">
         <v>295</v>
@@ -7359,7 +7375,7 @@
       <c r="A10" s="23"/>
       <c r="B10" s="23"/>
       <c r="C10" s="30" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D10" s="30" t="s">
         <v>295</v>
@@ -7375,7 +7391,7 @@
       <c r="A11" s="23"/>
       <c r="B11" s="23"/>
       <c r="C11" s="30" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D11" s="30" t="s">
         <v>296</v>
@@ -7391,7 +7407,7 @@
       <c r="A12" s="23"/>
       <c r="B12" s="23"/>
       <c r="C12" s="30" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D12" s="30" t="s">
         <v>296</v>
@@ -7405,7 +7421,7 @@
     </row>
     <row r="13" spans="1:6" ht="17.25" thickBot="1">
       <c r="C13" s="30" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D13" s="30" t="s">
         <v>296</v>
@@ -7418,12 +7434,12 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="27" thickBot="1">
-      <c r="C14" s="67" t="s">
+      <c r="C14" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
     </row>
     <row r="15" spans="1:6" ht="18" thickBot="1">
       <c r="C15" s="29" t="s">
@@ -7440,7 +7456,7 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C16" s="54">
+      <c r="C16" s="62">
         <v>200</v>
       </c>
       <c r="D16" s="31" t="s">
@@ -7454,7 +7470,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C17" s="54"/>
+      <c r="C17" s="62"/>
       <c r="D17" s="31" t="s">
         <v>305</v>
       </c>
@@ -7466,7 +7482,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C18" s="54"/>
+      <c r="C18" s="62"/>
       <c r="D18" s="31" t="s">
         <v>307</v>
       </c>
@@ -7478,7 +7494,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C19" s="54"/>
+      <c r="C19" s="62"/>
       <c r="D19" s="31"/>
       <c r="E19" s="31"/>
       <c r="F19" s="31"/>
@@ -7499,28 +7515,28 @@
       <c r="B23" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="C23" s="89" t="s">
-        <v>522</v>
-      </c>
-      <c r="D23" s="90"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="91"/>
+      <c r="C23" s="100" t="s">
+        <v>520</v>
+      </c>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="102"/>
     </row>
     <row r="24" spans="1:6" ht="18" thickBot="1">
-      <c r="C24" s="58" t="s">
+      <c r="C24" s="66" t="s">
         <v>292</v>
       </c>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="60"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="68"/>
     </row>
     <row r="25" spans="1:6" ht="27" thickBot="1">
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="63"/>
+      <c r="D25" s="70"/>
+      <c r="E25" s="70"/>
+      <c r="F25" s="71"/>
     </row>
     <row r="26" spans="1:6" ht="18" thickBot="1">
       <c r="C26" s="25" t="s">
@@ -7547,12 +7563,12 @@
       <c r="F27" s="27"/>
     </row>
     <row r="28" spans="1:6" ht="27" thickBot="1">
-      <c r="C28" s="64" t="s">
+      <c r="C28" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D28" s="65"/>
-      <c r="E28" s="65"/>
-      <c r="F28" s="66"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="74"/>
     </row>
     <row r="29" spans="1:6" ht="18" thickBot="1">
       <c r="C29" s="29" t="s">
@@ -7570,7 +7586,7 @@
     </row>
     <row r="30" spans="1:6" ht="17.25" thickBot="1">
       <c r="C30" s="30" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D30" s="30" t="s">
         <v>295</v>
@@ -7584,7 +7600,7 @@
     </row>
     <row r="31" spans="1:6" ht="17.25" thickBot="1">
       <c r="C31" s="30" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D31" s="30" t="s">
         <v>295</v>
@@ -7597,12 +7613,12 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="27" thickBot="1">
-      <c r="C32" s="67" t="s">
+      <c r="C32" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="67"/>
+      <c r="D32" s="75"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
     </row>
     <row r="33" spans="1:6" ht="18" thickBot="1">
       <c r="C33" s="29" t="s">
@@ -7619,7 +7635,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C34" s="54">
+      <c r="C34" s="62">
         <v>200</v>
       </c>
       <c r="D34" s="31" t="s">
@@ -7633,7 +7649,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C35" s="54"/>
+      <c r="C35" s="62"/>
       <c r="D35" s="31" t="s">
         <v>305</v>
       </c>
@@ -7645,7 +7661,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C36" s="54"/>
+      <c r="C36" s="62"/>
       <c r="D36" s="31" t="s">
         <v>307</v>
       </c>
@@ -7657,7 +7673,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C37" s="54"/>
+      <c r="C37" s="62"/>
       <c r="D37" s="31"/>
       <c r="E37" s="31"/>
       <c r="F37" s="31"/>
@@ -7678,28 +7694,28 @@
       <c r="B41" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="C41" s="89" t="s">
+      <c r="C41" s="100" t="s">
+        <v>521</v>
+      </c>
+      <c r="D41" s="101"/>
+      <c r="E41" s="101"/>
+      <c r="F41" s="102"/>
+    </row>
+    <row r="42" spans="1:6" ht="18" thickBot="1">
+      <c r="C42" s="66" t="s">
         <v>523</v>
       </c>
-      <c r="D41" s="90"/>
-      <c r="E41" s="90"/>
-      <c r="F41" s="91"/>
-    </row>
-    <row r="42" spans="1:6" ht="18" thickBot="1">
-      <c r="C42" s="58" t="s">
-        <v>525</v>
-      </c>
-      <c r="D42" s="59"/>
-      <c r="E42" s="59"/>
-      <c r="F42" s="60"/>
+      <c r="D42" s="67"/>
+      <c r="E42" s="67"/>
+      <c r="F42" s="68"/>
     </row>
     <row r="43" spans="1:6" ht="27" thickBot="1">
-      <c r="C43" s="61" t="s">
+      <c r="C43" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D43" s="62"/>
-      <c r="E43" s="62"/>
-      <c r="F43" s="63"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="71"/>
     </row>
     <row r="44" spans="1:6" ht="18" thickBot="1">
       <c r="C44" s="25" t="s">
@@ -7737,17 +7753,17 @@
         <v>284</v>
       </c>
       <c r="E46" s="27" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F46" s="27"/>
     </row>
     <row r="47" spans="1:6" ht="27" thickBot="1">
-      <c r="C47" s="64" t="s">
+      <c r="C47" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D47" s="65"/>
-      <c r="E47" s="65"/>
-      <c r="F47" s="66"/>
+      <c r="D47" s="73"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="74"/>
     </row>
     <row r="48" spans="1:6" ht="18" thickBot="1">
       <c r="C48" s="29" t="s">
@@ -7770,12 +7786,12 @@
       <c r="F49" s="30"/>
     </row>
     <row r="50" spans="1:6" ht="27" thickBot="1">
-      <c r="C50" s="67" t="s">
+      <c r="C50" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D50" s="67"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="67"/>
+      <c r="D50" s="75"/>
+      <c r="E50" s="75"/>
+      <c r="F50" s="75"/>
     </row>
     <row r="51" spans="1:6" ht="18" thickBot="1">
       <c r="C51" s="29" t="s">
@@ -7792,7 +7808,7 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C52" s="54">
+      <c r="C52" s="62">
         <v>200</v>
       </c>
       <c r="D52" s="31" t="s">
@@ -7806,7 +7822,7 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C53" s="54"/>
+      <c r="C53" s="62"/>
       <c r="D53" s="31" t="s">
         <v>305</v>
       </c>
@@ -7818,7 +7834,7 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C54" s="54"/>
+      <c r="C54" s="62"/>
       <c r="D54" s="31" t="s">
         <v>307</v>
       </c>
@@ -7830,7 +7846,7 @@
       </c>
     </row>
     <row r="55" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C55" s="54"/>
+      <c r="C55" s="62"/>
       <c r="D55" s="31"/>
       <c r="E55" s="31"/>
       <c r="F55" s="31"/>
@@ -7851,28 +7867,28 @@
       <c r="B59" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="C59" s="89" t="s">
+      <c r="C59" s="100" t="s">
         <v>365</v>
       </c>
-      <c r="D59" s="90"/>
-      <c r="E59" s="90"/>
-      <c r="F59" s="91"/>
+      <c r="D59" s="101"/>
+      <c r="E59" s="101"/>
+      <c r="F59" s="102"/>
     </row>
     <row r="60" spans="1:6" ht="18" thickBot="1">
-      <c r="C60" s="58" t="s">
+      <c r="C60" s="66" t="s">
         <v>309</v>
       </c>
-      <c r="D60" s="59"/>
-      <c r="E60" s="59"/>
-      <c r="F60" s="60"/>
+      <c r="D60" s="67"/>
+      <c r="E60" s="67"/>
+      <c r="F60" s="68"/>
     </row>
     <row r="61" spans="1:6" ht="27" thickBot="1">
-      <c r="C61" s="61" t="s">
+      <c r="C61" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D61" s="62"/>
-      <c r="E61" s="62"/>
-      <c r="F61" s="63"/>
+      <c r="D61" s="70"/>
+      <c r="E61" s="70"/>
+      <c r="F61" s="71"/>
     </row>
     <row r="62" spans="1:6" ht="18" thickBot="1">
       <c r="C62" s="25" t="s">
@@ -7899,12 +7915,12 @@
       <c r="F63" s="27"/>
     </row>
     <row r="64" spans="1:6" ht="27" thickBot="1">
-      <c r="C64" s="64" t="s">
+      <c r="C64" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D64" s="65"/>
-      <c r="E64" s="65"/>
-      <c r="F64" s="66"/>
+      <c r="D64" s="73"/>
+      <c r="E64" s="73"/>
+      <c r="F64" s="74"/>
     </row>
     <row r="65" spans="1:6" ht="18" thickBot="1">
       <c r="C65" s="29" t="s">
@@ -7924,7 +7940,7 @@
       <c r="A66" s="23"/>
       <c r="B66" s="23"/>
       <c r="C66" s="30" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D66" s="30" t="s">
         <v>295</v>
@@ -7940,7 +7956,7 @@
       <c r="A67" s="23"/>
       <c r="B67" s="23"/>
       <c r="C67" s="30" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D67" s="30" t="s">
         <v>295</v>
@@ -7956,7 +7972,7 @@
       <c r="A68" s="23"/>
       <c r="B68" s="23"/>
       <c r="C68" s="30" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="D68" s="30" t="s">
         <v>296</v>
@@ -7972,7 +7988,7 @@
       <c r="A69" s="23"/>
       <c r="B69" s="23"/>
       <c r="C69" s="30" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D69" s="30" t="s">
         <v>296</v>
@@ -7988,7 +8004,7 @@
       <c r="A70" s="23"/>
       <c r="B70" s="23"/>
       <c r="C70" s="30" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D70" s="30" t="s">
         <v>296</v>
@@ -8011,12 +8027,12 @@
     <row r="72" spans="1:6" s="12" customFormat="1" ht="27" thickBot="1">
       <c r="A72" s="23"/>
       <c r="B72" s="23"/>
-      <c r="C72" s="64" t="s">
+      <c r="C72" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D72" s="65"/>
-      <c r="E72" s="65"/>
-      <c r="F72" s="66"/>
+      <c r="D72" s="73"/>
+      <c r="E72" s="73"/>
+      <c r="F72" s="74"/>
     </row>
     <row r="73" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A73" s="23"/>
@@ -8037,7 +8053,7 @@
     <row r="74" spans="1:6" s="12" customFormat="1" ht="17.25" thickBot="1">
       <c r="A74" s="23"/>
       <c r="B74" s="23"/>
-      <c r="C74" s="54">
+      <c r="C74" s="62">
         <v>200</v>
       </c>
       <c r="D74" s="31" t="s">
@@ -8053,7 +8069,7 @@
     <row r="75" spans="1:6" s="12" customFormat="1" ht="17.25" thickBot="1">
       <c r="A75" s="23"/>
       <c r="B75" s="23"/>
-      <c r="C75" s="54"/>
+      <c r="C75" s="62"/>
       <c r="D75" s="31" t="s">
         <v>305</v>
       </c>
@@ -8065,7 +8081,7 @@
       </c>
     </row>
     <row r="76" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C76" s="54"/>
+      <c r="C76" s="62"/>
       <c r="D76" s="31" t="s">
         <v>307</v>
       </c>
@@ -8077,7 +8093,7 @@
       </c>
     </row>
     <row r="77" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C77" s="54"/>
+      <c r="C77" s="62"/>
       <c r="D77" s="31"/>
       <c r="E77" s="31"/>
       <c r="F77" s="31"/>
@@ -8098,28 +8114,28 @@
       <c r="B81" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="C81" s="89" t="s">
-        <v>526</v>
-      </c>
-      <c r="D81" s="90"/>
-      <c r="E81" s="90"/>
-      <c r="F81" s="91"/>
+      <c r="C81" s="100" t="s">
+        <v>524</v>
+      </c>
+      <c r="D81" s="101"/>
+      <c r="E81" s="101"/>
+      <c r="F81" s="102"/>
     </row>
     <row r="82" spans="1:6" ht="18" thickBot="1">
-      <c r="C82" s="58" t="s">
-        <v>527</v>
-      </c>
-      <c r="D82" s="59"/>
-      <c r="E82" s="59"/>
-      <c r="F82" s="60"/>
+      <c r="C82" s="66" t="s">
+        <v>525</v>
+      </c>
+      <c r="D82" s="67"/>
+      <c r="E82" s="67"/>
+      <c r="F82" s="68"/>
     </row>
     <row r="83" spans="1:6" ht="27" thickBot="1">
-      <c r="C83" s="61" t="s">
+      <c r="C83" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D83" s="62"/>
-      <c r="E83" s="62"/>
-      <c r="F83" s="63"/>
+      <c r="D83" s="70"/>
+      <c r="E83" s="70"/>
+      <c r="F83" s="71"/>
     </row>
     <row r="84" spans="1:6" ht="18" thickBot="1">
       <c r="C84" s="25" t="s">
@@ -8143,7 +8159,7 @@
         <v>284</v>
       </c>
       <c r="E85" s="27" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F85" s="27" t="s">
         <v>311</v>
@@ -8162,12 +8178,12 @@
       <c r="F86" s="27"/>
     </row>
     <row r="87" spans="1:6" ht="27" thickBot="1">
-      <c r="C87" s="64" t="s">
+      <c r="C87" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D87" s="65"/>
-      <c r="E87" s="65"/>
-      <c r="F87" s="66"/>
+      <c r="D87" s="73"/>
+      <c r="E87" s="73"/>
+      <c r="F87" s="74"/>
     </row>
     <row r="88" spans="1:6" ht="18" thickBot="1">
       <c r="C88" s="29" t="s">
@@ -8190,12 +8206,12 @@
       <c r="F89" s="30"/>
     </row>
     <row r="90" spans="1:6" ht="27" thickBot="1">
-      <c r="C90" s="67" t="s">
+      <c r="C90" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D90" s="67"/>
-      <c r="E90" s="67"/>
-      <c r="F90" s="67"/>
+      <c r="D90" s="75"/>
+      <c r="E90" s="75"/>
+      <c r="F90" s="75"/>
     </row>
     <row r="91" spans="1:6" ht="18" thickBot="1">
       <c r="C91" s="29" t="s">
@@ -8212,7 +8228,7 @@
       </c>
     </row>
     <row r="92" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C92" s="54">
+      <c r="C92" s="62">
         <v>200</v>
       </c>
       <c r="D92" s="31" t="s">
@@ -8226,7 +8242,7 @@
       </c>
     </row>
     <row r="93" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C93" s="54"/>
+      <c r="C93" s="62"/>
       <c r="D93" s="31" t="s">
         <v>305</v>
       </c>
@@ -8238,7 +8254,7 @@
       </c>
     </row>
     <row r="94" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C94" s="54"/>
+      <c r="C94" s="62"/>
       <c r="D94" s="31" t="s">
         <v>307</v>
       </c>
@@ -8250,7 +8266,7 @@
       </c>
     </row>
     <row r="95" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C95" s="54"/>
+      <c r="C95" s="62"/>
       <c r="D95" s="31"/>
       <c r="E95" s="31"/>
       <c r="F95" s="31"/>
@@ -8271,28 +8287,28 @@
       <c r="B99" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C99" s="86" t="s">
+      <c r="C99" s="94" t="s">
         <v>366</v>
       </c>
-      <c r="D99" s="87"/>
-      <c r="E99" s="87"/>
-      <c r="F99" s="88"/>
+      <c r="D99" s="95"/>
+      <c r="E99" s="95"/>
+      <c r="F99" s="96"/>
     </row>
     <row r="100" spans="1:6" ht="18" thickBot="1">
-      <c r="C100" s="58" t="s">
+      <c r="C100" s="66" t="s">
         <v>310</v>
       </c>
-      <c r="D100" s="59"/>
-      <c r="E100" s="59"/>
-      <c r="F100" s="60"/>
+      <c r="D100" s="67"/>
+      <c r="E100" s="67"/>
+      <c r="F100" s="68"/>
     </row>
     <row r="101" spans="1:6" ht="27" thickBot="1">
-      <c r="C101" s="61" t="s">
+      <c r="C101" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D101" s="62"/>
-      <c r="E101" s="62"/>
-      <c r="F101" s="63"/>
+      <c r="D101" s="70"/>
+      <c r="E101" s="70"/>
+      <c r="F101" s="71"/>
     </row>
     <row r="102" spans="1:6" ht="18" thickBot="1">
       <c r="C102" s="25" t="s">
@@ -8316,7 +8332,7 @@
         <v>295</v>
       </c>
       <c r="E103" s="35" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F103" s="27" t="s">
         <v>311</v>
@@ -8335,12 +8351,12 @@
       <c r="F104" s="27"/>
     </row>
     <row r="105" spans="1:6" ht="27" thickBot="1">
-      <c r="C105" s="64" t="s">
+      <c r="C105" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D105" s="65"/>
-      <c r="E105" s="65"/>
-      <c r="F105" s="66"/>
+      <c r="D105" s="73"/>
+      <c r="E105" s="73"/>
+      <c r="F105" s="74"/>
     </row>
     <row r="106" spans="1:6" ht="18" thickBot="1">
       <c r="C106" s="29" t="s">
@@ -8358,7 +8374,7 @@
     </row>
     <row r="107" spans="1:6" ht="17.25" thickBot="1">
       <c r="C107" s="30" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D107" s="30" t="s">
         <v>295</v>
@@ -8367,16 +8383,16 @@
         <v>297</v>
       </c>
       <c r="F107" s="30" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="27" thickBot="1">
-      <c r="C108" s="67" t="s">
+      <c r="C108" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D108" s="67"/>
-      <c r="E108" s="67"/>
-      <c r="F108" s="67"/>
+      <c r="D108" s="75"/>
+      <c r="E108" s="75"/>
+      <c r="F108" s="75"/>
     </row>
     <row r="109" spans="1:6" ht="18" thickBot="1">
       <c r="C109" s="29" t="s">
@@ -8393,7 +8409,7 @@
       </c>
     </row>
     <row r="110" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C110" s="54">
+      <c r="C110" s="62">
         <v>200</v>
       </c>
       <c r="D110" s="31" t="s">
@@ -8407,7 +8423,7 @@
       </c>
     </row>
     <row r="111" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C111" s="54"/>
+      <c r="C111" s="62"/>
       <c r="D111" s="31" t="s">
         <v>305</v>
       </c>
@@ -8419,7 +8435,7 @@
       </c>
     </row>
     <row r="112" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C112" s="54"/>
+      <c r="C112" s="62"/>
       <c r="D112" s="31" t="s">
         <v>307</v>
       </c>
@@ -8431,7 +8447,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C113" s="54"/>
+      <c r="C113" s="62"/>
       <c r="D113" s="31"/>
       <c r="E113" s="31"/>
       <c r="F113" s="31"/>
@@ -8452,28 +8468,28 @@
       <c r="B117" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C117" s="86" t="s">
+      <c r="C117" s="94" t="s">
         <v>367</v>
       </c>
-      <c r="D117" s="87"/>
-      <c r="E117" s="87"/>
-      <c r="F117" s="88"/>
+      <c r="D117" s="95"/>
+      <c r="E117" s="95"/>
+      <c r="F117" s="96"/>
     </row>
     <row r="118" spans="1:6" ht="18" thickBot="1">
-      <c r="C118" s="58" t="s">
+      <c r="C118" s="66" t="s">
         <v>312</v>
       </c>
-      <c r="D118" s="59"/>
-      <c r="E118" s="59"/>
-      <c r="F118" s="60"/>
+      <c r="D118" s="67"/>
+      <c r="E118" s="67"/>
+      <c r="F118" s="68"/>
     </row>
     <row r="119" spans="1:6" ht="27" thickBot="1">
-      <c r="C119" s="61" t="s">
+      <c r="C119" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D119" s="62"/>
-      <c r="E119" s="62"/>
-      <c r="F119" s="63"/>
+      <c r="D119" s="70"/>
+      <c r="E119" s="70"/>
+      <c r="F119" s="71"/>
     </row>
     <row r="120" spans="1:6" ht="18" thickBot="1">
       <c r="C120" s="25" t="s">
@@ -8495,7 +8511,7 @@
         <v>295</v>
       </c>
       <c r="E121" s="35" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F121" s="27" t="s">
         <v>311</v>
@@ -8514,12 +8530,12 @@
       <c r="F122" s="27"/>
     </row>
     <row r="123" spans="1:6" ht="27" thickBot="1">
-      <c r="C123" s="64" t="s">
+      <c r="C123" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D123" s="65"/>
-      <c r="E123" s="65"/>
-      <c r="F123" s="66"/>
+      <c r="D123" s="73"/>
+      <c r="E123" s="73"/>
+      <c r="F123" s="74"/>
     </row>
     <row r="124" spans="1:6" ht="18" thickBot="1">
       <c r="C124" s="29" t="s">
@@ -8538,8 +8554,8 @@
     <row r="125" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A125" s="23"/>
       <c r="B125" s="23"/>
-      <c r="C125" s="96" t="s">
-        <v>530</v>
+      <c r="C125" s="52" t="s">
+        <v>528</v>
       </c>
       <c r="D125" s="30" t="s">
         <v>296</v>
@@ -8547,13 +8563,13 @@
       <c r="E125" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="F125" s="96" t="s">
-        <v>532</v>
+      <c r="F125" s="52" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="17.25" thickBot="1">
       <c r="C126" s="30" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D126" s="30" t="s">
         <v>296</v>
@@ -8562,16 +8578,16 @@
         <v>297</v>
       </c>
       <c r="F126" s="30" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="27" thickBot="1">
-      <c r="C127" s="67" t="s">
+      <c r="C127" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D127" s="67"/>
-      <c r="E127" s="67"/>
-      <c r="F127" s="67"/>
+      <c r="D127" s="75"/>
+      <c r="E127" s="75"/>
+      <c r="F127" s="75"/>
     </row>
     <row r="128" spans="1:6" ht="18" thickBot="1">
       <c r="C128" s="29" t="s">
@@ -8588,7 +8604,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C129" s="54">
+      <c r="C129" s="62">
         <v>200</v>
       </c>
       <c r="D129" s="31" t="s">
@@ -8602,7 +8618,7 @@
       </c>
     </row>
     <row r="130" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C130" s="54"/>
+      <c r="C130" s="62"/>
       <c r="D130" s="31" t="s">
         <v>305</v>
       </c>
@@ -8614,7 +8630,7 @@
       </c>
     </row>
     <row r="131" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C131" s="54"/>
+      <c r="C131" s="62"/>
       <c r="D131" s="31" t="s">
         <v>307</v>
       </c>
@@ -8626,7 +8642,7 @@
       </c>
     </row>
     <row r="132" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C132" s="54"/>
+      <c r="C132" s="62"/>
       <c r="D132" s="31"/>
       <c r="E132" s="31"/>
       <c r="F132" s="31"/>
@@ -8647,32 +8663,32 @@
       <c r="B135" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C135" s="86" t="s">
-        <v>534</v>
-      </c>
-      <c r="D135" s="87"/>
-      <c r="E135" s="87"/>
-      <c r="F135" s="88"/>
+      <c r="C135" s="94" t="s">
+        <v>532</v>
+      </c>
+      <c r="D135" s="95"/>
+      <c r="E135" s="95"/>
+      <c r="F135" s="96"/>
     </row>
     <row r="136" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A136" s="23"/>
       <c r="B136" s="23"/>
-      <c r="C136" s="58" t="s">
+      <c r="C136" s="66" t="s">
         <v>465</v>
       </c>
-      <c r="D136" s="59"/>
-      <c r="E136" s="59"/>
-      <c r="F136" s="60"/>
+      <c r="D136" s="67"/>
+      <c r="E136" s="67"/>
+      <c r="F136" s="68"/>
     </row>
     <row r="137" spans="1:6" s="12" customFormat="1" ht="27" thickBot="1">
       <c r="A137" s="23"/>
       <c r="B137" s="23"/>
-      <c r="C137" s="61" t="s">
+      <c r="C137" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D137" s="62"/>
-      <c r="E137" s="62"/>
-      <c r="F137" s="63"/>
+      <c r="D137" s="70"/>
+      <c r="E137" s="70"/>
+      <c r="F137" s="71"/>
     </row>
     <row r="138" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A138" s="23"/>
@@ -8698,7 +8714,7 @@
         <v>295</v>
       </c>
       <c r="E139" s="35" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="F139" s="27" t="s">
         <v>311</v>
@@ -8721,12 +8737,12 @@
     <row r="141" spans="1:6" s="12" customFormat="1" ht="27" thickBot="1">
       <c r="A141" s="23"/>
       <c r="B141" s="23"/>
-      <c r="C141" s="64" t="s">
+      <c r="C141" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D141" s="65"/>
-      <c r="E141" s="65"/>
-      <c r="F141" s="66"/>
+      <c r="D141" s="73"/>
+      <c r="E141" s="73"/>
+      <c r="F141" s="74"/>
     </row>
     <row r="142" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A142" s="23"/>
@@ -8748,7 +8764,7 @@
       <c r="A143" s="23"/>
       <c r="B143" s="23"/>
       <c r="C143" s="30" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D143" s="30" t="s">
         <v>296</v>
@@ -8771,12 +8787,12 @@
     <row r="145" spans="1:6" s="12" customFormat="1" ht="27" thickBot="1">
       <c r="A145" s="23"/>
       <c r="B145" s="23"/>
-      <c r="C145" s="67" t="s">
+      <c r="C145" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D145" s="67"/>
-      <c r="E145" s="67"/>
-      <c r="F145" s="67"/>
+      <c r="D145" s="75"/>
+      <c r="E145" s="75"/>
+      <c r="F145" s="75"/>
     </row>
     <row r="146" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A146" s="23"/>
@@ -8797,7 +8813,7 @@
     <row r="147" spans="1:6" s="12" customFormat="1" ht="17.25" thickBot="1">
       <c r="A147" s="23"/>
       <c r="B147" s="23"/>
-      <c r="C147" s="54">
+      <c r="C147" s="62">
         <v>200</v>
       </c>
       <c r="D147" s="31" t="s">
@@ -8813,7 +8829,7 @@
     <row r="148" spans="1:6" s="12" customFormat="1" ht="17.25" thickBot="1">
       <c r="A148" s="23"/>
       <c r="B148" s="23"/>
-      <c r="C148" s="54"/>
+      <c r="C148" s="62"/>
       <c r="D148" s="31" t="s">
         <v>305</v>
       </c>
@@ -8827,7 +8843,7 @@
     <row r="149" spans="1:6" s="12" customFormat="1" ht="17.25" thickBot="1">
       <c r="A149" s="23"/>
       <c r="B149" s="23"/>
-      <c r="C149" s="54"/>
+      <c r="C149" s="62"/>
       <c r="D149" s="31" t="s">
         <v>307</v>
       </c>
@@ -8841,7 +8857,7 @@
     <row r="150" spans="1:6" s="12" customFormat="1" ht="17.25" thickBot="1">
       <c r="A150" s="23"/>
       <c r="B150" s="23"/>
-      <c r="C150" s="54"/>
+      <c r="C150" s="62"/>
       <c r="D150" s="31"/>
       <c r="E150" s="31"/>
       <c r="F150" s="31"/>
@@ -8864,28 +8880,28 @@
       <c r="B153" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C153" s="86" t="s">
+      <c r="C153" s="94" t="s">
         <v>368</v>
       </c>
-      <c r="D153" s="87"/>
-      <c r="E153" s="87"/>
-      <c r="F153" s="88"/>
+      <c r="D153" s="95"/>
+      <c r="E153" s="95"/>
+      <c r="F153" s="96"/>
     </row>
     <row r="154" spans="1:6" ht="18" thickBot="1">
-      <c r="C154" s="58" t="s">
+      <c r="C154" s="66" t="s">
         <v>313</v>
       </c>
-      <c r="D154" s="59"/>
-      <c r="E154" s="59"/>
-      <c r="F154" s="60"/>
+      <c r="D154" s="67"/>
+      <c r="E154" s="67"/>
+      <c r="F154" s="68"/>
     </row>
     <row r="155" spans="1:6" ht="27" thickBot="1">
-      <c r="C155" s="61" t="s">
+      <c r="C155" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D155" s="62"/>
-      <c r="E155" s="62"/>
-      <c r="F155" s="63"/>
+      <c r="D155" s="70"/>
+      <c r="E155" s="70"/>
+      <c r="F155" s="71"/>
     </row>
     <row r="156" spans="1:6" ht="18" thickBot="1">
       <c r="C156" s="25" t="s">
@@ -8907,7 +8923,7 @@
         <v>295</v>
       </c>
       <c r="E157" s="35" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F157" s="27" t="s">
         <v>311</v>
@@ -8926,12 +8942,12 @@
       <c r="F158" s="27"/>
     </row>
     <row r="159" spans="1:6" ht="27" thickBot="1">
-      <c r="C159" s="64" t="s">
+      <c r="C159" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D159" s="65"/>
-      <c r="E159" s="65"/>
-      <c r="F159" s="66"/>
+      <c r="D159" s="73"/>
+      <c r="E159" s="73"/>
+      <c r="F159" s="74"/>
     </row>
     <row r="160" spans="1:6" ht="18" thickBot="1">
       <c r="C160" s="29" t="s">
@@ -8951,7 +8967,7 @@
       <c r="A161" s="23"/>
       <c r="B161" s="23"/>
       <c r="C161" s="30" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D161" s="30" t="s">
         <v>296</v>
@@ -8970,12 +8986,12 @@
       <c r="F162" s="30"/>
     </row>
     <row r="163" spans="1:6" ht="27" thickBot="1">
-      <c r="C163" s="67" t="s">
+      <c r="C163" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D163" s="67"/>
-      <c r="E163" s="67"/>
-      <c r="F163" s="67"/>
+      <c r="D163" s="75"/>
+      <c r="E163" s="75"/>
+      <c r="F163" s="75"/>
     </row>
     <row r="164" spans="1:6" ht="18" thickBot="1">
       <c r="C164" s="29" t="s">
@@ -8992,7 +9008,7 @@
       </c>
     </row>
     <row r="165" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C165" s="54">
+      <c r="C165" s="62">
         <v>200</v>
       </c>
       <c r="D165" s="31" t="s">
@@ -9006,7 +9022,7 @@
       </c>
     </row>
     <row r="166" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C166" s="54"/>
+      <c r="C166" s="62"/>
       <c r="D166" s="31" t="s">
         <v>305</v>
       </c>
@@ -9018,7 +9034,7 @@
       </c>
     </row>
     <row r="167" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C167" s="54"/>
+      <c r="C167" s="62"/>
       <c r="D167" s="31" t="s">
         <v>307</v>
       </c>
@@ -9030,7 +9046,7 @@
       </c>
     </row>
     <row r="168" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C168" s="54"/>
+      <c r="C168" s="62"/>
       <c r="D168" s="31"/>
       <c r="E168" s="31"/>
       <c r="F168" s="31"/>
@@ -9051,28 +9067,28 @@
       <c r="B172" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C172" s="86" t="s">
+      <c r="C172" s="94" t="s">
         <v>369</v>
       </c>
-      <c r="D172" s="87"/>
-      <c r="E172" s="87"/>
-      <c r="F172" s="88"/>
+      <c r="D172" s="95"/>
+      <c r="E172" s="95"/>
+      <c r="F172" s="96"/>
     </row>
     <row r="173" spans="1:6" ht="18" thickBot="1">
-      <c r="C173" s="58" t="s">
+      <c r="C173" s="66" t="s">
         <v>323</v>
       </c>
-      <c r="D173" s="59"/>
-      <c r="E173" s="59"/>
-      <c r="F173" s="60"/>
+      <c r="D173" s="67"/>
+      <c r="E173" s="67"/>
+      <c r="F173" s="68"/>
     </row>
     <row r="174" spans="1:6" ht="27" thickBot="1">
-      <c r="C174" s="61" t="s">
+      <c r="C174" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D174" s="62"/>
-      <c r="E174" s="62"/>
-      <c r="F174" s="63"/>
+      <c r="D174" s="70"/>
+      <c r="E174" s="70"/>
+      <c r="F174" s="71"/>
     </row>
     <row r="175" spans="1:6" ht="18" thickBot="1">
       <c r="C175" s="25" t="s">
@@ -9094,7 +9110,7 @@
         <v>295</v>
       </c>
       <c r="E176" s="35" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F176" s="27" t="s">
         <v>311</v>
@@ -9113,12 +9129,12 @@
       <c r="F177" s="27"/>
     </row>
     <row r="178" spans="1:6" ht="27" thickBot="1">
-      <c r="C178" s="64" t="s">
+      <c r="C178" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D178" s="65"/>
-      <c r="E178" s="65"/>
-      <c r="F178" s="66"/>
+      <c r="D178" s="73"/>
+      <c r="E178" s="73"/>
+      <c r="F178" s="74"/>
     </row>
     <row r="179" spans="1:6" ht="18" thickBot="1">
       <c r="C179" s="29" t="s">
@@ -9136,7 +9152,7 @@
     </row>
     <row r="180" spans="1:6" ht="17.25" thickBot="1">
       <c r="C180" s="30" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D180" s="30" t="s">
         <v>296</v>
@@ -9152,7 +9168,7 @@
       <c r="A181" s="23"/>
       <c r="B181" s="23"/>
       <c r="C181" s="30" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D181" s="30" t="s">
         <v>295</v>
@@ -9168,7 +9184,7 @@
       <c r="A182" s="23"/>
       <c r="B182" s="23"/>
       <c r="C182" s="30" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D182" s="30" t="s">
         <v>296</v>
@@ -9184,7 +9200,7 @@
       <c r="A183" s="23"/>
       <c r="B183" s="23"/>
       <c r="C183" s="30" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D183" s="30" t="s">
         <v>296</v>
@@ -9200,7 +9216,7 @@
       <c r="A184" s="23"/>
       <c r="B184" s="23"/>
       <c r="C184" s="30" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D184" s="30" t="s">
         <v>296</v>
@@ -9235,12 +9251,12 @@
       <c r="F186" s="30"/>
     </row>
     <row r="187" spans="1:6" ht="27" thickBot="1">
-      <c r="C187" s="67" t="s">
+      <c r="C187" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D187" s="67"/>
-      <c r="E187" s="67"/>
-      <c r="F187" s="67"/>
+      <c r="D187" s="75"/>
+      <c r="E187" s="75"/>
+      <c r="F187" s="75"/>
     </row>
     <row r="188" spans="1:6" ht="18" thickBot="1">
       <c r="C188" s="29" t="s">
@@ -9257,7 +9273,7 @@
       </c>
     </row>
     <row r="189" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C189" s="54">
+      <c r="C189" s="62">
         <v>200</v>
       </c>
       <c r="D189" s="31" t="s">
@@ -9271,7 +9287,7 @@
       </c>
     </row>
     <row r="190" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C190" s="54"/>
+      <c r="C190" s="62"/>
       <c r="D190" s="31" t="s">
         <v>305</v>
       </c>
@@ -9283,7 +9299,7 @@
       </c>
     </row>
     <row r="191" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C191" s="54"/>
+      <c r="C191" s="62"/>
       <c r="D191" s="31" t="s">
         <v>307</v>
       </c>
@@ -9295,7 +9311,7 @@
       </c>
     </row>
     <row r="192" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C192" s="54"/>
+      <c r="C192" s="62"/>
       <c r="D192" s="31"/>
       <c r="E192" s="31"/>
       <c r="F192" s="31"/>
@@ -9316,28 +9332,28 @@
       <c r="B196" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C196" s="86" t="s">
-        <v>547</v>
-      </c>
-      <c r="D196" s="87"/>
-      <c r="E196" s="87"/>
-      <c r="F196" s="88"/>
+      <c r="C196" s="94" t="s">
+        <v>545</v>
+      </c>
+      <c r="D196" s="95"/>
+      <c r="E196" s="95"/>
+      <c r="F196" s="96"/>
     </row>
     <row r="197" spans="1:6" ht="18" thickBot="1">
-      <c r="C197" s="58" t="s">
-        <v>548</v>
-      </c>
-      <c r="D197" s="59"/>
-      <c r="E197" s="59"/>
-      <c r="F197" s="60"/>
+      <c r="C197" s="66" t="s">
+        <v>546</v>
+      </c>
+      <c r="D197" s="67"/>
+      <c r="E197" s="67"/>
+      <c r="F197" s="68"/>
     </row>
     <row r="198" spans="1:6" ht="27" thickBot="1">
-      <c r="C198" s="61" t="s">
+      <c r="C198" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D198" s="62"/>
-      <c r="E198" s="62"/>
-      <c r="F198" s="63"/>
+      <c r="D198" s="70"/>
+      <c r="E198" s="70"/>
+      <c r="F198" s="71"/>
     </row>
     <row r="199" spans="1:6" ht="18" thickBot="1">
       <c r="C199" s="25" t="s">
@@ -9359,7 +9375,7 @@
         <v>295</v>
       </c>
       <c r="E200" s="35" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F200" s="27" t="s">
         <v>311</v>
@@ -9378,12 +9394,12 @@
       <c r="F201" s="27"/>
     </row>
     <row r="202" spans="1:6" ht="27" thickBot="1">
-      <c r="C202" s="64" t="s">
+      <c r="C202" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D202" s="65"/>
-      <c r="E202" s="65"/>
-      <c r="F202" s="66"/>
+      <c r="D202" s="73"/>
+      <c r="E202" s="73"/>
+      <c r="F202" s="74"/>
     </row>
     <row r="203" spans="1:6" ht="18" thickBot="1">
       <c r="C203" s="29" t="s">
@@ -9401,7 +9417,7 @@
     </row>
     <row r="204" spans="1:6" ht="17.25" thickBot="1">
       <c r="C204" s="30" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D204" s="30" t="s">
         <v>296</v>
@@ -9426,12 +9442,12 @@
       <c r="F206" s="30"/>
     </row>
     <row r="207" spans="1:6" ht="27" thickBot="1">
-      <c r="C207" s="64" t="s">
+      <c r="C207" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D207" s="65"/>
-      <c r="E207" s="65"/>
-      <c r="F207" s="66"/>
+      <c r="D207" s="73"/>
+      <c r="E207" s="73"/>
+      <c r="F207" s="74"/>
     </row>
     <row r="208" spans="1:6" ht="18" thickBot="1">
       <c r="C208" s="29" t="s">
@@ -9507,28 +9523,28 @@
       <c r="B216" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C216" s="86" t="s">
+      <c r="C216" s="94" t="s">
         <v>370</v>
       </c>
-      <c r="D216" s="87"/>
-      <c r="E216" s="87"/>
-      <c r="F216" s="88"/>
+      <c r="D216" s="95"/>
+      <c r="E216" s="95"/>
+      <c r="F216" s="96"/>
     </row>
     <row r="217" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="C217" s="58" t="s">
+      <c r="C217" s="66" t="s">
         <v>324</v>
       </c>
-      <c r="D217" s="59"/>
-      <c r="E217" s="59"/>
-      <c r="F217" s="60"/>
+      <c r="D217" s="67"/>
+      <c r="E217" s="67"/>
+      <c r="F217" s="68"/>
     </row>
     <row r="218" spans="1:6" ht="27" thickBot="1">
-      <c r="C218" s="61" t="s">
+      <c r="C218" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D218" s="62"/>
-      <c r="E218" s="62"/>
-      <c r="F218" s="63"/>
+      <c r="D218" s="70"/>
+      <c r="E218" s="70"/>
+      <c r="F218" s="71"/>
     </row>
     <row r="219" spans="1:6" ht="18" thickBot="1">
       <c r="C219" s="25" t="s">
@@ -9550,7 +9566,7 @@
         <v>295</v>
       </c>
       <c r="E220" s="35" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F220" s="27" t="s">
         <v>311</v>
@@ -9569,12 +9585,12 @@
       <c r="F221" s="27"/>
     </row>
     <row r="222" spans="1:6" ht="27" thickBot="1">
-      <c r="C222" s="64" t="s">
+      <c r="C222" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D222" s="65"/>
-      <c r="E222" s="65"/>
-      <c r="F222" s="66"/>
+      <c r="D222" s="73"/>
+      <c r="E222" s="73"/>
+      <c r="F222" s="74"/>
     </row>
     <row r="223" spans="1:6" ht="18" thickBot="1">
       <c r="C223" s="29" t="s">
@@ -9592,7 +9608,7 @@
     </row>
     <row r="224" spans="1:6" ht="17.25" thickBot="1">
       <c r="C224" s="30" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D224" s="30" t="s">
         <v>296</v>
@@ -9611,12 +9627,12 @@
       <c r="F225" s="30"/>
     </row>
     <row r="226" spans="1:6" ht="27" thickBot="1">
-      <c r="C226" s="67" t="s">
+      <c r="C226" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D226" s="67"/>
-      <c r="E226" s="67"/>
-      <c r="F226" s="67"/>
+      <c r="D226" s="75"/>
+      <c r="E226" s="75"/>
+      <c r="F226" s="75"/>
     </row>
     <row r="227" spans="1:6" ht="18" thickBot="1">
       <c r="C227" s="29" t="s">
@@ -9633,7 +9649,7 @@
       </c>
     </row>
     <row r="228" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C228" s="54">
+      <c r="C228" s="62">
         <v>200</v>
       </c>
       <c r="D228" s="31" t="s">
@@ -9647,7 +9663,7 @@
       </c>
     </row>
     <row r="229" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C229" s="54"/>
+      <c r="C229" s="62"/>
       <c r="D229" s="31" t="s">
         <v>305</v>
       </c>
@@ -9659,7 +9675,7 @@
       </c>
     </row>
     <row r="230" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C230" s="54"/>
+      <c r="C230" s="62"/>
       <c r="D230" s="31" t="s">
         <v>307</v>
       </c>
@@ -9671,7 +9687,7 @@
       </c>
     </row>
     <row r="231" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C231" s="54"/>
+      <c r="C231" s="62"/>
       <c r="D231" s="31"/>
       <c r="E231" s="31"/>
       <c r="F231" s="31"/>
@@ -9692,28 +9708,28 @@
       <c r="B235" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C235" s="86" t="s">
+      <c r="C235" s="94" t="s">
         <v>371</v>
       </c>
-      <c r="D235" s="87"/>
-      <c r="E235" s="87"/>
-      <c r="F235" s="88"/>
+      <c r="D235" s="95"/>
+      <c r="E235" s="95"/>
+      <c r="F235" s="96"/>
     </row>
     <row r="236" spans="1:6" ht="18" thickBot="1">
-      <c r="C236" s="58" t="s">
+      <c r="C236" s="66" t="s">
         <v>325</v>
       </c>
-      <c r="D236" s="59"/>
-      <c r="E236" s="59"/>
-      <c r="F236" s="60"/>
+      <c r="D236" s="67"/>
+      <c r="E236" s="67"/>
+      <c r="F236" s="68"/>
     </row>
     <row r="237" spans="1:6" ht="27" thickBot="1">
-      <c r="C237" s="61" t="s">
+      <c r="C237" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D237" s="62"/>
-      <c r="E237" s="62"/>
-      <c r="F237" s="63"/>
+      <c r="D237" s="70"/>
+      <c r="E237" s="70"/>
+      <c r="F237" s="71"/>
     </row>
     <row r="238" spans="1:6" ht="18" thickBot="1">
       <c r="C238" s="25" t="s">
@@ -9735,7 +9751,7 @@
         <v>295</v>
       </c>
       <c r="E239" s="35" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F239" s="27" t="s">
         <v>311</v>
@@ -9754,12 +9770,12 @@
       <c r="F240" s="27"/>
     </row>
     <row r="241" spans="1:6" ht="27" thickBot="1">
-      <c r="C241" s="64" t="s">
+      <c r="C241" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D241" s="65"/>
-      <c r="E241" s="65"/>
-      <c r="F241" s="66"/>
+      <c r="D241" s="73"/>
+      <c r="E241" s="73"/>
+      <c r="F241" s="74"/>
     </row>
     <row r="242" spans="1:6" ht="18" thickBot="1">
       <c r="C242" s="29" t="s">
@@ -9777,7 +9793,7 @@
     </row>
     <row r="243" spans="1:6" ht="17.25" thickBot="1">
       <c r="C243" s="30" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D243" s="30" t="s">
         <v>296</v>
@@ -9791,7 +9807,7 @@
     </row>
     <row r="244" spans="1:6" ht="17.25" thickBot="1">
       <c r="C244" s="30" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D244" s="30" t="s">
         <v>296</v>
@@ -9810,12 +9826,12 @@
       <c r="F245" s="30"/>
     </row>
     <row r="246" spans="1:6" ht="27" thickBot="1">
-      <c r="C246" s="67" t="s">
+      <c r="C246" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D246" s="67"/>
-      <c r="E246" s="67"/>
-      <c r="F246" s="67"/>
+      <c r="D246" s="75"/>
+      <c r="E246" s="75"/>
+      <c r="F246" s="75"/>
     </row>
     <row r="247" spans="1:6" ht="18" thickBot="1">
       <c r="C247" s="29" t="s">
@@ -9832,7 +9848,7 @@
       </c>
     </row>
     <row r="248" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C248" s="54">
+      <c r="C248" s="62">
         <v>200</v>
       </c>
       <c r="D248" s="31" t="s">
@@ -9846,7 +9862,7 @@
       </c>
     </row>
     <row r="249" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C249" s="54"/>
+      <c r="C249" s="62"/>
       <c r="D249" s="31" t="s">
         <v>305</v>
       </c>
@@ -9858,7 +9874,7 @@
       </c>
     </row>
     <row r="250" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C250" s="54"/>
+      <c r="C250" s="62"/>
       <c r="D250" s="31" t="s">
         <v>307</v>
       </c>
@@ -9870,7 +9886,7 @@
       </c>
     </row>
     <row r="251" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C251" s="54"/>
+      <c r="C251" s="62"/>
       <c r="D251" s="31"/>
       <c r="E251" s="31"/>
       <c r="F251" s="31"/>
@@ -9891,28 +9907,28 @@
       <c r="B255" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C255" s="86" t="s">
+      <c r="C255" s="94" t="s">
         <v>372</v>
       </c>
-      <c r="D255" s="87"/>
-      <c r="E255" s="87"/>
-      <c r="F255" s="88"/>
+      <c r="D255" s="95"/>
+      <c r="E255" s="95"/>
+      <c r="F255" s="96"/>
     </row>
     <row r="256" spans="1:6" ht="18" thickBot="1">
-      <c r="C256" s="58" t="s">
+      <c r="C256" s="66" t="s">
         <v>391</v>
       </c>
-      <c r="D256" s="59"/>
-      <c r="E256" s="59"/>
-      <c r="F256" s="60"/>
+      <c r="D256" s="67"/>
+      <c r="E256" s="67"/>
+      <c r="F256" s="68"/>
     </row>
     <row r="257" spans="3:6" ht="27" thickBot="1">
-      <c r="C257" s="61" t="s">
+      <c r="C257" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D257" s="62"/>
-      <c r="E257" s="62"/>
-      <c r="F257" s="63"/>
+      <c r="D257" s="70"/>
+      <c r="E257" s="70"/>
+      <c r="F257" s="71"/>
     </row>
     <row r="258" spans="3:6" ht="18" thickBot="1">
       <c r="C258" s="25" t="s">
@@ -9934,7 +9950,7 @@
         <v>295</v>
       </c>
       <c r="E259" s="35" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F259" s="27" t="s">
         <v>311</v>
@@ -9953,12 +9969,12 @@
       <c r="F260" s="27"/>
     </row>
     <row r="261" spans="3:6" ht="27" thickBot="1">
-      <c r="C261" s="64" t="s">
+      <c r="C261" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D261" s="65"/>
-      <c r="E261" s="65"/>
-      <c r="F261" s="66"/>
+      <c r="D261" s="73"/>
+      <c r="E261" s="73"/>
+      <c r="F261" s="74"/>
     </row>
     <row r="262" spans="3:6" ht="18" thickBot="1">
       <c r="C262" s="29" t="s">
@@ -9976,7 +9992,7 @@
     </row>
     <row r="263" spans="3:6" ht="17.25" thickBot="1">
       <c r="C263" s="30" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D263" s="30" t="s">
         <v>296</v>
@@ -9995,12 +10011,12 @@
       <c r="F264" s="30"/>
     </row>
     <row r="265" spans="3:6" ht="27" thickBot="1">
-      <c r="C265" s="67" t="s">
+      <c r="C265" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D265" s="67"/>
-      <c r="E265" s="67"/>
-      <c r="F265" s="67"/>
+      <c r="D265" s="75"/>
+      <c r="E265" s="75"/>
+      <c r="F265" s="75"/>
     </row>
     <row r="266" spans="3:6" ht="18" thickBot="1">
       <c r="C266" s="29" t="s">
@@ -10017,7 +10033,7 @@
       </c>
     </row>
     <row r="267" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C267" s="54">
+      <c r="C267" s="62">
         <v>200</v>
       </c>
       <c r="D267" s="31" t="s">
@@ -10031,7 +10047,7 @@
       </c>
     </row>
     <row r="268" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C268" s="54"/>
+      <c r="C268" s="62"/>
       <c r="D268" s="31" t="s">
         <v>305</v>
       </c>
@@ -10043,7 +10059,7 @@
       </c>
     </row>
     <row r="269" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C269" s="54"/>
+      <c r="C269" s="62"/>
       <c r="D269" s="31" t="s">
         <v>307</v>
       </c>
@@ -10055,7 +10071,7 @@
       </c>
     </row>
     <row r="270" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C270" s="54"/>
+      <c r="C270" s="62"/>
       <c r="D270" s="31"/>
       <c r="E270" s="31"/>
       <c r="F270" s="31"/>
@@ -10076,28 +10092,28 @@
       <c r="B274" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C274" s="86" t="s">
-        <v>551</v>
-      </c>
-      <c r="D274" s="87"/>
-      <c r="E274" s="87"/>
-      <c r="F274" s="88"/>
+      <c r="C274" s="94" t="s">
+        <v>549</v>
+      </c>
+      <c r="D274" s="95"/>
+      <c r="E274" s="95"/>
+      <c r="F274" s="96"/>
     </row>
     <row r="275" spans="1:6" ht="18" thickBot="1">
-      <c r="C275" s="58" t="s">
+      <c r="C275" s="66" t="s">
         <v>390</v>
       </c>
-      <c r="D275" s="59"/>
-      <c r="E275" s="59"/>
-      <c r="F275" s="60"/>
+      <c r="D275" s="67"/>
+      <c r="E275" s="67"/>
+      <c r="F275" s="68"/>
     </row>
     <row r="276" spans="1:6" ht="27" thickBot="1">
-      <c r="C276" s="61" t="s">
+      <c r="C276" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D276" s="62"/>
-      <c r="E276" s="62"/>
-      <c r="F276" s="63"/>
+      <c r="D276" s="70"/>
+      <c r="E276" s="70"/>
+      <c r="F276" s="71"/>
     </row>
     <row r="277" spans="1:6" ht="18" thickBot="1">
       <c r="C277" s="25" t="s">
@@ -10119,7 +10135,7 @@
         <v>295</v>
       </c>
       <c r="E278" s="35" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F278" s="27" t="s">
         <v>311</v>
@@ -10138,12 +10154,12 @@
       <c r="F279" s="27"/>
     </row>
     <row r="280" spans="1:6" ht="27" thickBot="1">
-      <c r="C280" s="64" t="s">
+      <c r="C280" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D280" s="65"/>
-      <c r="E280" s="65"/>
-      <c r="F280" s="66"/>
+      <c r="D280" s="73"/>
+      <c r="E280" s="73"/>
+      <c r="F280" s="74"/>
     </row>
     <row r="281" spans="1:6" ht="18" thickBot="1">
       <c r="C281" s="29" t="s">
@@ -10161,7 +10177,7 @@
     </row>
     <row r="282" spans="1:6" ht="17.25" thickBot="1">
       <c r="C282" s="30" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D282" s="30" t="s">
         <v>296</v>
@@ -10186,12 +10202,12 @@
       <c r="F284" s="30"/>
     </row>
     <row r="285" spans="1:6" ht="27" thickBot="1">
-      <c r="C285" s="67" t="s">
+      <c r="C285" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D285" s="67"/>
-      <c r="E285" s="67"/>
-      <c r="F285" s="67"/>
+      <c r="D285" s="75"/>
+      <c r="E285" s="75"/>
+      <c r="F285" s="75"/>
     </row>
     <row r="286" spans="1:6" ht="18" thickBot="1">
       <c r="C286" s="29" t="s">
@@ -10208,7 +10224,7 @@
       </c>
     </row>
     <row r="287" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C287" s="54">
+      <c r="C287" s="62">
         <v>200</v>
       </c>
       <c r="D287" s="31" t="s">
@@ -10222,7 +10238,7 @@
       </c>
     </row>
     <row r="288" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C288" s="54"/>
+      <c r="C288" s="62"/>
       <c r="D288" s="31" t="s">
         <v>305</v>
       </c>
@@ -10234,7 +10250,7 @@
       </c>
     </row>
     <row r="289" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C289" s="54"/>
+      <c r="C289" s="62"/>
       <c r="D289" s="31" t="s">
         <v>307</v>
       </c>
@@ -10246,7 +10262,7 @@
       </c>
     </row>
     <row r="290" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C290" s="54"/>
+      <c r="C290" s="62"/>
       <c r="D290" s="31"/>
       <c r="E290" s="31"/>
       <c r="F290" s="31"/>
@@ -10267,32 +10283,32 @@
       <c r="B293" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C293" s="86" t="s">
-        <v>553</v>
-      </c>
-      <c r="D293" s="87"/>
-      <c r="E293" s="87"/>
-      <c r="F293" s="88"/>
+      <c r="C293" s="94" t="s">
+        <v>551</v>
+      </c>
+      <c r="D293" s="95"/>
+      <c r="E293" s="95"/>
+      <c r="F293" s="96"/>
     </row>
     <row r="294" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A294" s="23"/>
       <c r="B294" s="23"/>
-      <c r="C294" s="58" t="s">
-        <v>552</v>
-      </c>
-      <c r="D294" s="59"/>
-      <c r="E294" s="59"/>
-      <c r="F294" s="60"/>
+      <c r="C294" s="66" t="s">
+        <v>550</v>
+      </c>
+      <c r="D294" s="67"/>
+      <c r="E294" s="67"/>
+      <c r="F294" s="68"/>
     </row>
     <row r="295" spans="1:6" s="12" customFormat="1" ht="27" thickBot="1">
       <c r="A295" s="23"/>
       <c r="B295" s="23"/>
-      <c r="C295" s="61" t="s">
+      <c r="C295" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D295" s="62"/>
-      <c r="E295" s="62"/>
-      <c r="F295" s="63"/>
+      <c r="D295" s="70"/>
+      <c r="E295" s="70"/>
+      <c r="F295" s="71"/>
     </row>
     <row r="296" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A296" s="23"/>
@@ -10318,7 +10334,7 @@
         <v>295</v>
       </c>
       <c r="E297" s="35" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F297" s="27" t="s">
         <v>311</v>
@@ -10341,12 +10357,12 @@
     <row r="299" spans="1:6" s="12" customFormat="1" ht="27" thickBot="1">
       <c r="A299" s="23"/>
       <c r="B299" s="23"/>
-      <c r="C299" s="64" t="s">
+      <c r="C299" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D299" s="65"/>
-      <c r="E299" s="65"/>
-      <c r="F299" s="66"/>
+      <c r="D299" s="73"/>
+      <c r="E299" s="73"/>
+      <c r="F299" s="74"/>
     </row>
     <row r="300" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A300" s="23"/>
@@ -10368,7 +10384,7 @@
       <c r="A301" s="23"/>
       <c r="B301" s="23"/>
       <c r="C301" s="30" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D301" s="30" t="s">
         <v>296</v>
@@ -10384,7 +10400,7 @@
       <c r="A302" s="23"/>
       <c r="B302" s="23"/>
       <c r="C302" s="30" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D302" s="30" t="s">
         <v>296</v>
@@ -10407,12 +10423,12 @@
     <row r="304" spans="1:6" s="12" customFormat="1" ht="27" thickBot="1">
       <c r="A304" s="23"/>
       <c r="B304" s="23"/>
-      <c r="C304" s="67" t="s">
+      <c r="C304" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D304" s="67"/>
-      <c r="E304" s="67"/>
-      <c r="F304" s="67"/>
+      <c r="D304" s="75"/>
+      <c r="E304" s="75"/>
+      <c r="F304" s="75"/>
     </row>
     <row r="305" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A305" s="23"/>
@@ -10433,7 +10449,7 @@
     <row r="306" spans="1:6" s="12" customFormat="1" ht="17.25" thickBot="1">
       <c r="A306" s="23"/>
       <c r="B306" s="23"/>
-      <c r="C306" s="54">
+      <c r="C306" s="62">
         <v>200</v>
       </c>
       <c r="D306" s="31" t="s">
@@ -10449,7 +10465,7 @@
     <row r="307" spans="1:6" s="12" customFormat="1" ht="17.25" thickBot="1">
       <c r="A307" s="23"/>
       <c r="B307" s="23"/>
-      <c r="C307" s="54"/>
+      <c r="C307" s="62"/>
       <c r="D307" s="31" t="s">
         <v>305</v>
       </c>
@@ -10463,7 +10479,7 @@
     <row r="308" spans="1:6" s="12" customFormat="1" ht="17.25" thickBot="1">
       <c r="A308" s="23"/>
       <c r="B308" s="23"/>
-      <c r="C308" s="54"/>
+      <c r="C308" s="62"/>
       <c r="D308" s="31" t="s">
         <v>307</v>
       </c>
@@ -10477,7 +10493,7 @@
     <row r="309" spans="1:6" s="12" customFormat="1" ht="17.25" thickBot="1">
       <c r="A309" s="23"/>
       <c r="B309" s="23"/>
-      <c r="C309" s="54"/>
+      <c r="C309" s="62"/>
       <c r="D309" s="31"/>
       <c r="E309" s="31"/>
       <c r="F309" s="31"/>
@@ -10500,28 +10516,28 @@
       <c r="B312" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C312" s="86" t="s">
+      <c r="C312" s="94" t="s">
         <v>373</v>
       </c>
-      <c r="D312" s="87"/>
-      <c r="E312" s="87"/>
-      <c r="F312" s="88"/>
+      <c r="D312" s="95"/>
+      <c r="E312" s="95"/>
+      <c r="F312" s="96"/>
     </row>
     <row r="313" spans="1:6" ht="18" thickBot="1">
-      <c r="C313" s="58" t="s">
+      <c r="C313" s="66" t="s">
         <v>389</v>
       </c>
-      <c r="D313" s="59"/>
-      <c r="E313" s="59"/>
-      <c r="F313" s="60"/>
+      <c r="D313" s="67"/>
+      <c r="E313" s="67"/>
+      <c r="F313" s="68"/>
     </row>
     <row r="314" spans="1:6" ht="27" thickBot="1">
-      <c r="C314" s="61" t="s">
+      <c r="C314" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D314" s="62"/>
-      <c r="E314" s="62"/>
-      <c r="F314" s="63"/>
+      <c r="D314" s="70"/>
+      <c r="E314" s="70"/>
+      <c r="F314" s="71"/>
     </row>
     <row r="315" spans="1:6" ht="18" thickBot="1">
       <c r="C315" s="25" t="s">
@@ -10543,7 +10559,7 @@
         <v>295</v>
       </c>
       <c r="E316" s="35" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F316" s="27" t="s">
         <v>311</v>
@@ -10562,12 +10578,12 @@
       <c r="F317" s="27"/>
     </row>
     <row r="318" spans="1:6" ht="27" thickBot="1">
-      <c r="C318" s="64" t="s">
+      <c r="C318" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D318" s="65"/>
-      <c r="E318" s="65"/>
-      <c r="F318" s="66"/>
+      <c r="D318" s="73"/>
+      <c r="E318" s="73"/>
+      <c r="F318" s="74"/>
     </row>
     <row r="319" spans="1:6" ht="18" thickBot="1">
       <c r="C319" s="29" t="s">
@@ -10585,7 +10601,7 @@
     </row>
     <row r="320" spans="1:6" ht="17.25" thickBot="1">
       <c r="C320" s="30" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D320" s="30" t="s">
         <v>296</v>
@@ -10604,12 +10620,12 @@
       <c r="F321" s="30"/>
     </row>
     <row r="322" spans="1:6" ht="27" thickBot="1">
-      <c r="C322" s="67" t="s">
+      <c r="C322" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D322" s="67"/>
-      <c r="E322" s="67"/>
-      <c r="F322" s="67"/>
+      <c r="D322" s="75"/>
+      <c r="E322" s="75"/>
+      <c r="F322" s="75"/>
     </row>
     <row r="323" spans="1:6" ht="18" thickBot="1">
       <c r="C323" s="29" t="s">
@@ -10626,7 +10642,7 @@
       </c>
     </row>
     <row r="324" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C324" s="54">
+      <c r="C324" s="62">
         <v>200</v>
       </c>
       <c r="D324" s="31" t="s">
@@ -10640,7 +10656,7 @@
       </c>
     </row>
     <row r="325" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C325" s="54"/>
+      <c r="C325" s="62"/>
       <c r="D325" s="31" t="s">
         <v>305</v>
       </c>
@@ -10652,7 +10668,7 @@
       </c>
     </row>
     <row r="326" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C326" s="54"/>
+      <c r="C326" s="62"/>
       <c r="D326" s="31" t="s">
         <v>307</v>
       </c>
@@ -10664,7 +10680,7 @@
       </c>
     </row>
     <row r="327" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C327" s="54"/>
+      <c r="C327" s="62"/>
       <c r="D327" s="31"/>
       <c r="E327" s="31"/>
       <c r="F327" s="31"/>
@@ -10685,28 +10701,28 @@
       <c r="B331" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C331" s="86" t="s">
+      <c r="C331" s="94" t="s">
         <v>374</v>
       </c>
-      <c r="D331" s="87"/>
-      <c r="E331" s="87"/>
-      <c r="F331" s="88"/>
+      <c r="D331" s="95"/>
+      <c r="E331" s="95"/>
+      <c r="F331" s="96"/>
     </row>
     <row r="332" spans="1:6" ht="18" thickBot="1">
-      <c r="C332" s="58" t="s">
+      <c r="C332" s="66" t="s">
         <v>388</v>
       </c>
-      <c r="D332" s="59"/>
-      <c r="E332" s="59"/>
-      <c r="F332" s="60"/>
+      <c r="D332" s="67"/>
+      <c r="E332" s="67"/>
+      <c r="F332" s="68"/>
     </row>
     <row r="333" spans="1:6" ht="27" thickBot="1">
-      <c r="C333" s="61" t="s">
+      <c r="C333" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D333" s="62"/>
-      <c r="E333" s="62"/>
-      <c r="F333" s="63"/>
+      <c r="D333" s="70"/>
+      <c r="E333" s="70"/>
+      <c r="F333" s="71"/>
     </row>
     <row r="334" spans="1:6" ht="18" thickBot="1">
       <c r="C334" s="25" t="s">
@@ -10728,7 +10744,7 @@
         <v>295</v>
       </c>
       <c r="E335" s="35" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F335" s="27" t="s">
         <v>311</v>
@@ -10747,12 +10763,12 @@
       <c r="F336" s="27"/>
     </row>
     <row r="337" spans="1:6" ht="27" thickBot="1">
-      <c r="C337" s="64" t="s">
+      <c r="C337" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D337" s="65"/>
-      <c r="E337" s="65"/>
-      <c r="F337" s="66"/>
+      <c r="D337" s="73"/>
+      <c r="E337" s="73"/>
+      <c r="F337" s="74"/>
     </row>
     <row r="338" spans="1:6" ht="18" thickBot="1">
       <c r="C338" s="29" t="s">
@@ -10770,7 +10786,7 @@
     </row>
     <row r="339" spans="1:6" ht="17.25" thickBot="1">
       <c r="C339" s="30" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D339" s="30" t="s">
         <v>296</v>
@@ -10784,7 +10800,7 @@
     </row>
     <row r="340" spans="1:6" ht="17.25" thickBot="1">
       <c r="C340" s="30" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D340" s="30" t="s">
         <v>296</v>
@@ -10797,12 +10813,12 @@
       </c>
     </row>
     <row r="341" spans="1:6" ht="27" thickBot="1">
-      <c r="C341" s="67" t="s">
+      <c r="C341" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D341" s="67"/>
-      <c r="E341" s="67"/>
-      <c r="F341" s="67"/>
+      <c r="D341" s="75"/>
+      <c r="E341" s="75"/>
+      <c r="F341" s="75"/>
     </row>
     <row r="342" spans="1:6" ht="18" thickBot="1">
       <c r="C342" s="29" t="s">
@@ -10819,7 +10835,7 @@
       </c>
     </row>
     <row r="343" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C343" s="54">
+      <c r="C343" s="62">
         <v>200</v>
       </c>
       <c r="D343" s="31" t="s">
@@ -10833,7 +10849,7 @@
       </c>
     </row>
     <row r="344" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C344" s="54"/>
+      <c r="C344" s="62"/>
       <c r="D344" s="31" t="s">
         <v>305</v>
       </c>
@@ -10845,7 +10861,7 @@
       </c>
     </row>
     <row r="345" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C345" s="54"/>
+      <c r="C345" s="62"/>
       <c r="D345" s="31" t="s">
         <v>307</v>
       </c>
@@ -10857,7 +10873,7 @@
       </c>
     </row>
     <row r="346" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C346" s="54"/>
+      <c r="C346" s="62"/>
       <c r="D346" s="31"/>
       <c r="E346" s="31"/>
       <c r="F346" s="31"/>
@@ -10878,28 +10894,28 @@
       <c r="B350" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C350" s="86" t="s">
+      <c r="C350" s="94" t="s">
         <v>375</v>
       </c>
-      <c r="D350" s="87"/>
-      <c r="E350" s="87"/>
-      <c r="F350" s="88"/>
+      <c r="D350" s="95"/>
+      <c r="E350" s="95"/>
+      <c r="F350" s="96"/>
     </row>
     <row r="351" spans="1:6" ht="18" thickBot="1">
-      <c r="C351" s="58" t="s">
+      <c r="C351" s="66" t="s">
         <v>387</v>
       </c>
-      <c r="D351" s="59"/>
-      <c r="E351" s="59"/>
-      <c r="F351" s="60"/>
+      <c r="D351" s="67"/>
+      <c r="E351" s="67"/>
+      <c r="F351" s="68"/>
     </row>
     <row r="352" spans="1:6" ht="27" thickBot="1">
-      <c r="C352" s="61" t="s">
+      <c r="C352" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D352" s="62"/>
-      <c r="E352" s="62"/>
-      <c r="F352" s="63"/>
+      <c r="D352" s="70"/>
+      <c r="E352" s="70"/>
+      <c r="F352" s="71"/>
     </row>
     <row r="353" spans="3:6" ht="18" thickBot="1">
       <c r="C353" s="25" t="s">
@@ -10921,7 +10937,7 @@
         <v>295</v>
       </c>
       <c r="E354" s="35" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F354" s="27" t="s">
         <v>311</v>
@@ -10940,12 +10956,12 @@
       <c r="F355" s="27"/>
     </row>
     <row r="356" spans="3:6" ht="27" thickBot="1">
-      <c r="C356" s="64" t="s">
+      <c r="C356" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D356" s="65"/>
-      <c r="E356" s="65"/>
-      <c r="F356" s="66"/>
+      <c r="D356" s="73"/>
+      <c r="E356" s="73"/>
+      <c r="F356" s="74"/>
     </row>
     <row r="357" spans="3:6" ht="18" thickBot="1">
       <c r="C357" s="29" t="s">
@@ -10963,7 +10979,7 @@
     </row>
     <row r="358" spans="3:6" ht="17.25" thickBot="1">
       <c r="C358" s="30" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D358" s="30" t="s">
         <v>296</v>
@@ -10977,7 +10993,7 @@
     </row>
     <row r="359" spans="3:6" ht="17.25" thickBot="1">
       <c r="C359" s="30" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D359" s="30" t="s">
         <v>296</v>
@@ -10990,12 +11006,12 @@
       </c>
     </row>
     <row r="360" spans="3:6" ht="27" thickBot="1">
-      <c r="C360" s="67" t="s">
+      <c r="C360" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D360" s="67"/>
-      <c r="E360" s="67"/>
-      <c r="F360" s="67"/>
+      <c r="D360" s="75"/>
+      <c r="E360" s="75"/>
+      <c r="F360" s="75"/>
     </row>
     <row r="361" spans="3:6" ht="18" thickBot="1">
       <c r="C361" s="29" t="s">
@@ -11012,7 +11028,7 @@
       </c>
     </row>
     <row r="362" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C362" s="54">
+      <c r="C362" s="62">
         <v>200</v>
       </c>
       <c r="D362" s="31" t="s">
@@ -11026,7 +11042,7 @@
       </c>
     </row>
     <row r="363" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C363" s="54"/>
+      <c r="C363" s="62"/>
       <c r="D363" s="31" t="s">
         <v>305</v>
       </c>
@@ -11038,7 +11054,7 @@
       </c>
     </row>
     <row r="364" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C364" s="54"/>
+      <c r="C364" s="62"/>
       <c r="D364" s="31" t="s">
         <v>307</v>
       </c>
@@ -11050,7 +11066,7 @@
       </c>
     </row>
     <row r="365" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C365" s="54"/>
+      <c r="C365" s="62"/>
       <c r="D365" s="31"/>
       <c r="E365" s="31"/>
       <c r="F365" s="31"/>
@@ -11071,28 +11087,28 @@
       <c r="B369" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C369" s="86" t="s">
+      <c r="C369" s="94" t="s">
         <v>377</v>
       </c>
-      <c r="D369" s="87"/>
-      <c r="E369" s="87"/>
-      <c r="F369" s="88"/>
+      <c r="D369" s="95"/>
+      <c r="E369" s="95"/>
+      <c r="F369" s="96"/>
     </row>
     <row r="370" spans="1:6" ht="18" thickBot="1">
-      <c r="C370" s="58" t="s">
+      <c r="C370" s="66" t="s">
         <v>382</v>
       </c>
-      <c r="D370" s="59"/>
-      <c r="E370" s="59"/>
-      <c r="F370" s="60"/>
+      <c r="D370" s="67"/>
+      <c r="E370" s="67"/>
+      <c r="F370" s="68"/>
     </row>
     <row r="371" spans="1:6" ht="27" thickBot="1">
-      <c r="C371" s="61" t="s">
+      <c r="C371" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D371" s="62"/>
-      <c r="E371" s="62"/>
-      <c r="F371" s="63"/>
+      <c r="D371" s="70"/>
+      <c r="E371" s="70"/>
+      <c r="F371" s="71"/>
     </row>
     <row r="372" spans="1:6" ht="18" thickBot="1">
       <c r="C372" s="25" t="s">
@@ -11114,7 +11130,7 @@
         <v>295</v>
       </c>
       <c r="E373" s="35" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F373" s="27" t="s">
         <v>311</v>
@@ -11133,12 +11149,12 @@
       <c r="F374" s="27"/>
     </row>
     <row r="375" spans="1:6" ht="27" thickBot="1">
-      <c r="C375" s="64" t="s">
+      <c r="C375" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D375" s="65"/>
-      <c r="E375" s="65"/>
-      <c r="F375" s="66"/>
+      <c r="D375" s="73"/>
+      <c r="E375" s="73"/>
+      <c r="F375" s="74"/>
     </row>
     <row r="376" spans="1:6" ht="18" thickBot="1">
       <c r="C376" s="29" t="s">
@@ -11156,7 +11172,7 @@
     </row>
     <row r="377" spans="1:6" ht="17.25" thickBot="1">
       <c r="C377" s="30" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D377" s="30" t="s">
         <v>296</v>
@@ -11175,12 +11191,12 @@
       <c r="F378" s="30"/>
     </row>
     <row r="379" spans="1:6" ht="27" thickBot="1">
-      <c r="C379" s="67" t="s">
+      <c r="C379" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D379" s="67"/>
-      <c r="E379" s="67"/>
-      <c r="F379" s="67"/>
+      <c r="D379" s="75"/>
+      <c r="E379" s="75"/>
+      <c r="F379" s="75"/>
     </row>
     <row r="380" spans="1:6" ht="18" thickBot="1">
       <c r="C380" s="29" t="s">
@@ -11197,7 +11213,7 @@
       </c>
     </row>
     <row r="381" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C381" s="54">
+      <c r="C381" s="62">
         <v>200</v>
       </c>
       <c r="D381" s="31" t="s">
@@ -11211,7 +11227,7 @@
       </c>
     </row>
     <row r="382" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C382" s="54"/>
+      <c r="C382" s="62"/>
       <c r="D382" s="31" t="s">
         <v>305</v>
       </c>
@@ -11223,7 +11239,7 @@
       </c>
     </row>
     <row r="383" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C383" s="54"/>
+      <c r="C383" s="62"/>
       <c r="D383" s="31" t="s">
         <v>307</v>
       </c>
@@ -11235,7 +11251,7 @@
       </c>
     </row>
     <row r="384" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C384" s="54"/>
+      <c r="C384" s="62"/>
       <c r="D384" s="31"/>
       <c r="E384" s="31"/>
       <c r="F384" s="31"/>
@@ -11256,28 +11272,28 @@
       <c r="B388" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C388" s="86" t="s">
+      <c r="C388" s="94" t="s">
         <v>376</v>
       </c>
-      <c r="D388" s="87"/>
-      <c r="E388" s="87"/>
-      <c r="F388" s="88"/>
+      <c r="D388" s="95"/>
+      <c r="E388" s="95"/>
+      <c r="F388" s="96"/>
     </row>
     <row r="389" spans="1:6" ht="18" thickBot="1">
-      <c r="C389" s="58" t="s">
+      <c r="C389" s="66" t="s">
         <v>381</v>
       </c>
-      <c r="D389" s="59"/>
-      <c r="E389" s="59"/>
-      <c r="F389" s="60"/>
+      <c r="D389" s="67"/>
+      <c r="E389" s="67"/>
+      <c r="F389" s="68"/>
     </row>
     <row r="390" spans="1:6" ht="27" thickBot="1">
-      <c r="C390" s="61" t="s">
+      <c r="C390" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D390" s="62"/>
-      <c r="E390" s="62"/>
-      <c r="F390" s="63"/>
+      <c r="D390" s="70"/>
+      <c r="E390" s="70"/>
+      <c r="F390" s="71"/>
     </row>
     <row r="391" spans="1:6" ht="18" thickBot="1">
       <c r="C391" s="25" t="s">
@@ -11299,7 +11315,7 @@
         <v>295</v>
       </c>
       <c r="E392" s="35" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F392" s="27" t="s">
         <v>311</v>
@@ -11318,12 +11334,12 @@
       <c r="F393" s="27"/>
     </row>
     <row r="394" spans="1:6" ht="27" thickBot="1">
-      <c r="C394" s="64" t="s">
+      <c r="C394" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D394" s="65"/>
-      <c r="E394" s="65"/>
-      <c r="F394" s="66"/>
+      <c r="D394" s="73"/>
+      <c r="E394" s="73"/>
+      <c r="F394" s="74"/>
     </row>
     <row r="395" spans="1:6" ht="18" thickBot="1">
       <c r="C395" s="29" t="s">
@@ -11341,7 +11357,7 @@
     </row>
     <row r="396" spans="1:6" ht="17.25" thickBot="1">
       <c r="C396" s="30" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D396" s="30" t="s">
         <v>296</v>
@@ -11355,7 +11371,7 @@
     </row>
     <row r="397" spans="1:6" ht="17.25" thickBot="1">
       <c r="C397" s="30" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D397" s="30" t="s">
         <v>296</v>
@@ -11368,12 +11384,12 @@
       </c>
     </row>
     <row r="398" spans="1:6" ht="27" thickBot="1">
-      <c r="C398" s="67" t="s">
+      <c r="C398" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D398" s="67"/>
-      <c r="E398" s="67"/>
-      <c r="F398" s="67"/>
+      <c r="D398" s="75"/>
+      <c r="E398" s="75"/>
+      <c r="F398" s="75"/>
     </row>
     <row r="399" spans="1:6" ht="18" thickBot="1">
       <c r="C399" s="29" t="s">
@@ -11390,7 +11406,7 @@
       </c>
     </row>
     <row r="400" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C400" s="54">
+      <c r="C400" s="62">
         <v>200</v>
       </c>
       <c r="D400" s="31" t="s">
@@ -11404,7 +11420,7 @@
       </c>
     </row>
     <row r="401" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C401" s="54"/>
+      <c r="C401" s="62"/>
       <c r="D401" s="31" t="s">
         <v>305</v>
       </c>
@@ -11416,7 +11432,7 @@
       </c>
     </row>
     <row r="402" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C402" s="54"/>
+      <c r="C402" s="62"/>
       <c r="D402" s="31" t="s">
         <v>307</v>
       </c>
@@ -11428,7 +11444,7 @@
       </c>
     </row>
     <row r="403" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C403" s="54"/>
+      <c r="C403" s="62"/>
       <c r="D403" s="31"/>
       <c r="E403" s="31"/>
       <c r="F403" s="31"/>
@@ -11449,28 +11465,28 @@
       <c r="B407" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C407" s="86" t="s">
+      <c r="C407" s="94" t="s">
         <v>379</v>
       </c>
-      <c r="D407" s="87"/>
-      <c r="E407" s="87"/>
-      <c r="F407" s="88"/>
+      <c r="D407" s="95"/>
+      <c r="E407" s="95"/>
+      <c r="F407" s="96"/>
     </row>
     <row r="408" spans="1:6" ht="18" thickBot="1">
-      <c r="C408" s="58" t="s">
+      <c r="C408" s="66" t="s">
         <v>380</v>
       </c>
-      <c r="D408" s="59"/>
-      <c r="E408" s="59"/>
-      <c r="F408" s="60"/>
+      <c r="D408" s="67"/>
+      <c r="E408" s="67"/>
+      <c r="F408" s="68"/>
     </row>
     <row r="409" spans="1:6" ht="27" thickBot="1">
-      <c r="C409" s="61" t="s">
+      <c r="C409" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D409" s="62"/>
-      <c r="E409" s="62"/>
-      <c r="F409" s="63"/>
+      <c r="D409" s="70"/>
+      <c r="E409" s="70"/>
+      <c r="F409" s="71"/>
     </row>
     <row r="410" spans="1:6" ht="18" thickBot="1">
       <c r="C410" s="25" t="s">
@@ -11492,7 +11508,7 @@
         <v>295</v>
       </c>
       <c r="E411" s="35" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F411" s="27" t="s">
         <v>311</v>
@@ -11511,12 +11527,12 @@
       <c r="F412" s="27"/>
     </row>
     <row r="413" spans="1:6" ht="27" thickBot="1">
-      <c r="C413" s="64" t="s">
+      <c r="C413" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D413" s="65"/>
-      <c r="E413" s="65"/>
-      <c r="F413" s="66"/>
+      <c r="D413" s="73"/>
+      <c r="E413" s="73"/>
+      <c r="F413" s="74"/>
     </row>
     <row r="414" spans="1:6" ht="18" thickBot="1">
       <c r="C414" s="29" t="s">
@@ -11534,7 +11550,7 @@
     </row>
     <row r="415" spans="1:6" ht="17.25" thickBot="1">
       <c r="C415" s="30" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D415" s="30" t="s">
         <v>296</v>
@@ -11550,7 +11566,7 @@
       <c r="A416" s="23"/>
       <c r="B416" s="23"/>
       <c r="C416" s="30" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D416" s="30" t="s">
         <v>296</v>
@@ -11559,14 +11575,14 @@
         <v>297</v>
       </c>
       <c r="F416" s="30" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="417" spans="1:6" s="12" customFormat="1" ht="17.25" thickBot="1">
       <c r="A417" s="23"/>
       <c r="B417" s="23"/>
       <c r="C417" s="30" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D417" s="30" t="s">
         <v>296</v>
@@ -11575,14 +11591,14 @@
         <v>297</v>
       </c>
       <c r="F417" s="30" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="418" spans="1:6" s="12" customFormat="1" ht="17.25" thickBot="1">
       <c r="A418" s="23"/>
       <c r="B418" s="23"/>
       <c r="C418" s="30" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D418" s="30" t="s">
         <v>296</v>
@@ -11591,14 +11607,14 @@
         <v>297</v>
       </c>
       <c r="F418" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="419" spans="1:6" s="12" customFormat="1" ht="17.25" thickBot="1">
       <c r="A419" s="23"/>
       <c r="B419" s="23"/>
       <c r="C419" s="30" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D419" s="30" t="s">
         <v>296</v>
@@ -11607,14 +11623,14 @@
         <v>297</v>
       </c>
       <c r="F419" s="30" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="420" spans="1:6" s="12" customFormat="1" ht="17.25" thickBot="1">
       <c r="A420" s="23"/>
       <c r="B420" s="23"/>
       <c r="C420" s="30" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D420" s="30" t="s">
         <v>296</v>
@@ -11623,14 +11639,14 @@
         <v>297</v>
       </c>
       <c r="F420" s="30" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="421" spans="1:6" s="12" customFormat="1" ht="17.25" thickBot="1">
       <c r="A421" s="23"/>
       <c r="B421" s="23"/>
       <c r="C421" s="30" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D421" s="30" t="s">
         <v>296</v>
@@ -11639,14 +11655,14 @@
         <v>297</v>
       </c>
       <c r="F421" s="30" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="422" spans="1:6" s="12" customFormat="1" ht="17.25" thickBot="1">
       <c r="A422" s="23"/>
       <c r="B422" s="23"/>
       <c r="C422" s="30" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D422" s="30" t="s">
         <v>296</v>
@@ -11655,14 +11671,14 @@
         <v>297</v>
       </c>
       <c r="F422" s="30" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="423" spans="1:6" s="12" customFormat="1" ht="17.25" thickBot="1">
       <c r="A423" s="23"/>
       <c r="B423" s="23"/>
       <c r="C423" s="30" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D423" s="30" t="s">
         <v>296</v>
@@ -11671,12 +11687,12 @@
         <v>297</v>
       </c>
       <c r="F423" s="30" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="424" spans="1:6" ht="17.25" thickBot="1">
       <c r="C424" s="30" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D424" s="30" t="s">
         <v>296</v>
@@ -11685,16 +11701,16 @@
         <v>297</v>
       </c>
       <c r="F424" s="30" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="425" spans="1:6" ht="27" thickBot="1">
-      <c r="C425" s="67" t="s">
+      <c r="C425" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D425" s="67"/>
-      <c r="E425" s="67"/>
-      <c r="F425" s="67"/>
+      <c r="D425" s="75"/>
+      <c r="E425" s="75"/>
+      <c r="F425" s="75"/>
     </row>
     <row r="426" spans="1:6" ht="18" thickBot="1">
       <c r="C426" s="29" t="s">
@@ -11711,7 +11727,7 @@
       </c>
     </row>
     <row r="427" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C427" s="54">
+      <c r="C427" s="62">
         <v>200</v>
       </c>
       <c r="D427" s="31" t="s">
@@ -11725,7 +11741,7 @@
       </c>
     </row>
     <row r="428" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C428" s="54"/>
+      <c r="C428" s="62"/>
       <c r="D428" s="31" t="s">
         <v>305</v>
       </c>
@@ -11737,7 +11753,7 @@
       </c>
     </row>
     <row r="429" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C429" s="54"/>
+      <c r="C429" s="62"/>
       <c r="D429" s="31" t="s">
         <v>307</v>
       </c>
@@ -11749,7 +11765,7 @@
       </c>
     </row>
     <row r="430" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C430" s="54"/>
+      <c r="C430" s="62"/>
       <c r="D430" s="31"/>
       <c r="E430" s="31"/>
       <c r="F430" s="31"/>
@@ -11770,28 +11786,28 @@
       <c r="B434" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C434" s="86" t="s">
+      <c r="C434" s="94" t="s">
         <v>383</v>
       </c>
-      <c r="D434" s="87"/>
-      <c r="E434" s="87"/>
-      <c r="F434" s="88"/>
+      <c r="D434" s="95"/>
+      <c r="E434" s="95"/>
+      <c r="F434" s="96"/>
     </row>
     <row r="435" spans="1:6" ht="18" thickBot="1">
-      <c r="C435" s="58" t="s">
+      <c r="C435" s="66" t="s">
         <v>384</v>
       </c>
-      <c r="D435" s="59"/>
-      <c r="E435" s="59"/>
-      <c r="F435" s="60"/>
+      <c r="D435" s="67"/>
+      <c r="E435" s="67"/>
+      <c r="F435" s="68"/>
     </row>
     <row r="436" spans="1:6" ht="27" thickBot="1">
-      <c r="C436" s="61" t="s">
+      <c r="C436" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D436" s="62"/>
-      <c r="E436" s="62"/>
-      <c r="F436" s="63"/>
+      <c r="D436" s="70"/>
+      <c r="E436" s="70"/>
+      <c r="F436" s="71"/>
     </row>
     <row r="437" spans="1:6" ht="18" thickBot="1">
       <c r="C437" s="25" t="s">
@@ -11813,7 +11829,7 @@
         <v>295</v>
       </c>
       <c r="E438" s="35" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F438" s="27" t="s">
         <v>311</v>
@@ -11832,12 +11848,12 @@
       <c r="F439" s="27"/>
     </row>
     <row r="440" spans="1:6" ht="27" thickBot="1">
-      <c r="C440" s="64" t="s">
+      <c r="C440" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D440" s="65"/>
-      <c r="E440" s="65"/>
-      <c r="F440" s="66"/>
+      <c r="D440" s="73"/>
+      <c r="E440" s="73"/>
+      <c r="F440" s="74"/>
     </row>
     <row r="441" spans="1:6" ht="18" thickBot="1">
       <c r="C441" s="29" t="s">
@@ -11857,7 +11873,7 @@
       <c r="A442" s="23"/>
       <c r="B442" s="23"/>
       <c r="C442" s="30" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D442" s="30" t="s">
         <v>296</v>
@@ -11873,7 +11889,7 @@
       <c r="A443" s="23"/>
       <c r="B443" s="23"/>
       <c r="C443" s="30" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D443" s="30" t="s">
         <v>296</v>
@@ -11882,14 +11898,14 @@
         <v>297</v>
       </c>
       <c r="F443" s="30" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="444" spans="1:6" s="12" customFormat="1" ht="17.25" thickBot="1">
       <c r="A444" s="23"/>
       <c r="B444" s="23"/>
       <c r="C444" s="30" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D444" s="30" t="s">
         <v>296</v>
@@ -11898,14 +11914,14 @@
         <v>297</v>
       </c>
       <c r="F444" s="30" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="445" spans="1:6" s="12" customFormat="1" ht="17.25" thickBot="1">
       <c r="A445" s="23"/>
       <c r="B445" s="23"/>
       <c r="C445" s="30" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D445" s="30" t="s">
         <v>296</v>
@@ -11914,14 +11930,14 @@
         <v>297</v>
       </c>
       <c r="F445" s="30" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="446" spans="1:6" s="12" customFormat="1" ht="17.25" thickBot="1">
       <c r="A446" s="23"/>
       <c r="B446" s="23"/>
       <c r="C446" s="30" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D446" s="30" t="s">
         <v>296</v>
@@ -11930,14 +11946,14 @@
         <v>297</v>
       </c>
       <c r="F446" s="30" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="447" spans="1:6" s="12" customFormat="1" ht="17.25" thickBot="1">
       <c r="A447" s="23"/>
       <c r="B447" s="23"/>
       <c r="C447" s="30" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D447" s="30" t="s">
         <v>296</v>
@@ -11946,14 +11962,14 @@
         <v>297</v>
       </c>
       <c r="F447" s="30" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="448" spans="1:6" s="12" customFormat="1" ht="17.25" thickBot="1">
       <c r="A448" s="23"/>
       <c r="B448" s="23"/>
       <c r="C448" s="30" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D448" s="30" t="s">
         <v>296</v>
@@ -11962,14 +11978,14 @@
         <v>297</v>
       </c>
       <c r="F448" s="30" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="449" spans="1:6" s="12" customFormat="1" ht="17.25" thickBot="1">
       <c r="A449" s="23"/>
       <c r="B449" s="23"/>
       <c r="C449" s="30" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D449" s="30" t="s">
         <v>296</v>
@@ -11978,14 +11994,14 @@
         <v>297</v>
       </c>
       <c r="F449" s="30" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="450" spans="1:6" s="12" customFormat="1" ht="17.25" thickBot="1">
       <c r="A450" s="23"/>
       <c r="B450" s="23"/>
       <c r="C450" s="30" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D450" s="30" t="s">
         <v>296</v>
@@ -11994,14 +12010,14 @@
         <v>297</v>
       </c>
       <c r="F450" s="30" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="451" spans="1:6" s="12" customFormat="1" ht="17.25" thickBot="1">
       <c r="A451" s="23"/>
       <c r="B451" s="23"/>
       <c r="C451" s="30" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D451" s="30" t="s">
         <v>296</v>
@@ -12010,16 +12026,16 @@
         <v>297</v>
       </c>
       <c r="F451" s="30" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
     </row>
     <row r="452" spans="1:6" ht="27" thickBot="1">
-      <c r="C452" s="67" t="s">
+      <c r="C452" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D452" s="67"/>
-      <c r="E452" s="67"/>
-      <c r="F452" s="67"/>
+      <c r="D452" s="75"/>
+      <c r="E452" s="75"/>
+      <c r="F452" s="75"/>
     </row>
     <row r="453" spans="1:6" ht="18" thickBot="1">
       <c r="C453" s="29" t="s">
@@ -12036,7 +12052,7 @@
       </c>
     </row>
     <row r="454" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C454" s="54">
+      <c r="C454" s="62">
         <v>200</v>
       </c>
       <c r="D454" s="31" t="s">
@@ -12050,7 +12066,7 @@
       </c>
     </row>
     <row r="455" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C455" s="54"/>
+      <c r="C455" s="62"/>
       <c r="D455" s="31" t="s">
         <v>305</v>
       </c>
@@ -12062,7 +12078,7 @@
       </c>
     </row>
     <row r="456" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C456" s="54"/>
+      <c r="C456" s="62"/>
       <c r="D456" s="31" t="s">
         <v>307</v>
       </c>
@@ -12074,7 +12090,7 @@
       </c>
     </row>
     <row r="457" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C457" s="54"/>
+      <c r="C457" s="62"/>
       <c r="D457" s="31"/>
       <c r="E457" s="31"/>
       <c r="F457" s="31"/>
@@ -12095,28 +12111,28 @@
       <c r="B461" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C461" s="86" t="s">
+      <c r="C461" s="94" t="s">
         <v>385</v>
       </c>
-      <c r="D461" s="87"/>
-      <c r="E461" s="87"/>
-      <c r="F461" s="88"/>
+      <c r="D461" s="95"/>
+      <c r="E461" s="95"/>
+      <c r="F461" s="96"/>
     </row>
     <row r="462" spans="1:6" ht="18" thickBot="1">
-      <c r="C462" s="58" t="s">
+      <c r="C462" s="66" t="s">
         <v>386</v>
       </c>
-      <c r="D462" s="59"/>
-      <c r="E462" s="59"/>
-      <c r="F462" s="60"/>
+      <c r="D462" s="67"/>
+      <c r="E462" s="67"/>
+      <c r="F462" s="68"/>
     </row>
     <row r="463" spans="1:6" ht="27" thickBot="1">
-      <c r="C463" s="61" t="s">
+      <c r="C463" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D463" s="62"/>
-      <c r="E463" s="62"/>
-      <c r="F463" s="63"/>
+      <c r="D463" s="70"/>
+      <c r="E463" s="70"/>
+      <c r="F463" s="71"/>
     </row>
     <row r="464" spans="1:6" ht="18" thickBot="1">
       <c r="C464" s="25" t="s">
@@ -12138,7 +12154,7 @@
         <v>295</v>
       </c>
       <c r="E465" s="35" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F465" s="27" t="s">
         <v>311</v>
@@ -12157,12 +12173,12 @@
       <c r="F466" s="27"/>
     </row>
     <row r="467" spans="1:6" ht="27" thickBot="1">
-      <c r="C467" s="64" t="s">
+      <c r="C467" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D467" s="65"/>
-      <c r="E467" s="65"/>
-      <c r="F467" s="66"/>
+      <c r="D467" s="73"/>
+      <c r="E467" s="73"/>
+      <c r="F467" s="74"/>
     </row>
     <row r="468" spans="1:6" ht="18" thickBot="1">
       <c r="C468" s="29" t="s">
@@ -12180,7 +12196,7 @@
     </row>
     <row r="469" spans="1:6" ht="17.25" thickBot="1">
       <c r="C469" s="30" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D469" s="30" t="s">
         <v>296</v>
@@ -12194,7 +12210,7 @@
     </row>
     <row r="470" spans="1:6" ht="17.25" thickBot="1">
       <c r="C470" s="30" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D470" s="30" t="s">
         <v>296</v>
@@ -12207,12 +12223,12 @@
       </c>
     </row>
     <row r="471" spans="1:6" ht="27" thickBot="1">
-      <c r="C471" s="67" t="s">
+      <c r="C471" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D471" s="67"/>
-      <c r="E471" s="67"/>
-      <c r="F471" s="67"/>
+      <c r="D471" s="75"/>
+      <c r="E471" s="75"/>
+      <c r="F471" s="75"/>
     </row>
     <row r="472" spans="1:6" ht="18" thickBot="1">
       <c r="C472" s="29" t="s">
@@ -12229,7 +12245,7 @@
       </c>
     </row>
     <row r="473" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C473" s="54">
+      <c r="C473" s="62">
         <v>200</v>
       </c>
       <c r="D473" s="31" t="s">
@@ -12243,7 +12259,7 @@
       </c>
     </row>
     <row r="474" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C474" s="54"/>
+      <c r="C474" s="62"/>
       <c r="D474" s="31" t="s">
         <v>305</v>
       </c>
@@ -12255,7 +12271,7 @@
       </c>
     </row>
     <row r="475" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C475" s="54"/>
+      <c r="C475" s="62"/>
       <c r="D475" s="31" t="s">
         <v>307</v>
       </c>
@@ -12267,7 +12283,7 @@
       </c>
     </row>
     <row r="476" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C476" s="54"/>
+      <c r="C476" s="62"/>
       <c r="D476" s="31"/>
       <c r="E476" s="31"/>
       <c r="F476" s="31"/>
@@ -12288,28 +12304,28 @@
       <c r="B480" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C480" s="86" t="s">
+      <c r="C480" s="94" t="s">
         <v>396</v>
       </c>
-      <c r="D480" s="87"/>
-      <c r="E480" s="87"/>
-      <c r="F480" s="88"/>
+      <c r="D480" s="95"/>
+      <c r="E480" s="95"/>
+      <c r="F480" s="96"/>
     </row>
     <row r="481" spans="3:6" ht="18" thickBot="1">
-      <c r="C481" s="58" t="s">
+      <c r="C481" s="66" t="s">
         <v>393</v>
       </c>
-      <c r="D481" s="59"/>
-      <c r="E481" s="59"/>
-      <c r="F481" s="60"/>
+      <c r="D481" s="67"/>
+      <c r="E481" s="67"/>
+      <c r="F481" s="68"/>
     </row>
     <row r="482" spans="3:6" ht="27" thickBot="1">
-      <c r="C482" s="61" t="s">
+      <c r="C482" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D482" s="62"/>
-      <c r="E482" s="62"/>
-      <c r="F482" s="63"/>
+      <c r="D482" s="70"/>
+      <c r="E482" s="70"/>
+      <c r="F482" s="71"/>
     </row>
     <row r="483" spans="3:6" ht="18" thickBot="1">
       <c r="C483" s="25" t="s">
@@ -12331,7 +12347,7 @@
         <v>295</v>
       </c>
       <c r="E484" s="35" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F484" s="27" t="s">
         <v>311</v>
@@ -12350,12 +12366,12 @@
       <c r="F485" s="27"/>
     </row>
     <row r="486" spans="3:6" ht="27" thickBot="1">
-      <c r="C486" s="64" t="s">
+      <c r="C486" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D486" s="65"/>
-      <c r="E486" s="65"/>
-      <c r="F486" s="66"/>
+      <c r="D486" s="73"/>
+      <c r="E486" s="73"/>
+      <c r="F486" s="74"/>
     </row>
     <row r="487" spans="3:6" ht="18" thickBot="1">
       <c r="C487" s="29" t="s">
@@ -12373,7 +12389,7 @@
     </row>
     <row r="488" spans="3:6" ht="17.25" thickBot="1">
       <c r="C488" s="30" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D488" s="30" t="s">
         <v>296</v>
@@ -12392,12 +12408,12 @@
       <c r="F489" s="30"/>
     </row>
     <row r="490" spans="3:6" ht="27" thickBot="1">
-      <c r="C490" s="67" t="s">
+      <c r="C490" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D490" s="67"/>
-      <c r="E490" s="67"/>
-      <c r="F490" s="67"/>
+      <c r="D490" s="75"/>
+      <c r="E490" s="75"/>
+      <c r="F490" s="75"/>
     </row>
     <row r="491" spans="3:6" ht="18" thickBot="1">
       <c r="C491" s="29" t="s">
@@ -12414,7 +12430,7 @@
       </c>
     </row>
     <row r="492" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C492" s="54">
+      <c r="C492" s="62">
         <v>200</v>
       </c>
       <c r="D492" s="31" t="s">
@@ -12428,7 +12444,7 @@
       </c>
     </row>
     <row r="493" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C493" s="54"/>
+      <c r="C493" s="62"/>
       <c r="D493" s="31" t="s">
         <v>305</v>
       </c>
@@ -12440,7 +12456,7 @@
       </c>
     </row>
     <row r="494" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C494" s="54"/>
+      <c r="C494" s="62"/>
       <c r="D494" s="31" t="s">
         <v>307</v>
       </c>
@@ -12452,7 +12468,7 @@
       </c>
     </row>
     <row r="495" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C495" s="54"/>
+      <c r="C495" s="62"/>
       <c r="D495" s="31"/>
       <c r="E495" s="31"/>
       <c r="F495" s="31"/>
@@ -12473,28 +12489,28 @@
       <c r="B499" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C499" s="86" t="s">
+      <c r="C499" s="94" t="s">
         <v>392</v>
       </c>
-      <c r="D499" s="87"/>
-      <c r="E499" s="87"/>
-      <c r="F499" s="88"/>
+      <c r="D499" s="95"/>
+      <c r="E499" s="95"/>
+      <c r="F499" s="96"/>
     </row>
     <row r="500" spans="1:6" ht="18" thickBot="1">
-      <c r="C500" s="58" t="s">
+      <c r="C500" s="66" t="s">
         <v>394</v>
       </c>
-      <c r="D500" s="59"/>
-      <c r="E500" s="59"/>
-      <c r="F500" s="60"/>
+      <c r="D500" s="67"/>
+      <c r="E500" s="67"/>
+      <c r="F500" s="68"/>
     </row>
     <row r="501" spans="1:6" ht="27" thickBot="1">
-      <c r="C501" s="61" t="s">
+      <c r="C501" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D501" s="62"/>
-      <c r="E501" s="62"/>
-      <c r="F501" s="63"/>
+      <c r="D501" s="70"/>
+      <c r="E501" s="70"/>
+      <c r="F501" s="71"/>
     </row>
     <row r="502" spans="1:6" ht="18" thickBot="1">
       <c r="C502" s="25" t="s">
@@ -12516,7 +12532,7 @@
         <v>295</v>
       </c>
       <c r="E503" s="35" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F503" s="27" t="s">
         <v>311</v>
@@ -12535,12 +12551,12 @@
       <c r="F504" s="27"/>
     </row>
     <row r="505" spans="1:6" ht="27" thickBot="1">
-      <c r="C505" s="64" t="s">
+      <c r="C505" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D505" s="65"/>
-      <c r="E505" s="65"/>
-      <c r="F505" s="66"/>
+      <c r="D505" s="73"/>
+      <c r="E505" s="73"/>
+      <c r="F505" s="74"/>
     </row>
     <row r="506" spans="1:6" ht="18" thickBot="1">
       <c r="C506" s="29" t="s">
@@ -12558,7 +12574,7 @@
     </row>
     <row r="507" spans="1:6" ht="17.25" thickBot="1">
       <c r="C507" s="30" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D507" s="30" t="s">
         <v>296</v>
@@ -12572,7 +12588,7 @@
     </row>
     <row r="508" spans="1:6" ht="17.25" thickBot="1">
       <c r="C508" s="30" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D508" s="30" t="s">
         <v>296</v>
@@ -12585,12 +12601,12 @@
       </c>
     </row>
     <row r="509" spans="1:6" ht="27" thickBot="1">
-      <c r="C509" s="67" t="s">
+      <c r="C509" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D509" s="67"/>
-      <c r="E509" s="67"/>
-      <c r="F509" s="67"/>
+      <c r="D509" s="75"/>
+      <c r="E509" s="75"/>
+      <c r="F509" s="75"/>
     </row>
     <row r="510" spans="1:6" ht="18" thickBot="1">
       <c r="C510" s="29" t="s">
@@ -12607,7 +12623,7 @@
       </c>
     </row>
     <row r="511" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C511" s="54">
+      <c r="C511" s="62">
         <v>200</v>
       </c>
       <c r="D511" s="31" t="s">
@@ -12621,7 +12637,7 @@
       </c>
     </row>
     <row r="512" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C512" s="54"/>
+      <c r="C512" s="62"/>
       <c r="D512" s="31" t="s">
         <v>305</v>
       </c>
@@ -12633,7 +12649,7 @@
       </c>
     </row>
     <row r="513" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C513" s="54"/>
+      <c r="C513" s="62"/>
       <c r="D513" s="31" t="s">
         <v>307</v>
       </c>
@@ -12645,7 +12661,7 @@
       </c>
     </row>
     <row r="514" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C514" s="54"/>
+      <c r="C514" s="62"/>
       <c r="D514" s="31"/>
       <c r="E514" s="31"/>
       <c r="F514" s="31"/>
@@ -12666,28 +12682,28 @@
       <c r="B518" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C518" s="86" t="s">
-        <v>576</v>
-      </c>
-      <c r="D518" s="87"/>
-      <c r="E518" s="87"/>
-      <c r="F518" s="88"/>
+      <c r="C518" s="94" t="s">
+        <v>574</v>
+      </c>
+      <c r="D518" s="95"/>
+      <c r="E518" s="95"/>
+      <c r="F518" s="96"/>
     </row>
     <row r="519" spans="1:6" ht="18" thickBot="1">
-      <c r="C519" s="58" t="s">
-        <v>577</v>
-      </c>
-      <c r="D519" s="59"/>
-      <c r="E519" s="59"/>
-      <c r="F519" s="60"/>
+      <c r="C519" s="66" t="s">
+        <v>575</v>
+      </c>
+      <c r="D519" s="67"/>
+      <c r="E519" s="67"/>
+      <c r="F519" s="68"/>
     </row>
     <row r="520" spans="1:6" ht="27" thickBot="1">
-      <c r="C520" s="61" t="s">
+      <c r="C520" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D520" s="62"/>
-      <c r="E520" s="62"/>
-      <c r="F520" s="63"/>
+      <c r="D520" s="70"/>
+      <c r="E520" s="70"/>
+      <c r="F520" s="71"/>
     </row>
     <row r="521" spans="1:6" ht="18" thickBot="1">
       <c r="C521" s="25" t="s">
@@ -12709,7 +12725,7 @@
         <v>295</v>
       </c>
       <c r="E522" s="35" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F522" s="27" t="s">
         <v>311</v>
@@ -12728,12 +12744,12 @@
       <c r="F523" s="27"/>
     </row>
     <row r="524" spans="1:6" ht="27" thickBot="1">
-      <c r="C524" s="64" t="s">
+      <c r="C524" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D524" s="65"/>
-      <c r="E524" s="65"/>
-      <c r="F524" s="66"/>
+      <c r="D524" s="73"/>
+      <c r="E524" s="73"/>
+      <c r="F524" s="74"/>
     </row>
     <row r="525" spans="1:6" ht="18" thickBot="1">
       <c r="C525" s="29" t="s">
@@ -12751,7 +12767,7 @@
     </row>
     <row r="526" spans="1:6" ht="17.25" thickBot="1">
       <c r="C526" s="30" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D526" s="30" t="s">
         <v>296</v>
@@ -12765,7 +12781,7 @@
     </row>
     <row r="527" spans="1:6" ht="17.25" thickBot="1">
       <c r="C527" s="30" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D527" s="30" t="s">
         <v>296</v>
@@ -12778,12 +12794,12 @@
       </c>
     </row>
     <row r="528" spans="1:6" ht="27" thickBot="1">
-      <c r="C528" s="67" t="s">
+      <c r="C528" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D528" s="67"/>
-      <c r="E528" s="67"/>
-      <c r="F528" s="67"/>
+      <c r="D528" s="75"/>
+      <c r="E528" s="75"/>
+      <c r="F528" s="75"/>
     </row>
     <row r="529" spans="1:6" ht="18" thickBot="1">
       <c r="C529" s="29" t="s">
@@ -12800,7 +12816,7 @@
       </c>
     </row>
     <row r="530" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C530" s="54">
+      <c r="C530" s="62">
         <v>200</v>
       </c>
       <c r="D530" s="31" t="s">
@@ -12814,7 +12830,7 @@
       </c>
     </row>
     <row r="531" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C531" s="54"/>
+      <c r="C531" s="62"/>
       <c r="D531" s="31" t="s">
         <v>305</v>
       </c>
@@ -12826,7 +12842,7 @@
       </c>
     </row>
     <row r="532" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C532" s="54"/>
+      <c r="C532" s="62"/>
       <c r="D532" s="31" t="s">
         <v>307</v>
       </c>
@@ -12838,7 +12854,7 @@
       </c>
     </row>
     <row r="533" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C533" s="54"/>
+      <c r="C533" s="62"/>
       <c r="D533" s="31"/>
       <c r="E533" s="31"/>
       <c r="F533" s="31"/>
@@ -12859,32 +12875,32 @@
       <c r="B536" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C536" s="86" t="s">
+      <c r="C536" s="94" t="s">
         <v>397</v>
       </c>
-      <c r="D536" s="87"/>
-      <c r="E536" s="87"/>
-      <c r="F536" s="88"/>
+      <c r="D536" s="95"/>
+      <c r="E536" s="95"/>
+      <c r="F536" s="96"/>
     </row>
     <row r="537" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A537" s="23"/>
       <c r="B537" s="23"/>
-      <c r="C537" s="58" t="s">
+      <c r="C537" s="66" t="s">
         <v>398</v>
       </c>
-      <c r="D537" s="59"/>
-      <c r="E537" s="59"/>
-      <c r="F537" s="60"/>
+      <c r="D537" s="67"/>
+      <c r="E537" s="67"/>
+      <c r="F537" s="68"/>
     </row>
     <row r="538" spans="1:6" s="12" customFormat="1" ht="27" thickBot="1">
       <c r="A538" s="23"/>
       <c r="B538" s="23"/>
-      <c r="C538" s="61" t="s">
+      <c r="C538" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D538" s="62"/>
-      <c r="E538" s="62"/>
-      <c r="F538" s="63"/>
+      <c r="D538" s="70"/>
+      <c r="E538" s="70"/>
+      <c r="F538" s="71"/>
     </row>
     <row r="539" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A539" s="23"/>
@@ -12910,7 +12926,7 @@
         <v>295</v>
       </c>
       <c r="E540" s="35" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F540" s="27" t="s">
         <v>311</v>
@@ -12933,12 +12949,12 @@
     <row r="542" spans="1:6" s="12" customFormat="1" ht="27" thickBot="1">
       <c r="A542" s="23"/>
       <c r="B542" s="23"/>
-      <c r="C542" s="64" t="s">
+      <c r="C542" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D542" s="65"/>
-      <c r="E542" s="65"/>
-      <c r="F542" s="66"/>
+      <c r="D542" s="73"/>
+      <c r="E542" s="73"/>
+      <c r="F542" s="74"/>
     </row>
     <row r="543" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A543" s="23"/>
@@ -12960,7 +12976,7 @@
       <c r="A544" s="23"/>
       <c r="B544" s="23"/>
       <c r="C544" s="30" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D544" s="30" t="s">
         <v>296</v>
@@ -12976,7 +12992,7 @@
       <c r="A545" s="23"/>
       <c r="B545" s="23"/>
       <c r="C545" s="30" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="D545" s="30" t="s">
         <v>296</v>
@@ -12991,12 +13007,12 @@
     <row r="546" spans="1:6" s="12" customFormat="1" ht="27" thickBot="1">
       <c r="A546" s="23"/>
       <c r="B546" s="23"/>
-      <c r="C546" s="67" t="s">
+      <c r="C546" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D546" s="67"/>
-      <c r="E546" s="67"/>
-      <c r="F546" s="67"/>
+      <c r="D546" s="75"/>
+      <c r="E546" s="75"/>
+      <c r="F546" s="75"/>
     </row>
     <row r="547" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A547" s="23"/>
@@ -13017,7 +13033,7 @@
     <row r="548" spans="1:6" s="12" customFormat="1" ht="17.25" thickBot="1">
       <c r="A548" s="23"/>
       <c r="B548" s="23"/>
-      <c r="C548" s="54">
+      <c r="C548" s="62">
         <v>200</v>
       </c>
       <c r="D548" s="31" t="s">
@@ -13033,7 +13049,7 @@
     <row r="549" spans="1:6" s="12" customFormat="1" ht="17.25" thickBot="1">
       <c r="A549" s="23"/>
       <c r="B549" s="23"/>
-      <c r="C549" s="54"/>
+      <c r="C549" s="62"/>
       <c r="D549" s="31" t="s">
         <v>305</v>
       </c>
@@ -13047,7 +13063,7 @@
     <row r="550" spans="1:6" s="12" customFormat="1" ht="17.25" thickBot="1">
       <c r="A550" s="23"/>
       <c r="B550" s="23"/>
-      <c r="C550" s="54"/>
+      <c r="C550" s="62"/>
       <c r="D550" s="31" t="s">
         <v>307</v>
       </c>
@@ -13061,7 +13077,7 @@
     <row r="551" spans="1:6" s="12" customFormat="1" ht="17.25" thickBot="1">
       <c r="A551" s="23"/>
       <c r="B551" s="23"/>
-      <c r="C551" s="54"/>
+      <c r="C551" s="62"/>
       <c r="D551" s="31"/>
       <c r="E551" s="31"/>
       <c r="F551" s="31"/>
@@ -13091,28 +13107,28 @@
       <c r="B554" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="C554" s="83" t="s">
+      <c r="C554" s="91" t="s">
         <v>399</v>
       </c>
-      <c r="D554" s="84"/>
-      <c r="E554" s="84"/>
-      <c r="F554" s="85"/>
+      <c r="D554" s="92"/>
+      <c r="E554" s="92"/>
+      <c r="F554" s="93"/>
     </row>
     <row r="555" spans="1:6" ht="18" thickBot="1">
-      <c r="C555" s="58" t="s">
+      <c r="C555" s="66" t="s">
         <v>400</v>
       </c>
-      <c r="D555" s="59"/>
-      <c r="E555" s="59"/>
-      <c r="F555" s="60"/>
+      <c r="D555" s="67"/>
+      <c r="E555" s="67"/>
+      <c r="F555" s="68"/>
     </row>
     <row r="556" spans="1:6" ht="27" thickBot="1">
-      <c r="C556" s="61" t="s">
+      <c r="C556" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D556" s="62"/>
-      <c r="E556" s="62"/>
-      <c r="F556" s="63"/>
+      <c r="D556" s="70"/>
+      <c r="E556" s="70"/>
+      <c r="F556" s="71"/>
     </row>
     <row r="557" spans="1:6" ht="18" thickBot="1">
       <c r="C557" s="25" t="s">
@@ -13145,12 +13161,12 @@
       <c r="F559" s="27"/>
     </row>
     <row r="560" spans="1:6" ht="27" thickBot="1">
-      <c r="C560" s="64" t="s">
+      <c r="C560" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D560" s="65"/>
-      <c r="E560" s="65"/>
-      <c r="F560" s="66"/>
+      <c r="D560" s="73"/>
+      <c r="E560" s="73"/>
+      <c r="F560" s="74"/>
     </row>
     <row r="561" spans="1:6" ht="18" thickBot="1">
       <c r="C561" s="29" t="s">
@@ -13173,12 +13189,12 @@
       <c r="F562" s="30"/>
     </row>
     <row r="563" spans="1:6" ht="27" thickBot="1">
-      <c r="C563" s="67" t="s">
+      <c r="C563" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D563" s="67"/>
-      <c r="E563" s="67"/>
-      <c r="F563" s="67"/>
+      <c r="D563" s="75"/>
+      <c r="E563" s="75"/>
+      <c r="F563" s="75"/>
     </row>
     <row r="564" spans="1:6" ht="18" thickBot="1">
       <c r="C564" s="29" t="s">
@@ -13195,7 +13211,7 @@
       </c>
     </row>
     <row r="565" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C565" s="54">
+      <c r="C565" s="62">
         <v>200</v>
       </c>
       <c r="D565" s="31" t="s">
@@ -13209,7 +13225,7 @@
       </c>
     </row>
     <row r="566" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C566" s="54"/>
+      <c r="C566" s="62"/>
       <c r="D566" s="31" t="s">
         <v>305</v>
       </c>
@@ -13221,7 +13237,7 @@
       </c>
     </row>
     <row r="567" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C567" s="54"/>
+      <c r="C567" s="62"/>
       <c r="D567" s="31" t="s">
         <v>307</v>
       </c>
@@ -13233,7 +13249,7 @@
       </c>
     </row>
     <row r="568" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C568" s="54"/>
+      <c r="C568" s="62"/>
       <c r="D568" s="31"/>
       <c r="E568" s="31"/>
       <c r="F568" s="31"/>
@@ -13254,28 +13270,28 @@
       <c r="B572" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="C572" s="83" t="s">
+      <c r="C572" s="91" t="s">
         <v>401</v>
       </c>
-      <c r="D572" s="84"/>
-      <c r="E572" s="84"/>
-      <c r="F572" s="85"/>
+      <c r="D572" s="92"/>
+      <c r="E572" s="92"/>
+      <c r="F572" s="93"/>
     </row>
     <row r="573" spans="1:6" ht="18" thickBot="1">
-      <c r="C573" s="58" t="s">
+      <c r="C573" s="66" t="s">
         <v>402</v>
       </c>
-      <c r="D573" s="59"/>
-      <c r="E573" s="59"/>
-      <c r="F573" s="60"/>
+      <c r="D573" s="67"/>
+      <c r="E573" s="67"/>
+      <c r="F573" s="68"/>
     </row>
     <row r="574" spans="1:6" ht="27" thickBot="1">
-      <c r="C574" s="61" t="s">
+      <c r="C574" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D574" s="62"/>
-      <c r="E574" s="62"/>
-      <c r="F574" s="63"/>
+      <c r="D574" s="70"/>
+      <c r="E574" s="70"/>
+      <c r="F574" s="71"/>
     </row>
     <row r="575" spans="1:6" ht="18" thickBot="1">
       <c r="C575" s="25" t="s">
@@ -13308,12 +13324,12 @@
       <c r="F577" s="27"/>
     </row>
     <row r="578" spans="1:6" ht="27" thickBot="1">
-      <c r="C578" s="64" t="s">
+      <c r="C578" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D578" s="65"/>
-      <c r="E578" s="65"/>
-      <c r="F578" s="66"/>
+      <c r="D578" s="73"/>
+      <c r="E578" s="73"/>
+      <c r="F578" s="74"/>
     </row>
     <row r="579" spans="1:6" ht="18" thickBot="1">
       <c r="C579" s="29" t="s">
@@ -13331,7 +13347,7 @@
     </row>
     <row r="580" spans="1:6" ht="17.25" thickBot="1">
       <c r="C580" s="30" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D580" s="30" t="s">
         <v>296</v>
@@ -13344,12 +13360,12 @@
       </c>
     </row>
     <row r="581" spans="1:6" ht="27" thickBot="1">
-      <c r="C581" s="67" t="s">
+      <c r="C581" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D581" s="67"/>
-      <c r="E581" s="67"/>
-      <c r="F581" s="67"/>
+      <c r="D581" s="75"/>
+      <c r="E581" s="75"/>
+      <c r="F581" s="75"/>
     </row>
     <row r="582" spans="1:6" ht="18" thickBot="1">
       <c r="C582" s="29" t="s">
@@ -13366,7 +13382,7 @@
       </c>
     </row>
     <row r="583" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C583" s="54">
+      <c r="C583" s="62">
         <v>200</v>
       </c>
       <c r="D583" s="31" t="s">
@@ -13380,7 +13396,7 @@
       </c>
     </row>
     <row r="584" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C584" s="54"/>
+      <c r="C584" s="62"/>
       <c r="D584" s="31" t="s">
         <v>305</v>
       </c>
@@ -13392,7 +13408,7 @@
       </c>
     </row>
     <row r="585" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C585" s="54"/>
+      <c r="C585" s="62"/>
       <c r="D585" s="31" t="s">
         <v>307</v>
       </c>
@@ -13404,7 +13420,7 @@
       </c>
     </row>
     <row r="586" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C586" s="54"/>
+      <c r="C586" s="62"/>
       <c r="D586" s="31"/>
       <c r="E586" s="31"/>
       <c r="F586" s="31"/>
@@ -13425,28 +13441,28 @@
       <c r="B590" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="C590" s="83" t="s">
+      <c r="C590" s="91" t="s">
         <v>405</v>
       </c>
-      <c r="D590" s="84"/>
-      <c r="E590" s="84"/>
-      <c r="F590" s="85"/>
+      <c r="D590" s="92"/>
+      <c r="E590" s="92"/>
+      <c r="F590" s="93"/>
     </row>
     <row r="591" spans="1:6" ht="18" thickBot="1">
-      <c r="C591" s="58" t="s">
+      <c r="C591" s="66" t="s">
         <v>406</v>
       </c>
-      <c r="D591" s="59"/>
-      <c r="E591" s="59"/>
-      <c r="F591" s="60"/>
+      <c r="D591" s="67"/>
+      <c r="E591" s="67"/>
+      <c r="F591" s="68"/>
     </row>
     <row r="592" spans="1:6" ht="27" thickBot="1">
-      <c r="C592" s="61" t="s">
+      <c r="C592" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D592" s="62"/>
-      <c r="E592" s="62"/>
-      <c r="F592" s="63"/>
+      <c r="D592" s="70"/>
+      <c r="E592" s="70"/>
+      <c r="F592" s="71"/>
     </row>
     <row r="593" spans="1:6" ht="18" thickBot="1">
       <c r="C593" s="25" t="s">
@@ -13468,7 +13484,7 @@
         <v>295</v>
       </c>
       <c r="E594" s="35" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F594" s="27" t="s">
         <v>311</v>
@@ -13487,12 +13503,12 @@
       <c r="F595" s="27"/>
     </row>
     <row r="596" spans="1:6" ht="27" thickBot="1">
-      <c r="C596" s="64" t="s">
+      <c r="C596" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D596" s="65"/>
-      <c r="E596" s="65"/>
-      <c r="F596" s="66"/>
+      <c r="D596" s="73"/>
+      <c r="E596" s="73"/>
+      <c r="F596" s="74"/>
     </row>
     <row r="597" spans="1:6" ht="18" thickBot="1">
       <c r="C597" s="29" t="s">
@@ -13512,7 +13528,7 @@
       <c r="A598" s="23"/>
       <c r="B598" s="23"/>
       <c r="C598" s="30" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D598" s="30" t="s">
         <v>296</v>
@@ -13539,12 +13555,12 @@
       </c>
     </row>
     <row r="600" spans="1:6" ht="27" thickBot="1">
-      <c r="C600" s="67" t="s">
+      <c r="C600" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D600" s="67"/>
-      <c r="E600" s="67"/>
-      <c r="F600" s="67"/>
+      <c r="D600" s="75"/>
+      <c r="E600" s="75"/>
+      <c r="F600" s="75"/>
     </row>
     <row r="601" spans="1:6" ht="18" thickBot="1">
       <c r="C601" s="29" t="s">
@@ -13561,7 +13577,7 @@
       </c>
     </row>
     <row r="602" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C602" s="54">
+      <c r="C602" s="62">
         <v>200</v>
       </c>
       <c r="D602" s="31" t="s">
@@ -13575,7 +13591,7 @@
       </c>
     </row>
     <row r="603" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C603" s="54"/>
+      <c r="C603" s="62"/>
       <c r="D603" s="31" t="s">
         <v>305</v>
       </c>
@@ -13587,7 +13603,7 @@
       </c>
     </row>
     <row r="604" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C604" s="54"/>
+      <c r="C604" s="62"/>
       <c r="D604" s="31" t="s">
         <v>307</v>
       </c>
@@ -13599,7 +13615,7 @@
       </c>
     </row>
     <row r="605" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C605" s="54"/>
+      <c r="C605" s="62"/>
       <c r="D605" s="31"/>
       <c r="E605" s="31"/>
       <c r="F605" s="31"/>
@@ -13620,28 +13636,28 @@
       <c r="B609" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="C609" s="83" t="s">
+      <c r="C609" s="91" t="s">
         <v>407</v>
       </c>
-      <c r="D609" s="84"/>
-      <c r="E609" s="84"/>
-      <c r="F609" s="85"/>
+      <c r="D609" s="92"/>
+      <c r="E609" s="92"/>
+      <c r="F609" s="93"/>
     </row>
     <row r="610" spans="1:6" ht="18" thickBot="1">
-      <c r="C610" s="58" t="s">
+      <c r="C610" s="66" t="s">
         <v>408</v>
       </c>
-      <c r="D610" s="59"/>
-      <c r="E610" s="59"/>
-      <c r="F610" s="60"/>
+      <c r="D610" s="67"/>
+      <c r="E610" s="67"/>
+      <c r="F610" s="68"/>
     </row>
     <row r="611" spans="1:6" ht="27" thickBot="1">
-      <c r="C611" s="61" t="s">
+      <c r="C611" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D611" s="62"/>
-      <c r="E611" s="62"/>
-      <c r="F611" s="63"/>
+      <c r="D611" s="70"/>
+      <c r="E611" s="70"/>
+      <c r="F611" s="71"/>
     </row>
     <row r="612" spans="1:6" ht="18" thickBot="1">
       <c r="C612" s="25" t="s">
@@ -13663,7 +13679,7 @@
         <v>295</v>
       </c>
       <c r="E613" s="35" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F613" s="27" t="s">
         <v>311</v>
@@ -13682,12 +13698,12 @@
       <c r="F614" s="27"/>
     </row>
     <row r="615" spans="1:6" ht="27" thickBot="1">
-      <c r="C615" s="64" t="s">
+      <c r="C615" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D615" s="65"/>
-      <c r="E615" s="65"/>
-      <c r="F615" s="66"/>
+      <c r="D615" s="73"/>
+      <c r="E615" s="73"/>
+      <c r="F615" s="74"/>
     </row>
     <row r="616" spans="1:6" ht="18" thickBot="1">
       <c r="C616" s="29" t="s">
@@ -13705,7 +13721,7 @@
     </row>
     <row r="617" spans="1:6" ht="17.25" thickBot="1">
       <c r="C617" s="30" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D617" s="30" t="s">
         <v>296</v>
@@ -13732,12 +13748,12 @@
       </c>
     </row>
     <row r="619" spans="1:6" ht="27" thickBot="1">
-      <c r="C619" s="67" t="s">
+      <c r="C619" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D619" s="67"/>
-      <c r="E619" s="67"/>
-      <c r="F619" s="67"/>
+      <c r="D619" s="75"/>
+      <c r="E619" s="75"/>
+      <c r="F619" s="75"/>
     </row>
     <row r="620" spans="1:6" ht="18" thickBot="1">
       <c r="C620" s="29" t="s">
@@ -13754,7 +13770,7 @@
       </c>
     </row>
     <row r="621" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C621" s="54">
+      <c r="C621" s="62">
         <v>200</v>
       </c>
       <c r="D621" s="31" t="s">
@@ -13768,7 +13784,7 @@
       </c>
     </row>
     <row r="622" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C622" s="54"/>
+      <c r="C622" s="62"/>
       <c r="D622" s="31" t="s">
         <v>305</v>
       </c>
@@ -13780,7 +13796,7 @@
       </c>
     </row>
     <row r="623" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C623" s="54"/>
+      <c r="C623" s="62"/>
       <c r="D623" s="31" t="s">
         <v>307</v>
       </c>
@@ -13792,7 +13808,7 @@
       </c>
     </row>
     <row r="624" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C624" s="54"/>
+      <c r="C624" s="62"/>
       <c r="D624" s="31"/>
       <c r="E624" s="31"/>
       <c r="F624" s="31"/>
@@ -13813,32 +13829,32 @@
       <c r="B627" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="C627" s="83" t="s">
-        <v>579</v>
-      </c>
-      <c r="D627" s="84"/>
-      <c r="E627" s="84"/>
-      <c r="F627" s="85"/>
+      <c r="C627" s="91" t="s">
+        <v>577</v>
+      </c>
+      <c r="D627" s="92"/>
+      <c r="E627" s="92"/>
+      <c r="F627" s="93"/>
     </row>
     <row r="628" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A628" s="23"/>
       <c r="B628" s="23"/>
-      <c r="C628" s="58" t="s">
-        <v>580</v>
-      </c>
-      <c r="D628" s="59"/>
-      <c r="E628" s="59"/>
-      <c r="F628" s="60"/>
+      <c r="C628" s="66" t="s">
+        <v>578</v>
+      </c>
+      <c r="D628" s="67"/>
+      <c r="E628" s="67"/>
+      <c r="F628" s="68"/>
     </row>
     <row r="629" spans="1:6" s="12" customFormat="1" ht="27" thickBot="1">
       <c r="A629" s="23"/>
       <c r="B629" s="23"/>
-      <c r="C629" s="61" t="s">
+      <c r="C629" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D629" s="62"/>
-      <c r="E629" s="62"/>
-      <c r="F629" s="63"/>
+      <c r="D629" s="70"/>
+      <c r="E629" s="70"/>
+      <c r="F629" s="71"/>
     </row>
     <row r="630" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A630" s="23"/>
@@ -13864,7 +13880,7 @@
         <v>295</v>
       </c>
       <c r="E631" s="35" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F631" s="27" t="s">
         <v>311</v>
@@ -13887,12 +13903,12 @@
     <row r="633" spans="1:6" s="12" customFormat="1" ht="27" thickBot="1">
       <c r="A633" s="23"/>
       <c r="B633" s="23"/>
-      <c r="C633" s="64" t="s">
+      <c r="C633" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D633" s="65"/>
-      <c r="E633" s="65"/>
-      <c r="F633" s="66"/>
+      <c r="D633" s="73"/>
+      <c r="E633" s="73"/>
+      <c r="F633" s="74"/>
     </row>
     <row r="634" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A634" s="23"/>
@@ -13914,7 +13930,7 @@
       <c r="A635" s="23"/>
       <c r="B635" s="23"/>
       <c r="C635" s="30" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D635" s="30" t="s">
         <v>296</v>
@@ -13945,12 +13961,12 @@
     <row r="637" spans="1:6" s="12" customFormat="1" ht="27" thickBot="1">
       <c r="A637" s="23"/>
       <c r="B637" s="23"/>
-      <c r="C637" s="67" t="s">
+      <c r="C637" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D637" s="67"/>
-      <c r="E637" s="67"/>
-      <c r="F637" s="67"/>
+      <c r="D637" s="75"/>
+      <c r="E637" s="75"/>
+      <c r="F637" s="75"/>
     </row>
     <row r="638" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A638" s="23"/>
@@ -13971,7 +13987,7 @@
     <row r="639" spans="1:6" s="12" customFormat="1" ht="17.25" thickBot="1">
       <c r="A639" s="23"/>
       <c r="B639" s="23"/>
-      <c r="C639" s="54">
+      <c r="C639" s="62">
         <v>200</v>
       </c>
       <c r="D639" s="31" t="s">
@@ -13987,7 +14003,7 @@
     <row r="640" spans="1:6" s="12" customFormat="1" ht="17.25" thickBot="1">
       <c r="A640" s="23"/>
       <c r="B640" s="23"/>
-      <c r="C640" s="54"/>
+      <c r="C640" s="62"/>
       <c r="D640" s="31" t="s">
         <v>305</v>
       </c>
@@ -14001,7 +14017,7 @@
     <row r="641" spans="1:6" s="12" customFormat="1" ht="17.25" thickBot="1">
       <c r="A641" s="23"/>
       <c r="B641" s="23"/>
-      <c r="C641" s="54"/>
+      <c r="C641" s="62"/>
       <c r="D641" s="31" t="s">
         <v>307</v>
       </c>
@@ -14015,7 +14031,7 @@
     <row r="642" spans="1:6" s="12" customFormat="1" ht="17.25" thickBot="1">
       <c r="A642" s="23"/>
       <c r="B642" s="23"/>
-      <c r="C642" s="54"/>
+      <c r="C642" s="62"/>
       <c r="D642" s="31"/>
       <c r="E642" s="31"/>
       <c r="F642" s="31"/>
@@ -14038,28 +14054,28 @@
       <c r="B645" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="C645" s="80" t="s">
+      <c r="C645" s="88" t="s">
         <v>409</v>
       </c>
-      <c r="D645" s="81"/>
-      <c r="E645" s="81"/>
-      <c r="F645" s="82"/>
+      <c r="D645" s="89"/>
+      <c r="E645" s="89"/>
+      <c r="F645" s="90"/>
     </row>
     <row r="646" spans="1:6" ht="18" thickBot="1">
-      <c r="C646" s="58" t="s">
+      <c r="C646" s="66" t="s">
         <v>170</v>
       </c>
-      <c r="D646" s="59"/>
-      <c r="E646" s="59"/>
-      <c r="F646" s="60"/>
+      <c r="D646" s="67"/>
+      <c r="E646" s="67"/>
+      <c r="F646" s="68"/>
     </row>
     <row r="647" spans="1:6" ht="27" thickBot="1">
-      <c r="C647" s="61" t="s">
+      <c r="C647" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D647" s="62"/>
-      <c r="E647" s="62"/>
-      <c r="F647" s="63"/>
+      <c r="D647" s="70"/>
+      <c r="E647" s="70"/>
+      <c r="F647" s="71"/>
     </row>
     <row r="648" spans="1:6" ht="18" thickBot="1">
       <c r="C648" s="25" t="s">
@@ -14081,7 +14097,7 @@
         <v>295</v>
       </c>
       <c r="E649" s="35" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F649" s="27" t="s">
         <v>311</v>
@@ -14100,12 +14116,12 @@
       <c r="F650" s="27"/>
     </row>
     <row r="651" spans="1:6" ht="27" thickBot="1">
-      <c r="C651" s="64" t="s">
+      <c r="C651" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D651" s="65"/>
-      <c r="E651" s="65"/>
-      <c r="F651" s="66"/>
+      <c r="D651" s="73"/>
+      <c r="E651" s="73"/>
+      <c r="F651" s="74"/>
     </row>
     <row r="652" spans="1:6" ht="18" thickBot="1">
       <c r="C652" s="29" t="s">
@@ -14123,7 +14139,7 @@
     </row>
     <row r="653" spans="1:6" ht="17.25" thickBot="1">
       <c r="C653" s="30" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D653" s="30" t="s">
         <v>296</v>
@@ -14139,7 +14155,7 @@
       <c r="A654" s="23"/>
       <c r="B654" s="23"/>
       <c r="C654" s="30" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D654" s="30" t="s">
         <v>296</v>
@@ -14155,7 +14171,7 @@
       <c r="A655" s="23"/>
       <c r="B655" s="23"/>
       <c r="C655" s="30" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D655" s="30" t="s">
         <v>296</v>
@@ -14164,12 +14180,12 @@
         <v>297</v>
       </c>
       <c r="F655" s="30" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="656" spans="1:6" ht="17.25" thickBot="1">
       <c r="C656" s="30" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="D656" s="30" t="s">
         <v>296</v>
@@ -14178,16 +14194,16 @@
         <v>297</v>
       </c>
       <c r="F656" s="30" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="657" spans="1:6" ht="27" thickBot="1">
-      <c r="C657" s="67" t="s">
+      <c r="C657" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D657" s="67"/>
-      <c r="E657" s="67"/>
-      <c r="F657" s="67"/>
+      <c r="D657" s="75"/>
+      <c r="E657" s="75"/>
+      <c r="F657" s="75"/>
     </row>
     <row r="658" spans="1:6" ht="18" thickBot="1">
       <c r="C658" s="29" t="s">
@@ -14204,7 +14220,7 @@
       </c>
     </row>
     <row r="659" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C659" s="54">
+      <c r="C659" s="62">
         <v>200</v>
       </c>
       <c r="D659" s="31" t="s">
@@ -14218,7 +14234,7 @@
       </c>
     </row>
     <row r="660" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C660" s="54"/>
+      <c r="C660" s="62"/>
       <c r="D660" s="31" t="s">
         <v>305</v>
       </c>
@@ -14230,7 +14246,7 @@
       </c>
     </row>
     <row r="661" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C661" s="54"/>
+      <c r="C661" s="62"/>
       <c r="D661" s="31" t="s">
         <v>307</v>
       </c>
@@ -14242,7 +14258,7 @@
       </c>
     </row>
     <row r="662" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C662" s="54"/>
+      <c r="C662" s="62"/>
       <c r="D662" s="31"/>
       <c r="E662" s="31"/>
       <c r="F662" s="31"/>
@@ -14263,28 +14279,28 @@
       <c r="B666" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="C666" s="80" t="s">
+      <c r="C666" s="88" t="s">
         <v>410</v>
       </c>
-      <c r="D666" s="81"/>
-      <c r="E666" s="81"/>
-      <c r="F666" s="82"/>
+      <c r="D666" s="89"/>
+      <c r="E666" s="89"/>
+      <c r="F666" s="90"/>
     </row>
     <row r="667" spans="1:6" ht="18" thickBot="1">
-      <c r="C667" s="58" t="s">
+      <c r="C667" s="66" t="s">
         <v>411</v>
       </c>
-      <c r="D667" s="59"/>
-      <c r="E667" s="59"/>
-      <c r="F667" s="60"/>
+      <c r="D667" s="67"/>
+      <c r="E667" s="67"/>
+      <c r="F667" s="68"/>
     </row>
     <row r="668" spans="1:6" ht="27" thickBot="1">
-      <c r="C668" s="61" t="s">
+      <c r="C668" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D668" s="62"/>
-      <c r="E668" s="62"/>
-      <c r="F668" s="63"/>
+      <c r="D668" s="70"/>
+      <c r="E668" s="70"/>
+      <c r="F668" s="71"/>
     </row>
     <row r="669" spans="1:6" ht="18" thickBot="1">
       <c r="C669" s="25" t="s">
@@ -14306,7 +14322,7 @@
         <v>295</v>
       </c>
       <c r="E670" s="35" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F670" s="27" t="s">
         <v>311</v>
@@ -14325,12 +14341,12 @@
       <c r="F671" s="27"/>
     </row>
     <row r="672" spans="1:6" ht="27" thickBot="1">
-      <c r="C672" s="64" t="s">
+      <c r="C672" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D672" s="65"/>
-      <c r="E672" s="65"/>
-      <c r="F672" s="66"/>
+      <c r="D672" s="73"/>
+      <c r="E672" s="73"/>
+      <c r="F672" s="74"/>
     </row>
     <row r="673" spans="1:6" ht="18" thickBot="1">
       <c r="C673" s="29" t="s">
@@ -14363,8 +14379,8 @@
     <row r="675" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A675" s="23"/>
       <c r="B675" s="23"/>
-      <c r="C675" s="96" t="s">
-        <v>530</v>
+      <c r="C675" s="52" t="s">
+        <v>528</v>
       </c>
       <c r="D675" s="30" t="s">
         <v>296</v>
@@ -14372,15 +14388,15 @@
       <c r="E675" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="F675" s="96" t="s">
-        <v>532</v>
+      <c r="F675" s="52" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="676" spans="1:6" s="12" customFormat="1" ht="17.25" thickBot="1">
       <c r="A676" s="23"/>
       <c r="B676" s="23"/>
       <c r="C676" s="30" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D676" s="30" t="s">
         <v>296</v>
@@ -14389,7 +14405,7 @@
         <v>297</v>
       </c>
       <c r="F676" s="30" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="677" spans="1:6" ht="17.25" thickBot="1">
@@ -14399,12 +14415,12 @@
       <c r="F677" s="30"/>
     </row>
     <row r="678" spans="1:6" ht="27" thickBot="1">
-      <c r="C678" s="67" t="s">
+      <c r="C678" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D678" s="67"/>
-      <c r="E678" s="67"/>
-      <c r="F678" s="67"/>
+      <c r="D678" s="75"/>
+      <c r="E678" s="75"/>
+      <c r="F678" s="75"/>
     </row>
     <row r="679" spans="1:6" ht="18" thickBot="1">
       <c r="C679" s="29" t="s">
@@ -14421,7 +14437,7 @@
       </c>
     </row>
     <row r="680" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C680" s="54">
+      <c r="C680" s="62">
         <v>200</v>
       </c>
       <c r="D680" s="31" t="s">
@@ -14435,7 +14451,7 @@
       </c>
     </row>
     <row r="681" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C681" s="54"/>
+      <c r="C681" s="62"/>
       <c r="D681" s="31" t="s">
         <v>305</v>
       </c>
@@ -14447,7 +14463,7 @@
       </c>
     </row>
     <row r="682" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C682" s="54"/>
+      <c r="C682" s="62"/>
       <c r="D682" s="31" t="s">
         <v>307</v>
       </c>
@@ -14459,7 +14475,7 @@
       </c>
     </row>
     <row r="683" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C683" s="54"/>
+      <c r="C683" s="62"/>
       <c r="D683" s="31"/>
       <c r="E683" s="31"/>
       <c r="F683" s="31"/>
@@ -14480,28 +14496,28 @@
       <c r="B687" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="C687" s="80" t="s">
+      <c r="C687" s="88" t="s">
         <v>412</v>
       </c>
-      <c r="D687" s="81"/>
-      <c r="E687" s="81"/>
-      <c r="F687" s="82"/>
+      <c r="D687" s="89"/>
+      <c r="E687" s="89"/>
+      <c r="F687" s="90"/>
     </row>
     <row r="688" spans="1:6" ht="18" thickBot="1">
-      <c r="C688" s="58" t="s">
+      <c r="C688" s="66" t="s">
         <v>413</v>
       </c>
-      <c r="D688" s="59"/>
-      <c r="E688" s="59"/>
-      <c r="F688" s="60"/>
+      <c r="D688" s="67"/>
+      <c r="E688" s="67"/>
+      <c r="F688" s="68"/>
     </row>
     <row r="689" spans="3:6" ht="27" thickBot="1">
-      <c r="C689" s="61" t="s">
+      <c r="C689" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D689" s="62"/>
-      <c r="E689" s="62"/>
-      <c r="F689" s="63"/>
+      <c r="D689" s="70"/>
+      <c r="E689" s="70"/>
+      <c r="F689" s="71"/>
     </row>
     <row r="690" spans="3:6" ht="18" thickBot="1">
       <c r="C690" s="25" t="s">
@@ -14523,7 +14539,7 @@
         <v>295</v>
       </c>
       <c r="E691" s="35" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F691" s="27" t="s">
         <v>311</v>
@@ -14542,12 +14558,12 @@
       <c r="F692" s="27"/>
     </row>
     <row r="693" spans="3:6" ht="27" thickBot="1">
-      <c r="C693" s="64" t="s">
+      <c r="C693" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D693" s="65"/>
-      <c r="E693" s="65"/>
-      <c r="F693" s="66"/>
+      <c r="D693" s="73"/>
+      <c r="E693" s="73"/>
+      <c r="F693" s="74"/>
     </row>
     <row r="694" spans="3:6" ht="18" thickBot="1">
       <c r="C694" s="29" t="s">
@@ -14565,7 +14581,7 @@
     </row>
     <row r="695" spans="3:6" ht="17.25" thickBot="1">
       <c r="C695" s="30" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D695" s="30" t="s">
         <v>296</v>
@@ -14579,7 +14595,7 @@
     </row>
     <row r="696" spans="3:6" ht="17.25" thickBot="1">
       <c r="C696" s="30" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D696" s="30" t="s">
         <v>296</v>
@@ -14592,12 +14608,12 @@
       </c>
     </row>
     <row r="697" spans="3:6" ht="27" thickBot="1">
-      <c r="C697" s="67" t="s">
+      <c r="C697" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D697" s="67"/>
-      <c r="E697" s="67"/>
-      <c r="F697" s="67"/>
+      <c r="D697" s="75"/>
+      <c r="E697" s="75"/>
+      <c r="F697" s="75"/>
     </row>
     <row r="698" spans="3:6" ht="18" thickBot="1">
       <c r="C698" s="29" t="s">
@@ -14614,7 +14630,7 @@
       </c>
     </row>
     <row r="699" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C699" s="54">
+      <c r="C699" s="62">
         <v>200</v>
       </c>
       <c r="D699" s="31" t="s">
@@ -14628,7 +14644,7 @@
       </c>
     </row>
     <row r="700" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C700" s="54"/>
+      <c r="C700" s="62"/>
       <c r="D700" s="31" t="s">
         <v>305</v>
       </c>
@@ -14640,7 +14656,7 @@
       </c>
     </row>
     <row r="701" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C701" s="54"/>
+      <c r="C701" s="62"/>
       <c r="D701" s="31" t="s">
         <v>307</v>
       </c>
@@ -14652,7 +14668,7 @@
       </c>
     </row>
     <row r="702" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C702" s="54"/>
+      <c r="C702" s="62"/>
       <c r="D702" s="31"/>
       <c r="E702" s="31"/>
       <c r="F702" s="31"/>
@@ -14673,32 +14689,32 @@
       <c r="B705" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="C705" s="80" t="s">
-        <v>585</v>
-      </c>
-      <c r="D705" s="81"/>
-      <c r="E705" s="81"/>
-      <c r="F705" s="82"/>
+      <c r="C705" s="88" t="s">
+        <v>583</v>
+      </c>
+      <c r="D705" s="89"/>
+      <c r="E705" s="89"/>
+      <c r="F705" s="90"/>
     </row>
     <row r="706" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A706" s="23"/>
       <c r="B706" s="23"/>
-      <c r="C706" s="58" t="s">
-        <v>586</v>
-      </c>
-      <c r="D706" s="59"/>
-      <c r="E706" s="59"/>
-      <c r="F706" s="60"/>
+      <c r="C706" s="66" t="s">
+        <v>584</v>
+      </c>
+      <c r="D706" s="67"/>
+      <c r="E706" s="67"/>
+      <c r="F706" s="68"/>
     </row>
     <row r="707" spans="1:6" s="12" customFormat="1" ht="27" thickBot="1">
       <c r="A707" s="23"/>
       <c r="B707" s="23"/>
-      <c r="C707" s="61" t="s">
+      <c r="C707" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D707" s="62"/>
-      <c r="E707" s="62"/>
-      <c r="F707" s="63"/>
+      <c r="D707" s="70"/>
+      <c r="E707" s="70"/>
+      <c r="F707" s="71"/>
     </row>
     <row r="708" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A708" s="23"/>
@@ -14724,7 +14740,7 @@
         <v>295</v>
       </c>
       <c r="E709" s="35" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F709" s="27" t="s">
         <v>311</v>
@@ -14747,12 +14763,12 @@
     <row r="711" spans="1:6" s="12" customFormat="1" ht="27" thickBot="1">
       <c r="A711" s="23"/>
       <c r="B711" s="23"/>
-      <c r="C711" s="64" t="s">
+      <c r="C711" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D711" s="65"/>
-      <c r="E711" s="65"/>
-      <c r="F711" s="66"/>
+      <c r="D711" s="73"/>
+      <c r="E711" s="73"/>
+      <c r="F711" s="74"/>
     </row>
     <row r="712" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A712" s="23"/>
@@ -14774,7 +14790,7 @@
       <c r="A713" s="23"/>
       <c r="B713" s="23"/>
       <c r="C713" s="30" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D713" s="30" t="s">
         <v>296</v>
@@ -14790,7 +14806,7 @@
       <c r="A714" s="23"/>
       <c r="B714" s="23"/>
       <c r="C714" s="30" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D714" s="30" t="s">
         <v>296</v>
@@ -14805,12 +14821,12 @@
     <row r="715" spans="1:6" s="12" customFormat="1" ht="27" thickBot="1">
       <c r="A715" s="23"/>
       <c r="B715" s="23"/>
-      <c r="C715" s="67" t="s">
+      <c r="C715" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D715" s="67"/>
-      <c r="E715" s="67"/>
-      <c r="F715" s="67"/>
+      <c r="D715" s="75"/>
+      <c r="E715" s="75"/>
+      <c r="F715" s="75"/>
     </row>
     <row r="716" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A716" s="23"/>
@@ -14831,7 +14847,7 @@
     <row r="717" spans="1:6" s="12" customFormat="1" ht="17.25" thickBot="1">
       <c r="A717" s="23"/>
       <c r="B717" s="23"/>
-      <c r="C717" s="54">
+      <c r="C717" s="62">
         <v>200</v>
       </c>
       <c r="D717" s="31" t="s">
@@ -14847,7 +14863,7 @@
     <row r="718" spans="1:6" s="12" customFormat="1" ht="17.25" thickBot="1">
       <c r="A718" s="23"/>
       <c r="B718" s="23"/>
-      <c r="C718" s="54"/>
+      <c r="C718" s="62"/>
       <c r="D718" s="31" t="s">
         <v>305</v>
       </c>
@@ -14861,7 +14877,7 @@
     <row r="719" spans="1:6" s="12" customFormat="1" ht="17.25" thickBot="1">
       <c r="A719" s="23"/>
       <c r="B719" s="23"/>
-      <c r="C719" s="54"/>
+      <c r="C719" s="62"/>
       <c r="D719" s="31" t="s">
         <v>307</v>
       </c>
@@ -14875,7 +14891,7 @@
     <row r="720" spans="1:6" s="12" customFormat="1" ht="17.25" thickBot="1">
       <c r="A720" s="23"/>
       <c r="B720" s="23"/>
-      <c r="C720" s="54"/>
+      <c r="C720" s="62"/>
       <c r="D720" s="31"/>
       <c r="E720" s="31"/>
       <c r="F720" s="31"/>
@@ -14898,28 +14914,28 @@
       <c r="B723" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="C723" s="77" t="s">
+      <c r="C723" s="85" t="s">
         <v>415</v>
       </c>
-      <c r="D723" s="78"/>
-      <c r="E723" s="78"/>
-      <c r="F723" s="79"/>
+      <c r="D723" s="86"/>
+      <c r="E723" s="86"/>
+      <c r="F723" s="87"/>
     </row>
     <row r="724" spans="1:6" ht="18" thickBot="1">
-      <c r="C724" s="58" t="s">
+      <c r="C724" s="66" t="s">
         <v>416</v>
       </c>
-      <c r="D724" s="59"/>
-      <c r="E724" s="59"/>
-      <c r="F724" s="60"/>
+      <c r="D724" s="67"/>
+      <c r="E724" s="67"/>
+      <c r="F724" s="68"/>
     </row>
     <row r="725" spans="1:6" ht="27" thickBot="1">
-      <c r="C725" s="61" t="s">
+      <c r="C725" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D725" s="62"/>
-      <c r="E725" s="62"/>
-      <c r="F725" s="63"/>
+      <c r="D725" s="70"/>
+      <c r="E725" s="70"/>
+      <c r="F725" s="71"/>
     </row>
     <row r="726" spans="1:6" ht="18" thickBot="1">
       <c r="C726" s="25" t="s">
@@ -14941,7 +14957,7 @@
         <v>295</v>
       </c>
       <c r="E727" s="35" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F727" s="27" t="s">
         <v>311</v>
@@ -14960,12 +14976,12 @@
       <c r="F728" s="27"/>
     </row>
     <row r="729" spans="1:6" ht="27" thickBot="1">
-      <c r="C729" s="64" t="s">
+      <c r="C729" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D729" s="65"/>
-      <c r="E729" s="65"/>
-      <c r="F729" s="66"/>
+      <c r="D729" s="73"/>
+      <c r="E729" s="73"/>
+      <c r="F729" s="74"/>
     </row>
     <row r="730" spans="1:6" ht="18" thickBot="1">
       <c r="C730" s="29" t="s">
@@ -14983,7 +14999,7 @@
     </row>
     <row r="731" spans="1:6" ht="17.25" thickBot="1">
       <c r="C731" s="30" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D731" s="30" t="s">
         <v>296</v>
@@ -14998,8 +15014,8 @@
     <row r="732" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A732" s="23"/>
       <c r="B732" s="23"/>
-      <c r="C732" s="96" t="s">
-        <v>530</v>
+      <c r="C732" s="52" t="s">
+        <v>528</v>
       </c>
       <c r="D732" s="30" t="s">
         <v>296</v>
@@ -15007,15 +15023,15 @@
       <c r="E732" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="F732" s="96" t="s">
-        <v>532</v>
+      <c r="F732" s="52" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="733" spans="1:6" s="12" customFormat="1" ht="17.25" thickBot="1">
       <c r="A733" s="23"/>
       <c r="B733" s="23"/>
       <c r="C733" s="30" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D733" s="30" t="s">
         <v>296</v>
@@ -15024,7 +15040,7 @@
         <v>297</v>
       </c>
       <c r="F733" s="30" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="734" spans="1:6" ht="17.25" thickBot="1">
@@ -15034,12 +15050,12 @@
       <c r="F734" s="30"/>
     </row>
     <row r="735" spans="1:6" ht="27" thickBot="1">
-      <c r="C735" s="67" t="s">
+      <c r="C735" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D735" s="67"/>
-      <c r="E735" s="67"/>
-      <c r="F735" s="67"/>
+      <c r="D735" s="75"/>
+      <c r="E735" s="75"/>
+      <c r="F735" s="75"/>
     </row>
     <row r="736" spans="1:6" ht="18" thickBot="1">
       <c r="C736" s="29" t="s">
@@ -15056,7 +15072,7 @@
       </c>
     </row>
     <row r="737" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C737" s="54">
+      <c r="C737" s="62">
         <v>200</v>
       </c>
       <c r="D737" s="31" t="s">
@@ -15070,7 +15086,7 @@
       </c>
     </row>
     <row r="738" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C738" s="54"/>
+      <c r="C738" s="62"/>
       <c r="D738" s="31" t="s">
         <v>305</v>
       </c>
@@ -15082,7 +15098,7 @@
       </c>
     </row>
     <row r="739" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C739" s="54"/>
+      <c r="C739" s="62"/>
       <c r="D739" s="31" t="s">
         <v>307</v>
       </c>
@@ -15094,7 +15110,7 @@
       </c>
     </row>
     <row r="740" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C740" s="54"/>
+      <c r="C740" s="62"/>
       <c r="D740" s="31"/>
       <c r="E740" s="31"/>
       <c r="F740" s="31"/>
@@ -15115,28 +15131,28 @@
       <c r="B744" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="C744" s="77" t="s">
+      <c r="C744" s="85" t="s">
         <v>417</v>
       </c>
-      <c r="D744" s="78"/>
-      <c r="E744" s="78"/>
-      <c r="F744" s="79"/>
+      <c r="D744" s="86"/>
+      <c r="E744" s="86"/>
+      <c r="F744" s="87"/>
     </row>
     <row r="745" spans="1:6" ht="18" thickBot="1">
-      <c r="C745" s="58" t="s">
+      <c r="C745" s="66" t="s">
         <v>418</v>
       </c>
-      <c r="D745" s="59"/>
-      <c r="E745" s="59"/>
-      <c r="F745" s="60"/>
+      <c r="D745" s="67"/>
+      <c r="E745" s="67"/>
+      <c r="F745" s="68"/>
     </row>
     <row r="746" spans="1:6" ht="27" thickBot="1">
-      <c r="C746" s="61" t="s">
+      <c r="C746" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D746" s="62"/>
-      <c r="E746" s="62"/>
-      <c r="F746" s="63"/>
+      <c r="D746" s="70"/>
+      <c r="E746" s="70"/>
+      <c r="F746" s="71"/>
     </row>
     <row r="747" spans="1:6" ht="18" thickBot="1">
       <c r="C747" s="25" t="s">
@@ -15158,7 +15174,7 @@
         <v>295</v>
       </c>
       <c r="E748" s="35" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F748" s="27" t="s">
         <v>311</v>
@@ -15177,12 +15193,12 @@
       <c r="F749" s="27"/>
     </row>
     <row r="750" spans="1:6" ht="27" thickBot="1">
-      <c r="C750" s="64" t="s">
+      <c r="C750" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D750" s="65"/>
-      <c r="E750" s="65"/>
-      <c r="F750" s="66"/>
+      <c r="D750" s="73"/>
+      <c r="E750" s="73"/>
+      <c r="F750" s="74"/>
     </row>
     <row r="751" spans="1:6" ht="18" thickBot="1">
       <c r="C751" s="29" t="s">
@@ -15200,7 +15216,7 @@
     </row>
     <row r="752" spans="1:6" ht="17.25" thickBot="1">
       <c r="C752" s="30" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D752" s="30" t="s">
         <v>296</v>
@@ -15214,7 +15230,7 @@
     </row>
     <row r="753" spans="1:6" ht="17.25" thickBot="1">
       <c r="C753" s="30" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D753" s="30" t="s">
         <v>296</v>
@@ -15227,12 +15243,12 @@
       </c>
     </row>
     <row r="754" spans="1:6" ht="27" thickBot="1">
-      <c r="C754" s="67" t="s">
+      <c r="C754" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D754" s="67"/>
-      <c r="E754" s="67"/>
-      <c r="F754" s="67"/>
+      <c r="D754" s="75"/>
+      <c r="E754" s="75"/>
+      <c r="F754" s="75"/>
     </row>
     <row r="755" spans="1:6" ht="18" thickBot="1">
       <c r="C755" s="29" t="s">
@@ -15249,7 +15265,7 @@
       </c>
     </row>
     <row r="756" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C756" s="54">
+      <c r="C756" s="62">
         <v>200</v>
       </c>
       <c r="D756" s="31" t="s">
@@ -15263,7 +15279,7 @@
       </c>
     </row>
     <row r="757" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C757" s="54"/>
+      <c r="C757" s="62"/>
       <c r="D757" s="31" t="s">
         <v>305</v>
       </c>
@@ -15275,7 +15291,7 @@
       </c>
     </row>
     <row r="758" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C758" s="54"/>
+      <c r="C758" s="62"/>
       <c r="D758" s="31" t="s">
         <v>307</v>
       </c>
@@ -15287,7 +15303,7 @@
       </c>
     </row>
     <row r="759" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C759" s="54"/>
+      <c r="C759" s="62"/>
       <c r="D759" s="31"/>
       <c r="E759" s="31"/>
       <c r="F759" s="31"/>
@@ -15308,28 +15324,28 @@
       <c r="B763" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="C763" s="77" t="s">
+      <c r="C763" s="85" t="s">
         <v>420</v>
       </c>
-      <c r="D763" s="78"/>
-      <c r="E763" s="78"/>
-      <c r="F763" s="79"/>
+      <c r="D763" s="86"/>
+      <c r="E763" s="86"/>
+      <c r="F763" s="87"/>
     </row>
     <row r="764" spans="1:6" ht="18" thickBot="1">
-      <c r="C764" s="58" t="s">
+      <c r="C764" s="66" t="s">
         <v>421</v>
       </c>
-      <c r="D764" s="59"/>
-      <c r="E764" s="59"/>
-      <c r="F764" s="60"/>
+      <c r="D764" s="67"/>
+      <c r="E764" s="67"/>
+      <c r="F764" s="68"/>
     </row>
     <row r="765" spans="1:6" ht="27" thickBot="1">
-      <c r="C765" s="61" t="s">
+      <c r="C765" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D765" s="62"/>
-      <c r="E765" s="62"/>
-      <c r="F765" s="63"/>
+      <c r="D765" s="70"/>
+      <c r="E765" s="70"/>
+      <c r="F765" s="71"/>
     </row>
     <row r="766" spans="1:6" ht="18" thickBot="1">
       <c r="C766" s="25" t="s">
@@ -15351,7 +15367,7 @@
         <v>295</v>
       </c>
       <c r="E767" s="35" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F767" s="27" t="s">
         <v>311</v>
@@ -15370,12 +15386,12 @@
       <c r="F768" s="27"/>
     </row>
     <row r="769" spans="1:6" ht="27" thickBot="1">
-      <c r="C769" s="64" t="s">
+      <c r="C769" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D769" s="65"/>
-      <c r="E769" s="65"/>
-      <c r="F769" s="66"/>
+      <c r="D769" s="73"/>
+      <c r="E769" s="73"/>
+      <c r="F769" s="74"/>
     </row>
     <row r="770" spans="1:6" ht="18" thickBot="1">
       <c r="C770" s="29" t="s">
@@ -15393,7 +15409,7 @@
     </row>
     <row r="771" spans="1:6" ht="17.25" thickBot="1">
       <c r="C771" s="30" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D771" s="30" t="s">
         <v>296</v>
@@ -15409,7 +15425,7 @@
       <c r="A772" s="23"/>
       <c r="B772" s="23"/>
       <c r="C772" s="30" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="D772" s="30" t="s">
         <v>296</v>
@@ -15423,7 +15439,7 @@
     </row>
     <row r="773" spans="1:6" ht="17.25" thickBot="1">
       <c r="C773" s="30" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="D773" s="30" t="s">
         <v>296</v>
@@ -15432,16 +15448,16 @@
         <v>297</v>
       </c>
       <c r="F773" s="30" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="774" spans="1:6" ht="27" thickBot="1">
-      <c r="C774" s="67" t="s">
+      <c r="C774" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D774" s="67"/>
-      <c r="E774" s="67"/>
-      <c r="F774" s="67"/>
+      <c r="D774" s="75"/>
+      <c r="E774" s="75"/>
+      <c r="F774" s="75"/>
     </row>
     <row r="775" spans="1:6" ht="18" thickBot="1">
       <c r="C775" s="29" t="s">
@@ -15458,7 +15474,7 @@
       </c>
     </row>
     <row r="776" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C776" s="54">
+      <c r="C776" s="62">
         <v>200</v>
       </c>
       <c r="D776" s="31" t="s">
@@ -15472,7 +15488,7 @@
       </c>
     </row>
     <row r="777" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C777" s="54"/>
+      <c r="C777" s="62"/>
       <c r="D777" s="31" t="s">
         <v>305</v>
       </c>
@@ -15484,7 +15500,7 @@
       </c>
     </row>
     <row r="778" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C778" s="54"/>
+      <c r="C778" s="62"/>
       <c r="D778" s="31" t="s">
         <v>307</v>
       </c>
@@ -15496,7 +15512,7 @@
       </c>
     </row>
     <row r="779" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C779" s="54"/>
+      <c r="C779" s="62"/>
       <c r="D779" s="31"/>
       <c r="E779" s="31"/>
       <c r="F779" s="31"/>
@@ -15517,28 +15533,28 @@
       <c r="B783" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="C783" s="77" t="s">
+      <c r="C783" s="85" t="s">
         <v>423</v>
       </c>
-      <c r="D783" s="78"/>
-      <c r="E783" s="78"/>
-      <c r="F783" s="79"/>
+      <c r="D783" s="86"/>
+      <c r="E783" s="86"/>
+      <c r="F783" s="87"/>
     </row>
     <row r="784" spans="1:6" ht="18" thickBot="1">
-      <c r="C784" s="58" t="s">
+      <c r="C784" s="66" t="s">
         <v>424</v>
       </c>
-      <c r="D784" s="59"/>
-      <c r="E784" s="59"/>
-      <c r="F784" s="60"/>
+      <c r="D784" s="67"/>
+      <c r="E784" s="67"/>
+      <c r="F784" s="68"/>
     </row>
     <row r="785" spans="3:6" ht="27" thickBot="1">
-      <c r="C785" s="61" t="s">
+      <c r="C785" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D785" s="62"/>
-      <c r="E785" s="62"/>
-      <c r="F785" s="63"/>
+      <c r="D785" s="70"/>
+      <c r="E785" s="70"/>
+      <c r="F785" s="71"/>
     </row>
     <row r="786" spans="3:6" ht="18" thickBot="1">
       <c r="C786" s="25" t="s">
@@ -15560,7 +15576,7 @@
         <v>295</v>
       </c>
       <c r="E787" s="35" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F787" s="27" t="s">
         <v>311</v>
@@ -15579,12 +15595,12 @@
       <c r="F788" s="27"/>
     </row>
     <row r="789" spans="3:6" ht="27" thickBot="1">
-      <c r="C789" s="64" t="s">
+      <c r="C789" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D789" s="65"/>
-      <c r="E789" s="65"/>
-      <c r="F789" s="66"/>
+      <c r="D789" s="73"/>
+      <c r="E789" s="73"/>
+      <c r="F789" s="74"/>
     </row>
     <row r="790" spans="3:6" ht="18" thickBot="1">
       <c r="C790" s="29" t="s">
@@ -15602,7 +15618,7 @@
     </row>
     <row r="791" spans="3:6" ht="17.25" thickBot="1">
       <c r="C791" s="30" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="D791" s="30" t="s">
         <v>296</v>
@@ -15611,7 +15627,7 @@
         <v>297</v>
       </c>
       <c r="F791" s="30" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="792" spans="3:6" ht="17.25" thickBot="1">
@@ -15621,12 +15637,12 @@
       <c r="F792" s="30"/>
     </row>
     <row r="793" spans="3:6" ht="27" thickBot="1">
-      <c r="C793" s="67" t="s">
+      <c r="C793" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D793" s="67"/>
-      <c r="E793" s="67"/>
-      <c r="F793" s="67"/>
+      <c r="D793" s="75"/>
+      <c r="E793" s="75"/>
+      <c r="F793" s="75"/>
     </row>
     <row r="794" spans="3:6" ht="18" thickBot="1">
       <c r="C794" s="29" t="s">
@@ -15643,7 +15659,7 @@
       </c>
     </row>
     <row r="795" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C795" s="54">
+      <c r="C795" s="62">
         <v>200</v>
       </c>
       <c r="D795" s="31" t="s">
@@ -15657,7 +15673,7 @@
       </c>
     </row>
     <row r="796" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C796" s="54"/>
+      <c r="C796" s="62"/>
       <c r="D796" s="31" t="s">
         <v>305</v>
       </c>
@@ -15669,7 +15685,7 @@
       </c>
     </row>
     <row r="797" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C797" s="54"/>
+      <c r="C797" s="62"/>
       <c r="D797" s="31" t="s">
         <v>307</v>
       </c>
@@ -15681,7 +15697,7 @@
       </c>
     </row>
     <row r="798" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C798" s="54"/>
+      <c r="C798" s="62"/>
       <c r="D798" s="31"/>
       <c r="E798" s="31"/>
       <c r="F798" s="31"/>
@@ -15701,28 +15717,28 @@
       <c r="B802" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="C802" s="74" t="s">
+      <c r="C802" s="82" t="s">
         <v>425</v>
       </c>
-      <c r="D802" s="75"/>
-      <c r="E802" s="75"/>
-      <c r="F802" s="76"/>
+      <c r="D802" s="83"/>
+      <c r="E802" s="83"/>
+      <c r="F802" s="84"/>
     </row>
     <row r="803" spans="1:6" ht="18" thickBot="1">
-      <c r="C803" s="58" t="s">
+      <c r="C803" s="66" t="s">
         <v>426</v>
       </c>
-      <c r="D803" s="59"/>
-      <c r="E803" s="59"/>
-      <c r="F803" s="60"/>
+      <c r="D803" s="67"/>
+      <c r="E803" s="67"/>
+      <c r="F803" s="68"/>
     </row>
     <row r="804" spans="1:6" ht="27" thickBot="1">
-      <c r="C804" s="61" t="s">
+      <c r="C804" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D804" s="62"/>
-      <c r="E804" s="62"/>
-      <c r="F804" s="63"/>
+      <c r="D804" s="70"/>
+      <c r="E804" s="70"/>
+      <c r="F804" s="71"/>
     </row>
     <row r="805" spans="1:6" ht="18" thickBot="1">
       <c r="C805" s="25" t="s">
@@ -15744,7 +15760,7 @@
         <v>295</v>
       </c>
       <c r="E806" s="35" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F806" s="27" t="s">
         <v>311</v>
@@ -15763,12 +15779,12 @@
       <c r="F807" s="27"/>
     </row>
     <row r="808" spans="1:6" ht="27" thickBot="1">
-      <c r="C808" s="64" t="s">
+      <c r="C808" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D808" s="65"/>
-      <c r="E808" s="65"/>
-      <c r="F808" s="66"/>
+      <c r="D808" s="73"/>
+      <c r="E808" s="73"/>
+      <c r="F808" s="74"/>
     </row>
     <row r="809" spans="1:6" ht="18" thickBot="1">
       <c r="C809" s="29" t="s">
@@ -15786,7 +15802,7 @@
     </row>
     <row r="810" spans="1:6" ht="17.25" thickBot="1">
       <c r="C810" s="30" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D810" s="30" t="s">
         <v>296</v>
@@ -15802,7 +15818,7 @@
       <c r="A811" s="23"/>
       <c r="B811" s="23"/>
       <c r="C811" s="30" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D811" s="30" t="s">
         <v>296</v>
@@ -15816,7 +15832,7 @@
     </row>
     <row r="812" spans="1:6" ht="17.25" thickBot="1">
       <c r="C812" s="30" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D812" s="30" t="s">
         <v>296</v>
@@ -15825,16 +15841,16 @@
         <v>297</v>
       </c>
       <c r="F812" s="30" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="813" spans="1:6" ht="27" thickBot="1">
-      <c r="C813" s="67" t="s">
+      <c r="C813" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D813" s="67"/>
-      <c r="E813" s="67"/>
-      <c r="F813" s="67"/>
+      <c r="D813" s="75"/>
+      <c r="E813" s="75"/>
+      <c r="F813" s="75"/>
     </row>
     <row r="814" spans="1:6" ht="18" thickBot="1">
       <c r="C814" s="29" t="s">
@@ -15851,7 +15867,7 @@
       </c>
     </row>
     <row r="815" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C815" s="54">
+      <c r="C815" s="62">
         <v>200</v>
       </c>
       <c r="D815" s="31" t="s">
@@ -15865,7 +15881,7 @@
       </c>
     </row>
     <row r="816" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C816" s="54"/>
+      <c r="C816" s="62"/>
       <c r="D816" s="31" t="s">
         <v>305</v>
       </c>
@@ -15877,7 +15893,7 @@
       </c>
     </row>
     <row r="817" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C817" s="54"/>
+      <c r="C817" s="62"/>
       <c r="D817" s="31" t="s">
         <v>307</v>
       </c>
@@ -15889,7 +15905,7 @@
       </c>
     </row>
     <row r="818" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C818" s="54"/>
+      <c r="C818" s="62"/>
       <c r="D818" s="31"/>
       <c r="E818" s="31"/>
       <c r="F818" s="31"/>
@@ -15910,28 +15926,28 @@
       <c r="B822" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="C822" s="74" t="s">
+      <c r="C822" s="82" t="s">
         <v>428</v>
       </c>
-      <c r="D822" s="75"/>
-      <c r="E822" s="75"/>
-      <c r="F822" s="76"/>
+      <c r="D822" s="83"/>
+      <c r="E822" s="83"/>
+      <c r="F822" s="84"/>
     </row>
     <row r="823" spans="1:6" ht="18" thickBot="1">
-      <c r="C823" s="58" t="s">
+      <c r="C823" s="66" t="s">
         <v>174</v>
       </c>
-      <c r="D823" s="59"/>
-      <c r="E823" s="59"/>
-      <c r="F823" s="60"/>
+      <c r="D823" s="67"/>
+      <c r="E823" s="67"/>
+      <c r="F823" s="68"/>
     </row>
     <row r="824" spans="1:6" ht="27" thickBot="1">
-      <c r="C824" s="61" t="s">
+      <c r="C824" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D824" s="62"/>
-      <c r="E824" s="62"/>
-      <c r="F824" s="63"/>
+      <c r="D824" s="70"/>
+      <c r="E824" s="70"/>
+      <c r="F824" s="71"/>
     </row>
     <row r="825" spans="1:6" ht="18" thickBot="1">
       <c r="C825" s="25" t="s">
@@ -15953,7 +15969,7 @@
         <v>295</v>
       </c>
       <c r="E826" s="35" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F826" s="27" t="s">
         <v>311</v>
@@ -15972,12 +15988,12 @@
       <c r="F827" s="27"/>
     </row>
     <row r="828" spans="1:6" ht="27" thickBot="1">
-      <c r="C828" s="64" t="s">
+      <c r="C828" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D828" s="65"/>
-      <c r="E828" s="65"/>
-      <c r="F828" s="66"/>
+      <c r="D828" s="73"/>
+      <c r="E828" s="73"/>
+      <c r="F828" s="74"/>
     </row>
     <row r="829" spans="1:6" ht="18" thickBot="1">
       <c r="C829" s="29" t="s">
@@ -15995,7 +16011,7 @@
     </row>
     <row r="830" spans="1:6" ht="17.25" thickBot="1">
       <c r="C830" s="30" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D830" s="30" t="s">
         <v>296</v>
@@ -16009,7 +16025,7 @@
     </row>
     <row r="831" spans="1:6" ht="17.25" thickBot="1">
       <c r="C831" s="30" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D831" s="30" t="s">
         <v>296</v>
@@ -16022,12 +16038,12 @@
       </c>
     </row>
     <row r="832" spans="1:6" ht="27" thickBot="1">
-      <c r="C832" s="67" t="s">
+      <c r="C832" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D832" s="67"/>
-      <c r="E832" s="67"/>
-      <c r="F832" s="67"/>
+      <c r="D832" s="75"/>
+      <c r="E832" s="75"/>
+      <c r="F832" s="75"/>
     </row>
     <row r="833" spans="1:6" ht="18" thickBot="1">
       <c r="C833" s="29" t="s">
@@ -16044,7 +16060,7 @@
       </c>
     </row>
     <row r="834" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C834" s="54">
+      <c r="C834" s="62">
         <v>200</v>
       </c>
       <c r="D834" s="31" t="s">
@@ -16058,7 +16074,7 @@
       </c>
     </row>
     <row r="835" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C835" s="54"/>
+      <c r="C835" s="62"/>
       <c r="D835" s="31" t="s">
         <v>305</v>
       </c>
@@ -16070,7 +16086,7 @@
       </c>
     </row>
     <row r="836" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C836" s="54"/>
+      <c r="C836" s="62"/>
       <c r="D836" s="31" t="s">
         <v>307</v>
       </c>
@@ -16082,7 +16098,7 @@
       </c>
     </row>
     <row r="837" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C837" s="54"/>
+      <c r="C837" s="62"/>
       <c r="D837" s="31"/>
       <c r="E837" s="31"/>
       <c r="F837" s="31"/>
@@ -16103,28 +16119,28 @@
       <c r="B841" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="C841" s="71" t="s">
+      <c r="C841" s="79" t="s">
         <v>429</v>
       </c>
-      <c r="D841" s="72"/>
-      <c r="E841" s="72"/>
-      <c r="F841" s="73"/>
+      <c r="D841" s="80"/>
+      <c r="E841" s="80"/>
+      <c r="F841" s="81"/>
     </row>
     <row r="842" spans="1:6" ht="18" thickBot="1">
-      <c r="C842" s="58" t="s">
-        <v>598</v>
-      </c>
-      <c r="D842" s="59"/>
-      <c r="E842" s="59"/>
-      <c r="F842" s="60"/>
+      <c r="C842" s="66" t="s">
+        <v>596</v>
+      </c>
+      <c r="D842" s="67"/>
+      <c r="E842" s="67"/>
+      <c r="F842" s="68"/>
     </row>
     <row r="843" spans="1:6" ht="27" thickBot="1">
-      <c r="C843" s="61" t="s">
+      <c r="C843" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D843" s="62"/>
-      <c r="E843" s="62"/>
-      <c r="F843" s="63"/>
+      <c r="D843" s="70"/>
+      <c r="E843" s="70"/>
+      <c r="F843" s="71"/>
     </row>
     <row r="844" spans="1:6" ht="18" thickBot="1">
       <c r="C844" s="25" t="s">
@@ -16146,7 +16162,7 @@
         <v>295</v>
       </c>
       <c r="E845" s="35" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F845" s="27" t="s">
         <v>311</v>
@@ -16165,12 +16181,12 @@
       <c r="F846" s="27"/>
     </row>
     <row r="847" spans="1:6" ht="27" thickBot="1">
-      <c r="C847" s="64" t="s">
+      <c r="C847" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D847" s="65"/>
-      <c r="E847" s="65"/>
-      <c r="F847" s="66"/>
+      <c r="D847" s="73"/>
+      <c r="E847" s="73"/>
+      <c r="F847" s="74"/>
     </row>
     <row r="848" spans="1:6" ht="18" thickBot="1">
       <c r="C848" s="29" t="s">
@@ -16188,7 +16204,7 @@
     </row>
     <row r="849" spans="1:6" ht="17.25" thickBot="1">
       <c r="C849" s="30" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D849" s="30" t="s">
         <v>296</v>
@@ -16207,12 +16223,12 @@
       <c r="F850" s="30"/>
     </row>
     <row r="851" spans="1:6" ht="27" thickBot="1">
-      <c r="C851" s="67" t="s">
+      <c r="C851" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D851" s="67"/>
-      <c r="E851" s="67"/>
-      <c r="F851" s="67"/>
+      <c r="D851" s="75"/>
+      <c r="E851" s="75"/>
+      <c r="F851" s="75"/>
     </row>
     <row r="852" spans="1:6" ht="18" thickBot="1">
       <c r="C852" s="29" t="s">
@@ -16229,7 +16245,7 @@
       </c>
     </row>
     <row r="853" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C853" s="54">
+      <c r="C853" s="62">
         <v>200</v>
       </c>
       <c r="D853" s="31" t="s">
@@ -16243,7 +16259,7 @@
       </c>
     </row>
     <row r="854" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C854" s="54"/>
+      <c r="C854" s="62"/>
       <c r="D854" s="31" t="s">
         <v>305</v>
       </c>
@@ -16255,7 +16271,7 @@
       </c>
     </row>
     <row r="855" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C855" s="54"/>
+      <c r="C855" s="62"/>
       <c r="D855" s="31" t="s">
         <v>307</v>
       </c>
@@ -16267,7 +16283,7 @@
       </c>
     </row>
     <row r="856" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C856" s="54"/>
+      <c r="C856" s="62"/>
       <c r="D856" s="31"/>
       <c r="E856" s="31"/>
       <c r="F856" s="31"/>
@@ -16288,28 +16304,28 @@
       <c r="B860" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="C860" s="71" t="s">
+      <c r="C860" s="79" t="s">
         <v>430</v>
       </c>
-      <c r="D860" s="72"/>
-      <c r="E860" s="72"/>
-      <c r="F860" s="73"/>
+      <c r="D860" s="80"/>
+      <c r="E860" s="80"/>
+      <c r="F860" s="81"/>
     </row>
     <row r="861" spans="1:6" ht="18" thickBot="1">
-      <c r="C861" s="58" t="s">
+      <c r="C861" s="66" t="s">
         <v>431</v>
       </c>
-      <c r="D861" s="59"/>
-      <c r="E861" s="59"/>
-      <c r="F861" s="60"/>
+      <c r="D861" s="67"/>
+      <c r="E861" s="67"/>
+      <c r="F861" s="68"/>
     </row>
     <row r="862" spans="1:6" ht="27" thickBot="1">
-      <c r="C862" s="61" t="s">
+      <c r="C862" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D862" s="62"/>
-      <c r="E862" s="62"/>
-      <c r="F862" s="63"/>
+      <c r="D862" s="70"/>
+      <c r="E862" s="70"/>
+      <c r="F862" s="71"/>
     </row>
     <row r="863" spans="1:6" ht="18" thickBot="1">
       <c r="C863" s="25" t="s">
@@ -16331,7 +16347,7 @@
         <v>295</v>
       </c>
       <c r="E864" s="35" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F864" s="27" t="s">
         <v>311</v>
@@ -16350,12 +16366,12 @@
       <c r="F865" s="27"/>
     </row>
     <row r="866" spans="1:6" ht="27" thickBot="1">
-      <c r="C866" s="64" t="s">
+      <c r="C866" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D866" s="65"/>
-      <c r="E866" s="65"/>
-      <c r="F866" s="66"/>
+      <c r="D866" s="73"/>
+      <c r="E866" s="73"/>
+      <c r="F866" s="74"/>
     </row>
     <row r="867" spans="1:6" ht="18" thickBot="1">
       <c r="C867" s="29" t="s">
@@ -16373,7 +16389,7 @@
     </row>
     <row r="868" spans="1:6" ht="17.25" thickBot="1">
       <c r="C868" s="30" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D868" s="30" t="s">
         <v>296</v>
@@ -16389,7 +16405,7 @@
       <c r="A869" s="23"/>
       <c r="B869" s="23"/>
       <c r="C869" s="30" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D869" s="30" t="s">
         <v>296</v>
@@ -16403,7 +16419,7 @@
     </row>
     <row r="870" spans="1:6" ht="17.25" thickBot="1">
       <c r="C870" s="30" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D870" s="30" t="s">
         <v>296</v>
@@ -16412,16 +16428,16 @@
         <v>297</v>
       </c>
       <c r="F870" s="30" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="871" spans="1:6" ht="27" thickBot="1">
-      <c r="C871" s="67" t="s">
+      <c r="C871" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D871" s="67"/>
-      <c r="E871" s="67"/>
-      <c r="F871" s="67"/>
+      <c r="D871" s="75"/>
+      <c r="E871" s="75"/>
+      <c r="F871" s="75"/>
     </row>
     <row r="872" spans="1:6" ht="18" thickBot="1">
       <c r="C872" s="29" t="s">
@@ -16438,7 +16454,7 @@
       </c>
     </row>
     <row r="873" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C873" s="54">
+      <c r="C873" s="62">
         <v>200</v>
       </c>
       <c r="D873" s="31" t="s">
@@ -16452,7 +16468,7 @@
       </c>
     </row>
     <row r="874" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C874" s="54"/>
+      <c r="C874" s="62"/>
       <c r="D874" s="31" t="s">
         <v>305</v>
       </c>
@@ -16464,7 +16480,7 @@
       </c>
     </row>
     <row r="875" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C875" s="54"/>
+      <c r="C875" s="62"/>
       <c r="D875" s="31" t="s">
         <v>307</v>
       </c>
@@ -16476,7 +16492,7 @@
       </c>
     </row>
     <row r="876" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C876" s="54"/>
+      <c r="C876" s="62"/>
       <c r="D876" s="31"/>
       <c r="E876" s="31"/>
       <c r="F876" s="31"/>
@@ -16497,28 +16513,28 @@
       <c r="B880" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="C880" s="68" t="s">
+      <c r="C880" s="76" t="s">
         <v>433</v>
       </c>
-      <c r="D880" s="69"/>
-      <c r="E880" s="69"/>
-      <c r="F880" s="70"/>
+      <c r="D880" s="77"/>
+      <c r="E880" s="77"/>
+      <c r="F880" s="78"/>
     </row>
     <row r="881" spans="1:6" ht="18" thickBot="1">
-      <c r="C881" s="58" t="s">
+      <c r="C881" s="66" t="s">
         <v>434</v>
       </c>
-      <c r="D881" s="59"/>
-      <c r="E881" s="59"/>
-      <c r="F881" s="60"/>
+      <c r="D881" s="67"/>
+      <c r="E881" s="67"/>
+      <c r="F881" s="68"/>
     </row>
     <row r="882" spans="1:6" ht="27" thickBot="1">
-      <c r="C882" s="61" t="s">
+      <c r="C882" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D882" s="62"/>
-      <c r="E882" s="62"/>
-      <c r="F882" s="63"/>
+      <c r="D882" s="70"/>
+      <c r="E882" s="70"/>
+      <c r="F882" s="71"/>
     </row>
     <row r="883" spans="1:6" ht="18" thickBot="1">
       <c r="C883" s="25" t="s">
@@ -16551,12 +16567,12 @@
       <c r="F885" s="27"/>
     </row>
     <row r="886" spans="1:6" ht="27" thickBot="1">
-      <c r="C886" s="64" t="s">
+      <c r="C886" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D886" s="65"/>
-      <c r="E886" s="65"/>
-      <c r="F886" s="66"/>
+      <c r="D886" s="73"/>
+      <c r="E886" s="73"/>
+      <c r="F886" s="74"/>
     </row>
     <row r="887" spans="1:6" ht="18" thickBot="1">
       <c r="C887" s="29" t="s">
@@ -16575,8 +16591,8 @@
     <row r="888" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A888" s="23"/>
       <c r="B888" s="23"/>
-      <c r="C888" s="96" t="s">
-        <v>530</v>
+      <c r="C888" s="52" t="s">
+        <v>528</v>
       </c>
       <c r="D888" s="30" t="s">
         <v>296</v>
@@ -16584,15 +16600,15 @@
       <c r="E888" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="F888" s="96" t="s">
-        <v>532</v>
+      <c r="F888" s="52" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="889" spans="1:6" s="12" customFormat="1" ht="17.25" thickBot="1">
       <c r="A889" s="23"/>
       <c r="B889" s="23"/>
       <c r="C889" s="30" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D889" s="30" t="s">
         <v>296</v>
@@ -16601,16 +16617,16 @@
         <v>297</v>
       </c>
       <c r="F889" s="30" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="890" spans="1:6" ht="27" thickBot="1">
-      <c r="C890" s="67" t="s">
+      <c r="C890" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D890" s="67"/>
-      <c r="E890" s="67"/>
-      <c r="F890" s="67"/>
+      <c r="D890" s="75"/>
+      <c r="E890" s="75"/>
+      <c r="F890" s="75"/>
     </row>
     <row r="891" spans="1:6" ht="18" thickBot="1">
       <c r="C891" s="29" t="s">
@@ -16627,7 +16643,7 @@
       </c>
     </row>
     <row r="892" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C892" s="54">
+      <c r="C892" s="62">
         <v>200</v>
       </c>
       <c r="D892" s="31" t="s">
@@ -16641,7 +16657,7 @@
       </c>
     </row>
     <row r="893" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C893" s="54"/>
+      <c r="C893" s="62"/>
       <c r="D893" s="31" t="s">
         <v>305</v>
       </c>
@@ -16653,7 +16669,7 @@
       </c>
     </row>
     <row r="894" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C894" s="54"/>
+      <c r="C894" s="62"/>
       <c r="D894" s="31" t="s">
         <v>307</v>
       </c>
@@ -16665,7 +16681,7 @@
       </c>
     </row>
     <row r="895" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C895" s="54"/>
+      <c r="C895" s="62"/>
       <c r="D895" s="31"/>
       <c r="E895" s="31"/>
       <c r="F895" s="31"/>
@@ -16686,28 +16702,28 @@
       <c r="B899" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="C899" s="68" t="s">
+      <c r="C899" s="76" t="s">
         <v>435</v>
       </c>
-      <c r="D899" s="69"/>
-      <c r="E899" s="69"/>
-      <c r="F899" s="70"/>
+      <c r="D899" s="77"/>
+      <c r="E899" s="77"/>
+      <c r="F899" s="78"/>
     </row>
     <row r="900" spans="1:6" ht="18" thickBot="1">
-      <c r="C900" s="58" t="s">
+      <c r="C900" s="66" t="s">
         <v>436</v>
       </c>
-      <c r="D900" s="59"/>
-      <c r="E900" s="59"/>
-      <c r="F900" s="60"/>
+      <c r="D900" s="67"/>
+      <c r="E900" s="67"/>
+      <c r="F900" s="68"/>
     </row>
     <row r="901" spans="1:6" ht="27" thickBot="1">
-      <c r="C901" s="61" t="s">
+      <c r="C901" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D901" s="62"/>
-      <c r="E901" s="62"/>
-      <c r="F901" s="63"/>
+      <c r="D901" s="70"/>
+      <c r="E901" s="70"/>
+      <c r="F901" s="71"/>
     </row>
     <row r="902" spans="1:6" ht="18" thickBot="1">
       <c r="C902" s="25" t="s">
@@ -16740,12 +16756,12 @@
       <c r="F904" s="27"/>
     </row>
     <row r="905" spans="1:6" ht="27" thickBot="1">
-      <c r="C905" s="64" t="s">
+      <c r="C905" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D905" s="65"/>
-      <c r="E905" s="65"/>
-      <c r="F905" s="66"/>
+      <c r="D905" s="73"/>
+      <c r="E905" s="73"/>
+      <c r="F905" s="74"/>
     </row>
     <row r="906" spans="1:6" ht="18" thickBot="1">
       <c r="C906" s="29" t="s">
@@ -16776,12 +16792,12 @@
       </c>
     </row>
     <row r="908" spans="1:6" ht="27" thickBot="1">
-      <c r="C908" s="67" t="s">
+      <c r="C908" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D908" s="67"/>
-      <c r="E908" s="67"/>
-      <c r="F908" s="67"/>
+      <c r="D908" s="75"/>
+      <c r="E908" s="75"/>
+      <c r="F908" s="75"/>
     </row>
     <row r="909" spans="1:6" ht="18" thickBot="1">
       <c r="C909" s="29" t="s">
@@ -16798,7 +16814,7 @@
       </c>
     </row>
     <row r="910" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C910" s="54">
+      <c r="C910" s="62">
         <v>200</v>
       </c>
       <c r="D910" s="31" t="s">
@@ -16812,7 +16828,7 @@
       </c>
     </row>
     <row r="911" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C911" s="54"/>
+      <c r="C911" s="62"/>
       <c r="D911" s="31" t="s">
         <v>305</v>
       </c>
@@ -16824,7 +16840,7 @@
       </c>
     </row>
     <row r="912" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C912" s="54"/>
+      <c r="C912" s="62"/>
       <c r="D912" s="31" t="s">
         <v>307</v>
       </c>
@@ -16836,7 +16852,7 @@
       </c>
     </row>
     <row r="913" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C913" s="54"/>
+      <c r="C913" s="62"/>
       <c r="D913" s="31"/>
       <c r="E913" s="31"/>
       <c r="F913" s="31"/>
@@ -16857,28 +16873,28 @@
       <c r="B917" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="C917" s="68" t="s">
-        <v>602</v>
-      </c>
-      <c r="D917" s="69"/>
-      <c r="E917" s="69"/>
-      <c r="F917" s="70"/>
+      <c r="C917" s="76" t="s">
+        <v>600</v>
+      </c>
+      <c r="D917" s="77"/>
+      <c r="E917" s="77"/>
+      <c r="F917" s="78"/>
     </row>
     <row r="918" spans="1:6" ht="18" thickBot="1">
-      <c r="C918" s="58" t="s">
-        <v>603</v>
-      </c>
-      <c r="D918" s="59"/>
-      <c r="E918" s="59"/>
-      <c r="F918" s="60"/>
+      <c r="C918" s="66" t="s">
+        <v>601</v>
+      </c>
+      <c r="D918" s="67"/>
+      <c r="E918" s="67"/>
+      <c r="F918" s="68"/>
     </row>
     <row r="919" spans="1:6" ht="27" thickBot="1">
-      <c r="C919" s="61" t="s">
+      <c r="C919" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D919" s="62"/>
-      <c r="E919" s="62"/>
-      <c r="F919" s="63"/>
+      <c r="D919" s="70"/>
+      <c r="E919" s="70"/>
+      <c r="F919" s="71"/>
     </row>
     <row r="920" spans="1:6" ht="18" thickBot="1">
       <c r="C920" s="25" t="s">
@@ -16900,7 +16916,7 @@
         <v>295</v>
       </c>
       <c r="E921" s="35" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F921" s="27" t="s">
         <v>311</v>
@@ -16919,12 +16935,12 @@
       <c r="F922" s="27"/>
     </row>
     <row r="923" spans="1:6" ht="27" thickBot="1">
-      <c r="C923" s="64" t="s">
+      <c r="C923" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D923" s="65"/>
-      <c r="E923" s="65"/>
-      <c r="F923" s="66"/>
+      <c r="D923" s="73"/>
+      <c r="E923" s="73"/>
+      <c r="F923" s="74"/>
     </row>
     <row r="924" spans="1:6" ht="18" thickBot="1">
       <c r="C924" s="29" t="s">
@@ -16942,7 +16958,7 @@
     </row>
     <row r="925" spans="1:6" ht="17.25" thickBot="1">
       <c r="C925" s="30" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D925" s="30" t="s">
         <v>296</v>
@@ -16957,8 +16973,8 @@
     <row r="926" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A926" s="23"/>
       <c r="B926" s="23"/>
-      <c r="C926" s="96" t="s">
-        <v>530</v>
+      <c r="C926" s="52" t="s">
+        <v>528</v>
       </c>
       <c r="D926" s="30" t="s">
         <v>296</v>
@@ -16966,15 +16982,15 @@
       <c r="E926" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="F926" s="96" t="s">
-        <v>532</v>
+      <c r="F926" s="52" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="927" spans="1:6" s="12" customFormat="1" ht="17.25" thickBot="1">
       <c r="A927" s="23"/>
       <c r="B927" s="23"/>
       <c r="C927" s="30" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D927" s="30" t="s">
         <v>296</v>
@@ -16983,16 +16999,16 @@
         <v>297</v>
       </c>
       <c r="F927" s="30" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="928" spans="1:6" ht="27" thickBot="1">
-      <c r="C928" s="67" t="s">
+      <c r="C928" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D928" s="67"/>
-      <c r="E928" s="67"/>
-      <c r="F928" s="67"/>
+      <c r="D928" s="75"/>
+      <c r="E928" s="75"/>
+      <c r="F928" s="75"/>
     </row>
     <row r="929" spans="1:6" ht="18" thickBot="1">
       <c r="C929" s="29" t="s">
@@ -17009,7 +17025,7 @@
       </c>
     </row>
     <row r="930" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C930" s="54">
+      <c r="C930" s="62">
         <v>200</v>
       </c>
       <c r="D930" s="31" t="s">
@@ -17023,7 +17039,7 @@
       </c>
     </row>
     <row r="931" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C931" s="54"/>
+      <c r="C931" s="62"/>
       <c r="D931" s="31" t="s">
         <v>305</v>
       </c>
@@ -17035,7 +17051,7 @@
       </c>
     </row>
     <row r="932" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C932" s="54"/>
+      <c r="C932" s="62"/>
       <c r="D932" s="31" t="s">
         <v>307</v>
       </c>
@@ -17047,7 +17063,7 @@
       </c>
     </row>
     <row r="933" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C933" s="54"/>
+      <c r="C933" s="62"/>
       <c r="D933" s="31"/>
       <c r="E933" s="31"/>
       <c r="F933" s="31"/>
@@ -17068,32 +17084,32 @@
       <c r="B936" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="C936" s="68" t="s">
-        <v>604</v>
-      </c>
-      <c r="D936" s="69"/>
-      <c r="E936" s="69"/>
-      <c r="F936" s="70"/>
+      <c r="C936" s="76" t="s">
+        <v>602</v>
+      </c>
+      <c r="D936" s="77"/>
+      <c r="E936" s="77"/>
+      <c r="F936" s="78"/>
     </row>
     <row r="937" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A937" s="23"/>
       <c r="B937" s="23"/>
-      <c r="C937" s="58" t="s">
-        <v>605</v>
-      </c>
-      <c r="D937" s="59"/>
-      <c r="E937" s="59"/>
-      <c r="F937" s="60"/>
+      <c r="C937" s="66" t="s">
+        <v>603</v>
+      </c>
+      <c r="D937" s="67"/>
+      <c r="E937" s="67"/>
+      <c r="F937" s="68"/>
     </row>
     <row r="938" spans="1:6" s="12" customFormat="1" ht="27" thickBot="1">
       <c r="A938" s="23"/>
       <c r="B938" s="23"/>
-      <c r="C938" s="61" t="s">
+      <c r="C938" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D938" s="62"/>
-      <c r="E938" s="62"/>
-      <c r="F938" s="63"/>
+      <c r="D938" s="70"/>
+      <c r="E938" s="70"/>
+      <c r="F938" s="71"/>
     </row>
     <row r="939" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A939" s="23"/>
@@ -17119,7 +17135,7 @@
         <v>295</v>
       </c>
       <c r="E940" s="35" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F940" s="27" t="s">
         <v>311</v>
@@ -17142,12 +17158,12 @@
     <row r="942" spans="1:6" s="12" customFormat="1" ht="27" thickBot="1">
       <c r="A942" s="23"/>
       <c r="B942" s="23"/>
-      <c r="C942" s="64" t="s">
+      <c r="C942" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D942" s="65"/>
-      <c r="E942" s="65"/>
-      <c r="F942" s="66"/>
+      <c r="D942" s="73"/>
+      <c r="E942" s="73"/>
+      <c r="F942" s="74"/>
     </row>
     <row r="943" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A943" s="23"/>
@@ -17169,7 +17185,7 @@
       <c r="A944" s="23"/>
       <c r="B944" s="23"/>
       <c r="C944" s="30" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D944" s="30" t="s">
         <v>296</v>
@@ -17185,7 +17201,7 @@
       <c r="A945" s="23"/>
       <c r="B945" s="23"/>
       <c r="C945" s="30" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D945" s="30" t="s">
         <v>296</v>
@@ -17200,12 +17216,12 @@
     <row r="946" spans="1:6" s="12" customFormat="1" ht="27" thickBot="1">
       <c r="A946" s="23"/>
       <c r="B946" s="23"/>
-      <c r="C946" s="67" t="s">
+      <c r="C946" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D946" s="67"/>
-      <c r="E946" s="67"/>
-      <c r="F946" s="67"/>
+      <c r="D946" s="75"/>
+      <c r="E946" s="75"/>
+      <c r="F946" s="75"/>
     </row>
     <row r="947" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A947" s="23"/>
@@ -17226,7 +17242,7 @@
     <row r="948" spans="1:6" s="12" customFormat="1" ht="17.25" thickBot="1">
       <c r="A948" s="23"/>
       <c r="B948" s="23"/>
-      <c r="C948" s="54">
+      <c r="C948" s="62">
         <v>200</v>
       </c>
       <c r="D948" s="31" t="s">
@@ -17242,7 +17258,7 @@
     <row r="949" spans="1:6" s="12" customFormat="1" ht="17.25" thickBot="1">
       <c r="A949" s="23"/>
       <c r="B949" s="23"/>
-      <c r="C949" s="54"/>
+      <c r="C949" s="62"/>
       <c r="D949" s="31" t="s">
         <v>305</v>
       </c>
@@ -17256,7 +17272,7 @@
     <row r="950" spans="1:6" s="12" customFormat="1" ht="17.25" thickBot="1">
       <c r="A950" s="23"/>
       <c r="B950" s="23"/>
-      <c r="C950" s="54"/>
+      <c r="C950" s="62"/>
       <c r="D950" s="31" t="s">
         <v>307</v>
       </c>
@@ -17270,7 +17286,7 @@
     <row r="951" spans="1:6" s="12" customFormat="1" ht="17.25" thickBot="1">
       <c r="A951" s="23"/>
       <c r="B951" s="23"/>
-      <c r="C951" s="54"/>
+      <c r="C951" s="62"/>
       <c r="D951" s="31"/>
       <c r="E951" s="31"/>
       <c r="F951" s="31"/>
@@ -17293,28 +17309,28 @@
       <c r="B954" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="C954" s="55" t="s">
+      <c r="C954" s="63" t="s">
         <v>439</v>
       </c>
-      <c r="D954" s="56"/>
-      <c r="E954" s="56"/>
-      <c r="F954" s="57"/>
+      <c r="D954" s="64"/>
+      <c r="E954" s="64"/>
+      <c r="F954" s="65"/>
     </row>
     <row r="955" spans="1:6" ht="18" thickBot="1">
-      <c r="C955" s="58" t="s">
+      <c r="C955" s="66" t="s">
         <v>440</v>
       </c>
-      <c r="D955" s="59"/>
-      <c r="E955" s="59"/>
-      <c r="F955" s="60"/>
+      <c r="D955" s="67"/>
+      <c r="E955" s="67"/>
+      <c r="F955" s="68"/>
     </row>
     <row r="956" spans="1:6" ht="27" thickBot="1">
-      <c r="C956" s="61" t="s">
+      <c r="C956" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D956" s="62"/>
-      <c r="E956" s="62"/>
-      <c r="F956" s="63"/>
+      <c r="D956" s="70"/>
+      <c r="E956" s="70"/>
+      <c r="F956" s="71"/>
     </row>
     <row r="957" spans="1:6" ht="18" thickBot="1">
       <c r="C957" s="25" t="s">
@@ -17347,12 +17363,12 @@
       <c r="F959" s="27"/>
     </row>
     <row r="960" spans="1:6" ht="27" thickBot="1">
-      <c r="C960" s="64" t="s">
+      <c r="C960" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D960" s="65"/>
-      <c r="E960" s="65"/>
-      <c r="F960" s="66"/>
+      <c r="D960" s="73"/>
+      <c r="E960" s="73"/>
+      <c r="F960" s="74"/>
     </row>
     <row r="961" spans="1:6" ht="18" thickBot="1">
       <c r="C961" s="29" t="s">
@@ -17371,8 +17387,8 @@
     <row r="962" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A962" s="23"/>
       <c r="B962" s="23"/>
-      <c r="C962" s="96" t="s">
-        <v>530</v>
+      <c r="C962" s="52" t="s">
+        <v>528</v>
       </c>
       <c r="D962" s="30" t="s">
         <v>296</v>
@@ -17380,15 +17396,15 @@
       <c r="E962" s="30" t="s">
         <v>297</v>
       </c>
-      <c r="F962" s="96" t="s">
-        <v>532</v>
+      <c r="F962" s="52" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="963" spans="1:6" s="12" customFormat="1" ht="17.25" thickBot="1">
       <c r="A963" s="23"/>
       <c r="B963" s="23"/>
       <c r="C963" s="30" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D963" s="30" t="s">
         <v>296</v>
@@ -17397,7 +17413,7 @@
         <v>297</v>
       </c>
       <c r="F963" s="30" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="964" spans="1:6" ht="17.25" thickBot="1">
@@ -17407,12 +17423,12 @@
       <c r="F964" s="30"/>
     </row>
     <row r="965" spans="1:6" ht="27" thickBot="1">
-      <c r="C965" s="67" t="s">
+      <c r="C965" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D965" s="67"/>
-      <c r="E965" s="67"/>
-      <c r="F965" s="67"/>
+      <c r="D965" s="75"/>
+      <c r="E965" s="75"/>
+      <c r="F965" s="75"/>
     </row>
     <row r="966" spans="1:6" ht="18" thickBot="1">
       <c r="C966" s="29" t="s">
@@ -17429,7 +17445,7 @@
       </c>
     </row>
     <row r="967" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C967" s="54">
+      <c r="C967" s="62">
         <v>200</v>
       </c>
       <c r="D967" s="31" t="s">
@@ -17443,7 +17459,7 @@
       </c>
     </row>
     <row r="968" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C968" s="54"/>
+      <c r="C968" s="62"/>
       <c r="D968" s="31" t="s">
         <v>305</v>
       </c>
@@ -17455,7 +17471,7 @@
       </c>
     </row>
     <row r="969" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C969" s="54"/>
+      <c r="C969" s="62"/>
       <c r="D969" s="31" t="s">
         <v>307</v>
       </c>
@@ -17467,7 +17483,7 @@
       </c>
     </row>
     <row r="970" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C970" s="54"/>
+      <c r="C970" s="62"/>
       <c r="D970" s="31"/>
       <c r="E970" s="31"/>
       <c r="F970" s="31"/>
@@ -17488,28 +17504,28 @@
       <c r="B974" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="C974" s="55" t="s">
+      <c r="C974" s="63" t="s">
         <v>441</v>
       </c>
-      <c r="D974" s="56"/>
-      <c r="E974" s="56"/>
-      <c r="F974" s="57"/>
+      <c r="D974" s="64"/>
+      <c r="E974" s="64"/>
+      <c r="F974" s="65"/>
     </row>
     <row r="975" spans="1:6" ht="18" thickBot="1">
-      <c r="C975" s="58" t="s">
+      <c r="C975" s="66" t="s">
         <v>442</v>
       </c>
-      <c r="D975" s="59"/>
-      <c r="E975" s="59"/>
-      <c r="F975" s="60"/>
+      <c r="D975" s="67"/>
+      <c r="E975" s="67"/>
+      <c r="F975" s="68"/>
     </row>
     <row r="976" spans="1:6" ht="27" thickBot="1">
-      <c r="C976" s="61" t="s">
+      <c r="C976" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D976" s="62"/>
-      <c r="E976" s="62"/>
-      <c r="F976" s="63"/>
+      <c r="D976" s="70"/>
+      <c r="E976" s="70"/>
+      <c r="F976" s="71"/>
     </row>
     <row r="977" spans="3:6" ht="18" thickBot="1">
       <c r="C977" s="25" t="s">
@@ -17542,12 +17558,12 @@
       <c r="F979" s="27"/>
     </row>
     <row r="980" spans="3:6" ht="27" thickBot="1">
-      <c r="C980" s="64" t="s">
+      <c r="C980" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D980" s="65"/>
-      <c r="E980" s="65"/>
-      <c r="F980" s="66"/>
+      <c r="D980" s="73"/>
+      <c r="E980" s="73"/>
+      <c r="F980" s="74"/>
     </row>
     <row r="981" spans="3:6" ht="18" thickBot="1">
       <c r="C981" s="29" t="s">
@@ -17565,7 +17581,7 @@
     </row>
     <row r="982" spans="3:6" ht="17.25" thickBot="1">
       <c r="C982" s="30" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D982" s="30" t="s">
         <v>296</v>
@@ -17584,12 +17600,12 @@
       <c r="F983" s="30"/>
     </row>
     <row r="984" spans="3:6" ht="27" thickBot="1">
-      <c r="C984" s="67" t="s">
+      <c r="C984" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D984" s="67"/>
-      <c r="E984" s="67"/>
-      <c r="F984" s="67"/>
+      <c r="D984" s="75"/>
+      <c r="E984" s="75"/>
+      <c r="F984" s="75"/>
     </row>
     <row r="985" spans="3:6" ht="18" thickBot="1">
       <c r="C985" s="29" t="s">
@@ -17606,7 +17622,7 @@
       </c>
     </row>
     <row r="986" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C986" s="54">
+      <c r="C986" s="62">
         <v>200</v>
       </c>
       <c r="D986" s="31" t="s">
@@ -17620,7 +17636,7 @@
       </c>
     </row>
     <row r="987" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C987" s="54"/>
+      <c r="C987" s="62"/>
       <c r="D987" s="31" t="s">
         <v>305</v>
       </c>
@@ -17632,7 +17648,7 @@
       </c>
     </row>
     <row r="988" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C988" s="54"/>
+      <c r="C988" s="62"/>
       <c r="D988" s="31" t="s">
         <v>307</v>
       </c>
@@ -17644,7 +17660,7 @@
       </c>
     </row>
     <row r="989" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C989" s="54"/>
+      <c r="C989" s="62"/>
       <c r="D989" s="31"/>
       <c r="E989" s="31"/>
       <c r="F989" s="31"/>
@@ -17665,28 +17681,28 @@
       <c r="B994" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="C994" s="55" t="s">
+      <c r="C994" s="63" t="s">
         <v>444</v>
       </c>
-      <c r="D994" s="56"/>
-      <c r="E994" s="56"/>
-      <c r="F994" s="57"/>
+      <c r="D994" s="64"/>
+      <c r="E994" s="64"/>
+      <c r="F994" s="65"/>
     </row>
     <row r="995" spans="1:6" ht="18" thickBot="1">
-      <c r="C995" s="58" t="s">
+      <c r="C995" s="66" t="s">
         <v>445</v>
       </c>
-      <c r="D995" s="59"/>
-      <c r="E995" s="59"/>
-      <c r="F995" s="60"/>
+      <c r="D995" s="67"/>
+      <c r="E995" s="67"/>
+      <c r="F995" s="68"/>
     </row>
     <row r="996" spans="1:6" ht="27" thickBot="1">
-      <c r="C996" s="61" t="s">
+      <c r="C996" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D996" s="62"/>
-      <c r="E996" s="62"/>
-      <c r="F996" s="63"/>
+      <c r="D996" s="70"/>
+      <c r="E996" s="70"/>
+      <c r="F996" s="71"/>
     </row>
     <row r="997" spans="1:6" ht="18" thickBot="1">
       <c r="C997" s="25" t="s">
@@ -17708,7 +17724,7 @@
         <v>295</v>
       </c>
       <c r="E998" s="35" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F998" s="27" t="s">
         <v>311</v>
@@ -17727,12 +17743,12 @@
       <c r="F999" s="27"/>
     </row>
     <row r="1000" spans="1:6" ht="27" thickBot="1">
-      <c r="C1000" s="64" t="s">
+      <c r="C1000" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D1000" s="65"/>
-      <c r="E1000" s="65"/>
-      <c r="F1000" s="66"/>
+      <c r="D1000" s="73"/>
+      <c r="E1000" s="73"/>
+      <c r="F1000" s="74"/>
     </row>
     <row r="1001" spans="1:6" ht="18" thickBot="1">
       <c r="C1001" s="29" t="s">
@@ -17750,7 +17766,7 @@
     </row>
     <row r="1002" spans="1:6" ht="17.25" thickBot="1">
       <c r="C1002" s="30" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D1002" s="30" t="s">
         <v>296</v>
@@ -17766,7 +17782,7 @@
       <c r="A1003" s="23"/>
       <c r="B1003" s="23"/>
       <c r="C1003" s="30" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D1003" s="30" t="s">
         <v>296</v>
@@ -17780,7 +17796,7 @@
     </row>
     <row r="1004" spans="1:6" ht="17.25" thickBot="1">
       <c r="C1004" s="30" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="D1004" s="30" t="s">
         <v>296</v>
@@ -17793,12 +17809,12 @@
       </c>
     </row>
     <row r="1005" spans="1:6" ht="27" thickBot="1">
-      <c r="C1005" s="67" t="s">
+      <c r="C1005" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D1005" s="67"/>
-      <c r="E1005" s="67"/>
-      <c r="F1005" s="67"/>
+      <c r="D1005" s="75"/>
+      <c r="E1005" s="75"/>
+      <c r="F1005" s="75"/>
     </row>
     <row r="1006" spans="1:6" ht="18" thickBot="1">
       <c r="C1006" s="29" t="s">
@@ -17815,7 +17831,7 @@
       </c>
     </row>
     <row r="1007" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C1007" s="54">
+      <c r="C1007" s="62">
         <v>200</v>
       </c>
       <c r="D1007" s="31" t="s">
@@ -17829,7 +17845,7 @@
       </c>
     </row>
     <row r="1008" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C1008" s="54"/>
+      <c r="C1008" s="62"/>
       <c r="D1008" s="31" t="s">
         <v>305</v>
       </c>
@@ -17841,7 +17857,7 @@
       </c>
     </row>
     <row r="1009" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C1009" s="54"/>
+      <c r="C1009" s="62"/>
       <c r="D1009" s="31" t="s">
         <v>307</v>
       </c>
@@ -17853,7 +17869,7 @@
       </c>
     </row>
     <row r="1010" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C1010" s="54"/>
+      <c r="C1010" s="62"/>
       <c r="D1010" s="31"/>
       <c r="E1010" s="31"/>
       <c r="F1010" s="31"/>
@@ -17874,28 +17890,28 @@
       <c r="B1014" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="C1014" s="55" t="s">
+      <c r="C1014" s="63" t="s">
         <v>447</v>
       </c>
-      <c r="D1014" s="56"/>
-      <c r="E1014" s="56"/>
-      <c r="F1014" s="57"/>
+      <c r="D1014" s="64"/>
+      <c r="E1014" s="64"/>
+      <c r="F1014" s="65"/>
     </row>
     <row r="1015" spans="1:6" ht="18" thickBot="1">
-      <c r="C1015" s="58" t="s">
+      <c r="C1015" s="66" t="s">
         <v>448</v>
       </c>
-      <c r="D1015" s="59"/>
-      <c r="E1015" s="59"/>
-      <c r="F1015" s="60"/>
+      <c r="D1015" s="67"/>
+      <c r="E1015" s="67"/>
+      <c r="F1015" s="68"/>
     </row>
     <row r="1016" spans="1:6" ht="27" thickBot="1">
-      <c r="C1016" s="61" t="s">
+      <c r="C1016" s="69" t="s">
         <v>279</v>
       </c>
-      <c r="D1016" s="62"/>
-      <c r="E1016" s="62"/>
-      <c r="F1016" s="63"/>
+      <c r="D1016" s="70"/>
+      <c r="E1016" s="70"/>
+      <c r="F1016" s="71"/>
     </row>
     <row r="1017" spans="1:6" ht="18" thickBot="1">
       <c r="C1017" s="25" t="s">
@@ -17917,7 +17933,7 @@
         <v>295</v>
       </c>
       <c r="E1018" s="35" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F1018" s="27" t="s">
         <v>311</v>
@@ -17936,12 +17952,12 @@
       <c r="F1019" s="27"/>
     </row>
     <row r="1020" spans="1:6" ht="27" thickBot="1">
-      <c r="C1020" s="64" t="s">
+      <c r="C1020" s="72" t="s">
         <v>285</v>
       </c>
-      <c r="D1020" s="65"/>
-      <c r="E1020" s="65"/>
-      <c r="F1020" s="66"/>
+      <c r="D1020" s="73"/>
+      <c r="E1020" s="73"/>
+      <c r="F1020" s="74"/>
     </row>
     <row r="1021" spans="1:6" ht="18" thickBot="1">
       <c r="C1021" s="29" t="s">
@@ -17959,7 +17975,7 @@
     </row>
     <row r="1022" spans="1:6" ht="17.25" thickBot="1">
       <c r="C1022" s="30" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D1022" s="30" t="s">
         <v>296</v>
@@ -17973,7 +17989,7 @@
     </row>
     <row r="1023" spans="1:6" ht="17.25" thickBot="1">
       <c r="C1023" s="30" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D1023" s="30" t="s">
         <v>296</v>
@@ -17987,7 +18003,7 @@
     </row>
     <row r="1024" spans="1:6" ht="17.25" thickBot="1">
       <c r="C1024" s="30" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D1024" s="30" t="s">
         <v>296</v>
@@ -18000,12 +18016,12 @@
       </c>
     </row>
     <row r="1025" spans="3:6" ht="27" thickBot="1">
-      <c r="C1025" s="67" t="s">
+      <c r="C1025" s="75" t="s">
         <v>288</v>
       </c>
-      <c r="D1025" s="67"/>
-      <c r="E1025" s="67"/>
-      <c r="F1025" s="67"/>
+      <c r="D1025" s="75"/>
+      <c r="E1025" s="75"/>
+      <c r="F1025" s="75"/>
     </row>
     <row r="1026" spans="3:6" ht="18" thickBot="1">
       <c r="C1026" s="29" t="s">
@@ -18022,7 +18038,7 @@
       </c>
     </row>
     <row r="1027" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C1027" s="54">
+      <c r="C1027" s="62">
         <v>200</v>
       </c>
       <c r="D1027" s="31" t="s">
@@ -18036,7 +18052,7 @@
       </c>
     </row>
     <row r="1028" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C1028" s="54"/>
+      <c r="C1028" s="62"/>
       <c r="D1028" s="31" t="s">
         <v>305</v>
       </c>
@@ -18048,7 +18064,7 @@
       </c>
     </row>
     <row r="1029" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C1029" s="54"/>
+      <c r="C1029" s="62"/>
       <c r="D1029" s="31" t="s">
         <v>307</v>
       </c>
@@ -18060,7 +18076,7 @@
       </c>
     </row>
     <row r="1030" spans="3:6" ht="17.25" thickBot="1">
-      <c r="C1030" s="54"/>
+      <c r="C1030" s="62"/>
       <c r="D1030" s="31"/>
       <c r="E1030" s="31"/>
       <c r="F1030" s="31"/>
@@ -18405,7 +18421,7 @@
   <dimension ref="B2:K91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -18453,13 +18469,13 @@
         <v>200</v>
       </c>
       <c r="C3" s="47" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D3" s="47" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="E3" s="47" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H3" s="14">
         <v>301</v>
@@ -18479,13 +18495,13 @@
         <v>2001</v>
       </c>
       <c r="C4" s="47" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D4" s="47" t="s">
         <v>234</v>
       </c>
       <c r="E4" s="47" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="H4" s="14">
         <v>400</v>
@@ -18504,14 +18520,14 @@
       <c r="B5" s="47">
         <v>2002</v>
       </c>
-      <c r="C5" s="100" t="s">
-        <v>612</v>
+      <c r="C5" s="53" t="s">
+        <v>610</v>
       </c>
       <c r="D5" s="47" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="H5" s="14">
         <v>401</v>
@@ -18531,13 +18547,13 @@
         <v>2003</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H6" s="14">
         <v>403</v>
@@ -18557,13 +18573,13 @@
         <v>2004</v>
       </c>
       <c r="C7" s="47" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="E7" s="47" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="H7" s="14">
         <v>404</v>
@@ -18583,13 +18599,13 @@
         <v>2005</v>
       </c>
       <c r="C8" s="47" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D8" s="47" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E8" s="47" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="H8" s="14">
         <v>405</v>
@@ -18609,13 +18625,13 @@
         <v>2006</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D9" s="47" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E9" s="47" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="H9" s="14">
         <v>406</v>
@@ -18635,13 +18651,13 @@
         <v>2007</v>
       </c>
       <c r="C10" s="47" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D10" s="47" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="H10" s="14">
         <v>409</v>
@@ -18661,13 +18677,13 @@
         <v>4000</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>235</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="H11" s="14">
         <v>500</v>
@@ -18687,13 +18703,13 @@
         <v>4001</v>
       </c>
       <c r="C12" s="47" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D12" s="16" t="s">
         <v>236</v>
       </c>
       <c r="E12" s="47" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="H12" s="14">
         <v>503</v>
@@ -18713,13 +18729,13 @@
         <v>4002</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D13" s="47" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E13" s="47" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
@@ -18731,13 +18747,13 @@
         <v>5001</v>
       </c>
       <c r="C14" s="47" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D14" s="47" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="E14" s="47" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
@@ -18749,13 +18765,13 @@
         <v>5002</v>
       </c>
       <c r="C15" s="47" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D15" s="47" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -18767,13 +18783,13 @@
         <v>5003</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
@@ -18785,13 +18801,13 @@
         <v>5004</v>
       </c>
       <c r="C17" s="47" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E17" s="47" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
@@ -18803,13 +18819,13 @@
         <v>5005</v>
       </c>
       <c r="C18" s="47" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D18" s="47" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E18" s="47" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
@@ -18821,13 +18837,13 @@
         <v>5006</v>
       </c>
       <c r="C19" s="47" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D19" s="47" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E19" s="47" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
@@ -18839,13 +18855,13 @@
         <v>5007</v>
       </c>
       <c r="C20" s="47" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D20" s="47" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
     </row>
     <row r="21" spans="2:11">
@@ -18853,13 +18869,13 @@
         <v>5008</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E21" s="17" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="22" spans="2:11">
@@ -18867,13 +18883,13 @@
         <v>5009</v>
       </c>
       <c r="C22" s="47" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="E22" s="47" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
     </row>
     <row r="23" spans="2:11">
@@ -18881,62 +18897,70 @@
         <v>5010</v>
       </c>
       <c r="C23" s="47" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D23" s="47" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E23" s="47" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="24" spans="2:11">
       <c r="B24" s="47">
+        <v>5011</v>
+      </c>
+      <c r="C24" s="47" t="s">
+        <v>676</v>
+      </c>
+      <c r="D24" s="47" t="s">
+        <v>677</v>
+      </c>
+      <c r="E24" s="47" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="B25" s="49">
         <v>8000</v>
       </c>
-      <c r="C24" s="47" t="s">
+      <c r="C25" s="49" t="s">
+        <v>629</v>
+      </c>
+      <c r="D25" s="49" t="s">
+        <v>634</v>
+      </c>
+      <c r="E25" s="49" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" s="49">
+        <v>8001</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>630</v>
+      </c>
+      <c r="D26" s="49" t="s">
+        <v>633</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" s="49">
+        <v>8002</v>
+      </c>
+      <c r="C27" s="51" t="s">
         <v>631</v>
       </c>
-      <c r="D24" s="47" t="s">
-        <v>636</v>
-      </c>
-      <c r="E24" s="47" t="s">
+      <c r="D27" s="51" t="s">
+        <v>632</v>
+      </c>
+      <c r="E27" s="51" t="s">
         <v>675</v>
       </c>
-    </row>
-    <row r="25" spans="2:11">
-      <c r="B25" s="47">
-        <v>8001</v>
-      </c>
-      <c r="C25" s="47" t="s">
-        <v>632</v>
-      </c>
-      <c r="D25" s="47" t="s">
-        <v>635</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11">
-      <c r="B26" s="47">
-        <v>8002</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>633</v>
-      </c>
-      <c r="D26" s="17" t="s">
-        <v>634</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11">
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="47"/>
     </row>
     <row r="28" spans="2:11">
       <c r="B28" s="48"/>

--- a/docs/APIDocs/API명세서.xlsx
+++ b/docs/APIDocs/API명세서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\PhpstormProjects\GameProject\docs\APIDocs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04C009E7-E4DE-4D0C-A4F1-23A932C97AE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FB666C4-AA06-4015-87DB-CCD6CC44EE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{4E8C34D6-CE1A-427D-9403-2013A6AFC92D}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2920" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2921" uniqueCount="681">
   <si>
     <t>URL</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4196,23 +4196,14 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4235,59 +4226,14 @@
     <xf numFmtId="0" fontId="32" fillId="35" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="41" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="41" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="41" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="40" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="36" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -4307,13 +4253,67 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="37" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="39" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="41" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="41" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="41" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -5581,8 +5581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071D4A7B-DD4D-499C-AF7D-3FC54784CE79}">
   <dimension ref="B1:K56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" zoomScaleNormal="59" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="B43" zoomScale="54" zoomScaleNormal="54" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44:D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -6876,7 +6876,9 @@
       <c r="C44" s="44" t="s">
         <v>329</v>
       </c>
-      <c r="D44" s="54"/>
+      <c r="D44" s="54" t="s">
+        <v>173</v>
+      </c>
       <c r="E44" s="17" t="s">
         <v>4</v>
       </c>
@@ -7257,7 +7259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A2BC9A-23DC-43EC-B9F1-7CE9F1F5C331}">
   <dimension ref="A1:F1031"/>
   <sheetViews>
-    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+    <sheetView zoomScale="57" zoomScaleNormal="57" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -7286,28 +7288,28 @@
       <c r="B2" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="63" t="s">
         <v>364</v>
       </c>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="102"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="65"/>
     </row>
     <row r="3" spans="1:6" ht="32.450000000000003" customHeight="1" thickBot="1">
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="73" t="s">
         <v>293</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="68"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="75"/>
     </row>
     <row r="4" spans="1:6" ht="25.15" customHeight="1" thickBot="1">
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D4" s="70"/>
-      <c r="E4" s="70"/>
-      <c r="F4" s="71"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="68"/>
     </row>
     <row r="5" spans="1:6" ht="18" thickBot="1">
       <c r="C5" s="25" t="s">
@@ -7334,12 +7336,12 @@
       <c r="F6" s="27"/>
     </row>
     <row r="7" spans="1:6" ht="27" thickBot="1">
-      <c r="C7" s="72" t="s">
+      <c r="C7" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="74"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="71"/>
     </row>
     <row r="8" spans="1:6" ht="18" thickBot="1">
       <c r="C8" s="29" t="s">
@@ -7434,12 +7436,12 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="27" thickBot="1">
-      <c r="C14" s="75" t="s">
+      <c r="C14" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
     </row>
     <row r="15" spans="1:6" ht="18" thickBot="1">
       <c r="C15" s="29" t="s">
@@ -7515,28 +7517,28 @@
       <c r="B23" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="C23" s="100" t="s">
+      <c r="C23" s="63" t="s">
         <v>520</v>
       </c>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="102"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="65"/>
     </row>
     <row r="24" spans="1:6" ht="18" thickBot="1">
-      <c r="C24" s="66" t="s">
+      <c r="C24" s="73" t="s">
         <v>292</v>
       </c>
-      <c r="D24" s="67"/>
-      <c r="E24" s="67"/>
-      <c r="F24" s="68"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="75"/>
     </row>
     <row r="25" spans="1:6" ht="27" thickBot="1">
-      <c r="C25" s="69" t="s">
+      <c r="C25" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="71"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="68"/>
     </row>
     <row r="26" spans="1:6" ht="18" thickBot="1">
       <c r="C26" s="25" t="s">
@@ -7563,12 +7565,12 @@
       <c r="F27" s="27"/>
     </row>
     <row r="28" spans="1:6" ht="27" thickBot="1">
-      <c r="C28" s="72" t="s">
+      <c r="C28" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D28" s="73"/>
-      <c r="E28" s="73"/>
-      <c r="F28" s="74"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="71"/>
     </row>
     <row r="29" spans="1:6" ht="18" thickBot="1">
       <c r="C29" s="29" t="s">
@@ -7613,12 +7615,12 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="27" thickBot="1">
-      <c r="C32" s="75" t="s">
+      <c r="C32" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D32" s="75"/>
-      <c r="E32" s="75"/>
-      <c r="F32" s="75"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
     </row>
     <row r="33" spans="1:6" ht="18" thickBot="1">
       <c r="C33" s="29" t="s">
@@ -7694,28 +7696,28 @@
       <c r="B41" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="C41" s="100" t="s">
+      <c r="C41" s="63" t="s">
         <v>521</v>
       </c>
-      <c r="D41" s="101"/>
-      <c r="E41" s="101"/>
-      <c r="F41" s="102"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="65"/>
     </row>
     <row r="42" spans="1:6" ht="18" thickBot="1">
-      <c r="C42" s="66" t="s">
+      <c r="C42" s="73" t="s">
         <v>523</v>
       </c>
-      <c r="D42" s="67"/>
-      <c r="E42" s="67"/>
-      <c r="F42" s="68"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="75"/>
     </row>
     <row r="43" spans="1:6" ht="27" thickBot="1">
-      <c r="C43" s="69" t="s">
+      <c r="C43" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="71"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="67"/>
+      <c r="F43" s="68"/>
     </row>
     <row r="44" spans="1:6" ht="18" thickBot="1">
       <c r="C44" s="25" t="s">
@@ -7758,12 +7760,12 @@
       <c r="F46" s="27"/>
     </row>
     <row r="47" spans="1:6" ht="27" thickBot="1">
-      <c r="C47" s="72" t="s">
+      <c r="C47" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D47" s="73"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="74"/>
+      <c r="D47" s="70"/>
+      <c r="E47" s="70"/>
+      <c r="F47" s="71"/>
     </row>
     <row r="48" spans="1:6" ht="18" thickBot="1">
       <c r="C48" s="29" t="s">
@@ -7786,12 +7788,12 @@
       <c r="F49" s="30"/>
     </row>
     <row r="50" spans="1:6" ht="27" thickBot="1">
-      <c r="C50" s="75" t="s">
+      <c r="C50" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D50" s="75"/>
-      <c r="E50" s="75"/>
-      <c r="F50" s="75"/>
+      <c r="D50" s="72"/>
+      <c r="E50" s="72"/>
+      <c r="F50" s="72"/>
     </row>
     <row r="51" spans="1:6" ht="18" thickBot="1">
       <c r="C51" s="29" t="s">
@@ -7867,28 +7869,28 @@
       <c r="B59" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="C59" s="100" t="s">
+      <c r="C59" s="63" t="s">
         <v>365</v>
       </c>
-      <c r="D59" s="101"/>
-      <c r="E59" s="101"/>
-      <c r="F59" s="102"/>
+      <c r="D59" s="64"/>
+      <c r="E59" s="64"/>
+      <c r="F59" s="65"/>
     </row>
     <row r="60" spans="1:6" ht="18" thickBot="1">
-      <c r="C60" s="66" t="s">
+      <c r="C60" s="73" t="s">
         <v>309</v>
       </c>
-      <c r="D60" s="67"/>
-      <c r="E60" s="67"/>
-      <c r="F60" s="68"/>
+      <c r="D60" s="74"/>
+      <c r="E60" s="74"/>
+      <c r="F60" s="75"/>
     </row>
     <row r="61" spans="1:6" ht="27" thickBot="1">
-      <c r="C61" s="69" t="s">
+      <c r="C61" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D61" s="70"/>
-      <c r="E61" s="70"/>
-      <c r="F61" s="71"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="67"/>
+      <c r="F61" s="68"/>
     </row>
     <row r="62" spans="1:6" ht="18" thickBot="1">
       <c r="C62" s="25" t="s">
@@ -7915,12 +7917,12 @@
       <c r="F63" s="27"/>
     </row>
     <row r="64" spans="1:6" ht="27" thickBot="1">
-      <c r="C64" s="72" t="s">
+      <c r="C64" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D64" s="73"/>
-      <c r="E64" s="73"/>
-      <c r="F64" s="74"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="71"/>
     </row>
     <row r="65" spans="1:6" ht="18" thickBot="1">
       <c r="C65" s="29" t="s">
@@ -8027,12 +8029,12 @@
     <row r="72" spans="1:6" s="12" customFormat="1" ht="27" thickBot="1">
       <c r="A72" s="23"/>
       <c r="B72" s="23"/>
-      <c r="C72" s="72" t="s">
+      <c r="C72" s="69" t="s">
         <v>288</v>
       </c>
-      <c r="D72" s="73"/>
-      <c r="E72" s="73"/>
-      <c r="F72" s="74"/>
+      <c r="D72" s="70"/>
+      <c r="E72" s="70"/>
+      <c r="F72" s="71"/>
     </row>
     <row r="73" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A73" s="23"/>
@@ -8114,28 +8116,28 @@
       <c r="B81" s="24" t="s">
         <v>163</v>
       </c>
-      <c r="C81" s="100" t="s">
+      <c r="C81" s="63" t="s">
         <v>524</v>
       </c>
-      <c r="D81" s="101"/>
-      <c r="E81" s="101"/>
-      <c r="F81" s="102"/>
+      <c r="D81" s="64"/>
+      <c r="E81" s="64"/>
+      <c r="F81" s="65"/>
     </row>
     <row r="82" spans="1:6" ht="18" thickBot="1">
-      <c r="C82" s="66" t="s">
+      <c r="C82" s="73" t="s">
         <v>525</v>
       </c>
-      <c r="D82" s="67"/>
-      <c r="E82" s="67"/>
-      <c r="F82" s="68"/>
+      <c r="D82" s="74"/>
+      <c r="E82" s="74"/>
+      <c r="F82" s="75"/>
     </row>
     <row r="83" spans="1:6" ht="27" thickBot="1">
-      <c r="C83" s="69" t="s">
+      <c r="C83" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D83" s="70"/>
-      <c r="E83" s="70"/>
-      <c r="F83" s="71"/>
+      <c r="D83" s="67"/>
+      <c r="E83" s="67"/>
+      <c r="F83" s="68"/>
     </row>
     <row r="84" spans="1:6" ht="18" thickBot="1">
       <c r="C84" s="25" t="s">
@@ -8178,12 +8180,12 @@
       <c r="F86" s="27"/>
     </row>
     <row r="87" spans="1:6" ht="27" thickBot="1">
-      <c r="C87" s="72" t="s">
+      <c r="C87" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D87" s="73"/>
-      <c r="E87" s="73"/>
-      <c r="F87" s="74"/>
+      <c r="D87" s="70"/>
+      <c r="E87" s="70"/>
+      <c r="F87" s="71"/>
     </row>
     <row r="88" spans="1:6" ht="18" thickBot="1">
       <c r="C88" s="29" t="s">
@@ -8206,12 +8208,12 @@
       <c r="F89" s="30"/>
     </row>
     <row r="90" spans="1:6" ht="27" thickBot="1">
-      <c r="C90" s="75" t="s">
+      <c r="C90" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D90" s="75"/>
-      <c r="E90" s="75"/>
-      <c r="F90" s="75"/>
+      <c r="D90" s="72"/>
+      <c r="E90" s="72"/>
+      <c r="F90" s="72"/>
     </row>
     <row r="91" spans="1:6" ht="18" thickBot="1">
       <c r="C91" s="29" t="s">
@@ -8287,28 +8289,28 @@
       <c r="B99" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C99" s="94" t="s">
+      <c r="C99" s="76" t="s">
         <v>366</v>
       </c>
-      <c r="D99" s="95"/>
-      <c r="E99" s="95"/>
-      <c r="F99" s="96"/>
+      <c r="D99" s="77"/>
+      <c r="E99" s="77"/>
+      <c r="F99" s="78"/>
     </row>
     <row r="100" spans="1:6" ht="18" thickBot="1">
-      <c r="C100" s="66" t="s">
+      <c r="C100" s="73" t="s">
         <v>310</v>
       </c>
-      <c r="D100" s="67"/>
-      <c r="E100" s="67"/>
-      <c r="F100" s="68"/>
+      <c r="D100" s="74"/>
+      <c r="E100" s="74"/>
+      <c r="F100" s="75"/>
     </row>
     <row r="101" spans="1:6" ht="27" thickBot="1">
-      <c r="C101" s="69" t="s">
+      <c r="C101" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D101" s="70"/>
-      <c r="E101" s="70"/>
-      <c r="F101" s="71"/>
+      <c r="D101" s="67"/>
+      <c r="E101" s="67"/>
+      <c r="F101" s="68"/>
     </row>
     <row r="102" spans="1:6" ht="18" thickBot="1">
       <c r="C102" s="25" t="s">
@@ -8351,12 +8353,12 @@
       <c r="F104" s="27"/>
     </row>
     <row r="105" spans="1:6" ht="27" thickBot="1">
-      <c r="C105" s="72" t="s">
+      <c r="C105" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D105" s="73"/>
-      <c r="E105" s="73"/>
-      <c r="F105" s="74"/>
+      <c r="D105" s="70"/>
+      <c r="E105" s="70"/>
+      <c r="F105" s="71"/>
     </row>
     <row r="106" spans="1:6" ht="18" thickBot="1">
       <c r="C106" s="29" t="s">
@@ -8387,12 +8389,12 @@
       </c>
     </row>
     <row r="108" spans="1:6" ht="27" thickBot="1">
-      <c r="C108" s="75" t="s">
+      <c r="C108" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D108" s="75"/>
-      <c r="E108" s="75"/>
-      <c r="F108" s="75"/>
+      <c r="D108" s="72"/>
+      <c r="E108" s="72"/>
+      <c r="F108" s="72"/>
     </row>
     <row r="109" spans="1:6" ht="18" thickBot="1">
       <c r="C109" s="29" t="s">
@@ -8468,28 +8470,28 @@
       <c r="B117" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C117" s="94" t="s">
+      <c r="C117" s="76" t="s">
         <v>367</v>
       </c>
-      <c r="D117" s="95"/>
-      <c r="E117" s="95"/>
-      <c r="F117" s="96"/>
+      <c r="D117" s="77"/>
+      <c r="E117" s="77"/>
+      <c r="F117" s="78"/>
     </row>
     <row r="118" spans="1:6" ht="18" thickBot="1">
-      <c r="C118" s="66" t="s">
+      <c r="C118" s="73" t="s">
         <v>312</v>
       </c>
-      <c r="D118" s="67"/>
-      <c r="E118" s="67"/>
-      <c r="F118" s="68"/>
+      <c r="D118" s="74"/>
+      <c r="E118" s="74"/>
+      <c r="F118" s="75"/>
     </row>
     <row r="119" spans="1:6" ht="27" thickBot="1">
-      <c r="C119" s="69" t="s">
+      <c r="C119" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D119" s="70"/>
-      <c r="E119" s="70"/>
-      <c r="F119" s="71"/>
+      <c r="D119" s="67"/>
+      <c r="E119" s="67"/>
+      <c r="F119" s="68"/>
     </row>
     <row r="120" spans="1:6" ht="18" thickBot="1">
       <c r="C120" s="25" t="s">
@@ -8530,12 +8532,12 @@
       <c r="F122" s="27"/>
     </row>
     <row r="123" spans="1:6" ht="27" thickBot="1">
-      <c r="C123" s="72" t="s">
+      <c r="C123" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D123" s="73"/>
-      <c r="E123" s="73"/>
-      <c r="F123" s="74"/>
+      <c r="D123" s="70"/>
+      <c r="E123" s="70"/>
+      <c r="F123" s="71"/>
     </row>
     <row r="124" spans="1:6" ht="18" thickBot="1">
       <c r="C124" s="29" t="s">
@@ -8582,12 +8584,12 @@
       </c>
     </row>
     <row r="127" spans="1:6" ht="27" thickBot="1">
-      <c r="C127" s="75" t="s">
+      <c r="C127" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D127" s="75"/>
-      <c r="E127" s="75"/>
-      <c r="F127" s="75"/>
+      <c r="D127" s="72"/>
+      <c r="E127" s="72"/>
+      <c r="F127" s="72"/>
     </row>
     <row r="128" spans="1:6" ht="18" thickBot="1">
       <c r="C128" s="29" t="s">
@@ -8663,32 +8665,32 @@
       <c r="B135" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C135" s="94" t="s">
+      <c r="C135" s="76" t="s">
         <v>532</v>
       </c>
-      <c r="D135" s="95"/>
-      <c r="E135" s="95"/>
-      <c r="F135" s="96"/>
+      <c r="D135" s="77"/>
+      <c r="E135" s="77"/>
+      <c r="F135" s="78"/>
     </row>
     <row r="136" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A136" s="23"/>
       <c r="B136" s="23"/>
-      <c r="C136" s="66" t="s">
+      <c r="C136" s="73" t="s">
         <v>465</v>
       </c>
-      <c r="D136" s="67"/>
-      <c r="E136" s="67"/>
-      <c r="F136" s="68"/>
+      <c r="D136" s="74"/>
+      <c r="E136" s="74"/>
+      <c r="F136" s="75"/>
     </row>
     <row r="137" spans="1:6" s="12" customFormat="1" ht="27" thickBot="1">
       <c r="A137" s="23"/>
       <c r="B137" s="23"/>
-      <c r="C137" s="69" t="s">
+      <c r="C137" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D137" s="70"/>
-      <c r="E137" s="70"/>
-      <c r="F137" s="71"/>
+      <c r="D137" s="67"/>
+      <c r="E137" s="67"/>
+      <c r="F137" s="68"/>
     </row>
     <row r="138" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A138" s="23"/>
@@ -8737,12 +8739,12 @@
     <row r="141" spans="1:6" s="12" customFormat="1" ht="27" thickBot="1">
       <c r="A141" s="23"/>
       <c r="B141" s="23"/>
-      <c r="C141" s="72" t="s">
+      <c r="C141" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D141" s="73"/>
-      <c r="E141" s="73"/>
-      <c r="F141" s="74"/>
+      <c r="D141" s="70"/>
+      <c r="E141" s="70"/>
+      <c r="F141" s="71"/>
     </row>
     <row r="142" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A142" s="23"/>
@@ -8787,12 +8789,12 @@
     <row r="145" spans="1:6" s="12" customFormat="1" ht="27" thickBot="1">
       <c r="A145" s="23"/>
       <c r="B145" s="23"/>
-      <c r="C145" s="75" t="s">
+      <c r="C145" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D145" s="75"/>
-      <c r="E145" s="75"/>
-      <c r="F145" s="75"/>
+      <c r="D145" s="72"/>
+      <c r="E145" s="72"/>
+      <c r="F145" s="72"/>
     </row>
     <row r="146" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A146" s="23"/>
@@ -8880,28 +8882,28 @@
       <c r="B153" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C153" s="94" t="s">
+      <c r="C153" s="76" t="s">
         <v>368</v>
       </c>
-      <c r="D153" s="95"/>
-      <c r="E153" s="95"/>
-      <c r="F153" s="96"/>
+      <c r="D153" s="77"/>
+      <c r="E153" s="77"/>
+      <c r="F153" s="78"/>
     </row>
     <row r="154" spans="1:6" ht="18" thickBot="1">
-      <c r="C154" s="66" t="s">
+      <c r="C154" s="73" t="s">
         <v>313</v>
       </c>
-      <c r="D154" s="67"/>
-      <c r="E154" s="67"/>
-      <c r="F154" s="68"/>
+      <c r="D154" s="74"/>
+      <c r="E154" s="74"/>
+      <c r="F154" s="75"/>
     </row>
     <row r="155" spans="1:6" ht="27" thickBot="1">
-      <c r="C155" s="69" t="s">
+      <c r="C155" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D155" s="70"/>
-      <c r="E155" s="70"/>
-      <c r="F155" s="71"/>
+      <c r="D155" s="67"/>
+      <c r="E155" s="67"/>
+      <c r="F155" s="68"/>
     </row>
     <row r="156" spans="1:6" ht="18" thickBot="1">
       <c r="C156" s="25" t="s">
@@ -8942,12 +8944,12 @@
       <c r="F158" s="27"/>
     </row>
     <row r="159" spans="1:6" ht="27" thickBot="1">
-      <c r="C159" s="72" t="s">
+      <c r="C159" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D159" s="73"/>
-      <c r="E159" s="73"/>
-      <c r="F159" s="74"/>
+      <c r="D159" s="70"/>
+      <c r="E159" s="70"/>
+      <c r="F159" s="71"/>
     </row>
     <row r="160" spans="1:6" ht="18" thickBot="1">
       <c r="C160" s="29" t="s">
@@ -8986,12 +8988,12 @@
       <c r="F162" s="30"/>
     </row>
     <row r="163" spans="1:6" ht="27" thickBot="1">
-      <c r="C163" s="75" t="s">
+      <c r="C163" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D163" s="75"/>
-      <c r="E163" s="75"/>
-      <c r="F163" s="75"/>
+      <c r="D163" s="72"/>
+      <c r="E163" s="72"/>
+      <c r="F163" s="72"/>
     </row>
     <row r="164" spans="1:6" ht="18" thickBot="1">
       <c r="C164" s="29" t="s">
@@ -9067,28 +9069,28 @@
       <c r="B172" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C172" s="94" t="s">
+      <c r="C172" s="76" t="s">
         <v>369</v>
       </c>
-      <c r="D172" s="95"/>
-      <c r="E172" s="95"/>
-      <c r="F172" s="96"/>
+      <c r="D172" s="77"/>
+      <c r="E172" s="77"/>
+      <c r="F172" s="78"/>
     </row>
     <row r="173" spans="1:6" ht="18" thickBot="1">
-      <c r="C173" s="66" t="s">
+      <c r="C173" s="73" t="s">
         <v>323</v>
       </c>
-      <c r="D173" s="67"/>
-      <c r="E173" s="67"/>
-      <c r="F173" s="68"/>
+      <c r="D173" s="74"/>
+      <c r="E173" s="74"/>
+      <c r="F173" s="75"/>
     </row>
     <row r="174" spans="1:6" ht="27" thickBot="1">
-      <c r="C174" s="69" t="s">
+      <c r="C174" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D174" s="70"/>
-      <c r="E174" s="70"/>
-      <c r="F174" s="71"/>
+      <c r="D174" s="67"/>
+      <c r="E174" s="67"/>
+      <c r="F174" s="68"/>
     </row>
     <row r="175" spans="1:6" ht="18" thickBot="1">
       <c r="C175" s="25" t="s">
@@ -9129,12 +9131,12 @@
       <c r="F177" s="27"/>
     </row>
     <row r="178" spans="1:6" ht="27" thickBot="1">
-      <c r="C178" s="72" t="s">
+      <c r="C178" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D178" s="73"/>
-      <c r="E178" s="73"/>
-      <c r="F178" s="74"/>
+      <c r="D178" s="70"/>
+      <c r="E178" s="70"/>
+      <c r="F178" s="71"/>
     </row>
     <row r="179" spans="1:6" ht="18" thickBot="1">
       <c r="C179" s="29" t="s">
@@ -9251,12 +9253,12 @@
       <c r="F186" s="30"/>
     </row>
     <row r="187" spans="1:6" ht="27" thickBot="1">
-      <c r="C187" s="75" t="s">
+      <c r="C187" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D187" s="75"/>
-      <c r="E187" s="75"/>
-      <c r="F187" s="75"/>
+      <c r="D187" s="72"/>
+      <c r="E187" s="72"/>
+      <c r="F187" s="72"/>
     </row>
     <row r="188" spans="1:6" ht="18" thickBot="1">
       <c r="C188" s="29" t="s">
@@ -9332,28 +9334,28 @@
       <c r="B196" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C196" s="94" t="s">
+      <c r="C196" s="76" t="s">
         <v>545</v>
       </c>
-      <c r="D196" s="95"/>
-      <c r="E196" s="95"/>
-      <c r="F196" s="96"/>
+      <c r="D196" s="77"/>
+      <c r="E196" s="77"/>
+      <c r="F196" s="78"/>
     </row>
     <row r="197" spans="1:6" ht="18" thickBot="1">
-      <c r="C197" s="66" t="s">
+      <c r="C197" s="73" t="s">
         <v>546</v>
       </c>
-      <c r="D197" s="67"/>
-      <c r="E197" s="67"/>
-      <c r="F197" s="68"/>
+      <c r="D197" s="74"/>
+      <c r="E197" s="74"/>
+      <c r="F197" s="75"/>
     </row>
     <row r="198" spans="1:6" ht="27" thickBot="1">
-      <c r="C198" s="69" t="s">
+      <c r="C198" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D198" s="70"/>
-      <c r="E198" s="70"/>
-      <c r="F198" s="71"/>
+      <c r="D198" s="67"/>
+      <c r="E198" s="67"/>
+      <c r="F198" s="68"/>
     </row>
     <row r="199" spans="1:6" ht="18" thickBot="1">
       <c r="C199" s="25" t="s">
@@ -9394,12 +9396,12 @@
       <c r="F201" s="27"/>
     </row>
     <row r="202" spans="1:6" ht="27" thickBot="1">
-      <c r="C202" s="72" t="s">
+      <c r="C202" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D202" s="73"/>
-      <c r="E202" s="73"/>
-      <c r="F202" s="74"/>
+      <c r="D202" s="70"/>
+      <c r="E202" s="70"/>
+      <c r="F202" s="71"/>
     </row>
     <row r="203" spans="1:6" ht="18" thickBot="1">
       <c r="C203" s="29" t="s">
@@ -9442,12 +9444,12 @@
       <c r="F206" s="30"/>
     </row>
     <row r="207" spans="1:6" ht="27" thickBot="1">
-      <c r="C207" s="72" t="s">
+      <c r="C207" s="69" t="s">
         <v>288</v>
       </c>
-      <c r="D207" s="73"/>
-      <c r="E207" s="73"/>
-      <c r="F207" s="74"/>
+      <c r="D207" s="70"/>
+      <c r="E207" s="70"/>
+      <c r="F207" s="71"/>
     </row>
     <row r="208" spans="1:6" ht="18" thickBot="1">
       <c r="C208" s="29" t="s">
@@ -9464,7 +9466,7 @@
       </c>
     </row>
     <row r="209" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C209" s="97">
+      <c r="C209" s="79">
         <v>200</v>
       </c>
       <c r="D209" s="31" t="s">
@@ -9478,7 +9480,7 @@
       </c>
     </row>
     <row r="210" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C210" s="98"/>
+      <c r="C210" s="80"/>
       <c r="D210" s="31" t="s">
         <v>305</v>
       </c>
@@ -9490,7 +9492,7 @@
       </c>
     </row>
     <row r="211" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C211" s="98"/>
+      <c r="C211" s="80"/>
       <c r="D211" s="31" t="s">
         <v>307</v>
       </c>
@@ -9502,7 +9504,7 @@
       </c>
     </row>
     <row r="212" spans="1:6" ht="17.25" thickBot="1">
-      <c r="C212" s="99"/>
+      <c r="C212" s="81"/>
       <c r="D212" s="31"/>
       <c r="E212" s="31"/>
       <c r="F212" s="31"/>
@@ -9523,28 +9525,28 @@
       <c r="B216" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C216" s="94" t="s">
+      <c r="C216" s="76" t="s">
         <v>370</v>
       </c>
-      <c r="D216" s="95"/>
-      <c r="E216" s="95"/>
-      <c r="F216" s="96"/>
+      <c r="D216" s="77"/>
+      <c r="E216" s="77"/>
+      <c r="F216" s="78"/>
     </row>
     <row r="217" spans="1:6" ht="19.899999999999999" customHeight="1" thickBot="1">
-      <c r="C217" s="66" t="s">
+      <c r="C217" s="73" t="s">
         <v>324</v>
       </c>
-      <c r="D217" s="67"/>
-      <c r="E217" s="67"/>
-      <c r="F217" s="68"/>
+      <c r="D217" s="74"/>
+      <c r="E217" s="74"/>
+      <c r="F217" s="75"/>
     </row>
     <row r="218" spans="1:6" ht="27" thickBot="1">
-      <c r="C218" s="69" t="s">
+      <c r="C218" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D218" s="70"/>
-      <c r="E218" s="70"/>
-      <c r="F218" s="71"/>
+      <c r="D218" s="67"/>
+      <c r="E218" s="67"/>
+      <c r="F218" s="68"/>
     </row>
     <row r="219" spans="1:6" ht="18" thickBot="1">
       <c r="C219" s="25" t="s">
@@ -9585,12 +9587,12 @@
       <c r="F221" s="27"/>
     </row>
     <row r="222" spans="1:6" ht="27" thickBot="1">
-      <c r="C222" s="72" t="s">
+      <c r="C222" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D222" s="73"/>
-      <c r="E222" s="73"/>
-      <c r="F222" s="74"/>
+      <c r="D222" s="70"/>
+      <c r="E222" s="70"/>
+      <c r="F222" s="71"/>
     </row>
     <row r="223" spans="1:6" ht="18" thickBot="1">
       <c r="C223" s="29" t="s">
@@ -9627,12 +9629,12 @@
       <c r="F225" s="30"/>
     </row>
     <row r="226" spans="1:6" ht="27" thickBot="1">
-      <c r="C226" s="75" t="s">
+      <c r="C226" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D226" s="75"/>
-      <c r="E226" s="75"/>
-      <c r="F226" s="75"/>
+      <c r="D226" s="72"/>
+      <c r="E226" s="72"/>
+      <c r="F226" s="72"/>
     </row>
     <row r="227" spans="1:6" ht="18" thickBot="1">
       <c r="C227" s="29" t="s">
@@ -9708,28 +9710,28 @@
       <c r="B235" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C235" s="94" t="s">
+      <c r="C235" s="76" t="s">
         <v>371</v>
       </c>
-      <c r="D235" s="95"/>
-      <c r="E235" s="95"/>
-      <c r="F235" s="96"/>
+      <c r="D235" s="77"/>
+      <c r="E235" s="77"/>
+      <c r="F235" s="78"/>
     </row>
     <row r="236" spans="1:6" ht="18" thickBot="1">
-      <c r="C236" s="66" t="s">
+      <c r="C236" s="73" t="s">
         <v>325</v>
       </c>
-      <c r="D236" s="67"/>
-      <c r="E236" s="67"/>
-      <c r="F236" s="68"/>
+      <c r="D236" s="74"/>
+      <c r="E236" s="74"/>
+      <c r="F236" s="75"/>
     </row>
     <row r="237" spans="1:6" ht="27" thickBot="1">
-      <c r="C237" s="69" t="s">
+      <c r="C237" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D237" s="70"/>
-      <c r="E237" s="70"/>
-      <c r="F237" s="71"/>
+      <c r="D237" s="67"/>
+      <c r="E237" s="67"/>
+      <c r="F237" s="68"/>
     </row>
     <row r="238" spans="1:6" ht="18" thickBot="1">
       <c r="C238" s="25" t="s">
@@ -9770,12 +9772,12 @@
       <c r="F240" s="27"/>
     </row>
     <row r="241" spans="1:6" ht="27" thickBot="1">
-      <c r="C241" s="72" t="s">
+      <c r="C241" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D241" s="73"/>
-      <c r="E241" s="73"/>
-      <c r="F241" s="74"/>
+      <c r="D241" s="70"/>
+      <c r="E241" s="70"/>
+      <c r="F241" s="71"/>
     </row>
     <row r="242" spans="1:6" ht="18" thickBot="1">
       <c r="C242" s="29" t="s">
@@ -9826,12 +9828,12 @@
       <c r="F245" s="30"/>
     </row>
     <row r="246" spans="1:6" ht="27" thickBot="1">
-      <c r="C246" s="75" t="s">
+      <c r="C246" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D246" s="75"/>
-      <c r="E246" s="75"/>
-      <c r="F246" s="75"/>
+      <c r="D246" s="72"/>
+      <c r="E246" s="72"/>
+      <c r="F246" s="72"/>
     </row>
     <row r="247" spans="1:6" ht="18" thickBot="1">
       <c r="C247" s="29" t="s">
@@ -9907,28 +9909,28 @@
       <c r="B255" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C255" s="94" t="s">
+      <c r="C255" s="76" t="s">
         <v>372</v>
       </c>
-      <c r="D255" s="95"/>
-      <c r="E255" s="95"/>
-      <c r="F255" s="96"/>
+      <c r="D255" s="77"/>
+      <c r="E255" s="77"/>
+      <c r="F255" s="78"/>
     </row>
     <row r="256" spans="1:6" ht="18" thickBot="1">
-      <c r="C256" s="66" t="s">
+      <c r="C256" s="73" t="s">
         <v>391</v>
       </c>
-      <c r="D256" s="67"/>
-      <c r="E256" s="67"/>
-      <c r="F256" s="68"/>
+      <c r="D256" s="74"/>
+      <c r="E256" s="74"/>
+      <c r="F256" s="75"/>
     </row>
     <row r="257" spans="3:6" ht="27" thickBot="1">
-      <c r="C257" s="69" t="s">
+      <c r="C257" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D257" s="70"/>
-      <c r="E257" s="70"/>
-      <c r="F257" s="71"/>
+      <c r="D257" s="67"/>
+      <c r="E257" s="67"/>
+      <c r="F257" s="68"/>
     </row>
     <row r="258" spans="3:6" ht="18" thickBot="1">
       <c r="C258" s="25" t="s">
@@ -9969,12 +9971,12 @@
       <c r="F260" s="27"/>
     </row>
     <row r="261" spans="3:6" ht="27" thickBot="1">
-      <c r="C261" s="72" t="s">
+      <c r="C261" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D261" s="73"/>
-      <c r="E261" s="73"/>
-      <c r="F261" s="74"/>
+      <c r="D261" s="70"/>
+      <c r="E261" s="70"/>
+      <c r="F261" s="71"/>
     </row>
     <row r="262" spans="3:6" ht="18" thickBot="1">
       <c r="C262" s="29" t="s">
@@ -10011,12 +10013,12 @@
       <c r="F264" s="30"/>
     </row>
     <row r="265" spans="3:6" ht="27" thickBot="1">
-      <c r="C265" s="75" t="s">
+      <c r="C265" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D265" s="75"/>
-      <c r="E265" s="75"/>
-      <c r="F265" s="75"/>
+      <c r="D265" s="72"/>
+      <c r="E265" s="72"/>
+      <c r="F265" s="72"/>
     </row>
     <row r="266" spans="3:6" ht="18" thickBot="1">
       <c r="C266" s="29" t="s">
@@ -10092,28 +10094,28 @@
       <c r="B274" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C274" s="94" t="s">
+      <c r="C274" s="76" t="s">
         <v>549</v>
       </c>
-      <c r="D274" s="95"/>
-      <c r="E274" s="95"/>
-      <c r="F274" s="96"/>
+      <c r="D274" s="77"/>
+      <c r="E274" s="77"/>
+      <c r="F274" s="78"/>
     </row>
     <row r="275" spans="1:6" ht="18" thickBot="1">
-      <c r="C275" s="66" t="s">
+      <c r="C275" s="73" t="s">
         <v>390</v>
       </c>
-      <c r="D275" s="67"/>
-      <c r="E275" s="67"/>
-      <c r="F275" s="68"/>
+      <c r="D275" s="74"/>
+      <c r="E275" s="74"/>
+      <c r="F275" s="75"/>
     </row>
     <row r="276" spans="1:6" ht="27" thickBot="1">
-      <c r="C276" s="69" t="s">
+      <c r="C276" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D276" s="70"/>
-      <c r="E276" s="70"/>
-      <c r="F276" s="71"/>
+      <c r="D276" s="67"/>
+      <c r="E276" s="67"/>
+      <c r="F276" s="68"/>
     </row>
     <row r="277" spans="1:6" ht="18" thickBot="1">
       <c r="C277" s="25" t="s">
@@ -10154,12 +10156,12 @@
       <c r="F279" s="27"/>
     </row>
     <row r="280" spans="1:6" ht="27" thickBot="1">
-      <c r="C280" s="72" t="s">
+      <c r="C280" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D280" s="73"/>
-      <c r="E280" s="73"/>
-      <c r="F280" s="74"/>
+      <c r="D280" s="70"/>
+      <c r="E280" s="70"/>
+      <c r="F280" s="71"/>
     </row>
     <row r="281" spans="1:6" ht="18" thickBot="1">
       <c r="C281" s="29" t="s">
@@ -10202,12 +10204,12 @@
       <c r="F284" s="30"/>
     </row>
     <row r="285" spans="1:6" ht="27" thickBot="1">
-      <c r="C285" s="75" t="s">
+      <c r="C285" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D285" s="75"/>
-      <c r="E285" s="75"/>
-      <c r="F285" s="75"/>
+      <c r="D285" s="72"/>
+      <c r="E285" s="72"/>
+      <c r="F285" s="72"/>
     </row>
     <row r="286" spans="1:6" ht="18" thickBot="1">
       <c r="C286" s="29" t="s">
@@ -10283,32 +10285,32 @@
       <c r="B293" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C293" s="94" t="s">
+      <c r="C293" s="76" t="s">
         <v>551</v>
       </c>
-      <c r="D293" s="95"/>
-      <c r="E293" s="95"/>
-      <c r="F293" s="96"/>
+      <c r="D293" s="77"/>
+      <c r="E293" s="77"/>
+      <c r="F293" s="78"/>
     </row>
     <row r="294" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A294" s="23"/>
       <c r="B294" s="23"/>
-      <c r="C294" s="66" t="s">
+      <c r="C294" s="73" t="s">
         <v>550</v>
       </c>
-      <c r="D294" s="67"/>
-      <c r="E294" s="67"/>
-      <c r="F294" s="68"/>
+      <c r="D294" s="74"/>
+      <c r="E294" s="74"/>
+      <c r="F294" s="75"/>
     </row>
     <row r="295" spans="1:6" s="12" customFormat="1" ht="27" thickBot="1">
       <c r="A295" s="23"/>
       <c r="B295" s="23"/>
-      <c r="C295" s="69" t="s">
+      <c r="C295" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D295" s="70"/>
-      <c r="E295" s="70"/>
-      <c r="F295" s="71"/>
+      <c r="D295" s="67"/>
+      <c r="E295" s="67"/>
+      <c r="F295" s="68"/>
     </row>
     <row r="296" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A296" s="23"/>
@@ -10357,12 +10359,12 @@
     <row r="299" spans="1:6" s="12" customFormat="1" ht="27" thickBot="1">
       <c r="A299" s="23"/>
       <c r="B299" s="23"/>
-      <c r="C299" s="72" t="s">
+      <c r="C299" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D299" s="73"/>
-      <c r="E299" s="73"/>
-      <c r="F299" s="74"/>
+      <c r="D299" s="70"/>
+      <c r="E299" s="70"/>
+      <c r="F299" s="71"/>
     </row>
     <row r="300" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A300" s="23"/>
@@ -10423,12 +10425,12 @@
     <row r="304" spans="1:6" s="12" customFormat="1" ht="27" thickBot="1">
       <c r="A304" s="23"/>
       <c r="B304" s="23"/>
-      <c r="C304" s="75" t="s">
+      <c r="C304" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D304" s="75"/>
-      <c r="E304" s="75"/>
-      <c r="F304" s="75"/>
+      <c r="D304" s="72"/>
+      <c r="E304" s="72"/>
+      <c r="F304" s="72"/>
     </row>
     <row r="305" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A305" s="23"/>
@@ -10516,28 +10518,28 @@
       <c r="B312" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C312" s="94" t="s">
+      <c r="C312" s="76" t="s">
         <v>373</v>
       </c>
-      <c r="D312" s="95"/>
-      <c r="E312" s="95"/>
-      <c r="F312" s="96"/>
+      <c r="D312" s="77"/>
+      <c r="E312" s="77"/>
+      <c r="F312" s="78"/>
     </row>
     <row r="313" spans="1:6" ht="18" thickBot="1">
-      <c r="C313" s="66" t="s">
+      <c r="C313" s="73" t="s">
         <v>389</v>
       </c>
-      <c r="D313" s="67"/>
-      <c r="E313" s="67"/>
-      <c r="F313" s="68"/>
+      <c r="D313" s="74"/>
+      <c r="E313" s="74"/>
+      <c r="F313" s="75"/>
     </row>
     <row r="314" spans="1:6" ht="27" thickBot="1">
-      <c r="C314" s="69" t="s">
+      <c r="C314" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D314" s="70"/>
-      <c r="E314" s="70"/>
-      <c r="F314" s="71"/>
+      <c r="D314" s="67"/>
+      <c r="E314" s="67"/>
+      <c r="F314" s="68"/>
     </row>
     <row r="315" spans="1:6" ht="18" thickBot="1">
       <c r="C315" s="25" t="s">
@@ -10578,12 +10580,12 @@
       <c r="F317" s="27"/>
     </row>
     <row r="318" spans="1:6" ht="27" thickBot="1">
-      <c r="C318" s="72" t="s">
+      <c r="C318" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D318" s="73"/>
-      <c r="E318" s="73"/>
-      <c r="F318" s="74"/>
+      <c r="D318" s="70"/>
+      <c r="E318" s="70"/>
+      <c r="F318" s="71"/>
     </row>
     <row r="319" spans="1:6" ht="18" thickBot="1">
       <c r="C319" s="29" t="s">
@@ -10620,12 +10622,12 @@
       <c r="F321" s="30"/>
     </row>
     <row r="322" spans="1:6" ht="27" thickBot="1">
-      <c r="C322" s="75" t="s">
+      <c r="C322" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D322" s="75"/>
-      <c r="E322" s="75"/>
-      <c r="F322" s="75"/>
+      <c r="D322" s="72"/>
+      <c r="E322" s="72"/>
+      <c r="F322" s="72"/>
     </row>
     <row r="323" spans="1:6" ht="18" thickBot="1">
       <c r="C323" s="29" t="s">
@@ -10701,28 +10703,28 @@
       <c r="B331" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C331" s="94" t="s">
+      <c r="C331" s="76" t="s">
         <v>374</v>
       </c>
-      <c r="D331" s="95"/>
-      <c r="E331" s="95"/>
-      <c r="F331" s="96"/>
+      <c r="D331" s="77"/>
+      <c r="E331" s="77"/>
+      <c r="F331" s="78"/>
     </row>
     <row r="332" spans="1:6" ht="18" thickBot="1">
-      <c r="C332" s="66" t="s">
+      <c r="C332" s="73" t="s">
         <v>388</v>
       </c>
-      <c r="D332" s="67"/>
-      <c r="E332" s="67"/>
-      <c r="F332" s="68"/>
+      <c r="D332" s="74"/>
+      <c r="E332" s="74"/>
+      <c r="F332" s="75"/>
     </row>
     <row r="333" spans="1:6" ht="27" thickBot="1">
-      <c r="C333" s="69" t="s">
+      <c r="C333" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D333" s="70"/>
-      <c r="E333" s="70"/>
-      <c r="F333" s="71"/>
+      <c r="D333" s="67"/>
+      <c r="E333" s="67"/>
+      <c r="F333" s="68"/>
     </row>
     <row r="334" spans="1:6" ht="18" thickBot="1">
       <c r="C334" s="25" t="s">
@@ -10763,12 +10765,12 @@
       <c r="F336" s="27"/>
     </row>
     <row r="337" spans="1:6" ht="27" thickBot="1">
-      <c r="C337" s="72" t="s">
+      <c r="C337" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D337" s="73"/>
-      <c r="E337" s="73"/>
-      <c r="F337" s="74"/>
+      <c r="D337" s="70"/>
+      <c r="E337" s="70"/>
+      <c r="F337" s="71"/>
     </row>
     <row r="338" spans="1:6" ht="18" thickBot="1">
       <c r="C338" s="29" t="s">
@@ -10813,12 +10815,12 @@
       </c>
     </row>
     <row r="341" spans="1:6" ht="27" thickBot="1">
-      <c r="C341" s="75" t="s">
+      <c r="C341" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D341" s="75"/>
-      <c r="E341" s="75"/>
-      <c r="F341" s="75"/>
+      <c r="D341" s="72"/>
+      <c r="E341" s="72"/>
+      <c r="F341" s="72"/>
     </row>
     <row r="342" spans="1:6" ht="18" thickBot="1">
       <c r="C342" s="29" t="s">
@@ -10894,28 +10896,28 @@
       <c r="B350" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C350" s="94" t="s">
+      <c r="C350" s="76" t="s">
         <v>375</v>
       </c>
-      <c r="D350" s="95"/>
-      <c r="E350" s="95"/>
-      <c r="F350" s="96"/>
+      <c r="D350" s="77"/>
+      <c r="E350" s="77"/>
+      <c r="F350" s="78"/>
     </row>
     <row r="351" spans="1:6" ht="18" thickBot="1">
-      <c r="C351" s="66" t="s">
+      <c r="C351" s="73" t="s">
         <v>387</v>
       </c>
-      <c r="D351" s="67"/>
-      <c r="E351" s="67"/>
-      <c r="F351" s="68"/>
+      <c r="D351" s="74"/>
+      <c r="E351" s="74"/>
+      <c r="F351" s="75"/>
     </row>
     <row r="352" spans="1:6" ht="27" thickBot="1">
-      <c r="C352" s="69" t="s">
+      <c r="C352" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D352" s="70"/>
-      <c r="E352" s="70"/>
-      <c r="F352" s="71"/>
+      <c r="D352" s="67"/>
+      <c r="E352" s="67"/>
+      <c r="F352" s="68"/>
     </row>
     <row r="353" spans="3:6" ht="18" thickBot="1">
       <c r="C353" s="25" t="s">
@@ -10956,12 +10958,12 @@
       <c r="F355" s="27"/>
     </row>
     <row r="356" spans="3:6" ht="27" thickBot="1">
-      <c r="C356" s="72" t="s">
+      <c r="C356" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D356" s="73"/>
-      <c r="E356" s="73"/>
-      <c r="F356" s="74"/>
+      <c r="D356" s="70"/>
+      <c r="E356" s="70"/>
+      <c r="F356" s="71"/>
     </row>
     <row r="357" spans="3:6" ht="18" thickBot="1">
       <c r="C357" s="29" t="s">
@@ -11006,12 +11008,12 @@
       </c>
     </row>
     <row r="360" spans="3:6" ht="27" thickBot="1">
-      <c r="C360" s="75" t="s">
+      <c r="C360" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D360" s="75"/>
-      <c r="E360" s="75"/>
-      <c r="F360" s="75"/>
+      <c r="D360" s="72"/>
+      <c r="E360" s="72"/>
+      <c r="F360" s="72"/>
     </row>
     <row r="361" spans="3:6" ht="18" thickBot="1">
       <c r="C361" s="29" t="s">
@@ -11087,28 +11089,28 @@
       <c r="B369" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C369" s="94" t="s">
+      <c r="C369" s="76" t="s">
         <v>377</v>
       </c>
-      <c r="D369" s="95"/>
-      <c r="E369" s="95"/>
-      <c r="F369" s="96"/>
+      <c r="D369" s="77"/>
+      <c r="E369" s="77"/>
+      <c r="F369" s="78"/>
     </row>
     <row r="370" spans="1:6" ht="18" thickBot="1">
-      <c r="C370" s="66" t="s">
+      <c r="C370" s="73" t="s">
         <v>382</v>
       </c>
-      <c r="D370" s="67"/>
-      <c r="E370" s="67"/>
-      <c r="F370" s="68"/>
+      <c r="D370" s="74"/>
+      <c r="E370" s="74"/>
+      <c r="F370" s="75"/>
     </row>
     <row r="371" spans="1:6" ht="27" thickBot="1">
-      <c r="C371" s="69" t="s">
+      <c r="C371" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D371" s="70"/>
-      <c r="E371" s="70"/>
-      <c r="F371" s="71"/>
+      <c r="D371" s="67"/>
+      <c r="E371" s="67"/>
+      <c r="F371" s="68"/>
     </row>
     <row r="372" spans="1:6" ht="18" thickBot="1">
       <c r="C372" s="25" t="s">
@@ -11149,12 +11151,12 @@
       <c r="F374" s="27"/>
     </row>
     <row r="375" spans="1:6" ht="27" thickBot="1">
-      <c r="C375" s="72" t="s">
+      <c r="C375" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D375" s="73"/>
-      <c r="E375" s="73"/>
-      <c r="F375" s="74"/>
+      <c r="D375" s="70"/>
+      <c r="E375" s="70"/>
+      <c r="F375" s="71"/>
     </row>
     <row r="376" spans="1:6" ht="18" thickBot="1">
       <c r="C376" s="29" t="s">
@@ -11191,12 +11193,12 @@
       <c r="F378" s="30"/>
     </row>
     <row r="379" spans="1:6" ht="27" thickBot="1">
-      <c r="C379" s="75" t="s">
+      <c r="C379" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D379" s="75"/>
-      <c r="E379" s="75"/>
-      <c r="F379" s="75"/>
+      <c r="D379" s="72"/>
+      <c r="E379" s="72"/>
+      <c r="F379" s="72"/>
     </row>
     <row r="380" spans="1:6" ht="18" thickBot="1">
       <c r="C380" s="29" t="s">
@@ -11272,28 +11274,28 @@
       <c r="B388" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C388" s="94" t="s">
+      <c r="C388" s="76" t="s">
         <v>376</v>
       </c>
-      <c r="D388" s="95"/>
-      <c r="E388" s="95"/>
-      <c r="F388" s="96"/>
+      <c r="D388" s="77"/>
+      <c r="E388" s="77"/>
+      <c r="F388" s="78"/>
     </row>
     <row r="389" spans="1:6" ht="18" thickBot="1">
-      <c r="C389" s="66" t="s">
+      <c r="C389" s="73" t="s">
         <v>381</v>
       </c>
-      <c r="D389" s="67"/>
-      <c r="E389" s="67"/>
-      <c r="F389" s="68"/>
+      <c r="D389" s="74"/>
+      <c r="E389" s="74"/>
+      <c r="F389" s="75"/>
     </row>
     <row r="390" spans="1:6" ht="27" thickBot="1">
-      <c r="C390" s="69" t="s">
+      <c r="C390" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D390" s="70"/>
-      <c r="E390" s="70"/>
-      <c r="F390" s="71"/>
+      <c r="D390" s="67"/>
+      <c r="E390" s="67"/>
+      <c r="F390" s="68"/>
     </row>
     <row r="391" spans="1:6" ht="18" thickBot="1">
       <c r="C391" s="25" t="s">
@@ -11334,12 +11336,12 @@
       <c r="F393" s="27"/>
     </row>
     <row r="394" spans="1:6" ht="27" thickBot="1">
-      <c r="C394" s="72" t="s">
+      <c r="C394" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D394" s="73"/>
-      <c r="E394" s="73"/>
-      <c r="F394" s="74"/>
+      <c r="D394" s="70"/>
+      <c r="E394" s="70"/>
+      <c r="F394" s="71"/>
     </row>
     <row r="395" spans="1:6" ht="18" thickBot="1">
       <c r="C395" s="29" t="s">
@@ -11384,12 +11386,12 @@
       </c>
     </row>
     <row r="398" spans="1:6" ht="27" thickBot="1">
-      <c r="C398" s="75" t="s">
+      <c r="C398" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D398" s="75"/>
-      <c r="E398" s="75"/>
-      <c r="F398" s="75"/>
+      <c r="D398" s="72"/>
+      <c r="E398" s="72"/>
+      <c r="F398" s="72"/>
     </row>
     <row r="399" spans="1:6" ht="18" thickBot="1">
       <c r="C399" s="29" t="s">
@@ -11465,28 +11467,28 @@
       <c r="B407" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C407" s="94" t="s">
+      <c r="C407" s="76" t="s">
         <v>379</v>
       </c>
-      <c r="D407" s="95"/>
-      <c r="E407" s="95"/>
-      <c r="F407" s="96"/>
+      <c r="D407" s="77"/>
+      <c r="E407" s="77"/>
+      <c r="F407" s="78"/>
     </row>
     <row r="408" spans="1:6" ht="18" thickBot="1">
-      <c r="C408" s="66" t="s">
+      <c r="C408" s="73" t="s">
         <v>380</v>
       </c>
-      <c r="D408" s="67"/>
-      <c r="E408" s="67"/>
-      <c r="F408" s="68"/>
+      <c r="D408" s="74"/>
+      <c r="E408" s="74"/>
+      <c r="F408" s="75"/>
     </row>
     <row r="409" spans="1:6" ht="27" thickBot="1">
-      <c r="C409" s="69" t="s">
+      <c r="C409" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D409" s="70"/>
-      <c r="E409" s="70"/>
-      <c r="F409" s="71"/>
+      <c r="D409" s="67"/>
+      <c r="E409" s="67"/>
+      <c r="F409" s="68"/>
     </row>
     <row r="410" spans="1:6" ht="18" thickBot="1">
       <c r="C410" s="25" t="s">
@@ -11527,12 +11529,12 @@
       <c r="F412" s="27"/>
     </row>
     <row r="413" spans="1:6" ht="27" thickBot="1">
-      <c r="C413" s="72" t="s">
+      <c r="C413" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D413" s="73"/>
-      <c r="E413" s="73"/>
-      <c r="F413" s="74"/>
+      <c r="D413" s="70"/>
+      <c r="E413" s="70"/>
+      <c r="F413" s="71"/>
     </row>
     <row r="414" spans="1:6" ht="18" thickBot="1">
       <c r="C414" s="29" t="s">
@@ -11705,12 +11707,12 @@
       </c>
     </row>
     <row r="425" spans="1:6" ht="27" thickBot="1">
-      <c r="C425" s="75" t="s">
+      <c r="C425" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D425" s="75"/>
-      <c r="E425" s="75"/>
-      <c r="F425" s="75"/>
+      <c r="D425" s="72"/>
+      <c r="E425" s="72"/>
+      <c r="F425" s="72"/>
     </row>
     <row r="426" spans="1:6" ht="18" thickBot="1">
       <c r="C426" s="29" t="s">
@@ -11786,28 +11788,28 @@
       <c r="B434" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C434" s="94" t="s">
+      <c r="C434" s="76" t="s">
         <v>383</v>
       </c>
-      <c r="D434" s="95"/>
-      <c r="E434" s="95"/>
-      <c r="F434" s="96"/>
+      <c r="D434" s="77"/>
+      <c r="E434" s="77"/>
+      <c r="F434" s="78"/>
     </row>
     <row r="435" spans="1:6" ht="18" thickBot="1">
-      <c r="C435" s="66" t="s">
+      <c r="C435" s="73" t="s">
         <v>384</v>
       </c>
-      <c r="D435" s="67"/>
-      <c r="E435" s="67"/>
-      <c r="F435" s="68"/>
+      <c r="D435" s="74"/>
+      <c r="E435" s="74"/>
+      <c r="F435" s="75"/>
     </row>
     <row r="436" spans="1:6" ht="27" thickBot="1">
-      <c r="C436" s="69" t="s">
+      <c r="C436" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D436" s="70"/>
-      <c r="E436" s="70"/>
-      <c r="F436" s="71"/>
+      <c r="D436" s="67"/>
+      <c r="E436" s="67"/>
+      <c r="F436" s="68"/>
     </row>
     <row r="437" spans="1:6" ht="18" thickBot="1">
       <c r="C437" s="25" t="s">
@@ -11848,12 +11850,12 @@
       <c r="F439" s="27"/>
     </row>
     <row r="440" spans="1:6" ht="27" thickBot="1">
-      <c r="C440" s="72" t="s">
+      <c r="C440" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D440" s="73"/>
-      <c r="E440" s="73"/>
-      <c r="F440" s="74"/>
+      <c r="D440" s="70"/>
+      <c r="E440" s="70"/>
+      <c r="F440" s="71"/>
     </row>
     <row r="441" spans="1:6" ht="18" thickBot="1">
       <c r="C441" s="29" t="s">
@@ -12030,12 +12032,12 @@
       </c>
     </row>
     <row r="452" spans="1:6" ht="27" thickBot="1">
-      <c r="C452" s="75" t="s">
+      <c r="C452" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D452" s="75"/>
-      <c r="E452" s="75"/>
-      <c r="F452" s="75"/>
+      <c r="D452" s="72"/>
+      <c r="E452" s="72"/>
+      <c r="F452" s="72"/>
     </row>
     <row r="453" spans="1:6" ht="18" thickBot="1">
       <c r="C453" s="29" t="s">
@@ -12111,28 +12113,28 @@
       <c r="B461" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C461" s="94" t="s">
+      <c r="C461" s="76" t="s">
         <v>385</v>
       </c>
-      <c r="D461" s="95"/>
-      <c r="E461" s="95"/>
-      <c r="F461" s="96"/>
+      <c r="D461" s="77"/>
+      <c r="E461" s="77"/>
+      <c r="F461" s="78"/>
     </row>
     <row r="462" spans="1:6" ht="18" thickBot="1">
-      <c r="C462" s="66" t="s">
+      <c r="C462" s="73" t="s">
         <v>386</v>
       </c>
-      <c r="D462" s="67"/>
-      <c r="E462" s="67"/>
-      <c r="F462" s="68"/>
+      <c r="D462" s="74"/>
+      <c r="E462" s="74"/>
+      <c r="F462" s="75"/>
     </row>
     <row r="463" spans="1:6" ht="27" thickBot="1">
-      <c r="C463" s="69" t="s">
+      <c r="C463" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D463" s="70"/>
-      <c r="E463" s="70"/>
-      <c r="F463" s="71"/>
+      <c r="D463" s="67"/>
+      <c r="E463" s="67"/>
+      <c r="F463" s="68"/>
     </row>
     <row r="464" spans="1:6" ht="18" thickBot="1">
       <c r="C464" s="25" t="s">
@@ -12173,12 +12175,12 @@
       <c r="F466" s="27"/>
     </row>
     <row r="467" spans="1:6" ht="27" thickBot="1">
-      <c r="C467" s="72" t="s">
+      <c r="C467" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D467" s="73"/>
-      <c r="E467" s="73"/>
-      <c r="F467" s="74"/>
+      <c r="D467" s="70"/>
+      <c r="E467" s="70"/>
+      <c r="F467" s="71"/>
     </row>
     <row r="468" spans="1:6" ht="18" thickBot="1">
       <c r="C468" s="29" t="s">
@@ -12223,12 +12225,12 @@
       </c>
     </row>
     <row r="471" spans="1:6" ht="27" thickBot="1">
-      <c r="C471" s="75" t="s">
+      <c r="C471" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D471" s="75"/>
-      <c r="E471" s="75"/>
-      <c r="F471" s="75"/>
+      <c r="D471" s="72"/>
+      <c r="E471" s="72"/>
+      <c r="F471" s="72"/>
     </row>
     <row r="472" spans="1:6" ht="18" thickBot="1">
       <c r="C472" s="29" t="s">
@@ -12304,28 +12306,28 @@
       <c r="B480" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C480" s="94" t="s">
+      <c r="C480" s="76" t="s">
         <v>396</v>
       </c>
-      <c r="D480" s="95"/>
-      <c r="E480" s="95"/>
-      <c r="F480" s="96"/>
+      <c r="D480" s="77"/>
+      <c r="E480" s="77"/>
+      <c r="F480" s="78"/>
     </row>
     <row r="481" spans="3:6" ht="18" thickBot="1">
-      <c r="C481" s="66" t="s">
+      <c r="C481" s="73" t="s">
         <v>393</v>
       </c>
-      <c r="D481" s="67"/>
-      <c r="E481" s="67"/>
-      <c r="F481" s="68"/>
+      <c r="D481" s="74"/>
+      <c r="E481" s="74"/>
+      <c r="F481" s="75"/>
     </row>
     <row r="482" spans="3:6" ht="27" thickBot="1">
-      <c r="C482" s="69" t="s">
+      <c r="C482" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D482" s="70"/>
-      <c r="E482" s="70"/>
-      <c r="F482" s="71"/>
+      <c r="D482" s="67"/>
+      <c r="E482" s="67"/>
+      <c r="F482" s="68"/>
     </row>
     <row r="483" spans="3:6" ht="18" thickBot="1">
       <c r="C483" s="25" t="s">
@@ -12366,12 +12368,12 @@
       <c r="F485" s="27"/>
     </row>
     <row r="486" spans="3:6" ht="27" thickBot="1">
-      <c r="C486" s="72" t="s">
+      <c r="C486" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D486" s="73"/>
-      <c r="E486" s="73"/>
-      <c r="F486" s="74"/>
+      <c r="D486" s="70"/>
+      <c r="E486" s="70"/>
+      <c r="F486" s="71"/>
     </row>
     <row r="487" spans="3:6" ht="18" thickBot="1">
       <c r="C487" s="29" t="s">
@@ -12408,12 +12410,12 @@
       <c r="F489" s="30"/>
     </row>
     <row r="490" spans="3:6" ht="27" thickBot="1">
-      <c r="C490" s="75" t="s">
+      <c r="C490" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D490" s="75"/>
-      <c r="E490" s="75"/>
-      <c r="F490" s="75"/>
+      <c r="D490" s="72"/>
+      <c r="E490" s="72"/>
+      <c r="F490" s="72"/>
     </row>
     <row r="491" spans="3:6" ht="18" thickBot="1">
       <c r="C491" s="29" t="s">
@@ -12489,28 +12491,28 @@
       <c r="B499" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C499" s="94" t="s">
+      <c r="C499" s="76" t="s">
         <v>392</v>
       </c>
-      <c r="D499" s="95"/>
-      <c r="E499" s="95"/>
-      <c r="F499" s="96"/>
+      <c r="D499" s="77"/>
+      <c r="E499" s="77"/>
+      <c r="F499" s="78"/>
     </row>
     <row r="500" spans="1:6" ht="18" thickBot="1">
-      <c r="C500" s="66" t="s">
+      <c r="C500" s="73" t="s">
         <v>394</v>
       </c>
-      <c r="D500" s="67"/>
-      <c r="E500" s="67"/>
-      <c r="F500" s="68"/>
+      <c r="D500" s="74"/>
+      <c r="E500" s="74"/>
+      <c r="F500" s="75"/>
     </row>
     <row r="501" spans="1:6" ht="27" thickBot="1">
-      <c r="C501" s="69" t="s">
+      <c r="C501" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D501" s="70"/>
-      <c r="E501" s="70"/>
-      <c r="F501" s="71"/>
+      <c r="D501" s="67"/>
+      <c r="E501" s="67"/>
+      <c r="F501" s="68"/>
     </row>
     <row r="502" spans="1:6" ht="18" thickBot="1">
       <c r="C502" s="25" t="s">
@@ -12551,12 +12553,12 @@
       <c r="F504" s="27"/>
     </row>
     <row r="505" spans="1:6" ht="27" thickBot="1">
-      <c r="C505" s="72" t="s">
+      <c r="C505" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D505" s="73"/>
-      <c r="E505" s="73"/>
-      <c r="F505" s="74"/>
+      <c r="D505" s="70"/>
+      <c r="E505" s="70"/>
+      <c r="F505" s="71"/>
     </row>
     <row r="506" spans="1:6" ht="18" thickBot="1">
       <c r="C506" s="29" t="s">
@@ -12601,12 +12603,12 @@
       </c>
     </row>
     <row r="509" spans="1:6" ht="27" thickBot="1">
-      <c r="C509" s="75" t="s">
+      <c r="C509" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D509" s="75"/>
-      <c r="E509" s="75"/>
-      <c r="F509" s="75"/>
+      <c r="D509" s="72"/>
+      <c r="E509" s="72"/>
+      <c r="F509" s="72"/>
     </row>
     <row r="510" spans="1:6" ht="18" thickBot="1">
       <c r="C510" s="29" t="s">
@@ -12682,28 +12684,28 @@
       <c r="B518" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C518" s="94" t="s">
+      <c r="C518" s="76" t="s">
         <v>574</v>
       </c>
-      <c r="D518" s="95"/>
-      <c r="E518" s="95"/>
-      <c r="F518" s="96"/>
+      <c r="D518" s="77"/>
+      <c r="E518" s="77"/>
+      <c r="F518" s="78"/>
     </row>
     <row r="519" spans="1:6" ht="18" thickBot="1">
-      <c r="C519" s="66" t="s">
+      <c r="C519" s="73" t="s">
         <v>575</v>
       </c>
-      <c r="D519" s="67"/>
-      <c r="E519" s="67"/>
-      <c r="F519" s="68"/>
+      <c r="D519" s="74"/>
+      <c r="E519" s="74"/>
+      <c r="F519" s="75"/>
     </row>
     <row r="520" spans="1:6" ht="27" thickBot="1">
-      <c r="C520" s="69" t="s">
+      <c r="C520" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D520" s="70"/>
-      <c r="E520" s="70"/>
-      <c r="F520" s="71"/>
+      <c r="D520" s="67"/>
+      <c r="E520" s="67"/>
+      <c r="F520" s="68"/>
     </row>
     <row r="521" spans="1:6" ht="18" thickBot="1">
       <c r="C521" s="25" t="s">
@@ -12744,12 +12746,12 @@
       <c r="F523" s="27"/>
     </row>
     <row r="524" spans="1:6" ht="27" thickBot="1">
-      <c r="C524" s="72" t="s">
+      <c r="C524" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D524" s="73"/>
-      <c r="E524" s="73"/>
-      <c r="F524" s="74"/>
+      <c r="D524" s="70"/>
+      <c r="E524" s="70"/>
+      <c r="F524" s="71"/>
     </row>
     <row r="525" spans="1:6" ht="18" thickBot="1">
       <c r="C525" s="29" t="s">
@@ -12794,12 +12796,12 @@
       </c>
     </row>
     <row r="528" spans="1:6" ht="27" thickBot="1">
-      <c r="C528" s="75" t="s">
+      <c r="C528" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D528" s="75"/>
-      <c r="E528" s="75"/>
-      <c r="F528" s="75"/>
+      <c r="D528" s="72"/>
+      <c r="E528" s="72"/>
+      <c r="F528" s="72"/>
     </row>
     <row r="529" spans="1:6" ht="18" thickBot="1">
       <c r="C529" s="29" t="s">
@@ -12875,32 +12877,32 @@
       <c r="B536" s="33" t="s">
         <v>165</v>
       </c>
-      <c r="C536" s="94" t="s">
+      <c r="C536" s="76" t="s">
         <v>397</v>
       </c>
-      <c r="D536" s="95"/>
-      <c r="E536" s="95"/>
-      <c r="F536" s="96"/>
+      <c r="D536" s="77"/>
+      <c r="E536" s="77"/>
+      <c r="F536" s="78"/>
     </row>
     <row r="537" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A537" s="23"/>
       <c r="B537" s="23"/>
-      <c r="C537" s="66" t="s">
+      <c r="C537" s="73" t="s">
         <v>398</v>
       </c>
-      <c r="D537" s="67"/>
-      <c r="E537" s="67"/>
-      <c r="F537" s="68"/>
+      <c r="D537" s="74"/>
+      <c r="E537" s="74"/>
+      <c r="F537" s="75"/>
     </row>
     <row r="538" spans="1:6" s="12" customFormat="1" ht="27" thickBot="1">
       <c r="A538" s="23"/>
       <c r="B538" s="23"/>
-      <c r="C538" s="69" t="s">
+      <c r="C538" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D538" s="70"/>
-      <c r="E538" s="70"/>
-      <c r="F538" s="71"/>
+      <c r="D538" s="67"/>
+      <c r="E538" s="67"/>
+      <c r="F538" s="68"/>
     </row>
     <row r="539" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A539" s="23"/>
@@ -12949,12 +12951,12 @@
     <row r="542" spans="1:6" s="12" customFormat="1" ht="27" thickBot="1">
       <c r="A542" s="23"/>
       <c r="B542" s="23"/>
-      <c r="C542" s="72" t="s">
+      <c r="C542" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D542" s="73"/>
-      <c r="E542" s="73"/>
-      <c r="F542" s="74"/>
+      <c r="D542" s="70"/>
+      <c r="E542" s="70"/>
+      <c r="F542" s="71"/>
     </row>
     <row r="543" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A543" s="23"/>
@@ -13007,12 +13009,12 @@
     <row r="546" spans="1:6" s="12" customFormat="1" ht="27" thickBot="1">
       <c r="A546" s="23"/>
       <c r="B546" s="23"/>
-      <c r="C546" s="75" t="s">
+      <c r="C546" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D546" s="75"/>
-      <c r="E546" s="75"/>
-      <c r="F546" s="75"/>
+      <c r="D546" s="72"/>
+      <c r="E546" s="72"/>
+      <c r="F546" s="72"/>
     </row>
     <row r="547" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A547" s="23"/>
@@ -13107,28 +13109,28 @@
       <c r="B554" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="C554" s="91" t="s">
+      <c r="C554" s="82" t="s">
         <v>399</v>
       </c>
-      <c r="D554" s="92"/>
-      <c r="E554" s="92"/>
-      <c r="F554" s="93"/>
+      <c r="D554" s="83"/>
+      <c r="E554" s="83"/>
+      <c r="F554" s="84"/>
     </row>
     <row r="555" spans="1:6" ht="18" thickBot="1">
-      <c r="C555" s="66" t="s">
+      <c r="C555" s="73" t="s">
         <v>400</v>
       </c>
-      <c r="D555" s="67"/>
-      <c r="E555" s="67"/>
-      <c r="F555" s="68"/>
+      <c r="D555" s="74"/>
+      <c r="E555" s="74"/>
+      <c r="F555" s="75"/>
     </row>
     <row r="556" spans="1:6" ht="27" thickBot="1">
-      <c r="C556" s="69" t="s">
+      <c r="C556" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D556" s="70"/>
-      <c r="E556" s="70"/>
-      <c r="F556" s="71"/>
+      <c r="D556" s="67"/>
+      <c r="E556" s="67"/>
+      <c r="F556" s="68"/>
     </row>
     <row r="557" spans="1:6" ht="18" thickBot="1">
       <c r="C557" s="25" t="s">
@@ -13161,12 +13163,12 @@
       <c r="F559" s="27"/>
     </row>
     <row r="560" spans="1:6" ht="27" thickBot="1">
-      <c r="C560" s="72" t="s">
+      <c r="C560" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D560" s="73"/>
-      <c r="E560" s="73"/>
-      <c r="F560" s="74"/>
+      <c r="D560" s="70"/>
+      <c r="E560" s="70"/>
+      <c r="F560" s="71"/>
     </row>
     <row r="561" spans="1:6" ht="18" thickBot="1">
       <c r="C561" s="29" t="s">
@@ -13189,12 +13191,12 @@
       <c r="F562" s="30"/>
     </row>
     <row r="563" spans="1:6" ht="27" thickBot="1">
-      <c r="C563" s="75" t="s">
+      <c r="C563" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D563" s="75"/>
-      <c r="E563" s="75"/>
-      <c r="F563" s="75"/>
+      <c r="D563" s="72"/>
+      <c r="E563" s="72"/>
+      <c r="F563" s="72"/>
     </row>
     <row r="564" spans="1:6" ht="18" thickBot="1">
       <c r="C564" s="29" t="s">
@@ -13270,28 +13272,28 @@
       <c r="B572" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="C572" s="91" t="s">
+      <c r="C572" s="82" t="s">
         <v>401</v>
       </c>
-      <c r="D572" s="92"/>
-      <c r="E572" s="92"/>
-      <c r="F572" s="93"/>
+      <c r="D572" s="83"/>
+      <c r="E572" s="83"/>
+      <c r="F572" s="84"/>
     </row>
     <row r="573" spans="1:6" ht="18" thickBot="1">
-      <c r="C573" s="66" t="s">
+      <c r="C573" s="73" t="s">
         <v>402</v>
       </c>
-      <c r="D573" s="67"/>
-      <c r="E573" s="67"/>
-      <c r="F573" s="68"/>
+      <c r="D573" s="74"/>
+      <c r="E573" s="74"/>
+      <c r="F573" s="75"/>
     </row>
     <row r="574" spans="1:6" ht="27" thickBot="1">
-      <c r="C574" s="69" t="s">
+      <c r="C574" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D574" s="70"/>
-      <c r="E574" s="70"/>
-      <c r="F574" s="71"/>
+      <c r="D574" s="67"/>
+      <c r="E574" s="67"/>
+      <c r="F574" s="68"/>
     </row>
     <row r="575" spans="1:6" ht="18" thickBot="1">
       <c r="C575" s="25" t="s">
@@ -13324,12 +13326,12 @@
       <c r="F577" s="27"/>
     </row>
     <row r="578" spans="1:6" ht="27" thickBot="1">
-      <c r="C578" s="72" t="s">
+      <c r="C578" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D578" s="73"/>
-      <c r="E578" s="73"/>
-      <c r="F578" s="74"/>
+      <c r="D578" s="70"/>
+      <c r="E578" s="70"/>
+      <c r="F578" s="71"/>
     </row>
     <row r="579" spans="1:6" ht="18" thickBot="1">
       <c r="C579" s="29" t="s">
@@ -13360,12 +13362,12 @@
       </c>
     </row>
     <row r="581" spans="1:6" ht="27" thickBot="1">
-      <c r="C581" s="75" t="s">
+      <c r="C581" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D581" s="75"/>
-      <c r="E581" s="75"/>
-      <c r="F581" s="75"/>
+      <c r="D581" s="72"/>
+      <c r="E581" s="72"/>
+      <c r="F581" s="72"/>
     </row>
     <row r="582" spans="1:6" ht="18" thickBot="1">
       <c r="C582" s="29" t="s">
@@ -13441,28 +13443,28 @@
       <c r="B590" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="C590" s="91" t="s">
+      <c r="C590" s="82" t="s">
         <v>405</v>
       </c>
-      <c r="D590" s="92"/>
-      <c r="E590" s="92"/>
-      <c r="F590" s="93"/>
+      <c r="D590" s="83"/>
+      <c r="E590" s="83"/>
+      <c r="F590" s="84"/>
     </row>
     <row r="591" spans="1:6" ht="18" thickBot="1">
-      <c r="C591" s="66" t="s">
+      <c r="C591" s="73" t="s">
         <v>406</v>
       </c>
-      <c r="D591" s="67"/>
-      <c r="E591" s="67"/>
-      <c r="F591" s="68"/>
+      <c r="D591" s="74"/>
+      <c r="E591" s="74"/>
+      <c r="F591" s="75"/>
     </row>
     <row r="592" spans="1:6" ht="27" thickBot="1">
-      <c r="C592" s="69" t="s">
+      <c r="C592" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D592" s="70"/>
-      <c r="E592" s="70"/>
-      <c r="F592" s="71"/>
+      <c r="D592" s="67"/>
+      <c r="E592" s="67"/>
+      <c r="F592" s="68"/>
     </row>
     <row r="593" spans="1:6" ht="18" thickBot="1">
       <c r="C593" s="25" t="s">
@@ -13503,12 +13505,12 @@
       <c r="F595" s="27"/>
     </row>
     <row r="596" spans="1:6" ht="27" thickBot="1">
-      <c r="C596" s="72" t="s">
+      <c r="C596" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D596" s="73"/>
-      <c r="E596" s="73"/>
-      <c r="F596" s="74"/>
+      <c r="D596" s="70"/>
+      <c r="E596" s="70"/>
+      <c r="F596" s="71"/>
     </row>
     <row r="597" spans="1:6" ht="18" thickBot="1">
       <c r="C597" s="29" t="s">
@@ -13555,12 +13557,12 @@
       </c>
     </row>
     <row r="600" spans="1:6" ht="27" thickBot="1">
-      <c r="C600" s="75" t="s">
+      <c r="C600" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D600" s="75"/>
-      <c r="E600" s="75"/>
-      <c r="F600" s="75"/>
+      <c r="D600" s="72"/>
+      <c r="E600" s="72"/>
+      <c r="F600" s="72"/>
     </row>
     <row r="601" spans="1:6" ht="18" thickBot="1">
       <c r="C601" s="29" t="s">
@@ -13636,28 +13638,28 @@
       <c r="B609" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="C609" s="91" t="s">
+      <c r="C609" s="82" t="s">
         <v>407</v>
       </c>
-      <c r="D609" s="92"/>
-      <c r="E609" s="92"/>
-      <c r="F609" s="93"/>
+      <c r="D609" s="83"/>
+      <c r="E609" s="83"/>
+      <c r="F609" s="84"/>
     </row>
     <row r="610" spans="1:6" ht="18" thickBot="1">
-      <c r="C610" s="66" t="s">
+      <c r="C610" s="73" t="s">
         <v>408</v>
       </c>
-      <c r="D610" s="67"/>
-      <c r="E610" s="67"/>
-      <c r="F610" s="68"/>
+      <c r="D610" s="74"/>
+      <c r="E610" s="74"/>
+      <c r="F610" s="75"/>
     </row>
     <row r="611" spans="1:6" ht="27" thickBot="1">
-      <c r="C611" s="69" t="s">
+      <c r="C611" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D611" s="70"/>
-      <c r="E611" s="70"/>
-      <c r="F611" s="71"/>
+      <c r="D611" s="67"/>
+      <c r="E611" s="67"/>
+      <c r="F611" s="68"/>
     </row>
     <row r="612" spans="1:6" ht="18" thickBot="1">
       <c r="C612" s="25" t="s">
@@ -13698,12 +13700,12 @@
       <c r="F614" s="27"/>
     </row>
     <row r="615" spans="1:6" ht="27" thickBot="1">
-      <c r="C615" s="72" t="s">
+      <c r="C615" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D615" s="73"/>
-      <c r="E615" s="73"/>
-      <c r="F615" s="74"/>
+      <c r="D615" s="70"/>
+      <c r="E615" s="70"/>
+      <c r="F615" s="71"/>
     </row>
     <row r="616" spans="1:6" ht="18" thickBot="1">
       <c r="C616" s="29" t="s">
@@ -13748,12 +13750,12 @@
       </c>
     </row>
     <row r="619" spans="1:6" ht="27" thickBot="1">
-      <c r="C619" s="75" t="s">
+      <c r="C619" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D619" s="75"/>
-      <c r="E619" s="75"/>
-      <c r="F619" s="75"/>
+      <c r="D619" s="72"/>
+      <c r="E619" s="72"/>
+      <c r="F619" s="72"/>
     </row>
     <row r="620" spans="1:6" ht="18" thickBot="1">
       <c r="C620" s="29" t="s">
@@ -13829,32 +13831,32 @@
       <c r="B627" s="36" t="s">
         <v>167</v>
       </c>
-      <c r="C627" s="91" t="s">
+      <c r="C627" s="82" t="s">
         <v>577</v>
       </c>
-      <c r="D627" s="92"/>
-      <c r="E627" s="92"/>
-      <c r="F627" s="93"/>
+      <c r="D627" s="83"/>
+      <c r="E627" s="83"/>
+      <c r="F627" s="84"/>
     </row>
     <row r="628" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A628" s="23"/>
       <c r="B628" s="23"/>
-      <c r="C628" s="66" t="s">
+      <c r="C628" s="73" t="s">
         <v>578</v>
       </c>
-      <c r="D628" s="67"/>
-      <c r="E628" s="67"/>
-      <c r="F628" s="68"/>
+      <c r="D628" s="74"/>
+      <c r="E628" s="74"/>
+      <c r="F628" s="75"/>
     </row>
     <row r="629" spans="1:6" s="12" customFormat="1" ht="27" thickBot="1">
       <c r="A629" s="23"/>
       <c r="B629" s="23"/>
-      <c r="C629" s="69" t="s">
+      <c r="C629" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D629" s="70"/>
-      <c r="E629" s="70"/>
-      <c r="F629" s="71"/>
+      <c r="D629" s="67"/>
+      <c r="E629" s="67"/>
+      <c r="F629" s="68"/>
     </row>
     <row r="630" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A630" s="23"/>
@@ -13903,12 +13905,12 @@
     <row r="633" spans="1:6" s="12" customFormat="1" ht="27" thickBot="1">
       <c r="A633" s="23"/>
       <c r="B633" s="23"/>
-      <c r="C633" s="72" t="s">
+      <c r="C633" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D633" s="73"/>
-      <c r="E633" s="73"/>
-      <c r="F633" s="74"/>
+      <c r="D633" s="70"/>
+      <c r="E633" s="70"/>
+      <c r="F633" s="71"/>
     </row>
     <row r="634" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A634" s="23"/>
@@ -13961,12 +13963,12 @@
     <row r="637" spans="1:6" s="12" customFormat="1" ht="27" thickBot="1">
       <c r="A637" s="23"/>
       <c r="B637" s="23"/>
-      <c r="C637" s="75" t="s">
+      <c r="C637" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D637" s="75"/>
-      <c r="E637" s="75"/>
-      <c r="F637" s="75"/>
+      <c r="D637" s="72"/>
+      <c r="E637" s="72"/>
+      <c r="F637" s="72"/>
     </row>
     <row r="638" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A638" s="23"/>
@@ -14054,28 +14056,28 @@
       <c r="B645" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="C645" s="88" t="s">
+      <c r="C645" s="85" t="s">
         <v>409</v>
       </c>
-      <c r="D645" s="89"/>
-      <c r="E645" s="89"/>
-      <c r="F645" s="90"/>
+      <c r="D645" s="86"/>
+      <c r="E645" s="86"/>
+      <c r="F645" s="87"/>
     </row>
     <row r="646" spans="1:6" ht="18" thickBot="1">
-      <c r="C646" s="66" t="s">
+      <c r="C646" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="D646" s="67"/>
-      <c r="E646" s="67"/>
-      <c r="F646" s="68"/>
+      <c r="D646" s="74"/>
+      <c r="E646" s="74"/>
+      <c r="F646" s="75"/>
     </row>
     <row r="647" spans="1:6" ht="27" thickBot="1">
-      <c r="C647" s="69" t="s">
+      <c r="C647" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D647" s="70"/>
-      <c r="E647" s="70"/>
-      <c r="F647" s="71"/>
+      <c r="D647" s="67"/>
+      <c r="E647" s="67"/>
+      <c r="F647" s="68"/>
     </row>
     <row r="648" spans="1:6" ht="18" thickBot="1">
       <c r="C648" s="25" t="s">
@@ -14116,12 +14118,12 @@
       <c r="F650" s="27"/>
     </row>
     <row r="651" spans="1:6" ht="27" thickBot="1">
-      <c r="C651" s="72" t="s">
+      <c r="C651" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D651" s="73"/>
-      <c r="E651" s="73"/>
-      <c r="F651" s="74"/>
+      <c r="D651" s="70"/>
+      <c r="E651" s="70"/>
+      <c r="F651" s="71"/>
     </row>
     <row r="652" spans="1:6" ht="18" thickBot="1">
       <c r="C652" s="29" t="s">
@@ -14198,12 +14200,12 @@
       </c>
     </row>
     <row r="657" spans="1:6" ht="27" thickBot="1">
-      <c r="C657" s="75" t="s">
+      <c r="C657" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D657" s="75"/>
-      <c r="E657" s="75"/>
-      <c r="F657" s="75"/>
+      <c r="D657" s="72"/>
+      <c r="E657" s="72"/>
+      <c r="F657" s="72"/>
     </row>
     <row r="658" spans="1:6" ht="18" thickBot="1">
       <c r="C658" s="29" t="s">
@@ -14279,28 +14281,28 @@
       <c r="B666" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="C666" s="88" t="s">
+      <c r="C666" s="85" t="s">
         <v>410</v>
       </c>
-      <c r="D666" s="89"/>
-      <c r="E666" s="89"/>
-      <c r="F666" s="90"/>
+      <c r="D666" s="86"/>
+      <c r="E666" s="86"/>
+      <c r="F666" s="87"/>
     </row>
     <row r="667" spans="1:6" ht="18" thickBot="1">
-      <c r="C667" s="66" t="s">
+      <c r="C667" s="73" t="s">
         <v>411</v>
       </c>
-      <c r="D667" s="67"/>
-      <c r="E667" s="67"/>
-      <c r="F667" s="68"/>
+      <c r="D667" s="74"/>
+      <c r="E667" s="74"/>
+      <c r="F667" s="75"/>
     </row>
     <row r="668" spans="1:6" ht="27" thickBot="1">
-      <c r="C668" s="69" t="s">
+      <c r="C668" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D668" s="70"/>
-      <c r="E668" s="70"/>
-      <c r="F668" s="71"/>
+      <c r="D668" s="67"/>
+      <c r="E668" s="67"/>
+      <c r="F668" s="68"/>
     </row>
     <row r="669" spans="1:6" ht="18" thickBot="1">
       <c r="C669" s="25" t="s">
@@ -14341,12 +14343,12 @@
       <c r="F671" s="27"/>
     </row>
     <row r="672" spans="1:6" ht="27" thickBot="1">
-      <c r="C672" s="72" t="s">
+      <c r="C672" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D672" s="73"/>
-      <c r="E672" s="73"/>
-      <c r="F672" s="74"/>
+      <c r="D672" s="70"/>
+      <c r="E672" s="70"/>
+      <c r="F672" s="71"/>
     </row>
     <row r="673" spans="1:6" ht="18" thickBot="1">
       <c r="C673" s="29" t="s">
@@ -14415,12 +14417,12 @@
       <c r="F677" s="30"/>
     </row>
     <row r="678" spans="1:6" ht="27" thickBot="1">
-      <c r="C678" s="75" t="s">
+      <c r="C678" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D678" s="75"/>
-      <c r="E678" s="75"/>
-      <c r="F678" s="75"/>
+      <c r="D678" s="72"/>
+      <c r="E678" s="72"/>
+      <c r="F678" s="72"/>
     </row>
     <row r="679" spans="1:6" ht="18" thickBot="1">
       <c r="C679" s="29" t="s">
@@ -14496,28 +14498,28 @@
       <c r="B687" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="C687" s="88" t="s">
+      <c r="C687" s="85" t="s">
         <v>412</v>
       </c>
-      <c r="D687" s="89"/>
-      <c r="E687" s="89"/>
-      <c r="F687" s="90"/>
+      <c r="D687" s="86"/>
+      <c r="E687" s="86"/>
+      <c r="F687" s="87"/>
     </row>
     <row r="688" spans="1:6" ht="18" thickBot="1">
-      <c r="C688" s="66" t="s">
+      <c r="C688" s="73" t="s">
         <v>413</v>
       </c>
-      <c r="D688" s="67"/>
-      <c r="E688" s="67"/>
-      <c r="F688" s="68"/>
+      <c r="D688" s="74"/>
+      <c r="E688" s="74"/>
+      <c r="F688" s="75"/>
     </row>
     <row r="689" spans="3:6" ht="27" thickBot="1">
-      <c r="C689" s="69" t="s">
+      <c r="C689" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D689" s="70"/>
-      <c r="E689" s="70"/>
-      <c r="F689" s="71"/>
+      <c r="D689" s="67"/>
+      <c r="E689" s="67"/>
+      <c r="F689" s="68"/>
     </row>
     <row r="690" spans="3:6" ht="18" thickBot="1">
       <c r="C690" s="25" t="s">
@@ -14558,12 +14560,12 @@
       <c r="F692" s="27"/>
     </row>
     <row r="693" spans="3:6" ht="27" thickBot="1">
-      <c r="C693" s="72" t="s">
+      <c r="C693" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D693" s="73"/>
-      <c r="E693" s="73"/>
-      <c r="F693" s="74"/>
+      <c r="D693" s="70"/>
+      <c r="E693" s="70"/>
+      <c r="F693" s="71"/>
     </row>
     <row r="694" spans="3:6" ht="18" thickBot="1">
       <c r="C694" s="29" t="s">
@@ -14608,12 +14610,12 @@
       </c>
     </row>
     <row r="697" spans="3:6" ht="27" thickBot="1">
-      <c r="C697" s="75" t="s">
+      <c r="C697" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D697" s="75"/>
-      <c r="E697" s="75"/>
-      <c r="F697" s="75"/>
+      <c r="D697" s="72"/>
+      <c r="E697" s="72"/>
+      <c r="F697" s="72"/>
     </row>
     <row r="698" spans="3:6" ht="18" thickBot="1">
       <c r="C698" s="29" t="s">
@@ -14689,32 +14691,32 @@
       <c r="B705" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="C705" s="88" t="s">
+      <c r="C705" s="85" t="s">
         <v>583</v>
       </c>
-      <c r="D705" s="89"/>
-      <c r="E705" s="89"/>
-      <c r="F705" s="90"/>
+      <c r="D705" s="86"/>
+      <c r="E705" s="86"/>
+      <c r="F705" s="87"/>
     </row>
     <row r="706" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A706" s="23"/>
       <c r="B706" s="23"/>
-      <c r="C706" s="66" t="s">
+      <c r="C706" s="73" t="s">
         <v>584</v>
       </c>
-      <c r="D706" s="67"/>
-      <c r="E706" s="67"/>
-      <c r="F706" s="68"/>
+      <c r="D706" s="74"/>
+      <c r="E706" s="74"/>
+      <c r="F706" s="75"/>
     </row>
     <row r="707" spans="1:6" s="12" customFormat="1" ht="27" thickBot="1">
       <c r="A707" s="23"/>
       <c r="B707" s="23"/>
-      <c r="C707" s="69" t="s">
+      <c r="C707" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D707" s="70"/>
-      <c r="E707" s="70"/>
-      <c r="F707" s="71"/>
+      <c r="D707" s="67"/>
+      <c r="E707" s="67"/>
+      <c r="F707" s="68"/>
     </row>
     <row r="708" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A708" s="23"/>
@@ -14763,12 +14765,12 @@
     <row r="711" spans="1:6" s="12" customFormat="1" ht="27" thickBot="1">
       <c r="A711" s="23"/>
       <c r="B711" s="23"/>
-      <c r="C711" s="72" t="s">
+      <c r="C711" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D711" s="73"/>
-      <c r="E711" s="73"/>
-      <c r="F711" s="74"/>
+      <c r="D711" s="70"/>
+      <c r="E711" s="70"/>
+      <c r="F711" s="71"/>
     </row>
     <row r="712" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A712" s="23"/>
@@ -14821,12 +14823,12 @@
     <row r="715" spans="1:6" s="12" customFormat="1" ht="27" thickBot="1">
       <c r="A715" s="23"/>
       <c r="B715" s="23"/>
-      <c r="C715" s="75" t="s">
+      <c r="C715" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D715" s="75"/>
-      <c r="E715" s="75"/>
-      <c r="F715" s="75"/>
+      <c r="D715" s="72"/>
+      <c r="E715" s="72"/>
+      <c r="F715" s="72"/>
     </row>
     <row r="716" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A716" s="23"/>
@@ -14914,28 +14916,28 @@
       <c r="B723" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="C723" s="85" t="s">
+      <c r="C723" s="88" t="s">
         <v>415</v>
       </c>
-      <c r="D723" s="86"/>
-      <c r="E723" s="86"/>
-      <c r="F723" s="87"/>
+      <c r="D723" s="89"/>
+      <c r="E723" s="89"/>
+      <c r="F723" s="90"/>
     </row>
     <row r="724" spans="1:6" ht="18" thickBot="1">
-      <c r="C724" s="66" t="s">
+      <c r="C724" s="73" t="s">
         <v>416</v>
       </c>
-      <c r="D724" s="67"/>
-      <c r="E724" s="67"/>
-      <c r="F724" s="68"/>
+      <c r="D724" s="74"/>
+      <c r="E724" s="74"/>
+      <c r="F724" s="75"/>
     </row>
     <row r="725" spans="1:6" ht="27" thickBot="1">
-      <c r="C725" s="69" t="s">
+      <c r="C725" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D725" s="70"/>
-      <c r="E725" s="70"/>
-      <c r="F725" s="71"/>
+      <c r="D725" s="67"/>
+      <c r="E725" s="67"/>
+      <c r="F725" s="68"/>
     </row>
     <row r="726" spans="1:6" ht="18" thickBot="1">
       <c r="C726" s="25" t="s">
@@ -14976,12 +14978,12 @@
       <c r="F728" s="27"/>
     </row>
     <row r="729" spans="1:6" ht="27" thickBot="1">
-      <c r="C729" s="72" t="s">
+      <c r="C729" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D729" s="73"/>
-      <c r="E729" s="73"/>
-      <c r="F729" s="74"/>
+      <c r="D729" s="70"/>
+      <c r="E729" s="70"/>
+      <c r="F729" s="71"/>
     </row>
     <row r="730" spans="1:6" ht="18" thickBot="1">
       <c r="C730" s="29" t="s">
@@ -15050,12 +15052,12 @@
       <c r="F734" s="30"/>
     </row>
     <row r="735" spans="1:6" ht="27" thickBot="1">
-      <c r="C735" s="75" t="s">
+      <c r="C735" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D735" s="75"/>
-      <c r="E735" s="75"/>
-      <c r="F735" s="75"/>
+      <c r="D735" s="72"/>
+      <c r="E735" s="72"/>
+      <c r="F735" s="72"/>
     </row>
     <row r="736" spans="1:6" ht="18" thickBot="1">
       <c r="C736" s="29" t="s">
@@ -15131,28 +15133,28 @@
       <c r="B744" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="C744" s="85" t="s">
+      <c r="C744" s="88" t="s">
         <v>417</v>
       </c>
-      <c r="D744" s="86"/>
-      <c r="E744" s="86"/>
-      <c r="F744" s="87"/>
+      <c r="D744" s="89"/>
+      <c r="E744" s="89"/>
+      <c r="F744" s="90"/>
     </row>
     <row r="745" spans="1:6" ht="18" thickBot="1">
-      <c r="C745" s="66" t="s">
+      <c r="C745" s="73" t="s">
         <v>418</v>
       </c>
-      <c r="D745" s="67"/>
-      <c r="E745" s="67"/>
-      <c r="F745" s="68"/>
+      <c r="D745" s="74"/>
+      <c r="E745" s="74"/>
+      <c r="F745" s="75"/>
     </row>
     <row r="746" spans="1:6" ht="27" thickBot="1">
-      <c r="C746" s="69" t="s">
+      <c r="C746" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D746" s="70"/>
-      <c r="E746" s="70"/>
-      <c r="F746" s="71"/>
+      <c r="D746" s="67"/>
+      <c r="E746" s="67"/>
+      <c r="F746" s="68"/>
     </row>
     <row r="747" spans="1:6" ht="18" thickBot="1">
       <c r="C747" s="25" t="s">
@@ -15193,12 +15195,12 @@
       <c r="F749" s="27"/>
     </row>
     <row r="750" spans="1:6" ht="27" thickBot="1">
-      <c r="C750" s="72" t="s">
+      <c r="C750" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D750" s="73"/>
-      <c r="E750" s="73"/>
-      <c r="F750" s="74"/>
+      <c r="D750" s="70"/>
+      <c r="E750" s="70"/>
+      <c r="F750" s="71"/>
     </row>
     <row r="751" spans="1:6" ht="18" thickBot="1">
       <c r="C751" s="29" t="s">
@@ -15243,12 +15245,12 @@
       </c>
     </row>
     <row r="754" spans="1:6" ht="27" thickBot="1">
-      <c r="C754" s="75" t="s">
+      <c r="C754" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D754" s="75"/>
-      <c r="E754" s="75"/>
-      <c r="F754" s="75"/>
+      <c r="D754" s="72"/>
+      <c r="E754" s="72"/>
+      <c r="F754" s="72"/>
     </row>
     <row r="755" spans="1:6" ht="18" thickBot="1">
       <c r="C755" s="29" t="s">
@@ -15324,28 +15326,28 @@
       <c r="B763" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="C763" s="85" t="s">
+      <c r="C763" s="88" t="s">
         <v>420</v>
       </c>
-      <c r="D763" s="86"/>
-      <c r="E763" s="86"/>
-      <c r="F763" s="87"/>
+      <c r="D763" s="89"/>
+      <c r="E763" s="89"/>
+      <c r="F763" s="90"/>
     </row>
     <row r="764" spans="1:6" ht="18" thickBot="1">
-      <c r="C764" s="66" t="s">
+      <c r="C764" s="73" t="s">
         <v>421</v>
       </c>
-      <c r="D764" s="67"/>
-      <c r="E764" s="67"/>
-      <c r="F764" s="68"/>
+      <c r="D764" s="74"/>
+      <c r="E764" s="74"/>
+      <c r="F764" s="75"/>
     </row>
     <row r="765" spans="1:6" ht="27" thickBot="1">
-      <c r="C765" s="69" t="s">
+      <c r="C765" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D765" s="70"/>
-      <c r="E765" s="70"/>
-      <c r="F765" s="71"/>
+      <c r="D765" s="67"/>
+      <c r="E765" s="67"/>
+      <c r="F765" s="68"/>
     </row>
     <row r="766" spans="1:6" ht="18" thickBot="1">
       <c r="C766" s="25" t="s">
@@ -15386,12 +15388,12 @@
       <c r="F768" s="27"/>
     </row>
     <row r="769" spans="1:6" ht="27" thickBot="1">
-      <c r="C769" s="72" t="s">
+      <c r="C769" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D769" s="73"/>
-      <c r="E769" s="73"/>
-      <c r="F769" s="74"/>
+      <c r="D769" s="70"/>
+      <c r="E769" s="70"/>
+      <c r="F769" s="71"/>
     </row>
     <row r="770" spans="1:6" ht="18" thickBot="1">
       <c r="C770" s="29" t="s">
@@ -15452,12 +15454,12 @@
       </c>
     </row>
     <row r="774" spans="1:6" ht="27" thickBot="1">
-      <c r="C774" s="75" t="s">
+      <c r="C774" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D774" s="75"/>
-      <c r="E774" s="75"/>
-      <c r="F774" s="75"/>
+      <c r="D774" s="72"/>
+      <c r="E774" s="72"/>
+      <c r="F774" s="72"/>
     </row>
     <row r="775" spans="1:6" ht="18" thickBot="1">
       <c r="C775" s="29" t="s">
@@ -15533,28 +15535,28 @@
       <c r="B783" s="39" t="s">
         <v>171</v>
       </c>
-      <c r="C783" s="85" t="s">
+      <c r="C783" s="88" t="s">
         <v>423</v>
       </c>
-      <c r="D783" s="86"/>
-      <c r="E783" s="86"/>
-      <c r="F783" s="87"/>
+      <c r="D783" s="89"/>
+      <c r="E783" s="89"/>
+      <c r="F783" s="90"/>
     </row>
     <row r="784" spans="1:6" ht="18" thickBot="1">
-      <c r="C784" s="66" t="s">
+      <c r="C784" s="73" t="s">
         <v>424</v>
       </c>
-      <c r="D784" s="67"/>
-      <c r="E784" s="67"/>
-      <c r="F784" s="68"/>
+      <c r="D784" s="74"/>
+      <c r="E784" s="74"/>
+      <c r="F784" s="75"/>
     </row>
     <row r="785" spans="3:6" ht="27" thickBot="1">
-      <c r="C785" s="69" t="s">
+      <c r="C785" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D785" s="70"/>
-      <c r="E785" s="70"/>
-      <c r="F785" s="71"/>
+      <c r="D785" s="67"/>
+      <c r="E785" s="67"/>
+      <c r="F785" s="68"/>
     </row>
     <row r="786" spans="3:6" ht="18" thickBot="1">
       <c r="C786" s="25" t="s">
@@ -15595,12 +15597,12 @@
       <c r="F788" s="27"/>
     </row>
     <row r="789" spans="3:6" ht="27" thickBot="1">
-      <c r="C789" s="72" t="s">
+      <c r="C789" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D789" s="73"/>
-      <c r="E789" s="73"/>
-      <c r="F789" s="74"/>
+      <c r="D789" s="70"/>
+      <c r="E789" s="70"/>
+      <c r="F789" s="71"/>
     </row>
     <row r="790" spans="3:6" ht="18" thickBot="1">
       <c r="C790" s="29" t="s">
@@ -15637,12 +15639,12 @@
       <c r="F792" s="30"/>
     </row>
     <row r="793" spans="3:6" ht="27" thickBot="1">
-      <c r="C793" s="75" t="s">
+      <c r="C793" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D793" s="75"/>
-      <c r="E793" s="75"/>
-      <c r="F793" s="75"/>
+      <c r="D793" s="72"/>
+      <c r="E793" s="72"/>
+      <c r="F793" s="72"/>
     </row>
     <row r="794" spans="3:6" ht="18" thickBot="1">
       <c r="C794" s="29" t="s">
@@ -15717,28 +15719,28 @@
       <c r="B802" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="C802" s="82" t="s">
+      <c r="C802" s="91" t="s">
         <v>425</v>
       </c>
-      <c r="D802" s="83"/>
-      <c r="E802" s="83"/>
-      <c r="F802" s="84"/>
+      <c r="D802" s="92"/>
+      <c r="E802" s="92"/>
+      <c r="F802" s="93"/>
     </row>
     <row r="803" spans="1:6" ht="18" thickBot="1">
-      <c r="C803" s="66" t="s">
+      <c r="C803" s="73" t="s">
         <v>426</v>
       </c>
-      <c r="D803" s="67"/>
-      <c r="E803" s="67"/>
-      <c r="F803" s="68"/>
+      <c r="D803" s="74"/>
+      <c r="E803" s="74"/>
+      <c r="F803" s="75"/>
     </row>
     <row r="804" spans="1:6" ht="27" thickBot="1">
-      <c r="C804" s="69" t="s">
+      <c r="C804" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D804" s="70"/>
-      <c r="E804" s="70"/>
-      <c r="F804" s="71"/>
+      <c r="D804" s="67"/>
+      <c r="E804" s="67"/>
+      <c r="F804" s="68"/>
     </row>
     <row r="805" spans="1:6" ht="18" thickBot="1">
       <c r="C805" s="25" t="s">
@@ -15779,12 +15781,12 @@
       <c r="F807" s="27"/>
     </row>
     <row r="808" spans="1:6" ht="27" thickBot="1">
-      <c r="C808" s="72" t="s">
+      <c r="C808" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D808" s="73"/>
-      <c r="E808" s="73"/>
-      <c r="F808" s="74"/>
+      <c r="D808" s="70"/>
+      <c r="E808" s="70"/>
+      <c r="F808" s="71"/>
     </row>
     <row r="809" spans="1:6" ht="18" thickBot="1">
       <c r="C809" s="29" t="s">
@@ -15845,12 +15847,12 @@
       </c>
     </row>
     <row r="813" spans="1:6" ht="27" thickBot="1">
-      <c r="C813" s="75" t="s">
+      <c r="C813" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D813" s="75"/>
-      <c r="E813" s="75"/>
-      <c r="F813" s="75"/>
+      <c r="D813" s="72"/>
+      <c r="E813" s="72"/>
+      <c r="F813" s="72"/>
     </row>
     <row r="814" spans="1:6" ht="18" thickBot="1">
       <c r="C814" s="29" t="s">
@@ -15926,28 +15928,28 @@
       <c r="B822" s="40" t="s">
         <v>173</v>
       </c>
-      <c r="C822" s="82" t="s">
+      <c r="C822" s="91" t="s">
         <v>428</v>
       </c>
-      <c r="D822" s="83"/>
-      <c r="E822" s="83"/>
-      <c r="F822" s="84"/>
+      <c r="D822" s="92"/>
+      <c r="E822" s="92"/>
+      <c r="F822" s="93"/>
     </row>
     <row r="823" spans="1:6" ht="18" thickBot="1">
-      <c r="C823" s="66" t="s">
+      <c r="C823" s="73" t="s">
         <v>174</v>
       </c>
-      <c r="D823" s="67"/>
-      <c r="E823" s="67"/>
-      <c r="F823" s="68"/>
+      <c r="D823" s="74"/>
+      <c r="E823" s="74"/>
+      <c r="F823" s="75"/>
     </row>
     <row r="824" spans="1:6" ht="27" thickBot="1">
-      <c r="C824" s="69" t="s">
+      <c r="C824" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D824" s="70"/>
-      <c r="E824" s="70"/>
-      <c r="F824" s="71"/>
+      <c r="D824" s="67"/>
+      <c r="E824" s="67"/>
+      <c r="F824" s="68"/>
     </row>
     <row r="825" spans="1:6" ht="18" thickBot="1">
       <c r="C825" s="25" t="s">
@@ -15988,12 +15990,12 @@
       <c r="F827" s="27"/>
     </row>
     <row r="828" spans="1:6" ht="27" thickBot="1">
-      <c r="C828" s="72" t="s">
+      <c r="C828" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D828" s="73"/>
-      <c r="E828" s="73"/>
-      <c r="F828" s="74"/>
+      <c r="D828" s="70"/>
+      <c r="E828" s="70"/>
+      <c r="F828" s="71"/>
     </row>
     <row r="829" spans="1:6" ht="18" thickBot="1">
       <c r="C829" s="29" t="s">
@@ -16038,12 +16040,12 @@
       </c>
     </row>
     <row r="832" spans="1:6" ht="27" thickBot="1">
-      <c r="C832" s="75" t="s">
+      <c r="C832" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D832" s="75"/>
-      <c r="E832" s="75"/>
-      <c r="F832" s="75"/>
+      <c r="D832" s="72"/>
+      <c r="E832" s="72"/>
+      <c r="F832" s="72"/>
     </row>
     <row r="833" spans="1:6" ht="18" thickBot="1">
       <c r="C833" s="29" t="s">
@@ -16119,28 +16121,28 @@
       <c r="B841" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="C841" s="79" t="s">
+      <c r="C841" s="94" t="s">
         <v>429</v>
       </c>
-      <c r="D841" s="80"/>
-      <c r="E841" s="80"/>
-      <c r="F841" s="81"/>
+      <c r="D841" s="95"/>
+      <c r="E841" s="95"/>
+      <c r="F841" s="96"/>
     </row>
     <row r="842" spans="1:6" ht="18" thickBot="1">
-      <c r="C842" s="66" t="s">
+      <c r="C842" s="73" t="s">
         <v>596</v>
       </c>
-      <c r="D842" s="67"/>
-      <c r="E842" s="67"/>
-      <c r="F842" s="68"/>
+      <c r="D842" s="74"/>
+      <c r="E842" s="74"/>
+      <c r="F842" s="75"/>
     </row>
     <row r="843" spans="1:6" ht="27" thickBot="1">
-      <c r="C843" s="69" t="s">
+      <c r="C843" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D843" s="70"/>
-      <c r="E843" s="70"/>
-      <c r="F843" s="71"/>
+      <c r="D843" s="67"/>
+      <c r="E843" s="67"/>
+      <c r="F843" s="68"/>
     </row>
     <row r="844" spans="1:6" ht="18" thickBot="1">
       <c r="C844" s="25" t="s">
@@ -16181,12 +16183,12 @@
       <c r="F846" s="27"/>
     </row>
     <row r="847" spans="1:6" ht="27" thickBot="1">
-      <c r="C847" s="72" t="s">
+      <c r="C847" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D847" s="73"/>
-      <c r="E847" s="73"/>
-      <c r="F847" s="74"/>
+      <c r="D847" s="70"/>
+      <c r="E847" s="70"/>
+      <c r="F847" s="71"/>
     </row>
     <row r="848" spans="1:6" ht="18" thickBot="1">
       <c r="C848" s="29" t="s">
@@ -16223,12 +16225,12 @@
       <c r="F850" s="30"/>
     </row>
     <row r="851" spans="1:6" ht="27" thickBot="1">
-      <c r="C851" s="75" t="s">
+      <c r="C851" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D851" s="75"/>
-      <c r="E851" s="75"/>
-      <c r="F851" s="75"/>
+      <c r="D851" s="72"/>
+      <c r="E851" s="72"/>
+      <c r="F851" s="72"/>
     </row>
     <row r="852" spans="1:6" ht="18" thickBot="1">
       <c r="C852" s="29" t="s">
@@ -16304,28 +16306,28 @@
       <c r="B860" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="C860" s="79" t="s">
+      <c r="C860" s="94" t="s">
         <v>430</v>
       </c>
-      <c r="D860" s="80"/>
-      <c r="E860" s="80"/>
-      <c r="F860" s="81"/>
+      <c r="D860" s="95"/>
+      <c r="E860" s="95"/>
+      <c r="F860" s="96"/>
     </row>
     <row r="861" spans="1:6" ht="18" thickBot="1">
-      <c r="C861" s="66" t="s">
+      <c r="C861" s="73" t="s">
         <v>431</v>
       </c>
-      <c r="D861" s="67"/>
-      <c r="E861" s="67"/>
-      <c r="F861" s="68"/>
+      <c r="D861" s="74"/>
+      <c r="E861" s="74"/>
+      <c r="F861" s="75"/>
     </row>
     <row r="862" spans="1:6" ht="27" thickBot="1">
-      <c r="C862" s="69" t="s">
+      <c r="C862" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D862" s="70"/>
-      <c r="E862" s="70"/>
-      <c r="F862" s="71"/>
+      <c r="D862" s="67"/>
+      <c r="E862" s="67"/>
+      <c r="F862" s="68"/>
     </row>
     <row r="863" spans="1:6" ht="18" thickBot="1">
       <c r="C863" s="25" t="s">
@@ -16366,12 +16368,12 @@
       <c r="F865" s="27"/>
     </row>
     <row r="866" spans="1:6" ht="27" thickBot="1">
-      <c r="C866" s="72" t="s">
+      <c r="C866" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D866" s="73"/>
-      <c r="E866" s="73"/>
-      <c r="F866" s="74"/>
+      <c r="D866" s="70"/>
+      <c r="E866" s="70"/>
+      <c r="F866" s="71"/>
     </row>
     <row r="867" spans="1:6" ht="18" thickBot="1">
       <c r="C867" s="29" t="s">
@@ -16432,12 +16434,12 @@
       </c>
     </row>
     <row r="871" spans="1:6" ht="27" thickBot="1">
-      <c r="C871" s="75" t="s">
+      <c r="C871" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D871" s="75"/>
-      <c r="E871" s="75"/>
-      <c r="F871" s="75"/>
+      <c r="D871" s="72"/>
+      <c r="E871" s="72"/>
+      <c r="F871" s="72"/>
     </row>
     <row r="872" spans="1:6" ht="18" thickBot="1">
       <c r="C872" s="29" t="s">
@@ -16513,28 +16515,28 @@
       <c r="B880" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="C880" s="76" t="s">
+      <c r="C880" s="97" t="s">
         <v>433</v>
       </c>
-      <c r="D880" s="77"/>
-      <c r="E880" s="77"/>
-      <c r="F880" s="78"/>
+      <c r="D880" s="98"/>
+      <c r="E880" s="98"/>
+      <c r="F880" s="99"/>
     </row>
     <row r="881" spans="1:6" ht="18" thickBot="1">
-      <c r="C881" s="66" t="s">
+      <c r="C881" s="73" t="s">
         <v>434</v>
       </c>
-      <c r="D881" s="67"/>
-      <c r="E881" s="67"/>
-      <c r="F881" s="68"/>
+      <c r="D881" s="74"/>
+      <c r="E881" s="74"/>
+      <c r="F881" s="75"/>
     </row>
     <row r="882" spans="1:6" ht="27" thickBot="1">
-      <c r="C882" s="69" t="s">
+      <c r="C882" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D882" s="70"/>
-      <c r="E882" s="70"/>
-      <c r="F882" s="71"/>
+      <c r="D882" s="67"/>
+      <c r="E882" s="67"/>
+      <c r="F882" s="68"/>
     </row>
     <row r="883" spans="1:6" ht="18" thickBot="1">
       <c r="C883" s="25" t="s">
@@ -16567,12 +16569,12 @@
       <c r="F885" s="27"/>
     </row>
     <row r="886" spans="1:6" ht="27" thickBot="1">
-      <c r="C886" s="72" t="s">
+      <c r="C886" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D886" s="73"/>
-      <c r="E886" s="73"/>
-      <c r="F886" s="74"/>
+      <c r="D886" s="70"/>
+      <c r="E886" s="70"/>
+      <c r="F886" s="71"/>
     </row>
     <row r="887" spans="1:6" ht="18" thickBot="1">
       <c r="C887" s="29" t="s">
@@ -16621,12 +16623,12 @@
       </c>
     </row>
     <row r="890" spans="1:6" ht="27" thickBot="1">
-      <c r="C890" s="75" t="s">
+      <c r="C890" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D890" s="75"/>
-      <c r="E890" s="75"/>
-      <c r="F890" s="75"/>
+      <c r="D890" s="72"/>
+      <c r="E890" s="72"/>
+      <c r="F890" s="72"/>
     </row>
     <row r="891" spans="1:6" ht="18" thickBot="1">
       <c r="C891" s="29" t="s">
@@ -16702,28 +16704,28 @@
       <c r="B899" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="C899" s="76" t="s">
+      <c r="C899" s="97" t="s">
         <v>435</v>
       </c>
-      <c r="D899" s="77"/>
-      <c r="E899" s="77"/>
-      <c r="F899" s="78"/>
+      <c r="D899" s="98"/>
+      <c r="E899" s="98"/>
+      <c r="F899" s="99"/>
     </row>
     <row r="900" spans="1:6" ht="18" thickBot="1">
-      <c r="C900" s="66" t="s">
+      <c r="C900" s="73" t="s">
         <v>436</v>
       </c>
-      <c r="D900" s="67"/>
-      <c r="E900" s="67"/>
-      <c r="F900" s="68"/>
+      <c r="D900" s="74"/>
+      <c r="E900" s="74"/>
+      <c r="F900" s="75"/>
     </row>
     <row r="901" spans="1:6" ht="27" thickBot="1">
-      <c r="C901" s="69" t="s">
+      <c r="C901" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D901" s="70"/>
-      <c r="E901" s="70"/>
-      <c r="F901" s="71"/>
+      <c r="D901" s="67"/>
+      <c r="E901" s="67"/>
+      <c r="F901" s="68"/>
     </row>
     <row r="902" spans="1:6" ht="18" thickBot="1">
       <c r="C902" s="25" t="s">
@@ -16756,12 +16758,12 @@
       <c r="F904" s="27"/>
     </row>
     <row r="905" spans="1:6" ht="27" thickBot="1">
-      <c r="C905" s="72" t="s">
+      <c r="C905" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D905" s="73"/>
-      <c r="E905" s="73"/>
-      <c r="F905" s="74"/>
+      <c r="D905" s="70"/>
+      <c r="E905" s="70"/>
+      <c r="F905" s="71"/>
     </row>
     <row r="906" spans="1:6" ht="18" thickBot="1">
       <c r="C906" s="29" t="s">
@@ -16792,12 +16794,12 @@
       </c>
     </row>
     <row r="908" spans="1:6" ht="27" thickBot="1">
-      <c r="C908" s="75" t="s">
+      <c r="C908" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D908" s="75"/>
-      <c r="E908" s="75"/>
-      <c r="F908" s="75"/>
+      <c r="D908" s="72"/>
+      <c r="E908" s="72"/>
+      <c r="F908" s="72"/>
     </row>
     <row r="909" spans="1:6" ht="18" thickBot="1">
       <c r="C909" s="29" t="s">
@@ -16873,28 +16875,28 @@
       <c r="B917" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="C917" s="76" t="s">
+      <c r="C917" s="97" t="s">
         <v>600</v>
       </c>
-      <c r="D917" s="77"/>
-      <c r="E917" s="77"/>
-      <c r="F917" s="78"/>
+      <c r="D917" s="98"/>
+      <c r="E917" s="98"/>
+      <c r="F917" s="99"/>
     </row>
     <row r="918" spans="1:6" ht="18" thickBot="1">
-      <c r="C918" s="66" t="s">
+      <c r="C918" s="73" t="s">
         <v>601</v>
       </c>
-      <c r="D918" s="67"/>
-      <c r="E918" s="67"/>
-      <c r="F918" s="68"/>
+      <c r="D918" s="74"/>
+      <c r="E918" s="74"/>
+      <c r="F918" s="75"/>
     </row>
     <row r="919" spans="1:6" ht="27" thickBot="1">
-      <c r="C919" s="69" t="s">
+      <c r="C919" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D919" s="70"/>
-      <c r="E919" s="70"/>
-      <c r="F919" s="71"/>
+      <c r="D919" s="67"/>
+      <c r="E919" s="67"/>
+      <c r="F919" s="68"/>
     </row>
     <row r="920" spans="1:6" ht="18" thickBot="1">
       <c r="C920" s="25" t="s">
@@ -16935,12 +16937,12 @@
       <c r="F922" s="27"/>
     </row>
     <row r="923" spans="1:6" ht="27" thickBot="1">
-      <c r="C923" s="72" t="s">
+      <c r="C923" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D923" s="73"/>
-      <c r="E923" s="73"/>
-      <c r="F923" s="74"/>
+      <c r="D923" s="70"/>
+      <c r="E923" s="70"/>
+      <c r="F923" s="71"/>
     </row>
     <row r="924" spans="1:6" ht="18" thickBot="1">
       <c r="C924" s="29" t="s">
@@ -17003,12 +17005,12 @@
       </c>
     </row>
     <row r="928" spans="1:6" ht="27" thickBot="1">
-      <c r="C928" s="75" t="s">
+      <c r="C928" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D928" s="75"/>
-      <c r="E928" s="75"/>
-      <c r="F928" s="75"/>
+      <c r="D928" s="72"/>
+      <c r="E928" s="72"/>
+      <c r="F928" s="72"/>
     </row>
     <row r="929" spans="1:6" ht="18" thickBot="1">
       <c r="C929" s="29" t="s">
@@ -17084,32 +17086,32 @@
       <c r="B936" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="C936" s="76" t="s">
+      <c r="C936" s="97" t="s">
         <v>602</v>
       </c>
-      <c r="D936" s="77"/>
-      <c r="E936" s="77"/>
-      <c r="F936" s="78"/>
+      <c r="D936" s="98"/>
+      <c r="E936" s="98"/>
+      <c r="F936" s="99"/>
     </row>
     <row r="937" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A937" s="23"/>
       <c r="B937" s="23"/>
-      <c r="C937" s="66" t="s">
+      <c r="C937" s="73" t="s">
         <v>603</v>
       </c>
-      <c r="D937" s="67"/>
-      <c r="E937" s="67"/>
-      <c r="F937" s="68"/>
+      <c r="D937" s="74"/>
+      <c r="E937" s="74"/>
+      <c r="F937" s="75"/>
     </row>
     <row r="938" spans="1:6" s="12" customFormat="1" ht="27" thickBot="1">
       <c r="A938" s="23"/>
       <c r="B938" s="23"/>
-      <c r="C938" s="69" t="s">
+      <c r="C938" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D938" s="70"/>
-      <c r="E938" s="70"/>
-      <c r="F938" s="71"/>
+      <c r="D938" s="67"/>
+      <c r="E938" s="67"/>
+      <c r="F938" s="68"/>
     </row>
     <row r="939" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A939" s="23"/>
@@ -17158,12 +17160,12 @@
     <row r="942" spans="1:6" s="12" customFormat="1" ht="27" thickBot="1">
       <c r="A942" s="23"/>
       <c r="B942" s="23"/>
-      <c r="C942" s="72" t="s">
+      <c r="C942" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D942" s="73"/>
-      <c r="E942" s="73"/>
-      <c r="F942" s="74"/>
+      <c r="D942" s="70"/>
+      <c r="E942" s="70"/>
+      <c r="F942" s="71"/>
     </row>
     <row r="943" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A943" s="23"/>
@@ -17216,12 +17218,12 @@
     <row r="946" spans="1:6" s="12" customFormat="1" ht="27" thickBot="1">
       <c r="A946" s="23"/>
       <c r="B946" s="23"/>
-      <c r="C946" s="75" t="s">
+      <c r="C946" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D946" s="75"/>
-      <c r="E946" s="75"/>
-      <c r="F946" s="75"/>
+      <c r="D946" s="72"/>
+      <c r="E946" s="72"/>
+      <c r="F946" s="72"/>
     </row>
     <row r="947" spans="1:6" s="12" customFormat="1" ht="18" thickBot="1">
       <c r="A947" s="23"/>
@@ -17309,28 +17311,28 @@
       <c r="B954" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="C954" s="63" t="s">
+      <c r="C954" s="100" t="s">
         <v>439</v>
       </c>
-      <c r="D954" s="64"/>
-      <c r="E954" s="64"/>
-      <c r="F954" s="65"/>
+      <c r="D954" s="101"/>
+      <c r="E954" s="101"/>
+      <c r="F954" s="102"/>
     </row>
     <row r="955" spans="1:6" ht="18" thickBot="1">
-      <c r="C955" s="66" t="s">
+      <c r="C955" s="73" t="s">
         <v>440</v>
       </c>
-      <c r="D955" s="67"/>
-      <c r="E955" s="67"/>
-      <c r="F955" s="68"/>
+      <c r="D955" s="74"/>
+      <c r="E955" s="74"/>
+      <c r="F955" s="75"/>
     </row>
     <row r="956" spans="1:6" ht="27" thickBot="1">
-      <c r="C956" s="69" t="s">
+      <c r="C956" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D956" s="70"/>
-      <c r="E956" s="70"/>
-      <c r="F956" s="71"/>
+      <c r="D956" s="67"/>
+      <c r="E956" s="67"/>
+      <c r="F956" s="68"/>
     </row>
     <row r="957" spans="1:6" ht="18" thickBot="1">
       <c r="C957" s="25" t="s">
@@ -17363,12 +17365,12 @@
       <c r="F959" s="27"/>
     </row>
     <row r="960" spans="1:6" ht="27" thickBot="1">
-      <c r="C960" s="72" t="s">
+      <c r="C960" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D960" s="73"/>
-      <c r="E960" s="73"/>
-      <c r="F960" s="74"/>
+      <c r="D960" s="70"/>
+      <c r="E960" s="70"/>
+      <c r="F960" s="71"/>
     </row>
     <row r="961" spans="1:6" ht="18" thickBot="1">
       <c r="C961" s="29" t="s">
@@ -17423,12 +17425,12 @@
       <c r="F964" s="30"/>
     </row>
     <row r="965" spans="1:6" ht="27" thickBot="1">
-      <c r="C965" s="75" t="s">
+      <c r="C965" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D965" s="75"/>
-      <c r="E965" s="75"/>
-      <c r="F965" s="75"/>
+      <c r="D965" s="72"/>
+      <c r="E965" s="72"/>
+      <c r="F965" s="72"/>
     </row>
     <row r="966" spans="1:6" ht="18" thickBot="1">
       <c r="C966" s="29" t="s">
@@ -17504,28 +17506,28 @@
       <c r="B974" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="C974" s="63" t="s">
+      <c r="C974" s="100" t="s">
         <v>441</v>
       </c>
-      <c r="D974" s="64"/>
-      <c r="E974" s="64"/>
-      <c r="F974" s="65"/>
+      <c r="D974" s="101"/>
+      <c r="E974" s="101"/>
+      <c r="F974" s="102"/>
     </row>
     <row r="975" spans="1:6" ht="18" thickBot="1">
-      <c r="C975" s="66" t="s">
+      <c r="C975" s="73" t="s">
         <v>442</v>
       </c>
-      <c r="D975" s="67"/>
-      <c r="E975" s="67"/>
-      <c r="F975" s="68"/>
+      <c r="D975" s="74"/>
+      <c r="E975" s="74"/>
+      <c r="F975" s="75"/>
     </row>
     <row r="976" spans="1:6" ht="27" thickBot="1">
-      <c r="C976" s="69" t="s">
+      <c r="C976" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D976" s="70"/>
-      <c r="E976" s="70"/>
-      <c r="F976" s="71"/>
+      <c r="D976" s="67"/>
+      <c r="E976" s="67"/>
+      <c r="F976" s="68"/>
     </row>
     <row r="977" spans="3:6" ht="18" thickBot="1">
       <c r="C977" s="25" t="s">
@@ -17558,12 +17560,12 @@
       <c r="F979" s="27"/>
     </row>
     <row r="980" spans="3:6" ht="27" thickBot="1">
-      <c r="C980" s="72" t="s">
+      <c r="C980" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D980" s="73"/>
-      <c r="E980" s="73"/>
-      <c r="F980" s="74"/>
+      <c r="D980" s="70"/>
+      <c r="E980" s="70"/>
+      <c r="F980" s="71"/>
     </row>
     <row r="981" spans="3:6" ht="18" thickBot="1">
       <c r="C981" s="29" t="s">
@@ -17600,12 +17602,12 @@
       <c r="F983" s="30"/>
     </row>
     <row r="984" spans="3:6" ht="27" thickBot="1">
-      <c r="C984" s="75" t="s">
+      <c r="C984" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D984" s="75"/>
-      <c r="E984" s="75"/>
-      <c r="F984" s="75"/>
+      <c r="D984" s="72"/>
+      <c r="E984" s="72"/>
+      <c r="F984" s="72"/>
     </row>
     <row r="985" spans="3:6" ht="18" thickBot="1">
       <c r="C985" s="29" t="s">
@@ -17681,28 +17683,28 @@
       <c r="B994" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="C994" s="63" t="s">
+      <c r="C994" s="100" t="s">
         <v>444</v>
       </c>
-      <c r="D994" s="64"/>
-      <c r="E994" s="64"/>
-      <c r="F994" s="65"/>
+      <c r="D994" s="101"/>
+      <c r="E994" s="101"/>
+      <c r="F994" s="102"/>
     </row>
     <row r="995" spans="1:6" ht="18" thickBot="1">
-      <c r="C995" s="66" t="s">
+      <c r="C995" s="73" t="s">
         <v>445</v>
       </c>
-      <c r="D995" s="67"/>
-      <c r="E995" s="67"/>
-      <c r="F995" s="68"/>
+      <c r="D995" s="74"/>
+      <c r="E995" s="74"/>
+      <c r="F995" s="75"/>
     </row>
     <row r="996" spans="1:6" ht="27" thickBot="1">
-      <c r="C996" s="69" t="s">
+      <c r="C996" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D996" s="70"/>
-      <c r="E996" s="70"/>
-      <c r="F996" s="71"/>
+      <c r="D996" s="67"/>
+      <c r="E996" s="67"/>
+      <c r="F996" s="68"/>
     </row>
     <row r="997" spans="1:6" ht="18" thickBot="1">
       <c r="C997" s="25" t="s">
@@ -17743,12 +17745,12 @@
       <c r="F999" s="27"/>
     </row>
     <row r="1000" spans="1:6" ht="27" thickBot="1">
-      <c r="C1000" s="72" t="s">
+      <c r="C1000" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D1000" s="73"/>
-      <c r="E1000" s="73"/>
-      <c r="F1000" s="74"/>
+      <c r="D1000" s="70"/>
+      <c r="E1000" s="70"/>
+      <c r="F1000" s="71"/>
     </row>
     <row r="1001" spans="1:6" ht="18" thickBot="1">
       <c r="C1001" s="29" t="s">
@@ -17809,12 +17811,12 @@
       </c>
     </row>
     <row r="1005" spans="1:6" ht="27" thickBot="1">
-      <c r="C1005" s="75" t="s">
+      <c r="C1005" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D1005" s="75"/>
-      <c r="E1005" s="75"/>
-      <c r="F1005" s="75"/>
+      <c r="D1005" s="72"/>
+      <c r="E1005" s="72"/>
+      <c r="F1005" s="72"/>
     </row>
     <row r="1006" spans="1:6" ht="18" thickBot="1">
       <c r="C1006" s="29" t="s">
@@ -17890,28 +17892,28 @@
       <c r="B1014" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="C1014" s="63" t="s">
+      <c r="C1014" s="100" t="s">
         <v>447</v>
       </c>
-      <c r="D1014" s="64"/>
-      <c r="E1014" s="64"/>
-      <c r="F1014" s="65"/>
+      <c r="D1014" s="101"/>
+      <c r="E1014" s="101"/>
+      <c r="F1014" s="102"/>
     </row>
     <row r="1015" spans="1:6" ht="18" thickBot="1">
-      <c r="C1015" s="66" t="s">
+      <c r="C1015" s="73" t="s">
         <v>448</v>
       </c>
-      <c r="D1015" s="67"/>
-      <c r="E1015" s="67"/>
-      <c r="F1015" s="68"/>
+      <c r="D1015" s="74"/>
+      <c r="E1015" s="74"/>
+      <c r="F1015" s="75"/>
     </row>
     <row r="1016" spans="1:6" ht="27" thickBot="1">
-      <c r="C1016" s="69" t="s">
+      <c r="C1016" s="66" t="s">
         <v>279</v>
       </c>
-      <c r="D1016" s="70"/>
-      <c r="E1016" s="70"/>
-      <c r="F1016" s="71"/>
+      <c r="D1016" s="67"/>
+      <c r="E1016" s="67"/>
+      <c r="F1016" s="68"/>
     </row>
     <row r="1017" spans="1:6" ht="18" thickBot="1">
       <c r="C1017" s="25" t="s">
@@ -17952,12 +17954,12 @@
       <c r="F1019" s="27"/>
     </row>
     <row r="1020" spans="1:6" ht="27" thickBot="1">
-      <c r="C1020" s="72" t="s">
+      <c r="C1020" s="69" t="s">
         <v>285</v>
       </c>
-      <c r="D1020" s="73"/>
-      <c r="E1020" s="73"/>
-      <c r="F1020" s="74"/>
+      <c r="D1020" s="70"/>
+      <c r="E1020" s="70"/>
+      <c r="F1020" s="71"/>
     </row>
     <row r="1021" spans="1:6" ht="18" thickBot="1">
       <c r="C1021" s="29" t="s">
@@ -18016,12 +18018,12 @@
       </c>
     </row>
     <row r="1025" spans="3:6" ht="27" thickBot="1">
-      <c r="C1025" s="75" t="s">
+      <c r="C1025" s="72" t="s">
         <v>288</v>
       </c>
-      <c r="D1025" s="75"/>
-      <c r="E1025" s="75"/>
-      <c r="F1025" s="75"/>
+      <c r="D1025" s="72"/>
+      <c r="E1025" s="72"/>
+      <c r="F1025" s="72"/>
     </row>
     <row r="1026" spans="3:6" ht="18" thickBot="1">
       <c r="C1026" s="29" t="s">
@@ -18091,86 +18093,220 @@
     </row>
   </sheetData>
   <mergeCells count="318">
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C16:C19"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C74:C77"/>
-    <mergeCell ref="C41:F41"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C52:C55"/>
-    <mergeCell ref="C59:F59"/>
-    <mergeCell ref="C60:F60"/>
-    <mergeCell ref="C61:F61"/>
-    <mergeCell ref="C64:F64"/>
-    <mergeCell ref="C72:F72"/>
-    <mergeCell ref="C110:C113"/>
-    <mergeCell ref="C81:F81"/>
-    <mergeCell ref="C82:F82"/>
-    <mergeCell ref="C83:F83"/>
-    <mergeCell ref="C87:F87"/>
-    <mergeCell ref="C90:F90"/>
-    <mergeCell ref="C92:C95"/>
-    <mergeCell ref="C99:F99"/>
-    <mergeCell ref="C100:F100"/>
-    <mergeCell ref="C101:F101"/>
-    <mergeCell ref="C105:F105"/>
-    <mergeCell ref="C108:F108"/>
-    <mergeCell ref="C165:C168"/>
-    <mergeCell ref="C117:F117"/>
-    <mergeCell ref="C118:F118"/>
-    <mergeCell ref="C119:F119"/>
-    <mergeCell ref="C123:F123"/>
-    <mergeCell ref="C127:F127"/>
-    <mergeCell ref="C129:C132"/>
-    <mergeCell ref="C153:F153"/>
-    <mergeCell ref="C154:F154"/>
-    <mergeCell ref="C155:F155"/>
-    <mergeCell ref="C159:F159"/>
-    <mergeCell ref="C163:F163"/>
-    <mergeCell ref="C135:F135"/>
-    <mergeCell ref="C136:F136"/>
-    <mergeCell ref="C137:F137"/>
-    <mergeCell ref="C141:F141"/>
-    <mergeCell ref="C145:F145"/>
-    <mergeCell ref="C147:C150"/>
-    <mergeCell ref="C209:C212"/>
-    <mergeCell ref="C172:F172"/>
-    <mergeCell ref="C173:F173"/>
-    <mergeCell ref="C174:F174"/>
-    <mergeCell ref="C178:F178"/>
-    <mergeCell ref="C187:F187"/>
-    <mergeCell ref="C189:C192"/>
-    <mergeCell ref="C196:F196"/>
-    <mergeCell ref="C197:F197"/>
-    <mergeCell ref="C198:F198"/>
-    <mergeCell ref="C202:F202"/>
-    <mergeCell ref="C207:F207"/>
-    <mergeCell ref="C256:F256"/>
-    <mergeCell ref="C236:F236"/>
-    <mergeCell ref="C237:F237"/>
-    <mergeCell ref="C216:F216"/>
-    <mergeCell ref="C217:F217"/>
-    <mergeCell ref="C218:F218"/>
-    <mergeCell ref="C222:F222"/>
-    <mergeCell ref="C226:F226"/>
-    <mergeCell ref="C228:C231"/>
-    <mergeCell ref="C235:F235"/>
-    <mergeCell ref="C241:F241"/>
-    <mergeCell ref="C246:F246"/>
-    <mergeCell ref="C248:C251"/>
-    <mergeCell ref="C255:F255"/>
+    <mergeCell ref="C1027:C1030"/>
+    <mergeCell ref="C1014:F1014"/>
+    <mergeCell ref="C1015:F1015"/>
+    <mergeCell ref="C1016:F1016"/>
+    <mergeCell ref="C1020:F1020"/>
+    <mergeCell ref="C1025:F1025"/>
+    <mergeCell ref="C995:F995"/>
+    <mergeCell ref="C996:F996"/>
+    <mergeCell ref="C1000:F1000"/>
+    <mergeCell ref="C1005:F1005"/>
+    <mergeCell ref="C1007:C1010"/>
+    <mergeCell ref="C976:F976"/>
+    <mergeCell ref="C980:F980"/>
+    <mergeCell ref="C984:F984"/>
+    <mergeCell ref="C986:C989"/>
+    <mergeCell ref="C994:F994"/>
+    <mergeCell ref="C960:F960"/>
+    <mergeCell ref="C965:F965"/>
+    <mergeCell ref="C967:C970"/>
+    <mergeCell ref="C974:F974"/>
+    <mergeCell ref="C975:F975"/>
+    <mergeCell ref="C928:F928"/>
+    <mergeCell ref="C930:C933"/>
+    <mergeCell ref="C954:F954"/>
+    <mergeCell ref="C955:F955"/>
+    <mergeCell ref="C956:F956"/>
+    <mergeCell ref="C910:C913"/>
+    <mergeCell ref="C917:F917"/>
+    <mergeCell ref="C918:F918"/>
+    <mergeCell ref="C919:F919"/>
+    <mergeCell ref="C923:F923"/>
+    <mergeCell ref="C936:F936"/>
+    <mergeCell ref="C937:F937"/>
+    <mergeCell ref="C938:F938"/>
+    <mergeCell ref="C942:F942"/>
+    <mergeCell ref="C946:F946"/>
+    <mergeCell ref="C948:C951"/>
+    <mergeCell ref="C899:F899"/>
+    <mergeCell ref="C900:F900"/>
+    <mergeCell ref="C901:F901"/>
+    <mergeCell ref="C905:F905"/>
+    <mergeCell ref="C908:F908"/>
+    <mergeCell ref="C881:F881"/>
+    <mergeCell ref="C882:F882"/>
+    <mergeCell ref="C886:F886"/>
+    <mergeCell ref="C890:F890"/>
+    <mergeCell ref="C892:C895"/>
+    <mergeCell ref="C862:F862"/>
+    <mergeCell ref="C866:F866"/>
+    <mergeCell ref="C871:F871"/>
+    <mergeCell ref="C873:C876"/>
+    <mergeCell ref="C880:F880"/>
+    <mergeCell ref="C847:F847"/>
+    <mergeCell ref="C851:F851"/>
+    <mergeCell ref="C853:C856"/>
+    <mergeCell ref="C860:F860"/>
+    <mergeCell ref="C861:F861"/>
+    <mergeCell ref="C832:F832"/>
+    <mergeCell ref="C834:C837"/>
+    <mergeCell ref="C841:F841"/>
+    <mergeCell ref="C842:F842"/>
+    <mergeCell ref="C843:F843"/>
+    <mergeCell ref="C822:F822"/>
+    <mergeCell ref="C823:F823"/>
+    <mergeCell ref="C824:F824"/>
+    <mergeCell ref="C828:F828"/>
+    <mergeCell ref="C802:F802"/>
+    <mergeCell ref="C789:F789"/>
+    <mergeCell ref="C793:F793"/>
+    <mergeCell ref="C795:C798"/>
+    <mergeCell ref="C803:F803"/>
+    <mergeCell ref="C804:F804"/>
+    <mergeCell ref="C808:F808"/>
+    <mergeCell ref="C813:F813"/>
+    <mergeCell ref="C815:C818"/>
+    <mergeCell ref="C774:F774"/>
+    <mergeCell ref="C776:C779"/>
+    <mergeCell ref="C783:F783"/>
+    <mergeCell ref="C784:F784"/>
+    <mergeCell ref="C785:F785"/>
+    <mergeCell ref="C756:C759"/>
+    <mergeCell ref="C763:F763"/>
+    <mergeCell ref="C764:F764"/>
+    <mergeCell ref="C765:F765"/>
+    <mergeCell ref="C769:F769"/>
+    <mergeCell ref="C744:F744"/>
+    <mergeCell ref="C745:F745"/>
+    <mergeCell ref="C746:F746"/>
+    <mergeCell ref="C750:F750"/>
+    <mergeCell ref="C754:F754"/>
+    <mergeCell ref="C724:F724"/>
+    <mergeCell ref="C725:F725"/>
+    <mergeCell ref="C729:F729"/>
+    <mergeCell ref="C735:F735"/>
+    <mergeCell ref="C737:C740"/>
+    <mergeCell ref="C689:F689"/>
+    <mergeCell ref="C693:F693"/>
+    <mergeCell ref="C697:F697"/>
+    <mergeCell ref="C699:C702"/>
+    <mergeCell ref="C723:F723"/>
+    <mergeCell ref="C672:F672"/>
+    <mergeCell ref="C678:F678"/>
+    <mergeCell ref="C680:C683"/>
+    <mergeCell ref="C687:F687"/>
+    <mergeCell ref="C688:F688"/>
+    <mergeCell ref="C705:F705"/>
+    <mergeCell ref="C706:F706"/>
+    <mergeCell ref="C707:F707"/>
+    <mergeCell ref="C711:F711"/>
+    <mergeCell ref="C715:F715"/>
+    <mergeCell ref="C717:C720"/>
+    <mergeCell ref="C657:F657"/>
+    <mergeCell ref="C659:C662"/>
+    <mergeCell ref="C666:F666"/>
+    <mergeCell ref="C667:F667"/>
+    <mergeCell ref="C668:F668"/>
+    <mergeCell ref="C621:C624"/>
+    <mergeCell ref="C645:F645"/>
+    <mergeCell ref="C646:F646"/>
+    <mergeCell ref="C647:F647"/>
+    <mergeCell ref="C651:F651"/>
+    <mergeCell ref="C627:F627"/>
+    <mergeCell ref="C628:F628"/>
+    <mergeCell ref="C629:F629"/>
+    <mergeCell ref="C633:F633"/>
+    <mergeCell ref="C637:F637"/>
+    <mergeCell ref="C639:C642"/>
+    <mergeCell ref="C609:F609"/>
+    <mergeCell ref="C610:F610"/>
+    <mergeCell ref="C611:F611"/>
+    <mergeCell ref="C615:F615"/>
+    <mergeCell ref="C619:F619"/>
+    <mergeCell ref="C591:F591"/>
+    <mergeCell ref="C592:F592"/>
+    <mergeCell ref="C596:F596"/>
+    <mergeCell ref="C600:F600"/>
+    <mergeCell ref="C602:C605"/>
+    <mergeCell ref="C574:F574"/>
+    <mergeCell ref="C578:F578"/>
+    <mergeCell ref="C581:F581"/>
+    <mergeCell ref="C583:C586"/>
+    <mergeCell ref="C590:F590"/>
+    <mergeCell ref="C560:F560"/>
+    <mergeCell ref="C563:F563"/>
+    <mergeCell ref="C565:C568"/>
+    <mergeCell ref="C572:F572"/>
+    <mergeCell ref="C573:F573"/>
+    <mergeCell ref="C528:F528"/>
+    <mergeCell ref="C530:C533"/>
+    <mergeCell ref="C554:F554"/>
+    <mergeCell ref="C555:F555"/>
+    <mergeCell ref="C556:F556"/>
+    <mergeCell ref="C511:C514"/>
+    <mergeCell ref="C518:F518"/>
+    <mergeCell ref="C519:F519"/>
+    <mergeCell ref="C520:F520"/>
+    <mergeCell ref="C524:F524"/>
+    <mergeCell ref="C536:F536"/>
+    <mergeCell ref="C537:F537"/>
+    <mergeCell ref="C538:F538"/>
+    <mergeCell ref="C542:F542"/>
+    <mergeCell ref="C546:F546"/>
+    <mergeCell ref="C548:C551"/>
+    <mergeCell ref="C499:F499"/>
+    <mergeCell ref="C500:F500"/>
+    <mergeCell ref="C501:F501"/>
+    <mergeCell ref="C505:F505"/>
+    <mergeCell ref="C509:F509"/>
+    <mergeCell ref="C481:F481"/>
+    <mergeCell ref="C482:F482"/>
+    <mergeCell ref="C486:F486"/>
+    <mergeCell ref="C490:F490"/>
+    <mergeCell ref="C492:C495"/>
+    <mergeCell ref="C463:F463"/>
+    <mergeCell ref="C467:F467"/>
+    <mergeCell ref="C471:F471"/>
+    <mergeCell ref="C473:C476"/>
+    <mergeCell ref="C480:F480"/>
+    <mergeCell ref="C440:F440"/>
+    <mergeCell ref="C452:F452"/>
+    <mergeCell ref="C454:C457"/>
+    <mergeCell ref="C461:F461"/>
+    <mergeCell ref="C462:F462"/>
+    <mergeCell ref="C425:F425"/>
+    <mergeCell ref="C427:C430"/>
+    <mergeCell ref="C434:F434"/>
+    <mergeCell ref="C435:F435"/>
+    <mergeCell ref="C436:F436"/>
+    <mergeCell ref="C400:C403"/>
+    <mergeCell ref="C407:F407"/>
+    <mergeCell ref="C408:F408"/>
+    <mergeCell ref="C409:F409"/>
+    <mergeCell ref="C413:F413"/>
+    <mergeCell ref="C388:F388"/>
+    <mergeCell ref="C389:F389"/>
+    <mergeCell ref="C390:F390"/>
+    <mergeCell ref="C394:F394"/>
+    <mergeCell ref="C398:F398"/>
+    <mergeCell ref="C369:F369"/>
+    <mergeCell ref="C375:F375"/>
+    <mergeCell ref="C379:F379"/>
+    <mergeCell ref="C381:C384"/>
+    <mergeCell ref="C333:F333"/>
+    <mergeCell ref="C337:F337"/>
+    <mergeCell ref="C341:F341"/>
+    <mergeCell ref="C343:C346"/>
+    <mergeCell ref="C360:F360"/>
+    <mergeCell ref="C362:C365"/>
+    <mergeCell ref="C370:F370"/>
+    <mergeCell ref="C371:F371"/>
+    <mergeCell ref="C350:F350"/>
+    <mergeCell ref="C351:F351"/>
+    <mergeCell ref="C352:F352"/>
+    <mergeCell ref="C356:F356"/>
     <mergeCell ref="C314:F314"/>
     <mergeCell ref="C318:F318"/>
     <mergeCell ref="C322:F322"/>
@@ -18195,220 +18331,86 @@
     <mergeCell ref="C299:F299"/>
     <mergeCell ref="C304:F304"/>
     <mergeCell ref="C306:C309"/>
-    <mergeCell ref="C333:F333"/>
-    <mergeCell ref="C337:F337"/>
-    <mergeCell ref="C341:F341"/>
-    <mergeCell ref="C343:C346"/>
-    <mergeCell ref="C360:F360"/>
-    <mergeCell ref="C362:C365"/>
-    <mergeCell ref="C370:F370"/>
-    <mergeCell ref="C371:F371"/>
-    <mergeCell ref="C350:F350"/>
-    <mergeCell ref="C351:F351"/>
-    <mergeCell ref="C352:F352"/>
-    <mergeCell ref="C356:F356"/>
-    <mergeCell ref="C388:F388"/>
-    <mergeCell ref="C389:F389"/>
-    <mergeCell ref="C390:F390"/>
-    <mergeCell ref="C394:F394"/>
-    <mergeCell ref="C398:F398"/>
-    <mergeCell ref="C369:F369"/>
-    <mergeCell ref="C375:F375"/>
-    <mergeCell ref="C379:F379"/>
-    <mergeCell ref="C381:C384"/>
-    <mergeCell ref="C425:F425"/>
-    <mergeCell ref="C427:C430"/>
-    <mergeCell ref="C434:F434"/>
-    <mergeCell ref="C435:F435"/>
-    <mergeCell ref="C436:F436"/>
-    <mergeCell ref="C400:C403"/>
-    <mergeCell ref="C407:F407"/>
-    <mergeCell ref="C408:F408"/>
-    <mergeCell ref="C409:F409"/>
-    <mergeCell ref="C413:F413"/>
-    <mergeCell ref="C463:F463"/>
-    <mergeCell ref="C467:F467"/>
-    <mergeCell ref="C471:F471"/>
-    <mergeCell ref="C473:C476"/>
-    <mergeCell ref="C480:F480"/>
-    <mergeCell ref="C440:F440"/>
-    <mergeCell ref="C452:F452"/>
-    <mergeCell ref="C454:C457"/>
-    <mergeCell ref="C461:F461"/>
-    <mergeCell ref="C462:F462"/>
-    <mergeCell ref="C499:F499"/>
-    <mergeCell ref="C500:F500"/>
-    <mergeCell ref="C501:F501"/>
-    <mergeCell ref="C505:F505"/>
-    <mergeCell ref="C509:F509"/>
-    <mergeCell ref="C481:F481"/>
-    <mergeCell ref="C482:F482"/>
-    <mergeCell ref="C486:F486"/>
-    <mergeCell ref="C490:F490"/>
-    <mergeCell ref="C492:C495"/>
-    <mergeCell ref="C528:F528"/>
-    <mergeCell ref="C530:C533"/>
-    <mergeCell ref="C554:F554"/>
-    <mergeCell ref="C555:F555"/>
-    <mergeCell ref="C556:F556"/>
-    <mergeCell ref="C511:C514"/>
-    <mergeCell ref="C518:F518"/>
-    <mergeCell ref="C519:F519"/>
-    <mergeCell ref="C520:F520"/>
-    <mergeCell ref="C524:F524"/>
-    <mergeCell ref="C536:F536"/>
-    <mergeCell ref="C537:F537"/>
-    <mergeCell ref="C538:F538"/>
-    <mergeCell ref="C542:F542"/>
-    <mergeCell ref="C546:F546"/>
-    <mergeCell ref="C548:C551"/>
-    <mergeCell ref="C574:F574"/>
-    <mergeCell ref="C578:F578"/>
-    <mergeCell ref="C581:F581"/>
-    <mergeCell ref="C583:C586"/>
-    <mergeCell ref="C590:F590"/>
-    <mergeCell ref="C560:F560"/>
-    <mergeCell ref="C563:F563"/>
-    <mergeCell ref="C565:C568"/>
-    <mergeCell ref="C572:F572"/>
-    <mergeCell ref="C573:F573"/>
-    <mergeCell ref="C609:F609"/>
-    <mergeCell ref="C610:F610"/>
-    <mergeCell ref="C611:F611"/>
-    <mergeCell ref="C615:F615"/>
-    <mergeCell ref="C619:F619"/>
-    <mergeCell ref="C591:F591"/>
-    <mergeCell ref="C592:F592"/>
-    <mergeCell ref="C596:F596"/>
-    <mergeCell ref="C600:F600"/>
-    <mergeCell ref="C602:C605"/>
-    <mergeCell ref="C657:F657"/>
-    <mergeCell ref="C659:C662"/>
-    <mergeCell ref="C666:F666"/>
-    <mergeCell ref="C667:F667"/>
-    <mergeCell ref="C668:F668"/>
-    <mergeCell ref="C621:C624"/>
-    <mergeCell ref="C645:F645"/>
-    <mergeCell ref="C646:F646"/>
-    <mergeCell ref="C647:F647"/>
-    <mergeCell ref="C651:F651"/>
-    <mergeCell ref="C627:F627"/>
-    <mergeCell ref="C628:F628"/>
-    <mergeCell ref="C629:F629"/>
-    <mergeCell ref="C633:F633"/>
-    <mergeCell ref="C637:F637"/>
-    <mergeCell ref="C639:C642"/>
-    <mergeCell ref="C689:F689"/>
-    <mergeCell ref="C693:F693"/>
-    <mergeCell ref="C697:F697"/>
-    <mergeCell ref="C699:C702"/>
-    <mergeCell ref="C723:F723"/>
-    <mergeCell ref="C672:F672"/>
-    <mergeCell ref="C678:F678"/>
-    <mergeCell ref="C680:C683"/>
-    <mergeCell ref="C687:F687"/>
-    <mergeCell ref="C688:F688"/>
-    <mergeCell ref="C705:F705"/>
-    <mergeCell ref="C706:F706"/>
-    <mergeCell ref="C707:F707"/>
-    <mergeCell ref="C711:F711"/>
-    <mergeCell ref="C715:F715"/>
-    <mergeCell ref="C717:C720"/>
-    <mergeCell ref="C744:F744"/>
-    <mergeCell ref="C745:F745"/>
-    <mergeCell ref="C746:F746"/>
-    <mergeCell ref="C750:F750"/>
-    <mergeCell ref="C754:F754"/>
-    <mergeCell ref="C724:F724"/>
-    <mergeCell ref="C725:F725"/>
-    <mergeCell ref="C729:F729"/>
-    <mergeCell ref="C735:F735"/>
-    <mergeCell ref="C737:C740"/>
-    <mergeCell ref="C774:F774"/>
-    <mergeCell ref="C776:C779"/>
-    <mergeCell ref="C783:F783"/>
-    <mergeCell ref="C784:F784"/>
-    <mergeCell ref="C785:F785"/>
-    <mergeCell ref="C756:C759"/>
-    <mergeCell ref="C763:F763"/>
-    <mergeCell ref="C764:F764"/>
-    <mergeCell ref="C765:F765"/>
-    <mergeCell ref="C769:F769"/>
-    <mergeCell ref="C802:F802"/>
-    <mergeCell ref="C789:F789"/>
-    <mergeCell ref="C793:F793"/>
-    <mergeCell ref="C795:C798"/>
-    <mergeCell ref="C803:F803"/>
-    <mergeCell ref="C804:F804"/>
-    <mergeCell ref="C808:F808"/>
-    <mergeCell ref="C813:F813"/>
-    <mergeCell ref="C815:C818"/>
-    <mergeCell ref="C832:F832"/>
-    <mergeCell ref="C834:C837"/>
-    <mergeCell ref="C841:F841"/>
-    <mergeCell ref="C842:F842"/>
-    <mergeCell ref="C843:F843"/>
-    <mergeCell ref="C822:F822"/>
-    <mergeCell ref="C823:F823"/>
-    <mergeCell ref="C824:F824"/>
-    <mergeCell ref="C828:F828"/>
-    <mergeCell ref="C862:F862"/>
-    <mergeCell ref="C866:F866"/>
-    <mergeCell ref="C871:F871"/>
-    <mergeCell ref="C873:C876"/>
-    <mergeCell ref="C880:F880"/>
-    <mergeCell ref="C847:F847"/>
-    <mergeCell ref="C851:F851"/>
-    <mergeCell ref="C853:C856"/>
-    <mergeCell ref="C860:F860"/>
-    <mergeCell ref="C861:F861"/>
-    <mergeCell ref="C899:F899"/>
-    <mergeCell ref="C900:F900"/>
-    <mergeCell ref="C901:F901"/>
-    <mergeCell ref="C905:F905"/>
-    <mergeCell ref="C908:F908"/>
-    <mergeCell ref="C881:F881"/>
-    <mergeCell ref="C882:F882"/>
-    <mergeCell ref="C886:F886"/>
-    <mergeCell ref="C890:F890"/>
-    <mergeCell ref="C892:C895"/>
-    <mergeCell ref="C928:F928"/>
-    <mergeCell ref="C930:C933"/>
-    <mergeCell ref="C954:F954"/>
-    <mergeCell ref="C955:F955"/>
-    <mergeCell ref="C956:F956"/>
-    <mergeCell ref="C910:C913"/>
-    <mergeCell ref="C917:F917"/>
-    <mergeCell ref="C918:F918"/>
-    <mergeCell ref="C919:F919"/>
-    <mergeCell ref="C923:F923"/>
-    <mergeCell ref="C936:F936"/>
-    <mergeCell ref="C937:F937"/>
-    <mergeCell ref="C938:F938"/>
-    <mergeCell ref="C942:F942"/>
-    <mergeCell ref="C946:F946"/>
-    <mergeCell ref="C948:C951"/>
-    <mergeCell ref="C976:F976"/>
-    <mergeCell ref="C980:F980"/>
-    <mergeCell ref="C984:F984"/>
-    <mergeCell ref="C986:C989"/>
-    <mergeCell ref="C994:F994"/>
-    <mergeCell ref="C960:F960"/>
-    <mergeCell ref="C965:F965"/>
-    <mergeCell ref="C967:C970"/>
-    <mergeCell ref="C974:F974"/>
-    <mergeCell ref="C975:F975"/>
-    <mergeCell ref="C1027:C1030"/>
-    <mergeCell ref="C1014:F1014"/>
-    <mergeCell ref="C1015:F1015"/>
-    <mergeCell ref="C1016:F1016"/>
-    <mergeCell ref="C1020:F1020"/>
-    <mergeCell ref="C1025:F1025"/>
-    <mergeCell ref="C995:F995"/>
-    <mergeCell ref="C996:F996"/>
-    <mergeCell ref="C1000:F1000"/>
-    <mergeCell ref="C1005:F1005"/>
-    <mergeCell ref="C1007:C1010"/>
+    <mergeCell ref="C256:F256"/>
+    <mergeCell ref="C236:F236"/>
+    <mergeCell ref="C237:F237"/>
+    <mergeCell ref="C216:F216"/>
+    <mergeCell ref="C217:F217"/>
+    <mergeCell ref="C218:F218"/>
+    <mergeCell ref="C222:F222"/>
+    <mergeCell ref="C226:F226"/>
+    <mergeCell ref="C228:C231"/>
+    <mergeCell ref="C235:F235"/>
+    <mergeCell ref="C241:F241"/>
+    <mergeCell ref="C246:F246"/>
+    <mergeCell ref="C248:C251"/>
+    <mergeCell ref="C255:F255"/>
+    <mergeCell ref="C209:C212"/>
+    <mergeCell ref="C172:F172"/>
+    <mergeCell ref="C173:F173"/>
+    <mergeCell ref="C174:F174"/>
+    <mergeCell ref="C178:F178"/>
+    <mergeCell ref="C187:F187"/>
+    <mergeCell ref="C189:C192"/>
+    <mergeCell ref="C196:F196"/>
+    <mergeCell ref="C197:F197"/>
+    <mergeCell ref="C198:F198"/>
+    <mergeCell ref="C202:F202"/>
+    <mergeCell ref="C207:F207"/>
+    <mergeCell ref="C165:C168"/>
+    <mergeCell ref="C117:F117"/>
+    <mergeCell ref="C118:F118"/>
+    <mergeCell ref="C119:F119"/>
+    <mergeCell ref="C123:F123"/>
+    <mergeCell ref="C127:F127"/>
+    <mergeCell ref="C129:C132"/>
+    <mergeCell ref="C153:F153"/>
+    <mergeCell ref="C154:F154"/>
+    <mergeCell ref="C155:F155"/>
+    <mergeCell ref="C159:F159"/>
+    <mergeCell ref="C163:F163"/>
+    <mergeCell ref="C135:F135"/>
+    <mergeCell ref="C136:F136"/>
+    <mergeCell ref="C137:F137"/>
+    <mergeCell ref="C141:F141"/>
+    <mergeCell ref="C145:F145"/>
+    <mergeCell ref="C147:C150"/>
+    <mergeCell ref="C110:C113"/>
+    <mergeCell ref="C81:F81"/>
+    <mergeCell ref="C82:F82"/>
+    <mergeCell ref="C83:F83"/>
+    <mergeCell ref="C87:F87"/>
+    <mergeCell ref="C90:F90"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="C99:F99"/>
+    <mergeCell ref="C100:F100"/>
+    <mergeCell ref="C101:F101"/>
+    <mergeCell ref="C105:F105"/>
+    <mergeCell ref="C108:F108"/>
+    <mergeCell ref="C74:C77"/>
+    <mergeCell ref="C41:F41"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C52:C55"/>
+    <mergeCell ref="C59:F59"/>
+    <mergeCell ref="C60:F60"/>
+    <mergeCell ref="C61:F61"/>
+    <mergeCell ref="C64:F64"/>
+    <mergeCell ref="C72:F72"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C16:C19"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C32:F32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
